--- a/data/02_intermediate/cleaned_Freeze_Corleone_songs.xlsx
+++ b/data/02_intermediate/cleaned_Freeze_Corleone_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO, NRM, 667 Han MMS, LDO 20-20 Menace Fantôme Ekip, ekip, ekip Freeze Raël Ekip, sur la prod', kicke comme Israel, fuck ces nègres comme Israël Chen Laden dans l'complot comme les Ben Laden, Chiraq comme JB Binladen J'les vois p'tits comme si j'étais 100 pieds Là-haut, on veut les VVS sur les dentiers Ice À propos des sommes comme les banquiers, investisseurs, architectes et chefs d chantier Damn J'veux l'biff comme Th Rock Han, 20-20, le rap, c'est satanique comme le rock Cali weed, Promethazine et le fer comme D-Block Europe Han Concurrence j'laisse que des mégots, j'suis là pour les dough, peine de mort pour les pédos Damn J'mixe le lin dans les Faygo, à Dakar, on empile les briques comme des Lego Cash Sur la corniche dans les foreigns Sku, sku, sku Menace Fantôme pour faire saigner tes oreilles, loud pack, négro, j'ai fumé des forêts Pétasse J'fume des Runtz et des Gelati Rital dans l'milieu comme Marco Verratti, gros aqua d'loud dans la Maserati Sku Quoi qu'il arrive, j'prends ma part, Chen Zen aka TVA Faut qu'j'pèse comme un propriétaire de club de Liga BBVA J'ai mes droits, j'ai mes masters Han, j'fume des OG, j'fume des masters Gère le business carré pour qu'on roule tous en Maybach comme des pasteurs Sku J'suis giga, t'es nano, ils peuvent pas m'voir comme si j'ai l'anneau Nan nan Swish, ça rentre sans toucher l'anneau, le lin est rose comme le gelano Ekip J'suis dans l'piège, pas de bistrot Nan, designer avec le cash de Distro' Cash J'ai v'là de rimes comme Larousse Han et j'suis partout comme Arouf Pétasse Devant la cage comme Erling que j'leur mets des soupapes comme Sterling Sku Faut des 4 fois 4 et des berlines, des euros, des dollars et des livres sterlings Han Rap français, sur sa tête, place le réticule Pah-pah So Mac Tyer, j'veux qu'ma bitch aille en SLK chez le pédicure Sku Dans l'complot comme la NBC Comme la NBC, ekip, ekip J'suis dans Futbin, j'fais des SBC, j'arrive Chinois comme la HSBC Quand on rentre, ça sent la loud dans l'lobby So la secte chaque jour, j'serais rien sans l'lobby Freeze Corleone aka The Collector, so Tical Supreme Neck Protector So Sur la prod', j'prends tes chevilles comme Professor ou Bone Collector Mort aux porcs, justice pour Adama, so Nick, pendez-les comme en Alabama Chen Zen, Galsen comme Baaba Maal, que j'leur mets des vitesses comme Adama Bientôt, j'me présente aux municipales, so Lil B le Basedgod Sous potion avec les xans, j'vois flou, j'marche comme un zombie de Days Gone Han, eh 20-20, Menace Fantôme Pétasse, ekip J'veux la Continental et la Phantom, pétasseYou might also like121</t>
+          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO, NRM, 667 Han MMS, LDO 20-20 Menace Fantôme Ekip, ekip, ekip Freeze Raël Ekip, sur la prod', kicke comme Israel, fuck ces nègres comme Israël Chen Laden dans l'complot comme les Ben Laden, Chiraq comme JB Binladen J'les vois p'tits comme si j'étais 100 pieds Là-haut, on veut les VVS sur les dentiers Ice À propos des sommes comme les banquiers, investisseurs, architectes et chefs d chantier Damn J'veux l'biff comme Th Rock Han, 20-20, le rap, c'est satanique comme le rock Cali weed, Promethazine et le fer comme D-Block Europe Han Concurrence j'laisse que des mégots, j'suis là pour les dough, peine de mort pour les pédos Damn J'mixe le lin dans les Faygo, à Dakar, on empile les briques comme des Lego Cash Sur la corniche dans les foreigns Sku, sku, sku Menace Fantôme pour faire saigner tes oreilles, loud pack, négro, j'ai fumé des forêts Pétasse J'fume des Runtz et des Gelati Rital dans l'milieu comme Marco Verratti, gros aqua d'loud dans la Maserati Sku Quoi qu'il arrive, j'prends ma part, Chen Zen aka TVA Faut qu'j'pèse comme un propriétaire de club de Liga BBVA J'ai mes droits, j'ai mes masters Han, j'fume des OG, j'fume des masters Gère le business carré pour qu'on roule tous en Maybach comme des pasteurs Sku J'suis giga, t'es nano, ils peuvent pas m'voir comme si j'ai l'anneau Nan nan Swish, ça rentre sans toucher l'anneau, le lin est rose comme le gelano Ekip J'suis dans l'piège, pas de bistrot Nan, designer avec le cash de Distro' Cash J'ai v'là de rimes comme Larousse Han et j'suis partout comme Arouf Pétasse Devant la cage comme Erling que j'leur mets des soupapes comme Sterling Sku Faut des 4 fois 4 et des berlines, des euros, des dollars et des livres sterlings Han Rap français, sur sa tête, place le réticule Pah-pah So Mac Tyer, j'veux qu'ma bitch aille en SLK chez le pédicure Sku Dans l'complot comme la NBC Comme la NBC, ekip, ekip J'suis dans Futbin, j'fais des SBC, j'arrive Chinois comme la HSBC Quand on rentre, ça sent la loud dans l'lobby So la secte chaque jour, j'serais rien sans l'lobby Freeze Corleone aka The Collector, so Tical Supreme Neck Protector So Sur la prod', j'prends tes chevilles comme Professor ou Bone Collector Mort aux porcs, justice pour Adama, so Nick, pendez-les comme en Alabama Chen Zen, Galsen comme Baaba Maal, que j'leur mets des vitesses comme Adama Bientôt, j'me présente aux municipales, so Lil B le Basedgod Sous potion avec les xans, j'vois flou, j'marche comme un zombie de Days Gone Han, eh 20-20, Menace Fantôme Pétasse, ekip J'veux la Continental et la Phantom, pétasse121</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Han Ekip, ekip, ekip Phaal, dis-leur Han, Corleone, serial rime, sale dealeur Paw Hermès, Burberry, j'porte pas d'Tealer, fuck le lin, R.E.P Mac Miller Phaal, Freezer, toujours anti-diable, pactiseur Eh Gucci, Prada boy, j'veux l'biff de Val Kilmer Cash, s'ils croient qu'ils me valent, qu'ils meurent Chen Zen aka Philipp Philipp han, concu', pour moi, c'est des Philip So le plug, H24 branché comme une télé Philips Le shiznit aka Philly Han, concu', pour moi, c'est des Phillies Du feu comprimé pour qu'ils gobent la pilule, bin sûr qu'j'suis killu', Philly Flingue, Lucky Luke Vire cs putes, négro, d'la map, j'fume des Runtz et des Obama Ils boivent du sang comme Hillary Clinton et Michelle Obama FLRG, F le N.O.M, ça part en sucette, l'ambiance est obscure Han, han On excelle, tu l'sais qu'on est au-dessus, mes chaussettes coûtent plus cher que tes chaussures 6.6.7, Don Dada, impose le NRM comme Dada Han J'arrive rital, raciste comme Prada Ah, ils savent pas d'où j'sors, j'suis comme tada Tada 7-5-0-1-4, c'est la base, on envoie les plus gros missiles de France Paw À ma gauche, y a Miss Guadeloupe, à ma droite, Miss Île-de-France Ouh Alpha Wann, Freeze Corleone, sur la prod', rap catéchisme Catéchisme Soldat d'élite comme Takeshi Takeshi, la LDO dans l'château comme Takeshi Crache ce feu, quel que soit l'tempo Eux et nous, c'est pas pareil, bitch, la guerre, c'est pas l'paintball Lin, la thèque, c'est pas l'baseball han Dakar, Conakry-zi, mode Mafia comme la Three Six, on te respectait anciennement J'suis dans l'enseignement Han, t'es dans l'renseignement, dur dans la découpe et dans l'saignement On a les combos et les enchaînements, Philly Flingo, Ras al Ghul Oreilles, grands saignements, so le Flem, négro, so l'KGB, j'parle pas d'renseignements La police a plus d'un tour dans son sac, le buteur a plus d'un sac dans sa tour Tout est une question de sens Han, tout est une question de change, il n'y aura pas d'révolution Mes parents m'ont fait, l'argent va me refaire, c'est la loi d'l'évolution Qu'est-ce que tu peux contre ça ? 2020, Kunta Kinte contre Sam Han J'fais des katas, j'tape pas contre le sac, chaque jour, j'sécurise à fond le sac Gorilla, Gelato, j'effrite, peine de mort pour le réseau d'Jeffrey Step back, crossover, cons' plus de gas que des crossover So la pétition, rap FR, le plus attendu des crossovers Ekip You might also like Phaal, dis-leur Phaal, dis-leur Hermès, Burberry, j'porte pas d'Tealer, fuck le lin, R.E.P Mac Miller Phaal, Freezer Phaal, Freezer Gucci, Prada boy, j'veux l'biff de Val Kilmer, s'ils croient qu'ils me valent, qu'ils meurent Chen Zen aka Philippe Philippe So le plug, H24 branché comme une télé Philips Le shiznit aka Philly Du feu comprimé pour qu'ils gobent la pilule, bien sûr qu'j'suis killu', Philly Flingue, Lucky Luke37</t>
+          <t>Han Ekip, ekip, ekip Phaal, dis-leur Han, Corleone, serial rime, sale dealeur Paw Hermès, Burberry, j'porte pas d'Tealer, fuck le lin, R.E.P Mac Miller Phaal, Freezer, toujours anti-diable, pactiseur Eh Gucci, Prada boy, j'veux l'biff de Val Kilmer Cash, s'ils croient qu'ils me valent, qu'ils meurent Chen Zen aka Philipp Philipp han, concu', pour moi, c'est des Philip So le plug, H24 branché comme une télé Philips Le shiznit aka Philly Han, concu', pour moi, c'est des Phillies Du feu comprimé pour qu'ils gobent la pilule, bin sûr qu'j'suis killu', Philly Flingue, Lucky Luke Vire cs putes, négro, d'la map, j'fume des Runtz et des Obama Ils boivent du sang comme Hillary Clinton et Michelle Obama FLRG, F le N.O.M, ça part en sucette, l'ambiance est obscure Han, han On excelle, tu l'sais qu'on est au-dessus, mes chaussettes coûtent plus cher que tes chaussures 6.6.7, Don Dada, impose le NRM comme Dada Han J'arrive rital, raciste comme Prada Ah, ils savent pas d'où j'sors, j'suis comme tada Tada 7-5-0-1-4, c'est la base, on envoie les plus gros missiles de France Paw À ma gauche, y a Miss Guadeloupe, à ma droite, Miss Île-de-France Ouh Alpha Wann, Freeze Corleone, sur la prod', rap catéchisme Catéchisme Soldat d'élite comme Takeshi Takeshi, la LDO dans l'château comme Takeshi Crache ce feu, quel que soit l'tempo Eux et nous, c'est pas pareil, bitch, la guerre, c'est pas l'paintball Lin, la thèque, c'est pas l'baseball han Dakar, Conakry-zi, mode Mafia comme la Three Six, on te respectait anciennement J'suis dans l'enseignement Han, t'es dans l'renseignement, dur dans la découpe et dans l'saignement On a les combos et les enchaînements, Philly Flingo, Ras al Ghul Oreilles, grands saignements, so le Flem, négro, so l'KGB, j'parle pas d'renseignements La police a plus d'un tour dans son sac, le buteur a plus d'un sac dans sa tour Tout est une question de sens Han, tout est une question de change, il n'y aura pas d'révolution Mes parents m'ont fait, l'argent va me refaire, c'est la loi d'l'évolution Qu'est-ce que tu peux contre ça ? 2020, Kunta Kinte contre Sam Han J'fais des katas, j'tape pas contre le sac, chaque jour, j'sécurise à fond le sac Gorilla, Gelato, j'effrite, peine de mort pour le réseau d'Jeffrey Step back, crossover, cons' plus de gas que des crossover So la pétition, rap FR, le plus attendu des crossovers Ekip Phaal, dis-leur Phaal, dis-leur Hermès, Burberry, j'porte pas d'Tealer, fuck le lin, R.E.P Mac Miller Phaal, Freezer Phaal, Freezer Gucci, Prada boy, j'veux l'biff de Val Kilmer, s'ils croient qu'ils me valent, qu'ils meurent Chen Zen aka Philippe Philippe So le plug, H24 branché comme une télé Philips Le shiznit aka Philly Du feu comprimé pour qu'ils gobent la pilule, bien sûr qu'j'suis killu', Philly Flingue, Lucky Luke37</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Han, hey Ekip, ekip, ekip, han MMS, LDO, NRM, 667, pétasse Hey, han, ekip, han, ekip, ekip Un xan, deux xan, j'commence à marcher comme un mort-vivant bitch Jsais qu'j'vais brûler mais tous les jours au réveil, jremercie l'Seigneur d'être encore vivant Pétasse, j'porte pas de Philipp Plein, Chen Zen aka Philipp Lin Même pas faya après 4 phillies pleins Tire une taf de la loud, tu tousses comme si t'as une bronchite J'roule un gros fumigène, négro, j'mets un tout p'tit peu de tabac sur mon shit Fils de pute tu disparais deuss, comme un meuj de C Rien dans les narines mais jgratte que des lignes comme un geush de C Allô allô han, winwin le plug sku, j'décolle, jpull up, j'vais récup' le colis sku, sku Dans Dakar ves-qui les plaques AD et les véhicules de police Négro, on s'pète la nuit bée-tom pour les transacs Jsais où ils sont donc j'contourne les grands axes J'veux la villa en bord de mer Avec les raptor, les jets, la piscine et les transat' goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis Négro, j'suis kain-kain à mort, j'veux l'argent noir et la couronne comme Elvis Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers Comme Kodak, capture le moment, fils C'est comment, fils ? J'viens prendre les commandes, fils Winwinwin, so mes Belges, j'arrive killuminati comme en nonante six 2k18 Star Wars II, c'est plein d'clones Trouble de la personnalité, j'ai des symptômes Dieu et le fer, j'me sens plus protégé que si j'étais sous cinq dômes J'veux dix briques dans mes pockets J'fume des missiles, j'fume des roquettes Dans le lin depuis longtemps comme la ville des Rockets J'roule mon teh, y'a au moins 72 boulettes Blindage du village, so Kaki négro, proof-bullet J'mets la potion dans la Kirène, allume d'l'alarme Quand tu sens c'est comme si t'entends la sirène Négro, il me faut plus de liquidités qu'il y en a dans les comptes en banque à six reines goddamn, goddamn Sans aucun stress j'en bute 18, négro Tous les jours, des kamas, j'en fume 18 sous lin Fais des scores de tennis dans FUT 18, ekip You might also like Allô allô, winwin le plug sku J'décolle, j'pull up, j'vais récup' le colis sku, sku Négro on s'pète la nuit bée-tom pour les transac' J'sais où ils sont donc j'contourne les grands axes sku, sku, han, goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis lin, goddamn Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers goddamn27</t>
+          <t>Han, hey Ekip, ekip, ekip, han MMS, LDO, NRM, 667, pétasse Hey, han, ekip, han, ekip, ekip Un xan, deux xan, j'commence à marcher comme un mort-vivant bitch Jsais qu'j'vais brûler mais tous les jours au réveil, jremercie l'Seigneur d'être encore vivant Pétasse, j'porte pas de Philipp Plein, Chen Zen aka Philipp Lin Même pas faya après 4 phillies pleins Tire une taf de la loud, tu tousses comme si t'as une bronchite J'roule un gros fumigène, négro, j'mets un tout p'tit peu de tabac sur mon shit Fils de pute tu disparais deuss, comme un meuj de C Rien dans les narines mais jgratte que des lignes comme un geush de C Allô allô han, winwin le plug sku, j'décolle, jpull up, j'vais récup' le colis sku, sku Dans Dakar ves-qui les plaques AD et les véhicules de police Négro, on s'pète la nuit bée-tom pour les transacs Jsais où ils sont donc j'contourne les grands axes J'veux la villa en bord de mer Avec les raptor, les jets, la piscine et les transat' goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis Négro, j'suis kain-kain à mort, j'veux l'argent noir et la couronne comme Elvis Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers Comme Kodak, capture le moment, fils C'est comment, fils ? J'viens prendre les commandes, fils Winwinwin, so mes Belges, j'arrive killuminati comme en nonante six 2k18 Star Wars II, c'est plein d'clones Trouble de la personnalité, j'ai des symptômes Dieu et le fer, j'me sens plus protégé que si j'étais sous cinq dômes J'veux dix briques dans mes pockets J'fume des missiles, j'fume des roquettes Dans le lin depuis longtemps comme la ville des Rockets J'roule mon teh, y'a au moins 72 boulettes Blindage du village, so Kaki négro, proof-bullet J'mets la potion dans la Kirène, allume d'l'alarme Quand tu sens c'est comme si t'entends la sirène Négro, il me faut plus de liquidités qu'il y en a dans les comptes en banque à six reines goddamn, goddamn Sans aucun stress j'en bute 18, négro Tous les jours, des kamas, j'en fume 18 sous lin Fais des scores de tennis dans FUT 18, ekip Allô allô, winwin le plug sku J'décolle, j'pull up, j'vais récup' le colis sku, sku Négro on s'pète la nuit bée-tom pour les transac' J'sais où ils sont donc j'contourne les grands axes sku, sku, han, goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis lin, goddamn Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers goddamn27</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fuck, it's easy Eh Sku, sku Han, ekip Han, ekip, eh Eh J'suis d'vant la cage, j'mets des cartouches Sku, des cartouches Envoie la p'tite blanche prendre des cartouches, salope, eh Sku, sku MMS, LDO, NRM, 6.6.7, han han, han Sku, sku, sku Ekip, j'suis d'vant la cage, j'mets des cartouches God damn Concurrence, j'en fume des cartouches, Black Jack envoie la p'tite blanche prendre des cartouches Eh, eh Lin n sur V pour les concentrations Salope, j'suis à Dakar, t'es dans ton centre à Sion Sku, sku So les Indiens d'Amérique, so l'esclavage, R.A.F des bip Sku, sku J'fume du gas, j'fume du méthane Salope, concert 6.6.7 comme du metal Pétasse Avec Loto sous l'miel du Népal Sku, investis dans d'la pierre, pas du métal, pétasse Nan, nan On appelle, c'est pour collecter Allô ?, so la prise, j'suis connecté Sku, sku Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Goddamn Des barres même sans connexion, j'vais au village pour les protections Han Rap génie, Prof Chen, j'ai les corrections, cadavres de prod, j'ai des collections haha Goddamn, Bientôt GLE, AMG, j'suis à CH, gros teh de AMG L'argent, c'est rien, le respect, c'est tout, so G.F. G.A.N.G 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Han You might also like Chen Senseï, j'enchaîne les gros katas J'mixe le lin dans l'Fanta shokata, pas d'concu', c'est désert comme au Qatar J'fais mes bails en lous' Pew, j'transige comme si j'suis au KGB Pew-pew J'coupe l'audio dope au fentanyl avec Flem au Studio KGB Pétasse, j'suis 'fonce dans l'vaisseau comme Albator Sku, sku Ceinture Ferragamo Salvatore Han, j'suis Gianluigi, t'es Salvatore Ekip à vie comme Francesco Totti Han, c'est des cobayes, nous, des prototypes Goddamn Chen Zen, carte bleue, dans la défense, j'bombarde comme Marcelo TOTY Sku Et j'suis pas comme eux comme si j'ai subi des mutations Haha Vrai nég', killu à vie, réputation Han, Prof Chen bientôt ministre de l'Éducation Goddamn Là pour les caler, fils, blindé contre les sorts, les maléfices Sku 6.6.7, killu à vie, pas d'coupé-décalé, fils Jamais Euphon, 300 ml, négro, c'est l'sirop phare Fuck 12, team no-lacking, j'les repère de loin même si y a pas l'gyrophare, goddamn Gros joint d'cookie, j'suis pas un rookie, caca marron comme un Wookiee Goddamn Ekip à fond comme un tookie, so Kaki, tu fais l'gue-sh' comme un pookie, ekip 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Négro, même au point mort, j'les double, sur la prod comme si j'me dédouble Tous les jours, R.E.P P-Double, j'regarde le jeu, j'vois que des clones et des doubles Négro, même au point mort, j'les double, sur la prod comme si j'me dédouble Tous les jours, R.E.P P-Double, j'regarde le jeu, j'vois que des clones et des doubles 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter, so la prise, j'suis connecté Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter, so la prise, j'suis connecté Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Eh, eh 6.6.7, MMS, OVG, ekip OVG, ekip, OVG, ekip On appelle, c'est pour collecter Collecter, collecter Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté31</t>
+          <t>Fuck, it's easy Eh Sku, sku Han, ekip Han, ekip, eh Eh J'suis d'vant la cage, j'mets des cartouches Sku, des cartouches Envoie la p'tite blanche prendre des cartouches, salope, eh Sku, sku MMS, LDO, NRM, 6.6.7, han han, han Sku, sku, sku Ekip, j'suis d'vant la cage, j'mets des cartouches God damn Concurrence, j'en fume des cartouches, Black Jack envoie la p'tite blanche prendre des cartouches Eh, eh Lin n sur V pour les concentrations Salope, j'suis à Dakar, t'es dans ton centre à Sion Sku, sku So les Indiens d'Amérique, so l'esclavage, R.A.F des bip Sku, sku J'fume du gas, j'fume du méthane Salope, concert 6.6.7 comme du metal Pétasse Avec Loto sous l'miel du Népal Sku, investis dans d'la pierre, pas du métal, pétasse Nan, nan On appelle, c'est pour collecter Allô ?, so la prise, j'suis connecté Sku, sku Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Goddamn Des barres même sans connexion, j'vais au village pour les protections Han Rap génie, Prof Chen, j'ai les corrections, cadavres de prod, j'ai des collections haha Goddamn, Bientôt GLE, AMG, j'suis à CH, gros teh de AMG L'argent, c'est rien, le respect, c'est tout, so G.F. G.A.N.G 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Han Chen Senseï, j'enchaîne les gros katas J'mixe le lin dans l'Fanta shokata, pas d'concu', c'est désert comme au Qatar J'fais mes bails en lous' Pew, j'transige comme si j'suis au KGB Pew-pew J'coupe l'audio dope au fentanyl avec Flem au Studio KGB Pétasse, j'suis 'fonce dans l'vaisseau comme Albator Sku, sku Ceinture Ferragamo Salvatore Han, j'suis Gianluigi, t'es Salvatore Ekip à vie comme Francesco Totti Han, c'est des cobayes, nous, des prototypes Goddamn Chen Zen, carte bleue, dans la défense, j'bombarde comme Marcelo TOTY Sku Et j'suis pas comme eux comme si j'ai subi des mutations Haha Vrai nég', killu à vie, réputation Han, Prof Chen bientôt ministre de l'Éducation Goddamn Là pour les caler, fils, blindé contre les sorts, les maléfices Sku 6.6.7, killu à vie, pas d'coupé-décalé, fils Jamais Euphon, 300 ml, négro, c'est l'sirop phare Fuck 12, team no-lacking, j'les repère de loin même si y a pas l'gyrophare, goddamn Gros joint d'cookie, j'suis pas un rookie, caca marron comme un Wookiee Goddamn Ekip à fond comme un tookie, so Kaki, tu fais l'gue-sh' comme un pookie, ekip 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Négro, même au point mort, j'les double, sur la prod comme si j'me dédouble Tous les jours, R.E.P P-Double, j'regarde le jeu, j'vois que des clones et des doubles Négro, même au point mort, j'les double, sur la prod comme si j'me dédouble Tous les jours, R.E.P P-Double, j'regarde le jeu, j'vois que des clones et des doubles 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter, so la prise, j'suis connecté Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter, so la prise, j'suis connecté Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Eh, eh 6.6.7, MMS, OVG, ekip OVG, ekip, OVG, ekip On appelle, c'est pour collecter Collecter, collecter Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté31</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>So le Flem So le 8 Cette semaine, vous avez un épisode qui est raconté d'un ancien ministre qui s'est fait coincer à Marrakech dans une partouze avec des p'tits garçons, bon... Probablement nous savons tous ici de qui il s'agit... Les Guidestones qui se trouvent dans lÉtat américain de Géorgie sont un monument mystérieux en granite sur lesquels sont gravés dix nouveaux commandements. Le premier commandement exige de maintenir la population mondiale à 500 millions d'individus. Cette exigence s'associe à la publication d'un Nouvel Ordre Mondial tout puissant et on en vient à la conclusion que les Guidestones sont l'uvre d'une société secrète occulte Aha So Roi Hey, 2K18, han M.M.S, 667 Freeze Han-han-han Nouvelle ère Ouh, eh Jeune alchimiste fonscar fons', ça s'allume comme Van Gogh Tous les jours, boy, j'te roule, j'te fume en onze barres Ceinture noire, jeans noir, tout baigne Flaque de sang, loups baignent, oligarchie, tout l'règne Elizabeth J'les délocalise à Sofia en Bulgarie, 2k18, ça arrive Ça s'implante fort dans tout l'pays, han en force 2k tous les jours hey Au d'ssus d'toutes les tours, ça m'dit Doute-les tous KGB Ça cherche l'or et les blue hunna, boulé d'noirs comme dans three Hunna, cent 'tasses de Tijuana ouais Tu vas pass-out si tu fais l'stage, taffe dans l'bendo comme dans l'Reichstag ouais Clan d'seize masse dans l'rap, on est dans l'sacrifice de masse Plus trop d'temps, ça arrose tous ces fils de ass pas l'time So Flem, ça record dans l'cagibi, technique fatidique au microphone, damn, c'grave easy Han You might also like Régulation d'population, sacrifice de masse F.F.O, armes biologiques Trafics d'organes, réseaux pédophiles Esclavage, Jack Lang Maroc Négrophobie États-Unis Charlie, hein Bachar Ouganda Assad ekip So New York Cité, Queensbridge, M.O.B.B Avec Lotto sur la prod comme Raekwon et ODB So le Roi Heenok, j'arrive énorme méga J'm'allume aux drogues légales, trop QB comme Cormega Chaque jour, j'fuck les loups de ouf, Alphonse, j'arrive mal, fons', dans au moins trois drogues, j'pilote et j'vois flou de ouf So l'enfant finesse, so JackBoy, négro J'les finesse en finesse, j'remplis la jauge pour qu'ça rentre en finesse J'arrive avec les tactiques ritales, j'me sens comme Carlo À la tête de l'organisation, j'me sens comme Marlo ekip Là pour les gros virements, négro, les gros chèques khaliss Stop and turn et crochet, j'ai les techniques des projets J'mixe le lin dans la limonade, négro, la Lorina J'fume le King Hassan, négro, j'fume la gorilla, ekip Congo gère les V.H.R han, négro J'suis avec Biggy vers C.H.R, ekip Régulation d'population, sacrifice de masse F.F.O, armes biologiques Trafics d'organes, réseaux pédophiles Esclavage, Jack Lang Maroc Négrophobie États-Unis Charlie, hein Bachar Ouganda Assad ekip Les hautes castes, Ebola, UNICEF Haïti, HAARP, Kim Jong Un R.S.P, ouais, ouais, il a dit non Soleil Noir, Fukushima Volkswagen, Chine populaire L'Ouganda, Angola Pierres d'Sierra Leone, Congo Trafic d'Uranium, trafic d'Opium L'Ossétie du Nord, Afghanistan, Ramzan Mogadiscio, Mayer Rothschild R.E.A.A Maudit est la ville de York, MK Ultra Comité des 300, Ben Gourion Joseph Ratzinger, Benoit XVI Trafic de noirs Treize familles, la lignée luciférienne Le Shah d'Iran, l'Inde Pakistan Jacques Attali, B.H.L, La bataille du cachemire K.K.K, Tibet Vril 7, Vril 8, 119 Antarctique, Société Thulé Obama, Prescott Bush, mais qui est Prescott Bush? N.S.A, J.P. Morgan, Daesh Mais qui est J.P. Morgan ? Qu-qui a financé la deuxième guerre ? Benalla, Jérusalem11</t>
+          <t>So le Flem So le 8 Cette semaine, vous avez un épisode qui est raconté d'un ancien ministre qui s'est fait coincer à Marrakech dans une partouze avec des p'tits garçons, bon... Probablement nous savons tous ici de qui il s'agit... Les Guidestones qui se trouvent dans lÉtat américain de Géorgie sont un monument mystérieux en granite sur lesquels sont gravés dix nouveaux commandements. Le premier commandement exige de maintenir la population mondiale à 500 millions d'individus. Cette exigence s'associe à la publication d'un Nouvel Ordre Mondial tout puissant et on en vient à la conclusion que les Guidestones sont l'uvre d'une société secrète occulte Aha So Roi Hey, 2K18, han M.M.S, 667 Freeze Han-han-han Nouvelle ère Ouh, eh Jeune alchimiste fonscar fons', ça s'allume comme Van Gogh Tous les jours, boy, j'te roule, j'te fume en onze barres Ceinture noire, jeans noir, tout baigne Flaque de sang, loups baignent, oligarchie, tout l'règne Elizabeth J'les délocalise à Sofia en Bulgarie, 2k18, ça arrive Ça s'implante fort dans tout l'pays, han en force 2k tous les jours hey Au d'ssus d'toutes les tours, ça m'dit Doute-les tous KGB Ça cherche l'or et les blue hunna, boulé d'noirs comme dans three Hunna, cent 'tasses de Tijuana ouais Tu vas pass-out si tu fais l'stage, taffe dans l'bendo comme dans l'Reichstag ouais Clan d'seize masse dans l'rap, on est dans l'sacrifice de masse Plus trop d'temps, ça arrose tous ces fils de ass pas l'time So Flem, ça record dans l'cagibi, technique fatidique au microphone, damn, c'grave easy Han Régulation d'population, sacrifice de masse F.F.O, armes biologiques Trafics d'organes, réseaux pédophiles Esclavage, Jack Lang Maroc Négrophobie États-Unis Charlie, hein Bachar Ouganda Assad ekip So New York Cité, Queensbridge, M.O.B.B Avec Lotto sur la prod comme Raekwon et ODB So le Roi Heenok, j'arrive énorme méga J'm'allume aux drogues légales, trop QB comme Cormega Chaque jour, j'fuck les loups de ouf, Alphonse, j'arrive mal, fons', dans au moins trois drogues, j'pilote et j'vois flou de ouf So l'enfant finesse, so JackBoy, négro J'les finesse en finesse, j'remplis la jauge pour qu'ça rentre en finesse J'arrive avec les tactiques ritales, j'me sens comme Carlo À la tête de l'organisation, j'me sens comme Marlo ekip Là pour les gros virements, négro, les gros chèques khaliss Stop and turn et crochet, j'ai les techniques des projets J'mixe le lin dans la limonade, négro, la Lorina J'fume le King Hassan, négro, j'fume la gorilla, ekip Congo gère les V.H.R han, négro J'suis avec Biggy vers C.H.R, ekip Régulation d'population, sacrifice de masse F.F.O, armes biologiques Trafics d'organes, réseaux pédophiles Esclavage, Jack Lang Maroc Négrophobie États-Unis Charlie, hein Bachar Ouganda Assad ekip Les hautes castes, Ebola, UNICEF Haïti, HAARP, Kim Jong Un R.S.P, ouais, ouais, il a dit non Soleil Noir, Fukushima Volkswagen, Chine populaire L'Ouganda, Angola Pierres d'Sierra Leone, Congo Trafic d'Uranium, trafic d'Opium L'Ossétie du Nord, Afghanistan, Ramzan Mogadiscio, Mayer Rothschild R.E.A.A Maudit est la ville de York, MK Ultra Comité des 300, Ben Gourion Joseph Ratzinger, Benoit XVI Trafic de noirs Treize familles, la lignée luciférienne Le Shah d'Iran, l'Inde Pakistan Jacques Attali, B.H.L, La bataille du cachemire K.K.K, Tibet Vril 7, Vril 8, 119 Antarctique, Société Thulé Obama, Prescott Bush, mais qui est Prescott Bush? N.S.A, J.P. Morgan, Daesh Mais qui est J.P. Morgan ? Qu-qui a financé la deuxième guerre ? Benalla, Jérusalem11</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>souffle Ekip, ekip, ekip souffle Pétasse, pétasse, pétasse MMS, LDO, NRM, 667 Yann à la prod Yann à la prod, bitch, han Ekip, ekip, ekip 20-18 en Libye, ça bibi des nègres à 150K goddamn J'arrive dans le jeu comme Hot Sauce au Quai 54 Est-ce qu'on les fouette ? Est-ce que 6 x 9 ça fait 54 ? Bi-Bitch, tu connais la réponse, si c'est pas pour du biff, tu connais la réponse goddamn Qu'est-ce tu sip ? Ça, c'est du shit, c'est quoi les trois chiffres ? Tu connais la réponse Bruce, Proof-Bullet, 667, on arrive plus blindés que les fourgons sku J'préfère du lin que les Bourbons han, là pour le cash, faut remplir les coffres blindés, les fourgons pétasse Des fafs, j'en veux plein dans le sac, belek à toi si on t'attrape la main dans le sac Baraude dans la zone, mets les gains dans le sac, so le Black, fer, cash, frappe, lin dans le sac Con-Cons' v'là de sirop comme si j'viens du Canada, Afro S sort la loud qui vient du Canada Dès que j'pose un pied à MTL, j'appelle Cero pour qu'il m'sorte du lin du Canada Avec mes négros, coupe le gâteau, l'produit arrive par l'avion ou le bateau Pour les Foreigns importées direct d'Italie avec les chevaux sous le capot Tu traînes avec des bitchs et des pookies han, j'traîne avec des Meech et des Tookie ouais Pas de biscuits ni de crème glacée han quand on parle de Gelato et des Cookies Dans le labo comme Niko, négro, normalement, ils vont descendre comme Nico, négro R.E.P Mouammar Khadafi, fuck la France tous les jours comme Nico, négro Fuck le triple-six, j'suis pas dans les pactes Nan-nan FUT 18, j'suis grave dans les packs, ekip Ekip, ekip J'suis éclaté devant la page Goddamn, goddamn J'me sens comme Paulo devant la cage, ekip pétasse, ekip, ekip Chen Zen, killu' à vie han, fuck un Rothschild, fuck un Rockefeller chaque jour Bitch j'ai grave la dalle comme si j'étais gros et négro, j'ai les crocs comme un Rottweiler han J'la baise jusqu'à qu'elle m'dise qu'elle a des crampes ouais, 667, c'est pas des lol, c'est pas des pranks nan L'objectif se rapproche, j'arrive déterminé comme Adolf dans les années 30 J'mets le lin dans l'Maaza tropical Tu t'allumes comme moi, tu finis avec des rendez-vous chez un psy à l'hôpital, j'reste lowkey, j'tal v'là d'Lopi' calme You might also like Brr brr, allô, Chen Zen branché au cartel comme Ralo Rafale la prod' comme Halo, Ahk shit, pop shit, 12 can't stop shit négro comme Ralo J'suis en F1, t'es en karting sku, tu peux pas gagner même en cent parties nan J'suis dans l'complot comme en Antarctique, inch'Allah bientôt, j'remplis un grand parking Négro l'objectif, c'est des Foreign sku, rap jeu, c'est du gâteau, bitch c'est des forêts goddamn Ça va faire dix ans que je m'allume, c'que j'ai cons' ça fait des forêts Sirop dans le Sprite, on dirait du rosé lin, j'suis posé, j'écoute du Rozay J'arrive Galsen négro, j'arrive rital han, j'suis eupeul négro j'suis osé SO DGK le Muesin ekip, où est la dope ? où est la dope Où est la dope, pétasse pétasse ? Où est la dope, dope, dope ? Han Pilules bleues, flacon rouge lin Fonscar au lin comme à Baton Rouge, pétasse ekip, han Pilules bleues, flacon rouge lin Fonscar au lin comme à Baton Rouge, ekip pétasse, pétasse Pilules bleues, flacon rouge lin Fonscar au lin comme à Baton Rouge, pétasse Pilules bleues, flacon rouge lin Fonscar au lin comme à Baton Rouge, ekip Han, pétasse, pétasse, pétasse Ekip, ekip, ekip MMS, LDO, NRM, 667, pétasse, han Fonscar au lin comme à Baton Rouge, ekip8</t>
+          <t>souffle Ekip, ekip, ekip souffle Pétasse, pétasse, pétasse MMS, LDO, NRM, 667 Yann à la prod Yann à la prod, bitch, han Ekip, ekip, ekip 20-18 en Libye, ça bibi des nègres à 150K goddamn J'arrive dans le jeu comme Hot Sauce au Quai 54 Est-ce qu'on les fouette ? Est-ce que 6 x 9 ça fait 54 ? Bi-Bitch, tu connais la réponse, si c'est pas pour du biff, tu connais la réponse goddamn Qu'est-ce tu sip ? Ça, c'est du shit, c'est quoi les trois chiffres ? Tu connais la réponse Bruce, Proof-Bullet, 667, on arrive plus blindés que les fourgons sku J'préfère du lin que les Bourbons han, là pour le cash, faut remplir les coffres blindés, les fourgons pétasse Des fafs, j'en veux plein dans le sac, belek à toi si on t'attrape la main dans le sac Baraude dans la zone, mets les gains dans le sac, so le Black, fer, cash, frappe, lin dans le sac Con-Cons' v'là de sirop comme si j'viens du Canada, Afro S sort la loud qui vient du Canada Dès que j'pose un pied à MTL, j'appelle Cero pour qu'il m'sorte du lin du Canada Avec mes négros, coupe le gâteau, l'produit arrive par l'avion ou le bateau Pour les Foreigns importées direct d'Italie avec les chevaux sous le capot Tu traînes avec des bitchs et des pookies han, j'traîne avec des Meech et des Tookie ouais Pas de biscuits ni de crème glacée han quand on parle de Gelato et des Cookies Dans le labo comme Niko, négro, normalement, ils vont descendre comme Nico, négro R.E.P Mouammar Khadafi, fuck la France tous les jours comme Nico, négro Fuck le triple-six, j'suis pas dans les pactes Nan-nan FUT 18, j'suis grave dans les packs, ekip Ekip, ekip J'suis éclaté devant la page Goddamn, goddamn J'me sens comme Paulo devant la cage, ekip pétasse, ekip, ekip Chen Zen, killu' à vie han, fuck un Rothschild, fuck un Rockefeller chaque jour Bitch j'ai grave la dalle comme si j'étais gros et négro, j'ai les crocs comme un Rottweiler han J'la baise jusqu'à qu'elle m'dise qu'elle a des crampes ouais, 667, c'est pas des lol, c'est pas des pranks nan L'objectif se rapproche, j'arrive déterminé comme Adolf dans les années 30 J'mets le lin dans l'Maaza tropical Tu t'allumes comme moi, tu finis avec des rendez-vous chez un psy à l'hôpital, j'reste lowkey, j'tal v'là d'Lopi' calme Brr brr, allô, Chen Zen branché au cartel comme Ralo Rafale la prod' comme Halo, Ahk shit, pop shit, 12 can't stop shit négro comme Ralo J'suis en F1, t'es en karting sku, tu peux pas gagner même en cent parties nan J'suis dans l'complot comme en Antarctique, inch'Allah bientôt, j'remplis un grand parking Négro l'objectif, c'est des Foreign sku, rap jeu, c'est du gâteau, bitch c'est des forêts goddamn Ça va faire dix ans que je m'allume, c'que j'ai cons' ça fait des forêts Sirop dans le Sprite, on dirait du rosé lin, j'suis posé, j'écoute du Rozay J'arrive Galsen négro, j'arrive rital han, j'suis eupeul négro j'suis osé SO DGK le Muesin ekip, où est la dope ? où est la dope Où est la dope, pétasse pétasse ? Où est la dope, dope, dope ? Han Pilules bleues, flacon rouge lin Fonscar au lin comme à Baton Rouge, pétasse ekip, han Pilules bleues, flacon rouge lin Fonscar au lin comme à Baton Rouge, ekip pétasse, pétasse Pilules bleues, flacon rouge lin Fonscar au lin comme à Baton Rouge, pétasse Pilules bleues, flacon rouge lin Fonscar au lin comme à Baton Rouge, ekip Han, pétasse, pétasse, pétasse Ekip, ekip, ekip MMS, LDO, NRM, 667, pétasse, han Fonscar au lin comme à Baton Rouge, ekip8</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ekip pétasse, han Han T'as pop mais t'as disparu haha, négro, t'es comme Desiigner goddamn So DistroKid han, j'suis aux Galeries han, j'cop des designers cash Même quand j'dors, j'fais d'l'argent cash, j'reçois des virements en USD cash PDF interdit coffré han, Osirus Jack a les documents en USB Yeuz rouges de cyborg, plus blindé que six portes, so Double, j'ai la frappe de Seedorf Audio dope dans ton crâne han, 100k sans contrat, mitraille les prod comme dans Contra Découpe, j'ai les techniques au boucher, j'pense à mon argent du réveil au coucher cash Crache des flammes, j'envoie des katons katons, dans les roues, ils veulent me mettre des bâtons ah ouais RAF, négro, j'avance sans aucun stress aucun, j'suis plus blindé qu'le M26 Que j'empile les sommes d'ici 2k26 han, faut sept zéros dans le N26 cash Portée infinie en Hall of Fame, tireur d'élite, très rare si j'rate une cible eh Drogue de luxe, réserve personnelle, le plug envoie le colis sous triple vacuum seal pétasse, plug Freeze Corleone, j'arrive Queens à fond l'argent, QB, ekip Infamous comme Twins à fond han, Twin Gambino Fuck les porcs, fuck les sangliers han Fous les MC dans les cendriers han, on est dans l'complot comme les Templiers han H-24, j'sécurise le sac, pour sortir, faut qu'j'dépressurise le sas pch J'reste au-d'ssus, j'suis dans la station han, j'consomme plus d'essence que dans la station gas, haha J'fume la frappe du Maroc, j'fume la forte des States J'arrive Japonais comme une Nissan Juke, j'arrive Américain comme une Ford Escape sku, skrt Pétasse, chaque couplet, c'est d'la dynamite han, ekip J'gagne deux à trois fois plus qu'un jeune cadre dynamique cash Nouvel Ordre Mondial han, j'constate l'avancement dans l'agenda So Kaki Santana, attentats à chaque date dans l'agenda ekip Bientôt, ça investit dans les entrepôts pétasse, pétasse J'graille la concurrence comme des entrecôtes goddamn Ils prennent les décisions pendant qu'ils sont en train d'faire du golf Seul contre eux comme Saddam Hussein pendant la guerre du Golfe pétasse, han Soupape par la droite comme Kyle Walker sku J'fume la Skywalker, v'là d'midi-chloriens comme un Skywalker pétasse, eh, walker J'arrive Allemand comme le X cross han, sku So Scooter, bats l'démon avec le triple cross, pétasse pétasse You might also like OBS30</t>
+          <t>Ekip pétasse, han Han T'as pop mais t'as disparu haha, négro, t'es comme Desiigner goddamn So DistroKid han, j'suis aux Galeries han, j'cop des designers cash Même quand j'dors, j'fais d'l'argent cash, j'reçois des virements en USD cash PDF interdit coffré han, Osirus Jack a les documents en USB Yeuz rouges de cyborg, plus blindé que six portes, so Double, j'ai la frappe de Seedorf Audio dope dans ton crâne han, 100k sans contrat, mitraille les prod comme dans Contra Découpe, j'ai les techniques au boucher, j'pense à mon argent du réveil au coucher cash Crache des flammes, j'envoie des katons katons, dans les roues, ils veulent me mettre des bâtons ah ouais RAF, négro, j'avance sans aucun stress aucun, j'suis plus blindé qu'le M26 Que j'empile les sommes d'ici 2k26 han, faut sept zéros dans le N26 cash Portée infinie en Hall of Fame, tireur d'élite, très rare si j'rate une cible eh Drogue de luxe, réserve personnelle, le plug envoie le colis sous triple vacuum seal pétasse, plug Freeze Corleone, j'arrive Queens à fond l'argent, QB, ekip Infamous comme Twins à fond han, Twin Gambino Fuck les porcs, fuck les sangliers han Fous les MC dans les cendriers han, on est dans l'complot comme les Templiers han H-24, j'sécurise le sac, pour sortir, faut qu'j'dépressurise le sas pch J'reste au-d'ssus, j'suis dans la station han, j'consomme plus d'essence que dans la station gas, haha J'fume la frappe du Maroc, j'fume la forte des States J'arrive Japonais comme une Nissan Juke, j'arrive Américain comme une Ford Escape sku, skrt Pétasse, chaque couplet, c'est d'la dynamite han, ekip J'gagne deux à trois fois plus qu'un jeune cadre dynamique cash Nouvel Ordre Mondial han, j'constate l'avancement dans l'agenda So Kaki Santana, attentats à chaque date dans l'agenda ekip Bientôt, ça investit dans les entrepôts pétasse, pétasse J'graille la concurrence comme des entrecôtes goddamn Ils prennent les décisions pendant qu'ils sont en train d'faire du golf Seul contre eux comme Saddam Hussein pendant la guerre du Golfe pétasse, han Soupape par la droite comme Kyle Walker sku J'fume la Skywalker, v'là d'midi-chloriens comme un Skywalker pétasse, eh, walker J'arrive Allemand comme le X cross han, sku So Scooter, bats l'démon avec le triple cross, pétasse pétasse OBS30</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>So le Flem Ekip, ekip, ekip, ekip MaLaGaNgx et six-six-seven, pétasse MMS, LDO, NRM, baw 6.6.7, baw Baw, ekip, hey, hey, hey Baw, skrt, la MaLa est GaNgx, ekip, ekip, ekip Les bonbonnes sont remplies de cocaïne baw, flexin' Dakatine en guise de protéine wah, banks Tu connais, chez nous, que la 0.9 hein hein Si je sors le fer, c'est pas pour les meufs hein, hmmm Zéro bluff, je dégaine, pousse-toi, grr, paw J'ai pas l'temps d'ken mais tu peux m'lehess Au pire des cas, j'me casse pendant qu'tu n3as tu n3as Té-ma la kichta hey, té-ma la taille d'la kichta hey hey Té-ma la kichta hey, té-ma la taille d'la kichta hey hey 20-20, Drill 4 ekip, ils sont dépassés comme des Dreamcast pétasse Négro, tu rappes comme un 2004, avant 30 ans, faut qu'j'dépasse les 2000 K cash Moncler Moncler allemand allemand, mentalité allemande allemande Dans les pockets, j'ai la kichta, le lin, les antidépresseurs et les calmants lin J'ai v'là en réflexe comme Alisson, négro, j'suis fonce-dé dans l'vaisseau comme Harrison Carré New York comme le Madison, à Dakar sur la corniche comme le Radisson Versace pour les sandales, fuck ces négros, c'est des snitchs, c'est des Randall snitchs En CFA, leur flow fait 100 balles, rien que j'les crosse, j'les mets dans la sauce sans balle You might also like Hey, nouvelles Loubou', tu peux peek a boo waa Aperçois qu'il y a des pics au bout waw, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han baw Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS, concurrence PLS BSB, 6.6.7, Black Mafia comme BMF piew Négro, j'arrive Londres comme DigDat, e-ekip Pop des pills comme des Tic Tac hein, on les casse en quatre comme des Kit Kat hey, hey, hey Les bonbonnes sont remplies de cocaïne baw, flexin' Dakatine en guise de protéine wah, banks Tu connais, chez nous, que la 0.9 hein hein Si je sors le fer, c'est pas pour les meufs hein Zéro bluff, je dégaine, pousse-toi, grr, paw mmh J'ai pas l'temps d'ken mais tu peux m'lehess Au pire des cas, j'me casse pendant qu'tu n3as tu n3as Té-ma la kichta hey, té-ma la taille d'la kichta hey, hey Té-ma la kichta hey, té-ma la taille d'la kichta hey, hey On n'veut qu'accumuler du mauve mauve et on est prêts à finir dans la presse hey Ces bitches ont kiffé nos moves moves, c'est réciproque, gare à tes jolies fesses hey Sexy sexy, wah wah, monte dans la gova, roule un gras et on parle Prends ton kilo et tes grammes, on part, si tu veux m'couiller, on va t'grr, paw Prométhazine avec la codéine lin, lin, lin Dieu et l'fer, négro, pas d'protéines paw Lunettes Cartier comme Tee Grizzley han J'arrive lourd comme dix grizzlis, il m'faut un salaire comme si j'joue chez les Grizzlies swish J'bois le poison, j'bois le venin lin, lin Vision trouble mais j'vois le chemin lin, lin, lin, lin Tire une taff de mon teh, tu perds tes neurones Chen Zen, Gazo, tu sais qu'on est là pour les euros, pétasse pétasse, pétasse Hey, nouvelles Loubou', tu peux peek a boo wah Aperçois qu'il y a des pics au bout ho, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS sku sku, concurrence PLS BSB squa, 6.6.7, Black Mafia comme BMF squa Négro, j'arrive Londres comme DigDat, ekip ekip Pop des pills comme des Tic Tac han, on les casse en quatre comme des Kit Kat paw J'ai pas l'temps d'ken mais tu peux m'lehess, mmh Au pire des cas, j'me casse pendant qu'tu n3as Té-ma la kichta, té-ma la taille d'la kichta Té-ma la kichta, té-ma la taille d'la kichta Hey9</t>
+          <t>So le Flem Ekip, ekip, ekip, ekip MaLaGaNgx et six-six-seven, pétasse MMS, LDO, NRM, baw 6.6.7, baw Baw, ekip, hey, hey, hey Baw, skrt, la MaLa est GaNgx, ekip, ekip, ekip Les bonbonnes sont remplies de cocaïne baw, flexin' Dakatine en guise de protéine wah, banks Tu connais, chez nous, que la 0.9 hein hein Si je sors le fer, c'est pas pour les meufs hein, hmmm Zéro bluff, je dégaine, pousse-toi, grr, paw J'ai pas l'temps d'ken mais tu peux m'lehess Au pire des cas, j'me casse pendant qu'tu n3as tu n3as Té-ma la kichta hey, té-ma la taille d'la kichta hey hey Té-ma la kichta hey, té-ma la taille d'la kichta hey hey 20-20, Drill 4 ekip, ils sont dépassés comme des Dreamcast pétasse Négro, tu rappes comme un 2004, avant 30 ans, faut qu'j'dépasse les 2000 K cash Moncler Moncler allemand allemand, mentalité allemande allemande Dans les pockets, j'ai la kichta, le lin, les antidépresseurs et les calmants lin J'ai v'là en réflexe comme Alisson, négro, j'suis fonce-dé dans l'vaisseau comme Harrison Carré New York comme le Madison, à Dakar sur la corniche comme le Radisson Versace pour les sandales, fuck ces négros, c'est des snitchs, c'est des Randall snitchs En CFA, leur flow fait 100 balles, rien que j'les crosse, j'les mets dans la sauce sans balle Hey, nouvelles Loubou', tu peux peek a boo waa Aperçois qu'il y a des pics au bout waw, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han baw Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS, concurrence PLS BSB, 6.6.7, Black Mafia comme BMF piew Négro, j'arrive Londres comme DigDat, e-ekip Pop des pills comme des Tic Tac hein, on les casse en quatre comme des Kit Kat hey, hey, hey Les bonbonnes sont remplies de cocaïne baw, flexin' Dakatine en guise de protéine wah, banks Tu connais, chez nous, que la 0.9 hein hein Si je sors le fer, c'est pas pour les meufs hein Zéro bluff, je dégaine, pousse-toi, grr, paw mmh J'ai pas l'temps d'ken mais tu peux m'lehess Au pire des cas, j'me casse pendant qu'tu n3as tu n3as Té-ma la kichta hey, té-ma la taille d'la kichta hey, hey Té-ma la kichta hey, té-ma la taille d'la kichta hey, hey On n'veut qu'accumuler du mauve mauve et on est prêts à finir dans la presse hey Ces bitches ont kiffé nos moves moves, c'est réciproque, gare à tes jolies fesses hey Sexy sexy, wah wah, monte dans la gova, roule un gras et on parle Prends ton kilo et tes grammes, on part, si tu veux m'couiller, on va t'grr, paw Prométhazine avec la codéine lin, lin, lin Dieu et l'fer, négro, pas d'protéines paw Lunettes Cartier comme Tee Grizzley han J'arrive lourd comme dix grizzlis, il m'faut un salaire comme si j'joue chez les Grizzlies swish J'bois le poison, j'bois le venin lin, lin Vision trouble mais j'vois le chemin lin, lin, lin, lin Tire une taff de mon teh, tu perds tes neurones Chen Zen, Gazo, tu sais qu'on est là pour les euros, pétasse pétasse, pétasse Hey, nouvelles Loubou', tu peux peek a boo wah Aperçois qu'il y a des pics au bout ho, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS sku sku, concurrence PLS BSB squa, 6.6.7, Black Mafia comme BMF squa Négro, j'arrive Londres comme DigDat, ekip ekip Pop des pills comme des Tic Tac han, on les casse en quatre comme des Kit Kat paw J'ai pas l'temps d'ken mais tu peux m'lehess, mmh Au pire des cas, j'me casse pendant qu'tu n3as Té-ma la kichta, té-ma la taille d'la kichta Té-ma la kichta, té-ma la taille d'la kichta Hey9</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Katrina Squad J'ai trop d'soucis et j'ai trop d'sapes, hey Uno, nueve, colt, cuatro five J'tire de loin si tu fais du pencak Paw, Little Italy, Mannschaft Hey Juste une lettre, tu sais comment j'm'appelles, la créatine, on coupe la mozzarella J'ai l'essence, la science, la connaissance du truc Ah, vide un chargeur après l'buona sera Brr Criminel, fuck RoboCop Ah, ekip, yeah Tire comme Clint, ça arrache comme Cro Cop, pour v'nir, j'mets un trois-quarts en croco On agit, tu es tout l'temps en boco, sac rempli d'armes de guerre Ah, abrité dans les locaux Au carré, que des gogo Pétasse, peu de faits, que des vocaux Han, ABT près du logo Métaux du Caucase Drogue des Pays-Bas, cause sicilienne Moteur allemand Puta, j'suis Allemand, attends que j'vienne juste investir, réinvestir, Hennessy, j'résiste à Némésis Ekip Un mort, le sang sèche et s'épaissit J'suis au cur de la brèche et du récit, han Et ramène des glaçons Pétasse, le sky' et la boisson Lin, lin Quatre mauvais garçons, ta tête, combien ça paye ? Combien ? Ta daronne en caution Han, aucune émotion Aucune On a les plugs, les Glock, les boxs et les munitions Pah, pah D'la sueur et des grammes, des corps sous les draps, tu connais mon hood Tu connais mon hood, enfoiré J'vais ramener des millions pour sécher ses larmes, si elle a le blues Ah, pétasse Des cicatrices et du charme et quand ça shine, j'suis pas dans les doutes Nan On a les plugs, les Glock, les boxs et les munitions Pah, pah You might also like Aucune émotion Remets, aucune émotion Pétasse On a les plugs, les Glock, les boxs et les munitions Ekip, ekip Ta daronne en caution Mathafack, aucune émotion Han On a les plugs, les Glock, les boxs et les munitions So le S depuis Gomorra, hey Ekip, masqué comme dans V pour Vendetta Paw Pour l'cash, on a l'flair et l'odorat, hey, kain-kain depuis Def Jam Vendetta Ekip Mannschaft Ekip, Squadra Azzurra Ekip, lin couleur à Courage Ah J'suis l'ouragan Katrina, t'es la bourrasque, au mic', kicke comme dans Kengan Ashura Ah Sur la A7, allemande dans la A7 Skuh, la prod' on la séquestre à deux, pas à sept Han J'vois flou grâce au lin, au dry et à la 'ssep, 6.6.7, OBS, so à la Secte Corleone, Schneider Ekip, j'fume la frappe, j'fume la Sneijder Quand j'écris, tête en feu comme Ghost Rider Skuh, pas d'topline, pas d'ghostwriter Lin Concu', on a laissé des cendres Han, touche-nous, tu t'fais monter ou tu t'fais descendre Paw J'bombarde sur les côtés, j'fais des centres Skuh, Chen Zen connecté comme un télécentre Flo-flow interdit, j'ai v'là d'palettes Han, so Zuukou mais y a pas que des arbalètes Audio dope avec le S, ça cuisine la galette, on sait qui a les manettes, pétasse, donne la malette, ekip Et ramène des glaçons Pétasse, le sky' et la boisson Lin, lin Quatre mauvais garçons, ta tête, combien ça paye ? Combien ? Ta daronne en caution Hey, aucune émotion Aucune On a les plugs, les Glock, les boxs et les munitions Han D'la sueur et des grammes, des corps sous les draps, tu connais mon hood Tu connais mon hood, enfoiré On a les plugs, les Glock, les boxs et les munitions, pétasse J'vais ramener des millions pour sécher ses larmes, si elle a le blues On a les plugs, les Glock, les boxs et les munitions, pah, pah Aucune émotion Remets, aucune émotion Pétasse On a les plugs, les Glock Ekip, les boxs et les munitions Ekip, ekip Ta daronne en caution Eh, aucune émotion Han On a les plugs, les Glock, les boxs et les munitions On a les plugs, les Glock, les boxs et les munitions On a les plugs, les Glock, les boxs et les munitions10</t>
+          <t>Katrina Squad J'ai trop d'soucis et j'ai trop d'sapes, hey Uno, nueve, colt, cuatro five J'tire de loin si tu fais du pencak Paw, Little Italy, Mannschaft Hey Juste une lettre, tu sais comment j'm'appelles, la créatine, on coupe la mozzarella J'ai l'essence, la science, la connaissance du truc Ah, vide un chargeur après l'buona sera Brr Criminel, fuck RoboCop Ah, ekip, yeah Tire comme Clint, ça arrache comme Cro Cop, pour v'nir, j'mets un trois-quarts en croco On agit, tu es tout l'temps en boco, sac rempli d'armes de guerre Ah, abrité dans les locaux Au carré, que des gogo Pétasse, peu de faits, que des vocaux Han, ABT près du logo Métaux du Caucase Drogue des Pays-Bas, cause sicilienne Moteur allemand Puta, j'suis Allemand, attends que j'vienne juste investir, réinvestir, Hennessy, j'résiste à Némésis Ekip Un mort, le sang sèche et s'épaissit J'suis au cur de la brèche et du récit, han Et ramène des glaçons Pétasse, le sky' et la boisson Lin, lin Quatre mauvais garçons, ta tête, combien ça paye ? Combien ? Ta daronne en caution Han, aucune émotion Aucune On a les plugs, les Glock, les boxs et les munitions Pah, pah D'la sueur et des grammes, des corps sous les draps, tu connais mon hood Tu connais mon hood, enfoiré J'vais ramener des millions pour sécher ses larmes, si elle a le blues Ah, pétasse Des cicatrices et du charme et quand ça shine, j'suis pas dans les doutes Nan On a les plugs, les Glock, les boxs et les munitions Pah, pah Aucune émotion Remets, aucune émotion Pétasse On a les plugs, les Glock, les boxs et les munitions Ekip, ekip Ta daronne en caution Mathafack, aucune émotion Han On a les plugs, les Glock, les boxs et les munitions So le S depuis Gomorra, hey Ekip, masqué comme dans V pour Vendetta Paw Pour l'cash, on a l'flair et l'odorat, hey, kain-kain depuis Def Jam Vendetta Ekip Mannschaft Ekip, Squadra Azzurra Ekip, lin couleur à Courage Ah J'suis l'ouragan Katrina, t'es la bourrasque, au mic', kicke comme dans Kengan Ashura Ah Sur la A7, allemande dans la A7 Skuh, la prod' on la séquestre à deux, pas à sept Han J'vois flou grâce au lin, au dry et à la 'ssep, 6.6.7, OBS, so à la Secte Corleone, Schneider Ekip, j'fume la frappe, j'fume la Sneijder Quand j'écris, tête en feu comme Ghost Rider Skuh, pas d'topline, pas d'ghostwriter Lin Concu', on a laissé des cendres Han, touche-nous, tu t'fais monter ou tu t'fais descendre Paw J'bombarde sur les côtés, j'fais des centres Skuh, Chen Zen connecté comme un télécentre Flo-flow interdit, j'ai v'là d'palettes Han, so Zuukou mais y a pas que des arbalètes Audio dope avec le S, ça cuisine la galette, on sait qui a les manettes, pétasse, donne la malette, ekip Et ramène des glaçons Pétasse, le sky' et la boisson Lin, lin Quatre mauvais garçons, ta tête, combien ça paye ? Combien ? Ta daronne en caution Hey, aucune émotion Aucune On a les plugs, les Glock, les boxs et les munitions Han D'la sueur et des grammes, des corps sous les draps, tu connais mon hood Tu connais mon hood, enfoiré On a les plugs, les Glock, les boxs et les munitions, pétasse J'vais ramener des millions pour sécher ses larmes, si elle a le blues On a les plugs, les Glock, les boxs et les munitions, pah, pah Aucune émotion Remets, aucune émotion Pétasse On a les plugs, les Glock Ekip, les boxs et les munitions Ekip, ekip Ta daronne en caution Eh, aucune émotion Han On a les plugs, les Glock, les boxs et les munitions On a les plugs, les Glock, les boxs et les munitions On a les plugs, les Glock, les boxs et les munitions10</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>So le Flem Allô ? Cee ? C'est comment ? T'as déjà quitté London ? Yo Freeze, we're doing one ten through the country dumpin' Vas-y, carré, fais-moi signe dès qu't'arrives à Paris I'll be like in thirty minute my bro, I'll bill it, can you buy some Cali ? Sans stress, on a les connec', quand t'es là, on s'connecte Say less, ekip, ekip Yo I keep airin' the labels, one day I might get blackballed I ain't been Fashion Week, OT though I seen me a catwalk Seen me a catwalk Give a cat six lives for the night, I don't know about landlords Real life If they knew what we did in the bando, one day I might get cancelled Shit Shit, my shoes tied tight, I can't step out in no sandals Bought a rope chain and Kangol, took me a L, I'm cool G, I feel like Cool J Cench I live my movie, I might make a BluRay and tell my story My dawg, he part of me, my chargie, we got matchin' jewelry Presidentials, Oysters, rose golds Dwellers and Day-Date 40's Fais des grosses liasses avec des polémiques Cash Dieu avec moi comme si j'bois que de l'eau bénite Han Dakar comme la place de l'obélisque Ekip Mixe Fanta exotique avec la codéine Lin Faut transférer tout le cash au pays Cash Dieu et le fer, négro, pas de protéines Paw Corleone, Central Cee Central Cee Lambo' orange, Maybach anthracite Sku Fuck un colon, fuck la Françafrique Chen Zen A.K.A. machine à scorer Cash Yeuz bridés comme la Chine, la Corée Han Pas d'pas d'danse dans les clips, pas d'choré' Et y a que Dieu que j'peux adorer Que j'peux adorer Dans la maison piège, trouve-moi dans la kitchen Trouve-moi dans la kichten You might also like How they hate on man when I don't even know they're existing? How?, huh They talk too much, they tweet too much, gotta keep my distance Cee don't be in the mix, one wish, my G's get freed out the system Link with Freeze, it's lean that he drinkin' Sippin', throwin' up Cs not crippin' Keep on bitchin', think that you're Mitch Until bro come and cut off your fingers Fuck what you're thinking, fuck your opinion That mixtape made me a million Haha Yeuz comme des litchis, loin d'eux comme les Fidji CEO, compte en banque avec six chiffres Cash Allume les big shit, découpe comme Geechi Il m'faut le biff de Lionel Richie Cash Six sur six, so à Central Fume de ouf comme une cheminée d'la centrale Grosse Cali comme à South Central J'arrive New York à fond comme le parc central Ekip Movie, bienvenue dans le film So 22Gz, un trou dans l'muffin Chen Zen chasse les vampires comme dans Buffy, ekip Movie, Lamborghini, I like me a two seat Just landed in Paris, I'm on IG tryna find me a groupie Groupie, elle veut mon cash, mes roupies Laisse-les croire qu'on roupille Sur le toit comme si j'étais Snoopy, ekip My shoes tied tight, I can't step out in no sandals Pas d'pas d'danse dans les clips, pas d'choré' Et y a que Dieu que j'peux adorer Presidential, Oysters, Rose Golds, Dwellers and Day-Date 40's Fais des grosses liasses avec des polémiques Dieu avec moi comme si j'bois que de l'eau bénite20</t>
+          <t>So le Flem Allô ? Cee ? C'est comment ? T'as déjà quitté London ? Yo Freeze, we're doing one ten through the country dumpin' Vas-y, carré, fais-moi signe dès qu't'arrives à Paris I'll be like in thirty minute my bro, I'll bill it, can you buy some Cali ? Sans stress, on a les connec', quand t'es là, on s'connecte Say less, ekip, ekip Yo I keep airin' the labels, one day I might get blackballed I ain't been Fashion Week, OT though I seen me a catwalk Seen me a catwalk Give a cat six lives for the night, I don't know about landlords Real life If they knew what we did in the bando, one day I might get cancelled Shit Shit, my shoes tied tight, I can't step out in no sandals Bought a rope chain and Kangol, took me a L, I'm cool G, I feel like Cool J Cench I live my movie, I might make a BluRay and tell my story My dawg, he part of me, my chargie, we got matchin' jewelry Presidentials, Oysters, rose golds Dwellers and Day-Date 40's Fais des grosses liasses avec des polémiques Cash Dieu avec moi comme si j'bois que de l'eau bénite Han Dakar comme la place de l'obélisque Ekip Mixe Fanta exotique avec la codéine Lin Faut transférer tout le cash au pays Cash Dieu et le fer, négro, pas de protéines Paw Corleone, Central Cee Central Cee Lambo' orange, Maybach anthracite Sku Fuck un colon, fuck la Françafrique Chen Zen A.K.A. machine à scorer Cash Yeuz bridés comme la Chine, la Corée Han Pas d'pas d'danse dans les clips, pas d'choré' Et y a que Dieu que j'peux adorer Que j'peux adorer Dans la maison piège, trouve-moi dans la kitchen Trouve-moi dans la kichten How they hate on man when I don't even know they're existing? How?, huh They talk too much, they tweet too much, gotta keep my distance Cee don't be in the mix, one wish, my G's get freed out the system Link with Freeze, it's lean that he drinkin' Sippin', throwin' up Cs not crippin' Keep on bitchin', think that you're Mitch Until bro come and cut off your fingers Fuck what you're thinking, fuck your opinion That mixtape made me a million Haha Yeuz comme des litchis, loin d'eux comme les Fidji CEO, compte en banque avec six chiffres Cash Allume les big shit, découpe comme Geechi Il m'faut le biff de Lionel Richie Cash Six sur six, so à Central Fume de ouf comme une cheminée d'la centrale Grosse Cali comme à South Central J'arrive New York à fond comme le parc central Ekip Movie, bienvenue dans le film So 22Gz, un trou dans l'muffin Chen Zen chasse les vampires comme dans Buffy, ekip Movie, Lamborghini, I like me a two seat Just landed in Paris, I'm on IG tryna find me a groupie Groupie, elle veut mon cash, mes roupies Laisse-les croire qu'on roupille Sur le toit comme si j'étais Snoopy, ekip My shoes tied tight, I can't step out in no sandals Pas d'pas d'danse dans les clips, pas d'choré' Et y a que Dieu que j'peux adorer Presidential, Oysters, Rose Golds, Dwellers and Day-Date 40's Fais des grosses liasses avec des polémiques Dieu avec moi comme si j'bois que de l'eau bénite20</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>You are now listening to Young Chencs So le Flem Yo, lil' bih, it's NKO on beat Dice, ala, mira, L Ekip, Ekip Y-Yo, tell 'em Central Cee Don't get capture I come straight from Italy I'm from Arab, click-clack I still gotta take calculated risks Yo, I come straight from Italy Ah Where your body dissolve in acid Rondo My girl is hot like Takis, no party, I'm rich, no lackin' No cap Se-se parli di drill in Italia, non ho rivali, non siamo uguali No cap Ho un cuore d'oro ma spero che i miei opps muoiano tutti quanti Mafia talk, for sure For sure, I'm richer than all my opps Why they ban me from my city? Ah I'm just tryna do my job Fuck them Pull uppo sul tuo blocco, trappin', la tua ho sa tutti i miei versi Lurkin', twerkin', squirtin' Ah-ah solo per una Birkin I'm from Arab, click-clack, no kalm, big booty è arm Big money, so halal, street boy, Montana Tana One-one Glock ti spara, one shot, in bara Bad bitch mi ama, bad boy mi chiama Ah, chiama, chiama Vite vite, chop chop, già l'ho msso in culo alla trap-trap Tu l'hai messo in culo al tuo cap-cap Dov'è la tua gang-gang? Vieni che ti faccio com Clap, clap Non fanno entrare Baby Gang-Gang Conto mila, facts-facts, scappo dalla pula come lag-lag Faccio fuori tutti con la MAC-MAC Tu ti senti Pac-Pac perché hai la bandana e sei black-black Non vuol dire che ora sei 2Pac-Pac Brr, pow, pow, pow You might also like I-I still gotta take calculated risks Alright Been six months, she's waitin' to fuck I had to put gyal on a waitin' list The paigons doin' up fan behaviour My name don't stop comin' out of their lips Uh-huh Why they love say that they're outside? I swear that they're not comin' out of their cribs These kids keep tryna get under my skin I'm tryna get money and stay out the way, low-key But I'm stuck in the public eye Last year I was sat in a pub with white This year I made more than enough from rhymes Made more than enough, I can quit right now Right now, huh It's time that I put on the guys Feels a bit weird when I put on my ice Can't wait till the whole of the gang dem shine, hm Big ting on my waist Big one Come like I popped a Viagra Uh You-you don't wanna fall, Niagara The blue phone's hot, so we're talkin' patois Sii, hm Came in like a rapture Don't get capture, wa-wake up and smell the coffee In deep where the water choppy Chopper on me when I try go colly Don't talk Talk, just listen Shh Bring it to your door, Jehovah witness Bro, should've put a hole in his wiggin' Bap I couldn't care less, the world keep spinnin' Loose lips could've got man nicked Dice, ala, mira, L Look, how many shops we missed, pissed Pissed I took an L when I shot that vid' The smell when I pop that zip, stinks Red Si vamos a buscarte, tú verás un equipo de primera Primera parte, con tu cabeza, goles a madera Me gustaría verte y ver cómo tu grupo se altera Verte y saber cómo era', un pastilla de los parguela' Los yonqui' aparte y la L juega siempre primero No comparte', loco, tú eres un embustero Me gusta verte y verías como una voz te susurra Ladras como una perra, boca habla, luego se cierra Yo no tengo beef si llaman a otro diciendo que quieren arreglar En prob, en problemas Costa, pero me quieren, soy Neymar 'Ar Ti tiran siempre a posta, pero si aprieto, pide el VAR VAR Poli, que no investigue, que ahora quiero solo cantar Yo-yo tell 'em Central Cee, I'm the one got the party lit Su novia moviendo to' su key, me dice que le gusto, soy kid No-no intente' ser así, yo te freno en el patín Y luego en persona siente' el ki, empieza a decir que no e' pa ti J'ai tout mis dans la crypto' Fah, y a trop de chevaux fiscaux Fah, fah Il m'faut le pied gauche à Robben et la droite de Klitschko Splash Zéro, zéro police, dans mon entourage, y a zéro police J'suis avec mes frères, des potos solides, pour tout racheter comme au Monopoly On veut tout pour la familia, ici, nous, on connaît l'omerta J'charbonne pendant qu'les commères parlent, on se couche toujours à l'heure où nos mères taffent J'suis à 160, j'suis dans le GTD, j'vais pas vendre mon âme pour quelques CD J'pull up à Londres pour marquer l'Europe avec une frappe à la Trezeguet Ekip Sta-, statique Cali, ça cons' d'Italie jusqu'à Niarry-Tally Han J'suis Koulibaly, t'es Adil Rami Eh, très loin d'eux comme si j'habite Bali, pétasse On mange pas d'rosette, allume le frozen, grosse arbalète, so au Z Ra-, rap français, il a des MST, 20-22, que des crypto' et des NFT Mé-, Métaverse, j'coffre des Decentraland, envoie la prod, elle s'fait descendre à Londres Parle-moi cash pour parler dans ma langue, Insh'Allah, bientôt j'pull up au bled dans la Lamb' L'instru' j'l'éclate à la batte, de l'effet j'en mets v'là à la balle Il m'faut quatre fois l'salaire à Alaba, 2k22, ça pète comme à Jalalabad7</t>
+          <t>You are now listening to Young Chencs So le Flem Yo, lil' bih, it's NKO on beat Dice, ala, mira, L Ekip, Ekip Y-Yo, tell 'em Central Cee Don't get capture I come straight from Italy I'm from Arab, click-clack I still gotta take calculated risks Yo, I come straight from Italy Ah Where your body dissolve in acid Rondo My girl is hot like Takis, no party, I'm rich, no lackin' No cap Se-se parli di drill in Italia, non ho rivali, non siamo uguali No cap Ho un cuore d'oro ma spero che i miei opps muoiano tutti quanti Mafia talk, for sure For sure, I'm richer than all my opps Why they ban me from my city? Ah I'm just tryna do my job Fuck them Pull uppo sul tuo blocco, trappin', la tua ho sa tutti i miei versi Lurkin', twerkin', squirtin' Ah-ah solo per una Birkin I'm from Arab, click-clack, no kalm, big booty è arm Big money, so halal, street boy, Montana Tana One-one Glock ti spara, one shot, in bara Bad bitch mi ama, bad boy mi chiama Ah, chiama, chiama Vite vite, chop chop, già l'ho msso in culo alla trap-trap Tu l'hai messo in culo al tuo cap-cap Dov'è la tua gang-gang? Vieni che ti faccio com Clap, clap Non fanno entrare Baby Gang-Gang Conto mila, facts-facts, scappo dalla pula come lag-lag Faccio fuori tutti con la MAC-MAC Tu ti senti Pac-Pac perché hai la bandana e sei black-black Non vuol dire che ora sei 2Pac-Pac Brr, pow, pow, pow I-I still gotta take calculated risks Alright Been six months, she's waitin' to fuck I had to put gyal on a waitin' list The paigons doin' up fan behaviour My name don't stop comin' out of their lips Uh-huh Why they love say that they're outside? I swear that they're not comin' out of their cribs These kids keep tryna get under my skin I'm tryna get money and stay out the way, low-key But I'm stuck in the public eye Last year I was sat in a pub with white This year I made more than enough from rhymes Made more than enough, I can quit right now Right now, huh It's time that I put on the guys Feels a bit weird when I put on my ice Can't wait till the whole of the gang dem shine, hm Big ting on my waist Big one Come like I popped a Viagra Uh You-you don't wanna fall, Niagara The blue phone's hot, so we're talkin' patois Sii, hm Came in like a rapture Don't get capture, wa-wake up and smell the coffee In deep where the water choppy Chopper on me when I try go colly Don't talk Talk, just listen Shh Bring it to your door, Jehovah witness Bro, should've put a hole in his wiggin' Bap I couldn't care less, the world keep spinnin' Loose lips could've got man nicked Dice, ala, mira, L Look, how many shops we missed, pissed Pissed I took an L when I shot that vid' The smell when I pop that zip, stinks Red Si vamos a buscarte, tú verás un equipo de primera Primera parte, con tu cabeza, goles a madera Me gustaría verte y ver cómo tu grupo se altera Verte y saber cómo era', un pastilla de los parguela' Los yonqui' aparte y la L juega siempre primero No comparte', loco, tú eres un embustero Me gusta verte y verías como una voz te susurra Ladras como una perra, boca habla, luego se cierra Yo no tengo beef si llaman a otro diciendo que quieren arreglar En prob, en problemas Costa, pero me quieren, soy Neymar 'Ar Ti tiran siempre a posta, pero si aprieto, pide el VAR VAR Poli, que no investigue, que ahora quiero solo cantar Yo-yo tell 'em Central Cee, I'm the one got the party lit Su novia moviendo to' su key, me dice que le gusto, soy kid No-no intente' ser así, yo te freno en el patín Y luego en persona siente' el ki, empieza a decir que no e' pa ti J'ai tout mis dans la crypto' Fah, y a trop de chevaux fiscaux Fah, fah Il m'faut le pied gauche à Robben et la droite de Klitschko Splash Zéro, zéro police, dans mon entourage, y a zéro police J'suis avec mes frères, des potos solides, pour tout racheter comme au Monopoly On veut tout pour la familia, ici, nous, on connaît l'omerta J'charbonne pendant qu'les commères parlent, on se couche toujours à l'heure où nos mères taffent J'suis à 160, j'suis dans le GTD, j'vais pas vendre mon âme pour quelques CD J'pull up à Londres pour marquer l'Europe avec une frappe à la Trezeguet Ekip Sta-, statique Cali, ça cons' d'Italie jusqu'à Niarry-Tally Han J'suis Koulibaly, t'es Adil Rami Eh, très loin d'eux comme si j'habite Bali, pétasse On mange pas d'rosette, allume le frozen, grosse arbalète, so au Z Ra-, rap français, il a des MST, 20-22, que des crypto' et des NFT Mé-, Métaverse, j'coffre des Decentraland, envoie la prod, elle s'fait descendre à Londres Parle-moi cash pour parler dans ma langue, Insh'Allah, bientôt j'pull up au bled dans la Lamb' L'instru' j'l'éclate à la batte, de l'effet j'en mets v'là à la balle Il m'faut quatre fois l'salaire à Alaba, 2k22, ça pète comme à Jalalabad7</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J'avais entendu parler d'un truc dingue qui tournait, je m'en suis procuré... Et le gars qui me l'a vendu m'a dit Surtout, ne prends pas trop d'ce truc. J'ai cassé un huitième de gramme en trois morceaux... Je me suis injecté ça et je m'suis écroulé juste là. Je crois que c'était la première fois que je testais du vrai Fentanyl, du Fentanyl pur Gros teh, Fanta-lean, j'coupe ma merde au Fentanyl Ras Al Ghul dans la ligue, j'reste vrai, j'reste dans ma ligne Q.B comme l'époque Lefrak, Chen Zen, mes drogues défractent Effet d'surprise, inattendu quand j'décoche des frappes Nique un sioniste comme BHL On a la logistique qu'il faut pour acheminer les colis d'un point A à un point B comme DHL John Wall dans la peinture, trois cents balles dans la ceinture Lin, texture comme si j'ai mis un peu d'eau dans d'la peinture Et s'te-plait, parle cash, négro, parle-moi concrètement Allô, docteur Medellin ? C'est comment pour mon traitement ? À Dakar, on connait des Alonzo, des Vic Mackey Il a voulu s'allumer comme moi, il a vite lacké Et j'sip des leans bordeaux, fils, j'ai les techniques d'Eddy Gordo Galsen' comme Yékini et Gris Bordeaux J'connais v'là d'combos comme si j'taffais chez Capcom Dans les pills, négro, j'me sens comme si j'ai pas d'corps Pendant qu'ils achètent v'là les streams, j'veux les fafs à Valve et Steam So l'Roi Heenok, rap radical, tactique d'la Palestine Séisme artificiel, contrôle de météo J'les vois p'tit comme si j'étais haut, j'enseigne la vie comme GTO Alphonse, rap professeur So Pope Dany, plus de tech' que quatre processeurs Tous les jours dans l'labo, négro, j'me sens comme Dexter Dans la planque avec le plan, négro, j'me sens comme Lester Backwoods, j'écrase sept têtes, j'regarde le ciel, j'guette la bête à sept têtes Série d'éliminations, j'en suis à sept têtes So DGK, roc-Ma, grosse frappe comme Drogba Vrai négro, jamais d'ma vie j'danse sur une table comme Pogba J'vois flou dans les opiacés, so Sobek le croco' des eaux glacées So la mafia, négro, so les hauts-placés Précis comme si j'joue chez OKC J'roule des gros tassés et ça m'fait mal quand j'pense à des gens d'qui j'dois parler au passé Self-made, ekip à fond, pas d'assistance SRR-61, j'règle la hausse par rapport à la distance Damn son, ils m'font bien rire, haha comme Nelson comme Nelson Négro, j'les utilise pour rouler comme Benson Concu', j'en fume des plaquettes, Medusa sur les claquettes Audio dope, j'bute des crackheads, j'suis comme Wilson sur les raquettes Blue Beam, c'est la NASA, mélange sirop à Maaza Chen Zen aka Ra's-Al', j'fume la frappe, négro, la Hazard la Hazard, la Hazard J'cons' v'là d'lin comme à Abuja Abuja, Abuja Propagande américaine, comme à Falloujah Falloujah, Falloujah Et j'fume beaucoup d'shit, touche beaucoup d'cibles d'cibles 20.18, négro, y a plus beaucoup d'signes, ekip ekip, ekip You might also like Gros teh, Fanta-lean, j'coupe ma merde au Fentanyl Q.B comme l'époque Lefrak, Chen Zen, mes drogues défractent7</t>
+          <t>J'avais entendu parler d'un truc dingue qui tournait, je m'en suis procuré... Et le gars qui me l'a vendu m'a dit Surtout, ne prends pas trop d'ce truc. J'ai cassé un huitième de gramme en trois morceaux... Je me suis injecté ça et je m'suis écroulé juste là. Je crois que c'était la première fois que je testais du vrai Fentanyl, du Fentanyl pur Gros teh, Fanta-lean, j'coupe ma merde au Fentanyl Ras Al Ghul dans la ligue, j'reste vrai, j'reste dans ma ligne Q.B comme l'époque Lefrak, Chen Zen, mes drogues défractent Effet d'surprise, inattendu quand j'décoche des frappes Nique un sioniste comme BHL On a la logistique qu'il faut pour acheminer les colis d'un point A à un point B comme DHL John Wall dans la peinture, trois cents balles dans la ceinture Lin, texture comme si j'ai mis un peu d'eau dans d'la peinture Et s'te-plait, parle cash, négro, parle-moi concrètement Allô, docteur Medellin ? C'est comment pour mon traitement ? À Dakar, on connait des Alonzo, des Vic Mackey Il a voulu s'allumer comme moi, il a vite lacké Et j'sip des leans bordeaux, fils, j'ai les techniques d'Eddy Gordo Galsen' comme Yékini et Gris Bordeaux J'connais v'là d'combos comme si j'taffais chez Capcom Dans les pills, négro, j'me sens comme si j'ai pas d'corps Pendant qu'ils achètent v'là les streams, j'veux les fafs à Valve et Steam So l'Roi Heenok, rap radical, tactique d'la Palestine Séisme artificiel, contrôle de météo J'les vois p'tit comme si j'étais haut, j'enseigne la vie comme GTO Alphonse, rap professeur So Pope Dany, plus de tech' que quatre processeurs Tous les jours dans l'labo, négro, j'me sens comme Dexter Dans la planque avec le plan, négro, j'me sens comme Lester Backwoods, j'écrase sept têtes, j'regarde le ciel, j'guette la bête à sept têtes Série d'éliminations, j'en suis à sept têtes So DGK, roc-Ma, grosse frappe comme Drogba Vrai négro, jamais d'ma vie j'danse sur une table comme Pogba J'vois flou dans les opiacés, so Sobek le croco' des eaux glacées So la mafia, négro, so les hauts-placés Précis comme si j'joue chez OKC J'roule des gros tassés et ça m'fait mal quand j'pense à des gens d'qui j'dois parler au passé Self-made, ekip à fond, pas d'assistance SRR-61, j'règle la hausse par rapport à la distance Damn son, ils m'font bien rire, haha comme Nelson comme Nelson Négro, j'les utilise pour rouler comme Benson Concu', j'en fume des plaquettes, Medusa sur les claquettes Audio dope, j'bute des crackheads, j'suis comme Wilson sur les raquettes Blue Beam, c'est la NASA, mélange sirop à Maaza Chen Zen aka Ra's-Al', j'fume la frappe, négro, la Hazard la Hazard, la Hazard J'cons' v'là d'lin comme à Abuja Abuja, Abuja Propagande américaine, comme à Falloujah Falloujah, Falloujah Et j'fume beaucoup d'shit, touche beaucoup d'cibles d'cibles 20.18, négro, y a plus beaucoup d'signes, ekip ekip, ekip Gros teh, Fanta-lean, j'coupe ma merde au Fentanyl Q.B comme l'époque Lefrak, Chen Zen, mes drogues défractent7</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Han, eh, ekip, ekip Ekip, ekip, ekip, skrt, han, eh This is a Melo beat, han, eh MMS, LDO, NRM Han, skrt, skrt LDO, ekip, LDO, han Ekip, han, ekip, ekip, han Han, skrt, skrt, skrt J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl 17TRACK, so la prise, tous les jours, check quand l'colis atterrit Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kevin Différents types de frappe comme un buteur et j'arrive blindé comme un lutteur Vrai négro comme Gillie, t'as dé-pop comme Billy, j'suis un océan, t'es comme dix litres J'reste vrai du berceau à la tombe, so Nipsey, jamais j'arrête le marathon Les cadavres de prod commencent à s'entasser Focus comme si j'ai bu cent cafés, loin du rap comme si j'habite à Santa Fe So la prise, connecté comme un câble Ethernet J'm'agenouille que devant lÉternel Wax, j'finis la tâche en balle, si j'ai la dalle, j'sais faire du cash en balle Lin dans l'Mons', j'me fais un flash en balle, j'évite les obstacles comme dans Crash, en balle, ekip Eh You might also like J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, han J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens J'sip le Hi-Tech, j'fume la Cali, j'fume le Drytech Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Négro, j'm'entraîne depuis le logo, so la Secte, le triangle, le logo Dans l'milieu comme Allan, technique de malade, j'veux la même SACEM que Lalanne 20-20 Menace Fantôme, j'veux la Continental et la Phantom, pétasse So la Black Mafia, so Oxmo Rarissime comme O'Rosko, j'suis dans le lin, le xan, so Pop Smoke J'mets pas d'vernis et j'fais pas d'teinture So Kaki, j'suis repeint mais j'parle pas d'peinture Tu fais la mala, tu prends 7 , pendant qu'j'fume des louds à 37 Si j'me présente, j'pense que j'prends 7 , Freezer deuxième forme, j'suis qu'à 7 , pétasse J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, hein J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, ekip eh J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, hein J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens Comme si j'avais sept sens Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Chaque jour en cachette J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl Au Padéryl Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kévin Sont drôles comme Kévin Différents types de frappe comme un buteur Comme un buteur et j'arrive blindé comme un lutteur Comme un lutteur13</t>
+          <t>Han, eh, ekip, ekip Ekip, ekip, ekip, skrt, han, eh This is a Melo beat, han, eh MMS, LDO, NRM Han, skrt, skrt LDO, ekip, LDO, han Ekip, han, ekip, ekip, han Han, skrt, skrt, skrt J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl 17TRACK, so la prise, tous les jours, check quand l'colis atterrit Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kevin Différents types de frappe comme un buteur et j'arrive blindé comme un lutteur Vrai négro comme Gillie, t'as dé-pop comme Billy, j'suis un océan, t'es comme dix litres J'reste vrai du berceau à la tombe, so Nipsey, jamais j'arrête le marathon Les cadavres de prod commencent à s'entasser Focus comme si j'ai bu cent cafés, loin du rap comme si j'habite à Santa Fe So la prise, connecté comme un câble Ethernet J'm'agenouille que devant lÉternel Wax, j'finis la tâche en balle, si j'ai la dalle, j'sais faire du cash en balle Lin dans l'Mons', j'me fais un flash en balle, j'évite les obstacles comme dans Crash, en balle, ekip Eh J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, han J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens J'sip le Hi-Tech, j'fume la Cali, j'fume le Drytech Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Négro, j'm'entraîne depuis le logo, so la Secte, le triangle, le logo Dans l'milieu comme Allan, technique de malade, j'veux la même SACEM que Lalanne 20-20 Menace Fantôme, j'veux la Continental et la Phantom, pétasse So la Black Mafia, so Oxmo Rarissime comme O'Rosko, j'suis dans le lin, le xan, so Pop Smoke J'mets pas d'vernis et j'fais pas d'teinture So Kaki, j'suis repeint mais j'parle pas d'peinture Tu fais la mala, tu prends 7 , pendant qu'j'fume des louds à 37 Si j'me présente, j'pense que j'prends 7 , Freezer deuxième forme, j'suis qu'à 7 , pétasse J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, hein J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, ekip eh J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, hein J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens Comme si j'avais sept sens Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Chaque jour en cachette J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl Au Padéryl Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kévin Sont drôles comme Kévin Différents types de frappe comme un buteur Comme un buteur et j'arrive blindé comme un lutteur Comme un lutteur13</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>souffle souffle Ekip, ekip, ekip Han, eh, han Han, ekip Ekip Han, MMS, LDO, pétasse Pétasse Han han So two-two, j'ai les katas Gang, gang, gang Cons' v'là d'essence comme les Tatas, j'ai les données, j'ai les data Ah Négro, faut les dineros et les platas, des GLE pour les tontons et tatas Sku Sur la prod' comme Sonic Nion, ils existent plus comme les Sonics Eh, eh Quoiqu'il arrive, j'reste solide, trop killu, ils ont eu peur de m'signer chez Sony Triangle sur les polos Han, cain-cain comme les low-low, c'est des fufus, prêts à tout pour des follows Ftt, ftt J'les blesse mais j'essaie d'y aller mollo Ouais, à propos d'la verte comme si j'suis écolo Prof Chen, j'ai les potions Han, complot depuis très jeune, négro, j'ai les notions Ekip Travail, dévotion, et j'ai les blindages juste par précaution Il m'faut un comptable comme dans Ozark, so Zuukou, des arbalètes et des gros arcs Paw 50-50 pour les dosages, dans la lignée des Malcolm et des Rosa Han Aqua dans le X4 négro, ça en a fait du chemin depuis le Eastpak Pétasse Maintenant, 16 barres égalent 10 stacks, trois points ou dans la peinture comme Kristaps Swish J'les mets d'accord avec deux barres, quand j'ferme les yeux, j'vois des E avec deux barres Cash J'peux faire quatre parts avec deux parts Han, so le Roi, 500 nègres avec deux bars GG Chen Laden dans l'complot depuis les deux tours Pah Avance, deux tours, de retour comme Gandalf dans Les Deux Tours Sku La famille et l'or comme un gitan Han, que j'graille des MC, j'me sens comme un Titan Eh, eh, pétasse Killu' à vie, négro, c'est pas un mi-temps Nan Dans l'milieu comme Lothar Han, quand tu t'réveilles, c'est trop tard Pah So Papinoh Street négro, des fois, j'y vais tout droit comme un motard Sku J'les blesse, sans stress Aucun, ils ont cru qu'j'étais maxé Haha Y a qu'vers les dough qu'j'suis axé Cash, à la fin du plan, toute l'équipe est racksée Cash Nègre Cash solitaire Han, déter', so à Bagdaad Ekip Négro, chaque jour, fuck la famille Bush en entier comme à Bagdad Ekip On n'a pas attendu la SACEM Nan, rien que j'monte comme si j'étais dans la nacelle Haha J'fais les tactiques à la Arsène, LDO boulé de noir comme à Parcelles Han On fait la diff' comme des accents, devant l'mic' comme si j'étais 400 Eh J'fais l'travail proprement j'mets la bâche, j'tue la prod et j'vérifie qu'j'laisse pas d'sang Pas d'sang, pas d'sang Soupape par la droite, so Hector Sku, sku Rafale le micro au Vector han, chaque 16, négro, c'est collector Lin rose comme Boubou, fonce-dé sous boue, so Shone dans la McLaren en boubou Sku J'arrive Chiraq comme Mubu, so Osirus, par nous, pour nous comme FUBU You might also like Pétasse, pétasse Triangle sur les polos han, kinkin comme les low-low C'est des fufus, prêts à tout pour des follows J'les blesse mais j'essaie d'y aller mollo, à propos d'la verte comme si j'suis écolo Prof Chen, j'ai les potions, complot depuis très jeune, négro, j'ai les notions Travail, dévotion et j'ai les blindages juste par précaution12</t>
+          <t>souffle souffle Ekip, ekip, ekip Han, eh, han Han, ekip Ekip Han, MMS, LDO, pétasse Pétasse Han han So two-two, j'ai les katas Gang, gang, gang Cons' v'là d'essence comme les Tatas, j'ai les données, j'ai les data Ah Négro, faut les dineros et les platas, des GLE pour les tontons et tatas Sku Sur la prod' comme Sonic Nion, ils existent plus comme les Sonics Eh, eh Quoiqu'il arrive, j'reste solide, trop killu, ils ont eu peur de m'signer chez Sony Triangle sur les polos Han, cain-cain comme les low-low, c'est des fufus, prêts à tout pour des follows Ftt, ftt J'les blesse mais j'essaie d'y aller mollo Ouais, à propos d'la verte comme si j'suis écolo Prof Chen, j'ai les potions Han, complot depuis très jeune, négro, j'ai les notions Ekip Travail, dévotion, et j'ai les blindages juste par précaution Il m'faut un comptable comme dans Ozark, so Zuukou, des arbalètes et des gros arcs Paw 50-50 pour les dosages, dans la lignée des Malcolm et des Rosa Han Aqua dans le X4 négro, ça en a fait du chemin depuis le Eastpak Pétasse Maintenant, 16 barres égalent 10 stacks, trois points ou dans la peinture comme Kristaps Swish J'les mets d'accord avec deux barres, quand j'ferme les yeux, j'vois des E avec deux barres Cash J'peux faire quatre parts avec deux parts Han, so le Roi, 500 nègres avec deux bars GG Chen Laden dans l'complot depuis les deux tours Pah Avance, deux tours, de retour comme Gandalf dans Les Deux Tours Sku La famille et l'or comme un gitan Han, que j'graille des MC, j'me sens comme un Titan Eh, eh, pétasse Killu' à vie, négro, c'est pas un mi-temps Nan Dans l'milieu comme Lothar Han, quand tu t'réveilles, c'est trop tard Pah So Papinoh Street négro, des fois, j'y vais tout droit comme un motard Sku J'les blesse, sans stress Aucun, ils ont cru qu'j'étais maxé Haha Y a qu'vers les dough qu'j'suis axé Cash, à la fin du plan, toute l'équipe est racksée Cash Nègre Cash solitaire Han, déter', so à Bagdaad Ekip Négro, chaque jour, fuck la famille Bush en entier comme à Bagdad Ekip On n'a pas attendu la SACEM Nan, rien que j'monte comme si j'étais dans la nacelle Haha J'fais les tactiques à la Arsène, LDO boulé de noir comme à Parcelles Han On fait la diff' comme des accents, devant l'mic' comme si j'étais 400 Eh J'fais l'travail proprement j'mets la bâche, j'tue la prod et j'vérifie qu'j'laisse pas d'sang Pas d'sang, pas d'sang Soupape par la droite, so Hector Sku, sku Rafale le micro au Vector han, chaque 16, négro, c'est collector Lin rose comme Boubou, fonce-dé sous boue, so Shone dans la McLaren en boubou Sku J'arrive Chiraq comme Mubu, so Osirus, par nous, pour nous comme FUBU Pétasse, pétasse Triangle sur les polos han, kinkin comme les low-low C'est des fufus, prêts à tout pour des follows J'les blesse mais j'essaie d'y aller mollo, à propos d'la verte comme si j'suis écolo Prof Chen, j'ai les potions, complot depuis très jeune, négro, j'ai les notions Travail, dévotion et j'ai les blindages juste par précaution12</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume nest pas de ce monde Désertez le rap et les jardins suspendus de Babylone Mon hood réclame la peine de mort Dieu bénisse mes négros Gang, apatrides illégaux Enfants d'Afrique qui bravent le Nil mais finissent devant le métro Metro Comme le peuple de Moïse dans le désert béni errant Béni errant Retour aux pyramides, voleur d'obélisques, pouilleux étaient leurs vêtements Vêtements On est des Nubiens, on va pas se soumettre aux arabes libyens Libyens Mort sur les terrains Terrains, Marc Foé Vivien Vivien Règne suprême comme Souleiman le Magnifique Catherine, Julien ou Laurent de Medicis Que le feu de mes diatribes embrase les oreilles de lAntéchrist Les glaives de Dieu descendent du ciel puis bénirent toute l'Afrique Quatre heures du matin, j'me suis levé, devant mon Seigneur, j'paierai mes pêchés Vendre mon âme, vous faites que rêver, Satan a parlé, moi, j'ai refusé Tirez, tirez, videz mon sang, de martyr, j'suis élevé au rang L'État veut juste ruiner mes plans, pur re-noi armé de plomb Négro, sens-tu ma peine ? Négro, connais-tu le silence des agneaux ? Les Damnés de la Terre, du peu de la guerre, salaire est de misère Salaire est de misère Re-noi viril enceinteur de blonde de Bavière Blonde de Bavière Nos parents faisaient peur à Himmler, Hitler, Macron, Rothschild, Bernard Kouchner Kouchner, Kouchner You might also like J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Jsuis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Jsuis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Me défaire, je ne peux Freeze Corleone Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort, ekip, ekip, ekip Mon hood réclame la peine de mort La putain de putain de peine de mort Han Peine de mort pour les pédérastes, négro, ça complote à Dakar sur les terrasses Concu, sans aucun stress, on les terrasse, berline noire sur noire comme un agent fédéral Sku Négro, pour percer, toi, t'attends un pacte, j'attends l'facteur négro, jattends un pack Cible dans l'viseur, j'appuie sur la gâchette, très loin négro donc j'attends l'impact Première année, nation nègre et culture, ils savent pourquoi ils ont cassé l'nez des sculptures Damn Au village pour ma sépulture, autour de moi, j'vois des snakes et des vultures Snakes Supra nègre comme Kémi, ils sont morts comme Kenny, sur la prod', découpe comme Eli Shii J'ai ma Ashanti comme Nelly, peine de mort pour les pédo-satanistes comme Kelly Ekip Ils font les thugs, on les voit comme les B2K Lin J'appelle YungMvX pour les glitches 2K Swish Pouvoir noir comme Marcus, négro Han J'ai la frappe comme Marcus, négro Han, réussir ou mourir comme Marcus, négro Han Que du sirop, négro, pas d'kasteel Lin, no cap, négro, pas d'casquette On les graille en balle comme quatre pastels, et des fois j'dérape comme Van Basten Sku, sku Connecté comme des rallonges Rallonges J'ai l'bras long, j'ai d'l'allonge, que le cash, bitch, donc s'te-plaît, allonge, ekip J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort La putain de putain de peine de mort Hey, que l'Afrique soit bénie, prions pour nos ennemis J'te fouette quatre cents nuits, puis j'dis C'est du passé, faut qu't'oublies Hey, ils m'ont d'mandé c'que j'faisais dans la vie J'ai répondu j'suis un noir du lundi au lundi Ils veulent qu'on pue la défaite comme Bonaparte en Haïti C'est bien raconté, si, si, mais pour nous, t'es un tho-my t'es un tho-my On reviendra toujours comme Kenny Kenny Les soldats allemands nous prenaient pour des zombies Jette une liasse en l'air, j'veux les r'garder s'entre-tuer, ces niggas sont des pitres Des pitres, sont des pitres Le système t'a eu, mon frère, si naïvement, tu t'crois refait, à chaque litre que tu débites Même le ventre plein, ça leur fait mal, de constater que l'on graille, depuis tout p'tit, je cherche les failles J'te vois espérer leur amour, boy, faut qu'tu t'réveilles, autant sortir la nuit et chercher le soleil Soleil J'suis pas re-noi, moi, j'suis noir deux fois Tel Micah Xavier Johnson, j'en ai marre de tout ça Ils nous connaissent pas mais nous témoignent de la haine Ouvre pas ta gueule s'tu vas rien faire comme l'IGPN Délivrez-vous d'vos chaînes, j'ai du mépris, pas de peine Quand j'vois Jean Messiha à genoux, fier de lui d'vant le RN Qui tient les rennes ? Qui se délecte de nous voir nous fumer dans l'arène ? Choc de classes sociales esclaves qui ché-cra dans la reine Qui ché-cra dans la reine Africain du 9-3, boubou dans une McLaren, hey Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort La putain de putain de peine de mort Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone4</t>
+          <t>Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume nest pas de ce monde Désertez le rap et les jardins suspendus de Babylone Mon hood réclame la peine de mort Dieu bénisse mes négros Gang, apatrides illégaux Enfants d'Afrique qui bravent le Nil mais finissent devant le métro Metro Comme le peuple de Moïse dans le désert béni errant Béni errant Retour aux pyramides, voleur d'obélisques, pouilleux étaient leurs vêtements Vêtements On est des Nubiens, on va pas se soumettre aux arabes libyens Libyens Mort sur les terrains Terrains, Marc Foé Vivien Vivien Règne suprême comme Souleiman le Magnifique Catherine, Julien ou Laurent de Medicis Que le feu de mes diatribes embrase les oreilles de lAntéchrist Les glaives de Dieu descendent du ciel puis bénirent toute l'Afrique Quatre heures du matin, j'me suis levé, devant mon Seigneur, j'paierai mes pêchés Vendre mon âme, vous faites que rêver, Satan a parlé, moi, j'ai refusé Tirez, tirez, videz mon sang, de martyr, j'suis élevé au rang L'État veut juste ruiner mes plans, pur re-noi armé de plomb Négro, sens-tu ma peine ? Négro, connais-tu le silence des agneaux ? Les Damnés de la Terre, du peu de la guerre, salaire est de misère Salaire est de misère Re-noi viril enceinteur de blonde de Bavière Blonde de Bavière Nos parents faisaient peur à Himmler, Hitler, Macron, Rothschild, Bernard Kouchner Kouchner, Kouchner J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Jsuis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Jsuis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Me défaire, je ne peux Freeze Corleone Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort, ekip, ekip, ekip Mon hood réclame la peine de mort La putain de putain de peine de mort Han Peine de mort pour les pédérastes, négro, ça complote à Dakar sur les terrasses Concu, sans aucun stress, on les terrasse, berline noire sur noire comme un agent fédéral Sku Négro, pour percer, toi, t'attends un pacte, j'attends l'facteur négro, jattends un pack Cible dans l'viseur, j'appuie sur la gâchette, très loin négro donc j'attends l'impact Première année, nation nègre et culture, ils savent pourquoi ils ont cassé l'nez des sculptures Damn Au village pour ma sépulture, autour de moi, j'vois des snakes et des vultures Snakes Supra nègre comme Kémi, ils sont morts comme Kenny, sur la prod', découpe comme Eli Shii J'ai ma Ashanti comme Nelly, peine de mort pour les pédo-satanistes comme Kelly Ekip Ils font les thugs, on les voit comme les B2K Lin J'appelle YungMvX pour les glitches 2K Swish Pouvoir noir comme Marcus, négro Han J'ai la frappe comme Marcus, négro Han, réussir ou mourir comme Marcus, négro Han Que du sirop, négro, pas d'kasteel Lin, no cap, négro, pas d'casquette On les graille en balle comme quatre pastels, et des fois j'dérape comme Van Basten Sku, sku Connecté comme des rallonges Rallonges J'ai l'bras long, j'ai d'l'allonge, que le cash, bitch, donc s'te-plaît, allonge, ekip J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux J'suis le captif des paroles de Dieu, sa volonté, me défaire, je ne peux Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort La putain de putain de peine de mort Hey, que l'Afrique soit bénie, prions pour nos ennemis J'te fouette quatre cents nuits, puis j'dis C'est du passé, faut qu't'oublies Hey, ils m'ont d'mandé c'que j'faisais dans la vie J'ai répondu j'suis un noir du lundi au lundi Ils veulent qu'on pue la défaite comme Bonaparte en Haïti C'est bien raconté, si, si, mais pour nous, t'es un tho-my t'es un tho-my On reviendra toujours comme Kenny Kenny Les soldats allemands nous prenaient pour des zombies Jette une liasse en l'air, j'veux les r'garder s'entre-tuer, ces niggas sont des pitres Des pitres, sont des pitres Le système t'a eu, mon frère, si naïvement, tu t'crois refait, à chaque litre que tu débites Même le ventre plein, ça leur fait mal, de constater que l'on graille, depuis tout p'tit, je cherche les failles J'te vois espérer leur amour, boy, faut qu'tu t'réveilles, autant sortir la nuit et chercher le soleil Soleil J'suis pas re-noi, moi, j'suis noir deux fois Tel Micah Xavier Johnson, j'en ai marre de tout ça Ils nous connaissent pas mais nous témoignent de la haine Ouvre pas ta gueule s'tu vas rien faire comme l'IGPN Délivrez-vous d'vos chaînes, j'ai du mépris, pas de peine Quand j'vois Jean Messiha à genoux, fier de lui d'vant le RN Qui tient les rennes ? Qui se délecte de nous voir nous fumer dans l'arène ? Choc de classes sociales esclaves qui ché-cra dans la reine Qui ché-cra dans la reine Africain du 9-3, boubou dans une McLaren, hey Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort Peine de mort, peine de mort Mon hood réclame la peine de mort La putain de putain de peine de mort Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone Sku, sku Que les démons tremblent, mon royaume n'est pas de ce monde Désertez le rap et les jardins suspendus de Babylone4</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>J'arrive Japonais comme des RAV4, flingue comme des HK, cons' plein d'essence comme des H4 Back to the Future So le Flem J'ai les techniques des Khamzat et des Shavkat Ekip, ekip, ekip Un M, deux M, trois M, quatre M Cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Sku Monte la température comme dans les forges Han, prie pour qu'y ait pas trop de traîtres dans mes proches Ekip Un M, deux M, trois M, quatre M Cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Sku Monte la température comme dans les forges Han, prie pour qu'y ait pas trop de traîtres dans mes proches J'arrive Japonais comme des RAV4 Sku, flingue comme des HK Pah, cons' plein d'essence comme des H4 Sécurise le sac, du cash dans chaque cache, j'ai les techniques des Khamzat et des Shavkat Han So Congo derrière les platines Ekip, plaques j'ai des diamants, j'ai des or, j'ai des platines Han On les fouette chaque jour de l'année civile Chaque jour et j'm'allume comme si j'avais six vies Envoie les prod', j'fais que les éventrer Ouais, surveille les sorties et surveille les entrées Ils croient qu'c'est fini mais c'était l'entrée, j'suis l'seul négro qu'il fallait pas laisser rentrer Ouais Ah-ah, pétasse Pétasse et j'crache des flammes comme Arcanin J'préfère être accusé d'antisémitisme que de viol comme Gérald Darmanin Han J'allume des prod' jusqu'à avoir tous les camos Paw, j'suis un porte-avions, vous, des canots Han J'suis comme Sauron, il m'faut tous les anneaux Anneaux, j'rajoute des chiffres sur tous les panneaux Panneaux J'arrive au panier, j'mets des jellies Jellies, han, jamais tu m'vois sur des Vélib' Vélib', nan Ils tournent en rond comme des hélices, fuck ces négros comme Christophe à l'OGC Nice Eh, à l'OGC Nice You might also like J'arrive Japonais comme des RAV4 Sku, sku, cons' plein d'essence comme des H4 J'ai les techniques des Khamzat et des Shavkat Cons' plein d'essence comme des H4 J'arrive Japonais comme des RAV4 Sku, comme des H4 J'ai les techniques des Khamzat et des Shavkat Ekip, ekip, ekip, ekip Un M, deux M, trois M, quatre M Cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Sku Monte la température comme dans les forges Han prie pour qu'y ait pas trop de traîtres dans mes proches Ekip Un M, deux M, trois M, quatre M, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Cash, cash Monte la température comme dans les forges Han prie pour qu'y ait pas trop de traîtres dans mes proches Faut plus de briques que chez Legoland Lego, fuck la France aka Pédoland Pédo' J'fais pas de rage, ni de jersey et j'suis dans l'complot comme sur l'Île de Jersey Han Dans l'sang, les quatre drogues, faut l'CA de BlackRock, surveille le ciel pour chaque drop Han En mode motivation comme Jeezy Jeezy, j'arrive fonce-dé au lin comme Peezy Lin Bombarde sur la gauche, bombarde sur la droite Sku, sku, fuck ces négros comme l'ultra-droite J'fais des retraits, j'fais des dépôts Cash, Dieu sait très bien qu'j'ai les épaules Han Trouve-moi dans la défense centrale Han, plus de fumée que quatre grandes centrales Han On est là uniquement pour les sous Cash, cash, cash, cash, cash donc, négro, faut plus de fonds que la Banque centrale Et j'vois chaque passe cachée, j'reste loin du rap français comme si j'habite sur la face cachée Loin J'ai fumé v'là d'sachets, négro et j'prends leur avance à chaque cachet Cash Pour les pédo' la mort par noyade, ça s'voit qu'c'est un fake, il est pas loyal J'suis fonce', j'ai fumé quatre royals, sous potion violette comme dans Clash Royale Clash Royale, ekip J'arrive Japonais comme des RAV4 Sku, sku, cons' plein d'essence comme des H4 J'ai les techniques des Khamzat et des Shavkat Cons' plein d'essence comme des H4 J'arrive Japonais comme des RAV4 Sku, comme des H4 J'ai les techniques des Khamzat et des Shavkat Ekip, ekip, ekip, ekip Un M, deux M, trois M, quatre M Cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Sku Monte la température comme dans les forges Han prie pour qu'y ait pas trop de traîtres dans mes proches Ekip, ekip, ekip, ekip Un M, deux M, trois M, quatre M Cash, cash, cash, cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches, tu sais comme qui on arrive dans les Porsche Cash, cash, cash, cash Monte la température comme dans les forges Han, prie pour qu'y ait pas trop de traîtres dans mes proches8</t>
+          <t>J'arrive Japonais comme des RAV4, flingue comme des HK, cons' plein d'essence comme des H4 Back to the Future So le Flem J'ai les techniques des Khamzat et des Shavkat Ekip, ekip, ekip Un M, deux M, trois M, quatre M Cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Sku Monte la température comme dans les forges Han, prie pour qu'y ait pas trop de traîtres dans mes proches Ekip Un M, deux M, trois M, quatre M Cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Sku Monte la température comme dans les forges Han, prie pour qu'y ait pas trop de traîtres dans mes proches J'arrive Japonais comme des RAV4 Sku, flingue comme des HK Pah, cons' plein d'essence comme des H4 Sécurise le sac, du cash dans chaque cache, j'ai les techniques des Khamzat et des Shavkat Han So Congo derrière les platines Ekip, plaques j'ai des diamants, j'ai des or, j'ai des platines Han On les fouette chaque jour de l'année civile Chaque jour et j'm'allume comme si j'avais six vies Envoie les prod', j'fais que les éventrer Ouais, surveille les sorties et surveille les entrées Ils croient qu'c'est fini mais c'était l'entrée, j'suis l'seul négro qu'il fallait pas laisser rentrer Ouais Ah-ah, pétasse Pétasse et j'crache des flammes comme Arcanin J'préfère être accusé d'antisémitisme que de viol comme Gérald Darmanin Han J'allume des prod' jusqu'à avoir tous les camos Paw, j'suis un porte-avions, vous, des canots Han J'suis comme Sauron, il m'faut tous les anneaux Anneaux, j'rajoute des chiffres sur tous les panneaux Panneaux J'arrive au panier, j'mets des jellies Jellies, han, jamais tu m'vois sur des Vélib' Vélib', nan Ils tournent en rond comme des hélices, fuck ces négros comme Christophe à l'OGC Nice Eh, à l'OGC Nice J'arrive Japonais comme des RAV4 Sku, sku, cons' plein d'essence comme des H4 J'ai les techniques des Khamzat et des Shavkat Cons' plein d'essence comme des H4 J'arrive Japonais comme des RAV4 Sku, comme des H4 J'ai les techniques des Khamzat et des Shavkat Ekip, ekip, ekip, ekip Un M, deux M, trois M, quatre M Cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Sku Monte la température comme dans les forges Han prie pour qu'y ait pas trop de traîtres dans mes proches Ekip Un M, deux M, trois M, quatre M, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Cash, cash Monte la température comme dans les forges Han prie pour qu'y ait pas trop de traîtres dans mes proches Faut plus de briques que chez Legoland Lego, fuck la France aka Pédoland Pédo' J'fais pas de rage, ni de jersey et j'suis dans l'complot comme sur l'Île de Jersey Han Dans l'sang, les quatre drogues, faut l'CA de BlackRock, surveille le ciel pour chaque drop Han En mode motivation comme Jeezy Jeezy, j'arrive fonce-dé au lin comme Peezy Lin Bombarde sur la gauche, bombarde sur la droite Sku, sku, fuck ces négros comme l'ultra-droite J'fais des retraits, j'fais des dépôts Cash, Dieu sait très bien qu'j'ai les épaules Han Trouve-moi dans la défense centrale Han, plus de fumée que quatre grandes centrales Han On est là uniquement pour les sous Cash, cash, cash, cash, cash donc, négro, faut plus de fonds que la Banque centrale Et j'vois chaque passe cachée, j'reste loin du rap français comme si j'habite sur la face cachée Loin J'ai fumé v'là d'sachets, négro et j'prends leur avance à chaque cachet Cash Pour les pédo' la mort par noyade, ça s'voit qu'c'est un fake, il est pas loyal J'suis fonce', j'ai fumé quatre royals, sous potion violette comme dans Clash Royale Clash Royale, ekip J'arrive Japonais comme des RAV4 Sku, sku, cons' plein d'essence comme des H4 J'ai les techniques des Khamzat et des Shavkat Cons' plein d'essence comme des H4 J'arrive Japonais comme des RAV4 Sku, comme des H4 J'ai les techniques des Khamzat et des Shavkat Ekip, ekip, ekip, ekip Un M, deux M, trois M, quatre M Cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches Cash, tu sais comme qui on arrive dans les Porsche Sku Monte la température comme dans les forges Han prie pour qu'y ait pas trop de traîtres dans mes proches Ekip, ekip, ekip, ekip Un M, deux M, trois M, quatre M Cash, cash, cash, cash, faut les AMG, les RS et les Pack M Sku Cinq M, six M, sept M, huit M Cash, j'encaisse du week-end au week-end Cash La seule chose qui m'importe c'qu'y a dans mes poches, tu sais comme qui on arrive dans les Porsche Cash, cash, cash, cash Monte la température comme dans les forges Han, prie pour qu'y ait pas trop de traîtres dans mes proches8</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ff ff ffff Ekip, ekip, ekip, han So le Flem han, so le 8 ekip, dans la grotte, grosse session goddamn Les fouetter, c'est ma profession, j'ai les frappes et la possession J'veux l'chiffre d'affaires de Harley sku, les louds de Marley, j'suis la version lin de Barney Négro, j'suis avec Ryuk en train d'le jam han pendant qu'j'écris leurs blases dans le carnet Freeze Corleone aka Kira Kira, so mes Mangemorts et mes pirates pirates J'arrive comme Bush, le jeu c'est l'Irak ekip, j'compte ni sur la chance ni sur des miracles gang Chen Zen, team no lacking nan, tous les jours fuck 12, négro tous les jours J'suis tout seul, j'découpe comme 12 négros goddamn, furtif comme un Glock 12 négro, ekip pah-pah J'suis avec Ocho dans le neighborhood dans le neighborhood Whole lotta gang shit comme si j'étais NeighborHood ekip, han So Dubble, j'ai la frappe comme Roberto Roberto J'suis comme un océan, t'es comme un gros verre d'eau J'lean de ouf lin comme un gue-sh' de coke gratte des lignes de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond sku sku, ta bitch me r'garde, j'sais qu'elle cons' à fond han J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond sku J'lean de ouf lin, lin comme un gue-sh' de coke gratte des lignes de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond han, ta bitch me r'garde, j'sais qu'elle cons' à fond pétasse J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond sku You might also like Killu' à vie comme le Double G so Dubble, DGK le muezzin Sur la ceinture, j'ai le double G, gros fumigène, j'mets deux doubles g J'glisse comme si j'ai des skis ou des patins sku, sku So 'Sacce, j'arrive killu' tous les matins, hein ekip J'ai le plan comme Lester han Fonscar aux xans comme Dexter, j'suis dans l'labo comme Dexter, ekip han Éclaté j'pilote comme Taxi sku, sku Nunchakus comme Maxi, sur la prod' découpe comme 4 scies han, ekip Flash de lin, j'mixe deux Red Bull lin, lin, lin J'ai les techniques de découpe de Deadpool Fiston, j'ai la vision de Luka Chen Zen, j'arrive avec le blindage de Louga, ekip J'lean de ouf lin comme un gue-sh' de coke gratte des lignes de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond sku, sku, ta bitch me r'garde, j'sais qu'elle cons' à fond han J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond sku J'lean de ouf lin, lin comme un gue-sh' de coke gratte des lignes de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond han, ta bitch me r'garde, j'sais qu'elle cons' à fond pétasse J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond sku J'lean de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond J'lean de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond4</t>
+          <t>Ff ff ffff Ekip, ekip, ekip, han So le Flem han, so le 8 ekip, dans la grotte, grosse session goddamn Les fouetter, c'est ma profession, j'ai les frappes et la possession J'veux l'chiffre d'affaires de Harley sku, les louds de Marley, j'suis la version lin de Barney Négro, j'suis avec Ryuk en train d'le jam han pendant qu'j'écris leurs blases dans le carnet Freeze Corleone aka Kira Kira, so mes Mangemorts et mes pirates pirates J'arrive comme Bush, le jeu c'est l'Irak ekip, j'compte ni sur la chance ni sur des miracles gang Chen Zen, team no lacking nan, tous les jours fuck 12, négro tous les jours J'suis tout seul, j'découpe comme 12 négros goddamn, furtif comme un Glock 12 négro, ekip pah-pah J'suis avec Ocho dans le neighborhood dans le neighborhood Whole lotta gang shit comme si j'étais NeighborHood ekip, han So Dubble, j'ai la frappe comme Roberto Roberto J'suis comme un océan, t'es comme un gros verre d'eau J'lean de ouf lin comme un gue-sh' de coke gratte des lignes de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond sku sku, ta bitch me r'garde, j'sais qu'elle cons' à fond han J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond sku J'lean de ouf lin, lin comme un gue-sh' de coke gratte des lignes de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond han, ta bitch me r'garde, j'sais qu'elle cons' à fond pétasse J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond sku Killu' à vie comme le Double G so Dubble, DGK le muezzin Sur la ceinture, j'ai le double G, gros fumigène, j'mets deux doubles g J'glisse comme si j'ai des skis ou des patins sku, sku So 'Sacce, j'arrive killu' tous les matins, hein ekip J'ai le plan comme Lester han Fonscar aux xans comme Dexter, j'suis dans l'labo comme Dexter, ekip han Éclaté j'pilote comme Taxi sku, sku Nunchakus comme Maxi, sur la prod' découpe comme 4 scies han, ekip Flash de lin, j'mixe deux Red Bull lin, lin, lin J'ai les techniques de découpe de Deadpool Fiston, j'ai la vision de Luka Chen Zen, j'arrive avec le blindage de Louga, ekip J'lean de ouf lin comme un gue-sh' de coke gratte des lignes de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond sku, sku, ta bitch me r'garde, j'sais qu'elle cons' à fond han J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond sku J'lean de ouf lin, lin comme un gue-sh' de coke gratte des lignes de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond han, ta bitch me r'garde, j'sais qu'elle cons' à fond pétasse J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond sku J'lean de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond J'lean de ouf Cross ces négros, j'arrive chinois sur le terrain, j'me sens comme Jeremy Lin de ouf Fons' à fond J'me sens comme si j'ai déjà v'là d'tours d'avance et j'fonce à fond4</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Discographie - 667 Mixtape - 20141225 667 - 66.7 Radio Édition spécial Noël Single - 20140224 667 - Néo nègre - 20141003 667 - Freestyle Lyonzon 2 - 20141225 667 - Chaque jour - 20150605 667 - S.O.A.M.S. Shout Out A Ma Secte - 20210516 667 - 669 Part. 2 Featuring - 20180920 Lyonzon - 669 - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20221216 Norsacce - Laisse parler Discographie complémentaire - Discographie - Afro S - Discographie - Bagdaad - Discographie - Black Jack - Discographie - Congo Bill - Discographie - DOC OVG - Discographie - Dubble G Kiluavi - Discographie - Freeze Corleone - Discographie - Jorrdee - Discographie - Kaki Santana - Discographie - Lala ce - Discographie - Moh Money - Discographie - Norsacce - Discographie - Odeuxzero - Discographie - Osirus Jack - Discographie - Rifa Samb - Discographie - Savag Martin - Discographie - Shaka - Discographie - Slim C - Discographie - Sogui - Discographi - Zuukou MayzieYou might also like</t>
+          <t>Discographie - 667 Mixtape - 20141225 667 - 66.7 Radio Édition spécial Noël Single - 20140224 667 - Néo nègre - 20141003 667 - Freestyle Lyonzon 2 - 20141225 667 - Chaque jour - 20150605 667 - S.O.A.M.S. Shout Out A Ma Secte - 20210516 667 - 669 Part. 2 Featuring - 20180920 Lyonzon - 669 - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20221216 Norsacce - Laisse parler Discographie complémentaire - Discographie - Afro S - Discographie - Bagdaad - Discographie - Black Jack - Discographie - Congo Bill - Discographie - DOC OVG - Discographie - Dubble G Kiluavi - Discographie - Freeze Corleone - Discographie - Jorrdee - Discographie - Kaki Santana - Discographie - Lala ce - Discographie - Moh Money - Discographie - Norsacce - Discographie - Odeuxzero - Discographie - Osirus Jack - Discographie - Rifa Samb - Discographie - Savag Martin - Discographie - Shaka - Discographie - Slim C - Discographie - Sogui - Discographi - Zuukou Mayzie</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sku, sku Ekip Sku Sku Négro, j'arrive d'en haut comme si j'descends en rappel J'attends l'feu vert, j'attends l'appel, j'fais l'taf, j'prends l'cadavre et j'prends la pelle J'garde mon sang froid, température d'la Sibérie Freeze Corleone, là pour le cash, j'veux plus de papier qu'la librairie Goddamn, quand j'écris, j'vois des images comme si j'suis fonce' au LSD J'suis dans l'ch'nord, sous AMG, négro so LSD Deep comme la fosse des Mariannes, v'là d'kérosène comme des Arianes Comm des Arianes 6.6.7 fraternité comm des Aryans Comme des Aryans On les fouette de ouf comme des négriers Tah, tah, tah Tourne en rond comme des lévriers Fuck le 12 fuck le 9-1-1, dans l'complot depuis le 91-1 Sku Pétasse, inch'Allah, bientôt, j'baraude en 9-1-1 Sku On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours Snake, snake J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours Sku J'suis là pour les sous, à propos des chiffres, so Andreï Markov J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours Sku J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours Sku, sku J'suis là pour les sous, à propos des chiffres, so Andreï Markov Sku J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov You might also like Ils nous surveillent comme si on a des fiches S R.A.F. des Triple S, on veut les Classe S et les Type F Sku Gros verre de Boo, j'l'ai trop dosé, fufu c'que tu fais, j'fais l'opposé Allô Shone, demande-leur combien ils peuvent proposer, ekip Cash Convertis chaque somme en XOF Khaliss J'suis dans les iPhone comme le iOS Tireur d'élite, j'la mets dans la cible, tu sais comment j'me sens dans l'A6 Sku Goddamn, lunettes Cartier comme un blanc raciste J'arrive ATL comme quatre Scooter Black Migos Gang, sku, sku, hey J'suis dans la berline, j'fais pas d'scooter Sku Mets les trois points comme CJ Vision 360 comme Neji Ekip, sku, bientôt Hall of Fame comme Reggie, ekip On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours Snake, snake J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours Sku J'suis là pour les sous, à propos des chiffres, so Andreï Markov J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours Sku J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours Sku, sku J'suis là pour les sous, à propos des chiffres, so Andreï Markov Sku J'sécurise le sac comme si j'suis en train de m'échapper d'Tarkov J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours J'suis là pour les sous, à propos des chiffres, so Andreï Markov J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov7</t>
+          <t>Sku, sku Ekip Sku Sku Négro, j'arrive d'en haut comme si j'descends en rappel J'attends l'feu vert, j'attends l'appel, j'fais l'taf, j'prends l'cadavre et j'prends la pelle J'garde mon sang froid, température d'la Sibérie Freeze Corleone, là pour le cash, j'veux plus de papier qu'la librairie Goddamn, quand j'écris, j'vois des images comme si j'suis fonce' au LSD J'suis dans l'ch'nord, sous AMG, négro so LSD Deep comme la fosse des Mariannes, v'là d'kérosène comme des Arianes Comm des Arianes 6.6.7 fraternité comm des Aryans Comme des Aryans On les fouette de ouf comme des négriers Tah, tah, tah Tourne en rond comme des lévriers Fuck le 12 fuck le 9-1-1, dans l'complot depuis le 91-1 Sku Pétasse, inch'Allah, bientôt, j'baraude en 9-1-1 Sku On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours Snake, snake J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours Sku J'suis là pour les sous, à propos des chiffres, so Andreï Markov J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours Sku J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours Sku, sku J'suis là pour les sous, à propos des chiffres, so Andreï Markov Sku J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov Ils nous surveillent comme si on a des fiches S R.A.F. des Triple S, on veut les Classe S et les Type F Sku Gros verre de Boo, j'l'ai trop dosé, fufu c'que tu fais, j'fais l'opposé Allô Shone, demande-leur combien ils peuvent proposer, ekip Cash Convertis chaque somme en XOF Khaliss J'suis dans les iPhone comme le iOS Tireur d'élite, j'la mets dans la cible, tu sais comment j'me sens dans l'A6 Sku Goddamn, lunettes Cartier comme un blanc raciste J'arrive ATL comme quatre Scooter Black Migos Gang, sku, sku, hey J'suis dans la berline, j'fais pas d'scooter Sku Mets les trois points comme CJ Vision 360 comme Neji Ekip, sku, bientôt Hall of Fame comme Reggie, ekip On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours Snake, snake J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours Sku J'suis là pour les sous, à propos des chiffres, so Andreï Markov J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours Sku J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours Sku, sku J'suis là pour les sous, à propos des chiffres, so Andreï Markov Sku J'sécurise le sac comme si j'suis en train de m'échapper d'Tarkov J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours J'suis là pour les sous, à propos des chiffres, so Andreï Markov J'sécurise le sac comme si j'suis en train d'm'échapper d'Tarkov7</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>So le Flem, so le 8 Illuminati want my mind, soul and my body Secret society, trying to keep they eye on me Hein, OV Han Déferlement d'eau sur la Terre, on entre dans lVerseau man 20-19, pers au mic', ça va pop sur ma tête Six cent soixante plus sept, connard, là pour les sous, pas d'seins silicone Ça découpe depuis Dakar, so le bek-So man Nique sa grand-mère comme le Erdogan, trafic de terres, dorganes Angleterre, Inde, au calme, bi'-bi' des reins d'occas' T'arrives grave pas killu' comme l'Hapoël Tel-Aviv Jtai d'jà dit, dans lrap y a v'là d'Cohen La cons' vient dEindhoven N.R.M, ça s'en vient sous forme de gaz Transforme la concu' en sorte de gas N'est jamais sobre de base, hash, hash, weed, weed, fonscar Le dollar, j'attends sa chute, vite vite, H.H, 8.8 Tire tire tire Ta ta ta Sur l'toit, han, derrière l'arbre à droite À gauche, à gauche Ça rentre, ça rentre Sur l'toit, sur l'toit, ça vole, ça vole En haut Ta ta Ça rentre, ça rentre You might also like Chen Zen, chasse des vampires comme Van Helsing Livres jaunes, 1 à 7, so Van Helsing J'maîtrise la rime, so Seth Gueks, Alk', Néochrome Ils enlèvent des enfants pour extraire l'adrénochrome Ces négros tournent en rond comme au champ d'course Les flammes pour tous ceux impliqués dans l'réseau d'Zandvoort Fonsdé dans les archives O.V d'Bavières comme Garching Ils sont obsolètes comme les archines J'ai les plugs, j'ai les connects V'là d'copies comme chez Clonaid So D.G.K, j'arrive avec des comètes So Alpha 5, que des danseurs de logobi Sang froid comme le crocodile, 6.6.7, le gros lobby J'mets la frappe dans la S.M.K Négro, bientôt j'dérape dans la S.L.K Sku J'arrive nazi comme le B.V.B Mal fonss', gros teh dans les F.O.B., sku Tire tire tire Ta ta ta Sur l'toit, han, derrière l'arbre à droite À gauche, à gauche Ça rentre, ça rentre Sur l'toit, sur l'toit, ça vole, ça vole En haut Ta ta Ça rentre, ça rentre Tire tire tire Ta ta ta Sur l'toit, han, derrière l'arbre à droite À gauche, à gauche Ça rentre, ça rentre Sur l'toit, sur l'toit, ça vole, ça vole En haut Ta ta Ça rentre, ça rentre6</t>
+          <t>So le Flem, so le 8 Illuminati want my mind, soul and my body Secret society, trying to keep they eye on me Hein, OV Han Déferlement d'eau sur la Terre, on entre dans lVerseau man 20-19, pers au mic', ça va pop sur ma tête Six cent soixante plus sept, connard, là pour les sous, pas d'seins silicone Ça découpe depuis Dakar, so le bek-So man Nique sa grand-mère comme le Erdogan, trafic de terres, dorganes Angleterre, Inde, au calme, bi'-bi' des reins d'occas' T'arrives grave pas killu' comme l'Hapoël Tel-Aviv Jtai d'jà dit, dans lrap y a v'là d'Cohen La cons' vient dEindhoven N.R.M, ça s'en vient sous forme de gaz Transforme la concu' en sorte de gas N'est jamais sobre de base, hash, hash, weed, weed, fonscar Le dollar, j'attends sa chute, vite vite, H.H, 8.8 Tire tire tire Ta ta ta Sur l'toit, han, derrière l'arbre à droite À gauche, à gauche Ça rentre, ça rentre Sur l'toit, sur l'toit, ça vole, ça vole En haut Ta ta Ça rentre, ça rentre Chen Zen, chasse des vampires comme Van Helsing Livres jaunes, 1 à 7, so Van Helsing J'maîtrise la rime, so Seth Gueks, Alk', Néochrome Ils enlèvent des enfants pour extraire l'adrénochrome Ces négros tournent en rond comme au champ d'course Les flammes pour tous ceux impliqués dans l'réseau d'Zandvoort Fonsdé dans les archives O.V d'Bavières comme Garching Ils sont obsolètes comme les archines J'ai les plugs, j'ai les connects V'là d'copies comme chez Clonaid So D.G.K, j'arrive avec des comètes So Alpha 5, que des danseurs de logobi Sang froid comme le crocodile, 6.6.7, le gros lobby J'mets la frappe dans la S.M.K Négro, bientôt j'dérape dans la S.L.K Sku J'arrive nazi comme le B.V.B Mal fonss', gros teh dans les F.O.B., sku Tire tire tire Ta ta ta Sur l'toit, han, derrière l'arbre à droite À gauche, à gauche Ça rentre, ça rentre Sur l'toit, sur l'toit, ça vole, ça vole En haut Ta ta Ça rentre, ça rentre Tire tire tire Ta ta ta Sur l'toit, han, derrière l'arbre à droite À gauche, à gauche Ça rentre, ça rentre Sur l'toit, sur l'toit, ça vole, ça vole En haut Ta ta Ça rentre, ça rentre6</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip MMS, LDO, NRM, 667, LZ baw 667, 69, Corleone, Ashe 20-20 Menace Fantôme, pétasse sku Baw Han, ekip, ekip, ekip J'crois qu'en Dieu, j'invoque pas de démon jamais, quand j'cane, inch'Allah, je té-mon han Sur la prod, Freeze Corleone, New York Cité à fond comme Max le démon ekip J'suis là pour le cash, prends les sous, je cache, la faute ou le bâche Négro, parle en micron pour le hash', Faygo pour le flash, j'vois les 12, je dash sku, sku Pétasse, R.A.F d'être dans l'trio d'tête han, concu' y sont lourds comme dix octets eh FN SCAR, Walther, tous les jours, fuck BioTech Chen Zen a.k.a. Thanos han, so le ch'nord, so Kamoss ekip J'consomme plus d'essence que les gros gamos ftt, dans la surface comme Sergio Ramos sku Gelato et les cookies ftt, ftt, j'pue la loud dans les boutiques Dry-Dry marron comme les Wookiees, pas d'chantier mais y a les outils sku, sku J'roule une grosse cigarette de shit pétasse Ton flow vaut même pas six barettes de shit pétasse, pétasse Performe dans tous les domaines han, han Corleone, Ashe, pétasse, tu nous connais ekip, ekip, ekip, ekip Performe dans tous les domaines baw, baw Corleone, Ashe, pétasse, tu nous connais, ekip sku You might also like Drill, tous les rappeurs veulent s'y mettre brr, ma kichta fait trente centimètres brr, brr Sur l'rrain-té, sa mère la pute, j'suis en attaque, vas-y, envoie l'six mètres brr, brr LZ, les spécimens, on verra où la vie nous mène, bitch Au quartier, j'me promène, bitch, j'vais les fumer, j'te l'promets, bitch J'arrive sur le beat, si j's'rais né avant, j'aurais vendu du L aux Beatles brr J'suis dans la kitchen, j'fais ner-tour ça comme les potos dans l'pitch On va pas casser un tête, j'vais te baffer ta mère et arracher ton sweatshirt bitch J'fume que le dry et la weed chère, j'suis dans l'huitième Quand on passe en gova brr, brr, toutes les bitchs aiment brr brr brr 235, c'est simple, bitch, j'vais pas t'faire de dessin, bitch Tu veux per-pom, descends brr J'suis dans les taudis lyonnais, elle en veut, j'la fais miauler brr J'tise pas d'café au lait grr, mes khos pour m'épauler, bitch La prod, je l'ai violée, ouais wow, ouais, j'suis dans la ue-r mais j'fais encore des billets violets wow Salope, faut pas t'étonner bitch si on atteint vite le sommet wow J'ai l'bracelet en c'moment et rien que j'le fais sonner, j'ai passé ma vie à zoner brr, brr, brr Ashe, Corleone, bitch, bitch12</t>
+          <t>Ekip, ekip, ekip MMS, LDO, NRM, 667, LZ baw 667, 69, Corleone, Ashe 20-20 Menace Fantôme, pétasse sku Baw Han, ekip, ekip, ekip J'crois qu'en Dieu, j'invoque pas de démon jamais, quand j'cane, inch'Allah, je té-mon han Sur la prod, Freeze Corleone, New York Cité à fond comme Max le démon ekip J'suis là pour le cash, prends les sous, je cache, la faute ou le bâche Négro, parle en micron pour le hash', Faygo pour le flash, j'vois les 12, je dash sku, sku Pétasse, R.A.F d'être dans l'trio d'tête han, concu' y sont lourds comme dix octets eh FN SCAR, Walther, tous les jours, fuck BioTech Chen Zen a.k.a. Thanos han, so le ch'nord, so Kamoss ekip J'consomme plus d'essence que les gros gamos ftt, dans la surface comme Sergio Ramos sku Gelato et les cookies ftt, ftt, j'pue la loud dans les boutiques Dry-Dry marron comme les Wookiees, pas d'chantier mais y a les outils sku, sku J'roule une grosse cigarette de shit pétasse Ton flow vaut même pas six barettes de shit pétasse, pétasse Performe dans tous les domaines han, han Corleone, Ashe, pétasse, tu nous connais ekip, ekip, ekip, ekip Performe dans tous les domaines baw, baw Corleone, Ashe, pétasse, tu nous connais, ekip sku Drill, tous les rappeurs veulent s'y mettre brr, ma kichta fait trente centimètres brr, brr Sur l'rrain-té, sa mère la pute, j'suis en attaque, vas-y, envoie l'six mètres brr, brr LZ, les spécimens, on verra où la vie nous mène, bitch Au quartier, j'me promène, bitch, j'vais les fumer, j'te l'promets, bitch J'arrive sur le beat, si j's'rais né avant, j'aurais vendu du L aux Beatles brr J'suis dans la kitchen, j'fais ner-tour ça comme les potos dans l'pitch On va pas casser un tête, j'vais te baffer ta mère et arracher ton sweatshirt bitch J'fume que le dry et la weed chère, j'suis dans l'huitième Quand on passe en gova brr, brr, toutes les bitchs aiment brr brr brr 235, c'est simple, bitch, j'vais pas t'faire de dessin, bitch Tu veux per-pom, descends brr J'suis dans les taudis lyonnais, elle en veut, j'la fais miauler brr J'tise pas d'café au lait grr, mes khos pour m'épauler, bitch La prod, je l'ai violée, ouais wow, ouais, j'suis dans la ue-r mais j'fais encore des billets violets wow Salope, faut pas t'étonner bitch si on atteint vite le sommet wow J'ai l'bracelet en c'moment et rien que j'le fais sonner, j'ai passé ma vie à zoner brr, brr, brr Ashe, Corleone, bitch, bitch12</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Han So le Flem, han Han Pour le cash, on est partant han, fait du sale à tous les quarts-temps sku On les blesse trop, négro vers l'écart tend V'là d'flacons quand le groupe lean, ceinture Gucci, Cortez toute clean Chen Zen, négro, j'découpe comme si j'sortais d'Brooklyn Dans ma tête argent, sexe, drogue, complot, c'est obsessionnel han Gangster et gentleman, négro, noir et professionnel Headshot à chaque kill, négro Gros bout d'caca, j'ai les blocs à Shaquille, négro J'suis sur Grand Line, j'augmente de niveau à chaque île, négro Déterminé comme Leicester han, killu' à vie comme Majster Fft fft, sur la prod j'glisse comme kitesurf sku Négro, j'suis dans l'complot des détournements d'fonds humanitaires han Par les réseaux pédophiles jusqu'au trafic d'minerais uranifères Dans leur rétro tellement j'suis loin devant J'calcule mes trajectoires en fonction d'si y a plus ou moins de vent Black Jack ravitaille les points de vente han Négro tu roules des ficelles, j'roule des collages, des génétiques, ou des clonages Cons' plus de kérosène que pour douze décollages En D1, toi D3 goddamn, j'regarde le jeu, j'vois des proies Chen Zen, à propos des lunettes Cartier comme à Detroit Et négro, j'ai les mêmes pills que si j'étais dépressif Seul découpe comme si j'étais six, pétasse, faut qu'les liasses s'épaississent Ekip You might also like Han, ekip, ekip Han, yo Chaque titre, audio hit, fonscar aux opioïdes Chen Zen, j'arrive yeuz plissés comme un Tokyoïte So Flem pour les prods et les mix À Dakar en train d'chercher des licks Négro, j'ai la dalle, il m'faut l'salaire d'un meneur d'jeu chez les Knicks Tout pour la secte comme un scientologue, Chen Zen aka LRH Fuck la salle, j'suis à propos des armes à feu comme la NRA J'en ai marre d'tous ces négros goddamn comme un suprémaciste blanc J'veux barauder au bled dans une Foreign de vieux raciste blanc sku Quand j'débarque, tu m'connais soit j'apporte shit, soit j'apporte gas Au mic', j'crache des flammes, négro, j'ai les techniques à Portgas Dans l'compte, j'veux des sommes à dix o J'suis comme orque, t'es comme cabillaud goddamn Rital comme Fabio, Galsén comme Sadio Et j'dors pas à cause du alpraz', fusille les CDs comme si j'fais du ball-trap V'là d'tracks dans la cuisine, j'prépare du sale crack Tu sais qu'j'ai les manuels, petit Maîtrise les boîtes auto comme les manuelles, petit Tu rappes encore, t'as presque l'âge d'Emmanuel Petit Très loin d'la puissance maximale Yeuz' bridés, japonais comme une Maxima Réflexe de pilotage de taximan sku, sku Quand y'a personne dans le rétroviseur, j'aime Nouvelle école, Freeze Corleone aka Proviseur Chen, ekip9</t>
+          <t>Han So le Flem, han Han Pour le cash, on est partant han, fait du sale à tous les quarts-temps sku On les blesse trop, négro vers l'écart tend V'là d'flacons quand le groupe lean, ceinture Gucci, Cortez toute clean Chen Zen, négro, j'découpe comme si j'sortais d'Brooklyn Dans ma tête argent, sexe, drogue, complot, c'est obsessionnel han Gangster et gentleman, négro, noir et professionnel Headshot à chaque kill, négro Gros bout d'caca, j'ai les blocs à Shaquille, négro J'suis sur Grand Line, j'augmente de niveau à chaque île, négro Déterminé comme Leicester han, killu' à vie comme Majster Fft fft, sur la prod j'glisse comme kitesurf sku Négro, j'suis dans l'complot des détournements d'fonds humanitaires han Par les réseaux pédophiles jusqu'au trafic d'minerais uranifères Dans leur rétro tellement j'suis loin devant J'calcule mes trajectoires en fonction d'si y a plus ou moins de vent Black Jack ravitaille les points de vente han Négro tu roules des ficelles, j'roule des collages, des génétiques, ou des clonages Cons' plus de kérosène que pour douze décollages En D1, toi D3 goddamn, j'regarde le jeu, j'vois des proies Chen Zen, à propos des lunettes Cartier comme à Detroit Et négro, j'ai les mêmes pills que si j'étais dépressif Seul découpe comme si j'étais six, pétasse, faut qu'les liasses s'épaississent Ekip Han, ekip, ekip Han, yo Chaque titre, audio hit, fonscar aux opioïdes Chen Zen, j'arrive yeuz plissés comme un Tokyoïte So Flem pour les prods et les mix À Dakar en train d'chercher des licks Négro, j'ai la dalle, il m'faut l'salaire d'un meneur d'jeu chez les Knicks Tout pour la secte comme un scientologue, Chen Zen aka LRH Fuck la salle, j'suis à propos des armes à feu comme la NRA J'en ai marre d'tous ces négros goddamn comme un suprémaciste blanc J'veux barauder au bled dans une Foreign de vieux raciste blanc sku Quand j'débarque, tu m'connais soit j'apporte shit, soit j'apporte gas Au mic', j'crache des flammes, négro, j'ai les techniques à Portgas Dans l'compte, j'veux des sommes à dix o J'suis comme orque, t'es comme cabillaud goddamn Rital comme Fabio, Galsén comme Sadio Et j'dors pas à cause du alpraz', fusille les CDs comme si j'fais du ball-trap V'là d'tracks dans la cuisine, j'prépare du sale crack Tu sais qu'j'ai les manuels, petit Maîtrise les boîtes auto comme les manuelles, petit Tu rappes encore, t'as presque l'âge d'Emmanuel Petit Très loin d'la puissance maximale Yeuz' bridés, japonais comme une Maxima Réflexe de pilotage de taximan sku, sku Quand y'a personne dans le rétroviseur, j'aime Nouvelle école, Freeze Corleone aka Proviseur Chen, ekip9</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Peut-on parler encore de liberté d'expression So le Flem, han face à la rhétorique particulièrement violente Ekip, ekip, ekip de Freeze Corleone ? Son nom ne vous dit peut-être rien MMS, LDO, NRM, 6.6.7, pétasse, mais il est considéré comme l'une des stars montantes du rap français. Han Plus de cinq millions d'écoutes en moins de vingt-quatre heures pour son dernier album et une obsession, dans ses différents clips. Hitler ou encore le terroriste Mollah Omar qu'il glorifie Ekip, ekip. La LICRA MMS, NRM, 6.6.7, pétasse, qui lutte contre le racisme et l'antisémitisme Han a fait une compilation de ses punchlines... Ekip, ekip, ekip, ekip Han Cartier squelette, j'vois le mécanisme, au mic', ultra-violent comme Orange Mécanique Brr Prods j'enchaîne les cadavres, série d'éliminations, j'ai des UAV et des ADAV Parler aux porcs, c'est jamais Jamais, j'ai les blindages parce qu'on sait jamais Jamais J'ai mes royalties, mes droits d'auteur Les deux, j'consomme comme si j'avais trois moteurs Trois 6.6.7, CBF, plus de gaz que GDF, so mes Somals de CDF So le Flem, aqua dans les avions d'terre, vision à long terme, j'ai fumé des camions d'teh Camions J'crois qu'en Dieu et j'fais confiance qu'en ma logique Logique Défense tactique, accélération analogique J'me sens comme Killua dans Hunter x Hunter La mort pour les pédos comme Joe Biden et son fils Hunter Pédo J'arrive fonc' au shit comme à Tanger J'peux pas mordre de mains, personne me donne à manger J'me rappelle la première fois qu'j'suis passé à cent G J'me rappelle quand les gens ont commencé à changer 93 de général, gros teh au quartier général, j'ai l'flow du complot, négro, so au Général Ekip, ekip Lunettes Cartier comme 42 Han, rafale comme dans Battlefield 2042 Ekip You might also like Euh... À chaque fois qu'il sort un, un, un ouvrage, 'fin, un album. Il essaye de le faire par exemple le 11 septembre. Là, son autre album, il voulait le sortir le 7 janvier. Toujours en lien avec des évènements dramatiques terroristes Han Que j'découpe, négro, j'fais pas des slams Nan Inch'Allah, quand j'cane, jgoûte pas les flammes Han Vrai négro, pas d'rap artificiel Nan J'vois chaque prod comme un agneau sacrificiel Agneau L'attaque des clones provoque des pertes de l'ouïe Eh Xanax comme la tête de Stewie Stewie Lin, j'bois des litres, toi, amateur, moi, élite Han J'bombarde tout droit dans ma ligne, la voie est libre Sku So big Rayane Ekip, mamba mentalité, R.E.P. Kobe Bryant R.I.P J'pense aux p'tites variables, mes lignes tailladent, faut les chiffres d'IAM, le biff de will.i.am Han J'suis le plan, mentalement Dans ma tête, j'conduis comme un vieux blanc Allemand Eh, eh J'passe la vitesse Sku, négro, j'monte de niveau, Static, Frozen, j'ai des blocks de pivot Négro, alarme instantanée quand j'déclenche Han La verte est violette, la cendre est blanche, j'reste vrai jusqu'à c'que j'sois entre des planches Han J'ai été matrixé par Matrix Neo, Audi A7 avec les phares Matrix Sku J'fume la Genetic et j'fume le clonage, j'me sens comme Gucci Mane avant le clonage Ekip Que j'découpe, négro, j'fais pas des slams Nan Inch'Allah, quand j'cane, jgoûte pas les flammes Han Vrai négro, pas d'rap artificiel Jamais J'vois chaque prod comme un agneau sacrificiel Agneau L'attaque des clones provoque des pertes de l'ouïe Eh Xanax comme la tête de Stewie Lin, j'bois des litres, toi, amateur, moi, élite Han J'bombarde tout droit dans ma ligne, la voie est libre Sku Que j'découpe, négro, j'fais pas des slams Nan Inch'Allah, quand j'cane, jgoûte pas les flammes Han Vrai négro, pas d'rap artificiel Jamais J'vois chaque prod comme un agneau sacrificiel Eh, eh L'attaque des clones provoque des pertes de l'ouïe Xanax comme la tête de Stewie Lin, j'bois des litres, toi, amateur, moi, élite Han J'bombarde tout droit dans ma ligne, la voie est libre Que j'découpe, négro, j'fais pas des slams Nan Inch'Allah, quand j'cane, jgoûte pas les flammes Han Vrai négro, pas d'rap artificiel Jamais J'vois chaque prod comme un agneau sacrificiel Agneau L'attaque des clones provoque des pertes de l'ouïe Eh Xanax comme la tête de Stewie Lin, j'bois des litres, toi, amateur, moi, élite Han J'bombarde tout droit dans ma ligne, la voie est libre Sku - ... face à ces jeunes, puisque ce rappeur était distribué à la FNAC, hein. Jusqu'à ce que la FNAC, il y a deux semaines, sans expliquer pourquoi, peut-être sentant la polémique, décide de retirer l'album de ce rappeur, qu'est-ce qu'on fait ? - On arrête la complaisance. On assume le fait que derrière ces, ces... cette installation dans notre paysage de ce discours, il y a vraiment une propagande idéologique qui est faite. On sait par qui elle... - Justement informé, vous savez que ce Monsieur n'arrive pas d'la planète Mars. Il arrive dans un contexte qui existe. C'est-à-dire que... Il n'est pas le premier, non mais, il n'est pas le premier à tenir ces propos, je faisais référence à Dieudonné. Il n'est pas le premier à rencontrer un public. Ce public, quelque part, vous l'avez entendu - Autant, j'arrive, si vous voulez. Le phénomène Dieudonné est tellement expliqué que c'est bon, on le comprend. Là, je dis, c'est un artiste, artiste entre guillemets, que je découvre. J'essaie de comprendre quelle est son influence, quelle est sa portée aujourd'hui chez les jeunes, je n'en sais strictement rien. C'est en ça que je dis - En fait, il a une influence, il est censé... - Est-ce que sur le contexte ? Sur le contexte, on est 100 d'accord, qu'est-ce que vous voulez que je vous dise ? - Je vais poser ma question parce que c'est quand même important. Parce que, certains fans ont dit Mais écoutez, écoutez, il s'exprime, c'est d'la musique et tous ceux qui disent Je suis Charlie, aujourd'hui, veulent le censurer. - Ce qui est sûr, c'est que sur toutes les questions... sur toutes les questions d'antisémitisme, de Shoah, et cetera. Nous devons être 1 intraitables. 2 Il doit y avoir un travail d'éducation, d'explication fait et refait sans relâche dans les écoles, dans les médias - Et le mythe de Sisyphe, en permanence - Mais absolument. Voilà. Et là-dessus, je pense que nous allons tous être d'accord</t>
+          <t>Peut-on parler encore de liberté d'expression So le Flem, han face à la rhétorique particulièrement violente Ekip, ekip, ekip de Freeze Corleone ? Son nom ne vous dit peut-être rien MMS, LDO, NRM, 6.6.7, pétasse, mais il est considéré comme l'une des stars montantes du rap français. Han Plus de cinq millions d'écoutes en moins de vingt-quatre heures pour son dernier album et une obsession, dans ses différents clips. Hitler ou encore le terroriste Mollah Omar qu'il glorifie Ekip, ekip. La LICRA MMS, NRM, 6.6.7, pétasse, qui lutte contre le racisme et l'antisémitisme Han a fait une compilation de ses punchlines... Ekip, ekip, ekip, ekip Han Cartier squelette, j'vois le mécanisme, au mic', ultra-violent comme Orange Mécanique Brr Prods j'enchaîne les cadavres, série d'éliminations, j'ai des UAV et des ADAV Parler aux porcs, c'est jamais Jamais, j'ai les blindages parce qu'on sait jamais Jamais J'ai mes royalties, mes droits d'auteur Les deux, j'consomme comme si j'avais trois moteurs Trois 6.6.7, CBF, plus de gaz que GDF, so mes Somals de CDF So le Flem, aqua dans les avions d'terre, vision à long terme, j'ai fumé des camions d'teh Camions J'crois qu'en Dieu et j'fais confiance qu'en ma logique Logique Défense tactique, accélération analogique J'me sens comme Killua dans Hunter x Hunter La mort pour les pédos comme Joe Biden et son fils Hunter Pédo J'arrive fonc' au shit comme à Tanger J'peux pas mordre de mains, personne me donne à manger J'me rappelle la première fois qu'j'suis passé à cent G J'me rappelle quand les gens ont commencé à changer 93 de général, gros teh au quartier général, j'ai l'flow du complot, négro, so au Général Ekip, ekip Lunettes Cartier comme 42 Han, rafale comme dans Battlefield 2042 Ekip Euh... À chaque fois qu'il sort un, un, un ouvrage, 'fin, un album. Il essaye de le faire par exemple le 11 septembre. Là, son autre album, il voulait le sortir le 7 janvier. Toujours en lien avec des évènements dramatiques terroristes Han Que j'découpe, négro, j'fais pas des slams Nan Inch'Allah, quand j'cane, jgoûte pas les flammes Han Vrai négro, pas d'rap artificiel Nan J'vois chaque prod comme un agneau sacrificiel Agneau L'attaque des clones provoque des pertes de l'ouïe Eh Xanax comme la tête de Stewie Stewie Lin, j'bois des litres, toi, amateur, moi, élite Han J'bombarde tout droit dans ma ligne, la voie est libre Sku So big Rayane Ekip, mamba mentalité, R.E.P. Kobe Bryant R.I.P J'pense aux p'tites variables, mes lignes tailladent, faut les chiffres d'IAM, le biff de will.i.am Han J'suis le plan, mentalement Dans ma tête, j'conduis comme un vieux blanc Allemand Eh, eh J'passe la vitesse Sku, négro, j'monte de niveau, Static, Frozen, j'ai des blocks de pivot Négro, alarme instantanée quand j'déclenche Han La verte est violette, la cendre est blanche, j'reste vrai jusqu'à c'que j'sois entre des planches Han J'ai été matrixé par Matrix Neo, Audi A7 avec les phares Matrix Sku J'fume la Genetic et j'fume le clonage, j'me sens comme Gucci Mane avant le clonage Ekip Que j'découpe, négro, j'fais pas des slams Nan Inch'Allah, quand j'cane, jgoûte pas les flammes Han Vrai négro, pas d'rap artificiel Jamais J'vois chaque prod comme un agneau sacrificiel Agneau L'attaque des clones provoque des pertes de l'ouïe Eh Xanax comme la tête de Stewie Lin, j'bois des litres, toi, amateur, moi, élite Han J'bombarde tout droit dans ma ligne, la voie est libre Sku Que j'découpe, négro, j'fais pas des slams Nan Inch'Allah, quand j'cane, jgoûte pas les flammes Han Vrai négro, pas d'rap artificiel Jamais J'vois chaque prod comme un agneau sacrificiel Eh, eh L'attaque des clones provoque des pertes de l'ouïe Xanax comme la tête de Stewie Lin, j'bois des litres, toi, amateur, moi, élite Han J'bombarde tout droit dans ma ligne, la voie est libre Que j'découpe, négro, j'fais pas des slams Nan Inch'Allah, quand j'cane, jgoûte pas les flammes Han Vrai négro, pas d'rap artificiel Jamais J'vois chaque prod comme un agneau sacrificiel Agneau L'attaque des clones provoque des pertes de l'ouïe Eh Xanax comme la tête de Stewie Lin, j'bois des litres, toi, amateur, moi, élite Han J'bombarde tout droit dans ma ligne, la voie est libre Sku - ... face à ces jeunes, puisque ce rappeur était distribué à la FNAC, hein. Jusqu'à ce que la FNAC, il y a deux semaines, sans expliquer pourquoi, peut-être sentant la polémique, décide de retirer l'album de ce rappeur, qu'est-ce qu'on fait ? - On arrête la complaisance. On assume le fait que derrière ces, ces... cette installation dans notre paysage de ce discours, il y a vraiment une propagande idéologique qui est faite. On sait par qui elle... - Justement informé, vous savez que ce Monsieur n'arrive pas d'la planète Mars. Il arrive dans un contexte qui existe. C'est-à-dire que... Il n'est pas le premier, non mais, il n'est pas le premier à tenir ces propos, je faisais référence à Dieudonné. Il n'est pas le premier à rencontrer un public. Ce public, quelque part, vous l'avez entendu - Autant, j'arrive, si vous voulez. Le phénomène Dieudonné est tellement expliqué que c'est bon, on le comprend. Là, je dis, c'est un artiste, artiste entre guillemets, que je découvre. J'essaie de comprendre quelle est son influence, quelle est sa portée aujourd'hui chez les jeunes, je n'en sais strictement rien. C'est en ça que je dis - En fait, il a une influence, il est censé... - Est-ce que sur le contexte ? Sur le contexte, on est 100 d'accord, qu'est-ce que vous voulez que je vous dise ? - Je vais poser ma question parce que c'est quand même important. Parce que, certains fans ont dit Mais écoutez, écoutez, il s'exprime, c'est d'la musique et tous ceux qui disent Je suis Charlie, aujourd'hui, veulent le censurer. - Ce qui est sûr, c'est que sur toutes les questions... sur toutes les questions d'antisémitisme, de Shoah, et cetera. Nous devons être 1 intraitables. 2 Il doit y avoir un travail d'éducation, d'explication fait et refait sans relâche dans les écoles, dans les médias - Et le mythe de Sisyphe, en permanence - Mais absolument. Voilà. Et là-dessus, je pense que nous allons tous être d'accord</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yeah, yoh, yoh, yoh, yeah Ekip, ekip, ekip Woh Han, skrt, skrt, skrt Plus de cash, plus de balles, j'ramène les proies comme un rabatteur Woh J'bois du poison quand j'sirote la codé' mais ça m'tient près du ciel comme un aviateur Gros, j'me renseigne et dans mes rêves, sur mon cou, j'vois des chaînes comme un gladiateur Fait chaud dans la caisse, tu sais qu'mon cerveau peut cramer la pièce comme un radiateur J'suis pas v'nu tout seul, j'suis pas décorateur, au-d'ssus des humains, j'me sens comme Gulliver Quand j'traverse l'univers comme un explorateur, j'suis comme Lucifer pour mes adorateurs Et j'me sens mal, avant l'paradis, tu peux cramer ton tél', y a pas d'opérateur J'ai mis qu'la moitié pour baiser vos rappeurs, y'a pas d'bouton retour sur le détonateur Hmm, yeah, smoking gas, gas, gas Plus de caisses, plus de liasses Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, hold up, yeah Dans mon binks, binks, binks pour la pièce, yeah You might also like Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Cash Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' J'suis comme le bon et la brute, t'es comme le con et la pute Que des cadavres sur la montagne, tu sais qu'le mont est abrupt Ils veulent tirer dans les jambes dès qu'ils m'voient remonter la bute J'pourrais ter-mon cinq cents flacons, j'pourrais t'raconter la lutte, yeah, yeah Hmm, yeah, smoking gas, gas, gas Plus de caisses, yeah Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, roll up, yeah Dans mon binks, binks, binks pour la pièce, yeah Hmm, yeah, smoking gas, gas, gas Plus de caisses, yeah Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, roll up, yeah Dans mon binks, binks, binks pour la pièce, yeah Han, ekip, 667, audio dope, audio crystal meth Chen Zen, serial killer, j'arrive dans l'jeu comme Jason à Crystal Lake Viseur ELO, précis comme Melo, j'suis un vaisseau, t'es un vélo Aqua dans l'tel-hô, gros teh de yellow, so Lyonzon, so les pélos Han J'ai mes masters, j'ai mes droits, brise des chevilles comme CP3 Sur la prod' comme si j'étais trois Han, j'vois la concu' comme si c'est des proies Beaucoup d'essence pour les moteurs Sku, j'suis fonscar, négro, j'suis dans les hauteurs C'est plus des rappeurs, c'est des blogueurs Han, mes phases passent au-dessus d'leur crâne comme des floaters Mafieux comme Tapie, cerveau comme papi, j'arrive cain-cain comme Capi Ekip Queens comme Pappy, j'ai les plans comme Mappy, j'veux pas finir comme Scrappy Han Freeze Corleone, killu à vie Han, tord la prod' avec le L.U.V Dans le lin, tous les jours, j'vois comme si tout était sous lumière UV Fuck ces négros comme le FN, parafranc actif pour les bails de FM Cash Chaque jour, j'remercie Dieu, l'prochain billet qui tombe, j'investis dans un Glock et deux FN Et j'réfléchis que en streams, braque le rap avec le même masque que dans Scream J'suis pas dans le rallye, j'prends mon temps et j'vais plus vite qu'eux en sprint Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra'5</t>
+          <t>Yeah, yoh, yoh, yoh, yeah Ekip, ekip, ekip Woh Han, skrt, skrt, skrt Plus de cash, plus de balles, j'ramène les proies comme un rabatteur Woh J'bois du poison quand j'sirote la codé' mais ça m'tient près du ciel comme un aviateur Gros, j'me renseigne et dans mes rêves, sur mon cou, j'vois des chaînes comme un gladiateur Fait chaud dans la caisse, tu sais qu'mon cerveau peut cramer la pièce comme un radiateur J'suis pas v'nu tout seul, j'suis pas décorateur, au-d'ssus des humains, j'me sens comme Gulliver Quand j'traverse l'univers comme un explorateur, j'suis comme Lucifer pour mes adorateurs Et j'me sens mal, avant l'paradis, tu peux cramer ton tél', y a pas d'opérateur J'ai mis qu'la moitié pour baiser vos rappeurs, y'a pas d'bouton retour sur le détonateur Hmm, yeah, smoking gas, gas, gas Plus de caisses, plus de liasses Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, hold up, yeah Dans mon binks, binks, binks pour la pièce, yeah Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Cash Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' J'suis comme le bon et la brute, t'es comme le con et la pute Que des cadavres sur la montagne, tu sais qu'le mont est abrupt Ils veulent tirer dans les jambes dès qu'ils m'voient remonter la bute J'pourrais ter-mon cinq cents flacons, j'pourrais t'raconter la lutte, yeah, yeah Hmm, yeah, smoking gas, gas, gas Plus de caisses, yeah Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, roll up, yeah Dans mon binks, binks, binks pour la pièce, yeah Hmm, yeah, smoking gas, gas, gas Plus de caisses, yeah Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, roll up, yeah Dans mon binks, binks, binks pour la pièce, yeah Han, ekip, 667, audio dope, audio crystal meth Chen Zen, serial killer, j'arrive dans l'jeu comme Jason à Crystal Lake Viseur ELO, précis comme Melo, j'suis un vaisseau, t'es un vélo Aqua dans l'tel-hô, gros teh de yellow, so Lyonzon, so les pélos Han J'ai mes masters, j'ai mes droits, brise des chevilles comme CP3 Sur la prod' comme si j'étais trois Han, j'vois la concu' comme si c'est des proies Beaucoup d'essence pour les moteurs Sku, j'suis fonscar, négro, j'suis dans les hauteurs C'est plus des rappeurs, c'est des blogueurs Han, mes phases passent au-dessus d'leur crâne comme des floaters Mafieux comme Tapie, cerveau comme papi, j'arrive cain-cain comme Capi Ekip Queens comme Pappy, j'ai les plans comme Mappy, j'veux pas finir comme Scrappy Han Freeze Corleone, killu à vie Han, tord la prod' avec le L.U.V Dans le lin, tous les jours, j'vois comme si tout était sous lumière UV Fuck ces négros comme le FN, parafranc actif pour les bails de FM Cash Chaque jour, j'remercie Dieu, l'prochain billet qui tombe, j'investis dans un Glock et deux FN Et j'réfléchis que en streams, braque le rap avec le même masque que dans Scream J'suis pas dans le rallye, j'prends mon temps et j'vais plus vite qu'eux en sprint Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra'5</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eh, ekip MMS, LDO, NRM, 667, CFR, pétasse, OV, han, yeah L Beats Ekip, fonscar au, j'arrive mal-fonscar, ah-ah MMS, 2100, 2017, pétasse, yeah NRM, 667, han Ekip, ekip, ekip, ekip J'suis dans le lin J'vois en slow-mo' comme Max J'glisse, j'vois la prod comme Nax Référence définit sens comme axe goddamn, ekip, ekip En soum-soum, j'les repère comme sonar goddamn J'veux les sous comme Solaar khaliss Les graille en 2-2 comme folar Ekip, sous kuku j'arrive avec Kaki J'arrive avec zeb, j'arrive avec paki FIFA 16, mets des cartouches avec Raki' Goddamn, caca en soute et dans la cabine goddamn, goddamn, goddamn Caca et soupe, j'suis dans la cabine ekip, ekip, ah Au-dessus d'eux comme les nuages, négro goddamn Viens cons' les sons sur le nuage, négro J'roule un blunt, j'mets d'la sep et j'mets du hasch, négro Comme un Gaulois j'ai ma potion, négro goddamn Tu veux t'inscrire, t'as pas d'notion, négro Gaddamn, so guy-george Dis-moi pourquoi tu rappes comme La Caution, négro goddamn La secte arrive, dégage, bouge Tes sons sont basiques comme un pH 12 ekip Dans la défense comme Sergio Ramos Négro, les ballons j'les dégage tous Ekip, j'mets des passements d'jambe et des crochets, fft, fft godamn Cons' plus d'essence qu'un groupe électrogène, goddamn essence, gas Chen Zen négro, j'arrive Galsén comme Badara Dans l'ombre avec mes ninjas négro, complote comme Madara goddamn, ekip J'applique l'art de la guerre comme un grand général so Sun Tzu Bientôt noir sur noir, berline comme agent fédéral sku Yeuz plissés comme Jeremy Lin Vision slow-motion, CS, so Jérémy Lean Goddamn, ils rappent comme des enfants J'fume ma guinz, j'vais à la boutique J'achète vos flows avec des 100 francs, ekip ekip, ekip You might also like Chen Zen négro, j'arrive Galsén comme Badara goddamn, so Alpha 25, GFG, LDO, ekip Dans l'ombre avec mes ninjas négro, complote comme Madara goddamn, so 667, MMS, LDO, et Flem, ah Chen Zen négro, j'arrive Galsén comme Badara ekip, pétasse Dans l'ombre avec mes ninjas négro, complote comme Madara pétasse, MMS, LDO, NRM, 667, ekip, ekip Goddamn, tu sais qu'j'maîtrise, fils ekip, ekip Ekip, enchaîne les lignes comme Tetris, fils MMS, LDO, NRM, 667, ekip4</t>
+          <t>Eh, ekip MMS, LDO, NRM, 667, CFR, pétasse, OV, han, yeah L Beats Ekip, fonscar au, j'arrive mal-fonscar, ah-ah MMS, 2100, 2017, pétasse, yeah NRM, 667, han Ekip, ekip, ekip, ekip J'suis dans le lin J'vois en slow-mo' comme Max J'glisse, j'vois la prod comme Nax Référence définit sens comme axe goddamn, ekip, ekip En soum-soum, j'les repère comme sonar goddamn J'veux les sous comme Solaar khaliss Les graille en 2-2 comme folar Ekip, sous kuku j'arrive avec Kaki J'arrive avec zeb, j'arrive avec paki FIFA 16, mets des cartouches avec Raki' Goddamn, caca en soute et dans la cabine goddamn, goddamn, goddamn Caca et soupe, j'suis dans la cabine ekip, ekip, ah Au-dessus d'eux comme les nuages, négro goddamn Viens cons' les sons sur le nuage, négro J'roule un blunt, j'mets d'la sep et j'mets du hasch, négro Comme un Gaulois j'ai ma potion, négro goddamn Tu veux t'inscrire, t'as pas d'notion, négro Gaddamn, so guy-george Dis-moi pourquoi tu rappes comme La Caution, négro goddamn La secte arrive, dégage, bouge Tes sons sont basiques comme un pH 12 ekip Dans la défense comme Sergio Ramos Négro, les ballons j'les dégage tous Ekip, j'mets des passements d'jambe et des crochets, fft, fft godamn Cons' plus d'essence qu'un groupe électrogène, goddamn essence, gas Chen Zen négro, j'arrive Galsén comme Badara Dans l'ombre avec mes ninjas négro, complote comme Madara goddamn, ekip J'applique l'art de la guerre comme un grand général so Sun Tzu Bientôt noir sur noir, berline comme agent fédéral sku Yeuz plissés comme Jeremy Lin Vision slow-motion, CS, so Jérémy Lean Goddamn, ils rappent comme des enfants J'fume ma guinz, j'vais à la boutique J'achète vos flows avec des 100 francs, ekip ekip, ekip Chen Zen négro, j'arrive Galsén comme Badara goddamn, so Alpha 25, GFG, LDO, ekip Dans l'ombre avec mes ninjas négro, complote comme Madara goddamn, so 667, MMS, LDO, et Flem, ah Chen Zen négro, j'arrive Galsén comme Badara ekip, pétasse Dans l'ombre avec mes ninjas négro, complote comme Madara pétasse, MMS, LDO, NRM, 667, ekip, ekip Goddamn, tu sais qu'j'maîtrise, fils ekip, ekip Ekip, enchaîne les lignes comme Tetris, fils MMS, LDO, NRM, 667, ekip4</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DJ Weedim on the stove Pu-pu-pu-pute, pu-pu-pu-pute Pu-pu-pu-pute, pu-pu-pu-pute Pute, pute, pute Le grand aigle plane au-d'ssus de ces putes Tounsi DJ Weedim, Marches de l'Empereur, épisode 9, Freeze Corleone Même quand j'serai mort, vous m'sucerez encore Le niveau est haut, le bigo est chaud Pétasse, shit, coke, héro', j'suis comme un pistolero Crache sur l'uniforme des porcs avec Freeze Corleone, pétasse Mes p'tits Pokémons fistent fort ces folles, pétasse J'brise fort les prods, bientôt l'rap, ça rapporte v'là d'biff comme l'e-sport Ils sucent des bites comme des connes suce, pute J'veux l'chiffre d'affaire de Goyard, j'regarde la concurrence, c'est comme le désert de Mojave Lin rose comme un verre de goyave, pétasse Rhinocéros tout droit ti-sor d'l'Essonne, pétasse Même ce diable de Guy Georges vise l'auréole, pétasse Tu cries fort, t'es bonne, pétasse mais y a quelque chose qui cloche C'est la discorde quand la mine d'or rayonne, pétasse J'évite sorts et porcs, vite faut qu'ils sortent les sommes goddamn Freeze Corleone avec Alk' qui coffre les corps J'ai le plan depuis longtemps, négro, so Robert Pour moi, ils mentent, devant la cage, j'lacke pas, so Robert Ekip You might also like C'est lugubre ici, t'as peur, salope T'es mort dans c'film, je suis l'unique acteur, salope La police municipale pleure, salope J'humilie ta sur, salope, lubrifie ma queue, salope Fusil mitrailleur, salope, multiplicateur, salope Je concocte une tuerie pile à l'heure, salope T'es qu'un vulgaire utilisateur, salope L'empereur, le purificateur, salope Freezer, deuxième forme, avec l'empereur de la crasserie, pétasse Dans le piège, pas dans la brasserie, pétasse, j'veux pas la fin de carrière à Nasri, pétasse Sang froid comme les varans, pétasse, j'lean pas, j'ai des carences, pétasse Sous broma, comme tes parents, pétasse, déter' comme Adolf, années 40 pétasse voilà ZenChen667 sur PS4, fusil d'précision sur BF4 MTL j'graille du PFK, ekip à fond comme le CSKA J'arrive allumé comme quatre lampes, faut brûler tous les pédophiles comme Jack Lang Jack Lang Chen Zen, seigneur Sith, bitch, j'émerge des profondeurs comme un Atlante Je fume du te-sh' dans la bre-ch', faut qu'je prenne ma revanche et je cherche la brèche Et je m'accroche aux branches, eux, ils veulent que j'abrège mais j'veux mouiller ta teuch et je maintiens le manche J'ai du pain sur la planche, d'la fumée dans les bronches, j'ai le flingue sur la hanche, y a du sperme sur ta tronche Il vaut mieux que tu t'penches, ma belle montre est étanche, toi, tu kiffes ma prestance, pute, faut pas que je flanche ouais gros J'allume un putain de gros kamas avec ma vieillasse pendant la kermesse ouais gros Tu m'suces avec de l'herpès, j'te fouette sur les fesses avec ma ceinture Hermès suce Évidemment, je suis rapide et fidèle, j'baise des actrices de chez Jacquie et Michel J'fume du haschich avec Maxime et Miguel, et j'fais du trafic avec Ali et Billel Freeze Corleone aka Luffy, j'arrive avec mes nakamas Gros teh comme Takana, anti-sioniste comme Katana J'fume la Cali, j'suis dans les pills, pas les alcalines 667, Guinée Conakry, Cameroun, Sénégal, Mali, goddamn squad Chen Zen, cain-ri comme un pull Champion FIFA19, score de tennis dans FUT Champions Ekip, j'crois pas c'qu'ils disent dans les journaux pute, pute, pute J'suis dans la cuisine, dans les fourneaux, salope J'mate pas les Ch'tis à Mykonos, j'te tripote comme un bricolo Comme ça, y a plus de quiproquos, Sexion d'Assaut, anti homos Écarte-toi d'ma route, gentil clodo, t'sais pas rapper, grand rigolo J'rentre en cabine en kimono, pépère, j'y vais tranquille, molo Rayon laser à Piccolo, j'reste pas gratuit, jeune pigeonneau C'est Alkpote le gigolo, j'vais zigouiller ces zigotos Rien à branler d'tes biscotos, mitraillette noire, semi-auto J'préfère planquer le fric au chaud et déguster du risotto So Naruto, j'ai les jutsus, Art de la guerre de Sun Tzu Toute l'année comme si c'est l'hiver, tous les jours, négro, j'cons' beaucoup d'soupe Bitch, j'ai les plans à Lester, il m'faut un salaire comme si j'jouais à Leicester sku Killu à vie, nique un sataniste négro comme Aleister pupupupupupupupupupute Ils nous ont tout volé tout volé, goddamn Ils violent des nouveaux nés pute, pute Avant-gardiste dans mon marketing marketing Chen Zen, j'ai les caractéristiques requises dans mon archétype J'ai pas suivi les conseils du manuel salope, sku Dans c'merdier, y a rien d'surnaturel nan nan T'inquiètes, bientôt, tu m'suceras sur l'net suce, pute Résidus d'sperme et de cyprine sur ma Durex sku, sku Plus d'cinquante balais, j'ai emballé ces grandes baleines T'es pas l'sang d'la veine, salaud, tu m'ressembles à peine Tu ne manques pas d'air, dis moi merci quand j't'asperge splash Suce le gland d'ma verge au lieu d'sucer l'camp adverse Whole lotta gang shit, j'arrive New York Cité comme le GS9 Précis au mic sur la prod, flow semi-automatique comme le PF9 Plus l'temps pour s'amuser, goddamn, Lebron dans le quatrième sku Soupape au point mort, t'es en quatrième, tu rappes comme si t'es en quatrième J'mixe quelque chose avec quelque chose, so Ben West, j'déteste être sobre On consomme la frappe et les sep fort, dans l'sang des drogues d'au moins sept sortes Chen Zen, général Grievous, j'découpe comme si j'ai quatre sabres Cherche la concurrence, j'vois personne, négro dans mon champ d'vision, j'ai v'là de sable, ekip Le niveau est haut, le bicot est chaud Pétasse, shit, coke, héro', j'suis comme un pistolero Crache sur l'uniforme des porcs avec Freeze Corleone, pétasse Mes p'tits Pokémons fistent fort ces folles, pétasse J'brise fort les prods, bientôt l'rap, ça rapporte V'là d'biff comme l'e-sport, ils sucent des bites comme des connes suce, pute J'veux l'chiffre d'affaire de Goyard, j'regarde la concurrence, c'est comme le désert de Mojave Lin rose comme un verre de goyave, pétasse Rhinocéros tout droit ti-sor d'l'Essonne, pétasse Même ce diable de Guy Georges vise l'auréole, pétasse Tu cries fort, t'es bonne, pétasse, mais y a quelque chose qui cloche C'est la discorde quand la mine d'or rayonne, pétasse J'évite sorts et porcs, vite faut qu'ils sortent les sommes goddam Freeze Corleone avec Alk' qui coffre les corps J'ai le plan depuis longtemps négro, so Robert Pour moi, ils mentent, devant la cage, j'lacke pas so Robert, ekip5</t>
+          <t>DJ Weedim on the stove Pu-pu-pu-pute, pu-pu-pu-pute Pu-pu-pu-pute, pu-pu-pu-pute Pute, pute, pute Le grand aigle plane au-d'ssus de ces putes Tounsi DJ Weedim, Marches de l'Empereur, épisode 9, Freeze Corleone Même quand j'serai mort, vous m'sucerez encore Le niveau est haut, le bigo est chaud Pétasse, shit, coke, héro', j'suis comme un pistolero Crache sur l'uniforme des porcs avec Freeze Corleone, pétasse Mes p'tits Pokémons fistent fort ces folles, pétasse J'brise fort les prods, bientôt l'rap, ça rapporte v'là d'biff comme l'e-sport Ils sucent des bites comme des connes suce, pute J'veux l'chiffre d'affaire de Goyard, j'regarde la concurrence, c'est comme le désert de Mojave Lin rose comme un verre de goyave, pétasse Rhinocéros tout droit ti-sor d'l'Essonne, pétasse Même ce diable de Guy Georges vise l'auréole, pétasse Tu cries fort, t'es bonne, pétasse mais y a quelque chose qui cloche C'est la discorde quand la mine d'or rayonne, pétasse J'évite sorts et porcs, vite faut qu'ils sortent les sommes goddamn Freeze Corleone avec Alk' qui coffre les corps J'ai le plan depuis longtemps, négro, so Robert Pour moi, ils mentent, devant la cage, j'lacke pas, so Robert Ekip C'est lugubre ici, t'as peur, salope T'es mort dans c'film, je suis l'unique acteur, salope La police municipale pleure, salope J'humilie ta sur, salope, lubrifie ma queue, salope Fusil mitrailleur, salope, multiplicateur, salope Je concocte une tuerie pile à l'heure, salope T'es qu'un vulgaire utilisateur, salope L'empereur, le purificateur, salope Freezer, deuxième forme, avec l'empereur de la crasserie, pétasse Dans le piège, pas dans la brasserie, pétasse, j'veux pas la fin de carrière à Nasri, pétasse Sang froid comme les varans, pétasse, j'lean pas, j'ai des carences, pétasse Sous broma, comme tes parents, pétasse, déter' comme Adolf, années 40 pétasse voilà ZenChen667 sur PS4, fusil d'précision sur BF4 MTL j'graille du PFK, ekip à fond comme le CSKA J'arrive allumé comme quatre lampes, faut brûler tous les pédophiles comme Jack Lang Jack Lang Chen Zen, seigneur Sith, bitch, j'émerge des profondeurs comme un Atlante Je fume du te-sh' dans la bre-ch', faut qu'je prenne ma revanche et je cherche la brèche Et je m'accroche aux branches, eux, ils veulent que j'abrège mais j'veux mouiller ta teuch et je maintiens le manche J'ai du pain sur la planche, d'la fumée dans les bronches, j'ai le flingue sur la hanche, y a du sperme sur ta tronche Il vaut mieux que tu t'penches, ma belle montre est étanche, toi, tu kiffes ma prestance, pute, faut pas que je flanche ouais gros J'allume un putain de gros kamas avec ma vieillasse pendant la kermesse ouais gros Tu m'suces avec de l'herpès, j'te fouette sur les fesses avec ma ceinture Hermès suce Évidemment, je suis rapide et fidèle, j'baise des actrices de chez Jacquie et Michel J'fume du haschich avec Maxime et Miguel, et j'fais du trafic avec Ali et Billel Freeze Corleone aka Luffy, j'arrive avec mes nakamas Gros teh comme Takana, anti-sioniste comme Katana J'fume la Cali, j'suis dans les pills, pas les alcalines 667, Guinée Conakry, Cameroun, Sénégal, Mali, goddamn squad Chen Zen, cain-ri comme un pull Champion FIFA19, score de tennis dans FUT Champions Ekip, j'crois pas c'qu'ils disent dans les journaux pute, pute, pute J'suis dans la cuisine, dans les fourneaux, salope J'mate pas les Ch'tis à Mykonos, j'te tripote comme un bricolo Comme ça, y a plus de quiproquos, Sexion d'Assaut, anti homos Écarte-toi d'ma route, gentil clodo, t'sais pas rapper, grand rigolo J'rentre en cabine en kimono, pépère, j'y vais tranquille, molo Rayon laser à Piccolo, j'reste pas gratuit, jeune pigeonneau C'est Alkpote le gigolo, j'vais zigouiller ces zigotos Rien à branler d'tes biscotos, mitraillette noire, semi-auto J'préfère planquer le fric au chaud et déguster du risotto So Naruto, j'ai les jutsus, Art de la guerre de Sun Tzu Toute l'année comme si c'est l'hiver, tous les jours, négro, j'cons' beaucoup d'soupe Bitch, j'ai les plans à Lester, il m'faut un salaire comme si j'jouais à Leicester sku Killu à vie, nique un sataniste négro comme Aleister pupupupupupupupupupute Ils nous ont tout volé tout volé, goddamn Ils violent des nouveaux nés pute, pute Avant-gardiste dans mon marketing marketing Chen Zen, j'ai les caractéristiques requises dans mon archétype J'ai pas suivi les conseils du manuel salope, sku Dans c'merdier, y a rien d'surnaturel nan nan T'inquiètes, bientôt, tu m'suceras sur l'net suce, pute Résidus d'sperme et de cyprine sur ma Durex sku, sku Plus d'cinquante balais, j'ai emballé ces grandes baleines T'es pas l'sang d'la veine, salaud, tu m'ressembles à peine Tu ne manques pas d'air, dis moi merci quand j't'asperge splash Suce le gland d'ma verge au lieu d'sucer l'camp adverse Whole lotta gang shit, j'arrive New York Cité comme le GS9 Précis au mic sur la prod, flow semi-automatique comme le PF9 Plus l'temps pour s'amuser, goddamn, Lebron dans le quatrième sku Soupape au point mort, t'es en quatrième, tu rappes comme si t'es en quatrième J'mixe quelque chose avec quelque chose, so Ben West, j'déteste être sobre On consomme la frappe et les sep fort, dans l'sang des drogues d'au moins sept sortes Chen Zen, général Grievous, j'découpe comme si j'ai quatre sabres Cherche la concurrence, j'vois personne, négro dans mon champ d'vision, j'ai v'là de sable, ekip Le niveau est haut, le bicot est chaud Pétasse, shit, coke, héro', j'suis comme un pistolero Crache sur l'uniforme des porcs avec Freeze Corleone, pétasse Mes p'tits Pokémons fistent fort ces folles, pétasse J'brise fort les prods, bientôt l'rap, ça rapporte V'là d'biff comme l'e-sport, ils sucent des bites comme des connes suce, pute J'veux l'chiffre d'affaire de Goyard, j'regarde la concurrence, c'est comme le désert de Mojave Lin rose comme un verre de goyave, pétasse Rhinocéros tout droit ti-sor d'l'Essonne, pétasse Même ce diable de Guy Georges vise l'auréole, pétasse Tu cries fort, t'es bonne, pétasse, mais y a quelque chose qui cloche C'est la discorde quand la mine d'or rayonne, pétasse J'évite sorts et porcs, vite faut qu'ils sortent les sommes goddam Freeze Corleone avec Alk' qui coffre les corps J'ai le plan depuis longtemps négro, so Robert Pour moi, ils mentent, devant la cage, j'lacke pas so Robert, ekip5</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oh my god Ouh Ah, sous ma s'melle Ekip, ekip, hey, ouais Babababa Ouais, toute la semaine, han Han Hum, hum Skuh, skuh, skuh, han Ici, y a pas de mecs cools, que des mecs qui pensent à t'barber ou t'enculer Pas d'trous dans les tes-comp, t'façon, dans tous les cas, y a mon p'tit en moto dans tous les coups Et putain d'merde, des fois, j'me dis qu'j'fume trop mais bon, le million a remplacé mon cur J'bombarde sur Paname, j'suis en Lamborghini, j'les vois en Uber et j'me moque Comme d'hab', ouais, c'est nous l'actu', comme d'habitude, ouais, c'est nous l'actu' J'ai pris des thunes, pas d'habits d'luxe, paire de TN que t'as jamais vue Et y a pas d'paix, baise le camp adverse, j'baise leurs surs et j'vole leurs boloss Si ça d'vient chaud, j'revends mes montres et je rachète une armurerie Fallait faire un choix entre l'école et la rue, un choix entre la push et les terrains d'foot Mais la putain d'sa mère, les huissiers de chez moi ont décidé pour moi, j'peux pas faire autrement Y a que deux personnes dans c'monde qu'ont pris mes patins donc, enculé d'ta mère, viens pas m'parler d'ingrats Si t'entends un bolide de l'autre côté d'la ville, c'est Suge, il est bourré, il fait des dérapages Skuh, ouh, ouh, ouh You might also like Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han, mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Che-Chen Zen, Koba, Chief Keef, Fredo, on est là pour l'cash, pétasse, file vite les dough Skuh Très loin au d'ssus d'eux comme si j'visite l'Edo, j'ai fait un rêve ou j'exécutais dix milles pédo' Six, six, sept, seven Han, so OBS, négro, so Next Level So le Black Skuh Matrixé par The Wire, opère comme Stringer Bell et Barksdale Avon 2.2.1, 2.4.2, 9.3, 9.1 Han, aucun stress, fin d'match 9-1 Skuh So Jack Many, so Juicy P, tous mes triples OG du 9.1 Han R.E.P Duck Ekip, faut qu'j'pèse comme si j'joue chez les Bucks Cash Branché, négro, j'ai les plugs Lin, signe de gang comme les Crips et les Bloods Skuh On est d'vant comme Aubameyang et Lacazette Han, négro, ils savent comment j'me sens dans la A7 Han So le Roi, on sait c'qu'il y a dans la cassette Han, on fait du biff avec ou sans la SACEM Cash Négro, j'suis d'vant la cage comme Neymar Jr, tous les jours, j'sip que du lin, négro, pas d'bière Lin On investit dans des métaux, d'la pierre Han, négro, j'demande la même chose à chaque prière Skuh, ekip Ouh, ouh, ouh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han, mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Ekip8</t>
+          <t>Oh my god Ouh Ah, sous ma s'melle Ekip, ekip, hey, ouais Babababa Ouais, toute la semaine, han Han Hum, hum Skuh, skuh, skuh, han Ici, y a pas de mecs cools, que des mecs qui pensent à t'barber ou t'enculer Pas d'trous dans les tes-comp, t'façon, dans tous les cas, y a mon p'tit en moto dans tous les coups Et putain d'merde, des fois, j'me dis qu'j'fume trop mais bon, le million a remplacé mon cur J'bombarde sur Paname, j'suis en Lamborghini, j'les vois en Uber et j'me moque Comme d'hab', ouais, c'est nous l'actu', comme d'habitude, ouais, c'est nous l'actu' J'ai pris des thunes, pas d'habits d'luxe, paire de TN que t'as jamais vue Et y a pas d'paix, baise le camp adverse, j'baise leurs surs et j'vole leurs boloss Si ça d'vient chaud, j'revends mes montres et je rachète une armurerie Fallait faire un choix entre l'école et la rue, un choix entre la push et les terrains d'foot Mais la putain d'sa mère, les huissiers de chez moi ont décidé pour moi, j'peux pas faire autrement Y a que deux personnes dans c'monde qu'ont pris mes patins donc, enculé d'ta mère, viens pas m'parler d'ingrats Si t'entends un bolide de l'autre côté d'la ville, c'est Suge, il est bourré, il fait des dérapages Skuh, ouh, ouh, ouh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han, mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Che-Chen Zen, Koba, Chief Keef, Fredo, on est là pour l'cash, pétasse, file vite les dough Skuh Très loin au d'ssus d'eux comme si j'visite l'Edo, j'ai fait un rêve ou j'exécutais dix milles pédo' Six, six, sept, seven Han, so OBS, négro, so Next Level So le Black Skuh Matrixé par The Wire, opère comme Stringer Bell et Barksdale Avon 2.2.1, 2.4.2, 9.3, 9.1 Han, aucun stress, fin d'match 9-1 Skuh So Jack Many, so Juicy P, tous mes triples OG du 9.1 Han R.E.P Duck Ekip, faut qu'j'pèse comme si j'joue chez les Bucks Cash Branché, négro, j'ai les plugs Lin, signe de gang comme les Crips et les Bloods Skuh On est d'vant comme Aubameyang et Lacazette Han, négro, ils savent comment j'me sens dans la A7 Han So le Roi, on sait c'qu'il y a dans la cassette Han, on fait du biff avec ou sans la SACEM Cash Négro, j'suis d'vant la cage comme Neymar Jr, tous les jours, j'sip que du lin, négro, pas d'bière Lin On investit dans des métaux, d'la pierre Han, négro, j'demande la même chose à chaque prière Skuh, ekip Ouh, ouh, ouh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Sept sur sept, ça fait du cash toute la semaine Cash, cash, cash, Chen Zen, Koba, on a leurs cous sous la semelle J'ai ton sang sous ma semelle, des liasses dans ma chaussette Han, mes pieds qui sentent l'herbe Ekip Pour le bénéf' d'la semaine Han, pour le bénéf' d'la semaine Skuh Ekip8</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mes négros ont les crocs comme 1000 pit' Belek à toi gamin, si tu t'allumes comme nous, tu peux finir comme Lil Peep Pas de vert dans mon verre, j'sip pas de Néo Sous lin sur le terrain, j'vois en slow-mo', yeuz' plissés j'ai la vista de Léo J'me téléporte pour buter les prods, Jason avec le masque de hockey Pour la cause, gratuitement on s'explose, allume masse de missiles, allume masse de roquettes Tireur d'élite, médaillé, de loin sans stress, j'vise dans le mille 2012, 5 heures du mat', j'étais à Rungis fonscar dans le MIN J'vois plus l'p'loton, j'ai trop d'avance, j'les écoute j'entends mes flows d'avant Négro devant la cage j'lack pas, j'mets des soupapes comme Samuel Eto'o d'avant Tire les ficelles comme Doflamingo, loud pack négro so la indo Jet-life, deftate j'arrive d'en haut en parachute, so Flamingo Gros teh pour les réflexions, j'laisse la nature faire pour les sélections So Lil B le based-god, j'crois qu'bientôt j'vais m'présenter pour les élections Négro j'suis dans les pills comme le dioxyde de manganèse J'garde mon sang-froid comme si j'suis un reptilien en hypothermie qu'habite dans la neige Designer drugz comme le MPR Art de la guerre, ils commencent à s'faire vieux, ils vont disparaître seuls comme le RPR J'lack pas j'aiguise mes 5 sens, faut remplir les coffres avec que des 500 Blacky débloque les plavons en balle pour qu'on baraude dans la ville en C500 Sur la ceinture j'ai la gorgone, dans la cuisine j'ai la technique à Gordon J'ai oublié 80 de ma scolarité, j'écris comme si j'ai fait la Sorbonne On veut les véhicules conçus en Allemagne, j'arrive Galsen comme Sandale-Man Rital tacticien, Marco Materazzi, finale de coupe du monde en Allemagne J'me sens comme Obélix sauf que j'suis tombé dans la drogue Aquarium dans la grotte, négro, j'arrive fonce-dé dans la prod' J'écris les formules sur v'là d'parchemins So Osirus Jack, comme l'OM j'vais droit au but pétasse, j'passe pas par 4 chemins F.D.T on entame la troisième Tu rappes comme si t'entames la 3ème Mes phases passent au-d'ssus d'leur crâne comme des avions d'ligne Avec Loto, fait des plans pour faire rentrer des camions d'lean Ekip You might also like J'vois plus l'p'loton j'ai trop d'avance, j'les écoute j'entends mes flows d'avant J'lack pas, j'aiguise mes 5 sens, faut remplir les coffres avec que des 500 On veut les véhicules conçus en Allemagne, j'arrive Galsen comme Sandale-Man Mes phases passent au-d'ssus d'leur crâne comme des avions d'ligne Avec Loto, fait des plans pour faire rentrer des camions d'lean2</t>
+          <t>Mes négros ont les crocs comme 1000 pit' Belek à toi gamin, si tu t'allumes comme nous, tu peux finir comme Lil Peep Pas de vert dans mon verre, j'sip pas de Néo Sous lin sur le terrain, j'vois en slow-mo', yeuz' plissés j'ai la vista de Léo J'me téléporte pour buter les prods, Jason avec le masque de hockey Pour la cause, gratuitement on s'explose, allume masse de missiles, allume masse de roquettes Tireur d'élite, médaillé, de loin sans stress, j'vise dans le mille 2012, 5 heures du mat', j'étais à Rungis fonscar dans le MIN J'vois plus l'p'loton, j'ai trop d'avance, j'les écoute j'entends mes flows d'avant Négro devant la cage j'lack pas, j'mets des soupapes comme Samuel Eto'o d'avant Tire les ficelles comme Doflamingo, loud pack négro so la indo Jet-life, deftate j'arrive d'en haut en parachute, so Flamingo Gros teh pour les réflexions, j'laisse la nature faire pour les sélections So Lil B le based-god, j'crois qu'bientôt j'vais m'présenter pour les élections Négro j'suis dans les pills comme le dioxyde de manganèse J'garde mon sang-froid comme si j'suis un reptilien en hypothermie qu'habite dans la neige Designer drugz comme le MPR Art de la guerre, ils commencent à s'faire vieux, ils vont disparaître seuls comme le RPR J'lack pas j'aiguise mes 5 sens, faut remplir les coffres avec que des 500 Blacky débloque les plavons en balle pour qu'on baraude dans la ville en C500 Sur la ceinture j'ai la gorgone, dans la cuisine j'ai la technique à Gordon J'ai oublié 80 de ma scolarité, j'écris comme si j'ai fait la Sorbonne On veut les véhicules conçus en Allemagne, j'arrive Galsen comme Sandale-Man Rital tacticien, Marco Materazzi, finale de coupe du monde en Allemagne J'me sens comme Obélix sauf que j'suis tombé dans la drogue Aquarium dans la grotte, négro, j'arrive fonce-dé dans la prod' J'écris les formules sur v'là d'parchemins So Osirus Jack, comme l'OM j'vais droit au but pétasse, j'passe pas par 4 chemins F.D.T on entame la troisième Tu rappes comme si t'entames la 3ème Mes phases passent au-d'ssus d'leur crâne comme des avions d'ligne Avec Loto, fait des plans pour faire rentrer des camions d'lean Ekip J'vois plus l'p'loton j'ai trop d'avance, j'les écoute j'entends mes flows d'avant J'lack pas, j'aiguise mes 5 sens, faut remplir les coffres avec que des 500 On veut les véhicules conçus en Allemagne, j'arrive Galsen comme Sandale-Man Mes phases passent au-d'ssus d'leur crâne comme des avions d'ligne Avec Loto, fait des plans pour faire rentrer des camions d'lean2</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Le rappeur Freeze Corleone, de son nom Issa Lorenzo Diakhaté, a un talent indéniable. Et il est absolument regrettable que ce talent avéré soit mis aux services de propos absolument inqualifiables racisme, antisémitisme. Et ce talent donne un pouvoir, une influence tout à fait considérables aux propos inadmissibles quil tient Han, ekip, ekip, ekip, ekip Négro, j'me sens comme un imprimeur Han j'fais qu'penser au papier J'regarde le rap français, j'vois beaucoup d'fausses Rolex et de fausses Cartier J'suis très très loin du M.A.X. Han, la Cali sort de L.A.X L.A Plus de prises qu'un judoka, négro, j'suis connecté comme une Tesla X Sku Roule, roule des cigares comme à La Havane, j'suis comme Heisenberg dans la caravane White So PIGE Studios qui porte la cam, j'consomme plus que dix Porsche Macan Sku, sku Chaque couplet, c'est des gros dégâts, Chen, Flem, Rayane aka Soap, Ghost et Gaz New York cité comme des Bodega New York, jamais d'ma vie j'mets des Bottega Jamais Il m'faut une grosse villa à Hawaï Là-bas, que j'brasse plus que Dana White Cash Avant la panenka, j'parle au goal, j'coffre au cas où j'dois m'exfiltrer comme Carlos Ghosn Han Usine, gros Swisher plein d'essence, j'suis fonc du 22 au 21 décembre Ils ont activé l'lobby jusqu'à Washington, fuck leurs présidents, de Biden jusqu'à Washington Tous Et négro, que ça stonk, jarrive mal fonc, j'fume la Pineapple Gas Bomb J'suis tout en haut d'la tour, jsuis pas encore arrivé tout en haut d'la courbe Non J'préfère les armes que la salle de sport, faut qu'j'fasse le maximum sur la carte de Score Han So Gouap, yeuz plissés comme Jackie, fuck ces négros, c'est des francs-maçons comme Shaquille Ekip, ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Sk' sk' sku C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma Ftt, ftt J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti Sku J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Brr C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip, ekip You might also like J'arrive Memphis comme Finesse2fois Deux fois, minimum par match en finesse deux fois Deux 20.20, j'suis rentré, j'ai laissé ouvert Ouvert, 20.23, j'remets les couverts Encore Sur l'terrain, que des techniciens Ftt ftt, faut plus de câble qu'un électricien Gifle la prod comme un sumotori, j'suis comme Mike Maignan, t'es comme Hugo Lloris Eh Ils captent pas c'que j'dis comme si j'rappe du morse Nan, dix-mille fois plus de lignes qu'à Gare du Nord Dix-mille Négro, trouve-moi dans la Berline en train d'rouler un gros teh à la place du mort Fume comme nous, tu visites les urgences Direct, on sort des sous-sols comme en résurgence Noir sur noir comme le Raider Klan Han, j'ai les meilleures plantes et les meilleures plans J'arrive sous xan comme Michael Jackson Ha ha, ils imaginent pas les bails que j'actionne Jamais Ils ont tremblé jusqu'au Parlement, ils veulent me faire, j'augmente le budget armement Pah Pyramide sur l'ensemble Han, j'prends du recul, j'aime bien la vue d'ensemble Han Que j'découpe, j'fais pas des tubes dansants, j'ai la force comme si j'ai des trucs en plus dans l'sang Han Pétasse Pétasse Explosifs placés, jmets l'feu à la mèche J'mets l'feu à la mèche, j'mets l'feu à la mèche Grosse Moncler comme si j'vais à la neige À la neige, à la neige Et négro, y a que Dieu, ma famille ou mes tales Han Échange équivalent comme dans Fullmetal Han, Freezer troisième forme, j'arrive en full méta Ekip, ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti J'suis dans la peinture comme le Joker Sku, ils bluffent plus que des joueurs de poker Sku C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti Sku J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Brr C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip, ekip</t>
+          <t>Le rappeur Freeze Corleone, de son nom Issa Lorenzo Diakhaté, a un talent indéniable. Et il est absolument regrettable que ce talent avéré soit mis aux services de propos absolument inqualifiables racisme, antisémitisme. Et ce talent donne un pouvoir, une influence tout à fait considérables aux propos inadmissibles quil tient Han, ekip, ekip, ekip, ekip Négro, j'me sens comme un imprimeur Han j'fais qu'penser au papier J'regarde le rap français, j'vois beaucoup d'fausses Rolex et de fausses Cartier J'suis très très loin du M.A.X. Han, la Cali sort de L.A.X L.A Plus de prises qu'un judoka, négro, j'suis connecté comme une Tesla X Sku Roule, roule des cigares comme à La Havane, j'suis comme Heisenberg dans la caravane White So PIGE Studios qui porte la cam, j'consomme plus que dix Porsche Macan Sku, sku Chaque couplet, c'est des gros dégâts, Chen, Flem, Rayane aka Soap, Ghost et Gaz New York cité comme des Bodega New York, jamais d'ma vie j'mets des Bottega Jamais Il m'faut une grosse villa à Hawaï Là-bas, que j'brasse plus que Dana White Cash Avant la panenka, j'parle au goal, j'coffre au cas où j'dois m'exfiltrer comme Carlos Ghosn Han Usine, gros Swisher plein d'essence, j'suis fonc du 22 au 21 décembre Ils ont activé l'lobby jusqu'à Washington, fuck leurs présidents, de Biden jusqu'à Washington Tous Et négro, que ça stonk, jarrive mal fonc, j'fume la Pineapple Gas Bomb J'suis tout en haut d'la tour, jsuis pas encore arrivé tout en haut d'la courbe Non J'préfère les armes que la salle de sport, faut qu'j'fasse le maximum sur la carte de Score Han So Gouap, yeuz plissés comme Jackie, fuck ces négros, c'est des francs-maçons comme Shaquille Ekip, ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Sk' sk' sku C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma Ftt, ftt J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti Sku J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Brr C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip, ekip J'arrive Memphis comme Finesse2fois Deux fois, minimum par match en finesse deux fois Deux 20.20, j'suis rentré, j'ai laissé ouvert Ouvert, 20.23, j'remets les couverts Encore Sur l'terrain, que des techniciens Ftt ftt, faut plus de câble qu'un électricien Gifle la prod comme un sumotori, j'suis comme Mike Maignan, t'es comme Hugo Lloris Eh Ils captent pas c'que j'dis comme si j'rappe du morse Nan, dix-mille fois plus de lignes qu'à Gare du Nord Dix-mille Négro, trouve-moi dans la Berline en train d'rouler un gros teh à la place du mort Fume comme nous, tu visites les urgences Direct, on sort des sous-sols comme en résurgence Noir sur noir comme le Raider Klan Han, j'ai les meilleures plantes et les meilleures plans J'arrive sous xan comme Michael Jackson Ha ha, ils imaginent pas les bails que j'actionne Jamais Ils ont tremblé jusqu'au Parlement, ils veulent me faire, j'augmente le budget armement Pah Pyramide sur l'ensemble Han, j'prends du recul, j'aime bien la vue d'ensemble Han Que j'découpe, j'fais pas des tubes dansants, j'ai la force comme si j'ai des trucs en plus dans l'sang Han Pétasse Pétasse Explosifs placés, jmets l'feu à la mèche J'mets l'feu à la mèche, j'mets l'feu à la mèche Grosse Moncler comme si j'vais à la neige À la neige, à la neige Et négro, y a que Dieu, ma famille ou mes tales Han Échange équivalent comme dans Fullmetal Han, Freezer troisième forme, j'arrive en full méta Ekip, ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti J'suis dans la peinture comme le Joker Sku, ils bluffent plus que des joueurs de poker Sku C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti Sku J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Brr C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip, ekip</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>So le Flem Fa, fa SHK, SHK Cocktail, cod', teh mélangés Fuck Skyrock, fuck Laurent Bouneau, fuck Pierre Bellanger Han Ekip, ekip, ekip, ekip Han, pah Ekip, ekip, ekip, ekip Fa, fa, fa, fa, fa, fa Ekip, ekip, ekip, ekip MMS, LDO, NRM, 667 Han, sku, sku, sku Jpeux tuer la prod de cent-sept façons Fuck et chaque président africain grand maître maçon J'appellerais pas mon fils Théophile, initiés, pas d'néophytes Demande-toi pourquoi, en France, on protège les violeurs et les pédophiles ICC Runtz jaune comm Bart et Lisa Carte noire, Mastrcard et Visa Jarrive raciste en Armani, Chiraq comme JP Armani Han Et négro, j'suis que à propos du poison comme à Parmanie Comme à Parmanie Eh Lin, lin, lin, lin, lin, toséina, Fanta Han, pétasse You might also like Cocktail, cod', teh mélangés Fuck Skyrock, fuck Laurent Bouneau, fuck Pierre Bellanger J'roule des shits atomiques V'là d'pédos dans l'industrie comme dans l'Église catholique, au mic, jai des techniques draconiques Et j'arrive sous lin comme R3 Da Chilliman Drone allié dans la zone, rien quj'regarde les points rouges sur la mini-map Mini-map Pah, pah, pah Logo projeté sur le sol Sku, sku, logo 6.6.7 dans le ciel Ils s'explosent à la C À la C, j'arrive comme Kaká à lAC Si ça chauffe trop, j'me coffre au bled, comme les nazis en Amérique du Sud Eh J'arrive raciste comme les flics du nord Han, j'arrive raciste comme les flics du sud Chaque jour, quatre kamas matinals, j'ai la vista comme La Maquina Sous tosé', j'sens pas la moitié d'mon visage comme Conway la Machina Pétasse Pétasse, lin, pétasse, et j'fais pas d'BMX J'ai les mêmes problèmes psychiatriques que DMX Han Rimes illégales dans mon GSM Brr, monopole comme le BSM Han Corleone, connecté H24 toute l'année comme le PSN PSN Rimes illégales dans mon GSM Brr, brr, monopole comme le BSM Han, connecté comme le PSN Han, ekip, ekip, pétasse Et que ça flingue comme Dino Crisis Paw, paw, paw J'arrive Chicago, so Six-O-Breezy Fa Toujours vision slow motion Han, chaque ligne, c'est des commotions Les goûts d'Hit question locomotion J'veux pas d'CDD Sku, sku, j'fume pas d'CBD Nan Bundes' mental' BVB, j'suis comme nuage, t'es comme DVD Dans la défense comme Pat' Beverley, Almadies, pas d'Beverly Gros aquarium, ça cruise dans des coupés, des 4x4 et des berlines Sku J'bombarde dans l'mauvais sens, j'programme l'obsolescence Gratos, j'me suis explosé pour la cause, j'suis parti en reconnaissance Reconnaissance Toute la journée, j'allume du combustible Du combustible Grosse Moncler comme les blancs racistes qui font du ski Eh J'ai v'là d'résine, j'ai v'là d'plantes Faut brûler tous les pédocriminels comme Polanski et Jack Lang Ekip Si ça chauffe trop, j'me coffre au bled, comme les nazis en Amérique du Sud J'arrive raciste comme les flics du nord, j'arrive raciste comme les flics du sud Chaque jour, quatre kamas matinals, j'ai la vista comme La Maquina Sous tosé', j'sens pas la moitié d'mon visage comme Conway la Machina Si ça chauffe trop, j'me coffre au bled, comme les nazis en Amérique du Sud J'arrive raciste comme les flics du nord, j'arrive raciste comme les flics du sud Chaque jour, quatre kamas matinals, j'ai la vista comme La Maquina Sous tosé', j'sens pas la moitié d'mon visage comme Conway la Machina1</t>
+          <t>So le Flem Fa, fa SHK, SHK Cocktail, cod', teh mélangés Fuck Skyrock, fuck Laurent Bouneau, fuck Pierre Bellanger Han Ekip, ekip, ekip, ekip Han, pah Ekip, ekip, ekip, ekip Fa, fa, fa, fa, fa, fa Ekip, ekip, ekip, ekip MMS, LDO, NRM, 667 Han, sku, sku, sku Jpeux tuer la prod de cent-sept façons Fuck et chaque président africain grand maître maçon J'appellerais pas mon fils Théophile, initiés, pas d'néophytes Demande-toi pourquoi, en France, on protège les violeurs et les pédophiles ICC Runtz jaune comm Bart et Lisa Carte noire, Mastrcard et Visa Jarrive raciste en Armani, Chiraq comme JP Armani Han Et négro, j'suis que à propos du poison comme à Parmanie Comme à Parmanie Eh Lin, lin, lin, lin, lin, toséina, Fanta Han, pétasse Cocktail, cod', teh mélangés Fuck Skyrock, fuck Laurent Bouneau, fuck Pierre Bellanger J'roule des shits atomiques V'là d'pédos dans l'industrie comme dans l'Église catholique, au mic, jai des techniques draconiques Et j'arrive sous lin comme R3 Da Chilliman Drone allié dans la zone, rien quj'regarde les points rouges sur la mini-map Mini-map Pah, pah, pah Logo projeté sur le sol Sku, sku, logo 6.6.7 dans le ciel Ils s'explosent à la C À la C, j'arrive comme Kaká à lAC Si ça chauffe trop, j'me coffre au bled, comme les nazis en Amérique du Sud Eh J'arrive raciste comme les flics du nord Han, j'arrive raciste comme les flics du sud Chaque jour, quatre kamas matinals, j'ai la vista comme La Maquina Sous tosé', j'sens pas la moitié d'mon visage comme Conway la Machina Pétasse Pétasse, lin, pétasse, et j'fais pas d'BMX J'ai les mêmes problèmes psychiatriques que DMX Han Rimes illégales dans mon GSM Brr, monopole comme le BSM Han Corleone, connecté H24 toute l'année comme le PSN PSN Rimes illégales dans mon GSM Brr, brr, monopole comme le BSM Han, connecté comme le PSN Han, ekip, ekip, pétasse Et que ça flingue comme Dino Crisis Paw, paw, paw J'arrive Chicago, so Six-O-Breezy Fa Toujours vision slow motion Han, chaque ligne, c'est des commotions Les goûts d'Hit question locomotion J'veux pas d'CDD Sku, sku, j'fume pas d'CBD Nan Bundes' mental' BVB, j'suis comme nuage, t'es comme DVD Dans la défense comme Pat' Beverley, Almadies, pas d'Beverly Gros aquarium, ça cruise dans des coupés, des 4x4 et des berlines Sku J'bombarde dans l'mauvais sens, j'programme l'obsolescence Gratos, j'me suis explosé pour la cause, j'suis parti en reconnaissance Reconnaissance Toute la journée, j'allume du combustible Du combustible Grosse Moncler comme les blancs racistes qui font du ski Eh J'ai v'là d'résine, j'ai v'là d'plantes Faut brûler tous les pédocriminels comme Polanski et Jack Lang Ekip Si ça chauffe trop, j'me coffre au bled, comme les nazis en Amérique du Sud J'arrive raciste comme les flics du nord, j'arrive raciste comme les flics du sud Chaque jour, quatre kamas matinals, j'ai la vista comme La Maquina Sous tosé', j'sens pas la moitié d'mon visage comme Conway la Machina Si ça chauffe trop, j'me coffre au bled, comme les nazis en Amérique du Sud J'arrive raciste comme les flics du nord, j'arrive raciste comme les flics du sud Chaque jour, quatre kamas matinals, j'ai la vista comme La Maquina Sous tosé', j'sens pas la moitié d'mon visage comme Conway la Machina1</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yeah, cur comme la muerte, pousse la porte, tu sauras jamais vraiment c'qui t'attend Les hommes sont faibles et les femmes le savent, mon frelon, j'ai plus peur de Satan So Gangster Gentleman, j'suis Jacques comme Mesrine ou Lacan Amédée roi, c'est prophétique, j'ai trouvé la concu' lackante Si j'me croisais dans la rue, j'me trouverais certainement détestable Et la psyché, c'est très sérieux, viens pas m'dire qu'avoir deux pères, c'est stable Érigent les déviances sur un piédestal, et dans leurs bêtises, j'vois les gens se lier Nouveau Rap Mondial, j'vais pas rester sage, habillé par Boss comme le chancelier J'marche avec Somaliens, ils comprennent pas et quand j'marche tout seul, j'suis un suprémaciste Je sais que j'dérange, j'ai des lacets rouges comme un Blood ou un super Marxiste J'vois beaucoup d'putes en col blanc et beaucoup d'braves hommes dans l'argent sale Tes rappeurs blancs sont castrats, moi, j'arrive direct de l'Arkansas So le Black so le Black, le respect, c'est tout le respect, c'est tout La scène française, c'est les couilles d'mon fils que ces pédés coupent Et le rap, c'est dur et le rap, c'est dur, demande à Tony Parker Tony Parker Équipe Spetsnaz, mo-mode hardcore, pas de hitmarker So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien You might also like Dans les pyramides, on prie Allah en méditant, la micro-puce dans vos veines comme le sang du Christ Je jeûne 40 jours et prie pour 40 nuits, ma musique cryptée, hiéroglyphique Dans les loges, à genoux, sur un tapis, on étudie les livres interdits Toutes les nuits, je pars en vaisseau, dans la Voie lactée Albator Anunnaki, Israélite de Berlin, logo Audi Pro-noir américain, Atlanta, Chicago, Queensbridge R.E.P. Pop Smoke, Brooklyn, 9.3, Freeze Corleone, 6.6.7 et GG, les bazookas d'Afghanistan han, han So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien Han, Django, Chen, Heenoko ekip, fuck Mbappé comme Assou-Ekotto ah Soit elle rentre, soit elle touche les poteaux pah, j'vise l'objectif sur toutes les photos paw Headshot, 100 points pah, on les lave, shampoing ah Dans mon cercle sans coin nan, mort de pédophile sourire en coin ah Fuck ces négros, ils ont pas d'âme, so Loto, killu' à mort comme Saddam ekip Audio, Adam han, j'suis l'début et la fin comme Adam yeah 667, GG ekip, commerce triangulaire han Killu' à vie, négro, tout est pyramidal, tout est triangulaire pétasse Ekip han, so la secte, Chen Zen aka Freeze Raël pah, pah Et apparemment, on n'a pas l'droit d'parler d' Le gouvernement nous écoute merde, Corleone, à chaque coup, j'découpe ekip Ça fait des sous, sous l'soleil, sous les gouttes paw, on est là pour prendre toutes les coupes han, ekip So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien1</t>
+          <t>Yeah, cur comme la muerte, pousse la porte, tu sauras jamais vraiment c'qui t'attend Les hommes sont faibles et les femmes le savent, mon frelon, j'ai plus peur de Satan So Gangster Gentleman, j'suis Jacques comme Mesrine ou Lacan Amédée roi, c'est prophétique, j'ai trouvé la concu' lackante Si j'me croisais dans la rue, j'me trouverais certainement détestable Et la psyché, c'est très sérieux, viens pas m'dire qu'avoir deux pères, c'est stable Érigent les déviances sur un piédestal, et dans leurs bêtises, j'vois les gens se lier Nouveau Rap Mondial, j'vais pas rester sage, habillé par Boss comme le chancelier J'marche avec Somaliens, ils comprennent pas et quand j'marche tout seul, j'suis un suprémaciste Je sais que j'dérange, j'ai des lacets rouges comme un Blood ou un super Marxiste J'vois beaucoup d'putes en col blanc et beaucoup d'braves hommes dans l'argent sale Tes rappeurs blancs sont castrats, moi, j'arrive direct de l'Arkansas So le Black so le Black, le respect, c'est tout le respect, c'est tout La scène française, c'est les couilles d'mon fils que ces pédés coupent Et le rap, c'est dur et le rap, c'est dur, demande à Tony Parker Tony Parker Équipe Spetsnaz, mo-mode hardcore, pas de hitmarker So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien Dans les pyramides, on prie Allah en méditant, la micro-puce dans vos veines comme le sang du Christ Je jeûne 40 jours et prie pour 40 nuits, ma musique cryptée, hiéroglyphique Dans les loges, à genoux, sur un tapis, on étudie les livres interdits Toutes les nuits, je pars en vaisseau, dans la Voie lactée Albator Anunnaki, Israélite de Berlin, logo Audi Pro-noir américain, Atlanta, Chicago, Queensbridge R.E.P. Pop Smoke, Brooklyn, 9.3, Freeze Corleone, 6.6.7 et GG, les bazookas d'Afghanistan han, han So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien Han, Django, Chen, Heenoko ekip, fuck Mbappé comme Assou-Ekotto ah Soit elle rentre, soit elle touche les poteaux pah, j'vise l'objectif sur toutes les photos paw Headshot, 100 points pah, on les lave, shampoing ah Dans mon cercle sans coin nan, mort de pédophile sourire en coin ah Fuck ces négros, ils ont pas d'âme, so Loto, killu' à mort comme Saddam ekip Audio, Adam han, j'suis l'début et la fin comme Adam yeah 667, GG ekip, commerce triangulaire han Killu' à vie, négro, tout est pyramidal, tout est triangulaire pétasse Ekip han, so la secte, Chen Zen aka Freeze Raël pah, pah Et apparemment, on n'a pas l'droit d'parler d' Le gouvernement nous écoute merde, Corleone, à chaque coup, j'découpe ekip Ça fait des sous, sous l'soleil, sous les gouttes paw, on est là pour prendre toutes les coupes han, ekip So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien So le Flem, so le Congo Bill Django, Heenoko, Kémi Seba Le Ku Klux Klan, le Noir et le Blanc On fraternise avec la famille Bush dans le Club Bohémien1</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip, han Eh, eh Ekip Cherche la concurrence comme Pepe Pétasse, pétasse À propos d'l'essence comme BP, so Kaki, dans l'crâne, cerveau comme pépé Tout seul devant le mic', quand j'rappe, on dirait qu'j'me multiplie Congo Bill sort le multi-piste, j'suis connecté comme une multiprise Glace dans les veines comme DLo, j'ai un sabre comme stylo Lin dans mon verre comme Pimo, j'ai la frappe comme Timo Pétasse Codéine, Alpraz, j'marche comme si j'ai un problème à la jambe 6.6.7, complot, so la société, so à l'agence Ekip Grosses sommes, CFA, dans les liasses, que des dix milles Alphonse, mal fons', j'arrive plus explosé que dix mines Chen Zen a.k.a le GOAT, négro, j'ai des réflexes de bot J'pouvais tirer mais j'ai dribblé le goal J'ai les mêmes potions qu'le druide qui venait de Gaule Lin 6.6.7, self-made, on va l'faire avec ou sans label Loud pack, Cali, génétique cultivée dans la bay Euphon, Phéner', négro, j'plane comme si j'ai un jetpack J'les blesse à distance, sur la prod, précis comme un stretch 4 6.6.7, self-made, on va l'faire avec ou sans label Loud pack, Cali, génétique cultivée dans la bay Euphon, phener', négro, j'plane comme si j'ai un jetpack J'les blesse à distance, sur la prod, précis comme un stretch 4 You might also like Ces négros sont fakes comme les échelles, loin du rap français comme si j'habite les Seychelles Ils savent pas j'suis à quel level de l'éveil, j'pense à mon argent dès qu'j'me réveille J'découpe les prod' depuis qu'j'suis mineur, chaque jour dans les profondeurs comme si j'suis mineur Corleone, Carmelo chez les Nuggets, on les graille en balle, c'est des nuggets Faut qu'j'pèse comme si j'joue chez les Galaxy, 6.6.7 comme les trous noirs dans les galaxies La Menace Fantôme dans ton téléphone, il prend feu direct comme les premiers Galaxy J'regarde le jeu, j'vois que des moi-même en miniature Indé', blindé, 100 000 euros sans signature Trop haut au-d'ssus d'eux, négro, au loin, j'les vois plus Gros teh sur gros teh, depuis qu'j'm'allume, j'ai fumé au moins un poids plume Cons' plus d'essence que les V12, par semaine, j'm'allume des 28 et des 12 Sur les prod' comme si j'étais 12, en balle, j'découpe des 16, des 8 et des 12 Ekip 6.6.7, self-made, on va l'faire avec ou sans label Loud pack, Cali, génétique cultivée dans la bay Euphon, phener', négro, j'plane comme si j'ai un jetpack J'les blesse à distance, sur la prod, précis comme un stretch 4 6.6.7, self-made, on va l'faire avec ou sans label Loud pack, Cali, génétique cultivée dans la bay Euphon, phener', négro, j'plane comme si j'ai un jetpack J'les blesse à distance, sur la prod, précis comme un stretch 4 Green11</t>
+          <t>Ekip, ekip, ekip, han Eh, eh Ekip Cherche la concurrence comme Pepe Pétasse, pétasse À propos d'l'essence comme BP, so Kaki, dans l'crâne, cerveau comme pépé Tout seul devant le mic', quand j'rappe, on dirait qu'j'me multiplie Congo Bill sort le multi-piste, j'suis connecté comme une multiprise Glace dans les veines comme DLo, j'ai un sabre comme stylo Lin dans mon verre comme Pimo, j'ai la frappe comme Timo Pétasse Codéine, Alpraz, j'marche comme si j'ai un problème à la jambe 6.6.7, complot, so la société, so à l'agence Ekip Grosses sommes, CFA, dans les liasses, que des dix milles Alphonse, mal fons', j'arrive plus explosé que dix mines Chen Zen a.k.a le GOAT, négro, j'ai des réflexes de bot J'pouvais tirer mais j'ai dribblé le goal J'ai les mêmes potions qu'le druide qui venait de Gaule Lin 6.6.7, self-made, on va l'faire avec ou sans label Loud pack, Cali, génétique cultivée dans la bay Euphon, Phéner', négro, j'plane comme si j'ai un jetpack J'les blesse à distance, sur la prod, précis comme un stretch 4 6.6.7, self-made, on va l'faire avec ou sans label Loud pack, Cali, génétique cultivée dans la bay Euphon, phener', négro, j'plane comme si j'ai un jetpack J'les blesse à distance, sur la prod, précis comme un stretch 4 Ces négros sont fakes comme les échelles, loin du rap français comme si j'habite les Seychelles Ils savent pas j'suis à quel level de l'éveil, j'pense à mon argent dès qu'j'me réveille J'découpe les prod' depuis qu'j'suis mineur, chaque jour dans les profondeurs comme si j'suis mineur Corleone, Carmelo chez les Nuggets, on les graille en balle, c'est des nuggets Faut qu'j'pèse comme si j'joue chez les Galaxy, 6.6.7 comme les trous noirs dans les galaxies La Menace Fantôme dans ton téléphone, il prend feu direct comme les premiers Galaxy J'regarde le jeu, j'vois que des moi-même en miniature Indé', blindé, 100 000 euros sans signature Trop haut au-d'ssus d'eux, négro, au loin, j'les vois plus Gros teh sur gros teh, depuis qu'j'm'allume, j'ai fumé au moins un poids plume Cons' plus d'essence que les V12, par semaine, j'm'allume des 28 et des 12 Sur les prod' comme si j'étais 12, en balle, j'découpe des 16, des 8 et des 12 Ekip 6.6.7, self-made, on va l'faire avec ou sans label Loud pack, Cali, génétique cultivée dans la bay Euphon, phener', négro, j'plane comme si j'ai un jetpack J'les blesse à distance, sur la prod, précis comme un stretch 4 6.6.7, self-made, on va l'faire avec ou sans label Loud pack, Cali, génétique cultivée dans la bay Euphon, phener', négro, j'plane comme si j'ai un jetpack J'les blesse à distance, sur la prod, précis comme un stretch 4 Green11</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>So le Flem Holobear Ekip, ekip, ekip MMS, LDO, NRM, 6.6.7, pétasse MMS, LDO, NRM, 6.6.7 Hey, pétasse, han Eh, paw paw Ekip, ekip, ekip MMS, NRM Eh, c'est rien, c'est la rue, mon pote C'est rien, c'est la rue, saison 2, pétasse han Ekip, ekip Sip que du lin, pas de corona sku, 6.6.7 comme Ebola fois le corona damn Gangster et gentleman mafieux africain comme Teddy Corona sku, ekip J'fume les Cali et les hash' forts Lack pas devant la cage comme Rashford han, pétasse, j'souris quand le cash sort cash Dans la pinture comme Tacko sku, j'veux l'chiffr d'affaire comme Paco Rabanne, skrt, pétasse Graille la concu' comme taco han Compte en banque rempli cash, phrases interdites dans les amplis han Repasse la prod, sans plis nan, focus comme si j'ai tapé trente lignes Bitch, négro, j'reste au-d'ssus comme si j'taffe dans laviation sku 6.6.7, ça s'propage dans l'air comme des virus, comme des radiations ah Verre de boo comme d'la terre dedans lin, fumigènes v'là d'teh dedans ah Studio KGB rentre dans l'aqua', négro, tu vas perdre deux dents So le Roi Heenok han, c'est l'temps d'prendre de l'expansion GG Team no lacking, Chiraq, comme un chargeur avec extension ouh Squa shit, so OBS, j'meurs pour la secte, so OTS han SSR, GBE 3 et 600 so OTF ekip Prof Chen, c'est mes élèves, négro, chaque couplet, c'est des punitions ouh Rien que j'm'adapte en fonction des cibles, j'ai les munitions pah Et j'laisse Dieu s'occuper deux pour le châtiment han Gros nuage de loud, la LDO dans le bâtiment Bouteille de lin, négro, j'téléphone, j'entends des échos au téléphone Allô ? J'ai des phrases interdites dans mon téléphone Bientôt, tu sais comme qui on va pull up avec les Carrera sku Jarrive, Chicago comme une maison piège avec des caméras ekip, avec des caméras, avec des caméras, avec des caméras Ils vont disparaître comme Virgin Quoi quil arrive, j'reste solide, j'suis dans la défense comme Virgil Sous lin, j'suis dans le bendo, j'sip j'suis dans l'bendo, j'sip, lin, lin, lin J'm'infiltre dans la maison comme dans Rainbow 6 sku Fugazi, ton vernis à ongles est en train d's'écailler pétasse Death Note, j'ai les cahiers, j'décris vos morts d'manière détaillée ah J'veux les faffes, j'veux les dineros, dans les profondeurs comme des minéraux Dans cette merde, pas d'règles, so Billionnaire Black et Dinero han Gratos, j'm'explose, RÀF han, j'arrive QB, so N.A.S skrt Connecté au cartel, négro, so R.A.S Jaime quand les sommes rentrent cash, j'prie pour qu'elles continuent So à mes OG à la tête dorganisations criminelles continues sku Sniper gang comme 22Gz, verre de lin, gros joint de diesel, pétasse Instrumentale, j'cause pleins de décès plein de décès, plein de décès, plein de décès Et j'me déplace pas pour des petites sommes des petites sommes, des petites sommes, des petites sommes Yeuz bridés devant la cage comme Heung-Ming Son Heung-Ming Son, Heung-Ming Son, Heung-Ming Son, ekipYou might also like12</t>
+          <t>So le Flem Holobear Ekip, ekip, ekip MMS, LDO, NRM, 6.6.7, pétasse MMS, LDO, NRM, 6.6.7 Hey, pétasse, han Eh, paw paw Ekip, ekip, ekip MMS, NRM Eh, c'est rien, c'est la rue, mon pote C'est rien, c'est la rue, saison 2, pétasse han Ekip, ekip Sip que du lin, pas de corona sku, 6.6.7 comme Ebola fois le corona damn Gangster et gentleman mafieux africain comme Teddy Corona sku, ekip J'fume les Cali et les hash' forts Lack pas devant la cage comme Rashford han, pétasse, j'souris quand le cash sort cash Dans la pinture comme Tacko sku, j'veux l'chiffr d'affaire comme Paco Rabanne, skrt, pétasse Graille la concu' comme taco han Compte en banque rempli cash, phrases interdites dans les amplis han Repasse la prod, sans plis nan, focus comme si j'ai tapé trente lignes Bitch, négro, j'reste au-d'ssus comme si j'taffe dans laviation sku 6.6.7, ça s'propage dans l'air comme des virus, comme des radiations ah Verre de boo comme d'la terre dedans lin, fumigènes v'là d'teh dedans ah Studio KGB rentre dans l'aqua', négro, tu vas perdre deux dents So le Roi Heenok han, c'est l'temps d'prendre de l'expansion GG Team no lacking, Chiraq, comme un chargeur avec extension ouh Squa shit, so OBS, j'meurs pour la secte, so OTS han SSR, GBE 3 et 600 so OTF ekip Prof Chen, c'est mes élèves, négro, chaque couplet, c'est des punitions ouh Rien que j'm'adapte en fonction des cibles, j'ai les munitions pah Et j'laisse Dieu s'occuper deux pour le châtiment han Gros nuage de loud, la LDO dans le bâtiment Bouteille de lin, négro, j'téléphone, j'entends des échos au téléphone Allô ? J'ai des phrases interdites dans mon téléphone Bientôt, tu sais comme qui on va pull up avec les Carrera sku Jarrive, Chicago comme une maison piège avec des caméras ekip, avec des caméras, avec des caméras, avec des caméras Ils vont disparaître comme Virgin Quoi quil arrive, j'reste solide, j'suis dans la défense comme Virgil Sous lin, j'suis dans le bendo, j'sip j'suis dans l'bendo, j'sip, lin, lin, lin J'm'infiltre dans la maison comme dans Rainbow 6 sku Fugazi, ton vernis à ongles est en train d's'écailler pétasse Death Note, j'ai les cahiers, j'décris vos morts d'manière détaillée ah J'veux les faffes, j'veux les dineros, dans les profondeurs comme des minéraux Dans cette merde, pas d'règles, so Billionnaire Black et Dinero han Gratos, j'm'explose, RÀF han, j'arrive QB, so N.A.S skrt Connecté au cartel, négro, so R.A.S Jaime quand les sommes rentrent cash, j'prie pour qu'elles continuent So à mes OG à la tête dorganisations criminelles continues sku Sniper gang comme 22Gz, verre de lin, gros joint de diesel, pétasse Instrumentale, j'cause pleins de décès plein de décès, plein de décès, plein de décès Et j'me déplace pas pour des petites sommes des petites sommes, des petites sommes, des petites sommes Yeuz bridés devant la cage comme Heung-Ming Son Heung-Ming Son, Heung-Ming Son, Heung-Ming Son, ekip12</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trois fois nonante kilos Deux sept zéro kilogrammes ekip, ekip, ekip Rah Corleone, Stavo coupe, coupe 6.6.7, Block 13 ekip, noir sur noir, Glock 13 pah Fuck le Top 100, fuck le Top 13, villas, j'm'arrête pas tant qu'j'en ai pas cop 13 Situation ébène skuu, bien sûr qu'on a le eleven coupe 43, 46, Yamaha ouais, Barksdale Avon, Cristiano, seven numéro Furtifs, B-2, on les fume en deux-deux comme des P2 Avec Lotto, gros teh vers V2 ekip, nous c'est D1, eux c'est D2 pah J'suis 3x33,3, comme dans un plavon à trois ouais J'te laiss 0,1 , moins que les mietts Nonante, 9-0, à Dakar objectif somme à neuf zéros Ils peuvent être autant qu'ils veulent, négro, ils vaudront toujours rien comme neuf zéros Vendre 0-9, sans 0-6, 0-7 coupe, zéro cur J'ai dépassé le quart et la moitié depuis, trois fois, nonante kilos Formation 9.3 ekip, sur la liste neuf proies Fin d'journée, neuf croix, efficace en 6, 10, 9, 3 ekip 12 heures, treizième queue, on aime que le biff cash Seven days, sept, vendeurs et killers n'ont pas d'heures, dix heures, onze heures Formation 9.3 ekip, sur la liste neuf proies Fin d'journée, neuf croix, efficace en 6, 10, 9, 3 12 heures, treizième queue, on aime que le biff cash Seven days, sept, vendeurs et killers n'ont pas d'heures, dix heures, onze heures You might also like Ancienne école, Nokia 3310, guetteur, bonbonne à trente-trois dix Formation 4-4-2, le gardien garde la beuh Formation 3-5-2 han, ça marche pas, passe en 4-5-1 ah bon ? ekip OBS, gang shit gang shit, han, Dakar Blood comme Alpha 5.20 Une embrouille, un deux-roues, cagoule trois trous coupe Équipe en rescousse en quatre roues rah, y a pas qu'cinq routes nan Un coup d'fil allô, t'es un paquet de Dunhill, tu t'fais fumer par des 2000 Négro, j'suis tout seul dans la cabine han, au micro comme si j'étais deux mille ekip Trente six outils Makita, pas 36 Quai des Orfèvres Les sept jours de la semaine, quatre fois rrrah, dans le nonante-trois, c'est les travaux Chen Zen, Stavo, le micro brûle, appelle le 18 allô Enchaîne les crimes depuis 2018, fuck les trois six, so le 18 ekip Formation 9.3 ekip, sur la liste neuf proies Fin d'journée, neuf croix, efficace en 6, 10, 9, 3 ekip 12 heures, treizième queue, on aime que le biff cash Seven days, sept, vendeurs et killers n'ont pas d'heures, dix heures, onze heures Formation 9.3 ekip, sur la liste neuf proies Fin d'journée, neuf croix, efficace en 6, 10, 9, 3 12 heures, treizième queue, on aime que le biff cash Seven days, sept, vendeurs et killers n'ont pas d'heures, dix heures, onze heures 6.6.7, Block 13 Fuck le Top 100, fuck le Top 13, villas j'm'arrête pas tant qu'j'en ai pas cop treize Situation ébène 43 46 Yamaha, Barksdale Avon, Cristiano, seven Nonante, 9-0 Ils peuvent être autant qu'ils veulent, négro, ils vaudront toujours rien comme neuf zéros Vendre 0-9, sans 0-6, 0-7 Trois fois nonante kilos3</t>
+          <t>Trois fois nonante kilos Deux sept zéro kilogrammes ekip, ekip, ekip Rah Corleone, Stavo coupe, coupe 6.6.7, Block 13 ekip, noir sur noir, Glock 13 pah Fuck le Top 100, fuck le Top 13, villas, j'm'arrête pas tant qu'j'en ai pas cop 13 Situation ébène skuu, bien sûr qu'on a le eleven coupe 43, 46, Yamaha ouais, Barksdale Avon, Cristiano, seven numéro Furtifs, B-2, on les fume en deux-deux comme des P2 Avec Lotto, gros teh vers V2 ekip, nous c'est D1, eux c'est D2 pah J'suis 3x33,3, comme dans un plavon à trois ouais J'te laiss 0,1 , moins que les mietts Nonante, 9-0, à Dakar objectif somme à neuf zéros Ils peuvent être autant qu'ils veulent, négro, ils vaudront toujours rien comme neuf zéros Vendre 0-9, sans 0-6, 0-7 coupe, zéro cur J'ai dépassé le quart et la moitié depuis, trois fois, nonante kilos Formation 9.3 ekip, sur la liste neuf proies Fin d'journée, neuf croix, efficace en 6, 10, 9, 3 ekip 12 heures, treizième queue, on aime que le biff cash Seven days, sept, vendeurs et killers n'ont pas d'heures, dix heures, onze heures Formation 9.3 ekip, sur la liste neuf proies Fin d'journée, neuf croix, efficace en 6, 10, 9, 3 12 heures, treizième queue, on aime que le biff cash Seven days, sept, vendeurs et killers n'ont pas d'heures, dix heures, onze heures Ancienne école, Nokia 3310, guetteur, bonbonne à trente-trois dix Formation 4-4-2, le gardien garde la beuh Formation 3-5-2 han, ça marche pas, passe en 4-5-1 ah bon ? ekip OBS, gang shit gang shit, han, Dakar Blood comme Alpha 5.20 Une embrouille, un deux-roues, cagoule trois trous coupe Équipe en rescousse en quatre roues rah, y a pas qu'cinq routes nan Un coup d'fil allô, t'es un paquet de Dunhill, tu t'fais fumer par des 2000 Négro, j'suis tout seul dans la cabine han, au micro comme si j'étais deux mille ekip Trente six outils Makita, pas 36 Quai des Orfèvres Les sept jours de la semaine, quatre fois rrrah, dans le nonante-trois, c'est les travaux Chen Zen, Stavo, le micro brûle, appelle le 18 allô Enchaîne les crimes depuis 2018, fuck les trois six, so le 18 ekip Formation 9.3 ekip, sur la liste neuf proies Fin d'journée, neuf croix, efficace en 6, 10, 9, 3 ekip 12 heures, treizième queue, on aime que le biff cash Seven days, sept, vendeurs et killers n'ont pas d'heures, dix heures, onze heures Formation 9.3 ekip, sur la liste neuf proies Fin d'journée, neuf croix, efficace en 6, 10, 9, 3 12 heures, treizième queue, on aime que le biff cash Seven days, sept, vendeurs et killers n'ont pas d'heures, dix heures, onze heures 6.6.7, Block 13 Fuck le Top 100, fuck le Top 13, villas j'm'arrête pas tant qu'j'en ai pas cop treize Situation ébène 43 46 Yamaha, Barksdale Avon, Cristiano, seven Nonante, 9-0 Ils peuvent être autant qu'ils veulent, négro, ils vaudront toujours rien comme neuf zéros Vendre 0-9, sans 0-6, 0-7 Trois fois nonante kilos3</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ekip han Ekip 667, pétasse, han Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques J'suis au téléphone et les mots grésillent, négro, j'ai consommé trop d'résine Cross-over, stepback, grosse hési, mentalité Falcao comme au Brésil Négro, faut qu'j'ouvre au moins six pharma cash, j'suis dans le complot comme Big Pharma eh Découpe comme Auron dans FFX shit, sur la prod' comme dans SSX han À Dakar, on v'-esqui les barrages sku, vous passez même pas les barrages nan Bientôt, j'investis dans des garages sku, tu m'vois pas, j'suis tout l'temps dans les parages Phrases interdites et mots illicites hey Devant la cage, grosse frappe comme Ilii, so Osirus Jack, DGK t'initie Fuck ces négros comme Jean-Marie eh, FN Codéine lin, grand baril lin, mixe arsenic et cyanure dans ma rime Qui va financer la troisième ? eh, Soros Tu rappes comme si tu commences la troisième, j'les soupape, j'ai pas passé la troisième sku Chen Zen aka Bowser han, artisanal bombe-poseur paw Faut des Ruger et des Mauser paw, fuck ces négros, c'est des poseurs J'retire des grosses liasses comme les négros qui scam Que j'évolue, j'suis pas un négro qui stagne J'souris quand un pédophile canne, déter' comme si j'étais éclaté au cristal Instrumentale, j'cause v'là d'homicides, on les fume à l'extérieur et à domicile Négro, j'allume des grosses roquettes, pétasse, j'allume des gros missiles Kicke sur la prod' comme Francis ekip, concu', ils existent pas comme France 6 Fin du match, tableau d'score 100-6, c'est comme des Lambo' contre des 106 haha Négro, dans l'coin, j'mets des green des green, mixe le lin et les cream lin Et sur les prods, j'fais des crimes, hey Devant l'mic comme si y avait 100 moi hey, j'ai pas été sobre depuis 100 mois nan Si c'est pas pour l'cash, c'est sans moi You might also like Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques J'suis au téléphone et les mots grésillent Cross-over, stepback, grosse hési, mentalité Falcao comme au Brésil Négro, faut qu'j'ouvre au moins six pharma Découpe comme Auron dans FFX, sur la prod' comme dans SSX5</t>
+          <t>Ekip han Ekip 667, pétasse, han Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques J'suis au téléphone et les mots grésillent, négro, j'ai consommé trop d'résine Cross-over, stepback, grosse hési, mentalité Falcao comme au Brésil Négro, faut qu'j'ouvre au moins six pharma cash, j'suis dans le complot comme Big Pharma eh Découpe comme Auron dans FFX shit, sur la prod' comme dans SSX han À Dakar, on v'-esqui les barrages sku, vous passez même pas les barrages nan Bientôt, j'investis dans des garages sku, tu m'vois pas, j'suis tout l'temps dans les parages Phrases interdites et mots illicites hey Devant la cage, grosse frappe comme Ilii, so Osirus Jack, DGK t'initie Fuck ces négros comme Jean-Marie eh, FN Codéine lin, grand baril lin, mixe arsenic et cyanure dans ma rime Qui va financer la troisième ? eh, Soros Tu rappes comme si tu commences la troisième, j'les soupape, j'ai pas passé la troisième sku Chen Zen aka Bowser han, artisanal bombe-poseur paw Faut des Ruger et des Mauser paw, fuck ces négros, c'est des poseurs J'retire des grosses liasses comme les négros qui scam Que j'évolue, j'suis pas un négro qui stagne J'souris quand un pédophile canne, déter' comme si j'étais éclaté au cristal Instrumentale, j'cause v'là d'homicides, on les fume à l'extérieur et à domicile Négro, j'allume des grosses roquettes, pétasse, j'allume des gros missiles Kicke sur la prod' comme Francis ekip, concu', ils existent pas comme France 6 Fin du match, tableau d'score 100-6, c'est comme des Lambo' contre des 106 haha Négro, dans l'coin, j'mets des green des green, mixe le lin et les cream lin Et sur les prods, j'fais des crimes, hey Devant l'mic comme si y avait 100 moi hey, j'ai pas été sobre depuis 100 mois nan Si c'est pas pour l'cash, c'est sans moi Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques Fuck 12, fuck les insignes et les plaques, j'suis allergique aux fufus, vous m'donnez des plaques Dans l'piège, trouve-moi à côté des plaques, j'veux le cash, R.À.F des certif' et des plaques J'suis au téléphone et les mots grésillent Cross-over, stepback, grosse hési, mentalité Falcao comme au Brésil Négro, faut qu'j'ouvre au moins six pharma Découpe comme Auron dans FFX, sur la prod' comme dans SSX5</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>J'suis pas un vendu, jamais d'la vie je joue le rôle à Omar Killu à vie, seigneur de guerre comme le Mollah Omar So Congo Bill Négro j'ai les combos d'Guile Coach Chen mes compos kill J'veux l'genre de cash qu'on compte au kil' J'mix le lin avec des Monsters, j'fume comme si j'avais 11 curs Cons' purp, négro fuck twelve ils sont d'vant donc on skurr Derrière la ligne, grand ouvert Blédards, on les graille sans couvert J'fume trop, bientôt j'ai l'sang tout vert Sous génétique comme à Vancouver J'touche du vrai, du digicash Vrai négro comme FBG Cash On roule vers le sommet avec mes négros On s'suit comme les lettres I, J, K J'sens l'shit etou j'sens la sep Ekip à vie, jamais sans la secte Sans aucun stress, on les fouette de ouf À la fin du match, négro, y a 100 à 7, ekip J'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' Ekip, j'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' You might also like J'm'applique dans mes centres, laisse ta clique dans les cendres Négro faut v'la d'fric pour investir en Afrique dans des centres J'fume de janvier à décembre J'm'explose gratuitement pour la cause J'roule 4 bozes pour la pause Crack musique, appelle-moi pour la dose, gaddamn Bientôt tout vert comme si c'est Saint-Patrick J'applique les 48 tous les jours comme James St. Patrick Ton équipe sert à R comme 30 Lucas J'veux faire graille toute la famille en même temps comme Frank Lucas J'arrive ekip comme 2 Real, mal fons', réflexe comme De Gea Pussy négro, au Brésil ton flow s'achète au détail comme 2 real Alpraz' 0.25, so GFG, so 20.5 Toujours tout en haut d'la tour négro, comme si j'habitais au 25 Sous lin fons-dé comme à l'héro' Sous l'soleil, Dakar comme Vallejo Chen Zen, mets-moi en pointe J'suis comme Dybala, négro, t'es comme Gameiro Techniques d'Alabama comme Doe B Dans la défense comme Toby Cherche la concu', c'est désert comme Gobi Dur dans la peinture comme Kobe, ekip J'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' Ekip, j'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' J'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' Ekip, j'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil'5</t>
+          <t>J'suis pas un vendu, jamais d'la vie je joue le rôle à Omar Killu à vie, seigneur de guerre comme le Mollah Omar So Congo Bill Négro j'ai les combos d'Guile Coach Chen mes compos kill J'veux l'genre de cash qu'on compte au kil' J'mix le lin avec des Monsters, j'fume comme si j'avais 11 curs Cons' purp, négro fuck twelve ils sont d'vant donc on skurr Derrière la ligne, grand ouvert Blédards, on les graille sans couvert J'fume trop, bientôt j'ai l'sang tout vert Sous génétique comme à Vancouver J'touche du vrai, du digicash Vrai négro comme FBG Cash On roule vers le sommet avec mes négros On s'suit comme les lettres I, J, K J'sens l'shit etou j'sens la sep Ekip à vie, jamais sans la secte Sans aucun stress, on les fouette de ouf À la fin du match, négro, y a 100 à 7, ekip J'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' Ekip, j'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' J'm'applique dans mes centres, laisse ta clique dans les cendres Négro faut v'la d'fric pour investir en Afrique dans des centres J'fume de janvier à décembre J'm'explose gratuitement pour la cause J'roule 4 bozes pour la pause Crack musique, appelle-moi pour la dose, gaddamn Bientôt tout vert comme si c'est Saint-Patrick J'applique les 48 tous les jours comme James St. Patrick Ton équipe sert à R comme 30 Lucas J'veux faire graille toute la famille en même temps comme Frank Lucas J'arrive ekip comme 2 Real, mal fons', réflexe comme De Gea Pussy négro, au Brésil ton flow s'achète au détail comme 2 real Alpraz' 0.25, so GFG, so 20.5 Toujours tout en haut d'la tour négro, comme si j'habitais au 25 Sous lin fons-dé comme à l'héro' Sous l'soleil, Dakar comme Vallejo Chen Zen, mets-moi en pointe J'suis comme Dybala, négro, t'es comme Gameiro Techniques d'Alabama comme Doe B Dans la défense comme Toby Cherche la concu', c'est désert comme Gobi Dur dans la peinture comme Kobe, ekip J'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' Ekip, j'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' J'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil' Ekip, j'suis dans l'xan et j'geek à fond J'arrive ekip à fond, fuck OCRTIS et DIC à fond, ekip Han, so Congo Bill Coach Chen, mes compos kill J'veux l'genre de cash qu'on compte au kil'5</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Han So le Flem Mission impossible réussie comme Ethan Hunt Haar This is my baby Rayan Des négros comme Charles Pasqua, han Ekip, ekip, ekip, ekip Gas, méthane, blunt Gas Mission impossible réussie comme Ethan Hunt Ethan Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes dix mille J'consomme plus que dix big Lincoln dix Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Bill Gas, méthane, blunt Méthane Mission impossible réussie comm Ethan Hunt Pah, pah Fuck ces négros comme Charles Pasqua J'm sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Lourd J'consomme plus que dix big Lincoln Fft, fft Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Eh You might also like VV sur les talismans VV, poignet Kadjar et des Talismans Mentalité comme à lEintracht, tout carré comme si j'jouais à Minecraft, négro J'les crosse comme Pat The Rock, j'suis comme Kratos au Ragnarok Kratos J'pense chaque coup comme Kasparov, c'est des rats comme Karkaroff Rats Rap français, j'ai visé la tempe Pah, tout vient à point à qui sait attendre Han J'reste loin d'la cage comme un goal volant Neuer, drogue de luxe, j'fais des grosses commandes Négro, j'me sens comme un incendie Han, Californie, j'ai brûlé des hectares J'envoie d'la pure, j'envoie des nectars, classe fantôme pour être indétectable, pétasse Han Pétasse, pétasse Il faut des camions d'cash Il faut des camions d'cash, Il faut des camions d'cash Au-dessus d'eux comme des avions d'chasse R.E.P Drakeo The Ruler, t'as cru qu'la vie, c'était GTA ? PDM pour Thierry Ardisson, négro, PDM pour PPDA Ekip, ekip Gas, méthane, blunt Gas Mission impossible réussie comme Ethan Hunt Ethan Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Dix mille J'consomme plus que dix big Lincoln Dix Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Bill Gas, méthane, blunt Méthane Mission impossible réussie comme Ethan Hunt Pah, pah Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Lourd J'consomme plus que dix big Lincoln Fft, fft Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Eh So Popeye pour les retours Popeye, avance, négro, j'ai deux tours Deux J'les vois pas comme des particules Ils sont où ?, 667 sur les matricules Ekip, eh Haha, j'vois la moustache sur le pack M, AIM-OP 4 sur le TAQ-M Pah Négro Ah, et j'écris comme si j'ai le bac L Pétasse Faut qu'j'ouvre des casinos Cash, so Dadinho, so Savino Ekip Corleone sur le terrain, négro, j'les dribble comme Flávio Nazinho Flash J'mets des floaters et des bras-roulés, j'pull up avec négros cagoulés Pah, pah So Ola', so Gustavo, déter' comme Hercule pour les douze travaux Eh, eh, c'est des vendus, des Tanguy David Ah, ah On aime les fusils importés de Scandinavie Rah Eh, et j'flingue comme si j'suis dans les G.I Ekip MW2, j'suis dans les pillages Pah, pah, j'arrive raciste comme Jean Messiha Gas, méthane, blunt Gas Mission impossible réussie comme Ethan Hunt Ethan Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Dix mille J'consomme plus que dix big Lincoln Dix Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Bill Gas, méthane, blunt Méthane Mission impossible réussie comme Ethan Hunt Pah, pah Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Lourd J'consomme plus que dix big Lincoln Fft, fft Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Eh</t>
+          <t>Han So le Flem Mission impossible réussie comme Ethan Hunt Haar This is my baby Rayan Des négros comme Charles Pasqua, han Ekip, ekip, ekip, ekip Gas, méthane, blunt Gas Mission impossible réussie comme Ethan Hunt Ethan Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes dix mille J'consomme plus que dix big Lincoln dix Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Bill Gas, méthane, blunt Méthane Mission impossible réussie comm Ethan Hunt Pah, pah Fuck ces négros comme Charles Pasqua J'm sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Lourd J'consomme plus que dix big Lincoln Fft, fft Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Eh VV sur les talismans VV, poignet Kadjar et des Talismans Mentalité comme à lEintracht, tout carré comme si j'jouais à Minecraft, négro J'les crosse comme Pat The Rock, j'suis comme Kratos au Ragnarok Kratos J'pense chaque coup comme Kasparov, c'est des rats comme Karkaroff Rats Rap français, j'ai visé la tempe Pah, tout vient à point à qui sait attendre Han J'reste loin d'la cage comme un goal volant Neuer, drogue de luxe, j'fais des grosses commandes Négro, j'me sens comme un incendie Han, Californie, j'ai brûlé des hectares J'envoie d'la pure, j'envoie des nectars, classe fantôme pour être indétectable, pétasse Han Pétasse, pétasse Il faut des camions d'cash Il faut des camions d'cash, Il faut des camions d'cash Au-dessus d'eux comme des avions d'chasse R.E.P Drakeo The Ruler, t'as cru qu'la vie, c'était GTA ? PDM pour Thierry Ardisson, négro, PDM pour PPDA Ekip, ekip Gas, méthane, blunt Gas Mission impossible réussie comme Ethan Hunt Ethan Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Dix mille J'consomme plus que dix big Lincoln Dix Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Bill Gas, méthane, blunt Méthane Mission impossible réussie comme Ethan Hunt Pah, pah Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Lourd J'consomme plus que dix big Lincoln Fft, fft Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Eh So Popeye pour les retours Popeye, avance, négro, j'ai deux tours Deux J'les vois pas comme des particules Ils sont où ?, 667 sur les matricules Ekip, eh Haha, j'vois la moustache sur le pack M, AIM-OP 4 sur le TAQ-M Pah Négro Ah, et j'écris comme si j'ai le bac L Pétasse Faut qu'j'ouvre des casinos Cash, so Dadinho, so Savino Ekip Corleone sur le terrain, négro, j'les dribble comme Flávio Nazinho Flash J'mets des floaters et des bras-roulés, j'pull up avec négros cagoulés Pah, pah So Ola', so Gustavo, déter' comme Hercule pour les douze travaux Eh, eh, c'est des vendus, des Tanguy David Ah, ah On aime les fusils importés de Scandinavie Rah Eh, et j'flingue comme si j'suis dans les G.I Ekip MW2, j'suis dans les pillages Pah, pah, j'arrive raciste comme Jean Messiha Gas, méthane, blunt Gas Mission impossible réussie comme Ethan Hunt Ethan Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Dix mille J'consomme plus que dix big Lincoln Dix Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Bill Gas, méthane, blunt Méthane Mission impossible réussie comme Ethan Hunt Pah, pah Fuck ces négros comme Charles Pasqua J'me sens comme Gucci Mane époque Trap House 3 Gucci J'arrive, j'avoisine les dix mille tonnes Lourd J'consomme plus que dix big Lincoln Fft, fft Dans l'rap jeu, j'ai plus d'enfants que dans les sous-sols de chez Bill Clinton Eh</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>So le Flem, so le 8 Mortels, tous les hommes le sont hey, dans la rivière comme un vieux songe hey Amédée, Prof Chen, connexion malfaiteurs, va réviser tes leçons gang Clair et obscur comme grisaille shesh, paradoxal dans l'design, yeah yeah, yeah J'méprise tout l'monde, impassible comme Rivai oof Miserere brise le mur du son, Nosferatu à la vue du sang J'partage les valeurs de MLK mais on dirait qu'j'suis membre du Ku Klux Klan Frelon, méfie-toi des apparences ou tue-moi comme XX J'suis Leonard dans une avalanche ou mafia comme 666 Nique Drake, j'écoute Nick Drake, yeah J'sors un single, j'fais les scores de leur mixtape L'homme peut changer, j'en suis la preuve 2014, je pillave seul 2020, je tue tous les abrutis comme une bombe H sur Seattle Ekip, ekip, ekip Faut qu'j'sorte de Burberry avec quatre caddies quatre caddies Chaque jour, fuck les States comme un Baghdadi comme un Baghdadi Carry l'équipe comme Tracy McGrady McGrady J'sais qu'en haut ils veulent me faire comme al-Baghdadi Que des chiens néophytes, j'suis un loup mais en fait Capsule de cyanure sous la dent creuse, igo, j'en ai plus rien à foutre skurt Sourire, c'est trop d'efforts, j'suis l'Alliance et la Horde J'sais pas si j'suis mort parmi les vivants ou vivant parmi les morts Que des chiens néophytes, j'suis un loup mais en fait Capsule de cyanure sous la dent creuse, igo, j'en ai plus rien à foutre skurt Sourire, c'est trop d'efforts, j'suis l'Alliance et la Horde J'sais pas si j'suis mort parmi les vivants ou vivant parmi les morts You might also like Hun, LDO, noir sur noir, pull up comme dix Spawn Si c'est pour l'cash, j'suis dispo Faut qu'j'en tue plus à chaque fois qu'j'respawn Revolut Metal, pied sur le métal J'suis protégé avec le métal Dans l'piège, négro, j'fais pas de metal J'arrive blindé à mort mais j'parle pas de métal J'vois mon argent qui monte et j'attends le pic J'remonte la balle, négro, j'attends le pick Gro-gro-grosse liasse, dans la machine, négro, j'attends le bip Des comme moi, y en a qu'un dans la planète Négro, j'mets le lin dans la canette J'avance, j'suis serein, audio dope, pour cons', il te faut une seringue, pétasse Et tu gagneras pas, même en dix matches J'les blesse facile comme si j'ai un mismatch Chen Zen, aka Ra's al, so les Nara, j'ai les techniques de l'ombre Découpe les prods du début à la fin, so Fredo, négro, j'ai les techniques de Londres Ekip ekip, ekip Faut qu'j'sorte de Burberry avec quatre caddies quatre caddies Chaque jour, fuck les States comme un Baghdadi comme un Baghdadi Carry l'équipe comme Tracy McGrady McGrady J'sais qu'en haut ils veulent me faire comme al-Baghdadi Que des chiens néophytes, j'suis un loup mais en fait Capsule de cyanure sous la dent creuse, igo, j'en ai plus rien à foutre skurt Sourire, c'est trop d'efforts, j'suis l'Alliance et la Horde J'sais pas si j'suis mort parmi les vivants ou vivant parmi les morts Que des chiens néophytes, j'suis un loup mais en fait Capsule de cyanure sous la dent creuse, igo, j'en ai plus rien à foutre skurt Sourire, c'est trop d'efforts, j'suis l'Alliance et la Horde J'sais pas si j'suis mort parmi les vivants ou vivant parmi les morts12</t>
+          <t>So le Flem, so le 8 Mortels, tous les hommes le sont hey, dans la rivière comme un vieux songe hey Amédée, Prof Chen, connexion malfaiteurs, va réviser tes leçons gang Clair et obscur comme grisaille shesh, paradoxal dans l'design, yeah yeah, yeah J'méprise tout l'monde, impassible comme Rivai oof Miserere brise le mur du son, Nosferatu à la vue du sang J'partage les valeurs de MLK mais on dirait qu'j'suis membre du Ku Klux Klan Frelon, méfie-toi des apparences ou tue-moi comme XX J'suis Leonard dans une avalanche ou mafia comme 666 Nique Drake, j'écoute Nick Drake, yeah J'sors un single, j'fais les scores de leur mixtape L'homme peut changer, j'en suis la preuve 2014, je pillave seul 2020, je tue tous les abrutis comme une bombe H sur Seattle Ekip, ekip, ekip Faut qu'j'sorte de Burberry avec quatre caddies quatre caddies Chaque jour, fuck les States comme un Baghdadi comme un Baghdadi Carry l'équipe comme Tracy McGrady McGrady J'sais qu'en haut ils veulent me faire comme al-Baghdadi Que des chiens néophytes, j'suis un loup mais en fait Capsule de cyanure sous la dent creuse, igo, j'en ai plus rien à foutre skurt Sourire, c'est trop d'efforts, j'suis l'Alliance et la Horde J'sais pas si j'suis mort parmi les vivants ou vivant parmi les morts Que des chiens néophytes, j'suis un loup mais en fait Capsule de cyanure sous la dent creuse, igo, j'en ai plus rien à foutre skurt Sourire, c'est trop d'efforts, j'suis l'Alliance et la Horde J'sais pas si j'suis mort parmi les vivants ou vivant parmi les morts Hun, LDO, noir sur noir, pull up comme dix Spawn Si c'est pour l'cash, j'suis dispo Faut qu'j'en tue plus à chaque fois qu'j'respawn Revolut Metal, pied sur le métal J'suis protégé avec le métal Dans l'piège, négro, j'fais pas de metal J'arrive blindé à mort mais j'parle pas de métal J'vois mon argent qui monte et j'attends le pic J'remonte la balle, négro, j'attends le pick Gro-gro-grosse liasse, dans la machine, négro, j'attends le bip Des comme moi, y en a qu'un dans la planète Négro, j'mets le lin dans la canette J'avance, j'suis serein, audio dope, pour cons', il te faut une seringue, pétasse Et tu gagneras pas, même en dix matches J'les blesse facile comme si j'ai un mismatch Chen Zen, aka Ra's al, so les Nara, j'ai les techniques de l'ombre Découpe les prods du début à la fin, so Fredo, négro, j'ai les techniques de Londres Ekip ekip, ekip Faut qu'j'sorte de Burberry avec quatre caddies quatre caddies Chaque jour, fuck les States comme un Baghdadi comme un Baghdadi Carry l'équipe comme Tracy McGrady McGrady J'sais qu'en haut ils veulent me faire comme al-Baghdadi Que des chiens néophytes, j'suis un loup mais en fait Capsule de cyanure sous la dent creuse, igo, j'en ai plus rien à foutre skurt Sourire, c'est trop d'efforts, j'suis l'Alliance et la Horde J'sais pas si j'suis mort parmi les vivants ou vivant parmi les morts Que des chiens néophytes, j'suis un loup mais en fait Capsule de cyanure sous la dent creuse, igo, j'en ai plus rien à foutre skurt Sourire, c'est trop d'efforts, j'suis l'Alliance et la Horde J'sais pas si j'suis mort parmi les vivants ou vivant parmi les morts12</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip Pétasse, pétasse MMS NRM 667, pétasse, pétasse Prof Chen, allez, j'ramasse en début d'cours, négro Port d'arme, viseur laser, So Kaki, te touche même si tu cours, négro Minimum un 7, six 0, pour qu'la secte signe, biatch FDT, regarde les signes, biatch Regarde les arrivées et les signes, biatch J'ai la dalle comme Gucci en 2006, gaddamn So Loto, un tir, djo dans 2000 cibles 667, v'là de force, clan de 2000 siths Gaddamn, trouve-moi bientôt à Dakar dans la foreign J'ai mis mes pièges à loups dans la forêt Gaddamn, j'veux juste les sous, aussi simple que ABC Si tu t'allumes comme nous, tu peux faire 2 AVCs Hehe, cons' plus de caca que 4 WCs Dans l'complot comme ceux de ABC 667, qualité comme de la soie Négro, so Bongo Tous les jours, R à F de la Shoah Gaddamn, so Congo 667, qualité comme de la soie Négro, so Bongo Tous les jours, R à F de la Shoah Gaddamn, so Congo You might also like Ekip, 667 c'est la secte, pétasse J'fume le shit, j'fume la sep, pétasse Ekip, 20.16, c'est la FDT On va leur apprendre la vie comme en SVT 667, qualité comme de la soie Négro, so Bongo Tous les jours, R à F de la Shoah Gaddamn, so Congo 667, qualité comme de la soie Négro, so Bongo Tous les jours, R à F de la Shoah Gaddamn, so Congo3</t>
+          <t>Ekip, ekip, ekip Pétasse, pétasse MMS NRM 667, pétasse, pétasse Prof Chen, allez, j'ramasse en début d'cours, négro Port d'arme, viseur laser, So Kaki, te touche même si tu cours, négro Minimum un 7, six 0, pour qu'la secte signe, biatch FDT, regarde les signes, biatch Regarde les arrivées et les signes, biatch J'ai la dalle comme Gucci en 2006, gaddamn So Loto, un tir, djo dans 2000 cibles 667, v'là de force, clan de 2000 siths Gaddamn, trouve-moi bientôt à Dakar dans la foreign J'ai mis mes pièges à loups dans la forêt Gaddamn, j'veux juste les sous, aussi simple que ABC Si tu t'allumes comme nous, tu peux faire 2 AVCs Hehe, cons' plus de caca que 4 WCs Dans l'complot comme ceux de ABC 667, qualité comme de la soie Négro, so Bongo Tous les jours, R à F de la Shoah Gaddamn, so Congo 667, qualité comme de la soie Négro, so Bongo Tous les jours, R à F de la Shoah Gaddamn, so Congo Ekip, 667 c'est la secte, pétasse J'fume le shit, j'fume la sep, pétasse Ekip, 20.16, c'est la FDT On va leur apprendre la vie comme en SVT 667, qualité comme de la soie Négro, so Bongo Tous les jours, R à F de la Shoah Gaddamn, so Congo 667, qualité comme de la soie Négro, so Bongo Tous les jours, R à F de la Shoah Gaddamn, so Congo3</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Le cours de karaté, c'est cher cher, emprunter un gun ça coûte rien rien J'viens pour escalader l'échelle, me mettre au niveau des souverains sisi Amenez mon trône, j'm'installe j'm'installe J'ai serré trop d'mains sales mains sales Me mélanger, comment ça ? comment ça ? Je suis fermé comme un sas pchhh Chen Zen, galsen comme un Sall ekip Yeuz bridés, japonais comm un San han pétasse, eh, pah pah Lunetts Cartier chères comme un sac Fuck des miettes, fuck des parts On veut les pâtisseries han 6.6.7, Don Dada brodés sur les tapisseries let's get it, let's get it Le phrasé est nice, le verbe est clean Ni rasage ni coupe depuis l'dernier clip J'vois la vie en rouge comme le dernier Crip ekip, ekip, ekip T'es bruyant, pas brillant, belek l'éclipse belek J'suis là pour t'manger, pas pour boire, j'te laisse les tips j'te laisse les tips J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne You might also like Alpha Wann, Corleone, rap ecclésiastique Sur les prods comme si on était à skis, grosses liasses avec des élastiques des élastiques Chen Zen, Flingo, on te donne le brevet d'études brevet d'études Boxe les instrus comme si elles nous devaient des thunes cash Rap catéchisme, bienvenue dans l'Église hun Beaucoup d'pédophilie dans l'gouvernement et dans l'Église dans l'Église, han Rap catéchisme, ils frissonnèrent Avec Freeze on est visionnaires, binoclards, vision nette nette, nette Au mic' comme Lebron James et D. Wade swish Ils font la mala mais ils s'font violer comme Tyga et Lil Wayne ha ha Une avance, un contrat, pff, ils font déjà des pirouettes pirouettes On arrive New York à fond, négro, poids lourd heavy weight New York à fond J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne Don Dada Mixtape8</t>
+          <t>Le cours de karaté, c'est cher cher, emprunter un gun ça coûte rien rien J'viens pour escalader l'échelle, me mettre au niveau des souverains sisi Amenez mon trône, j'm'installe j'm'installe J'ai serré trop d'mains sales mains sales Me mélanger, comment ça ? comment ça ? Je suis fermé comme un sas pchhh Chen Zen, galsen comme un Sall ekip Yeuz bridés, japonais comm un San han pétasse, eh, pah pah Lunetts Cartier chères comme un sac Fuck des miettes, fuck des parts On veut les pâtisseries han 6.6.7, Don Dada brodés sur les tapisseries let's get it, let's get it Le phrasé est nice, le verbe est clean Ni rasage ni coupe depuis l'dernier clip J'vois la vie en rouge comme le dernier Crip ekip, ekip, ekip T'es bruyant, pas brillant, belek l'éclipse belek J'suis là pour t'manger, pas pour boire, j'te laisse les tips j'te laisse les tips J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne Alpha Wann, Corleone, rap ecclésiastique Sur les prods comme si on était à skis, grosses liasses avec des élastiques des élastiques Chen Zen, Flingo, on te donne le brevet d'études brevet d'études Boxe les instrus comme si elles nous devaient des thunes cash Rap catéchisme, bienvenue dans l'Église hun Beaucoup d'pédophilie dans l'gouvernement et dans l'Église dans l'Église, han Rap catéchisme, ils frissonnèrent Avec Freeze on est visionnaires, binoclards, vision nette nette, nette Au mic' comme Lebron James et D. Wade swish Ils font la mala mais ils s'font violer comme Tyga et Lil Wayne ha ha Une avance, un contrat, pff, ils font déjà des pirouettes pirouettes On arrive New York à fond, négro, poids lourd heavy weight New York à fond J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne J'suis dans la zone avec le Phaal ekip J'suis dans Warzone avec le FAL pah pah Philly Flingo avec le Chen avec le Chen Lunettes Cartier avec le chêne avec le chêne Don Dada Mixtape8</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Eh, sku Eh Teh 667 Ouais Beh Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came Au l'tel-hô, laisse pas la bitch partir, TF1, moi, j'f'rai pas la pute à Arthur Apéro, foot, shit, boxe sur le parking, tu t'fais baiser par qui ? Mini Falla ragequit par qui ? Aux Terreaux, los-ki, le liquide, ça part vite, ta conso', big wax se revend par kits Big tte-ch', big dick, big ah, on peut dire qu'elle s'est fait piner par l'king Y a qu'après les billets qu'on court, la calvasse sous capuche, j'peux plus faire de contours Malgré ça, je la tue, je la torts, je la fourre, prends ta bague, RTT, tous les mois, y a concours Vas-y, cou-cou-cou-cours, Mini, Freeze, c'est des champs et Bellecou-cou-cou-cour Maisonnette KGB, OG, tousse, 69 dab on est même pas ché-tou tout, tout Y a qu'pour les pesos qu'on sah, Nina vend son cul pour des places de concerts Si t'es pas l'sang, pas de conseils c'est la recette, 6.9, zéro on signe on sait Vas-y, cou-cou-cou-cours, Mini, Freeze, c'est des champs et Bellecou-cou-cou-cour KGB maisonnette, OG tout, 6.9 cup on est même pas ché-tou ekip You might also like Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came 6.6.7, RTT, que d'la super came ekip, fuck le rap game, c'est un super scam Eh J'suis dans la cage comme un super Kahn Oliver, sur le terrain comme un super CAM 10 Corleone, que des super rimes ah, en face, ils m'font super rire haha Pour la famille, j'ai pris des super risques Han, faut qu'mes enfants grandissent comme des super riches Cash So le cactus, so 100 Souc' Ekip, j'ai la dalle comme un négro sans sous Cash J'leur mets des soupapes, so Ansu Nion, toujours opé', négro, pour les plans sous Cash So les factions et les brigades Bridages, ça cuisine l'audio dope chez les Trickaz Ekip Raconte pas ta vie, dis les prix cash pétasse, négro, à tous les postes, j'suis efficace 'ficace Freeze, Mini, là pour les M et M cash, cash, so RTT, so M et N Ekip Avec mes négros, on s'suit comme M et N ah, concu', on les fume comme des L et M J'sais pas j'ai fumé combien d'litres de cons', j'suis précis comme un livre de comptes Pah Concu' valent rien comme cinq livres de bronze, rap français dans la lunette et on vise le front Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came Pélo roule un super teh 6.6.7, RTT, que d'la super came</t>
+          <t>Eh, sku Eh Teh 667 Ouais Beh Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came Au l'tel-hô, laisse pas la bitch partir, TF1, moi, j'f'rai pas la pute à Arthur Apéro, foot, shit, boxe sur le parking, tu t'fais baiser par qui ? Mini Falla ragequit par qui ? Aux Terreaux, los-ki, le liquide, ça part vite, ta conso', big wax se revend par kits Big tte-ch', big dick, big ah, on peut dire qu'elle s'est fait piner par l'king Y a qu'après les billets qu'on court, la calvasse sous capuche, j'peux plus faire de contours Malgré ça, je la tue, je la torts, je la fourre, prends ta bague, RTT, tous les mois, y a concours Vas-y, cou-cou-cou-cours, Mini, Freeze, c'est des champs et Bellecou-cou-cou-cour Maisonnette KGB, OG, tousse, 69 dab on est même pas ché-tou tout, tout Y a qu'pour les pesos qu'on sah, Nina vend son cul pour des places de concerts Si t'es pas l'sang, pas de conseils c'est la recette, 6.9, zéro on signe on sait Vas-y, cou-cou-cou-cours, Mini, Freeze, c'est des champs et Bellecou-cou-cou-cour KGB maisonnette, OG tout, 6.9 cup on est même pas ché-tou ekip Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came 6.6.7, RTT, que d'la super came ekip, fuck le rap game, c'est un super scam Eh J'suis dans la cage comme un super Kahn Oliver, sur le terrain comme un super CAM 10 Corleone, que des super rimes ah, en face, ils m'font super rire haha Pour la famille, j'ai pris des super risques Han, faut qu'mes enfants grandissent comme des super riches Cash So le cactus, so 100 Souc' Ekip, j'ai la dalle comme un négro sans sous Cash J'leur mets des soupapes, so Ansu Nion, toujours opé', négro, pour les plans sous Cash So les factions et les brigades Bridages, ça cuisine l'audio dope chez les Trickaz Ekip Raconte pas ta vie, dis les prix cash pétasse, négro, à tous les postes, j'suis efficace 'ficace Freeze, Mini, là pour les M et M cash, cash, so RTT, so M et N Ekip Avec mes négros, on s'suit comme M et N ah, concu', on les fume comme des L et M J'sais pas j'ai fumé combien d'litres de cons', j'suis précis comme un livre de comptes Pah Concu' valent rien comme cinq livres de bronze, rap français dans la lunette et on vise le front Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came Pélo roule un super teh 6.6.7, RTT, que d'la super came</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pas d'problème ouais, négro ouais, j'ai c'que tu recherches ouais Qu'est-ce que tu veux, négro ? Qu'est-ce que tu veux ? Rapidement Allez, vas-y ouais, vas-y, négro, vite, vas-y, vas-y J'ai les capsules, j'ai tout ouais, vas-y, sors ton oseille, négro T'as de l'argent ? Tu viens du 9-3 ? Tu viens du 9-4 ? Tu veux cette frappe ? Ouais, ouais, ouais Moi, j'en ai rien à foutre, j'descends dans l'HLM direct du 7-7 ? Ouais, qui fournit le matériel ? du 9-1 ? du 9-2 ? C'est cette merde du Queensbridge Vas-y allume-toi Rapidement, je tombe en amour, passionnément, impulsif, excessif Parano, j'aime les revolvers, comme Brigitte aime Emmanuel depuis l'âge de 16 ans Tombé dans la vente de narco-stupéfiants en fréquentant ma première go' Son daron et daronne importaient déjà les kilos de blanquito, c'est comme si j'avais gagné le loto Marqué pour la vie depuis que je suis né, comme l'enfant Jésus, ils veulent me crucifier Incarcéré à perpet', l'établissement veut m'éliminer comme les services secrets français L'ont fait à la princesse Diana dans le tunnel, le sac d'argent des Anglais était trop important Pour épargner sa vie, comme ils l'ont fait à Prodigy, 2Pac, Biggie Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana You might also like Bitch, j'veux les fafs comme Elon, noir sur noir comme Venom GG comme Heenok, phrases interdites dans mes notes, nique un sataniste comme Lennon 6.6.7, accord parental, PG13 Chen Zen portée infinie comme PG 13 On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours snake, snake J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours J'suis là pour les sous, à propos des chiffres, so Andreï Markov J'sécurise le sac comme si j'suis entrain d'm'échapper d'Tarkov Chen Zen, Osirus Jack, allume les prods comme MME J'arrive Memphis comme NLE, à Dakar, grand teh dans les MLE J'fais l'nécessaire pour pas qu'on puisse identifier vos squelettes Sur la prod', kicke fort comme si j'rappe avec un exosquelette Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana Roule la cookie, laisse les tain-p', les putes accroupies haha Aqua dans les pick-up V8, dans l'squad que des tireurs d'élites brr Indépendant, bougent comme un troupeau d'orcs pendant Ces pédés sont grave tendance, gratte sous la moonrock, t'entends La concu' copie damn, logo d'la secte sur l'hoodie ouh J'les crame comme mon lopi' gros, réécoute Nibiru, j'ai tout dit Arrose la concu' comme des putes, on n'est plus des rookies nan, nan 2.2.4, so 2S, tout est écrit dans l'book ouais J'ai quelques flows illicites eh, eh, DGK tinitie sku On va régner comme avant, tu cons', tu tombes dans l'coma Grand cracheur de lave au mic', Freeze, 'Sirus Jack En direct du labo' man, so Black Jack, le Pablo noir Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana3</t>
+          <t>Pas d'problème ouais, négro ouais, j'ai c'que tu recherches ouais Qu'est-ce que tu veux, négro ? Qu'est-ce que tu veux ? Rapidement Allez, vas-y ouais, vas-y, négro, vite, vas-y, vas-y J'ai les capsules, j'ai tout ouais, vas-y, sors ton oseille, négro T'as de l'argent ? Tu viens du 9-3 ? Tu viens du 9-4 ? Tu veux cette frappe ? Ouais, ouais, ouais Moi, j'en ai rien à foutre, j'descends dans l'HLM direct du 7-7 ? Ouais, qui fournit le matériel ? du 9-1 ? du 9-2 ? C'est cette merde du Queensbridge Vas-y allume-toi Rapidement, je tombe en amour, passionnément, impulsif, excessif Parano, j'aime les revolvers, comme Brigitte aime Emmanuel depuis l'âge de 16 ans Tombé dans la vente de narco-stupéfiants en fréquentant ma première go' Son daron et daronne importaient déjà les kilos de blanquito, c'est comme si j'avais gagné le loto Marqué pour la vie depuis que je suis né, comme l'enfant Jésus, ils veulent me crucifier Incarcéré à perpet', l'établissement veut m'éliminer comme les services secrets français L'ont fait à la princesse Diana dans le tunnel, le sac d'argent des Anglais était trop important Pour épargner sa vie, comme ils l'ont fait à Prodigy, 2Pac, Biggie Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana Bitch, j'veux les fafs comme Elon, noir sur noir comme Venom GG comme Heenok, phrases interdites dans mes notes, nique un sataniste comme Lennon 6.6.7, accord parental, PG13 Chen Zen portée infinie comme PG 13 On attend notre tour, j'sens qu'ils sont autour, que des serpents et des vautours snake, snake J'arrive dans l'rap jeu comme un vol commercial détourné pour percuter vos tours J'suis là pour les sous, à propos des chiffres, so Andreï Markov J'sécurise le sac comme si j'suis entrain d'm'échapper d'Tarkov Chen Zen, Osirus Jack, allume les prods comme MME J'arrive Memphis comme NLE, à Dakar, grand teh dans les MLE J'fais l'nécessaire pour pas qu'on puisse identifier vos squelettes Sur la prod', kicke fort comme si j'rappe avec un exosquelette Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana Roule la cookie, laisse les tain-p', les putes accroupies haha Aqua dans les pick-up V8, dans l'squad que des tireurs d'élites brr Indépendant, bougent comme un troupeau d'orcs pendant Ces pédés sont grave tendance, gratte sous la moonrock, t'entends La concu' copie damn, logo d'la secte sur l'hoodie ouh J'les crame comme mon lopi' gros, réécoute Nibiru, j'ai tout dit Arrose la concu' comme des putes, on n'est plus des rookies nan, nan 2.2.4, so 2S, tout est écrit dans l'book ouais J'ai quelques flows illicites eh, eh, DGK tinitie sku On va régner comme avant, tu cons', tu tombes dans l'coma Grand cracheur de lave au mic', Freeze, 'Sirus Jack En direct du labo' man, so Black Jack, le Pablo noir Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana Accroupi dans les buissons, j't'attends avec le fusil à pompe Mon chef de société Braquage, donne-moi ta Rolex et ta bagnole On demande la rançon pour ta nana3</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ris-Kaa, ris-Kaa, ris-Kaa Ekip, ekip, ekip So le Flem Freeze Corleone M.M.S, LDO, NRM Grikitibang, 2.7 Han Sku, sku Fuck le 6.6.6 pah, pah, pah 2.7.0, poto Ekip sku, sku, sku La marée est haute, mes couilles trempent dans l'sel gang Plus d'600 ch'vaux, la boite est séquentielle sku, sku Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel shi Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel J'ai fini mon plat de garba gang, j'commence la découpe du taga J'lui mets dans l'ul-c, sa chatt est jalouse J'étais seul, lle a cru qu'c'était une partouze pute Je n'ai confiance qu'en Zizou dans les arrêts d'jeux comme KB Nueve Le plein d'plomb dans leur te-tê et dans l'réservoir à la BP Kaaris O.G Kush, j'suis mal luné, j'mets les voiles vers les îles J'laisse la poudre sur tes poils du nez et le me-sper sur tes cils Retourné acrobatique, 9 milli', gang, dans le 4Matic Paris n'est pas juste magique et les autres équipes sucent ma trique You might also like Des diamants sur la RM Sevran, j'mets du piment sur leurs raies gang J'roule un pli, c'est mon énième ouais, la vision s'précise comme un IRM pute Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens han Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh Des diamants sur la RM pah, j'mets du piment sur leurs raies ekip J'roule un pli, c'est mon énième han, la vision s'précise comme un IRM han Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens pah Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh Corleone, K2A ekip, ekip, ekip Maybach, pas de A, LDO, en tirs, négro, v'là de A sku, sku 9.3.5, 2.7 ekip, ekip, ekip So Kaki, zéro point en 32 sets, killu, deux 6 jamais sans le 7 lin Fuck le triple 6, j'évite le Malin, Corleone comme le film Le Parrain ekip Faut qu'mes enfants vivent comme des fils de parrains cash Black Jack OBS vise le larynx pah, pah, pah So l'agence, négro, la compagnie ekip, allume les prods comme dans Bad Company pah Dans la défense comme quatre Kompany han On n'apparaît pas sur les radars nan, mitraille d'en haut comme des ADAV paw, paw Envoie les prods, j'enchaîne les cadavres haha, ekip, ekip C'est au plastic qu'on ouvre nos portes han, il m'faut v'là d'acide pour vos corps han Retourne la prod avec le double rotor, ekip Des diamants sur la RM Sevran, j'mets du piment sur leurs raies gang J'roule un pli, c'est mon énième ouais, la vision s'précise comme un IRM pute Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens han Queensbridge comme CNN han, so Loto, fuck les States et les VMA pah Des diamants sur la RM pah, j'mets du piment sur leurs raies ekip J'roule un pli, c'est mon énième han, la vision s'précise comme un IRM han Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens pah Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh La marée est haute, mes couilles trempent dans l'sel ekip, ekip LDO, NRM, 6.6.7, pétasse, han Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel 6.6.7, 2.7, ekip, ekip, ekip Corleone, K2ARis-Kaa, ris-Kaa, ris-Kaa Maybach, pas de A 9.3.5 2.7 Grikitibang So Kaki, zéro point en 32 sets, killu, deux 6 jamais sans le 7 ekip, ekip3</t>
+          <t>Ris-Kaa, ris-Kaa, ris-Kaa Ekip, ekip, ekip So le Flem Freeze Corleone M.M.S, LDO, NRM Grikitibang, 2.7 Han Sku, sku Fuck le 6.6.6 pah, pah, pah 2.7.0, poto Ekip sku, sku, sku La marée est haute, mes couilles trempent dans l'sel gang Plus d'600 ch'vaux, la boite est séquentielle sku, sku Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel shi Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel J'ai fini mon plat de garba gang, j'commence la découpe du taga J'lui mets dans l'ul-c, sa chatt est jalouse J'étais seul, lle a cru qu'c'était une partouze pute Je n'ai confiance qu'en Zizou dans les arrêts d'jeux comme KB Nueve Le plein d'plomb dans leur te-tê et dans l'réservoir à la BP Kaaris O.G Kush, j'suis mal luné, j'mets les voiles vers les îles J'laisse la poudre sur tes poils du nez et le me-sper sur tes cils Retourné acrobatique, 9 milli', gang, dans le 4Matic Paris n'est pas juste magique et les autres équipes sucent ma trique Des diamants sur la RM Sevran, j'mets du piment sur leurs raies gang J'roule un pli, c'est mon énième ouais, la vision s'précise comme un IRM pute Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens han Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh Des diamants sur la RM pah, j'mets du piment sur leurs raies ekip J'roule un pli, c'est mon énième han, la vision s'précise comme un IRM han Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens pah Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh Corleone, K2A ekip, ekip, ekip Maybach, pas de A, LDO, en tirs, négro, v'là de A sku, sku 9.3.5, 2.7 ekip, ekip, ekip So Kaki, zéro point en 32 sets, killu, deux 6 jamais sans le 7 lin Fuck le triple 6, j'évite le Malin, Corleone comme le film Le Parrain ekip Faut qu'mes enfants vivent comme des fils de parrains cash Black Jack OBS vise le larynx pah, pah, pah So l'agence, négro, la compagnie ekip, allume les prods comme dans Bad Company pah Dans la défense comme quatre Kompany han On n'apparaît pas sur les radars nan, mitraille d'en haut comme des ADAV paw, paw Envoie les prods, j'enchaîne les cadavres haha, ekip, ekip C'est au plastic qu'on ouvre nos portes han, il m'faut v'là d'acide pour vos corps han Retourne la prod avec le double rotor, ekip Des diamants sur la RM Sevran, j'mets du piment sur leurs raies gang J'roule un pli, c'est mon énième ouais, la vision s'précise comme un IRM pute Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens han Queensbridge comme CNN han, so Loto, fuck les States et les VMA pah Des diamants sur la RM pah, j'mets du piment sur leurs raies ekip J'roule un pli, c'est mon énième han, la vision s'précise comme un IRM han Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens pah Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh La marée est haute, mes couilles trempent dans l'sel ekip, ekip LDO, NRM, 6.6.7, pétasse, han Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel 6.6.7, 2.7, ekip, ekip, ekip Corleone, K2ARis-Kaa, ris-Kaa, ris-Kaa Maybach, pas de A 9.3.5 2.7 Grikitibang So Kaki, zéro point en 32 sets, killu, deux 6 jamais sans le 7 ekip, ekip3</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Han MMS LDO NRM 667 pétasse Han, ekip J'arrive lourd comme 3 planètes Dans le xan négro, jvois pas net Ekip, tellement d'avance négro je les redépasse Avec Blacky, fait que des passes Y'a que pour du cash que jme déplace, négro Va contre la Secte, j'peux t'garantir que tu vas perdre Pétasse, allume toi comme moi j'peux t'garantir que tu vas perr Gaddamn, j'les regarde tourner en rond comme au Nascar Chen Zen, j'arrive killuminati comme Ol' Bastard Chaque jour, fume vlà dcaca comme si j'habite à Casa Chaque jour, fuck Israël comme si j'habite à Gaza À propos des sous comme Donald J'suis comme Picsou, t'es comme Donald Soupape ces négros comme Raheem Négro, jles aime pas comme Donald Remballe ton shit, R.A.F Tu veux pas payer ton feat', R.A.F Trouve moi dans l'piège, côté obscur avec 11 siths, R.A.F You might also like J'arrive lourd comme 3 planètes Mars, Jupiter, Vénus, salope Dans le Xan négro j'vois pas net En flow j'ai 4 océans, t'as 3 canettes J'arrive lourd comme 3 planètes Pluton, Nibiru, Saturne Dans le Xan négro j'vois pas net En flow j'ai 4 océans, t'as 3 canettes8</t>
+          <t>Han MMS LDO NRM 667 pétasse Han, ekip J'arrive lourd comme 3 planètes Dans le xan négro, jvois pas net Ekip, tellement d'avance négro je les redépasse Avec Blacky, fait que des passes Y'a que pour du cash que jme déplace, négro Va contre la Secte, j'peux t'garantir que tu vas perdre Pétasse, allume toi comme moi j'peux t'garantir que tu vas perr Gaddamn, j'les regarde tourner en rond comme au Nascar Chen Zen, j'arrive killuminati comme Ol' Bastard Chaque jour, fume vlà dcaca comme si j'habite à Casa Chaque jour, fuck Israël comme si j'habite à Gaza À propos des sous comme Donald J'suis comme Picsou, t'es comme Donald Soupape ces négros comme Raheem Négro, jles aime pas comme Donald Remballe ton shit, R.A.F Tu veux pas payer ton feat', R.A.F Trouve moi dans l'piège, côté obscur avec 11 siths, R.A.F J'arrive lourd comme 3 planètes Mars, Jupiter, Vénus, salope Dans le Xan négro j'vois pas net En flow j'ai 4 océans, t'as 3 canettes J'arrive lourd comme 3 planètes Pluton, Nibiru, Saturne Dans le Xan négro j'vois pas net En flow j'ai 4 océans, t'as 3 canettes8</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>So le Flem, han Ff, ff, ff, K.K.K Ekip, ekip, ekip, ekip, ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7 N.R.M, 6.6.7, N.R.M, 6.6.7 J'marche seul dans la vallée d'la mort Jveux des sous depuis qu'j'suis p'tit avec la morve, cadavre sur cadavre comme si j'ai un deal avec la morgue Basket foot, j'envoie des lobs, j'arrive en 3D Lock J'ai peur quand j'vois mes notes, noir et pro, négro, j'arrive en Roi Heenok Fuck des hauts de marque, j'veux que des Audemars J'arrive sous lin comme SaySoThMac, pour l'cash, négro, j'fais les exos de maths J'allum des Cali extrêmes, j'sais qu'la famille les stresse L'attaque des clones, j'vois plein d'moi version AliExpress So Flem le bassologue, j'avance grâce aux logs 6.6.7 Galactiques nous contre eux, c'est l'Real Madrid face au LOSC Cartier Santos Skeleton, fuck ces négros, c'est que des thos-m' Flows en stock, j'ai que des tonnes, j'suis l'nouveau directeur de l'école Directeur de l'école, de l'école Corleone, j'fais pas d'trottinette J'fais pas d'trottinette, pas d'trottinette Et j'me déplace pas pour des clopinettes J'arrive plus lourd que trois Obélix, tu r'gardes les scores, tu t'crois au tennis J'ai 98 de vision comme João Félix Faut plus d'Ether que Vitalik, j'arrive raciste comme en Italie Comme en Italie Sous lin, très penché comme si j'écrivais en italique La L.D.O dans l'arena, monte les Celsius, les Fahrenheit Les Fahrenheit Spot up sans limite, Hall of Fame comme Gilbert Arenas Chaque move, j'vise le max, faut l'penthouse sur l'île de Malte Si tu cherches les problèmes, négro, on peut t'ramener des livres de maths Cali, hash', j'inhale, sur la prod, maîtrise limite machinale Limite machinale Rien que j'découpe, j'ai les mêmes techniques qu'Isshin Ashina Voitures conçues près d'Francfort, plantes fortes, j'ai des grandes sortes À Dakar, on aime les armes à feu, les grandes sommes et les Range Sport Gal'-Sén' comme l'époque NVA, plus jamais fauché comme NBA Comme NBA Sous xan, négro, j'geeke comme si j'révisais mon MBA J'ai d'l'argent qui dort, j'fais d'l'argent en dormant D'l'argent en dormant J'suis dans mon coin, j'attends l'bon moment, comme un agent dormant Dans la cuisine avec les plats qui chauffent, sang-froid avec des habits chauds Vrai négro de l'ouest à l'est, de Dakar jusqu'à Mogadiscio Mogadiscio, Mogadiscio Flingue comme AR ou Famas J'aime bien quand les sous s'amassent, rap terroriste, Chen, Oussama Chen, Oussama Moncler, j'passe un hiver cool Dieu avec moi, jamais j'marche seul comme si j'joue à Liverpool Si j'joue à Liverpool Ekip ekip You might also like Han han Fuck des hauts de marque, j'veux que des Audemars J'arrive sous lin comme SaySoTheMac Pour l'cash, négro, j'fais les exos de maths J'allume des Cali extrêmes Cali extrêmes L'attaque des clones, j'vois plein d'moi version AliExpress So Flem le bassologue, j'avance grâce aux logs 6.6.7 Galactiques nous contre eux, c'est l'Real Madrid face au LOSC face au LOSC, face au LOSC Ekip, ekip, ekip, ekip, ekip, ekip Han - Tu avais fait une interview avec Tonton Marcel pour N-Da-Hood et tu, la première chose que tu dis, c'est Je me positionne comme nazi dans ce rap jeu. Et y a aussi le morceau où tu parles pire que nazi, on roule en BMW ou en Audi. Et je vois justement cette image de Roi Heenok dans la direction artistique, véritablement de, de roi et de nazi. C'est... les gens te suivent à la lettre et tu les diriges - Moi, j'ai des amis de l'Israël. Grosses salutations à Tel Aviv. Tu vois ce que je veux dire ? Donc... heu... faut faire très attention quand on parle de nazi. Moi, c'que j'aime... c'que j'aime, c'est, heu... l'intelligence dans les mouvements, heu... lorsque tu étudies les livres comme la Gestapo. Tu vois ce que je veux dire ? Y a un génie dans les façons de faire la guerre et de bouger, lorsque t'es à la guerre, et le rap, c'est d'la guerre - Ouais, Napoléon quoi ? - Donc lorsque j'flingue, moi, j'ai besoin de certaines inspirations, de génie. Alors, je lis la Torah comme les livres de la Gestapo, tu vois c'que j'veux dire ? Et ça m'aide dans mon flinguage, tu vois c'que j'veux dire ? Pour moi, y a d'l'amour pour toutes les putains d'race. Que ce soit les Israëliens... - Les Allemands, heu - Ouais, les Allemands aux putain de... heu... Irakiens - Et les prochains albums seront un peu plus politisés ? Ou tu vas rester sur ? Tu peux parler des prochaines livraisons ? - Lorsque je rappe et qu'on était en studio, c'est le son qui amène la violence dans l'écrit. Et après, c'est... - Y a beaucoup de politique dans tes paroles ! - Ouais, après, c'est la connaissance qui, heu... se manifeste sous l'écrit, heu... pour pouvoir nous définir en tant que heu... Est-ce que ce négro est intelligent ou c'est un singe qui mange des bananes ? Tu vois c'que j'veux dire ? Donc les textes... - Ou des mangues ? - Ou des mangues aussi. Mais lorsque tu rappes comme le roi, t'assures un texte qui, heu... très approfondi... dans heu... - La sémantique ? - La souplesse de la langue française. Tu vois c'que j'veux dire ou pas ? Très élitiste</t>
+          <t>So le Flem, han Ff, ff, ff, K.K.K Ekip, ekip, ekip, ekip, ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7 N.R.M, 6.6.7, N.R.M, 6.6.7 J'marche seul dans la vallée d'la mort Jveux des sous depuis qu'j'suis p'tit avec la morve, cadavre sur cadavre comme si j'ai un deal avec la morgue Basket foot, j'envoie des lobs, j'arrive en 3D Lock J'ai peur quand j'vois mes notes, noir et pro, négro, j'arrive en Roi Heenok Fuck des hauts de marque, j'veux que des Audemars J'arrive sous lin comme SaySoThMac, pour l'cash, négro, j'fais les exos de maths J'allum des Cali extrêmes, j'sais qu'la famille les stresse L'attaque des clones, j'vois plein d'moi version AliExpress So Flem le bassologue, j'avance grâce aux logs 6.6.7 Galactiques nous contre eux, c'est l'Real Madrid face au LOSC Cartier Santos Skeleton, fuck ces négros, c'est que des thos-m' Flows en stock, j'ai que des tonnes, j'suis l'nouveau directeur de l'école Directeur de l'école, de l'école Corleone, j'fais pas d'trottinette J'fais pas d'trottinette, pas d'trottinette Et j'me déplace pas pour des clopinettes J'arrive plus lourd que trois Obélix, tu r'gardes les scores, tu t'crois au tennis J'ai 98 de vision comme João Félix Faut plus d'Ether que Vitalik, j'arrive raciste comme en Italie Comme en Italie Sous lin, très penché comme si j'écrivais en italique La L.D.O dans l'arena, monte les Celsius, les Fahrenheit Les Fahrenheit Spot up sans limite, Hall of Fame comme Gilbert Arenas Chaque move, j'vise le max, faut l'penthouse sur l'île de Malte Si tu cherches les problèmes, négro, on peut t'ramener des livres de maths Cali, hash', j'inhale, sur la prod, maîtrise limite machinale Limite machinale Rien que j'découpe, j'ai les mêmes techniques qu'Isshin Ashina Voitures conçues près d'Francfort, plantes fortes, j'ai des grandes sortes À Dakar, on aime les armes à feu, les grandes sommes et les Range Sport Gal'-Sén' comme l'époque NVA, plus jamais fauché comme NBA Comme NBA Sous xan, négro, j'geeke comme si j'révisais mon MBA J'ai d'l'argent qui dort, j'fais d'l'argent en dormant D'l'argent en dormant J'suis dans mon coin, j'attends l'bon moment, comme un agent dormant Dans la cuisine avec les plats qui chauffent, sang-froid avec des habits chauds Vrai négro de l'ouest à l'est, de Dakar jusqu'à Mogadiscio Mogadiscio, Mogadiscio Flingue comme AR ou Famas J'aime bien quand les sous s'amassent, rap terroriste, Chen, Oussama Chen, Oussama Moncler, j'passe un hiver cool Dieu avec moi, jamais j'marche seul comme si j'joue à Liverpool Si j'joue à Liverpool Ekip ekip Han han Fuck des hauts de marque, j'veux que des Audemars J'arrive sous lin comme SaySoTheMac Pour l'cash, négro, j'fais les exos de maths J'allume des Cali extrêmes Cali extrêmes L'attaque des clones, j'vois plein d'moi version AliExpress So Flem le bassologue, j'avance grâce aux logs 6.6.7 Galactiques nous contre eux, c'est l'Real Madrid face au LOSC face au LOSC, face au LOSC Ekip, ekip, ekip, ekip, ekip, ekip Han - Tu avais fait une interview avec Tonton Marcel pour N-Da-Hood et tu, la première chose que tu dis, c'est Je me positionne comme nazi dans ce rap jeu. Et y a aussi le morceau où tu parles pire que nazi, on roule en BMW ou en Audi. Et je vois justement cette image de Roi Heenok dans la direction artistique, véritablement de, de roi et de nazi. C'est... les gens te suivent à la lettre et tu les diriges - Moi, j'ai des amis de l'Israël. Grosses salutations à Tel Aviv. Tu vois ce que je veux dire ? Donc... heu... faut faire très attention quand on parle de nazi. Moi, c'que j'aime... c'que j'aime, c'est, heu... l'intelligence dans les mouvements, heu... lorsque tu étudies les livres comme la Gestapo. Tu vois ce que je veux dire ? Y a un génie dans les façons de faire la guerre et de bouger, lorsque t'es à la guerre, et le rap, c'est d'la guerre - Ouais, Napoléon quoi ? - Donc lorsque j'flingue, moi, j'ai besoin de certaines inspirations, de génie. Alors, je lis la Torah comme les livres de la Gestapo, tu vois c'que j'veux dire ? Et ça m'aide dans mon flinguage, tu vois c'que j'veux dire ? Pour moi, y a d'l'amour pour toutes les putains d'race. Que ce soit les Israëliens... - Les Allemands, heu - Ouais, les Allemands aux putain de... heu... Irakiens - Et les prochains albums seront un peu plus politisés ? Ou tu vas rester sur ? Tu peux parler des prochaines livraisons ? - Lorsque je rappe et qu'on était en studio, c'est le son qui amène la violence dans l'écrit. Et après, c'est... - Y a beaucoup de politique dans tes paroles ! - Ouais, après, c'est la connaissance qui, heu... se manifeste sous l'écrit, heu... pour pouvoir nous définir en tant que heu... Est-ce que ce négro est intelligent ou c'est un singe qui mange des bananes ? Tu vois c'que j'veux dire ? Donc les textes... - Ou des mangues ? - Ou des mangues aussi. Mais lorsque tu rappes comme le roi, t'assures un texte qui, heu... très approfondi... dans heu... - La sémantique ? - La souplesse de la langue française. Tu vois c'que j'veux dire ou pas ? Très élitiste</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>So le Flem, han Na-Na-Na-Narcos Skuna Boy Hadouken 6.6.7 aka l'Wagner Group, fuck Universal, Sony et l'Warner Group Les trois So la Licra, so à Stasi Merci, on vient réguler comme la Stasi Rah J'arrive comme Scott Summers sans les lunettes Cyclope, j'bombarde à fond dans les tunnels Sku, sku À 280 sur l'autoroute, j'arrive comme Akira sur la moto rouge J'suis un vaisseau spatial, c'est des traineaux Sku, j'touche pas l'volant, j'fais des créneaux J'arrive en Messi, en Maradona Han, en Cheikh Anta Diop, en Sankara Thomas Ekip La concurrence, on la mang comme dix frites Dix, Corleon, j'envoie des flammes comme Ifrit Ifrit Envoie les prod', j'les fume quatre par quatre, j'accumule les tickets comme dans une salle d'arcade Eh J'me suis infiltré, j'ai pété plein d'portes Han, ils font tout pour m'arrêter comme des freins d'Porsche Sku Plus d'mille mètres avec les .50 Cal Pah, présidentielle à 50K Rolex Rap terro', tactique talibane Han, pour les prod', c'est Holocauste, cannibale Han J'envoie deux mesures et l'ordi' cale Pah, j'suis fonce' dans la station orbitale Pétasse J'écris comme si j'fais des dessins Han, ils ont cru qu'on était des singes Ahah T'avais percé mais t'as dé-pop Merde, le rap ressemble à d'la Kpop Merde Chen Zen découpe comme Clive Shing, 22 sur moi comme Clyde Clyde 20-23, c'est l'attaque des clones, pétasse, y a pas d'mixtape comme Plies Nan J'écris comme si j'fais des dessins Dessins, ils ont cru qu'on était des singes Sku T'avais percé mais t'as dé-pop Ahah, le rap ressemble à d'la Kpop Ahah Chen Zen découpe comme Clive Clive , 22 sur moi comme Clyde Paw 20-23, c'est l'attaque des clones, pétasse, y a pas d'mixtape comme Plies You might also like Toutes les prod', j'prends les PV, négro PV, ice, j'prends les VV', négro VV' Xanax 2 mg, négro, yeuz' comme le boss de LG, négro Ahah Batte de baseball de indica, so la secte, so le syndicat Ekip Dans tes oreilles, un morceau, tu saignes Direct, so Bang, so Olufsen Ekip J'cache les médicaments dans la bouffe Han, drogue et argent dans la Goose Devant l'micro, des flammes dans la bouche Ekip, on a commencé tout en bas dans la boue En bas J'arrive raciste comme des cops texans Han, à Dakar, il m'faut des colts 700 Sku Ils font les Pablo, ils ont trop r'gardé Narcos, so Chapo, Heizenberg, so les Narcos Ekip OG en personne comme Miko, on les graille comme Vico, fuck la France comme Nico Han J'me méfie des serpents comme Rico, et négro, j'vois tout comme Ficko La concu', on la fume comme zaza, musique anti-dajjâl comme Saza' Tu devrais prendre ta retraite comme Hazard Han, et j'arrive naz comme NASA Ahah J'écris comme si j'fais des dessins Han, ils ont cru qu'on était des singes Ahah T'avais percé mais t'as dé-pop Merde, le rap ressemble à d'la Kpop Merde Chen Zen découpe comme Clive Sing , 22 sur moi comme Clyde Clyde 20-23, c'est l'attaque des clones, pétasse, y a pas d'mixtape comme Plies Nan J'écris comme si j'fais des dessins Dessins, ils ont cru qu'on était des singes Sku T'avais percé mais t'as dé-pop Ahah, le rap ressemble à d'la Kpop Ahah Chen Zen découpe comme Clive Clive , 22 sur moi comme Clyde Paw 20-23, c'est l'attaque des clones, pétasse, y a pas d'mixtape comme Plies Nan Ekip</t>
+          <t>So le Flem, han Na-Na-Na-Narcos Skuna Boy Hadouken 6.6.7 aka l'Wagner Group, fuck Universal, Sony et l'Warner Group Les trois So la Licra, so à Stasi Merci, on vient réguler comme la Stasi Rah J'arrive comme Scott Summers sans les lunettes Cyclope, j'bombarde à fond dans les tunnels Sku, sku À 280 sur l'autoroute, j'arrive comme Akira sur la moto rouge J'suis un vaisseau spatial, c'est des traineaux Sku, j'touche pas l'volant, j'fais des créneaux J'arrive en Messi, en Maradona Han, en Cheikh Anta Diop, en Sankara Thomas Ekip La concurrence, on la mang comme dix frites Dix, Corleon, j'envoie des flammes comme Ifrit Ifrit Envoie les prod', j'les fume quatre par quatre, j'accumule les tickets comme dans une salle d'arcade Eh J'me suis infiltré, j'ai pété plein d'portes Han, ils font tout pour m'arrêter comme des freins d'Porsche Sku Plus d'mille mètres avec les .50 Cal Pah, présidentielle à 50K Rolex Rap terro', tactique talibane Han, pour les prod', c'est Holocauste, cannibale Han J'envoie deux mesures et l'ordi' cale Pah, j'suis fonce' dans la station orbitale Pétasse J'écris comme si j'fais des dessins Han, ils ont cru qu'on était des singes Ahah T'avais percé mais t'as dé-pop Merde, le rap ressemble à d'la Kpop Merde Chen Zen découpe comme Clive Shing, 22 sur moi comme Clyde Clyde 20-23, c'est l'attaque des clones, pétasse, y a pas d'mixtape comme Plies Nan J'écris comme si j'fais des dessins Dessins, ils ont cru qu'on était des singes Sku T'avais percé mais t'as dé-pop Ahah, le rap ressemble à d'la Kpop Ahah Chen Zen découpe comme Clive Clive , 22 sur moi comme Clyde Paw 20-23, c'est l'attaque des clones, pétasse, y a pas d'mixtape comme Plies Toutes les prod', j'prends les PV, négro PV, ice, j'prends les VV', négro VV' Xanax 2 mg, négro, yeuz' comme le boss de LG, négro Ahah Batte de baseball de indica, so la secte, so le syndicat Ekip Dans tes oreilles, un morceau, tu saignes Direct, so Bang, so Olufsen Ekip J'cache les médicaments dans la bouffe Han, drogue et argent dans la Goose Devant l'micro, des flammes dans la bouche Ekip, on a commencé tout en bas dans la boue En bas J'arrive raciste comme des cops texans Han, à Dakar, il m'faut des colts 700 Sku Ils font les Pablo, ils ont trop r'gardé Narcos, so Chapo, Heizenberg, so les Narcos Ekip OG en personne comme Miko, on les graille comme Vico, fuck la France comme Nico Han J'me méfie des serpents comme Rico, et négro, j'vois tout comme Ficko La concu', on la fume comme zaza, musique anti-dajjâl comme Saza' Tu devrais prendre ta retraite comme Hazard Han, et j'arrive naz comme NASA Ahah J'écris comme si j'fais des dessins Han, ils ont cru qu'on était des singes Ahah T'avais percé mais t'as dé-pop Merde, le rap ressemble à d'la Kpop Merde Chen Zen découpe comme Clive Sing , 22 sur moi comme Clyde Clyde 20-23, c'est l'attaque des clones, pétasse, y a pas d'mixtape comme Plies Nan J'écris comme si j'fais des dessins Dessins, ils ont cru qu'on était des singes Sku T'avais percé mais t'as dé-pop Ahah, le rap ressemble à d'la Kpop Ahah Chen Zen découpe comme Clive Clive , 22 sur moi comme Clyde Paw 20-23, c'est l'attaque des clones, pétasse, y a pas d'mixtape comme Plies Nan Ekip</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CashMoneyAP Ah, ekip ekip ekip Joey on the Juice M.M.S, L.D.O, N.R.M, 667, Pétasse Ekip, ekip ekip ekip Ekip, ekip ekip sku, skrt skrt Ekip, ekip ekip, Goddamn, pétasse Ekip, ekip ekip sku, skrt skrt Ekip, ekip ekip sku, skrt skrt Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, han ekip ekip Ekip, ekip ekip ekip ekip sku, skrt skrt 667 Real Madrid, bitch J'suis l'jeune Tom, t'es comme Hagrid, bitch J'suis l'cancer, t'es comme la grippe, bitch Ekip, LDO Bayern Munich han, bitch J'écris mes textes en runiques, bitch Camo kaki sur les tuniques, bitch pétasse Devant la cage j'lack pas comme Robert pétasse J'veux l'pouvoir comme Robert Remballe tes salades, j'te crois pas comme Robert pétasse Ekip, j'suis l'ouragan, t'es la brise, négro FLRG, trop la crise, négro J'suis dans la pharma', so la prise, négro Pétasse, tous les jours j'suis dans la médication goddamn Elle vient m'voir quand elle veut faire de l'équitation viens m'voir, viens m'voir Ekip, j'suis ekip à fond, t'es dans l'équipe à Sion Si tu fais l'grossiste, on t'apprend la lévitation Pussy négro, ton flow vaut comme 500 Chen Zen, dans la défense posté comme Vincent Vincent Kompany, pétasse Pour changer l'match il m'faut comme un centre J'regarde ces négros, ils sont extra-faibles comme 1 cent goddamn You might also like Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, ekip ekip Ekip, ekip ekip Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, han ekip ekip Ekip, ekip ekip ekip ekip La LDO dans la maison, Division 1 dans la saison Fais belek fiston, si tu t'allumes avec nous, tu rentres chez toi sans la raison goddamn Chen Zen, j'ai la dalle, pétasse J'fais qu'gratter comme si j'ai la gale, pétasse Analyse la meilleure solution quand j'ai la balle, pétasse So les lions, so l'équipe bleue On les fouette avec l'équipe 2 Négro, depuis qu'j'm'allume, j'ai cons' des litrons d'caca et des kils d'beuh Tu pues la merde, tu sens le caca Haha Négro j'm'allume, tu sens le caca Trop d'avance dans le cycle J'écris mes textes dans le 6 Trop d'midi-chloriens dans le Sith Négro, avec le ferg fonscar dans le site han Chen Zen, j'avance dans le Xan Au moins trois drogues dans le sang En défense, au calme dans le centre Démarqué, reprise directe dans le centre Négro j'écris comme en 2021 pétasse, pétasse On arrive sauvages comme 2000 21 Fuck la policia gros, so Kap G La 6-secte bientôt partout, so 4G Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, ekip ekip Ekip, ekip ekip Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, han ekip ekip Ekip, ekip ekip ekip ekip7</t>
+          <t>CashMoneyAP Ah, ekip ekip ekip Joey on the Juice M.M.S, L.D.O, N.R.M, 667, Pétasse Ekip, ekip ekip ekip Ekip, ekip ekip sku, skrt skrt Ekip, ekip ekip, Goddamn, pétasse Ekip, ekip ekip sku, skrt skrt Ekip, ekip ekip sku, skrt skrt Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, han ekip ekip Ekip, ekip ekip ekip ekip sku, skrt skrt 667 Real Madrid, bitch J'suis l'jeune Tom, t'es comme Hagrid, bitch J'suis l'cancer, t'es comme la grippe, bitch Ekip, LDO Bayern Munich han, bitch J'écris mes textes en runiques, bitch Camo kaki sur les tuniques, bitch pétasse Devant la cage j'lack pas comme Robert pétasse J'veux l'pouvoir comme Robert Remballe tes salades, j'te crois pas comme Robert pétasse Ekip, j'suis l'ouragan, t'es la brise, négro FLRG, trop la crise, négro J'suis dans la pharma', so la prise, négro Pétasse, tous les jours j'suis dans la médication goddamn Elle vient m'voir quand elle veut faire de l'équitation viens m'voir, viens m'voir Ekip, j'suis ekip à fond, t'es dans l'équipe à Sion Si tu fais l'grossiste, on t'apprend la lévitation Pussy négro, ton flow vaut comme 500 Chen Zen, dans la défense posté comme Vincent Vincent Kompany, pétasse Pour changer l'match il m'faut comme un centre J'regarde ces négros, ils sont extra-faibles comme 1 cent goddamn Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, ekip ekip Ekip, ekip ekip Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, han ekip ekip Ekip, ekip ekip ekip ekip La LDO dans la maison, Division 1 dans la saison Fais belek fiston, si tu t'allumes avec nous, tu rentres chez toi sans la raison goddamn Chen Zen, j'ai la dalle, pétasse J'fais qu'gratter comme si j'ai la gale, pétasse Analyse la meilleure solution quand j'ai la balle, pétasse So les lions, so l'équipe bleue On les fouette avec l'équipe 2 Négro, depuis qu'j'm'allume, j'ai cons' des litrons d'caca et des kils d'beuh Tu pues la merde, tu sens le caca Haha Négro j'm'allume, tu sens le caca Trop d'avance dans le cycle J'écris mes textes dans le 6 Trop d'midi-chloriens dans le Sith Négro, avec le ferg fonscar dans le site han Chen Zen, j'avance dans le Xan Au moins trois drogues dans le sang En défense, au calme dans le centre Démarqué, reprise directe dans le centre Négro j'écris comme en 2021 pétasse, pétasse On arrive sauvages comme 2000 21 Fuck la policia gros, so Kap G La 6-secte bientôt partout, so 4G Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, ekip ekip Ekip, ekip ekip Ekip, ekip ekip Ekip, ekip ekip, Goddamn, pétasse Ekip, han ekip ekip Ekip, ekip ekip ekip ekip7</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Han Woo OV Han-han Woo Haha, new era bitch New era, non y a pas d'monde féérique Nan Kaki fume la Morty et Rick 2-2-1, O.B.S., ouais y a l'artillerie On les lave, on les lamine, même postés au loin Au loin Précis même fonce-dé au lin Woo Plus Kilimandjaro qu'Mont Olympe Mont Olympe, dans la qualité comme le teh qu'nous on a Woo Han, chasse les démons comme dans Constantine So Loto, faut les big Vacheron Constantin Ice 20-21, pétasse, Nouvelle Ère Ha, on a des nouveaux shits, des nouvelles herbes Fonscar au lin j'ai des cerns Han, au bled il m'faut des ranchs et ds fermes Cash Osirus Jack, Freeze Corleone, dans l'complot comme si on taffait chez CERN Han J'fume et les options s'offrent Woo, j'suis dans l'char ou l'option sport Gaddamn Regarde comment au-dessus d'eux j'plane, dans l'roster que des all-stars Haha Europa, négro faut s'taille Direct, logo sur l'tricot Han Les mano pleins d'trichomes Merde J'pense j'ai l'meilleur des decks, la chatte à la maman des deks Okay On arrive dans l'game comme un vendredi 13 Piou, piou, piou Tu rappes encore comme en 2013 Ha Ça a fait du ch'min depuis 2013 Assez d'fanatiques pour remplir trente-deux lignes 13 Ekip J'me sens comme l'alligator dans les marécages Han C'est des imposteurs ils font pas les tâches Nan J'aime parler cash, grosse wax j'fume v'là les taches À Dakar faut villa avec quatre étages Fuck vos rappeurs du troisième âge, dès qu'on débarque on les ken Woo J'veux les longs câbles comme Roi Heenok ou Johnny Dang Haha J'suis fonce' du lundi au week-end Ils sont faibles ils passent même pas les huitièmes Ha Faut plus d'auditeurs Spotify que The Weeknd J'arrive raciste comme un OG Mickey Ha Ils ont disparu comme John Obi Mikel Et j'les vois p'tits comme des Minimoys Ha Faut une liasse de la longueur de dix mille bornes Gang shit, so Chiraq Drillinois Reste allumé comme dix diodes Han-han Et la bitch elle vient pas d'Taïwan Nan, nan On les fait sauter one by one He J'peux finir à tout moment comme Delonte Ouais Fume le beldia du salon d'thé J'rajoute deux gouttes de nigelle à mon thé Tant qu'on est pas au sommet, continue à monter Woo J'ai mes outils mais j'suis pas mécano J'suis dans la défense comme Upamecano Ha So Loto, gratte comme J. K. Rowling Et négro j'appellerais pas ma fille Caroline Nan Fume gasoline et triple filtré, anonyme Négro, dans l'KGB, découpe fonscar au lean Lin Sur notre route ils veulent mettre des grandes herses On reste au-d'ssus d'eux comme la Grande Ourse Damn 667 ça perce plus, ça transperce Si ça continue bientôt tu nous verras en bourse Cash J'm'informe sur le nombre et les fréquences hertz Faut qu'ma vision s'agrandisse OV VVS certifiés à Anvers, sur la route du papier bombarde à 310 Cash, cash, cash 21 là pour siéger Woo, mental killu comme le Che J'vise dix fois la vie d'un DG Woo Équipe remplie qu'd'artisans, des comme nous y en a pas chaque deux ans Nan Et j'arrive fonce-dé à deux Xans J'voulais déjà de l'argent à deux ans Cash, haha J'veux le cash, le fromage, le parmesan, ekip On s'implante jusqu'au Parlement Ils s'transmettent les bails par le sang 'llu 6-6-7 c'est la Masia, on t'apprend v'là les techniques Woo négro si tu passes par le centre Ekip 6-6-7 comme des Olmèques on est là d'puis avant l'an zéro, froid comme Angelo J'suis LaMelo, toi t'es LiAngelo Nunchaku sur la prod comme Michelangelo J'cherche mais la concu' j'vois 'ap Nulle part En tout noir on vient comme le SWAT J'aime bien voir l'argent croître Cash Si c'est pas pour du cash tu m'vois pas en boîte Cash, cash MMS, on est presque mille Haha, faut la casa sur la presqu'île Pétasse On a les techs, j'ai les skills, sur la prod, négro, glisse comme si j'avais des skis, ekipYou might also like11</t>
+          <t>Han Woo OV Han-han Woo Haha, new era bitch New era, non y a pas d'monde féérique Nan Kaki fume la Morty et Rick 2-2-1, O.B.S., ouais y a l'artillerie On les lave, on les lamine, même postés au loin Au loin Précis même fonce-dé au lin Woo Plus Kilimandjaro qu'Mont Olympe Mont Olympe, dans la qualité comme le teh qu'nous on a Woo Han, chasse les démons comme dans Constantine So Loto, faut les big Vacheron Constantin Ice 20-21, pétasse, Nouvelle Ère Ha, on a des nouveaux shits, des nouvelles herbes Fonscar au lin j'ai des cerns Han, au bled il m'faut des ranchs et ds fermes Cash Osirus Jack, Freeze Corleone, dans l'complot comme si on taffait chez CERN Han J'fume et les options s'offrent Woo, j'suis dans l'char ou l'option sport Gaddamn Regarde comment au-dessus d'eux j'plane, dans l'roster que des all-stars Haha Europa, négro faut s'taille Direct, logo sur l'tricot Han Les mano pleins d'trichomes Merde J'pense j'ai l'meilleur des decks, la chatte à la maman des deks Okay On arrive dans l'game comme un vendredi 13 Piou, piou, piou Tu rappes encore comme en 2013 Ha Ça a fait du ch'min depuis 2013 Assez d'fanatiques pour remplir trente-deux lignes 13 Ekip J'me sens comme l'alligator dans les marécages Han C'est des imposteurs ils font pas les tâches Nan J'aime parler cash, grosse wax j'fume v'là les taches À Dakar faut villa avec quatre étages Fuck vos rappeurs du troisième âge, dès qu'on débarque on les ken Woo J'veux les longs câbles comme Roi Heenok ou Johnny Dang Haha J'suis fonce' du lundi au week-end Ils sont faibles ils passent même pas les huitièmes Ha Faut plus d'auditeurs Spotify que The Weeknd J'arrive raciste comme un OG Mickey Ha Ils ont disparu comme John Obi Mikel Et j'les vois p'tits comme des Minimoys Ha Faut une liasse de la longueur de dix mille bornes Gang shit, so Chiraq Drillinois Reste allumé comme dix diodes Han-han Et la bitch elle vient pas d'Taïwan Nan, nan On les fait sauter one by one He J'peux finir à tout moment comme Delonte Ouais Fume le beldia du salon d'thé J'rajoute deux gouttes de nigelle à mon thé Tant qu'on est pas au sommet, continue à monter Woo J'ai mes outils mais j'suis pas mécano J'suis dans la défense comme Upamecano Ha So Loto, gratte comme J. K. Rowling Et négro j'appellerais pas ma fille Caroline Nan Fume gasoline et triple filtré, anonyme Négro, dans l'KGB, découpe fonscar au lean Lin Sur notre route ils veulent mettre des grandes herses On reste au-d'ssus d'eux comme la Grande Ourse Damn 667 ça perce plus, ça transperce Si ça continue bientôt tu nous verras en bourse Cash J'm'informe sur le nombre et les fréquences hertz Faut qu'ma vision s'agrandisse OV VVS certifiés à Anvers, sur la route du papier bombarde à 310 Cash, cash, cash 21 là pour siéger Woo, mental killu comme le Che J'vise dix fois la vie d'un DG Woo Équipe remplie qu'd'artisans, des comme nous y en a pas chaque deux ans Nan Et j'arrive fonce-dé à deux Xans J'voulais déjà de l'argent à deux ans Cash, haha J'veux le cash, le fromage, le parmesan, ekip On s'implante jusqu'au Parlement Ils s'transmettent les bails par le sang 'llu 6-6-7 c'est la Masia, on t'apprend v'là les techniques Woo négro si tu passes par le centre Ekip 6-6-7 comme des Olmèques on est là d'puis avant l'an zéro, froid comme Angelo J'suis LaMelo, toi t'es LiAngelo Nunchaku sur la prod comme Michelangelo J'cherche mais la concu' j'vois 'ap Nulle part En tout noir on vient comme le SWAT J'aime bien voir l'argent croître Cash Si c'est pas pour du cash tu m'vois pas en boîte Cash, cash MMS, on est presque mille Haha, faut la casa sur la presqu'île Pétasse On a les techs, j'ai les skills, sur la prod, négro, glisse comme si j'avais des skis, ekip11</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ouais Han Han Ekip, ekip Insh'Allah, à ma mort, j'vais là-haut, j'les soupape, j'rigole comme Leão Ah, ah J'arrive gal-sen comme Fadiga Han, j'arrive raciste comme Adidas Eh So la secte, so le triangle Ekip, rien qu'j'envoie des L1 triangle Fsh J'découpe comme Denji, poster comme MJ, j'veux les milliards comme Engie Cash Fuck ces négros, c'est des splinters Han, faut qu'j'investisse dans des Sprinters Nion Quatrième quart temps, Tracy McGrady Fsh, v'là d'barres même si j'ai pas d'crédits V'là d'barrs même si j'ai pas d'crédits J'suis dans la cuisine mais j'ai pas d'talent culinair J'suis dans la cuisine mais j'ai pas d'talent culinaire 20.23, faut des Cullinan et des Mulliner Sku J'ai fumé des plots et des plots J'ai fumé des plots et des plots J'ai vidé des pots et des pots J'ai vidé des pots et des pots J'ai compté des dough et des dough J'ai compté des dough et des dough J'ai cons' v'là les serres et j'ai cons' v'là les fermes Et j'ai cons' v'là les fermes Tire une taffe et t'as des cernes Tire une taffe et t'as des cernes, j'prie pour jamais prendre des années fermes Trouve-moi sous Runtz ou bien Zkittlez, c'est des marionnettes, des Cousin Skeeter Eh Les VVS dansent comme le krump, j'suis connecté en bas comme le Vrunk Han Et j'arrive dans l'jeu comme un screamer, j'me bute aux jeux comme un streamer Pah Que j'creuse comme un tractopelle Han, au poignet, c'est comme quatre Opel Comme quatre Opel, eh Diamants clairs, lunettes sombres Lunettes sombres Négro, j'sors d'un long tunnel sombre Tunnel sombre On fume les meilleurs shits du monde On fume les meilleurs shits du monde J'découpe, j'fais pas d'la musique du monde Et j'ai les techniques de AZ, j'ai la vision de Jay-Z Sirop dans mon système, négro, j'marche comme les infectés de DayZ Infectés de DayZ Eh, eh Eh, eh, Corleone, Ganondorf Ganondorf Jambe d'acier, il m'faut l'Ballon d'Or Han, Jambe d'acier, il m'faut l'Ballon d'Or So le Big Shone, so Alpha 25 So le Big Shone, so Alpha 25 Alpraz 25, entre l'épisode un et deux, j'ai fait du fois vingt-cinq À Dakar comme un pilote de rallye Sku, sku, rentre dans leurs crânes comme Neuralink Han Corleone connu du nord au sud, des terrasses du port jusqu'à Euralille Lin dans les Snapple, j'suis dans les ordis comme Microsoft et Apple Han Comme Zizou quand j'exécute le contrôle Han, la confiance n'exclut pas le contrôle Non On apparaît comme des hologrammes Ah-ah, ils sont obsolètes comme des phonographes Eh J'aime bien les checks et les monogrammes Han, les tourbillons et les chronographes À Dakar, aqua dans les Range, insh'Allah, ça finit dans les ranchs J'aime bien quand j'les contre et j'aime bien quand j'les rentre J'aime bien quand j'les compte et j'aime bien quand j'les range Cash Et j'mélange gas et essence, so Kodak, j'joue attaque et défense Chaque jour, nique l'austérité, prospérité pour ma postérité Pour ma postérité, pétasse Eh J'aime pas les problèmes, j'aime les complications J'aime pas les problèmes, j'aime les complications J'suis dans les complots, j'suis dans les conspirations J'maîtrise les procédés Han, leurs chances de m'battre sont plus fines que des OCB Ouais Pas d'vinyles, j'fais que des gros CD, il a les yeux tout noirs, il est possédé Tout noirs, il est possédé J'suis une montagne, c'est des collines J'suis une montagne, c'est des collines Des fois, j'dérape comme si j'étais Colin Comme si j'étais Colin, sku Freeze Corleone, animal à sang froid Animal à sang froid Faut des Lamborghini bénies comme le Pape François, ekipYou might also like</t>
+          <t>Ouais Han Han Ekip, ekip Insh'Allah, à ma mort, j'vais là-haut, j'les soupape, j'rigole comme Leão Ah, ah J'arrive gal-sen comme Fadiga Han, j'arrive raciste comme Adidas Eh So la secte, so le triangle Ekip, rien qu'j'envoie des L1 triangle Fsh J'découpe comme Denji, poster comme MJ, j'veux les milliards comme Engie Cash Fuck ces négros, c'est des splinters Han, faut qu'j'investisse dans des Sprinters Nion Quatrième quart temps, Tracy McGrady Fsh, v'là d'barres même si j'ai pas d'crédits V'là d'barrs même si j'ai pas d'crédits J'suis dans la cuisine mais j'ai pas d'talent culinair J'suis dans la cuisine mais j'ai pas d'talent culinaire 20.23, faut des Cullinan et des Mulliner Sku J'ai fumé des plots et des plots J'ai fumé des plots et des plots J'ai vidé des pots et des pots J'ai vidé des pots et des pots J'ai compté des dough et des dough J'ai compté des dough et des dough J'ai cons' v'là les serres et j'ai cons' v'là les fermes Et j'ai cons' v'là les fermes Tire une taffe et t'as des cernes Tire une taffe et t'as des cernes, j'prie pour jamais prendre des années fermes Trouve-moi sous Runtz ou bien Zkittlez, c'est des marionnettes, des Cousin Skeeter Eh Les VVS dansent comme le krump, j'suis connecté en bas comme le Vrunk Han Et j'arrive dans l'jeu comme un screamer, j'me bute aux jeux comme un streamer Pah Que j'creuse comme un tractopelle Han, au poignet, c'est comme quatre Opel Comme quatre Opel, eh Diamants clairs, lunettes sombres Lunettes sombres Négro, j'sors d'un long tunnel sombre Tunnel sombre On fume les meilleurs shits du monde On fume les meilleurs shits du monde J'découpe, j'fais pas d'la musique du monde Et j'ai les techniques de AZ, j'ai la vision de Jay-Z Sirop dans mon système, négro, j'marche comme les infectés de DayZ Infectés de DayZ Eh, eh Eh, eh, Corleone, Ganondorf Ganondorf Jambe d'acier, il m'faut l'Ballon d'Or Han, Jambe d'acier, il m'faut l'Ballon d'Or So le Big Shone, so Alpha 25 So le Big Shone, so Alpha 25 Alpraz 25, entre l'épisode un et deux, j'ai fait du fois vingt-cinq À Dakar comme un pilote de rallye Sku, sku, rentre dans leurs crânes comme Neuralink Han Corleone connu du nord au sud, des terrasses du port jusqu'à Euralille Lin dans les Snapple, j'suis dans les ordis comme Microsoft et Apple Han Comme Zizou quand j'exécute le contrôle Han, la confiance n'exclut pas le contrôle Non On apparaît comme des hologrammes Ah-ah, ils sont obsolètes comme des phonographes Eh J'aime bien les checks et les monogrammes Han, les tourbillons et les chronographes À Dakar, aqua dans les Range, insh'Allah, ça finit dans les ranchs J'aime bien quand j'les contre et j'aime bien quand j'les rentre J'aime bien quand j'les compte et j'aime bien quand j'les range Cash Et j'mélange gas et essence, so Kodak, j'joue attaque et défense Chaque jour, nique l'austérité, prospérité pour ma postérité Pour ma postérité, pétasse Eh J'aime pas les problèmes, j'aime les complications J'aime pas les problèmes, j'aime les complications J'suis dans les complots, j'suis dans les conspirations J'maîtrise les procédés Han, leurs chances de m'battre sont plus fines que des OCB Ouais Pas d'vinyles, j'fais que des gros CD, il a les yeux tout noirs, il est possédé Tout noirs, il est possédé J'suis une montagne, c'est des collines J'suis une montagne, c'est des collines Des fois, j'dérape comme si j'étais Colin Comme si j'étais Colin, sku Freeze Corleone, animal à sang froid Animal à sang froid Faut des Lamborghini bénies comme le Pape François, ekip</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Han, ekip Chen Zen, Majster ekip, faut des grosses sommes comme des pasteurs pow J'fume des OG, j'fume des masters, fuck des diplômes, j'ai mes masters han Impose NRM en tirant, chaque 16, j'prends dix rangs, fuck Donald comme en Iran hein J'bois pas d'Alizé, jeune nègre avisé, pharaon noir comme à Gizeh pow Ekip skrt, j'ai les onion et les URL haha Au mic, j'ai les techniques des négros des URL pow, pow New York Cité, capuche pointue comme un membre du Klan KK-K Ekip à vie, négro j'peux mourir pour n'importe quel membre du clan ekip Soldat sans grade, toutes les prods repartent sans crâne Ah, ekip, ekip, ekip Brûle la cali par cent grammes Maudits, ils veulent nous bloquer ok, Chen Zen sur la prod comme au hockey skrt Ils ont plus dâme, ils l'ont troquée han mal fons grave vif comme si j'étais coké, ekip Chen Zen, Majster pow, faut des grosses sommes comme des pasteurs cash J'fume des OG, j'fume des masters loud, fuck des diplômes, j'ai mes masters ha Chen Zen, Majster han, faut des grosses sommes comme des pasteurs pow J'fume des OG, j'fume des masters, fuck des diplômes, j'ai mes masters Chen Zen, Majster ekip, faut des grosses sommes comme des pasteurs cash, cash J'fume des OG, j'fume des masters loud, fuck des diplômes, j'ai mes masters han Chen Zen, Majster pow, pow, faut des grosses sommes comme des pasteurs cash, cash, yeah J'fume des OG, j'fume des masters han, fuck des diplômes, j'ai mes masters You might also like J'vais honorer mon BEP électrotechnique, nigga J'vais t'mettre trois coups de taser J'veux reconstruire l'Afrique, pas égorger Bassem Touche pas à nos femmes si t'es masseur Ou si t'aimes ma sur J'regarde pas les films de boules avec des femmes noires dedans T'as pas l'droit de te branler sur ta sur, nigga Yeah, yeah, yeah J'suis trop chaud, c'est indécent Montez le son, le sang J'serai plus haut que Lomepal et tous les fils de papa qui s'ront connu dans deux ans avec ou sans la pendaison Chen Zen, Majster pow, faut des grosses sommes comme des pasteurs cash J'fume des OG, j'fume des masters loud, fuck des diplômes, j'ai mes masters ha Chen Zen, Majster han, faut des grosses sommes comme des pasteurs pow J'fume des OG, j'fume des masters, fuck des diplômes, j'ai mes masters Chen Zen, Majster ekip, faut des grosses sommes comme des pasteurs cash, cash J'fume des OG, j'fume des masters loud, fuck des diplômes, j'ai mes masters han Chen Zen, Majster pow, pow, faut des grosses sommes comme des pasteurs cash, cash J'fume des OG, j'fume des masters, fuck des diplômes, j'ai mes masters han J'suis l'obscurité en pleins phares soudé comme le logo Audi À chaque punchline, j'perds un fan so Alpha, que des danseurs de logobi Si la vérité blesse, c'est pas une bouche que j'ai c'est un shlass soudé comme le logo Audi C'est un shlass, c'est un shlass, quelle punchline so Alpha, que des danseurs de logobi J'vais pas t'faire un dessin on va t'écraser tu vas faire que-tchi Quoi ? Essaie seulement J'veux une femme en mode saint pas une femme avec des djinns Beaucoup de feuj me prennent, haha, pour un musulman3</t>
+          <t>Han, ekip Chen Zen, Majster ekip, faut des grosses sommes comme des pasteurs pow J'fume des OG, j'fume des masters, fuck des diplômes, j'ai mes masters han Impose NRM en tirant, chaque 16, j'prends dix rangs, fuck Donald comme en Iran hein J'bois pas d'Alizé, jeune nègre avisé, pharaon noir comme à Gizeh pow Ekip skrt, j'ai les onion et les URL haha Au mic, j'ai les techniques des négros des URL pow, pow New York Cité, capuche pointue comme un membre du Klan KK-K Ekip à vie, négro j'peux mourir pour n'importe quel membre du clan ekip Soldat sans grade, toutes les prods repartent sans crâne Ah, ekip, ekip, ekip Brûle la cali par cent grammes Maudits, ils veulent nous bloquer ok, Chen Zen sur la prod comme au hockey skrt Ils ont plus dâme, ils l'ont troquée han mal fons grave vif comme si j'étais coké, ekip Chen Zen, Majster pow, faut des grosses sommes comme des pasteurs cash J'fume des OG, j'fume des masters loud, fuck des diplômes, j'ai mes masters ha Chen Zen, Majster han, faut des grosses sommes comme des pasteurs pow J'fume des OG, j'fume des masters, fuck des diplômes, j'ai mes masters Chen Zen, Majster ekip, faut des grosses sommes comme des pasteurs cash, cash J'fume des OG, j'fume des masters loud, fuck des diplômes, j'ai mes masters han Chen Zen, Majster pow, pow, faut des grosses sommes comme des pasteurs cash, cash, yeah J'fume des OG, j'fume des masters han, fuck des diplômes, j'ai mes masters J'vais honorer mon BEP électrotechnique, nigga J'vais t'mettre trois coups de taser J'veux reconstruire l'Afrique, pas égorger Bassem Touche pas à nos femmes si t'es masseur Ou si t'aimes ma sur J'regarde pas les films de boules avec des femmes noires dedans T'as pas l'droit de te branler sur ta sur, nigga Yeah, yeah, yeah J'suis trop chaud, c'est indécent Montez le son, le sang J'serai plus haut que Lomepal et tous les fils de papa qui s'ront connu dans deux ans avec ou sans la pendaison Chen Zen, Majster pow, faut des grosses sommes comme des pasteurs cash J'fume des OG, j'fume des masters loud, fuck des diplômes, j'ai mes masters ha Chen Zen, Majster han, faut des grosses sommes comme des pasteurs pow J'fume des OG, j'fume des masters, fuck des diplômes, j'ai mes masters Chen Zen, Majster ekip, faut des grosses sommes comme des pasteurs cash, cash J'fume des OG, j'fume des masters loud, fuck des diplômes, j'ai mes masters han Chen Zen, Majster pow, pow, faut des grosses sommes comme des pasteurs cash, cash J'fume des OG, j'fume des masters, fuck des diplômes, j'ai mes masters han J'suis l'obscurité en pleins phares soudé comme le logo Audi À chaque punchline, j'perds un fan so Alpha, que des danseurs de logobi Si la vérité blesse, c'est pas une bouche que j'ai c'est un shlass soudé comme le logo Audi C'est un shlass, c'est un shlass, quelle punchline so Alpha, que des danseurs de logobi J'vais pas t'faire un dessin on va t'écraser tu vas faire que-tchi Quoi ? Essaie seulement J'veux une femme en mode saint pas une femme avec des djinns Beaucoup de feuj me prennent, haha, pour un musulman3</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CashMoneyAP Sku Han, hey Lester, Lester, Lester, Lester Lester, Lester, Lester, Lester J'suis comme Lester dans le labo Jfume des teh dans le labo J'prends le cash, j'prends le magot Jsuis comme Dexter dans le labo' Lester, Lester, Lester, Lester Lester, Lester, Lester, Lester J'suis comme Lester dans le labo J'fume des teh dans le labo J'prends le cash, j'prends le magot J'suis comme Dexter dans le labo' Jreste loin du rap français, comme si jhabite le Montana Aussi wavy que Montana, au mic j'ai les techniques de Montana Chaque projet, attendu comme Turbo Bandana Savage Squad, chaque jour fuck le lin, R.E.P Fredo Santana Comme Lester avec le plan, jsuis avec la secte, j'suis avec le clan Chen Zen négro, dans le sirop toujours avec le lin jamais avec le Clan J'arrive tatoué comme un MS13, so 21x29.7 On les fouette, so Kaki, marque zéro point même en 29 sets Mets deux flacons dans l'colis, sur la prod drift comme dans Colin Skurr skurr, Chen Zen, jarrive Galsén comme Ferdinand Coly Propagation comme le gaz dans H1 Prof Chen ouvrez vos livres en page 1 Freeze Corleone 667 aka l'épaulard dans le bassin, gaddamn H24 fonscar, v'la d'artifices comme KDD Dans l'milieu sans aucun stress, j'ai la vision, j'transige comme KDB So 224, négro def tate sous loud à Lille-Sud Audio-crack, on vous fournit la came comme les nègres de la rive Sud You might also like Lester, Lester, Lester, Lester Lester, Lester, Lester, Lester J'suis comme Lester dans le labo J'fume des teh dans le labo J'prends le cash, j'prends le magot J'suis comme Dexter dans le labo' Lester, Lester, Lester, Lester Lester, Lester, Lester, Lester J'suis comme Lester dans le labo J'fume des teh dans le labo J'prends le cash, j'prends le magot J'suis comme Dexter dans le labo' J'reste loin du rap français, comme si j'habite le Montana J'ai les techniques de Montana Chaque projet, attendu comme Turbo Bandana R.E.P Fredo Santana Comme Lester avec le plan, j'suis avec la secte, j'suis avec le clan J'arrive tatoué comme un MS13, so 21x29.7 Zéro point même en 29 sets5</t>
+          <t>CashMoneyAP Sku Han, hey Lester, Lester, Lester, Lester Lester, Lester, Lester, Lester J'suis comme Lester dans le labo Jfume des teh dans le labo J'prends le cash, j'prends le magot Jsuis comme Dexter dans le labo' Lester, Lester, Lester, Lester Lester, Lester, Lester, Lester J'suis comme Lester dans le labo J'fume des teh dans le labo J'prends le cash, j'prends le magot J'suis comme Dexter dans le labo' Jreste loin du rap français, comme si jhabite le Montana Aussi wavy que Montana, au mic j'ai les techniques de Montana Chaque projet, attendu comme Turbo Bandana Savage Squad, chaque jour fuck le lin, R.E.P Fredo Santana Comme Lester avec le plan, jsuis avec la secte, j'suis avec le clan Chen Zen négro, dans le sirop toujours avec le lin jamais avec le Clan J'arrive tatoué comme un MS13, so 21x29.7 On les fouette, so Kaki, marque zéro point même en 29 sets Mets deux flacons dans l'colis, sur la prod drift comme dans Colin Skurr skurr, Chen Zen, jarrive Galsén comme Ferdinand Coly Propagation comme le gaz dans H1 Prof Chen ouvrez vos livres en page 1 Freeze Corleone 667 aka l'épaulard dans le bassin, gaddamn H24 fonscar, v'la d'artifices comme KDD Dans l'milieu sans aucun stress, j'ai la vision, j'transige comme KDB So 224, négro def tate sous loud à Lille-Sud Audio-crack, on vous fournit la came comme les nègres de la rive Sud Lester, Lester, Lester, Lester Lester, Lester, Lester, Lester J'suis comme Lester dans le labo J'fume des teh dans le labo J'prends le cash, j'prends le magot J'suis comme Dexter dans le labo' Lester, Lester, Lester, Lester Lester, Lester, Lester, Lester J'suis comme Lester dans le labo J'fume des teh dans le labo J'prends le cash, j'prends le magot J'suis comme Dexter dans le labo' J'reste loin du rap français, comme si j'habite le Montana J'ai les techniques de Montana Chaque projet, attendu comme Turbo Bandana R.E.P Fredo Santana Comme Lester avec le plan, j'suis avec la secte, j'suis avec le clan J'arrive tatoué comme un MS13, so 21x29.7 Zéro point même en 29 sets5</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip Paw Chen Zen, Nahir han Hi, hi, hi, hi, hi 20-20 C'est moi Ekip, ekip, ekip Jles veux vivants, c'est pas excitant d'arriver après la peste hi, hi Jleur ai mis d'la coke dans l'pif pour qu'ils soient tous positifs au test eh Coupe-vent Quechua, j'traîne dans toute la ville comme si j'étais en hess pchh Si j'étais Danny the Dog, j'frais cavaler celui qui tient ma laisse Un flash dans lsang, j'vois rouge vif comme Mohamed Salah et Mané sans trophy Poumons noirs comme si jétais né dans l'coffee, j'viens, j'nettoie, jtaille comme si j'étais l'COVID J'suis dans la 'sique mais si j'reviens dans l'tieks, j'vais les hagar comme Dushane Neymar sur l'banc comme Tuchel, j'vais les mettre à la retraite comme 2 Chainz ouh J'minimise les limites, j'élimine, j'rémunère sonne-per Sont pistonnés comme les p'tits à Zinédine, s'auront jamais l'niveau d'leur père merde Quand j'suis bourré, j'pisse de travers comme la Tour de Pise pss J'fais l'taff solo mais j'fais galope les jnouns si j'crie ekip comme Freeze ah ouais Money cash dans l'money time, j'veux moneygram cash, cash Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes gas, gas Money cash dans l'money time, j'veux moneygram hi, hi Général, j'peux pas graille avant qu'mes gros-né graillent ekip, ekip Money cash dans l'money time, j'veux moneygram hi, hi, hi Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes ekip, gas, gas Money cash dans l'money time, j'veux moneygram cash, cash, cash Général, j'peux pas graille avant qu'mes gros-né graillent ekip You might also like 6.6.7 ekip, Araï ekip, j'suis Sergio Ramos, t'es Garay eh J'roule un gros teh, j'mets v'là d'dry, audio dope, une O.D par rail damn Fuck les porcs, fuck les popo brr, ils veulent me faire à cause d'mes propos han Voiture allemande avec des gros pots sku, so Loto, wax, ça fume des copeaux J'arrive raciste comme Balkany grain d'riz, Japonais comme Akai eh Rap terroriste comme Al Qaï' paw, j'arrive capuché comme Altaïr paw So Pantin, so Bondy ekip, on cherche l'or comme au Klondike Industrie, v'là d'putes, so Ponty eh, j'veux que le biff, so Monty Chaque jour, j'ai les doughs en tête cash, cortège avec la Ghost en tête Chen Zen aka France Most Wanted, des fois, j'dérape comme dans Most Wanted sku Cadavres de prod', plein d'couplets, j'regarde le jeu, j'vois plein d'bootleg J'les mets d'accord en moins d'un couplet, so Nahir, fin d'la prod', fin d'couplet Ekip Money cash dans l'money time, j'veux moneygram cash, cash Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes gas, gas Money cash dans l'money time, j'veux moneygram hi, hi Général, j'peux pas graille avant qu'mes gros-né graillent ekip, ekip Money cash dans l'money time, j'veux moneygram hi, hi, hi Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes ekip, gas, gas Money cash dans l'money time, j'veux moneygram cash, cash, cash Général, j'peux pas graille avant qu'mes gros-né graillent ekip Money cash dans l'money time, j'veux moneygram Général, j'peux pas graille avant qu'mes gros-né graillent Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes Money cash dans l'money time, j'veux moneygram Money cash dans l'money time, j'veux moneygram Général, j'peux pas graille avant qu'mes gros-né graillent ekip3</t>
+          <t>Ekip, ekip, ekip Paw Chen Zen, Nahir han Hi, hi, hi, hi, hi 20-20 C'est moi Ekip, ekip, ekip Jles veux vivants, c'est pas excitant d'arriver après la peste hi, hi Jleur ai mis d'la coke dans l'pif pour qu'ils soient tous positifs au test eh Coupe-vent Quechua, j'traîne dans toute la ville comme si j'étais en hess pchh Si j'étais Danny the Dog, j'frais cavaler celui qui tient ma laisse Un flash dans lsang, j'vois rouge vif comme Mohamed Salah et Mané sans trophy Poumons noirs comme si jétais né dans l'coffee, j'viens, j'nettoie, jtaille comme si j'étais l'COVID J'suis dans la 'sique mais si j'reviens dans l'tieks, j'vais les hagar comme Dushane Neymar sur l'banc comme Tuchel, j'vais les mettre à la retraite comme 2 Chainz ouh J'minimise les limites, j'élimine, j'rémunère sonne-per Sont pistonnés comme les p'tits à Zinédine, s'auront jamais l'niveau d'leur père merde Quand j'suis bourré, j'pisse de travers comme la Tour de Pise pss J'fais l'taff solo mais j'fais galope les jnouns si j'crie ekip comme Freeze ah ouais Money cash dans l'money time, j'veux moneygram cash, cash Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes gas, gas Money cash dans l'money time, j'veux moneygram hi, hi Général, j'peux pas graille avant qu'mes gros-né graillent ekip, ekip Money cash dans l'money time, j'veux moneygram hi, hi, hi Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes ekip, gas, gas Money cash dans l'money time, j'veux moneygram cash, cash, cash Général, j'peux pas graille avant qu'mes gros-né graillent ekip 6.6.7 ekip, Araï ekip, j'suis Sergio Ramos, t'es Garay eh J'roule un gros teh, j'mets v'là d'dry, audio dope, une O.D par rail damn Fuck les porcs, fuck les popo brr, ils veulent me faire à cause d'mes propos han Voiture allemande avec des gros pots sku, so Loto, wax, ça fume des copeaux J'arrive raciste comme Balkany grain d'riz, Japonais comme Akai eh Rap terroriste comme Al Qaï' paw, j'arrive capuché comme Altaïr paw So Pantin, so Bondy ekip, on cherche l'or comme au Klondike Industrie, v'là d'putes, so Ponty eh, j'veux que le biff, so Monty Chaque jour, j'ai les doughs en tête cash, cortège avec la Ghost en tête Chen Zen aka France Most Wanted, des fois, j'dérape comme dans Most Wanted sku Cadavres de prod', plein d'couplets, j'regarde le jeu, j'vois plein d'bootleg J'les mets d'accord en moins d'un couplet, so Nahir, fin d'la prod', fin d'couplet Ekip Money cash dans l'money time, j'veux moneygram cash, cash Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes gas, gas Money cash dans l'money time, j'veux moneygram hi, hi Général, j'peux pas graille avant qu'mes gros-né graillent ekip, ekip Money cash dans l'money time, j'veux moneygram hi, hi, hi Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes ekip, gas, gas Money cash dans l'money time, j'veux moneygram cash, cash, cash Général, j'peux pas graille avant qu'mes gros-né graillent ekip Money cash dans l'money time, j'veux moneygram Général, j'peux pas graille avant qu'mes gros-né graillent Rien que j'm'allume, négro, j'ai fumé des kilos, des grammes Money cash dans l'money time, j'veux moneygram Money cash dans l'money time, j'veux moneygram Général, j'peux pas graille avant qu'mes gros-né graillent ekip3</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>So le Flem, ff Han, K.K.K Ekip, ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7 Han Ekip, ekip, ekip L'Attaque des clones Han PDM pour Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop PDM pour Pierre Palmade Si possible avec des techniques qui viennnt d'Allemagne, ou d'chez Mohammd ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop Que du lin, pas des Ciroc Pas des Ciroc, lin, lin, lin Concu', comme du thé, j'sirote, j'découpe comme Sephiroth J'suis mal fonc' à la Cali, dans l'complot comme Jacques Attali Eh So le conseil d'état, merci à Nathalie J'crois trop en Dieu pour douter Pour douter, trop J'suis dans le bâtiment pour looter Pour looter Triangle inversé sur les habits de club Les habits de club Négro, j'arrive sous lin comme Ralfy The Plug Codéine dans les solutions Lin J'augmente de niveau jusqu'à l'évolution, j'ai du mal à prendre des résolutions Résolutions J'arrive plus blindé qu'le Titan Cuirassé Titan Cuirassé Plus équipe que 1108 A.C niu Dans mes notes, tant de lines borders Limite Derrière la ligne comme Kyle Korver Swish Propagande comme les TV russes TV russes Et j'maîtrise plus les potions que Severus You might also like PDM pour Pierre Palmade Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop PDM pour Pierre Palmade Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop Ekip Il faut que j'me dépayse Loin, dépayse J'écris comme sept essayistes, au mic, comme un maître épéiste Lin dans la C, essaie avec l'équipe comme AB et C J'écoute pas ACDC, j'continue jusqu'à qu'il y ait assez d'décès Pah, pah KGB avec Flem, fume le TT fff So Stavo, cherche le format inverse du tube de l'été L'inverse Corleone, trop nandité, so la secte, so l'entité Dans l'usine, envoie la qualité par grosses quantités Eux devant nous, impo', chaque jour, fuck les impôts J'paye plein pot, j'ai fumé plein d'sacs, j'ai fumé plein d'pots Négro, on a tout c'qu'il faut s'il veut faire le Deebo Toujours derrière l'équipe, j'ai les réflexes de Thibaut Mets des soupapes comme Kvaradona Kvaradona New York à fond comme Cappadonna 93 hardcore comme Mac Tyer et Mac Kregor Mac Kregor Sur les prods, négro, j'suis Mayweather, t'es McGregor PDM pour Pierre Palmade Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop PDM pour Pierre Palmade Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop Ekip Si possible avec des techniques qui viennent d'Allemagne Ou d'chez Mohammed ben Salmane Faut les milliards par an comme Tse Chi Lop Si possible avec des techniques qui viennent d'Allemagne Ou d'chez Mohammed ben Salmane Faut les milliards par an comme Tse Chi Lop</t>
+          <t>So le Flem, ff Han, K.K.K Ekip, ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7 Han Ekip, ekip, ekip L'Attaque des clones Han PDM pour Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop PDM pour Pierre Palmade Si possible avec des techniques qui viennnt d'Allemagne, ou d'chez Mohammd ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop Que du lin, pas des Ciroc Pas des Ciroc, lin, lin, lin Concu', comme du thé, j'sirote, j'découpe comme Sephiroth J'suis mal fonc' à la Cali, dans l'complot comme Jacques Attali Eh So le conseil d'état, merci à Nathalie J'crois trop en Dieu pour douter Pour douter, trop J'suis dans le bâtiment pour looter Pour looter Triangle inversé sur les habits de club Les habits de club Négro, j'arrive sous lin comme Ralfy The Plug Codéine dans les solutions Lin J'augmente de niveau jusqu'à l'évolution, j'ai du mal à prendre des résolutions Résolutions J'arrive plus blindé qu'le Titan Cuirassé Titan Cuirassé Plus équipe que 1108 A.C niu Dans mes notes, tant de lines borders Limite Derrière la ligne comme Kyle Korver Swish Propagande comme les TV russes TV russes Et j'maîtrise plus les potions que Severus PDM pour Pierre Palmade Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop PDM pour Pierre Palmade Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop Ekip Il faut que j'me dépayse Loin, dépayse J'écris comme sept essayistes, au mic, comme un maître épéiste Lin dans la C, essaie avec l'équipe comme AB et C J'écoute pas ACDC, j'continue jusqu'à qu'il y ait assez d'décès Pah, pah KGB avec Flem, fume le TT fff So Stavo, cherche le format inverse du tube de l'été L'inverse Corleone, trop nandité, so la secte, so l'entité Dans l'usine, envoie la qualité par grosses quantités Eux devant nous, impo', chaque jour, fuck les impôts J'paye plein pot, j'ai fumé plein d'sacs, j'ai fumé plein d'pots Négro, on a tout c'qu'il faut s'il veut faire le Deebo Toujours derrière l'équipe, j'ai les réflexes de Thibaut Mets des soupapes comme Kvaradona Kvaradona New York à fond comme Cappadonna 93 hardcore comme Mac Tyer et Mac Kregor Mac Kregor Sur les prods, négro, j'suis Mayweather, t'es McGregor PDM pour Pierre Palmade Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop PDM pour Pierre Palmade Pierre Palmade Si possible avec des techniques qui viennent d'Allemagne, ou d'chez Mohammed ben Salmane ben Salmane Dans l'vaisseau, elle sait qu'j'pilote Sait qu'j'pilote Faut les milliards par an comme Tse Chi Lop Ekip Si possible avec des techniques qui viennent d'Allemagne Ou d'chez Mohammed ben Salmane Faut les milliards par an comme Tse Chi Lop Si possible avec des techniques qui viennent d'Allemagne Ou d'chez Mohammed ben Salmane Faut les milliards par an comme Tse Chi Lop</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ocho So le Flem Han han J'découpe, c'est comme des tocs, j'ramène la douleur comme l'homme méthode Négro, dans mon parking, il m'faut des Rolls Royce et des Porsche d'époque J'en suis pas à mon coup d'essai, so le Chef, liens cubains uniquement pour ça qu'mon cou est fait J'suis plus haut que onze tours Eiffel Chaque seize, que des grosses lignes, talent indéniable, so Roselyne Rap français, j'suis comme antibiotique, chaque prod, j'sors grandes guillotines, eh Concu', j'les vois pas comme des acariens J'arrive raciste comme quatre aryens, faut plus de biff qu'les Qatariens J'débarque avec la faux, j'mets les trois avec la faute Que des punch', négro, j'me sens comme Luffy avec l'Afro Cadavre de prod à chaque seize fini, concu', c'est des paquets d'Philip Le temps, c'est d'l'argent, négro, Rolex, Audemars et Patek Philippe Freeze, Anelka, penalty, Panenka Al-Mazrah avec la M4, j'cons' plus de gas que la Hellcat J'les vois comme des grands samosas Parle sous, j'réponds Quand ça ? Où ça ?, négro, faut qu'j'monte l'empire comme Mansa Moussa - Alors, sur l'esclavage, il dit On les fouette comme des négriers, 2018, en Libye, ça bibi des nègres à 150K. Heu... il parle aussi des politiques, bien entendu Nos parents faisaient peur à Himmler, Hitler, Macron, Rotschild, Bernard Kouchner, J'arrive allumé comme quatre lampes, faut brûler tous les pédophiles comme Jack Lang. Voilà, donc il tire un peu sur tout l'monde, c'est son fond d'commerce de faire d'la polémique - En fait, c'est pas son fond d'commerce, c'est... You might also like Rimes 8K avec le ray-tracing Dès l'engagement j'mets l'pressing, j'peux pas voir mon argent rétrécir Coach Chen, j'ai les stratégies comme Doc Rivers Et j'ai les plans comme si j'dois m'évader de Fox River Dans leur rap, plus de cap qu'une usine New Era Quand j'rentre en cabine, j'canne chaque prod, j'fusille tous mes raps T'arrives en mode Émile, négro, j'arrive en mode T-1000 En boucher comme Benny, numéro 1 comme Penny J'ai fini l'jeu facile, j'recommence en New Game Plus Ça fait longtemps qu'ils sont dépassés comme PS2 ou GameCube, ah On commence tôt, on finit tard Finit tard Devant la cage comme Dimitar J'les vois p'tits comme des escargots, j'arrive plus lourd que seize cargos Négro, mon compte gonfle, faut plus de cash que chez Wells Fargo J'arrive New York comme Fivio, sur l'terrain comme Flávio QBC comme GOD, j'vois que des clones comme B.O.B B.O.B Raciste comme Damien Rieu et Bruno Attal Bruno Attal Au poignet, il m'faut un studio à Cannes Lignes interdites dans mes paragraphes Paragraphes J'arrive comme Wembanyama à la Draft Portes blindés, coffres-forts et machines à compter J'ai les tactiques à Conte, j'sais déjà sur qui pas compter La fin des temps approche Zuukou coffre des balles dans la crosse, ils veulent savoir c'qu'il y a dans ma poche Dans ma poche Plus j'avance, plus j'vois les signes Encore loin même si j'vois les cimes, ADC comme si j'vois des Sims J'vois des Sims J'cherche mais j'vois rien comme Stevie Wonder Maîtrise comme si j'ai pratiqué des millions d'heures Tu veux d'la découpe, c'est garanti So le 8, c'est pourave, c'est juste ralenti Juste ralenti J'sais qu'quand ils m'écoutent, ils doivent serrer Bars après bars comme si j'construis une voie ferrée Une voie ferrée, une voie ferrée1</t>
+          <t>Ocho So le Flem Han han J'découpe, c'est comme des tocs, j'ramène la douleur comme l'homme méthode Négro, dans mon parking, il m'faut des Rolls Royce et des Porsche d'époque J'en suis pas à mon coup d'essai, so le Chef, liens cubains uniquement pour ça qu'mon cou est fait J'suis plus haut que onze tours Eiffel Chaque seize, que des grosses lignes, talent indéniable, so Roselyne Rap français, j'suis comme antibiotique, chaque prod, j'sors grandes guillotines, eh Concu', j'les vois pas comme des acariens J'arrive raciste comme quatre aryens, faut plus de biff qu'les Qatariens J'débarque avec la faux, j'mets les trois avec la faute Que des punch', négro, j'me sens comme Luffy avec l'Afro Cadavre de prod à chaque seize fini, concu', c'est des paquets d'Philip Le temps, c'est d'l'argent, négro, Rolex, Audemars et Patek Philippe Freeze, Anelka, penalty, Panenka Al-Mazrah avec la M4, j'cons' plus de gas que la Hellcat J'les vois comme des grands samosas Parle sous, j'réponds Quand ça ? Où ça ?, négro, faut qu'j'monte l'empire comme Mansa Moussa - Alors, sur l'esclavage, il dit On les fouette comme des négriers, 2018, en Libye, ça bibi des nègres à 150K. Heu... il parle aussi des politiques, bien entendu Nos parents faisaient peur à Himmler, Hitler, Macron, Rotschild, Bernard Kouchner, J'arrive allumé comme quatre lampes, faut brûler tous les pédophiles comme Jack Lang. Voilà, donc il tire un peu sur tout l'monde, c'est son fond d'commerce de faire d'la polémique - En fait, c'est pas son fond d'commerce, c'est... Rimes 8K avec le ray-tracing Dès l'engagement j'mets l'pressing, j'peux pas voir mon argent rétrécir Coach Chen, j'ai les stratégies comme Doc Rivers Et j'ai les plans comme si j'dois m'évader de Fox River Dans leur rap, plus de cap qu'une usine New Era Quand j'rentre en cabine, j'canne chaque prod, j'fusille tous mes raps T'arrives en mode Émile, négro, j'arrive en mode T-1000 En boucher comme Benny, numéro 1 comme Penny J'ai fini l'jeu facile, j'recommence en New Game Plus Ça fait longtemps qu'ils sont dépassés comme PS2 ou GameCube, ah On commence tôt, on finit tard Finit tard Devant la cage comme Dimitar J'les vois p'tits comme des escargots, j'arrive plus lourd que seize cargos Négro, mon compte gonfle, faut plus de cash que chez Wells Fargo J'arrive New York comme Fivio, sur l'terrain comme Flávio QBC comme GOD, j'vois que des clones comme B.O.B B.O.B Raciste comme Damien Rieu et Bruno Attal Bruno Attal Au poignet, il m'faut un studio à Cannes Lignes interdites dans mes paragraphes Paragraphes J'arrive comme Wembanyama à la Draft Portes blindés, coffres-forts et machines à compter J'ai les tactiques à Conte, j'sais déjà sur qui pas compter La fin des temps approche Zuukou coffre des balles dans la crosse, ils veulent savoir c'qu'il y a dans ma poche Dans ma poche Plus j'avance, plus j'vois les signes Encore loin même si j'vois les cimes, ADC comme si j'vois des Sims J'vois des Sims J'cherche mais j'vois rien comme Stevie Wonder Maîtrise comme si j'ai pratiqué des millions d'heures Tu veux d'la découpe, c'est garanti So le 8, c'est pourave, c'est juste ralenti Juste ralenti J'sais qu'quand ils m'écoutent, ils doivent serrer Bars après bars comme si j'construis une voie ferrée Une voie ferrée, une voie ferrée1</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Gang gang Grand Crimi, fort Près d'un milliard récolté pour Notre-Dame de Paris Y aura même pas la moitié pour l'Afrique et la Palestine Même si on vous laisse 20 ans T'es un lion ou un gnou ? sauvage Wesh mon gars, choisis ton camp On vit dans une sacrée époque gang vérité blesse et choque fort Mange-toi un coup d'pare-choc pah, Range Rover Evoque waow 14 le Hall gang, 13 est le Block Block Pas d'geste brusque, sinon j'sors le Glock tah-tah Le grand Crimi' le big Saza' gang, gang, gang, gang Bientôt de retour à Kinshasa fort, fort, fort, fort Ça s'comporte comme des animaux, y a plus d'amigo D'mande à Carlito, touche à la famille, on t'allume aussitôt Viens pas nous faire croire qu'on est tous égaux J'viens du 243, forcement, j'suis un léopard Baise la mère à Léopold, j'suis un acteur comme Philippe Léotard ouais, ouais J'fais du sale, j'fais du sale et j'continue Le 93, c'est pas un département, c'est un continent gang You might also like - Chaque année, je choisis un d'mes plaisirs et je fais l'vu de m'en passer - Et pourquoi ? - L'homme qui peut se passer de tout n'a peur de rien Braquage à l'Africaine, les anciens reprennent les rênes Sur l'terrain, ça débite vite on a la fibre optique Heureusement qu'sur l'big, y a jamais eu d'intox Juste deux-trois tonnes, des gamos, la Guardia Civil Tu fais l'mec wa3er mais pour nous, t'as le poil doux Tu t'crois dans la cour des grands, t'es encore sous l'préau d'la cour C'est vrai qu'c'est rentable de vendre la salade du Diable Mais c'est plus rentable, mon frère, crois-moi, d'faire la salat Le poids d'nos péchés est trop lourd même pour un diable Big Sazamyzy et Kalash dans l'RS-4 sauvage Frein à main et ça rafale ta-ta-ta Mains en l'air ou on t'hagar hagar On t'laisse en slip Leopoldo, ratatata sur c'fils de pute de Léopold II J'te tends la main s't'es un marcheur lent Dans Game of Thrones ou l'Afrique, le souci, c'est les marcheurs blancs - Les choses ont changé alors c'est à toi de nous suivre maintenant - Et si je décide que je n'veux pas t'suivre ? - Tu resteras seul. Et seul, tu n'as aucune chance, tu n'peux rien faire J'réponds à l'appel, so Saza' allô, envoie des roquettes, so Gaza tah Fume les louds de Cali, négro, fume le marocain, so Casa' Braquage à l'Africaine 5, Chen Zen a.k.a Abdoulaye Wade chh Pour mes gosses, faut qu'j'finisse avec le même patrimoine qu'Abdoulaye Wade skch, skch Au mic', on les lave comme Ajax Ajax, ekip à fond comme Ajax sku J'ai les blindages, négro, j'avance avec le bouclier comme Ajax pétasse Niveau 3, j'sens plus mon visage, alpraz, lean, indica Monte les degrés comme un maçon han, négro, monte les échelons dans le syndicat sku Beaucoup d'sirop fait des potages potages, en haut pour signer, y a des blocages godamn J'crée ou j'convertis les occas', contrat artistes, négro, c'est des otages jamais Gros nuage à chaque déplacement, j'ai le flow, négro, j'ai les placements En indé', on les baise dans les classements han, on fait des investissements, on fait des placements, sku Vous voulez en faire quoi d'tout cet argent ? Vous allez l'partager ? Vous allez l'dépenser et vous allez r'faire un autre coup dans l'même genre, c'est ça ? C'est c'que font les braqueurs, pas les gens qui veulent sagrandir. Les gens qui veulent s'agrandir, ils doivent savoir investir, pour devenir plus forts. Qu'est-c'que vous voulez être ?4</t>
+          <t>Gang gang Grand Crimi, fort Près d'un milliard récolté pour Notre-Dame de Paris Y aura même pas la moitié pour l'Afrique et la Palestine Même si on vous laisse 20 ans T'es un lion ou un gnou ? sauvage Wesh mon gars, choisis ton camp On vit dans une sacrée époque gang vérité blesse et choque fort Mange-toi un coup d'pare-choc pah, Range Rover Evoque waow 14 le Hall gang, 13 est le Block Block Pas d'geste brusque, sinon j'sors le Glock tah-tah Le grand Crimi' le big Saza' gang, gang, gang, gang Bientôt de retour à Kinshasa fort, fort, fort, fort Ça s'comporte comme des animaux, y a plus d'amigo D'mande à Carlito, touche à la famille, on t'allume aussitôt Viens pas nous faire croire qu'on est tous égaux J'viens du 243, forcement, j'suis un léopard Baise la mère à Léopold, j'suis un acteur comme Philippe Léotard ouais, ouais J'fais du sale, j'fais du sale et j'continue Le 93, c'est pas un département, c'est un continent gang - Chaque année, je choisis un d'mes plaisirs et je fais l'vu de m'en passer - Et pourquoi ? - L'homme qui peut se passer de tout n'a peur de rien Braquage à l'Africaine, les anciens reprennent les rênes Sur l'terrain, ça débite vite on a la fibre optique Heureusement qu'sur l'big, y a jamais eu d'intox Juste deux-trois tonnes, des gamos, la Guardia Civil Tu fais l'mec wa3er mais pour nous, t'as le poil doux Tu t'crois dans la cour des grands, t'es encore sous l'préau d'la cour C'est vrai qu'c'est rentable de vendre la salade du Diable Mais c'est plus rentable, mon frère, crois-moi, d'faire la salat Le poids d'nos péchés est trop lourd même pour un diable Big Sazamyzy et Kalash dans l'RS-4 sauvage Frein à main et ça rafale ta-ta-ta Mains en l'air ou on t'hagar hagar On t'laisse en slip Leopoldo, ratatata sur c'fils de pute de Léopold II J'te tends la main s't'es un marcheur lent Dans Game of Thrones ou l'Afrique, le souci, c'est les marcheurs blancs - Les choses ont changé alors c'est à toi de nous suivre maintenant - Et si je décide que je n'veux pas t'suivre ? - Tu resteras seul. Et seul, tu n'as aucune chance, tu n'peux rien faire J'réponds à l'appel, so Saza' allô, envoie des roquettes, so Gaza tah Fume les louds de Cali, négro, fume le marocain, so Casa' Braquage à l'Africaine 5, Chen Zen a.k.a Abdoulaye Wade chh Pour mes gosses, faut qu'j'finisse avec le même patrimoine qu'Abdoulaye Wade skch, skch Au mic', on les lave comme Ajax Ajax, ekip à fond comme Ajax sku J'ai les blindages, négro, j'avance avec le bouclier comme Ajax pétasse Niveau 3, j'sens plus mon visage, alpraz, lean, indica Monte les degrés comme un maçon han, négro, monte les échelons dans le syndicat sku Beaucoup d'sirop fait des potages potages, en haut pour signer, y a des blocages godamn J'crée ou j'convertis les occas', contrat artistes, négro, c'est des otages jamais Gros nuage à chaque déplacement, j'ai le flow, négro, j'ai les placements En indé', on les baise dans les classements han, on fait des investissements, on fait des placements, sku Vous voulez en faire quoi d'tout cet argent ? Vous allez l'partager ? Vous allez l'dépenser et vous allez r'faire un autre coup dans l'même genre, c'est ça ? C'est c'que font les braqueurs, pas les gens qui veulent sagrandir. Les gens qui veulent s'agrandir, ils doivent savoir investir, pour devenir plus forts. Qu'est-c'que vous voulez être ?4</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>So le Flem This is my baby Rayane SHK SHK, SHK Ffa, ffa M.M.S, L.D.O Pah Han Ekip, ekip, ekip Freeze Corleone aka Voldemort, rap codé comme si j'ai fait une école de morse Haha J'ai rempli des tonnes et des tonnes de morgues Han, j'suis que à propos d'flinguer comme le Nord Sauvage comme 21, époque Red Opps, faut des 100M comme si j'jouais aux Boston Red Sox Cash Dans la maison piège comme à Amityville Han, les sous en tête de midi un à midi pile Ekip CEO Chen, j'fais qu payer des factures, j'inflig des fractures, au poignet, j'ai des Captur Captur On continue même quand les tracks durent, audio dope c'est comme fumer des roches de crack pures Crack pure Tout est n, tout est allemand Sku, l'automobile et les calmants J'suis la carte antimatière dans les packs, à propos du cash depuis le sable dans les bacs Cash, cash, cash Jeune négro avec des entreprises, y a ma photo affichée dans leurs centres de crise Pah J'suis devant la surface, que j'mets des grandes reprises Pah, pah et y a des langages qu'on peut comprendre qu'entre prises Ekip Les colis par la poste, les conteneurs par le port Han, c'est pour ceux qu'écoutent quaux portes, qui mangent pas de porc Nan Négro, j'suis là pour les sous, faut que j'pèse plus que l'président directeur général de Porsche Direction l'sommet, la pente est abrupte Han, on a tout c'qu'il faut si tu veux faire la brute Pah Comme des mécaniciens, on les démonte Han, ils invoquent des entités et des démons Eh Dans le studio comme à l'usine, génération 90 comme DA Uzi 90 comme DA Uzi, 90 comme Da Uzi, 90 comme DA Uzi, ekip, ekip, ekip, ekip, ekip Envoie les prod', que ça fusille, pétasse Pah, pah You might also like J'aime bien quand mon argent double, j'me méfie des espions et des agents doubles J'veux entendre la machine compter l'cash en boucle, j'réfléchis comme si j'avais mon âge en double Deux On passe au d'ssus d'eux comme des chasseurs Chht, Chen Zen aka l'effaceur Pah, pah À chaque match, si c'est pas buteur, c'est passeur, négro, j'ai rempli des cahiers et des classeurs Ekip, ekip J'aime bien quand mon argent double, j'me méfie des espions et des agents doubles J'veux entendre la machine compter l'cash en boucle, j'réfléchis comme si j'avais mon âge en double Deux On passe au d'ssus d'eux comme des chasseurs Chht, Chen Zen aka l'effaceur À chaque match, si c'est pas buteur, c'est passeur, négro, j'ai rempli des cahiers et des classeurs, pétasse Attaque des clones, Chambre des secrets et Les Deux Tours Eh, ah Jugement dernier, Mort dans la peau et Aliens, le retour Le deux Négro Ah, y a que à l'argent qu'nous songeons Cash J'suis comme le dragon dans le donjon Han, j'les vois d'au-d'ssus comme juste avant le plongeon Négro, chaque couplet, c'est des collectibles, un par un, faut capturer tous les objectifs Pah J'ai 93.5 de collectif Ekip, sip sur mon lin, tu deviens narcoleptique, pétasse Pétasse, pétasse Et j'envoie toutes les prod' au déchiquetage Au déchiquetage Nous, c'est City, eux, le Besiktas J'arrive cru comme des sushis, négro Han, concurrence boîte entourée de bougies, négro Ah, ah J'viens d'une autre planète comme BUHI, négro Han, j'fume des GMO et des Zushi, négro Tunnel vision, j'tue les missions Pah, jamais tu m'verras dans une émission Jamais Si c'est pour du papier, let's go, killu' comme Despo et négro j'flingue comme dans CSGO Comme dans CSGO, comme dans CSGO Toseína, pas de Jack Honey Lin, lin, lin, lin So Philly, so japonais So japonais, ekip Assurance tous risques contre tous les sinistres Fuck ces négros, c'est des pédo' comme presque tous les ministres Pah, pah, pah J'aime bien quand mon argent double, j'me méfie des espions et des agents doubles J'veux entendre la machine compter l'cash en boucle, j'réfléchis comme si j'avais mon âge en double Deux On passe au d'ssus d'eux comme des chasseurs Chht, Chen Zen aka l'effaceur Pah, pah À chaque match, si c'est pas buteur, c'est passeur, négro, j'ai rempli des cahiers et des classeurs Ekip, ekip J'aime bien quand mon argent double, j'me méfie des espions et des agents doubles J'veux entendre la machine compter l'cash en boucle, j'réfléchis comme si j'avais mon âge en double Deux On passe au d'ssus d'eux comme des chasseurs Chht, Chen Zen aka l'effaceur À chaque match, si c'est pas buteur, c'est passeur, négro, j'ai rempli des cahiers et des classeurs, pétasse Ekip, ekip, ekip, ekip</t>
+          <t>So le Flem This is my baby Rayane SHK SHK, SHK Ffa, ffa M.M.S, L.D.O Pah Han Ekip, ekip, ekip Freeze Corleone aka Voldemort, rap codé comme si j'ai fait une école de morse Haha J'ai rempli des tonnes et des tonnes de morgues Han, j'suis que à propos d'flinguer comme le Nord Sauvage comme 21, époque Red Opps, faut des 100M comme si j'jouais aux Boston Red Sox Cash Dans la maison piège comme à Amityville Han, les sous en tête de midi un à midi pile Ekip CEO Chen, j'fais qu payer des factures, j'inflig des fractures, au poignet, j'ai des Captur Captur On continue même quand les tracks durent, audio dope c'est comme fumer des roches de crack pures Crack pure Tout est n, tout est allemand Sku, l'automobile et les calmants J'suis la carte antimatière dans les packs, à propos du cash depuis le sable dans les bacs Cash, cash, cash Jeune négro avec des entreprises, y a ma photo affichée dans leurs centres de crise Pah J'suis devant la surface, que j'mets des grandes reprises Pah, pah et y a des langages qu'on peut comprendre qu'entre prises Ekip Les colis par la poste, les conteneurs par le port Han, c'est pour ceux qu'écoutent quaux portes, qui mangent pas de porc Nan Négro, j'suis là pour les sous, faut que j'pèse plus que l'président directeur général de Porsche Direction l'sommet, la pente est abrupte Han, on a tout c'qu'il faut si tu veux faire la brute Pah Comme des mécaniciens, on les démonte Han, ils invoquent des entités et des démons Eh Dans le studio comme à l'usine, génération 90 comme DA Uzi 90 comme DA Uzi, 90 comme Da Uzi, 90 comme DA Uzi, ekip, ekip, ekip, ekip, ekip Envoie les prod', que ça fusille, pétasse Pah, pah J'aime bien quand mon argent double, j'me méfie des espions et des agents doubles J'veux entendre la machine compter l'cash en boucle, j'réfléchis comme si j'avais mon âge en double Deux On passe au d'ssus d'eux comme des chasseurs Chht, Chen Zen aka l'effaceur Pah, pah À chaque match, si c'est pas buteur, c'est passeur, négro, j'ai rempli des cahiers et des classeurs Ekip, ekip J'aime bien quand mon argent double, j'me méfie des espions et des agents doubles J'veux entendre la machine compter l'cash en boucle, j'réfléchis comme si j'avais mon âge en double Deux On passe au d'ssus d'eux comme des chasseurs Chht, Chen Zen aka l'effaceur À chaque match, si c'est pas buteur, c'est passeur, négro, j'ai rempli des cahiers et des classeurs, pétasse Attaque des clones, Chambre des secrets et Les Deux Tours Eh, ah Jugement dernier, Mort dans la peau et Aliens, le retour Le deux Négro Ah, y a que à l'argent qu'nous songeons Cash J'suis comme le dragon dans le donjon Han, j'les vois d'au-d'ssus comme juste avant le plongeon Négro, chaque couplet, c'est des collectibles, un par un, faut capturer tous les objectifs Pah J'ai 93.5 de collectif Ekip, sip sur mon lin, tu deviens narcoleptique, pétasse Pétasse, pétasse Et j'envoie toutes les prod' au déchiquetage Au déchiquetage Nous, c'est City, eux, le Besiktas J'arrive cru comme des sushis, négro Han, concurrence boîte entourée de bougies, négro Ah, ah J'viens d'une autre planète comme BUHI, négro Han, j'fume des GMO et des Zushi, négro Tunnel vision, j'tue les missions Pah, jamais tu m'verras dans une émission Jamais Si c'est pour du papier, let's go, killu' comme Despo et négro j'flingue comme dans CSGO Comme dans CSGO, comme dans CSGO Toseína, pas de Jack Honey Lin, lin, lin, lin So Philly, so japonais So japonais, ekip Assurance tous risques contre tous les sinistres Fuck ces négros, c'est des pédo' comme presque tous les ministres Pah, pah, pah J'aime bien quand mon argent double, j'me méfie des espions et des agents doubles J'veux entendre la machine compter l'cash en boucle, j'réfléchis comme si j'avais mon âge en double Deux On passe au d'ssus d'eux comme des chasseurs Chht, Chen Zen aka l'effaceur Pah, pah À chaque match, si c'est pas buteur, c'est passeur, négro, j'ai rempli des cahiers et des classeurs Ekip, ekip J'aime bien quand mon argent double, j'me méfie des espions et des agents doubles J'veux entendre la machine compter l'cash en boucle, j'réfléchis comme si j'avais mon âge en double Deux On passe au d'ssus d'eux comme des chasseurs Chht, Chen Zen aka l'effaceur À chaque match, si c'est pas buteur, c'est passeur, négro, j'ai rempli des cahiers et des classeurs, pétasse Ekip, ekip, ekip, ekip</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl 17TRACK, so la prise, tous les jours, check quand l'colis atterrit Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kevin Différents types de frappe comme un buteur et j'arrive blindé comme un lutteur Vrai négro comme Gillie, t'as dé-pop comme Billy, j'suis un océan, t'es comme dix litres J'reste vrai du berceau à la tombe, so Nipsey, jamais j'arrête le marathon Les cadavres de prod commncent à s'entasser Focus comm si j'ai bu cent cafés, loin du rap comme si j'habite à Santa Fe So la prise, connecté comme un câble Ethernet J'm'agenouille que devant lÉternel Wax, j'finis la tâche en balle, si j'ai la dalle, j'sais faire du cash en balle Lin dans l'Mons', j'me fais un flash en balle, j'évite les obstacles comme dans Crash, en balle, ekip eh J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt pétasse, eh, han J'les brûle en deux lignes ekip, ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens J'sip le Hi-Tech, j'fume la Cali, j'fume le Drytech Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Négro, j'm'entraîne depuis le logo, so la Secte, le triangle, le logo Dans l'milieu comme Allan, technique de malade, j'veux la même SACEM que Lalanne 20-20 Menace Fantôme, j'veux la Continental et la Phantom, pétasse So la Black Mafia, so Oxmo Rarissime comme O'Rosko, j'suis dans le lin, le xan, so Pop Smoke J'mets pas d'vernis et j'fais pas d'teinture So Kaki, j'suis repeint mais j'parle pas d'peinture Tu fais la mala, tu prends 7 , pendant qu'j'fume des louds à 37 Si j'me présente, j'pense que j'prends 7 , Freezer deuxième forme, j'suis qu'à 7 , pétasse You might also like J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt eh, hein J'les brûle en deux lignes ekip, ekip Vos rappeurs sont lourds comme deux livres, ekip eh J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt eh, hein J'les brûle en deux lignes ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens comme si j'avais sept sens Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette chaque jour en cachette J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl au Padéryl Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kévin sont drôles comme Kévin Différents types de frappe comme un buteur comme un buteur et j'arrive blindé comme un lutteur comme un lutteur10</t>
+          <t>J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl 17TRACK, so la prise, tous les jours, check quand l'colis atterrit Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kevin Différents types de frappe comme un buteur et j'arrive blindé comme un lutteur Vrai négro comme Gillie, t'as dé-pop comme Billy, j'suis un océan, t'es comme dix litres J'reste vrai du berceau à la tombe, so Nipsey, jamais j'arrête le marathon Les cadavres de prod commncent à s'entasser Focus comm si j'ai bu cent cafés, loin du rap comme si j'habite à Santa Fe So la prise, connecté comme un câble Ethernet J'm'agenouille que devant lÉternel Wax, j'finis la tâche en balle, si j'ai la dalle, j'sais faire du cash en balle Lin dans l'Mons', j'me fais un flash en balle, j'évite les obstacles comme dans Crash, en balle, ekip eh J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt pétasse, eh, han J'les brûle en deux lignes ekip, ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens J'sip le Hi-Tech, j'fume la Cali, j'fume le Drytech Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Négro, j'm'entraîne depuis le logo, so la Secte, le triangle, le logo Dans l'milieu comme Allan, technique de malade, j'veux la même SACEM que Lalanne 20-20 Menace Fantôme, j'veux la Continental et la Phantom, pétasse So la Black Mafia, so Oxmo Rarissime comme O'Rosko, j'suis dans le lin, le xan, so Pop Smoke J'mets pas d'vernis et j'fais pas d'teinture So Kaki, j'suis repeint mais j'parle pas d'peinture Tu fais la mala, tu prends 7 , pendant qu'j'fume des louds à 37 Si j'me présente, j'pense que j'prends 7 , Freezer deuxième forme, j'suis qu'à 7 , pétasse J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt eh, hein J'les brûle en deux lignes ekip, ekip Vos rappeurs sont lourds comme deux livres, ekip eh J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt eh, hein J'les brûle en deux lignes ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens comme si j'avais sept sens Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette chaque jour en cachette J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl au Padéryl Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kévin sont drôles comme Kévin Différents types de frappe comme un buteur comme un buteur et j'arrive blindé comme un lutteur comme un lutteur10</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Hoodstar Beats 6.6.7, pétasse Han Ekip, ekip, ekip Corleone super-vilain comme Kang Han On fait du biff entre frères comme Tang Ekip Blindages du village, cuirassé comme tank Hah Audi A7, lumière allemande comme Kant Sku Cons' plus de kérosène que sept F-16 Ff-ff J'envoie des flammes comme dans FF XVI Ff-ff Négro, j'ai plus de force que soixante siths Han Attaque des clones, c'est l'ordre 66 Eh J'prie Dieu pour qu'il écarte les traîtres Han Plus de foi qu'si j'avais été élevé par des prêtres Merde Faut qu'ça pète les scores, faut qu'ça casse la banque Cash Ils aimeraient bien m'envoyer à Azkaban Ah Chen-Zen, négro, j'fais pas d'TikToks Nan Ils devraient prendre leur retraite comme Altntop Ah Tu sais très bien qu'j'ai les tactiques, fils Han J'allume les FROZEN et les static sift Ff-ff Entre les radars, j'suis dans les trois cent Sku-sku J'aime bien la courbe tant qu'elle est croissante Han On fume plus qu'eux dans les années soixante Whole lotta gang shit comme si j'suis dans les soixante J'mets trois points compliqués, deux points simples Switch J'suis passé de 101 à 2.5 Cash Et j'sais qu'Dieu surveille mes arrières Han Mais j'ai des shooters précis comme des arrières, ekip You might also like Et j'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus La prod se fait foudroyer J'ai quatre sabres laser que j'fais tournoyer J'aime que les policiers qu'on peut soudoyer Hah J'prends d'l'âge, bientôt, faudra m'vouvoyer Han J'allume l'instru' au SIG-Sauer Pah J'vois des minis-moi comme dans Austin Power Hah Négro, j'arrive dans l'rap jeu comme le vol 93 aux Twin Towers Il m'faut plus de chaînes que EST Gee Ice Des baraques entièrement faites de pierres d'Égypte Han Chaque prod RESTED et mettre des gifles Ekip Argent dans ma tête, j'pense qu'à faire des chiffres Cash Audio crack, fils, il t'faut la dose Han So les fanatiques, les aficionados Ekip Fume v'la d'GMO, v'la d'Nicolato Ff-ff Gros verre de lin comme si ça l'a pris au Lac Rose Comme si ça l'a pris au Lac Rose So Zuukou pour les artéfacts So Zuukou pour les artéfacts Faut qu'j'fasse attention et que j'garde les sacs Faut qu'j'fasse attention et que j'garde les sacs KGB AKA Dohy Han J'roule plus que les Toyo' Sku Faut les jets privés et les gros yachts J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus1</t>
+          <t>Hoodstar Beats 6.6.7, pétasse Han Ekip, ekip, ekip Corleone super-vilain comme Kang Han On fait du biff entre frères comme Tang Ekip Blindages du village, cuirassé comme tank Hah Audi A7, lumière allemande comme Kant Sku Cons' plus de kérosène que sept F-16 Ff-ff J'envoie des flammes comme dans FF XVI Ff-ff Négro, j'ai plus de force que soixante siths Han Attaque des clones, c'est l'ordre 66 Eh J'prie Dieu pour qu'il écarte les traîtres Han Plus de foi qu'si j'avais été élevé par des prêtres Merde Faut qu'ça pète les scores, faut qu'ça casse la banque Cash Ils aimeraient bien m'envoyer à Azkaban Ah Chen-Zen, négro, j'fais pas d'TikToks Nan Ils devraient prendre leur retraite comme Altntop Ah Tu sais très bien qu'j'ai les tactiques, fils Han J'allume les FROZEN et les static sift Ff-ff Entre les radars, j'suis dans les trois cent Sku-sku J'aime bien la courbe tant qu'elle est croissante Han On fume plus qu'eux dans les années soixante Whole lotta gang shit comme si j'suis dans les soixante J'mets trois points compliqués, deux points simples Switch J'suis passé de 101 à 2.5 Cash Et j'sais qu'Dieu surveille mes arrières Han Mais j'ai des shooters précis comme des arrières, ekip Et j'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus La prod se fait foudroyer J'ai quatre sabres laser que j'fais tournoyer J'aime que les policiers qu'on peut soudoyer Hah J'prends d'l'âge, bientôt, faudra m'vouvoyer Han J'allume l'instru' au SIG-Sauer Pah J'vois des minis-moi comme dans Austin Power Hah Négro, j'arrive dans l'rap jeu comme le vol 93 aux Twin Towers Il m'faut plus de chaînes que EST Gee Ice Des baraques entièrement faites de pierres d'Égypte Han Chaque prod RESTED et mettre des gifles Ekip Argent dans ma tête, j'pense qu'à faire des chiffres Cash Audio crack, fils, il t'faut la dose Han So les fanatiques, les aficionados Ekip Fume v'la d'GMO, v'la d'Nicolato Ff-ff Gros verre de lin comme si ça l'a pris au Lac Rose Comme si ça l'a pris au Lac Rose So Zuukou pour les artéfacts So Zuukou pour les artéfacts Faut qu'j'fasse attention et que j'garde les sacs Faut qu'j'fasse attention et que j'garde les sacs KGB AKA Dohy Han J'roule plus que les Toyo' Sku Faut les jets privés et les gros yachts J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus J'peux que gagner, j'ai quatre tours de plus J'remercie Dieu pour chaque jour de plus J'remercie Dieu pour chaque jour de plus J'peux que gagner, j'ai quatre tours de plus1</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>C'est sérieux, négro, ouais, han, han M'ont recruté sur France négro, ouais, ouais, ouais Ouais ouais ouais J'étais dans les cités, dans les HLM, j'te jure J'ai embrassé ma mère, ouais, ouais, j'ai même pas vu mon père mais non ? Tu vois c'qu'il s'passe ou quoi ? Ouais, vas-y Après, j'ai commencé l'entraînement... ouais, vas-y De retour de la mosquée après la dernière prière avec le imam, je sacrifie ma chair de pécheur Depuis que je suis tout petit, que j'ai toujours su que vos histoires de Jésus-Christ, c'était d'la foutaise Pendant que le Pape s'enrichit, j'ai très rapidement dérivé dans la rue, me suis rapidement établi Les ventes de came ont commencé, un once après, deux kilos de coca', prêt à m'exploser Rebelle et djihadiste, j'aime les revolvers et les fusils à pompe, pour tous mes chiens dans les HLM qui pompent La base libre et cuisine la coca', en crack pour former des petits cailloux et faire planer la clientèle comme à Stalingrad Mafioso, uno dos, Heenok, El Capitano, Corleone, es-tu bien sûr de vouloir tester ? Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le mais ne me manque surtout pas You might also like J'marche avec Dieu, fuck un GPS ekip, ekip Inch'Allah bientôt 911 GTS, j'suis dans l'complot comme CBS J'regarde la concu', j'les vois p'tits comme des Oompa Loompa J'les écoute pas, j'les laisse faire d'la zumba Réel c'est rare, so Trouble, killu' à vie so Double Maîtrise la propagande so chh J'suis dans FIFA, j'suis dans club pro, so Norsa, j'mets des hat-tricks Dans la trap house comme Radrick, le sprite est rose comme Patrick Skrrt skrrt, so 21, so Dakar, so 2.21 Négro, j'ai la dalle, j'arrive miché comme un Allemand en 1921 Skrrt skrrt, so 21, so Dakar, so 2.21 Négro, j'ai la dalle, j'arrive miché comme un Allemand en 1921 Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le mais ne me manque surtout pas3</t>
+          <t>C'est sérieux, négro, ouais, han, han M'ont recruté sur France négro, ouais, ouais, ouais Ouais ouais ouais J'étais dans les cités, dans les HLM, j'te jure J'ai embrassé ma mère, ouais, ouais, j'ai même pas vu mon père mais non ? Tu vois c'qu'il s'passe ou quoi ? Ouais, vas-y Après, j'ai commencé l'entraînement... ouais, vas-y De retour de la mosquée après la dernière prière avec le imam, je sacrifie ma chair de pécheur Depuis que je suis tout petit, que j'ai toujours su que vos histoires de Jésus-Christ, c'était d'la foutaise Pendant que le Pape s'enrichit, j'ai très rapidement dérivé dans la rue, me suis rapidement établi Les ventes de came ont commencé, un once après, deux kilos de coca', prêt à m'exploser Rebelle et djihadiste, j'aime les revolvers et les fusils à pompe, pour tous mes chiens dans les HLM qui pompent La base libre et cuisine la coca', en crack pour former des petits cailloux et faire planer la clientèle comme à Stalingrad Mafioso, uno dos, Heenok, El Capitano, Corleone, es-tu bien sûr de vouloir tester ? Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le mais ne me manque surtout pas J'marche avec Dieu, fuck un GPS ekip, ekip Inch'Allah bientôt 911 GTS, j'suis dans l'complot comme CBS J'regarde la concu', j'les vois p'tits comme des Oompa Loompa J'les écoute pas, j'les laisse faire d'la zumba Réel c'est rare, so Trouble, killu' à vie so Double Maîtrise la propagande so chh J'suis dans FIFA, j'suis dans club pro, so Norsa, j'mets des hat-tricks Dans la trap house comme Radrick, le sprite est rose comme Patrick Skrrt skrrt, so 21, so Dakar, so 2.21 Négro, j'ai la dalle, j'arrive miché comme un Allemand en 1921 Skrrt skrrt, so 21, so Dakar, so 2.21 Négro, j'ai la dalle, j'arrive miché comme un Allemand en 1921 Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le pour ma gueule, ma gueule Va chercher ton .38 et charge-le mais ne me manque surtout pas3</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Han, ew, eh M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Chen Zen, 2016 c'est la F.D.T Goddamn, han Ekip, yeah D'où-d'où j'suis, j'vous vois tout petit Goddamn, goddamn, goddamn Le Sprite est rose comme Boo petit Lin, lin, goddamn J'suis là pour les gros sous, petit Si tu t'allumes comme nous, fais gaffe Tu peux devenir fou petit, ekip Ekip, ekip Dri-dri-dribble ces négros comme Gaúcho Goddamn, ils sont faibles comme Sochaux Goddamn, goddamn J'vois en slow-mo' comme Ocho Dans la maison-piège comme dojo Goddamn, ouh J'fume la buzz, j'fume la BG J'veux peser comme 4 DG Chen Zen, Professeur Agrégé J'arrive comme Karim, toi comme APG So Bobby, so à Sboy 667 aka audio-cess', boy Yeuz bridés comme négro d'l'est, boy T'es dépassé comme Nintendo NES, boy Tous-tous les jours au-dessus de tous ces négros Fume la OG, celle qui fait tousser, négro On arrive, j'te conseille d'te pousser, négro J'préfère acheter des guns que de pousser, négro Ils mettent des jupes, so Écosse Dab dans l'bendo, so Takeoff On les fouette facile, so les codes J'prends l'biff, j'investis en Afrique, so Akon Négro, j'veux les thunes comme un trafiquant Dans l'complot comme le Vatican La plupart d'mes négros sont pratiquants Aucune saveur négro, tes sons sont pas piquants Négro t'as pas d'sous, tu mens Tu mens Tu crois qu't'es pas S dans tes locations ? Remballe tes vieilles techniques d'occasion Reprise de volée dès qu'j'ai l'occasion, goddamn Goddamn, goddamn Ne jamais juger un livre à sa couverture J'm'infiltre dès qu'j'vois une ouverture So Afro S, j'grattais sous ta couverture Goddamn Goddamn, so Doc OVG, faut les lovés Original Voyou, so mes OVs Chen Zen, j'suis à propos d'l'herbe comme José Bové Goddamn Goddamn Ekip, ekip, Prof Chen, tu sais qu'j'maîtrise, fils Enchaîne les lignes comme Tetris, fils J'regarde ta carrière et c'est triste, fils, ekip You might also like M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Chen Zen, ekip, ekip So Doc OVG, faut les lovés So mes loups, mes OVs Chen Zen, négro À propos d'l'herbe comme José Bové, ekip So M.M.S, L.D.O, N.R.M, pétasse Ekip, ekip7</t>
+          <t>Han, ew, eh M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Chen Zen, 2016 c'est la F.D.T Goddamn, han Ekip, yeah D'où-d'où j'suis, j'vous vois tout petit Goddamn, goddamn, goddamn Le Sprite est rose comme Boo petit Lin, lin, goddamn J'suis là pour les gros sous, petit Si tu t'allumes comme nous, fais gaffe Tu peux devenir fou petit, ekip Ekip, ekip Dri-dri-dribble ces négros comme Gaúcho Goddamn, ils sont faibles comme Sochaux Goddamn, goddamn J'vois en slow-mo' comme Ocho Dans la maison-piège comme dojo Goddamn, ouh J'fume la buzz, j'fume la BG J'veux peser comme 4 DG Chen Zen, Professeur Agrégé J'arrive comme Karim, toi comme APG So Bobby, so à Sboy 667 aka audio-cess', boy Yeuz bridés comme négro d'l'est, boy T'es dépassé comme Nintendo NES, boy Tous-tous les jours au-dessus de tous ces négros Fume la OG, celle qui fait tousser, négro On arrive, j'te conseille d'te pousser, négro J'préfère acheter des guns que de pousser, négro Ils mettent des jupes, so Écosse Dab dans l'bendo, so Takeoff On les fouette facile, so les codes J'prends l'biff, j'investis en Afrique, so Akon Négro, j'veux les thunes comme un trafiquant Dans l'complot comme le Vatican La plupart d'mes négros sont pratiquants Aucune saveur négro, tes sons sont pas piquants Négro t'as pas d'sous, tu mens Tu mens Tu crois qu't'es pas S dans tes locations ? Remballe tes vieilles techniques d'occasion Reprise de volée dès qu'j'ai l'occasion, goddamn Goddamn, goddamn Ne jamais juger un livre à sa couverture J'm'infiltre dès qu'j'vois une ouverture So Afro S, j'grattais sous ta couverture Goddamn Goddamn, so Doc OVG, faut les lovés Original Voyou, so mes OVs Chen Zen, j'suis à propos d'l'herbe comme José Bové Goddamn Goddamn Ekip, ekip, Prof Chen, tu sais qu'j'maîtrise, fils Enchaîne les lignes comme Tetris, fils J'regarde ta carrière et c'est triste, fils, ekip M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Chen Zen, ekip, ekip So Doc OVG, faut les lovés So mes loups, mes OVs Chen Zen, négro À propos d'l'herbe comme José Bové, ekip So M.M.S, L.D.O, N.R.M, pétasse Ekip, ekip7</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Le Z Schumi, Freeze Corleone Bg Boys Club sur le sweatshirt, def tate comme dans l'clip d'Earl Zuuk' Mayz' faya sur l'Black Pearl, xan dans l'jean Technique de Qui-Gon Jinn, j'mérite les fafs de Bill Gates J'suis un goa'uld dans Stargate, j'm'inquiète pas, j'ai Allah Dans l'rap jeu full target j'vois Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein You might also like Chen Zen han, Zuukou ekip, j'suis Ho-Oh, t'es Roucoups eh Sous soupe, double coupe lin, comme les zinzins dans la soucoupe Bitch, j'veux les fafs comme Hulk Hogan han, concu', c'est des clopes on les fume au calme Maybach, pas une Logan, faut qu'j'arrive Allemand comme Gündoan godamn Toseina, Fanta, 2019, j'ai dépassé les 100k cash J'sais où j'vais même sans carte han, devant l'micro comme si j'étais 104 pétasse Tu veux un feat, belek au taro, Zuukou sort l'arbalète et les gros carreaux Devant la cage comme Lautaro, chez nous, on croit en Dieu, pas aux tarots Pétasse Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein Bou féké da ngua dof, dina katsandey, j'ai l'étoffe Safe comme roff, le truc vert qu'ma mère fout dans l'thiof Si j'étais keuf, j'serais un ripou, Zuuk Mayz maîtrise technique de Wing Chun Tactique d'attaque du Mordor, 667 que là pour l'or, on est fort, nique un renfort Xan dans l'jean, techniques de Qui Gon Jinn J'v'-esqui El Diablo, soon Lambo' Diablo J'oublie son blase quand j'lean, miskine Xan dans l'jean Techniques de Qui Gon Jinn J'v'-esqui El Diablo Soon Lambo' Diablo J'oublie son blase quand j'lean, ekip Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein2</t>
+          <t>Le Z Schumi, Freeze Corleone Bg Boys Club sur le sweatshirt, def tate comme dans l'clip d'Earl Zuuk' Mayz' faya sur l'Black Pearl, xan dans l'jean Technique de Qui-Gon Jinn, j'mérite les fafs de Bill Gates J'suis un goa'uld dans Stargate, j'm'inquiète pas, j'ai Allah Dans l'rap jeu full target j'vois Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein Chen Zen han, Zuukou ekip, j'suis Ho-Oh, t'es Roucoups eh Sous soupe, double coupe lin, comme les zinzins dans la soucoupe Bitch, j'veux les fafs comme Hulk Hogan han, concu', c'est des clopes on les fume au calme Maybach, pas une Logan, faut qu'j'arrive Allemand comme Gündoan godamn Toseina, Fanta, 2019, j'ai dépassé les 100k cash J'sais où j'vais même sans carte han, devant l'micro comme si j'étais 104 pétasse Tu veux un feat, belek au taro, Zuukou sort l'arbalète et les gros carreaux Devant la cage comme Lautaro, chez nous, on croit en Dieu, pas aux tarots Pétasse Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein Bou féké da ngua dof, dina katsandey, j'ai l'étoffe Safe comme roff, le truc vert qu'ma mère fout dans l'thiof Si j'étais keuf, j'serais un ripou, Zuuk Mayz maîtrise technique de Wing Chun Tactique d'attaque du Mordor, 667 que là pour l'or, on est fort, nique un renfort Xan dans l'jean, techniques de Qui Gon Jinn J'v'-esqui El Diablo, soon Lambo' Diablo J'oublie son blase quand j'lean, miskine Xan dans l'jean Techniques de Qui Gon Jinn J'v'-esqui El Diablo Soon Lambo' Diablo J'oublie son blase quand j'lean, ekip Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein Bg Boys Club sur le sweatshirt sweatshirt, 6.6.7, NRM, le t-shirt Zuuk' Mayz', Freeze Corleone, NRM, LDO, 6.6.7, ville comme Akon Fanta mango, lin, toseina Fanta mango plein Fanta mango, lin, toseina Fanta mango plein2</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>So le Flem So le Amine Ekip, ekip J'crois quen Dieu, ils adorent le bouc han On arrive, on instaure le doute ouais Chaque somme, au minimum, je double cash Aqua dans le 4x4 et dans le coup' Ils voulaient nous faire mais ils ont échoué eh Le plan d'Dieu est impossible à déjouer jamais On nest plus des gamins, mais on a des jouets pah R.E.P. à tous les migrants qui ont échoué On aime les BM' et les Benz, les VVS et les bands cash On a les brrr et les bang pah, cadavres de prods j'ai des bennes han 20-21, Corleone, Ashe 22, Scellé partie 4 J'arrive mal-fons', j'ai les party pack, dans ma main j'ai tous les as de la partie d'cartes eh Jamais on est dans les pactes jamais, cest nous les cartes introuvables dans les packs Jai vendu plus de physiques que des têtes de gondoles de la Fnac sans être dans les bacs eh Corleone, Ashe, on les terrorise han, c'est réel, cest pas des théories nan Élevé aux pâtes et élevé au riz han, passe à la vitesse des météorites sku Deux-deux Chen, ça va vite comme la fibre optique nion Dans l'labo', so le big Optim, j'ai cons des litres de shit et des kilos d'lean J'effrite la Cali, j'effrite le Dry, raconte pas ta vie, dis vite le prix Fugazi on fait vite le tri han, j'arrive plus blindé que le fils de Gris Bordeaux Bordeaux Sip' que du lin, pas des bordeaux lin C'est des vautours, ils nous voient comme des corbeaux ouais On a v'là les produits qu'ils peuvent pas sortir sans des ordo' non Big Freeze, big 2-2, on roule que des big de beuh Blindage, que j'esquive de peu, faut qu'mes enfants grandissent comme des riches fils de You might also like Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Drill, tous les rappeurs s'y sont mis brr, mais c'est pas la même catégorie pah On fait laguer l'algorithme, j'arrive avec trois gorilles Et que elle piste mes stories, eh, elle sait pas qu'tout l'cash que j'ai fait Vient d'un business horrible hey, on vient des pays torrides brr Demi-tour, shlass hey, c'est la zayz hey J'tache tous les billets dans l'stash brr Pas besoin d'eux, j'ai déjà un papa Sortez les pare-balles Plusieurs b par balle, j'envoie des parpaings J'en ai tellement fait, y a dix mille raisons d'voir mon nom dans leur fichier Un regard d'travers, j'ouvre ton crâne avec un flash de l'épicier Que d'la haine envers les Retour de Rotter', j'm'arrête pas pisser Tu joues l'Pablo, mais on sait qui t'es T'as poucave ton kho pour un 10g poukie On a grandi dans la, on a trainé devant l'bloc Tu joues les indics' devant le proc' donc tu vas danser devant le Glock brr, pah Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé</t>
+          <t>So le Flem So le Amine Ekip, ekip J'crois quen Dieu, ils adorent le bouc han On arrive, on instaure le doute ouais Chaque somme, au minimum, je double cash Aqua dans le 4x4 et dans le coup' Ils voulaient nous faire mais ils ont échoué eh Le plan d'Dieu est impossible à déjouer jamais On nest plus des gamins, mais on a des jouets pah R.E.P. à tous les migrants qui ont échoué On aime les BM' et les Benz, les VVS et les bands cash On a les brrr et les bang pah, cadavres de prods j'ai des bennes han 20-21, Corleone, Ashe 22, Scellé partie 4 J'arrive mal-fons', j'ai les party pack, dans ma main j'ai tous les as de la partie d'cartes eh Jamais on est dans les pactes jamais, cest nous les cartes introuvables dans les packs Jai vendu plus de physiques que des têtes de gondoles de la Fnac sans être dans les bacs eh Corleone, Ashe, on les terrorise han, c'est réel, cest pas des théories nan Élevé aux pâtes et élevé au riz han, passe à la vitesse des météorites sku Deux-deux Chen, ça va vite comme la fibre optique nion Dans l'labo', so le big Optim, j'ai cons des litres de shit et des kilos d'lean J'effrite la Cali, j'effrite le Dry, raconte pas ta vie, dis vite le prix Fugazi on fait vite le tri han, j'arrive plus blindé que le fils de Gris Bordeaux Bordeaux Sip' que du lin, pas des bordeaux lin C'est des vautours, ils nous voient comme des corbeaux ouais On a v'là les produits qu'ils peuvent pas sortir sans des ordo' non Big Freeze, big 2-2, on roule que des big de beuh Blindage, que j'esquive de peu, faut qu'mes enfants grandissent comme des riches fils de Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Drill, tous les rappeurs s'y sont mis brr, mais c'est pas la même catégorie pah On fait laguer l'algorithme, j'arrive avec trois gorilles Et que elle piste mes stories, eh, elle sait pas qu'tout l'cash que j'ai fait Vient d'un business horrible hey, on vient des pays torrides brr Demi-tour, shlass hey, c'est la zayz hey J'tache tous les billets dans l'stash brr Pas besoin d'eux, j'ai déjà un papa Sortez les pare-balles Plusieurs b par balle, j'envoie des parpaings J'en ai tellement fait, y a dix mille raisons d'voir mon nom dans leur fichier Un regard d'travers, j'ouvre ton crâne avec un flash de l'épicier Que d'la haine envers les Retour de Rotter', j'm'arrête pas pisser Tu joues l'Pablo, mais on sait qui t'es T'as poucave ton kho pour un 10g poukie On a grandi dans la, on a trainé devant l'bloc Tu joues les indics' devant le proc' donc tu vas danser devant le Glock brr, pah Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Ils ont mis la d sous scellés Ils ont mis le g sous scellés Ils ont mis la tchop sous scellés Ils ont mis l'cash sous scellés Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé Scellé, scellé, scellé, scellé</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Han Han Big Freeze, big Kalash, big Kaaris, big cash et big kichta, big tarif So le plug, le triple filtre arrive, y a des guitares, y a pas d'guitariste On leur montre comment faire comme des moniteurs J'm'arrête pas tant qu'j'vois pas des lignes sur les moniteurs So les fanatiques, so les auditeurs, rappe pour le cash, pas pour les chroniqueurs J'ai la vision comme Khris Middleton, movie, R.E.P John Singleton J'arrive anglais comme à Wimbledon, Datejust SS édition Wimbledon V'là d'gaz, aqua, j'suis dans la chambre, chargeur plein avec une dans la chambre Fonce', j'marche comme si j'en ai pris une dans la jambe, so l'syndicat, bienvenue dans l'agence Emmène les prod', j'enchaîne plein d'bains d'sang, fond bleu, AP 15.500 On aime les gros SAS avec plein d'dix milles, on aime les grosses liasses avec plein d'cinq cent So le Flem, so le Bill Congo, sur la prod', trop de beat combo J'continue jusqu'à qu'j'ai au moins dix condos, concu' sont lourds comme un litron d'eau Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse On va mettre des disquettes à toute la Terre comme Xi Jinping On va t'prendre les dernières chicots qui t'restent pour faire un bling-bling Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Avant d'découper, on fait pas d'vocalise, mélange le triple filtré et la grosse Cali Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Envoie l'khaliss par grosse valise, négro, parle français quand tu parles au calibre You might also like J'demande plus Snap', j'demande ton OnlyFans Hey Y a plus de ffres-chi sur mon compte que ton numéro IBAN Let's go Double rotor dans l'hélicoptère comme Kobe Bryant Okay Ton ciel est gris, ma cons' est jaune comme un Super Saiyan Who's bad ? Sois contente si j'te gratte un toit, j'crache le feu comme le Krakatoa J'vis dans la luxure comme un païen, j'protège mon or comme un Malien Si t'es des nôtres, t'es jamais en hess, j't'envoie une recharge PCS Gang, gang, gang J'mets le mode animal dans ta chatte, j'apparais grâce au Tesseract J'ai deux puces une qui m'ramène des ients-cli et l'autre qui m'suce Pute J'suis accoudé dans le Urus en Jacquemus Pute 2.7, sauvage, équipe russe, 93000 balles qui fusent T'attends ta passe dans la chambre d'hôtel, on attend le tueur du Dajjal, 2.7 2.7 Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse On va mettre des disquettes à toute la Terre comme Xi Jinping On va t'prendre les dernières chicots qui t'restent pour faire un bling-bling Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Avant d'découper, on fait pas d'vocalise, mélange le triple filtré et la grosse Cali Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Envoie l'khaliss par grosse valise, négro, parle français quand tu parles au calibre J'suis africain, j'ai la peau blanche, j'suis un zoulou, j'suis un viking T'vaux rien comme l'argent d'un streaming, j'suis avec DSK dans une soirée libertine J'suis l'agresseur comme Fifty Sauvage, comme Ja Rule, t'es la victime Sauvage, sauvage Classique comme Window Shopper, même si chez nous, on fait pas d'lèche-vitrine R.A.S, R.A.S gang J'suis Ragnar avec une cagoule, précis comme un shooter d'Chicago Boom Pourquoi j'suis aussi violent ? Parce que j'ai connu la guerre au Congo Sauvage, sauvagerie 6.6.7, 9.3, 2.7, violent comme Arrêt du cur Boom Sur scène, on fout le zbeul, j'saute de partout comme un rockeur Shooter, shooter On déteste quand-même les keufs même si on regarde Texas Walker R.A.S, R.A.S gang Une fois qu'j'ai fini d'baiser, j'me réveille comme Undertaker Boom Personne n'est parfait, on croit en Dieu et on prie même si on fait d'la musique Woaw J'suis pas un rappeur Ta-ta-tah, j'suis une force politique Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse On va mettre des disquettes à toute la Terre comme Xi Jinping On va t'prendre les dernières chicots qui t'restent pour faire un bling-bling Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Avant d'découper, on fait pas d'vocalise, mélange le triple filtré et la grosse Cali Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Envoie l'khaliss par grosse valise, négro, parle français quand tu parles au calibre</t>
+          <t>Han Han Big Freeze, big Kalash, big Kaaris, big cash et big kichta, big tarif So le plug, le triple filtre arrive, y a des guitares, y a pas d'guitariste On leur montre comment faire comme des moniteurs J'm'arrête pas tant qu'j'vois pas des lignes sur les moniteurs So les fanatiques, so les auditeurs, rappe pour le cash, pas pour les chroniqueurs J'ai la vision comme Khris Middleton, movie, R.E.P John Singleton J'arrive anglais comme à Wimbledon, Datejust SS édition Wimbledon V'là d'gaz, aqua, j'suis dans la chambre, chargeur plein avec une dans la chambre Fonce', j'marche comme si j'en ai pris une dans la jambe, so l'syndicat, bienvenue dans l'agence Emmène les prod', j'enchaîne plein d'bains d'sang, fond bleu, AP 15.500 On aime les gros SAS avec plein d'dix milles, on aime les grosses liasses avec plein d'cinq cent So le Flem, so le Bill Congo, sur la prod', trop de beat combo J'continue jusqu'à qu'j'ai au moins dix condos, concu' sont lourds comme un litron d'eau Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse On va mettre des disquettes à toute la Terre comme Xi Jinping On va t'prendre les dernières chicots qui t'restent pour faire un bling-bling Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Avant d'découper, on fait pas d'vocalise, mélange le triple filtré et la grosse Cali Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Envoie l'khaliss par grosse valise, négro, parle français quand tu parles au calibre J'demande plus Snap', j'demande ton OnlyFans Hey Y a plus de ffres-chi sur mon compte que ton numéro IBAN Let's go Double rotor dans l'hélicoptère comme Kobe Bryant Okay Ton ciel est gris, ma cons' est jaune comme un Super Saiyan Who's bad ? Sois contente si j'te gratte un toit, j'crache le feu comme le Krakatoa J'vis dans la luxure comme un païen, j'protège mon or comme un Malien Si t'es des nôtres, t'es jamais en hess, j't'envoie une recharge PCS Gang, gang, gang J'mets le mode animal dans ta chatte, j'apparais grâce au Tesseract J'ai deux puces une qui m'ramène des ients-cli et l'autre qui m'suce Pute J'suis accoudé dans le Urus en Jacquemus Pute 2.7, sauvage, équipe russe, 93000 balles qui fusent T'attends ta passe dans la chambre d'hôtel, on attend le tueur du Dajjal, 2.7 2.7 Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse On va mettre des disquettes à toute la Terre comme Xi Jinping On va t'prendre les dernières chicots qui t'restent pour faire un bling-bling Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Avant d'découper, on fait pas d'vocalise, mélange le triple filtré et la grosse Cali Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Envoie l'khaliss par grosse valise, négro, parle français quand tu parles au calibre J'suis africain, j'ai la peau blanche, j'suis un zoulou, j'suis un viking T'vaux rien comme l'argent d'un streaming, j'suis avec DSK dans une soirée libertine J'suis l'agresseur comme Fifty Sauvage, comme Ja Rule, t'es la victime Sauvage, sauvage Classique comme Window Shopper, même si chez nous, on fait pas d'lèche-vitrine R.A.S, R.A.S gang J'suis Ragnar avec une cagoule, précis comme un shooter d'Chicago Boom Pourquoi j'suis aussi violent ? Parce que j'ai connu la guerre au Congo Sauvage, sauvagerie 6.6.7, 9.3, 2.7, violent comme Arrêt du cur Boom Sur scène, on fout le zbeul, j'saute de partout comme un rockeur Shooter, shooter On déteste quand-même les keufs même si on regarde Texas Walker R.A.S, R.A.S gang Une fois qu'j'ai fini d'baiser, j'me réveille comme Undertaker Boom Personne n'est parfait, on croit en Dieu et on prie même si on fait d'la musique Woaw J'suis pas un rappeur Ta-ta-tah, j'suis une force politique Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse On va mettre des disquettes à toute la Terre comme Xi Jinping On va t'prendre les dernières chicots qui t'restent pour faire un bling-bling Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Avant d'découper, on fait pas d'vocalise, mélange le triple filtré et la grosse Cali Big Freeze, big Crimi', big Kaaris, le rap français nous voit comme l'apocalypse Envoie l'khaliss par grosse valise, négro, parle français quand tu parles au calibre</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ha, ha, ha J'suis dans le délire, wow, j'suis vénère, j'mélange les phéner', wow brr L'feat il est fêlé, la police a mis ma drogue sous scellé Végétal ou synthétique, ton plug est pathétique, il a aucune éthique Tellement d'dope, j'en ai ouvert une boutique, fréro, ici, on est solides Automatique j'ai fait chauffer le bolide, avec la police mes rats sont impolis Les petits en roue libre, ouais comme à Napoli, très calme mais j'peux activer la folie Elles sont affolées, j'veux pas les connaitre bitch, c'est la jungle comme aux Baumettes Il a poucave on a shark sa paumette, on va mourir, on va renaître En attendant, les p'tits passent par ta fenêtre, j'suis avec Corleone, j'suis dans la trap trap, trap, trap Igo appelle-moi si tu veux le remède, j'ai pas réussi à arrêter la gratte gratte, gratte, gratte Approche, viens voir la vie qu'on mène, j'performe dans tous les domaines J'performe dans tous les domaines, Corleone, Ashe, pétasse, tu nous connais Graille la concu comme des sushis, pull-up depuis Saturne comme Azur et Bushi sku J'fume des GG4 et des Red Dragon, j'brûle des Gelati et des Zushi C'est sûr que j'touche la cible quand j'décoche, claquettes Versace comme Takeoff ekip Y a que pour la famille que j'décoffre han, so Tamsir bientôt, j'remplis des coffres cash Et j'suis dans la trap comme Gucci avant viens voir Tu flex beaucoup depuis qu't'as signé mais t'étais jamais allé chez Gucci avant non, non Gros teh, triple filtre dès l'matin, 667 Lyonzon, c'est l'gratin ekip So la mafia, so le Ashe, devant les porcs, la langue maternelle, c'est l'latin hey, ekip J'suis dans l'lin comme Dallas, verre violet comme Ballas, teh en lous' comme Gallas, pétasse damn Ashe avec le Freezer, Glock avec le viseur, glace avec le sizzurp, pétasse brr, brr Et tu veux pas savoir ce qu'y a dans la bouteille lin, lin Quoi qu'il arrive, j'suis toujours au-dessus comme l'air dans la bouteille, pétasseYou might also like1</t>
+          <t>Ha, ha, ha J'suis dans le délire, wow, j'suis vénère, j'mélange les phéner', wow brr L'feat il est fêlé, la police a mis ma drogue sous scellé Végétal ou synthétique, ton plug est pathétique, il a aucune éthique Tellement d'dope, j'en ai ouvert une boutique, fréro, ici, on est solides Automatique j'ai fait chauffer le bolide, avec la police mes rats sont impolis Les petits en roue libre, ouais comme à Napoli, très calme mais j'peux activer la folie Elles sont affolées, j'veux pas les connaitre bitch, c'est la jungle comme aux Baumettes Il a poucave on a shark sa paumette, on va mourir, on va renaître En attendant, les p'tits passent par ta fenêtre, j'suis avec Corleone, j'suis dans la trap trap, trap, trap Igo appelle-moi si tu veux le remède, j'ai pas réussi à arrêter la gratte gratte, gratte, gratte Approche, viens voir la vie qu'on mène, j'performe dans tous les domaines J'performe dans tous les domaines, Corleone, Ashe, pétasse, tu nous connais Graille la concu comme des sushis, pull-up depuis Saturne comme Azur et Bushi sku J'fume des GG4 et des Red Dragon, j'brûle des Gelati et des Zushi C'est sûr que j'touche la cible quand j'décoche, claquettes Versace comme Takeoff ekip Y a que pour la famille que j'décoffre han, so Tamsir bientôt, j'remplis des coffres cash Et j'suis dans la trap comme Gucci avant viens voir Tu flex beaucoup depuis qu't'as signé mais t'étais jamais allé chez Gucci avant non, non Gros teh, triple filtre dès l'matin, 667 Lyonzon, c'est l'gratin ekip So la mafia, so le Ashe, devant les porcs, la langue maternelle, c'est l'latin hey, ekip J'suis dans l'lin comme Dallas, verre violet comme Ballas, teh en lous' comme Gallas, pétasse damn Ashe avec le Freezer, Glock avec le viseur, glace avec le sizzurp, pétasse brr, brr Et tu veux pas savoir ce qu'y a dans la bouteille lin, lin Quoi qu'il arrive, j'suis toujours au-dessus comme l'air dans la bouteille, pétasse1</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>R.A.S., R.A.S gang Bon courage Ekip, ekip, ekip Woo 667 R.A.S., R.A.S gang, eh Ekip, ekip, ekip, ekip J'vole près du soleil comme Icare, j'brûle pas et c'est rarissime Voir des hommes enceintes Wouh, c'est ça qu'ils appellent le progressisme Ah Sans l'Afrique, leurs seules richesses seraient l'fromage et l'vin Hahaha J'suis heureux comme un juif qui a raté l'train Boum Ils nous ont tout pé-ta Tout, on est là pour les coups d'État Pah Verre de lin avec ou sans glaçon Lin, on croit en Dieu, ils sont tous francs-maçons Rah, pah, pah J'suis l'ouragan, t'es l'averse, c'est les blancs qui descendent des hommes des cavernes Ah 667, Ekip, Sauvagerie Sauvagerie, faut plus de cheeses de dix fromageries Cash Eh, dans ce game de merde, j'suis le seul qui a des vrais shooteurs Shooteurs J'te souhaite la mort, et les mêmes problèmes sexuels que Hitler Corleone, Kalash Crimi', pas d'achat d'vues, pas d'achats d'streaming Jamais Négro, j'sip jamais de lean clair, voiture allemande, j'ai les mêmes goûts que Tah, tah, tah Wouh, wouh, encore les problèmes Encore les problèmes Wouh Encore, wouh, toujours les problèmes Toujours les problèmes, skrr, skrr Wouh Toujours, wouh, appelle le baveux, vite Brr, bah Wouh Allez, pétasse, wouh, j'crois que y a un problème J'crois que y a un problème Wouh Fuck, wouh, encore les problèmes Encore les problèmes Wouh Encore, wouh, toujours les problèmes Toujours les problèmes, toujours, toujours, toujours Wouh Les shooteurs, wouh, appelle le baveux, vite Pétasse Wouh Appelle, pétasse, wouh, j'crois que y a un problème Tah-tah-tah, bah You might also like J'ai su qu'Dieu m'aimait quand j'ai vu comment il m'éprouvait Wouh Pas besoin d'prouver, tu sais où nous trouver Bah, tu fais le gue-din, ton corps est troué Oh On est des sous-marins, eux, c'est des bouées Ouais, on est plus des p'tits mais on aime bien les jouets Pah Demande la même chose dans tous mes souhaits Uh, pull up avec les capuches, les cordes et les fouets Il m'faut une plus grande villa que celle des Balkany à Saint-Martin Il m'faut plus de baraques que Paul Biya Paul, le corps du rap dans le corbillard Skrr On fait pas crari, on va tout cramer, faut un pédophile mort chaque matin Et négro, j'réfléchis comme l'I.A Oh, j'suis en mode pillage, faut des tonnes d'liasses Tonnes Han, et c'est pas d'ma faute, s'ils ont collaboré Non, s'ils ont fait partir des négros à Gorée Si, Satan, ils aiment trop adorer Pah, pah Fuck les colons, fuck les nazis, on est bien d'accord Sauvage J'arrive Zaïrois Bah, comme Domínguez Adolphe Tah-tah-tah Wouh, wouh, encore les problèmes Encore les problèmes, sauvagerie, gang Wouh Encore, wouh, toujours les problèmes Toujours les problèmes, wouh, skrr, skrr Wouh Toujours, wouh, appelle le baveux, vite Brr Wouh Allez, pétasse, wouh, j'crois que y a un problème J'crois que y a un problème Wouh Fuck, wouh, encore les problèmes Encore les problèmes, sauvagerie, gang Wouh Encore, wouh, toujours les problèmes Toujours les problèmes, toujours, toujours, toujours Wouh Les shooteurs, wouh, appelle le baveux, vite Pétasse Wouh Appelle, pétasse, wouh, j'crois que y a un problème Tah, tah, tah, bah, ekip, ekip Bon courage R.A.S. R.A.S gang R.A.S. R.A.S gang Ekip, ekip, ekip, ekip, ekip Tah, tah, tah1</t>
+          <t>R.A.S., R.A.S gang Bon courage Ekip, ekip, ekip Woo 667 R.A.S., R.A.S gang, eh Ekip, ekip, ekip, ekip J'vole près du soleil comme Icare, j'brûle pas et c'est rarissime Voir des hommes enceintes Wouh, c'est ça qu'ils appellent le progressisme Ah Sans l'Afrique, leurs seules richesses seraient l'fromage et l'vin Hahaha J'suis heureux comme un juif qui a raté l'train Boum Ils nous ont tout pé-ta Tout, on est là pour les coups d'État Pah Verre de lin avec ou sans glaçon Lin, on croit en Dieu, ils sont tous francs-maçons Rah, pah, pah J'suis l'ouragan, t'es l'averse, c'est les blancs qui descendent des hommes des cavernes Ah 667, Ekip, Sauvagerie Sauvagerie, faut plus de cheeses de dix fromageries Cash Eh, dans ce game de merde, j'suis le seul qui a des vrais shooteurs Shooteurs J'te souhaite la mort, et les mêmes problèmes sexuels que Hitler Corleone, Kalash Crimi', pas d'achat d'vues, pas d'achats d'streaming Jamais Négro, j'sip jamais de lean clair, voiture allemande, j'ai les mêmes goûts que Tah, tah, tah Wouh, wouh, encore les problèmes Encore les problèmes Wouh Encore, wouh, toujours les problèmes Toujours les problèmes, skrr, skrr Wouh Toujours, wouh, appelle le baveux, vite Brr, bah Wouh Allez, pétasse, wouh, j'crois que y a un problème J'crois que y a un problème Wouh Fuck, wouh, encore les problèmes Encore les problèmes Wouh Encore, wouh, toujours les problèmes Toujours les problèmes, toujours, toujours, toujours Wouh Les shooteurs, wouh, appelle le baveux, vite Pétasse Wouh Appelle, pétasse, wouh, j'crois que y a un problème Tah-tah-tah, bah J'ai su qu'Dieu m'aimait quand j'ai vu comment il m'éprouvait Wouh Pas besoin d'prouver, tu sais où nous trouver Bah, tu fais le gue-din, ton corps est troué Oh On est des sous-marins, eux, c'est des bouées Ouais, on est plus des p'tits mais on aime bien les jouets Pah Demande la même chose dans tous mes souhaits Uh, pull up avec les capuches, les cordes et les fouets Il m'faut une plus grande villa que celle des Balkany à Saint-Martin Il m'faut plus de baraques que Paul Biya Paul, le corps du rap dans le corbillard Skrr On fait pas crari, on va tout cramer, faut un pédophile mort chaque matin Et négro, j'réfléchis comme l'I.A Oh, j'suis en mode pillage, faut des tonnes d'liasses Tonnes Han, et c'est pas d'ma faute, s'ils ont collaboré Non, s'ils ont fait partir des négros à Gorée Si, Satan, ils aiment trop adorer Pah, pah Fuck les colons, fuck les nazis, on est bien d'accord Sauvage J'arrive Zaïrois Bah, comme Domínguez Adolphe Tah-tah-tah Wouh, wouh, encore les problèmes Encore les problèmes, sauvagerie, gang Wouh Encore, wouh, toujours les problèmes Toujours les problèmes, wouh, skrr, skrr Wouh Toujours, wouh, appelle le baveux, vite Brr Wouh Allez, pétasse, wouh, j'crois que y a un problème J'crois que y a un problème Wouh Fuck, wouh, encore les problèmes Encore les problèmes, sauvagerie, gang Wouh Encore, wouh, toujours les problèmes Toujours les problèmes, toujours, toujours, toujours Wouh Les shooteurs, wouh, appelle le baveux, vite Pétasse Wouh Appelle, pétasse, wouh, j'crois que y a un problème Tah, tah, tah, bah, ekip, ekip Bon courage R.A.S. R.A.S gang R.A.S. R.A.S gang Ekip, ekip, ekip, ekip, ekip Tah, tah, tah1</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Eh ouah Eh Eh ouah Gang Eh Pirate dans la rue, c'est bloods, tout l'monde veut sa part des ous-s On sait contrôler la zone, on a débité la poudre Dans l'bât', bre-som, sur le plavon toujours bre-som Sur un braquo, hors du tiekson, l'argent est sale, fait de check son L'art de la guerre, c'est ma passion, le trafic file grâce au réseau Vingt kilos d'coke dans un camion calme, traverse la côte sén au calme J'ai limbé vendu, Corleone dis-leur, ves-qui les pe-stu et maintenant font du beurre Trafic, rain-té, c'est nous les tueurs, assoc' de malfrats sans cur Han, killu à vie par Allah on est béni Inch'Allah j'aurais la Rolls et une villa pour la daronne au pays Amiri tous les jours, en flingue aux alentours, bâtard bâtard Pénave, on t'efface connard connard OBS dégaine la me-ar, bre-som, c'est noir You might also like L'art de la guerre, c'est c'qu'on applique dans la ville Soldat posté dans l'bât', assume la journée, ton collègue fera la nuit On arrive en force, faut prendre tout l'argent et le ramener au pays Corleone, dis-leur, bientôt dans la Rolls comme un riche blanc au pays L'art de la guerre, c'est c'qu'on applique dans la ville Soldat posté dans l'bât', assume la journée, ton collègue fera la nuit On arrive en force, faut prendre tout l'argent et le ramener au pays Corleone, dis-leur, bientôt dans la Rolls comme un riche blanc au pays Bientôt dans la Rolls comme un riche blanc au pays Fonce-dé sous L.O.P.I, so Kaki, négro, so au treillis OBS So Slim C, c'est des snake et des fox, baraude la nuit, faut éviter les cops Dans la zone ça ravitaillait les tox', mis des primes sur des snitchs et des opps Dakar demande après le Chen et le Black Dans l'piège, j'suis à côté des deux plaques, concu', on dirait des compèt' de blagues Art de la guerre, Sun Tzu, Chen Zen, Général Corleone, Black Jack, sur la prod comme Mac Kregor et le Général Dis rien au tél', immunisé comme si j'ai le totem Inch'Allah, Rolls Royce, Maybach avec des villas et des hôtels Corleone, Blacky, So Kaki, j'veux grossir comme Macky Ultra instinct, haki, kick fort sur les prods comme Baki Ekip L'art de la guerre, c'est c'qu'on applique dans la ville Soldat posté dans l'bât', assume la journée, ton collègue fera la nuit On arrive en force, faut prendre tout l'argent et le ramener au pays Corleone, dis-leur, bientôt dans la Rolls comme un riche blanc au pays L'art de la guerre, c'est c'qu'on applique dans la ville Soldat posté dans l'bât', assume la journée, ton collègue fera la nuit On arrive en force, faut prendre tout l'argent et le ramener au pays Corleone, dis-leur, bientôt dans la Rolls comme un riche blanc au pays Killu à vie par Allah, on est béni Inch'Allah j'aurai la Rolls et une villa pour la daronne au pays Amiri tous les jours, en flingue aux alentours, bâtard bâtard Pénave on t'efface connard connard OBS dégaine la me-ar, bre-som, c'est noir Killu à vie par Allah, on est béni Inch'Allah j'aurai la Rolls et une villa pour la daronne au pays Amiri tous les jours, en flingue aux alentours, bâtard bâtard Pénave on t'efface connard connard OBS dégaine la me-ar, bre-som, c'est noir7</t>
+          <t>Eh ouah Eh Eh ouah Gang Eh Pirate dans la rue, c'est bloods, tout l'monde veut sa part des ous-s On sait contrôler la zone, on a débité la poudre Dans l'bât', bre-som, sur le plavon toujours bre-som Sur un braquo, hors du tiekson, l'argent est sale, fait de check son L'art de la guerre, c'est ma passion, le trafic file grâce au réseau Vingt kilos d'coke dans un camion calme, traverse la côte sén au calme J'ai limbé vendu, Corleone dis-leur, ves-qui les pe-stu et maintenant font du beurre Trafic, rain-té, c'est nous les tueurs, assoc' de malfrats sans cur Han, killu à vie par Allah on est béni Inch'Allah j'aurais la Rolls et une villa pour la daronne au pays Amiri tous les jours, en flingue aux alentours, bâtard bâtard Pénave, on t'efface connard connard OBS dégaine la me-ar, bre-som, c'est noir L'art de la guerre, c'est c'qu'on applique dans la ville Soldat posté dans l'bât', assume la journée, ton collègue fera la nuit On arrive en force, faut prendre tout l'argent et le ramener au pays Corleone, dis-leur, bientôt dans la Rolls comme un riche blanc au pays L'art de la guerre, c'est c'qu'on applique dans la ville Soldat posté dans l'bât', assume la journée, ton collègue fera la nuit On arrive en force, faut prendre tout l'argent et le ramener au pays Corleone, dis-leur, bientôt dans la Rolls comme un riche blanc au pays Bientôt dans la Rolls comme un riche blanc au pays Fonce-dé sous L.O.P.I, so Kaki, négro, so au treillis OBS So Slim C, c'est des snake et des fox, baraude la nuit, faut éviter les cops Dans la zone ça ravitaillait les tox', mis des primes sur des snitchs et des opps Dakar demande après le Chen et le Black Dans l'piège, j'suis à côté des deux plaques, concu', on dirait des compèt' de blagues Art de la guerre, Sun Tzu, Chen Zen, Général Corleone, Black Jack, sur la prod comme Mac Kregor et le Général Dis rien au tél', immunisé comme si j'ai le totem Inch'Allah, Rolls Royce, Maybach avec des villas et des hôtels Corleone, Blacky, So Kaki, j'veux grossir comme Macky Ultra instinct, haki, kick fort sur les prods comme Baki Ekip L'art de la guerre, c'est c'qu'on applique dans la ville Soldat posté dans l'bât', assume la journée, ton collègue fera la nuit On arrive en force, faut prendre tout l'argent et le ramener au pays Corleone, dis-leur, bientôt dans la Rolls comme un riche blanc au pays L'art de la guerre, c'est c'qu'on applique dans la ville Soldat posté dans l'bât', assume la journée, ton collègue fera la nuit On arrive en force, faut prendre tout l'argent et le ramener au pays Corleone, dis-leur, bientôt dans la Rolls comme un riche blanc au pays Killu à vie par Allah, on est béni Inch'Allah j'aurai la Rolls et une villa pour la daronne au pays Amiri tous les jours, en flingue aux alentours, bâtard bâtard Pénave on t'efface connard connard OBS dégaine la me-ar, bre-som, c'est noir Killu à vie par Allah, on est béni Inch'Allah j'aurai la Rolls et une villa pour la daronne au pays Amiri tous les jours, en flingue aux alentours, bâtard bâtard Pénave on t'efface connard connard OBS dégaine la me-ar, bre-som, c'est noir7</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>So, you know, what you do got coming next for like, the fans that, you know, the die-hard fans that want to know Hmmm, I got this mixtape i've been working on called Ain't No Money Like Trap Money, you know Yeah cuz you deep in the trap shit and I love that shit! Yeah man, that's like, you know man, you feel me, you know, i was influenced, you know, Lil Wayne you know like Gucci and shit So le Flem J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Skur Skur J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Verre de lin, gros teh comme Fredo dans la cuisine Négro j'compte les do' comme Fredo dans la cuisine Ils sont faibles comme si ils ont v'là de carences So le Double, négro, fume la frappe de Clarence Lean-teh, faut qu'j'pèse comme si je jouais à l'Inter Dans plusieurs drogues donc j'vois flou dedans Deux cups liquides couleur à Buu dedans Négros tu sais qu'il y en a full dedans So Jadakiss, gros blunt, gorilla glue dedans J'suis dans l'linge, négro so le Apeshit So Simmie, pull-up ta bitch dans le spaceship Dans le lin 7 sur 7, dans mon verre pas d'Jack Dans la ville négro, barode avec le Black Jack J'mets les gaz, so Doc OVG, mode sport Dans Dakar, aqua' dans le OG Evoque Sport Chen Zen, là pour le cash A propos du papier comme si j'taffais chez Oxford Prof Chen, j'écris les formules au tableau Connecté comme une Tesla, so Pablo Il m'faut une bad Griselda, so Fablo You might also like J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine2</t>
+          <t>So, you know, what you do got coming next for like, the fans that, you know, the die-hard fans that want to know Hmmm, I got this mixtape i've been working on called Ain't No Money Like Trap Money, you know Yeah cuz you deep in the trap shit and I love that shit! Yeah man, that's like, you know man, you feel me, you know, i was influenced, you know, Lil Wayne you know like Gucci and shit So le Flem J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Skur Skur J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Verre de lin, gros teh comme Fredo dans la cuisine Négro j'compte les do' comme Fredo dans la cuisine Ils sont faibles comme si ils ont v'là de carences So le Double, négro, fume la frappe de Clarence Lean-teh, faut qu'j'pèse comme si je jouais à l'Inter Dans plusieurs drogues donc j'vois flou dedans Deux cups liquides couleur à Buu dedans Négros tu sais qu'il y en a full dedans So Jadakiss, gros blunt, gorilla glue dedans J'suis dans l'linge, négro so le Apeshit So Simmie, pull-up ta bitch dans le spaceship Dans le lin 7 sur 7, dans mon verre pas d'Jack Dans la ville négro, barode avec le Black Jack J'mets les gaz, so Doc OVG, mode sport Dans Dakar, aqua' dans le OG Evoque Sport Chen Zen, là pour le cash A propos du papier comme si j'taffais chez Oxford Prof Chen, j'écris les formules au tableau Connecté comme une Tesla, so Pablo Il m'faut une bad Griselda, so Fablo J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine Dans la cuisine, comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine J'suis dans le piège, j'me sens comme Fredo dans la cuisine2</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Narcos Heizenberg Faut qu'ma berline soit étrangère J'apporte le feu comme les enfers, confiance qu'en Dieu et mon grand frère, yeah Discret comme le KKK, on mange si tu passes à table J'ai fait la monnaie pas à pas, fume la douze comme trois fois quatre Rap technologique alors je fuck tes pronostics Parait qu'pour faire de gros montants, il faut avoir de bons motifs J'ai pas fait d'cours d'économie, tu veux la monnaie ? Follow me Descendant d'un peuple colonisé, légendaire comme Olomidé, yeah Détruit des prods, c'est le Chen ou le V Goddamn Viens à Dakar, tes pieds restent en contact avec le sol mais on peut te soulever ekip So Nipsey, on est connecté comme sous le V han Futur parrain comme Vito Han, j'suis comme Ace, t'es comme Rico Han Véhicule nazi comme Vito, moi, giga t'es pico, j'ai v'là de rimes comme dico gaddamn, gaddamn Cons' v'là d'essence comme un monster truck, j'ai v'là de lean dans le Monster hein Chen Zen, H24 fonscar, et négro j'm'allume comme si j'ai onze curs uh Gaddamn Plein de noirs comme les gangs d'Illinois, sur la prod découpe comme cent dix mille moi Pussy négro, tu peux pas m'rattraper même si t't'entraînes pendant dix mille mois Ekip, ekip You might also like Fifty fifty pour les gros numéros, je suis busy, busy Aucun amour pour le bazar, toujours ekip comme le brassard, Chen gal-sén comme Yassa Villeneuve Sept-un Boissard, fuck nos destins d'poissards, yeah Arrive en ville dans un Black Impala, fume la pasta comme Giovanni Rana Découpe les MCs comme Benihana, si j'ouvre la bouche, c'est pour faire so many dollar Boy, j'suis un génie comme Albert Albert, Veerus se répand comme grammes d'herbe Grammes d'herbe L'enfer du dimanche toute la s'maine Yah, quand on ouvre la bouche, ils crient Gaddem Gaddem Tu peux m'croiser dans un Uber noir Yeah, camouflé derrière des lunettes noires Hey Sac Versace, faut qu'vous l'sachiez, pull up comme avec des grammes dans l'sachet Sur la route du papier, monte un empire comme le jeune Adolph heyyy Déterminé avec de grandes ambitions négro, comme le jeune Adolf goddamn Skrt skrt dans les BM sku, graille la concu' comme des BN, gaddem Ils savent pas d'où j'frappe négro comme si j'rappe avec un VPN Self-control comme Laura, vrai négro shit, tous les jours j'mens pas comme Laura nan nan Toujours au-dessus comme l'orage en haut, 667 pour les enfants comme le Wu-Tang Clan, comme Dora So Kaki Santana, révolue l'époque de Kirikou han, on est en 2k18 Freeze Corleone, crosse ces négros sur la prod comme dans 2k18, ekip Ekip, ekip, ekip, ekip Faut qu'ma berline soit étrangère, j'apporte le feu comme les enfers Confiance qu'en Dieu et mon grand frère, yeah Détruit des prods, c'est le Chen ou le V, viens à Dakar Tes pieds restent en contact avec le sol mais on peut te soulever So Nipsey, on est connecté comme sous le V Arrive en ville dans un black Impala, fume la pasta comme Giovanni Rana Découpe les MCs comme Benihana, si j'ouvre la bouche, c'est pour faire so many dollar Sur la route du papier, monte un empire comme le jeune Adolph Déterminé avec de grandes ambitions négro, comme le jeune Adolf Jeune Adolf, jeune Adolf Gaddamn1</t>
+          <t>Narcos Heizenberg Faut qu'ma berline soit étrangère J'apporte le feu comme les enfers, confiance qu'en Dieu et mon grand frère, yeah Discret comme le KKK, on mange si tu passes à table J'ai fait la monnaie pas à pas, fume la douze comme trois fois quatre Rap technologique alors je fuck tes pronostics Parait qu'pour faire de gros montants, il faut avoir de bons motifs J'ai pas fait d'cours d'économie, tu veux la monnaie ? Follow me Descendant d'un peuple colonisé, légendaire comme Olomidé, yeah Détruit des prods, c'est le Chen ou le V Goddamn Viens à Dakar, tes pieds restent en contact avec le sol mais on peut te soulever ekip So Nipsey, on est connecté comme sous le V han Futur parrain comme Vito Han, j'suis comme Ace, t'es comme Rico Han Véhicule nazi comme Vito, moi, giga t'es pico, j'ai v'là de rimes comme dico gaddamn, gaddamn Cons' v'là d'essence comme un monster truck, j'ai v'là de lean dans le Monster hein Chen Zen, H24 fonscar, et négro j'm'allume comme si j'ai onze curs uh Gaddamn Plein de noirs comme les gangs d'Illinois, sur la prod découpe comme cent dix mille moi Pussy négro, tu peux pas m'rattraper même si t't'entraînes pendant dix mille mois Ekip, ekip Fifty fifty pour les gros numéros, je suis busy, busy Aucun amour pour le bazar, toujours ekip comme le brassard, Chen gal-sén comme Yassa Villeneuve Sept-un Boissard, fuck nos destins d'poissards, yeah Arrive en ville dans un Black Impala, fume la pasta comme Giovanni Rana Découpe les MCs comme Benihana, si j'ouvre la bouche, c'est pour faire so many dollar Boy, j'suis un génie comme Albert Albert, Veerus se répand comme grammes d'herbe Grammes d'herbe L'enfer du dimanche toute la s'maine Yah, quand on ouvre la bouche, ils crient Gaddem Gaddem Tu peux m'croiser dans un Uber noir Yeah, camouflé derrière des lunettes noires Hey Sac Versace, faut qu'vous l'sachiez, pull up comme avec des grammes dans l'sachet Sur la route du papier, monte un empire comme le jeune Adolph heyyy Déterminé avec de grandes ambitions négro, comme le jeune Adolf goddamn Skrt skrt dans les BM sku, graille la concu' comme des BN, gaddem Ils savent pas d'où j'frappe négro comme si j'rappe avec un VPN Self-control comme Laura, vrai négro shit, tous les jours j'mens pas comme Laura nan nan Toujours au-dessus comme l'orage en haut, 667 pour les enfants comme le Wu-Tang Clan, comme Dora So Kaki Santana, révolue l'époque de Kirikou han, on est en 2k18 Freeze Corleone, crosse ces négros sur la prod comme dans 2k18, ekip Ekip, ekip, ekip, ekip Faut qu'ma berline soit étrangère, j'apporte le feu comme les enfers Confiance qu'en Dieu et mon grand frère, yeah Détruit des prods, c'est le Chen ou le V, viens à Dakar Tes pieds restent en contact avec le sol mais on peut te soulever So Nipsey, on est connecté comme sous le V Arrive en ville dans un black Impala, fume la pasta comme Giovanni Rana Découpe les MCs comme Benihana, si j'ouvre la bouche, c'est pour faire so many dollar Sur la route du papier, monte un empire comme le jeune Adolph Déterminé avec de grandes ambitions négro, comme le jeune Adolf Jeune Adolf, jeune Adolf Gaddamn1</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve grr, grr J'ai pris l'machin, j'l'éteins avec un doigt J'ga-j'garde tellement mon sang-froid, on dirait qu'j'l'ai fait cent fois sku, sku On essaie de l'laisser sans vie mais on l'a laissé sans voix pah, pah Tu vas vivre sans tes jambes, ton pote vivra pas sans foie Et on m'demande pourquoi tant d'violence, j'suis vraiment sur l'champ d'bataille J'réponds encore à leur insolence, y a que du chh, y a pas d'somnolence Toujours le truc sur moi, j'me méfie des gens sournois Sur l'terrain, y a pas d'tournoi, c'est les lions qui font leur loi leur loi, leur loi C'est Dieu qui pardonne, avant d'percer, moi, j'pense à partir Pour l'instant, j'suis dans la street et j'prie encore pour m'en sortir J'fais du sale, j'vais pas t'mentir, être un exemple pour la mif' donc j'dois vite me repentir bullet, bullet You might also like Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve bullet Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve Big drip tah Moncler splash, là pour faire du biff à long terme cash Ekip à vie, qu'on gagne, qu'on perde paw, faut qu'j'achète une A.P. à mon père han De Dakar jusqu'à Villeur' ekip, aquarium dans la Beamer dans la Beamer Audio crack dealer han, j'prie pour pas finir comme Mac Miller comme Mac Miller Philip', Felix, dans l'ciel en flammes comme le phénix ekip J'reste loin d'eux comme si j'venais de Phoenix eh Chen Zen, la F gang, New York cité comme des AFs ekip Ekip, A.S ekip, noir sur noir comme si j'débite la S la S Concu', c'est des lutins haha, j'veux le magot, j'veux le butin cash So le Black, so le Shak han, on a fait taffer la putain pétasse Gros 9, pas d'gonflette paw, si c'est pour du cash, on flex cash Au mic', j'ai l'poids à Ronflex, yeuz plissés comme si j'suis fonc' à 11 Lex' Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve bullet Big drip tah Moncler, tout va mieux tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve Et on m'demande pourquoi tant d'violence, j'suis vraiment sur l'champ d'bataille J'réponds encore à leur insolence, y a que du chh, y a pas d'somnolence2</t>
+          <t>Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve grr, grr J'ai pris l'machin, j'l'éteins avec un doigt J'ga-j'garde tellement mon sang-froid, on dirait qu'j'l'ai fait cent fois sku, sku On essaie de l'laisser sans vie mais on l'a laissé sans voix pah, pah Tu vas vivre sans tes jambes, ton pote vivra pas sans foie Et on m'demande pourquoi tant d'violence, j'suis vraiment sur l'champ d'bataille J'réponds encore à leur insolence, y a que du chh, y a pas d'somnolence Toujours le truc sur moi, j'me méfie des gens sournois Sur l'terrain, y a pas d'tournoi, c'est les lions qui font leur loi leur loi, leur loi C'est Dieu qui pardonne, avant d'percer, moi, j'pense à partir Pour l'instant, j'suis dans la street et j'prie encore pour m'en sortir J'fais du sale, j'vais pas t'mentir, être un exemple pour la mif' donc j'dois vite me repentir bullet, bullet Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve bullet Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve Big drip tah Moncler splash, là pour faire du biff à long terme cash Ekip à vie, qu'on gagne, qu'on perde paw, faut qu'j'achète une A.P. à mon père han De Dakar jusqu'à Villeur' ekip, aquarium dans la Beamer dans la Beamer Audio crack dealer han, j'prie pour pas finir comme Mac Miller comme Mac Miller Philip', Felix, dans l'ciel en flammes comme le phénix ekip J'reste loin d'eux comme si j'venais de Phoenix eh Chen Zen, la F gang, New York cité comme des AFs ekip Ekip, A.S ekip, noir sur noir comme si j'débite la S la S Concu', c'est des lutins haha, j'veux le magot, j'veux le butin cash So le Black, so le Shak han, on a fait taffer la putain pétasse Gros 9, pas d'gonflette paw, si c'est pour du cash, on flex cash Au mic', j'ai l'poids à Ronflex, yeuz plissés comme si j'suis fonc' à 11 Lex' Big drip tah Moncler, tout va mieux, tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve bullet Big drip tah Moncler, tout va mieux tout est plus clair Plus qu'ça venger l'p'tit frère sur leur tombe, que du Dom Pér' À la santé d'tous mes compères, j'suis en promenade et j'essaie d'l'ouvrir comme une boîte de conserve Avec ma boîte de conserve Et on m'demande pourquoi tant d'violence, j'suis vraiment sur l'champ d'bataille J'réponds encore à leur insolence, y a que du chh, y a pas d'somnolence2</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Chen Zen, rap professeur Négro, j'ai plus de tech que 4 processeurs Fruit du démon, pouvoir possesseur J'serai l'seigneur comme Luffy Killu' à vie, fuck un 'llu bisexuel comme Puffy, gaddamn Fuck l'Éducation nationale So Kalash Criminel J'traine avec des patrons, des chimistes Des hackers et des criminels Ils nous ont tout volé, so Athènes Dribble ces négros sans aucun stress Négro, so Hatem J'débite les comprimés, Chen Xan J'suis comme HAARP, négro T'es comme une carabine à air comprimé J'veux les gros sous, négro pas d'change Guwap est sorti, le Rap change Comme un Jamaïcain j'cons' v'là d'chanvre Dieu et le taff, négro pas d'chance J'suis dans le Xan, négro j'arrive avec Hamid On y arrivera si Dieu le veut Inch'Allah, amen, amîn Gaddamn, so Dieu, fuck ces fufus démons Sur la prod j'ai le kung fu, j'démonte Retourne des cerveaux, so Snooky Gaddamn, t'es sur ta niche, so Snoopy Fanatique cons' comme crackhead, so Pookie, pétasse You might also like J'suis dans le Xan, gaddamn Cocktail dans le sang Chen Zen, en défense j'suis dans le centre, gaddamn1</t>
+          <t>Chen Zen, rap professeur Négro, j'ai plus de tech que 4 processeurs Fruit du démon, pouvoir possesseur J'serai l'seigneur comme Luffy Killu' à vie, fuck un 'llu bisexuel comme Puffy, gaddamn Fuck l'Éducation nationale So Kalash Criminel J'traine avec des patrons, des chimistes Des hackers et des criminels Ils nous ont tout volé, so Athènes Dribble ces négros sans aucun stress Négro, so Hatem J'débite les comprimés, Chen Xan J'suis comme HAARP, négro T'es comme une carabine à air comprimé J'veux les gros sous, négro pas d'change Guwap est sorti, le Rap change Comme un Jamaïcain j'cons' v'là d'chanvre Dieu et le taff, négro pas d'chance J'suis dans le Xan, négro j'arrive avec Hamid On y arrivera si Dieu le veut Inch'Allah, amen, amîn Gaddamn, so Dieu, fuck ces fufus démons Sur la prod j'ai le kung fu, j'démonte Retourne des cerveaux, so Snooky Gaddamn, t'es sur ta niche, so Snoopy Fanatique cons' comme crackhead, so Pookie, pétasse J'suis dans le Xan, gaddamn Cocktail dans le sang Chen Zen, en défense j'suis dans le centre, gaddamn1</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Kaki-Corleone, Corleone-Kaki 20-20, Menace Fantôme, pétasse, han OBS, paw Askip, tu veux prendre mon tos-ma, négro, viens l'faire Négro, viens voir, ouais, j'ai bien l'fer Sale con, on n'est trop pas des princesses OBS, deux 6 et un 7 sku, concurrence, j'les vois p'tits comme des insectes eh J'ai des rimes à prendre avec des pincettes, fuck les 9-1-1 et les 1-7 Je ne traîne plus dans les carrés VIP, il faisait le fou, j'l'ai rendu taré, vite 6.6.7, OBS, vl'à les G, ton addition sera salée, bitch Blindé contre les sorts et les maléfices, quoi qu'il arrive, on est parés, fils Négro, tu rappes comme dans les années 6, MC flingué, une mesure, j'en ai cané six Je suis sérieux comme les menaces que je fais, sur le terrain, c'est mes godasses que je mets Tu connais déjà mon équipe, j'qué-ni ta mère et on est quitte eh, eh So Rayane, on a les kits han, so au clan, so à l'équipe ekip Colis arrive par La Poste en pagaille, FLRG, Snakes et Fox en pagaille Mon négro, on a des opps en pagaille, dans le bigo, y a des tox' en pagaille Pas là pour me faire des potes, tu connais les codes, fufu toi tu croques dans la paille Avec Kaki, j'arrive OBS à fond, v'-esqui les cops à fond Instrus, négro, on les boxe à fond, rien qu'j'bombarde comme le Ox à fond Posé avec le sauvage, on t'a foutu deux balles dans l'cul, ouais, c'est dommage Vrai négro, on fait pas de gommage, dis-moi, négro, pourquoi tu fais ta connasse ? On est là pour l'pain et le fromage, chaque fois qu'j'prends l'micro, j'cause des dommages Cons' plus de gaz qu'au décollage, négro, j'allume des fusées et des collages Pédé, fais péter le pétou, on est là que pour l'argent, négro, c'est tout Si j'veux te ginks, Beretta fait tout, si j'veux te ginks, Beretta fait tout On est là que pour l'argent, négro, c'est tout, j'arrive dur dans la peinture comme Antetou' Négro, on dirait qu'j'suis plusieurs quand j'découpe, ça coffre les sommes dans des coffres, pas dans des trous You might also like Je ne traîne plus dans les carrés VIP 6.6.7, OBS, vl'à les G, ton addition sera salée, bitch Blindé contre les sorts et les maléfices Négro, tu rappes comme dans les années 6, MC flingué, une mesure, j'en ai cané six Je ne traîne plus dans les carrés VIP, il faisait le fou, j'l'ai rendu taré vite 6.6.7, OBS, vl'à les G, ton addition sera salée, bitch Blindé contre les sorts et les maléfices, quoiqu'il arrive, on est parés, fils Négro, tu rappes comme dans les années 6, MC flingué, une mesure, j'en ai cané six5</t>
+          <t>Kaki-Corleone, Corleone-Kaki 20-20, Menace Fantôme, pétasse, han OBS, paw Askip, tu veux prendre mon tos-ma, négro, viens l'faire Négro, viens voir, ouais, j'ai bien l'fer Sale con, on n'est trop pas des princesses OBS, deux 6 et un 7 sku, concurrence, j'les vois p'tits comme des insectes eh J'ai des rimes à prendre avec des pincettes, fuck les 9-1-1 et les 1-7 Je ne traîne plus dans les carrés VIP, il faisait le fou, j'l'ai rendu taré, vite 6.6.7, OBS, vl'à les G, ton addition sera salée, bitch Blindé contre les sorts et les maléfices, quoi qu'il arrive, on est parés, fils Négro, tu rappes comme dans les années 6, MC flingué, une mesure, j'en ai cané six Je suis sérieux comme les menaces que je fais, sur le terrain, c'est mes godasses que je mets Tu connais déjà mon équipe, j'qué-ni ta mère et on est quitte eh, eh So Rayane, on a les kits han, so au clan, so à l'équipe ekip Colis arrive par La Poste en pagaille, FLRG, Snakes et Fox en pagaille Mon négro, on a des opps en pagaille, dans le bigo, y a des tox' en pagaille Pas là pour me faire des potes, tu connais les codes, fufu toi tu croques dans la paille Avec Kaki, j'arrive OBS à fond, v'-esqui les cops à fond Instrus, négro, on les boxe à fond, rien qu'j'bombarde comme le Ox à fond Posé avec le sauvage, on t'a foutu deux balles dans l'cul, ouais, c'est dommage Vrai négro, on fait pas de gommage, dis-moi, négro, pourquoi tu fais ta connasse ? On est là pour l'pain et le fromage, chaque fois qu'j'prends l'micro, j'cause des dommages Cons' plus de gaz qu'au décollage, négro, j'allume des fusées et des collages Pédé, fais péter le pétou, on est là que pour l'argent, négro, c'est tout Si j'veux te ginks, Beretta fait tout, si j'veux te ginks, Beretta fait tout On est là que pour l'argent, négro, c'est tout, j'arrive dur dans la peinture comme Antetou' Négro, on dirait qu'j'suis plusieurs quand j'découpe, ça coffre les sommes dans des coffres, pas dans des trous Je ne traîne plus dans les carrés VIP 6.6.7, OBS, vl'à les G, ton addition sera salée, bitch Blindé contre les sorts et les maléfices Négro, tu rappes comme dans les années 6, MC flingué, une mesure, j'en ai cané six Je ne traîne plus dans les carrés VIP, il faisait le fou, j'l'ai rendu taré vite 6.6.7, OBS, vl'à les G, ton addition sera salée, bitch Blindé contre les sorts et les maléfices, quoiqu'il arrive, on est parés, fils Négro, tu rappes comme dans les années 6, MC flingué, une mesure, j'en ai cané six5</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>So le Flem so le Flem, so le Flem, so le Flem J'le fais en 2-2 2-2, tu vois bien qu'c'est trop facile trop facile, brr Ils sont venus à 6 heures chez moi, j'ai dû casser ma SIM casser ma SIM, brr Personne m'assiste sauf mon baveux aux assisses hey J'récupère deux-trois gamins hey, j'leur fais faire toutes les pharmacies hey, hey, hey Ils m'ont eu, sur des milliers d'euros, j'me suis assis j'm suis assis C'est la suprématie, l'État euthanasi brr Et j'arrêterai seulement quand j'aurais pris assez hey Et cette année, j'ai fini plus d'dix fois sans mes lacets hey, hey Faut arrêter d'rapper, tes sons sont dépassés 'passés J'roule que des bazookas de drytech super bien tassés brr Ashe 2-2, Flem, ekip, soda royal J'pars en voyage bitch, j'ai fait la somme pour sortir mes res-frè d'la noyade brr Passe sur l'côté passe sur l'côté, y a d'la codé' y a d'la codé' Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter boycotter Quoi qu'il arrive, personne pourra nous faire sauter J'vendais d'la pure quand toi, tu faisais d'la corde à sauter corde à sauter Passe sur l'côté passe sur l'côté, hey, y a d'la codé' hey, hey Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter ces fils de pute Quoi qu'il arrive, personne pourra nous faire sauter hey, hey J'vendais d'la pure quand toi, tu faisais d'la corde à sauter You might also like Han Le plan, ils veulent saboter pétasse, si c'est pour l'cash, on est grave OP cash Audio, drogue dure jusqu'à l'OD, comme des chevaux, ils vont galoper pah 20-20, négro, ça dérape sku, bientôt millionnaire avec des raps cash C'est des serpents qui traînent avec des rats, j'marche avec Dieu, ils marchent avec des raap Corleone, Ashe 22, j'arrive raciste comme quatre 22 ekip On découpe la prod' à deux, négro mais on dirait qu'on la prend à 22 paw, paw 6.6.9, c'est les Avengers han, ekip, ekip Sécurise le sac contre les scavengers, cons' plus de gas que des Challengers sku Triangle inversé sur le pull han, on avance quand tu recules pah Pour mieux sauter, j'prends du recul, deux mains à cause du recul pah So le clan, so la guilde han, kain-kain depuis l'époque des gros Baggy ekip Le dry est jaune, so Maggie so, so Place du P', so la Guill', ekip brr Passe sur l'côté passe sur l'côté, y a d'la codé' y a d'la codé' Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter boycotter Quoi qu'il arrive, personne pourra nous faire sauter J'vendais d'la pure quand toi, tu faisais d'la corde à sauter corde à sauter Passe sur l'côté passe sur l'côté, hey, y a d'la codé' hey, hey Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter ces fils de pute Quoi qu'il arrive, personne pourra nous faire sauter hey, hey J'vendais d'la pure quand toi, tu faisais d'la corde à sauter Ils disent que j'suis mal élevé, j'revends et j'rachète du LV J'v-'esqui la justice toute l'année, j'comparais pour tel fait Free le GSB, un kho sort, on pète la Belve' J'écris que des sales lignes quand la prod', elle est énervée Ouais, c'est la 'sique ou aller visser Hervé On déclare jamais forfait, Syma, Lyca, aucun forfait psch Pas, pas, pas d'confiance, tu sais qu'personne est parfait Ça fait ils rappent c'qu'ils ont pas fait, ça fait j'arrive pour les baffer Ça fait splash, bitch, retourne taffer, j'évite de sortir l'métal sinon j'sais que j'pourrais gaffer Ça fait splash, bitch, retourne taffer, j'évite de sortir l'métal sinon j'sais que j'pourrais gaffer Passe sur l'côté passe sur l'côté, y a d'la codé' y a d'la codé' Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter boycotter Quoi qu'il arrive, personne pourra nous faire sauter J'vendais d'la pure quand toi, tu faisais d'la corde à sauter corde à sauter Passe sur l'côté passe sur l'côté, hey, y a d'la codé' hey, hey Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter ces fils de pute Quoi qu'il arrive, personne pourra nous faire sauter hey, hey J'vendais d'la pure quand toi, tu faisais d'la corde à sauter2</t>
+          <t>So le Flem so le Flem, so le Flem, so le Flem J'le fais en 2-2 2-2, tu vois bien qu'c'est trop facile trop facile, brr Ils sont venus à 6 heures chez moi, j'ai dû casser ma SIM casser ma SIM, brr Personne m'assiste sauf mon baveux aux assisses hey J'récupère deux-trois gamins hey, j'leur fais faire toutes les pharmacies hey, hey, hey Ils m'ont eu, sur des milliers d'euros, j'me suis assis j'm suis assis C'est la suprématie, l'État euthanasi brr Et j'arrêterai seulement quand j'aurais pris assez hey Et cette année, j'ai fini plus d'dix fois sans mes lacets hey, hey Faut arrêter d'rapper, tes sons sont dépassés 'passés J'roule que des bazookas de drytech super bien tassés brr Ashe 2-2, Flem, ekip, soda royal J'pars en voyage bitch, j'ai fait la somme pour sortir mes res-frè d'la noyade brr Passe sur l'côté passe sur l'côté, y a d'la codé' y a d'la codé' Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter boycotter Quoi qu'il arrive, personne pourra nous faire sauter J'vendais d'la pure quand toi, tu faisais d'la corde à sauter corde à sauter Passe sur l'côté passe sur l'côté, hey, y a d'la codé' hey, hey Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter ces fils de pute Quoi qu'il arrive, personne pourra nous faire sauter hey, hey J'vendais d'la pure quand toi, tu faisais d'la corde à sauter Han Le plan, ils veulent saboter pétasse, si c'est pour l'cash, on est grave OP cash Audio, drogue dure jusqu'à l'OD, comme des chevaux, ils vont galoper pah 20-20, négro, ça dérape sku, bientôt millionnaire avec des raps cash C'est des serpents qui traînent avec des rats, j'marche avec Dieu, ils marchent avec des raap Corleone, Ashe 22, j'arrive raciste comme quatre 22 ekip On découpe la prod' à deux, négro mais on dirait qu'on la prend à 22 paw, paw 6.6.9, c'est les Avengers han, ekip, ekip Sécurise le sac contre les scavengers, cons' plus de gas que des Challengers sku Triangle inversé sur le pull han, on avance quand tu recules pah Pour mieux sauter, j'prends du recul, deux mains à cause du recul pah So le clan, so la guilde han, kain-kain depuis l'époque des gros Baggy ekip Le dry est jaune, so Maggie so, so Place du P', so la Guill', ekip brr Passe sur l'côté passe sur l'côté, y a d'la codé' y a d'la codé' Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter boycotter Quoi qu'il arrive, personne pourra nous faire sauter J'vendais d'la pure quand toi, tu faisais d'la corde à sauter corde à sauter Passe sur l'côté passe sur l'côté, hey, y a d'la codé' hey, hey Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter ces fils de pute Quoi qu'il arrive, personne pourra nous faire sauter hey, hey J'vendais d'la pure quand toi, tu faisais d'la corde à sauter Ils disent que j'suis mal élevé, j'revends et j'rachète du LV J'v-'esqui la justice toute l'année, j'comparais pour tel fait Free le GSB, un kho sort, on pète la Belve' J'écris que des sales lignes quand la prod', elle est énervée Ouais, c'est la 'sique ou aller visser Hervé On déclare jamais forfait, Syma, Lyca, aucun forfait psch Pas, pas, pas d'confiance, tu sais qu'personne est parfait Ça fait ils rappent c'qu'ils ont pas fait, ça fait j'arrive pour les baffer Ça fait splash, bitch, retourne taffer, j'évite de sortir l'métal sinon j'sais que j'pourrais gaffer Ça fait splash, bitch, retourne taffer, j'évite de sortir l'métal sinon j'sais que j'pourrais gaffer Passe sur l'côté passe sur l'côté, y a d'la codé' y a d'la codé' Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter boycotter Quoi qu'il arrive, personne pourra nous faire sauter J'vendais d'la pure quand toi, tu faisais d'la corde à sauter corde à sauter Passe sur l'côté passe sur l'côté, hey, y a d'la codé' hey, hey Ils suppriment tous nos clips, ces fils de pute veulent nous boycotter ces fils de pute Quoi qu'il arrive, personne pourra nous faire sauter hey, hey J'vendais d'la pure quand toi, tu faisais d'la corde à sauter2</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip, ekip Han So le Amine, grosse prod', je lamine Han La douille est dans l'vaccin, so D.G.K Ekip, ekip, ekip Ekip Han So le Amine, grosse prod', je lamine, j'la fais tomber à cause de l'anim' Sors des sous-sols comme un négro de la mine, cocktail, poison, venin qui sort de la mine La douille est dans l'vaccin, so D.G.K Ekip, gros aquarium, j'suis au B.G.K Négro, allume l'instru' au P.P.K, Chen Zen avec le plus gros TTK R.E.P Pop, R.À.F des tops Tops, découpe le mic' comme si c'était des TOC J'sais qu'c'est des faux, so Slim C et DOC, Osirus Jack a ls fichiers et les doc' Ekip On l'fait sans strss, rap terroriste, hip-hop ISIS Damn Que Dieu m'garde de finir comme Eazy, j'te conseille de pas commencer comme Bizzy, pétasse Bois pas d'sangria, fume la zangria, négro, graille des MC en grillade Le x3 sort du frigo et j'le rends friable, rien que j'monte comme si j'étais pro en trial Skurt Avec mes négros, coupe le gâteau, so à ceux qui sont v'nus avec le bateau Ekip 20-22 la L.D.O toujours dans le château et j'veux toujours pas la fin d'carrière de Pato, pétasse Mes négros font des fraudes, tes négros sont des fraudes Scam, scam, scam, scam Et si on n'touche pas les cibles, on les frôle Grr Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam Et si on n'touche pas les cibles, on les frôle Paw, paw Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam Et si on n'touche pas les cibles, on les frôle Paw, paw Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam, scam, scam Et si on n'touche pas les cibles, on les frôle Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash You might also like J'suis-J'suis dans la ferme comme Randy Han, fuck ces négros comme Gandhi Eh On a connu les colonies, so Claude MC Ekip, multiplie les éthers sur OpenSea Cash, cash Hasch' mutant, so mes capos, mes adjudants Ekip Insha'Allah, bientôt, j'cop quatre mutants Cash, cash, j'aime bien quand j'gagne des sous, négro, j'aime bien quand j'gagne du temps Pétasse Daydate Météorite Présidentielle Han, bientôt, j'me présente aux présidentielles Eh Maîtrise les nouvelles et les techniques anciennes, il faut des grosses villas en zone résidentielle Cash Mes négros font des scams, tes négros sont des scams Ekip, les fufus, négro, de loin, on les scanne Scanne J'ai v'là d'stratégies, j'ai v'là d'tactiques Han, gros fumigène, j'ai mis quatre statics Shh Depuis enfant, je voulais v'là d'lovés Cash, ekip à fond, que des passes lobées Ah Précis comme si j'ai un aimbot Han, han, j'infiltre la maison comme dans Rainbow Paw, paw So le big Ashe Le big Ashe, on arrive masqués comme les Touaregs Han Flow 4x4 comme les Touareg Eh, grosse liasse tu la mesures pas, même avec trois règles Ekip Mes négros font des fraudes, tes négros sont des fraudes Scam, scam, scam, scam Et si on n'touche pas les cibles, on les frôle Grr Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam Et si on n'touche pas les cibles, on les frôle Paw, paw Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam Et si on n'touche pas les cibles, on les frôle Paw, paw Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam, scam, scam Et si on n'touche pas les cibles, on les frôle Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash1</t>
+          <t>Ekip, ekip, ekip, ekip Han So le Amine, grosse prod', je lamine Han La douille est dans l'vaccin, so D.G.K Ekip, ekip, ekip Ekip Han So le Amine, grosse prod', je lamine, j'la fais tomber à cause de l'anim' Sors des sous-sols comme un négro de la mine, cocktail, poison, venin qui sort de la mine La douille est dans l'vaccin, so D.G.K Ekip, gros aquarium, j'suis au B.G.K Négro, allume l'instru' au P.P.K, Chen Zen avec le plus gros TTK R.E.P Pop, R.À.F des tops Tops, découpe le mic' comme si c'était des TOC J'sais qu'c'est des faux, so Slim C et DOC, Osirus Jack a ls fichiers et les doc' Ekip On l'fait sans strss, rap terroriste, hip-hop ISIS Damn Que Dieu m'garde de finir comme Eazy, j'te conseille de pas commencer comme Bizzy, pétasse Bois pas d'sangria, fume la zangria, négro, graille des MC en grillade Le x3 sort du frigo et j'le rends friable, rien que j'monte comme si j'étais pro en trial Skurt Avec mes négros, coupe le gâteau, so à ceux qui sont v'nus avec le bateau Ekip 20-22 la L.D.O toujours dans le château et j'veux toujours pas la fin d'carrière de Pato, pétasse Mes négros font des fraudes, tes négros sont des fraudes Scam, scam, scam, scam Et si on n'touche pas les cibles, on les frôle Grr Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam Et si on n'touche pas les cibles, on les frôle Paw, paw Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam Et si on n'touche pas les cibles, on les frôle Paw, paw Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam, scam, scam Et si on n'touche pas les cibles, on les frôle Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash J'suis-J'suis dans la ferme comme Randy Han, fuck ces négros comme Gandhi Eh On a connu les colonies, so Claude MC Ekip, multiplie les éthers sur OpenSea Cash, cash Hasch' mutant, so mes capos, mes adjudants Ekip Insha'Allah, bientôt, j'cop quatre mutants Cash, cash, j'aime bien quand j'gagne des sous, négro, j'aime bien quand j'gagne du temps Pétasse Daydate Météorite Présidentielle Han, bientôt, j'me présente aux présidentielles Eh Maîtrise les nouvelles et les techniques anciennes, il faut des grosses villas en zone résidentielle Cash Mes négros font des scams, tes négros sont des scams Ekip, les fufus, négro, de loin, on les scanne Scanne J'ai v'là d'stratégies, j'ai v'là d'tactiques Han, gros fumigène, j'ai mis quatre statics Shh Depuis enfant, je voulais v'là d'lovés Cash, ekip à fond, que des passes lobées Ah Précis comme si j'ai un aimbot Han, han, j'infiltre la maison comme dans Rainbow Paw, paw So le big Ashe Le big Ashe, on arrive masqués comme les Touaregs Han Flow 4x4 comme les Touareg Eh, grosse liasse tu la mesures pas, même avec trois règles Ekip Mes négros font des fraudes, tes négros sont des fraudes Scam, scam, scam, scam Et si on n'touche pas les cibles, on les frôle Grr Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam Et si on n'touche pas les cibles, on les frôle Paw, paw Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam Et si on n'touche pas les cibles, on les frôle Paw, paw Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash Mes négros font des fraudes, tes négros sont des fraudes Scam, scam, scam, scam Et si on n'touche pas les cibles, on les frôle Plus d'temps à perdre, j'évite les gens à perte Trop d'argent à faire, j'suis Randy Marsh dans la ferme Cash, cash, cash, cash1</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>So le Amine 2-2, Corleone 667, LZ J'lâche jamais la garde Hey et là, j'prépare un coup sec Brr À la douane, j'me fais discret comme dix kilos d're-p' dans une poussette Joue pas au mafieux avec nous, tu vas t'faire lamer par un p'tit qui a l'corps tout sec J'ai un Glock 17 Brr, j'ai jamais appelé l'17 Brr, brr Tu connais la devise un vrai DZ en vaut une dizaine Dizaine Et là, j'ai des produits à détailler, peser, pochetonner, ramener la mizen Mizen On a fait du le-sa dans nos vies pour v'-esqui la misère Splash Va falloir s'y faire, j'marche avec Dieu, pas avec Lucifer Pah Moi, j'veux la paix pour Gaza, j'suis né trois ans après l'intifada Tu peux nourrir dix familles juste pour l'prix d'une paire de Prada Paire de Prada Avec les khos, on a grandi trop vite, si t'es le mien, j'prends tes patins J'prends tes patins Maintenant, j'vends des CD à mort-mort, j'remplis les gradins Han, brr Fuck un haut-gradé Hey, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gues-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées You might also like Corleone, Ashe 2-2, j'ai cons' des plaques de te' et des packs de beuh Gros montant dans les cartes bleues Cash, 667, LZ, TOTY que des cartes bleues Nion Ces fils de pute veulent nous faire de très haut Eh, peur de personne à part du Très Haut Nan Vrai négro depuis l'époque du préau, dans la matrice, j'me sens comme si j'suis Neo So la secte négro, so les trois lettres Trois lettres, trois lettres, ekip, ekip, ekip, ekip Cryptomonnaie coffrée dans les wallets Négro, il m'faut l'cash de Pusha T Cash, pétasse il m'faut les sous d'Ice-T Cash Cagoule, Cartier Santos, j'arrive fonce-dé au lin comme Pooh Shiesty Compte en banque avec v'là d'zéros Han, première mi-temps, on leur met 4-0 Sku Killu' à vie, fuck les réseaux pédo, so Karl Zéro Chen Zen, général Han, j'me sens comme Vybz à Gaza Musique anti-Dajjal, so à Saza Fuck eux à vie comme si j'habite à Gaza Gaza Maintenant, j'vends des CD à mort-mort, j'remplis les gradins Han, brr Fuck un haut-gradé Hey, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gues-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées J'remplis les gradins Fuck un haut-gradé, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gueus-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées1</t>
+          <t>So le Amine 2-2, Corleone 667, LZ J'lâche jamais la garde Hey et là, j'prépare un coup sec Brr À la douane, j'me fais discret comme dix kilos d're-p' dans une poussette Joue pas au mafieux avec nous, tu vas t'faire lamer par un p'tit qui a l'corps tout sec J'ai un Glock 17 Brr, j'ai jamais appelé l'17 Brr, brr Tu connais la devise un vrai DZ en vaut une dizaine Dizaine Et là, j'ai des produits à détailler, peser, pochetonner, ramener la mizen Mizen On a fait du le-sa dans nos vies pour v'-esqui la misère Splash Va falloir s'y faire, j'marche avec Dieu, pas avec Lucifer Pah Moi, j'veux la paix pour Gaza, j'suis né trois ans après l'intifada Tu peux nourrir dix familles juste pour l'prix d'une paire de Prada Paire de Prada Avec les khos, on a grandi trop vite, si t'es le mien, j'prends tes patins J'prends tes patins Maintenant, j'vends des CD à mort-mort, j'remplis les gradins Han, brr Fuck un haut-gradé Hey, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gues-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées Corleone, Ashe 2-2, j'ai cons' des plaques de te' et des packs de beuh Gros montant dans les cartes bleues Cash, 667, LZ, TOTY que des cartes bleues Nion Ces fils de pute veulent nous faire de très haut Eh, peur de personne à part du Très Haut Nan Vrai négro depuis l'époque du préau, dans la matrice, j'me sens comme si j'suis Neo So la secte négro, so les trois lettres Trois lettres, trois lettres, ekip, ekip, ekip, ekip Cryptomonnaie coffrée dans les wallets Négro, il m'faut l'cash de Pusha T Cash, pétasse il m'faut les sous d'Ice-T Cash Cagoule, Cartier Santos, j'arrive fonce-dé au lin comme Pooh Shiesty Compte en banque avec v'là d'zéros Han, première mi-temps, on leur met 4-0 Sku Killu' à vie, fuck les réseaux pédo, so Karl Zéro Chen Zen, général Han, j'me sens comme Vybz à Gaza Musique anti-Dajjal, so à Saza Fuck eux à vie comme si j'habite à Gaza Gaza Maintenant, j'vends des CD à mort-mort, j'remplis les gradins Han, brr Fuck un haut-gradé Hey, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gues-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées J'remplis les gradins Fuck un haut-gradé, j'vise la tête, l'impact a touché son dégradé Lunettes Cartier, verres dégradés Furtif comme si j'suis en train d'm'évader, plus d'âme, ils sont obligés d'les brader Brader Pade', codé', j'pourrais visser des gueus-sh' les yeux bandés Doigt sur la lame du cran d'arrêt, pour éviter d'le planter J'ai le cardio de Kanté, le goal sort, le lob, obligé d'le tenter J'découpe, j'ai la lame de Dante, on dirait qu'les prods sortent de maisons hantées1</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>So le Flem Grr, paw, paw Crr, crr BG Boys Club sur l'sweatshirt 6.6.7, NRM, le t-shirt Le Z, le Mayz', hey Han Noir sur noir comme Assata Shakur, Glock nine silencieux, gros arc, ça court T'ouvres une enquête, la peine perpète, début d'l'enquête, j'ai mis tempête tempête NRM, MMS, 6.6.7, BG Boys Club, mamacita Ressers un cup, claquettes et double cup dans l'club, hey Eddie Brock, Peter Parker, sur la concu', on place des traqueurs traqueurs Désolé, y a pas d'contrecur, bande d fugazis détraqueurs Evolu so papillon papillon, noir sur noir comme un pharaon pharaon Charbon, charbon han, jusqu'à la voir s'ouvrir comme un papillon, hy Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais You might also like Han Full Burbe', lunettes Cartier, finir comme papy anglais Fuck la reine comme un rate-pi anglais Jaguar, Aston, faut les rapides anglaises skrt Corleone, French GOAT han, j'arrive raciste avec le trench-coat Big drip anglais comme Sherlock ekip, so Alpha, j'suis fermé comme airlock BBC, BGBC ekip, négro, à chaque couplet, c'est des décès Leané à fond dans les VTC, j'regarde le cours des ethers et des BTC cash Zuukou, Chen Zen, Spider-Man, Venom ekip, sip v'là d'poison, v'là d'sérum lin Négro au mic', kicke comme Mike Venom, ekip Sku, sku, sku paw, paw Sku, sku paw, paw, paw, paw Evolu so papillon papillon, noir sur noir comme pharaon pharaon Corleone, French GOAT, BBC, BGBC baw, négro, à chaque couplet, c'est des décès baw Leané à fond dans les VTC, j'regarde le cours des ethers et des BTC han, han, han Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Fuck la reine comme un rate-pi anglais Jaguar, Aston, faut les rapides anglaises Zuukou, Chen Zen, Spider-Man, Venom Sip v'là d'poison, v'là d'sérum Négro au mic', kicke comme Mike Venom, ekip3</t>
+          <t>So le Flem Grr, paw, paw Crr, crr BG Boys Club sur l'sweatshirt 6.6.7, NRM, le t-shirt Le Z, le Mayz', hey Han Noir sur noir comme Assata Shakur, Glock nine silencieux, gros arc, ça court T'ouvres une enquête, la peine perpète, début d'l'enquête, j'ai mis tempête tempête NRM, MMS, 6.6.7, BG Boys Club, mamacita Ressers un cup, claquettes et double cup dans l'club, hey Eddie Brock, Peter Parker, sur la concu', on place des traqueurs traqueurs Désolé, y a pas d'contrecur, bande d fugazis détraqueurs Evolu so papillon papillon, noir sur noir comme un pharaon pharaon Charbon, charbon han, jusqu'à la voir s'ouvrir comme un papillon, hy Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Han Full Burbe', lunettes Cartier, finir comme papy anglais Fuck la reine comme un rate-pi anglais Jaguar, Aston, faut les rapides anglaises skrt Corleone, French GOAT han, j'arrive raciste avec le trench-coat Big drip anglais comme Sherlock ekip, so Alpha, j'suis fermé comme airlock BBC, BGBC ekip, négro, à chaque couplet, c'est des décès Leané à fond dans les VTC, j'regarde le cours des ethers et des BTC cash Zuukou, Chen Zen, Spider-Man, Venom ekip, sip v'là d'poison, v'là d'sérum lin Négro au mic', kicke comme Mike Venom, ekip Sku, sku, sku paw, paw Sku, sku paw, paw, paw, paw Evolu so papillon papillon, noir sur noir comme pharaon pharaon Corleone, French GOAT, BBC, BGBC baw, négro, à chaque couplet, c'est des décès baw Leané à fond dans les VTC, j'regarde le cours des ethers et des BTC han, han, han Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Pépé, papy, pépé, papy anglais Full Burbe', lunettes Cartier, finir comme papy anglais Fuck la reine comme un rate-pi anglais Jaguar, Aston, faut les rapides anglaises Zuukou, Chen Zen, Spider-Man, Venom Sip v'là d'poison, v'là d'sérum Négro au mic', kicke comme Mike Venom, ekip3</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>So le Flem Eh Ekip, ekip, ekip, ekip K.K.K Han Ekip, ekip, ekip Ekip, ekip, han Chaque ligne, c'est la foudre Fire Il est bizarre, c'est la poudre, j'suis full stuff, t'as un dé à coudre T'as un dé à coudre, eh, eh J'pue la Cali quand j'vais à la banque À la banque, loud, loud Concu' c'est comme un thé à la menthe Thé Et j'roule un grand kéta, objectif principal prendre des tales Cash 'Cain-cain depuis Def Jam Vendetta Depuis, 667 mafia comme l'Ndrangheta Mafia Pardonnez-moi pour ms péchés Han, en fonction d'ce que j'vux, j'sais où j'vais pêcher Là-bas Salto sur ligne à haute tension Eh, eh, charbon jusqu'à l'obtention Jusqu'à l'obtention, sku, sku J'envoie quelques vers, tu saignes Quelques vers, tu saignes Mentalité allemande comme au Bayer Leverkusen Au Bayer Leverkusen, allemande Ça sent l'shit jusqu'à la réception Là-bas Corleone Freeze aka l'exception Aka l'exception, ah, eh J'suis dans les ordis comme Otacon OG comme JoJo Capone OG, so Noreaga, so Capone so Capone, han, QB J'arrive froid comme le Big Rwo Comme le Big Rwo, so Audio crack, plus de tox' que Skid Row J'roule la prod j'la fume solo pers', silence de mort, viseur holo therm' Fah, fah Le sas, j'le dépressurise Han, envoie les sacs qu'j'les sécurise Argent noir partie 3, j'approche d'la version du Parrain partie 3 Trois J'mets les trois comme Vuevi Trois, mes sous, j'aime bien les toucher vite Han, les toucher vite, eh Corleone, j'arrive comme clim J'arrive comme clim Règne sur le monde comme Clint So Corteiz New York comme Bumpy Johnson Dans les souterrains comme Bun B Ekip, eh J'suis comme formule 1, t'es comme karting Sku Fuck ceux qui adorent Satan comme Playboi Carti Sombre comme l'époque des Sefyu et RR Han, il m'faut les Bentley MM et les RR Sku J'suis à Barcelone, j'suis au Carme Anonymuz, lignes interdites dans mon carnet Beaucoup Le Diable s'habille en Prada, Hitler met du Hermès Westside J'repense à quand on était petits, quand on mettait du Airness On mettait du Airness, han J'envoie que des haymaker Que des haymaker Chen Laden, meneur playmaker Faut nettoyer l'argent sale, chaque prod, j'envoie quatre cents salves Loin comme si j'habite dans l'Arkansas Loin, j'me sens comme Gaara dans l'sable Gaara, Gaara, Gaara Toujours précis dans les tranches Précis dans les tranches Cartier gravé dans les branches Jamais montrer toutes ses cartes Jamais, jamais montrer toutes ses cartes, nan J'pense à Dieu et le doute s'écarte Direct, porte fermée, j'l'ouvre à coup d'C4 Han Faut qu'les plafonds s'élèvent, quand un pédo cane, on célèbre Ah Freeze D. CorleoneYou might also like</t>
+          <t>So le Flem Eh Ekip, ekip, ekip, ekip K.K.K Han Ekip, ekip, ekip Ekip, ekip, han Chaque ligne, c'est la foudre Fire Il est bizarre, c'est la poudre, j'suis full stuff, t'as un dé à coudre T'as un dé à coudre, eh, eh J'pue la Cali quand j'vais à la banque À la banque, loud, loud Concu' c'est comme un thé à la menthe Thé Et j'roule un grand kéta, objectif principal prendre des tales Cash 'Cain-cain depuis Def Jam Vendetta Depuis, 667 mafia comme l'Ndrangheta Mafia Pardonnez-moi pour ms péchés Han, en fonction d'ce que j'vux, j'sais où j'vais pêcher Là-bas Salto sur ligne à haute tension Eh, eh, charbon jusqu'à l'obtention Jusqu'à l'obtention, sku, sku J'envoie quelques vers, tu saignes Quelques vers, tu saignes Mentalité allemande comme au Bayer Leverkusen Au Bayer Leverkusen, allemande Ça sent l'shit jusqu'à la réception Là-bas Corleone Freeze aka l'exception Aka l'exception, ah, eh J'suis dans les ordis comme Otacon OG comme JoJo Capone OG, so Noreaga, so Capone so Capone, han, QB J'arrive froid comme le Big Rwo Comme le Big Rwo, so Audio crack, plus de tox' que Skid Row J'roule la prod j'la fume solo pers', silence de mort, viseur holo therm' Fah, fah Le sas, j'le dépressurise Han, envoie les sacs qu'j'les sécurise Argent noir partie 3, j'approche d'la version du Parrain partie 3 Trois J'mets les trois comme Vuevi Trois, mes sous, j'aime bien les toucher vite Han, les toucher vite, eh Corleone, j'arrive comme clim J'arrive comme clim Règne sur le monde comme Clint So Corteiz New York comme Bumpy Johnson Dans les souterrains comme Bun B Ekip, eh J'suis comme formule 1, t'es comme karting Sku Fuck ceux qui adorent Satan comme Playboi Carti Sombre comme l'époque des Sefyu et RR Han, il m'faut les Bentley MM et les RR Sku J'suis à Barcelone, j'suis au Carme Anonymuz, lignes interdites dans mon carnet Beaucoup Le Diable s'habille en Prada, Hitler met du Hermès Westside J'repense à quand on était petits, quand on mettait du Airness On mettait du Airness, han J'envoie que des haymaker Que des haymaker Chen Laden, meneur playmaker Faut nettoyer l'argent sale, chaque prod, j'envoie quatre cents salves Loin comme si j'habite dans l'Arkansas Loin, j'me sens comme Gaara dans l'sable Gaara, Gaara, Gaara Toujours précis dans les tranches Précis dans les tranches Cartier gravé dans les branches Jamais montrer toutes ses cartes Jamais, jamais montrer toutes ses cartes, nan J'pense à Dieu et le doute s'écarte Direct, porte fermée, j'l'ouvre à coup d'C4 Han Faut qu'les plafonds s'élèvent, quand un pédo cane, on célèbre Ah Freeze D. Corleone</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>souffle Haha, hehe 20-16, F.D.T En hiver j'écris mes 16 d'été Prof Chen, enseigne la SVT, pétasse, hey Han, ekip, ekip J'vois en slow-mo', so médocs haha So Shaolin, so Method so Dans l'complot, so CNN CNN So M.O.B.B, so CNN Négro, j'arrive haut et lourd comme 12 avions So Kaki, furtif comme piège sous pavillon J'veux la i8 avec les portes qui s'ouvrent papillon sku 667 aka Real Madrid et vous Albion haha FLRG, F les RGs Chaque jour F Tintin au Congo et F Hergé Négro, j'arrive africain comme Benteke Chen Zen, j'veux peser comme 16 Békés 20.16, FDT, so pitta, hiver j'écris 16 d'été Prof Chen enseigne SVT Tireur d'élite, appelle-moi Bob Lean Chen Zen au mic, maîtrise la boxe de l'homme lean You might also like Mon Sprite est rose et sent l'sirop J'peux avancer sans l'sirop, j'arrive italien comme San Siro So Lala, ça va pop comme ISIS gaddamn Melanoderme comme Isis, j'veux pas finir comme Eazy, eh Fuck ces rats, fuck ces pussy-négros Fuck le cancer, so Boosie, négro Nique un clone, so Gucci, négro Frotte la bavette, so Pucci, négro Découpe comme à Q.B., les fume comme tabac à tuber Chaque jour so les UVs, à Dakar j'veux l'gros SUV gaddamn J'pilote, sans stress parle aux tchoys leané Fuck Michael Scofield, so Boy Djinné So GG, so R.O.I so So Osirus Jack négro, j'finis R.O.I So Slim Chavez, so N.O.I so J'ai la vision négro, so M.O.I goddamn Fuck le gangsta rap, so Vince Staples J'ai la dalle négro, j'veux le biff d'Apple Argent noir chaque jour, F la BNP Négro, t'as rien d'spécial comme la TNT Ils vendent leur âme pour un petit VEVO J'arrive japonais comme une Mitsubishi Evo sku Skurr skurr, négro so 21 So Pirlo, dans l'milieu transige comme numéro 21 Mon Sprite est rose et sent l'sirop pétasse J'peux avancer sans l'sirop, j'arrive italien comme San Siro han So Lala, ça va pop comme ISIS Melanoderme comme Isis, j'veux pas finir comme Eazy, eh Fuck ces rats, fuck ces pussy-négros Fuck le cancer, so Boosie, négro Nique un clone, so Gucci, négro Frotte la bavette, so Pucci, négro Chen Zen, j'suis dans l'Xan, cocktail dans l'sang Négro, en défense tu sais qu'j'suis dans l'centre Ekip, 20.16, FDT Gaddamn, en hiver j'écris mes 16 d'été, pétasse3</t>
+          <t>souffle Haha, hehe 20-16, F.D.T En hiver j'écris mes 16 d'été Prof Chen, enseigne la SVT, pétasse, hey Han, ekip, ekip J'vois en slow-mo', so médocs haha So Shaolin, so Method so Dans l'complot, so CNN CNN So M.O.B.B, so CNN Négro, j'arrive haut et lourd comme 12 avions So Kaki, furtif comme piège sous pavillon J'veux la i8 avec les portes qui s'ouvrent papillon sku 667 aka Real Madrid et vous Albion haha FLRG, F les RGs Chaque jour F Tintin au Congo et F Hergé Négro, j'arrive africain comme Benteke Chen Zen, j'veux peser comme 16 Békés 20.16, FDT, so pitta, hiver j'écris 16 d'été Prof Chen enseigne SVT Tireur d'élite, appelle-moi Bob Lean Chen Zen au mic, maîtrise la boxe de l'homme lean Mon Sprite est rose et sent l'sirop J'peux avancer sans l'sirop, j'arrive italien comme San Siro So Lala, ça va pop comme ISIS gaddamn Melanoderme comme Isis, j'veux pas finir comme Eazy, eh Fuck ces rats, fuck ces pussy-négros Fuck le cancer, so Boosie, négro Nique un clone, so Gucci, négro Frotte la bavette, so Pucci, négro Découpe comme à Q.B., les fume comme tabac à tuber Chaque jour so les UVs, à Dakar j'veux l'gros SUV gaddamn J'pilote, sans stress parle aux tchoys leané Fuck Michael Scofield, so Boy Djinné So GG, so R.O.I so So Osirus Jack négro, j'finis R.O.I So Slim Chavez, so N.O.I so J'ai la vision négro, so M.O.I goddamn Fuck le gangsta rap, so Vince Staples J'ai la dalle négro, j'veux le biff d'Apple Argent noir chaque jour, F la BNP Négro, t'as rien d'spécial comme la TNT Ils vendent leur âme pour un petit VEVO J'arrive japonais comme une Mitsubishi Evo sku Skurr skurr, négro so 21 So Pirlo, dans l'milieu transige comme numéro 21 Mon Sprite est rose et sent l'sirop pétasse J'peux avancer sans l'sirop, j'arrive italien comme San Siro han So Lala, ça va pop comme ISIS Melanoderme comme Isis, j'veux pas finir comme Eazy, eh Fuck ces rats, fuck ces pussy-négros Fuck le cancer, so Boosie, négro Nique un clone, so Gucci, négro Frotte la bavette, so Pucci, négro Chen Zen, j'suis dans l'Xan, cocktail dans l'sang Négro, en défense tu sais qu'j'suis dans l'centre Ekip, 20.16, FDT Gaddamn, en hiver j'écris mes 16 d'été, pétasse3</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hun ? Pétasse, pétasse, pétasse Ahah, ekip, goddamn MMS, 667, ahah Ekip, ekip, Chen Zen, hun, yo Ekip, ahah 20.16 c'est la FDT pétasse On va leurs apprendre la vie comme en SVT Ekip Chen Zen, en hiver j'écris mes 16 d'été Goddamn Ekip, pétasse Ekip, ekip, ekip, ekip, goddamn So Simmie, négro j'pull up dans le vaisseau J'veux l'argent de Esso Toujours des barres, négro même sans le réseau Tu cons', tu perds la raison FUT16, div' 2, en train d'faire la saison Bonhomme de neige depuis le collège Pas loin du piège, trouve-moi vers la maison Gaddamn, j'écoute leurs merdes et c'est S-S On arrive dans des allemandes comme des SS So Tamsir, j'suis dans le Benz So Les Presles, j'suis dans le binks You might also like Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Tous les jours, négro J'veux les liasses dans la mallette, gaddamn Dribble ces négros sans aucun stress Comme si j'suis dans la manette J'vois au ralenti, négro J'suis dans le lean, j'suis dans le sirop Leanhead, so Dubble négro Mets du sirop dans le sirop, gaddamn J'suis dans la tour, so Eiffel J'suis dans la cour, so FL Aucun stress, so Xan, so caca T'as pop mais t'as disparu, so Kaká Négro t'es dépassé comme Akademiks Ces rappeurs sont des menteurs, négro so Akademiks 667, LDO négro, so squadra Chen Zen devant les cages, carré-X Feinte de peuf, négro so Cuadra' Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Ekip, ekip, ekip, ahah MMS, LDO, NRM, 667, pétasse FDT, Chen Zen, j'suis dans le Xan Haha, cocktail dans le sang Sans stress, en défense j'suis dans le centre Haha, djo dans le sample Dans la surface, djo dans le centre, ekip2</t>
+          <t>Hun ? Pétasse, pétasse, pétasse Ahah, ekip, goddamn MMS, 667, ahah Ekip, ekip, Chen Zen, hun, yo Ekip, ahah 20.16 c'est la FDT pétasse On va leurs apprendre la vie comme en SVT Ekip Chen Zen, en hiver j'écris mes 16 d'été Goddamn Ekip, pétasse Ekip, ekip, ekip, ekip, goddamn So Simmie, négro j'pull up dans le vaisseau J'veux l'argent de Esso Toujours des barres, négro même sans le réseau Tu cons', tu perds la raison FUT16, div' 2, en train d'faire la saison Bonhomme de neige depuis le collège Pas loin du piège, trouve-moi vers la maison Gaddamn, j'écoute leurs merdes et c'est S-S On arrive dans des allemandes comme des SS So Tamsir, j'suis dans le Benz So Les Presles, j'suis dans le binks Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Tous les jours, négro J'veux les liasses dans la mallette, gaddamn Dribble ces négros sans aucun stress Comme si j'suis dans la manette J'vois au ralenti, négro J'suis dans le lean, j'suis dans le sirop Leanhead, so Dubble négro Mets du sirop dans le sirop, gaddamn J'suis dans la tour, so Eiffel J'suis dans la cour, so FL Aucun stress, so Xan, so caca T'as pop mais t'as disparu, so Kaká Négro t'es dépassé comme Akademiks Ces rappeurs sont des menteurs, négro so Akademiks 667, LDO négro, so squadra Chen Zen devant les cages, carré-X Feinte de peuf, négro so Cuadra' Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion Ekip, ekip, ekip, ahah MMS, LDO, NRM, 667, pétasse FDT, Chen Zen, j'suis dans le Xan Haha, cocktail dans le sang Sans stress, en défense j'suis dans le centre Haha, djo dans le sample Dans la surface, djo dans le centre, ekip2</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Daj se muzici Vladimira Komara Sku J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Corleone, Gueko, négro, j'ai la vision comme Deco Là pour les minions comme Ekko cash, Tesla noire mode éco' yah Grosse frappe comme Eto'o, j'suis Ter Stegen, t'es comme Neto Tu sens la loud dans le plastique, Cali' weed, pas de CBD Deux cartes en métal, une en plastique, Chen Zen, CEO, pas de CDD Queens à fond comme IM3, cons' plus d'essence que 10 M3 Co-codéine, sirop, j'crois qu'j'ai cons' au moins 110m sku, sku Concurrence, vous rappez comme des enfants eh, eh Peine de mort pour les prêtres catholiques qui prient Satan et qui violent des enfants sku Noir sur noir comme les MIB, fuck un vaccin, fuck une puce RFID ekip 2030, négro, dans mon compte, il m'faut plus de chiffres qu'une adresse IP Seth Gueks, Chen Zen han, sur la prod', c'est les professeurs ekip Dans les iPhone comme les processeurs, c'est pour les connaisseurs, pas pour les gros lécheurs ekip You might also like J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Si l'rap paie plus, mehlich, j'irais au braco ya foye Parle de pédophilie dans l'Église et tous les catho' s'affolent J'suis dans la sine-cui et j'suis pas v'nu laver les casseroles Les haters veulent nous faire du s7ol façon Drago Malefoy sku Tu, tu vas prendre cher comme Luna Corazon, oui Tatoué de tout-par, j'me sens comme 2Pac, all eyez on me Te mange pas d'disquette, crois pas qu'tout part d'la fashion week Le style vient de la street, arrêtons d'leur faire d'la pub gratuite J'viens d'voir ton clip armes factices et putes à Botox Être mannequin sur Insta', c'est comme être militaire sur Call Of Sokolov parle à mère, Vador m'a dit J'suis ton père J'ai regardé dans mon caleçon, mes bolox m'ont dit Je suis ta paire J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Pétasse, pétasse Corleone, Gueko, pétasse Daj se muzici Vladimira Komara5</t>
+          <t>Daj se muzici Vladimira Komara Sku J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Corleone, Gueko, négro, j'ai la vision comme Deco Là pour les minions comme Ekko cash, Tesla noire mode éco' yah Grosse frappe comme Eto'o, j'suis Ter Stegen, t'es comme Neto Tu sens la loud dans le plastique, Cali' weed, pas de CBD Deux cartes en métal, une en plastique, Chen Zen, CEO, pas de CDD Queens à fond comme IM3, cons' plus d'essence que 10 M3 Co-codéine, sirop, j'crois qu'j'ai cons' au moins 110m sku, sku Concurrence, vous rappez comme des enfants eh, eh Peine de mort pour les prêtres catholiques qui prient Satan et qui violent des enfants sku Noir sur noir comme les MIB, fuck un vaccin, fuck une puce RFID ekip 2030, négro, dans mon compte, il m'faut plus de chiffres qu'une adresse IP Seth Gueks, Chen Zen han, sur la prod', c'est les professeurs ekip Dans les iPhone comme les processeurs, c'est pour les connaisseurs, pas pour les gros lécheurs ekip J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Si l'rap paie plus, mehlich, j'irais au braco ya foye Parle de pédophilie dans l'Église et tous les catho' s'affolent J'suis dans la sine-cui et j'suis pas v'nu laver les casseroles Les haters veulent nous faire du s7ol façon Drago Malefoy sku Tu, tu vas prendre cher comme Luna Corazon, oui Tatoué de tout-par, j'me sens comme 2Pac, all eyez on me Te mange pas d'disquette, crois pas qu'tout part d'la fashion week Le style vient de la street, arrêtons d'leur faire d'la pub gratuite J'viens d'voir ton clip armes factices et putes à Botox Être mannequin sur Insta', c'est comme être militaire sur Call Of Sokolov parle à mère, Vador m'a dit J'suis ton père J'ai regardé dans mon caleçon, mes bolox m'ont dit Je suis ta paire J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Pétasse, pétasse Corleone, Gueko, pétasse Daj se muzici Vladimira Komara5</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>bruit de briquet souffle, souffle Pétasse, ekip, ekip souffle, souffle 20.16, t'as peur Goddamn, j'fume plus que 27 sapeurs Gaz Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur, ekip Goddamn J'mets sirop dans l'Arizona Arizona Très loin du Rap français comme si j'habite dans l'Arizona, gaddamn Pétasse, pétasse J'arrive avec le klan, killu' comme jaja Dans le lex', sous pilules comme jaja Négro, j'viole la prod puis j'l'égorge, so Guy Georges Goddamn, goddamn Guillemets, guillemets, guillemets, guillemets, so dee-Jor, huh W'Allah qu'j'ai plus votre temps Plus votre temps Elle m'demande comment ça s'fait que j'fume autant J'sais pas, j'pop des pills Goddamn Leur durée d'vie est très limitée comme des piles Goddamn Négro j'veux v'là d'liasses, il m'faut comme des piles Khaliss 20.16, t'as peur Pétasse, j'fume plus que 27 sapeurs Goddamn, goddamn Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur Ahah 20.16, t'as peur 20.16, t'as peur, 20.16, t'as peur Pétasse, pétasse 20.16, t'as peur Goddamn, j'fume plus que 27 sapeurs, ekip 20.16, t'as peur 20.16, t'as peur, j'fume plus que 27 sapeurs Goddamn Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur Ekip, ekip 20.16, t'as peur Ekip, ekip, 20.16, t'as peur Ekip, ekip 20.16, t'as peur, j'fume plus que 27 sapeurs, pétasse You might also like Négro, j'arrive yeuz rouges comme androïde, ekip, ekip Chen Zen bientôt vert comme le bonhomme Android Han, goddamn Gaddamn, ton flow vaut l'prix d'la passe, négro Pétasse Chen Zen, j'dribble le goal, j'fais la passe, négro 667 qualité comme La Paz, négro Goddamn So les frères Watt, c'est la base, négro So Dans la maison-piège, c'est la base, négro Yeah J'reste un vrai négro, j'l'étais à la base, négro, Gaddamn, depuis Dans la forêt j'mets mes pièges à loups Hah, ekip Para-francs actif, négro j'ai mes pièges à 'llus MMS, LDE Chen Zen aka Harry Attrapeur pro, pétasse Très très loin, j'mélange antidépresseurs et Marie Xan J'ai l'impression d'être Charlie Charlie Mais comment j'vois, négro c'est trop trouble Killu' à vie, négro so Double Double Blunt au LSD, négro so Trouble 20.16, t'as peur Pétasse, j'fume plus que 27 sapeurs Goddamn, goddamn Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur Ahah 20.16, t'as peur 20.16, t'as peur, 20.16, t'as peur Pétasse, pétasse 20.16, t'as peur Goddamn, j'fume plus que 27 sapeurs, ekip 20.16, t'as peur 20.16, t'as peur, j'fume plus que 27 sapeurs Goddamn Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur Ekip, ekip 20.16, t'as peur Ekip, ekip, 20.16, t'as peur Ekip, ekip 20.16, t'as peur Pétasse, j'fume plus que 27 sapeurs Pétasse Gaddamn, 667 c'est la secte pétasse J'ai les yeuz rouges, c'est la sep, pétasse Nazi dans la Audi A7, pétasse Ekip, ekip, ekip, ekip 20.16, t'as peur, gaddamn J'fume plus que 27 sapeurs, pétasse Ekip, ekip, ekip6</t>
+          <t>bruit de briquet souffle, souffle Pétasse, ekip, ekip souffle, souffle 20.16, t'as peur Goddamn, j'fume plus que 27 sapeurs Gaz Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur, ekip Goddamn J'mets sirop dans l'Arizona Arizona Très loin du Rap français comme si j'habite dans l'Arizona, gaddamn Pétasse, pétasse J'arrive avec le klan, killu' comme jaja Dans le lex', sous pilules comme jaja Négro, j'viole la prod puis j'l'égorge, so Guy Georges Goddamn, goddamn Guillemets, guillemets, guillemets, guillemets, so dee-Jor, huh W'Allah qu'j'ai plus votre temps Plus votre temps Elle m'demande comment ça s'fait que j'fume autant J'sais pas, j'pop des pills Goddamn Leur durée d'vie est très limitée comme des piles Goddamn Négro j'veux v'là d'liasses, il m'faut comme des piles Khaliss 20.16, t'as peur Pétasse, j'fume plus que 27 sapeurs Goddamn, goddamn Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur Ahah 20.16, t'as peur 20.16, t'as peur, 20.16, t'as peur Pétasse, pétasse 20.16, t'as peur Goddamn, j'fume plus que 27 sapeurs, ekip 20.16, t'as peur 20.16, t'as peur, j'fume plus que 27 sapeurs Goddamn Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur Ekip, ekip 20.16, t'as peur Ekip, ekip, 20.16, t'as peur Ekip, ekip 20.16, t'as peur, j'fume plus que 27 sapeurs, pétasse Négro, j'arrive yeuz rouges comme androïde, ekip, ekip Chen Zen bientôt vert comme le bonhomme Android Han, goddamn Gaddamn, ton flow vaut l'prix d'la passe, négro Pétasse Chen Zen, j'dribble le goal, j'fais la passe, négro 667 qualité comme La Paz, négro Goddamn So les frères Watt, c'est la base, négro So Dans la maison-piège, c'est la base, négro Yeah J'reste un vrai négro, j'l'étais à la base, négro, Gaddamn, depuis Dans la forêt j'mets mes pièges à loups Hah, ekip Para-francs actif, négro j'ai mes pièges à 'llus MMS, LDE Chen Zen aka Harry Attrapeur pro, pétasse Très très loin, j'mélange antidépresseurs et Marie Xan J'ai l'impression d'être Charlie Charlie Mais comment j'vois, négro c'est trop trouble Killu' à vie, négro so Double Double Blunt au LSD, négro so Trouble 20.16, t'as peur Pétasse, j'fume plus que 27 sapeurs Goddamn, goddamn Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur Ahah 20.16, t'as peur 20.16, t'as peur, 20.16, t'as peur Pétasse, pétasse 20.16, t'as peur Goddamn, j'fume plus que 27 sapeurs, ekip 20.16, t'as peur 20.16, t'as peur, j'fume plus que 27 sapeurs Goddamn Chen Zen, j'découpe comme 20 sabres laser, toi comme un sécateur Ekip, ekip 20.16, t'as peur Ekip, ekip, 20.16, t'as peur Ekip, ekip 20.16, t'as peur Pétasse, j'fume plus que 27 sapeurs Pétasse Gaddamn, 667 c'est la secte pétasse J'ai les yeuz rouges, c'est la sep, pétasse Nazi dans la Audi A7, pétasse Ekip, ekip, ekip, ekip 20.16, t'as peur, gaddamn J'fume plus que 27 sapeurs, pétasse Ekip, ekip, ekip6</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Han Ekip, ekip, ekip Eh, 6.6.7 Han 6.6.7, V2V, ah non, c'est terrible, so G2B han Ekip à fond, avec mes négros, on s'suit comme le T, le U et le V Pétasse, braquage de prod avec la DA en personne han 2013, un message, j't'amenais ta D en personne Avec la Secte et le clavons han, so Black, tu pointes, tu ramasses le savon savon 247 pour le cash, allô, DA Uzi ? C'est comment pour le plavon ? Allô ? Dakar-Mexico, 9.3.5.2.7.0 ekip On les fouette sans strss, négro, aller-retour, on leur mt deux 7-0 14 Ekip ekip, ekip, Chen Zen, DA Attentat comme l'ETA, j'sais c'que j'fais, j'ai pas b'soin de D.A Pétasse, j'découpe depuis mineur, so Kpri, fils han Freeze, DA, c'est noir comme un buf aux yeux rouges qu'on demande pour les sacrifices 27 commandes, 27 camés, 27 calibres 27, 27 J'termine comment ? J'dormais au shtar, j'étais pas libre j'étais pas libre, pétasse 47 Ronin ekip, numéro 10 comme Ronnie ekip J'suis un méchant, j'ai pas l'air, j'sors une pesette, elle marche même pas, 27 commandes 27 commandes, 27 camés, 27 calibres 27 calibres J'termine comment ? J'dormais au shtar, j'étais pas libre pétasse 47 Ronin ekip, numéro 10 comme Ronnie ekip J'suis un méchant, j'ai pas l'air, j'sors une pesette, elle marche même pas, 27 commandes You might also like Des fois, j'tue l'temps, des trucs de fou, j'en vois tout l'temps du haut d'mes tours J'ai perdu tout, j'ai vu l'gunfight, j'ai vu peu d'forts, mon frère Les tes-traî, j'sais même pas ça s'ra lesquels Cur est scellé, caressez-le, j'connais Souri, j'connais Sele' Les bras tendus sont coupés à la che-ha, loin des ches-ri Dans l'ghetto, même les Zoro, ils s'font raser, qu'est-ce que t'en dis ? Vrai, vrai C'est l'hazi, sur mon arme, y a les empreintes de ma chérie ah Le boule à Lala, quand j'la baise, ses ch'veux, je rer-ti vrai Violents, on est depuis, keufs me coursent comme Tom et Jerry Casier noir comme mes grosses carries, pourtant, tout est carré Je reste dans mon coin, j'bouge pas trop, j'fais pas d'grand écart vrai On avance, tu t'écartes vrai, Freeze, D.A, c'est trop noir, 27 commandes 27 commandes, 27 camés, 27 calibres 27, 27 J'termine comment ? J'dormais au shtar, j'étais pas libre j'étais pas libre 47 Ronin ekip, numéro 10 comme Ronnie ekip J'suis un méchant, j'ai pas l'air, j'sors une pesette, elle marche même pas, 27 commandes 27 commandes, 27 camés, 27 calibres 27 calibres J'termine comment ? J'dormais au shtar, j'étais pas libre pétasse 47 Ronin ekip, numéro 10 comme Ronnie ekip J'suis un méchant, j'ai pas l'air, j'sors une pesette, elle marche même pas, 27 commandes vrai de vrai 27 commandes, 27 camés, 27 calibres 27, 27 J'finis comment ? J'étais pas libre 27, 27 47 Ronin hein, numéro 10 comme Ronnie 47 J'ai pas l'air hein, elle marche même pas, 27 commandes ah 27 commandes, 27 camés, 27 calibres 27, 27 J'termine comment ? J'dormais au shtar, j'étais pas libre 27, 27 47 Ronin, numéro 10 comme Ronnie J'suis un méchant, j'ai pas l'air vrai de vrai</t>
+          <t>Han Ekip, ekip, ekip Eh, 6.6.7 Han 6.6.7, V2V, ah non, c'est terrible, so G2B han Ekip à fond, avec mes négros, on s'suit comme le T, le U et le V Pétasse, braquage de prod avec la DA en personne han 2013, un message, j't'amenais ta D en personne Avec la Secte et le clavons han, so Black, tu pointes, tu ramasses le savon savon 247 pour le cash, allô, DA Uzi ? C'est comment pour le plavon ? Allô ? Dakar-Mexico, 9.3.5.2.7.0 ekip On les fouette sans strss, négro, aller-retour, on leur mt deux 7-0 14 Ekip ekip, ekip, Chen Zen, DA Attentat comme l'ETA, j'sais c'que j'fais, j'ai pas b'soin de D.A Pétasse, j'découpe depuis mineur, so Kpri, fils han Freeze, DA, c'est noir comme un buf aux yeux rouges qu'on demande pour les sacrifices 27 commandes, 27 camés, 27 calibres 27, 27 J'termine comment ? J'dormais au shtar, j'étais pas libre j'étais pas libre, pétasse 47 Ronin ekip, numéro 10 comme Ronnie ekip J'suis un méchant, j'ai pas l'air, j'sors une pesette, elle marche même pas, 27 commandes 27 commandes, 27 camés, 27 calibres 27 calibres J'termine comment ? J'dormais au shtar, j'étais pas libre pétasse 47 Ronin ekip, numéro 10 comme Ronnie ekip J'suis un méchant, j'ai pas l'air, j'sors une pesette, elle marche même pas, 27 commandes Des fois, j'tue l'temps, des trucs de fou, j'en vois tout l'temps du haut d'mes tours J'ai perdu tout, j'ai vu l'gunfight, j'ai vu peu d'forts, mon frère Les tes-traî, j'sais même pas ça s'ra lesquels Cur est scellé, caressez-le, j'connais Souri, j'connais Sele' Les bras tendus sont coupés à la che-ha, loin des ches-ri Dans l'ghetto, même les Zoro, ils s'font raser, qu'est-ce que t'en dis ? Vrai, vrai C'est l'hazi, sur mon arme, y a les empreintes de ma chérie ah Le boule à Lala, quand j'la baise, ses ch'veux, je rer-ti vrai Violents, on est depuis, keufs me coursent comme Tom et Jerry Casier noir comme mes grosses carries, pourtant, tout est carré Je reste dans mon coin, j'bouge pas trop, j'fais pas d'grand écart vrai On avance, tu t'écartes vrai, Freeze, D.A, c'est trop noir, 27 commandes 27 commandes, 27 camés, 27 calibres 27, 27 J'termine comment ? J'dormais au shtar, j'étais pas libre j'étais pas libre 47 Ronin ekip, numéro 10 comme Ronnie ekip J'suis un méchant, j'ai pas l'air, j'sors une pesette, elle marche même pas, 27 commandes 27 commandes, 27 camés, 27 calibres 27 calibres J'termine comment ? J'dormais au shtar, j'étais pas libre pétasse 47 Ronin ekip, numéro 10 comme Ronnie ekip J'suis un méchant, j'ai pas l'air, j'sors une pesette, elle marche même pas, 27 commandes vrai de vrai 27 commandes, 27 camés, 27 calibres 27, 27 J'finis comment ? J'étais pas libre 27, 27 47 Ronin hein, numéro 10 comme Ronnie 47 J'ai pas l'air hein, elle marche même pas, 27 commandes ah 27 commandes, 27 camés, 27 calibres 27, 27 J'termine comment ? J'dormais au shtar, j'étais pas libre 27, 27 47 Ronin, numéro 10 comme Ronnie J'suis un méchant, j'ai pas l'air vrai de vrai</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Yeah yeah Ouh ouh Ouh ouh Yeah yeah, yeah Yeah, eh OV, 667, ekip Han Norsa', Chen, ekip MMS, ekip Damn, mon négro, tu lackes, tu crois quon blague ? Ta bitch, négro, fait mes backs sku Sont pris la main dans le sac, ils copient, calquent, trop de flow, sont dans les flaques Bitch, j'suis là pour le cash cash, jai pas perdu d'temps dans les facs nan Pars avec les fafs dans les sacs, tu fais du surf, j'suis l'requin dans les vagues sku Fout la viande et les condiments, sur la prod, négro, je concours pour prendre deux continents sku Tu sais qu'jmanie les instruments, tu parles beaucoup, tes imprudent Les fufus, gros, t'es inclus d'dans Gros virement, somme à cinq zéros, au score, y a 5-0, jarrive Houston comme cinq Z-ro J'suis en France, j'roule la frappe du Maroc avec les clopes du bled ouh Chen Zen, jai les codes du bled, là pour le cash comme les cops du bled han On peut t'soulever comme la coupe, j'peux tendommager comme la foudre sku J'les prends le soir, gros, comme la soupe ta-ta-ta, ekip Def tate, j'maîtrise mes déplacements, gros, comme avec lanalogue Jépluche leur catalogue, jsuis qu'en première forme, bitch, comme Kakarot Kakarot Pétasse, bombe incendiaire pour mettre feu à la loge sku Chen Zen Norsacce, dans la défense comme Kalidou et Kara Mbodj, han Han, hey, tu connais l'procédé ouh, 'sacce, je découpe comme la plus grosse épée Seulement pour la famille comme un Giuseppe, ouh J'mets que des hat-trick, furtifs dans la street, bitch, on n'est pas trikars On les graille au micro, jmets du paprika, la boisson comme la bitch, elle est tropicale, ouh Précis comme si j'joue chez les Mavericks eh, faut qu'jpèse comme si j'joue chez les Cowboys piou Blanchit l'liquide dans les laveries, Alabama flow boy, REP Doe Boy sku Black Jack, Kaki Santana, dans l'piège, y a grave des lamelles lamelles Trouve-nous à Dakar, ça bouge pas comme le phare des Mamelles sku Sur le sable comme dans les tik-tik, Norsa', Chen, sur l'terrain, cest léquipe-type sku Pauvres insoumis, noirs élitistes, beaucoup de ces rappeurs dans le mystique Jsuis avec ta bitch et elle fait des strip-teases, cadavres de prod, négro, jai des victimes han 667 a.k.a dream team, consomment comme des hippies dans les sixties Jécoute pas ta merde, jai plus d'quatre raisons, jsuis incontournable comme les quatre saisons sku Au-d'ssus deux, j'survole des tas d'maisons, jfais crier sa bitch, et plus d'quatre caissons J'marrête pas tant qu'jai pas quatre maisons, v'là de barres même si jai pas d'réseau eh Pendaison pour tous les pédo-satanistes du PizzaGate et de chaque réseau ouh Ekip You might also like Jécoute pas ta merde, jai plus d'quatre raisons, jsuis incontournable comme les quatre saisons Jfais crier sa bitch, et plus quatre caissons3</t>
+          <t>Yeah yeah Ouh ouh Ouh ouh Yeah yeah, yeah Yeah, eh OV, 667, ekip Han Norsa', Chen, ekip MMS, ekip Damn, mon négro, tu lackes, tu crois quon blague ? Ta bitch, négro, fait mes backs sku Sont pris la main dans le sac, ils copient, calquent, trop de flow, sont dans les flaques Bitch, j'suis là pour le cash cash, jai pas perdu d'temps dans les facs nan Pars avec les fafs dans les sacs, tu fais du surf, j'suis l'requin dans les vagues sku Fout la viande et les condiments, sur la prod, négro, je concours pour prendre deux continents sku Tu sais qu'jmanie les instruments, tu parles beaucoup, tes imprudent Les fufus, gros, t'es inclus d'dans Gros virement, somme à cinq zéros, au score, y a 5-0, jarrive Houston comme cinq Z-ro J'suis en France, j'roule la frappe du Maroc avec les clopes du bled ouh Chen Zen, jai les codes du bled, là pour le cash comme les cops du bled han On peut t'soulever comme la coupe, j'peux tendommager comme la foudre sku J'les prends le soir, gros, comme la soupe ta-ta-ta, ekip Def tate, j'maîtrise mes déplacements, gros, comme avec lanalogue Jépluche leur catalogue, jsuis qu'en première forme, bitch, comme Kakarot Kakarot Pétasse, bombe incendiaire pour mettre feu à la loge sku Chen Zen Norsacce, dans la défense comme Kalidou et Kara Mbodj, han Han, hey, tu connais l'procédé ouh, 'sacce, je découpe comme la plus grosse épée Seulement pour la famille comme un Giuseppe, ouh J'mets que des hat-trick, furtifs dans la street, bitch, on n'est pas trikars On les graille au micro, jmets du paprika, la boisson comme la bitch, elle est tropicale, ouh Précis comme si j'joue chez les Mavericks eh, faut qu'jpèse comme si j'joue chez les Cowboys piou Blanchit l'liquide dans les laveries, Alabama flow boy, REP Doe Boy sku Black Jack, Kaki Santana, dans l'piège, y a grave des lamelles lamelles Trouve-nous à Dakar, ça bouge pas comme le phare des Mamelles sku Sur le sable comme dans les tik-tik, Norsa', Chen, sur l'terrain, cest léquipe-type sku Pauvres insoumis, noirs élitistes, beaucoup de ces rappeurs dans le mystique Jsuis avec ta bitch et elle fait des strip-teases, cadavres de prod, négro, jai des victimes han 667 a.k.a dream team, consomment comme des hippies dans les sixties Jécoute pas ta merde, jai plus d'quatre raisons, jsuis incontournable comme les quatre saisons sku Au-d'ssus deux, j'survole des tas d'maisons, jfais crier sa bitch, et plus d'quatre caissons J'marrête pas tant qu'jai pas quatre maisons, v'là de barres même si jai pas d'réseau eh Pendaison pour tous les pédo-satanistes du PizzaGate et de chaque réseau ouh Ekip Jécoute pas ta merde, jai plus d'quatre raisons, jsuis incontournable comme les quatre saisons Jfais crier sa bitch, et plus quatre caissons3</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ah ah, ah ah Ekip, ekip Enculé 2015, cest la merde FDT, MMS, LDO, NRM, 667 Ekip salope, ekip Han Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette Goddamn, négro j'ai la recette Dans la cuisine comme Cyril Dans ton iPhone comme Siri Freeze Corleone négro, j'veux peser comme 6 riches Annuellement, mensuellement, quotidiennement Sans stress aucun on les fouette de ouf A mon pire ennemi, mourir dans un accident Avec sa famille, j'lui souhaite de ouf C'qu'on fume peut t'faire faire un malaise Tu roules un petit, j'roule un balaise Plus d'Euphon fuck cette merde, défracté à l'huile Négro, j'découpe comme sous lin à l'aise Fuck le Rap Game, fuck les faux, bitch 667, LDO sur les sceaux, bitch Indépendant comme Zesau, bitch Les sons d'la secte dans l'vaisseau, bitch Fils tu veux rapper Jespère que t'es à jour dans tes révisions So à la mafia pour les décisions Négro j'évite Sion, quand j'dors j'ai des visions Très loin d'toi, tu m'vois en retard Négro, comme une étoile J'arrive Chinois comme une Great Wall Chen Zen sur les prods comme sur des toiles, ekip You might also like Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette1</t>
+          <t>Ah ah, ah ah Ekip, ekip Enculé 2015, cest la merde FDT, MMS, LDO, NRM, 667 Ekip salope, ekip Han Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette Goddamn, négro j'ai la recette Dans la cuisine comme Cyril Dans ton iPhone comme Siri Freeze Corleone négro, j'veux peser comme 6 riches Annuellement, mensuellement, quotidiennement Sans stress aucun on les fouette de ouf A mon pire ennemi, mourir dans un accident Avec sa famille, j'lui souhaite de ouf C'qu'on fume peut t'faire faire un malaise Tu roules un petit, j'roule un balaise Plus d'Euphon fuck cette merde, défracté à l'huile Négro, j'découpe comme sous lin à l'aise Fuck le Rap Game, fuck les faux, bitch 667, LDO sur les sceaux, bitch Indépendant comme Zesau, bitch Les sons d'la secte dans l'vaisseau, bitch Fils tu veux rapper Jespère que t'es à jour dans tes révisions So à la mafia pour les décisions Négro j'évite Sion, quand j'dors j'ai des visions Très loin d'toi, tu m'vois en retard Négro, comme une étoile J'arrive Chinois comme une Great Wall Chen Zen sur les prods comme sur des toiles, ekip Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette Goddamn, négro j'ai la recette Chef étoilé, j'ai la recette Magicien dans la cuisine Fufu, tu crois vraiment qu'j'vais te donner la recette ? Tous mes négros ont la recette Tous ces négros veulent la recette1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Eh, ekip, ekip M.M.S, L.D.O, pétasse J'les dribble comme Dries Ils sont faibles comme pièces J'arrive, ils sont comme qui est-ce ? Cartouche comme Griez' Cons v'la de lin comme T.X LDO Paris, eux comme Kiev Ils ont pas arrêté d'en faire quand ils ont fait ta Porsche, négro J'veux les thunes à Matforce, négro Tu t'allumes comme nous, tu lackes par force, négro Chen Zen toujours au-dessus, j'me sens comme un satellite Tu m'verras jamais en entrevue sur Booska-P ou sur Rapelite Pas de fugazi, zéro, que des vrais négros dans la division Trouve-moi sur FUT17, 5-0 en train d'faire du sale dans la division J'arrive Zulu comme Shaka, pétasse J'suis comme N'golo Kanté, t'es comme Xhaka, pétasse Mélange plusieurs drogues dans ma boisson, bitch Gaddamn, dans l'aqua j'me sens comme un poisson, bitch J'te mets d'accord facile en moins d'trois sons, bitch Dans les pills à fond, négro so le plug LDO, ekip à fond, négro so le club Né pour gagner pétasse, négro so le blood Osirus fait des birdy, négro so le club You might also like Ekip pétasse, négro so Bobby Cherche la concu', négro so Gobi, pétasse J'les dribble comme Dries Ils sont faibles comme pièces J'arrive, ils sont comme qui est-ce ? Cartouche comme Griez' Cons v'la de lin comme T.X LDO Paris, eux comme Kiev Ils ont pas arrêté d'en faire quand ils ont fait ta Porsche, négro J'veux les thunes à Matforce, négro Tu t'allumes comme nous, tu lackes par force, négro J'les dribble comme Dries Ils sont faibles comme pièces J'arrive, ils sont comme qui est-ce ? Cartouche comme Griez' Cons v'la de lin comme T.X LDO Paris, eux comme Kiev Ils ont pas arrêté d'en faire quand ils ont fait ta Porsche, négro J'veux les thunes à Matforce, négro Tu t'allumes comme nous, tu lackes par force, négro 6.6.7 pétasse J'suis dans le xan, eh Cocktail dans le sang Reprise dans le centre Ekip, ekip, ekip1</t>
+          <t>Eh, ekip, ekip M.M.S, L.D.O, pétasse J'les dribble comme Dries Ils sont faibles comme pièces J'arrive, ils sont comme qui est-ce ? Cartouche comme Griez' Cons v'la de lin comme T.X LDO Paris, eux comme Kiev Ils ont pas arrêté d'en faire quand ils ont fait ta Porsche, négro J'veux les thunes à Matforce, négro Tu t'allumes comme nous, tu lackes par force, négro Chen Zen toujours au-dessus, j'me sens comme un satellite Tu m'verras jamais en entrevue sur Booska-P ou sur Rapelite Pas de fugazi, zéro, que des vrais négros dans la division Trouve-moi sur FUT17, 5-0 en train d'faire du sale dans la division J'arrive Zulu comme Shaka, pétasse J'suis comme N'golo Kanté, t'es comme Xhaka, pétasse Mélange plusieurs drogues dans ma boisson, bitch Gaddamn, dans l'aqua j'me sens comme un poisson, bitch J'te mets d'accord facile en moins d'trois sons, bitch Dans les pills à fond, négro so le plug LDO, ekip à fond, négro so le club Né pour gagner pétasse, négro so le blood Osirus fait des birdy, négro so le club Ekip pétasse, négro so Bobby Cherche la concu', négro so Gobi, pétasse J'les dribble comme Dries Ils sont faibles comme pièces J'arrive, ils sont comme qui est-ce ? Cartouche comme Griez' Cons v'la de lin comme T.X LDO Paris, eux comme Kiev Ils ont pas arrêté d'en faire quand ils ont fait ta Porsche, négro J'veux les thunes à Matforce, négro Tu t'allumes comme nous, tu lackes par force, négro J'les dribble comme Dries Ils sont faibles comme pièces J'arrive, ils sont comme qui est-ce ? Cartouche comme Griez' Cons v'la de lin comme T.X LDO Paris, eux comme Kiev Ils ont pas arrêté d'en faire quand ils ont fait ta Porsche, négro J'veux les thunes à Matforce, négro Tu t'allumes comme nous, tu lackes par force, négro 6.6.7 pétasse J'suis dans le xan, eh Cocktail dans le sang Reprise dans le centre Ekip, ekip, ekip1</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7, cest la secte pétasse Han, hey Jai les yeuz rouges, cest l'T.H.C Is it TheHashClique ? Tu veux la prod' pétasse, cest l'T.H.C F.L.R.G tous les jours, cest trop la crise goddamn Xan shit, jsuis branché négro, so la prise MMS LDO, vrai négro shit, des comme nous ten trouves pas dautres han So 'Sirus, remballe ta douille on la connait, va la faire à dautres Jsuis dans le Lex', jsuis dans le broma' goddamn Si tu tallumes comme nous tu finis dans le boma, goddamn ekip, ekip Négro so L.G, dans lfutur comme après 7g han Jsuis connecté en 7G Jme sens comme un avion, jcons' vla de carburant Lin, gas, Xan, jai vla de carburant On veut des immeubles, des champs et des usines goddamn Des Walther P.9, des tanks et des Uzi Très loin dtoi, à des années lumières de Hubble han Chen Zen, jai les techniques de propagande de Goebbels Jveux vla d'zéros dans 10 comptes, négro La famille et lor, y a qu'ça qui compte, négro goddamn Jveux voir la machine qui compte, négro han A part Dieu et moi, personne sur qui jcompte négro, goddamn Jveux vla dzéros dans 10 comptes, négro han La famille et lor, ya que ça qui compte, négro goddamn, ekip Jveux voir la machine qui compte, négro khaliss A part Dieu et moi, personne sur qui jcompte négro, ekip You might also like M.M.S, L.D.O, N.R.M, 6.6.7 Pétasse, pétasse, pétasse, pétasse, pétasse, pétasse So T.H.C, jai les yeuz rouges cest lTHC, ekip M.M.S, L.D.O, N.R.M, 6.6.7 Jsuis dans le lin, jsuis dans le Lex', pétasse4</t>
+          <t>Ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7, cest la secte pétasse Han, hey Jai les yeuz rouges, cest l'T.H.C Is it TheHashClique ? Tu veux la prod' pétasse, cest l'T.H.C F.L.R.G tous les jours, cest trop la crise goddamn Xan shit, jsuis branché négro, so la prise MMS LDO, vrai négro shit, des comme nous ten trouves pas dautres han So 'Sirus, remballe ta douille on la connait, va la faire à dautres Jsuis dans le Lex', jsuis dans le broma' goddamn Si tu tallumes comme nous tu finis dans le boma, goddamn ekip, ekip Négro so L.G, dans lfutur comme après 7g han Jsuis connecté en 7G Jme sens comme un avion, jcons' vla de carburant Lin, gas, Xan, jai vla de carburant On veut des immeubles, des champs et des usines goddamn Des Walther P.9, des tanks et des Uzi Très loin dtoi, à des années lumières de Hubble han Chen Zen, jai les techniques de propagande de Goebbels Jveux vla d'zéros dans 10 comptes, négro La famille et lor, y a qu'ça qui compte, négro goddamn Jveux voir la machine qui compte, négro han A part Dieu et moi, personne sur qui jcompte négro, goddamn Jveux vla dzéros dans 10 comptes, négro han La famille et lor, ya que ça qui compte, négro goddamn, ekip Jveux voir la machine qui compte, négro khaliss A part Dieu et moi, personne sur qui jcompte négro, ekip M.M.S, L.D.O, N.R.M, 6.6.7 Pétasse, pétasse, pétasse, pétasse, pétasse, pétasse So T.H.C, jai les yeuz rouges cest lTHC, ekip M.M.S, L.D.O, N.R.M, 6.6.7 Jsuis dans le lin, jsuis dans le Lex', pétasse4</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>So le Amine Ekip Ice, ice VVS Corleone Ice, ice, ice Brr, brr Eh Ice, brr Ça glisse, secoue Wow, j'en tire quatre, reste plus qu'deux coups Wow Si j'en prends une, j'reste debout Wow, j'ai pas l'temps d'joindre les deux bouts Glock sous l'boubou, allume les fufus Wow, tu voulais un feat', on t'a recalé Wow Tu veux d'la dope ? Va au fond d'l'allée Pas d'danse, pas d'coupé-décalé, fois trois et Cali, pas d'Népalais Splash Big drip, j'envoie des big dribbles, dans la massa, mts le big triple Eh, eh Picto pour cux qui veulent faire des big trips, 6.6.7, L.Z, équipe type Hey, hey Toute l'année, visser un teufeur, fufu, tu fais partie du clan des bluffeurs Une fois, deux fois, trois fois Chef, y a que les caniches qui aboient Brr La sape est italienne, drip, j'suis mouillé, galette de , faut touiller Ouais, faut l'douiller, en face, il faut l'douiller La sape est italienne, drip, j'suis mouillé Galette de , faut touiller Une pookie en face, il faut l'douiller You might also like Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Ice Cartier sertie, j'ai les certif' Ice, VVS, platine, or, j'ai les certif' Ice, ice J'ai mis des diams sur la Cartier Wow, ice, on arrive lourd comme un bombardier Wow J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier Ice Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Brr Cartier sertie, j'ai les certif' Wow, VVS, platine, or, j'ai les certif' Wow J'ai mis des diams sur la Cartier Cartier, on arrive lourd comme un bombardier Waw J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier 6.6.7, L.Z aka l'avalanche Han, faut que j'pèse comme si j'étais attaquant à Valence Cash Cons' plus d'essence qu'une Cadillac Avalanche, so Heenok, deuxième forme comme un Gravalanch Ekip Corleone, Ashe, Mané, Mahrez Ekip, on sait qu'tu bluffes, allez, arrête Ouais On fume des plaquettes, ils fument des barrettes et j'mets les trois points comme R.J. Barrett Fuck un snitch, fuck un indicateur Han, il fait qu'mentir, c'est qu'un big capeur Eh J'arrive déter' comme un dictateur, dans mes notes, j'ai des rimes interdites, t'as peur Eh, pétasse J'regarde les rappeurs, j'les vois comme des putes qui flexent Eh, eh, eh Pétasse, on l'fait pour les penthouses et les multiplex V'là l'chemin depuis l'époque des Obey, mon steak découpé sur des Kobé Han Au téléphone, le langage est codé, mentalité Mamba, R.E.P Kobe Kobe Grosse Moncler, j'me bats contre le froid Han, Corleone avec le Onze deux fois 2-2 Rap FR, 11.43 contre le foie, tu peux pas être pour si t'as une once de foi Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Ice Cartier sertie, j'ai les certif' Ice, VVS, platine, or, j'ai les certif' Ice, ice J'ai mis des diams sur la Cartier Wow, ice, on arrive lourd comme un bombardier Wow J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier Ice Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Brr Cartier sertie, j'ai les certif' Wow, VVS, platine, or, j'ai les certif' Wow J'ai mis des diams sur la Cartier Cartier, on arrive lourd comme un bombardier Waw J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier</t>
+          <t>So le Amine Ekip Ice, ice VVS Corleone Ice, ice, ice Brr, brr Eh Ice, brr Ça glisse, secoue Wow, j'en tire quatre, reste plus qu'deux coups Wow Si j'en prends une, j'reste debout Wow, j'ai pas l'temps d'joindre les deux bouts Glock sous l'boubou, allume les fufus Wow, tu voulais un feat', on t'a recalé Wow Tu veux d'la dope ? Va au fond d'l'allée Pas d'danse, pas d'coupé-décalé, fois trois et Cali, pas d'Népalais Splash Big drip, j'envoie des big dribbles, dans la massa, mts le big triple Eh, eh Picto pour cux qui veulent faire des big trips, 6.6.7, L.Z, équipe type Hey, hey Toute l'année, visser un teufeur, fufu, tu fais partie du clan des bluffeurs Une fois, deux fois, trois fois Chef, y a que les caniches qui aboient Brr La sape est italienne, drip, j'suis mouillé, galette de , faut touiller Ouais, faut l'douiller, en face, il faut l'douiller La sape est italienne, drip, j'suis mouillé Galette de , faut touiller Une pookie en face, il faut l'douiller Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Ice Cartier sertie, j'ai les certif' Ice, VVS, platine, or, j'ai les certif' Ice, ice J'ai mis des diams sur la Cartier Wow, ice, on arrive lourd comme un bombardier Wow J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier Ice Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Brr Cartier sertie, j'ai les certif' Wow, VVS, platine, or, j'ai les certif' Wow J'ai mis des diams sur la Cartier Cartier, on arrive lourd comme un bombardier Waw J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier 6.6.7, L.Z aka l'avalanche Han, faut que j'pèse comme si j'étais attaquant à Valence Cash Cons' plus d'essence qu'une Cadillac Avalanche, so Heenok, deuxième forme comme un Gravalanch Ekip Corleone, Ashe, Mané, Mahrez Ekip, on sait qu'tu bluffes, allez, arrête Ouais On fume des plaquettes, ils fument des barrettes et j'mets les trois points comme R.J. Barrett Fuck un snitch, fuck un indicateur Han, il fait qu'mentir, c'est qu'un big capeur Eh J'arrive déter' comme un dictateur, dans mes notes, j'ai des rimes interdites, t'as peur Eh, pétasse J'regarde les rappeurs, j'les vois comme des putes qui flexent Eh, eh, eh Pétasse, on l'fait pour les penthouses et les multiplex V'là l'chemin depuis l'époque des Obey, mon steak découpé sur des Kobé Han Au téléphone, le langage est codé, mentalité Mamba, R.E.P Kobe Kobe Grosse Moncler, j'me bats contre le froid Han, Corleone avec le Onze deux fois 2-2 Rap FR, 11.43 contre le foie, tu peux pas être pour si t'as une once de foi Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Ice Cartier sertie, j'ai les certif' Ice, VVS, platine, or, j'ai les certif' Ice, ice J'ai mis des diams sur la Cartier Wow, ice, on arrive lourd comme un bombardier Wow J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier Ice Cartier sertie, client servi Grr, ice, il fait froid comme en Serbie Brr Cartier sertie, j'ai les certif' Wow, VVS, platine, or, j'ai les certif' Wow J'ai mis des diams sur la Cartier Cartier, on arrive lourd comme un bombardier Waw J'arrive blindé comme Bombardier Hein, j'ai mis des diamants sur la montre Cartier</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Pour un sourcier, magicien et mage, pour eux, c'est la même chose. Et en réalité, non ! Un sorcier, ça, c'est quelqu'un qui fait de la magie. Mais cette magie est toujours nocive. Il sépare les gens, et il rend malade, et malheureux, ainsi de suite. Un sorcier ne peut pas faire de bien. Ça, c'est clair. C'est classé, c'est déterminé. Tandis que un magicien, ah, il peut encore, il peut faire du bien sur certain et punir d'autres, donc- donc il, il, quand même il mélange, tantôt, il fait du bien, tantôt, il fait du mal. Mais un mage, eh, ça, c'est différent. C'est un être de la lumière, de la bonté, de l'amour. Il construit, il prépare, il travaille, il crée. Il fait jamais du mal. S'il se permet de faire du mal, bah, il entre dans la catégorie des magiciens. Et s'il devient après tellement, tellement foncé, tellement déterminé, pour le mal seulement et bah, il devient un sorcier. Donc il faut pas mélanger ! Ff, ff Eh, eh Ekip 2015, 2016, 2017, 2018, 2019, 2020, pétasse Killu, killu, ah-ah NRM ekip, appelle-nous si tu veux des prods, fils appelle, appelle Chen Zen, j'm'élève tout seul comme si j'étais mon propre fils goddamn, goddamn Gaddamn, j'vois en slow-mo' même si y a plus d'lean nan, nan, plus d'lean Cocaïne-flow te touche direct après une ligne So Roi, j'suis méga, j'prie pour n'pas finir avec une Megane sku Mes gars m'suivent et j'suis mes gars ekip, fufu, impossible que tu m'égales jamais T'es dépassé, négro comme une Sega ah-ah, tes techniques datent de 2001 gaddamn Combien d'nègres j'peux nourrir avec deux mille pains ? Mafieux dans les bails comme Chirac et de Villepin pah 2100, c'est la Ligue des Ombres LDO, 432 hertz, trafique tes ondes gaddamn Sur l'deep-web pour la livraison sku, sku, j'm'arrête pas tant qu'j'ai pas au moins dix maisons nan, nan, eh, eh Ah-ah, dans la cuisine, fonscar avec les ustensiles squad So Akon, double-6.7 han, vient d'Afrique pour pop jusqu'en Chine Squad You might also like Dans l'ombre, contre eux, complote avec mes mages noirs ekip, ekip Mages noirs han, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, ekip Cash noir han, négro, la secte cherche cash noir goddamn Dans l'ombre, contre eux, complote avec mes mages noirs ekip Mages noirs, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, squa Cash noir, négro, la secte cherche cash noir Fin stratège comme Napoléon, j'ai gagné avant l'début d'la bataille gaddamn Gaddamn, négro, comme un géant aveugle, j'vois pas d'adversaire à ma taille gaddamn Ah-ah ah-ah, trouve-moi à Dakar dans l'carré, bitch salope On est parés, bitch salope, bouge pas d'la place où j'vais m'garer, bitch salope Cherche l'histoire comme Nico Robin han Gaddamn Négro, c'que j'fume ralentit mes capacités psychomotrices Salope, amène vite to-lopi shit au lobby Merdes de fin des temps, j'distingue plus homme et femme J'me sens comme Goku petit ah-ah 667, on est beaucoup, petit 667 Seigneur sith, j'me sens comme Dooku, petit 2015, c'est la FDT han So Curreny, négro, en hiver, j'écris mes seizes d'été han On va leur apprendre la vie comme en SVT gaddamn Quotidiennement killu' killu, négro, chaque jour, nique Lucifer chaque jour Bientôt moonrock comme Rich han, mitraille la prod comme Lil Uzi Vert ekip Dans l'ombre, contre eux, complote avec mes mages noirs ekip, ekip Mages noirs han, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, ekip Cash noir han, négro, la secte cherche cash noir goddamn Dans l'ombre, contre eux, complote avec mes mages noirs ekip Mages noirs, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, squa Cash noir, négro, la secte cherche cash noir Négro négro, mage noir n'est pas sorcier nan, nan Quand on l'fait, ça a l'air simple simple comme dans C'est pas sorcier haha, goddamn Tous les jours, j'fume le caca, so à mes Mangemorts venus d'Dakar Pour les pyramides inversées sur la carte so Là pour les tek deals comme Bernard Tapie goddamn Goddamn, négro, j'prends l'cash, j'me retranche au bled avec M4 kaki Dégraine la merde, fume la niakh dès qu'j'ai pas d'paki Vos blases sont dans l'carnet d'la mort eh, eh En train d'comploter avec sa-Nor so Berlusconi Bateau pirate, fin des diables si tu les amènes à bord goddamn So Trayle, j'fume tellement d'essence, j'devrais avoir ma station La Ligue des Ombres dans l'rap jeu han comme grand huit dans parc d'attractions goddamn, goddamn Vingt-trois piges, j'me sens comme un vieux rusé squa Double-6.7, Satan nous a proposé, on a refusé salope Dans l'ombre, contre eux, complote avec mes mages noirs ekip, ekip Mages noirs han, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, ekip Cash noir han, négro, la secte cherche cash noir goddamn Dans l'ombre, contre eux, complote avec mes mages noirs ekip Mages noirs, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, squa Cash noir, négro, la secte cherche cash noir ekip, ekip Eh Squa, MMS, LDO, NRM, 667 2015, c'est la FDT So Curreny, en hiver, j'écris mes seizes d'été On va leur apprendre la vie comme en SVT, squa Ekip, ekip, killu, killu, salope Ratata, salope Han1</t>
+          <t>Pour un sourcier, magicien et mage, pour eux, c'est la même chose. Et en réalité, non ! Un sorcier, ça, c'est quelqu'un qui fait de la magie. Mais cette magie est toujours nocive. Il sépare les gens, et il rend malade, et malheureux, ainsi de suite. Un sorcier ne peut pas faire de bien. Ça, c'est clair. C'est classé, c'est déterminé. Tandis que un magicien, ah, il peut encore, il peut faire du bien sur certain et punir d'autres, donc- donc il, il, quand même il mélange, tantôt, il fait du bien, tantôt, il fait du mal. Mais un mage, eh, ça, c'est différent. C'est un être de la lumière, de la bonté, de l'amour. Il construit, il prépare, il travaille, il crée. Il fait jamais du mal. S'il se permet de faire du mal, bah, il entre dans la catégorie des magiciens. Et s'il devient après tellement, tellement foncé, tellement déterminé, pour le mal seulement et bah, il devient un sorcier. Donc il faut pas mélanger ! Ff, ff Eh, eh Ekip 2015, 2016, 2017, 2018, 2019, 2020, pétasse Killu, killu, ah-ah NRM ekip, appelle-nous si tu veux des prods, fils appelle, appelle Chen Zen, j'm'élève tout seul comme si j'étais mon propre fils goddamn, goddamn Gaddamn, j'vois en slow-mo' même si y a plus d'lean nan, nan, plus d'lean Cocaïne-flow te touche direct après une ligne So Roi, j'suis méga, j'prie pour n'pas finir avec une Megane sku Mes gars m'suivent et j'suis mes gars ekip, fufu, impossible que tu m'égales jamais T'es dépassé, négro comme une Sega ah-ah, tes techniques datent de 2001 gaddamn Combien d'nègres j'peux nourrir avec deux mille pains ? Mafieux dans les bails comme Chirac et de Villepin pah 2100, c'est la Ligue des Ombres LDO, 432 hertz, trafique tes ondes gaddamn Sur l'deep-web pour la livraison sku, sku, j'm'arrête pas tant qu'j'ai pas au moins dix maisons nan, nan, eh, eh Ah-ah, dans la cuisine, fonscar avec les ustensiles squad So Akon, double-6.7 han, vient d'Afrique pour pop jusqu'en Chine Squad Dans l'ombre, contre eux, complote avec mes mages noirs ekip, ekip Mages noirs han, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, ekip Cash noir han, négro, la secte cherche cash noir goddamn Dans l'ombre, contre eux, complote avec mes mages noirs ekip Mages noirs, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, squa Cash noir, négro, la secte cherche cash noir Fin stratège comme Napoléon, j'ai gagné avant l'début d'la bataille gaddamn Gaddamn, négro, comme un géant aveugle, j'vois pas d'adversaire à ma taille gaddamn Ah-ah ah-ah, trouve-moi à Dakar dans l'carré, bitch salope On est parés, bitch salope, bouge pas d'la place où j'vais m'garer, bitch salope Cherche l'histoire comme Nico Robin han Gaddamn Négro, c'que j'fume ralentit mes capacités psychomotrices Salope, amène vite to-lopi shit au lobby Merdes de fin des temps, j'distingue plus homme et femme J'me sens comme Goku petit ah-ah 667, on est beaucoup, petit 667 Seigneur sith, j'me sens comme Dooku, petit 2015, c'est la FDT han So Curreny, négro, en hiver, j'écris mes seizes d'été han On va leur apprendre la vie comme en SVT gaddamn Quotidiennement killu' killu, négro, chaque jour, nique Lucifer chaque jour Bientôt moonrock comme Rich han, mitraille la prod comme Lil Uzi Vert ekip Dans l'ombre, contre eux, complote avec mes mages noirs ekip, ekip Mages noirs han, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, ekip Cash noir han, négro, la secte cherche cash noir goddamn Dans l'ombre, contre eux, complote avec mes mages noirs ekip Mages noirs, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, squa Cash noir, négro, la secte cherche cash noir Négro négro, mage noir n'est pas sorcier nan, nan Quand on l'fait, ça a l'air simple simple comme dans C'est pas sorcier haha, goddamn Tous les jours, j'fume le caca, so à mes Mangemorts venus d'Dakar Pour les pyramides inversées sur la carte so Là pour les tek deals comme Bernard Tapie goddamn Goddamn, négro, j'prends l'cash, j'me retranche au bled avec M4 kaki Dégraine la merde, fume la niakh dès qu'j'ai pas d'paki Vos blases sont dans l'carnet d'la mort eh, eh En train d'comploter avec sa-Nor so Berlusconi Bateau pirate, fin des diables si tu les amènes à bord goddamn So Trayle, j'fume tellement d'essence, j'devrais avoir ma station La Ligue des Ombres dans l'rap jeu han comme grand huit dans parc d'attractions goddamn, goddamn Vingt-trois piges, j'me sens comme un vieux rusé squa Double-6.7, Satan nous a proposé, on a refusé salope Dans l'ombre, contre eux, complote avec mes mages noirs ekip, ekip Mages noirs han, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, ekip Cash noir han, négro, la secte cherche cash noir goddamn Dans l'ombre, contre eux, complote avec mes mages noirs ekip Mages noirs, complote avec mes mages noirs Salir argent propre, négro, la secte cherche cash noir ekip, squa Cash noir, négro, la secte cherche cash noir ekip, ekip Eh Squa, MMS, LDO, NRM, 667 2015, c'est la FDT So Curreny, en hiver, j'écris mes seizes d'été On va leur apprendre la vie comme en SVT, squa Ekip, ekip, killu, killu, salope Ratata, salope Han1</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ha, goddamn 2016 c'est la FDT, call moi Alphonse Ha-ha Alphonse Alphonse, Alphonse Alphonse Alphonse, A-Alphonse Huh, ekip, ekip Gaddamn, killu' à vie, so Dubble Au-dessus d'eux comme Hubble Gros blunt comme Trouble, on les fume comme bubble J'réfléchis comme un 33ème Bitchass négro, toi tu rappes comme si t'étais en 3ème Beaucoup sont nos gosses, donc on augmente le taux d'mortalité infantile Ils sont vraiment faibles comme un centime, 667 aka l'incendie J'brûle le goal comme Karim, j'veux pas finir en taule comme Karim Chen Zen, négro dans la tour, trouve-moi en haut comme Karin J'arrive killu' comme Green sans stress, gro-né tu m'connais, j'rime sans stress Au micro j'fais des crimes sans stress, jeune pirate, augmente ma prime sans stress Gaddamn, on veut peser comme les Narcos Ils sont dépassés comme des Archos, gaddamn Alphonse, A-Alphonse Alphonse, j'arrive mal fons' Alphonse, tu peux m'appeler Alphonse Gaddem Alphonse, gro-né tu m'connais j'arrive mal fons', ekip Alphonse, A-Alphonse Alphonse, j'arrive mal fons' Alphonse, tu peux m'appeler Alphonse Gaddem Alphonse, gro-né tu m'connais j'arrive mal fons', ekip You might also like Alphonse Karr, j'arrive mal fonscar J'cons mon paki, j'arrive chinois comme Jackie So Kaki, au micro nous sommes comme vos grands-paters 667 ekip des comme nous t'en trouves pas d'autres dans la terre Vrai négro shit comme d'hab', fume le shit comme d'hab' Dans l'usine comme en Chine comme d'hab' Avec mes siths comme d'hab', touche les cibles comme d'hab' Un 7 et deux 6 comme d'hab', on a trop d'avance So Afro S, pour qu'on signe faudra une grosse avance Chen Zen, comme un pro j'avance, à la boutique j'ai vu ton flow à vendre J'veux faire des sous comme un pays, mentalité militaire comme un treillis REP Pimo, fuck un T.I, goddamn négro, tu transiges comme un V.I Para-francs équipé, j'vesqui ceux qui sont équipés, gaddamn J'avance avec mes équipiers, on les fouette même avec l'équipe B, ekip Alphonse, A-Alphonse Alphonse, j'arrive mal fons' Alphonse, tu peux m'appeler Alphonse Gaddem Alphonse, gro-né tu m'connais j'arrive mal fons', ekip Alphonse, A-Alphonse Alphonse, j'arrive mal fons' Alphonse, tu peux m'appeler Alphonse Gaddem Alphonse, gro-né tu m'connais j'arrive mal fons', ekip Alphonse Karr, j'arrive mal fonscar 2016, c'est la FDT, gaddamn En hiver j'écris mes 16s d'été Chen Zen, on va leur apprendre la vie comme en SVT2</t>
+          <t>Ha, goddamn 2016 c'est la FDT, call moi Alphonse Ha-ha Alphonse Alphonse, Alphonse Alphonse Alphonse, A-Alphonse Huh, ekip, ekip Gaddamn, killu' à vie, so Dubble Au-dessus d'eux comme Hubble Gros blunt comme Trouble, on les fume comme bubble J'réfléchis comme un 33ème Bitchass négro, toi tu rappes comme si t'étais en 3ème Beaucoup sont nos gosses, donc on augmente le taux d'mortalité infantile Ils sont vraiment faibles comme un centime, 667 aka l'incendie J'brûle le goal comme Karim, j'veux pas finir en taule comme Karim Chen Zen, négro dans la tour, trouve-moi en haut comme Karin J'arrive killu' comme Green sans stress, gro-né tu m'connais, j'rime sans stress Au micro j'fais des crimes sans stress, jeune pirate, augmente ma prime sans stress Gaddamn, on veut peser comme les Narcos Ils sont dépassés comme des Archos, gaddamn Alphonse, A-Alphonse Alphonse, j'arrive mal fons' Alphonse, tu peux m'appeler Alphonse Gaddem Alphonse, gro-né tu m'connais j'arrive mal fons', ekip Alphonse, A-Alphonse Alphonse, j'arrive mal fons' Alphonse, tu peux m'appeler Alphonse Gaddem Alphonse, gro-né tu m'connais j'arrive mal fons', ekip Alphonse Karr, j'arrive mal fonscar J'cons mon paki, j'arrive chinois comme Jackie So Kaki, au micro nous sommes comme vos grands-paters 667 ekip des comme nous t'en trouves pas d'autres dans la terre Vrai négro shit comme d'hab', fume le shit comme d'hab' Dans l'usine comme en Chine comme d'hab' Avec mes siths comme d'hab', touche les cibles comme d'hab' Un 7 et deux 6 comme d'hab', on a trop d'avance So Afro S, pour qu'on signe faudra une grosse avance Chen Zen, comme un pro j'avance, à la boutique j'ai vu ton flow à vendre J'veux faire des sous comme un pays, mentalité militaire comme un treillis REP Pimo, fuck un T.I, goddamn négro, tu transiges comme un V.I Para-francs équipé, j'vesqui ceux qui sont équipés, gaddamn J'avance avec mes équipiers, on les fouette même avec l'équipe B, ekip Alphonse, A-Alphonse Alphonse, j'arrive mal fons' Alphonse, tu peux m'appeler Alphonse Gaddem Alphonse, gro-né tu m'connais j'arrive mal fons', ekip Alphonse, A-Alphonse Alphonse, j'arrive mal fons' Alphonse, tu peux m'appeler Alphonse Gaddem Alphonse, gro-né tu m'connais j'arrive mal fons', ekip Alphonse Karr, j'arrive mal fonscar 2016, c'est la FDT, gaddamn En hiver j'écris mes 16s d'été Chen Zen, on va leur apprendre la vie comme en SVT2</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>So le Flem So le Amine Roule des gros tehs avec des choses qui collent, verre de lin avec des doses qui cognent On arrive cains-cains comme des grosses Lincoln Han, laser vert comme dans Ghost Recon Sur la prod', j'arrive autant nerveux qu'un daron du bled, la kichta est tellement épaisse Sku J'ai quatre-vingt-mille devant moi, j'peux m'acheter un duplex, avc des faux diamants, tu flexes Eh Et j'mts les trois points comme Larry Bird, il m'faut un comptable comme Marty Byrde Baba, brr Pchh, que du big drippin' Avec le Freeze Corleone dans lacuisine, nous on fait que whip wippin' V'là le lin dans le verre Lin, v'là le Dry dans le teh Hey Des fois, j'pense à mon grand-père quand je perr Je perr, je perr , , ça shoote plus qu'en Angleterre Pah, pah Art d'la guerre, va falloir allumer le plus déter'Brr Ça va péter comme dans CS Han, faut rouler en Maybach, pas en DS Cartier, Rolex sans VS, sur les prods', que des perfect en VS Han, poh J'prends les paris, quatre-vingt-dix pourcents, c'est des crari Eh So au 69 et à tout Paris, et mes frères ont toujours les yeux rouges Ferrari 20-21, on augmente les tarifs Sku, au mic', précis comme si j'taffe dans les Marines Balance l'audio dope dans les narines, so Walter, faut coffrer les liasses dans les barils Des euros, big CB, dans la street, j'en ai assez fait Froid et discret, j'suis au KGB, , , simple comme A.B.C C'est des comiques comme A.D.C Eh, Mike Amiri, pas de A.P.C Nan Converti l'occas' à chaque essai, tous les couplets, c'est des AVC, pétasse AVC, j'ai un ge-sh' à visser, j'suis grave pressé J'suis grave précis, hey Et sur l'PC, j'ai FL Studio en version d'essai, pétasse Chen et le Ashe empilent le cash, la Cali, le H, faut gonfler le Stash So mes Suisses, so CDF, so le OG, le Bim et le Bash Brr Bitch, faut appeler v'là d'copines, tous ces rappeurs sont de vulgaires pâles copies Eh Chez nous pas d'alcoolique, Harlem à fond, so Malcolm X On fait qusallumer sans raison Hey, pour mes négros, faut des grandes maisons Brr Pour les pédos', faut des pendaisons Faut des pendaisons Sur le nez, j'ai mis les quatre saisons,nous, on n'écoute pas tes sons J'sais qu'ils veulent noyer le poisson Han, dans la boisson, j'ajoute le poison Lin Ashe, Corleone aka Riyad et Sadio Fuck Skyrock, R.À.F des radios Fuck, on veut les mêmes sous qu'les Rabiot Cash Corleone, 2-2 aka Sadio, Riyad Mahrez, 2-2, Corleone, tu sais bien que y a qu'Allah qui nous arrête You might also like PDP, ça shoot plus qu'en Angleterre Art d'la guerre, va falloir allumer le plus déter' Converti l'occas' à chaque essai Tous les couplets, c'est des AVC, pétasse2</t>
+          <t>So le Flem So le Amine Roule des gros tehs avec des choses qui collent, verre de lin avec des doses qui cognent On arrive cains-cains comme des grosses Lincoln Han, laser vert comme dans Ghost Recon Sur la prod', j'arrive autant nerveux qu'un daron du bled, la kichta est tellement épaisse Sku J'ai quatre-vingt-mille devant moi, j'peux m'acheter un duplex, avc des faux diamants, tu flexes Eh Et j'mts les trois points comme Larry Bird, il m'faut un comptable comme Marty Byrde Baba, brr Pchh, que du big drippin' Avec le Freeze Corleone dans lacuisine, nous on fait que whip wippin' V'là le lin dans le verre Lin, v'là le Dry dans le teh Hey Des fois, j'pense à mon grand-père quand je perr Je perr, je perr , , ça shoote plus qu'en Angleterre Pah, pah Art d'la guerre, va falloir allumer le plus déter'Brr Ça va péter comme dans CS Han, faut rouler en Maybach, pas en DS Cartier, Rolex sans VS, sur les prods', que des perfect en VS Han, poh J'prends les paris, quatre-vingt-dix pourcents, c'est des crari Eh So au 69 et à tout Paris, et mes frères ont toujours les yeux rouges Ferrari 20-21, on augmente les tarifs Sku, au mic', précis comme si j'taffe dans les Marines Balance l'audio dope dans les narines, so Walter, faut coffrer les liasses dans les barils Des euros, big CB, dans la street, j'en ai assez fait Froid et discret, j'suis au KGB, , , simple comme A.B.C C'est des comiques comme A.D.C Eh, Mike Amiri, pas de A.P.C Nan Converti l'occas' à chaque essai, tous les couplets, c'est des AVC, pétasse AVC, j'ai un ge-sh' à visser, j'suis grave pressé J'suis grave précis, hey Et sur l'PC, j'ai FL Studio en version d'essai, pétasse Chen et le Ashe empilent le cash, la Cali, le H, faut gonfler le Stash So mes Suisses, so CDF, so le OG, le Bim et le Bash Brr Bitch, faut appeler v'là d'copines, tous ces rappeurs sont de vulgaires pâles copies Eh Chez nous pas d'alcoolique, Harlem à fond, so Malcolm X On fait qusallumer sans raison Hey, pour mes négros, faut des grandes maisons Brr Pour les pédos', faut des pendaisons Faut des pendaisons Sur le nez, j'ai mis les quatre saisons,nous, on n'écoute pas tes sons J'sais qu'ils veulent noyer le poisson Han, dans la boisson, j'ajoute le poison Lin Ashe, Corleone aka Riyad et Sadio Fuck Skyrock, R.À.F des radios Fuck, on veut les mêmes sous qu'les Rabiot Cash Corleone, 2-2 aka Sadio, Riyad Mahrez, 2-2, Corleone, tu sais bien que y a qu'Allah qui nous arrête PDP, ça shoot plus qu'en Angleterre Art d'la guerre, va falloir allumer le plus déter' Converti l'occas' à chaque essai Tous les couplets, c'est des AVC, pétasse2</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Too Lucky Too Lucky Ah, ah, rah, rah Ekip, ekip, ekip Ah, ah, ah, ah Paw, ah, ah, paw, paw, paw Coco Jojo, c'est moi, depitcho R9, ouh Paw, pah, paw, ouh, ouh Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Rah, rah Libérez mes négros à lombre Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à l'ombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie lSeigneur dès que ça tombe, ekip Cliki, cliki, cliki rah, gros billets dans mon Dickis paw, bitchies, bitchies Dans la calle, j'fais ds bêtises, pas des négros qui disent des sottises Demande à Gazo Les bonbonnes sont remplies de cocaïne, baw Un zéro, deux zéros, trois zéros, tu peux mourir, tout l'monde connaît mon réseau Ici, c'est la calle, impact de balles dans le mur comme un graffiti Omar s'fait buter par un p'tit déter' de la taille à Mimie Mathy raw, ah, ah Eh, wey, Barksdale, Stringer, Wee-Bey, calibre, chargeur, bye, bye Personne voulait m'aider quand jétais seul dans la calle, calle My nig, my nig', ça fait pah, pah, tous les ennemis sont dans la sauce ils sont dans la sauce Les galeries me connaissent que des chop que j'ai acheté, j'dois faire une pause Millimétré et j'arrose brr, brr, pa-paw, rah, rah, rah You might also like Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à lombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie l'Seigneur dès que ça tombe, ekip Corleone, G2 ekip, au-dessus, B2 shh Concu', P2, avance, aka deux T2 cash 667, CMF ekip, ekip, ekip, paw Black Mafia, BMF han, il faut des milliards comme la GMF paw SO l'18, SO la calle ekip, ekip, ekip, han Depuis, j'ai rempli v'là d'cahiers han, pour mes négros, faut v'là à grailler Tu peux mourir, TPM pa-pa-paw Ils sont obsolètes comme BBM, scam, scam, VPN cash Négro, t'es dépassé, tu vas finir comme MC Hammer ah, ah Faut qu'j'fasse rentrer plus de cash dans la N26 que dix scammers cash, cash, ekip Big drip comme Fivio Foreign paw Incha'Allah à 20-30, Dakar comme Pakistan avec 10 grosses foreigns brr, ekip rah, rah, rah Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à l'ombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie l'Seigneur dès que ça tombe, ekip</t>
+          <t>Too Lucky Too Lucky Ah, ah, rah, rah Ekip, ekip, ekip Ah, ah, ah, ah Paw, ah, ah, paw, paw, paw Coco Jojo, c'est moi, depitcho R9, ouh Paw, pah, paw, ouh, ouh Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Rah, rah Libérez mes négros à lombre Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à l'ombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie lSeigneur dès que ça tombe, ekip Cliki, cliki, cliki rah, gros billets dans mon Dickis paw, bitchies, bitchies Dans la calle, j'fais ds bêtises, pas des négros qui disent des sottises Demande à Gazo Les bonbonnes sont remplies de cocaïne, baw Un zéro, deux zéros, trois zéros, tu peux mourir, tout l'monde connaît mon réseau Ici, c'est la calle, impact de balles dans le mur comme un graffiti Omar s'fait buter par un p'tit déter' de la taille à Mimie Mathy raw, ah, ah Eh, wey, Barksdale, Stringer, Wee-Bey, calibre, chargeur, bye, bye Personne voulait m'aider quand jétais seul dans la calle, calle My nig, my nig', ça fait pah, pah, tous les ennemis sont dans la sauce ils sont dans la sauce Les galeries me connaissent que des chop que j'ai acheté, j'dois faire une pause Millimétré et j'arrose brr, brr, pa-paw, rah, rah, rah Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à lombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie l'Seigneur dès que ça tombe, ekip Corleone, G2 ekip, au-dessus, B2 shh Concu', P2, avance, aka deux T2 cash 667, CMF ekip, ekip, ekip, paw Black Mafia, BMF han, il faut des milliards comme la GMF paw SO l'18, SO la calle ekip, ekip, ekip, han Depuis, j'ai rempli v'là d'cahiers han, pour mes négros, faut v'là à grailler Tu peux mourir, TPM pa-pa-paw Ils sont obsolètes comme BBM, scam, scam, VPN cash Négro, t'es dépassé, tu vas finir comme MC Hammer ah, ah Faut qu'j'fasse rentrer plus de cash dans la N26 que dix scammers cash, cash, ekip Big drip comme Fivio Foreign paw Incha'Allah à 20-30, Dakar comme Pakistan avec 10 grosses foreigns brr, ekip rah, rah, rah Brrrah, rah, rah, rah Coke Boys comme à New-York paw, Top Boy comme à Londres han, ekip Amiri comme à New-York han, libérez mes négros à l'ombre han French plug, on est dehors ekip pour y creuser ta tombe paw Dans l'piège, posé, ça compte, remercie l'Seigneur dès que ça tombe, ekip</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>R.E.P. Pimo, j'arrive killu' comme en 2007 So Kaki, tu marqueras pas d'point, négro même en 2000 sets Que des vrais négros dans la secte, que des vrais négros dans le clan Bientôt comme SS dans l'A7, tout s'passe comme prévu dans le plan Goddamn, tout est planifié jusqu'à la fin, so Robert pour les 48 Chen Zen rouleur pro, donne-moi la zeb, 40 minutes, j'en roule 48 Graille ces MCs comme plat d'fataya, bois la concu' en 2-2, gros comme ataya Fuck le rap game tous les jours, négro, v'la de putes et de katoys comme à Pattaya Sur l'Raptor, so Papou, point rouge sur ton front, négro so Apu Vrai négro shit depuis la maternelle, jeune nègre sauvage, so Abou Goddamn, ils vendent leurs âmes pour des 8000 ventes Mes nègres ont la dalle comme s'ils avaient 8000 ventres So les Etats-Unis d'Afrique, goddamn, R.E.P. Kadhafi J'arrive killuminati, arabe nazi, so Tragedy Khadafi J'veux peser comme Alejandro Chen Zen dans la défense comme Alex Sandro, ekip Terroriste noir comme Boko, yeuz plissés comme Yoko J'veux la Phantom comme Rocko, négro j'ai les crocs comme croco Terroriste noir comme Boko, yeuz plissés comme Yoko J'veux la Phantom comme Rocko, négro j'ai les crocs comme croco, ekipYou might also like4</t>
+          <t>R.E.P. Pimo, j'arrive killu' comme en 2007 So Kaki, tu marqueras pas d'point, négro même en 2000 sets Que des vrais négros dans la secte, que des vrais négros dans le clan Bientôt comme SS dans l'A7, tout s'passe comme prévu dans le plan Goddamn, tout est planifié jusqu'à la fin, so Robert pour les 48 Chen Zen rouleur pro, donne-moi la zeb, 40 minutes, j'en roule 48 Graille ces MCs comme plat d'fataya, bois la concu' en 2-2, gros comme ataya Fuck le rap game tous les jours, négro, v'la de putes et de katoys comme à Pattaya Sur l'Raptor, so Papou, point rouge sur ton front, négro so Apu Vrai négro shit depuis la maternelle, jeune nègre sauvage, so Abou Goddamn, ils vendent leurs âmes pour des 8000 ventes Mes nègres ont la dalle comme s'ils avaient 8000 ventres So les Etats-Unis d'Afrique, goddamn, R.E.P. Kadhafi J'arrive killuminati, arabe nazi, so Tragedy Khadafi J'veux peser comme Alejandro Chen Zen dans la défense comme Alex Sandro, ekip Terroriste noir comme Boko, yeuz plissés comme Yoko J'veux la Phantom comme Rocko, négro j'ai les crocs comme croco Terroriste noir comme Boko, yeuz plissés comme Yoko J'veux la Phantom comme Rocko, négro j'ai les crocs comme croco, ekip4</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Moi j'veux rester vrai, je suis indépendant, j'fais mon propre truc, je bicrave moi, avec mon propre oseille, tu vois c'que j'veux dire et bon, j'assure une distribution qui est numérique donc je fais de mon mieux, déjà sur mon album j'ai une piste seule, tellement j'aime partager donc ça arrive la famille est toujours là, elle est présente sur noir et professionnel et ça explique bien quel genre de mec je suis, car je partage... Moi avec 2 pains, je nourris 500 mecs, avec 2 pains. Tu vois c'que j'veux dire ? J'ai un morceau de poisson ou une boite de sardine, et j'nourris 500 nègres. Tu vois c'que j'veux dire ou pas ? Ça arrive gangster et gentleman, c'est à vie. Si tu vois c'que j'veux dire, comme je dis sur le truc avec Le Gued Muss si je meurs, allume-toi sur mon son et tu fumes avec moi. Tu vois c'que j'veux dire ? Ahah 667, LDO, MMS, i blow trees in that lack, so Yung Simmie, Corleone, 2014, LDO, 667 Sous lean comme SGP Viseur holographique sur le M-Sixteen Psh-psh-psh élimine victime On fume plus que des hippies dans les sixties Négro dans l'ombre on complote comme les Bilderberg Vision nocturne, furtif comme Splinter Cell Précis à distance, sans stress vise leur tête Chef cuisinier, formules secrètes dans l'livre de recettes Négro, 667 lobby Cortège de véhicules noirs comme des yakuzas Les 3 chiffres ancrés dans ma peau à vie Négro, comme un G d'la Mara Salvatrucha So Odeux, mes négros sont mes frères Chimistes, promethazine on extrait Négro, dans notre merde on excelle Fils de tchoin, j'montre mes chicots le jour de ton décès Shout-out au syndicat, shout-out à la secte J'innove comme une indica qui monte à la tête C'qu'on fume t'envoie dans un monde parallèle Tous les jours jélève mon esprit grâce à la verte So ELP, négro rap sombre 32 bédos dans le bando, ça cons' Sprite sombre Dans cette merde jusquà qu'les glaces fondent MMS, clan d'alligators aux écailles sombres Seven-gram-blunt comme Yung Simmie Deux heures négro, cons' onze phillies 667, en une session once finie 2 nuits blanches, négro onze ons' finis Kérosène dans les OCB Négro so OVG Possédé j'me sens comme Sauron négro Comme Auron j'découpe cette merde avec une grosse épée, goddamn You might also like Dans l'usine comme des asiatiques Faya, les yeuz bridés comme des asiatiques On va faire des sous entre nègres comme des asiatiques Dans l'usine comme des asiatiques Faya, les yeuz bridés comme des asiatiques On va faire des sous entre nègres comme des asiatiques Là pour cash nègre, black dinero Rubis, diamants, saphirs, émeraudes Défracté comme si jétais sous crack, lean, héro' So au Roi, 16 pains 4000 négros Chen Zen, aquarium dans le F-16 Dans l'ciel j'laisse des chemtrails Sans stress découpe cette merde comme Curry Denzel Assassination microphonique goddamn Négro ma secte flingue chaque jour Def tate dans les rues négro Equipe suprême comme les zombies d'Flatbush 667 dans labo comme 15 chimistes MMS fume jusquà l'infini Corleone, de l'or sur les incisives Camouflage optique, négros invisibles Gaddamn, 6.6.7 So Raider Klan, 275 Yung Simmie, SpaceGhostPurrp Corleone, 2014, LDO, MMS, salope N.R.M, haha</t>
+          <t>Moi j'veux rester vrai, je suis indépendant, j'fais mon propre truc, je bicrave moi, avec mon propre oseille, tu vois c'que j'veux dire et bon, j'assure une distribution qui est numérique donc je fais de mon mieux, déjà sur mon album j'ai une piste seule, tellement j'aime partager donc ça arrive la famille est toujours là, elle est présente sur noir et professionnel et ça explique bien quel genre de mec je suis, car je partage... Moi avec 2 pains, je nourris 500 mecs, avec 2 pains. Tu vois c'que j'veux dire ? J'ai un morceau de poisson ou une boite de sardine, et j'nourris 500 nègres. Tu vois c'que j'veux dire ou pas ? Ça arrive gangster et gentleman, c'est à vie. Si tu vois c'que j'veux dire, comme je dis sur le truc avec Le Gued Muss si je meurs, allume-toi sur mon son et tu fumes avec moi. Tu vois c'que j'veux dire ? Ahah 667, LDO, MMS, i blow trees in that lack, so Yung Simmie, Corleone, 2014, LDO, 667 Sous lean comme SGP Viseur holographique sur le M-Sixteen Psh-psh-psh élimine victime On fume plus que des hippies dans les sixties Négro dans l'ombre on complote comme les Bilderberg Vision nocturne, furtif comme Splinter Cell Précis à distance, sans stress vise leur tête Chef cuisinier, formules secrètes dans l'livre de recettes Négro, 667 lobby Cortège de véhicules noirs comme des yakuzas Les 3 chiffres ancrés dans ma peau à vie Négro, comme un G d'la Mara Salvatrucha So Odeux, mes négros sont mes frères Chimistes, promethazine on extrait Négro, dans notre merde on excelle Fils de tchoin, j'montre mes chicots le jour de ton décès Shout-out au syndicat, shout-out à la secte J'innove comme une indica qui monte à la tête C'qu'on fume t'envoie dans un monde parallèle Tous les jours jélève mon esprit grâce à la verte So ELP, négro rap sombre 32 bédos dans le bando, ça cons' Sprite sombre Dans cette merde jusquà qu'les glaces fondent MMS, clan d'alligators aux écailles sombres Seven-gram-blunt comme Yung Simmie Deux heures négro, cons' onze phillies 667, en une session once finie 2 nuits blanches, négro onze ons' finis Kérosène dans les OCB Négro so OVG Possédé j'me sens comme Sauron négro Comme Auron j'découpe cette merde avec une grosse épée, goddamn Dans l'usine comme des asiatiques Faya, les yeuz bridés comme des asiatiques On va faire des sous entre nègres comme des asiatiques Dans l'usine comme des asiatiques Faya, les yeuz bridés comme des asiatiques On va faire des sous entre nègres comme des asiatiques Là pour cash nègre, black dinero Rubis, diamants, saphirs, émeraudes Défracté comme si jétais sous crack, lean, héro' So au Roi, 16 pains 4000 négros Chen Zen, aquarium dans le F-16 Dans l'ciel j'laisse des chemtrails Sans stress découpe cette merde comme Curry Denzel Assassination microphonique goddamn Négro ma secte flingue chaque jour Def tate dans les rues négro Equipe suprême comme les zombies d'Flatbush 667 dans labo comme 15 chimistes MMS fume jusquà l'infini Corleone, de l'or sur les incisives Camouflage optique, négros invisibles Gaddamn, 6.6.7 So Raider Klan, 275 Yung Simmie, SpaceGhostPurrp Corleone, 2014, LDO, MMS, salope N.R.M, haha</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CashMoneyAP This is my baby Rayane Ah, ekip Pétasse, han Rayane on the beat Baw 247, j'pense au cash, money Han, ekip à fond, so CashMoney Ekip Ils font la mala avec leurs avances mais ils s'font violer comme les négros d'Cash Money Ha 667, Bayern, pharmacie, Bayer, négro, fais les plans comme Mayer Rothschild Corleone Han, vétéran, ça va pop comme à Téhéran Paw 247, j'pense au cash, money Cash, ekip à fond, so CashMoney Han Ils font la mala avec leurs avances mais ils s'font violer comme les négros d'Cash Money Ah 667, Bayern, pharmacie, Bayr, négro, fais les plans comme Mayer Rothschild Corlone, vétéran Han, ça va pop comme à Téhéran Paw Fons' au lin, j'aime bien quand j'vois double Haha So Kiluavi, Degré 33, Double Dubble Dans l'jeu, j'ai au moins trente trois double Han Sans stress, on les fouette, fin du match, 103-12 Facile Si c'est pas pour l'blé, c'est à plus À plus 6.6.7 en tir, que des A Swish Toujours des bars même si j'ai pas d'puces Nan Si c'était pas l'rap, c'était Bac Ekip So Loto Ekip, 14 Carbone Bombarde comme dans Need For Speed Carbon Sku So à tous mes vrais négros qui charbonnent Ekip Que j'avance, objectif, c'est sans faute Ekip Dans la défense, j'les sèche sans faute Pah Que j'découpe, j'me sens comme sept cent faux J'préfère marcher avec un vrai qu'avec cent faux Damn J'paye en cash, j'fais pas d'emprunt Nan Sous lin, en première classe dans l'train Haha Dieu avec moi donc j'marche sans crainte Nan Scène de crime, j'laisse pas d'empreinte Nan Instru, dégâts Drill comme ABK Ekip Berline, j'fais pas d'bécane Sku, 95 de vision comme Beckham Pah Concu', c'est du riz Ha, so Khaled, les sacs, on les sécurise Cash Négro, j'me sens comme Jason à chaque apparition, c'est des tueries Paw, paw Au-dessus du rap français, j'largue du phosphore J'arrive limite asiatique comme le Détroit du Bosphore Ekip Sors les plans sur le Darknet Han, tous les jours, encaisse comme le parcmètre Cash J'les vois p'tits comme si j'faisais quatre mètres En haut So le gros chien, négro, j'ai pas d'maître Nan Concurrence, dans la poche Han J'arrive allemand dans la Porsche Sku Gros tacle dans la gorge Ça s'voit qu'c'est des fakes dans l'noir sans la torche Fufu Rolls-Royce, Phantom Sku, sku Noir sur noir comme Coach le fantôme Ekip Allô ? Feu vert, les opps se transforment en Casper le fantôme Paw Au mic' comme si j'venais d'London Han R.E.P Nip', j'ai ma Lauren London Han Ceinture Burberry, check London Ekip Là pour le cash, pétasse, envoie les hundons, ekip You might also like Han, C.E.O Chen, j'ai le Kbis Cash Impose N.R.M, j'ai les tactiques de Dadis Pétasse Depuis 2k10, négro, sans stress, on les fouette de la même manière à 2k10 Facile, haha, pétasse J'arrive raciste comme en Norvège À Dakar pour le...</t>
+          <t>CashMoneyAP This is my baby Rayane Ah, ekip Pétasse, han Rayane on the beat Baw 247, j'pense au cash, money Han, ekip à fond, so CashMoney Ekip Ils font la mala avec leurs avances mais ils s'font violer comme les négros d'Cash Money Ha 667, Bayern, pharmacie, Bayer, négro, fais les plans comme Mayer Rothschild Corleone Han, vétéran, ça va pop comme à Téhéran Paw 247, j'pense au cash, money Cash, ekip à fond, so CashMoney Han Ils font la mala avec leurs avances mais ils s'font violer comme les négros d'Cash Money Ah 667, Bayern, pharmacie, Bayr, négro, fais les plans comme Mayer Rothschild Corlone, vétéran Han, ça va pop comme à Téhéran Paw Fons' au lin, j'aime bien quand j'vois double Haha So Kiluavi, Degré 33, Double Dubble Dans l'jeu, j'ai au moins trente trois double Han Sans stress, on les fouette, fin du match, 103-12 Facile Si c'est pas pour l'blé, c'est à plus À plus 6.6.7 en tir, que des A Swish Toujours des bars même si j'ai pas d'puces Nan Si c'était pas l'rap, c'était Bac Ekip So Loto Ekip, 14 Carbone Bombarde comme dans Need For Speed Carbon Sku So à tous mes vrais négros qui charbonnent Ekip Que j'avance, objectif, c'est sans faute Ekip Dans la défense, j'les sèche sans faute Pah Que j'découpe, j'me sens comme sept cent faux J'préfère marcher avec un vrai qu'avec cent faux Damn J'paye en cash, j'fais pas d'emprunt Nan Sous lin, en première classe dans l'train Haha Dieu avec moi donc j'marche sans crainte Nan Scène de crime, j'laisse pas d'empreinte Nan Instru, dégâts Drill comme ABK Ekip Berline, j'fais pas d'bécane Sku, 95 de vision comme Beckham Pah Concu', c'est du riz Ha, so Khaled, les sacs, on les sécurise Cash Négro, j'me sens comme Jason à chaque apparition, c'est des tueries Paw, paw Au-dessus du rap français, j'largue du phosphore J'arrive limite asiatique comme le Détroit du Bosphore Ekip Sors les plans sur le Darknet Han, tous les jours, encaisse comme le parcmètre Cash J'les vois p'tits comme si j'faisais quatre mètres En haut So le gros chien, négro, j'ai pas d'maître Nan Concurrence, dans la poche Han J'arrive allemand dans la Porsche Sku Gros tacle dans la gorge Ça s'voit qu'c'est des fakes dans l'noir sans la torche Fufu Rolls-Royce, Phantom Sku, sku Noir sur noir comme Coach le fantôme Ekip Allô ? Feu vert, les opps se transforment en Casper le fantôme Paw Au mic' comme si j'venais d'London Han R.E.P Nip', j'ai ma Lauren London Han Ceinture Burberry, check London Ekip Là pour le cash, pétasse, envoie les hundons, ekip Han, C.E.O Chen, j'ai le Kbis Cash Impose N.R.M, j'ai les tactiques de Dadis Pétasse Depuis 2k10, négro, sans stress, on les fouette de la même manière à 2k10 Facile, haha, pétasse J'arrive raciste comme en Norvège À Dakar pour le...</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ekip, ekip han 667 han 'Sirus, Corleone Goddamn, Pakistan Sheesh Le shit du Pakistan Han, ekip, ekip, ekip MMS OVG c'est le cartel Pétasse, comme Ralo connecté avec le cartel Goddamn Cross ces négros, blesse à distance Han, transige comme James Harden sur le parquet Swish On les fouette de manière annuelle goddamn, j'ai v'là d'manuels, négro, j'ai les réflexes à Manuel Ekip Leaner de ouf, j'pilote sans stress, j'buss, j'développe l'automatique ou la manuelle Sku J'découpe comme si j'm'appelais Kratos Goddamn, pétasse, j'peux plus rapper gratos Nan On investit dans les matos, so Nolik j'arrive tatoué comme les Vatos Goddamn So Despo fuck les maudits Tous les jours, comme des nazis dans les Audi Sku, sku Fuck twelve, libérez Cdai, RondoNumbaNine, Kodak, Jackboy, Bobby et Roddy Ekip J'mets des petits et des grands ponts Ftt ftt, si c'est pas la balle, c'est les crampons pétasse, pétasse J'veux du biff comme si j'm'appelais David ou Benjamin Goddamn, tu m'connais négro so les MM's bleu, j'veux les blue benjamin Là pour les milliards avec Adi', faut qu'j'sorte de Gucci avec des caddies caddies Bad Bitch elle m'appelle Daddy, j'la regarde j'me dit Goddamn gaddy goddamn J'veux la Maybach pas le BMX sku, c'est des insectes, on est le TMX Killu' à vie, goddamn j'crois qu'j'ai les mêmes problèmes psychiatriques que DMX goddamn Tête de mort sur le drapeau, fonscar avec mes pirates sur le bateau Fuck une part, fuck les miettes, j'ai la recette pour faire le gâteau pétasse Chen Zen, 'Sirus Jack, envoie des ogives comme le Pakistan goddamn Ahk shit, pop shit, twelve can't stop shit négro so le Pakistan You might also like Frappe fort comme la kalash de Kadyrov Osirus Ramzan Fonscar au max dans l'usine à Maxam Que des louds étrangères dans le sang, nan pas d'xan Goddamn, guérilla sort le treillis Sont dans le lack, dans le V.I OV négro, de la carte ça les raient dans le pays, fuck un 'llu comme Neil Goddamn, y'a les louds fluos Pas de concu' à la gare du haut Sirus', Freeze, cons' la bio Killu' shit, on utilise les armes du haut Han, science comme Keanu Reeves man OV jamais en pénurie de gaz Monte le tarot, crée des pénuries de gaz Là pour or, diamant et rubis black Consomme, deviens fou OV mon négro ça vient d'kush So le 'Sacce les feinte tous Négro ça taff pour avoir le gain d'Bush J'ai des techniques de loge de Autriche j'ai les poches, de lopi Bientôt, j'remplis mes poches de money Leaner, j'ai besoin d'un orthophoniste Importe tout, pilule rare Fume avec nous, check ton cardio N'importe où, on n'y est pas Fumée épaisse, on éparpille haut Corleone, Sirus' Jack Fume des RAW's, tire du track Sort des porcs, fils de lâche Sort des prods, du livre du sale so Freeze c'est s J'fais ton stage de bheu, j'fais 10 séances On s'allume depuis, on a plus la morphologie d'un gosse ou d'un lycéen Ton plan est lackant, j'sip la faille Nouveau t-shirt sur le site, la paye Cuisine la merde, négro vide la caille si on coupe la 'teille</t>
+          <t>Ekip, ekip han 667 han 'Sirus, Corleone Goddamn, Pakistan Sheesh Le shit du Pakistan Han, ekip, ekip, ekip MMS OVG c'est le cartel Pétasse, comme Ralo connecté avec le cartel Goddamn Cross ces négros, blesse à distance Han, transige comme James Harden sur le parquet Swish On les fouette de manière annuelle goddamn, j'ai v'là d'manuels, négro, j'ai les réflexes à Manuel Ekip Leaner de ouf, j'pilote sans stress, j'buss, j'développe l'automatique ou la manuelle Sku J'découpe comme si j'm'appelais Kratos Goddamn, pétasse, j'peux plus rapper gratos Nan On investit dans les matos, so Nolik j'arrive tatoué comme les Vatos Goddamn So Despo fuck les maudits Tous les jours, comme des nazis dans les Audi Sku, sku Fuck twelve, libérez Cdai, RondoNumbaNine, Kodak, Jackboy, Bobby et Roddy Ekip J'mets des petits et des grands ponts Ftt ftt, si c'est pas la balle, c'est les crampons pétasse, pétasse J'veux du biff comme si j'm'appelais David ou Benjamin Goddamn, tu m'connais négro so les MM's bleu, j'veux les blue benjamin Là pour les milliards avec Adi', faut qu'j'sorte de Gucci avec des caddies caddies Bad Bitch elle m'appelle Daddy, j'la regarde j'me dit Goddamn gaddy goddamn J'veux la Maybach pas le BMX sku, c'est des insectes, on est le TMX Killu' à vie, goddamn j'crois qu'j'ai les mêmes problèmes psychiatriques que DMX goddamn Tête de mort sur le drapeau, fonscar avec mes pirates sur le bateau Fuck une part, fuck les miettes, j'ai la recette pour faire le gâteau pétasse Chen Zen, 'Sirus Jack, envoie des ogives comme le Pakistan goddamn Ahk shit, pop shit, twelve can't stop shit négro so le Pakistan Frappe fort comme la kalash de Kadyrov Osirus Ramzan Fonscar au max dans l'usine à Maxam Que des louds étrangères dans le sang, nan pas d'xan Goddamn, guérilla sort le treillis Sont dans le lack, dans le V.I OV négro, de la carte ça les raient dans le pays, fuck un 'llu comme Neil Goddamn, y'a les louds fluos Pas de concu' à la gare du haut Sirus', Freeze, cons' la bio Killu' shit, on utilise les armes du haut Han, science comme Keanu Reeves man OV jamais en pénurie de gaz Monte le tarot, crée des pénuries de gaz Là pour or, diamant et rubis black Consomme, deviens fou OV mon négro ça vient d'kush So le 'Sacce les feinte tous Négro ça taff pour avoir le gain d'Bush J'ai des techniques de loge de Autriche j'ai les poches, de lopi Bientôt, j'remplis mes poches de money Leaner, j'ai besoin d'un orthophoniste Importe tout, pilule rare Fume avec nous, check ton cardio N'importe où, on n'y est pas Fumée épaisse, on éparpille haut Corleone, Sirus' Jack Fume des RAW's, tire du track Sort des porcs, fils de lâche Sort des prods, du livre du sale so Freeze c'est s J'fais ton stage de bheu, j'fais 10 séances On s'allume depuis, on a plus la morphologie d'un gosse ou d'un lycéen Ton plan est lackant, j'sip la faille Nouveau t-shirt sur le site, la paye Cuisine la merde, négro vide la caille si on coupe la 'teille</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>So le Flem So le Amine 2-2, Corleone Sadio, Riyad 6.6.7, L.Z Ekip Lin dans l'code red Lin, chaque prod' finit avec le corps raide J'arrive fini à la beuh comme Red J'fume la bonne pha', j'allume la Tom Ford J'manipule la wax, négro, on dirait d'la colle forte J'suis là pour le cash, il m'faut trois fois les dought d'Diams Avec le Ashe, on s'moque des rappeurs avec des faux diams V'là d'cousins comme un O.G Crips, le chrome est gris Han J'ai cons' trop d'hybrides, gros aqua dans un Audi gris J'ai arrêté deux fois mais j'lean encore comme Fnix Flexin Lin Trois fois sous vide devant l chien, impossible qu'il s'excite Eh On envoie que d'la pure comme la Bolivie Han On veut les Paul Newman certifiées par Olivine Pas l'temps pour les jolies filles Brr, big cup, big lean depuis l'époque de Chief Keef Ouh Huit mesures, ta bitch kiffe Han, huit mesures, ta bitch kiffe Flem, Amine, que des multipistes, euros, dollars, dinars, que j'les multiplie J'roule un bon p'tit pli', en défense comme Umtiti Hey, hey, le sable coule du sablier Tter-gra, j'peux pas plier, j'ai ma dague comme un Templier Belek à tes meufs, tu peux vite finir par transpirer Crari ils écoutent as-p mais j'sais qu'ils font qu's'inspirer Y a que des vampires, j'sais qu'mon sang, ils veulent aspirer Freeze, 2-2 sur la prod', tu peux même plus respirer Les frères au bled font qu'espérer pour l'visa expiré J'ai dégradé la prod', son état fait que empirer J'rajoute du sirop, la bouteille, je la remplirai J'ai pas un ennemi qui s'en est bien tiré Splash, j'sais qu'ils vont courir si j'me mets à tirer Charcle Par les big billets, on est attirés, avec mes propres mains, la maison d'mama, je la bâtirai Hey, hey, hey You might also like Par les big billets, on est attirés Cash, laisse les coups francs, négro, si tu sais pas tirer Faut jamais dégainer si t'es pas prêt à tirer, j'aime bien les Walther P22 facile à tirer Burberry, Moncler, Mike Amiri, AF1 Han, ça bombarde, ça cons' beaucoup d'essence comme la F1 Charcle J'me demande bien où ils étaient quand on avait faim, maintenant, on a la dalle mais c'est même plus la même faim Eh, eh Entre eux et nous, trop d'écarts d'niveaux, pas d'rivaux, gang shit, comme à San Bernardino Gang Souvent, j'regarde mon cup, négro et j'pense à Pimo Gang shit J'arrive full tatoué comme un membre de gang latino Gang shit On arrive masqués comme les Anonymous Wow, wow, tous les jours, j'allume des Anonymouz Chen Zen aka Ra's al, j'fume des casas, des zazas Han Tous les jours, j'fuck les khazare, nous c'est Dieu et eux, c'est hazard Big so à Saza, depuis 2000, représente Gaza, dans ma te-tê, c'est un bazar Et j'fais que viser au-d'ssus du bassin, et j'porte pas d'mocassins Venez à cent, on vous termine à cinq, calibrés dans l'réel et eux, que sur GTA 5 Allemandes dans les A5, les négros, on dirait qu'pour eux, rester vrai, c'est pas simple Chen Zen, Ashe 2-2 aka les requins dans les bassins Han Faut v'là d'villas et négro, j'm'arrête pas tant qu'j'en ai pas cinq Hey Grr1</t>
+          <t>So le Flem So le Amine 2-2, Corleone Sadio, Riyad 6.6.7, L.Z Ekip Lin dans l'code red Lin, chaque prod' finit avec le corps raide J'arrive fini à la beuh comme Red J'fume la bonne pha', j'allume la Tom Ford J'manipule la wax, négro, on dirait d'la colle forte J'suis là pour le cash, il m'faut trois fois les dought d'Diams Avec le Ashe, on s'moque des rappeurs avec des faux diams V'là d'cousins comme un O.G Crips, le chrome est gris Han J'ai cons' trop d'hybrides, gros aqua dans un Audi gris J'ai arrêté deux fois mais j'lean encore comme Fnix Flexin Lin Trois fois sous vide devant l chien, impossible qu'il s'excite Eh On envoie que d'la pure comme la Bolivie Han On veut les Paul Newman certifiées par Olivine Pas l'temps pour les jolies filles Brr, big cup, big lean depuis l'époque de Chief Keef Ouh Huit mesures, ta bitch kiffe Han, huit mesures, ta bitch kiffe Flem, Amine, que des multipistes, euros, dollars, dinars, que j'les multiplie J'roule un bon p'tit pli', en défense comme Umtiti Hey, hey, le sable coule du sablier Tter-gra, j'peux pas plier, j'ai ma dague comme un Templier Belek à tes meufs, tu peux vite finir par transpirer Crari ils écoutent as-p mais j'sais qu'ils font qu's'inspirer Y a que des vampires, j'sais qu'mon sang, ils veulent aspirer Freeze, 2-2 sur la prod', tu peux même plus respirer Les frères au bled font qu'espérer pour l'visa expiré J'ai dégradé la prod', son état fait que empirer J'rajoute du sirop, la bouteille, je la remplirai J'ai pas un ennemi qui s'en est bien tiré Splash, j'sais qu'ils vont courir si j'me mets à tirer Charcle Par les big billets, on est attirés, avec mes propres mains, la maison d'mama, je la bâtirai Hey, hey, hey Par les big billets, on est attirés Cash, laisse les coups francs, négro, si tu sais pas tirer Faut jamais dégainer si t'es pas prêt à tirer, j'aime bien les Walther P22 facile à tirer Burberry, Moncler, Mike Amiri, AF1 Han, ça bombarde, ça cons' beaucoup d'essence comme la F1 Charcle J'me demande bien où ils étaient quand on avait faim, maintenant, on a la dalle mais c'est même plus la même faim Eh, eh Entre eux et nous, trop d'écarts d'niveaux, pas d'rivaux, gang shit, comme à San Bernardino Gang Souvent, j'regarde mon cup, négro et j'pense à Pimo Gang shit J'arrive full tatoué comme un membre de gang latino Gang shit On arrive masqués comme les Anonymous Wow, wow, tous les jours, j'allume des Anonymouz Chen Zen aka Ra's al, j'fume des casas, des zazas Han Tous les jours, j'fuck les khazare, nous c'est Dieu et eux, c'est hazard Big so à Saza, depuis 2000, représente Gaza, dans ma te-tê, c'est un bazar Et j'fais que viser au-d'ssus du bassin, et j'porte pas d'mocassins Venez à cent, on vous termine à cinq, calibrés dans l'réel et eux, que sur GTA 5 Allemandes dans les A5, les négros, on dirait qu'pour eux, rester vrai, c'est pas simple Chen Zen, Ashe 2-2 aka les requins dans les bassins Han Faut v'là d'villas et négro, j'm'arrête pas tant qu'j'en ai pas cinq Hey Grr1</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>J'suis dans le Xan J'suis dans le centre Gaddamn, djo dans le centre Gaddamn, 667 c'est le KKK Chen Xan, j'ai les pills, j'ai le lean, j'ai le ca-caca J'dab sur cette pute, so Rich l'Enfant, gaddamn Pour moi t'existes pas comme un fils d'enfant, pétasse J'suis dans le Xan, cocktail dans le sang Sans stress, en défense j'suis dans le centre Djo dans le sample Dans la surface démarqué, djo dans le centre, gaddamn Chez nous comme des étoiles tu sais qu'les bédos filent Négro, j'ai fait un rêve où jexécutais des pédophiles 20.16 c'est la FDT négro, regarde les signes J'repense à ma vie, j'sais qu'j'vais passer par la case flammes Quand j'regarde les cimes Gaddamn, ekip tous les jours 667, comme un grand club, ekip tous les jours Au-dessus d'leur tête comme un hélico haha, gaddamn Fuck la France comme Karim et Nico so Anelka Au-dessus d'leur tête comme un hélico au-d'ssus Tous les jours fuck la France comme Karim et Nico ekip Au-dessus d'leur tête comme un hélico gaddamn, ekip Fuck la France comme Karim et Nico so Karim Au-dessus d'leur tête comme un hélico au-d'ssus, pétasse Chaque jour fuck la France comme Karim et Nico so Nico Pétasse, MMS, LDO, NRM, 667 You might also like J'sais c'que j'fais, j'ai le plan, pétasse pétasse, pétasse MMS c'est le clan, pétasse pétasse J'suis dans le Xan, cocktail dans le sang ekip, ekip En défense négro, j'suis dans le centre pétasse 20.16, FDT, 667, Chen Zen, ekip, ekip, ekip, ekip, ekip ekip, pétasse1</t>
+          <t>J'suis dans le Xan J'suis dans le centre Gaddamn, djo dans le centre Gaddamn, 667 c'est le KKK Chen Xan, j'ai les pills, j'ai le lean, j'ai le ca-caca J'dab sur cette pute, so Rich l'Enfant, gaddamn Pour moi t'existes pas comme un fils d'enfant, pétasse J'suis dans le Xan, cocktail dans le sang Sans stress, en défense j'suis dans le centre Djo dans le sample Dans la surface démarqué, djo dans le centre, gaddamn Chez nous comme des étoiles tu sais qu'les bédos filent Négro, j'ai fait un rêve où jexécutais des pédophiles 20.16 c'est la FDT négro, regarde les signes J'repense à ma vie, j'sais qu'j'vais passer par la case flammes Quand j'regarde les cimes Gaddamn, ekip tous les jours 667, comme un grand club, ekip tous les jours Au-dessus d'leur tête comme un hélico haha, gaddamn Fuck la France comme Karim et Nico so Anelka Au-dessus d'leur tête comme un hélico au-d'ssus Tous les jours fuck la France comme Karim et Nico ekip Au-dessus d'leur tête comme un hélico gaddamn, ekip Fuck la France comme Karim et Nico so Karim Au-dessus d'leur tête comme un hélico au-d'ssus, pétasse Chaque jour fuck la France comme Karim et Nico so Nico Pétasse, MMS, LDO, NRM, 667 J'sais c'que j'fais, j'ai le plan, pétasse pétasse, pétasse MMS c'est le clan, pétasse pétasse J'suis dans le Xan, cocktail dans le sang ekip, ekip En défense négro, j'suis dans le centre pétasse 20.16, FDT, 667, Chen Zen, ekip, ekip, ekip, ekip, ekip ekip, pétasse1</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip 667, Araï Hi-hi-hi-hi-hi, c'est moi Eh, eh J'entends des voix comme Jeanne-d'Arc, j'fais des va-et-vient comme un fusil à pompe Crr-crr Parano, même quand j'fais la une, j'suis celui qui fait, pas celui qui raconte J'prends l'biff jusqu'à Eindhoven, j'reviens pas d'un match du PSV J'v'-esqui les tains-p' qui demandent la dote comme si j'achetais une tchop RSV Psch So à la Secte, on parle pas pour rien, négro, on opère comme le FSB Gros aqua dans les RS, les soupapes comme Neres, que d'la pure comme à LSD Allume les kushers, so Teufeurs, on r'connaît vite les bluffeurs, ils ont du r'tard comme s'ils avaient v'là d'buffers Ah-ah FLRG tous les jours, négro, c'est que des Robert Kelly, des Sisqo et des Usher pedo Y aura pas d'que-chè si y a pas d'te-shi, poto, rentre chez oi-t, j'suis pas Mère Thérésa J'arrive en shaolin comme RZA et GZA, on applique le plavon, sang plus froid qu'des lézards J'découpe au laser comme Anakin, on anesthésie ton pif à la paraffine Ah On aime le cash rapide, les cadrans arabiques, des sulfateuses comme des carabines 667, Araï, j'suis Sergio Ramos, t'es Garay Sont pistonnés comme les p'tits à Zinédine, 's auront jamais l'niveau d'leur père Ekip, ekip, ekip You might also like Corleone, N.A.H, que ça découpe, Chen Zen aka la hache Ekip Que des corps sous la bâche, ça tache sans tié-p' comme le jeu d'la vache Pah-pah La loud part de L.A.X, on les effraie sans être au M.A.X Eh, ouais J'passe vite de Bunga X, si on vient, on envoie pas d'F.A.X Okay Pantin, Boboche, là pour gonfler nos poches, mettre à l'abri nos proches, on parle jamais au proc' Fidèle au poste, j'arrive fonce-dé aux drogues, ils sont choqués des tarifs qu'on met aux prod' Ouais, ouais 9.3 comme Sazamyzy, j'vais pas faire un visu', on fait pas la bise à tous ces fils On fait la diff' avec ou sans le biff Ouh, on les baise, on rédige la thèse, on prend la caisse remplie d'espèce en express On les presse, concu', v'là d'appels de détresse, très haut sur l'terrain, avec toute l'équipe, on les presse Pah-pah, han À Dakar, les pattes de tchoy, on les graisse, on fait que d'progresser, négro, jamais on régresse Nan Quand on trace, on met pas d'feu d'détresse, coup d'crosse, on laisse pas d'traces comme Dexter Laisse faire l'expert, Allah y ster, j'vais t'faire sans l'faire Pah, pah, pah donner le go, nous on sait faire Un flash dans l'sang, j'vois rouge vif comme Mohamed Salah et Mané sans trophy Ekip Chen Zen aka France Most Wanted, des fois, j'dérape comme dans Most Wanted Wah, eh Skurt, skurt, skurt, skurt, skurt 667, Araï, pétasse Okay Chen Zen, Nahir, arrêtez d'haïr, repère les traîtres avant qu'ils puissent me trahir Nahir, Chen Zen, arrêtez d'3ayen, toujours sous l'porche comme Cayenne Jamais enceinté une pute comme Ayem Nah, que les sous, fuck les strasses et les paillettes Ouh J'suis Sadio Mané, t'es Payet, comme Benze', j'fais la randonnée à ied-p La mallette, habillé, sans jamais s'déshabiller, faut pas l'nier si...</t>
+          <t>Ekip, ekip, ekip 667, Araï Hi-hi-hi-hi-hi, c'est moi Eh, eh J'entends des voix comme Jeanne-d'Arc, j'fais des va-et-vient comme un fusil à pompe Crr-crr Parano, même quand j'fais la une, j'suis celui qui fait, pas celui qui raconte J'prends l'biff jusqu'à Eindhoven, j'reviens pas d'un match du PSV J'v'-esqui les tains-p' qui demandent la dote comme si j'achetais une tchop RSV Psch So à la Secte, on parle pas pour rien, négro, on opère comme le FSB Gros aqua dans les RS, les soupapes comme Neres, que d'la pure comme à LSD Allume les kushers, so Teufeurs, on r'connaît vite les bluffeurs, ils ont du r'tard comme s'ils avaient v'là d'buffers Ah-ah FLRG tous les jours, négro, c'est que des Robert Kelly, des Sisqo et des Usher pedo Y aura pas d'que-chè si y a pas d'te-shi, poto, rentre chez oi-t, j'suis pas Mère Thérésa J'arrive en shaolin comme RZA et GZA, on applique le plavon, sang plus froid qu'des lézards J'découpe au laser comme Anakin, on anesthésie ton pif à la paraffine Ah On aime le cash rapide, les cadrans arabiques, des sulfateuses comme des carabines 667, Araï, j'suis Sergio Ramos, t'es Garay Sont pistonnés comme les p'tits à Zinédine, 's auront jamais l'niveau d'leur père Ekip, ekip, ekip Corleone, N.A.H, que ça découpe, Chen Zen aka la hache Ekip Que des corps sous la bâche, ça tache sans tié-p' comme le jeu d'la vache Pah-pah La loud part de L.A.X, on les effraie sans être au M.A.X Eh, ouais J'passe vite de Bunga X, si on vient, on envoie pas d'F.A.X Okay Pantin, Boboche, là pour gonfler nos poches, mettre à l'abri nos proches, on parle jamais au proc' Fidèle au poste, j'arrive fonce-dé aux drogues, ils sont choqués des tarifs qu'on met aux prod' Ouais, ouais 9.3 comme Sazamyzy, j'vais pas faire un visu', on fait pas la bise à tous ces fils On fait la diff' avec ou sans le biff Ouh, on les baise, on rédige la thèse, on prend la caisse remplie d'espèce en express On les presse, concu', v'là d'appels de détresse, très haut sur l'terrain, avec toute l'équipe, on les presse Pah-pah, han À Dakar, les pattes de tchoy, on les graisse, on fait que d'progresser, négro, jamais on régresse Nan Quand on trace, on met pas d'feu d'détresse, coup d'crosse, on laisse pas d'traces comme Dexter Laisse faire l'expert, Allah y ster, j'vais t'faire sans l'faire Pah, pah, pah donner le go, nous on sait faire Un flash dans l'sang, j'vois rouge vif comme Mohamed Salah et Mané sans trophy Ekip Chen Zen aka France Most Wanted, des fois, j'dérape comme dans Most Wanted Wah, eh Skurt, skurt, skurt, skurt, skurt 667, Araï, pétasse Okay Chen Zen, Nahir, arrêtez d'haïr, repère les traîtres avant qu'ils puissent me trahir Nahir, Chen Zen, arrêtez d'3ayen, toujours sous l'porche comme Cayenne Jamais enceinté une pute comme Ayem Nah, que les sous, fuck les strasses et les paillettes Ouh J'suis Sadio Mané, t'es Payet, comme Benze', j'fais la randonnée à ied-p La mallette, habillé, sans jamais s'déshabiller, faut pas l'nier si...</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pétasse, gaddem Ekip, ekip J'veux les Benjamins bleus comme Peewee, Peewee, Peewee, Peewee Benjamins bleus comme Peewee, so Peewee Longway Benjamins bleus comme Peewee, Peewee, Peewee Benjamins bleus comme Peewee, pétasse, pétasse, pétasse, pétasse Benjamins bleus comme Peewee, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee Benjamins bleus comme Peewee, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse Buss comme I8, toi comme Peewee, pétasse À propos des sous comme Bwin, pétasse Chen Zen trop d'sep, bientôt comme kiwi, pétasse Gelato dans l'air, so Young Dolph J'arrive avec plus de flow qu'onze golfes Si Dieu le veut négro, bientôt j'gare une foreign qui vaut onze Golf 667, Viano bulletproof, so Kaki, bientôt bullet proof 667, élimine tous ces négros en masse Comme dans 50 Cent Bulletproof En orbite, j'suis dans la station J'suis pas là négro, mais j'suis dans ta station Négro, j'consomme plus d'essence qu'il y en dans la station J'suis dans les pills, t'es dans la base Avec le clan fume dans la base Si t'as les poumons, rentre dans l'aqua Rentre dans la chambre à gas So Peewee Longway, négro j'veux les blue benjamin So Gaza chaque jour, fuck Netanyahou Benjamin You might also like J'veux les Benjamins bleus comme Peewee, Peewee, Peewee, Peewee Benjamins bleus comme Peewee, so Peewee Longway Benjamins bleus comme Peewee, Peewee, Peewee Benjamins bleus comme Peewee, pétasse, pétasse, pétasse, pétasse Benjamins bleus comme Peewee, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee Benjamins bleus comme Peewee, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee, ekip So Peewee Longway Benjamins bleus comme Peewee Pétasse, pétasse, pétasse Benjamins bleus comme Peewee Benjamins bleus comme Peewee, pétasse Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee</t>
+          <t>Pétasse, gaddem Ekip, ekip J'veux les Benjamins bleus comme Peewee, Peewee, Peewee, Peewee Benjamins bleus comme Peewee, so Peewee Longway Benjamins bleus comme Peewee, Peewee, Peewee Benjamins bleus comme Peewee, pétasse, pétasse, pétasse, pétasse Benjamins bleus comme Peewee, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee Benjamins bleus comme Peewee, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse Buss comme I8, toi comme Peewee, pétasse À propos des sous comme Bwin, pétasse Chen Zen trop d'sep, bientôt comme kiwi, pétasse Gelato dans l'air, so Young Dolph J'arrive avec plus de flow qu'onze golfes Si Dieu le veut négro, bientôt j'gare une foreign qui vaut onze Golf 667, Viano bulletproof, so Kaki, bientôt bullet proof 667, élimine tous ces négros en masse Comme dans 50 Cent Bulletproof En orbite, j'suis dans la station J'suis pas là négro, mais j'suis dans ta station Négro, j'consomme plus d'essence qu'il y en dans la station J'suis dans les pills, t'es dans la base Avec le clan fume dans la base Si t'as les poumons, rentre dans l'aqua Rentre dans la chambre à gas So Peewee Longway, négro j'veux les blue benjamin So Gaza chaque jour, fuck Netanyahou Benjamin J'veux les Benjamins bleus comme Peewee, Peewee, Peewee, Peewee Benjamins bleus comme Peewee, so Peewee Longway Benjamins bleus comme Peewee, Peewee, Peewee Benjamins bleus comme Peewee, pétasse, pétasse, pétasse, pétasse Benjamins bleus comme Peewee, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee Benjamins bleus comme Peewee, Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee, ekip So Peewee Longway Benjamins bleus comme Peewee Pétasse, pétasse, pétasse Benjamins bleus comme Peewee Benjamins bleus comme Peewee, pétasse Benjamins bleus comme Peewee J'veux les Benjamins bleus comme Peewee, pétasse, Benjamins bleus comme Peewee</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>So le Flem Ekip, ekip 6.6.7, Corteiz C.R.T.Z, C.R.T.Z Ekip, ekip, ekip han Faut plus d'argent, il faut plus de montres cash, 6.6.7, Corteiz, règne sur le monde han Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres sku C'est l'temps d'prendre de l'expansion, plus de barres qu'un centre de détention J'ai cons' des kilos et des pounds, on veut des euros et des pound So C.R.T.Z, so Clint ekip, fuck les Stats, so Flynt Ekip à fond des pieds à la tête, la prod, j'lui nchaîne des gros coups d'pied à la tête 20-21, on débarque comme les Alliés han, négro, on fait qu'passer les paliers han Sang d'instru' sur les tabliers, ça arrive, des gyrophares et des sabliers ça arrive, des gyrophares et des sabliers J'aime bien les multiplications, j'aime grave les sommes cash, on cop c'qu'on veut, on n'attend pas les soldes han Après chaque ligne, du sang tache les sols Là pour le cash comme à Lille-Sud, jeune entrepreneur noir comme à la rive Sud À chaque ligne, négro, le mic' chauffe, avant, elles faisaient les malignes, so Mike Jones Faut plus d'argent, il faut plus de montres faut plus d'argent, il faut plus de montres Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres Faut plus d'argent, il faut plus de montres faut plus d'argent, il faut plus de montres Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres Faut plus d'argent, il faut plus de montres, 6.6.7, Corteiz, règne sur le monde Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres Faut plus d'argent, il faut plus de montres, 6.6.7, Corteiz, règne sur le monde Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres que les bus de Londres, que les bus de LondresYou might also like6</t>
+          <t>So le Flem Ekip, ekip 6.6.7, Corteiz C.R.T.Z, C.R.T.Z Ekip, ekip, ekip han Faut plus d'argent, il faut plus de montres cash, 6.6.7, Corteiz, règne sur le monde han Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres sku C'est l'temps d'prendre de l'expansion, plus de barres qu'un centre de détention J'ai cons' des kilos et des pounds, on veut des euros et des pound So C.R.T.Z, so Clint ekip, fuck les Stats, so Flynt Ekip à fond des pieds à la tête, la prod, j'lui nchaîne des gros coups d'pied à la tête 20-21, on débarque comme les Alliés han, négro, on fait qu'passer les paliers han Sang d'instru' sur les tabliers, ça arrive, des gyrophares et des sabliers ça arrive, des gyrophares et des sabliers J'aime bien les multiplications, j'aime grave les sommes cash, on cop c'qu'on veut, on n'attend pas les soldes han Après chaque ligne, du sang tache les sols Là pour le cash comme à Lille-Sud, jeune entrepreneur noir comme à la rive Sud À chaque ligne, négro, le mic' chauffe, avant, elles faisaient les malignes, so Mike Jones Faut plus d'argent, il faut plus de montres faut plus d'argent, il faut plus de montres Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres Faut plus d'argent, il faut plus de montres faut plus d'argent, il faut plus de montres Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres Faut plus d'argent, il faut plus de montres, 6.6.7, Corteiz, règne sur le monde Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres Faut plus d'argent, il faut plus de montres, 6.6.7, Corteiz, règne sur le monde Cali, Static, j'arrive mal fons', yeuz plus rouges que les bus de Londres que les bus de Londres, que les bus de Londres6</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip Ekip, ekip, ekip Magicien dans la cuisine, fu-fu, tu crois vraiment qu'j'vais te donner la recette ? jamais Comme Philippe Etchebest, j'ai la recette, so skey-Ma, MM's avec la recette cash La fin approche, j'vois v'là les signes han, gang shit, tu vois v'là les signes Côté obscur dans l'ombre avec v'là les Siths han, so les légendes allemandes comme le Lac des Cygnes ah Opération immobilier comme Le Parrain 3 han, so le Roi, so le Parrain 3 ekip Ekipafond, le département commence par un 9, finit par un 3 J'arrive masqué avec Maskey han, tu veux la secte, pétasse, faut casquer cash So Stavo, j'fais les travaux casqué ekip, et j'mets les 3 points comme au basket swish, han 20-20, c'est la revanche des bledoss pétasse Rap-jeu, sans stress, j'l'ai DDoS, audio dope, rien que j'fais des doses Concu' mini, Corleone, Rouleur Tout Terrain, so Mano, Gouapato, Mini, ekipYou might also like4</t>
+          <t>Ekip, ekip, ekip Ekip, ekip, ekip Magicien dans la cuisine, fu-fu, tu crois vraiment qu'j'vais te donner la recette ? jamais Comme Philippe Etchebest, j'ai la recette, so skey-Ma, MM's avec la recette cash La fin approche, j'vois v'là les signes han, gang shit, tu vois v'là les signes Côté obscur dans l'ombre avec v'là les Siths han, so les légendes allemandes comme le Lac des Cygnes ah Opération immobilier comme Le Parrain 3 han, so le Roi, so le Parrain 3 ekip Ekipafond, le département commence par un 9, finit par un 3 J'arrive masqué avec Maskey han, tu veux la secte, pétasse, faut casquer cash So Stavo, j'fais les travaux casqué ekip, et j'mets les 3 points comme au basket swish, han 20-20, c'est la revanche des bledoss pétasse Rap-jeu, sans stress, j'l'ai DDoS, audio dope, rien que j'fais des doses Concu' mini, Corleone, Rouleur Tout Terrain, so Mano, Gouapato, Mini, ekip4</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>So le Flem Mafia Gro-né, j'ai la goutte qui coule plouf, t'as la goutte qui gèle ouh Fuck une groupie mince, bubble oignon, booty, j'aime Ta go' a le boule qui tourne tourne, comme une toupie mane Et je bullet gwap comme si j'm'appelais Gucci Mane En escale à Paris, Disneyland crari brr Veux ressembler à Waka mais t'es plutôt comme Fary Gro-né, as-p Charlie, plutôt Trayv' Mart' Gro-né, killu, c'est une façon d'vivre, c'est pas ma trademark Gro-né devient bête, c'est un film dans sa tête ah ouais ? MC devient dep quand s'remplit l'assiette ouh Tant qu'j'ai pas les bricks, pas l'temps pour la sieste pour la sieste, ouh, ouh Rookies font du bruit, les boss s'font en cachette Goûte, goûte, goûte, j'ai la flaque, gro-né, c'est pas des blagues, gro-né, menottes sur le poignet Dès qu'il m'a montré la plaque, gro-né, tout c'qu'un gro-né cherche des motherfucking sacs, gro-né Tout l'monde veut les chèques, c'est la motherfucking chasse, gro-né, ay Badazz comme Boosie, le clan est trill, si le gro-né kill, c'est qu'on lui a mis des piles Double 6, 7, gro-né, c'est la clique, y a les ficelles, quand on dit, on applique, rien à foutre du reste J'ai le biff dans la tête, rien à foutre du reste, j'ai la tête dans ma quête, rien à foutre du reste Gro-né, tant qu'tu me respectes, rien à foutre du reste, j'ai mon salut avec Allah, rien à foutre du reste J'ai le biff dans la tête, rien à foutre du reste, j'ai la tête dans ma quête, rien à foutre du reste Tout c'qu'un gro-né cherche des motherfucking sacs, gro-né Tout l'monde veut les chèques, c'est la motherfucking chasse, gro-né You might also like Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Pull up avec le Mic Mac sku, concu', c'est des Big Mac Crache les flammes dans les iMac, 'sirus Jack maîtrise les dim maks J'ai l'almanach comme Marty, il m'faut un comptable comme Marty Mal-fons du mercredi au mardi han Fuck ces Mickey Mouse, c'est des rats, c'est des Jerry So Dubble, sur le cou, j'veux des Ben Jerry's J'lack as-p, j'laisse pas d'brèche, dans l'rap, plus d'enfants que quatre crèches Mafioso R.E.P. Mac Dre J'pose les liasses sur les bureaux, so S.O.D, Fugazi, j'suis anti, so SOB Découpe, c'est pas des toplines, libérez Jackboy et 9lokkNine H24 allumés comme des hotlines So Lil B Figaro, on les fume comme six garos Chen Zen dans l'complot, j'crois pas c'qu'ils disent dans l'Figaro J'crois qu'mon sang s'transforme en sève, j'ai fumé trop d'plante So la Bay, San Francisco, Vallejo, Oakland So Lil B Figaro, on les fume comme six garos Chen Zen dans l'complot, j'crois pas c'qu'ils disent dans l'Figaro J'crois qu'mon sang s'transforme en sève, j'ai fumé trop d'plante So la Bay, San Francisco, Vallejo, Oakland Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox1</t>
+          <t>So le Flem Mafia Gro-né, j'ai la goutte qui coule plouf, t'as la goutte qui gèle ouh Fuck une groupie mince, bubble oignon, booty, j'aime Ta go' a le boule qui tourne tourne, comme une toupie mane Et je bullet gwap comme si j'm'appelais Gucci Mane En escale à Paris, Disneyland crari brr Veux ressembler à Waka mais t'es plutôt comme Fary Gro-né, as-p Charlie, plutôt Trayv' Mart' Gro-né, killu, c'est une façon d'vivre, c'est pas ma trademark Gro-né devient bête, c'est un film dans sa tête ah ouais ? MC devient dep quand s'remplit l'assiette ouh Tant qu'j'ai pas les bricks, pas l'temps pour la sieste pour la sieste, ouh, ouh Rookies font du bruit, les boss s'font en cachette Goûte, goûte, goûte, j'ai la flaque, gro-né, c'est pas des blagues, gro-né, menottes sur le poignet Dès qu'il m'a montré la plaque, gro-né, tout c'qu'un gro-né cherche des motherfucking sacs, gro-né Tout l'monde veut les chèques, c'est la motherfucking chasse, gro-né, ay Badazz comme Boosie, le clan est trill, si le gro-né kill, c'est qu'on lui a mis des piles Double 6, 7, gro-né, c'est la clique, y a les ficelles, quand on dit, on applique, rien à foutre du reste J'ai le biff dans la tête, rien à foutre du reste, j'ai la tête dans ma quête, rien à foutre du reste Gro-né, tant qu'tu me respectes, rien à foutre du reste, j'ai mon salut avec Allah, rien à foutre du reste J'ai le biff dans la tête, rien à foutre du reste, j'ai la tête dans ma quête, rien à foutre du reste Tout c'qu'un gro-né cherche des motherfucking sacs, gro-né Tout l'monde veut les chèques, c'est la motherfucking chasse, gro-né Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Pull up avec le Mic Mac sku, concu', c'est des Big Mac Crache les flammes dans les iMac, 'sirus Jack maîtrise les dim maks J'ai l'almanach comme Marty, il m'faut un comptable comme Marty Mal-fons du mercredi au mardi han Fuck ces Mickey Mouse, c'est des rats, c'est des Jerry So Dubble, sur le cou, j'veux des Ben Jerry's J'lack as-p, j'laisse pas d'brèche, dans l'rap, plus d'enfants que quatre crèches Mafioso R.E.P. Mac Dre J'pose les liasses sur les bureaux, so S.O.D, Fugazi, j'suis anti, so SOB Découpe, c'est pas des toplines, libérez Jackboy et 9lokkNine H24 allumés comme des hotlines So Lil B Figaro, on les fume comme six garos Chen Zen dans l'complot, j'crois pas c'qu'ils disent dans l'Figaro J'crois qu'mon sang s'transforme en sève, j'ai fumé trop d'plante So la Bay, San Francisco, Vallejo, Oakland So Lil B Figaro, on les fume comme six garos Chen Zen dans l'complot, j'crois pas c'qu'ils disent dans l'Figaro J'crois qu'mon sang s'transforme en sève, j'ai fumé trop d'plante So la Bay, San Francisco, Vallejo, Oakland Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox Gro-né fuck les opps, gro-né fuck les cops Gro-ne fuck les porcs, c'est des snake et des fox1</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BPK, tu cons' tu perds ton crâne En mode zombie, defracté sous pierre tombale Rien qu'ça fume, ça lean, ça rappe, ça s'immole Chen Zen, Osirus Jack, élite de cyborg Niaks en bouche, comme des pirates d'Irak Ça sent l'flouze, comme à Chiraq-Chiraq Pas d'paki, avec Kaki j'arrive 4matic, Jack Blacky rapplique Fait ça izer, présent pour les thunes Avec le Freezer, def tate, on est sur Neptune J'veux des 10 mill' biftons, prods, Rolex Dans le cup niveau 3, cod'-prometh' Sous sirop j'vois double, tacle à la John Terry Vision rouge j'vois tous, 6 feuilles, Blunt Berry J'cons' ça, débarque à la Ong-bak Fonscar sous gros cône sans ton-car, des liasses tel un Lombard OV, j'promet gro-né ce sera chaud mais J'opère, les autres vont tous se mettre à chômer Squad MMS, j'me sens comme à Normal Double 6-7, des Maybach, chaines en or pâle Hippie riche, roule des putains de méga-spliffs So Norsacce, veut des golds, des Ferrari Faya, french inhale, vision Snoop Dogg Camouflage kaki, Osirus négro coupe-gorge 667 dans l'noir, mafia négro, gros clan À Dakar cons' du lean, dans les rues comme à Oakland You might also like Au dessus d'vous comme des lampadaires Fonscar, négro la concu' rampe à terre Ils fonts des sons d'clowns Négro va checker les soundcloud Négro ça m'soûle J'vais t'casser comme écran Samsung OsirusCorleone, on fume comme des cheminées Kaki flow négro, on sera bientôt rose à force de leaner Ca renifle les nègres faibles, aqua' dans les F-16 Furtif, la mort venu du ciel tel des chemtrails Dans cette merde pour espèces, on flotte comme des spectres 667, MMS, NRM sur les stèles Fils consomme la merde, allez cours l'acheter Dans cette merde en mode hologramme, eux même pas en full HD Techniques interdites, so à Kikz Kaki Nous parles pas de rap français si tu veux pas d'verdict merdique Sans aucun stress négro, performe rap nègre Cons' lean et lopito de l'autre côté d'la stargate Double 6-7 Kartel, vision slow-mo comme Max Payne Chen Zen, black ninja, seven pirate captain H24 fonscar négro, j'me sens comme ODB So au syndicat, 667 aka lobby fils Freeze Corleone, microphonique lance-flamme Prometh'-cod' dans l'Sprite, hydroponique dans l'niaks Psh psh psh, uzi silencieux, la prod j'asperge Sprite sombre comme du vin, roule des niaks comme des asperges Freeze Corleone, Osirus Jacque Chirac Imposer le NRM de Foshan jusqu'à Chiraq Katana noir afro-samurai, Chen au micro Sous lopito squad shit négro, so 060 Fait cette merde sans aucun stress, nos techniques les perturbent Sirote le Sprite sale, fume la verdure Fuck le Rap Game, beaucoup d'ces rappeurs sont des biatchs Kick ça cerveau couleur BP-kaki comme un G.I Négro comme un marine, notre verte tagresse les narines Défracté, en orbite mon négro, j'me sens comme Youri Gagarine Corleone, Osirus Jack Jack Niveau 3 lean Jack, so Black Jack Killuminati comme Makaveli négro, comme Alpha On arrive accrochés au train comme des pak-pak Qu'est ce qui s'passe-passe on veux du ca-cash2</t>
+          <t>BPK, tu cons' tu perds ton crâne En mode zombie, defracté sous pierre tombale Rien qu'ça fume, ça lean, ça rappe, ça s'immole Chen Zen, Osirus Jack, élite de cyborg Niaks en bouche, comme des pirates d'Irak Ça sent l'flouze, comme à Chiraq-Chiraq Pas d'paki, avec Kaki j'arrive 4matic, Jack Blacky rapplique Fait ça izer, présent pour les thunes Avec le Freezer, def tate, on est sur Neptune J'veux des 10 mill' biftons, prods, Rolex Dans le cup niveau 3, cod'-prometh' Sous sirop j'vois double, tacle à la John Terry Vision rouge j'vois tous, 6 feuilles, Blunt Berry J'cons' ça, débarque à la Ong-bak Fonscar sous gros cône sans ton-car, des liasses tel un Lombard OV, j'promet gro-né ce sera chaud mais J'opère, les autres vont tous se mettre à chômer Squad MMS, j'me sens comme à Normal Double 6-7, des Maybach, chaines en or pâle Hippie riche, roule des putains de méga-spliffs So Norsacce, veut des golds, des Ferrari Faya, french inhale, vision Snoop Dogg Camouflage kaki, Osirus négro coupe-gorge 667 dans l'noir, mafia négro, gros clan À Dakar cons' du lean, dans les rues comme à Oakland Au dessus d'vous comme des lampadaires Fonscar, négro la concu' rampe à terre Ils fonts des sons d'clowns Négro va checker les soundcloud Négro ça m'soûle J'vais t'casser comme écran Samsung OsirusCorleone, on fume comme des cheminées Kaki flow négro, on sera bientôt rose à force de leaner Ca renifle les nègres faibles, aqua' dans les F-16 Furtif, la mort venu du ciel tel des chemtrails Dans cette merde pour espèces, on flotte comme des spectres 667, MMS, NRM sur les stèles Fils consomme la merde, allez cours l'acheter Dans cette merde en mode hologramme, eux même pas en full HD Techniques interdites, so à Kikz Kaki Nous parles pas de rap français si tu veux pas d'verdict merdique Sans aucun stress négro, performe rap nègre Cons' lean et lopito de l'autre côté d'la stargate Double 6-7 Kartel, vision slow-mo comme Max Payne Chen Zen, black ninja, seven pirate captain H24 fonscar négro, j'me sens comme ODB So au syndicat, 667 aka lobby fils Freeze Corleone, microphonique lance-flamme Prometh'-cod' dans l'Sprite, hydroponique dans l'niaks Psh psh psh, uzi silencieux, la prod j'asperge Sprite sombre comme du vin, roule des niaks comme des asperges Freeze Corleone, Osirus Jacque Chirac Imposer le NRM de Foshan jusqu'à Chiraq Katana noir afro-samurai, Chen au micro Sous lopito squad shit négro, so 060 Fait cette merde sans aucun stress, nos techniques les perturbent Sirote le Sprite sale, fume la verdure Fuck le Rap Game, beaucoup d'ces rappeurs sont des biatchs Kick ça cerveau couleur BP-kaki comme un G.I Négro comme un marine, notre verte tagresse les narines Défracté, en orbite mon négro, j'me sens comme Youri Gagarine Corleone, Osirus Jack Jack Niveau 3 lean Jack, so Black Jack Killuminati comme Makaveli négro, comme Alpha On arrive accrochés au train comme des pak-pak Qu'est ce qui s'passe-passe on veux du ca-cash2</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CDL, 20-20 Corleone, Stavo, Zesau, nonante, 667, ekip, ekip Saauce Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Vécu irréparable, une parade et on les baise, bitch sku On reste inséparables avec la rue, j'suis en ness-bi' hasch' Pété sous kamas mais j'vois loin, mieux qu'un presbyte Sentiments sur répondeur, laisse un message laprèm J'me roule un pilon, fouille dans la ville, on recherche un filon, j'crois qu'ça en dit long Situation j'crois qu'on a pris l'eau comme frères en prison, personne n'a dit non J'rappe comme un brigand, le flow arrogant, tu racontes un roman, le sale va s'voir aux gants J'ai vu le mal rode dans le dos, tournera au vent, tu verras tes amis que dans Copains d'avant Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire You might also like Corleone, Stavo, Zesau ekip, 13 Block pour les travaux, so 247, j'pense grave aux pesos cash, la précision augmente grâce aux faisceaux Padéryl, 0.1 pour-cent lin, lin, lin, lin 667, négro, cinq pour cent, Chen Zen, CEO, j'distribue plein d'pourcents han, ekip Industrie, j'vois que des pertes d'âme ekip, so Keyser Söze, j'avance avec mes frères d'armes ekip Sans stress, ça va les faire calme, so mes Guinéens qui bombardent avec les Mercalm sku, sku Aquarium dans les Sprinter, négro snf, snf Le rap, c'est pas pour les sprinteurs, négro bah On s'inspire des Marlo et des Stringer, négro han Fuck ces négros, c'est des rats, c'est des Splinter, négro c'est des Splinter, négro Là pour gagner, c'est dans l'ADN, faut plus de cash dans les poches que dans l'ATM cash Que j'brûle de l'essence comme le KTM comme le KTM Noir sur noir comme SpaceGhost baw, Killuminati comme Despo han, ekip Cali verte fluo comme pesto ekip Point de vente noir, Yamaha noire Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Nonante On m'a dit que t'avances pas à reculons si tu fais que de regarder derrière sku C'est moi qui provoque la fusillade baw, baw, j'suis pas venu toucher tes carreaux, lyrical fusil à lunette C'est une affaire de taux du jour argent, créer des fonds même au fond d'la France argent On aime les mettre dans le fion d'la France, gros moteur, c'est moi le tuteur, tous tes grands te l'diront C'est Stavo moi, vendeur moi, ravitailleur moi à toute heure wesh J'représente ces bâtiments délabrés délabrés et ces équipes dures à démanteler démonter Ceux qui ont trahi, fini d'côté côté, affaire classée peut pas être remontée peut pas On fait que niquer l'économie le biff, les bras de l'État sont démembrés regarde C'est la sacoche ou la bécane vroum, comme un petit de la Caste', la mentalité est stand up stand up Arrivée de produit, allez hop, j'suis tout en noir, oui, je mijote Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire</t>
+          <t>CDL, 20-20 Corleone, Stavo, Zesau, nonante, 667, ekip, ekip Saauce Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Vécu irréparable, une parade et on les baise, bitch sku On reste inséparables avec la rue, j'suis en ness-bi' hasch' Pété sous kamas mais j'vois loin, mieux qu'un presbyte Sentiments sur répondeur, laisse un message laprèm J'me roule un pilon, fouille dans la ville, on recherche un filon, j'crois qu'ça en dit long Situation j'crois qu'on a pris l'eau comme frères en prison, personne n'a dit non J'rappe comme un brigand, le flow arrogant, tu racontes un roman, le sale va s'voir aux gants J'ai vu le mal rode dans le dos, tournera au vent, tu verras tes amis que dans Copains d'avant Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Corleone, Stavo, Zesau ekip, 13 Block pour les travaux, so 247, j'pense grave aux pesos cash, la précision augmente grâce aux faisceaux Padéryl, 0.1 pour-cent lin, lin, lin, lin 667, négro, cinq pour cent, Chen Zen, CEO, j'distribue plein d'pourcents han, ekip Industrie, j'vois que des pertes d'âme ekip, so Keyser Söze, j'avance avec mes frères d'armes ekip Sans stress, ça va les faire calme, so mes Guinéens qui bombardent avec les Mercalm sku, sku Aquarium dans les Sprinter, négro snf, snf Le rap, c'est pas pour les sprinteurs, négro bah On s'inspire des Marlo et des Stringer, négro han Fuck ces négros, c'est des rats, c'est des Splinter, négro c'est des Splinter, négro Là pour gagner, c'est dans l'ADN, faut plus de cash dans les poches que dans l'ATM cash Que j'brûle de l'essence comme le KTM comme le KTM Noir sur noir comme SpaceGhost baw, Killuminati comme Despo han, ekip Cali verte fluo comme pesto ekip Point de vente noir, Yamaha noire Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Nonante On m'a dit que t'avances pas à reculons si tu fais que de regarder derrière sku C'est moi qui provoque la fusillade baw, baw, j'suis pas venu toucher tes carreaux, lyrical fusil à lunette C'est une affaire de taux du jour argent, créer des fonds même au fond d'la France argent On aime les mettre dans le fion d'la France, gros moteur, c'est moi le tuteur, tous tes grands te l'diront C'est Stavo moi, vendeur moi, ravitailleur moi à toute heure wesh J'représente ces bâtiments délabrés délabrés et ces équipes dures à démanteler démonter Ceux qui ont trahi, fini d'côté côté, affaire classée peut pas être remontée peut pas On fait que niquer l'économie le biff, les bras de l'État sont démembrés regarde C'est la sacoche ou la bécane vroum, comme un petit de la Caste', la mentalité est stand up stand up Arrivée de produit, allez hop, j'suis tout en noir, oui, je mijote Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>So le Flem Ekip Eh, ekip, ekip, ekip Han, Corleone, Osirus Jack Ffa Chez moi, j'ai un bar à shit, drogue de luxe, on dirait d'la pâte d'arachide On prépare la troisième comme à Karachi Pah, pah J'arrive avec le cousin comme Barack et George Bush Les deux Négro, faut des Ferrari jaunes et des Porsche rouges Les deux J'découpe direct, j'fais pas d'yaourt Nan Des fois, j'me demande qui est pire entre Tu-Sais-Qui et Netanyahou Ahah Avant, c'était des complots, maintenant, c'est réalité augmentée Han Négro, le temps passe, le tarif fait que augmenter Augmente, augmente Et jamais, j'vends mon âme Jamais, j'reste vrai dans mon art, faut qu'j'ai un impact dans mon arbre Han Audio dope, on les rend comme à San Francisco Zombie Self-made, j'ai fait plus que 700K dans Distro' Haha Négro survêtement, lunettes Cartier, montre suisse et Nike Air Les quatre Fuck ces négros, c'est des comédiens, c'est des Mike Epps Haha Pas de Valium Nan, j'survole le Canyon C'est des bitches qui rappent, c'est des Megan Thee Stallion, ekip You might also like - Where are the aliens? - Maybe they're among us, I don't know. Some people think I'm an alien - So you think within twenty years- - Yes, Oh- - ...we'll have aliens in earth? - Haha, well- - Do you think there is other intelligent life outside the earth? - It seems probable... Han, eh Tsar noir, j'ai les flows qui font chavirer Qui font chavirer J'vois tous ces rats danser, j'viens comme le chah d'Iran Le chah d'Iran, ouf Néo-Covid, vision d'Teodosi Milo On arrive sévère comme MBS, les mêmes dégâts qu'un MCS Ça tourne jusqu'à São Tomé, de flows, j'ai v'là d'Trolley Deux six sept inscrit sur l'crewneck, phase noire sur l'cro-mi Mami Wata contre Loch Ness Ouh, les styles qu'on rock blessent J'tire, ça file au fond, là pour éteindre c'que les sions fondent J'tue la prod, j'ai une impression d'déjà-vu Haha Une mèche j'allume, rap anti-gouv, chaque match, ça finit 106-12 Deux six sept, un cran au-dessus d'la normale Un cran au-dessus d'la normale J'rappe, excès d'flow, visse ton anorak J'les baise, j'leur dis à jamais, j'suis en D1, ils sont en Benjamin Eh, eh Y a pas d'killu' pro Benjamin On innove mieux que Elon, on fait pas dans l'mimétisme Nan, nan Killu' négro, on n'a pas la même ligne édit' O.V, O.V1</t>
+          <t>So le Flem Ekip Eh, ekip, ekip, ekip Han, Corleone, Osirus Jack Ffa Chez moi, j'ai un bar à shit, drogue de luxe, on dirait d'la pâte d'arachide On prépare la troisième comme à Karachi Pah, pah J'arrive avec le cousin comme Barack et George Bush Les deux Négro, faut des Ferrari jaunes et des Porsche rouges Les deux J'découpe direct, j'fais pas d'yaourt Nan Des fois, j'me demande qui est pire entre Tu-Sais-Qui et Netanyahou Ahah Avant, c'était des complots, maintenant, c'est réalité augmentée Han Négro, le temps passe, le tarif fait que augmenter Augmente, augmente Et jamais, j'vends mon âme Jamais, j'reste vrai dans mon art, faut qu'j'ai un impact dans mon arbre Han Audio dope, on les rend comme à San Francisco Zombie Self-made, j'ai fait plus que 700K dans Distro' Haha Négro survêtement, lunettes Cartier, montre suisse et Nike Air Les quatre Fuck ces négros, c'est des comédiens, c'est des Mike Epps Haha Pas de Valium Nan, j'survole le Canyon C'est des bitches qui rappent, c'est des Megan Thee Stallion, ekip - Where are the aliens? - Maybe they're among us, I don't know. Some people think I'm an alien - So you think within twenty years- - Yes, Oh- - ...we'll have aliens in earth? - Haha, well- - Do you think there is other intelligent life outside the earth? - It seems probable... Han, eh Tsar noir, j'ai les flows qui font chavirer Qui font chavirer J'vois tous ces rats danser, j'viens comme le chah d'Iran Le chah d'Iran, ouf Néo-Covid, vision d'Teodosi Milo On arrive sévère comme MBS, les mêmes dégâts qu'un MCS Ça tourne jusqu'à São Tomé, de flows, j'ai v'là d'Trolley Deux six sept inscrit sur l'crewneck, phase noire sur l'cro-mi Mami Wata contre Loch Ness Ouh, les styles qu'on rock blessent J'tire, ça file au fond, là pour éteindre c'que les sions fondent J'tue la prod, j'ai une impression d'déjà-vu Haha Une mèche j'allume, rap anti-gouv, chaque match, ça finit 106-12 Deux six sept, un cran au-dessus d'la normale Un cran au-dessus d'la normale J'rappe, excès d'flow, visse ton anorak J'les baise, j'leur dis à jamais, j'suis en D1, ils sont en Benjamin Eh, eh Y a pas d'killu' pro Benjamin On innove mieux que Elon, on fait pas dans l'mimétisme Nan, nan Killu' négro, on n'a pas la même ligne édit' O.V, O.V1</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Anh, ekip, ekip, ekip, skuu MMS, LDO, NRM, 667, pétasse Han Loin devant eux, personne dans le rétro sku, sku 667, ça va pop comme un attentat dans le métro MMS Clan, tu connais la secte, ça chill tout en haut Corleone, trouve-moi dans la tour en train d'fumer v'là d'shit tout en haut On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc Tu gagne pas par force comme David Dieu avec moi, sûr j'gagne comme David So RAS, 500squad, négro J'mets des soupapes par la gauche comme David, ekip On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Pétasse, j'fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Ekip, j'fume que d'la frappe comme le roi du Maroc You might also like Prof Chen enseigne sciences de la vie Vendre mon âme, jamais de la vie So Lil B le BasedGod Bientôt j'me présente pour être maire de la ville On veut des chargeurs avec trente balles J'peux racheter tous tes flow avec trente balles Comme Zé Pequ' et Bené, fais 100 d'bénéfice Fais soixante avec trente balles Flamme ou pas flamme j'suis comme Ace négro Chaque jour j'm'allume comme Ace, négro J'veux juste les sous comme Ace, négro J'suis comme Big L, t'es comme Mae, négro On m'demande si j'viens du Tennessee han Sip que du lin, pas de Hennessy LDO fait du sale à tous ces bitchs-négros Comme le K.K.K du Tennessee, ekip On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Pétasse, j'fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Ekip, j'fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc, pétasse J'fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Ekip, j'fume que d'la frappe comme le roi du Maroc</t>
+          <t>Anh, ekip, ekip, ekip, skuu MMS, LDO, NRM, 667, pétasse Han Loin devant eux, personne dans le rétro sku, sku 667, ça va pop comme un attentat dans le métro MMS Clan, tu connais la secte, ça chill tout en haut Corleone, trouve-moi dans la tour en train d'fumer v'là d'shit tout en haut On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc Tu gagne pas par force comme David Dieu avec moi, sûr j'gagne comme David So RAS, 500squad, négro J'mets des soupapes par la gauche comme David, ekip On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Pétasse, j'fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Ekip, j'fume que d'la frappe comme le roi du Maroc Prof Chen enseigne sciences de la vie Vendre mon âme, jamais de la vie So Lil B le BasedGod Bientôt j'me présente pour être maire de la ville On veut des chargeurs avec trente balles J'peux racheter tous tes flow avec trente balles Comme Zé Pequ' et Bené, fais 100 d'bénéfice Fais soixante avec trente balles Flamme ou pas flamme j'suis comme Ace négro Chaque jour j'm'allume comme Ace, négro J'veux juste les sous comme Ace, négro J'suis comme Big L, t'es comme Mae, négro On m'demande si j'viens du Tennessee han Sip que du lin, pas de Hennessy LDO fait du sale à tous ces bitchs-négros Comme le K.K.K du Tennessee, ekip On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc On investit toi tu farotes J'te trouve lourd comme le poids d'une carotte Chen Zen, tous les jours, négro Fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Pétasse, j'fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Ekip, j'fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc, pétasse J'fume que d'la frappe comme le roi du Maroc Que d'la frappe comme le roi du Maroc Ekip, j'fume que d'la frappe comme le roi du Maroc</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Chinois dans l'usine gratte comme ça, gaddamn Gaddamn Libérez 9, libérez Guwap Graille la concu' comme des DooWap Caca d'chameau sur les doigts J'arrive chinois sur la Borniche Augmente niveau, fais ça normich T'es mort d'avance comme Kenny McCormick Chen Zen, j'veux les sous comme Donald, négro Crack musique, nouvelle ère comme Ronald, négro Gaddamn négro, j'ai la recette J'ai la royale flush, t'as 2 7 So Kaki, tu marqueras pas d'point même en 22 sets 23 piges, réfléchis comme un grand maître So Roi, 2 pains 500 nègres Furtif, j'veux pas finir à 100 mètres Tellement haut, quand j'vous regarde j'ai des vertiges J'regarde le Jeu, cherche la concurrence Gaddamn, c'est désertique, ekip You might also like Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Ekip J'ai plus de fanatiques qu'les Témoins de Jéhovah Dans toutes les directions, c'est là que le fléau va MCs d'merde, sans stress j'en bute 16 Sur chaque instru, négro buts 16 PSN ZenChen667, trouve-moi sur FUT16 En défense, j'distribue comme un MDC Bientôt LDO en LDC Chen Zen dans l'complot comme à NBC Les yeuz roses comme le lac Retba J'connais les bails, je n'lackerai pas Técla comme si j'viens d'fumer 4 rrettes-ba J'suis comme un ouragan, négro t'es un ventilo J'arrive lourd au microphone comme 67 fois 100 kilos Killuminati négro, so Macson Marche sur la lune, so Jackson Ces négros sont bien marrants, so Patson, ahah ekip Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça</t>
+          <t>Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Chinois dans l'usine gratte comme ça, gaddamn Gaddamn Libérez 9, libérez Guwap Graille la concu' comme des DooWap Caca d'chameau sur les doigts J'arrive chinois sur la Borniche Augmente niveau, fais ça normich T'es mort d'avance comme Kenny McCormick Chen Zen, j'veux les sous comme Donald, négro Crack musique, nouvelle ère comme Ronald, négro Gaddamn négro, j'ai la recette J'ai la royale flush, t'as 2 7 So Kaki, tu marqueras pas d'point même en 22 sets 23 piges, réfléchis comme un grand maître So Roi, 2 pains 500 nègres Furtif, j'veux pas finir à 100 mètres Tellement haut, quand j'vous regarde j'ai des vertiges J'regarde le Jeu, cherche la concurrence Gaddamn, c'est désertique, ekip Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Ekip J'ai plus de fanatiques qu'les Témoins de Jéhovah Dans toutes les directions, c'est là que le fléau va MCs d'merde, sans stress j'en bute 16 Sur chaque instru, négro buts 16 PSN ZenChen667, trouve-moi sur FUT16 En défense, j'distribue comme un MDC Bientôt LDO en LDC Chen Zen dans l'complot comme à NBC Les yeuz roses comme le lac Retba J'connais les bails, je n'lackerai pas Técla comme si j'viens d'fumer 4 rrettes-ba J'suis comme un ouragan, négro t'es un ventilo J'arrive lourd au microphone comme 67 fois 100 kilos Killuminati négro, so Macson Marche sur la lune, so Jackson Ces négros sont bien marrants, so Patson, ahah ekip Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça Audio drogue dure négro, cuisine crack comme ça Chinois dans l'usine gratte comme ça ACR négro, fusille track comme ça Pas d'autre négro qui rappe comme ça Beaucoup d'négros qui ratent comme ça LDO négro, t'as jamais vu des pirates comme ça</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Discographie - CFR Mixtape - 20150911 CFR - F.F.O Remix - 20200828 CFR Ocho - F.F.O Chopped crewed Discographie complémentaire - Discographie - Freeze Corleone - Discographie - Norsacce - Discographie - Osirus JackYou might also like</t>
+          <t>Discographie - CFR Mixtape - 20150911 CFR - F.F.O Remix - 20200828 CFR Ocho - F.F.O Chopped crewed Discographie complémentaire - Discographie - Freeze Corleone - Discographie - Norsacce - Discographie - Osirus Jack</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Oui, oui, si, si Ekip, ekip Ekip, ekip, ekip Eh Ceux qui nous dirigent sont tous ché-per, han déter' comme LeBron ou le CR7 wouh 667, bastos à extraire, mallette de diamants dans le EasyJet eh, ekip, ekip, ekip, baw, baw Pas d'sentiments qui rentrent comme Neuer T'as la haine, tu portes des illères et tu n'vois rien à part l'oseille à s'faire La rue une femme capricieus qui rend les hommes faibls han Le beat est noir comme Naomi Campbell, les rebeus cistes-ra sont les enfants d'Bassem sku J'écoute la basse et elle m'fout le seum comme à l'époque des cassettes VHS J'me sens comme Mesrine dans les Q.H.S. han Untouchable, je les mets tous HS Petit négro, crois pas que tout s'achète non, au micro, découpe plus que douze machettes So Rapi, all of my nigga all, dis-moi c'est combien le prix, si j'ai les sous, j'achète cash Corleone, Mac Tyer han, que j'assassine des prods, j'me sens comme Mike Myers Fufu négro, va faire tes pactes ailleurs han, flingue les prods comme dans Night Fire paw, paw, paw 9.3, tu peux toujours pas test non, on aime les Audemars et les Patek J'veux la version d'usine avec les baguettes, concurrence, on les graille avec des baguettes ice, ice, ice, ice, ice, ice, ice J'crois pas c'qu'ils disent dans les infos non, ça s'voit dans son regard qu'c'est un faux ah On les tue à p'tit feu comme des lymphomes, la France en redemande tellement, elle est nympho' han You might also like On a vécu le drame merde, vendu des millions de grammes cash D.G.S.E. nous a cramés, on n'a jamais pris de Grammy non On a vécu le drame damn, vendu des millions de grammes cash D.G.S.E. nous a cramés merde, on n'a jamais pris de Grammy non On a vécu le drame sku, vendu des millions de grammes D.G.S.E. nous a cramés han, pétasse, on n'a jamais pris de Grammy non On a vécu le drame, vendu des millions de grammes millions D.G.S.E. nous a cramés han, on n'a jamais pris de Grammy non Le Parrain, le Général ekip, 9.3 de générale han, j'les corrige, ils ont pas la moyenne générale non Industrie, c'est des pédérastes, des serpents et des rats sku, à part Dieu, pas d'maîtres, pas de vénérables non L'Afrique est juste à la traîne dans vos caméras malgré Boko Haram et printemps arabes han Trafics humains près de Tripoli han, gandoura blanche comme un bambara damn Pèse les diamants du sang en carats, à Dakar, il m'faut une villa avec grand garage han On monte l'empire comme à Ankara cash, tous les jours, R.E.P. Thomas Sankara R.E.P. J'vois rouge comme le béret d'Sankara, 100k d'faux amis car ils sont pas rares han Un son d'taré, la putain d'ta race, Chen Zen, le plug est imparable S-So le Flem ekip, négro, la prod' est noire comme Sol Campbell han, macabé d'prods, j'ai comme 100 bennes eh C'est toujours pour ceux qui savent comme Tandem ekip Pas d'amour mais je la baise quand même, la grosse tchoin, elle t'a mis une disquette eh J'te mets deux pruneaux dans la pastèque, toujours pour ceux qui savent comme Tandem On a vécu le drame sku, merde, vendu des millions de grammes cash, millions D.G.S.E. nous a cramés damn, on n'a jamais pris de Grammy non On a vécu le drame damn, vendu des millions de grammes cash, millions D.G.S.E. nous a cramés merde, on n'a jamais pris de Grammy non On a vécu le drame sku, vendu des millions de grammes D.G.S.E. nous a cramés han, pétasse, on n'a jamais pris de Grammy non On a vécu le drame, vendu des millions de grammes millions, cash D.G.S.E. nous a cramés han, on n'a jamais pris de Grammy non, han Grammy So Gaza, chaque jour, force à toutes les familles Grammy Qui finance les guerres, négro, qui crée les famines ? Grammy Le Comité des 300 et les 13 familles Grammy, Grammy, Grammy, Grammy Pas d'amour mais je la baise quand même, la grosse tchoin, elle t'a mis une disquette J'te mets deux pruneaux dans la pastèque, toujours pour ceux qui savent comme Tandem Pas-pas d'amour mais je la baise quand même, la grosse tchoin, elle t'a mis une disquette J'te mets deux pruneaux dans la pastèque, toujours pour ceux qui savent comme Tandem1</t>
+          <t>Oui, oui, si, si Ekip, ekip Ekip, ekip, ekip Eh Ceux qui nous dirigent sont tous ché-per, han déter' comme LeBron ou le CR7 wouh 667, bastos à extraire, mallette de diamants dans le EasyJet eh, ekip, ekip, ekip, baw, baw Pas d'sentiments qui rentrent comme Neuer T'as la haine, tu portes des illères et tu n'vois rien à part l'oseille à s'faire La rue une femme capricieus qui rend les hommes faibls han Le beat est noir comme Naomi Campbell, les rebeus cistes-ra sont les enfants d'Bassem sku J'écoute la basse et elle m'fout le seum comme à l'époque des cassettes VHS J'me sens comme Mesrine dans les Q.H.S. han Untouchable, je les mets tous HS Petit négro, crois pas que tout s'achète non, au micro, découpe plus que douze machettes So Rapi, all of my nigga all, dis-moi c'est combien le prix, si j'ai les sous, j'achète cash Corleone, Mac Tyer han, que j'assassine des prods, j'me sens comme Mike Myers Fufu négro, va faire tes pactes ailleurs han, flingue les prods comme dans Night Fire paw, paw, paw 9.3, tu peux toujours pas test non, on aime les Audemars et les Patek J'veux la version d'usine avec les baguettes, concurrence, on les graille avec des baguettes ice, ice, ice, ice, ice, ice, ice J'crois pas c'qu'ils disent dans les infos non, ça s'voit dans son regard qu'c'est un faux ah On les tue à p'tit feu comme des lymphomes, la France en redemande tellement, elle est nympho' han On a vécu le drame merde, vendu des millions de grammes cash D.G.S.E. nous a cramés, on n'a jamais pris de Grammy non On a vécu le drame damn, vendu des millions de grammes cash D.G.S.E. nous a cramés merde, on n'a jamais pris de Grammy non On a vécu le drame sku, vendu des millions de grammes D.G.S.E. nous a cramés han, pétasse, on n'a jamais pris de Grammy non On a vécu le drame, vendu des millions de grammes millions D.G.S.E. nous a cramés han, on n'a jamais pris de Grammy non Le Parrain, le Général ekip, 9.3 de générale han, j'les corrige, ils ont pas la moyenne générale non Industrie, c'est des pédérastes, des serpents et des rats sku, à part Dieu, pas d'maîtres, pas de vénérables non L'Afrique est juste à la traîne dans vos caméras malgré Boko Haram et printemps arabes han Trafics humains près de Tripoli han, gandoura blanche comme un bambara damn Pèse les diamants du sang en carats, à Dakar, il m'faut une villa avec grand garage han On monte l'empire comme à Ankara cash, tous les jours, R.E.P. Thomas Sankara R.E.P. J'vois rouge comme le béret d'Sankara, 100k d'faux amis car ils sont pas rares han Un son d'taré, la putain d'ta race, Chen Zen, le plug est imparable S-So le Flem ekip, négro, la prod' est noire comme Sol Campbell han, macabé d'prods, j'ai comme 100 bennes eh C'est toujours pour ceux qui savent comme Tandem ekip Pas d'amour mais je la baise quand même, la grosse tchoin, elle t'a mis une disquette eh J'te mets deux pruneaux dans la pastèque, toujours pour ceux qui savent comme Tandem On a vécu le drame sku, merde, vendu des millions de grammes cash, millions D.G.S.E. nous a cramés damn, on n'a jamais pris de Grammy non On a vécu le drame damn, vendu des millions de grammes cash, millions D.G.S.E. nous a cramés merde, on n'a jamais pris de Grammy non On a vécu le drame sku, vendu des millions de grammes D.G.S.E. nous a cramés han, pétasse, on n'a jamais pris de Grammy non On a vécu le drame, vendu des millions de grammes millions, cash D.G.S.E. nous a cramés han, on n'a jamais pris de Grammy non, han Grammy So Gaza, chaque jour, force à toutes les familles Grammy Qui finance les guerres, négro, qui crée les famines ? Grammy Le Comité des 300 et les 13 familles Grammy, Grammy, Grammy, Grammy Pas d'amour mais je la baise quand même, la grosse tchoin, elle t'a mis une disquette J'te mets deux pruneaux dans la pastèque, toujours pour ceux qui savent comme Tandem Pas-pas d'amour mais je la baise quand même, la grosse tchoin, elle t'a mis une disquette J'te mets deux pruneaux dans la pastèque, toujours pour ceux qui savent comme Tandem1</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Shh, hey Yeah, yeah Dove siamo oggi, solo veri OG Bevo questi stronzi, tu meglio se ti sposti Spacco pacchi pronti, sfigurati i volti Tutti che racconti, parlate siete morti Ovunque vado è casa mia Casa mia, casa mia Questi stronzi moriranno per invidia Ovunque vado è casa mia Casa mia, casa mia Accendo un altra bomba mancava la scimmia, ehi Bitch Toseina, ah, è la Motina, ah La faccio prima, poi è una sveltina, ah Controllo il rap gioco come una partita poi Parte la truffa, fra', come la FIFA J'suis trop frais comme ma lean, rien qui sort de mon jean Rien qu'ils parlent de nos vies, faut être solide pour l'liquide Montre, bakchich, pull up, pas de factices Voglio solo big biff, so casa, so le Rif, bitch Non venirmi a parlare di music Pronto Allô polizia, pookie Skrrt Sappiamo tutti cos'è che fumi Wow Giro per Lione, occhi chiusi Han You might also like Bitch, hey Non venirmi a parlare di music Han, ekip Sappiamo tutti cos'è che fumi Ekip, ekip, han, hey Giro per Lione occhi chiusi Han, ekip Corleone, Jolly, on les claque facile comme ollie La prise envoie les colis, inch'Allah bientôt, j'cop une Rolie Deux 6, 7, mafia Lyonzon, négro, j'arrive plus haut que dix avions-zon Nostra Cosa, Dakar barode aux Al' J'ai les formules, j'ai les dosages, Glo gang comme Keith Cozart gang Fanta 50 cL, avec le lin dedans Gelato, Swishers Sweets, et j'en mets plein dedans C'est des clowns comme Ronald, fuck les States, fuck Donald On propage le virus du Sénégal jusqu'au Rhône-Alpes Gros aqua, dans la Zone 51 Trop d'avance, découpe comme en 2051 J'fume un long pur, Cartier pour la monture damn Inch'Allah on monte, Inch'Allah on dure J'fume un long pur, Cartier pour la monture ekip Inch'Allah on monte, Inch'Allah on dure, ekip han Bitch, hey Non venirmi a parlare di music Han, ekip Sappiamo tutti cos'è che fumi Ekip, ekip, han, hey Giro per Lione occhi chiusi Han, ekip3</t>
+          <t>Shh, hey Yeah, yeah Dove siamo oggi, solo veri OG Bevo questi stronzi, tu meglio se ti sposti Spacco pacchi pronti, sfigurati i volti Tutti che racconti, parlate siete morti Ovunque vado è casa mia Casa mia, casa mia Questi stronzi moriranno per invidia Ovunque vado è casa mia Casa mia, casa mia Accendo un altra bomba mancava la scimmia, ehi Bitch Toseina, ah, è la Motina, ah La faccio prima, poi è una sveltina, ah Controllo il rap gioco come una partita poi Parte la truffa, fra', come la FIFA J'suis trop frais comme ma lean, rien qui sort de mon jean Rien qu'ils parlent de nos vies, faut être solide pour l'liquide Montre, bakchich, pull up, pas de factices Voglio solo big biff, so casa, so le Rif, bitch Non venirmi a parlare di music Pronto Allô polizia, pookie Skrrt Sappiamo tutti cos'è che fumi Wow Giro per Lione, occhi chiusi Han Bitch, hey Non venirmi a parlare di music Han, ekip Sappiamo tutti cos'è che fumi Ekip, ekip, han, hey Giro per Lione occhi chiusi Han, ekip Corleone, Jolly, on les claque facile comme ollie La prise envoie les colis, inch'Allah bientôt, j'cop une Rolie Deux 6, 7, mafia Lyonzon, négro, j'arrive plus haut que dix avions-zon Nostra Cosa, Dakar barode aux Al' J'ai les formules, j'ai les dosages, Glo gang comme Keith Cozart gang Fanta 50 cL, avec le lin dedans Gelato, Swishers Sweets, et j'en mets plein dedans C'est des clowns comme Ronald, fuck les States, fuck Donald On propage le virus du Sénégal jusqu'au Rhône-Alpes Gros aqua, dans la Zone 51 Trop d'avance, découpe comme en 2051 J'fume un long pur, Cartier pour la monture damn Inch'Allah on monte, Inch'Allah on dure J'fume un long pur, Cartier pour la monture ekip Inch'Allah on monte, Inch'Allah on dure, ekip han Bitch, hey Non venirmi a parlare di music Han, ekip Sappiamo tutti cos'è che fumi Ekip, ekip, han, hey Giro per Lione occhi chiusi Han, ekip3</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mes négros ont besoin d'air, de thunes et d'une clope Faut les gros joints de beuh pour enfumer une loc' Ce que mes scélérats font, dans un Mercedes qui accélère à fond Toujours dans les vêtements comme Axel et Alphonse On arrive Black Mafia dans ma fédération C'est bientôt la troisième alors fais des rations Je suis pas dans le Hennessy Je vois rouge comme Amérindiens du Tennessee Il y a que la haine aussi, Cupidon il flingue Mais c'est pas Athènes ici Le chrome et les billets, on écoutait Mauvais il avant d'aller prier Aucun magicien m'a mis le pied à l'étrier Faux négros dans Guerlain, va falloir les trier C'est que des garces dont les amants diffèrent Envoyer le feu on est bon qu'à ça Faut que les rentes soit diamantifères comme président blanc chez les Bokassa On envoie les trois points, ils font les fautes Rappeurs font les sottes avant qu'on les saute Faut qu'on les sauve, de l'industrie il faut qu'on les sorte Tu nous as regardés, on danse pas pour des penny Nan On découpe comme les bouchers, comme les Benny Ekip Génération Mario Balotelli Hein Ils font les teintures jaunes, ils font les balles de tennis Ah Corleone Prince flingue et son chargeur Pa-pah On est comme téléphone et son chargeur Brr, brr Ils font les marchés, ils font les ventes aux enchères Hein Encore aujourd'hui, le bateau se décharge You might also likeTu nous as regardés, on danse pas pour des penny Tiens On découpe comme les bouchers, comme les Benny Han Génération Mario Balotelli Ils font les teintures jaunes, ils font les balles de tennis Ha Corleone Prince flingue et son chargeur Pa-pah On est comme téléphone et son chargeur Brr, brr Ils font les marchés, ils font les ventes aux enchères Eh, oh Encore aujourd'hui, le bateau s'décharge Ekip Corleone, Prince Waly Cali j'ai des quinze quali Fonce au lin comme si j'ai sip vingt-trois litres Découpe comme si j'suis né vers Staten Chaque bar perce ta tête Négro, je les soupape comme Max Verstappen Si tu fumes du fois trois, j'fume du fois trente, j'ai recompté trois fois et j'ai eu trois crampes J'ai investi sur moi, j'ai fait du fois trente Dans l'vaisseau, j'fais du trois-trente Les vitres et les toits tremblent So le Double Jay Découpe comme si des troubles j'ai Chaque investissement à la fin, au minimum le double j'ai Je pense qu'à multiplier les sous que j'ai Tu veux pas goûter les soupes que j'ai Savent pas les Kung-Fu que j'ai Du nord au sud les liasses dans la boite à chaussures Tu ferais pas un mètre avec un pied dans ma chaussure Instru', on les perfore, O.G. comme des Air Force On envoie des air-sol Ils flinguent moins que des airsoft So Kaki, pas d'chichi pas de ciné Contre les fufus négro je suis vacciné Dans la cuisine, négro je me sens comme Raekwon Et t'as disparu en balle, t'es comme J-Kwon Daydate, Royal-Oak, Santos À Dakar, on pilote comme à Los Santos On reste devant sur le tableau de score Ils font d'l'acrosport, j'suis dans l'Quattro Sport Tu nous as regardés, on danse pas pour des penny Nan On découpe comme les bouchers, comme les Benny Ekip Génération Mario Balotelli Hein Ils font les teintures jaunes, ils font les balles de tennis Ah Corleone Prince flingue et son chargeur Pa-pah On est comme téléphone et son chargeur Brr, brr Ils font les marchés, ils font les ventes aux enchères Hein Encore aujourd'hui, le bateau se décharge Tu nous as regardés, on danse pas pour des penny Tiens On découpe comme les bouchers, comme les Benny Han Génération Mario Balotelli Ils font les teintures jaunes, ils font les balles de tennis Ha Corleone Prince flingue et son chargeur Pa-pah On est comme téléphone et son chargeur Brr, brr Ils font les marchés, ils font les ventes aux enchères Eh, oh Encore aujourd'hui, le bateau s'décharge Ekip</t>
+          <t>Mes négros ont besoin d'air, de thunes et d'une clope Faut les gros joints de beuh pour enfumer une loc' Ce que mes scélérats font, dans un Mercedes qui accélère à fond Toujours dans les vêtements comme Axel et Alphonse On arrive Black Mafia dans ma fédération C'est bientôt la troisième alors fais des rations Je suis pas dans le Hennessy Je vois rouge comme Amérindiens du Tennessee Il y a que la haine aussi, Cupidon il flingue Mais c'est pas Athènes ici Le chrome et les billets, on écoutait Mauvais il avant d'aller prier Aucun magicien m'a mis le pied à l'étrier Faux négros dans Guerlain, va falloir les trier C'est que des garces dont les amants diffèrent Envoyer le feu on est bon qu'à ça Faut que les rentes soit diamantifères comme président blanc chez les Bokassa On envoie les trois points, ils font les fautes Rappeurs font les sottes avant qu'on les saute Faut qu'on les sauve, de l'industrie il faut qu'on les sorte Tu nous as regardés, on danse pas pour des penny Nan On découpe comme les bouchers, comme les Benny Ekip Génération Mario Balotelli Hein Ils font les teintures jaunes, ils font les balles de tennis Ah Corleone Prince flingue et son chargeur Pa-pah On est comme téléphone et son chargeur Brr, brr Ils font les marchés, ils font les ventes aux enchères Hein Encore aujourd'hui, le bateau se décharge Tu nous as regardés, on danse pas pour des penny Tiens On découpe comme les bouchers, comme les Benny Han Génération Mario Balotelli Ils font les teintures jaunes, ils font les balles de tennis Ha Corleone Prince flingue et son chargeur Pa-pah On est comme téléphone et son chargeur Brr, brr Ils font les marchés, ils font les ventes aux enchères Eh, oh Encore aujourd'hui, le bateau s'décharge Ekip Corleone, Prince Waly Cali j'ai des quinze quali Fonce au lin comme si j'ai sip vingt-trois litres Découpe comme si j'suis né vers Staten Chaque bar perce ta tête Négro, je les soupape comme Max Verstappen Si tu fumes du fois trois, j'fume du fois trente, j'ai recompté trois fois et j'ai eu trois crampes J'ai investi sur moi, j'ai fait du fois trente Dans l'vaisseau, j'fais du trois-trente Les vitres et les toits tremblent So le Double Jay Découpe comme si des troubles j'ai Chaque investissement à la fin, au minimum le double j'ai Je pense qu'à multiplier les sous que j'ai Tu veux pas goûter les soupes que j'ai Savent pas les Kung-Fu que j'ai Du nord au sud les liasses dans la boite à chaussures Tu ferais pas un mètre avec un pied dans ma chaussure Instru', on les perfore, O.G. comme des Air Force On envoie des air-sol Ils flinguent moins que des airsoft So Kaki, pas d'chichi pas de ciné Contre les fufus négro je suis vacciné Dans la cuisine, négro je me sens comme Raekwon Et t'as disparu en balle, t'es comme J-Kwon Daydate, Royal-Oak, Santos À Dakar, on pilote comme à Los Santos On reste devant sur le tableau de score Ils font d'l'acrosport, j'suis dans l'Quattro Sport Tu nous as regardés, on danse pas pour des penny Nan On découpe comme les bouchers, comme les Benny Ekip Génération Mario Balotelli Hein Ils font les teintures jaunes, ils font les balles de tennis Ah Corleone Prince flingue et son chargeur Pa-pah On est comme téléphone et son chargeur Brr, brr Ils font les marchés, ils font les ventes aux enchères Hein Encore aujourd'hui, le bateau se décharge Tu nous as regardés, on danse pas pour des penny Tiens On découpe comme les bouchers, comme les Benny Han Génération Mario Balotelli Ils font les teintures jaunes, ils font les balles de tennis Ha Corleone Prince flingue et son chargeur Pa-pah On est comme téléphone et son chargeur Brr, brr Ils font les marchés, ils font les ventes aux enchères Eh, oh Encore aujourd'hui, le bateau s'décharge Ekip</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>On veut billets, liasse de billets, billets J'fais une autre voix ? J'fais une autre voix ? Wouh, brr hey, hey, hey, hey Ouh, ouh hey, hey On veut billets, liasses de billets, billets, billets, liasses de ok, cash Billets, liasses de billets, billets, billets, liasses de ok Billets, liasses de ok, billets, liasses de ok Billets, liasse de bi', bi', bi', bi', billts hey Nous, on veut de l'osille, toi, garde tes conseils On a vidé la 'teille, on est défoncés ekip Nous, on veut de l'oseille, donc garde tes conseils cash, cash, cash On a vidé la 'teille, on est défoncés On est jamais mieux servis qu'par soi-même wow, c'est pas c'que les ients-cli diraient Si le bonheur nous ferme ses portes ouh, on passera par la fenêtre direct baw, baw On arrive en équipe, équipe wouah, beaucoup de liquide, liquide mais ok Pour compter l'liquide, liquide hey, il faut qu'on s'équipe, s'équipe ah On veut billets, liasses de billets cash, Chen Zen, négro, là pour un max de billets cash Memphis comme le sac de billets han, on t'écoute que si tu parles de billets tu parles de billets Pétasse han, audio, Fentanyl dans les gélules cash Concu', j'les vois p'tits comme des cellules han Libérez mes négros dans les cellules J'ai visser des blacks, des blancs et des beurres ouh Negrito connaît pas le racisme hey J'ai des potes qui sont sur le rrain-té brr Mais c'est pas le même que Bolasie brah, brah Dis-moi c'qui nous fascine à part les putes et l'argent facile ah, ah Dans le hall, ça détaille la résine pah Dans le hall, ça bicrave la résine pah, han J'fais pas d'pas d'danse, j'suis pas danseur nan Rien que j'monte comme si j'étais dans l'ascenseur paw Corleone, Negrito ekip, danger sur les écriteaux han Concu', c'est des Pépito haha, au-d'ssus d'eux comme des hélicos, ekip You might also like On veut billets, liasse de billets, billets, billets, liasse de ok, cash Billets, liasses de billets, billets, billets, liasses de ok Billets, liasses de ok, billets, liasses de ok Billets, liasses de bi', bi', bi', bi', billets eh Nous, on veut de l'oseille, donc garde tes conseils On a vidé la 'teille, on est défoncés ekip Nous, on veut de l'oseille, donc garde tes conseils cash, cash, cash, cash On a vidé la 'teille, on est défoncés Han, 9.3 ekip, 7.7 ekip, so seven-seven aka 7.7 ekip On encaisse 3.6.5 77 cash, so le clan, clan, so la secte, secte Go, go, go, go mailler, eh eh, dans la cité, faut mailler C'est peut-être quand j'vais brasser eh que mes soucis vont s'noyer 6.6.7, virus, le nouveau foyer ekip, envoie les prods, j'fais que fossoyer ah J'regarde ces fufus, ils sont trop soyers, j'ai des Cartier plus chers que vos loyers cash C'est que pour détailler eh que des pookies, on a côtoyé eh, ouh, ekip, ekip Le rap français, on va nettoyer paw 20-20, on donne l'heure même sans montre eh, ekip J'ai fait un rêve où j'avais 100 montres J'aime trop les tisses-mé ok, curly ou ch'veux lissés ok J'ai visser' des daronnes et des filles qui étaient dans mon lycée On veut billets, liasse de billets, billets, billets, liasses de ok, cash Billets, liasses de billets, billets, billets, liasses de ok Billets, liasses de ok, billets, liasses de ok Billets, liasses de bi', bi', bi', bi', billets eh Nous, on veut de l'oseille, donc garde tes conseils On a vidé la 'teille, on est défoncés ekip Nous, on veut de l'oseille, donc garde tes conseils cash, cash, cash, cash On a vidé la 'teille, on est défoncés On est jamais mieux servis qu'par soi-même, c'est pas c'que les ients-cli diraient On veut billets, liasses de billets, Chen Zen, négro, là pour un max de billets On arrive en équipe, équipe, beaucoup de liquide, liquide mais Pour compter l'liquide, liquide, il faut qu'on s'équipe, s'équipe2</t>
+          <t>On veut billets, liasse de billets, billets J'fais une autre voix ? J'fais une autre voix ? Wouh, brr hey, hey, hey, hey Ouh, ouh hey, hey On veut billets, liasses de billets, billets, billets, liasses de ok, cash Billets, liasses de billets, billets, billets, liasses de ok Billets, liasses de ok, billets, liasses de ok Billets, liasse de bi', bi', bi', bi', billts hey Nous, on veut de l'osille, toi, garde tes conseils On a vidé la 'teille, on est défoncés ekip Nous, on veut de l'oseille, donc garde tes conseils cash, cash, cash On a vidé la 'teille, on est défoncés On est jamais mieux servis qu'par soi-même wow, c'est pas c'que les ients-cli diraient Si le bonheur nous ferme ses portes ouh, on passera par la fenêtre direct baw, baw On arrive en équipe, équipe wouah, beaucoup de liquide, liquide mais ok Pour compter l'liquide, liquide hey, il faut qu'on s'équipe, s'équipe ah On veut billets, liasses de billets cash, Chen Zen, négro, là pour un max de billets cash Memphis comme le sac de billets han, on t'écoute que si tu parles de billets tu parles de billets Pétasse han, audio, Fentanyl dans les gélules cash Concu', j'les vois p'tits comme des cellules han Libérez mes négros dans les cellules J'ai visser des blacks, des blancs et des beurres ouh Negrito connaît pas le racisme hey J'ai des potes qui sont sur le rrain-té brr Mais c'est pas le même que Bolasie brah, brah Dis-moi c'qui nous fascine à part les putes et l'argent facile ah, ah Dans le hall, ça détaille la résine pah Dans le hall, ça bicrave la résine pah, han J'fais pas d'pas d'danse, j'suis pas danseur nan Rien que j'monte comme si j'étais dans l'ascenseur paw Corleone, Negrito ekip, danger sur les écriteaux han Concu', c'est des Pépito haha, au-d'ssus d'eux comme des hélicos, ekip On veut billets, liasse de billets, billets, billets, liasse de ok, cash Billets, liasses de billets, billets, billets, liasses de ok Billets, liasses de ok, billets, liasses de ok Billets, liasses de bi', bi', bi', bi', billets eh Nous, on veut de l'oseille, donc garde tes conseils On a vidé la 'teille, on est défoncés ekip Nous, on veut de l'oseille, donc garde tes conseils cash, cash, cash, cash On a vidé la 'teille, on est défoncés Han, 9.3 ekip, 7.7 ekip, so seven-seven aka 7.7 ekip On encaisse 3.6.5 77 cash, so le clan, clan, so la secte, secte Go, go, go, go mailler, eh eh, dans la cité, faut mailler C'est peut-être quand j'vais brasser eh que mes soucis vont s'noyer 6.6.7, virus, le nouveau foyer ekip, envoie les prods, j'fais que fossoyer ah J'regarde ces fufus, ils sont trop soyers, j'ai des Cartier plus chers que vos loyers cash C'est que pour détailler eh que des pookies, on a côtoyé eh, ouh, ekip, ekip Le rap français, on va nettoyer paw 20-20, on donne l'heure même sans montre eh, ekip J'ai fait un rêve où j'avais 100 montres J'aime trop les tisses-mé ok, curly ou ch'veux lissés ok J'ai visser' des daronnes et des filles qui étaient dans mon lycée On veut billets, liasse de billets, billets, billets, liasses de ok, cash Billets, liasses de billets, billets, billets, liasses de ok Billets, liasses de ok, billets, liasses de ok Billets, liasses de bi', bi', bi', bi', billets eh Nous, on veut de l'oseille, donc garde tes conseils On a vidé la 'teille, on est défoncés ekip Nous, on veut de l'oseille, donc garde tes conseils cash, cash, cash, cash On a vidé la 'teille, on est défoncés On est jamais mieux servis qu'par soi-même, c'est pas c'que les ients-cli diraient On veut billets, liasses de billets, Chen Zen, négro, là pour un max de billets On arrive en équipe, équipe, beaucoup de liquide, liquide mais Pour compter l'liquide, liquide, il faut qu'on s'équipe, s'équipe2</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Han, eh, ekip, ekip Ekip, ekip, ekip, skrt, han, eh This is a Melo beat, han, eh MMS, LDO, NRM Han, skrt, skrt LDO, ekip, LDO, han Ekip, han, ekip, ekip, han Han, skrt, skrt, skrt J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl 17TRACK, so la prise, tous les jours, check quand l'colis atterrit Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kevin Différents types de frappe comme un buteur et j'arrive blindé comme un lutteur Vrai négro comme Gillie, t'as dé-pop comme Billy, j'suis un océan, t'es comme dix litres J'reste vrai du berceau à la tombe, so Nipsey, jamais j'arrête le marathon Les cadavres de prod commencent à s'entasser Focus comme si j'ai bu cent cafés, loin du rap comme si j'habite à Santa Fe So la prise, connecté comme un câble Ethernet J'm'agenouille que devant lÉternel Wax, j'finis la tâche en balle, si j'ai la dalle, j'sais faire du cash en balle Lin dans l'Mons', j'me fais un flash en balle, j'évite les obstacles comme dans Crash, en balle, ekip Eh You might also like J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, han J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens J'sip le Hi-Tech, j'fume la Cali, j'fume le Drytech Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Négro, j'm'entraîne depuis le logo, so la Secte, le triangle, le logo Dans l'milieu comme Allan, technique de malade, j'veux la même SACEM que Lalanne 20-20 Menace Fantôme, j'veux la Continental et la Phantom, pétasse So la Black Mafia, so Oxmo Rarissime comme O'Rosko, j'suis dans le lin, le xan, so Pop Smoke J'mets pas d'vernis et j'fais pas d'teinture So Kaki, j'suis repeint mais j'parle pas d'peinture Tu fais la mala, tu prends 7 , pendant qu'j'fume des louds à 37 Si j'me présente, j'pense que j'prends 7 , Freezer deuxième forme, j'suis qu'à 7 , pétasse J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, hein J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, ekip eh J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, hein J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens Comme si j'avais sept sens Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Chaque jour en cachette J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl Au Padéryl Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kévin Sont drôles comme Kévin Différents types de frappe comme un buteur Comme un buteur et j'arrive blindé comme un lutteur Comme un lutteur13</t>
+          <t>Han, eh, ekip, ekip Ekip, ekip, ekip, skrt, han, eh This is a Melo beat, han, eh MMS, LDO, NRM Han, skrt, skrt LDO, ekip, LDO, han Ekip, han, ekip, ekip, han Han, skrt, skrt, skrt J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl 17TRACK, so la prise, tous les jours, check quand l'colis atterrit Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kevin Différents types de frappe comme un buteur et j'arrive blindé comme un lutteur Vrai négro comme Gillie, t'as dé-pop comme Billy, j'suis un océan, t'es comme dix litres J'reste vrai du berceau à la tombe, so Nipsey, jamais j'arrête le marathon Les cadavres de prod commencent à s'entasser Focus comme si j'ai bu cent cafés, loin du rap comme si j'habite à Santa Fe So la prise, connecté comme un câble Ethernet J'm'agenouille que devant lÉternel Wax, j'finis la tâche en balle, si j'ai la dalle, j'sais faire du cash en balle Lin dans l'Mons', j'me fais un flash en balle, j'évite les obstacles comme dans Crash, en balle, ekip Eh J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, han J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens J'sip le Hi-Tech, j'fume la Cali, j'fume le Drytech Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Négro, j'm'entraîne depuis le logo, so la Secte, le triangle, le logo Dans l'milieu comme Allan, technique de malade, j'veux la même SACEM que Lalanne 20-20 Menace Fantôme, j'veux la Continental et la Phantom, pétasse So la Black Mafia, so Oxmo Rarissime comme O'Rosko, j'suis dans le lin, le xan, so Pop Smoke J'mets pas d'vernis et j'fais pas d'teinture So Kaki, j'suis repeint mais j'parle pas d'peinture Tu fais la mala, tu prends 7 , pendant qu'j'fume des louds à 37 Si j'me présente, j'pense que j'prends 7 , Freezer deuxième forme, j'suis qu'à 7 , pétasse J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, hein J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, ekip eh J'mets un flacon dans l'deux litres Lin, lin, lin, lin J'suis dans la défense comme De Ligt Eh, hein J'les brûle en deux lignes Ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens Comme si j'avais sept sens Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Chaque jour en cachette J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl Au Padéryl Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kévin Sont drôles comme Kévin Différents types de frappe comme un buteur Comme un buteur et j'arrive blindé comme un lutteur Comme un lutteur13</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>F.F.O Négro, 11 septembre Chen Zen, tu m'connais salope J'suis faya du 12 au 11 septembre Goddamn J'ai les segulots à Rav Ron J'veux la Range Rover à Cam'ron No lackin comme à Lamron Haha 30 ans qu'tu rappes comme en 6ème Pussy négro J'te dépasse au point mort, t'es en 6ème Même faya j'reste lucide dans l'piège Avec mes négros fume du shit dans l'piège Les prods on fusille dans l'piège 667 comme usine dans l'piège J'suis dans l'complot comme l'ONU Salope J'vendrai jamais mon âme pour être connu Ramène moi un 'llu pour être promu Fonscar à l'huile, négro j'arrive Avec les yeux comme Mars Met la concu' dans un cercueil Négro so VonMar, ekip You might also like F.F.O 667 gouvernement Gouvernement 667 gouvernement F.F.O Dans l'complot comme le gouvernement Comme le gouvernement Dans l'complot comme le gouvernement F.F.O 667 gouvernement Gouvernement 667 gouvernement F.F.O Dans l'complot comme le gouvernement Gouvernement Dans l'complot comme le gouvernement, ekip F.F.O 667 gouvernement Goddamn Dans l'complot comme le gouvernement Yeuz plissés Faya à l'huile de shit Négro J'veux les sous comme un Juif de Chine Tu vends ton âme pour des thunes Tu vends ton âme pour des putes Tu vends ton âme pour des tubes Goddamn, tu vends ton âme pour des pulls Haha Trouve-moi avec Odeux' dans le casino Dans l'Rap Jeu j'perçois fortement la présence de Satan Négro, comme dans l'casino Haha, j'arrive comme Tragedy Khadafi Fonscar à QB Négro, on les fume en deuspi Comme du tabac Phillip Morris à tuber Là pour les éduquer Négro comme à l'école Fiston tu peux pas capter C'que j'dis si t'as pas les codes, ekip F.F.O 667 gouvernement Gouvernement 667 gouvernement F.F.O Dans l'complot comme le gouvernement Comme le gouvernement Dans l'complot comme le gouvernement F.F.O 667 gouvernement Gouvernement 667 gouvernement F.F.O Dans l'complot comme le gouvernement Gouvernement Dans l'complot comme le gouvernement, ekip1</t>
+          <t>F.F.O Négro, 11 septembre Chen Zen, tu m'connais salope J'suis faya du 12 au 11 septembre Goddamn J'ai les segulots à Rav Ron J'veux la Range Rover à Cam'ron No lackin comme à Lamron Haha 30 ans qu'tu rappes comme en 6ème Pussy négro J'te dépasse au point mort, t'es en 6ème Même faya j'reste lucide dans l'piège Avec mes négros fume du shit dans l'piège Les prods on fusille dans l'piège 667 comme usine dans l'piège J'suis dans l'complot comme l'ONU Salope J'vendrai jamais mon âme pour être connu Ramène moi un 'llu pour être promu Fonscar à l'huile, négro j'arrive Avec les yeux comme Mars Met la concu' dans un cercueil Négro so VonMar, ekip F.F.O 667 gouvernement Gouvernement 667 gouvernement F.F.O Dans l'complot comme le gouvernement Comme le gouvernement Dans l'complot comme le gouvernement F.F.O 667 gouvernement Gouvernement 667 gouvernement F.F.O Dans l'complot comme le gouvernement Gouvernement Dans l'complot comme le gouvernement, ekip F.F.O 667 gouvernement Goddamn Dans l'complot comme le gouvernement Yeuz plissés Faya à l'huile de shit Négro J'veux les sous comme un Juif de Chine Tu vends ton âme pour des thunes Tu vends ton âme pour des putes Tu vends ton âme pour des tubes Goddamn, tu vends ton âme pour des pulls Haha Trouve-moi avec Odeux' dans le casino Dans l'Rap Jeu j'perçois fortement la présence de Satan Négro, comme dans l'casino Haha, j'arrive comme Tragedy Khadafi Fonscar à QB Négro, on les fume en deuspi Comme du tabac Phillip Morris à tuber Là pour les éduquer Négro comme à l'école Fiston tu peux pas capter C'que j'dis si t'as pas les codes, ekip F.F.O 667 gouvernement Gouvernement 667 gouvernement F.F.O Dans l'complot comme le gouvernement Comme le gouvernement Dans l'complot comme le gouvernement F.F.O 667 gouvernement Gouvernement 667 gouvernement F.F.O Dans l'complot comme le gouvernement Gouvernement Dans l'complot comme le gouvernement, ekip1</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>So le Flem, han SHK Ekip, ekip This is my baby Rayane Rolls-Royce Spectre, Maybach S580 NRM, 667, pétasse Ekip, ekip, ekip, ekip Faut des Rolls-Royce Spectre Sku, des Maybach S580 Sku Concu' c'est des 180 Han, on les fouette comme en 1580 Fa-fa Négro, j'ai que des VVS, j'ai plus de pills que chez CVS Han Ça fait longtemps qu'j'suis dans l'complot comme CNN et CBS Ah Pétasse Pétasse, pétasse, j'ai les ordonnances, j'ai les prescriptions Freeze Corleone, ennemi public numéro 1, j'correspond à la description Ah Laser, viseur holographique Fa-fa, Range Rover Autobiography Sku, sku J'me censure quand c'est trop graphique, avant d'arriver, j'fais la topographie J'fais la topographie En 2-2, j'ai fumé cinquante-sept onces J'ai fumé cinquante-sept onces Il m'faut une 15-305 et une 57-11 Ice Travail, discipline, détermination Détermination J'commence et j'termine l'action, j'enchaîne les tueries et les exterminations Han Corleone, j'arrive comme l'éclipse, américain comme une Ford Eclipse Sku, sku Dans ma réserve que des drogues de luxe Ftt, ftt, j'roule des soixantes comme les Crips Han J'arrive Houston comme Lil' Keke Lin, à 300, j'ai sorti l'becquet Sku On est là pour faire du biff pendant des générations comme des grosses familles Békés Corleone, j'arrive comme l'éclipse Han, américain comme une Ford Eclipse Sku, sku Dans ma réserve que des drogues de luxe Ftt, ftt, j'roule des soixantes comme les Crips Han J'arrive Houston comme Lil' Keke, à 300, j'ai sorti l'becquet Sku, sku On est là pour faire du biff pendant des générations comme des grosses familles Békés Ekip, ekip, ekip, ekip, ekip You might also like Négro, c'est un cappeur, on l'a attrapé en flagment délire Haha Ils disent que pour cacher des choses à des négros, faut les cacher dans des livres Han J'ai que des A en tir Paw, paw, ils peuvent que essayer de me ralentir Ah J'm'attaque seul à l'Empire, on dirait qu'ils forcent les rappeurs à mentir No cap Pour les codes, faut l'initiation Han Attaque des Clones, j'regarde le jeu, j'vois des pâles copies et des imitations J'suis à 140, au-dessus des limitations Sku, sku J'les vois d'en haut comme dans Sim City Han, en noir et blanc comme dans Sin City Haha Avec Flem, que des volcanos, des tsunamis wave et des Et j'ai fini v'là d'stylos Bic J'ai fini v'là d'stylos Bic, j'glisse comme si j'fais du ski nautique J'fais du ski nautique J'fonce à fond, gros Audi Sku Fons' comme si j'ai cons' trop d'crocodile, découpe de façon robotique Han Corleone, j'arrive comme l'éclipse, américain comme une Ford Eclipse Sku, sku Dans ma réserve que des drogues de luxe Ftt, ftt, j'roule des soixantes comme les Crips Han J'arrive Houston comme Lil' Keke Lin, à 300, j'ai sorti l'becquet Sku On est là pour faire du biff pendant des générations comme des grosses familles Békés Corleone, j'arrive comme l'éclipse Han, américain comme une Ford Eclipse Sku, sku Dans ma réserve que des drogues de luxe Ftt, ftt, j'roule des soixantes comme les Crips Han J'arrive Houston comme Lil' Keke, à 300, j'ai sorti l'becquet Sku, sku On est là pour faire du biff pendant des générations comme des grosses familles Békés Ekip, ekip, ekip, ekip, ekip Sku, sku, sku, sku Ekip, ekip Haha, ftt, ftt, ftt Ekip, ekip, ekip, ekip</t>
+          <t>So le Flem, han SHK Ekip, ekip This is my baby Rayane Rolls-Royce Spectre, Maybach S580 NRM, 667, pétasse Ekip, ekip, ekip, ekip Faut des Rolls-Royce Spectre Sku, des Maybach S580 Sku Concu' c'est des 180 Han, on les fouette comme en 1580 Fa-fa Négro, j'ai que des VVS, j'ai plus de pills que chez CVS Han Ça fait longtemps qu'j'suis dans l'complot comme CNN et CBS Ah Pétasse Pétasse, pétasse, j'ai les ordonnances, j'ai les prescriptions Freeze Corleone, ennemi public numéro 1, j'correspond à la description Ah Laser, viseur holographique Fa-fa, Range Rover Autobiography Sku, sku J'me censure quand c'est trop graphique, avant d'arriver, j'fais la topographie J'fais la topographie En 2-2, j'ai fumé cinquante-sept onces J'ai fumé cinquante-sept onces Il m'faut une 15-305 et une 57-11 Ice Travail, discipline, détermination Détermination J'commence et j'termine l'action, j'enchaîne les tueries et les exterminations Han Corleone, j'arrive comme l'éclipse, américain comme une Ford Eclipse Sku, sku Dans ma réserve que des drogues de luxe Ftt, ftt, j'roule des soixantes comme les Crips Han J'arrive Houston comme Lil' Keke Lin, à 300, j'ai sorti l'becquet Sku On est là pour faire du biff pendant des générations comme des grosses familles Békés Corleone, j'arrive comme l'éclipse Han, américain comme une Ford Eclipse Sku, sku Dans ma réserve que des drogues de luxe Ftt, ftt, j'roule des soixantes comme les Crips Han J'arrive Houston comme Lil' Keke, à 300, j'ai sorti l'becquet Sku, sku On est là pour faire du biff pendant des générations comme des grosses familles Békés Ekip, ekip, ekip, ekip, ekip Négro, c'est un cappeur, on l'a attrapé en flagment délire Haha Ils disent que pour cacher des choses à des négros, faut les cacher dans des livres Han J'ai que des A en tir Paw, paw, ils peuvent que essayer de me ralentir Ah J'm'attaque seul à l'Empire, on dirait qu'ils forcent les rappeurs à mentir No cap Pour les codes, faut l'initiation Han Attaque des Clones, j'regarde le jeu, j'vois des pâles copies et des imitations J'suis à 140, au-dessus des limitations Sku, sku J'les vois d'en haut comme dans Sim City Han, en noir et blanc comme dans Sin City Haha Avec Flem, que des volcanos, des tsunamis wave et des Et j'ai fini v'là d'stylos Bic J'ai fini v'là d'stylos Bic, j'glisse comme si j'fais du ski nautique J'fais du ski nautique J'fonce à fond, gros Audi Sku Fons' comme si j'ai cons' trop d'crocodile, découpe de façon robotique Han Corleone, j'arrive comme l'éclipse, américain comme une Ford Eclipse Sku, sku Dans ma réserve que des drogues de luxe Ftt, ftt, j'roule des soixantes comme les Crips Han J'arrive Houston comme Lil' Keke Lin, à 300, j'ai sorti l'becquet Sku On est là pour faire du biff pendant des générations comme des grosses familles Békés Corleone, j'arrive comme l'éclipse Han, américain comme une Ford Eclipse Sku, sku Dans ma réserve que des drogues de luxe Ftt, ftt, j'roule des soixantes comme les Crips Han J'arrive Houston comme Lil' Keke, à 300, j'ai sorti l'becquet Sku, sku On est là pour faire du biff pendant des générations comme des grosses familles Békés Ekip, ekip, ekip, ekip, ekip Sku, sku, sku, sku Ekip, ekip Haha, ftt, ftt, ftt Ekip, ekip, ekip, ekip</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>So le Flem Corleone et 22 Ekip, j'roule des Philly, j'mets des vingt d'beuh Fuck 12, le 17 et les 22 Lin, Fanta orange, j'remonte la balle comme Ja Morant Au Sénégal, il m'faut tout de la villa au ranch Black Macaroni, so Tony Bamboula Ekip C'est moi ou la prod' comme si on est à deux dans l'goulag Pah Ekip à fond, so A.S.B gang, Goulag Ekip Négro capte pas c'que j'dis comme si j'rappais en pulaar Hein Fume que d'l'artifice, au-d'ssus comme un feu d'artifice On n'parle pas d'être-humain quand on parle de sacrifice Ah So les blindages, à chaque fois, j'v'-esqui in extremis Rap français, on pull up comme dix extrémistes Han Braque l'industrie comme le gang des Lyonnais Dans l'verre, l'mélange est violet, d'vant comme Cristiano et Lionel So Tha Trickaz, toujours discret, pas tricard Concu', on les graille comme des chips au paprika Ah J'roule un maxi-teh, j'ai des flows par citerne Ma p'tite est archi-belle, faut qu'j'l'emmène dans les archipels So Stavo Fondation International Fois trois, Caliweed, j'roule un teh international You might also like J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'écoute l'instru' et là, j'm'apprête à découper ça Un opps qui saigne la tête au sol et pour terminer ça J'pouvais pas louper ça comme les gros à Vanessa Dans ma tête des images passent, dans ma tête j'refais tout l'dessin Je jure devant Dieu, dans mes poches, j'ai jamais eu d'oursins Y a des moments, j'avais pas one, des moments, j'dépensais pour cinq Cinq Big O.G depuis les années 2000, tu connais Tu connais Et j'vois tous vos rappeurs comme des mini-poneys Poneys, hey On a grandi dans la crise Dans la crise, la est blanche Brr mais l'arme est grise Brr Essaye de nous faire tremper qu'on met tes deux doigts dans la prise On recrute, on donne du travail, tombe dans la bataille J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat</t>
+          <t>So le Flem Corleone et 22 Ekip, j'roule des Philly, j'mets des vingt d'beuh Fuck 12, le 17 et les 22 Lin, Fanta orange, j'remonte la balle comme Ja Morant Au Sénégal, il m'faut tout de la villa au ranch Black Macaroni, so Tony Bamboula Ekip C'est moi ou la prod' comme si on est à deux dans l'goulag Pah Ekip à fond, so A.S.B gang, Goulag Ekip Négro capte pas c'que j'dis comme si j'rappais en pulaar Hein Fume que d'l'artifice, au-d'ssus comme un feu d'artifice On n'parle pas d'être-humain quand on parle de sacrifice Ah So les blindages, à chaque fois, j'v'-esqui in extremis Rap français, on pull up comme dix extrémistes Han Braque l'industrie comme le gang des Lyonnais Dans l'verre, l'mélange est violet, d'vant comme Cristiano et Lionel So Tha Trickaz, toujours discret, pas tricard Concu', on les graille comme des chips au paprika Ah J'roule un maxi-teh, j'ai des flows par citerne Ma p'tite est archi-belle, faut qu'j'l'emmène dans les archipels So Stavo Fondation International Fois trois, Caliweed, j'roule un teh international J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'écoute l'instru' et là, j'm'apprête à découper ça Un opps qui saigne la tête au sol et pour terminer ça J'pouvais pas louper ça comme les gros à Vanessa Dans ma tête des images passent, dans ma tête j'refais tout l'dessin Je jure devant Dieu, dans mes poches, j'ai jamais eu d'oursins Y a des moments, j'avais pas one, des moments, j'dépensais pour cinq Cinq Big O.G depuis les années 2000, tu connais Tu connais Et j'vois tous vos rappeurs comme des mini-poneys Poneys, hey On a grandi dans la crise Dans la crise, la est blanche Brr mais l'arme est grise Brr Essaye de nous faire tremper qu'on met tes deux doigts dans la prise On recrute, on donne du travail, tombe dans la bataille J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat J'arrive accompagné comme la première balle de la rafale Grr, pah, pah, pah So Gaza chaque jour, R.E.P Yasser Arafat Arafat, Arafat</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Han, pétasse, K.K.K K.K.K Ekip, ekip, M.M.S, L.D.O, N.R.M, 6.6.7 Han Ekip Yeah Ces négros sont faibles, leur flow vaut comme 2000 J'les fume en 2-2 comme Dunhill So Zuukou Mayzie, immunité comme Denis Chen Zen, 667, j'ai v'là de flow comme 2 Nil, pétasse Ekip, gaddamn, j'fume la loud, loud Négro, j'fume la Bose Lean comme Ballout, Euphon dans l'Sprite Et j'mets plus d'la dose Lin, j'suis dans le lin 2016 t'as chaud, t'es signé négro, mais en déficit Gaddamn J'arrive précis comme un Navy SEAL Négro, dans l'complot comme ABC Ekip Tu veux faire la course, t'as pas l'permis Tranquille, lance-toi dans le karting Si Dieu le veut Moi bientôt j'gare des foreign dans le parking Sku, sku, sku 667, MMS, c'est le clan pétasse C'est le clan pétasse Gaddamn, j'sais c'que j'fais, j'ai le plan pétasse So LDO négro, boulé de noires comme mubu J'arrive africain comme boubou Le Sprite est rose comme Boubou Chen Zen, j'me sens comme Neo Négro, j'suis dans la trilogie 90's baby, 23 piges Transige comme un triple-OG So 'Sirus, négro remballe ta douille, on la connait Katana, yeuz bridés, j'arrive comme un Japonais You might also like Cons' v'là de caca négro, comme des toilettes So Afro S, j'ai des petits yeux mais j'vois net Cons' v'là de caca négro, comme des toilettes Ekip, caca de chameau LDO négro, so les 3 lettres Cons' v'là de caca négro, comme des toilettes So Afro S, j'ai des petits yeux mais j'vois net Cons' v'là de caca négro, comme des toilettes LDO négro, so les 3 lettres MMS, LDO, 667, c'est le clan pétasse Haha, j'sais c'que j'fais, j'ai le plan pétasse</t>
+          <t>Han, pétasse, K.K.K K.K.K Ekip, ekip, M.M.S, L.D.O, N.R.M, 6.6.7 Han Ekip Yeah Ces négros sont faibles, leur flow vaut comme 2000 J'les fume en 2-2 comme Dunhill So Zuukou Mayzie, immunité comme Denis Chen Zen, 667, j'ai v'là de flow comme 2 Nil, pétasse Ekip, gaddamn, j'fume la loud, loud Négro, j'fume la Bose Lean comme Ballout, Euphon dans l'Sprite Et j'mets plus d'la dose Lin, j'suis dans le lin 2016 t'as chaud, t'es signé négro, mais en déficit Gaddamn J'arrive précis comme un Navy SEAL Négro, dans l'complot comme ABC Ekip Tu veux faire la course, t'as pas l'permis Tranquille, lance-toi dans le karting Si Dieu le veut Moi bientôt j'gare des foreign dans le parking Sku, sku, sku 667, MMS, c'est le clan pétasse C'est le clan pétasse Gaddamn, j'sais c'que j'fais, j'ai le plan pétasse So LDO négro, boulé de noires comme mubu J'arrive africain comme boubou Le Sprite est rose comme Boubou Chen Zen, j'me sens comme Neo Négro, j'suis dans la trilogie 90's baby, 23 piges Transige comme un triple-OG So 'Sirus, négro remballe ta douille, on la connait Katana, yeuz bridés, j'arrive comme un Japonais Cons' v'là de caca négro, comme des toilettes So Afro S, j'ai des petits yeux mais j'vois net Cons' v'là de caca négro, comme des toilettes Ekip, caca de chameau LDO négro, so les 3 lettres Cons' v'là de caca négro, comme des toilettes So Afro S, j'ai des petits yeux mais j'vois net Cons' v'là de caca négro, comme des toilettes LDO négro, so les 3 lettres MMS, LDO, 667, c'est le clan pétasse Haha, j'sais c'que j'fais, j'ai le plan pétasse</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ha-ha Ekip, ekip, ekip MMS LDO NRM 667, pétasse Uh Tu peux m'appeler le Chen, pétasse Tu veux la secte, allonge le chèque, pétasse J'suis lébène, t'es le chêne, pétasse Eschatologie, j'écoute le cheikh, pétasse Gaddamn, 667, gros la qualité J'ai la recette négro, so à Maïté J'suis dans le Xan, so Abdou le plug LDO, boulé de noires, on a full de plug MMS 667, fraternité comme 3K On peut remplir comme 3 cars Lexo, j'en ai pop comme 3-4 Gaddamn, j'suis vrai et j'le reste, négro La famille et l'or d'abord, fuck le reste, négro Ekip, fanatique cons' avec modération CFR négro, false flag opération J'suis à propos du temps et de l'argent comme un Suisse Faut qu'j'fasse tourner l'khaliss dans ma communauté comme un Juif Ekip, fuck l'industrie, j'arrive killu' comme Macson Fuck l'industrie, j'arrive killu' comme Jackson REP Pac, REP ODB Gaddamn, REP Pimp C, REP ODB J'arrive faya dans la soucoupe J'mets v'là l'sirop dans la sou-oupe J'ai mon caca dans la sou-oute You might also like J'arrive faya dans la soucoupe J'mets v'là l'sirop dans la sou-oupe J'ai mon caca dans la sou-oute, ekip MMS LDO NRM 667, c'est le clan pétasse J'sais c'que j'fais, j'ai le plan pétasse Ekip, ekip MMS LDO NRM 667 Tu peux m'appeler le Chen, pétasse Tu veux la secte, allonge le chèque, pétasse J'suis lébène, t'es le chêne, pétasse Eschatologie, j'écoute le cheikh, pétasse Tu peux m'appeler le Chen, pétasse Tu veux la secte, allonge le chèque, pétasse J'suis lébène, t'es le chêne, pétasse Eschatologie, j'écoute le cheikh, pétasse Ekip, ekip MMS LDO NRM 667 J'suis dans le lean, j'vois en slow-mo' comme Max Pétasse, glisse sur la prod comme Nax</t>
+          <t>Ha-ha Ekip, ekip, ekip MMS LDO NRM 667, pétasse Uh Tu peux m'appeler le Chen, pétasse Tu veux la secte, allonge le chèque, pétasse J'suis lébène, t'es le chêne, pétasse Eschatologie, j'écoute le cheikh, pétasse Gaddamn, 667, gros la qualité J'ai la recette négro, so à Maïté J'suis dans le Xan, so Abdou le plug LDO, boulé de noires, on a full de plug MMS 667, fraternité comme 3K On peut remplir comme 3 cars Lexo, j'en ai pop comme 3-4 Gaddamn, j'suis vrai et j'le reste, négro La famille et l'or d'abord, fuck le reste, négro Ekip, fanatique cons' avec modération CFR négro, false flag opération J'suis à propos du temps et de l'argent comme un Suisse Faut qu'j'fasse tourner l'khaliss dans ma communauté comme un Juif Ekip, fuck l'industrie, j'arrive killu' comme Macson Fuck l'industrie, j'arrive killu' comme Jackson REP Pac, REP ODB Gaddamn, REP Pimp C, REP ODB J'arrive faya dans la soucoupe J'mets v'là l'sirop dans la sou-oupe J'ai mon caca dans la sou-oute J'arrive faya dans la soucoupe J'mets v'là l'sirop dans la sou-oupe J'ai mon caca dans la sou-oute, ekip MMS LDO NRM 667, c'est le clan pétasse J'sais c'que j'fais, j'ai le plan pétasse Ekip, ekip MMS LDO NRM 667 Tu peux m'appeler le Chen, pétasse Tu veux la secte, allonge le chèque, pétasse J'suis lébène, t'es le chêne, pétasse Eschatologie, j'écoute le cheikh, pétasse Tu peux m'appeler le Chen, pétasse Tu veux la secte, allonge le chèque, pétasse J'suis lébène, t'es le chêne, pétasse Eschatologie, j'écoute le cheikh, pétasse Ekip, ekip MMS LDO NRM 667 J'suis dans le lean, j'vois en slow-mo' comme Max Pétasse, glisse sur la prod comme Nax</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Hey, hey Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Eh, comme la plupart, on subit la routine accusé comme O.J. J'suis dans les chiottes du rap, j'analyse, j'bouquine j'analyse, j'bouquine, eh, eh Au fond d'la cuisine, du piège, j'célèbre, j'cooking Tout est noir comme à Pikine, j'suis tah les Djinns à Vladimir Poutine J'voulais braquer ton cur avec un sniper, nous, gravés dans la roche comme Sniper Te charmer, figer l'temps comme Piper, flow Tunnel Vision comme Sniper Gang Toute ma vie, j'te fais danser comme Usher wouh, toute ma ville sait qu'ouais, j'suis un hustler Esprit fermé comme le cul d'une bonne sur, on s'lève à six heures et t'sais qu'on est des bosseurs Shout out au 6.6.7, comme Corleone, j'ai la recette au 6.6.7 Y a tellement d'dope sur l'assiette sept que les chiffres buguent sur la pesette 0.9 Jugé à ma mélanine, négro, j'ai la peau mate hein, hein Bouteille de Ciroc et j'les traumat' poh, on the rocks, j'sirote mon cognac You might also like Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Ekip, sku sku comme O.J. Simpson Chen Zen, j'suis dans l'complot, négro, comme dans les Simpson ekip, ekip, pétasse Yeuz plissés comme si j'viens du Japon, j'mets le sirop dans le Fanta qui vient du Japon lin, lin, lin, lin Corleone, RAS, Crimi', ça crache des flammes au studio NLS Ekip à fond, 500 S, MMS ekip, faut qu'j'pèse comme si j'jouais en MLS Tu veux un couplet ? C'est comme dix stacks, j'mets les trois points comme Kristaps Chen Zen, négro, j'arrive mal-fonc' han, dans mon corps, j'ai plusieurs drogues qui s'tapent Si c'est pour les sous, négro, let's go cash, Next Level so au Mezgø ekip Ça roule des battes, négro, envoie les prod', on fait que des home-run comme au baseball godamn J'veux l'cash, j'suis là pour le pain et le fromage bread, cheese J'suis pas comme eux comme si j'sortais d'un centre d'essai de clonage ekip Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Crimi, Goyard, deux mille yards, O.J. Simpson O.J. Fais pas l'mollah Omar, t'es Krusty le clown dans les Simpson Stan Smith Wesson, cain-ri comme boug'zer de l'Essonne ALC, NLS, Mandela Nelson, soupçonné comme O.J. Simpson Crimi' Quand l'homme cherche à m'noyer, il ne fait qu'm'apprendre l'apnée yah Bah écoute, obligé d'prendre l'amné', mon flingue, partout, j'vais l'amener On suit l'chiffre d'affaires de l'année, tour de périph', flingue sur la tempe J'gère le biz' avec le gang next, ma main n'rentre pas dans le gant Accusé comme O.J. Simpson accusé Mais il f'ra du bruit jusqu'à Washington pah Nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson sku O.J., O.J., O.J, hey NLS, MMS, RAS, 500 S, yo sku 93, LDO, NRM, 667, 500 S NLS, ekip, han2</t>
+          <t>Hey, hey Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Eh, comme la plupart, on subit la routine accusé comme O.J. J'suis dans les chiottes du rap, j'analyse, j'bouquine j'analyse, j'bouquine, eh, eh Au fond d'la cuisine, du piège, j'célèbre, j'cooking Tout est noir comme à Pikine, j'suis tah les Djinns à Vladimir Poutine J'voulais braquer ton cur avec un sniper, nous, gravés dans la roche comme Sniper Te charmer, figer l'temps comme Piper, flow Tunnel Vision comme Sniper Gang Toute ma vie, j'te fais danser comme Usher wouh, toute ma ville sait qu'ouais, j'suis un hustler Esprit fermé comme le cul d'une bonne sur, on s'lève à six heures et t'sais qu'on est des bosseurs Shout out au 6.6.7, comme Corleone, j'ai la recette au 6.6.7 Y a tellement d'dope sur l'assiette sept que les chiffres buguent sur la pesette 0.9 Jugé à ma mélanine, négro, j'ai la peau mate hein, hein Bouteille de Ciroc et j'les traumat' poh, on the rocks, j'sirote mon cognac Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Ekip, sku sku comme O.J. Simpson Chen Zen, j'suis dans l'complot, négro, comme dans les Simpson ekip, ekip, pétasse Yeuz plissés comme si j'viens du Japon, j'mets le sirop dans le Fanta qui vient du Japon lin, lin, lin, lin Corleone, RAS, Crimi', ça crache des flammes au studio NLS Ekip à fond, 500 S, MMS ekip, faut qu'j'pèse comme si j'jouais en MLS Tu veux un couplet ? C'est comme dix stacks, j'mets les trois points comme Kristaps Chen Zen, négro, j'arrive mal-fonc' han, dans mon corps, j'ai plusieurs drogues qui s'tapent Si c'est pour les sous, négro, let's go cash, Next Level so au Mezgø ekip Ça roule des battes, négro, envoie les prod', on fait que des home-run comme au baseball godamn J'veux l'cash, j'suis là pour le pain et le fromage bread, cheese J'suis pas comme eux comme si j'sortais d'un centre d'essai de clonage ekip Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Crimi, Goyard, deux mille yards, O.J. Simpson O.J. Fais pas l'mollah Omar, t'es Krusty le clown dans les Simpson Stan Smith Wesson, cain-ri comme boug'zer de l'Essonne ALC, NLS, Mandela Nelson, soupçonné comme O.J. Simpson Crimi' Quand l'homme cherche à m'noyer, il ne fait qu'm'apprendre l'apnée yah Bah écoute, obligé d'prendre l'amné', mon flingue, partout, j'vais l'amener On suit l'chiffre d'affaires de l'année, tour de périph', flingue sur la tempe J'gère le biz' avec le gang next, ma main n'rentre pas dans le gant Accusé comme O.J. Simpson accusé Mais il f'ra du bruit jusqu'à Washington pah Nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson Accusé comme O.J. Simpson accusé, 500 S vient pas d'ici non Mais il f'ra du bruit jusqu'à Washington pah Calibre 22 au sol, nous, on les avale tes cartouches Remington ska O.G sur l'banc des accusés, soupçonné comme O.J. Simpson sku O.J., O.J., O.J, hey NLS, MMS, RAS, 500 S, yo sku 93, LDO, NRM, 667, 500 S NLS, ekip, han2</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>J'suis trop fonce-dé pour compter combien y a d'haters sur ma liste, merde Faut que j'les blesse, putain, la plupart c'est des suceurs de bites Hey, OV Docteur, tu sais que j'suis un putain d'mauvais gro-né, eh Des moi y'en a pas 10, haha Négro, tu sais qu'j'suis dans l'binks tous les jours, eh Ouais j'les fouette et j'en ai 10, eh OVG Doc - Trap Luxe, dans les bacs, y'en avait 10, hey Compte t'as dix négros j'les fouette Compte jusqu'à dix négro, j'les fouette 6-6-7, tu r'connais la secte Propagation noire comme la peste J'veux qu'mes poches tombent enceintes de billets Full cash full do que j'peux plus trier Sans vendre mon âme, j'me le suis juré J'pense à Dieu surtout quand j'ai pas prié OV Doc, eh Des fois, j'me remémore des trucs que j'regrette mais je les fuck, eh Les principes restent les mêmes, pas comme eux, jamais j'baisse mon froc, eh Gros pers' dès l'matin fuck toi, fuck lui, même malade, j'vous botte Si tu sors le Glock j'espère que tu vas shot, fils de pute, OV You might also like J'suis trop fonce-dé pour compter combien y'a d'haters sur ma liste, merde Faut que j'les blesse, putain, la plupart c'est des suceurs de bites Hey, OV Docteur, tu sais que j'suis un putain d'mauvais gro-né, eh Des moi y'en a pas 10, haha Négro, tu sais qu'j'suis dans l'binks tous les jours, eh Ouais j'les fouette et j'en ai 10, eh OVG Doc - Trap Luxe, dans les bacs, y'en avait 10, hey Négro fais des plans comme Cortex, sors des pyramides comme Cortex Négro, j'traverse les vortex, dans l'froid North Face Gore-Tex Différents types de frappes l'Hazard, la Messi, la CR7 Maîtrise différents types d'armes TITAN, Paladin HB50, ICR-7 OVG D.O.C, Chen Zen calcinent la prod, so à DMI So la prise, comme un câble, H24 j'reste connecté comme l'HDMI So mes gal-sen, so mes dakarois, Black Mafia comme des bavarois J'arrive QB tous les jours, so grave à mes original voyous, so grave à Roi J'suis trop foncedé pour compter combien y'a d'haters sur ma liste, merde Faut que j'les blesse, putain, la plupart c'est des suceurs de bites Hey, OV Docteur, tu sais que j'suis un putain d'mauvais gro-né, eh Des moi y'en a pas 10, haha Négro, tu sais qu'j'suis dans l'binks tous les jours, eh Ouais j'les fouette et j'en ai 10, eh OVG Doc - Trap Luxe, dans les bacs, y'en avait 10, hey J'suis trop foncedé pour compter combien y'a d'haters sur ma liste, merde Hey, OV Docteur, tu sais que j'suis un putain d'mauvais gro-né, eh Négro, tu sais qu'j'suis dans l'binks tous les jours, eh Ouais j'les fouette et j'en ai 10, eh1</t>
+          <t>J'suis trop fonce-dé pour compter combien y a d'haters sur ma liste, merde Faut que j'les blesse, putain, la plupart c'est des suceurs de bites Hey, OV Docteur, tu sais que j'suis un putain d'mauvais gro-né, eh Des moi y'en a pas 10, haha Négro, tu sais qu'j'suis dans l'binks tous les jours, eh Ouais j'les fouette et j'en ai 10, eh OVG Doc - Trap Luxe, dans les bacs, y'en avait 10, hey Compte t'as dix négros j'les fouette Compte jusqu'à dix négro, j'les fouette 6-6-7, tu r'connais la secte Propagation noire comme la peste J'veux qu'mes poches tombent enceintes de billets Full cash full do que j'peux plus trier Sans vendre mon âme, j'me le suis juré J'pense à Dieu surtout quand j'ai pas prié OV Doc, eh Des fois, j'me remémore des trucs que j'regrette mais je les fuck, eh Les principes restent les mêmes, pas comme eux, jamais j'baisse mon froc, eh Gros pers' dès l'matin fuck toi, fuck lui, même malade, j'vous botte Si tu sors le Glock j'espère que tu vas shot, fils de pute, OV J'suis trop fonce-dé pour compter combien y'a d'haters sur ma liste, merde Faut que j'les blesse, putain, la plupart c'est des suceurs de bites Hey, OV Docteur, tu sais que j'suis un putain d'mauvais gro-né, eh Des moi y'en a pas 10, haha Négro, tu sais qu'j'suis dans l'binks tous les jours, eh Ouais j'les fouette et j'en ai 10, eh OVG Doc - Trap Luxe, dans les bacs, y'en avait 10, hey Négro fais des plans comme Cortex, sors des pyramides comme Cortex Négro, j'traverse les vortex, dans l'froid North Face Gore-Tex Différents types de frappes l'Hazard, la Messi, la CR7 Maîtrise différents types d'armes TITAN, Paladin HB50, ICR-7 OVG D.O.C, Chen Zen calcinent la prod, so à DMI So la prise, comme un câble, H24 j'reste connecté comme l'HDMI So mes gal-sen, so mes dakarois, Black Mafia comme des bavarois J'arrive QB tous les jours, so grave à mes original voyous, so grave à Roi J'suis trop foncedé pour compter combien y'a d'haters sur ma liste, merde Faut que j'les blesse, putain, la plupart c'est des suceurs de bites Hey, OV Docteur, tu sais que j'suis un putain d'mauvais gro-né, eh Des moi y'en a pas 10, haha Négro, tu sais qu'j'suis dans l'binks tous les jours, eh Ouais j'les fouette et j'en ai 10, eh OVG Doc - Trap Luxe, dans les bacs, y'en avait 10, hey J'suis trop foncedé pour compter combien y'a d'haters sur ma liste, merde Hey, OV Docteur, tu sais que j'suis un putain d'mauvais gro-né, eh Négro, tu sais qu'j'suis dans l'binks tous les jours, eh Ouais j'les fouette et j'en ai 10, eh1</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Doh, doh, doh, Dom P. ballert Score für die Squadra, score, Attaque, Haaland Loco Okocha Original Paris connect Extendo-Clip in 'nem Voll-Black-Jeep, Loco Kommandant E-E-Ekip Mental 'ne Legend wie Eto'o Fils Brrt, poh-poh Fühl' mich seit damals am Blocka wie in 'nem Krieg Loco Immer noch gegen das System, fils de p Brr Löwe für immer, mein Papa kommt aus Afrique Wey Gu-gucke nur hoch, denn ich lass' nicht los, wenn Erfolg kommt Negro Hunger der Street, er ist in mir drin und er bleibt ein Teil meiner Person Innerlich tot, doch behalt' Hoffnung, denn ich kenn' mein Ziel, ich will mehr hol'n Immer noch G, doch ich hab' Vision'n, also Puto, vermehre die Million'n Loco Konto gedeckt, fahre Porsche GT, Farbe Sharkblue Boh-boh Friday in Paris mit Freeze, Lamborghini mit Wing-Doors Brrt Too-too many Baddies am Table, Attraktion Negro Weiter im Life Highscore, 'ne Legend wie Eto'o Fils Brrt Doh, doh, doh, Dom P. ballert Score für die Squadra score, Attaque, Haaland Loco Okocha Original Paris connect Ah Extendo-Clip in 'nem Voll-Black-Jeep Ah, Loco Kommandant You might also like Mentalité allemande Allemande, so Luciano Le seul rat que j'respecte c'est Luciano Ekip New York comme Fetty Luciano Pah OG depuis les années '90 Depuis Fons' comme si j'ai fumé quatre-vingt dix À deux-cents sur une route à quatre-vingt-dix J'arrive coréen comme un A90 Skrrt En défense j'suis Kalidou, t'es Lenglet Ah Burberry comme un grand-père anglais Anglais J'arrive dans l'rap comme un camion qui bombarde à fond sur la Skrrt, eh Grosse soupape comme Davies New-York cité comme Dave East Ekip Concu' j'les vois petits comme des vis Petits Dans la surface j'mets des grands tacles Grand 48 heures mon avance, j'l'ai renta' Cash Sur tous les plavons dès qu'c'est rentable Cash Killuminati, so Cheikh Anta Ekip De loin, sans stress Aucun Négro j'la mets avec la planche Swish J'attends l'tsunami avec ma planche Ah-ah J'découpe dans la cuisine avec la planche Pétasse Doh, doh, doh, Dom P. ballert Score für die Squadra, score, Attaque, Haaland Loco Okocha Original Paris connect Extendo-Clip in 'nem Voll-Black-Jeep, Loco Kommandant E-E-Ekip DLS, please stop, I'm burnin'</t>
+          <t>Doh, doh, doh, Dom P. ballert Score für die Squadra, score, Attaque, Haaland Loco Okocha Original Paris connect Extendo-Clip in 'nem Voll-Black-Jeep, Loco Kommandant E-E-Ekip Mental 'ne Legend wie Eto'o Fils Brrt, poh-poh Fühl' mich seit damals am Blocka wie in 'nem Krieg Loco Immer noch gegen das System, fils de p Brr Löwe für immer, mein Papa kommt aus Afrique Wey Gu-gucke nur hoch, denn ich lass' nicht los, wenn Erfolg kommt Negro Hunger der Street, er ist in mir drin und er bleibt ein Teil meiner Person Innerlich tot, doch behalt' Hoffnung, denn ich kenn' mein Ziel, ich will mehr hol'n Immer noch G, doch ich hab' Vision'n, also Puto, vermehre die Million'n Loco Konto gedeckt, fahre Porsche GT, Farbe Sharkblue Boh-boh Friday in Paris mit Freeze, Lamborghini mit Wing-Doors Brrt Too-too many Baddies am Table, Attraktion Negro Weiter im Life Highscore, 'ne Legend wie Eto'o Fils Brrt Doh, doh, doh, Dom P. ballert Score für die Squadra score, Attaque, Haaland Loco Okocha Original Paris connect Ah Extendo-Clip in 'nem Voll-Black-Jeep Ah, Loco Kommandant Mentalité allemande Allemande, so Luciano Le seul rat que j'respecte c'est Luciano Ekip New York comme Fetty Luciano Pah OG depuis les années '90 Depuis Fons' comme si j'ai fumé quatre-vingt dix À deux-cents sur une route à quatre-vingt-dix J'arrive coréen comme un A90 Skrrt En défense j'suis Kalidou, t'es Lenglet Ah Burberry comme un grand-père anglais Anglais J'arrive dans l'rap comme un camion qui bombarde à fond sur la Skrrt, eh Grosse soupape comme Davies New-York cité comme Dave East Ekip Concu' j'les vois petits comme des vis Petits Dans la surface j'mets des grands tacles Grand 48 heures mon avance, j'l'ai renta' Cash Sur tous les plavons dès qu'c'est rentable Cash Killuminati, so Cheikh Anta Ekip De loin, sans stress Aucun Négro j'la mets avec la planche Swish J'attends l'tsunami avec ma planche Ah-ah J'découpe dans la cuisine avec la planche Pétasse Doh, doh, doh, Dom P. ballert Score für die Squadra, score, Attaque, Haaland Loco Okocha Original Paris connect Extendo-Clip in 'nem Voll-Black-Jeep, Loco Kommandant E-E-Ekip DLS, please stop, I'm burnin'</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Han, squad Han han, ah-ah J'veux finir en boss boss au village, négro comme Sosa gaddamn, négro 667, LDO LDO, ah-ah, nègre mafia comme Cosa MMS, MMS Vision slow-motion, j'pop des médocs mal lean, lean Débarque sur la prod, techniques shaolin, so Method Man wah Freeze Corleone, négro, transige comme si j'viens d'Sicile gaddamn J'me sens comme Vladimir en stock, négro, j'ai plein d'missiles tah, tah Laisse le rap en flammes, comme les deux tours Sur eux, d'avance, au moins deux tours Ils m'croyaient mort, j'reviens comme Gandalf dans Les Deux Tours Déterminé gaddamn, négro, nique le Dajjâl chaque jour Killuminati, Chen tranchant han, de vision, j'ai grand champs gaddamn Si tu m'connais tu sais qu'j'peux pas avancer sans chanvre ftt, ftt Graille vos MCs comme dibi, donne crack gratuit comme Bibby so MMS, disciples noirs comme BD, so Rifa, j'veux peser comme Diddy, goddamn khaliss J'regarde ces nègres, j'ai jamais vu plus trash Regarde mes nègres, so Kemi Seba, j'suis supra so So à mes Mangemorts, on tombe du ciel comme des flocons On met des soupapes, tous les jours, nique le peloton sku You might also like Squa', gaddamn Chen Zen découpe la prod comme un boucher Dans l'labo pendant qu't'es couché, squa' 2015, MMS, LDO, Chen Zen Argent nègre, Freeze Corleone, gaddamn Squa', squa', squa', squa' Tous les jours, négro, fonscar comme un chinois J'ai pas été sobre depuis six mois au moins Squa', MMS, LDO</t>
+          <t>Han, squad Han han, ah-ah J'veux finir en boss boss au village, négro comme Sosa gaddamn, négro 667, LDO LDO, ah-ah, nègre mafia comme Cosa MMS, MMS Vision slow-motion, j'pop des médocs mal lean, lean Débarque sur la prod, techniques shaolin, so Method Man wah Freeze Corleone, négro, transige comme si j'viens d'Sicile gaddamn J'me sens comme Vladimir en stock, négro, j'ai plein d'missiles tah, tah Laisse le rap en flammes, comme les deux tours Sur eux, d'avance, au moins deux tours Ils m'croyaient mort, j'reviens comme Gandalf dans Les Deux Tours Déterminé gaddamn, négro, nique le Dajjâl chaque jour Killuminati, Chen tranchant han, de vision, j'ai grand champs gaddamn Si tu m'connais tu sais qu'j'peux pas avancer sans chanvre ftt, ftt Graille vos MCs comme dibi, donne crack gratuit comme Bibby so MMS, disciples noirs comme BD, so Rifa, j'veux peser comme Diddy, goddamn khaliss J'regarde ces nègres, j'ai jamais vu plus trash Regarde mes nègres, so Kemi Seba, j'suis supra so So à mes Mangemorts, on tombe du ciel comme des flocons On met des soupapes, tous les jours, nique le peloton sku Squa', gaddamn Chen Zen découpe la prod comme un boucher Dans l'labo pendant qu't'es couché, squa' 2015, MMS, LDO, Chen Zen Argent nègre, Freeze Corleone, gaddamn Squa', squa', squa', squa' Tous les jours, négro, fonscar comme un chinois J'ai pas été sobre depuis six mois au moins Squa', MMS, LDO</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Rayane on the beat Han han, han Ekip, ekip, ekip ekip, ekip SHK La F, Corleone, pétasse pétasse, pétasse Han han, baw, baw, baw, baw On vise le top 50, mon kho, faut faire péter le gang J'peux mourir pour aider le gang, toi, tu lackes, t'as fait péter le gang 6.9.1, 6.6.7, mon frandjo, on est tous ensemble Toutes les prods, on les rafale, concurrence, ils finissent tous en sang La violence, la violence, la violence violence, violence, hey La violence, la violence, la violence violence, violence, hey La violence, la violence, la violence violence, violence, hey Grww Headshot, pas d'reset brr, même en touche, j'le g-check J'sors des grosses liasses au parloir à chaque fois qu'j'vais voir mon p'tit frère tching, tching J'ai surfé sur la misère, nique sa mère la misère misère, misère 6.9.1, c'est visionnaire, c'est l'heure d'devenir millionnaire You might also like Han Prends les prod en missionnaire han, billionaire, au minimum millionnaire cash Chicago comme Billionnaire paw, so Zuuk' Mayz', j'arrive en Billionaire han Instru', j'enchaîne éliminations pah Respecte pas les limitations sku, dans l'jeu, j'vois des clones et des imitations eh, eh J'suis avec big Freeze, dans les poches, que du big Cheese ouh Dans les big biz', cette pute, elle veut faire des strip-tease des strip-tease, grr Fuck le triple six chaque jour, dans la drill depuis Chief Keef han J'arrive sous lin comme Lil Reese lin, masqué comme Stanley Ipkiss paw Tu vas finir mort sa mère la pute, tes potos vont t'porter sur un t-shirt grr 9 milli' les mettra à g'noux, frandjo, même s'ils font la taille du videur Art de la guerre pour battre l'armée, faut couper la tête du leader ha, ha Précis de loin comme Larry Bird, négro, il m'faut le cash à Bieber Dans ma tête, que des rouleaux d'banque, prêt pour la guerre comme 35 tanks comme 35 tanks Et négro, inch'Allah, j'ai v'là de milli' à 35 ans cash On arrive trop lourd et stylés, on la fout au fond des filets Donc cette année, faut tout plier, ils vont jamais nous oublier On vise le top 50, mon kho, faut faire péter le gang J'peux mourir pour aider le gang, toi, tu lackes, t'as fait péter le gang 6.9.1, 6.6.7, mon frandjo, on est tous ensemble Toutes les prods, on les rafale, concurrence, ils finissent tous en sang La violence, la violence, la violence violence, violence, hey La violence, la violence, la violence violence, violence, hey La violence, la violence, la violence violence, violence, hey Grww On vise le top 50, mon kho, faut faire péter le gang 6.9.1, 6.6.7, mon frandjo, on est tous ensemble La violence, la violence, la violence violence, violence La violence, la violence, la violence violence, violence La violence, la violence, la violence violence, violence, grww1</t>
+          <t>Rayane on the beat Han han, han Ekip, ekip, ekip ekip, ekip SHK La F, Corleone, pétasse pétasse, pétasse Han han, baw, baw, baw, baw On vise le top 50, mon kho, faut faire péter le gang J'peux mourir pour aider le gang, toi, tu lackes, t'as fait péter le gang 6.9.1, 6.6.7, mon frandjo, on est tous ensemble Toutes les prods, on les rafale, concurrence, ils finissent tous en sang La violence, la violence, la violence violence, violence, hey La violence, la violence, la violence violence, violence, hey La violence, la violence, la violence violence, violence, hey Grww Headshot, pas d'reset brr, même en touche, j'le g-check J'sors des grosses liasses au parloir à chaque fois qu'j'vais voir mon p'tit frère tching, tching J'ai surfé sur la misère, nique sa mère la misère misère, misère 6.9.1, c'est visionnaire, c'est l'heure d'devenir millionnaire Han Prends les prod en missionnaire han, billionaire, au minimum millionnaire cash Chicago comme Billionnaire paw, so Zuuk' Mayz', j'arrive en Billionaire han Instru', j'enchaîne éliminations pah Respecte pas les limitations sku, dans l'jeu, j'vois des clones et des imitations eh, eh J'suis avec big Freeze, dans les poches, que du big Cheese ouh Dans les big biz', cette pute, elle veut faire des strip-tease des strip-tease, grr Fuck le triple six chaque jour, dans la drill depuis Chief Keef han J'arrive sous lin comme Lil Reese lin, masqué comme Stanley Ipkiss paw Tu vas finir mort sa mère la pute, tes potos vont t'porter sur un t-shirt grr 9 milli' les mettra à g'noux, frandjo, même s'ils font la taille du videur Art de la guerre pour battre l'armée, faut couper la tête du leader ha, ha Précis de loin comme Larry Bird, négro, il m'faut le cash à Bieber Dans ma tête, que des rouleaux d'banque, prêt pour la guerre comme 35 tanks comme 35 tanks Et négro, inch'Allah, j'ai v'là de milli' à 35 ans cash On arrive trop lourd et stylés, on la fout au fond des filets Donc cette année, faut tout plier, ils vont jamais nous oublier On vise le top 50, mon kho, faut faire péter le gang J'peux mourir pour aider le gang, toi, tu lackes, t'as fait péter le gang 6.9.1, 6.6.7, mon frandjo, on est tous ensemble Toutes les prods, on les rafale, concurrence, ils finissent tous en sang La violence, la violence, la violence violence, violence, hey La violence, la violence, la violence violence, violence, hey La violence, la violence, la violence violence, violence, hey Grww On vise le top 50, mon kho, faut faire péter le gang 6.9.1, 6.6.7, mon frandjo, on est tous ensemble La violence, la violence, la violence violence, violence La violence, la violence, la violence violence, violence La violence, la violence, la violence violence, violence, grww1</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Hey J'bois le pur et par double, j'vois des putes de partout Des squelettiques, des gras-doubles, chez nous, y a qu'une seule éthique Trahis pas la honda, tôt ou tard, tout ça remontera Comme les magouilles chez le comptable, mettre des zéros sur le contrat Trahis pas la honda, hey, une guitare, une Honda, pour te finish Ça fait un moment qu'on l'a filoche, l'autre alpiniste Dans la city, dans la cité, j'ai le six coups sous la ceinture Ils cherchent des couvertures, on cherche des ouvertures Il faut qu'les sous perdurent, ouais, c'est ça qui est super dur Trop d'fils de super putes qui veulent qu'on superpose Ils cherchent des couvertures, nous, on cherche des ouvertures Han J'ferai aucun effort pour eux, j'préfère finir dans J'préfère finir dans la lice-po que rentrer dans l'jeu Han, et j'suis dangereux depuis qu'j'suis dans l'jeu J'ai mis du sirop dans l''she, boss de fin, j'suis dans l'jeu, han Brique sur brique, faut construire un mur comme Donald Cash C'est des clowns comme Ronald, j'suis comme Picsou, t'es comme Donald Donald Négro, sous lin, j'me sens comme Fredo dans le cut Dans le cut, R.E.P Fredo Tu sais très bien c'qu'y a dans le cup Lin Seul au micro, découpe comme si j'étais à trente Couronne sur les cadrans, négro, tes l'çons, on t'les apprend Pilote, so Doumams, mental' allemande, so Schumann Des soupapes comme Anssumane, pour que j'capte ta langue, parle en sous, man Cash Faut les grosses villas Han, rital comme Collina Killu' à vie, fuck tous les réseaux pédo' comme Molina Han J'crois qu'en Allah, pas d'Bapho', ni d'Shiva OpenSea jcop dix Shiba, on est pire qu'Ebola X Sida You might also like Tout se payera tôt ou tard, mieux vaut pour toi qu'ça soit ici-bas Ici-bas, y a pas d'easy life, même sous papel, on est irritables Si tu ricanes, tu vas t'en prendre une façon hurricane On manie la poudre et les shurikens, en équipe comme les suricates Ton chevalier blanc n'est qu'un Saroumane Sur une main, j'l'envoie au Suriname, ici-bas, y a pas d'surhumains Han J'me sens comme Bruce Lee sur la prod', fais des pompes sur une main Woah Et comment j'découpe les prods, pour eux, c'est surhumain Eh J'ai la frappe de Müller, laser sur le brûleur Pah L'heure, c'est l'heure avant l'heure, c'est pas l'heure, après l'heure, c'est plus l'heure Négro Sénégal, Mali Han, j'roule que des bad, j'ai des sales manies Chen Zen, j'suis dans la secte comme Abd al-Malik J'ai les crocs, j'ai les quatre canines Dans l'illégal, y a pas d'qualif', OG à la Karl Kani C'est léger, ça va planer comme à CDG C'est léger, ça va planer, j'ai des G et des G Dans l'équipe, y a des DG et des PDG BGBC, mieux qu'CD et DG C'est léger, ça va planer comme à CDG C'est léger, ça va planer, j'ai des G et des G Dans l'équipe, y a des DG et des PDG BGBC, mieux qu'CD et DG C'est léger, ça va planer comme à CDG CDG, CDG2</t>
+          <t>Hey J'bois le pur et par double, j'vois des putes de partout Des squelettiques, des gras-doubles, chez nous, y a qu'une seule éthique Trahis pas la honda, tôt ou tard, tout ça remontera Comme les magouilles chez le comptable, mettre des zéros sur le contrat Trahis pas la honda, hey, une guitare, une Honda, pour te finish Ça fait un moment qu'on l'a filoche, l'autre alpiniste Dans la city, dans la cité, j'ai le six coups sous la ceinture Ils cherchent des couvertures, on cherche des ouvertures Il faut qu'les sous perdurent, ouais, c'est ça qui est super dur Trop d'fils de super putes qui veulent qu'on superpose Ils cherchent des couvertures, nous, on cherche des ouvertures Han J'ferai aucun effort pour eux, j'préfère finir dans J'préfère finir dans la lice-po que rentrer dans l'jeu Han, et j'suis dangereux depuis qu'j'suis dans l'jeu J'ai mis du sirop dans l''she, boss de fin, j'suis dans l'jeu, han Brique sur brique, faut construire un mur comme Donald Cash C'est des clowns comme Ronald, j'suis comme Picsou, t'es comme Donald Donald Négro, sous lin, j'me sens comme Fredo dans le cut Dans le cut, R.E.P Fredo Tu sais très bien c'qu'y a dans le cup Lin Seul au micro, découpe comme si j'étais à trente Couronne sur les cadrans, négro, tes l'çons, on t'les apprend Pilote, so Doumams, mental' allemande, so Schumann Des soupapes comme Anssumane, pour que j'capte ta langue, parle en sous, man Cash Faut les grosses villas Han, rital comme Collina Killu' à vie, fuck tous les réseaux pédo' comme Molina Han J'crois qu'en Allah, pas d'Bapho', ni d'Shiva OpenSea jcop dix Shiba, on est pire qu'Ebola X Sida Tout se payera tôt ou tard, mieux vaut pour toi qu'ça soit ici-bas Ici-bas, y a pas d'easy life, même sous papel, on est irritables Si tu ricanes, tu vas t'en prendre une façon hurricane On manie la poudre et les shurikens, en équipe comme les suricates Ton chevalier blanc n'est qu'un Saroumane Sur une main, j'l'envoie au Suriname, ici-bas, y a pas d'surhumains Han J'me sens comme Bruce Lee sur la prod', fais des pompes sur une main Woah Et comment j'découpe les prods, pour eux, c'est surhumain Eh J'ai la frappe de Müller, laser sur le brûleur Pah L'heure, c'est l'heure avant l'heure, c'est pas l'heure, après l'heure, c'est plus l'heure Négro Sénégal, Mali Han, j'roule que des bad, j'ai des sales manies Chen Zen, j'suis dans la secte comme Abd al-Malik J'ai les crocs, j'ai les quatre canines Dans l'illégal, y a pas d'qualif', OG à la Karl Kani C'est léger, ça va planer comme à CDG C'est léger, ça va planer, j'ai des G et des G Dans l'équipe, y a des DG et des PDG BGBC, mieux qu'CD et DG C'est léger, ça va planer comme à CDG C'est léger, ça va planer, j'ai des G et des G Dans l'équipe, y a des DG et des PDG BGBC, mieux qu'CD et DG C'est léger, ça va planer comme à CDG CDG, CDG2</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Prof Chen, Prof-Prof-Prof Chen Prof Chen, Prof-Prof Chen Prof Chen, Prof Chen Prof Chen, appelle-moi Prof Chen Prof Chen, Prof-Prof-Prof Chen Prof Chen, Prof Chen Prof Chen, Prof Chen Prof Chen, appelle-moi Prof Chen Prof Chen négro, j'te laisse choisir ta Pokéball Mets que des cartouches donc ils ont la rage côté goal Bientôt vert comme Cell, ils puent la merde comme selles J'ai trop de flow négro, j'les dissous sans stress comme sel Elle m'demande pourquoi j'fume tant d'shit J'lui dis pour qu'ça pop jusqu'en Chine Dans la cuisine trouve-moi défracté Avec les ingrédients et les ustensiles Chen Zen, pétasse, j'ai grave la dalle Comme un enfant somalien d'moins d'5 ans pendant la famine 24 piges, mentalité triple-OG Corleone, jeune parrain transigeant dans la famille Haha, j'veux les gros sous, remballe ton avance Pendant qu'ils rappent sans âme, on avance 667, LDO, 20.16 pétasse J'sais qu'tu cons', t'inquiètes pas j'ai plein d'16 pétasse You might also like Prof-Prof-Prof Chen Prof Chen, Prof-Prof Chen Prof Chen, Prof Chen Prof Chen, appelle-moi Prof Chen Prof Chen, Prof-Prof-Prof Chen Prof Chen, Prof Chen Prof Chen, Prof Chen Prof Chen, appelle-moi Prof Chen</t>
+          <t>Prof Chen, Prof-Prof-Prof Chen Prof Chen, Prof-Prof Chen Prof Chen, Prof Chen Prof Chen, appelle-moi Prof Chen Prof Chen, Prof-Prof-Prof Chen Prof Chen, Prof Chen Prof Chen, Prof Chen Prof Chen, appelle-moi Prof Chen Prof Chen négro, j'te laisse choisir ta Pokéball Mets que des cartouches donc ils ont la rage côté goal Bientôt vert comme Cell, ils puent la merde comme selles J'ai trop de flow négro, j'les dissous sans stress comme sel Elle m'demande pourquoi j'fume tant d'shit J'lui dis pour qu'ça pop jusqu'en Chine Dans la cuisine trouve-moi défracté Avec les ingrédients et les ustensiles Chen Zen, pétasse, j'ai grave la dalle Comme un enfant somalien d'moins d'5 ans pendant la famine 24 piges, mentalité triple-OG Corleone, jeune parrain transigeant dans la famille Haha, j'veux les gros sous, remballe ton avance Pendant qu'ils rappent sans âme, on avance 667, LDO, 20.16 pétasse J'sais qu'tu cons', t'inquiètes pas j'ai plein d'16 pétasse Prof-Prof-Prof Chen Prof Chen, Prof-Prof Chen Prof Chen, Prof Chen Prof Chen, appelle-moi Prof Chen Prof Chen, Prof-Prof-Prof Chen Prof Chen, Prof Chen Prof Chen, Prof Chen Prof Chen, appelle-moi Prof Chen</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Back To The Future So le Flem Négro, j'ai 23 sur moi Sku Michael Ève a croqué dans la pomme Sku Apple Puzzle de mots dans la boca Scrabble Si c'est pour dire que d'la merde Que d'la mierda ta gueule On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta Skur On redistribue comme Andrés, j'arrive comme Giánnis Antetokoúnmpo en Grèce 24 sur moi et j'me sens comme Kobe, dans la suite et j'me sens comme Kody Han Corleone, Alonzo, vif comme Alphonso, j'ai la vista à Lonzo 6.6.7, Psy 4, vision sicav, vrai négro de Foumbouni jusqu'à Sicap Le Parrain et l'Capo dei Capi, envoie les prods, négro, ça décapite Ça décapite On va droit au but comme l'O.M L'O.M, PDM pour les pédos comme Noël Noël J'débarque en full Foot Korner Korner, automatique, raquette ou corner Corner Montre suisse et Cartier or, du 93 jusqu'aux quartiers nord, ekip Agressif comme Urus, on a que du malus depuis qu'on est ftus J'ai commandé la Lotus et des mitraillettes russes, le salam à vous tous Déterminé comme Vatos, brum-brum, un cross, y a les schmitts, adios J'ai percé avant Rick Ross, sur la vie d'ma mère, j'ai un mood atroce J'suis sur écoute, dans les écouteurs, on s'en bat les couilles Ouais, du cul de ta sur, ça monte dans les tours Ne faites pas les fous, là pour faire des sous, cagoulé sur le scooter La vie, c'est pas compliqué, c'est une phrase d'friqué, non pas d'un africain Tu sais bien qu'on est impliqué You might also like Négro, j'ai 23 sur moi Sku Michael Ève a croqué dans la pomme Sku Apple Puzzle de mots dans la boca Scrabble Si c'est pour dire que d'la merde Que d'la mierda ta gueule On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta Habillé Casablanca à Casablanca, billets couleur blanca Billets couleur vert pomme Tu rentres avec six k, ressors avec douze k, fais chanter le AK Vr-vr-vreh En feat' avec Freeze, dangereux comme Freezer, on est sur Namek, ekip Les cheveux qui frisent, toi t'es un menteur, jure pas sur La Mecque Les diamants dansent comme des B-boy, vos rappeurs vont à Phuket baiser des ladyboys J'mets la concu' dans ma poche comme la Fresh, faut les comptes à French, les connec' comme dans la French Leurs flows vaut pas dix dirhams, so le big Karim, so le big Biram Fuck le lin, R.E.P Mac Miller, découpe depuis One Beat, so Spike Miller Yeah Le Paris-Dakar sur un KTM Sku, à Marseille, j'suis connu comme RTM Ça sort les guitares à la R.E.M, pour les hazis du poto à Tony M Distribue du cash comme un ATM, négro, j'arrive gal-Sen comme RTS On les grailles en balle comme des N.E.M Au micro, j'ai les techniques à Donnie Yen On s'ra balancé par le bigo ou l'ADN Négro, les voyous choisissent l'Audi ou la BM Skrt, skrt La BNP sert à retirer les APL Skrt Capo Négro, j'ai 23 sur moi Sku Michael Ève a croqué dans la pomme Sku Apple Puzzle de mots dans la boca Scrabble Si c'est pour dire que d'la merde Que d'la mierda ta gueule On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta</t>
+          <t>Back To The Future So le Flem Négro, j'ai 23 sur moi Sku Michael Ève a croqué dans la pomme Sku Apple Puzzle de mots dans la boca Scrabble Si c'est pour dire que d'la merde Que d'la mierda ta gueule On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta Skur On redistribue comme Andrés, j'arrive comme Giánnis Antetokoúnmpo en Grèce 24 sur moi et j'me sens comme Kobe, dans la suite et j'me sens comme Kody Han Corleone, Alonzo, vif comme Alphonso, j'ai la vista à Lonzo 6.6.7, Psy 4, vision sicav, vrai négro de Foumbouni jusqu'à Sicap Le Parrain et l'Capo dei Capi, envoie les prods, négro, ça décapite Ça décapite On va droit au but comme l'O.M L'O.M, PDM pour les pédos comme Noël Noël J'débarque en full Foot Korner Korner, automatique, raquette ou corner Corner Montre suisse et Cartier or, du 93 jusqu'aux quartiers nord, ekip Agressif comme Urus, on a que du malus depuis qu'on est ftus J'ai commandé la Lotus et des mitraillettes russes, le salam à vous tous Déterminé comme Vatos, brum-brum, un cross, y a les schmitts, adios J'ai percé avant Rick Ross, sur la vie d'ma mère, j'ai un mood atroce J'suis sur écoute, dans les écouteurs, on s'en bat les couilles Ouais, du cul de ta sur, ça monte dans les tours Ne faites pas les fous, là pour faire des sous, cagoulé sur le scooter La vie, c'est pas compliqué, c'est une phrase d'friqué, non pas d'un africain Tu sais bien qu'on est impliqué Négro, j'ai 23 sur moi Sku Michael Ève a croqué dans la pomme Sku Apple Puzzle de mots dans la boca Scrabble Si c'est pour dire que d'la merde Que d'la mierda ta gueule On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta Habillé Casablanca à Casablanca, billets couleur blanca Billets couleur vert pomme Tu rentres avec six k, ressors avec douze k, fais chanter le AK Vr-vr-vreh En feat' avec Freeze, dangereux comme Freezer, on est sur Namek, ekip Les cheveux qui frisent, toi t'es un menteur, jure pas sur La Mecque Les diamants dansent comme des B-boy, vos rappeurs vont à Phuket baiser des ladyboys J'mets la concu' dans ma poche comme la Fresh, faut les comptes à French, les connec' comme dans la French Leurs flows vaut pas dix dirhams, so le big Karim, so le big Biram Fuck le lin, R.E.P Mac Miller, découpe depuis One Beat, so Spike Miller Yeah Le Paris-Dakar sur un KTM Sku, à Marseille, j'suis connu comme RTM Ça sort les guitares à la R.E.M, pour les hazis du poto à Tony M Distribue du cash comme un ATM, négro, j'arrive gal-Sen comme RTS On les grailles en balle comme des N.E.M Au micro, j'ai les techniques à Donnie Yen On s'ra balancé par le bigo ou l'ADN Négro, les voyous choisissent l'Audi ou la BM Skrt, skrt La BNP sert à retirer les APL Skrt Capo Négro, j'ai 23 sur moi Sku Michael Ève a croqué dans la pomme Sku Apple Puzzle de mots dans la boca Scrabble Si c'est pour dire que d'la merde Que d'la mierda ta gueule On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta, on redistribue comme Iniesta On redistribue comme Iniesta</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>LZ, 6.6.7, so le travail d'ekip Aussi efficace qu'un patate, coup d'boule, béquille RTT, 6.6.7, so le travail d'ekip Ratio toujours dans l'positif, j't'explose comme la mine Betty Violent paw, pirate sheesh, déterminé pour le seille-o rha OBS, wagwan, on t'efface opps, so Kapi dans la maison rha On t'liquide, ça débite paw, bandit saleté petit sheesh On envoie l'argent à Dakar, toujours dans l'usine, ça fait du ffe-bi ouais So Kaki, c'est la famille, top dealer, on vit de me-cri paw Le canon est scié comme rah, dans l'9.3.800, c'est la vie Hafflit riche zebi, M.M.S Squad, c'est la famille rah Demande au Flem, on les finit violent, on rafale les prod comme le Uzi On zone avec les fous, les faces balafrées, une mesure sur deux, t'as pas la réf' Une pépite, pas deux, parle pas d'karaté, tu zonais dans notre ville, nan, on t'a pas raté Ça parle, ça parle mais pour pop, qu'est-ce que t'attends brr ? J'fume que la loud, y a qu'ça qui m'atteint squa' J'en roule un pendant que j'termine celui d'avant et j'fais ça du soir au matin Trois millions sans effort, tu fais 10k et t'as tout donné, fume la loud, tu finis sonné On veut les montres couronnées, j'allume un pur de californienne pendant qu'ces faces ont la poudre au nez Hein, F.L.M sur la prod, on rafale au tank squa' Lyonzon, 6.6.7, original voyou gang You might also like J'veux l'cash et j'veux l'savoir savoir, j'veux pas d'biatch, j'veux une femme Tu troques ton âme pour le cash, tu dis qu't'es homme, t'es qu'une tache Tu dis qu't'es chaud, j'te dis qu't'es froid, j'te brûle et puis j't'éteins Tout prêt et loin de mes ennemis, tout p'tit et loin comme l'infini Koush, Misraïm, Canaan, Shaka descendant de Sonna Kante, Dinga, Soundiata, Ndeye, Taytu, Muhumusa Shakur, j'connais ma fonction, non, pas d'ingrat J'ai pas peur d'la mort, vu qu'on meurt pas Amon, Amine, so le Ra Vends, chocolat, c'est pas des Lu, qu'est-ce t'as ? Fala, tu mets des vu Ça fait déjà longtemps qu'on a mué, bats les couilles, j'vais évoluer Encore des galères quand tu penses que tout est résolu, wesh Encore une Nina qui sur les putains d'réseaux lèche Pas d'mala sur les Champs, ta-ta-taffe tous les jours, c'est le rush Pas d'monnaie, faut ger-man, squa-squa-squad, miskine, c'est too much squa' Miskina, c'est pas d'sa faute si j'kiffe les bavoules gé-char J'ai des missions à droite à gauche, c'est pas l'même coco qu'on recharge Ça bosse en équipe, 6.6.7 paw, Mini, Mano, Kpri Inch'Allah, big foreign bientôt dans Paris Ils ont plus d'flow, leur source se tarit sheesh 4matic depuis boy avec Black, c'est même plus du cassage de gueule, j'les laisse en vrac J'lâche pénalty ou un tacle, j'flex sous potion ou Honey Jack sku, sku, sku, paw J'suis fonce-dé, j'vois pas flou, j'vois noir Boy, j'lack ap le matin ou l'soir brr, brr LZ, OBS, cru, on les broie, fais pas l'fou, j'peux t'taper pour R Fuck les putes qui parlent pour plaire sheesh, j'peux pas refuser un tête-à-tête, c'est clair En face, boy, c'est l'désert, fuck un compas et équerre brr T'es qu'un grain d'sable de plus dans les rues du bled, mon salaud Hey, attentat, j'piège ton cadeau, Marathon, j'trottine, guette mon sabot Hey, c'est un travail d'équipe sheesh, perte et fracas quand on abat les kicks Dans la street, négro, me trouve pas dans les vignes, miché comme quand aboient les pit' Nous minimise de base brr, pars en roue libre, prends ton fils comme coulis de lave sku T'es qu'une pookie de cave, hey, j'débarque par derrière mais j'rafale tes goofies de face rha Hey renoi, j'arrive killu' dès le matin, et que j'rafale des prods de manière instinctive Puto, ne fais pas l'plaintif sku, t'agis comme si t'avais moins d'hassannete qu'un chien-guide Découpe et dégaine, pétasse, prends l'anal, préserve son hymen wah KGB, big Flem Flem, on est beaucoup comme X-Men J'me refais, hein hein, hein, té-ma la dégaine Air Max toutes jdid toutes jdid, Lacoste, Boss, nouvelles TN Killu à vie dans l'ADN ra-ta-ta, réel, réel Lyonzon, coup d'shlass, tu fuis, on te pourchasse Ramène le gibier d'la chasse, scellé quatre fois est l'paquetage Filtré, Wickr, tracker, propose plusieurs saveurs 667 ekip, LZ ekip, mafia ekip, cartel ekip Mets la loud dans la cartel, Corleone général comme Vybz Kartel ekip Chen Laden, ils m'veulent mort ou vivant pétasse Sous lin, j'avance comme un mort-vivant lin, lin, lin Négro, ça va pop comme Isis, fume des BHO et des Dry Sift concurrents, en une ligne, j'en ai graille six han, ekip Rimes tranchantes comme si j'écris avec des rasoirs Souveraineté asseoir han, on va les trouer comme des passoires ekip LZ, 6.6.7, so le travail d'ekip Aussi efficace qu'un patate, coup d'boule, béquille RTT, 6.6.7, so le travail d'ekip Ratio toujours dans l'positif, j't'explose comme la mine Betty On f'ra la guerre après six-sept, Si j'bosse un teh apprécie cette kush On finit tous def' après six-sept 'teilles Si j'donne de bon cur apprécie cette aide2</t>
+          <t>LZ, 6.6.7, so le travail d'ekip Aussi efficace qu'un patate, coup d'boule, béquille RTT, 6.6.7, so le travail d'ekip Ratio toujours dans l'positif, j't'explose comme la mine Betty Violent paw, pirate sheesh, déterminé pour le seille-o rha OBS, wagwan, on t'efface opps, so Kapi dans la maison rha On t'liquide, ça débite paw, bandit saleté petit sheesh On envoie l'argent à Dakar, toujours dans l'usine, ça fait du ffe-bi ouais So Kaki, c'est la famille, top dealer, on vit de me-cri paw Le canon est scié comme rah, dans l'9.3.800, c'est la vie Hafflit riche zebi, M.M.S Squad, c'est la famille rah Demande au Flem, on les finit violent, on rafale les prod comme le Uzi On zone avec les fous, les faces balafrées, une mesure sur deux, t'as pas la réf' Une pépite, pas deux, parle pas d'karaté, tu zonais dans notre ville, nan, on t'a pas raté Ça parle, ça parle mais pour pop, qu'est-ce que t'attends brr ? J'fume que la loud, y a qu'ça qui m'atteint squa' J'en roule un pendant que j'termine celui d'avant et j'fais ça du soir au matin Trois millions sans effort, tu fais 10k et t'as tout donné, fume la loud, tu finis sonné On veut les montres couronnées, j'allume un pur de californienne pendant qu'ces faces ont la poudre au nez Hein, F.L.M sur la prod, on rafale au tank squa' Lyonzon, 6.6.7, original voyou gang J'veux l'cash et j'veux l'savoir savoir, j'veux pas d'biatch, j'veux une femme Tu troques ton âme pour le cash, tu dis qu't'es homme, t'es qu'une tache Tu dis qu't'es chaud, j'te dis qu't'es froid, j'te brûle et puis j't'éteins Tout prêt et loin de mes ennemis, tout p'tit et loin comme l'infini Koush, Misraïm, Canaan, Shaka descendant de Sonna Kante, Dinga, Soundiata, Ndeye, Taytu, Muhumusa Shakur, j'connais ma fonction, non, pas d'ingrat J'ai pas peur d'la mort, vu qu'on meurt pas Amon, Amine, so le Ra Vends, chocolat, c'est pas des Lu, qu'est-ce t'as ? Fala, tu mets des vu Ça fait déjà longtemps qu'on a mué, bats les couilles, j'vais évoluer Encore des galères quand tu penses que tout est résolu, wesh Encore une Nina qui sur les putains d'réseaux lèche Pas d'mala sur les Champs, ta-ta-taffe tous les jours, c'est le rush Pas d'monnaie, faut ger-man, squa-squa-squad, miskine, c'est too much squa' Miskina, c'est pas d'sa faute si j'kiffe les bavoules gé-char J'ai des missions à droite à gauche, c'est pas l'même coco qu'on recharge Ça bosse en équipe, 6.6.7 paw, Mini, Mano, Kpri Inch'Allah, big foreign bientôt dans Paris Ils ont plus d'flow, leur source se tarit sheesh 4matic depuis boy avec Black, c'est même plus du cassage de gueule, j'les laisse en vrac J'lâche pénalty ou un tacle, j'flex sous potion ou Honey Jack sku, sku, sku, paw J'suis fonce-dé, j'vois pas flou, j'vois noir Boy, j'lack ap le matin ou l'soir brr, brr LZ, OBS, cru, on les broie, fais pas l'fou, j'peux t'taper pour R Fuck les putes qui parlent pour plaire sheesh, j'peux pas refuser un tête-à-tête, c'est clair En face, boy, c'est l'désert, fuck un compas et équerre brr T'es qu'un grain d'sable de plus dans les rues du bled, mon salaud Hey, attentat, j'piège ton cadeau, Marathon, j'trottine, guette mon sabot Hey, c'est un travail d'équipe sheesh, perte et fracas quand on abat les kicks Dans la street, négro, me trouve pas dans les vignes, miché comme quand aboient les pit' Nous minimise de base brr, pars en roue libre, prends ton fils comme coulis de lave sku T'es qu'une pookie de cave, hey, j'débarque par derrière mais j'rafale tes goofies de face rha Hey renoi, j'arrive killu' dès le matin, et que j'rafale des prods de manière instinctive Puto, ne fais pas l'plaintif sku, t'agis comme si t'avais moins d'hassannete qu'un chien-guide Découpe et dégaine, pétasse, prends l'anal, préserve son hymen wah KGB, big Flem Flem, on est beaucoup comme X-Men J'me refais, hein hein, hein, té-ma la dégaine Air Max toutes jdid toutes jdid, Lacoste, Boss, nouvelles TN Killu à vie dans l'ADN ra-ta-ta, réel, réel Lyonzon, coup d'shlass, tu fuis, on te pourchasse Ramène le gibier d'la chasse, scellé quatre fois est l'paquetage Filtré, Wickr, tracker, propose plusieurs saveurs 667 ekip, LZ ekip, mafia ekip, cartel ekip Mets la loud dans la cartel, Corleone général comme Vybz Kartel ekip Chen Laden, ils m'veulent mort ou vivant pétasse Sous lin, j'avance comme un mort-vivant lin, lin, lin Négro, ça va pop comme Isis, fume des BHO et des Dry Sift concurrents, en une ligne, j'en ai graille six han, ekip Rimes tranchantes comme si j'écris avec des rasoirs Souveraineté asseoir han, on va les trouer comme des passoires ekip LZ, 6.6.7, so le travail d'ekip Aussi efficace qu'un patate, coup d'boule, béquille RTT, 6.6.7, so le travail d'ekip Ratio toujours dans l'positif, j't'explose comme la mine Betty On f'ra la guerre après six-sept, Si j'bosse un teh apprécie cette kush On finit tous def' après six-sept 'teilles Si j'donne de bon cur apprécie cette aide2</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Eh eh, han han Corleone Corleone, haha 2014 2014, LDO LDO So so CNN, Tragedy, Kadhafi, goddamn QB, MOBB, Roi Heenok, la secte Mixe cette merde comme à QB, pyramide inversée au cou comme Yûgi han On est des PGM, eux des newbies pch, pch, démon véner' en moi, des bails de Kyûbi, hein goddamn Dents en or comme des pirates haha, Arabe nazi comme en Irak haha Aquarium dans l'mirage mirage, nique la chance, nique un miracle han 667 klan, drapeau nègre han, nique le Dajjâl, nique Baphomet 667 Sous lean, j'pilote sans stress, négro, rien à branler d'un alcootest Défracté dans la blackmobile nion, négro, j'lean comme un alcoolique han, han Yeuz plissés comme Yao Ming, kicke cette merde comme un moine Shaolin Niggas scared to pull a hit for shit, my team Will know a bitch sniff a pyramid of a dollar bill, she will 97 to the hill, get ill Do your thing, I ain't mad at you son, it's how you feel Fais cette merde sans strezess sans aucun stress, crache magma dans seizeize seizeize Négro, Corleone, Chen Zen han, Seigneur sith, degré soixante-sezept goddamn Bats les couilles du rap françaizais han, han, négro, c'est la crise comme en Grèzèce Grèzèce Fonscar, j'drifte dans l'ciezel, négro, j'veux honorer mes ancêzêtres han J'veux qu'mes négros s'engraizaissent, 667, grande sezecte sezecte Une équipe qui fume ça, tous les jours, artifices comme KDD ou l'cent-treizeize Diamants noirs dans l'désert haha, discrets comme des cancezers 'cezers Tireur d'élite précis, headshot sans strezess, même à mille cent mèzètres You might also like Niggas scared to pull a hit for shit, my team Will know a bitch sniff a pyramid of a dollar bill, she will 97 to the hill, get ill Do your thing, I ain't mad at you son, it's how you feel Han han, han, eh eh So Tragedy, Khadafi Khadafi, CNN CNN Roi Heenok Roi Heenok, QB Pyramide inversée au cou Négro, comme Yûgi Yûgi, han 667 Devenir riche ou mourir en essayant comme 50 Cenzent, Cenzent Corleone, Freezer, holographiques, holographiques sont nos viseurs J'me sens comme un Texan, slow-mo' à cause du sizzurp, sizzurp Niggas scared to pull a hit for shit, my team Will know a bitch sniff a pyramid of a dollar bill, she will 97 to the hill, get ill Do your thing, I ain't mad at you son, it's how you feel</t>
+          <t>Eh eh, han han Corleone Corleone, haha 2014 2014, LDO LDO So so CNN, Tragedy, Kadhafi, goddamn QB, MOBB, Roi Heenok, la secte Mixe cette merde comme à QB, pyramide inversée au cou comme Yûgi han On est des PGM, eux des newbies pch, pch, démon véner' en moi, des bails de Kyûbi, hein goddamn Dents en or comme des pirates haha, Arabe nazi comme en Irak haha Aquarium dans l'mirage mirage, nique la chance, nique un miracle han 667 klan, drapeau nègre han, nique le Dajjâl, nique Baphomet 667 Sous lean, j'pilote sans stress, négro, rien à branler d'un alcootest Défracté dans la blackmobile nion, négro, j'lean comme un alcoolique han, han Yeuz plissés comme Yao Ming, kicke cette merde comme un moine Shaolin Niggas scared to pull a hit for shit, my team Will know a bitch sniff a pyramid of a dollar bill, she will 97 to the hill, get ill Do your thing, I ain't mad at you son, it's how you feel Fais cette merde sans strezess sans aucun stress, crache magma dans seizeize seizeize Négro, Corleone, Chen Zen han, Seigneur sith, degré soixante-sezept goddamn Bats les couilles du rap françaizais han, han, négro, c'est la crise comme en Grèzèce Grèzèce Fonscar, j'drifte dans l'ciezel, négro, j'veux honorer mes ancêzêtres han J'veux qu'mes négros s'engraizaissent, 667, grande sezecte sezecte Une équipe qui fume ça, tous les jours, artifices comme KDD ou l'cent-treizeize Diamants noirs dans l'désert haha, discrets comme des cancezers 'cezers Tireur d'élite précis, headshot sans strezess, même à mille cent mèzètres Niggas scared to pull a hit for shit, my team Will know a bitch sniff a pyramid of a dollar bill, she will 97 to the hill, get ill Do your thing, I ain't mad at you son, it's how you feel Han han, han, eh eh So Tragedy, Khadafi Khadafi, CNN CNN Roi Heenok Roi Heenok, QB Pyramide inversée au cou Négro, comme Yûgi Yûgi, han 667 Devenir riche ou mourir en essayant comme 50 Cenzent, Cenzent Corleone, Freezer, holographiques, holographiques sont nos viseurs J'me sens comme un Texan, slow-mo' à cause du sizzurp, sizzurp Niggas scared to pull a hit for shit, my team Will know a bitch sniff a pyramid of a dollar bill, she will 97 to the hill, get ill Do your thing, I ain't mad at you son, it's how you feel</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Han, hey Ekip, ekip, ekip, han MMS, LDO, NRM, 667, pétasse Hey, han, ekip, han, ekip, ekip Un xan, deux xan, j'commence à marcher comme un mort-vivant bitch Jsais qu'j'vais brûler mais tous les jours au réveil, jremercie l'Seigneur d'être encore vivant Pétasse, j'porte pas de Philipp Plein, Chen Zen aka Philipp Lin Même pas faya après 4 phillies pleins Tire une taf de la loud, tu tousses comme si t'as une bronchite J'roule un gros fumigène, négro, j'mets un tout p'tit peu de tabac sur mon shit Fils de pute tu disparais deuss, comme un meuj de C Rien dans les narines mais jgratte que des lignes comme un geush de C Allô allô han, winwin le plug sku, j'décolle, jpull up, j'vais récup' le colis sku, sku Dans Dakar ves-qui les plaques AD et les véhicules de police Négro, on s'pète la nuit bée-tom pour les transacs Jsais où ils sont donc j'contourne les grands axes J'veux la villa en bord de mer Avec les raptor, les jets, la piscine et les transat' goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis Négro, j'suis kain-kain à mort, j'veux l'argent noir et la couronne comme Elvis Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers Comme Kodak, capture le moment, fils C'est comment, fils ? J'viens prendre les commandes, fils Winwinwin, so mes Belges, j'arrive killuminati comme en nonante six 2k18 Star Wars II, c'est plein d'clones Trouble de la personnalité, j'ai des symptômes Dieu et le fer, j'me sens plus protégé que si j'étais sous cinq dômes J'veux dix briques dans mes pockets J'fume des missiles, j'fume des roquettes Dans le lin depuis longtemps comme la ville des Rockets J'roule mon teh, y'a au moins 72 boulettes Blindage du village, so Kaki négro, proof-bullet J'mets la potion dans la Kirène, allume d'l'alarme Quand tu sens c'est comme si t'entends la sirène Négro, il me faut plus de liquidités qu'il y en a dans les comptes en banque à six reines goddamn, goddamn Sans aucun stress j'en bute 18, négro Tous les jours, des kamas, j'en fume 18 sous lin Fais des scores de tennis dans FUT 18, ekip You might also like Allô allô, winwin le plug sku J'décolle, j'pull up, j'vais récup' le colis sku, sku Négro on s'pète la nuit bée-tom pour les transac' J'sais où ils sont donc j'contourne les grands axes sku, sku, han, goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis lin, goddamn Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers goddamn27</t>
+          <t>Han, hey Ekip, ekip, ekip, han MMS, LDO, NRM, 667, pétasse Hey, han, ekip, han, ekip, ekip Un xan, deux xan, j'commence à marcher comme un mort-vivant bitch Jsais qu'j'vais brûler mais tous les jours au réveil, jremercie l'Seigneur d'être encore vivant Pétasse, j'porte pas de Philipp Plein, Chen Zen aka Philipp Lin Même pas faya après 4 phillies pleins Tire une taf de la loud, tu tousses comme si t'as une bronchite J'roule un gros fumigène, négro, j'mets un tout p'tit peu de tabac sur mon shit Fils de pute tu disparais deuss, comme un meuj de C Rien dans les narines mais jgratte que des lignes comme un geush de C Allô allô han, winwin le plug sku, j'décolle, jpull up, j'vais récup' le colis sku, sku Dans Dakar ves-qui les plaques AD et les véhicules de police Négro, on s'pète la nuit bée-tom pour les transacs Jsais où ils sont donc j'contourne les grands axes J'veux la villa en bord de mer Avec les raptor, les jets, la piscine et les transat' goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis Négro, j'suis kain-kain à mort, j'veux l'argent noir et la couronne comme Elvis Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers Comme Kodak, capture le moment, fils C'est comment, fils ? J'viens prendre les commandes, fils Winwinwin, so mes Belges, j'arrive killuminati comme en nonante six 2k18 Star Wars II, c'est plein d'clones Trouble de la personnalité, j'ai des symptômes Dieu et le fer, j'me sens plus protégé que si j'étais sous cinq dômes J'veux dix briques dans mes pockets J'fume des missiles, j'fume des roquettes Dans le lin depuis longtemps comme la ville des Rockets J'roule mon teh, y'a au moins 72 boulettes Blindage du village, so Kaki négro, proof-bullet J'mets la potion dans la Kirène, allume d'l'alarme Quand tu sens c'est comme si t'entends la sirène Négro, il me faut plus de liquidités qu'il y en a dans les comptes en banque à six reines goddamn, goddamn Sans aucun stress j'en bute 18, négro Tous les jours, des kamas, j'en fume 18 sous lin Fais des scores de tennis dans FUT 18, ekip Allô allô, winwin le plug sku J'décolle, j'pull up, j'vais récup' le colis sku, sku Négro on s'pète la nuit bée-tom pour les transac' J'sais où ils sont donc j'contourne les grands axes sku, sku, han, goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis lin, goddamn Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers goddamn27</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ekip, ekip, LDO, NRM, 667, pétasse pétasse 20.17, 20.18, 20.20, pétasse Ekip, ekip, ekip Dans le lin, j'vois en slow-mo comme Max Dans la défense comme Mats MMS Clan, Chen Zen aka le Jeune Tom Négro, jarrive lourd, pèse déjà une tonne En sous-marin j'les repère par l'périscope Que du lin, pas de Eristoff Pas votre temps, fais pas de Périscope Freeze Corleone, tu sais qu'j'ai le haki, sale pétasse J'suis avec Kaki, Blacky, fume le paki J'veux prendre le pouvoir comme Macky Sall, pétasse Gaddamn, so Vlad', j'ai les missiles On est des océans, c'est des piscines Négro j'veux pas d'autotune, so FBG Duck Ces négros sont marrants, j'suis comme haha, so FBG Duck Fuck ces négros, ils sont fu' de ouf J'vendrai jamais mon âme même si j'veux les sous de ouf, pétasse Pas d'concurrence à part le négro dans la glace Prof Chen, j'suis dans le labo, j'suis dans la classe J'vais mettre Dakar dans latlas Boulé de Noirs et de drogues, LDO dans la place Pas d'concurrence à part le négro dans la glace Prof Chen, j'suis dans le labo, j'suis dans la classe J'vais mettre Dakar dans latlas Boulé de Noirs et de drogues, LDO dans la place You might also like J'arrive galsen comme Ousmane, pétasse Met des soupapes comme Ousmane, pétasse À la tête du cartel comme Guzmán, pétasse Professeur Chen enseigne Sciences de la Vie et de la Terre Pétasse j'peux pas perdre, j'ai l'carré, t'as que la paire So Kaki, j'ai un cerveau de pépé Dans la défense, négro j'ai le cerveau de Pepe So Blacky, roule des tehs qui font 30 cm Monster, broma', Phéner', grand Euphon 30 cl J'veux le comté, j'veux le gouda, négro khaliss Plus de biff que Booba, négro 667, LDO, boulé de Noirs comme Magal de Touba, négro Double coupe comme un OG de Houston So RAS, depuis l'collège j'écoute les OG de Houston Pas d'concurrence à part le négro dans la glace Prof Chen, j'suis dans le labo, j'suis dans la classe J'vais mettre Dakar dans latlas Boulé de Noirs et de drogues, LDO dans la place Pas d'concurrence à part le négro dans la glace Prof Chen, j'suis dans le labo, j'suis dans la classe J'vais mettre Dakar dans latlas Boulé de Noirs et de drogues, LDO dans la place1</t>
+          <t>Ekip, ekip, LDO, NRM, 667, pétasse pétasse 20.17, 20.18, 20.20, pétasse Ekip, ekip, ekip Dans le lin, j'vois en slow-mo comme Max Dans la défense comme Mats MMS Clan, Chen Zen aka le Jeune Tom Négro, jarrive lourd, pèse déjà une tonne En sous-marin j'les repère par l'périscope Que du lin, pas de Eristoff Pas votre temps, fais pas de Périscope Freeze Corleone, tu sais qu'j'ai le haki, sale pétasse J'suis avec Kaki, Blacky, fume le paki J'veux prendre le pouvoir comme Macky Sall, pétasse Gaddamn, so Vlad', j'ai les missiles On est des océans, c'est des piscines Négro j'veux pas d'autotune, so FBG Duck Ces négros sont marrants, j'suis comme haha, so FBG Duck Fuck ces négros, ils sont fu' de ouf J'vendrai jamais mon âme même si j'veux les sous de ouf, pétasse Pas d'concurrence à part le négro dans la glace Prof Chen, j'suis dans le labo, j'suis dans la classe J'vais mettre Dakar dans latlas Boulé de Noirs et de drogues, LDO dans la place Pas d'concurrence à part le négro dans la glace Prof Chen, j'suis dans le labo, j'suis dans la classe J'vais mettre Dakar dans latlas Boulé de Noirs et de drogues, LDO dans la place J'arrive galsen comme Ousmane, pétasse Met des soupapes comme Ousmane, pétasse À la tête du cartel comme Guzmán, pétasse Professeur Chen enseigne Sciences de la Vie et de la Terre Pétasse j'peux pas perdre, j'ai l'carré, t'as que la paire So Kaki, j'ai un cerveau de pépé Dans la défense, négro j'ai le cerveau de Pepe So Blacky, roule des tehs qui font 30 cm Monster, broma', Phéner', grand Euphon 30 cl J'veux le comté, j'veux le gouda, négro khaliss Plus de biff que Booba, négro 667, LDO, boulé de Noirs comme Magal de Touba, négro Double coupe comme un OG de Houston So RAS, depuis l'collège j'écoute les OG de Houston Pas d'concurrence à part le négro dans la glace Prof Chen, j'suis dans le labo, j'suis dans la classe J'vais mettre Dakar dans latlas Boulé de Noirs et de drogues, LDO dans la place Pas d'concurrence à part le négro dans la glace Prof Chen, j'suis dans le labo, j'suis dans la classe J'vais mettre Dakar dans latlas Boulé de Noirs et de drogues, LDO dans la place1</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Hey, hey, hey So le Flem Ha-ha-ha So le Amine 6.6.7, L.Z Freeze, 2-2 Hey, hey Pah, hey Demande à big Freeze Corleone, les rappeurs, on les effraie C'est vrai La chronique, on la défraie, si on vient te cogner, les soins sont à tes frais Splash Ici, c'est gris, c'est pas les tropiques et dans nos poumons, c'est l'coffee Hey Tout est possible, tout s'négocie Hey et les p'tits admirent les grossistes Brr Mike Amiri, BlackBerry Rah, j'envoie les euros en Algérie J'connais pas une go difficile à gérer, tous ceux qui s'en sont prit à nous ont péri J'ajoute la vitesse, on l'fait, c'est facile, tout est dans la finesse Hey, hey Pas attendu qu'ils naissent, si y avait une , j'serais dans l'Guinness Brr, pah Pas l'temps d'faire ami-ami, j'fais les euros pour la famille Famille, hey On déboule à plus d'cinquante si on est invités à la party Party On leur brise les os, du fois trois d'baisé, la street c'est réel, j'enterre ces pussys J'suis dans la ville, ils ont pas l'budget que j'demande aux G, ils parlent de VVS, c'est très charnel You might also like Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Skrrr Moissanite, VVS, pas d'moissanite Brr, VVS, pas d'moissanite Ice Moissanite, VVS, pas d'moissanite Charcle, charcle, VVS, pas d'moissanite Nan Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Eh Lin dans la valise Lin, le filtre, la Cali, on a tout, négro, so à Valee So Rapi, Ouchini pas Cavalli, devant la cage comme Benzema, pas Cavani nan No cap, rien à te prouver nan, so Kira aucun mal à te trouver nan Si tu perds ta vie Pah, tu pourras jamais la retrouver On est là pour faire des sommes indécentes Cash, on va les refroidir comme en plein décembre Si j'ai pris cent prods, j'en ai flingué cent Woaw, c'est l'début d'la fin comme le 21 décembre Y a que pour la famille que j'coffre des parts, prêt, depuis j'attendais que l'top départ On les fait tomber facile comme des cartes Han, on est comme des F1, ils sont comme des karts Nous, on est solides, bombarde dans les bolides, Cartier et Rollie, j'arrive pété au lean Grave déter' comme si j'avais pop des Molly, drift comme dans les Colline, faut villas dans des collines Cookie gelato, c'est pas des glaces, c'est pas des gâteaux Nan Ekip à fond comme Renato Ekip, on est liés comme des Legato Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Skurt Moissanite, VVS, pas d'moissanite Brr, VVS, pas d'moissanite Ice Moissanite, VVS, pas d'moissanite Charcle, charcle, VVS, pas d'moissanite Nan Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Eh J'ajoute la vitesse, on l'fait, c'est facile, tout est dans la finesse Si y avait une page , j'serais dans l'Guinness Cookie gelato, c'est pas des glaces, c'est pas des gâteaux Ekip à fond comme Renato, on est liés comme des Legato Ekip</t>
+          <t>Hey, hey, hey So le Flem Ha-ha-ha So le Amine 6.6.7, L.Z Freeze, 2-2 Hey, hey Pah, hey Demande à big Freeze Corleone, les rappeurs, on les effraie C'est vrai La chronique, on la défraie, si on vient te cogner, les soins sont à tes frais Splash Ici, c'est gris, c'est pas les tropiques et dans nos poumons, c'est l'coffee Hey Tout est possible, tout s'négocie Hey et les p'tits admirent les grossistes Brr Mike Amiri, BlackBerry Rah, j'envoie les euros en Algérie J'connais pas une go difficile à gérer, tous ceux qui s'en sont prit à nous ont péri J'ajoute la vitesse, on l'fait, c'est facile, tout est dans la finesse Hey, hey Pas attendu qu'ils naissent, si y avait une , j'serais dans l'Guinness Brr, pah Pas l'temps d'faire ami-ami, j'fais les euros pour la famille Famille, hey On déboule à plus d'cinquante si on est invités à la party Party On leur brise les os, du fois trois d'baisé, la street c'est réel, j'enterre ces pussys J'suis dans la ville, ils ont pas l'budget que j'demande aux G, ils parlent de VVS, c'est très charnel Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Skrrr Moissanite, VVS, pas d'moissanite Brr, VVS, pas d'moissanite Ice Moissanite, VVS, pas d'moissanite Charcle, charcle, VVS, pas d'moissanite Nan Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Eh Lin dans la valise Lin, le filtre, la Cali, on a tout, négro, so à Valee So Rapi, Ouchini pas Cavalli, devant la cage comme Benzema, pas Cavani nan No cap, rien à te prouver nan, so Kira aucun mal à te trouver nan Si tu perds ta vie Pah, tu pourras jamais la retrouver On est là pour faire des sommes indécentes Cash, on va les refroidir comme en plein décembre Si j'ai pris cent prods, j'en ai flingué cent Woaw, c'est l'début d'la fin comme le 21 décembre Y a que pour la famille que j'coffre des parts, prêt, depuis j'attendais que l'top départ On les fait tomber facile comme des cartes Han, on est comme des F1, ils sont comme des karts Nous, on est solides, bombarde dans les bolides, Cartier et Rollie, j'arrive pété au lean Grave déter' comme si j'avais pop des Molly, drift comme dans les Colline, faut villas dans des collines Cookie gelato, c'est pas des glaces, c'est pas des gâteaux Nan Ekip à fond comme Renato Ekip, on est liés comme des Legato Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite Moissanite, moissanite moissanite Moissanite Moissanite, VVS, pas d'moissanite Ice, ice, ice Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Skurt Moissanite, VVS, pas d'moissanite Brr, VVS, pas d'moissanite Ice Moissanite, VVS, pas d'moissanite Charcle, charcle, VVS, pas d'moissanite Nan Moissanite, VVS, pas d'moissanite Ice, VVS, pas d'moissanite Eh J'ajoute la vitesse, on l'fait, c'est facile, tout est dans la finesse Si y avait une page , j'serais dans l'Guinness Cookie gelato, c'est pas des glaces, c'est pas des gâteaux Ekip à fond comme Renato, on est liés comme des Legato Ekip</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Paire de Cartier de trafiquant hey, 9.3, c'est le Daghestan shu On arrive en famille et on est partout comme AK-47 au Pakistan yah Masqués comme dans l'désert, le flow est lourd mais la balle est légère Les p'tits vendent la blanche, la verte, font couler le sang rouge donc ça ressemble au drapeau DZ Sixième braquage à l'africaine, on remplit les sacs en vitesse On compte les kichtas d'la main gauche, d'la main droite pour l'euro, je suis ambidextre Je serai jamais dans leur système, si tu parles avec le 17 On règle ça comme des Vikings une lame et on boit dans ton crâne pour le p'tit déj' han Han Graille la concurrence au p'tit déj' han, dans la drill depuis, so Rondo, so C-Dai Jamais snitch, protéger la mif', so Wee-Bey Fuck Tintin au Congo, fuck Tintin au Tibet chaque jour Fume les Statics et les seps techniques Appelle la secte pour des seizes techniques han 667, ekip, on les fouette facile ekip, ekip Que des passes spectaculaires et des gestes techniques eh Freeze Corleone aka tu-sais-qui han, envoie des roquettes, so tu-sais-qui eh Tous les jours de l'année, négro, fuck tu-sais-qui tous les jours Pull up avec tous les Mangemorts comme Tu-Sais-Qui ekip Ça lacke pas, j'ai juste besoin d'un signe han J'suis pas maxé, j'ai d'jà plein d'insignes Mike Amiri, j'ai mis d'la lean dessus lin, lin, lin, lin, lin Le tarot augmente, faut qu'tu t'alignes dessus cash Que ça dérape, que le Professeur drifte sku Le micro brûle, le processeur grille han La Menace Fantôme, tous les possesseurs vrillent eh Rap terroriste comme le Professeur Griff You might also like Il comprend as-p, c'est un crétin en panique dans la rue On s'reconnait entre requins, bandits, cerveaux, analyse tout l'monde Tu peux pas ver-'squi le Don , il est trop sombre Don, c'est bre-som, bre-som Viens, salope, prends des Latex condoms Gomme-cogne dans la bouche d'une grosse conne On t'donne, on récup' la somme Ce soir, on t'canarde, métamorphose, j'suis un renard pion, pion J'envoie un dollar à Dakar, vicieux, on t'laisse croire qu'tu nous l'as mise ouais L'art de la rre-gue, on l'applique paw, paw, paw On est venus reprendre tout l'or du daron et ramener le bénèf' en Afrique 4x4 black, vitres intactes, weed, Glock 12 Assez armé pour les fumer tous, vers la corniche, on récup'-les ous-s wagwan OBS, y a v'là d'cartouches Té-ma le Kaki Santana, débite son cana, même en cavale Eh Logo d'l'équipe sur l'poinçon, Nouvelle Ère, verseau, poisson NEOM approche vite, j'vois sombre, concu', j'laisse un peu d'temps, j'la bois soon wouh 667 au-d'ssus d'l'obélisque fuck, trop kémite pour vos élites damn Groupement d'boss comme au G8, faut l'or à flow comme aux Émir' brr Sur la capi', impose notre régime, à l'aise, on veut les plaines, des vallées nion Nouvel Ordre qui a les manettes, damn, quand j'm'amène, c'est avec la secte wouh En mode Spetsnaz, j'm'infiltre eh, sur la prod , j'gratte, j'fais un film damn On les nique, j'crois c'est un signe, nous au-d'ssus d'eux, j'crois c'est ainsi wouh Et nous suivre, ils peuvent as-p damn, mets la wax dans le vap' Beaucoup d'pédo' s'cachent dans le Vat' damn, PDF classé, chargé dans le Mac waw, waw OVG Nègre, au micro, crache la lave wouh On est le Bayern, eux, le Makhatchkala damn Fume la loud, c'est pas du hasch' banal nan, nan Lave des négros comme si j'faisais la vaisselle, gars, j'essaie Norsacce, supra-négro, j'fais pas de xessèl Finit d'graille, ça les boit comme la faisselle La concu' pue d'la gueule, leurs bitchs puent des aisselles So tous mes kemet, so tous mes DZ Ça bombarde le moteur est diesel Grande frappe, tu vas pull up ou reset Grand braquage africain, mentalité 'ricaine ouh Dans l'cadre, jamais à côté, on m'a appelé, j'ai répondu du tac au tac Et Dieu toujours m'accompagne sku, sku, sku, sku J'reste au-d'ssus comme le sommet d'la montagne Pour m'en sortir, gros coûte que coûte Depuis que j'l'ai braqué, j't'assure que l'doute me boude Trop d'flow, l'verre est plus que full 667, grande famille, on est plus que douze Gaza - Dakar, ça vient d'Gaza, ça part grr Aussi vite que ça vient, base à là-bas On a l'biff dans l'radar paw, faut des chargeurs pleins en cas d'pépin L'argent, on l'cherche, jamais on tend la main Les têtes sont vertes et blanches sur l'sapin grr Si ça part, aussi vite, ça revient wah Tu m'les fais sortir et tu parles latin brr J'les prends d'vitesse, j'sors du tunnel paw, 667, boy, on est uniques Faut deux R sur l'appuie-tête brr, boy, on va l'faire sans stress, sans panique pa-pa-pa-paw Bien sûr qu'l'addition s'ra salée paw quand ils vont sentir l'métal froid sous l'palais Toujours à fond, dans l'vif du sujet, dis-moi c'est qui, boy, on va s'les fumer grr, paw Braquage à l'africaine wouh, à la mode de chez nous DOC, dis-leur si on pointe des sages, c'est pas pour blâmer les vieux flics d'chez nous Pas d'fête quand j'place mon boubou, on reste libres mais on cherche les sous Top Chef, on en a que pour le gruyère, pour les gosses, touche-les, on va t'trouer drr G67, OBS et 2K, et l'G, on cuisine des soufflés Gros cakes, gros coffres, fait qu'enchaîner, tu croirais qu'on fait l'budget d'douze pays d'douze pays Empoisonne la potion, partout, j'mets du produit comme si c'est une lotion Mes gros-né dorment as-p, gros pochons, sous les deux yeux, nuits blanches, j'ai des notions Braquage à l'africaine sa mère, on est v'nus chez toi, c'était sec sa mère Parle pas chinois, on va pésse ta mère, j'vais plus en boîte, si c'pas pour quatre salaires So Freeze, faut l'cash, R.À.F. des plaques, shku shku Tout est noir, j'suis avec le Black, monsieur l'facteur dépose mes packs C'est trop propre, c'est d'l'art comme Mozart eh, ouais, il m'faut un comptable comme dans Ozark eh, ouais Mes OBS sont passés sur ta carte, quand tu t'en rends compte, c'est trop tard Tek deal tout l'town comme Karim, j'suis resté muet comme Khaby Lame T'sais pas où est caché l'calibre, on arrive, sont pris de panique</t>
+          <t>Paire de Cartier de trafiquant hey, 9.3, c'est le Daghestan shu On arrive en famille et on est partout comme AK-47 au Pakistan yah Masqués comme dans l'désert, le flow est lourd mais la balle est légère Les p'tits vendent la blanche, la verte, font couler le sang rouge donc ça ressemble au drapeau DZ Sixième braquage à l'africaine, on remplit les sacs en vitesse On compte les kichtas d'la main gauche, d'la main droite pour l'euro, je suis ambidextre Je serai jamais dans leur système, si tu parles avec le 17 On règle ça comme des Vikings une lame et on boit dans ton crâne pour le p'tit déj' han Han Graille la concurrence au p'tit déj' han, dans la drill depuis, so Rondo, so C-Dai Jamais snitch, protéger la mif', so Wee-Bey Fuck Tintin au Congo, fuck Tintin au Tibet chaque jour Fume les Statics et les seps techniques Appelle la secte pour des seizes techniques han 667, ekip, on les fouette facile ekip, ekip Que des passes spectaculaires et des gestes techniques eh Freeze Corleone aka tu-sais-qui han, envoie des roquettes, so tu-sais-qui eh Tous les jours de l'année, négro, fuck tu-sais-qui tous les jours Pull up avec tous les Mangemorts comme Tu-Sais-Qui ekip Ça lacke pas, j'ai juste besoin d'un signe han J'suis pas maxé, j'ai d'jà plein d'insignes Mike Amiri, j'ai mis d'la lean dessus lin, lin, lin, lin, lin Le tarot augmente, faut qu'tu t'alignes dessus cash Que ça dérape, que le Professeur drifte sku Le micro brûle, le processeur grille han La Menace Fantôme, tous les possesseurs vrillent eh Rap terroriste comme le Professeur Griff Il comprend as-p, c'est un crétin en panique dans la rue On s'reconnait entre requins, bandits, cerveaux, analyse tout l'monde Tu peux pas ver-'squi le Don , il est trop sombre Don, c'est bre-som, bre-som Viens, salope, prends des Latex condoms Gomme-cogne dans la bouche d'une grosse conne On t'donne, on récup' la somme Ce soir, on t'canarde, métamorphose, j'suis un renard pion, pion J'envoie un dollar à Dakar, vicieux, on t'laisse croire qu'tu nous l'as mise ouais L'art de la rre-gue, on l'applique paw, paw, paw On est venus reprendre tout l'or du daron et ramener le bénèf' en Afrique 4x4 black, vitres intactes, weed, Glock 12 Assez armé pour les fumer tous, vers la corniche, on récup'-les ous-s wagwan OBS, y a v'là d'cartouches Té-ma le Kaki Santana, débite son cana, même en cavale Eh Logo d'l'équipe sur l'poinçon, Nouvelle Ère, verseau, poisson NEOM approche vite, j'vois sombre, concu', j'laisse un peu d'temps, j'la bois soon wouh 667 au-d'ssus d'l'obélisque fuck, trop kémite pour vos élites damn Groupement d'boss comme au G8, faut l'or à flow comme aux Émir' brr Sur la capi', impose notre régime, à l'aise, on veut les plaines, des vallées nion Nouvel Ordre qui a les manettes, damn, quand j'm'amène, c'est avec la secte wouh En mode Spetsnaz, j'm'infiltre eh, sur la prod , j'gratte, j'fais un film damn On les nique, j'crois c'est un signe, nous au-d'ssus d'eux, j'crois c'est ainsi wouh Et nous suivre, ils peuvent as-p damn, mets la wax dans le vap' Beaucoup d'pédo' s'cachent dans le Vat' damn, PDF classé, chargé dans le Mac waw, waw OVG Nègre, au micro, crache la lave wouh On est le Bayern, eux, le Makhatchkala damn Fume la loud, c'est pas du hasch' banal nan, nan Lave des négros comme si j'faisais la vaisselle, gars, j'essaie Norsacce, supra-négro, j'fais pas de xessèl Finit d'graille, ça les boit comme la faisselle La concu' pue d'la gueule, leurs bitchs puent des aisselles So tous mes kemet, so tous mes DZ Ça bombarde le moteur est diesel Grande frappe, tu vas pull up ou reset Grand braquage africain, mentalité 'ricaine ouh Dans l'cadre, jamais à côté, on m'a appelé, j'ai répondu du tac au tac Et Dieu toujours m'accompagne sku, sku, sku, sku J'reste au-d'ssus comme le sommet d'la montagne Pour m'en sortir, gros coûte que coûte Depuis que j'l'ai braqué, j't'assure que l'doute me boude Trop d'flow, l'verre est plus que full 667, grande famille, on est plus que douze Gaza - Dakar, ça vient d'Gaza, ça part grr Aussi vite que ça vient, base à là-bas On a l'biff dans l'radar paw, faut des chargeurs pleins en cas d'pépin L'argent, on l'cherche, jamais on tend la main Les têtes sont vertes et blanches sur l'sapin grr Si ça part, aussi vite, ça revient wah Tu m'les fais sortir et tu parles latin brr J'les prends d'vitesse, j'sors du tunnel paw, 667, boy, on est uniques Faut deux R sur l'appuie-tête brr, boy, on va l'faire sans stress, sans panique pa-pa-pa-paw Bien sûr qu'l'addition s'ra salée paw quand ils vont sentir l'métal froid sous l'palais Toujours à fond, dans l'vif du sujet, dis-moi c'est qui, boy, on va s'les fumer grr, paw Braquage à l'africaine wouh, à la mode de chez nous DOC, dis-leur si on pointe des sages, c'est pas pour blâmer les vieux flics d'chez nous Pas d'fête quand j'place mon boubou, on reste libres mais on cherche les sous Top Chef, on en a que pour le gruyère, pour les gosses, touche-les, on va t'trouer drr G67, OBS et 2K, et l'G, on cuisine des soufflés Gros cakes, gros coffres, fait qu'enchaîner, tu croirais qu'on fait l'budget d'douze pays d'douze pays Empoisonne la potion, partout, j'mets du produit comme si c'est une lotion Mes gros-né dorment as-p, gros pochons, sous les deux yeux, nuits blanches, j'ai des notions Braquage à l'africaine sa mère, on est v'nus chez toi, c'était sec sa mère Parle pas chinois, on va pésse ta mère, j'vais plus en boîte, si c'pas pour quatre salaires So Freeze, faut l'cash, R.À.F. des plaques, shku shku Tout est noir, j'suis avec le Black, monsieur l'facteur dépose mes packs C'est trop propre, c'est d'l'art comme Mozart eh, ouais, il m'faut un comptable comme dans Ozark eh, ouais Mes OBS sont passés sur ta carte, quand tu t'en rends compte, c'est trop tard Tek deal tout l'town comme Karim, j'suis resté muet comme Khaby Lame T'sais pas où est caché l'calibre, on arrive, sont pris de panique</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>J'veux juste les sous, aussi simple que A.B.C Pétasse, j'cons' plus de caca que quatre W.C J'veux juste les sous, aussi simple que A.B.C Si tu t'allumes comme nous, tu peux faire deux A.V.C Pétasse, j'cons' plus de caca que quatre W.C Dans l'complot négro, comme ceux de A.B.C J'veux juste les sous, aussi simple comme A.B.C Si tu t'allumes comme nous, tu peux faire deux A.V.C Pétasse, j'cons' plus de caca que quatre W.C Dans l'complot négro, comme ceux de A.B.C So Kodak l'enfant finesse, fume des brocolis So Slim Chavez, fuck la terre so Broly So D.M. petit batard, au sommet depuis le départ So Mario Kart, feu vert, j'les soupape flamme bleue dès le départ Dépressif sans le plug, xan dans le sang, skunk dans le blunt Gère ta bitch dans le club, roule le shit dans le club J'suis dans le xan, billet dans le club J'suis dans le sang, encore dans le centre Contrôle, reprise dans le centre J'veux juste les sous, aussi simple que A.B.C Si tu t'allumes comme nous, tu peux faire deux A.V.C Pétasse, j'cons' plus de caca que quatre W.C Dans l'complot négro, comme ceux de A.B.C J'veux juste les sous, aussi simple comme A.B.C Si tu t'allumes comme nous, tu peux faire deux A.V.C Pétasse, j'cons' plus de caca que quatre W.C Dans l'complot négro, comme ceux de A.B.C You might also like Aussi simple que A.B.C, tu peux faire deux A.V.C Plus de caca que quatre W.C, comme ceux de A.B.C Aussi simple que A.B.C, tu peux faire deux A.V.C Plus de caca que quatre W.C, comme ceux de A.B.C1</t>
+          <t>J'veux juste les sous, aussi simple que A.B.C Pétasse, j'cons' plus de caca que quatre W.C J'veux juste les sous, aussi simple que A.B.C Si tu t'allumes comme nous, tu peux faire deux A.V.C Pétasse, j'cons' plus de caca que quatre W.C Dans l'complot négro, comme ceux de A.B.C J'veux juste les sous, aussi simple comme A.B.C Si tu t'allumes comme nous, tu peux faire deux A.V.C Pétasse, j'cons' plus de caca que quatre W.C Dans l'complot négro, comme ceux de A.B.C So Kodak l'enfant finesse, fume des brocolis So Slim Chavez, fuck la terre so Broly So D.M. petit batard, au sommet depuis le départ So Mario Kart, feu vert, j'les soupape flamme bleue dès le départ Dépressif sans le plug, xan dans le sang, skunk dans le blunt Gère ta bitch dans le club, roule le shit dans le club J'suis dans le xan, billet dans le club J'suis dans le sang, encore dans le centre Contrôle, reprise dans le centre J'veux juste les sous, aussi simple que A.B.C Si tu t'allumes comme nous, tu peux faire deux A.V.C Pétasse, j'cons' plus de caca que quatre W.C Dans l'complot négro, comme ceux de A.B.C J'veux juste les sous, aussi simple comme A.B.C Si tu t'allumes comme nous, tu peux faire deux A.V.C Pétasse, j'cons' plus de caca que quatre W.C Dans l'complot négro, comme ceux de A.B.C Aussi simple que A.B.C, tu peux faire deux A.V.C Plus de caca que quatre W.C, comme ceux de A.B.C Aussi simple que A.B.C, tu peux faire deux A.V.C Plus de caca que quatre W.C, comme ceux de A.B.C1</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Han, M.M.S, L.D.O Ekip, ekip Chen Zen, 6.6.7, pétasse, eh Han, la L.D.O dans le château J'ai tout c'qui faut dans le chapeau So Chapo J'ai la recette pour faire le gâteau Ekip, ekip, M.M.S, L.D.O Han, dab comme Rich 667, mafia black comme Meech Chen Zen, trouve-moi à Dakar Défracté, j'bombarde sur la Corniche Gros niaks sous la lune Tous les jours j'm'allume So 'Sacce, si c'est pas pour des thunes Négro, j'te dirai salut bye, à plus J'attends la fin des temps Sans aucun stress, j'cons' mon caca Négro toi t'es dépassé, on t'a perdu d'vue On sait plus où t'es comme Kaká Gaddamn, j'arrive faya comme un enfant soldat au champs Pussy négro, j'ai vu ton flow en solde à Auchan Rejoindre la secte, paye ta cotisation Jespère que t'as ton autorisation Chemtrails flow, attaque du ciel Négro, aérienne vaporisation Fuck ta médaille, j'veux la fédération Temporelle accélération Fin des temps génération R.A.F d'passer sur Générations You might also like La LDO dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan La LDO dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan J'ai cru qu'j'étais lie-Char, en fait j'étais fons', j'lackais A propos d'loud avec le squad, un soir bons' 11 paquets Sans aucun stress on les surpasse Chill dans les profondeurs Pendant qu'tu luttes pour rester à la surface Chen Zen met des tacles propres dans la surface Gaddamn, j'remercie Dieu pour chaque jour du calendrier Au Paradis j'irai pas sans griller Fume assez d'MC's pour remplir quatre cendriers Ekip, 667, 4 étoiles au-dessus comme Bayern Négro, j'veux une banque pour chacun d'mes fils comme Mayer So ChâteauNoir, Chen Zen, le jeune Chapo noir Pirate à peau noire, drapeau noir négro dans l'bateau noir Ekip, j'regarde ces fufus et j'les méprise Sur la prod comme Donnie Yen Négro, techniques de kung-fu j'les maîtrise La LDO dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan La LDO dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan Ekip, M.M.S, L.D.O, NRM, 6.6.7, ha, yah Chen Zen, rap professeur Plus de tech' que 4 processeurs Gaddamn, Fruit du démon, pouvoir possesseur Ekip, M.M.S, L.D.O, N.R.M, 6.6.7, C.F.R Chen Zen, salope 2016 c'est la F.D.T, ekip La L.D.O dans le château La L.D.O dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo, gaddem J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan</t>
+          <t>Han, M.M.S, L.D.O Ekip, ekip Chen Zen, 6.6.7, pétasse, eh Han, la L.D.O dans le château J'ai tout c'qui faut dans le chapeau So Chapo J'ai la recette pour faire le gâteau Ekip, ekip, M.M.S, L.D.O Han, dab comme Rich 667, mafia black comme Meech Chen Zen, trouve-moi à Dakar Défracté, j'bombarde sur la Corniche Gros niaks sous la lune Tous les jours j'm'allume So 'Sacce, si c'est pas pour des thunes Négro, j'te dirai salut bye, à plus J'attends la fin des temps Sans aucun stress, j'cons' mon caca Négro toi t'es dépassé, on t'a perdu d'vue On sait plus où t'es comme Kaká Gaddamn, j'arrive faya comme un enfant soldat au champs Pussy négro, j'ai vu ton flow en solde à Auchan Rejoindre la secte, paye ta cotisation Jespère que t'as ton autorisation Chemtrails flow, attaque du ciel Négro, aérienne vaporisation Fuck ta médaille, j'veux la fédération Temporelle accélération Fin des temps génération R.A.F d'passer sur Générations La LDO dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan La LDO dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan J'ai cru qu'j'étais lie-Char, en fait j'étais fons', j'lackais A propos d'loud avec le squad, un soir bons' 11 paquets Sans aucun stress on les surpasse Chill dans les profondeurs Pendant qu'tu luttes pour rester à la surface Chen Zen met des tacles propres dans la surface Gaddamn, j'remercie Dieu pour chaque jour du calendrier Au Paradis j'irai pas sans griller Fume assez d'MC's pour remplir quatre cendriers Ekip, 667, 4 étoiles au-dessus comme Bayern Négro, j'veux une banque pour chacun d'mes fils comme Mayer So ChâteauNoir, Chen Zen, le jeune Chapo noir Pirate à peau noire, drapeau noir négro dans l'bateau noir Ekip, j'regarde ces fufus et j'les méprise Sur la prod comme Donnie Yen Négro, techniques de kung-fu j'les maîtrise La LDO dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan La LDO dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan Ekip, M.M.S, L.D.O, NRM, 6.6.7, ha, yah Chen Zen, rap professeur Plus de tech' que 4 processeurs Gaddamn, Fruit du démon, pouvoir possesseur Ekip, M.M.S, L.D.O, N.R.M, 6.6.7, C.F.R Chen Zen, salope 2016 c'est la F.D.T, ekip La L.D.O dans le château La L.D.O dans le château J'ai tout c'qui faut dans le chapeau Négro, j'veux arriver au rang de Chapo, gaddem J'ai la recette pour faire le gâteau Avec mes pirates dans le bateau Négro, j'veux pas la fin d'carrière de Pato, nan nan</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Feu, feu, feu Ekip, ekip, ekip, ekip Corleone, Zk' Zk' Han Han Bellek track Tas reconnu lmode opératoire, pétasse Pétasse, ouais Feu, eu, ffeu Han Zk', 93, 59 Ekip Han, ekip, ekip, ekip Ekip, nouveau Roubaix, ça sent la patate à Beterbiev, on renfloue la loc' du détective Ouais, j'rends flou, j'ai la mémoire sélective Han Sur l'rap, on active l'plan épervier, d'puis la garde-à-v', j'fais des interviews J'ai toujours la foi dans un mrdier, j'vois ma bonne étoile d la sky view On a les panneaux que t'as jamais vu Nan, on perd de l'oseille que t'as jamais eu Jamais Faire comme eux, t'aurais jamais du Nan, faire comme nous, t'aurais jamais pu Si j'côtoie un boiteux, j'vais l'patter, j'peux démarrer c'que j'veux, j'ai l'boîtier J'aimerais m'faire Marion Maréchal, prendre de l'huile d'olive et la doigter Ouais Est-c'que j'suis ton reuf car j'suis rentable ? Est-c'qu'on est incompris ou infréquentables ? Corleone, Zk' pour les dégâts Les dégâts, concu', on laisse que des mégots, aucun débat Tu nous pompes, c'est plus comme au début, t'es un suceur qui respecte haut débit Simple J'ai l'mode opératoire de l'attaque des clones, pendant qu'le rap c'est la parade des clowns Ekip, ekip, ekip You might also like Opérationnel, y a pas d'business rationnel Nan, on cherche le bout du tunnel, on est gantés sous l'abdomen Sous l'abdomen Mental' japonaise, vend la foudre sous le tonnerre, sur l'terrain j'suis actionnaire, criminel ou correctionnel Han, opérationnel Han, j'les soupape comme Kimi Räikkönen Skrt J't'ai d'jà dit, ça vise pas l'abdomen, fuck eux tous, c'est que des McConnell Han J'passe au-d'ssus deux comme la comète Skrt, y a que au poste, qu'on est malhonnêtes Han Négro, on fait des chiffres grâce aux lettres Han, j'me méfie des serpents à sonnette Fuck l'État et Neta' Les deux, faut des C.A comme Tesla et Meta Les deux Hot zone, violette, c'est létal, pour moi que Dieu, la famille et les talles Han Que j'm'adapte comme le caméléon Eh, j'suis une fusion entre Hitman et Léon Feu, feu Maîtrise la propagande comme des journalistes Han, mort pour Jeffrey, Ghislaine et toute la liste J'arrive comme Godzilla, dribble comme OZiLLA Feu, feu, à Dakar, 4x4 avec des grosses villas Han Freeze, Mozart, big dosage, audio-dope, fonce au lin comme Keith Cozart Lin, lin Freeze Corleone, SK, 6.6.7 Feu, feu, tu r'connais l'mode opératoire Feu, feu Ils veulent déjouer les plans de Dieu, j'me demande bien, ils sont drogués à quoi ? Han Lin comme de l'antigel, Chen Zen, on fait partie des gens qui gênent Ekip J'regarde le jeu, j'vois vos rappeurs comme des Trogneux Jean-Michel Ouais J'glisse sur la prod' comme dans Tony Hawk Shh, j'arrive comme Wemby à San Antonio Swish J'souris à chaque sortie d'colis Ouais, glace au cou comme si j'ai un torticolis Ekip ekip Opérationnel, y a pas d'business rationnel Nan, on cherche le bout du tunnel, on est gantés sous l'abdomen Sous l'abdomen Mental' japonaise, vend la foudre sous le tonnerre, sur l'terrain j'suis actionnaire, criminel ou correctionnel Han, opérationnel Han, j'les soupape comme Kimi Räikkönen Skrt J't'ai d'jà dit, ça vise pas l'abdomen, fuck eux tous, c'est que des McConnell Han J'passe au-d'ssus deux comme la comète Skrt, y a que au poste, qu'on est malhonnêtes Han Négro, on fait des chiffres grâce aux lettres Han, j'me méfie des serpents à sonnette</t>
+          <t>Feu, feu, feu Ekip, ekip, ekip, ekip Corleone, Zk' Zk' Han Han Bellek track Tas reconnu lmode opératoire, pétasse Pétasse, ouais Feu, eu, ffeu Han Zk', 93, 59 Ekip Han, ekip, ekip, ekip Ekip, nouveau Roubaix, ça sent la patate à Beterbiev, on renfloue la loc' du détective Ouais, j'rends flou, j'ai la mémoire sélective Han Sur l'rap, on active l'plan épervier, d'puis la garde-à-v', j'fais des interviews J'ai toujours la foi dans un mrdier, j'vois ma bonne étoile d la sky view On a les panneaux que t'as jamais vu Nan, on perd de l'oseille que t'as jamais eu Jamais Faire comme eux, t'aurais jamais du Nan, faire comme nous, t'aurais jamais pu Si j'côtoie un boiteux, j'vais l'patter, j'peux démarrer c'que j'veux, j'ai l'boîtier J'aimerais m'faire Marion Maréchal, prendre de l'huile d'olive et la doigter Ouais Est-c'que j'suis ton reuf car j'suis rentable ? Est-c'qu'on est incompris ou infréquentables ? Corleone, Zk' pour les dégâts Les dégâts, concu', on laisse que des mégots, aucun débat Tu nous pompes, c'est plus comme au début, t'es un suceur qui respecte haut débit Simple J'ai l'mode opératoire de l'attaque des clones, pendant qu'le rap c'est la parade des clowns Ekip, ekip, ekip Opérationnel, y a pas d'business rationnel Nan, on cherche le bout du tunnel, on est gantés sous l'abdomen Sous l'abdomen Mental' japonaise, vend la foudre sous le tonnerre, sur l'terrain j'suis actionnaire, criminel ou correctionnel Han, opérationnel Han, j'les soupape comme Kimi Räikkönen Skrt J't'ai d'jà dit, ça vise pas l'abdomen, fuck eux tous, c'est que des McConnell Han J'passe au-d'ssus deux comme la comète Skrt, y a que au poste, qu'on est malhonnêtes Han Négro, on fait des chiffres grâce aux lettres Han, j'me méfie des serpents à sonnette Fuck l'État et Neta' Les deux, faut des C.A comme Tesla et Meta Les deux Hot zone, violette, c'est létal, pour moi que Dieu, la famille et les talles Han Que j'm'adapte comme le caméléon Eh, j'suis une fusion entre Hitman et Léon Feu, feu Maîtrise la propagande comme des journalistes Han, mort pour Jeffrey, Ghislaine et toute la liste J'arrive comme Godzilla, dribble comme OZiLLA Feu, feu, à Dakar, 4x4 avec des grosses villas Han Freeze, Mozart, big dosage, audio-dope, fonce au lin comme Keith Cozart Lin, lin Freeze Corleone, SK, 6.6.7 Feu, feu, tu r'connais l'mode opératoire Feu, feu Ils veulent déjouer les plans de Dieu, j'me demande bien, ils sont drogués à quoi ? Han Lin comme de l'antigel, Chen Zen, on fait partie des gens qui gênent Ekip J'regarde le jeu, j'vois vos rappeurs comme des Trogneux Jean-Michel Ouais J'glisse sur la prod' comme dans Tony Hawk Shh, j'arrive comme Wemby à San Antonio Swish J'souris à chaque sortie d'colis Ouais, glace au cou comme si j'ai un torticolis Ekip ekip Opérationnel, y a pas d'business rationnel Nan, on cherche le bout du tunnel, on est gantés sous l'abdomen Sous l'abdomen Mental' japonaise, vend la foudre sous le tonnerre, sur l'terrain j'suis actionnaire, criminel ou correctionnel Han, opérationnel Han, j'les soupape comme Kimi Räikkönen Skrt J't'ai d'jà dit, ça vise pas l'abdomen, fuck eux tous, c'est que des McConnell Han J'passe au-d'ssus deux comme la comète Skrt, y a que au poste, qu'on est malhonnêtes Han Négro, on fait des chiffres grâce aux lettres Han, j'me méfie des serpents à sonnette</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Sku, sku Ekip, ekip, ekip Cagoulé dans le Mercedes Ekip comme un cybercriminel Sku, sku On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Cash, cash Entouré de solides compagnons Ekip Du feu qui sort des canons L'argent, c'est comme un glaçon Pah, pah Ça s'met au frigo ou ça fond Comme Thomas Shelby, j'remplis l'cendrier Poh Les billets en moins, j'vais les multiplier Les MVP, c'est nous le haut du panier C'est nous Trouve-toi une raison d vivre ou de crevr Il m'faut plus de blé que le tube de l'été Rien qu'de la foudre, il m'faut du miel pour les ours J'mets quelques grammes de caviar sur mon pouce Mes disques d'or, je sais plus où les foutre Jolie silhouette pour m'accompagner Y'a que du regard qu'tu peux la déshabiller Les cicatrices sur mon crâne, c'est des souvenirs d'été dans les bidonvilles d'Alger J'reçois une lettre du juge Pour les narguer, au tribunal, je fais le signe de JuL Tellement serein qu'j'ferme plus la clôture Si tu nous fouilles, fais-le jusqu'à la chaussure Dans la Maser', j'mets du Jackson Je me mélange plus à la population J'fais un tour de manège sur la route du diamant Je ne sors que la nuit, c'est pour conduire à fond À fond J'traîne un bout de métal dans le froc Oh On a du pain kabyle sur la planche On sort les Colt, regarde ma tronche Je fais pas de prank, on leur fait les poches You might also like Cagoulé dans le Mercedes Ekip comme un cybercriminel Sku, sku On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Cash, cash Entouré de solides compagnons Ekip Du feu qui sort des canons L'argent, c'est comme un glaçon Pah, pah Ça s'met au frigo ou ça fond Cagoulé dans le Mercedes Ekip comme un cybercriminel Sku, sku On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Cash, cash Entouré de solides compagnons Ekip Du feu qui sort des canons L'argent, c'est comme un glaçon Pah, pah Ça s'met au frigo ou ça fond Faut les Infinite, les no VBV Han Mentalité allemande comme au BVB Eh Mercedes, Audi, BM Sku, sku Dans les ordi' comme IBM Han So le big Shone Ekip Négro, à chaque fois qu'j'rentre dans la cabine, le mic' chauffe J'fume des RS11 et des Skilattis J'arrive en terroriste comme Killa-T Han So Kodak, j'fume des brocolis VVS, j'reçois des gros colis Négro, mon poignet vaut comme dix Mac Han Et j'mets les trois points comme T-Mac Switch So Sousbackwoods J'vois flou, j'suis sous quatre woods Han J'mets la Cali dans les LooseLeaf J'ai les techniques de Bruce Lee L'instru' meurt direct après douze lignes Han Prod découpée au laser Langage codé, so Stavo, so Olazer' J'envoie des grosses liasses au chaud J'vois toujours en slow-mo', toujours so à Ocho Lin Gestes techniques, j'ai cinq étoiles, j'rappe comme si j'peins des toiles J'aime bien les toits avec plein d'étoiles Sku, sku, sku Et j'suis avec le Tonton, parle avec le bon ton Faut la villa avec le ponton Cagoulé dans le Mercedes 'cedes comme un cybercriminel On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Entouré de solides compagnons Compagnons Du feu qui sort des canons Des canons L'argent, c'est comme un glaçon Un glaçon Ça s'met au frigo ou ça fond Ça fond Cagoulé dans le Mercedes Ekip comme un cybercriminel Sku, sku On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Cash, cash Entouré de solides compagnons Ekip Du feu qui sort des canons L'argent, c'est comme un glaçon Pah, pah Ça s'met au frigo ou ça fond</t>
+          <t>Sku, sku Ekip, ekip, ekip Cagoulé dans le Mercedes Ekip comme un cybercriminel Sku, sku On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Cash, cash Entouré de solides compagnons Ekip Du feu qui sort des canons L'argent, c'est comme un glaçon Pah, pah Ça s'met au frigo ou ça fond Comme Thomas Shelby, j'remplis l'cendrier Poh Les billets en moins, j'vais les multiplier Les MVP, c'est nous le haut du panier C'est nous Trouve-toi une raison d vivre ou de crevr Il m'faut plus de blé que le tube de l'été Rien qu'de la foudre, il m'faut du miel pour les ours J'mets quelques grammes de caviar sur mon pouce Mes disques d'or, je sais plus où les foutre Jolie silhouette pour m'accompagner Y'a que du regard qu'tu peux la déshabiller Les cicatrices sur mon crâne, c'est des souvenirs d'été dans les bidonvilles d'Alger J'reçois une lettre du juge Pour les narguer, au tribunal, je fais le signe de JuL Tellement serein qu'j'ferme plus la clôture Si tu nous fouilles, fais-le jusqu'à la chaussure Dans la Maser', j'mets du Jackson Je me mélange plus à la population J'fais un tour de manège sur la route du diamant Je ne sors que la nuit, c'est pour conduire à fond À fond J'traîne un bout de métal dans le froc Oh On a du pain kabyle sur la planche On sort les Colt, regarde ma tronche Je fais pas de prank, on leur fait les poches Cagoulé dans le Mercedes Ekip comme un cybercriminel Sku, sku On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Cash, cash Entouré de solides compagnons Ekip Du feu qui sort des canons L'argent, c'est comme un glaçon Pah, pah Ça s'met au frigo ou ça fond Cagoulé dans le Mercedes Ekip comme un cybercriminel Sku, sku On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Cash, cash Entouré de solides compagnons Ekip Du feu qui sort des canons L'argent, c'est comme un glaçon Pah, pah Ça s'met au frigo ou ça fond Faut les Infinite, les no VBV Han Mentalité allemande comme au BVB Eh Mercedes, Audi, BM Sku, sku Dans les ordi' comme IBM Han So le big Shone Ekip Négro, à chaque fois qu'j'rentre dans la cabine, le mic' chauffe J'fume des RS11 et des Skilattis J'arrive en terroriste comme Killa-T Han So Kodak, j'fume des brocolis VVS, j'reçois des gros colis Négro, mon poignet vaut comme dix Mac Han Et j'mets les trois points comme T-Mac Switch So Sousbackwoods J'vois flou, j'suis sous quatre woods Han J'mets la Cali dans les LooseLeaf J'ai les techniques de Bruce Lee L'instru' meurt direct après douze lignes Han Prod découpée au laser Langage codé, so Stavo, so Olazer' J'envoie des grosses liasses au chaud J'vois toujours en slow-mo', toujours so à Ocho Lin Gestes techniques, j'ai cinq étoiles, j'rappe comme si j'peins des toiles J'aime bien les toits avec plein d'étoiles Sku, sku, sku Et j'suis avec le Tonton, parle avec le bon ton Faut la villa avec le ponton Cagoulé dans le Mercedes 'cedes comme un cybercriminel On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Entouré de solides compagnons Compagnons Du feu qui sort des canons Des canons L'argent, c'est comme un glaçon Un glaçon Ça s'met au frigo ou ça fond Ça fond Cagoulé dans le Mercedes Ekip comme un cybercriminel Sku, sku On passe tous les crash tests J'allume la mèche, j'suis dans la metaverse Cash, cash Entouré de solides compagnons Ekip Du feu qui sort des canons L'argent, c'est comme un glaçon Pah, pah Ça s'met au frigo ou ça fond</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>9-5, 9-3, c'est plus du rap, c'est des mathématiques Les fouetter, gros, c'est la thématique, pas d'stress, ils m'pressent, j'suis démarqué, ma p'tite Tah, tah J'm'entraine depuis, j'suis passé du sable au synthé' Ish Pendant qu'la poucave a plainté, j'débarque à plein T, j'fais du cash en indé' En force, pas d'finesse Wouh, wouh, laisse le rap mort, inerte Sku Gro-né après j'frappe Pah, tu refais l'engagement, y aura pas d'six mètre, oui, mec Fuck la Wouh son-pri Wouh et libérez fort Khalifa Fort Et mes terrains sont impraticables, j'gagne mêm sur 15 parties Dans l'rap, j'suis comme Machet, au-dessus d'eux, mon négro, tu peux qu'accepter J'défonce la porte si j'ai pas les clés, la science infuse, négro, c'est pas l'sachet d'thé Poufiasse, conquête Wouh Comme Colomb Christophe, dites-leur qu'on est grave là pour l'Ouest Ouh Rare dans les médias, vous êtes où Wesh ? Et dans l'immédiat, j'suis pas là pour ouer-j Ekip J'tourne dans la ville, ouais, j'tourne dans la ville C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Ekip J'tourne dans la ville, ouais, j'tourne dans la ville Han C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Wouh, wouh Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Comme mes Haïtiens, Sénégalais et Baye Fall, comme mes Haïtiens, Sénégalais et Baye Fall Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Secousse sur ton gang, gang, bang, bang, c'est un drive-by You might also like Le bénèf' sous cello', des , j'ai opté pour le silence Les magistrats ne bossent pas le dimanche, j'y passerai tout le week-end J'récupère ma fouille J'récupère ma fouille et oseille sur compte, nickel Négro, tout est nickel, fume jamaïcaine sur le terrain comme Harry Kane Ouh J'garde mon sang-froid J'garde mon sang-froid, ouh, ouh comme Kimi Räikkönen Sku, sku Et l'papier vert Vert, elle fait comme si elle était daltonienne Poto, faut qu'tu khalass, kamas, sur l'front comme à Damas, tu sais qu'on les tabasse kamas, hey, et la couleur des billets qu'on amasse Rien à foutre de leur rituel de l'horloge Rituel de l'horloge, la montre est suisse La montre est suisse Mais j'ai les yeux rivés sur l'horloge Fuck ceux qui renseignent et les pookies, 0.8 sur la pookie, trap comme Gucci Trap J'compte les sous et les soucis, trois verres pour la Gucci, libérez Tookie J'tourne dans la ville, ouais, j'tourne dans la ville C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Ekip J'tourne dans la ville, ouais, j'tourne dans la ville Han C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Wouh, wouh Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Comme mes Haïtiens, Sénégalais et Baye Fall, comme mes Haïtiens, Sénégalais et Baye Fall Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Secousse sur ton gang, gang, bang, bang, c'est un drive-by Codéine, phosphate Lin, dans l'complot comme Lee Harvey Oswald Paw Haaland, grosse frappe Tah, dans la peinture comme Ilgauskas Han Berline, Audi Sku, soupape par la gauche comme Renan Lodi Sku New York, GS9 Han, Chen Zen rebelle comme Rowdy Paw Sur la prod comme au ski, so la famille, so les broskis Han Cali dans les Swishers, mets la quali' dans les sweatshirts Ekip So Zizou, on maitrise le contrôle Han, Négro, on vient pour prendre le contrôle Pétasse J'espère qu'vous êtes prêts pour le contrôle, RQ Horizon aka tour de contrôle Ekip Oseille sur compte Revolut Han, on est la pour récupérer vos loots Ekip So Alpha 5.20, négro, nos ancêtres coupaient vos routes Haha Lin, Faygo Lin, avocat, négos Cash Concu', mégot Damn, lunettes Cartier comme Drego Ekip, pétasse J'tourne dans la ville, ouais, j'tourne dans la ville C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Ekip J'tourne dans la ville, ouais, j'tourne dans la ville Han C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Wouh, wouh Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Comme mes Haïtiens, Sénégalais et Baye Fall, comme mes Haïtiens, Sénégalais et Baye Fall Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Secousse sur ton gang, gang, bang, bang, c'est un drive-by Hey, yo Eh, paw 667, M.M.S, paw Han, han, paw</t>
+          <t>9-5, 9-3, c'est plus du rap, c'est des mathématiques Les fouetter, gros, c'est la thématique, pas d'stress, ils m'pressent, j'suis démarqué, ma p'tite Tah, tah J'm'entraine depuis, j'suis passé du sable au synthé' Ish Pendant qu'la poucave a plainté, j'débarque à plein T, j'fais du cash en indé' En force, pas d'finesse Wouh, wouh, laisse le rap mort, inerte Sku Gro-né après j'frappe Pah, tu refais l'engagement, y aura pas d'six mètre, oui, mec Fuck la Wouh son-pri Wouh et libérez fort Khalifa Fort Et mes terrains sont impraticables, j'gagne mêm sur 15 parties Dans l'rap, j'suis comme Machet, au-dessus d'eux, mon négro, tu peux qu'accepter J'défonce la porte si j'ai pas les clés, la science infuse, négro, c'est pas l'sachet d'thé Poufiasse, conquête Wouh Comme Colomb Christophe, dites-leur qu'on est grave là pour l'Ouest Ouh Rare dans les médias, vous êtes où Wesh ? Et dans l'immédiat, j'suis pas là pour ouer-j Ekip J'tourne dans la ville, ouais, j'tourne dans la ville C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Ekip J'tourne dans la ville, ouais, j'tourne dans la ville Han C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Wouh, wouh Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Comme mes Haïtiens, Sénégalais et Baye Fall, comme mes Haïtiens, Sénégalais et Baye Fall Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Secousse sur ton gang, gang, bang, bang, c'est un drive-by Le bénèf' sous cello', des , j'ai opté pour le silence Les magistrats ne bossent pas le dimanche, j'y passerai tout le week-end J'récupère ma fouille J'récupère ma fouille et oseille sur compte, nickel Négro, tout est nickel, fume jamaïcaine sur le terrain comme Harry Kane Ouh J'garde mon sang-froid J'garde mon sang-froid, ouh, ouh comme Kimi Räikkönen Sku, sku Et l'papier vert Vert, elle fait comme si elle était daltonienne Poto, faut qu'tu khalass, kamas, sur l'front comme à Damas, tu sais qu'on les tabasse kamas, hey, et la couleur des billets qu'on amasse Rien à foutre de leur rituel de l'horloge Rituel de l'horloge, la montre est suisse La montre est suisse Mais j'ai les yeux rivés sur l'horloge Fuck ceux qui renseignent et les pookies, 0.8 sur la pookie, trap comme Gucci Trap J'compte les sous et les soucis, trois verres pour la Gucci, libérez Tookie J'tourne dans la ville, ouais, j'tourne dans la ville C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Ekip J'tourne dans la ville, ouais, j'tourne dans la ville Han C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Wouh, wouh Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Comme mes Haïtiens, Sénégalais et Baye Fall, comme mes Haïtiens, Sénégalais et Baye Fall Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Secousse sur ton gang, gang, bang, bang, c'est un drive-by Codéine, phosphate Lin, dans l'complot comme Lee Harvey Oswald Paw Haaland, grosse frappe Tah, dans la peinture comme Ilgauskas Han Berline, Audi Sku, soupape par la gauche comme Renan Lodi Sku New York, GS9 Han, Chen Zen rebelle comme Rowdy Paw Sur la prod comme au ski, so la famille, so les broskis Han Cali dans les Swishers, mets la quali' dans les sweatshirts Ekip So Zizou, on maitrise le contrôle Han, Négro, on vient pour prendre le contrôle Pétasse J'espère qu'vous êtes prêts pour le contrôle, RQ Horizon aka tour de contrôle Ekip Oseille sur compte Revolut Han, on est la pour récupérer vos loots Ekip So Alpha 5.20, négro, nos ancêtres coupaient vos routes Haha Lin, Faygo Lin, avocat, négos Cash Concu', mégot Damn, lunettes Cartier comme Drego Ekip, pétasse J'tourne dans la ville, ouais, j'tourne dans la ville C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Ekip J'tourne dans la ville, ouais, j'tourne dans la ville Han C'est nous les princes de la ville, c'est les princes de la drill, c'est les princes de la drill Wouh, wouh Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Comme mes Haïtiens, Sénégalais et Baye Fall, comme mes Haïtiens, Sénégalais et Baye Fall Dans l'complot, dans les bails sales, dans l'complot, dans les bails sales Secousse sur ton gang, gang, bang, bang, c'est un drive-by Hey, yo Eh, paw 667, M.M.S, paw Han, han, paw</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ftt, ftt Ekip, ekip, MMS, NRM 667 Kaki, Corleone, 20-16, pétasse Han, yeah J'arrive lourd au mic comme Pat Williams gaddamn, gaddamn, ekip, so Sur l'terrain efficace comme 4 Willian Ftt, ftt Killuminati comme Katt Williams gaddamn MMS, LDO, NRM, 667, c'est la secte, pétasse J'ai les yeuz rouges, c'est la sep, pétasse Nazi noir dans la BM ou la A7, pétasse J'dab sur cette pute, so Takeoff, so Offset sku Tu m'écoutes, tu t'améliores Négro, dis au moins so Prof Chen gaddamn On veut les berlines, pas les citadines, gaddamn sku Audio drogue dure, 667 c'est la sisa, bitch Négro, t'es dépassé tah les FIFA 10, ekip J'attends l'projet Blue Beam, so à la NASA Homme de l'ombre, pensées sombres, négro so Mazalaza Loup garou de l'Ouest, j'arrive avec Kaki, fils So Abou Faraj, fume le paki, fils Chen Zen, comme Luffy j'ai le haki, fils, ekip You might also like On arrive pour les fafs, et on s'casse comme des hommes de l'ombre So Mazalaza, ça s'faya comme des hommes de l'ombre LDO, ken tes gows comme des hommes de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Révolue l'époque de Kirikou On rigole pas, bande de anencéphales Gros, j'suis un savant des talles Cadence étale, on veut vacances et fafs, eh Fufu, ta meuf est sous cochon Pouvoir, si tu peux l'capter, c'que nous offrons So Freezer, j'ai la vision comme Sauron T-shirt coton, Lopi', j'fly comme un faucon, eh So José Guapo, fuck le rap game Négro, on se sent trop pas en danger sur l'terrain J'tire et j'te ken, mais j'suis pas ce bouffon que tu canarderas J'veux juste bander sur tes ein-s OV kartel kaki, négro So Madani, XXX Négro tu sais qu'on les cane et puis les lime Tu fais le malin, tu tals et tu dévies Néo-coco, le sang est rouge mais tantôt vert African gangster, kevlar sous le boubou J'pars en chasse, pas de manteau d'guerre Néo-coco, le sang est rouge mais tantôt vert African gangster, kevlar sous le boubou J'pars en chasse, pas de manteau d'guerre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre So Mazalaza, ça s'faya comme des hommes de l'ombre LDO, ken tes gows comme des hommes de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre</t>
+          <t>Ftt, ftt Ekip, ekip, MMS, NRM 667 Kaki, Corleone, 20-16, pétasse Han, yeah J'arrive lourd au mic comme Pat Williams gaddamn, gaddamn, ekip, so Sur l'terrain efficace comme 4 Willian Ftt, ftt Killuminati comme Katt Williams gaddamn MMS, LDO, NRM, 667, c'est la secte, pétasse J'ai les yeuz rouges, c'est la sep, pétasse Nazi noir dans la BM ou la A7, pétasse J'dab sur cette pute, so Takeoff, so Offset sku Tu m'écoutes, tu t'améliores Négro, dis au moins so Prof Chen gaddamn On veut les berlines, pas les citadines, gaddamn sku Audio drogue dure, 667 c'est la sisa, bitch Négro, t'es dépassé tah les FIFA 10, ekip J'attends l'projet Blue Beam, so à la NASA Homme de l'ombre, pensées sombres, négro so Mazalaza Loup garou de l'Ouest, j'arrive avec Kaki, fils So Abou Faraj, fume le paki, fils Chen Zen, comme Luffy j'ai le haki, fils, ekip On arrive pour les fafs, et on s'casse comme des hommes de l'ombre So Mazalaza, ça s'faya comme des hommes de l'ombre LDO, ken tes gows comme des hommes de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Révolue l'époque de Kirikou On rigole pas, bande de anencéphales Gros, j'suis un savant des talles Cadence étale, on veut vacances et fafs, eh Fufu, ta meuf est sous cochon Pouvoir, si tu peux l'capter, c'que nous offrons So Freezer, j'ai la vision comme Sauron T-shirt coton, Lopi', j'fly comme un faucon, eh So José Guapo, fuck le rap game Négro, on se sent trop pas en danger sur l'terrain J'tire et j'te ken, mais j'suis pas ce bouffon que tu canarderas J'veux juste bander sur tes ein-s OV kartel kaki, négro So Madani, XXX Négro tu sais qu'on les cane et puis les lime Tu fais le malin, tu tals et tu dévies Néo-coco, le sang est rouge mais tantôt vert African gangster, kevlar sous le boubou J'pars en chasse, pas de manteau d'guerre Néo-coco, le sang est rouge mais tantôt vert African gangster, kevlar sous le boubou J'pars en chasse, pas de manteau d'guerre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre So Mazalaza, ça s'faya comme des hommes de l'ombre LDO, ken tes gows comme des hommes de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Take it easy Here you go So SEVEN 7oo, so à Milan Pow-pow-pow Ekip, Squadra Han, 6.6.7 Seven Ekip, shoot comme Stephen, enchaîne les assassinats comme dans Se7en Double silencieux, Chen aka Mister Goodkat, dans Lucky Number Slevin Ekip, Squadra, Backwood, trois grammes, roule les trois fois comme si j'avais trois bras Lin, j'bois grave, pense comme avec trois crânes, crache des flammes, la cabine et le toit crament Corleone j'suis loin d'vant, j'suis pas dans l'peloton Lin Fuck l'industrie, c'est les nouveaux champs d'cotons Eh So Seven 7oo, so à Milan, transige dans cette merde comme si mon âme a mille ans Fume exotique, sip' Faygos exotiques J'vois flou les Xans et Lexo piquent Prof Chen montre comment faire les exos type T'es la version rap de Joe Exotic Sacky AKA opps-killer, T-Max black solo mille Grr-pow-pow-pow Bastano, partiranno scintille, piangeranno famiglie Pow-pow-pow-pow Vis a vis coi miei demoni, dammeli Non do l'anima al diavolo, muovilo Se vuoi stare qua al tavolo Ti-Ti-Tiro a vuoto, sparo su un pentagono Okay, GT, non più su un bus, PayPal scam Hennessy sale su, bad bitch vuol mandarmi in down Vedo tanti leoni da monitor, più di un rapper bugiardo cronico Legit check non valido, fake gangsta non vivi in un barrio You might also like Cripto b-t-c, promet c-m-d, prometazine g-p-s, vaz-y Lingchin nel metaverso promtprometa San Siro cart nazional Scanner 3attay fa virus total, noval Fuck Sanremo 2022 Cripto b-t-c, promet c-m-d, prometazine g-p-s, vaz-y Lingchin nel metaverso promtprometa San Siro cart nazional Scanner 3attay fa virus total, noval Fuck Sanremo 2022 Ho comprato un ferro coi soldi di ERROR Sembra che scherzo, uno scammer davvero Non servono i soldi che ti dà la major Se poi non ci torni, ritornano indietro E scam-scam, scandalizzato Da come muovo le mie mani LG PC hackato, sto captando i segnali Ga-Gas mask sulla mia face in un bunker da tsunami Nella tana insieme a Gheddafi Task force zar rende tutto chiaro E-E-Esplode Kiev Pour un rien on sort le mouss mouss Plata plata plomo plomo Sous Cali en s'moment j'me sens trop écolo Sur le turf toute l'année un peux comme N'Golo On va te donner à manger au tigre so baskin Le ski j'connais j'vendais d'la zip askip' J'repense a des chose j'ai la boule au ventre Étouffante la vie quon mène est très éprouvante J'enchaîne les combos Et je le fait par passion Dans ma vie j'suis attacher qu'à une seul nation J'rap comme si j'enchaîne v'la les tractions Passe dans l'coin si tu veux grave de l'action Avec un geush la j'suis en pleine transaction J'serais pas tout seul j'serais avec ma faction Y on voulu nous berné On fume la beuh à berner Cripto b-t-c, promet c-m-d, prometazine g-p-s, vaz-y Lingchin nel metaverso promtprometa San Siro cart nazional Scanner 3attay fa virus total, noval Fuck Sanremo 2022 Cripto b-t-c, promet c-m-d, prometazine g-p-s, vaz-y Lingchin nel metaverso promtprometa San Siro cart nazional Scanner 3attay fa virus total, noval Fuck Sanremo 2022</t>
+          <t>Take it easy Here you go So SEVEN 7oo, so à Milan Pow-pow-pow Ekip, Squadra Han, 6.6.7 Seven Ekip, shoot comme Stephen, enchaîne les assassinats comme dans Se7en Double silencieux, Chen aka Mister Goodkat, dans Lucky Number Slevin Ekip, Squadra, Backwood, trois grammes, roule les trois fois comme si j'avais trois bras Lin, j'bois grave, pense comme avec trois crânes, crache des flammes, la cabine et le toit crament Corleone j'suis loin d'vant, j'suis pas dans l'peloton Lin Fuck l'industrie, c'est les nouveaux champs d'cotons Eh So Seven 7oo, so à Milan, transige dans cette merde comme si mon âme a mille ans Fume exotique, sip' Faygos exotiques J'vois flou les Xans et Lexo piquent Prof Chen montre comment faire les exos type T'es la version rap de Joe Exotic Sacky AKA opps-killer, T-Max black solo mille Grr-pow-pow-pow Bastano, partiranno scintille, piangeranno famiglie Pow-pow-pow-pow Vis a vis coi miei demoni, dammeli Non do l'anima al diavolo, muovilo Se vuoi stare qua al tavolo Ti-Ti-Tiro a vuoto, sparo su un pentagono Okay, GT, non più su un bus, PayPal scam Hennessy sale su, bad bitch vuol mandarmi in down Vedo tanti leoni da monitor, più di un rapper bugiardo cronico Legit check non valido, fake gangsta non vivi in un barrio Cripto b-t-c, promet c-m-d, prometazine g-p-s, vaz-y Lingchin nel metaverso promtprometa San Siro cart nazional Scanner 3attay fa virus total, noval Fuck Sanremo 2022 Cripto b-t-c, promet c-m-d, prometazine g-p-s, vaz-y Lingchin nel metaverso promtprometa San Siro cart nazional Scanner 3attay fa virus total, noval Fuck Sanremo 2022 Ho comprato un ferro coi soldi di ERROR Sembra che scherzo, uno scammer davvero Non servono i soldi che ti dà la major Se poi non ci torni, ritornano indietro E scam-scam, scandalizzato Da come muovo le mie mani LG PC hackato, sto captando i segnali Ga-Gas mask sulla mia face in un bunker da tsunami Nella tana insieme a Gheddafi Task force zar rende tutto chiaro E-E-Esplode Kiev Pour un rien on sort le mouss mouss Plata plata plomo plomo Sous Cali en s'moment j'me sens trop écolo Sur le turf toute l'année un peux comme N'Golo On va te donner à manger au tigre so baskin Le ski j'connais j'vendais d'la zip askip' J'repense a des chose j'ai la boule au ventre Étouffante la vie quon mène est très éprouvante J'enchaîne les combos Et je le fait par passion Dans ma vie j'suis attacher qu'à une seul nation J'rap comme si j'enchaîne v'la les tractions Passe dans l'coin si tu veux grave de l'action Avec un geush la j'suis en pleine transaction J'serais pas tout seul j'serais avec ma faction Y on voulu nous berné On fume la beuh à berner Cripto b-t-c, promet c-m-d, prometazine g-p-s, vaz-y Lingchin nel metaverso promtprometa San Siro cart nazional Scanner 3attay fa virus total, noval Fuck Sanremo 2022 Cripto b-t-c, promet c-m-d, prometazine g-p-s, vaz-y Lingchin nel metaverso promtprometa San Siro cart nazional Scanner 3attay fa virus total, noval Fuck Sanremo 2022</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Han, han C'est plus les princes de la ville, c'est les princes de la drill Gang shit ekip, ekip RAS 500S Chen Zen, M.M.S M.M.S, hey Ekip, ekip, ekip, ekip On fait l'show, on s'occupe on s'occupe, on part en mission Cobra poh On aime les gros culs, on a des gros bras han, négro, on monte un empire comme Oprah cash Coupe l'herbe dans l'jardin, j'crois qu'j'ai vu des cobras snake So les triple OG, les hauts grades, on accélère quand tu rétrogrades 0.8, 0.9 han, pas d'synthé' nan, grosse fumée à travers les teintées Faut des chars, des blindés, on les baise, même en indé' poh Lunettes Cartier ppe-f', verres dégradés, teintés han Concu', on la boit facile comme un thé hah, on est connectés en haut comme un T plug Dans la street depuis les Fubu, Ecko, dans l'piège, y a les métaux, j'rafale, j'fais la déco' Tu racontes de la merde comme Di Meco dans les biz' illégaux, j'suis l'doc comme Gynéco L'appétit vient en mangeant, négro, il faudra toujours plus de sous Chaque fois qu'ça rentre, c'est comme un but de fou cash, ekip à fond comme un bus de foot Mon négro, j'suis toujours dans les tranchées j'suis toujours dans les tranchées On viendra que pour s'venger Mon négro, j'suis toujours dans les tranchées j'suis toujours dans les tranchées Marche dans l'spot, j'suis étranger J'roule j'roule, j'contrôle j'contrôle J'roule j'roule, j'contrôle j'contrôle You might also like Han À la banque, j'parle avec la directrice han, tout droit dans ma ligne directrice Il m'faut la dernière Audi A8 avec les quatre roues directrices Négro, on veut les dernières Audi sku, 500S que des OG Tes menaces nous font rire comme Cody ah, ah, Big papi, de retour comme Bobby Chen, RAS, L.D.O, S500, bientôt toute la Secte dans les S500 Envoie 500 prods, j'en blesse 500, j'aime les billets d'dix mille, les billets d'cinq cents Leader leader militaire militaire depuis qu'on a acquis maquis Canada Goose kaki-kaki, Rotter', Meuda, font leur Taki-Taki So Lalcko, j'ai fait un rêve de mélanger les races, monter un syndicat ekip Biscotti Indica, ADK, aqua dans des foreigns à 90k J'pisse devant chez l'syndic', mes négros dans l'syndicat Au poignet, il m'faut minimum un 10k, celle du troisième sait l'commerce, c'est v'là l'indic' Mon négro, j'suis toujours dans les tranchées j'suis toujours dans les tranchées On viendra que pour s'venger Mon négro, j'suis toujours dans les tranchées j'suis toujours dans les tranchées Marche dans l'spot, j'suis étranger J'roule j'roule, j'contrôle j'contrôle J'roule j'roule, j'contrôle j'contrôle Ekip, ekip, ekip On fait l'show, on s'occupe on s'occupe, on part en mission Cobra poh, poh, poh, poh Coupe l'herbe dans l'jardin, j'crois qu'j'ai vu des cobras So les triple OG, les hauts grades, on accélère quand tu rétrogrades 0.8, 0.9, pas d'synthé' sku, sku, sku, sku Lunettes Cartier, verres dégradés, teintés hanConcu', on la boit facile comme un thé eh, on est connectés en haut comme un T</t>
+          <t>Han, han C'est plus les princes de la ville, c'est les princes de la drill Gang shit ekip, ekip RAS 500S Chen Zen, M.M.S M.M.S, hey Ekip, ekip, ekip, ekip On fait l'show, on s'occupe on s'occupe, on part en mission Cobra poh On aime les gros culs, on a des gros bras han, négro, on monte un empire comme Oprah cash Coupe l'herbe dans l'jardin, j'crois qu'j'ai vu des cobras snake So les triple OG, les hauts grades, on accélère quand tu rétrogrades 0.8, 0.9 han, pas d'synthé' nan, grosse fumée à travers les teintées Faut des chars, des blindés, on les baise, même en indé' poh Lunettes Cartier ppe-f', verres dégradés, teintés han Concu', on la boit facile comme un thé hah, on est connectés en haut comme un T plug Dans la street depuis les Fubu, Ecko, dans l'piège, y a les métaux, j'rafale, j'fais la déco' Tu racontes de la merde comme Di Meco dans les biz' illégaux, j'suis l'doc comme Gynéco L'appétit vient en mangeant, négro, il faudra toujours plus de sous Chaque fois qu'ça rentre, c'est comme un but de fou cash, ekip à fond comme un bus de foot Mon négro, j'suis toujours dans les tranchées j'suis toujours dans les tranchées On viendra que pour s'venger Mon négro, j'suis toujours dans les tranchées j'suis toujours dans les tranchées Marche dans l'spot, j'suis étranger J'roule j'roule, j'contrôle j'contrôle J'roule j'roule, j'contrôle j'contrôle Han À la banque, j'parle avec la directrice han, tout droit dans ma ligne directrice Il m'faut la dernière Audi A8 avec les quatre roues directrices Négro, on veut les dernières Audi sku, 500S que des OG Tes menaces nous font rire comme Cody ah, ah, Big papi, de retour comme Bobby Chen, RAS, L.D.O, S500, bientôt toute la Secte dans les S500 Envoie 500 prods, j'en blesse 500, j'aime les billets d'dix mille, les billets d'cinq cents Leader leader militaire militaire depuis qu'on a acquis maquis Canada Goose kaki-kaki, Rotter', Meuda, font leur Taki-Taki So Lalcko, j'ai fait un rêve de mélanger les races, monter un syndicat ekip Biscotti Indica, ADK, aqua dans des foreigns à 90k J'pisse devant chez l'syndic', mes négros dans l'syndicat Au poignet, il m'faut minimum un 10k, celle du troisième sait l'commerce, c'est v'là l'indic' Mon négro, j'suis toujours dans les tranchées j'suis toujours dans les tranchées On viendra que pour s'venger Mon négro, j'suis toujours dans les tranchées j'suis toujours dans les tranchées Marche dans l'spot, j'suis étranger J'roule j'roule, j'contrôle j'contrôle J'roule j'roule, j'contrôle j'contrôle Ekip, ekip, ekip On fait l'show, on s'occupe on s'occupe, on part en mission Cobra poh, poh, poh, poh Coupe l'herbe dans l'jardin, j'crois qu'j'ai vu des cobras So les triple OG, les hauts grades, on accélère quand tu rétrogrades 0.8, 0.9, pas d'synthé' sku, sku, sku, sku Lunettes Cartier, verres dégradés, teintés hanConcu', on la boit facile comme un thé eh, on est connectés en haut comme un T</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>So le Flem 2-2 So le Amine Freeze Ekip, ekip, ekip Gros teh, gros verre Accélère au vert Depuis, j'opère Eh, hey Han, han Gros teh, gros verre Lin, ta pute veut offrir ses ovaires Pétasse Accélère, au vert, allô le big Brr ? Faut qu'on flex en Espagne, s'mettre au vert Skurt Depuis, j'opère Han, dans l'industrie comme le Joker Ah Rien qu'ils bluffent comme au poker Bluff, nous contr eux, c'est des pit contr des cokers Ouh Envoie les prods, on les casse par douze Han, so Afro S, j'ai v'là d'cartouches Pah OG Baye Fall Bamba Partout Han, faut des liasses plus grandes que Passe-Partout Cash So le Flem, so le Amine Farsi, concu' on les fume comme des p'tits gares-ci Gares-ci Toute la journée, j'enchaîne les plis par six, j'ai la vision comme Jay Z d'Marcy Merde Triple filtre dans le calumet, un mouv' de fufu pour t'annuler Han T'es comme une lampe un clic pour t'allumer Ouh Corleone, très calme mais j'connais des gens bizarres Eh Grosse Moncler, j'avance dans l'blizzard Han, noir sur noir comme un sans-visage Que les gros gaz, négro, jamais la locale, fuck 12, so les avocats Grosse montre, t'inquiètes pas qu'elle est pas d'occas' Il m'faut des terres, il m'faut quatre domaines Han, 2-2, Corleone, on les baise dans chaque domaine Shooter précis comme en NBA Han, t'inquiètes pas qu'ça vise pas l'abdomen Pah, pah You might also like Billets Cash, on n'est pas là pour briller Nan Big billets Cash, cash, on arrive pour les piller Skuh Billets Han, faut les multiplier Big billets, grosse liasse, ça peut même pas les plier Pah, skurt, nan Billets, billets, billets, on n'est pas là pour briller Nan Billets, big billets, on arrive pour les piller Ouh Billets, billets, billets, faut les multiplier Cash Billets, big billets, grosse liasse, ça peut même pas les plier Pah Deux-mille dans la poche Shoo, six dans le clip Le sang est rouge comme un Blood mais son corps est bleu comme un Crip Ouh, ouh J'suis dans le BM, il regarde mal, sa bitch est dans mes DM C'est pas un clip, si on t'allume, c'est réel Eh Tu t'réveilles pas demain, trop de trous, ton corps aura l'air d'un vieux jean Balmain Skurt Quand les 45 crient, tous les ennemis s'taillent, j'viens les éteindre comme Gengis Khan J'ai toujours un as dans la poche, tu parles rarement lame à la gorge Cash Money comme Nino B, cette bad bitch veut piloter Eh Elle donne son corps facilement, dans l'Cîroc, elle veut siroter Mafia, parait qu'on est bons qu'à ça Brr, ouh Mon nouveau jouet est froid, pourtant, tu finiras dans l'rafia Y a que des visages fermés dans le périmètre Brr, royauté, c'est plus cher qu'un Série 7 Tu parles moins devant le métal, ta vie, c'est un détail, on t'l'enlève avec un 9 millimètres Brr Movie, chez nous, c'est dur à la Poutine, le ciel est noir comme un Uzi On parle pas, on sourit, on t'allume comme une bougie Splash Movie, chez nous, c'est dur à la Poutine, le ciel est noir comme un Uzi On n'est pas mécano, pourtant, la plupart possède des outils Rah, rah, rah, rah, pah, pah Billets Cash, on n'est pas là pour briller Nan Big billets Cash, cash, on arrive pour les piller Ouh Billets Han, faut les multiplier Big billets, grosse liasse, ça peut même pas les plier Pah, skurt, nan Billets, billets, billets, on n'est pas là pour briller Nan Billets, big billets, on arrive pour les piller Ouh Billets, billets, billets, faut les multiplier Cash Billets, big billets, grosse liasse, ça peut même pas les plier Pah Billets, on n'est pas là pour briller On arrive pour les piller Billets, faut les multiplier Grosse liasse, ça peut même pas les plier Billets, billets, billets Billets, billets, billets Billets, billets, billets1</t>
+          <t>So le Flem 2-2 So le Amine Freeze Ekip, ekip, ekip Gros teh, gros verre Accélère au vert Depuis, j'opère Eh, hey Han, han Gros teh, gros verre Lin, ta pute veut offrir ses ovaires Pétasse Accélère, au vert, allô le big Brr ? Faut qu'on flex en Espagne, s'mettre au vert Skurt Depuis, j'opère Han, dans l'industrie comme le Joker Ah Rien qu'ils bluffent comme au poker Bluff, nous contr eux, c'est des pit contr des cokers Ouh Envoie les prods, on les casse par douze Han, so Afro S, j'ai v'là d'cartouches Pah OG Baye Fall Bamba Partout Han, faut des liasses plus grandes que Passe-Partout Cash So le Flem, so le Amine Farsi, concu' on les fume comme des p'tits gares-ci Gares-ci Toute la journée, j'enchaîne les plis par six, j'ai la vision comme Jay Z d'Marcy Merde Triple filtre dans le calumet, un mouv' de fufu pour t'annuler Han T'es comme une lampe un clic pour t'allumer Ouh Corleone, très calme mais j'connais des gens bizarres Eh Grosse Moncler, j'avance dans l'blizzard Han, noir sur noir comme un sans-visage Que les gros gaz, négro, jamais la locale, fuck 12, so les avocats Grosse montre, t'inquiètes pas qu'elle est pas d'occas' Il m'faut des terres, il m'faut quatre domaines Han, 2-2, Corleone, on les baise dans chaque domaine Shooter précis comme en NBA Han, t'inquiètes pas qu'ça vise pas l'abdomen Pah, pah Billets Cash, on n'est pas là pour briller Nan Big billets Cash, cash, on arrive pour les piller Skuh Billets Han, faut les multiplier Big billets, grosse liasse, ça peut même pas les plier Pah, skurt, nan Billets, billets, billets, on n'est pas là pour briller Nan Billets, big billets, on arrive pour les piller Ouh Billets, billets, billets, faut les multiplier Cash Billets, big billets, grosse liasse, ça peut même pas les plier Pah Deux-mille dans la poche Shoo, six dans le clip Le sang est rouge comme un Blood mais son corps est bleu comme un Crip Ouh, ouh J'suis dans le BM, il regarde mal, sa bitch est dans mes DM C'est pas un clip, si on t'allume, c'est réel Eh Tu t'réveilles pas demain, trop de trous, ton corps aura l'air d'un vieux jean Balmain Skurt Quand les 45 crient, tous les ennemis s'taillent, j'viens les éteindre comme Gengis Khan J'ai toujours un as dans la poche, tu parles rarement lame à la gorge Cash Money comme Nino B, cette bad bitch veut piloter Eh Elle donne son corps facilement, dans l'Cîroc, elle veut siroter Mafia, parait qu'on est bons qu'à ça Brr, ouh Mon nouveau jouet est froid, pourtant, tu finiras dans l'rafia Y a que des visages fermés dans le périmètre Brr, royauté, c'est plus cher qu'un Série 7 Tu parles moins devant le métal, ta vie, c'est un détail, on t'l'enlève avec un 9 millimètres Brr Movie, chez nous, c'est dur à la Poutine, le ciel est noir comme un Uzi On parle pas, on sourit, on t'allume comme une bougie Splash Movie, chez nous, c'est dur à la Poutine, le ciel est noir comme un Uzi On n'est pas mécano, pourtant, la plupart possède des outils Rah, rah, rah, rah, pah, pah Billets Cash, on n'est pas là pour briller Nan Big billets Cash, cash, on arrive pour les piller Ouh Billets Han, faut les multiplier Big billets, grosse liasse, ça peut même pas les plier Pah, skurt, nan Billets, billets, billets, on n'est pas là pour briller Nan Billets, big billets, on arrive pour les piller Ouh Billets, billets, billets, faut les multiplier Cash Billets, big billets, grosse liasse, ça peut même pas les plier Pah Billets, on n'est pas là pour briller On arrive pour les piller Billets, faut les multiplier Grosse liasse, ça peut même pas les plier Billets, billets, billets Billets, billets, billets Billets, billets, billets1</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip Is this TheHashClique ? M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Pétasse, pétasse, pétasse, pétasse, pétasse Trouve-moi tout en haut, négro c'que j'consomme Xan dans mon sang, seul découpe comme si j'étais onze cent So C.O, So Tm, gère ta bitch, so DM Jeune requin, so Tn, j'y vais all in So Hold'em, j'arrive Nazi, so BM, skurr Dans les allemandes débarquent comme des SS, pétasse Chen Zen, négro dans les headshots depuis C.S S, pétasse Ces rappeurs sont marrants comme Patson, négro REP Jackson négro, killuminati comme Macson, négro J'm'allume aux drogues légales, j'arrive QB, so Cormega Et si tu viens m'voir et qu'tu m'parles pas En langage comme argent ou comme or, dégage Gaddam, j'suis pas avec ces fufus lame shit Faut qu'les sou-sous viennent vite Sur la prod appelle-moi Kung Fu Chen, bitch Ces négros sont faux, méritent des Oscars comme des acteurs Chiffre d'affaires d'Euphon en hausse, LDO fait partie des facteurs Chaque jour j'm'allume comme si j'avais 8 poumons et 4 curs V'là d'caca comme des WC, v'la d'essence comme des tracteurs Ces négros sont faux, méritent des Oscars comme des acteurs Chiffre d'affaires d'Euphon en hausse, LDO fait partie des facteurs Chaque jour j'm'allume comme si j'avais 8 poumons et 4 curs V'là d'caca comme des WC, v'la d'essence comme des tracteurs You might also like Ekip, M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Ces négros sont faux, méritent des Oscars comme des acteurs J'lean comme si j'avais 8 poumons et 4 curs, pétasse1</t>
+          <t>Ekip, ekip, ekip Is this TheHashClique ? M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Pétasse, pétasse, pétasse, pétasse, pétasse Trouve-moi tout en haut, négro c'que j'consomme Xan dans mon sang, seul découpe comme si j'étais onze cent So C.O, So Tm, gère ta bitch, so DM Jeune requin, so Tn, j'y vais all in So Hold'em, j'arrive Nazi, so BM, skurr Dans les allemandes débarquent comme des SS, pétasse Chen Zen, négro dans les headshots depuis C.S S, pétasse Ces rappeurs sont marrants comme Patson, négro REP Jackson négro, killuminati comme Macson, négro J'm'allume aux drogues légales, j'arrive QB, so Cormega Et si tu viens m'voir et qu'tu m'parles pas En langage comme argent ou comme or, dégage Gaddam, j'suis pas avec ces fufus lame shit Faut qu'les sou-sous viennent vite Sur la prod appelle-moi Kung Fu Chen, bitch Ces négros sont faux, méritent des Oscars comme des acteurs Chiffre d'affaires d'Euphon en hausse, LDO fait partie des facteurs Chaque jour j'm'allume comme si j'avais 8 poumons et 4 curs V'là d'caca comme des WC, v'la d'essence comme des tracteurs Ces négros sont faux, méritent des Oscars comme des acteurs Chiffre d'affaires d'Euphon en hausse, LDO fait partie des facteurs Chaque jour j'm'allume comme si j'avais 8 poumons et 4 curs V'là d'caca comme des WC, v'la d'essence comme des tracteurs Ekip, M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Ces négros sont faux, méritent des Oscars comme des acteurs J'lean comme si j'avais 8 poumons et 4 curs, pétasse1</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Eddie Brock, Peter Parker Le retour de Pépés Anglais Le Z, le Film Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Que du maka, dans la fête pas de bourbon Que des killu', dans la salle, pas d'maçons 6.6.7, NRM, drip BGBC Jogging, claquettes, c'est pas BCBG Fanta tropical, ajoute le tosé' Dans l'rap, dans la crypto', dans ça, j'veux bosser Eddie Brock, Peter Parker, appelez-nous Pépé PDF dans la cassette, en données cryptées J'ai kické car système, j'ai voulu quitter Faire des euros en mode illimité Avec Chen dans la A7 noire, la secte, douze noirs Mes frères sont tous noirs, ma peur miroir Mes textes dans l'grimoire Mes frères sont tous noirs, ma peur miroir Mes textes dans l'grimoire You might also like Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Han, Chen, Zuukou, les sous, j'aime beaucoup Faut cinq fois l'salaire d'Christopher Nkunku So le Mayz', j'suis dans l'film comme Leonardo Découpe comme Raphaello et Léonardo J'arrive dans les pills, j'arrive dans les lins Dans une autre dimension comme si j'arrive dans les Limbes Des fois, j'ai des flashbacks, j'ai des souv'nirs J'remercie Dieu à chaque fois qu'j'vois les sous v'nir On pull up pour les extractions J'me rappelle, à l'ancienne, avec la prometh', on f'sait des extractions Multiplie les sommes, après, fais des fractions Avec le Mayz', on préfère le fer que faire des tractions J'fume la gelato et la cookie, faut qu'les sous tournent comme la toupie 6.6.7, ekip, plein d'sections, c'est l'infection 20.22, Zuukou, Freeze, négro, c'est Inception Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas - Et ils gardent tout le temps la même - Et le vent ? Enfin l'air - L'air ? Bah l'air, c'est facile et logique2</t>
+          <t>Eddie Brock, Peter Parker Le retour de Pépés Anglais Le Z, le Film Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Que du maka, dans la fête pas de bourbon Que des killu', dans la salle, pas d'maçons 6.6.7, NRM, drip BGBC Jogging, claquettes, c'est pas BCBG Fanta tropical, ajoute le tosé' Dans l'rap, dans la crypto', dans ça, j'veux bosser Eddie Brock, Peter Parker, appelez-nous Pépé PDF dans la cassette, en données cryptées J'ai kické car système, j'ai voulu quitter Faire des euros en mode illimité Avec Chen dans la A7 noire, la secte, douze noirs Mes frères sont tous noirs, ma peur miroir Mes textes dans l'grimoire Mes frères sont tous noirs, ma peur miroir Mes textes dans l'grimoire Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Han, Chen, Zuukou, les sous, j'aime beaucoup Faut cinq fois l'salaire d'Christopher Nkunku So le Mayz', j'suis dans l'film comme Leonardo Découpe comme Raphaello et Léonardo J'arrive dans les pills, j'arrive dans les lins Dans une autre dimension comme si j'arrive dans les Limbes Des fois, j'ai des flashbacks, j'ai des souv'nirs J'remercie Dieu à chaque fois qu'j'vois les sous v'nir On pull up pour les extractions J'me rappelle, à l'ancienne, avec la prometh', on f'sait des extractions Multiplie les sommes, après, fais des fractions Avec le Mayz', on préfère le fer que faire des tractions J'fume la gelato et la cookie, faut qu'les sous tournent comme la toupie 6.6.7, ekip, plein d'sections, c'est l'infection 20.22, Zuukou, Freeze, négro, c'est Inception Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas Est-ce réel ? Est-ce réel ? Je n'sais pas Je n'sais pas La toupie tourn'ra ou s'arrêtera ou s'arrêtera Continuer tout droit ? Je ne sais pas je n'sais pas J'prends le virage à gauche, je ne lackerai pas je n'lackerai pas - Et ils gardent tout le temps la même - Et le vent ? Enfin l'air - L'air ? Bah l'air, c'est facile et logique2</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Eh, sku Eh Teh 667 Ouais Beh Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came Au l'tel-hô, laisse pas la bitch partir, TF1, moi, j'f'rai pas la pute à Arthur Apéro, foot, shit, boxe sur le parking, tu t'fais baiser par qui ? Mini Falla ragequit par qui ? Aux Terreaux, los-ki, le liquide, ça part vite, ta conso', big wax se revend par kits Big tte-ch', big dick, big ah, on peut dire qu'elle s'est fait piner par l'king Y a qu'après les billets qu'on court, la calvasse sous capuche, j'peux plus faire de contours Malgré ça, je la tue, je la torts, je la fourre, prends ta bague, RTT, tous les mois, y a concours Vas-y, cou-cou-cou-cours, Mini, Freeze, c'est des champs et Bellecou-cou-cou-cour Maisonnette KGB, OG, tousse, 69 dab on est même pas ché-tou tout, tout Y a qu'pour les pesos qu'on sah, Nina vend son cul pour des places de concerts Si t'es pas l'sang, pas de conseils c'est la recette, 6.9, zéro on signe on sait Vas-y, cou-cou-cou-cours, Mini, Freeze, c'est des champs et Bellecou-cou-cou-cour KGB maisonnette, OG tout, 6.9 cup on est même pas ché-tou ekip You might also like Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came 6.6.7, RTT, que d'la super came ekip, fuck le rap game, c'est un super scam Eh J'suis dans la cage comme un super Kahn Oliver, sur le terrain comme un super CAM 10 Corleone, que des super rimes ah, en face, ils m'font super rire haha Pour la famille, j'ai pris des super risques Han, faut qu'mes enfants grandissent comme des super riches Cash So le cactus, so 100 Souc' Ekip, j'ai la dalle comme un négro sans sous Cash J'leur mets des soupapes, so Ansu Nion, toujours opé', négro, pour les plans sous Cash So les factions et les brigades Bridages, ça cuisine l'audio dope chez les Trickaz Ekip Raconte pas ta vie, dis les prix cash pétasse, négro, à tous les postes, j'suis efficace 'ficace Freeze, Mini, là pour les M et M cash, cash, so RTT, so M et N Ekip Avec mes négros, on s'suit comme M et N ah, concu', on les fume comme des L et M J'sais pas j'ai fumé combien d'litres de cons', j'suis précis comme un livre de comptes Pah Concu' valent rien comme cinq livres de bronze, rap français dans la lunette et on vise le front Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came Pélo roule un super teh 6.6.7, RTT, que d'la super came</t>
+          <t>Eh, sku Eh Teh 667 Ouais Beh Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came Au l'tel-hô, laisse pas la bitch partir, TF1, moi, j'f'rai pas la pute à Arthur Apéro, foot, shit, boxe sur le parking, tu t'fais baiser par qui ? Mini Falla ragequit par qui ? Aux Terreaux, los-ki, le liquide, ça part vite, ta conso', big wax se revend par kits Big tte-ch', big dick, big ah, on peut dire qu'elle s'est fait piner par l'king Y a qu'après les billets qu'on court, la calvasse sous capuche, j'peux plus faire de contours Malgré ça, je la tue, je la torts, je la fourre, prends ta bague, RTT, tous les mois, y a concours Vas-y, cou-cou-cou-cours, Mini, Freeze, c'est des champs et Bellecou-cou-cou-cour Maisonnette KGB, OG, tousse, 69 dab on est même pas ché-tou tout, tout Y a qu'pour les pesos qu'on sah, Nina vend son cul pour des places de concerts Si t'es pas l'sang, pas de conseils c'est la recette, 6.9, zéro on signe on sait Vas-y, cou-cou-cou-cours, Mini, Freeze, c'est des champs et Bellecou-cou-cou-cour KGB maisonnette, OG tout, 6.9 cup on est même pas ché-tou ekip Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came 6.6.7, RTT, que d'la super came ekip, fuck le rap game, c'est un super scam Eh J'suis dans la cage comme un super Kahn Oliver, sur le terrain comme un super CAM 10 Corleone, que des super rimes ah, en face, ils m'font super rire haha Pour la famille, j'ai pris des super risques Han, faut qu'mes enfants grandissent comme des super riches Cash So le cactus, so 100 Souc' Ekip, j'ai la dalle comme un négro sans sous Cash J'leur mets des soupapes, so Ansu Nion, toujours opé', négro, pour les plans sous Cash So les factions et les brigades Bridages, ça cuisine l'audio dope chez les Trickaz Ekip Raconte pas ta vie, dis les prix cash pétasse, négro, à tous les postes, j'suis efficace 'ficace Freeze, Mini, là pour les M et M cash, cash, so RTT, so M et N Ekip Avec mes négros, on s'suit comme M et N ah, concu', on les fume comme des L et M J'sais pas j'ai fumé combien d'litres de cons', j'suis précis comme un livre de comptes Pah Concu' valent rien comme cinq livres de bronze, rap français dans la lunette et on vise le front Pélo, roule un super teh sku, té-ma, il est super tard On est sur l'parking, so tous les supporters, dans l'aqua comme dans pool party, nan mais oh Ne fais pas la superstar nan, té-ma le super drip Super weed, fume-la super vite, c'que tu cop, pélo, c'est d'la super rrr Laser vert, super fer pah, au phone, il fait l'fou, en face, il est super calme Négro, j'fume le super teh, on veut les tous-terrains et les super cars skuh, skuh Té-ma la montre, elle est super chère chère, chère, dans la main, j'ai des super cartes han Fume comme nous, tu vas super perr, 6.6.7, RTT, que d'la super came Pélo roule un super teh 6.6.7, RTT, que d'la super came</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Chen Zen, han Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse Personne, désert, pétasse Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse J'veux juste les sous, aussi simple que 1, 2, 3 Négro j'regarde le rap jeu, j'vois pleins de proies J'suis comme Anakin, tu sens la Force Inch'Allah, bientôt tu m'trouves dans la Porsche Chen Zen dans la défense, met des tacles dans la gorge 667 c'est le clan, négro Depuis l'début j'ai le plan, négro J'veux deux Maybach, une Panamera Un Mercedes GLE blanc, négro Si tu t'allumes comme moi, tu vas lacker So Sun Tzu, j'attaque du côté où tu vas lacker Pétasse, j'ai les pills, j'ai les calmants Berline, j'vais m'fournir chez les allemands J'suis à l'intérieur, j'fume v'la l'extérieur On les fume à domicile, on les fume à l'extérieur Appelle Bobby pour les prods, pétasse J'suis dans les drogues, pétasse J'suis désolé mais c'est les blancs Qui vivaient dans les grottes, pétasse 2004, j'suis dans la trap, pétasse Dans les shits, dans la frappe, pétasse IPhone en mode avion quand ça gratte pétasse, ekip You might also like Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse Personne, désert, pétasse Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse</t>
+          <t>Ekip, ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7, pétasse Chen Zen, han Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse Personne, désert, pétasse Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse J'veux juste les sous, aussi simple que 1, 2, 3 Négro j'regarde le rap jeu, j'vois pleins de proies J'suis comme Anakin, tu sens la Force Inch'Allah, bientôt tu m'trouves dans la Porsche Chen Zen dans la défense, met des tacles dans la gorge 667 c'est le clan, négro Depuis l'début j'ai le plan, négro J'veux deux Maybach, une Panamera Un Mercedes GLE blanc, négro Si tu t'allumes comme moi, tu vas lacker So Sun Tzu, j'attaque du côté où tu vas lacker Pétasse, j'ai les pills, j'ai les calmants Berline, j'vais m'fournir chez les allemands J'suis à l'intérieur, j'fume v'la l'extérieur On les fume à domicile, on les fume à l'extérieur Appelle Bobby pour les prods, pétasse J'suis dans les drogues, pétasse J'suis désolé mais c'est les blancs Qui vivaient dans les grottes, pétasse 2004, j'suis dans la trap, pétasse Dans les shits, dans la frappe, pétasse IPhone en mode avion quand ça gratte pétasse, ekip Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse Personne, désert, pétasse Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse Tu veux les prods, appelle Bobby, pétasse Cherche la concurrence, c'est Gobi, pétasse</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Tag de Futtry Blvck Mozart Gore comme une partouze à six, les keufs viennent casser une heure après 5 J'mélange le sirop avec le 7, 281 Skal so 667 shu J'te reconnais dans l'noir comme dans Colin-maillard, pas prêt de m'éteindre comme le peuple Maya On marque même avec un PU daltonien, à la base, on est parti de rien 1848 fin de la souffrance wouh, cicatrices enfouies sous nos racines Bosse pour briller comme du platine, protéiné comme Dakatine Deeloc, Freeze et grizzilizi wouh, lance le frisbee au grizzly Émotif comme Synkinisi wouh, dans tous les angles, on est précis 404 error, reflet sur Mirror, maintenant, tout est clair On laisse rien passer, on est efficaces au milieu comme Müller bin-bang Large comme un camtar cellulaire, fais pas Carbo au cellulaire, autant vivant qu'une cellulaire Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip You might also like Corleone, De-Deeloc ekip, New-York, Vlone ekip Lingots d'or, kilos cash, à Dakar avec des îlots han Black Soprano sku, ekip, so Benny the Butcher ekip J'fume la beuh et le shit qui coûtent cher Découpe la prod', laisse des bouts d'chair Y a que pour la famille que j'prends des risques cash Phrases interdites dans mes disques Black Mafia, on n'est pas dans les diss nan Envoie dix prods, négro, j'prends les dix So Ashe, j'arrive avec le masque Scooter, shooter, avec le casque Ça s'voit qu'c'est des faux même avec le masque So Stavo, travaux avec le casque sku Tout pour la famille comme Niko Bellic han Ils savent pourquoi ils volent les obélisques Ça leur met des scores comme au tennis J'suis tombé dans la potion comme Obélix Beretta, j'fais pas des tractions nan Rien que j'partage, que j'fais des fractions ba-bang Sur les prods, j'fais que des exactions C'qui parle plus que les mots, c'est les actions sku Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip Ennemis à 10 heures sur mon rétro Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux J'te laisserai des miettes sur le gâteau Chen aka Luffy dans le bateau Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip2</t>
+          <t>Tag de Futtry Blvck Mozart Gore comme une partouze à six, les keufs viennent casser une heure après 5 J'mélange le sirop avec le 7, 281 Skal so 667 shu J'te reconnais dans l'noir comme dans Colin-maillard, pas prêt de m'éteindre comme le peuple Maya On marque même avec un PU daltonien, à la base, on est parti de rien 1848 fin de la souffrance wouh, cicatrices enfouies sous nos racines Bosse pour briller comme du platine, protéiné comme Dakatine Deeloc, Freeze et grizzilizi wouh, lance le frisbee au grizzly Émotif comme Synkinisi wouh, dans tous les angles, on est précis 404 error, reflet sur Mirror, maintenant, tout est clair On laisse rien passer, on est efficaces au milieu comme Müller bin-bang Large comme un camtar cellulaire, fais pas Carbo au cellulaire, autant vivant qu'une cellulaire Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip Corleone, De-Deeloc ekip, New-York, Vlone ekip Lingots d'or, kilos cash, à Dakar avec des îlots han Black Soprano sku, ekip, so Benny the Butcher ekip J'fume la beuh et le shit qui coûtent cher Découpe la prod', laisse des bouts d'chair Y a que pour la famille que j'prends des risques cash Phrases interdites dans mes disques Black Mafia, on n'est pas dans les diss nan Envoie dix prods, négro, j'prends les dix So Ashe, j'arrive avec le masque Scooter, shooter, avec le casque Ça s'voit qu'c'est des faux même avec le masque So Stavo, travaux avec le casque sku Tout pour la famille comme Niko Bellic han Ils savent pourquoi ils volent les obélisques Ça leur met des scores comme au tennis J'suis tombé dans la potion comme Obélix Beretta, j'fais pas des tractions nan Rien que j'partage, que j'fais des fractions ba-bang Sur les prods, j'fais que des exactions C'qui parle plus que les mots, c'est les actions sku Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip Ennemis à 10 heures sur mon rétro Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux J'te laisserai des miettes sur le gâteau Chen aka Luffy dans le bateau Ennemis à 10 heures sur mon rétro sku, tout est bre-som dans nos ghettos Pétasse, tous mes négros ont les crocs, Dakar Blood, habitué aux briques et aux métaux paw, paw J'te laisserai des miettes sur le gâteau, Chen aka Luffy dans le bateau J'ai la frappe qui raille les chicots han, j'ai plus de rimes que dans les dicos ekip2</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>These things are symptoms of a system that is breaking. We're at a crisis point, and we really need to deal with it. And this is not just policing, other services. And we need to understand that the government really have got blood on their hands because theyve cut back so much, and they are seeing these body bags mounting and not doing anything with it. J'suis dans la qualité niama, ils sont dans la quantité sku Ils ont visé l'Afrique mais manque de bol pour eux, ékoti té shoo Les Chinois, les mundélés, Ba meki biso mais bakokité La rue fait son come-back, les imposteurs vont crier Sauve qui put La be-her nest pas plus fort qu'ailleurs sheesh, j'vous invite à goûter ma weed eh Boycotté par plein de putains comme Franck Ribéry et Karim de Madrid gang Internet a fait dépuceler tous ces p'tits puceaux, merci à la trap et à la drill ba-ba-binks Pour la mama, deux baraques à Kinshasa et pour papa, des comptes aux Maldives ouh Comme Neeskens Kebano, j'suis un crack, ça devient Walking Dead sur les terrains d'crack Si tu veux tirer, bah fais-le vite, conseil gratuit ne nous tes-ra as-p , , si tes pas mort, sheguey, tes dans le coma Elle l'a dans la che-bou, dans le masoko, la petite Hannah a mal à lestomac Braza', Dakar ekip, Kinshasa, Sénégal pétasse Snapchat, Wickr allô, Signal, Telegram brr 2.2.1, 243, 242, que des cracks pétasse 9.2, 9.3 han, sur le rrain-té, que des cracks Braza', Dakar han, Kinshasa, Sénégal ekip Snapchat, Wickr brr, Signal, Telegram 2.2.1, 243 han, 242, que des cracks sku 9.2, 9.3 paw, sur le rrain-té, que des cracks You might also like Concu', grillades eh, eh, Dieu avec moi, pas peur des Diables nan Braquage, pillage, envoie les prods, on les gifle comme les Diaz ekip, ekip So le Zaïre, négro, so le Congo han, ekip, ekip, so Jai trop d'enchaînements, négro, j'ai trop de combos sku, sku Corleone, Kozi han, fuck un sataniste comme Ozzy han Extrait, Rosine, dans le jeu, j'vois des doubles et des sosies yah, pah, pah 667, ekip sur les maillots han, ekip, toujours au-dessus comme les Kaio ekip Là pour l'cash comme Chapo et Mayo cash, cash, cash Venin, poison lin, lin, lin, dans l'aqua' comme un poisson han Étranger en mission, Chen Zen, mentalité de poison sku, so, ekip, han Trois points, so le bim, musique anti-Dajjal, so le big han, ekip Rimes tranchantes, negro so le Bic ekip Braza', Dakar han, Kinshasa, Sénégal Snapchat, Wickr brr, Signal, Telegram 2.2.1, 243 han, 242, que des cracks pétasse 9.2, 9.3 paw, sur le rrain-té, que des cracks Braza', Dakar han, Kinshasa, Sénégal Snapchat, Wickr brr, Signal, Telegram allô 2.2.1, 243 han, 242, que des cracks sku 9.2, 9.3 paw, sur le rrain-té, que des cracks ... and the services. And we need to understand that the government really have got blood on their hands because they've cut back so much, and they are seeing these body bags mounting and not doing anything with it2</t>
+          <t>These things are symptoms of a system that is breaking. We're at a crisis point, and we really need to deal with it. And this is not just policing, other services. And we need to understand that the government really have got blood on their hands because theyve cut back so much, and they are seeing these body bags mounting and not doing anything with it. J'suis dans la qualité niama, ils sont dans la quantité sku Ils ont visé l'Afrique mais manque de bol pour eux, ékoti té shoo Les Chinois, les mundélés, Ba meki biso mais bakokité La rue fait son come-back, les imposteurs vont crier Sauve qui put La be-her nest pas plus fort qu'ailleurs sheesh, j'vous invite à goûter ma weed eh Boycotté par plein de putains comme Franck Ribéry et Karim de Madrid gang Internet a fait dépuceler tous ces p'tits puceaux, merci à la trap et à la drill ba-ba-binks Pour la mama, deux baraques à Kinshasa et pour papa, des comptes aux Maldives ouh Comme Neeskens Kebano, j'suis un crack, ça devient Walking Dead sur les terrains d'crack Si tu veux tirer, bah fais-le vite, conseil gratuit ne nous tes-ra as-p , , si tes pas mort, sheguey, tes dans le coma Elle l'a dans la che-bou, dans le masoko, la petite Hannah a mal à lestomac Braza', Dakar ekip, Kinshasa, Sénégal pétasse Snapchat, Wickr allô, Signal, Telegram brr 2.2.1, 243, 242, que des cracks pétasse 9.2, 9.3 han, sur le rrain-té, que des cracks Braza', Dakar han, Kinshasa, Sénégal ekip Snapchat, Wickr brr, Signal, Telegram 2.2.1, 243 han, 242, que des cracks sku 9.2, 9.3 paw, sur le rrain-té, que des cracks Concu', grillades eh, eh, Dieu avec moi, pas peur des Diables nan Braquage, pillage, envoie les prods, on les gifle comme les Diaz ekip, ekip So le Zaïre, négro, so le Congo han, ekip, ekip, so Jai trop d'enchaînements, négro, j'ai trop de combos sku, sku Corleone, Kozi han, fuck un sataniste comme Ozzy han Extrait, Rosine, dans le jeu, j'vois des doubles et des sosies yah, pah, pah 667, ekip sur les maillots han, ekip, toujours au-dessus comme les Kaio ekip Là pour l'cash comme Chapo et Mayo cash, cash, cash Venin, poison lin, lin, lin, dans l'aqua' comme un poisson han Étranger en mission, Chen Zen, mentalité de poison sku, so, ekip, han Trois points, so le bim, musique anti-Dajjal, so le big han, ekip Rimes tranchantes, negro so le Bic ekip Braza', Dakar han, Kinshasa, Sénégal Snapchat, Wickr brr, Signal, Telegram 2.2.1, 243 han, 242, que des cracks pétasse 9.2, 9.3 paw, sur le rrain-té, que des cracks Braza', Dakar han, Kinshasa, Sénégal Snapchat, Wickr brr, Signal, Telegram allô 2.2.1, 243 han, 242, que des cracks sku 9.2, 9.3 paw, sur le rrain-té, que des cracks ... and the services. And we need to understand that the government really have got blood on their hands because they've cut back so much, and they are seeing these body bags mounting and not doing anything with it2</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip... M.M.S, L.D.O, N.R.M, 6.6.7 C'est la secte pétasse, gaddam 2016 c'est la F.D.T Gaddam, pétasse, ekip Yo, ça fait Chaque jour j'mets la loud dans la snoop J'mets v'la d'sirop dans la soupe J'arrive caca en cabine et dans la soute 1992, dans la trap depuis 2004 Chen Zen, j'ai la dalle, négro Il m'faut comme le salaire de 2000 cadres Gaddem, avec la secte les graille en deux deux comme sept en-cas Tu veux nous signer négro, allonge au moins 700k J'ai la vision, R.E.P Yamborghini So B.2.O, dans la Fe-Fe j'veux la Lamborghini Vrai négro shit, négro so Julo Six ans, j'apprends à chuter, négro so judo O'goshi Négro j'ai trop d'avance, j'vois plus personne dans le rétro Laisse-moi encore un peu d'temps J'te jure que j'prends plus jamais le métro Audio drogue dure, Chen Zen premier sur le crack, fils Sans aucun stress fume le track, fils Ça pue la merde C juste ralenti, j'suis dans le lin Ça m'nique les reins, fuck ça, tranquille j'suis dans le lin You might also like J'roule un gros teh, j'veux peser comme un notaire Gaddamn, peser comme un notaire Argent noir, à fond opère pour récupérer nos terres Pétasse, M.M.S pétasse, gaddamn J'roule un gros teh, j'veux peser comme un notaire Peser comme un notaire Argent noir, à fond opère pour récupérer nos terres Gaddamn, ekip, M.M.S., L.D.O., pétasse J'roule un gros teh, j'veux peser comme un notaire Argent noir, à fond opère pour récupérer nos terres Les graille comme cet en-cas Tu veux nous signer, allonge 700k, ekip 2016 c'est la F.D.T, pétasse En hiver j'écris mes 16 d'été Gaddamn, gaddam,, ekip</t>
+          <t>Ekip, ekip, ekip... M.M.S, L.D.O, N.R.M, 6.6.7 C'est la secte pétasse, gaddam 2016 c'est la F.D.T Gaddam, pétasse, ekip Yo, ça fait Chaque jour j'mets la loud dans la snoop J'mets v'la d'sirop dans la soupe J'arrive caca en cabine et dans la soute 1992, dans la trap depuis 2004 Chen Zen, j'ai la dalle, négro Il m'faut comme le salaire de 2000 cadres Gaddem, avec la secte les graille en deux deux comme sept en-cas Tu veux nous signer négro, allonge au moins 700k J'ai la vision, R.E.P Yamborghini So B.2.O, dans la Fe-Fe j'veux la Lamborghini Vrai négro shit, négro so Julo Six ans, j'apprends à chuter, négro so judo O'goshi Négro j'ai trop d'avance, j'vois plus personne dans le rétro Laisse-moi encore un peu d'temps J'te jure que j'prends plus jamais le métro Audio drogue dure, Chen Zen premier sur le crack, fils Sans aucun stress fume le track, fils Ça pue la merde C juste ralenti, j'suis dans le lin Ça m'nique les reins, fuck ça, tranquille j'suis dans le lin J'roule un gros teh, j'veux peser comme un notaire Gaddamn, peser comme un notaire Argent noir, à fond opère pour récupérer nos terres Pétasse, M.M.S pétasse, gaddamn J'roule un gros teh, j'veux peser comme un notaire Peser comme un notaire Argent noir, à fond opère pour récupérer nos terres Gaddamn, ekip, M.M.S., L.D.O., pétasse J'roule un gros teh, j'veux peser comme un notaire Argent noir, à fond opère pour récupérer nos terres Les graille comme cet en-cas Tu veux nous signer, allonge 700k, ekip 2016 c'est la F.D.T, pétasse En hiver j'écris mes 16 d'été Gaddamn, gaddam,, ekip</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ahah, ekip ekip, MMS, LDO NRM, 667, pétasse, prof Chen, prof Chen J'sais qu't'écoutes quand j'découpe, fils Quand j't'écoute j'ai l'impression qu'j'm'écoute, fils So Ol' Kainry, Chen Zen J'm'entraîne sous la pluie, j'évite les gouttes, fils Fuck ces fakes, fuck ces bitchs, négro J'arrive comme Ichigo dans Bleach, négro Gaddamn, découpe sans aucun stress, j'ai mon bankai, pétasse Chen Zen aka Luffy, j'ai mon chapeau en paille, pétasse Découpe en haut au moins treize et toi tu fais des entailles pétasse Chen Zen aka le Freeze, j'arrive chinois comme à Shanghai, pétasse Gaddamn, dribble ces négros, j'arrive précis à la Dimitri J'suis la Troisième Guerre, négro t'es qu'une mini-crise Avec le squad, graille du MC à la dibiterie Chen Zen aka l'ouragan, négro t'es qu'une mini-brise J'te conseille vivement d'suivre si t'es dans ma classe J'vois pas d'concu' à part le négro dans ma glace Boulé de noirs et de drogues, LDO dans la place Chen Zen négro, j'suis là pour mettre Dakar dans l'atlas Ceinture noire, j'suis passé maître dans l'exercice J'ai fini l'appel, j'espère que t'as fait tes exercices Fuck la mode, j'suis dans les styles, très très ekip dans l'East Hill J'vois flou j'suis dans les hall j'suis dans l'East Hill J'repense à quand j'ai élaboré l'plan, j'avais la vision, négro 20.17, tu veux la secte, fais belek à l'addition, négro Self-made, on va s'faire tout seul, boy Nan c'est pas pour les MM's, dégage, pousseul boy You might also like Qui l'a invité ? Dites-moi c'que c'fufu fait là Négro j'fume des loud, gaddamn, j'fume des vuvuzelas J'suis dans le Xan, envoie les prod, le kung-fu est là Chen Zen depuis 2010, négro so Sun Tzu, j'ai l'art Qui l'a invité ? Dites-moi c'que c'fufu fait là Négro j'fume des loud, gaddamn, j'fume des vuvuzelas J'suis dans le Xan, envoie les prod, le kung-fu est là Chen Zen depuis 2010, négro so Sun Tzu, j'ai l'art Ekip, ekip, ekip, ekip MMS, LDO, NRM, 667 Prof Chen, prof Chen, pétasse Prof Chen</t>
+          <t>Ahah, ekip ekip, MMS, LDO NRM, 667, pétasse, prof Chen, prof Chen J'sais qu't'écoutes quand j'découpe, fils Quand j't'écoute j'ai l'impression qu'j'm'écoute, fils So Ol' Kainry, Chen Zen J'm'entraîne sous la pluie, j'évite les gouttes, fils Fuck ces fakes, fuck ces bitchs, négro J'arrive comme Ichigo dans Bleach, négro Gaddamn, découpe sans aucun stress, j'ai mon bankai, pétasse Chen Zen aka Luffy, j'ai mon chapeau en paille, pétasse Découpe en haut au moins treize et toi tu fais des entailles pétasse Chen Zen aka le Freeze, j'arrive chinois comme à Shanghai, pétasse Gaddamn, dribble ces négros, j'arrive précis à la Dimitri J'suis la Troisième Guerre, négro t'es qu'une mini-crise Avec le squad, graille du MC à la dibiterie Chen Zen aka l'ouragan, négro t'es qu'une mini-brise J'te conseille vivement d'suivre si t'es dans ma classe J'vois pas d'concu' à part le négro dans ma glace Boulé de noirs et de drogues, LDO dans la place Chen Zen négro, j'suis là pour mettre Dakar dans l'atlas Ceinture noire, j'suis passé maître dans l'exercice J'ai fini l'appel, j'espère que t'as fait tes exercices Fuck la mode, j'suis dans les styles, très très ekip dans l'East Hill J'vois flou j'suis dans les hall j'suis dans l'East Hill J'repense à quand j'ai élaboré l'plan, j'avais la vision, négro 20.17, tu veux la secte, fais belek à l'addition, négro Self-made, on va s'faire tout seul, boy Nan c'est pas pour les MM's, dégage, pousseul boy Qui l'a invité ? Dites-moi c'que c'fufu fait là Négro j'fume des loud, gaddamn, j'fume des vuvuzelas J'suis dans le Xan, envoie les prod, le kung-fu est là Chen Zen depuis 2010, négro so Sun Tzu, j'ai l'art Qui l'a invité ? Dites-moi c'que c'fufu fait là Négro j'fume des loud, gaddamn, j'fume des vuvuzelas J'suis dans le Xan, envoie les prod, le kung-fu est là Chen Zen depuis 2010, négro so Sun Tzu, j'ai l'art Ekip, ekip, ekip, ekip MMS, LDO, NRM, 667 Prof Chen, prof Chen, pétasse Prof Chen</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>And every war since then, beginning with the French Revolution, has been promoted by the Illuminati operating under various names and guises. I say under various names and guises because after the Illuminati was exposed and became too notorious, Weishaupt and his co-conspirators began to operate under various other names. In the United States, immediately after World War 1, they set up what they called the Council on Foreign Relations, commonly referred to as the CFR Tous tes négros sur la touche Tu rappes comme si t'as les flics aux pattes J'te graille despi comme un 1 kilo d'pâtes Débarque sur la prod avec tous mes psychopathes Au microphone, gros le Squad est armé Kaki comme à l'armée, fait des kamehame' Gro-né j't'l'ai dit, je vais pas m'attarder J'mets des crosses à l'arrêt, fallait te préparer T'es perdu comme si t'as quitté la page T'es perdu comme si t'as quitté la page J't'ai dépassé depuis le démarrage Sur toutes les prods négro, je fais des dérapages Skuuurr Grosse cartouche pour pouvoir trouer ta cage Fufu, tu as été la cause de très gros lackages Mes négros sont killus, futés J'suis titulaire indiscuté Ceci est un foutu braquage J'attends juste que tu bouges pour pouvoir te butter Dégage, tu mérites même pas un diss Fufu, ma gauche sur ta face sera l'indice You might also like x2 Furtif comme CFR Ils veulent faire la course, ils ont même pas l'BSR Propagande américaine comme le Roi Dans l'complot comme à BFM Killuminati comme UGK, bitch 667 pour régner dans les sous-terrains Goddamn so Gouap, négro J'arrive dans cette merde avec mes rouleurs tout-terrain Complote dans l'ombre comme le CFR Alleluia on a la vision On a rien d'commun à ces FM Faire ça sans eux est la mission Hein, cognac calumet Consomme j't'envoie sur une autre sphère Gros niaks allumé Contrôle et laisse les choses faire Killu' dans les gestes So à 5.20 et Macson Projet anti-S J'vais pas finir tué par eux comme Jackson Consomme la loud, gratte des essais Fume mon oinj, j'te lâche un P16 Rafale au mic comme un SS Présent pour vider les caizaisses Mon âme quitte de moi que si c'est Dieu Nique finir franc comme Churchill Dans les sous-terrains comme JP2 L'ennemi arrive et je kush chill Fffsshhh fffsshhh ahah En guerre faya fils, armure noire Plus d'Arthur roi OV, so Les Maths du Roi x2 Furtif comme CFR Ils veulent faire la course, ils ont même pas l'BSR Propagande américaine comme le Roi Dans l'complot comme à BFM Killuminati comme UGK, bitch 667 pour régner dans les sous-terrains Goddamn so Gouap, négro J'arrive dans cette merde avec mes rouleurs tout-terrain 667 furtif comme CFR J'me sens comme Walter Lippmann Wing chun sur la prod, Chen Zen Kick comme si j'm'appelais Yip Man Dans l'usine comme les Chinois sont Yeuz bridés comme un Chinois fons' Boycotté comme un Chinois sombre So Sun, fait la guerre comme les Chinois font Tous les jours j'prends d'la hauteur, négro Goddamn, gas consomme Boulé d'essence, j'ai pas d'moteur, négro Chen Zen sur la prod tah l'auteur, négro So à la LDO So au syndicat J'sens plus mes jambes, négro J'crois qu'j'ai fumé trop d'indica, haha Fufu tu nous fais rire J'vois qu'tu crois qu't'es pas S 2015, 667, la LDO Aka Rap Game-Daesh Terroristes noirs comme Boko Goddamn J'veux la Phantom comme Rocko Négro j'ai les crocs comme croco', ekip x4 Furtif comme CFR Ils veulent faire la course, ils ont même pas l'BSR Propagande américaine comme le Roi Dans l'complot comme à BFM Killuminati comme UGK, bitch 667 pour régner dans les sous-terrains Goddamn so Gouap, négro J'arrive dans cette merde avec mes rouleurs tout-terrain</t>
+          <t>And every war since then, beginning with the French Revolution, has been promoted by the Illuminati operating under various names and guises. I say under various names and guises because after the Illuminati was exposed and became too notorious, Weishaupt and his co-conspirators began to operate under various other names. In the United States, immediately after World War 1, they set up what they called the Council on Foreign Relations, commonly referred to as the CFR Tous tes négros sur la touche Tu rappes comme si t'as les flics aux pattes J'te graille despi comme un 1 kilo d'pâtes Débarque sur la prod avec tous mes psychopathes Au microphone, gros le Squad est armé Kaki comme à l'armée, fait des kamehame' Gro-né j't'l'ai dit, je vais pas m'attarder J'mets des crosses à l'arrêt, fallait te préparer T'es perdu comme si t'as quitté la page T'es perdu comme si t'as quitté la page J't'ai dépassé depuis le démarrage Sur toutes les prods négro, je fais des dérapages Skuuurr Grosse cartouche pour pouvoir trouer ta cage Fufu, tu as été la cause de très gros lackages Mes négros sont killus, futés J'suis titulaire indiscuté Ceci est un foutu braquage J'attends juste que tu bouges pour pouvoir te butter Dégage, tu mérites même pas un diss Fufu, ma gauche sur ta face sera l'indice x2 Furtif comme CFR Ils veulent faire la course, ils ont même pas l'BSR Propagande américaine comme le Roi Dans l'complot comme à BFM Killuminati comme UGK, bitch 667 pour régner dans les sous-terrains Goddamn so Gouap, négro J'arrive dans cette merde avec mes rouleurs tout-terrain Complote dans l'ombre comme le CFR Alleluia on a la vision On a rien d'commun à ces FM Faire ça sans eux est la mission Hein, cognac calumet Consomme j't'envoie sur une autre sphère Gros niaks allumé Contrôle et laisse les choses faire Killu' dans les gestes So à 5.20 et Macson Projet anti-S J'vais pas finir tué par eux comme Jackson Consomme la loud, gratte des essais Fume mon oinj, j'te lâche un P16 Rafale au mic comme un SS Présent pour vider les caizaisses Mon âme quitte de moi que si c'est Dieu Nique finir franc comme Churchill Dans les sous-terrains comme JP2 L'ennemi arrive et je kush chill Fffsshhh fffsshhh ahah En guerre faya fils, armure noire Plus d'Arthur roi OV, so Les Maths du Roi x2 Furtif comme CFR Ils veulent faire la course, ils ont même pas l'BSR Propagande américaine comme le Roi Dans l'complot comme à BFM Killuminati comme UGK, bitch 667 pour régner dans les sous-terrains Goddamn so Gouap, négro J'arrive dans cette merde avec mes rouleurs tout-terrain 667 furtif comme CFR J'me sens comme Walter Lippmann Wing chun sur la prod, Chen Zen Kick comme si j'm'appelais Yip Man Dans l'usine comme les Chinois sont Yeuz bridés comme un Chinois fons' Boycotté comme un Chinois sombre So Sun, fait la guerre comme les Chinois font Tous les jours j'prends d'la hauteur, négro Goddamn, gas consomme Boulé d'essence, j'ai pas d'moteur, négro Chen Zen sur la prod tah l'auteur, négro So à la LDO So au syndicat J'sens plus mes jambes, négro J'crois qu'j'ai fumé trop d'indica, haha Fufu tu nous fais rire J'vois qu'tu crois qu't'es pas S 2015, 667, la LDO Aka Rap Game-Daesh Terroristes noirs comme Boko Goddamn J'veux la Phantom comme Rocko Négro j'ai les crocs comme croco', ekip x4 Furtif comme CFR Ils veulent faire la course, ils ont même pas l'BSR Propagande américaine comme le Roi Dans l'complot comme à BFM Killuminati comme UGK, bitch 667 pour régner dans les sous-terrains Goddamn so Gouap, négro J'arrive dans cette merde avec mes rouleurs tout-terrain</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans un Maybach Maybach, Maybach T'fies pas aux apparences un conseil, jamais vu quelqu'un sortir une lame d'un survêt' Tech Pack Tech Pack, Tech Pack Job sans les mains et ses fesses claquent, j'reviens d'Espagne, pas b'soin d'en faire un, j'reste calme j'reste calme, j'reste calme Pas d'cess, c'est pas comme ça qu'on festoie, j'pars au resto, j'rntre en taxi Tesla Tsla, Tesla Dans l'trap, armés comme des forains, comme tu l'fais, on t'fera, y en a pas deux comme moi j'suis formel formel, formel J'zone en ville, j'suis serein, avant l'avion, j'en fais un, j'mets tout, rien n'va à la corbeille à la corbeille, corbeille Y a des vaillants d'Paris à Marseille, double, double six-sept, j'sors l'monstre, me parle plus d'Golf 7 Golf 7, Golf 7 Capo K.P.R.I, Prof Chen, j'cons' depuis trop jeune, j'fume une tour, j'roule la prochaine la prochaine, prochaine J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans une Phantom Phantom, Phantom, Skurt Et négro, tous les jours, faut qu'j'multiplie le contenu du MetaMask et du Phantom Phantom Prof Chen, Top Chef, fume que la top shelf So Money Man, ça fait des sous grâce à la blockchain Smart contract, Ether et Solana, Chen Zen J'suis toujours derrière l'équipe comme Onana Ekip, ekip Corleone, K.P.R.I, soulèvent la prod' comme la BRI, mettez-vous à l'A.B.R.I J'roule une canne si tu t'allumes comme nous, tu canes eh Argent noir depuis 2012, des cryptos ou du cash J'arrive sous lin comme Ralfy la prise J'suis une centrale, vous, pas dix batteries Dix matchs, dix hat trick, Freeze, Kpri, tu cons', c'est Very Bad Trip eh Négro, on glisse sur la prod' comme avec des boards ish Insha'Allah, bientôt j'arrive en baleine avec des bored ekip You might also like J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans un Maybach Maybach, Maybach, Maybach, Maybach, Maybach, Maybach J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans une Phantom Phantom, Phantom, Phantom, Phantom, Phantom, Phantom J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans un Maybach Maybach, Maybach T'fies pas aux apparences un conseil, jamais vu quelqu'un sortir une lame d'un survêt' Tech Pack Tech Pack, Tech Pack J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans une Phantom Phantom, Phantom Et négro, tous les jours, faut qu'j'multiplie le contenu du MetaMask et du Phantom Phantom, Phantom, Phantom, Phantom</t>
+          <t>J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans un Maybach Maybach, Maybach T'fies pas aux apparences un conseil, jamais vu quelqu'un sortir une lame d'un survêt' Tech Pack Tech Pack, Tech Pack Job sans les mains et ses fesses claquent, j'reviens d'Espagne, pas b'soin d'en faire un, j'reste calme j'reste calme, j'reste calme Pas d'cess, c'est pas comme ça qu'on festoie, j'pars au resto, j'rntre en taxi Tesla Tsla, Tesla Dans l'trap, armés comme des forains, comme tu l'fais, on t'fera, y en a pas deux comme moi j'suis formel formel, formel J'zone en ville, j'suis serein, avant l'avion, j'en fais un, j'mets tout, rien n'va à la corbeille à la corbeille, corbeille Y a des vaillants d'Paris à Marseille, double, double six-sept, j'sors l'monstre, me parle plus d'Golf 7 Golf 7, Golf 7 Capo K.P.R.I, Prof Chen, j'cons' depuis trop jeune, j'fume une tour, j'roule la prochaine la prochaine, prochaine J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans une Phantom Phantom, Phantom, Skurt Et négro, tous les jours, faut qu'j'multiplie le contenu du MetaMask et du Phantom Phantom Prof Chen, Top Chef, fume que la top shelf So Money Man, ça fait des sous grâce à la blockchain Smart contract, Ether et Solana, Chen Zen J'suis toujours derrière l'équipe comme Onana Ekip, ekip Corleone, K.P.R.I, soulèvent la prod' comme la BRI, mettez-vous à l'A.B.R.I J'roule une canne si tu t'allumes comme nous, tu canes eh Argent noir depuis 2012, des cryptos ou du cash J'arrive sous lin comme Ralfy la prise J'suis une centrale, vous, pas dix batteries Dix matchs, dix hat trick, Freeze, Kpri, tu cons', c'est Very Bad Trip eh Négro, on glisse sur la prod' comme avec des boards ish Insha'Allah, bientôt j'arrive en baleine avec des bored ekip J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans un Maybach Maybach, Maybach, Maybach, Maybach, Maybach, Maybach J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans une Phantom Phantom, Phantom, Phantom, Phantom, Phantom, Phantom J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans un Maybach Maybach, Maybach T'fies pas aux apparences un conseil, jamais vu quelqu'un sortir une lame d'un survêt' Tech Pack Tech Pack, Tech Pack J'ai plus sommeil, nan, j'me voyais pas sans oseille mais j'me voyais bien dans une Phantom Phantom, Phantom Et négro, tous les jours, faut qu'j'multiplie le contenu du MetaMask et du Phantom Phantom, Phantom, Phantom, Phantom</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Yaxa Music Lou Binks Hahahaha Ekip, ekip, ekip Rekoba J'l'ai vite fait deux-trois fois sur l'côté, raconte à ses copines qu'j'la baise en italique waow Ils ressentent la panique, la mécanique, des échos comme si j'venais rapper dans les Calanques waow So Dubble 6.7, fuck le 17 comme 13 Blo', gang shit Viens pas nous ramener tes biceps ou on les dissèque, la loi du gang shit On va pas lacker comme FBG Duck paw, paw, quatre niggas dans un pick-up poh, poh On connait pas tes mecs impliqués, des kilos, des pochtars dans un sac Eastpak Professeur Chen, jfe, fuck la proc' et l'greffir Viens pas t'coller, pas t'greffer J'suis comme Sadam avec un keffieh C'était bourbier, on s'est défait Lima connait pas la défaite Rajoute des mmes-gra sur la pesette sur la pesette Kichta dans la pocket pocket Casque noir comme un joueur de hockey hockey, tête en l'air quand j'agite le hochet J'évite les ravins, les fauchés j'évite, Roberto si j'ai b'soin d'un gaucher Passe entre les jambes comme Okocha wah, mineur, j'étais fort, so Mozart So dubble 6.7, fuck le 17 comme 13 Blo', gang shit Viens pas nous ramener tes biceps ou on les dissèque, la loi du gang shit Roberto si j'ai b'soin d'un gaucher Passe entre les jambes comme Okocha han, mineur, j'étais fort, so Mozart You might also like Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie sku Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie, les chicots à Ronnie Ekip, ekip, ekip sku Plusieurs banques cash, négro han, j'me sens comme un clavier Kontakt sku Les opps ont v'là d'tox' dans les contacts, j'espère qu't'es prêt si tu viens au contact sku 9.3, 9.4 han, 20-20, c'est toujours code 1.8.7 paw, paw So Kaki OBS, ils marquent pas même en 28 sets sku, haha, e-ekip BMF comme Meech et Southwest han, 'cain-cain comme à South by Southwest paw Depuis p'tit, j'demande à être riche à chaque souhait cash, cash, cash, sku Nuque et cou, négro, j'cause des cassages han, avec ta bitch et elle m'fait des massages pétasse Corps de prods sans vie après mes passages paw Chen Zen, Alpha, Lima, Pedro, on envoie la pure comme à Lima, négro Et j'arrive raciste comme les Français dans les archives INA sku, négro eh, INA, négro D-d-dans l'labo' comme Rick Sanchez, cons' v'là d'essence comme six Sanchez Soupape comme l'ancien Alexis Sanchez, ekip 9.3, 9.4, 20-20, c'est toujours code 1.8.7 So Kaki OBS, ils marquent pas même en 28 sets Chen Zen, Alpha, Lima, Pedro, on envoie la pure comme à Lima, négro Et j'arrive raciste comme les Français dans les archives INA sku, négro Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie sku Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie, les chicots à Ronnie Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie han, sku Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie han, les chicots à Ronnie ekip, ekip1</t>
+          <t>Yaxa Music Lou Binks Hahahaha Ekip, ekip, ekip Rekoba J'l'ai vite fait deux-trois fois sur l'côté, raconte à ses copines qu'j'la baise en italique waow Ils ressentent la panique, la mécanique, des échos comme si j'venais rapper dans les Calanques waow So Dubble 6.7, fuck le 17 comme 13 Blo', gang shit Viens pas nous ramener tes biceps ou on les dissèque, la loi du gang shit On va pas lacker comme FBG Duck paw, paw, quatre niggas dans un pick-up poh, poh On connait pas tes mecs impliqués, des kilos, des pochtars dans un sac Eastpak Professeur Chen, jfe, fuck la proc' et l'greffir Viens pas t'coller, pas t'greffer J'suis comme Sadam avec un keffieh C'était bourbier, on s'est défait Lima connait pas la défaite Rajoute des mmes-gra sur la pesette sur la pesette Kichta dans la pocket pocket Casque noir comme un joueur de hockey hockey, tête en l'air quand j'agite le hochet J'évite les ravins, les fauchés j'évite, Roberto si j'ai b'soin d'un gaucher Passe entre les jambes comme Okocha wah, mineur, j'étais fort, so Mozart So dubble 6.7, fuck le 17 comme 13 Blo', gang shit Viens pas nous ramener tes biceps ou on les dissèque, la loi du gang shit Roberto si j'ai b'soin d'un gaucher Passe entre les jambes comme Okocha han, mineur, j'étais fort, so Mozart Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie sku Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie, les chicots à Ronnie Ekip, ekip, ekip sku Plusieurs banques cash, négro han, j'me sens comme un clavier Kontakt sku Les opps ont v'là d'tox' dans les contacts, j'espère qu't'es prêt si tu viens au contact sku 9.3, 9.4 han, 20-20, c'est toujours code 1.8.7 paw, paw So Kaki OBS, ils marquent pas même en 28 sets sku, haha, e-ekip BMF comme Meech et Southwest han, 'cain-cain comme à South by Southwest paw Depuis p'tit, j'demande à être riche à chaque souhait cash, cash, cash, sku Nuque et cou, négro, j'cause des cassages han, avec ta bitch et elle m'fait des massages pétasse Corps de prods sans vie après mes passages paw Chen Zen, Alpha, Lima, Pedro, on envoie la pure comme à Lima, négro Et j'arrive raciste comme les Français dans les archives INA sku, négro eh, INA, négro D-d-dans l'labo' comme Rick Sanchez, cons' v'là d'essence comme six Sanchez Soupape comme l'ancien Alexis Sanchez, ekip 9.3, 9.4, 20-20, c'est toujours code 1.8.7 So Kaki OBS, ils marquent pas même en 28 sets Chen Zen, Alpha, Lima, Pedro, on envoie la pure comme à Lima, négro Et j'arrive raciste comme les Français dans les archives INA sku, négro Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie sku Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie, les chicots à Ronnie Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie han, sku Les Crips, c'est la police han, les Crips, c'est la police Les Bloods, c'est la mif' sku, les Bloods, c'est la mif' Les chicots à Ronnie han, les chicots à Ronnie ekip, ekip1</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Hein, MMS, LDO, Chen Zen, Dubble, 'Sirus Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Haha, Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Haha, Charlie Charlie Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Cha-Charlie Haha, Charlie Trop faya j'ai cru qu'j'étais Charlie So Trayle On sait pas qui t'es, négro t'es pas squad Mafieux comme Tapie, Chirac et Pasqua On t'connait pas, bitch négro t'es pas squad Yeuz rouge comme Euphon Achète la mixance pour l'euphon Toute la journée, tous les jours Fuck le Rap Game, négro fuck une course de fond Prépare toi à haïr quand tu m'verras À Dakar au calme dans la Lambo', sku Défracté au lean dans la blackmobile Bombarde comme un taximan clando, sku sku 22 piges, jeune supra-nègre Possède vision, négro so Rifa Chen Zen captain dans la défense 93 en vista, so FIFA Au mic pique comme cactus Sans l'Rap et la drogue, négro J'aurais p't'être fait un bail comme Maths sup So Lil B, continue jusqu'à qu'mes Vans s'usent 667, tu connais Black est la mafia Fuck le compas, l'équerre et l'acacia A 30 ans il m'faut Maserati pas d'Dacia Débarque sous substance Def tate tah martien Plusieurs types de drogues J'me sens comme un pharmacien Dubble, 'Sirus, Chen Zen, faya Sans stress dans les chars, lean Trop fonscar, goddamn, négro J'ai cru qu'j'étais Charlie, squah You might also like Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Haha, Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Haha, Charlie Charlie Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Cha-Charlie Haha, Charlie Trop faya j'ai cru qu'j'étais Charlie Négro j'suis payé mais j'taff pas Dans les tranchées comme Skippa, le squad est en guerre Vouloir un haut degré dans les Loges Augmentera l'degré d'la flamme qui t'attend en enfer Tout le monde regarde le leanhead dans le coffee Tussipax dans 7up to-moji Tu sip ou pas, tu es super gole-ri Dans le bando hanté, j'fume du shit trop maudit 2k15 vient péch' ton Actavis fait maison Sip phenergan depuis qu'j'suis un bambin Sirop rouge comme le sang d'un keuf Tellement fonscar j'ai cru qu'j'étais un pantin J'embraye, monte le frein, je rebaisse Poussière en l'air, accélération Nous rattraper tu essaye en vain Laissez Dubble G piloter l'engin Pluie de balles dans le camps adverse A croire qu'j'suis dans l'Apache Tu fais pas partie de ceux qu'on attaque J'ai cru j'étais lie-Char, j'étais trop fonscar Osirus Jack, Freeze Corleone, Dubble L.A. kush, cheese, purple, bubble Fuck ça tu peux appeler GIGN Tu sais l'équipe les ken, c'est pas un immense trubble Tous mes négros positifs aux opiacés Entrainement, aqua' dans les eaux glacées Dans le trou de balle, diable est passé Vous lackez, bombe auditive est déjà placée Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Haha, Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Haha, Charlie Charlie Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Cha-Charlie Haha, Charlie Trop faya j'ai cru qu'j'étais Charlie La weed et la cod' dans les veines Facile les prods on les saigne J'vois que des bitchs qui au micro essayent, haha Cherche-moi comme Ben à Tora Bora J'arrive prendre mes sous J'veux la villa, chiller à Bora-Bora, haha J'suis faya j'ai cru qu'j'étais Charlie Négro, fume comme au Queens , chill dans Ferrari Avec le squad on les plie en quatre Négro j'constate plus d'niveau Déter' comme si j'sortais d'six ans d'cage Baise prod' comme cul d'J-Lo Hein Ken ta go, le Rap en dormant Joue même si les dés sont pipés Lambo', Fé-fé, câbles en or blanc Hein hein, hein Négro ça cons' et on brouille les pistes Squad MMS, rien qu'on roule les shits Ça cherche lie-Char, négro où est-il ? Haha, blunt comme un blood Négro ça chill, lean comme à Dakar Laisse des traces comme un gun La Ligue des Ombres, on vesqui les radars Haha La nouvelle sauce, gros, on fout la mort Tout est mauve Dans l'cup débarque sous la cod' Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Haha, Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Haha, Charlie Charlie Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Cha-Charlie Haha, Charlie Trop faya j'ai cru qu'j'étais Charlie1</t>
+          <t>Hein, MMS, LDO, Chen Zen, Dubble, 'Sirus Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Haha, Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Haha, Charlie Charlie Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Cha-Charlie Haha, Charlie Trop faya j'ai cru qu'j'étais Charlie So Trayle On sait pas qui t'es, négro t'es pas squad Mafieux comme Tapie, Chirac et Pasqua On t'connait pas, bitch négro t'es pas squad Yeuz rouge comme Euphon Achète la mixance pour l'euphon Toute la journée, tous les jours Fuck le Rap Game, négro fuck une course de fond Prépare toi à haïr quand tu m'verras À Dakar au calme dans la Lambo', sku Défracté au lean dans la blackmobile Bombarde comme un taximan clando, sku sku 22 piges, jeune supra-nègre Possède vision, négro so Rifa Chen Zen captain dans la défense 93 en vista, so FIFA Au mic pique comme cactus Sans l'Rap et la drogue, négro J'aurais p't'être fait un bail comme Maths sup So Lil B, continue jusqu'à qu'mes Vans s'usent 667, tu connais Black est la mafia Fuck le compas, l'équerre et l'acacia A 30 ans il m'faut Maserati pas d'Dacia Débarque sous substance Def tate tah martien Plusieurs types de drogues J'me sens comme un pharmacien Dubble, 'Sirus, Chen Zen, faya Sans stress dans les chars, lean Trop fonscar, goddamn, négro J'ai cru qu'j'étais Charlie, squah Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Haha, Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Haha, Charlie Charlie Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Cha-Charlie Haha, Charlie Trop faya j'ai cru qu'j'étais Charlie Négro j'suis payé mais j'taff pas Dans les tranchées comme Skippa, le squad est en guerre Vouloir un haut degré dans les Loges Augmentera l'degré d'la flamme qui t'attend en enfer Tout le monde regarde le leanhead dans le coffee Tussipax dans 7up to-moji Tu sip ou pas, tu es super gole-ri Dans le bando hanté, j'fume du shit trop maudit 2k15 vient péch' ton Actavis fait maison Sip phenergan depuis qu'j'suis un bambin Sirop rouge comme le sang d'un keuf Tellement fonscar j'ai cru qu'j'étais un pantin J'embraye, monte le frein, je rebaisse Poussière en l'air, accélération Nous rattraper tu essaye en vain Laissez Dubble G piloter l'engin Pluie de balles dans le camps adverse A croire qu'j'suis dans l'Apache Tu fais pas partie de ceux qu'on attaque J'ai cru j'étais lie-Char, j'étais trop fonscar Osirus Jack, Freeze Corleone, Dubble L.A. kush, cheese, purple, bubble Fuck ça tu peux appeler GIGN Tu sais l'équipe les ken, c'est pas un immense trubble Tous mes négros positifs aux opiacés Entrainement, aqua' dans les eaux glacées Dans le trou de balle, diable est passé Vous lackez, bombe auditive est déjà placée Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Haha, Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Haha, Charlie Charlie Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Cha-Charlie Haha, Charlie Trop faya j'ai cru qu'j'étais Charlie La weed et la cod' dans les veines Facile les prods on les saigne J'vois que des bitchs qui au micro essayent, haha Cherche-moi comme Ben à Tora Bora J'arrive prendre mes sous J'veux la villa, chiller à Bora-Bora, haha J'suis faya j'ai cru qu'j'étais Charlie Négro, fume comme au Queens , chill dans Ferrari Avec le squad on les plie en quatre Négro j'constate plus d'niveau Déter' comme si j'sortais d'six ans d'cage Baise prod' comme cul d'J-Lo Hein Ken ta go, le Rap en dormant Joue même si les dés sont pipés Lambo', Fé-fé, câbles en or blanc Hein hein, hein Négro ça cons' et on brouille les pistes Squad MMS, rien qu'on roule les shits Ça cherche lie-Char, négro où est-il ? Haha, blunt comme un blood Négro ça chill, lean comme à Dakar Laisse des traces comme un gun La Ligue des Ombres, on vesqui les radars Haha La nouvelle sauce, gros, on fout la mort Tout est mauve Dans l'cup débarque sous la cod' Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Haha, Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop fonsdé j'ai cru qu'j'étais Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Haha, Charlie Charlie Charlie Trop faya j'ai cru qu'j'étais Charlie Charlie Cha-Charlie Haha, Charlie Trop faya j'ai cru qu'j'étais Charlie1</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Skrt skrt Skrt skrt So 21 Gang, Savage, gaddamn, ekip Skrt skrt, so 21 Chen Zen dans l'milieu comme numéro 21 Négro, j'attends l'projet Blue Beam 23 piges, j'ai la dalle, négro, j'veux les sous d'beIN Pétasse, t'es sur de toi mais fais belek On va t'couper l'courant, fils, comme la Senelec Si tu m'cherches, négro, trouve-moi tout en haut Pyramide inversée, fin du jeu quand les sous arrivent tout en haut, pétasse Technique de découpe de boucher, graille la concu' comme deux bouchées Vise ta tête, calcule la force de Coriolis, négro, juste pour te toucher Fuck le rap game, fuck l'industrie, négro, j'suis avec Ady dans l'usine, j'suis dans l'industrie, négro J'ai jamais été aussi fons', so aux Lexo's Prof Chen, j'arrive, j'espère qu'vous avez fait vos exos Tu peux pas test nos technologies nan, nan Nan, tu peux pas test nos technologies, gaddamn Fuck négro, j'te vois comme Caitlyn, refroidis la salle comme sept clim' Chen Zen, dans la cuisine, coupe le cake clean So kaki, 667, Real Madrid, boy, LDO virus comme la grippe, boy J'arrive comme le jeune Tom, toi comme Hagrid, boy J'vois qu'tu crois qu't'es G, négro, j'te vois comme un dîner, gros J'crois qu'en Dieu mais belek à mes djinns, négro FUT 16 en ligne, j'suis dans la saison Négro, j'suis dans le piège, j'suis dans la maison, gaddamn You might also like NRM progresse tout seul comme la pollution Jeune chimiste, négro, j'mets v'la d'euphon dans la solution NRM progresse tout seul comme la pollution Jeune chimiste, j'mets v'la d'euphon dans la solution Pétasse, ekip ekip ekip MMS, LDO, NRM, 667 C'est la secte, pétasse J'ai les yeux rouges c'est la sep, pétasse Nazi dans l'Audi A7, pétasse Ekip ekip ekip Skrt skrt x3</t>
+          <t>Skrt skrt Skrt skrt So 21 Gang, Savage, gaddamn, ekip Skrt skrt, so 21 Chen Zen dans l'milieu comme numéro 21 Négro, j'attends l'projet Blue Beam 23 piges, j'ai la dalle, négro, j'veux les sous d'beIN Pétasse, t'es sur de toi mais fais belek On va t'couper l'courant, fils, comme la Senelec Si tu m'cherches, négro, trouve-moi tout en haut Pyramide inversée, fin du jeu quand les sous arrivent tout en haut, pétasse Technique de découpe de boucher, graille la concu' comme deux bouchées Vise ta tête, calcule la force de Coriolis, négro, juste pour te toucher Fuck le rap game, fuck l'industrie, négro, j'suis avec Ady dans l'usine, j'suis dans l'industrie, négro J'ai jamais été aussi fons', so aux Lexo's Prof Chen, j'arrive, j'espère qu'vous avez fait vos exos Tu peux pas test nos technologies nan, nan Nan, tu peux pas test nos technologies, gaddamn Fuck négro, j'te vois comme Caitlyn, refroidis la salle comme sept clim' Chen Zen, dans la cuisine, coupe le cake clean So kaki, 667, Real Madrid, boy, LDO virus comme la grippe, boy J'arrive comme le jeune Tom, toi comme Hagrid, boy J'vois qu'tu crois qu't'es G, négro, j'te vois comme un dîner, gros J'crois qu'en Dieu mais belek à mes djinns, négro FUT 16 en ligne, j'suis dans la saison Négro, j'suis dans le piège, j'suis dans la maison, gaddamn NRM progresse tout seul comme la pollution Jeune chimiste, négro, j'mets v'la d'euphon dans la solution NRM progresse tout seul comme la pollution Jeune chimiste, j'mets v'la d'euphon dans la solution Pétasse, ekip ekip ekip MMS, LDO, NRM, 667 C'est la secte, pétasse J'ai les yeux rouges c'est la sep, pétasse Nazi dans l'Audi A7, pétasse Ekip ekip ekip Skrt skrt x3</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Squa' So le Flem, han O.B.S Back to the Future Back to the Future Général des Bandit Saleté Squa', eyy J'veux finir riche et remplir mon keus, ils lackent comme le Morpheus, ils sont morts ce s' Squad Un vaisseau qui ouvre la route, y a trois 9 et les caches sont dans la soute, sois deus Woo Réceptionne le colis, c'est miné par ici, à Paris si tu lackes on t'met une fiche Et la mafia ne pardonne jamais l'ennemi Oui, fais ton boulot ou on t'élimine Pah, pah Tes gars sont touchés, ils font que d'jactr Woo, mais tout le monde sait qui est qui Est qui Quand faut y allr qui v'-esqui V'-esqui, fais ton boulot, négro, fais pas de bruit Pas de bruit O.B.S, chouf un black sous l'foulard Brr, j'ai les blindages qui vient pas d'Poudlard On t'a soupape, t'as voulu nous gué-lar Sku, j'ai la mentale d'un nazi sale bâtard regard froid comme en Iraq, so le Freeze, ça lack pas comme à Chiraq Trouve-moi bre-som dans la Black Phantom, ça brille de partout et y a v'là d'fantômes Rrah J'claque du gent-ar sur la Place-Vendôme Rrah, chargeur camembert, c'est réel bonhomme Comme Bambi', le gangster est gentleman, hey, j'suis venu graille ma somme Hey, 6.6.7 ekip, pourquoi tu paniques ? On a mis tous nos ennemis en panique On est là depuis comme la grande pyramide, 6.6.7 ekip comme l'empire britannique J'arrive masqué comme un Touareg, on t'élimine dans un Jeep ou un Touareg On aime les armes comme si on venait de Juárez, Freeze, Black Jack, c'est comme Messi et Suárez Hey, 6.6.7 ekip, pourquoi tu paniques ? On a mis tous nos ennemis en panique On est là depuis comme la grande pyramide, 6.6.7 ekip comme l'empire britannique J'arrive masqué comme un Touareg, on t'élimine dans un Jeep ou un Touareg On aime les armes comme si on venait de Juárez, Freeze, Black Jack, c'est comme Messi et Suárez You might also like Long chargeur, laser vert, poignée ergo' Fa, fa, fa, j'arrive Chicago comme G-Herbo J'mets des step-back 3, ils mettent des airballs Swish, lin et xan, j'marche comme si j'étais Verbal Lin Moi comme de l'or, vous, de l'alu' Ah-ah, 6.6.7, ekip comme le palu' 6.6.7, ekip Grosse fusée, négro, faut qu'je l'allume Ftt, ftt, j'suis dans la station proche de la Lune Han On est là grâce à la patience, à la passion Ekip, j'avance à contre-courant mais j'fais pas d'la natation Nan Vrai négro du lundi au dimanche Toujours, faut les wallets du CEO de Binance Cash Corleone, Black Jack OBS Han, fuck Yves-Saint-Laurent, Balenciaga et Marc Jacobs En face, j'les fais flancher, l'attaque des clones est déclenchée Faut qu'j'remplisse les murs et les planchers Cash, cash, cash On achète des B.M et des Audi Sku, so Despo, fuck eux, c'est des maudits Ekip J'ai des familles qui m'haïssent, des amis qui m'trahissent, j'les vois p'tits comme des épis d'maïs Petit Négro, faut le C.A à Atari Cash, impose le N.R.M de Dakar à Paris Hey, 6.6.7 ekip, pourquoi tu paniques ? On a mis tous nos ennemis en panique On est là depuis comme la grande pyramide, 6.6.7 ekip comme l'empire britannique J'arrive masqué comme un Touareg, on t'élimine dans un Jeep ou un Touareg On aime les armes comme si on venait de Juárez, Freeze, Black Jack, c'est comme Messi et Suárez Hey, 6.6.7 ekip, pourquoi tu paniques ? On a mis tous nos ennemis en panique On est là depuis comme la grande pyramide, 6.6.7 ekip comme l'empire britannique J'arrive masqué comme un Touareg, on t'élimine dans un Jeep ou un Touareg On aime les armes comme si on venait de Juárez, Freeze, Black Jack, c'est comme Messi et Suárez</t>
+          <t>Squa' So le Flem, han O.B.S Back to the Future Back to the Future Général des Bandit Saleté Squa', eyy J'veux finir riche et remplir mon keus, ils lackent comme le Morpheus, ils sont morts ce s' Squad Un vaisseau qui ouvre la route, y a trois 9 et les caches sont dans la soute, sois deus Woo Réceptionne le colis, c'est miné par ici, à Paris si tu lackes on t'met une fiche Et la mafia ne pardonne jamais l'ennemi Oui, fais ton boulot ou on t'élimine Pah, pah Tes gars sont touchés, ils font que d'jactr Woo, mais tout le monde sait qui est qui Est qui Quand faut y allr qui v'-esqui V'-esqui, fais ton boulot, négro, fais pas de bruit Pas de bruit O.B.S, chouf un black sous l'foulard Brr, j'ai les blindages qui vient pas d'Poudlard On t'a soupape, t'as voulu nous gué-lar Sku, j'ai la mentale d'un nazi sale bâtard regard froid comme en Iraq, so le Freeze, ça lack pas comme à Chiraq Trouve-moi bre-som dans la Black Phantom, ça brille de partout et y a v'là d'fantômes Rrah J'claque du gent-ar sur la Place-Vendôme Rrah, chargeur camembert, c'est réel bonhomme Comme Bambi', le gangster est gentleman, hey, j'suis venu graille ma somme Hey, 6.6.7 ekip, pourquoi tu paniques ? On a mis tous nos ennemis en panique On est là depuis comme la grande pyramide, 6.6.7 ekip comme l'empire britannique J'arrive masqué comme un Touareg, on t'élimine dans un Jeep ou un Touareg On aime les armes comme si on venait de Juárez, Freeze, Black Jack, c'est comme Messi et Suárez Hey, 6.6.7 ekip, pourquoi tu paniques ? On a mis tous nos ennemis en panique On est là depuis comme la grande pyramide, 6.6.7 ekip comme l'empire britannique J'arrive masqué comme un Touareg, on t'élimine dans un Jeep ou un Touareg On aime les armes comme si on venait de Juárez, Freeze, Black Jack, c'est comme Messi et Suárez Long chargeur, laser vert, poignée ergo' Fa, fa, fa, j'arrive Chicago comme G-Herbo J'mets des step-back 3, ils mettent des airballs Swish, lin et xan, j'marche comme si j'étais Verbal Lin Moi comme de l'or, vous, de l'alu' Ah-ah, 6.6.7, ekip comme le palu' 6.6.7, ekip Grosse fusée, négro, faut qu'je l'allume Ftt, ftt, j'suis dans la station proche de la Lune Han On est là grâce à la patience, à la passion Ekip, j'avance à contre-courant mais j'fais pas d'la natation Nan Vrai négro du lundi au dimanche Toujours, faut les wallets du CEO de Binance Cash Corleone, Black Jack OBS Han, fuck Yves-Saint-Laurent, Balenciaga et Marc Jacobs En face, j'les fais flancher, l'attaque des clones est déclenchée Faut qu'j'remplisse les murs et les planchers Cash, cash, cash On achète des B.M et des Audi Sku, so Despo, fuck eux, c'est des maudits Ekip J'ai des familles qui m'haïssent, des amis qui m'trahissent, j'les vois p'tits comme des épis d'maïs Petit Négro, faut le C.A à Atari Cash, impose le N.R.M de Dakar à Paris Hey, 6.6.7 ekip, pourquoi tu paniques ? On a mis tous nos ennemis en panique On est là depuis comme la grande pyramide, 6.6.7 ekip comme l'empire britannique J'arrive masqué comme un Touareg, on t'élimine dans un Jeep ou un Touareg On aime les armes comme si on venait de Juárez, Freeze, Black Jack, c'est comme Messi et Suárez Hey, 6.6.7 ekip, pourquoi tu paniques ? On a mis tous nos ennemis en panique On est là depuis comme la grande pyramide, 6.6.7 ekip comme l'empire britannique J'arrive masqué comme un Touareg, on t'élimine dans un Jeep ou un Touareg On aime les armes comme si on venait de Juárez, Freeze, Black Jack, c'est comme Messi et Suárez</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Oh my godSo Le Flem Eh, O.V Squa D.O.C, Chen DKR on lock, le dos est large comme Lesnar Brock Brr F.L.R.G font R, sont broke Qqua, trouve-moi dans les tunnels, j'encaisse sans-faute Dans la surface, on les sèche sans-faute facile, pour les prods, j'ai pire que les pièges dans Saw Han Chen et le Doc, le Roll et le Pop Ekip, pétasse, 667, ekip, bientôt le DVD et le doc' 667, nouveau fléau, chaque jour remercie l'Très-Haut Han, pah Vrai négro depuis l'préau Han, so mes B.O, so mes V.O Eh, ekip Fait monter la barre, on réhausse, j'fais quatre fois plus de biff qu'ta prof' de géo' Au mic', j'ai les cross de A.O, faut quatre fois plus de biff que le boss de Léo Cash, cash So Sacré-Cur, mais pas à Paris Nah, à la maison, j'ai l'arbalète à Daryl Filtré trois fois ou static Brr, ça varie, deux crochets, j'lui ai enlevé sa carie Gauche Négro, on lack pas sur les deals Nan, pétasse, il faut des villas sur les îles Cash Des billets d'mille qui s'empilent Pah, s'ils veulent nous tek deal, on les drill Squa Faut qu'j'empile les billets d'mille, faut qu'j'empile les billets d'mille Faut qu'j'empile les billets d'mille, faut qu'j'empile les billets d'mille Cash, cash, cash Faut qu'j'empile les billets d'mille, la trap, ça use, boy, faut les kil' Ça va trop vite, on compte plus les kills, faudra l'cardio' s'ils veulent garder le fil Squa Faut qu'j'empile les billets d'mille' Brr, faut qu'j'empile les billets d'mille Cash Faut qu'j'empile les billets d'mille Swish, faut qu'j'empile les billets d'mille Brr Faut qu'j'empile les billets d'mille, la trap, ça use, boy, faut les kil' Ça va trop vite, on compte plus les kills, faudra l'cardio' s'ils veulent garder le fil You might also like Big cap, ils font pas d'dough Brr, à Sac' 3, il m'faut un Audi quatre pots C'est vert dans c'game, on fait pas d'cadeau, pour rouler ton teh, prends ton plateau Han No cap, chez nous, que des capos Han, à Dakar avec v'là d'chevaux sous les capots Sku, sku Dans la drill depuis longtemps, R.E.P Capo Han, 667 sur les chapeaux et les drapeaux Eh, ekip So La Chaux-de-Fonds, so BiZZBiFF, négro organisé, tu peux pas sip OVG dans ta ville pour les big bills Brr, big passe dé', big deal So BiZZBiFF, j'aime les bizz vifs Cash, cash, encaisser du cash, négro, prendre des biffes, vite Cash Freeze Corleone avec le Doc OVG, trouve-nous dans l'trafic comme Lil Reese et Chief Keef Sku On a pris des risques avant d'vendre des disques Squa, F.L.F, bitchies, sur eux, on pisse Paw F.L.F bitch, c'est eux qu'on vise, j'suis focus dans ma tête, j'ai que mon bizz Cash Faut un garage plein, deux fois plus de sous que l'pape, on les fouette dans c'rap Pah On les fouette dans c'rap Han, sans paillettes, sans strasses Han, le travail est bien fait sans traces, pétasse Faut qu'j'empile les billets d'mille, faut qu'j'empile les billets d'mille Faut qu'j'empile les billets d'mille, faut qu'j'empile les billets d'mille Cash, cash, cash Faut qu'j'empile les billets d'mille, la trap, ça use, boy, faut les kil' Ça va trop vite, on compte plus les kills, faudra l'cardio' s'ils veulent garder le fil Squa Faut qu'j'empile les billets d'mille' Brr, faut qu'j'empile les billets d'mille Cash Faut qu'j'empile les billets d'mille Swish, faut qu'j'empile les billets d'mille Brr Faut qu'j'empile les billets d'mille, la trap, ça use, boy, faut les kil' Ça va trop vite, on compte plus les kills, faudra l'cardio' s'ils veulent garder le fil4</t>
+          <t>Oh my godSo Le Flem Eh, O.V Squa D.O.C, Chen DKR on lock, le dos est large comme Lesnar Brock Brr F.L.R.G font R, sont broke Qqua, trouve-moi dans les tunnels, j'encaisse sans-faute Dans la surface, on les sèche sans-faute facile, pour les prods, j'ai pire que les pièges dans Saw Han Chen et le Doc, le Roll et le Pop Ekip, pétasse, 667, ekip, bientôt le DVD et le doc' 667, nouveau fléau, chaque jour remercie l'Très-Haut Han, pah Vrai négro depuis l'préau Han, so mes B.O, so mes V.O Eh, ekip Fait monter la barre, on réhausse, j'fais quatre fois plus de biff qu'ta prof' de géo' Au mic', j'ai les cross de A.O, faut quatre fois plus de biff que le boss de Léo Cash, cash So Sacré-Cur, mais pas à Paris Nah, à la maison, j'ai l'arbalète à Daryl Filtré trois fois ou static Brr, ça varie, deux crochets, j'lui ai enlevé sa carie Gauche Négro, on lack pas sur les deals Nan, pétasse, il faut des villas sur les îles Cash Des billets d'mille qui s'empilent Pah, s'ils veulent nous tek deal, on les drill Squa Faut qu'j'empile les billets d'mille, faut qu'j'empile les billets d'mille Faut qu'j'empile les billets d'mille, faut qu'j'empile les billets d'mille Cash, cash, cash Faut qu'j'empile les billets d'mille, la trap, ça use, boy, faut les kil' Ça va trop vite, on compte plus les kills, faudra l'cardio' s'ils veulent garder le fil Squa Faut qu'j'empile les billets d'mille' Brr, faut qu'j'empile les billets d'mille Cash Faut qu'j'empile les billets d'mille Swish, faut qu'j'empile les billets d'mille Brr Faut qu'j'empile les billets d'mille, la trap, ça use, boy, faut les kil' Ça va trop vite, on compte plus les kills, faudra l'cardio' s'ils veulent garder le fil Big cap, ils font pas d'dough Brr, à Sac' 3, il m'faut un Audi quatre pots C'est vert dans c'game, on fait pas d'cadeau, pour rouler ton teh, prends ton plateau Han No cap, chez nous, que des capos Han, à Dakar avec v'là d'chevaux sous les capots Sku, sku Dans la drill depuis longtemps, R.E.P Capo Han, 667 sur les chapeaux et les drapeaux Eh, ekip So La Chaux-de-Fonds, so BiZZBiFF, négro organisé, tu peux pas sip OVG dans ta ville pour les big bills Brr, big passe dé', big deal So BiZZBiFF, j'aime les bizz vifs Cash, cash, encaisser du cash, négro, prendre des biffes, vite Cash Freeze Corleone avec le Doc OVG, trouve-nous dans l'trafic comme Lil Reese et Chief Keef Sku On a pris des risques avant d'vendre des disques Squa, F.L.F, bitchies, sur eux, on pisse Paw F.L.F bitch, c'est eux qu'on vise, j'suis focus dans ma tête, j'ai que mon bizz Cash Faut un garage plein, deux fois plus de sous que l'pape, on les fouette dans c'rap Pah On les fouette dans c'rap Han, sans paillettes, sans strasses Han, le travail est bien fait sans traces, pétasse Faut qu'j'empile les billets d'mille, faut qu'j'empile les billets d'mille Faut qu'j'empile les billets d'mille, faut qu'j'empile les billets d'mille Cash, cash, cash Faut qu'j'empile les billets d'mille, la trap, ça use, boy, faut les kil' Ça va trop vite, on compte plus les kills, faudra l'cardio' s'ils veulent garder le fil Squa Faut qu'j'empile les billets d'mille' Brr, faut qu'j'empile les billets d'mille Cash Faut qu'j'empile les billets d'mille Swish, faut qu'j'empile les billets d'mille Brr Faut qu'j'empile les billets d'mille, la trap, ça use, boy, faut les kil' Ça va trop vite, on compte plus les kills, faudra l'cardio' s'ils veulent garder le fil4</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Rrah, skelay gang, rrah Deux cup remplies avec v'là de lin Laylay pan, le-lean, le-lean pan Deux cup remplies avec v'là de lin Rrah, ekip, ekip, ekip 2 cup, remplies avec v'là de lin, damn R.E.P Fredo Santana 2 cup, remplies avec v'la de lin lin, lin J'sens plus mon visage comme Juelz Santana So Gouap depuis les bas-fonds ekip, maintenant, faut que les briques touchent les plafonds cash J'préfère toucher l'fr qu'pousser la fonte, la popance, c'st sûr comme la fin ou la fonte Lunettes Cartier j'arrive trop Detroit, crosse ces négros comme Rozier III Continental, Phantom, Maybach, dans 10 ans, inch'Allah il m'faut les trois J'suis dans la cuisine, ma femme connait sa place Dans mes veines j'ai de la glace Euro-Step comme Giannis, parle money comme Yanis J'ai les packs, par jour, j'bois au moins deux Mont-Roucous Des Phener', des ballons, et le puto m'fait rire comme un Jean Roucas Si faya j'menvole comme un gros Roucoups, dégage de Lyon comme un Jean Lucas Tu peux demander, y'aura pas de recrues, faut des italiennes comme Gianluca Faut les Pirellis, vroum vroum J'dégaine Renetti, boom boom You might also like Big Freeze, Big Gouapo ekip, faut les dernières Ferrari 3 pots sku Yeuz bridés comme si j'ai fumé trois pots J'arrive ATL comme Jose Guapo J'fume le x3, j'fume la Kimber Billy shh, lin, lin Backwoods, Swishers, Phillies, concu', on les graille comme des Kinders Minis han Chen Zen aka Davis Maclean, audio dope, on les blesse avec chaque ligne Fuck le FBI comme Charlie Chaplin Pharmacies de garde, ça pull up avec v'la d'lean So Mano, Cali dans le baggy Ice-o-lator, ça parle encore de paki Négro grave cain-cain depuis le baggy Quand j'kicke sur la prod' j'ai la force de Baki Et j'ai les techniques de Jackie Jackie Et celles de Michel et Jacquie Jackie Et toujours dehors on met les cocos Et j'suis sectaire comme un Boko Fidèle à l'équipe comme à Boca Junior, et même si ma gow veut pas, j'vais appeler mon fils Junior Freeze et moi ça fait combien d'années qu'on sait déjà qu'ils sont condamnés ? On sait déjà qu'ils sont condamnés, Lyonzon, 667 les contamine Comme nous négro tu peux pas le faire, nous On joue la gagne, connait pas le fairplay On joue la gagne, connait pas le fairplay Et quand on arrose, on parle pas de spray nous Jackie, Jackie, Jackie, yeuz plissés comme Jackie Jackie, Jackie, et j'ai les techniques de Jackie, et celles de Michel et Jacquie Jackie, Jackie, Jackie, yeuz plissés comme Jackie Jackie, Jackie, et j'ai les techniques de Jackie, et celles de Michel et Jacquie</t>
+          <t>Rrah, skelay gang, rrah Deux cup remplies avec v'là de lin Laylay pan, le-lean, le-lean pan Deux cup remplies avec v'là de lin Rrah, ekip, ekip, ekip 2 cup, remplies avec v'là de lin, damn R.E.P Fredo Santana 2 cup, remplies avec v'la de lin lin, lin J'sens plus mon visage comme Juelz Santana So Gouap depuis les bas-fonds ekip, maintenant, faut que les briques touchent les plafonds cash J'préfère toucher l'fr qu'pousser la fonte, la popance, c'st sûr comme la fin ou la fonte Lunettes Cartier j'arrive trop Detroit, crosse ces négros comme Rozier III Continental, Phantom, Maybach, dans 10 ans, inch'Allah il m'faut les trois J'suis dans la cuisine, ma femme connait sa place Dans mes veines j'ai de la glace Euro-Step comme Giannis, parle money comme Yanis J'ai les packs, par jour, j'bois au moins deux Mont-Roucous Des Phener', des ballons, et le puto m'fait rire comme un Jean Roucas Si faya j'menvole comme un gros Roucoups, dégage de Lyon comme un Jean Lucas Tu peux demander, y'aura pas de recrues, faut des italiennes comme Gianluca Faut les Pirellis, vroum vroum J'dégaine Renetti, boom boom Big Freeze, Big Gouapo ekip, faut les dernières Ferrari 3 pots sku Yeuz bridés comme si j'ai fumé trois pots J'arrive ATL comme Jose Guapo J'fume le x3, j'fume la Kimber Billy shh, lin, lin Backwoods, Swishers, Phillies, concu', on les graille comme des Kinders Minis han Chen Zen aka Davis Maclean, audio dope, on les blesse avec chaque ligne Fuck le FBI comme Charlie Chaplin Pharmacies de garde, ça pull up avec v'la d'lean So Mano, Cali dans le baggy Ice-o-lator, ça parle encore de paki Négro grave cain-cain depuis le baggy Quand j'kicke sur la prod' j'ai la force de Baki Et j'ai les techniques de Jackie Jackie Et celles de Michel et Jacquie Jackie Et toujours dehors on met les cocos Et j'suis sectaire comme un Boko Fidèle à l'équipe comme à Boca Junior, et même si ma gow veut pas, j'vais appeler mon fils Junior Freeze et moi ça fait combien d'années qu'on sait déjà qu'ils sont condamnés ? On sait déjà qu'ils sont condamnés, Lyonzon, 667 les contamine Comme nous négro tu peux pas le faire, nous On joue la gagne, connait pas le fairplay On joue la gagne, connait pas le fairplay Et quand on arrose, on parle pas de spray nous Jackie, Jackie, Jackie, yeuz plissés comme Jackie Jackie, Jackie, et j'ai les techniques de Jackie, et celles de Michel et Jacquie Jackie, Jackie, Jackie, yeuz plissés comme Jackie Jackie, Jackie, et j'ai les techniques de Jackie, et celles de Michel et Jacquie</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>OhMyGod So le Flem Ekip, ekip, ekip, han Han Ekip, ekip On les fume comme des sacs de gas C'est pas d'la science des fusées, c'est des maths de base Eh Appelle-nous si tu veux des packs de basses Han V'là d'ice, il faut des bacs de glace Ice Ils vendent leur âme pour faire plus de ventes Ah ouais ? Faut plus de sous parce qu'y a plus de ventrs Cash Négro, so le big Richie, c'est au sommt qu'y a le plus de vent Ekip On les fume comme des sacs de gas C'est pas d'la science des fusées, c'est des maths de base Eh Appelle-nous si tu veux des packs de basses V'là d'ice, il faut des bacs de glace Ice Ils vendent leur âme pour faire plus de ventes Han Faut plus de sous parce qu'y a plus de ventres Cash, cash Négro, so le big Richie, c'est au sommet qu'y a le plus de vent Ekip Han J'ai les passes de Brady, MangeMortSquad sur les cartes de crédits, c'est moi dans les cauchemars de Freddy Ah-ah Ouais Ekip, ekip, ekip Audio-crack de ouf Crack, cuisine des tracks de ouf Han, industries on les braque de ouf Quand j'marque, j'entends plus rien comme Depay Il t'faut des gardes du corps, il m'faut des hommes de paille Han J'ai les yeuz l'inverse d'écarquillés, chaque seize, des membres de prod éparpillés J'arrive en terro', graine d'arbre argent dans l'terreau, Shoka' Fentanyl dans l'héro' Que des headshots avec le SPR, à Dakar, faut l'Q8 et le SVR Sku, sku J'appelle Johnny Dang si j'dois faire des grillz Han, jamais d'ma vie j'fais d'la jersey drill Jamais J'viens poser la bombe comme dans Counter-Strike Ah-ah, j'aime bien les cadrans couleur Sprite Ice Au mic', découpe comme si j'étais pas humain, liasse balaise, j'peux pas la tenir à une main Cash J'mets la lucarne avec l'exter' Piou, ça cherche des mic-mac avec l'expert, ekip You might also like Sénégal, négro, j'envoie les sous là-bas Cash, cash, cash, cash Gros tacle, c'est la faute ou la balle Eh J'suis Ronaldo, t'es Clauss Han Pour la cause, gratos, j'm'explose Gratuit Audio-crack, faut les doses Crack J'peux pas signer ça à cause des clauses On les fume comme des sacs de gas C'est pas d'la science des fusées, c'est des maths de base Eh Appelle-nous si tu veux des packs de basses Han V'là d'ice, il faut des bacs de glace Ice Ils vendent leur âme pour faire plus de ventes Ah ouais ? Faut plus de sous parce qu'y a plus de ventres Cash Négro, so le big Richie, c'est au sommet qu'y a le plus de vent Ekip On les fume comme des sacs de gas C'est pas d'la science des fusées, c'est des maths de base Eh Appelle-nous si tu veux des packs de basses V'là d'ice, il faut des bacs de glace Ice Ils vendent leur âme pour faire plus de ventes Han Faut plus de sous parce qu'y a plus de ventres Cash, cash Négro, so le big Richie, c'est au sommet qu'y a le plus de vent Ekip J'appelle Johnny Dang si j'dois faire des grillz, jamais d'ma vie j'fais d'la jersey drill Jamais d'ma vie j'fais d'la jersey drill, jamais d'ma vie j'fais d'la jersey drill J'viens poser la bombe comme dans Counter-Strike, j'aime bien les cadrans couleur Sprite J'aime bien les cadrans couleur Sprite, j'aime bien les cadrans couleur Sprite J'appelle Johnny Dang si j'dois faire des grillz, jamais d'ma vie j'fais d'la jersey drill Jamais d'ma vie j'fais d'la jersey drill, jamais d'ma vie j'fais d'la jersey drill J'viens poser la bombe comme dans Counter-Strike, j'aime bien les cadrans couleur Sprite J'aime bien les cadrans couleur Sprite, j'aime bien les cadrans couleur Sprite</t>
+          <t>OhMyGod So le Flem Ekip, ekip, ekip, han Han Ekip, ekip On les fume comme des sacs de gas C'est pas d'la science des fusées, c'est des maths de base Eh Appelle-nous si tu veux des packs de basses Han V'là d'ice, il faut des bacs de glace Ice Ils vendent leur âme pour faire plus de ventes Ah ouais ? Faut plus de sous parce qu'y a plus de ventrs Cash Négro, so le big Richie, c'est au sommt qu'y a le plus de vent Ekip On les fume comme des sacs de gas C'est pas d'la science des fusées, c'est des maths de base Eh Appelle-nous si tu veux des packs de basses V'là d'ice, il faut des bacs de glace Ice Ils vendent leur âme pour faire plus de ventes Han Faut plus de sous parce qu'y a plus de ventres Cash, cash Négro, so le big Richie, c'est au sommet qu'y a le plus de vent Ekip Han J'ai les passes de Brady, MangeMortSquad sur les cartes de crédits, c'est moi dans les cauchemars de Freddy Ah-ah Ouais Ekip, ekip, ekip Audio-crack de ouf Crack, cuisine des tracks de ouf Han, industries on les braque de ouf Quand j'marque, j'entends plus rien comme Depay Il t'faut des gardes du corps, il m'faut des hommes de paille Han J'ai les yeuz l'inverse d'écarquillés, chaque seize, des membres de prod éparpillés J'arrive en terro', graine d'arbre argent dans l'terreau, Shoka' Fentanyl dans l'héro' Que des headshots avec le SPR, à Dakar, faut l'Q8 et le SVR Sku, sku J'appelle Johnny Dang si j'dois faire des grillz Han, jamais d'ma vie j'fais d'la jersey drill Jamais J'viens poser la bombe comme dans Counter-Strike Ah-ah, j'aime bien les cadrans couleur Sprite Ice Au mic', découpe comme si j'étais pas humain, liasse balaise, j'peux pas la tenir à une main Cash J'mets la lucarne avec l'exter' Piou, ça cherche des mic-mac avec l'expert, ekip Sénégal, négro, j'envoie les sous là-bas Cash, cash, cash, cash Gros tacle, c'est la faute ou la balle Eh J'suis Ronaldo, t'es Clauss Han Pour la cause, gratos, j'm'explose Gratuit Audio-crack, faut les doses Crack J'peux pas signer ça à cause des clauses On les fume comme des sacs de gas C'est pas d'la science des fusées, c'est des maths de base Eh Appelle-nous si tu veux des packs de basses Han V'là d'ice, il faut des bacs de glace Ice Ils vendent leur âme pour faire plus de ventes Ah ouais ? Faut plus de sous parce qu'y a plus de ventres Cash Négro, so le big Richie, c'est au sommet qu'y a le plus de vent Ekip On les fume comme des sacs de gas C'est pas d'la science des fusées, c'est des maths de base Eh Appelle-nous si tu veux des packs de basses V'là d'ice, il faut des bacs de glace Ice Ils vendent leur âme pour faire plus de ventes Han Faut plus de sous parce qu'y a plus de ventres Cash, cash Négro, so le big Richie, c'est au sommet qu'y a le plus de vent Ekip J'appelle Johnny Dang si j'dois faire des grillz, jamais d'ma vie j'fais d'la jersey drill Jamais d'ma vie j'fais d'la jersey drill, jamais d'ma vie j'fais d'la jersey drill J'viens poser la bombe comme dans Counter-Strike, j'aime bien les cadrans couleur Sprite J'aime bien les cadrans couleur Sprite, j'aime bien les cadrans couleur Sprite J'appelle Johnny Dang si j'dois faire des grillz, jamais d'ma vie j'fais d'la jersey drill Jamais d'ma vie j'fais d'la jersey drill, jamais d'ma vie j'fais d'la jersey drill J'viens poser la bombe comme dans Counter-Strike, j'aime bien les cadrans couleur Sprite J'aime bien les cadrans couleur Sprite, j'aime bien les cadrans couleur Sprite</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip Eh, pétasse J'suis dans le Xan, j'suis dans le lin pétasse, ça fait Négro, tu sais qu'j'ai le Xan' Appelle-moi s'tu veux les tarifs Envoie-moi juste des passes Devant l'goal j'suis comme Karim Des comme moi elle en connaît pas Elle m'dit Négro, t'as trop de charisme Je n'suis pas à ton étage Trouve-moi beaucoup plus haut comme Karin J'ai les pills, j'ai le lean, bitch Te rends accro en deux lignes, bitch Tu viens m'voir, j'te découpe, j'te lime, bitch Gaddam, pour mon Glock j'veux le beam, bitch So Blacky ça fait BIM, bitch Ils sont drôles comme Mister Bean, bitch MMS, 667, tu connais c'est la secte, pétasse J'fume le shit, j'fume la sep pétasse, j'veux l'A7 pétasse Faut qu'j'achète pétasse, goddam So Josiane, la chatte, négro Chen Zen, jeune mac mais j'compte pas sur la chatte, négro You might also like x2 Négro, tu sais qu'j'ai le Xan' Appelle-moi s'tu veux les tarifs Envoie-moi juste des passes Devant l'goal j'suis comme Karim Des comme moi elle en connaît pas Elle m'dit Négro, t'as trop de charisme Je n'suis pas à ton étage Trouve-moi beaucoup plus haut comme Karin Ekip, ekip, ekip, ekip, ekip, ekip, pétasse M.M.S, 6.6.7, N.R.M J'suis dans le xan, cocktail dans le sang Chen Zen, en défense je suis dans le centre T.H.C, j'ai les yeuz rouge c'est l'T.H.C, pétasse</t>
+          <t>Ekip, ekip, ekip Eh, pétasse J'suis dans le Xan, j'suis dans le lin pétasse, ça fait Négro, tu sais qu'j'ai le Xan' Appelle-moi s'tu veux les tarifs Envoie-moi juste des passes Devant l'goal j'suis comme Karim Des comme moi elle en connaît pas Elle m'dit Négro, t'as trop de charisme Je n'suis pas à ton étage Trouve-moi beaucoup plus haut comme Karin J'ai les pills, j'ai le lean, bitch Te rends accro en deux lignes, bitch Tu viens m'voir, j'te découpe, j'te lime, bitch Gaddam, pour mon Glock j'veux le beam, bitch So Blacky ça fait BIM, bitch Ils sont drôles comme Mister Bean, bitch MMS, 667, tu connais c'est la secte, pétasse J'fume le shit, j'fume la sep pétasse, j'veux l'A7 pétasse Faut qu'j'achète pétasse, goddam So Josiane, la chatte, négro Chen Zen, jeune mac mais j'compte pas sur la chatte, négro x2 Négro, tu sais qu'j'ai le Xan' Appelle-moi s'tu veux les tarifs Envoie-moi juste des passes Devant l'goal j'suis comme Karim Des comme moi elle en connaît pas Elle m'dit Négro, t'as trop de charisme Je n'suis pas à ton étage Trouve-moi beaucoup plus haut comme Karin Ekip, ekip, ekip, ekip, ekip, ekip, pétasse M.M.S, 6.6.7, N.R.M J'suis dans le xan, cocktail dans le sang Chen Zen, en défense je suis dans le centre T.H.C, j'ai les yeuz rouge c'est l'T.H.C, pétasse</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>667, nègre triple-K Bientôt violet comme Milka Jorrdee Lestat fournit l'crack Toute la journée Négro on fume comme des sapeurs Purple OG et master Prêche au microphone comme des pasteurs On veut des chargeurs grande capacité Comme à Chicago Corleone tatoué comme un chicano Captain, Chen sezept comme Cristiano Goddamn, j'arrive faya Pas d'Versace, que du Paris Maya Def tate, j'ai flow d'un sous-marin Toi et ton clan comme une flotte de 4000 kayaks Bientôt, Jorrdee prod à 100k J'vois vos rappeurs comme des en-cas NRM, kick crypté langage Dark Chen, seigneur sith, degré 34 Brule ces négros en sacrifice Négro j'ai flow holocauste Publie nos merdes en indé', so GFG 5.20, Shone d'Holocost Furtif, sans stress j'm'infiltre Comme un agent du Mossad Amasse bitcoins dans Testarossa Fonscar j'me sens comme Sosa Camouflé dans l'ombre, négro Animal noir rôde dans l'ombre, négro On arrive en nombre, négro Retourne cette merde de fond en comble, négro À la recherche de l'or comme un alchimiste Direction sommet comme un alpiniste Plus d'30 piles de liasses, so Dalsizim Dans l'Drakkar avec mes black vikings Faya au lean, pilote vaisseau 667, LDO sur les sceaux Ils captent pas c'qu'on dit, comme si y avait plus de réseau, goddamn You might also like MMS, LDO, 667, NRM 2014, khaliss, Lopito, Sprite sale MMS, LDO, 667, NRM 2014, khaliss, Lopito, Sprite sale Chapeaux 667, vissés comme des kippas Ligue des Ombres, shout-out à la secte Shout-out à l'équipage, NRM, 2014 MMS, négro, Momie Squad Comme un nazi, j'veux des Mercedes Killuminati comme Rockin' Squat 21 ans, j'commence mon testament, j'me sens comme Mayer Rothschild So 'Sirus Jack, Zombie Squad, dans la morgue chill Défracté, sous leanweed, j'écris même quand j'dors So à tous mes Mangemorts, nègres fonscars avec pouvoirs comme Hancock On est des prototypes, vous des cobayes, on finira en Bentley, eux en Logan Toujours soum-soum pour faire nos bails, sans s'appliquer, on vous lave au mic au calme So Norsacce, on fait ça sans stress, fume vos rappeurs comme des 100's LDO, bâtit l'empire, néo-nègres, bitcoins encaissent khaliss, hein Nouveau Rap Mondial, 6-secte squad Négro, dans l'rap clan d'tyrans Armes de destruction massive comme en Iran Fuck le Rap Game, quand j'écoute leurs sons ça s'sent qu'ils mentent Goddamn, j'm'élève au d'ssus, 667, attaque céleste Maître de cérémonie, vous êtes élèves J'veux juste du cash, fuck être célèbre, goddamn MMS, LDO, 667, NRM 2014, khaliss, Lopito, Sprite sale MMS, LDO, 667, NRM 2014, khaliss, Lopito, Sprite sale Haha Squashee, MMS, LDO, 667, NRM 2014, khaliss, khaliss, haha Salah, Chen Zen, dans l'ciel j'laisse des chemtrails J'me sens comme Denzen Liv déni, j'arrive d'en haut comme phénix J'renais d'mes cendres comme un phénix LDO, MMS, 667, NRM Khaliss, 2014, Paris sale Haha, goddamn Chen Zen, Squad, MMS, LDO, 2014, salope Han, fuck ces bitchs nègres, 667 Fuck le système, goddamn Grr, pew pew1</t>
+          <t>667, nègre triple-K Bientôt violet comme Milka Jorrdee Lestat fournit l'crack Toute la journée Négro on fume comme des sapeurs Purple OG et master Prêche au microphone comme des pasteurs On veut des chargeurs grande capacité Comme à Chicago Corleone tatoué comme un chicano Captain, Chen sezept comme Cristiano Goddamn, j'arrive faya Pas d'Versace, que du Paris Maya Def tate, j'ai flow d'un sous-marin Toi et ton clan comme une flotte de 4000 kayaks Bientôt, Jorrdee prod à 100k J'vois vos rappeurs comme des en-cas NRM, kick crypté langage Dark Chen, seigneur sith, degré 34 Brule ces négros en sacrifice Négro j'ai flow holocauste Publie nos merdes en indé', so GFG 5.20, Shone d'Holocost Furtif, sans stress j'm'infiltre Comme un agent du Mossad Amasse bitcoins dans Testarossa Fonscar j'me sens comme Sosa Camouflé dans l'ombre, négro Animal noir rôde dans l'ombre, négro On arrive en nombre, négro Retourne cette merde de fond en comble, négro À la recherche de l'or comme un alchimiste Direction sommet comme un alpiniste Plus d'30 piles de liasses, so Dalsizim Dans l'Drakkar avec mes black vikings Faya au lean, pilote vaisseau 667, LDO sur les sceaux Ils captent pas c'qu'on dit, comme si y avait plus de réseau, goddamn MMS, LDO, 667, NRM 2014, khaliss, Lopito, Sprite sale MMS, LDO, 667, NRM 2014, khaliss, Lopito, Sprite sale Chapeaux 667, vissés comme des kippas Ligue des Ombres, shout-out à la secte Shout-out à l'équipage, NRM, 2014 MMS, négro, Momie Squad Comme un nazi, j'veux des Mercedes Killuminati comme Rockin' Squat 21 ans, j'commence mon testament, j'me sens comme Mayer Rothschild So 'Sirus Jack, Zombie Squad, dans la morgue chill Défracté, sous leanweed, j'écris même quand j'dors So à tous mes Mangemorts, nègres fonscars avec pouvoirs comme Hancock On est des prototypes, vous des cobayes, on finira en Bentley, eux en Logan Toujours soum-soum pour faire nos bails, sans s'appliquer, on vous lave au mic au calme So Norsacce, on fait ça sans stress, fume vos rappeurs comme des 100's LDO, bâtit l'empire, néo-nègres, bitcoins encaissent khaliss, hein Nouveau Rap Mondial, 6-secte squad Négro, dans l'rap clan d'tyrans Armes de destruction massive comme en Iran Fuck le Rap Game, quand j'écoute leurs sons ça s'sent qu'ils mentent Goddamn, j'm'élève au d'ssus, 667, attaque céleste Maître de cérémonie, vous êtes élèves J'veux juste du cash, fuck être célèbre, goddamn MMS, LDO, 667, NRM 2014, khaliss, Lopito, Sprite sale MMS, LDO, 667, NRM 2014, khaliss, Lopito, Sprite sale Haha Squashee, MMS, LDO, 667, NRM 2014, khaliss, khaliss, haha Salah, Chen Zen, dans l'ciel j'laisse des chemtrails J'me sens comme Denzen Liv déni, j'arrive d'en haut comme phénix J'renais d'mes cendres comme un phénix LDO, MMS, 667, NRM Khaliss, 2014, Paris sale Haha, goddamn Chen Zen, Squad, MMS, LDO, 2014, salope Han, fuck ces bitchs nègres, 667 Fuck le système, goddamn Grr, pew pew1</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Goddamn J'arrive faya comme Bush fils Ils puent la merde comme couche Au micro on les lave comme douche Hein, là pour khaliss Plus déter' que jeune Roumain, so Lala Chaque jour, salade Négro malade, so Mala, hein Trouve-moi avec Kaki En train d'fumer l'caca Comme Luffy j'ai l'Haki Au mic, chant rituel comme haka Pour nous la victoire c'est acquis Arrose la prod comme AK On reste vrais, eux s'maquillent Vous nique en solo comme à 4, hein Défractés comme des crackheads Dans les abysses comme des krakens Goddamn négro, fuck le Rap Game J'veux pas finir comme Black kente Sprite rose comme Boo petit Sip sirop pour la toux, petit Vrai négro depuis tout petit D'où j'suis j'vous vois tout petit, squad You might also like Prends des notes Lis sur ses lèvres 667 Bitch on s'élève Cours de découpe, ils sont élèves Élèves, élèves Hein, élèves Élèves, élèves Le résultat s'est aggravé Fuck, là les notes sont effarantes Ces négresses veulent graver CD Fuck à tes rêves, faut qu'on rencontre tes parents, bitch Bitchass, élève 667, on s'élève Cours de découpe, ils sont élèves Élèves, élèves J'arrive faya comme sissé Moteur et flow débridé Fait cette merde comme des bridés Négro, j'veux pas mourir ridée Je mixe, je mixe A n'en plus voir que couleur Ce négro m'a brisée Je n'sens plus la douleur Lala Ace pour les cogner 667, grave sur l'cro-mi J'écoute pas ces nègres, homie 2015, mes nègres se déploient Lala, Lala Toujours effet sans la low Damn T'as vidé tes poches là-là On est très jeunes, on les élève Chen Zen, agrégé professeur Comment veux-tu qu'ils se révèlent On va les s'couer ces nègres en un quart d'heure J'sais qu'ça t'fait d'la peizeine Quand j't'esquive comme ta sur Tu m'donnes pas les yenzen Négro, tu finis dans l'classeur, Lala Prends des notes Lis sur ses lèvres 667 Bitch on s'élève Cours de découpe, ils sont élèves Élèves, élèves Hein, élèves Élèves, élèves Le résultat s'est aggravé Fuck, là les notes sont effarantes Ces négresses veulent graver CD Fuck à tes rêves, faut qu'on rencontre tes parents, bitch Bitchass, élève 667, on s'élève Cours de découpe, ils sont élèves Élèves, élèves</t>
+          <t>Goddamn J'arrive faya comme Bush fils Ils puent la merde comme couche Au micro on les lave comme douche Hein, là pour khaliss Plus déter' que jeune Roumain, so Lala Chaque jour, salade Négro malade, so Mala, hein Trouve-moi avec Kaki En train d'fumer l'caca Comme Luffy j'ai l'Haki Au mic, chant rituel comme haka Pour nous la victoire c'est acquis Arrose la prod comme AK On reste vrais, eux s'maquillent Vous nique en solo comme à 4, hein Défractés comme des crackheads Dans les abysses comme des krakens Goddamn négro, fuck le Rap Game J'veux pas finir comme Black kente Sprite rose comme Boo petit Sip sirop pour la toux, petit Vrai négro depuis tout petit D'où j'suis j'vous vois tout petit, squad Prends des notes Lis sur ses lèvres 667 Bitch on s'élève Cours de découpe, ils sont élèves Élèves, élèves Hein, élèves Élèves, élèves Le résultat s'est aggravé Fuck, là les notes sont effarantes Ces négresses veulent graver CD Fuck à tes rêves, faut qu'on rencontre tes parents, bitch Bitchass, élève 667, on s'élève Cours de découpe, ils sont élèves Élèves, élèves J'arrive faya comme sissé Moteur et flow débridé Fait cette merde comme des bridés Négro, j'veux pas mourir ridée Je mixe, je mixe A n'en plus voir que couleur Ce négro m'a brisée Je n'sens plus la douleur Lala Ace pour les cogner 667, grave sur l'cro-mi J'écoute pas ces nègres, homie 2015, mes nègres se déploient Lala, Lala Toujours effet sans la low Damn T'as vidé tes poches là-là On est très jeunes, on les élève Chen Zen, agrégé professeur Comment veux-tu qu'ils se révèlent On va les s'couer ces nègres en un quart d'heure J'sais qu'ça t'fait d'la peizeine Quand j't'esquive comme ta sur Tu m'donnes pas les yenzen Négro, tu finis dans l'classeur, Lala Prends des notes Lis sur ses lèvres 667 Bitch on s'élève Cours de découpe, ils sont élèves Élèves, élèves Hein, élèves Élèves, élèves Le résultat s'est aggravé Fuck, là les notes sont effarantes Ces négresses veulent graver CD Fuck à tes rêves, faut qu'on rencontre tes parents, bitch Bitchass, élève 667, on s'élève Cours de découpe, ils sont élèves Élèves, élèves</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Discographie - Freeze Corleone Album Studio - 20200911 Freeze Corleone - LMF - 20220304 Freeze Corleone ASHE 22 - RIYAD SADIO - 20230911 Freeze Corleone - ADC Mixtape - 20110420 Freeze Corleone - À la recherche de la daillance - 20121012 Freeze Corleone - Vieilles merdes - 20160108 Freeze Corleone - Vieilles merdes Vol. II - 20160911 Freeze Corleone - F.D.T - 20170911 Freeze Corleone - THC - 20181113 Freeze Corleone - Projet Blue Beam Remix - 20160306 Freeze Corleone Ocho - Vieilles merdes Vol. II crewed - 20191125 Freeze Corleone Ocho - Projet Purrp Beam - 20200601 Freeze Corleone Ocho - F.D.T Chopped crewed - 20210525 Freeze Corleone Ocho - LM - 20240208 Freeze Corleone Ocho - AD Single - 20091018 Freeze Corleone - Freestyle 1 - 20100527 Freeze Corleone - Freestyle 5 - 2012 Freeze Corleone - Sam Fisher - 2012 Freeze Corleone - Nouveau Commendatore Ferrari Music - 20121026 Freeze Corleone - Black Knight - 20121120 Freeze Corleone - Blackmobile - 20130803 Freeze Corleone - Argent noir - 20130803 Freeze Corleone - Niveau III - 20131027 Freeze Corleone - 204 Parsec - 20131229 Freeze Corleone - Gladiator - 2014 Freeze Corleone - Marque de fabrique - 20140204 Freeze Corleone - Libérez Radrick Truth Freestyle - 20140205 Freeze Corleone - Memphis - 20140208 Freeze Corleone - Zone VI Squad Car Freestyle - 20140311 Freeze Corleone - Black Lobby - 20140319 Freeze Corleone - Henri VI - 20140327 Freeze Corleone - Mangemort - 20140406 Darth Chen - Lockomotive - 20140512 Freeze Corleone - Bledard Mentality - 20140805 Freeze Corleone - Bill Gates - 20140903 Freeze Corleone - Khaliss - 20140910 Freeze Corleone - Piraterie - 20140911 Freeze Corleone - Lampadaire - 20141117 Freeze Corleone - Viseur holographique - 20141225 Freeze Corleone - LDO dans la maison - 20150117 Freeze Corleone - Et on cons' Shit World Tour 2014 - 20150131 Freeze Corleone - Charlie - 20150223 Freeze Corleone - Fuck ça - 20150409 Freeze Corleone - 16 Pains Freestyle - 20150410 Freeze Corleone - Les fils de l'Oncle Sam - 20150522 Freeze Corleone - Canibus - 20150616 Freeze Corleone - Au-dessus - 20150719 Freeze Corleone - Trains à vapeur - 20160129 Freeze Corleone - Recette - 20160430 Freeze Corleone - Gaucho - 20160529 Freeze Corleone - Apu - 20160724 Freeze Corleone - Skrt Skrt Freestyle - 20160910 Freeze Corleone - Madara - 20161220 Freeze Corleone - Toilettes - 20161225 Freeze Corleone - Mage noir Ekailand Edit - 20170113 Freeze Corleone - La LDO dans le château - 20170224 Freeze Corleone - Combien - 20170403 Freeze Corleone - Ekip - 20170513 Freeze Corleone - Prof Chen - 20170911 Freeze Corleone - Benjamins bleus - 20171215 Freeze Corleone - LDO dans la place - 20180215 Freeze Corleone - TX - 20181113 Freeze Corleone - Jeremy Lin - 20190112 Freeze Corleone - Intro - 20190830 Freeze Corleone - Fentanyl - 20191113 Freeze Corleone - Baton Rouge - 20200105 Freeze Corleone - Welcome to the Party Freestyle - 20200727 Freeze Corleone - Desiigner - 20200821 Freeze Corleone - Scellé Part. 2 - 20200911 Freeze Corleone - Hors ligne - 20210126 Freeze Corleone - Requiem for a Drill - 20210513 Freeze Corleone - Polémique - 20210518 Freeze Corleone - Téléphone - 20210703 Freeze Corleone - Freeze Raël Video Edit - 20211202 Freeze Corleone - Règne sur le monde - 20220127 Freeze Corleone ASHE 22 - SCELLÉ PART. 4 - 20220211 Freeze Corleone ASHE 22 - DÉGRADÉ - 20220304 Freeze Corleone ASHE 22 - CARTIER You might also likeFeaturing - 20140217 RTT Clan - Winafoute - 20140226 Afro S - Katana - 20140227 Jorrdee - Sacrifice de poulets Part. II - 20140227 Gouap - Jackie Chan - 20140510 Jorrdee - Violet - 20140512 Odeuxzero - S.P.L.F - 20140514 Jorrdee - PSG - 20140809 Zuukou Mayzie - Jack Sparrow - 20140917 Zuukou Mayzie - John Titor - 20141006 Dubble G - Engrais organique - 20141103 Osirus Jack - Génotype - 20141209 Jorrdee - Gas - 20150420 Dubble G - Hydroponique - 20150828 Kaki Santana - Échec mat - 20151120 Rifa Samb - Hors normes - 20160803 Kaki Santana - Combinaison Kaki - 20160809 Slim C - Burrr - 20160809 Slim C - C4 - 20160809 Slim C - Spectres - 20161024 Veerus - Jacques Chirac - 20161118 Norsacce Berlusconi - OG Juice - 20161118 Kaki Santana - Homme de l'ombre - 20170420 Norsacce Berlusconi - Only - 20180218 Slim C - Dans la grotte - 20181221 Zuukou Mayzie - Yamanote Line - 20181227 Veerus - KKK - 20190125 Alkpote - Purification - 20190503 Osirus Jack - Sacrifice de masse Part. 2 - 20190726 Luv Resval - Crystal Lake - 20190910 Roi Heenok - 38 SPECIAL - 20191007 Worms-T - Pakistan - 20191129 ASHE 22 - Scellé - 20191129 DOC OVG - 10 - 20191222 Django - Cyanure - 20200221 Slim C - Serpents Renards - 20200330 Sazamyzy - Braquage à l'africaine 5 Part 1 - 20200406 RAS - O.J Simpson - 20200409 Zuukou Mayzie - Qui-Gon Jinn - 20200415 Kaki Santana - Welcome to the Party Remix - 20200515 tanlee - Pour It Up - 20200611 Norsacce - 4 saisons - 20200617 Gazo - Drill FR 4 - 20200717 Jolly - Zone 51 - 20200807 Zesau - Anarchie - 20200904 Ocho - CPouravCjusteRalenti - 20200918 La F - La violence - 20200924 Koba LaD - 7 sur 7 - 20200928 Criminls - War - 20201013 Mini Noma - Travail d'ekip - 20201016 Afro S - Nino Brown - 20201018 Kozi - Unstoppable - 20201023 Kaaris - IRM - 20201104 Nahir - Moneygram - 20201107 Django - SO le Flem - 20201118 Guy2Bezbar - TPM - 20201127 Negrito - Purge 5 - 20201127 RAS - LPDLD - 20201211 Zesau - Anarchie Remix - 20201218 Alpha Wann - ny à fond - 20210219 Vladimir Cauchemar - Les professeurs - 20210310 Deeloc - Rétro - 20210319 SCH - Mannschaft - 20210408 ASHE 22 - Scellé Part. 3 - 20210528 RAS - Mission Cobra - 20210604 Zuukou Mayzie - Pépé anglais - 20210721 DA Uzi - 27 - 20211001 Mac Tyer - Grammy - 20211210 ALP - Bloods - 20211224 Gouap - Jackie Chan 2 - 20220128 Kaki Santana - Toujours pas de refrain - 20220128 Kaaris Kalash Criminel - Apocalypse - 20220218 Kpri - Maybach Phantom - 20220222 Osirus Jack - Lampadaire, Pt. 2 - 20220225 Central Cee - Eurovision - 20220311 Nahir - Moneygram, Part. 2 - 20220318 Veerus - Cash - 20220511 Amine Farsi - FRAUDE - 20220520 DOC OVG - 1000 - 20220527 SEVEN 7oo - 667OO - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20220714 Mini - 669 Tah - 20220722 Zuukou Mayzie - Inception - 20220826 Doums - 90' - 20220908 Stavo - Réunion - 20220915 RAS - Mission Cobra Part. 2 - 20220930 Prince Waly - Balotelli - 20221012 Afro S - C10 - 20221014 Jey Brownie Flem - Movie - 20221117 2Key - Pour la paix - 20221209 Kozi - Trap Kongo - 20230106 Slim C - Prend le pouvoir - 20230203 Rim'K - Métaverse - 20230213 Ralfy the Plug - Loopholes - 20230214 Criminls - Nouvel ordre Discographie complémentaire - Discographie - 667 - Discographie - CFR - Discographie - LT RT Klan</t>
+          <t>Discographie - Freeze Corleone Album Studio - 20200911 Freeze Corleone - LMF - 20220304 Freeze Corleone ASHE 22 - RIYAD SADIO - 20230911 Freeze Corleone - ADC Mixtape - 20110420 Freeze Corleone - À la recherche de la daillance - 20121012 Freeze Corleone - Vieilles merdes - 20160108 Freeze Corleone - Vieilles merdes Vol. II - 20160911 Freeze Corleone - F.D.T - 20170911 Freeze Corleone - THC - 20181113 Freeze Corleone - Projet Blue Beam Remix - 20160306 Freeze Corleone Ocho - Vieilles merdes Vol. II crewed - 20191125 Freeze Corleone Ocho - Projet Purrp Beam - 20200601 Freeze Corleone Ocho - F.D.T Chopped crewed - 20210525 Freeze Corleone Ocho - LM - 20240208 Freeze Corleone Ocho - AD Single - 20091018 Freeze Corleone - Freestyle 1 - 20100527 Freeze Corleone - Freestyle 5 - 2012 Freeze Corleone - Sam Fisher - 2012 Freeze Corleone - Nouveau Commendatore Ferrari Music - 20121026 Freeze Corleone - Black Knight - 20121120 Freeze Corleone - Blackmobile - 20130803 Freeze Corleone - Argent noir - 20130803 Freeze Corleone - Niveau III - 20131027 Freeze Corleone - 204 Parsec - 20131229 Freeze Corleone - Gladiator - 2014 Freeze Corleone - Marque de fabrique - 20140204 Freeze Corleone - Libérez Radrick Truth Freestyle - 20140205 Freeze Corleone - Memphis - 20140208 Freeze Corleone - Zone VI Squad Car Freestyle - 20140311 Freeze Corleone - Black Lobby - 20140319 Freeze Corleone - Henri VI - 20140327 Freeze Corleone - Mangemort - 20140406 Darth Chen - Lockomotive - 20140512 Freeze Corleone - Bledard Mentality - 20140805 Freeze Corleone - Bill Gates - 20140903 Freeze Corleone - Khaliss - 20140910 Freeze Corleone - Piraterie - 20140911 Freeze Corleone - Lampadaire - 20141117 Freeze Corleone - Viseur holographique - 20141225 Freeze Corleone - LDO dans la maison - 20150117 Freeze Corleone - Et on cons' Shit World Tour 2014 - 20150131 Freeze Corleone - Charlie - 20150223 Freeze Corleone - Fuck ça - 20150409 Freeze Corleone - 16 Pains Freestyle - 20150410 Freeze Corleone - Les fils de l'Oncle Sam - 20150522 Freeze Corleone - Canibus - 20150616 Freeze Corleone - Au-dessus - 20150719 Freeze Corleone - Trains à vapeur - 20160129 Freeze Corleone - Recette - 20160430 Freeze Corleone - Gaucho - 20160529 Freeze Corleone - Apu - 20160724 Freeze Corleone - Skrt Skrt Freestyle - 20160910 Freeze Corleone - Madara - 20161220 Freeze Corleone - Toilettes - 20161225 Freeze Corleone - Mage noir Ekailand Edit - 20170113 Freeze Corleone - La LDO dans le château - 20170224 Freeze Corleone - Combien - 20170403 Freeze Corleone - Ekip - 20170513 Freeze Corleone - Prof Chen - 20170911 Freeze Corleone - Benjamins bleus - 20171215 Freeze Corleone - LDO dans la place - 20180215 Freeze Corleone - TX - 20181113 Freeze Corleone - Jeremy Lin - 20190112 Freeze Corleone - Intro - 20190830 Freeze Corleone - Fentanyl - 20191113 Freeze Corleone - Baton Rouge - 20200105 Freeze Corleone - Welcome to the Party Freestyle - 20200727 Freeze Corleone - Desiigner - 20200821 Freeze Corleone - Scellé Part. 2 - 20200911 Freeze Corleone - Hors ligne - 20210126 Freeze Corleone - Requiem for a Drill - 20210513 Freeze Corleone - Polémique - 20210518 Freeze Corleone - Téléphone - 20210703 Freeze Corleone - Freeze Raël Video Edit - 20211202 Freeze Corleone - Règne sur le monde - 20220127 Freeze Corleone ASHE 22 - SCELLÉ PART. 4 - 20220211 Freeze Corleone ASHE 22 - DÉGRADÉ - 20220304 Freeze Corleone ASHE 22 - CARTIER Featuring - 20140217 RTT Clan - Winafoute - 20140226 Afro S - Katana - 20140227 Jorrdee - Sacrifice de poulets Part. II - 20140227 Gouap - Jackie Chan - 20140510 Jorrdee - Violet - 20140512 Odeuxzero - S.P.L.F - 20140514 Jorrdee - PSG - 20140809 Zuukou Mayzie - Jack Sparrow - 20140917 Zuukou Mayzie - John Titor - 20141006 Dubble G - Engrais organique - 20141103 Osirus Jack - Génotype - 20141209 Jorrdee - Gas - 20150420 Dubble G - Hydroponique - 20150828 Kaki Santana - Échec mat - 20151120 Rifa Samb - Hors normes - 20160803 Kaki Santana - Combinaison Kaki - 20160809 Slim C - Burrr - 20160809 Slim C - C4 - 20160809 Slim C - Spectres - 20161024 Veerus - Jacques Chirac - 20161118 Norsacce Berlusconi - OG Juice - 20161118 Kaki Santana - Homme de l'ombre - 20170420 Norsacce Berlusconi - Only - 20180218 Slim C - Dans la grotte - 20181221 Zuukou Mayzie - Yamanote Line - 20181227 Veerus - KKK - 20190125 Alkpote - Purification - 20190503 Osirus Jack - Sacrifice de masse Part. 2 - 20190726 Luv Resval - Crystal Lake - 20190910 Roi Heenok - 38 SPECIAL - 20191007 Worms-T - Pakistan - 20191129 ASHE 22 - Scellé - 20191129 DOC OVG - 10 - 20191222 Django - Cyanure - 20200221 Slim C - Serpents Renards - 20200330 Sazamyzy - Braquage à l'africaine 5 Part 1 - 20200406 RAS - O.J Simpson - 20200409 Zuukou Mayzie - Qui-Gon Jinn - 20200415 Kaki Santana - Welcome to the Party Remix - 20200515 tanlee - Pour It Up - 20200611 Norsacce - 4 saisons - 20200617 Gazo - Drill FR 4 - 20200717 Jolly - Zone 51 - 20200807 Zesau - Anarchie - 20200904 Ocho - CPouravCjusteRalenti - 20200918 La F - La violence - 20200924 Koba LaD - 7 sur 7 - 20200928 Criminls - War - 20201013 Mini Noma - Travail d'ekip - 20201016 Afro S - Nino Brown - 20201018 Kozi - Unstoppable - 20201023 Kaaris - IRM - 20201104 Nahir - Moneygram - 20201107 Django - SO le Flem - 20201118 Guy2Bezbar - TPM - 20201127 Negrito - Purge 5 - 20201127 RAS - LPDLD - 20201211 Zesau - Anarchie Remix - 20201218 Alpha Wann - ny à fond - 20210219 Vladimir Cauchemar - Les professeurs - 20210310 Deeloc - Rétro - 20210319 SCH - Mannschaft - 20210408 ASHE 22 - Scellé Part. 3 - 20210528 RAS - Mission Cobra - 20210604 Zuukou Mayzie - Pépé anglais - 20210721 DA Uzi - 27 - 20211001 Mac Tyer - Grammy - 20211210 ALP - Bloods - 20211224 Gouap - Jackie Chan 2 - 20220128 Kaki Santana - Toujours pas de refrain - 20220128 Kaaris Kalash Criminel - Apocalypse - 20220218 Kpri - Maybach Phantom - 20220222 Osirus Jack - Lampadaire, Pt. 2 - 20220225 Central Cee - Eurovision - 20220311 Nahir - Moneygram, Part. 2 - 20220318 Veerus - Cash - 20220511 Amine Farsi - FRAUDE - 20220520 DOC OVG - 1000 - 20220527 SEVEN 7oo - 667OO - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20220714 Mini - 669 Tah - 20220722 Zuukou Mayzie - Inception - 20220826 Doums - 90' - 20220908 Stavo - Réunion - 20220915 RAS - Mission Cobra Part. 2 - 20220930 Prince Waly - Balotelli - 20221012 Afro S - C10 - 20221014 Jey Brownie Flem - Movie - 20221117 2Key - Pour la paix - 20221209 Kozi - Trap Kongo - 20230106 Slim C - Prend le pouvoir - 20230203 Rim'K - Métaverse - 20230213 Ralfy the Plug - Loopholes - 20230214 Criminls - Nouvel ordre Discographie complémentaire - Discographie - 667 - Discographie - CFR - Discographie - LT RT Klan</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Eh, eh MMS, LDO, 2015, 2018, Chen Zen Chen Zen au micro, sans stress les dribble, fils Killuminati shit, nique le triple-6 667, mafia noire comme des Black Disciples Des locks à la calvitie, ça s'voit qu'on est pas d'ici J'vois en slow-mo' mais l'temps passe vite quand j'rappe sous lean Comme bowling, débarque dans l'Rap comme Vlad Poutine Incomparable à tous ces négros, fuck KFC 667 comme le Real, eux comme ASC Défracté négro, j'me sens comme un tocard J'suis F1 toi Go Kart, trop remarquable comme un coquard Quotidiennement sur la prod, flingue comme fusil d'assaut Faya avec Kaki, dans la cuisine usine la sauce J'm'arrête pas avant skurr skurr dans Bentley 6-secte, phénomène rare comme journée sans chemtrails J'ai l'flow vision, LDO comme Commission Trilatérale Pas d'snitch, amnésique à chaque audition Vans à mes pieds, négro so Lil B Pas dans l'Jeu avant 1000 sons, so Lil B Zombies armés, so à mes colonels Mes négros sippent comme des Texans, tisent comme des Polonais You might also like J'veux villa aux Almadies, négro, villa au village Villa à Saly, villa en ville, villa au virage J'veux villa aux Almadies, négro, villa au village Villa à Saly, villa en ville, villa au virage Fanatique comme crackhead, chaque jour tu consommes Bitch allonge le cash, j'veux v'là les virgules sur mon solde So Swagg Man, inch'Allah bientôt les black cards Coffrés dans la trap house comme Bruce Wayne dans la batcave So Sun Tzu, j'attaque quand tu lackes, négro Toujours au-dessus, aka goutte d'huile sur lac, négro Chen Zen, fonscar comme ODB Fume l'instru comme OCB, salope achète nos CD Aquarium dans l'cockpit Def tate, j'arrive à Mach 6, block headshot Tu fais un backflip, on s'organise et même la BAC flippe Si tu cons' pas bâtard, t'as rien compris comme un black flic J'veux villa aux Almadies, négro, villa au village Villa à Saly, villa en ville, villa au virage J'veux villa aux Almadies, négro, villa au village Villa à Saly, villa en ville, villa au virage</t>
+          <t>Eh, eh MMS, LDO, 2015, 2018, Chen Zen Chen Zen au micro, sans stress les dribble, fils Killuminati shit, nique le triple-6 667, mafia noire comme des Black Disciples Des locks à la calvitie, ça s'voit qu'on est pas d'ici J'vois en slow-mo' mais l'temps passe vite quand j'rappe sous lean Comme bowling, débarque dans l'Rap comme Vlad Poutine Incomparable à tous ces négros, fuck KFC 667 comme le Real, eux comme ASC Défracté négro, j'me sens comme un tocard J'suis F1 toi Go Kart, trop remarquable comme un coquard Quotidiennement sur la prod, flingue comme fusil d'assaut Faya avec Kaki, dans la cuisine usine la sauce J'm'arrête pas avant skurr skurr dans Bentley 6-secte, phénomène rare comme journée sans chemtrails J'ai l'flow vision, LDO comme Commission Trilatérale Pas d'snitch, amnésique à chaque audition Vans à mes pieds, négro so Lil B Pas dans l'Jeu avant 1000 sons, so Lil B Zombies armés, so à mes colonels Mes négros sippent comme des Texans, tisent comme des Polonais J'veux villa aux Almadies, négro, villa au village Villa à Saly, villa en ville, villa au virage J'veux villa aux Almadies, négro, villa au village Villa à Saly, villa en ville, villa au virage Fanatique comme crackhead, chaque jour tu consommes Bitch allonge le cash, j'veux v'là les virgules sur mon solde So Swagg Man, inch'Allah bientôt les black cards Coffrés dans la trap house comme Bruce Wayne dans la batcave So Sun Tzu, j'attaque quand tu lackes, négro Toujours au-dessus, aka goutte d'huile sur lac, négro Chen Zen, fonscar comme ODB Fume l'instru comme OCB, salope achète nos CD Aquarium dans l'cockpit Def tate, j'arrive à Mach 6, block headshot Tu fais un backflip, on s'organise et même la BAC flippe Si tu cons' pas bâtard, t'as rien compris comme un black flic J'veux villa aux Almadies, négro, villa au village Villa à Saly, villa en ville, villa au virage J'veux villa aux Almadies, négro, villa au village Villa à Saly, villa en ville, villa au virage</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Faya dans l'obscurité On complote contre eux avec mes Mangemorts Négro j'dois faire des milliards J'élabore des stratégies même quand j'dors Chen Zen, fleuriste furtif Number seven, appelle-moi Captain Double-6.7 kartel De l'autre côté d'la Stargate Double F gang, équipage de pirates Vous pouvez pas vraiment nous voir comme des mirages J'suis mon plan négro J'compte ni sur la chance ni sur un miracle J'avance j'poursuis ma quête J'me rapproche de mon but négro On rentre dans l'Rap Game Objectif éliminer ces putes négro J'm'en tiens à mon plan J'le fais avec et pour mon clan Négro nos graines on plante Dans les ténèbres on s'planque You might also like Furtifs comme Splinter Cell On s'réuni en secret comme les Bilderberg Vision nocturne, camouflage optique Mentalité franc-maçonnique Négro on va faire nos bails en famille Sur le long terme comme les Rothschild Fuck l'industrie On vous nique juste avec des ordis Aquarium dans laboratoire J'fais des expériences comme un alchimiste Négro j'progresse Vers le sommet comme un alpiniste Faya family gang vert Trèfle à 4 feuilles, triangle a l'envers Négro fuck être dans l'Game J'veux être un roi noir comme à l'ancienne J'm'en tiens à mon plan J'le fais avec et pour mon clan Négro nos graines on plante Dans les ténèbres on s'planque J'observe J'montre mes chicots à leurs obsèques J'paierais cher Pour en torturer certains comme dans Hostel J'explore le coté obscur Jeune sith, appelle-moi Darth Chen Négro j'recherche le pouvoir noir Comme Marcus Garvey Sans dreadlocks j'fume comme un rasta J'me sens comme Ol'Dirty Bastard Défracté dans mon aéronef J'survole les géoglyphes de Nazca J'aime le cash même si c'est satanique Freeze Corleone fonscar dans la matrice Plus de midi-chloriens qu'Anakin Afro Samurai, j'suis la voie d'la tactique J'm'en tiens à mon plan J'le fais avec et pour mon clan Négro nos graines on plante Dans les ténèbres on s'planque1</t>
+          <t>Faya dans l'obscurité On complote contre eux avec mes Mangemorts Négro j'dois faire des milliards J'élabore des stratégies même quand j'dors Chen Zen, fleuriste furtif Number seven, appelle-moi Captain Double-6.7 kartel De l'autre côté d'la Stargate Double F gang, équipage de pirates Vous pouvez pas vraiment nous voir comme des mirages J'suis mon plan négro J'compte ni sur la chance ni sur un miracle J'avance j'poursuis ma quête J'me rapproche de mon but négro On rentre dans l'Rap Game Objectif éliminer ces putes négro J'm'en tiens à mon plan J'le fais avec et pour mon clan Négro nos graines on plante Dans les ténèbres on s'planque Furtifs comme Splinter Cell On s'réuni en secret comme les Bilderberg Vision nocturne, camouflage optique Mentalité franc-maçonnique Négro on va faire nos bails en famille Sur le long terme comme les Rothschild Fuck l'industrie On vous nique juste avec des ordis Aquarium dans laboratoire J'fais des expériences comme un alchimiste Négro j'progresse Vers le sommet comme un alpiniste Faya family gang vert Trèfle à 4 feuilles, triangle a l'envers Négro fuck être dans l'Game J'veux être un roi noir comme à l'ancienne J'm'en tiens à mon plan J'le fais avec et pour mon clan Négro nos graines on plante Dans les ténèbres on s'planque J'observe J'montre mes chicots à leurs obsèques J'paierais cher Pour en torturer certains comme dans Hostel J'explore le coté obscur Jeune sith, appelle-moi Darth Chen Négro j'recherche le pouvoir noir Comme Marcus Garvey Sans dreadlocks j'fume comme un rasta J'me sens comme Ol'Dirty Bastard Défracté dans mon aéronef J'survole les géoglyphes de Nazca J'aime le cash même si c'est satanique Freeze Corleone fonscar dans la matrice Plus de midi-chloriens qu'Anakin Afro Samurai, j'suis la voie d'la tactique J'm'en tiens à mon plan J'le fais avec et pour mon clan Négro nos graines on plante Dans les ténèbres on s'planque1</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip MMS, LDO, NRM MMS Han So le Flem, so le 8 ekip, ekip, ekip C'est tout pourav, c'est juste ralenti, fonce-dé sous lin mais j'suis attentif lin 667 que des A en tir ils savent pas où j'suis j'suis comme l'Atlantide ah R.E.P DJ crew tous les jours, so Jeremy Lean le 8 Ocho J'ai leané des kilos d'sirop lin, j'ai fumé des litres de weed R.A.F d'la célébrité, gros teh de tégrité, sur la prod comme si j'tais entrain d'léviter damn J'bois pas d'Manhattan, que des OG à ma table, Chen Zen, New York comm à Manhattan ekip Memphis comme DJ Paul, étudi pour sipp les codes, cons' plus de gas qu'une fusée qui décolle Sip pas de Hennessy, sous lin comme dans l'Tennessee, Chen Zen gal-sén comme les Fall et les Sy, ekip C'est tout pourav, c'est juste ralenti, so Jeremy Lean le 8 J'ai leané des kilos d'sirop, j'ai fumé des litres de weed C'est tout pourav, c'est juste ralenti, so Jeremy Lean le 8 J'ai leané des kilos d'sirop, j'ai- j'ai leané des kilos d'sirop C'est tout pourav, c'est juste ralenti, so Jeremy Lean le 8 J'ai leané des kilos d'sirop, j'ai fumé des litres de weed C'est tout pourav, c'est juste ralenti, so Jeremy Lean le 8 J'ai leané des kilos d'sirop, j'ai- j'ai leané des kilos d'siropYou might also like</t>
+          <t>Ekip, ekip, ekip MMS, LDO, NRM MMS Han So le Flem, so le 8 ekip, ekip, ekip C'est tout pourav, c'est juste ralenti, fonce-dé sous lin mais j'suis attentif lin 667 que des A en tir ils savent pas où j'suis j'suis comme l'Atlantide ah R.E.P DJ crew tous les jours, so Jeremy Lean le 8 Ocho J'ai leané des kilos d'sirop lin, j'ai fumé des litres de weed R.A.F d'la célébrité, gros teh de tégrité, sur la prod comme si j'tais entrain d'léviter damn J'bois pas d'Manhattan, que des OG à ma table, Chen Zen, New York comm à Manhattan ekip Memphis comme DJ Paul, étudi pour sipp les codes, cons' plus de gas qu'une fusée qui décolle Sip pas de Hennessy, sous lin comme dans l'Tennessee, Chen Zen gal-sén comme les Fall et les Sy, ekip C'est tout pourav, c'est juste ralenti, so Jeremy Lean le 8 J'ai leané des kilos d'sirop, j'ai fumé des litres de weed C'est tout pourav, c'est juste ralenti, so Jeremy Lean le 8 J'ai leané des kilos d'sirop, j'ai- j'ai leané des kilos d'sirop C'est tout pourav, c'est juste ralenti, so Jeremy Lean le 8 J'ai leané des kilos d'sirop, j'ai fumé des litres de weed C'est tout pourav, c'est juste ralenti, so Jeremy Lean le 8 J'ai leané des kilos d'sirop, j'ai- j'ai leané des kilos d'sirop</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip, MMS, NLS, pah Hey Next, next Sku, sku, sku, gang Champ magnétique éclate les faisceaux 4ème round, j'suis pas ton psy, bitch, j'me vé-sau T'es amateur, j'suis précurseur comme Zesau Sauce, flow, t'es Vie de chienne, LMF s'est fort vendu Le temps ralentira plus, si tu fixes la pendule Au pied des chaînes, le corps inerte encore tendu Sur gros chênes, nos ancêtres ont été pndus Sur grosses chaînes en VVS NLS Gard ta bitch pleine d'herpès J'veux une piscine pleine d'espèces Crimi, Chen Zen, les grosses chaînes j'aime On génère du cash, on gêne Guette le sang froid et l'gène La Runtz éclate tes vaisseaux Tes vaisseaux Next Level, 667 dans l'vaisseau Dans l'vaisseau Viens faire le plein, H24 dispo' comme Esso Comme Esso Pas d'justice, pas d'paix, fuck la garde des Sceaux You might also like La Runtz éclate tes vaisseaux Sanguins Essence, gas, BP, Esso Next Level, 667 dans l'vaisseau BM, Merco, Audi, vaisseau Skrt Viens faire le plein, H24 dispo' comme Esso Cash, cash Le business, les équipes, les connec', les réseaux Pas d'justice, pas d'paix, fuck la garde des Sceaux On veut l'cash, les euros, les dollars, les pesos Ekip, ekip, ekip Sur la liste, chaque jour, que des croix Shing, shing 20.23, Crimi, Chen, 2W3 Ekip, ekip, ekip, ekip Leur niveau est en dessous de D3 Faible Lunette Cartier, comme si j'sors d'un hood de Détroit Pah Dans la Mercedes comme Bushi Sku Italien raciste comme Gucci World War 3, gas et lean comme Gucci J'arrive Atlanta comme Lucci Ekip 667, N.L.S, faut faire plus de cash que la MLS So Lotto, T-shirt taille XL, M, L, S So Studio KGB c'est l'CNRS Han Nouvel ordre mondial, le Pape a appuyé sur le bouton Damn Ils peuvent faire c'qu'ils veulent, les blindages renvoient tout direct sur le mouton Pah, pah Au-d'ssus d'eux comme sur un piédestal Han Que des grosses sommes comme si j'faisais des scams Cash, cash J'ai fais des maths, j'ai fais des stats Han, négro j'écris comme si j'dessinais des scans Ekip Essence, gas, BP, Esso BM, Merco, Audi, vaisseau Le business, les équipes, les connec', les reseaux On veut l'cash, les euros, les dollars, les pesos La Runtz éclate tes vaisseaux Sanguins Essence, gas, BP, Esso Next Level, 667 dans l'vaisseau BM, Merco, Audi, vaisseau Skrt Viens faire le plein, H24 dispo' comme Esso Cash, cash Le business, les équipes, les connec', les réseaux Pas d'justice, pas d'paix, fuck la garde des Sceaux On veut l'cash, les euros, les dollars, les pesos La Runtz éclate tes vaisseaux Essence, gas, BP, Esso Next Level, 667 dans l'vaisseau BM, Merco, Audi, vaisseau Viens faire le plein, H24 dispo' comme Esso Le business, les équipes, les connec', les réseaux Pas d'justice, pas d'paix, fuck la garde des Sceaux On veut l'cash, les euros, les dollars, les pesos</t>
+          <t>Ekip, ekip, ekip, MMS, NLS, pah Hey Next, next Sku, sku, sku, gang Champ magnétique éclate les faisceaux 4ème round, j'suis pas ton psy, bitch, j'me vé-sau T'es amateur, j'suis précurseur comme Zesau Sauce, flow, t'es Vie de chienne, LMF s'est fort vendu Le temps ralentira plus, si tu fixes la pendule Au pied des chaînes, le corps inerte encore tendu Sur gros chênes, nos ancêtres ont été pndus Sur grosses chaînes en VVS NLS Gard ta bitch pleine d'herpès J'veux une piscine pleine d'espèces Crimi, Chen Zen, les grosses chaînes j'aime On génère du cash, on gêne Guette le sang froid et l'gène La Runtz éclate tes vaisseaux Tes vaisseaux Next Level, 667 dans l'vaisseau Dans l'vaisseau Viens faire le plein, H24 dispo' comme Esso Comme Esso Pas d'justice, pas d'paix, fuck la garde des Sceaux La Runtz éclate tes vaisseaux Sanguins Essence, gas, BP, Esso Next Level, 667 dans l'vaisseau BM, Merco, Audi, vaisseau Skrt Viens faire le plein, H24 dispo' comme Esso Cash, cash Le business, les équipes, les connec', les réseaux Pas d'justice, pas d'paix, fuck la garde des Sceaux On veut l'cash, les euros, les dollars, les pesos Ekip, ekip, ekip Sur la liste, chaque jour, que des croix Shing, shing 20.23, Crimi, Chen, 2W3 Ekip, ekip, ekip, ekip Leur niveau est en dessous de D3 Faible Lunette Cartier, comme si j'sors d'un hood de Détroit Pah Dans la Mercedes comme Bushi Sku Italien raciste comme Gucci World War 3, gas et lean comme Gucci J'arrive Atlanta comme Lucci Ekip 667, N.L.S, faut faire plus de cash que la MLS So Lotto, T-shirt taille XL, M, L, S So Studio KGB c'est l'CNRS Han Nouvel ordre mondial, le Pape a appuyé sur le bouton Damn Ils peuvent faire c'qu'ils veulent, les blindages renvoient tout direct sur le mouton Pah, pah Au-d'ssus d'eux comme sur un piédestal Han Que des grosses sommes comme si j'faisais des scams Cash, cash J'ai fais des maths, j'ai fais des stats Han, négro j'écris comme si j'dessinais des scans Ekip Essence, gas, BP, Esso BM, Merco, Audi, vaisseau Le business, les équipes, les connec', les reseaux On veut l'cash, les euros, les dollars, les pesos La Runtz éclate tes vaisseaux Sanguins Essence, gas, BP, Esso Next Level, 667 dans l'vaisseau BM, Merco, Audi, vaisseau Skrt Viens faire le plein, H24 dispo' comme Esso Cash, cash Le business, les équipes, les connec', les réseaux Pas d'justice, pas d'paix, fuck la garde des Sceaux On veut l'cash, les euros, les dollars, les pesos La Runtz éclate tes vaisseaux Essence, gas, BP, Esso Next Level, 667 dans l'vaisseau BM, Merco, Audi, vaisseau Viens faire le plein, H24 dispo' comme Esso Le business, les équipes, les connec', les réseaux Pas d'justice, pas d'paix, fuck la garde des Sceaux On veut l'cash, les euros, les dollars, les pesos</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Ouh, ouh Capitaine, capitaine, capitaine Ekip, ekip, ekip Freeze Corleone, 6.6.7, P.S.O P.S.O Han, han, double bang Eh Skurt, skurt, skurt Tou-tou-tou-tou-tou-touh Paw, paw Tou-tou-tou-tou-tou-touh Skurt, skurt, skurt Corleone, Leto, Drogba, Eto'o Han, maîtrise les métaux comme Magneto Avec le sang des prods, ça refait la déco', très rare si j'la mets à té-cô, vista à Deco Pah, pah 6.6.7, P.S.O Ekip, j'suis avec Capi et Seum dans l'vai-ai-sseau Skurt Bientôt millionnaire avec des so Cash, que du lin, négro, fuck des V.S.O.P Ouh, ouh 9.3.5, XV Barbar Ekip, réfléchis comme si j'ai fait Harvard Han Chaque son, c'est un décès par barre, concu' on les mange cru comme des tartares Haha, haha, ekip, ekip Faut-faut-faut les sous Ekip, négro, faut ça vite Cash J'arrive fons' aux pills comme Sosa Geek, fonce-dé, hors ligne, mais négro, ça geek So Benny, il m'faut un salaire d'attaquant droit J'sais c'que j'dis, j'sais c'que j'écris comme si j'ai fait la fac en droit Eh Quand j'ai la balle, un panier ou un assist' Voi-voi-voiture allemande, j'la pilote comme un raciste Ouh, ouh You might also like Action, réaction Paw, cons' plus de gaz qu'un avion à réaction So le gang, so les factions Ekip, avec le fer, RÀF des tractions Que des dégaines cramées dans le bloc Dégaines cramées dans le bloc Encore une sse-lia, encore un homicide Ouh, ouh Action, réaction Paw, cons' plus de gaz qu'un avion à réaction So le gang, so les factions Ekip, avec le fer, RÀF des tractions Tu vas mourir un peu comme Pop Smoke, ekip Encore une sse-lia, encore un homicide Ouh, ouh Que des temps plein, temps plein, temps plein Temps plein, charbon tous les jours Charbon tous les jours Bifton j'accumule, badaboum, tu recules, souffrance, dans le hood Badaboum So Freeze, Capitaine, dans ton ze-n, c'est de la pure qu'on t'vend Oui C'est la violence, c'est les Vatos, que des bastos pour du matos Touh On empeste le biff Biff, Louis Vui', Louis Vui' Louis Vui', Louis Vui' 6.6.7 et P.S.O qui rafalent ton hall sur la mélodie Rrah, rrah J'rajoute un flash qui me détruit le corps, j'pourrais soulever le marteau d'Thor Raj' Que des billets pour combler ma faim Rrah, que des coups de couteau dans le foie Coupe, coupe Si tu joues, on t'allume, on t'éteint Tou-touh, mais grâce à Dieu, j'ai gardé la foi Merci J'suis dans le Range Rover Skurt, skurt, skurt, j'visser un lot, j'm'en vais Ah, ah, ah Corleone et Capitaine assassinent les prods et les opps, négro Opps, négro Rajoute deux millions pour qu'on vienne, négro Ouh Action, réaction Paw, cons' plus de gaz qu'un avion à réaction So le gang, so les factions Ekip, avec le fer, RÀF des tractions Que des dégaines cramées dans le bloc Dégaines cramées dans le bloc Encore une sse-lia, encore un homicide Ouh, ouh Action, réaction Paw, cons' plus de gaz qu'un avion à réaction So le gang, so les factions Ekip, avec le fer RAF, des tractions Tu vas mourir un peu comme Pop Smoke Encore une sse-lia, encore un homicide Ouh, ouh Action, réaction, cons' plus de gaz qu'un avion à réaction Que des dégaines cramées dans le bloc Dégaines cramées dans le bloc, ouh, ouh Action, réaction, cons' plus de gaz qu'un avion à réaction So le gang, so les factions, avec le fer, RÀF des tractions Tu vas mourir un peu comme Pop Smoke Encore une sse-lia, encore un homicide Ouh, ouh, ouh</t>
+          <t>Ouh, ouh Capitaine, capitaine, capitaine Ekip, ekip, ekip Freeze Corleone, 6.6.7, P.S.O P.S.O Han, han, double bang Eh Skurt, skurt, skurt Tou-tou-tou-tou-tou-touh Paw, paw Tou-tou-tou-tou-tou-touh Skurt, skurt, skurt Corleone, Leto, Drogba, Eto'o Han, maîtrise les métaux comme Magneto Avec le sang des prods, ça refait la déco', très rare si j'la mets à té-cô, vista à Deco Pah, pah 6.6.7, P.S.O Ekip, j'suis avec Capi et Seum dans l'vai-ai-sseau Skurt Bientôt millionnaire avec des so Cash, que du lin, négro, fuck des V.S.O.P Ouh, ouh 9.3.5, XV Barbar Ekip, réfléchis comme si j'ai fait Harvard Han Chaque son, c'est un décès par barre, concu' on les mange cru comme des tartares Haha, haha, ekip, ekip Faut-faut-faut les sous Ekip, négro, faut ça vite Cash J'arrive fons' aux pills comme Sosa Geek, fonce-dé, hors ligne, mais négro, ça geek So Benny, il m'faut un salaire d'attaquant droit J'sais c'que j'dis, j'sais c'que j'écris comme si j'ai fait la fac en droit Eh Quand j'ai la balle, un panier ou un assist' Voi-voi-voiture allemande, j'la pilote comme un raciste Ouh, ouh Action, réaction Paw, cons' plus de gaz qu'un avion à réaction So le gang, so les factions Ekip, avec le fer, RÀF des tractions Que des dégaines cramées dans le bloc Dégaines cramées dans le bloc Encore une sse-lia, encore un homicide Ouh, ouh Action, réaction Paw, cons' plus de gaz qu'un avion à réaction So le gang, so les factions Ekip, avec le fer, RÀF des tractions Tu vas mourir un peu comme Pop Smoke, ekip Encore une sse-lia, encore un homicide Ouh, ouh Que des temps plein, temps plein, temps plein Temps plein, charbon tous les jours Charbon tous les jours Bifton j'accumule, badaboum, tu recules, souffrance, dans le hood Badaboum So Freeze, Capitaine, dans ton ze-n, c'est de la pure qu'on t'vend Oui C'est la violence, c'est les Vatos, que des bastos pour du matos Touh On empeste le biff Biff, Louis Vui', Louis Vui' Louis Vui', Louis Vui' 6.6.7 et P.S.O qui rafalent ton hall sur la mélodie Rrah, rrah J'rajoute un flash qui me détruit le corps, j'pourrais soulever le marteau d'Thor Raj' Que des billets pour combler ma faim Rrah, que des coups de couteau dans le foie Coupe, coupe Si tu joues, on t'allume, on t'éteint Tou-touh, mais grâce à Dieu, j'ai gardé la foi Merci J'suis dans le Range Rover Skurt, skurt, skurt, j'visser un lot, j'm'en vais Ah, ah, ah Corleone et Capitaine assassinent les prods et les opps, négro Opps, négro Rajoute deux millions pour qu'on vienne, négro Ouh Action, réaction Paw, cons' plus de gaz qu'un avion à réaction So le gang, so les factions Ekip, avec le fer, RÀF des tractions Que des dégaines cramées dans le bloc Dégaines cramées dans le bloc Encore une sse-lia, encore un homicide Ouh, ouh Action, réaction Paw, cons' plus de gaz qu'un avion à réaction So le gang, so les factions Ekip, avec le fer RAF, des tractions Tu vas mourir un peu comme Pop Smoke Encore une sse-lia, encore un homicide Ouh, ouh Action, réaction, cons' plus de gaz qu'un avion à réaction Que des dégaines cramées dans le bloc Dégaines cramées dans le bloc, ouh, ouh Action, réaction, cons' plus de gaz qu'un avion à réaction So le gang, so les factions, avec le fer, RÀF des tractions Tu vas mourir un peu comme Pop Smoke Encore une sse-lia, encore un homicide Ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Dans le Rap Jeu nerveux OV comme un soldat au front Cerveau couleur kaki fils Comme un soldat au front Dans mes vers tu n'as pas pied J'fais pas c'que les pros font Des énormes vides dans ton assiette Sont ce que mes crocs font Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Ah ouais t'as un blème-pro ? Viens m'voir, spécifie le moi Tu crois que je parle pour rien Vas-y viens m'voir, vérifie renoi Négro so 'Rus Jack J'roule des battes de baseball comme si j'avais 6 doigts Fonce comme une gova allemande T'es plus sur le rétro j't'élimine moi Négros taffent comme des asiats Mais la qualité n'est pas chinese Négro j'suis que sur des bails G's On te niquera si t'as la maille mise Le ciel est beau mais je garde les pieds ici Tu peux pas me djo même en fly peace Euros, CFA, mailles G's Tu pourras pas trouver des failles fils So à Freeze, à la recherche du papier D'manières diverses et variées Ma tête est remplie comme les cojones De Tony Montana et son barillet Ne t'aventure pas là où t'as pas pied Mon R.A.P n'est pas maquillé BPK j'arrive avec mes alliés Je sais qu'j'aurai jamais à en radier Supra-négritude dans l'sang Négro dans les gènes à la Kemi Et on veut faire des carats bénis Uniformes yes, taga-treillis Lavage de veau-cer au microphone Propaganda, j'les illumine OVG, 667 N'essaye pas de rentrer, tu es inutile You might also like Dans le Rap Jeu nerveux OV comme un soldat au front Cerveau couleur kaki fils Comme un soldat au front Dans mes vers tu n'as pas pied J'fais pas c'que les pros font Des énormes vides dans ton assiette Sont ce que mes crocs font Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Échec et mat tu vas canner J'te mets sur la poêle, tu vas panner Deux tours d'avance sur toi, tu nous vois dans ton rétro Et tu crois qu'tu vas gagner 667, so les 3 chiffres MMS, LDO, squa' shit KakiCorleone, yeuz nois-chi Sur la prod' mitraille comme les frères Kouachi Faya dans la maison H24 ça consomme la loud J'attends la fin des temps Dans mon cerveau c'est comme Fallout Avec Kaki on bouge comme ça Fuck le Rap Game, comment ils peuvent être fug' comme ça Négro j'fume beaucoup d'lopito C'est pour ça qu'j'ai les yeux rouges comme ça 2015, finis les médicaments J'les blesse comme rupture des ligaments Tu connais déjà la réponse, négro Mais est-ce qu'on les fouette ? Bien sûr, évidemment So NLMB, so les 600 T'es dépassé comme un D600 Chen Zen négro, j'ai mes 6 sens A Dakar à la boutique, ton flow fait 600 Négro j'ai fumé 4 packs de loud Fffshh, fffshh, fffshh, fffshh Sur la prod comme dans Tekken Les combos enchaînent, Chen Zen j'ai les attaques de Law Fuck la France, chaque jour Goddamn mes négros n'viennent pas d'ici Dans le Rap Jeu nerveux OV Dans l'field dangereux comme des Black Disciples, ekip Dans le Rap Jeu nerveux OV comme un soldat au front Cerveau couleur kaki fils Comme un soldat au front Dans mes vers tu n'as pas pied J'fais pas c'que les pros font Des énormes vides dans ton assiette Sont ce que mes crocs font Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner</t>
+          <t>Dans le Rap Jeu nerveux OV comme un soldat au front Cerveau couleur kaki fils Comme un soldat au front Dans mes vers tu n'as pas pied J'fais pas c'que les pros font Des énormes vides dans ton assiette Sont ce que mes crocs font Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Ah ouais t'as un blème-pro ? Viens m'voir, spécifie le moi Tu crois que je parle pour rien Vas-y viens m'voir, vérifie renoi Négro so 'Rus Jack J'roule des battes de baseball comme si j'avais 6 doigts Fonce comme une gova allemande T'es plus sur le rétro j't'élimine moi Négros taffent comme des asiats Mais la qualité n'est pas chinese Négro j'suis que sur des bails G's On te niquera si t'as la maille mise Le ciel est beau mais je garde les pieds ici Tu peux pas me djo même en fly peace Euros, CFA, mailles G's Tu pourras pas trouver des failles fils So à Freeze, à la recherche du papier D'manières diverses et variées Ma tête est remplie comme les cojones De Tony Montana et son barillet Ne t'aventure pas là où t'as pas pied Mon R.A.P n'est pas maquillé BPK j'arrive avec mes alliés Je sais qu'j'aurai jamais à en radier Supra-négritude dans l'sang Négro dans les gènes à la Kemi Et on veut faire des carats bénis Uniformes yes, taga-treillis Lavage de veau-cer au microphone Propaganda, j'les illumine OVG, 667 N'essaye pas de rentrer, tu es inutile Dans le Rap Jeu nerveux OV comme un soldat au front Cerveau couleur kaki fils Comme un soldat au front Dans mes vers tu n'as pas pied J'fais pas c'que les pros font Des énormes vides dans ton assiette Sont ce que mes crocs font Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Échec et mat tu vas canner J'te mets sur la poêle, tu vas panner Deux tours d'avance sur toi, tu nous vois dans ton rétro Et tu crois qu'tu vas gagner 667, so les 3 chiffres MMS, LDO, squa' shit KakiCorleone, yeuz nois-chi Sur la prod' mitraille comme les frères Kouachi Faya dans la maison H24 ça consomme la loud J'attends la fin des temps Dans mon cerveau c'est comme Fallout Avec Kaki on bouge comme ça Fuck le Rap Game, comment ils peuvent être fug' comme ça Négro j'fume beaucoup d'lopito C'est pour ça qu'j'ai les yeux rouges comme ça 2015, finis les médicaments J'les blesse comme rupture des ligaments Tu connais déjà la réponse, négro Mais est-ce qu'on les fouette ? Bien sûr, évidemment So NLMB, so les 600 T'es dépassé comme un D600 Chen Zen négro, j'ai mes 6 sens A Dakar à la boutique, ton flow fait 600 Négro j'ai fumé 4 packs de loud Fffshh, fffshh, fffshh, fffshh Sur la prod comme dans Tekken Les combos enchaînent, Chen Zen j'ai les attaques de Law Fuck la France, chaque jour Goddamn mes négros n'viennent pas d'ici Dans le Rap Jeu nerveux OV Dans l'field dangereux comme des Black Disciples, ekip Dans le Rap Jeu nerveux OV comme un soldat au front Cerveau couleur kaki fils Comme un soldat au front Dans mes vers tu n'as pas pied J'fais pas c'que les pros font Des énormes vides dans ton assiette Sont ce que mes crocs font Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Échec et mat tu vas canner Négro, échec et mat tu vas canner</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Euh... quoi d'neuf docteur ? Y a un topo, j'descends d'la moto en Yamamoto Rah Toi, t'es un flocko, tu coûtes moins cher qu'Don Papa Baroko Tsia Zou', Freeze Corleone J'ai donné d'la coke de Gwada à ton papa Hey, pour pas qu'il parle créole Han, j'suis en Burberry, so Bambino, j'viens prendre le pouvoir comme Carlo Gambino Corleone, Zoubavir Ekip On est là pour encaisser des sous à vie Cash 6.6.7, 47, on fait les travaux comme en 47 Ha Chen Zen aka l'Agent 47 Pah Ekip à fond négro, y a pas quarante sectes Nan Hein, ramène les chèques, j'fais les autographes Rah J'tourne ma tête à chaque topographe J'te nique ta mère avec des fautes d'orthographe Hey, hey Zeubavi, Bronzerland, trop d'litiges Trop d'litiges Au Dino, y a trop d'dix piges Tsia Histoire de braco, les terrains d'héro-cocaïno addictifs Addictifs Deuxième Drillmatic, QB comme Illmatic Xan deux milligrammes, la pill m'a kick Xan Faut des liasses plus hautes que Mimie Mathy Cash J'reste loin d'eux comme si j'habite à Cincinnati J'découpe la prod comme dans Ninja Gaiden J'ai la foudre avec moi, les techniques à Raiden Fuck les présidents américains, du début à la fin, de Washington à Biden You might also like Tu connais, ça bi'-bi' sec Sec, un litron, je les liquide sec Rah Dans la trap, so 10.17 Hey, 47 Gang, so 6.6.7 Ekip Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West Tsia, rah J'suis dans les délits, wesh Tsia, la chatte à Kanye West Tsia Tu connais, ça bi'-bi' sec Sec, un litron, je les liquide sec Sec Dans la trap, so 10.17 Tsia, 47 Gang, so 6.6.7 Tsia Là j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West Tsia, rah J'suis dans les délits, wesh Rah, la chatte à Kanye West Rah So le Dino Ekip Lin comme le Pimo Lin Pétasse, j'viens d'Afrique comme le rhino' Ekip À chaque kilo, j'ferme les rideaux J'ai des halwa mais c'est pas des Haribo Tsia Instru', leurs membres, on les détache On fait qu'passer des caps, monter des étages Té-ma les plugs, so le gainage J'pète la bouteille après passage au péage Sur moi, j'ai neuf balles, je me sens comme Fifty Fin de la prod, son corps est bleu comme Mystique Ha Crois qu'il est tout bleu comme un rolling sixty Industrie, y a que des putes comme au District So le Freeze Co', j'suis avec Freezko J'attends les ients-cli, et j'attends le distro Tsia Bambi', Freeze, négro, on fait pas de disco Nan Sur le terrain, j'ai les passes de Isco Tu connais, faut les paradis fiscaux Rester loin pour ne pas qu'ils en disent trop Tu connais, dans le piège, pas de bistrot Nah Négro, j'attends les PayPal de Distro' Cash Sur le poignet, j'ai des cristaux J'ai des pierres so Le Comte de Monte-Cristo Rah Fuck le 6.6.6, fuck Méphisto J'vois vos rappeurs comme des Sisqo Sisqo Tu connais, ça bi'-bi' sec Sec, un litron, je les liquide sec Rah Dans la trap, so 10.17 Hey, 47 Gang, so 6.6.7 Ekip Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West Tsia, rah J'suis dans les délits, wesh Tsia, la chatte à Kanye West Tsia Tu connais, ça bi'-bi' sec Sec, un litron, je les liquide sec Sec Dans la trap, so 10.17 Tsia, 47 Gang, so 6.6.7 Tsia Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West Tsia, rah J'suis dans les délits, wesh Rah, la chatte à Kanye West Rah Tu connais ça bi'-bi' sec, un litron, je les liquide sec Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West J'suis dans les délits, wesh, la chatte à Kanye West Tu connais ça bi'-bi' sec, un litron, je les liquide sec Dans la trap, so 10.17, 47 Gang, so 6.6.7 Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West J'suis dans les délits, wesh, la chatte à Kanye West</t>
+          <t>Euh... quoi d'neuf docteur ? Y a un topo, j'descends d'la moto en Yamamoto Rah Toi, t'es un flocko, tu coûtes moins cher qu'Don Papa Baroko Tsia Zou', Freeze Corleone J'ai donné d'la coke de Gwada à ton papa Hey, pour pas qu'il parle créole Han, j'suis en Burberry, so Bambino, j'viens prendre le pouvoir comme Carlo Gambino Corleone, Zoubavir Ekip On est là pour encaisser des sous à vie Cash 6.6.7, 47, on fait les travaux comme en 47 Ha Chen Zen aka l'Agent 47 Pah Ekip à fond négro, y a pas quarante sectes Nan Hein, ramène les chèques, j'fais les autographes Rah J'tourne ma tête à chaque topographe J'te nique ta mère avec des fautes d'orthographe Hey, hey Zeubavi, Bronzerland, trop d'litiges Trop d'litiges Au Dino, y a trop d'dix piges Tsia Histoire de braco, les terrains d'héro-cocaïno addictifs Addictifs Deuxième Drillmatic, QB comme Illmatic Xan deux milligrammes, la pill m'a kick Xan Faut des liasses plus hautes que Mimie Mathy Cash J'reste loin d'eux comme si j'habite à Cincinnati J'découpe la prod comme dans Ninja Gaiden J'ai la foudre avec moi, les techniques à Raiden Fuck les présidents américains, du début à la fin, de Washington à Biden Tu connais, ça bi'-bi' sec Sec, un litron, je les liquide sec Rah Dans la trap, so 10.17 Hey, 47 Gang, so 6.6.7 Ekip Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West Tsia, rah J'suis dans les délits, wesh Tsia, la chatte à Kanye West Tsia Tu connais, ça bi'-bi' sec Sec, un litron, je les liquide sec Sec Dans la trap, so 10.17 Tsia, 47 Gang, so 6.6.7 Tsia Là j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West Tsia, rah J'suis dans les délits, wesh Rah, la chatte à Kanye West Rah So le Dino Ekip Lin comme le Pimo Lin Pétasse, j'viens d'Afrique comme le rhino' Ekip À chaque kilo, j'ferme les rideaux J'ai des halwa mais c'est pas des Haribo Tsia Instru', leurs membres, on les détache On fait qu'passer des caps, monter des étages Té-ma les plugs, so le gainage J'pète la bouteille après passage au péage Sur moi, j'ai neuf balles, je me sens comme Fifty Fin de la prod, son corps est bleu comme Mystique Ha Crois qu'il est tout bleu comme un rolling sixty Industrie, y a que des putes comme au District So le Freeze Co', j'suis avec Freezko J'attends les ients-cli, et j'attends le distro Tsia Bambi', Freeze, négro, on fait pas de disco Nan Sur le terrain, j'ai les passes de Isco Tu connais, faut les paradis fiscaux Rester loin pour ne pas qu'ils en disent trop Tu connais, dans le piège, pas de bistrot Nah Négro, j'attends les PayPal de Distro' Cash Sur le poignet, j'ai des cristaux J'ai des pierres so Le Comte de Monte-Cristo Rah Fuck le 6.6.6, fuck Méphisto J'vois vos rappeurs comme des Sisqo Sisqo Tu connais, ça bi'-bi' sec Sec, un litron, je les liquide sec Rah Dans la trap, so 10.17 Hey, 47 Gang, so 6.6.7 Ekip Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West Tsia, rah J'suis dans les délits, wesh Tsia, la chatte à Kanye West Tsia Tu connais, ça bi'-bi' sec Sec, un litron, je les liquide sec Sec Dans la trap, so 10.17 Tsia, 47 Gang, so 6.6.7 Tsia Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West Tsia, rah J'suis dans les délits, wesh Rah, la chatte à Kanye West Rah Tu connais ça bi'-bi' sec, un litron, je les liquide sec Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West J'suis dans les délits, wesh, la chatte à Kanye West Tu connais ça bi'-bi' sec, un litron, je les liquide sec Dans la trap, so 10.17, 47 Gang, so 6.6.7 Là, j'suis fonce-dé, je vais zoner, porteur matrixé comme à Philly West J'suis dans les délits, wesh, la chatte à Kanye West</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 J'arrive d'en-haut comme Félix 667, clan d'élite NRM négro, Ligue des Ombres On finira en Bentley, eux en Vélib', hein Goddamn, voire en Autolib' MMS, comme Brick Squad Monopoly Tous les jours, toute la journée Jet life négro, fume des brocolis Def tate comme si j'étais sous krokodil J'débarque à Poudlard comme le jeune Tom Au micro' lourd, négro comme 9 tonnes Usine bubble gum, vitriol, blunt pomme Osirus Jack, Corleone Mafieux noirs, négro néo-pègre 667, prototypes de néo-nègres Épidémie flow kaki, fléau nègre On contamine toute la planète Crack vert, CHR Calmette Bientôt vert comme un Namek Résidence, piscine, terrain d'basket En CFA, j'veux des milliards Argent liquide comme les frères Williams Future luxure, négro riche, bouche remplie d'or Appelle mes négros, avec 10 liasses Drift comme Chief Keef sur un quad noir Dans la Lambo' comme Swagg Man Complote contre ces bâtards Tous les jours négro, Mangemort Squa'-Squa', hein So Norsa', euthanasie flow Les souffrances venu abréger Euphrate bientôt asséché 667 furtif comme le KGB, goddamn You might also like Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 Lean dans l'sang, on est à Mach 6 J'vois la vie comme un chintok Jorrdee so, prod à XXX V'là l'biff, négro la weed dans l'Ziploc So Riki, j'cons 16 oz de lean Lopito, crack vert, XXX de-wee 667, on nique vos codes Envoyés par les States comme Boko Liasses en poche comme un Lombard Sur vos villages bombarde Chaque jour cons' deux once 4 Dans cette merde, on arrive comme la fonsdalle Dans le milieu pour un tas d'thunes Sous lean XXX Crack vert, j'lé-rou batte pure Dans le bando, mort comme à Flatbush Beta mentality, on t'double Ninja black, so Zuukou Flingue au cheville, flingue au cou Mangemort, free 9, free 22 La nouvelle secte, LDO Rôde le soir sur Gotham City Sans stress, ken tes gos Prépare ta chute, au calme izi Sur la prod j'fais muay-thaï Pour les fufus, pas l'time Freeze Corleone, Osirus Jack lÉventreur J'enlève ton foie, j'taille Dans la Bentley, weed en quantité Faya à l'arrivée du minotaure MMS, néo-entité Art noir et films d'horreurs Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6</t>
+          <t>Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 J'arrive d'en-haut comme Félix 667, clan d'élite NRM négro, Ligue des Ombres On finira en Bentley, eux en Vélib', hein Goddamn, voire en Autolib' MMS, comme Brick Squad Monopoly Tous les jours, toute la journée Jet life négro, fume des brocolis Def tate comme si j'étais sous krokodil J'débarque à Poudlard comme le jeune Tom Au micro' lourd, négro comme 9 tonnes Usine bubble gum, vitriol, blunt pomme Osirus Jack, Corleone Mafieux noirs, négro néo-pègre 667, prototypes de néo-nègres Épidémie flow kaki, fléau nègre On contamine toute la planète Crack vert, CHR Calmette Bientôt vert comme un Namek Résidence, piscine, terrain d'basket En CFA, j'veux des milliards Argent liquide comme les frères Williams Future luxure, négro riche, bouche remplie d'or Appelle mes négros, avec 10 liasses Drift comme Chief Keef sur un quad noir Dans la Lambo' comme Swagg Man Complote contre ces bâtards Tous les jours négro, Mangemort Squa'-Squa', hein So Norsa', euthanasie flow Les souffrances venu abréger Euphrate bientôt asséché 667 furtif comme le KGB, goddamn Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 Lean dans l'sang, on est à Mach 6 J'vois la vie comme un chintok Jorrdee so, prod à XXX V'là l'biff, négro la weed dans l'Ziploc So Riki, j'cons 16 oz de lean Lopito, crack vert, XXX de-wee 667, on nique vos codes Envoyés par les States comme Boko Liasses en poche comme un Lombard Sur vos villages bombarde Chaque jour cons' deux once 4 Dans cette merde, on arrive comme la fonsdalle Dans le milieu pour un tas d'thunes Sous lean XXX Crack vert, j'lé-rou batte pure Dans le bando, mort comme à Flatbush Beta mentality, on t'double Ninja black, so Zuukou Flingue au cheville, flingue au cou Mangemort, free 9, free 22 La nouvelle secte, LDO Rôde le soir sur Gotham City Sans stress, ken tes gos Prépare ta chute, au calme izi Sur la prod j'fais muay-thaï Pour les fufus, pas l'time Freeze Corleone, Osirus Jack lÉventreur J'enlève ton foie, j'taille Dans la Bentley, weed en quantité Faya à l'arrivée du minotaure MMS, néo-entité Art noir et films d'horreurs Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6 Mitraille au mic comme des Mac-10 On suit la tactique, eux ils pactisent Dans la crypte avec la clique Complot applique Corleone, Chirac défractés Dans la pirogue à Mach 6</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip, skrt MMS, LDO, NRM, 667 Pétasse Nazi comme BVB Fuck, it's easy Han, ekip, ekip Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'découpe facile, j'arrive avec une hache dans la cuisine Trouve moi dans l'piège en train d'fumer du hash dans la cuisine Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'découpe facile, j'arrive avec une hache dans la cuisine Trouve moi dans l'piège en train d'fumer du hash dans la cuisine MMS, LDO, 667, nazis comme BVB comme BVB Sur la prod comme JCVD J'suis comme nuage t'es comme DVD Pétasse J'vois en slow motion J'arrive dans le lin, toi dans l'Malibu J'arrive galsen comme Sadio Mané, comme Keita Baldé, comme Kalidou Gaddamn Met des tacles propres dans la surface Comme Radja dans la drogue, dans la surface goddamn, pétasse Chen Zen négro, transige comme Kara Mbodj dans la surface Consomme plus que quatre H3 Skur, skur Prof Chen, j'suis là c'est bon Ouvrez vos livres à la page 3 Trouve moi avec Bojack dans la H3, pétasse Skur, skur, skur, so l'enfant finesse Skur, skur Chen Zen tireur d'élite, de loin ça rentre en finesse Est-ce qu'on les fouette ? Négro j'suis comme yes, évidemment Chacun son truc, t'es dans la C, j'suis dans les médicaments goddamn, broma, pétasse, ekip So Blacky, on appelle, c'est pour collecter Khaliss So la prise, j'suis connecté Viens me voir en hiver pour les flows d'été Squa shit, pétasse J'arrive noichi, pétasse Rafale les prods, comme les frères Kouachi, pétasse You might also like Fuck les trois 6, pétasse Tu lackes, t'as tiré que sur 3 shits, pétasse Ftt, ftt So la secte, so le clan, so les trois chiffres, pétasse, ekip MMS, LDO, pétasse Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'découpe facile, j'arrive avec une hache dans la cuisine Trouve moi dans l'piège en train d'fumer du hash dans la cuisine Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'découpe facile, j'arrive avec une hache dans la cuisine Trouve moi dans l'piège en train d'fumer du hash dans la cuisine Ekip, ekip, ekip, ekip, ekip, ekip Pétasse, ahah Négro j'arrive dans le lin et toi dans l'Malibu J'arrive galsen comme Sadio Mané, Keita Baldé, comme Kalidou Met des tacles propres dans la surface, ahah Chen Zen negro, transige comme Kara Mbodj dans la surface, pétasse Ekip, ekip, ekip, ekip, hun, yeah Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'arrive j'découpe facile, le hash dans la cuisine Trouve moi en train d'fumer du hash dans la cuisine, pétasse Ekip1</t>
+          <t>Ekip, ekip, ekip, skrt MMS, LDO, NRM, 667 Pétasse Nazi comme BVB Fuck, it's easy Han, ekip, ekip Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'découpe facile, j'arrive avec une hache dans la cuisine Trouve moi dans l'piège en train d'fumer du hash dans la cuisine Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'découpe facile, j'arrive avec une hache dans la cuisine Trouve moi dans l'piège en train d'fumer du hash dans la cuisine MMS, LDO, 667, nazis comme BVB comme BVB Sur la prod comme JCVD J'suis comme nuage t'es comme DVD Pétasse J'vois en slow motion J'arrive dans le lin, toi dans l'Malibu J'arrive galsen comme Sadio Mané, comme Keita Baldé, comme Kalidou Gaddamn Met des tacles propres dans la surface Comme Radja dans la drogue, dans la surface goddamn, pétasse Chen Zen négro, transige comme Kara Mbodj dans la surface Consomme plus que quatre H3 Skur, skur Prof Chen, j'suis là c'est bon Ouvrez vos livres à la page 3 Trouve moi avec Bojack dans la H3, pétasse Skur, skur, skur, so l'enfant finesse Skur, skur Chen Zen tireur d'élite, de loin ça rentre en finesse Est-ce qu'on les fouette ? Négro j'suis comme yes, évidemment Chacun son truc, t'es dans la C, j'suis dans les médicaments goddamn, broma, pétasse, ekip So Blacky, on appelle, c'est pour collecter Khaliss So la prise, j'suis connecté Viens me voir en hiver pour les flows d'été Squa shit, pétasse J'arrive noichi, pétasse Rafale les prods, comme les frères Kouachi, pétasse Fuck les trois 6, pétasse Tu lackes, t'as tiré que sur 3 shits, pétasse Ftt, ftt So la secte, so le clan, so les trois chiffres, pétasse, ekip MMS, LDO, pétasse Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'découpe facile, j'arrive avec une hache dans la cuisine Trouve moi dans l'piège en train d'fumer du hash dans la cuisine Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'découpe facile, j'arrive avec une hache dans la cuisine Trouve moi dans l'piège en train d'fumer du hash dans la cuisine Ekip, ekip, ekip, ekip, ekip, ekip Pétasse, ahah Négro j'arrive dans le lin et toi dans l'Malibu J'arrive galsen comme Sadio Mané, Keita Baldé, comme Kalidou Met des tacles propres dans la surface, ahah Chen Zen negro, transige comme Kara Mbodj dans la surface, pétasse Ekip, ekip, ekip, ekip, hun, yeah Pétasse, j'mets du broma dans ma boisson Fils, si t'as pas l'niveau pour toi c'est le coma dans ma boisson Fonscar j'arrive j'découpe facile, le hash dans la cuisine Trouve moi en train d'fumer du hash dans la cuisine, pétasse Ekip1</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Un-Un-Unprediktable Ekip, ekip, ekip Chen Zen, Veerus Pétasse Alerte rouge sur la capitale Woaw, j'ai que du magma dans les amygdales On sait bien qu'le système est pyramidal Quoi ?, les p'tits ont des problèmes de foie comme Abidal Yeah Gros aqua, mal 'fonce dans l'habitacle, il m'faut des centaines de mètres carrés habitables Cash Ça joue pareil en coupe ou en amical Ouais, so Twista, j'arrive dans l'jeu en kamikaze Bitch Véhicule allemand gris nardo Eh, numéro 10 comme Rivaldo Dix Je suis dans le game comme FIFA, tête dans le vide, c'est une snitch et il sniffe la dope J'suis comme Davies, t'es comme Grimaldo Skurt, j'suis un océan, c'est des p'tites flaques d'eau Ouais So mes OBS qui débitent la dope, selfmade, négro, mérite chaque dough Ma liasse dépasserait un poste cinq Pire, j'écris des images, j'suis un genre de peintre Pire Eux, ils portent l'il ou ils portent plainte, demande à Saza', j'porte mes couilles, pas d'porte-flingue Ah Ma liasse dépasserait cinq corps de singe Cash, cash, on peut pas être stoppés par des portes simples NanJ'arrive plus lourd que tout l'port de Sing' Woah, j'me sens protégé quand je porte le flingue Tout ce qu'il nous faut, c'est des mallettes de cash, reste serein quand le Classe S te flashe C'est vrai qu'en club, ils parlent beaucoup, pourtant, j'entends plus rien à chaque fois qu'la gâchette se fâche Toseina, Fanta, ça fait le flash, j'suis avec la loud, j'suis avec le hasch' Pas d'démon, j'te l'ai d'jà dit avec le Ashe, pétasse, on multiplie l'cash avec le cash Tout ce qu'il nous faut, c'est des mallettes de cash, reste serein quand le Classe S te flashe C'est vrai qu'en club, ils parlent beaucoup, pourtant, j'entends plus rien à chaque fois qu'la gâchette se fâche Toseina, Fanta, ça fait le flash, j'suis avec la loud, j'suis avec le hasch' Pas d'démon, j'te l'ai d'jà dit avec le Ashe, pétasse, on multiplie l'cash avec le cash You might also like Chen Zen, Prince Vee, j'm'allume comme si j'avais cinq vies Pire J'veux palper comme si j'avais cinq villes, concu' ils sont finis, ils sont en fin d'vie Hey Le drapeau noir sur le drakkar, so mes Somal' pour le maka Ekip J'veux prendre le ballon d'or à Kaká Kaká, fais du biff de PS à Dakar Skurt, pire J'veux le fromage, le pain, le gâteau, R.E.P mes négros qui meurent sur le bateau Yeah J'suis le boss, le jefe, le capo, j'suis grand comme une galaxie, ils sont p'tits comme deux atomes Yeah Ice 'o lator, Caliweed sous la parka, négro, j'vois l'rap game comme une salle d'arcade Faut qu'je multiplie tous mes gains par quatre, les petits pensent au bénéf' depuis l'cartable Corleone, Veerus, on avance comme corbillard d'vant l'hosto' La drogue passe par les services postaux, t'arrêteras pas les balles même si t'es costaud Pah, pah On est là pour les maxi-gains, on arrive d'ailleurs comme des Martiens Eh, eh Ça va plus déraper que dans Taxi 1 car j'suis gwada et speed comme Saint-Maximin 9.7.1 Tout ce qu'il nous faut, c'est des mallettes de cash, reste serein quand le Classe S te flashe C'est vrai qu'en club, ils parlent beaucoup, pourtant, j'entends plus rien à chaque fois qu'la gâchette se fâche Toseina, Fanta, ça fait le flash, j'suis avec la loud, j'suis avec le hasch' Pas d'démon, j'te l'ai d'jà dit avec le Ashe, pétasse, on multiplie l'cash avec le cash Tout ce qu'il nous faut, c'est des mallettes de cash, reste serein quand le Classe S te flashe C'est vrai qu'en club, ils parlent beaucoup, pourtant, j'entends plus rien à chaque fois qu'la gâchette se fâche Toseina, Fanta, ça fait le flash, j'suis avec la loud, j'suis avec le hasch' Pas d'démon, j'te l'ai d'jà dit avec le Ashe, pétasse, on multiplie l'cash avec le cash</t>
+          <t>Un-Un-Unprediktable Ekip, ekip, ekip Chen Zen, Veerus Pétasse Alerte rouge sur la capitale Woaw, j'ai que du magma dans les amygdales On sait bien qu'le système est pyramidal Quoi ?, les p'tits ont des problèmes de foie comme Abidal Yeah Gros aqua, mal 'fonce dans l'habitacle, il m'faut des centaines de mètres carrés habitables Cash Ça joue pareil en coupe ou en amical Ouais, so Twista, j'arrive dans l'jeu en kamikaze Bitch Véhicule allemand gris nardo Eh, numéro 10 comme Rivaldo Dix Je suis dans le game comme FIFA, tête dans le vide, c'est une snitch et il sniffe la dope J'suis comme Davies, t'es comme Grimaldo Skurt, j'suis un océan, c'est des p'tites flaques d'eau Ouais So mes OBS qui débitent la dope, selfmade, négro, mérite chaque dough Ma liasse dépasserait un poste cinq Pire, j'écris des images, j'suis un genre de peintre Pire Eux, ils portent l'il ou ils portent plainte, demande à Saza', j'porte mes couilles, pas d'porte-flingue Ah Ma liasse dépasserait cinq corps de singe Cash, cash, on peut pas être stoppés par des portes simples NanJ'arrive plus lourd que tout l'port de Sing' Woah, j'me sens protégé quand je porte le flingue Tout ce qu'il nous faut, c'est des mallettes de cash, reste serein quand le Classe S te flashe C'est vrai qu'en club, ils parlent beaucoup, pourtant, j'entends plus rien à chaque fois qu'la gâchette se fâche Toseina, Fanta, ça fait le flash, j'suis avec la loud, j'suis avec le hasch' Pas d'démon, j'te l'ai d'jà dit avec le Ashe, pétasse, on multiplie l'cash avec le cash Tout ce qu'il nous faut, c'est des mallettes de cash, reste serein quand le Classe S te flashe C'est vrai qu'en club, ils parlent beaucoup, pourtant, j'entends plus rien à chaque fois qu'la gâchette se fâche Toseina, Fanta, ça fait le flash, j'suis avec la loud, j'suis avec le hasch' Pas d'démon, j'te l'ai d'jà dit avec le Ashe, pétasse, on multiplie l'cash avec le cash Chen Zen, Prince Vee, j'm'allume comme si j'avais cinq vies Pire J'veux palper comme si j'avais cinq villes, concu' ils sont finis, ils sont en fin d'vie Hey Le drapeau noir sur le drakkar, so mes Somal' pour le maka Ekip J'veux prendre le ballon d'or à Kaká Kaká, fais du biff de PS à Dakar Skurt, pire J'veux le fromage, le pain, le gâteau, R.E.P mes négros qui meurent sur le bateau Yeah J'suis le boss, le jefe, le capo, j'suis grand comme une galaxie, ils sont p'tits comme deux atomes Yeah Ice 'o lator, Caliweed sous la parka, négro, j'vois l'rap game comme une salle d'arcade Faut qu'je multiplie tous mes gains par quatre, les petits pensent au bénéf' depuis l'cartable Corleone, Veerus, on avance comme corbillard d'vant l'hosto' La drogue passe par les services postaux, t'arrêteras pas les balles même si t'es costaud Pah, pah On est là pour les maxi-gains, on arrive d'ailleurs comme des Martiens Eh, eh Ça va plus déraper que dans Taxi 1 car j'suis gwada et speed comme Saint-Maximin 9.7.1 Tout ce qu'il nous faut, c'est des mallettes de cash, reste serein quand le Classe S te flashe C'est vrai qu'en club, ils parlent beaucoup, pourtant, j'entends plus rien à chaque fois qu'la gâchette se fâche Toseina, Fanta, ça fait le flash, j'suis avec la loud, j'suis avec le hasch' Pas d'démon, j'te l'ai d'jà dit avec le Ashe, pétasse, on multiplie l'cash avec le cash Tout ce qu'il nous faut, c'est des mallettes de cash, reste serein quand le Classe S te flashe C'est vrai qu'en club, ils parlent beaucoup, pourtant, j'entends plus rien à chaque fois qu'la gâchette se fâche Toseina, Fanta, ça fait le flash, j'suis avec la loud, j'suis avec le hasch' Pas d'démon, j'te l'ai d'jà dit avec le Ashe, pétasse, on multiplie l'cash avec le cash</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Next, World War 3, yah It killed that shit, pussy Yah Crimi Traces de bélier sur la porte d'entrée damn, ient-cli a pris deux g d'un trait On sait même plus ce qu'est le danger, j'ai jamais su me mélanger damn Ton enfant, on peut te l'enlever damn, comme dans Man on Fire comme dans Man on Fire Ma plume, personne peut me l'enlever personne, j'écris sous Jack Fire Jack Fire Dans la pièce, tout l'monde est faya, suis-moi, n'ai pas de frayeur J'passe ls vitesses sans débrayer sku, pas d'page blanche, que des nuits blanches Ici, si t'as pas d'blanche, t'as pas de lovés, y a pas d'jours férié, pas d'dimanche De février à février waoh, faut du VVS, faut briller Mais avant ça, faut trimer, risquer dix piges par trimestre Crimi' On déclare pas nos sinistres Crimi', négro, j'connais aucun ministre Drogue dure, tu t'administres chh, j'écrase des troupes, des milices Crimi, hey, faites place à King Crimi' Pirate comme dans One Piece pirate comme dans, j'fous le feu sur la piste j'fous l'fire Joint à la bouche quand j'pisse sku, sku, pétasse, j'suis un artiste pétasse, pétasse Nouveau flow, nouvelle session, en haut d'la pyramide, j'porte lil, j'mets la pression hey J'm'incruste bourré à ton émission sku, sku, c'est l'marabout qui t'envoie ses bénédictions waw, eh J'remplis la cristalline de Poliakov j'remplis la cristalline J'suis l'fils à Poutine, fume la frappe de Kolarov j'fume la ppe-fra J'remplis la cristalline de Poliakov j'remplis la cristalline J'suis l'fils à Poutine, fume la frappe de Kolarov j'fume la ppe-fra You might also like Han, ekip J'arri-j'arrive fons' comme pas permis, Chen Zen, vrai négro comme Kaepernick han Négro, c'est des fufu ils mettent v'là d'vernis So Crimi', j'charbonne de février à février han, négro, on a la loud qui fait vriller Chaque matin, j'remercie l'Seigneur, j'espère éviter les flammes même si j'sais qu'j'vais griller goddamn Maîtrise boîtes manuelles, boîtes auto sku, sku, que du taff, pas d'chance, négro, pas d'Loto nan, nan Yeuz' plissés, j'arrive Japonais, négro, comme Yamamoto eh Sous sirop, j'pilote bien, pas d'carton sku, négro, j'consomme le lin par carton lin J'roule un gros backwood comme Fredo Santana, j'mets trois g cinq et pas d'carton Éviter les flics et les sortilèges, effrite le shit, les motos qui s'lèvent Y a plus d'un tit-pe qui veut prendre ta place feu, feu, y a plus d'un tir qui finissent dans la face feu, feu Envoie la recette, on fera la maille piou, piou, piou, piou J't'envoie la pochette pour qu'tu prennes ton rail J'attends la prochaine pour lui mettre dans l'cavu, trace j'ai rien entendu, j'ai rien vu Jette les preuves dans l'ravin, j'confonds pas les faux, les braves, hein Le mélange est dans la Cristalline, c'est pas une impression, gros, j't'ai sali beh, beh, beh, beh Gros, j'ai fait des missions, des missions brr, brr, mise sur la précision si ça tire, paw Toujours en plein dans l'mille hey, non, je tire pas sur l'poteau nan Efficace comme Hernán Crespo oui, clic-clac, bang-bang dans la ville Tout s'passe à distance sur la moto, j'attends comme corbeau sur terrain vague Tu veux nous faire ? Pff, la blague, rien à cacher, j'gère pas mes cartes hey Comme les premiers cyphers dans le parc, j'le fais seulement pour mettre ccord-d'a tous mes blacks C'est nos visages sur le Kodak Kodak, nos étendards sur la map hey Next Level, 6.6.7, Power Gang, D.S.M, 1.9.9.3, 500 Squad Contrôle systématique hey, produit dans du plastique plastique Grosse liasse, pas d'élastique élastique Bad bitch, quand j'ai la trique, boîte automatique yah Fuck le rallye, bitch, j'suis pas dans la course, j'poursuis l'cash, pute, j'attends pas la bourse Poignet tornade dans la cuisine, 2.2.4.6.7 sili', bitch, on a la goutte Sept gros-né dans le boug, aucune pouf, fais le ouf, si t'es louche, on va t'bouger Macky gas peut t'coucher, fini, gros-né tchatchent mais j'sais qu'ils vont faire tchili</t>
+          <t>Next, World War 3, yah It killed that shit, pussy Yah Crimi Traces de bélier sur la porte d'entrée damn, ient-cli a pris deux g d'un trait On sait même plus ce qu'est le danger, j'ai jamais su me mélanger damn Ton enfant, on peut te l'enlever damn, comme dans Man on Fire comme dans Man on Fire Ma plume, personne peut me l'enlever personne, j'écris sous Jack Fire Jack Fire Dans la pièce, tout l'monde est faya, suis-moi, n'ai pas de frayeur J'passe ls vitesses sans débrayer sku, pas d'page blanche, que des nuits blanches Ici, si t'as pas d'blanche, t'as pas de lovés, y a pas d'jours férié, pas d'dimanche De février à février waoh, faut du VVS, faut briller Mais avant ça, faut trimer, risquer dix piges par trimestre Crimi' On déclare pas nos sinistres Crimi', négro, j'connais aucun ministre Drogue dure, tu t'administres chh, j'écrase des troupes, des milices Crimi, hey, faites place à King Crimi' Pirate comme dans One Piece pirate comme dans, j'fous le feu sur la piste j'fous l'fire Joint à la bouche quand j'pisse sku, sku, pétasse, j'suis un artiste pétasse, pétasse Nouveau flow, nouvelle session, en haut d'la pyramide, j'porte lil, j'mets la pression hey J'm'incruste bourré à ton émission sku, sku, c'est l'marabout qui t'envoie ses bénédictions waw, eh J'remplis la cristalline de Poliakov j'remplis la cristalline J'suis l'fils à Poutine, fume la frappe de Kolarov j'fume la ppe-fra J'remplis la cristalline de Poliakov j'remplis la cristalline J'suis l'fils à Poutine, fume la frappe de Kolarov j'fume la ppe-fra Han, ekip J'arri-j'arrive fons' comme pas permis, Chen Zen, vrai négro comme Kaepernick han Négro, c'est des fufu ils mettent v'là d'vernis So Crimi', j'charbonne de février à février han, négro, on a la loud qui fait vriller Chaque matin, j'remercie l'Seigneur, j'espère éviter les flammes même si j'sais qu'j'vais griller goddamn Maîtrise boîtes manuelles, boîtes auto sku, sku, que du taff, pas d'chance, négro, pas d'Loto nan, nan Yeuz' plissés, j'arrive Japonais, négro, comme Yamamoto eh Sous sirop, j'pilote bien, pas d'carton sku, négro, j'consomme le lin par carton lin J'roule un gros backwood comme Fredo Santana, j'mets trois g cinq et pas d'carton Éviter les flics et les sortilèges, effrite le shit, les motos qui s'lèvent Y a plus d'un tit-pe qui veut prendre ta place feu, feu, y a plus d'un tir qui finissent dans la face feu, feu Envoie la recette, on fera la maille piou, piou, piou, piou J't'envoie la pochette pour qu'tu prennes ton rail J'attends la prochaine pour lui mettre dans l'cavu, trace j'ai rien entendu, j'ai rien vu Jette les preuves dans l'ravin, j'confonds pas les faux, les braves, hein Le mélange est dans la Cristalline, c'est pas une impression, gros, j't'ai sali beh, beh, beh, beh Gros, j'ai fait des missions, des missions brr, brr, mise sur la précision si ça tire, paw Toujours en plein dans l'mille hey, non, je tire pas sur l'poteau nan Efficace comme Hernán Crespo oui, clic-clac, bang-bang dans la ville Tout s'passe à distance sur la moto, j'attends comme corbeau sur terrain vague Tu veux nous faire ? Pff, la blague, rien à cacher, j'gère pas mes cartes hey Comme les premiers cyphers dans le parc, j'le fais seulement pour mettre ccord-d'a tous mes blacks C'est nos visages sur le Kodak Kodak, nos étendards sur la map hey Next Level, 6.6.7, Power Gang, D.S.M, 1.9.9.3, 500 Squad Contrôle systématique hey, produit dans du plastique plastique Grosse liasse, pas d'élastique élastique Bad bitch, quand j'ai la trique, boîte automatique yah Fuck le rallye, bitch, j'suis pas dans la course, j'poursuis l'cash, pute, j'attends pas la bourse Poignet tornade dans la cuisine, 2.2.4.6.7 sili', bitch, on a la goutte Sept gros-né dans le boug, aucune pouf, fais le ouf, si t'es louche, on va t'bouger Macky gas peut t'coucher, fini, gros-né tchatchent mais j'sais qu'ils vont faire tchili</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Ohla dès que je suis à 600K je me fais la malle Ce fufu roule du cul son tampon se fait la malle J'ai la dalle B cómo te llama Dans ma Suica j'ai mille balles Ma ritale sait faire du yassa Je mange bio, j'ai les phases pour phase des meufs igo J'ai les pass pour sauter des niveaux J'ai les skills, Zuukou clasico Je baise comme Sur le dragon comme Chihiro Je plane, je dérive igo Y a trop de sirop dans le Tropico You might also like Et on remet ça J'me souviens plus de toi La prochaine qu'j'reviens chez toi C'est pour qu'ton père me vouvoie Et on remet ça J'me souviens plus de toi La prochaine qu'j'reviens chez toi C'est pour qu'ton père me vouvoie Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Han Dès qu'j'suis à 600K je me fais la malle Braque le jeu J'appelle le Doc, j'appelle le Shak Pour faire le coffre négro, pour faire la malle Prof Chen, Zuukoeur Parker Sur la prod Eddie Brock et Peter Parker Négro j'arrive encré comme Travis Barker Gaddem skskrt So le plug, so Medellin J'ai des shits, j'ai des pills négro, j'ai des leans So Leandoer, so Thaiboy Je fume la loud, tu fumes la paille boy A chaque fois que tu rappes négro, ça baille boy Ceinture Burberry sur la taille boy So Leandoer, so Thaiboy Je fume la loud, tu fumes la paille boy A chaque fois que tu rappes négro, ça baille boy Ceinture Burberry sur la taille boy Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Bon là dès qu'j'suis à 600K je me fais la malle Ce fufu roule du cul son</t>
+          <t>Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Ohla dès que je suis à 600K je me fais la malle Ce fufu roule du cul son tampon se fait la malle J'ai la dalle B cómo te llama Dans ma Suica j'ai mille balles Ma ritale sait faire du yassa Je mange bio, j'ai les phases pour phase des meufs igo J'ai les pass pour sauter des niveaux J'ai les skills, Zuukou clasico Je baise comme Sur le dragon comme Chihiro Je plane, je dérive igo Y a trop de sirop dans le Tropico Et on remet ça J'me souviens plus de toi La prochaine qu'j'reviens chez toi C'est pour qu'ton père me vouvoie Et on remet ça J'me souviens plus de toi La prochaine qu'j'reviens chez toi C'est pour qu'ton père me vouvoie Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Han Dès qu'j'suis à 600K je me fais la malle Braque le jeu J'appelle le Doc, j'appelle le Shak Pour faire le coffre négro, pour faire la malle Prof Chen, Zuukoeur Parker Sur la prod Eddie Brock et Peter Parker Négro j'arrive encré comme Travis Barker Gaddem skskrt So le plug, so Medellin J'ai des shits, j'ai des pills négro, j'ai des leans So Leandoer, so Thaiboy Je fume la loud, tu fumes la paille boy A chaque fois que tu rappes négro, ça baille boy Ceinture Burberry sur la taille boy So Leandoer, so Thaiboy Je fume la loud, tu fumes la paille boy A chaque fois que tu rappes négro, ça baille boy Ceinture Burberry sur la taille boy Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Rôdeur, zoukeur Y'a l'Prof Chen, y'a l'Zuukoeur Comme Wahlberg j'suis l'shooter Comme Djouba j'vise ton cur T'es obscène, crie son cur Mais change pas, crie son cur J'plane, j'plane Shine dans la Yamanote Line Bon là dès qu'j'suis à 600K je me fais la malle Ce fufu roule du cul son</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Haha, ekip, ekip, killu', killu' Chen Zen, Afro S 2015, 2016, 2017, 2020, 2025 Salope, salope, NRM J'arrive au micro, précis goddamn Comme si j'étais dans la Marine tah 667, audio drogue dure dans tes oreilles Comme cocaïne dans ta narine wouh J'ai katana-flow aiguisé Dans l'jeu j'vois que des faux déguisés goddamn So Lala, Chen Zen, professeur agrégé Tu veux rapper avec nous, fils faut réviser goddamn Mes négros transigent comme des patrons Cons' plus d'essence que Mégatron sku Tous les jours nique le triple-6 Satan et ses suppôts, inch'Allah nous les battrons goddamn Mon vieux dit qu'j'ressemble à un taulard Dans ma tête c'est froid comme un polar goddamn Crache des flammes comme un mollard han Nique la pyramide sur l'billet d'un dollar, hein J'garde mon âme même si ça pop, négro han En soum-soum lance torpilles dans la coque, négro Fuck le Diable, finie la cod', négro goddamn J'veux des thunes mais jamais j'ferai d'la pop, négro nan, nan Vue sur la mer, j'complote avec Afro S So Chavez, fufu pour nous t'es qu'un accro-S, ekip You might also like Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' MMS, LDO Qu'est-c'tu veux faire contre des ombres, fils ? Rien qu'on s'allume Mais pourtant tu sais qu'on reste sombre, fils La vie c'est pas un conte A la fin j'vais devoir rendre des comptes J'fais gaffe à ma tombe Donc donner mon âme c'est l'comble Qu'est-c'tu racontes ? J'suis loin des bails noirs d'illu' Dans des bails noirs killus Prends pas d'pilule, tous les jours On fuck un illu', on est des élus Gros ça va pop Ça va pas rédu', 2000ze-quin La machine tourne Tout s'passe comme prévu Un peu d'lopito, et d'mojito Puis j'cogite trop Il faut des loves, tout simplement Parce qu'on l'mérite, kho Le micro chauffe, pendant qu'tu chaumes Tu vas finir chauve Double-6 7, équipe killu' Arrive comme séisme dans les Loges, ah Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa'</t>
+          <t>Haha, ekip, ekip, killu', killu' Chen Zen, Afro S 2015, 2016, 2017, 2020, 2025 Salope, salope, NRM J'arrive au micro, précis goddamn Comme si j'étais dans la Marine tah 667, audio drogue dure dans tes oreilles Comme cocaïne dans ta narine wouh J'ai katana-flow aiguisé Dans l'jeu j'vois que des faux déguisés goddamn So Lala, Chen Zen, professeur agrégé Tu veux rapper avec nous, fils faut réviser goddamn Mes négros transigent comme des patrons Cons' plus d'essence que Mégatron sku Tous les jours nique le triple-6 Satan et ses suppôts, inch'Allah nous les battrons goddamn Mon vieux dit qu'j'ressemble à un taulard Dans ma tête c'est froid comme un polar goddamn Crache des flammes comme un mollard han Nique la pyramide sur l'billet d'un dollar, hein J'garde mon âme même si ça pop, négro han En soum-soum lance torpilles dans la coque, négro Fuck le Diable, finie la cod', négro goddamn J'veux des thunes mais jamais j'ferai d'la pop, négro nan, nan Vue sur la mer, j'complote avec Afro S So Chavez, fufu pour nous t'es qu'un accro-S, ekip Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' MMS, LDO Qu'est-c'tu veux faire contre des ombres, fils ? Rien qu'on s'allume Mais pourtant tu sais qu'on reste sombre, fils La vie c'est pas un conte A la fin j'vais devoir rendre des comptes J'fais gaffe à ma tombe Donc donner mon âme c'est l'comble Qu'est-c'tu racontes ? J'suis loin des bails noirs d'illu' Dans des bails noirs killus Prends pas d'pilule, tous les jours On fuck un illu', on est des élus Gros ça va pop Ça va pas rédu', 2000ze-quin La machine tourne Tout s'passe comme prévu Un peu d'lopito, et d'mojito Puis j'cogite trop Il faut des loves, tout simplement Parce qu'on l'mérite, kho Le micro chauffe, pendant qu'tu chaumes Tu vas finir chauve Double-6 7, équipe killu' Arrive comme séisme dans les Loges, ah Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa' Fufu, dégage d'ici, avec toi prends tes fu-shits Fugazis négros, on les graille en deuspi, négro comme sushis Tu m'as vu les yeuz plissés, normal j'étais sous shit Goddamn libérez 9, Cdai et Gucci, squa'</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>So le Flem J'sais qu'ils ont volé toutes nos terres, veulent qu'on soit concentrés sur le cours d'l'Ether J'dois faire graille tous les frères, j'm'en bats les couilles des paires J'veux le cash, rien à foutre des keh, pleine lucarne, j'la mets sous l'équerre 20-21, on arrive full déter', dans la trap house, que ça roule des tehs Ouais, j'ai le cur en morceau, des frères en promenade qui taffent les dorsaux Y a des choses que j'me suis promis de n'pas faire Comme en affaires, dans la vie, y a des choses à ne pas faire Faut les codes pour s'lancer dans les affaires, joue pas avec nos émotions ramène les affaires 6.6.7, Lyonzon, équipe de barbares, 2-2, Freeze, on peut écrire plus de dix milles bars, bars On arrive sur la prod' comme dix milles , Et des MC's j'en termine plus d'dix milles barbas Maintenant si j'veux, j'facture le feat dix milles par bars Hein, dix milles par bars Ils ont essayé d'nous effacer, on les a tous dépassés 'passés Art de la guerre, maîtrise du terrain Terrain, terrainYou might also like</t>
+          <t>So le Flem J'sais qu'ils ont volé toutes nos terres, veulent qu'on soit concentrés sur le cours d'l'Ether J'dois faire graille tous les frères, j'm'en bats les couilles des paires J'veux le cash, rien à foutre des keh, pleine lucarne, j'la mets sous l'équerre 20-21, on arrive full déter', dans la trap house, que ça roule des tehs Ouais, j'ai le cur en morceau, des frères en promenade qui taffent les dorsaux Y a des choses que j'me suis promis de n'pas faire Comme en affaires, dans la vie, y a des choses à ne pas faire Faut les codes pour s'lancer dans les affaires, joue pas avec nos émotions ramène les affaires 6.6.7, Lyonzon, équipe de barbares, 2-2, Freeze, on peut écrire plus de dix milles bars, bars On arrive sur la prod' comme dix milles , Et des MC's j'en termine plus d'dix milles barbas Maintenant si j'veux, j'facture le feat dix milles par bars Hein, dix milles par bars Ils ont essayé d'nous effacer, on les a tous dépassés 'passés Art de la guerre, maîtrise du terrain Terrain, terrain</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Kera Beatz Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han C'est encore moi, connard, han, j'suis dans mon kush coma, han D'ce jeu, j'en fais une collation, han, et tous ces brokes me conna, han R.A.F de ces folasses, dans l'mille comme Legolas, j'veux pas d'collab', han Et tous mes opps se cachent, han, j'rappe, t'en deviens chauve, Cantona, han, han J'vise pas que la lucarne, dangereux comme Alucard, j'rentre dans son boule et j'pars, prie pour qu'mes goons tépargnent Maître de cérémonie, j'ouvre ce putain de bail, que des calomnies et Stan devient infernal Et j'fais mes bails qu'avec le gang, han, samouraï dans l'ombre comme le Wu-Tang, han Force du dragon comme Liu Kang, han, nan, c'est pas la première fois que j'viens tout ken, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han You might also like Pour it up, pour it up, lean dans l'cup comme à Houston Chen Zen, tanlee sur la prod comme Russell Westbrook et James Harden à Houston J'vois la concu' comme un dîner, drift dans les 4x4 comme en Guinée Fuck, négro, j'suis avec ta bitch eh, j'la touche de partout comme un kiné Vrai négro shit, no cap, faut qu'mes négros pèsent comme des hauts cadres J'allume des Cali, toi, des locales, Chen Zen, rien que j'convertis les occas' ekip Pétasse, j'éventre les prods comme des swishers eh Négro, va sur Big Cartel si tu veux cop les t-shirts, ekip Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Poison dans lcup faut qujcesse boy, ton nez partout, tes un cess boy Gros-né fait lRambo quand on scheck paraît qudès quça va péter, tes Usain Bolt Bloqué dans l10-5, zéro poudre, tous les nèg brisent 5-0 coudes Ils ont dû sperdre dans la sauce man, big up Sauce Walka, ils ont zéro goutte Pour la mif jtombe, pour la mif jplombe même avec tous les trucs qui viennent avec Tu vas tfaire sécher vit ait-f comme le Biltong, fuck avec la mif, cest ça qui vient avec Killu Kinf, big clique, dans lcrew drap cest la mif bitch Jserai là avant les putes so big bitch Promis jserai pas au bled avant le big deal Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han2</t>
+          <t>Kera Beatz Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han C'est encore moi, connard, han, j'suis dans mon kush coma, han D'ce jeu, j'en fais une collation, han, et tous ces brokes me conna, han R.A.F de ces folasses, dans l'mille comme Legolas, j'veux pas d'collab', han Et tous mes opps se cachent, han, j'rappe, t'en deviens chauve, Cantona, han, han J'vise pas que la lucarne, dangereux comme Alucard, j'rentre dans son boule et j'pars, prie pour qu'mes goons tépargnent Maître de cérémonie, j'ouvre ce putain de bail, que des calomnies et Stan devient infernal Et j'fais mes bails qu'avec le gang, han, samouraï dans l'ombre comme le Wu-Tang, han Force du dragon comme Liu Kang, han, nan, c'est pas la première fois que j'viens tout ken, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup comme à Houston Chen Zen, tanlee sur la prod comme Russell Westbrook et James Harden à Houston J'vois la concu' comme un dîner, drift dans les 4x4 comme en Guinée Fuck, négro, j'suis avec ta bitch eh, j'la touche de partout comme un kiné Vrai négro shit, no cap, faut qu'mes négros pèsent comme des hauts cadres J'allume des Cali, toi, des locales, Chen Zen, rien que j'convertis les occas' ekip Pétasse, j'éventre les prods comme des swishers eh Négro, va sur Big Cartel si tu veux cop les t-shirts, ekip Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Poison dans lcup faut qujcesse boy, ton nez partout, tes un cess boy Gros-né fait lRambo quand on scheck paraît qudès quça va péter, tes Usain Bolt Bloqué dans l10-5, zéro poudre, tous les nèg brisent 5-0 coudes Ils ont dû sperdre dans la sauce man, big up Sauce Walka, ils ont zéro goutte Pour la mif jtombe, pour la mif jplombe même avec tous les trucs qui viennent avec Tu vas tfaire sécher vit ait-f comme le Biltong, fuck avec la mif, cest ça qui vient avec Killu Kinf, big clique, dans lcrew drap cest la mif bitch Jserai là avant les putes so big bitch Promis jserai pas au bled avant le big deal Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han Pour it up, pour it up, lean dans l'cup et j'turn it up Je veux que tu racks pour counting up, avec cette bitch, jfais que rollin up, han2</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Han Bitch j'arrive avec ma troupe d'élite Accrochés au train comme à New Delhi J'veux démarrer dynastie comme les Kennedy Les Rothschild, les Rockefeller ou les Lee Tous les jours j'consomme l'alarme Musique Galsen comme mbalakh Goddamn, so Odeuxzero Future luxure à Dakar dans Gallar' Freeze Corleone, j'transige comme une prise Goddamn, négro J'arrive inattendu comme une crise J'suis comme un ouragan négro, t'es comme une brise J'veux arriver au rang de Chapo La LDO dans le château Chen Zen noir magicien pas besoin d'baguette Négro j'ai tout c'qu'il faut dans le chapeau, hein Vesqui les loups comme dans Vector, salope Pour l'IP j'ai l'projet tor, salope Suprême neck protector, salope J'vais faire du cash comme dans l'importexport, salope So Kaki j'veux la maille, direct So Sun j'exploite la faille, direct Négro quand tu rappes ça baille, direct Mes loups ont la dalle, veulent la graille direct, ekip You might also like Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Aller-retour Lille-'Dam J'm'explose comme Sam en taule XXX Faya au calme dans une trap en tôle Voit tous ces négros signer J'me dis qu'la FDT arrive plus tôt qu'prévu Dans les bas-fonds ça concocte des plans Pour éliminer les faux et vrais Osirus Jack, j'suis le roi t'es le valet Osirus Jack, j'suis le roi t'es le valet J'entends la 6-secte dans chacune des allées Mes killus négro ne vont même pas te falé Chaque jour cherche 'zeille, biff So Dubble, on va hacker des banques J'veux salaire à 16 chiffres Dribble ces négros, fais lacker des francs J'veux faire pleuvoir les llets-bi comme Sepp Crack music, tu cons' comme sepp Roule que des bisons qui te font laquer Def' comme un bison après 10 paquets Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Moi j'viens d'Afrique mon négro Tu m'parles de quoi ? J'fais pas la diff' nan négro T'sais qu'j'vise dans le tas Si j'dis pas mal C'est qu't'en fouette au moins les 3 quarts Si j'dis chez moi C'est qu'tu m'as croisé à Dakar J'veux faire beaucoup de sous Sans bicrave des gros kilos Trouve nous avec le Squa' Genre chillant sur un îlot Débarque fonscar dans ta city Hass' hash, le caca qu'on kush Tu nous connais gro-né, marathon kush Jeune leaneur, gare à ton cup Rien qu'on les baise-baise T'es bon qu'à tej-tej Tous ces négros sont lég'-lég' J'les garde pour le petit déj'-déj' Tous les jours chez nous c'est fête des pères T'as voulu nous suivre mais tu t'es du-per Norsacce qui fuck ton Versace Tu t'demandes pourquoi ta tasse-pé me trouve super, squa' Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent2</t>
+          <t>Han Bitch j'arrive avec ma troupe d'élite Accrochés au train comme à New Delhi J'veux démarrer dynastie comme les Kennedy Les Rothschild, les Rockefeller ou les Lee Tous les jours j'consomme l'alarme Musique Galsen comme mbalakh Goddamn, so Odeuxzero Future luxure à Dakar dans Gallar' Freeze Corleone, j'transige comme une prise Goddamn, négro J'arrive inattendu comme une crise J'suis comme un ouragan négro, t'es comme une brise J'veux arriver au rang de Chapo La LDO dans le château Chen Zen noir magicien pas besoin d'baguette Négro j'ai tout c'qu'il faut dans le chapeau, hein Vesqui les loups comme dans Vector, salope Pour l'IP j'ai l'projet tor, salope Suprême neck protector, salope J'vais faire du cash comme dans l'importexport, salope So Kaki j'veux la maille, direct So Sun j'exploite la faille, direct Négro quand tu rappes ça baille, direct Mes loups ont la dalle, veulent la graille direct, ekip Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Aller-retour Lille-'Dam J'm'explose comme Sam en taule XXX Faya au calme dans une trap en tôle Voit tous ces négros signer J'me dis qu'la FDT arrive plus tôt qu'prévu Dans les bas-fonds ça concocte des plans Pour éliminer les faux et vrais Osirus Jack, j'suis le roi t'es le valet Osirus Jack, j'suis le roi t'es le valet J'entends la 6-secte dans chacune des allées Mes killus négro ne vont même pas te falé Chaque jour cherche 'zeille, biff So Dubble, on va hacker des banques J'veux salaire à 16 chiffres Dribble ces négros, fais lacker des francs J'veux faire pleuvoir les llets-bi comme Sepp Crack music, tu cons' comme sepp Roule que des bisons qui te font laquer Def' comme un bison après 10 paquets Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Moi j'viens d'Afrique mon négro Tu m'parles de quoi ? J'fais pas la diff' nan négro T'sais qu'j'vise dans le tas Si j'dis pas mal C'est qu't'en fouette au moins les 3 quarts Si j'dis chez moi C'est qu'tu m'as croisé à Dakar J'veux faire beaucoup de sous Sans bicrave des gros kilos Trouve nous avec le Squa' Genre chillant sur un îlot Débarque fonscar dans ta city Hass' hash, le caca qu'on kush Tu nous connais gro-né, marathon kush Jeune leaneur, gare à ton cup Rien qu'on les baise-baise T'es bon qu'à tej-tej Tous ces négros sont lég'-lég' J'les garde pour le petit déj'-déj' Tous les jours chez nous c'est fête des pères T'as voulu nous suivre mais tu t'es du-per Norsacce qui fuck ton Versace Tu t'demandes pourquoi ta tasse-pé me trouve super, squa' Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent Cons' ons, c'est le marathon kush Jam ces négros n'ont même pas l'level Hass' hash, c'est le caca qu'on kush Pop-pop et les visages s'révèlent2</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Fffff, ekip, ekip Anh, pétasse J'suis dans le xan, cocktail dans l'sang MMS, LDO, NRM, 667, pétasse Ekip ekip Gaddamn, vision verte comme Sam so Fisher Ekip, Chen Zen maître comme san J'ai la recette, j'ai la formule Ils ont pas l'permis, ils sont encore en karting J'les soupape sans stress comme si j'fais d'la Formule, gaddamn Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion So Gilles, j'suis dans la cuisine so F.A.M.A.S Maison piège, négro j'chill, j'suis dans la cuisine Négro j'exporte le linge, so Lala, négro exporte le lin Elle m'dit qu'elle croit qu'on est d'la même planète Chen Zen, yeuz plissés, j'vois extra-net, ekip 667, présence menaçante, négro Derrière nous laisse que d'la cendre, négro 667, présence menaçante, négro Derrière nous laisse que d'la cendre, négro 667, présence menaçante, négro Derrière nous laisse que d'la cendre, négro 667, présence menaçante, négro Derrière nous laisse que d'la cendre, négro You might also like Ekip, MMS, LDO, NRM, 667, ekip C'est la secte pétasse, négro j'veux la sep, pétasse Faut qu'j'achète pétasse, khaliss, cash J'suis dans le xan, j'suis dans le lin J'suis dans le lin, pétasse MMS, LDO, NRM, 667, pétasse Ekip</t>
+          <t>Fffff, ekip, ekip Anh, pétasse J'suis dans le xan, cocktail dans l'sang MMS, LDO, NRM, 667, pétasse Ekip ekip Gaddamn, vision verte comme Sam so Fisher Ekip, Chen Zen maître comme san J'ai la recette, j'ai la formule Ils ont pas l'permis, ils sont encore en karting J'les soupape sans stress comme si j'fais d'la Formule, gaddamn Négro au-dessus d'eux, j'arrive en mode avion Tout seul j'enregistre, Android en mode avion So Gilles, j'suis dans la cuisine so F.A.M.A.S Maison piège, négro j'chill, j'suis dans la cuisine Négro j'exporte le linge, so Lala, négro exporte le lin Elle m'dit qu'elle croit qu'on est d'la même planète Chen Zen, yeuz plissés, j'vois extra-net, ekip 667, présence menaçante, négro Derrière nous laisse que d'la cendre, négro 667, présence menaçante, négro Derrière nous laisse que d'la cendre, négro 667, présence menaçante, négro Derrière nous laisse que d'la cendre, négro 667, présence menaçante, négro Derrière nous laisse que d'la cendre, négro Ekip, MMS, LDO, NRM, 667, ekip C'est la secte pétasse, négro j'veux la sep, pétasse Faut qu'j'achète pétasse, khaliss, cash J'suis dans le xan, j'suis dans le lin J'suis dans le lin, pétasse MMS, LDO, NRM, 667, pétasse Ekip</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Sirote lean comme au Texas On les fouette négro, exact 2015, là pour les thunes Pas l'temps pour vos exams Parle-nous cash, parle-nous Paypal Treillis kaki ou treillis black, négro Entre eux et nous, trop nous sépare On est en dessous d'Dieu, au-dessus du Shaytan Goddamn, négro J'veux grave d'la glace comme Paul Mur Artisanal Actavis Cons' cette merde, négro cogne mur Et tu connais l'équipe H24 roule du chanvre Mais aucun plan n'm'aide Toi tu vends ton boule pour du change 2015, still tippin' Chaque jour comme à Houston, lean sippin' Goddamn, négro J'veux pas finir comme Xzibit Zig zag dans le 4 roues motrices Négro comme Slim Thug LDO, supra-négro shit Qu'il vente, qu'il neige ou qu'il pleuve You might also like Chaque jour chill dans l'bando Comme Capo, niveau 3, l'bon pét' Grille pendant qu'le jaune lean Pétille dans mon cup Tous les jours shit, négro Normal j'parle souvent d'southsprite J'ai cons' beaucoup d'Southside On fait des milliers d'vues sur Soundcloud Addictif comme d'l'héroïne Que d'la pratique, fuck la théorie Négro, on arrive sur l'Rap Jeu Comme une pluie d'météorites Bientôt averse de négroïdes Nan ils sont pas prêts Slow-mo', et devant ces négros bitch Ils capteront c'qu'on dit qu'après 06 52 60 Nan j'suis pas Mike Jones Sur la prod j'suis comme un Flanker Négro, t'es comme un flash-ball A Dakar, aqua' dans les fofos On est des vrais-vrais, eux des faux-faux J'arrive capuché avec une faux-faux Sale sud négro, pour le flow-flow Petite pilule rouge, pop trop tôt J'suis pilule bleue quand j'flotte haut Crée des ze-dou très toxiques Cuisine audio-crack, audio-coco Fait c'qu'on a à faire, nique la po-po' Va au Gal-sén', demande à Sow-Sow Négro pas besoin d'en faire un topo On en a rien à foutre du Game, on veut juste pesos-sos Corleone, Chavez Au mic les lave comme javel Plusieurs types de drogue dans ma veste Dans gamos comme extraterrestre dans navette Allez-vous vendre vos âmes ? Pute, jamais Néo-nègre mentalité On veut allumer l'feu comme Hallyday Mes négros sont prêts, ils n'ont pas idée Négro so Silvio On veut crédit illimité J'débarque dans cette pute Avec le flow d'une divinité Tu nous as minimisé Erreur fatale, échec et mat T'es fou, rien qu't'essaies des masques Planifié pendant qu'tu léchais des jabs Ils sont là pour les tchoins On est là pour l'cash, salope J'me sens comme une voiture Tous les jours cons' du gas, salope Si j'veux ta salope, j'prends ta salope J'en ai rien à foutre, j'ai plus d'4 salopes On est légendaires comme Broly donc Négro fuck la Terre, fuck Kakarot2</t>
+          <t>Sirote lean comme au Texas On les fouette négro, exact 2015, là pour les thunes Pas l'temps pour vos exams Parle-nous cash, parle-nous Paypal Treillis kaki ou treillis black, négro Entre eux et nous, trop nous sépare On est en dessous d'Dieu, au-dessus du Shaytan Goddamn, négro J'veux grave d'la glace comme Paul Mur Artisanal Actavis Cons' cette merde, négro cogne mur Et tu connais l'équipe H24 roule du chanvre Mais aucun plan n'm'aide Toi tu vends ton boule pour du change 2015, still tippin' Chaque jour comme à Houston, lean sippin' Goddamn, négro J'veux pas finir comme Xzibit Zig zag dans le 4 roues motrices Négro comme Slim Thug LDO, supra-négro shit Qu'il vente, qu'il neige ou qu'il pleuve Chaque jour chill dans l'bando Comme Capo, niveau 3, l'bon pét' Grille pendant qu'le jaune lean Pétille dans mon cup Tous les jours shit, négro Normal j'parle souvent d'southsprite J'ai cons' beaucoup d'Southside On fait des milliers d'vues sur Soundcloud Addictif comme d'l'héroïne Que d'la pratique, fuck la théorie Négro, on arrive sur l'Rap Jeu Comme une pluie d'météorites Bientôt averse de négroïdes Nan ils sont pas prêts Slow-mo', et devant ces négros bitch Ils capteront c'qu'on dit qu'après 06 52 60 Nan j'suis pas Mike Jones Sur la prod j'suis comme un Flanker Négro, t'es comme un flash-ball A Dakar, aqua' dans les fofos On est des vrais-vrais, eux des faux-faux J'arrive capuché avec une faux-faux Sale sud négro, pour le flow-flow Petite pilule rouge, pop trop tôt J'suis pilule bleue quand j'flotte haut Crée des ze-dou très toxiques Cuisine audio-crack, audio-coco Fait c'qu'on a à faire, nique la po-po' Va au Gal-sén', demande à Sow-Sow Négro pas besoin d'en faire un topo On en a rien à foutre du Game, on veut juste pesos-sos Corleone, Chavez Au mic les lave comme javel Plusieurs types de drogue dans ma veste Dans gamos comme extraterrestre dans navette Allez-vous vendre vos âmes ? Pute, jamais Néo-nègre mentalité On veut allumer l'feu comme Hallyday Mes négros sont prêts, ils n'ont pas idée Négro so Silvio On veut crédit illimité J'débarque dans cette pute Avec le flow d'une divinité Tu nous as minimisé Erreur fatale, échec et mat T'es fou, rien qu't'essaies des masques Planifié pendant qu'tu léchais des jabs Ils sont là pour les tchoins On est là pour l'cash, salope J'me sens comme une voiture Tous les jours cons' du gas, salope Si j'veux ta salope, j'prends ta salope J'en ai rien à foutre, j'ai plus d'4 salopes On est légendaires comme Broly donc Négro fuck la Terre, fuck Kakarot2</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>So le Flem Okay Nonante Nonante Ekip Ceci n'est pas un format radio Toujours un tour avant d'pister, deuxième tour, on est autour Sku Dernier tour, enfin on court, l'école du crime et tous les cours Ils savent pas où ils vont, on les regarde faire des tours Eh, faut des manoirs, des fontaines et des cours Cash Crypto', je regarde les courbes et les cours cash, Prof Chen au tableau, négro, j'fais les cours Coupe Si les potos font passer l'chargement, de ramener moins d'cess aux ients-cli Pour que la drogue arrive, il faut les croquis, le retour de flamme dans un gros menu Là pour le cash, so le Black, on aime les kichtas bien compactes So Tha Trickaz, on a plein d'Kontakt Han, pour c'que tu veux, on a plein d'contacts J'bois pas d'Polia', visage froissé, j'suis dans les magouilles comme un Polonais Dans un polo, polo Quechua, habit d'rechange, que pour la kichta Que pour la kichta, que pour la kichta Cash, tu sais très bien qu'j'ai la vista Han 20-21, négro, si j'veux, j'peux facturer la ligne à 10K Nonante, Hollande, j'suis dans l'nonante-trois au volant J'suis dans l'nonante-trois au volant, sku Nonante, Hollande, j'suis dans l'nonante-trois au volant J'suis dans l'nonante-trois au volant, coupe, coupe, coupe, coupe Nonante, Hollande, j'suis dans l'nonante-trois au volant Ekip Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant You might also like Je porte que mes couilles et les courses à ma mère, le doigt sur la gâchette, planqué dans l'annexe Range ton bigo, j'veux voir la connex', message codé, livraison correcte Négro, fais belek, les murs ont des oreilles Han, cod', prométh' donc j'arrive fonce-dé au Red Lin Sang-froid comme si j'buvais des thé au Lex' Han, Stavo, Chen, c'est réel, c'est pas des théorèmes Nan Tu veux celle d'en haut ou d'en bas ? La E19 ou la A7 ? Laquelle ? Le katana ou la machette ? Han La Série 7 ou la A7 ? Sku Quand on était tout en bas, ceux d'en haut voulaient qu'on reste en bas Ta bitch me regarde de haut en bas Eh, il m'faut quatre fois la paye de Mo Bamba Cash On aime charger, il nous faut des Kangoo, un Renault Espace, toujours au cas où Han, de secours Si on descend chez toi, c'est pour te secouer Sku Corleone, Big Stavo Ekip, on envoie l'go à l'équipe Bravo Cash Travail bien fait et big travaux, là, j'crois qu'j'en ai conso' moins d'dix caveaux Lin Quand dans la vie, tu commences de rien, tu sais que tout sert 33 et un sans appli, et une puce belge Fuck l'industrie, y a v'là de putes comme à Bruxelles Eh Depuis que j'm'allume, négro, j'ai fumé plus qu'une serre C'est toujours pareil, on est parallèles, crois-moi, l'État m'a pas mis en laisse Mauvaise graine, on attaque à la racine, cent pour cent bicrave, j'veux pas d'leur aide Mesure les liasses à la règle, fuck le rap game, c'est comme un cabaret Eh Négro, ils s'demandent d'où on apparaît Eh, ils vont disparaître comme American Apparel Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande1</t>
+          <t>So le Flem Okay Nonante Nonante Ekip Ceci n'est pas un format radio Toujours un tour avant d'pister, deuxième tour, on est autour Sku Dernier tour, enfin on court, l'école du crime et tous les cours Ils savent pas où ils vont, on les regarde faire des tours Eh, faut des manoirs, des fontaines et des cours Cash Crypto', je regarde les courbes et les cours cash, Prof Chen au tableau, négro, j'fais les cours Coupe Si les potos font passer l'chargement, de ramener moins d'cess aux ients-cli Pour que la drogue arrive, il faut les croquis, le retour de flamme dans un gros menu Là pour le cash, so le Black, on aime les kichtas bien compactes So Tha Trickaz, on a plein d'Kontakt Han, pour c'que tu veux, on a plein d'contacts J'bois pas d'Polia', visage froissé, j'suis dans les magouilles comme un Polonais Dans un polo, polo Quechua, habit d'rechange, que pour la kichta Que pour la kichta, que pour la kichta Cash, tu sais très bien qu'j'ai la vista Han 20-21, négro, si j'veux, j'peux facturer la ligne à 10K Nonante, Hollande, j'suis dans l'nonante-trois au volant J'suis dans l'nonante-trois au volant, sku Nonante, Hollande, j'suis dans l'nonante-trois au volant J'suis dans l'nonante-trois au volant, coupe, coupe, coupe, coupe Nonante, Hollande, j'suis dans l'nonante-trois au volant Ekip Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Je porte que mes couilles et les courses à ma mère, le doigt sur la gâchette, planqué dans l'annexe Range ton bigo, j'veux voir la connex', message codé, livraison correcte Négro, fais belek, les murs ont des oreilles Han, cod', prométh' donc j'arrive fonce-dé au Red Lin Sang-froid comme si j'buvais des thé au Lex' Han, Stavo, Chen, c'est réel, c'est pas des théorèmes Nan Tu veux celle d'en haut ou d'en bas ? La E19 ou la A7 ? Laquelle ? Le katana ou la machette ? Han La Série 7 ou la A7 ? Sku Quand on était tout en bas, ceux d'en haut voulaient qu'on reste en bas Ta bitch me regarde de haut en bas Eh, il m'faut quatre fois la paye de Mo Bamba Cash On aime charger, il nous faut des Kangoo, un Renault Espace, toujours au cas où Han, de secours Si on descend chez toi, c'est pour te secouer Sku Corleone, Big Stavo Ekip, on envoie l'go à l'équipe Bravo Cash Travail bien fait et big travaux, là, j'crois qu'j'en ai conso' moins d'dix caveaux Lin Quand dans la vie, tu commences de rien, tu sais que tout sert 33 et un sans appli, et une puce belge Fuck l'industrie, y a v'là de putes comme à Bruxelles Eh Depuis que j'm'allume, négro, j'ai fumé plus qu'une serre C'est toujours pareil, on est parallèles, crois-moi, l'État m'a pas mis en laisse Mauvaise graine, on attaque à la racine, cent pour cent bicrave, j'veux pas d'leur aide Mesure les liasses à la règle, fuck le rap game, c'est comme un cabaret Eh Négro, ils s'demandent d'où on apparaît Eh, ils vont disparaître comme American Apparel Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande, j'suis dans l'nonante-trois au volant Nonante, Hollande1</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Zuukou au micro, j'arrive dans l'Game comme Bruce Wayne en hélico Jorrdee, Freeze, Zuukou sur un sample de Naruto Triangle à l'envers, 667 sur nos polos, rentrer à Dakar ou chercher des diamants en Guinée-Bissau Ramène la tête des MC's dans une boîte, négro, j'suis John Doe Tous les Nazguls veulent ma peau, négro, j'ai l'anneau Négro, j'ai l'anneau, Zuukou va vous mener en bateau 667, en backstage, ouvrez les rideaux 667, faya comme Jack Sparrow Bapho' vous réveillera 'vec ses putains de sabots sabots Pars seul toute l'année, un peu comme Sarko Nico Sarko Nico Faya dans bendo, yeuz à Doc Gyneco Doc Gyneco Tise la lean comme Jack Sparrow Dans les poches, négro des carreaux Hors du XXX, j'me sens comme Sarko Chaque jour dans l'bando négro, comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, chaque jour dans l'bando Fonsdé au rhum comme Jack Sparrow, à la weed comme le daron XXX comme Pablo, fait ça izi, jamais XXX Écarte ses jambes on dirait Baphomet Faudrait qu'on me mette en quarantaine J'vais peut-être crever avant la quarantaine Chasse l'argent, met ma vie entre parenthèses Tu sais qu'des négros y'en a beaucoup Fais chauffer la merde dans une cocotte-minute J'ai la face d'un Égyptien, toi d'un anus Peut-on faire des millions sans faire des calculs ? OG dans la Audi, j'me sens comme Diddy Je vis ma vie comme Diddy Négro, on danse Billie jean après niaks, lean, molly Piégés sont les colis, d'or sont les Rolis J'me sens comme un Rolling Stone LDO ne cons' que la bonne herbe You might also like Tise la lean comme Jack Sparrow Dans les poches, négro des carreaux Hors du XXX, j'me sens comme Sarko Chaque jour dans l'bando négro, comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, chaque jour dans l'bando GHB, Corleone, Zuukou, négro Aquarium dans la soucoupe, négro 667 on est beaucoup, négro MMS Toujours soupe rouge dans la double-coupe, négro lean J'vois tout en slow-mo', so à la pharmacizie Musique interdite au Dajjâl, so Sazamyzy Black ninja comme John Smith Là pour des gros chiffres comme Rothschild Des foules de zéro sur somme, bitch 2015 faut qu'ça rentre, nique poches vides MMS, so à l'escouade, pour la concurrence pas d'espoir Dans la mer, patrouille en groupe organisé avec mes squales Chen Zen, négro pirate comme Sparrow Jack J'prends l'cash, j'mets des tourelles dans mon jardin Les règles en mode automatique arrosage Tise la lean comme Jack Sparrow Dans les poches, négro des carreaux Hors du XXX, j'me sens comme Sarko Chaque jour dans l'bando négro, comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, chaque jour dans l'bando</t>
+          <t>Zuukou au micro, j'arrive dans l'Game comme Bruce Wayne en hélico Jorrdee, Freeze, Zuukou sur un sample de Naruto Triangle à l'envers, 667 sur nos polos, rentrer à Dakar ou chercher des diamants en Guinée-Bissau Ramène la tête des MC's dans une boîte, négro, j'suis John Doe Tous les Nazguls veulent ma peau, négro, j'ai l'anneau Négro, j'ai l'anneau, Zuukou va vous mener en bateau 667, en backstage, ouvrez les rideaux 667, faya comme Jack Sparrow Bapho' vous réveillera 'vec ses putains de sabots sabots Pars seul toute l'année, un peu comme Sarko Nico Sarko Nico Faya dans bendo, yeuz à Doc Gyneco Doc Gyneco Tise la lean comme Jack Sparrow Dans les poches, négro des carreaux Hors du XXX, j'me sens comme Sarko Chaque jour dans l'bando négro, comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, chaque jour dans l'bando Fonsdé au rhum comme Jack Sparrow, à la weed comme le daron XXX comme Pablo, fait ça izi, jamais XXX Écarte ses jambes on dirait Baphomet Faudrait qu'on me mette en quarantaine J'vais peut-être crever avant la quarantaine Chasse l'argent, met ma vie entre parenthèses Tu sais qu'des négros y'en a beaucoup Fais chauffer la merde dans une cocotte-minute J'ai la face d'un Égyptien, toi d'un anus Peut-on faire des millions sans faire des calculs ? OG dans la Audi, j'me sens comme Diddy Je vis ma vie comme Diddy Négro, on danse Billie jean après niaks, lean, molly Piégés sont les colis, d'or sont les Rolis J'me sens comme un Rolling Stone LDO ne cons' que la bonne herbe Tise la lean comme Jack Sparrow Dans les poches, négro des carreaux Hors du XXX, j'me sens comme Sarko Chaque jour dans l'bando négro, comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, chaque jour dans l'bando GHB, Corleone, Zuukou, négro Aquarium dans la soucoupe, négro 667 on est beaucoup, négro MMS Toujours soupe rouge dans la double-coupe, négro lean J'vois tout en slow-mo', so à la pharmacizie Musique interdite au Dajjâl, so Sazamyzy Black ninja comme John Smith Là pour des gros chiffres comme Rothschild Des foules de zéro sur somme, bitch 2015 faut qu'ça rentre, nique poches vides MMS, so à l'escouade, pour la concurrence pas d'espoir Dans la mer, patrouille en groupe organisé avec mes squales Chen Zen, négro pirate comme Sparrow Jack J'prends l'cash, j'mets des tourelles dans mon jardin Les règles en mode automatique arrosage Tise la lean comme Jack Sparrow Dans les poches, négro des carreaux Hors du XXX, j'me sens comme Sarko Chaque jour dans l'bando négro, comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, négro comme Capo Chaque jour dans l'bando, chaque jour dans l'bando</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Han han Ekip, ekip, ekip Phaal, tell em han, Corleone, serial rhyme, dirty dealer paw Hermès, Burberry, I don't wear no Tealer, fuck lean, R.I.P Mac Miller Phaal, Freezer, still anti-devil, pactiser eh Gucci, Prada boy, I want Val Kilmer's money, if they think they are on my level, may they die Chen Zen aka Philipp Philipp, rivals, for me, they are Philipp So the plug, H24 plugged in like a Phillipps TV The shiznit aka Philly han, rivals, for me, they are Phillis Fire in tablet so they swallow th bitter pill, of course I'm killu', Philly Flingue, Lucky Luke Get these bitch niggas, out of the map, smoking Runtz and Obamas They drink blood like Hillary Clinton and Michelle Obama FLRG, F the N.O.M, it gets fucked up, the atmosphere is dark We're excelling, you know we're above them, my socks are worth more than your shoes 6.6.7, Don Dada, imposing the NRM like Dada han I'm pulling up like a wop, racist like Prada, they dunno where I'm coming from, I'm like tada tada 7-5-0-1-4, it's basic, we send the biggest missiles in France On my left, Miss Guadeloupe, on my right, Miss Île-de-France ouh Alpha Wann, Freeze Corleone, on the beat, rap catechism catechism Elite solider like Takeshi Takeshi, LDO in the castle like Takeshi Spit this fire, regardless of the tempo, us and them, it ain't the same Bitch, war, this is no paintball, théque isn't baseball, Dakar, Conakry-zi, Mafia mode like Three Six, we used to respect you back then I'm into teaching, you're into snitching, the beat I'm hardly slaying and you're all bleeding We got the combos and sequences, Philly Flingo, Ra's al Ghul Ears, huge bleeding So Flem, nigga, so the KGB, im not talking about telling Police got more than one trick in its bag, the striker got more than one bag in his tower Everything is about the meaning, everything is about exchange, there won't be no revolution My parents made me, money is gonna build me, it's the evolution law What can you do against it ? 2020, Kunta Kinte against Sam han Doing katas, not hitting the bag, everyday, properly securing the bag Gorilla, Gelato, grinding it, death penalty for Jeffrey's network Step back, crossover, smoking more gas than big crossovers So the petition, FR rap, the most awaited crossover Ekip You might also like Phaal, tell em Hermès, Burberry, I don't wear no Tealer, fuck lean, R.I.P Mac Miller Phaal, Freezer Phaal, Freezer Gucci, Prada boy, I want Val Kilmer's money If they think they're on my level, may they die Chen Zen aka Philippe Philippe So the plug, H24 plugged in like a Phillipps TV Le shiznit aka Philly Fire in tablet so they swallow the bitter pill, of course I'm killu', Philly Flingue, Lucky Luke</t>
+          <t>Han han Ekip, ekip, ekip Phaal, tell em han, Corleone, serial rhyme, dirty dealer paw Hermès, Burberry, I don't wear no Tealer, fuck lean, R.I.P Mac Miller Phaal, Freezer, still anti-devil, pactiser eh Gucci, Prada boy, I want Val Kilmer's money, if they think they are on my level, may they die Chen Zen aka Philipp Philipp, rivals, for me, they are Philipp So the plug, H24 plugged in like a Phillipps TV The shiznit aka Philly han, rivals, for me, they are Phillis Fire in tablet so they swallow th bitter pill, of course I'm killu', Philly Flingue, Lucky Luke Get these bitch niggas, out of the map, smoking Runtz and Obamas They drink blood like Hillary Clinton and Michelle Obama FLRG, F the N.O.M, it gets fucked up, the atmosphere is dark We're excelling, you know we're above them, my socks are worth more than your shoes 6.6.7, Don Dada, imposing the NRM like Dada han I'm pulling up like a wop, racist like Prada, they dunno where I'm coming from, I'm like tada tada 7-5-0-1-4, it's basic, we send the biggest missiles in France On my left, Miss Guadeloupe, on my right, Miss Île-de-France ouh Alpha Wann, Freeze Corleone, on the beat, rap catechism catechism Elite solider like Takeshi Takeshi, LDO in the castle like Takeshi Spit this fire, regardless of the tempo, us and them, it ain't the same Bitch, war, this is no paintball, théque isn't baseball, Dakar, Conakry-zi, Mafia mode like Three Six, we used to respect you back then I'm into teaching, you're into snitching, the beat I'm hardly slaying and you're all bleeding We got the combos and sequences, Philly Flingo, Ra's al Ghul Ears, huge bleeding So Flem, nigga, so the KGB, im not talking about telling Police got more than one trick in its bag, the striker got more than one bag in his tower Everything is about the meaning, everything is about exchange, there won't be no revolution My parents made me, money is gonna build me, it's the evolution law What can you do against it ? 2020, Kunta Kinte against Sam han Doing katas, not hitting the bag, everyday, properly securing the bag Gorilla, Gelato, grinding it, death penalty for Jeffrey's network Step back, crossover, smoking more gas than big crossovers So the petition, FR rap, the most awaited crossover Ekip Phaal, tell em Hermès, Burberry, I don't wear no Tealer, fuck lean, R.I.P Mac Miller Phaal, Freezer Phaal, Freezer Gucci, Prada boy, I want Val Kilmer's money If they think they're on my level, may they die Chen Zen aka Philippe Philippe So the plug, H24 plugged in like a Phillipps TV Le shiznit aka Philly Fire in tablet so they swallow the bitter pill, of course I'm killu', Philly Flingue, Lucky Luke</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>J'regarde le jeu et sincèrement, j'trouve qu'ils sont some weak Saveur de haine, j'recherche la concu', appelle-moi John Wick Le succès attire des ennemis, t'as plus d'sauce donc tu thones-my tu thones-my Jamais sommeil, j'ai l'bifton en guise de sonnerie Ces rappeurs racontent des conneries, j'veux les comptes de San Connery cash, cash Prof Chen, j'arrive malfons' dans l laboratoire comme Rick damn J'avance sans aucun stress, c'est sûr qu'ça va marcher comme si la jauge est verte green Gros dry jaune et vert han, j'sip pas de néo, j'ai pas de codé vert Sans arrêt direction le top, j'veux pas d'sexe, j'veux juste la top j'veux juste la top Eux et nous, c'est pas la même, on l'fait pas pour avoir la côte Mode avion, j'réponds pas au 'phone, j'ai besoin d'argent pas plus de potes pas plus de potes Serrurier, j'ai l'trousseau d'clés pour ouvrir la porte J'suis en défense comme Laporte, j'vois en slow-mo', j'suis dans la cod' Ça va les pendre donc j'prends d'la corde, on les baise même sans la com' Chen Zen, Afro S han, sniper en HOF Et dites à vos maisons d'disques de merde qu'elles envoient vite le cash au F You might also like On reçoit pas les S.O.S, Premier League, t'es en MLS À grande vitesse, passe les rapports, v'-esqui, j'les laisse en PLS Pas cramé, j'ai l'VPN, gro-né, j'suis vrai c'dans l'ADN Dans mon art ,j'suis passé maître, j'les écoute pas, vont pas m'la mettre Charbonner à s'en casser l'dos, pendant qu'on taffe, tu faisais le beau V'-esqui les fakes, les bitchs, négro, j'coupe ta bitch, j'la passe au bro j'la passe au bro Peur de personne, respecte tout l'monde, Nino Brown Nino Brown T'as tourné l'dos, le train est passé, fallait rester down Tu m'connais, j'suis pour les dought cash, j'rappe pour le cash, pas pour les go Congo sort les basses pour les Bose, Crack Music, viens m'voir pour les doses, han ekip J'roule un teh avec la crème dedans loud, loud, triple filtre avec la graine dedans Charbonner à s'en casser l'dos, pendant qu'on taffe, tu faisais le beau V'-esqui les fakes, les bitchs, négro, j'coupe ta bitch, j'la passe au bro j'la passe au bro Peur de personne, respecte tout l'monde, Nino Brown Nino Brown T'as tourné l'dos, le train est passé, fallait rester down Tu m'connais, j'suis pour les dought cash, j'rappe pour le cash, pas pour les go' Congo sort les basses pour les Bose, Crack Music, viens m'voir pour les doses, han ekip J'roule un teh avec la crème dedans loud, loud, triple filtre avec la graine dedans, ekip</t>
+          <t>J'regarde le jeu et sincèrement, j'trouve qu'ils sont some weak Saveur de haine, j'recherche la concu', appelle-moi John Wick Le succès attire des ennemis, t'as plus d'sauce donc tu thones-my tu thones-my Jamais sommeil, j'ai l'bifton en guise de sonnerie Ces rappeurs racontent des conneries, j'veux les comptes de San Connery cash, cash Prof Chen, j'arrive malfons' dans l laboratoire comme Rick damn J'avance sans aucun stress, c'est sûr qu'ça va marcher comme si la jauge est verte green Gros dry jaune et vert han, j'sip pas de néo, j'ai pas de codé vert Sans arrêt direction le top, j'veux pas d'sexe, j'veux juste la top j'veux juste la top Eux et nous, c'est pas la même, on l'fait pas pour avoir la côte Mode avion, j'réponds pas au 'phone, j'ai besoin d'argent pas plus de potes pas plus de potes Serrurier, j'ai l'trousseau d'clés pour ouvrir la porte J'suis en défense comme Laporte, j'vois en slow-mo', j'suis dans la cod' Ça va les pendre donc j'prends d'la corde, on les baise même sans la com' Chen Zen, Afro S han, sniper en HOF Et dites à vos maisons d'disques de merde qu'elles envoient vite le cash au F On reçoit pas les S.O.S, Premier League, t'es en MLS À grande vitesse, passe les rapports, v'-esqui, j'les laisse en PLS Pas cramé, j'ai l'VPN, gro-né, j'suis vrai c'dans l'ADN Dans mon art ,j'suis passé maître, j'les écoute pas, vont pas m'la mettre Charbonner à s'en casser l'dos, pendant qu'on taffe, tu faisais le beau V'-esqui les fakes, les bitchs, négro, j'coupe ta bitch, j'la passe au bro j'la passe au bro Peur de personne, respecte tout l'monde, Nino Brown Nino Brown T'as tourné l'dos, le train est passé, fallait rester down Tu m'connais, j'suis pour les dought cash, j'rappe pour le cash, pas pour les go Congo sort les basses pour les Bose, Crack Music, viens m'voir pour les doses, han ekip J'roule un teh avec la crème dedans loud, loud, triple filtre avec la graine dedans Charbonner à s'en casser l'dos, pendant qu'on taffe, tu faisais le beau V'-esqui les fakes, les bitchs, négro, j'coupe ta bitch, j'la passe au bro j'la passe au bro Peur de personne, respecte tout l'monde, Nino Brown Nino Brown T'as tourné l'dos, le train est passé, fallait rester down Tu m'connais, j'suis pour les dought cash, j'rappe pour le cash, pas pour les go' Congo sort les basses pour les Bose, Crack Music, viens m'voir pour les doses, han ekip J'roule un teh avec la crème dedans loud, loud, triple filtre avec la graine dedans, ekip</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Smoky, haha, yeah, double F G, LT RT Jordy GHB, Freeze Corleone Argent noir, argent noir, argent noir, argent noir Dieu noir sapé en noir vision nocturne dans l'noir So à Odeuxzero, diamant noir, fuck le 2x 333 660 7 gang, bâtard, on est au dessus Un peu de vert en complément du noir sur nos costumes Vrai négro shit comme dhabitude, contrairement à ces pussy, négro J'prends c'qui est utile, rejette ce qui ne l'est pas comme Bruce Lee, negro On sort des ténèbres, le niveau on élève On s'en bat les couille dêtre célèbre, évite de nous comparer à ces nègres Frappe chirurgicale sur leur maison Faya family fonscar à toutes les saisons Dans ma tête, cest sombre et enfumé, ça se ressent en écoutant mes sons Double 6 7 mafia, ces faggot rappent avec du maquillage Freeze Corleone fleuriste furtif 7 capitaine pirate qui rappe Dieu noir sapé en noir, vision nocturne dans l'noir So à Odeuxzero, diamant noir, fuck le 2 x 333 Fuck largent sale, on fait d'l'argent noir, négro, d'l'argent noir Fuck l'argent sale, on veut d'l'argent noir, négro, d'l'argent noir You might also like MC, appelle-moi, Freeze, Shi-fu, Chen, Sensei So au roi Heenok, j'suis dans cette merde pour accidenter des Bentley Tu veux atteindre le niveau 3, tester nos potions, goûter nos niaks Négro, j'ai les yeuz tellement rouges, damn, c'en est presque démoniaque Différent comme 2 Chainz, j'me sens comme ODB du Wu-Tang Homme honnête le jour, défoncé la nuit, j'mène une double vie comme Bruce Wayne J'affûte mon sabre, appelle-moi Hanzo Attori Négro, comme des chemtrails, d'au-dessus, nos merdes on vaporise Dieu noir sapé en noir, vision nocturne dans l'noir So à Odeuxzero, diamant noir, fuck le 2 x 333 Fuck largent sale, on fait d'l'argent noir, négro, d'l'argent noir Fuck l'argent sale, on veut d'l'argent noir, négro, d'l'argent noir Yo Dis-leur que Jordy a bien changé J'suis préparé à bien manger J'veux le physique à Biggie avant la fin Mes monture Versace, ma chemise en lin Le compte à rebours est lancé et fuck Kiefer Sutherland J'vais tout faire sauter, me barrer au volant d'une p'tite allemande J'traîne avec des Canadiens qui chient sur la feuille d'érable Se gazent à coup de cannabis un genre d'injection léthale Ceux qui nous suçaient nous boycottent, dégaines de boyscoot Dans leurs clips, hmm, sponso' par le bois de Boubou On a été trop gentils, maintenant, va falloir les nettoyer Les étouffer lentement ou dans leur bain les noyer C'est pas parce que t'es belle que je te niquerai C'est parce que t'es facile comme ouvrir une bouteille d'eau fraîche Dieu noir sapé en noir, vision nocturne à Versailles So à la monarchie, le reste, on va les ken comme Jay-Z et Destiny's Child Fuck l'argent sale, my niggas, on fait de l'argent nègre Ton équipe fait de l'argent maigre J'brûle tes jojos en live conférence sur Ustream Te regarde pleurer comme un mioche sans sa tétine Me branle dans ton bonnet Carhartt et le vends aux enchères sur eBay Tu fais tié-p' comme ceux qui mettent leurs Snapbacks avec leurs étiquettes J'nique vos raps de métrosexuel avec des voix d'avaleuses J'suis rageux car t'as la tête de la victime qui passe aux aveux Et partout, je vois des guns comme dans les vieux westerns Wallaye que devant certaines personnes, j'appuierais bien sur la gâchette Une balle dans chaque jambe, histoire que tu descendes d'un étage Te jette dans un marécage, enculé maintenant nage Smoky nagee ahah LT Dans l'ombre, j'peaufine mon plan pour accéder au pouvoir Vaisseau-mère, pont principal, vue panoramique, négro, j'peux tout voir J'débarque dans cette pute comme Sasuke Sharingan actif Tasse-pé, appelle moi Yasuke, jeune samouraï d'Afrique J'veux le bandeau numéro 1 et négro, j'l'aurai Les singes sont sortir du zoo, les loups vont bientôt sortir d'la forêt J'prends mon temps dans mon camp, inch'allah, j'suis là encore pendant longtemps Négro, comme des putain de francs-maçons, on est tous frères dans mon clan Pointée vers le bas est notre pyramide Y a que si on nous cane qu'on sera pas finalistes Nous comparer à vous, c'est comme comparer Haarp à d'la dynamite Double f g, négro, c'est nous Dans cette merde pour prendre les sous La concurrence me fait penser à d'la variété française tellement cest mou Dieu noir sapé en noir, vision nocturne dans l'noir So à Odeuxzero, diamant noir, fuck le 2 x 333 Fuck largent sale, on fait d'l'argent noir, négro, d'l'argent noir Fuck l'argent sale, on veut d'l'argent noir, négro, d'l'argent noir Ligue des Ombres, côté obscur trop d'midi-chloriens dans l'sang comme Anakin Camouflés en noir et vert comme Sam Fisher, furtif dans la matrice Extraterrestre flow, j'baise grave les règles flow Rayon d'la mort dans ta gueule sur terre, tu laisses même pas tes restes flow Jeune Sith, appelle-moi Dark Chen De l'autre côté de la Stargate Dans l'ombre comme Al Simmons en train d'fumer d'la Kryptonite, négro, fuck Clark Kent Comme Solid Snake, j'm'infiltre Énormément d'avance, à peine 20 piges Fils de pute, j'suis pas immortel mais pour m'réincarner, il m'faut juste un fils Yes, argent noir, argent noir, argent noir, argent noir, noir, noir, noir, noir, négro LT RT RT RT, 667</t>
+          <t>Smoky, haha, yeah, double F G, LT RT Jordy GHB, Freeze Corleone Argent noir, argent noir, argent noir, argent noir Dieu noir sapé en noir vision nocturne dans l'noir So à Odeuxzero, diamant noir, fuck le 2x 333 660 7 gang, bâtard, on est au dessus Un peu de vert en complément du noir sur nos costumes Vrai négro shit comme dhabitude, contrairement à ces pussy, négro J'prends c'qui est utile, rejette ce qui ne l'est pas comme Bruce Lee, negro On sort des ténèbres, le niveau on élève On s'en bat les couille dêtre célèbre, évite de nous comparer à ces nègres Frappe chirurgicale sur leur maison Faya family fonscar à toutes les saisons Dans ma tête, cest sombre et enfumé, ça se ressent en écoutant mes sons Double 6 7 mafia, ces faggot rappent avec du maquillage Freeze Corleone fleuriste furtif 7 capitaine pirate qui rappe Dieu noir sapé en noir, vision nocturne dans l'noir So à Odeuxzero, diamant noir, fuck le 2 x 333 Fuck largent sale, on fait d'l'argent noir, négro, d'l'argent noir Fuck l'argent sale, on veut d'l'argent noir, négro, d'l'argent noir MC, appelle-moi, Freeze, Shi-fu, Chen, Sensei So au roi Heenok, j'suis dans cette merde pour accidenter des Bentley Tu veux atteindre le niveau 3, tester nos potions, goûter nos niaks Négro, j'ai les yeuz tellement rouges, damn, c'en est presque démoniaque Différent comme 2 Chainz, j'me sens comme ODB du Wu-Tang Homme honnête le jour, défoncé la nuit, j'mène une double vie comme Bruce Wayne J'affûte mon sabre, appelle-moi Hanzo Attori Négro, comme des chemtrails, d'au-dessus, nos merdes on vaporise Dieu noir sapé en noir, vision nocturne dans l'noir So à Odeuxzero, diamant noir, fuck le 2 x 333 Fuck largent sale, on fait d'l'argent noir, négro, d'l'argent noir Fuck l'argent sale, on veut d'l'argent noir, négro, d'l'argent noir Yo Dis-leur que Jordy a bien changé J'suis préparé à bien manger J'veux le physique à Biggie avant la fin Mes monture Versace, ma chemise en lin Le compte à rebours est lancé et fuck Kiefer Sutherland J'vais tout faire sauter, me barrer au volant d'une p'tite allemande J'traîne avec des Canadiens qui chient sur la feuille d'érable Se gazent à coup de cannabis un genre d'injection léthale Ceux qui nous suçaient nous boycottent, dégaines de boyscoot Dans leurs clips, hmm, sponso' par le bois de Boubou On a été trop gentils, maintenant, va falloir les nettoyer Les étouffer lentement ou dans leur bain les noyer C'est pas parce que t'es belle que je te niquerai C'est parce que t'es facile comme ouvrir une bouteille d'eau fraîche Dieu noir sapé en noir, vision nocturne à Versailles So à la monarchie, le reste, on va les ken comme Jay-Z et Destiny's Child Fuck l'argent sale, my niggas, on fait de l'argent nègre Ton équipe fait de l'argent maigre J'brûle tes jojos en live conférence sur Ustream Te regarde pleurer comme un mioche sans sa tétine Me branle dans ton bonnet Carhartt et le vends aux enchères sur eBay Tu fais tié-p' comme ceux qui mettent leurs Snapbacks avec leurs étiquettes J'nique vos raps de métrosexuel avec des voix d'avaleuses J'suis rageux car t'as la tête de la victime qui passe aux aveux Et partout, je vois des guns comme dans les vieux westerns Wallaye que devant certaines personnes, j'appuierais bien sur la gâchette Une balle dans chaque jambe, histoire que tu descendes d'un étage Te jette dans un marécage, enculé maintenant nage Smoky nagee ahah LT Dans l'ombre, j'peaufine mon plan pour accéder au pouvoir Vaisseau-mère, pont principal, vue panoramique, négro, j'peux tout voir J'débarque dans cette pute comme Sasuke Sharingan actif Tasse-pé, appelle moi Yasuke, jeune samouraï d'Afrique J'veux le bandeau numéro 1 et négro, j'l'aurai Les singes sont sortir du zoo, les loups vont bientôt sortir d'la forêt J'prends mon temps dans mon camp, inch'allah, j'suis là encore pendant longtemps Négro, comme des putain de francs-maçons, on est tous frères dans mon clan Pointée vers le bas est notre pyramide Y a que si on nous cane qu'on sera pas finalistes Nous comparer à vous, c'est comme comparer Haarp à d'la dynamite Double f g, négro, c'est nous Dans cette merde pour prendre les sous La concurrence me fait penser à d'la variété française tellement cest mou Dieu noir sapé en noir, vision nocturne dans l'noir So à Odeuxzero, diamant noir, fuck le 2 x 333 Fuck largent sale, on fait d'l'argent noir, négro, d'l'argent noir Fuck l'argent sale, on veut d'l'argent noir, négro, d'l'argent noir Ligue des Ombres, côté obscur trop d'midi-chloriens dans l'sang comme Anakin Camouflés en noir et vert comme Sam Fisher, furtif dans la matrice Extraterrestre flow, j'baise grave les règles flow Rayon d'la mort dans ta gueule sur terre, tu laisses même pas tes restes flow Jeune Sith, appelle-moi Dark Chen De l'autre côté de la Stargate Dans l'ombre comme Al Simmons en train d'fumer d'la Kryptonite, négro, fuck Clark Kent Comme Solid Snake, j'm'infiltre Énormément d'avance, à peine 20 piges Fils de pute, j'suis pas immortel mais pour m'réincarner, il m'faut juste un fils Yes, argent noir, argent noir, argent noir, argent noir, noir, noir, noir, noir, négro LT RT RT RT, 667</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Première partie d'1995, y a 10 ans, j'me fais vieux Au lycée, j'disais à tout l'monde que j'connaissais Nekfeu Feu Forcer le destin, on naît pas star, on le devient Dans les festivals, j'me balade comme au musée Grévin J'voulais être dans Sexion d'Assaut, qu'des milliers d'personnes me regardent Mais j'm'en rends pas compte, j'suis dans Truman Show Ingé' son, mets l'autotune si jamais y a fausse note Ils m'aimeront quand j'serai mort donc j'suis dans Pop Smoke Comme un rappeur, j'suis dans Twitter en TT Comme un rappeur, j'finirai seul endetté Crois pas c'qu'on te dit, c'est pas facile, la musique J'connais les concerts où y a plus de monde sur scène que dans l'public que dans l'public Est-ce que Vald est comme ça ou bien c'est forcé ? Vous vous êtes vus en vrai ? Est-ce qu'il était défoncé ? Est-ce que vous êtes sincères ou bien c'est des gros mythos ? J'suis dans Oli sur la scène, c'est quand qu'j'suis dans Olivio ? J'suis qu'un fan, j'suis qu'un fan Laissez-moi copier mes idoles laissez-moi, laissez-moi Poster au fond du crâne poster au fond du crâne Autographe sur ma camisole J'suis qu'un fan qui a des fans t'es qu'un fan, t'es qu'un fan, t'es qu'un fan Qui a des fans j'suis qu'un fan, j'suis qu'un fan, j'suis qu'un fan J'suis qu'un fan qui a des fans t'es qu'un fan, t'es qu'un fan, t'es qu'un fan Qui a des fans j'suis qu'un fan, j'suis qu'un fan, j'suis qu'un fan You might also like J'étais dans le rap avant qu'tout l'monde soit fan de rap hip-hop Avant qu'ça devienne à la mode Maintenant, les fans de rap me disent qu'ils sont pas fans de moi eh ouais C'est sûrement l'ironie du sort J'é', j'é', j'é', j'étais dans Dofus, j'crois qu'je l'suis toujours On s'donnait rendez-vous au Zaap d'Astrub après les cours après les cours J'suis, j'suis, j'suis, dans le Lotus Noir, tu peux pas m'posséder J'suis dans Toulouse, j'suis dans Don Choa et KDD J'écoutais Peur de l'échec et les larmes s'mettaient à couler J'suis dans Sully Sefil, dans la cabine, dans le clip J'voulais J'voulais tous les autographes comme des cartes Panini J'ai même fait la queue à Virgin pour rencontrer Kamini ah, ah J'ai bientôt trente ans mais j'suis encore dans Pokémon Sur ma trottinette, j'écoute du Freeze Corleone ekip Lève ta main pour Sullyvan qui pose sur l'album J'suis dans V.A.L.D depuis l'époque de Winston Quand j'aime pas les photos, j'suis dans Big Flo waoh Et quand je perds des ch'veux, j'suis dans Oli Ha ! J'suis déjà arrivé, quand retentit le go go Quand ils ouvrent le champagne, je vomis brr Quand j'veux pas faire le feat', j'suis dans OrelSan Orel' Quand je change pas d'avis, j'suis dans OrelSan Orel' Même quand je change d'avis, j'suis dans OrelSan Orel' Quand j'mène une double vie, j'suis dans OrelSan woh J'suis dans Heuss L'enfoiré quand j'dis qu'je suis dans machin, quand j'dis qu'je suis dans Brassens Quand j'dis J'suis dans l'bassin, j'parle du grand, je suis dans Dadju, Ninho J'suis dans Vincent Chatin, sur Deliveroo, Ouigo Okay, là, j'vis sans parfum comme si je vis dans Le Parfum, le film Pourquoi tu vis dans l'mensonge ? Il suffit parfois d'le dire Moi, j'reste dans mon délire, ça, c'est Mac Tyer, qu'a dit J'sais pas si tu t'imagines ? ça c'est pour ceux qui savent J'suis qu'un fan, j'suis qu'un fan Laissez-moi copier mes idoles laissez-moi, laissez-moi Poster au fond du crâne poster au fond du crâne Autographe sur ma camisole J'suis qu'un fan qui a des fans t'es qu'un fan, t'es qu'un fan, t'es qu'un fan Qui a des fans j'suis qu'un fan, j'suis qu'un fan, j'suis qu'un fan J'suis qu'un fan qui a des fans t'es qu'un fan, t'es qu'un fan, t'es qu'un fan Qui a des fans j'suis qu'un fan, j'suis qu'un fan, j'suis qu'un fan J'étais pas prêt, de base Avant, j'étais fan, maintenant, j'ai des fans, woh, woh Avant qu'j'ai des Stan, j'avais d'jà des Stan Smith Y en a qui déçoivent, y en a, c'est des vraies étoiles ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Quand on dit J'suis dans machin, genre pour adopter l'comportement ou... T'sais je sais pas, ouais y'a quelque chose d'être fan Quelque part, ça veut dire quelque chose</t>
+          <t>Première partie d'1995, y a 10 ans, j'me fais vieux Au lycée, j'disais à tout l'monde que j'connaissais Nekfeu Feu Forcer le destin, on naît pas star, on le devient Dans les festivals, j'me balade comme au musée Grévin J'voulais être dans Sexion d'Assaut, qu'des milliers d'personnes me regardent Mais j'm'en rends pas compte, j'suis dans Truman Show Ingé' son, mets l'autotune si jamais y a fausse note Ils m'aimeront quand j'serai mort donc j'suis dans Pop Smoke Comme un rappeur, j'suis dans Twitter en TT Comme un rappeur, j'finirai seul endetté Crois pas c'qu'on te dit, c'est pas facile, la musique J'connais les concerts où y a plus de monde sur scène que dans l'public que dans l'public Est-ce que Vald est comme ça ou bien c'est forcé ? Vous vous êtes vus en vrai ? Est-ce qu'il était défoncé ? Est-ce que vous êtes sincères ou bien c'est des gros mythos ? J'suis dans Oli sur la scène, c'est quand qu'j'suis dans Olivio ? J'suis qu'un fan, j'suis qu'un fan Laissez-moi copier mes idoles laissez-moi, laissez-moi Poster au fond du crâne poster au fond du crâne Autographe sur ma camisole J'suis qu'un fan qui a des fans t'es qu'un fan, t'es qu'un fan, t'es qu'un fan Qui a des fans j'suis qu'un fan, j'suis qu'un fan, j'suis qu'un fan J'suis qu'un fan qui a des fans t'es qu'un fan, t'es qu'un fan, t'es qu'un fan Qui a des fans j'suis qu'un fan, j'suis qu'un fan, j'suis qu'un fan J'étais dans le rap avant qu'tout l'monde soit fan de rap hip-hop Avant qu'ça devienne à la mode Maintenant, les fans de rap me disent qu'ils sont pas fans de moi eh ouais C'est sûrement l'ironie du sort J'é', j'é', j'é', j'étais dans Dofus, j'crois qu'je l'suis toujours On s'donnait rendez-vous au Zaap d'Astrub après les cours après les cours J'suis, j'suis, j'suis, dans le Lotus Noir, tu peux pas m'posséder J'suis dans Toulouse, j'suis dans Don Choa et KDD J'écoutais Peur de l'échec et les larmes s'mettaient à couler J'suis dans Sully Sefil, dans la cabine, dans le clip J'voulais J'voulais tous les autographes comme des cartes Panini J'ai même fait la queue à Virgin pour rencontrer Kamini ah, ah J'ai bientôt trente ans mais j'suis encore dans Pokémon Sur ma trottinette, j'écoute du Freeze Corleone ekip Lève ta main pour Sullyvan qui pose sur l'album J'suis dans V.A.L.D depuis l'époque de Winston Quand j'aime pas les photos, j'suis dans Big Flo waoh Et quand je perds des ch'veux, j'suis dans Oli Ha ! J'suis déjà arrivé, quand retentit le go go Quand ils ouvrent le champagne, je vomis brr Quand j'veux pas faire le feat', j'suis dans OrelSan Orel' Quand je change pas d'avis, j'suis dans OrelSan Orel' Même quand je change d'avis, j'suis dans OrelSan Orel' Quand j'mène une double vie, j'suis dans OrelSan woh J'suis dans Heuss L'enfoiré quand j'dis qu'je suis dans machin, quand j'dis qu'je suis dans Brassens Quand j'dis J'suis dans l'bassin, j'parle du grand, je suis dans Dadju, Ninho J'suis dans Vincent Chatin, sur Deliveroo, Ouigo Okay, là, j'vis sans parfum comme si je vis dans Le Parfum, le film Pourquoi tu vis dans l'mensonge ? Il suffit parfois d'le dire Moi, j'reste dans mon délire, ça, c'est Mac Tyer, qu'a dit J'sais pas si tu t'imagines ? ça c'est pour ceux qui savent J'suis qu'un fan, j'suis qu'un fan Laissez-moi copier mes idoles laissez-moi, laissez-moi Poster au fond du crâne poster au fond du crâne Autographe sur ma camisole J'suis qu'un fan qui a des fans t'es qu'un fan, t'es qu'un fan, t'es qu'un fan Qui a des fans j'suis qu'un fan, j'suis qu'un fan, j'suis qu'un fan J'suis qu'un fan qui a des fans t'es qu'un fan, t'es qu'un fan, t'es qu'un fan Qui a des fans j'suis qu'un fan, j'suis qu'un fan, j'suis qu'un fan J'étais pas prêt, de base Avant, j'étais fan, maintenant, j'ai des fans, woh, woh Avant qu'j'ai des Stan, j'avais d'jà des Stan Smith Y en a qui déçoivent, y en a, c'est des vraies étoiles ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Ouais, ouais, j'suis dans l'stade ouais Quand on dit J'suis dans machin, genre pour adopter l'comportement ou... T'sais je sais pas, ouais y'a quelque chose d'être fan Quelque part, ça veut dire quelque chose</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Hein, ekip ekip ekip So Congo hein So Congo J'arrive pas à les voir avec ou sans verres Dans le lin Slim Thug Platines, ekip, han Ekip J'arrive pas à les voir avec ou sans verres sku Dans le lin, sip' comme au Texas avec ou sans verre So Slim Thug, j'veux des gold, des diamants et des platines So Congo sur la prod, so Congo sur les platines sku Précis à distance, j'mets les trois points ekip Chaque match, j'pars avec les trois points Dans Paris, j'sens la signature, des maçons comme les trois points Fume en louss-dé comme Gallas, j'suis dans le triangle comme Palace Sous le soleil cons' le sirop, DKR comme Dallas Deux pas derrière la ligne, sans aucun stress, j'la mets en finesse swish, swish Pour les millions, so Skinny, finesse un finesseur, en finesse J'veux voir les piles de liasses toucher le plafond Gelato, Backwood, lin, double cup et les glaçons You might also like Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Ekip Chen Zen, j'ai les cross de Farm Assist Dès qu'j'ai ma foreign, jinvestis dans des pharmacies sku han Doù j'suis, j'les vois tout p'tits comme les microbes Attaque soviétique sur la prod comme les microbes Négro, j'découpe comme Freddy, sur la prod, kicke comme Eddy So Sobek, j'maîtrise les techniques de judo comme Teddy Killu à vie comme Dubble, Amsterdam, avec Loto Siris bubble dans les blunts comme trubble On les lave on les lessive, j'fume comme si j'canne demain J'lean comme si j'ai cinq toux, dans le lex' comme si j'suis dépressif So Kaki Montana, dans ton front y a le faisceau Branché, j'suis dans le réseau, bombarde à fond dans le vaisseau Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry Gros teh à la Ribéry J'veux plus de papier qu'la librairie Gros teh à la Ribéry Gros teh à la Ribéry, sang à la température d'la Sibérie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Ekip5</t>
+          <t>Hein, ekip ekip ekip So Congo hein So Congo J'arrive pas à les voir avec ou sans verres Dans le lin Slim Thug Platines, ekip, han Ekip J'arrive pas à les voir avec ou sans verres sku Dans le lin, sip' comme au Texas avec ou sans verre So Slim Thug, j'veux des gold, des diamants et des platines So Congo sur la prod, so Congo sur les platines sku Précis à distance, j'mets les trois points ekip Chaque match, j'pars avec les trois points Dans Paris, j'sens la signature, des maçons comme les trois points Fume en louss-dé comme Gallas, j'suis dans le triangle comme Palace Sous le soleil cons' le sirop, DKR comme Dallas Deux pas derrière la ligne, sans aucun stress, j'la mets en finesse swish, swish Pour les millions, so Skinny, finesse un finesseur, en finesse J'veux voir les piles de liasses toucher le plafond Gelato, Backwood, lin, double cup et les glaçons Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Ekip Chen Zen, j'ai les cross de Farm Assist Dès qu'j'ai ma foreign, jinvestis dans des pharmacies sku han Doù j'suis, j'les vois tout p'tits comme les microbes Attaque soviétique sur la prod comme les microbes Négro, j'découpe comme Freddy, sur la prod, kicke comme Eddy So Sobek, j'maîtrise les techniques de judo comme Teddy Killu à vie comme Dubble, Amsterdam, avec Loto Siris bubble dans les blunts comme trubble On les lave on les lessive, j'fume comme si j'canne demain J'lean comme si j'ai cinq toux, dans le lex' comme si j'suis dépressif So Kaki Montana, dans ton front y a le faisceau Branché, j'suis dans le réseau, bombarde à fond dans le vaisseau Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Gros teh à la Ribéry Gros teh à la Ribéry J'veux plus de papier qu'la librairie Gros teh à la Ribéry Gros teh à la Ribéry, sang à la température d'la Sibérie Gros teh à la Ribéry, sang à la température d'la Sibérie So Rich, j'veux plus de papier qu'la librairie Ekip5</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Haha, han, yes Double 6-7 Kartel De l'autre côté d'la Stargate A l'aube de l'orage Osirus Jack, Freeze Corleone, Odeuxrozé BPK, OVG, han, hey J'fais cette merde pour mon héritage han, 667, négro So à mon équipage, qu'est c'qui c'passe ? Le calme avant la tempête MMS Pendant qu'les cons dorment, on passe à la pratique Mes négros complotent, fini l'temps du practice J'arrive d'en-haut comme un Canadair en Côte-d'or Négro ça tonne fort, j'traine avec des croque-morts Prod' en céramique, mec chaud pour l'homicide OV pyramide débarque avec des momies vif vif Headshot c'est easy, plie la prod' XXX Que des swishers, BPK fils sur le sweatshirt Grosse épée, vise 'vec des OCB Sam's lopito, clan d'fous OVG J'abdique ta team, arrive à mille à l'heure Habite ta fille, la tire comme un tirailleur Ruger en poche, 357, PPK So à Ben 10, des têtes pleines dans Daillance, fonscar, fin d'game Ça s'ramène en masse, obligé d'le faire en indienne You might also like 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre Rap Game Vois notre triangle inversé dans l'espace Dirigé vers la Terre, viseur pointé sur vos parcelles Prends la grosse tête on vise, on tire, éclate ta pastèque 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre rap-game J'vois notre triangle inversé dans l'espace Nouvelle ère, quelques nègres et on domine sur Terre Comme des océans, toujours fins et tactiques dans nos procédés On est posé dans l'vaisseau-mère Réfléchissant à des plans pour prospérer On vit l'calme avant la tempête sans stress, on s'engraisse, on chill au calme chill au calme Nos sons prennent d'la valeur comme des kilos d'came kilos d'came On veut des kilos d'maille fissa Tu nous as vu chauds en freestyle, on est pire au mic' fiston Dangereux comme des pyromanes, j'irrade descendu d'Krypton Du futur viennent nos messages, on vous laisse 667 ans Pour les décrypter, c'est l'temps qu'il faut pour briser l'cristal Vise les milliards par milliers Plan calculé au millimètre, j'm'immisce vers l'sommet avec une aisance militaire J'ai les idées claires, j'ai plus aucune douleur et peine Dans la couleur ébène de mes yeux, j'veux que des billets verts 19 ans et j'rappe comme si j'baignais dedans depuis des millénaires J'développe une image d'idole J'prends c'qui a à prendre dans c'bordel, et en Afrique je m'isole mec Dans l'Rap Game, règne en silence immortel 667 c'est pour ça qu'on s'ramène Y a plus d'porte-parole, y a qu'des porte-jarretelles Donc on ramène du vrai hip-hop sur la Terre 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre Rap Game Vois notre triangle inversé dans l'espace Dirigé vers la Terre, viseur pointé sur vos parcelles Prends la grosse tête on vise, on tire, éclate ta pastèque J'arrive dans cette pute complètement fonscar J'roule des blunts sans toncar, niveau 3 ça s'sent quand on m'parle En orbite, dans une autre galaxie So à mes loups, ça va graille du mouton comme à la Tabaski Plus l'temps pour les chichis, on veut l'jackpot Les grands bails s'actionnent, j'suis bad comme Michael Jackson J'le fais pour ma dynastie, négro mon héritage J'vois la vie en rouge, noir ou vert, la chatte à Edith Piaf goddamn Bledard mentality, dans cette merde pour le khaliss V'là liasse dans des valises, j'm'arrête pas tant qu'j'suis pas riche Dès qu'c'est bon, j'm'achète un fusil à visée automatique Des ACR avec des silencieux, des viseurs holographiques Après j'rentre au bled, construire des citadelles On a tous nos soucis, on s'en bats les couilles d'la vie d'Adèle J'veux des gros sous, des milliards négro négro Déjà dead j'me déplace à l'arrière d'un corbillard négro Seulement pour la famille comme OTF ou les Rothschild Ressemble à la Mobb Depp Là pour argent nègre et or, bitch Shifu Chen sensei, quand j'kick prends-en des notes, fils J'suis juste à la limite du hors-jeu comme Krystal Rochdi Double 6-7, négro on t'ramène cette vraie merde Nique être célèbre, dans mon équipe que des vrais nègres So à GHB, négro dans les ténèbres On célèbre le sacrifice de ces moutons et d'ces chiennes 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre Rap Game Vois notre triangle inversé dans l'espace Dirigé vers la Terre, viseur pointé sur vos parcelles Prends la grosse tête on vise, on tire, éclate ta pastèque 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre Rap Game Vois notre triangle inversé dans l'espace</t>
+          <t>Haha, han, yes Double 6-7 Kartel De l'autre côté d'la Stargate A l'aube de l'orage Osirus Jack, Freeze Corleone, Odeuxrozé BPK, OVG, han, hey J'fais cette merde pour mon héritage han, 667, négro So à mon équipage, qu'est c'qui c'passe ? Le calme avant la tempête MMS Pendant qu'les cons dorment, on passe à la pratique Mes négros complotent, fini l'temps du practice J'arrive d'en-haut comme un Canadair en Côte-d'or Négro ça tonne fort, j'traine avec des croque-morts Prod' en céramique, mec chaud pour l'homicide OV pyramide débarque avec des momies vif vif Headshot c'est easy, plie la prod' XXX Que des swishers, BPK fils sur le sweatshirt Grosse épée, vise 'vec des OCB Sam's lopito, clan d'fous OVG J'abdique ta team, arrive à mille à l'heure Habite ta fille, la tire comme un tirailleur Ruger en poche, 357, PPK So à Ben 10, des têtes pleines dans Daillance, fonscar, fin d'game Ça s'ramène en masse, obligé d'le faire en indienne 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre Rap Game Vois notre triangle inversé dans l'espace Dirigé vers la Terre, viseur pointé sur vos parcelles Prends la grosse tête on vise, on tire, éclate ta pastèque 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre rap-game J'vois notre triangle inversé dans l'espace Nouvelle ère, quelques nègres et on domine sur Terre Comme des océans, toujours fins et tactiques dans nos procédés On est posé dans l'vaisseau-mère Réfléchissant à des plans pour prospérer On vit l'calme avant la tempête sans stress, on s'engraisse, on chill au calme chill au calme Nos sons prennent d'la valeur comme des kilos d'came kilos d'came On veut des kilos d'maille fissa Tu nous as vu chauds en freestyle, on est pire au mic' fiston Dangereux comme des pyromanes, j'irrade descendu d'Krypton Du futur viennent nos messages, on vous laisse 667 ans Pour les décrypter, c'est l'temps qu'il faut pour briser l'cristal Vise les milliards par milliers Plan calculé au millimètre, j'm'immisce vers l'sommet avec une aisance militaire J'ai les idées claires, j'ai plus aucune douleur et peine Dans la couleur ébène de mes yeux, j'veux que des billets verts 19 ans et j'rappe comme si j'baignais dedans depuis des millénaires J'développe une image d'idole J'prends c'qui a à prendre dans c'bordel, et en Afrique je m'isole mec Dans l'Rap Game, règne en silence immortel 667 c'est pour ça qu'on s'ramène Y a plus d'porte-parole, y a qu'des porte-jarretelles Donc on ramène du vrai hip-hop sur la Terre 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre Rap Game Vois notre triangle inversé dans l'espace Dirigé vers la Terre, viseur pointé sur vos parcelles Prends la grosse tête on vise, on tire, éclate ta pastèque J'arrive dans cette pute complètement fonscar J'roule des blunts sans toncar, niveau 3 ça s'sent quand on m'parle En orbite, dans une autre galaxie So à mes loups, ça va graille du mouton comme à la Tabaski Plus l'temps pour les chichis, on veut l'jackpot Les grands bails s'actionnent, j'suis bad comme Michael Jackson J'le fais pour ma dynastie, négro mon héritage J'vois la vie en rouge, noir ou vert, la chatte à Edith Piaf goddamn Bledard mentality, dans cette merde pour le khaliss V'là liasse dans des valises, j'm'arrête pas tant qu'j'suis pas riche Dès qu'c'est bon, j'm'achète un fusil à visée automatique Des ACR avec des silencieux, des viseurs holographiques Après j'rentre au bled, construire des citadelles On a tous nos soucis, on s'en bats les couilles d'la vie d'Adèle J'veux des gros sous, des milliards négro négro Déjà dead j'me déplace à l'arrière d'un corbillard négro Seulement pour la famille comme OTF ou les Rothschild Ressemble à la Mobb Depp Là pour argent nègre et or, bitch Shifu Chen sensei, quand j'kick prends-en des notes, fils J'suis juste à la limite du hors-jeu comme Krystal Rochdi Double 6-7, négro on t'ramène cette vraie merde Nique être célèbre, dans mon équipe que des vrais nègres So à GHB, négro dans les ténèbres On célèbre le sacrifice de ces moutons et d'ces chiennes 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre Rap Game Vois notre triangle inversé dans l'espace Dirigé vers la Terre, viseur pointé sur vos parcelles Prends la grosse tête on vise, on tire, éclate ta pastèque 667 futur, civilisation antique comme les Aztèques A 204 parsec de votre Rap Game Vois notre triangle inversé dans l'espace</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>6.6.7, Corleone, GHB, Osirus Négro j'me sens comme Sauron On veut des millions, inch'Allah nous les auront Escadron d'loups, vision nocturne, silencieux Viseur holographique pour faire nos rondes Noir et vert comme les Celtics Cons' du lean comme à Memphis Tous les jours fume la sensy Complote dans l'ombre avec mes frères siths Défracté dans la matrice J'me sens comme un genre de néo-black, négro Corleone, épidémie flow Double-6 7 kartel aka fléau black, négro Sans aucun stress, élimine victimes LDO, société secrète élitiste Prod tout droit sortie du cimetière, lean plus gas Complètement fonscar, j'me sens comme Evil Pimp, han Flingue-le, flingue-le, flingue-le Eh il bouge, wallah il bouge Goddamn il est encore vivant, à gauche gros BPK, Beretta Goddamn, flingue-le gros BPK Shit, headshot pah ! Goddamn shoote-le, shoote le genou gros, shoote le genou Il court, il court, il court Termine-le, termine-le You might also like Bientôt j'passe au Xanax Lestat, le chien d'Monaco Déjà toutes les sessions, négro gaddam J'me sens comme Hendrix, comme une rockstar J'ai des sur mon compte MMS cons' la bonne skunk Je souffle dans un ballon rond J'm'envole sur mon balai rond J'suis au ralenti comme Judge Dredd Quelle bitch n'aime pas la levrette ? Faya tous les jours de la semaine Sprite sombre comme la couleur de ma quenelle Jorrdee, Chen Zen Une préférence pour les toxs du MS-13 MMS, c'est l'numéro 7 Osirus Jack pour le triple-7 Flingue-le, flingue-le, flingue-le Eh il bouge, wallah il bouge Goddamn il est encore vivant, à gauche gros BPK, Beretta Goddamn, flingue-le gros BPK Shit, headshot pah ! Goddamn shoote-le, shoote le genou gros, shoote le genou Il court, il court, il court Termine-le, termine-le Lâche des rimes toutes aiguisées Osirus Jack 2 schyzo Potion secrète comme à Gizeh Négro so à Gui-So 77, pyramide à l'envers MMS, LDO So à Kixou, Black Jack Même pas déf' après 13 bédos Les bangos banguent dans la forêt Gourou, négro j'suis chaman Flow kaki épidémie 100 meujs, die sous la salade Pierre No Lille, OV OV Dans cette merde juste pour mes gros-né Gros pilon, j'cale ça Vitriolé avec labsinthe Or, diamants, saphirs Vise que les kilos d'or Mangemort Squad, bitch Tous tes signaux gores</t>
+          <t>6.6.7, Corleone, GHB, Osirus Négro j'me sens comme Sauron On veut des millions, inch'Allah nous les auront Escadron d'loups, vision nocturne, silencieux Viseur holographique pour faire nos rondes Noir et vert comme les Celtics Cons' du lean comme à Memphis Tous les jours fume la sensy Complote dans l'ombre avec mes frères siths Défracté dans la matrice J'me sens comme un genre de néo-black, négro Corleone, épidémie flow Double-6 7 kartel aka fléau black, négro Sans aucun stress, élimine victimes LDO, société secrète élitiste Prod tout droit sortie du cimetière, lean plus gas Complètement fonscar, j'me sens comme Evil Pimp, han Flingue-le, flingue-le, flingue-le Eh il bouge, wallah il bouge Goddamn il est encore vivant, à gauche gros BPK, Beretta Goddamn, flingue-le gros BPK Shit, headshot pah ! Goddamn shoote-le, shoote le genou gros, shoote le genou Il court, il court, il court Termine-le, termine-le Bientôt j'passe au Xanax Lestat, le chien d'Monaco Déjà toutes les sessions, négro gaddam J'me sens comme Hendrix, comme une rockstar J'ai des sur mon compte MMS cons' la bonne skunk Je souffle dans un ballon rond J'm'envole sur mon balai rond J'suis au ralenti comme Judge Dredd Quelle bitch n'aime pas la levrette ? Faya tous les jours de la semaine Sprite sombre comme la couleur de ma quenelle Jorrdee, Chen Zen Une préférence pour les toxs du MS-13 MMS, c'est l'numéro 7 Osirus Jack pour le triple-7 Flingue-le, flingue-le, flingue-le Eh il bouge, wallah il bouge Goddamn il est encore vivant, à gauche gros BPK, Beretta Goddamn, flingue-le gros BPK Shit, headshot pah ! Goddamn shoote-le, shoote le genou gros, shoote le genou Il court, il court, il court Termine-le, termine-le Lâche des rimes toutes aiguisées Osirus Jack 2 schyzo Potion secrète comme à Gizeh Négro so à Gui-So 77, pyramide à l'envers MMS, LDO So à Kixou, Black Jack Même pas déf' après 13 bédos Les bangos banguent dans la forêt Gourou, négro j'suis chaman Flow kaki épidémie 100 meujs, die sous la salade Pierre No Lille, OV OV Dans cette merde juste pour mes gros-né Gros pilon, j'cale ça Vitriolé avec labsinthe Or, diamants, saphirs Vise que les kilos d'or Mangemort Squad, bitch Tous tes signaux gores</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>J'vendrai pas mon âme, que Dieu m'en soit témoin Cash en banque, j'utilise mon arme, Corleone en procès, négro, pas d'témoin Nique le Dajjâl, nique les illu', so Shakur, chaque jour j'suis killu' Graille vos MCs comme des Petits LU, bouge des CDs comme des pilules Gaddamn, j'suis comme Salvia, négro, t'es comme shit 667 gouvernement, bientôt autosuffisant comme Chine Haha, so Rifa, à ma table, que des visionnaires Estimation, gros chiffre d'affaires prévisionnel Ligue des Ombres, table ronde, instance décisionnelle Gaddamn, mes loups ont la dalle comme en Corée Synchro sans stress même sans choré' Tes fausses merdes sont seulement dorées J'avance avec mes frères comme un franc-maçon Mon âme pour du cash ou des 'tasses ? Merci, sans façon J'vendrai pas mon âme salope J'vendrai pas mon âme salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme You might also like Chen Zen, ambitieux comme Michael, Bad comme Michael Crosse ces négros comme Michael âgé d'22 ans, puissant comme Michael Haha, j'vendrai pas mon âme, contrôle qualité comme Skippa Fais monter les taros, bientôt pour apparition, tu donnes 6k Goddamn, on a la dalle mais c'est pas la même Nous et eux, ce n'est pas la même, fais cette merde sans stress, contrôle les paramètres Dans les trous d'ver comme Donnie, j'veux la villa comme Tony Chen Zen, dans l'mercato comme Bony Kicke sur la prod comme Donnie, goddamn Dans la trap house, en hiver, il fait froid de ouf Guidé par l'Seigneur, j'y crois de ouf Défracté, j'me sens comme Roi de ouf Tout c'que j'fais, j'le fais avec et pour la familia Vision 1080p, comme Trayle progresse avec la familia J'vendrai pas mon âme salope J'vendrai pas mon âme salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme So Slim Chavez, en-dessous d'Dieu, au-dessus du Sheitan J'arrive comme Luke Skywalker dans L'Retour du Jedi J'veux la fédération, négro, fuck une médaille Libérez Monsieur Zone six, Numéro 9 et Cdai Yeuz bridés, j'arrive Chinois comme un yuan Tous les jours, fume du hasch', trouve-moi dans l'ciel comme un nuage Africain, réfléchis comme un feuj, so Nipsey Hussle Inarrêtable en mode marathon, so Nipsey Hussle Goddamn, furtif négro, transige comme un sous-marin soviétique Leanhead, so Dubble, sip que du lean, pas de Sobieski Comme GFG, en indé', accroché au train comme des Indiens Tranche pas sans scindé, so Kaki, j'défends, j'attaque et j'maintiens J'vendrai pas mon âme salope J'vendrai pas mon âme salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme</t>
+          <t>J'vendrai pas mon âme, que Dieu m'en soit témoin Cash en banque, j'utilise mon arme, Corleone en procès, négro, pas d'témoin Nique le Dajjâl, nique les illu', so Shakur, chaque jour j'suis killu' Graille vos MCs comme des Petits LU, bouge des CDs comme des pilules Gaddamn, j'suis comme Salvia, négro, t'es comme shit 667 gouvernement, bientôt autosuffisant comme Chine Haha, so Rifa, à ma table, que des visionnaires Estimation, gros chiffre d'affaires prévisionnel Ligue des Ombres, table ronde, instance décisionnelle Gaddamn, mes loups ont la dalle comme en Corée Synchro sans stress même sans choré' Tes fausses merdes sont seulement dorées J'avance avec mes frères comme un franc-maçon Mon âme pour du cash ou des 'tasses ? Merci, sans façon J'vendrai pas mon âme salope J'vendrai pas mon âme salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme Chen Zen, ambitieux comme Michael, Bad comme Michael Crosse ces négros comme Michael âgé d'22 ans, puissant comme Michael Haha, j'vendrai pas mon âme, contrôle qualité comme Skippa Fais monter les taros, bientôt pour apparition, tu donnes 6k Goddamn, on a la dalle mais c'est pas la même Nous et eux, ce n'est pas la même, fais cette merde sans stress, contrôle les paramètres Dans les trous d'ver comme Donnie, j'veux la villa comme Tony Chen Zen, dans l'mercato comme Bony Kicke sur la prod comme Donnie, goddamn Dans la trap house, en hiver, il fait froid de ouf Guidé par l'Seigneur, j'y crois de ouf Défracté, j'me sens comme Roi de ouf Tout c'que j'fais, j'le fais avec et pour la familia Vision 1080p, comme Trayle progresse avec la familia J'vendrai pas mon âme salope J'vendrai pas mon âme salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme So Slim Chavez, en-dessous d'Dieu, au-dessus du Sheitan J'arrive comme Luke Skywalker dans L'Retour du Jedi J'veux la fédération, négro, fuck une médaille Libérez Monsieur Zone six, Numéro 9 et Cdai Yeuz bridés, j'arrive Chinois comme un yuan Tous les jours, fume du hasch', trouve-moi dans l'ciel comme un nuage Africain, réfléchis comme un feuj, so Nipsey Hussle Inarrêtable en mode marathon, so Nipsey Hussle Goddamn, furtif négro, transige comme un sous-marin soviétique Leanhead, so Dubble, sip que du lean, pas de Sobieski Comme GFG, en indé', accroché au train comme des Indiens Tranche pas sans scindé, so Kaki, j'défends, j'attaque et j'maintiens J'vendrai pas mon âme salope J'vendrai pas mon âme salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, salope J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme J'vendrai pas mon âme J'vendrai pas mon âme, j'vendrai pas mon âme, j'vendrai pas mon âme</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Yeah yeah, 2.40 sur la file de droite Pas le temps pour ces filles de joie Moi j'regarde juste la fille de droite Insolente est l'attitude, ça l'a marquée comme une suite de droites Très très luxe comme une suite de droite Politique, j'suis dans la liste de droite Ah, Jacques Chirac J'arrive en ville 'vec 15 pirates J'arrive hostile comme Prince d'Irak Nettoie la zone comme 5 GI J'ride avec le Chen Zen Cherche l'or dans l'espace Schengen All In, cote à 1 contre 10, comme dans un gang bang J't'envoie images comme HD Avec un style de folie comme HP Dans un style de bolide comme Classe C Rien à foutre des bijoux, certains ont le bracelet Et si t'as misé sur un autre que nous t'as pas choisi le bon Il leur manque que l'Sprite maintenant vu qu'ils ont déjà touché le fond Ekip, ekip, ekip Yeah yeah, hustler à la Jacques Chirac Cash money, c'est une sale spirale J'suis le maître dans la base virale Ekip, ekip, ekip On prend cette monnaie à la Jacques Chirac cash cash cash Puis on oublie tout à la Jacques Chirac Yeah yeah, hustler à la Jacques Chirac Cash money, c'est une sale spirale J'suis le maître dans la base virale On prend cette monnaie à la Jacques Chirac Puis on oublie tout à la Jacques Chirac You might also like Prof Chen, pétasse J'ai des Superman punch' comme Offset, pétasse Si elle parle trop j'crois qu'j'vais off cette pétasse So Ice Slim, l'genre de nègre qui offre 7 pétasses Négro j'arrive avec Veerus Killu', j'arrive avec 'Sirus J'sais qu'j'vais gagner même si ça va être chaud Négro j'arrive avec Pirus Gaddem, on arrive glo comme GBE, bitch Troisième il comme TDE, bitch So 21, so Murder Gang So Slaughter Gang, so PDE, bitch J'regarde ces négros ils sont drôles comme Fabrice Chen Zen sur la prod, kick comme Patrice J'veux l'fromage comme feta, comme Caprice Pétasse, MMS on veut les MM's On veut les MM's pétasse, envoie Pop des pills comme des MM's Xan dans Redbull et c'est parti, négro J'suis d'retour comme si j'étais parti, négro J'reviens du futur comme si j'étais Marty, négro Ekip, ekip, ekip Yeah yeah, hustler à la Jacques Chirac Cash money, c'est une sale spirale J'suis le maître dans la base virale Ekip, ekip, ekip On prend cette monnaie à la Jacques Chirac Puis on oublie tout à la Jacques Chirac Yeah yeah, hustler à la Jacques Chirac Cash money, c'est une sale spirale J'suis le maître dans la base virale On prend cette monnaie à la Jacques Chirac Puis on oublie tout à la Jacques Chirac2</t>
+          <t>Yeah yeah, 2.40 sur la file de droite Pas le temps pour ces filles de joie Moi j'regarde juste la fille de droite Insolente est l'attitude, ça l'a marquée comme une suite de droites Très très luxe comme une suite de droite Politique, j'suis dans la liste de droite Ah, Jacques Chirac J'arrive en ville 'vec 15 pirates J'arrive hostile comme Prince d'Irak Nettoie la zone comme 5 GI J'ride avec le Chen Zen Cherche l'or dans l'espace Schengen All In, cote à 1 contre 10, comme dans un gang bang J't'envoie images comme HD Avec un style de folie comme HP Dans un style de bolide comme Classe C Rien à foutre des bijoux, certains ont le bracelet Et si t'as misé sur un autre que nous t'as pas choisi le bon Il leur manque que l'Sprite maintenant vu qu'ils ont déjà touché le fond Ekip, ekip, ekip Yeah yeah, hustler à la Jacques Chirac Cash money, c'est une sale spirale J'suis le maître dans la base virale Ekip, ekip, ekip On prend cette monnaie à la Jacques Chirac cash cash cash Puis on oublie tout à la Jacques Chirac Yeah yeah, hustler à la Jacques Chirac Cash money, c'est une sale spirale J'suis le maître dans la base virale On prend cette monnaie à la Jacques Chirac Puis on oublie tout à la Jacques Chirac Prof Chen, pétasse J'ai des Superman punch' comme Offset, pétasse Si elle parle trop j'crois qu'j'vais off cette pétasse So Ice Slim, l'genre de nègre qui offre 7 pétasses Négro j'arrive avec Veerus Killu', j'arrive avec 'Sirus J'sais qu'j'vais gagner même si ça va être chaud Négro j'arrive avec Pirus Gaddem, on arrive glo comme GBE, bitch Troisième il comme TDE, bitch So 21, so Murder Gang So Slaughter Gang, so PDE, bitch J'regarde ces négros ils sont drôles comme Fabrice Chen Zen sur la prod, kick comme Patrice J'veux l'fromage comme feta, comme Caprice Pétasse, MMS on veut les MM's On veut les MM's pétasse, envoie Pop des pills comme des MM's Xan dans Redbull et c'est parti, négro J'suis d'retour comme si j'étais parti, négro J'reviens du futur comme si j'étais Marty, négro Ekip, ekip, ekip Yeah yeah, hustler à la Jacques Chirac Cash money, c'est une sale spirale J'suis le maître dans la base virale Ekip, ekip, ekip On prend cette monnaie à la Jacques Chirac Puis on oublie tout à la Jacques Chirac Yeah yeah, hustler à la Jacques Chirac Cash money, c'est une sale spirale J'suis le maître dans la base virale On prend cette monnaie à la Jacques Chirac Puis on oublie tout à la Jacques Chirac2</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Ok, freestyle n5, mothahfuckah Yo, moi c'est Issa 17 piges des gens roules des J'm'y suis y'a à peine 2 ans, regarde où j'en suis, gars J't'lâche 2-3 rimes et j't'envoie à l'hôpital J'suis l'fils à un Sénégalais et une Ritale Chez moi on bouffe du tieb et des pizzas parce que j'suis fly J'arrive dans l'Game, préparez la piste datterrissage J'reconnais la peur sur ton visage Mais qu'est-ce qui s'passe ? tout à coup t'es bizarre Ça veut dire qu'j'suis efficace car quand j'kick j'trace Quand j'écris le Bic crache, quand je passe les bitchs jactent J'te fume comme une chicha, t'prends quand tu veux à FIFA Mes textes sont lourds comme Queen Latifah J'écris trop, y'a plus d'encre dans mon cahier Qu'sur le corps de Wiz Khalifa Si j'joue, ça veut dire qu'tu perds Comme le sans plomb, moi j'suis super Toujours frais dans ma casquette Supreme Putain mes textes sont aussi durs qu'du fer, yeah J'suis plus jeune que toi mais j't'appelle fiston J'écrase les MCs comme des balles de ping-pong Sur l'beat j'suis aussi agile que la bouée Quand j'kick j'suis aussi lourd que King Kong Tu t'manges des petits ponts car quand j'kick j'dribble Tire mes textes c'est comme du dentifrice MC m'prends pas pour un con, j'suis un scientifique Une punchline et c'est tes dents qui s'brisent Quand j'kick y'a le temps qui s'fige Et quand j'kick y'a les gens qui crient Ecoute c'que j'fais maintenant Imagine-toi maintenant c'que j'ferai dans 10 piges MC, face à moi tu fais pitié Comme un manchot qui s'branle Les beats, des Rihanna Et moi j'les tabasse comme Chris Brown MC, pour ta propre sécurité Tu devrais garder tes distances Si tu rappes après moi Tout l'monde verra qu'ton flow vaut pas 10 francs, han You might also like Mothahfuckah, Freezi F Freezi F bitch, viens que j't'explique1</t>
+          <t>Ok, freestyle n5, mothahfuckah Yo, moi c'est Issa 17 piges des gens roules des J'm'y suis y'a à peine 2 ans, regarde où j'en suis, gars J't'lâche 2-3 rimes et j't'envoie à l'hôpital J'suis l'fils à un Sénégalais et une Ritale Chez moi on bouffe du tieb et des pizzas parce que j'suis fly J'arrive dans l'Game, préparez la piste datterrissage J'reconnais la peur sur ton visage Mais qu'est-ce qui s'passe ? tout à coup t'es bizarre Ça veut dire qu'j'suis efficace car quand j'kick j'trace Quand j'écris le Bic crache, quand je passe les bitchs jactent J'te fume comme une chicha, t'prends quand tu veux à FIFA Mes textes sont lourds comme Queen Latifah J'écris trop, y'a plus d'encre dans mon cahier Qu'sur le corps de Wiz Khalifa Si j'joue, ça veut dire qu'tu perds Comme le sans plomb, moi j'suis super Toujours frais dans ma casquette Supreme Putain mes textes sont aussi durs qu'du fer, yeah J'suis plus jeune que toi mais j't'appelle fiston J'écrase les MCs comme des balles de ping-pong Sur l'beat j'suis aussi agile que la bouée Quand j'kick j'suis aussi lourd que King Kong Tu t'manges des petits ponts car quand j'kick j'dribble Tire mes textes c'est comme du dentifrice MC m'prends pas pour un con, j'suis un scientifique Une punchline et c'est tes dents qui s'brisent Quand j'kick y'a le temps qui s'fige Et quand j'kick y'a les gens qui crient Ecoute c'que j'fais maintenant Imagine-toi maintenant c'que j'ferai dans 10 piges MC, face à moi tu fais pitié Comme un manchot qui s'branle Les beats, des Rihanna Et moi j'les tabasse comme Chris Brown MC, pour ta propre sécurité Tu devrais garder tes distances Si tu rappes après moi Tout l'monde verra qu'ton flow vaut pas 10 francs, han Mothahfuckah, Freezi F Freezi F bitch, viens que j't'explique1</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait Jles mets K.O vite, et j'mets les lucarnes comme Vlahovi So big Bebeye, négro law-law 'law, on sest fait solo, on s'est fait golo J'arrive raciste comme Tommy et Polo Han, ces négros font rire comme Ritchie et Golo haha De janvier à décembre, You might also like</t>
+          <t>Paroles issues d'un extrait Jles mets K.O vite, et j'mets les lucarnes comme Vlahovi So big Bebeye, négro law-law 'law, on sest fait solo, on s'est fait golo J'arrive raciste comme Tommy et Polo Han, ces négros font rire comme Ritchie et Golo haha De janvier à décembre,</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>J'cherche le One Piece, j'suis wanted Salue-moi d'un signe F si tu m'croises, fils Pyramide inversée sur la voile Poussé par les vents solaires, rien à foutre du gasoil La barre verrouillée sur l'objectif Extrême furtivité, à plasma sont mes projectiles A des années-lumière, de vision nocturne Holographique et ACOG sont mes lunettes Tu m'perçois en retard, étoile de type F Marginal, ça fait 19 moi et le système Fleuriste pirate, flottant Voguant sur ce beat de Ikaz J'cherche le One Piece, j'suis wanted Salue-moi d'un signe F si tu m'croises, fils Pyramide inversée, trèfle à 7 feuilles Roule avec nous, goûte à cette skunk J'cherche le One Piece, j'suis wanted Salue-moi d'un signe F si tu m'croises, fils Pyramide inversée, trèfle à 7 feuilles Roule avec nous, goûte à cette skunk Fleuristes furtifs, Faya Family Gang Notre couleur était là bien avant le big bang A l'abordage de cette merde Attaque aérienne, discrète telle des chemtrails Dans les airs je combats, j'les bombarde Mon arme s'arme et capitaine c'est mon grade J'les survole gros, sur la route de tous les périls J'avance en suivant la direction indiquée sur le Log Pose Faya est mon équipage, trop loin pour vous C'est même plus équitable mais nique ça Démoniaques sont nos fruits Nandité sans pitié, donc les faux fuient Là j'm'échauffe izi, j'nique les lois d'la physique Sur Terre j'suis juste en visite J'prends mon temps avant l'Nouveau Monde J'renforce mon navire et flotte tranquillement sur vos ondes M-Jane dans mon sang et dans mon cur Les yeux bridés, j'vois clair en largeur et en longueur You might also like J'cherche le One Piece, j'suis wanted Faya Family dans cette pute J'cherche le One Piece, j'suis wanted Salue-moi d'un signe F si tu m'croises, fils Pyramide inversée, trèfle à 7 feuilles Roule avec nous, goûte à cette skunk</t>
+          <t>J'cherche le One Piece, j'suis wanted Salue-moi d'un signe F si tu m'croises, fils Pyramide inversée sur la voile Poussé par les vents solaires, rien à foutre du gasoil La barre verrouillée sur l'objectif Extrême furtivité, à plasma sont mes projectiles A des années-lumière, de vision nocturne Holographique et ACOG sont mes lunettes Tu m'perçois en retard, étoile de type F Marginal, ça fait 19 moi et le système Fleuriste pirate, flottant Voguant sur ce beat de Ikaz J'cherche le One Piece, j'suis wanted Salue-moi d'un signe F si tu m'croises, fils Pyramide inversée, trèfle à 7 feuilles Roule avec nous, goûte à cette skunk J'cherche le One Piece, j'suis wanted Salue-moi d'un signe F si tu m'croises, fils Pyramide inversée, trèfle à 7 feuilles Roule avec nous, goûte à cette skunk Fleuristes furtifs, Faya Family Gang Notre couleur était là bien avant le big bang A l'abordage de cette merde Attaque aérienne, discrète telle des chemtrails Dans les airs je combats, j'les bombarde Mon arme s'arme et capitaine c'est mon grade J'les survole gros, sur la route de tous les périls J'avance en suivant la direction indiquée sur le Log Pose Faya est mon équipage, trop loin pour vous C'est même plus équitable mais nique ça Démoniaques sont nos fruits Nandité sans pitié, donc les faux fuient Là j'm'échauffe izi, j'nique les lois d'la physique Sur Terre j'suis juste en visite J'prends mon temps avant l'Nouveau Monde J'renforce mon navire et flotte tranquillement sur vos ondes M-Jane dans mon sang et dans mon cur Les yeux bridés, j'vois clair en largeur et en longueur J'cherche le One Piece, j'suis wanted Faya Family dans cette pute J'cherche le One Piece, j'suis wanted Salue-moi d'un signe F si tu m'croises, fils Pyramide inversée, trèfle à 7 feuilles Roule avec nous, goûte à cette skunk</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO han, NRM, 667 Freeze Raël, on the beat, kicking like Israel, fuck these niggers like Israel Chen Laden in the conspiracy like the Bin Ladens, Chiraq like JB Binladen I see them little like I was 100 feet tall, we want VVS on grillz About sums like bankers, investors, architects, and foremen Wanna get cash like The Rock, 20-20, rap is satanic like rock Cali Weed, Promethazine, and the iron like D-Block Europe Contenders I only leav cig butts, I'm here for money, dath penalty for pedos I mix lean in Faygos, in Dakar we pack bricks like Legos Along the coastline in foreigns Sku, sku, sku Menace Fantôme to make your ears bleed, loud pack, nigga, I smoked whole forests Smoking Runtz and Gelati Wop in the middle like Marco Verratti, big loud hotbox in the Maserati Whatever happens, I'll take my part, Chen Zen aka VAT I need to flex like a Liga BBVA club owner Got my rights, got my masters, smoking OGs, smoking masters Handle the business steadily so we all can roll in Maybachs like pastors I'm giga, you're nano, they can't see me like I had the ring Swish, it goes in, doesn't touch the rim, pink lean like a Gelano I'm in the trap house, no bistro, Desiigner with cash from Distro Got hella rhymes like Larousse and I'm everywhere like Arouf Bitch In front of the cage like Erling, and I outrun them like Sterling Need some 4x4 and berlines, euros, dollars, and pounds sterling French rap, on its head placing the crosshair So Mac Tyer, I want my bitch in an SLK when she goes get a pedicure In the conspiracy like NBC NBC, ekip, ekip I'm in Futbin, doing SBC, pulling up Chinese like HSBC When we get in, it's smelling weed in the lobby So the sect every day, I'd be nothing without the lobby Freeze Corleone aka The Collector, so Tical supreme neck protector On the beat, I take your ankles like Professor and Bone Collector Death for pigs, justice for Adama, so Nick, hang them like in Alabama Chen Zen, Senegalese like Baba Maal, outrunning them like Adama Soon, I'm gonna run for mayor, so Lil B Basedgod Off potion with xans, blurred vision, I'm walking like a zombie from Days Gone 20-20, Menace Fantôme I want the Continental and the Phantom, bitchYou might also like</t>
+          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO han, NRM, 667 Freeze Raël, on the beat, kicking like Israel, fuck these niggers like Israel Chen Laden in the conspiracy like the Bin Ladens, Chiraq like JB Binladen I see them little like I was 100 feet tall, we want VVS on grillz About sums like bankers, investors, architects, and foremen Wanna get cash like The Rock, 20-20, rap is satanic like rock Cali Weed, Promethazine, and the iron like D-Block Europe Contenders I only leav cig butts, I'm here for money, dath penalty for pedos I mix lean in Faygos, in Dakar we pack bricks like Legos Along the coastline in foreigns Sku, sku, sku Menace Fantôme to make your ears bleed, loud pack, nigga, I smoked whole forests Smoking Runtz and Gelati Wop in the middle like Marco Verratti, big loud hotbox in the Maserati Whatever happens, I'll take my part, Chen Zen aka VAT I need to flex like a Liga BBVA club owner Got my rights, got my masters, smoking OGs, smoking masters Handle the business steadily so we all can roll in Maybachs like pastors I'm giga, you're nano, they can't see me like I had the ring Swish, it goes in, doesn't touch the rim, pink lean like a Gelano I'm in the trap house, no bistro, Desiigner with cash from Distro Got hella rhymes like Larousse and I'm everywhere like Arouf Bitch In front of the cage like Erling, and I outrun them like Sterling Need some 4x4 and berlines, euros, dollars, and pounds sterling French rap, on its head placing the crosshair So Mac Tyer, I want my bitch in an SLK when she goes get a pedicure In the conspiracy like NBC NBC, ekip, ekip I'm in Futbin, doing SBC, pulling up Chinese like HSBC When we get in, it's smelling weed in the lobby So the sect every day, I'd be nothing without the lobby Freeze Corleone aka The Collector, so Tical supreme neck protector On the beat, I take your ankles like Professor and Bone Collector Death for pigs, justice for Adama, so Nick, hang them like in Alabama Chen Zen, Senegalese like Baba Maal, outrunning them like Adama Soon, I'm gonna run for mayor, so Lil B Basedgod Off potion with xans, blurred vision, I'm walking like a zombie from Days Gone 20-20, Menace Fantôme I want the Continental and the Phantom, bitch</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Beaucoup d'décibels dans les paquets J'arrive avec mes pirates pour les hacker Chen Zen au mic pour la secte-6 Lopi' bruyant pour la tête, fils Brûle en Enfer, suppôt d'Satan J'vendrai jamais mon âme pour passer sur M6 So Alpha, on est indés So Ady, on est blindés 667, Ligue des Ombres, société secrète Comme des francs-maçons, on est plein deh Chez nous ça roule des battes, pussy négro Viseur holo' shoote tes pattes, pussy négro Dans mon clan pas d'pussy négro J'garde mon âme, j'fais pas des pactes, pussy négro J'fais ça pour l'cash, pour mes broskis So Famas, so tospi J'fais ça sans aucun putain d'stress, négro Glisse sur la prod comme si j'étais au ski So Loto, ils sont fu deux fois J'veux la place du boss, j'veux ses sous, deux fois Goddamn, négro J'cons' l'alarme, j'vois flou deux fois You might also like Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Lopito négro, que la loud Découpe les prods comme un bâtard Gros ça coupe la feuille de cigare comme ballout Équipage killu' en treillis Vider les sacs Pas là pour viser les XXX Fuck ça, commencez par libérer Sam Nique un fufu sous les tropiques Sache que MMS rapplique Break la zone comme Rodrigue, négro Cons' la verte comme Radric Noir et vert sont les couleurs d'ma secte Fufu veut que sa douleur fasse tié-p' Fuck un négro boudeur d'sa terre On marque des buts et les joueurs adverses Dieu merci, j'ai mes deux mains Ne servent pas qu'à prendre ces deux seins Aujourd'hui tu fais le mort Belek à pas vendre ton âme demain, hé Lopito, haut tah l'oiseau Des lions face à des damoiseaux J'fais les bails vrais, pas de gestuelle, négro Ce n'est pas du rap sexuel, bitch Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets</t>
+          <t>Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Beaucoup d'décibels dans les paquets J'arrive avec mes pirates pour les hacker Chen Zen au mic pour la secte-6 Lopi' bruyant pour la tête, fils Brûle en Enfer, suppôt d'Satan J'vendrai jamais mon âme pour passer sur M6 So Alpha, on est indés So Ady, on est blindés 667, Ligue des Ombres, société secrète Comme des francs-maçons, on est plein deh Chez nous ça roule des battes, pussy négro Viseur holo' shoote tes pattes, pussy négro Dans mon clan pas d'pussy négro J'garde mon âme, j'fais pas des pactes, pussy négro J'fais ça pour l'cash, pour mes broskis So Famas, so tospi J'fais ça sans aucun putain d'stress, négro Glisse sur la prod comme si j'étais au ski So Loto, ils sont fu deux fois J'veux la place du boss, j'veux ses sous, deux fois Goddamn, négro J'cons' l'alarme, j'vois flou deux fois Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Lopito négro, que la loud Découpe les prods comme un bâtard Gros ça coupe la feuille de cigare comme ballout Équipage killu' en treillis Vider les sacs Pas là pour viser les XXX Fuck ça, commencez par libérer Sam Nique un fufu sous les tropiques Sache que MMS rapplique Break la zone comme Rodrigue, négro Cons' la verte comme Radric Noir et vert sont les couleurs d'ma secte Fufu veut que sa douleur fasse tié-p' Fuck un négro boudeur d'sa terre On marque des buts et les joueurs adverses Dieu merci, j'ai mes deux mains Ne servent pas qu'à prendre ces deux seins Aujourd'hui tu fais le mort Belek à pas vendre ton âme demain, hé Lopito, haut tah l'oiseau Des lions face à des damoiseaux J'fais les bails vrais, pas de gestuelle, négro Ce n'est pas du rap sexuel, bitch Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets Négro j'ai consommé l'alarme Goddamn, elle m'a fait lacker Elle m'a fait lacker Goddamn, elle m'a fait lacker Négro j'ai consommé l'alarme Beaucoup d'décibels dans les paquets Dans les paquets Beaucoup d'décibels dans les paquets</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Ambition Music Corleone, Stavo, Zesau, nonante, 667, ekip, ekip Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Vécu irréparable, une parade et on les baise, bitch sku On reste inséparables avec la rue, j'suis en ness-bi' hasch' Pété sous kamas mais j'vois loin, mieux qu'un presbyte Sentiments sur répondeur, laisse un message après l'bip han J'me roule un pilon, fouille dans la ville, on recherche un filon, j'crois qu'ça en dit long Situation j'crois qu'on a pris l'eau comme frères en prison, personne n'a dit non J'rappe comme un brigand, le flow arrogant, tu racontes un roman, le sale va s'voir aux gants J'ai vu le mal rode dans le dos, tournera au vent, tu verras tes amis que dans Copains d'avant Passe pas la savonnette, la fleur au bout de la baïonnette Pas dans les bails nets, fais monter la mayonnaise Faudra mettre des talonnettes pour atteindre le baromètre Dis-leur que le taff est fait, et qu'il est sale et net Peu importe les paramètres, dans l'bizz', on s'baladait Dans le mille, on va la mettre, comme un tox' qui vend la mèche On a grandi dans la dèche, on n'a pas fait dans la lèche On a grandi dans la dèche, on n'a pas fait dans la lèche You might also like Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Corleone, Stavo, Zesau ekip, 13 Block pour les travaux, so 247, j'pense grave aux pesos cash, la précision augmente grâce aux faisceaux Padéryl, 0.1 pour-cent lin, lin, lin, lin 667, négro, cinq pour cent, Chen Zen, CEO, j'distribue plein d'pourcents han, ekip Industrie, j'vois que des pertes d'âme ekip, so Keyser Söze, j'avance avec mes frères d'armes ekip Sans stress, ça va les faire calme, so mes Guinéens qui bombardent avec les Mercalm sku, sku Aquarium dans les Sprinter, négro snf, snf Le rap, c'est pas pour les sprinteurs, négro bah On s'inspire des Marlo et des Stringer, négro han Fuck ces négros, c'est des rats, c'est des Splinter, négro c'est des Splinter, négro Là pour gagner, c'est dans l'ADN, faut plus de cash dans les poches que dans l'ATM cash Que j'brûle de l'essence comme le KTM comme le KTM Noir sur noir comme SpaceGhost baw, Killuminati comme Despo han, ekip Cali verte fluo comme pesto ekip Point de vente noir, Yamaha noire Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Nonante On m'a dit que t'avances pas à reculons si tu fais que de regarder derrière sku C'est moi qui provoque la fusillade baw, baw, j'suis pas venu toucher tes carreaux, lyrical fusil à lunette C'est une affaire de taux du jour argent, créer des fonds même au fond d'la France argent On aime les mettre dans le fion d'la France, gros moteur, c'est moi le tuteur, tous tes grands te l'diront C'est Stavo moi, vendeur moi, ravitailleur moi à toute heure wesh J'représente ces bâtiments délabrés délabrés et ces équipes dures à démanteler démonter Ceux qui ont trahi, fini d'côté côté, affaire classée peut pas être remontée peut pas On fait que niquer l'économie le biff, les bras de l'État sont démembrés regarde C'est la sacoche ou la bécane vroum, comme un petit de la Caste', la mentalité est stand up stand up Arrivée de produit, allez hop, j'suis tout en noir, oui, je mijote Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire</t>
+          <t>Ambition Music Corleone, Stavo, Zesau, nonante, 667, ekip, ekip Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Vécu irréparable, une parade et on les baise, bitch sku On reste inséparables avec la rue, j'suis en ness-bi' hasch' Pété sous kamas mais j'vois loin, mieux qu'un presbyte Sentiments sur répondeur, laisse un message après l'bip han J'me roule un pilon, fouille dans la ville, on recherche un filon, j'crois qu'ça en dit long Situation j'crois qu'on a pris l'eau comme frères en prison, personne n'a dit non J'rappe comme un brigand, le flow arrogant, tu racontes un roman, le sale va s'voir aux gants J'ai vu le mal rode dans le dos, tournera au vent, tu verras tes amis que dans Copains d'avant Passe pas la savonnette, la fleur au bout de la baïonnette Pas dans les bails nets, fais monter la mayonnaise Faudra mettre des talonnettes pour atteindre le baromètre Dis-leur que le taff est fait, et qu'il est sale et net Peu importe les paramètres, dans l'bizz', on s'baladait Dans le mille, on va la mettre, comme un tox' qui vend la mèche On a grandi dans la dèche, on n'a pas fait dans la lèche On a grandi dans la dèche, on n'a pas fait dans la lèche Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Corleone, Stavo, Zesau ekip, 13 Block pour les travaux, so 247, j'pense grave aux pesos cash, la précision augmente grâce aux faisceaux Padéryl, 0.1 pour-cent lin, lin, lin, lin 667, négro, cinq pour cent, Chen Zen, CEO, j'distribue plein d'pourcents han, ekip Industrie, j'vois que des pertes d'âme ekip, so Keyser Söze, j'avance avec mes frères d'armes ekip Sans stress, ça va les faire calme, so mes Guinéens qui bombardent avec les Mercalm sku, sku Aquarium dans les Sprinter, négro snf, snf Le rap, c'est pas pour les sprinteurs, négro bah On s'inspire des Marlo et des Stringer, négro han Fuck ces négros, c'est des rats, c'est des Splinter, négro c'est des Splinter, négro Là pour gagner, c'est dans l'ADN, faut plus de cash dans les poches que dans l'ATM cash Que j'brûle de l'essence comme le KTM comme le KTM Noir sur noir comme SpaceGhost baw, Killuminati comme Despo han, ekip Cali verte fluo comme pesto ekip Point de vente noir, Yamaha noire Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Nonante On m'a dit que t'avances pas à reculons si tu fais que de regarder derrière sku C'est moi qui provoque la fusillade baw, baw, j'suis pas venu toucher tes carreaux, lyrical fusil à lunette C'est une affaire de taux du jour argent, créer des fonds même au fond d'la France argent On aime les mettre dans le fion d'la France, gros moteur, c'est moi le tuteur, tous tes grands te l'diront C'est Stavo moi, vendeur moi, ravitailleur moi à toute heure wesh J'représente ces bâtiments délabrés délabrés et ces équipes dures à démanteler démonter Ceux qui ont trahi, fini d'côté côté, affaire classée peut pas être remontée peut pas On fait que niquer l'économie le biff, les bras de l'État sont démembrés regarde C'est la sacoche ou la bécane vroum, comme un petit de la Caste', la mentalité est stand up stand up Arrivée de produit, allez hop, j'suis tout en noir, oui, je mijote Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire Point de vente noir, Yamaha noire sku Cagoule noire, brolique noir bah, bah J'suis dans le coupé noir sku, sapé en survêt' noir han Derrière des lunettes noires, j'récupère la mallette noire</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait Pah, ah-ah Corleone, AP Rolex, Audi, Cartier, AP Fuck ces négros comme Tommy Ah-ah Sur la prod comme Donnie Pah Finir comme Sosa pas comme Tony You might also like</t>
+          <t>Paroles issues d'un extrait Pah, ah-ah Corleone, AP Rolex, Audi, Cartier, AP Fuck ces négros comme Tommy Ah-ah Sur la prod comme Donnie Pah Finir comme Sosa pas comme Tony</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Han, yeah Ok En arme principale, sélection du flow-lave Fluide et chaud aïe!, après l'16 t'as besoin d'pommade J'te chauffe les oreilles, écoute-moi dans ton casque en hiver Rayon d'la mort, main gauche ou droite, négro, je suis ambidextre T'as envie d'être comme moi, avoue, gars Négro, c'est plus simple, t'inquiètes, plaide coupable et on en reste là No problemo du moment qu't'écoutes mes démos Et négro, j'suis l'genre de gars qui met des baffes juste avec des mots Je lâche des combos, des enchaînements inédits Des grosses punchlines, j'ai la patate du maître d'Idéfix C'qui défile devant toi, ta vie quand j'rappe C'est vraiment très rare mais heureuse peut être ma cible quand j'rate Comme Kobe qui rate un panier, précision d'un sniper Bien placé, à mes côtés un pét', un 'sky bien glacé Donc j'suis bien, aucun problème en vue On dirait qu'je dors quand je kicke, mec, j'suis somnambule Tu comprends pas encore, je sais, mais c'est comme ça qu'ça s'passe Avec mon flow fluide, j'débite des rimes comme une cascade J'suis un niveau caché, une mission bonus Si tu viens m'clasher, j'te mets KO sans avoir de gros muscles J'te traumatise, c'est trop facile, les gens comme des gros addict Quand j'sors rien pendant quelques temps, m'considèrent plus trop actif Alors qu'ne fait si, tous les jours sous sensy J'écris, donc MC, fais attention quand t'écoutes Fais gaffe à ta tension, tous les jours, j'traîne avec Casper En hors-ligne avec un joint d'la taille d'une asperge Gars, j'cherche la daillance avec ma bière et ma verte Elle ou la musique sera la cause de ma perte, Freeze yes You might also like Han Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Han Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, yes I2SA, qui peut test ça ? Pour ceux qui m'connaissent pas, Freezy, c'est l'blaze J'rappe de l'espace, entre les dents, j'ai un écart voire un espace J'suis Italien comme Nesta, Sénégalais comme El-Hadj', yes, han À la recherche de la daillance</t>
+          <t>Han, yeah Ok En arme principale, sélection du flow-lave Fluide et chaud aïe!, après l'16 t'as besoin d'pommade J'te chauffe les oreilles, écoute-moi dans ton casque en hiver Rayon d'la mort, main gauche ou droite, négro, je suis ambidextre T'as envie d'être comme moi, avoue, gars Négro, c'est plus simple, t'inquiètes, plaide coupable et on en reste là No problemo du moment qu't'écoutes mes démos Et négro, j'suis l'genre de gars qui met des baffes juste avec des mots Je lâche des combos, des enchaînements inédits Des grosses punchlines, j'ai la patate du maître d'Idéfix C'qui défile devant toi, ta vie quand j'rappe C'est vraiment très rare mais heureuse peut être ma cible quand j'rate Comme Kobe qui rate un panier, précision d'un sniper Bien placé, à mes côtés un pét', un 'sky bien glacé Donc j'suis bien, aucun problème en vue On dirait qu'je dors quand je kicke, mec, j'suis somnambule Tu comprends pas encore, je sais, mais c'est comme ça qu'ça s'passe Avec mon flow fluide, j'débite des rimes comme une cascade J'suis un niveau caché, une mission bonus Si tu viens m'clasher, j'te mets KO sans avoir de gros muscles J'te traumatise, c'est trop facile, les gens comme des gros addict Quand j'sors rien pendant quelques temps, m'considèrent plus trop actif Alors qu'ne fait si, tous les jours sous sensy J'écris, donc MC, fais attention quand t'écoutes Fais gaffe à ta tension, tous les jours, j'traîne avec Casper En hors-ligne avec un joint d'la taille d'une asperge Gars, j'cherche la daillance avec ma bière et ma verte Elle ou la musique sera la cause de ma perte, Freeze yes Han Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Arme principale sélectionnée Han Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, yes I2SA, qui peut test ça ? Pour ceux qui m'connaissent pas, Freezy, c'est l'blaze J'rappe de l'espace, entre les dents, j'ai un écart voire un espace J'suis Italien comme Nesta, Sénégalais comme El-Hadj', yes, han À la recherche de la daillance</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Def tate, h24 odeur de weed Quand on est dans les parages Bientôt foreign dans les garages Donne-nous caméras, cash, or et SCAR-H Moi et mes négros comme des terroristes On arrive d'en-haut comme des météorites Corleone, 22 piges Cerveau d'un quinquagénaire So à la LDO, chill dans les sous-sols Comme des intraterrestres MMS infiltre Gotham Fais cette merde sans stress, izi au calme Fonscar comme sous anesthésie totale 667 une session, finit l'bocal Fuck le Rap Game Dans cette merde pour les billets, négro J'fais ça trop izi Pas besoin d'forcer pour les plier, négro Défracté Dans le labo taffe sur formule, négro Dans ta tête 667, addictif comme une drogue dure, négro x2 667, tous les jours au-dessus Clan d'siths négro, noir et vert sur les costumes Tu nous connais, dans cette merde pour des grosses thunes Fiston on recrute ap, donc viens pas postule You might also like Rafale au mic, c'est chaotique 667, ambition pharaonique J'entends qu'mon négro vous lave au cro-mi En face ça bégaye comme paraplégique Groupuscule armé préparant attentat So AGA d'Atlanta Gro-né j'suis en ville, j'prépare ma campagne Mangemort Squad, Nouveau Rap Mondial A des kilomètres, gro-né ça les bombarde Lion d'la Teranga face à des porcinets Incha'Allah bientôt on prend les fafs Bitch allonge le cash si t'espère nous signer Débarque, du sang d'MC plein la vessie Ligue des Ombres, les derniers prototypes Liasses, hydroponique dans le kit Norsacce dans le rap comme ton führer, ton guide De toi fagget, j'garde mes distances Tu passes sous la table comme un petit trans Chillance, négro daillance Les thunes décupleront la puissance Tous les jours, négro On vit la nuit, gros des zombies le jour So Odeuxzero Luxure future, gro-né j'attends mon tour x2 667, tous les jours au-dessus Clan d'siths négro, noir et vert sur les costumes Tu nous connais, dans cette merde pour des grosses thunes Fiston on recrute ap, donc viens pas postule</t>
+          <t>Def tate, h24 odeur de weed Quand on est dans les parages Bientôt foreign dans les garages Donne-nous caméras, cash, or et SCAR-H Moi et mes négros comme des terroristes On arrive d'en-haut comme des météorites Corleone, 22 piges Cerveau d'un quinquagénaire So à la LDO, chill dans les sous-sols Comme des intraterrestres MMS infiltre Gotham Fais cette merde sans stress, izi au calme Fonscar comme sous anesthésie totale 667 une session, finit l'bocal Fuck le Rap Game Dans cette merde pour les billets, négro J'fais ça trop izi Pas besoin d'forcer pour les plier, négro Défracté Dans le labo taffe sur formule, négro Dans ta tête 667, addictif comme une drogue dure, négro x2 667, tous les jours au-dessus Clan d'siths négro, noir et vert sur les costumes Tu nous connais, dans cette merde pour des grosses thunes Fiston on recrute ap, donc viens pas postule Rafale au mic, c'est chaotique 667, ambition pharaonique J'entends qu'mon négro vous lave au cro-mi En face ça bégaye comme paraplégique Groupuscule armé préparant attentat So AGA d'Atlanta Gro-né j'suis en ville, j'prépare ma campagne Mangemort Squad, Nouveau Rap Mondial A des kilomètres, gro-né ça les bombarde Lion d'la Teranga face à des porcinets Incha'Allah bientôt on prend les fafs Bitch allonge le cash si t'espère nous signer Débarque, du sang d'MC plein la vessie Ligue des Ombres, les derniers prototypes Liasses, hydroponique dans le kit Norsacce dans le rap comme ton führer, ton guide De toi fagget, j'garde mes distances Tu passes sous la table comme un petit trans Chillance, négro daillance Les thunes décupleront la puissance Tous les jours, négro On vit la nuit, gros des zombies le jour So Odeuxzero Luxure future, gro-né j'attends mon tour x2 667, tous les jours au-dessus Clan d'siths négro, noir et vert sur les costumes Tu nous connais, dans cette merde pour des grosses thunes Fiston on recrute ap, donc viens pas postule</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>À la recherche de la daillance et du flow-lave J'veux arriver à faire passer la concurrence pour des gros nazes Punchline droite-gauche, chaque ligne claque grosse Dans ta face, chaque phrase un headshot au Famas Quand j'kicke, j'tends mon doigt, rayon d'la mort au mic' Trop speed, gro-né, on dirait qu'j'ai des réacteurs aux Nike Oh my god, non, moi c'est Freezer MC, fais gaffe à moi, j'ai peut-être déjà ta petite sur dans mon viseur J'ai 18 piges, je suis un petit, je Suis trop fort à ce p'tit jeu, quand j'kicke, j'ai des petits yeux J'rappe dicté par la volonté du THC Aujourd'hui, les gens en veulent toujours plus mais y a plus personne quand faut acheter Fuck ça, j'continuerai jusqu'à c'que mon heure vienne M'enfermer chez moi, fumer, rapper pendant des heures, j'aime Vraiment ça, je mens pas, négro, j'ai trop d'flow J'suis furtif, dans l'game, j'suis une raie manta, comme de l'emmental J'troue les prod, j'roule des roquettes, j'bouffe des corn flakes Tous les soirs, j'prévois comment dominer l'monde comme Cortex J'essaye d'trouver la formule, résoudre l'équation Si tu viens m'chercher des prunes, t'iras rejoindre les poissons Négro comme Pedro, j'suis encore un rookie Laisse-moi un peu d'temps et j'deviens aussi balaise qu'un wookie Avec le cerveau d'Yoda, des Vans comme godasses Je touche tout c'que j'vise et j'ai les oreilles de Legolas Est-ce que j'suis un elfe ? En tout cas, j'suis un F Freezer, j'suis toujours frais, posé pépère avec un pét' Yes, tout l'temps en train d'planer, man et Tu sais où j'suis passé quand tu vois des fleurs fanées, des MC canés J'suis 'tat, j'fous la merde où j'passe, rien à branler Boule de la mort sur la Terre, tout l'monde crève, rien à branler Yeah, han You might also like Au mic', je parle, au mic', je claque, au mic', je frappe Au mic', je tape, au mic', je tacle, au mic', je marque Au mic', je gagne, skululululululululul Au mic', je parle, au mic', je claque, au mic', je frappe Au mic', je tape, au mic', je tacle, au mic', je marque Au mic', je gagne, skululululululululul Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, yeah I2SA, qui peut test ça ? Pour ceux qui m'connaissent pas, Freezy, c'est l'blaze J'rappe de l'espace, entre les dents, j'ai un écart voire un espace J'suis Italien comme Nesta, Sénégalais comme El-Hadj' God damn it, yeah</t>
+          <t>À la recherche de la daillance et du flow-lave J'veux arriver à faire passer la concurrence pour des gros nazes Punchline droite-gauche, chaque ligne claque grosse Dans ta face, chaque phrase un headshot au Famas Quand j'kicke, j'tends mon doigt, rayon d'la mort au mic' Trop speed, gro-né, on dirait qu'j'ai des réacteurs aux Nike Oh my god, non, moi c'est Freezer MC, fais gaffe à moi, j'ai peut-être déjà ta petite sur dans mon viseur J'ai 18 piges, je suis un petit, je Suis trop fort à ce p'tit jeu, quand j'kicke, j'ai des petits yeux J'rappe dicté par la volonté du THC Aujourd'hui, les gens en veulent toujours plus mais y a plus personne quand faut acheter Fuck ça, j'continuerai jusqu'à c'que mon heure vienne M'enfermer chez moi, fumer, rapper pendant des heures, j'aime Vraiment ça, je mens pas, négro, j'ai trop d'flow J'suis furtif, dans l'game, j'suis une raie manta, comme de l'emmental J'troue les prod, j'roule des roquettes, j'bouffe des corn flakes Tous les soirs, j'prévois comment dominer l'monde comme Cortex J'essaye d'trouver la formule, résoudre l'équation Si tu viens m'chercher des prunes, t'iras rejoindre les poissons Négro comme Pedro, j'suis encore un rookie Laisse-moi un peu d'temps et j'deviens aussi balaise qu'un wookie Avec le cerveau d'Yoda, des Vans comme godasses Je touche tout c'que j'vise et j'ai les oreilles de Legolas Est-ce que j'suis un elfe ? En tout cas, j'suis un F Freezer, j'suis toujours frais, posé pépère avec un pét' Yes, tout l'temps en train d'planer, man et Tu sais où j'suis passé quand tu vois des fleurs fanées, des MC canés J'suis 'tat, j'fous la merde où j'passe, rien à branler Boule de la mort sur la Terre, tout l'monde crève, rien à branler Yeah, han Au mic', je parle, au mic', je claque, au mic', je frappe Au mic', je tape, au mic', je tacle, au mic', je marque Au mic', je gagne, skululululululululul Au mic', je parle, au mic', je claque, au mic', je frappe Au mic', je tape, au mic', je tacle, au mic', je marque Au mic', je gagne, skululululululululul Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, yeah I2SA, qui peut test ça ? Pour ceux qui m'connaissent pas, Freezy, c'est l'blaze J'rappe de l'espace, entre les dents, j'ai un écart voire un espace J'suis Italien comme Nesta, Sénégalais comme El-Hadj' God damn it, yeah</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Fire, fire, fire Ekip, ekip, ekip, ekip Corleone, Zk' Zk' Han Han You recognized the modus operandi, bitch Bitch, yeah Fire, fire, fire Han Zk', 93, 59 EKIP Han, EKIP, EKIP, EKIP EKIP Squad, new Roubaix, smells like Beterbiev's punch ?We refill the detective's spot Yeah?, I'm blurry I have selective memory Han On rap, we activate the hawk plan, from Police custody I've been doing interviews I always have faith in a mss, I see my lucky star from the sky view We hav the signs you've never seen No, we lose money you've never had Never Doing like them, you should have never done No Doing like us, you could have never If I hang out with a cripple, I'll smack him, I can start what I want, I have the box I'd like to do Marion M, take olive oil and finger her Yeah Am I your bro because I'm profitable? Are we misunderstood or unsociable? Corleone, Zk' for the damage The damage Opps, we leave only butts, no debate You suck us, it's not like at the beginning, you're a sucker who respects high profit Simple I have the modus operandi of the attack of the clones, while rap is the parade of the clones EKIP, EKIP, EKIP, EKIP You might also like Operational, there's no rational business No We're looking for the end of the tunnel, we're gloved under the abdomen Under the abdomen Japanese mindset, sells lightning under thunder, on the field I'm a shareholder, criminal or correctional Han, operational Han, I slap them like Kimi Räikkönen Skrt I already told you, it's not aimed at the abdomen Fuck them all, they're all McConnells Han I pass above them like the comet Skrt only at the station, we're deceptive Han Na, makes numbers thanks to letters Han I'm wary of rattlesnakes Fuck the Nation and Netanyahu Both Need revenue. like Tesla and Meta Both High zone, purple, it's lethal, for me only God, family, and the gwap Han I adapt like the chameleon I'm a fusion between Hitman and Léon Fire, fire Master the propaganda like journalists Han dead for Jeffrey, Guilène, and the whole list I come like Godzilla, dribble like Ozilla Fire, fire, in Dakar, 4x4 with big villas Han Freeze, Mozart, big dosage, audio-dope, run to lin like Keef Cozart Lean, lean Freeze Corleone, SK, 6.6.7 Fire, fire, you recognize the modus operandi Fire, fire They want to thwart God's plans, I wonder, what are they drugged with? Han Lean like antifreeze, Chen Zen, we're part of the people who disturb EKIP I look at the game, I see your rappers like Trogneux Jean-Michel Yeah I slide on the prod' like in Tony Hawk Shh, I arrive like Wemby in San Antonio swish I smile at every package delivery Yeah, ice on the neck like I have a stiff neck EKIP, EKIP Operational, there's no rational business No We're looking for the end of the tunnel, we're gloved under the abdomen Under the abdomen Japanese mindset, sells lightning under thunder, on the field I'm a shareholder, criminal or correctional Han, operational Han, I slap them like Kimi Räikkönen Skrt I already told you, it's not aimed at the abdomen Fuck them all, they're all McConnells Han I pass above them like the comet Skrt only at the station, we're deceptive Han Na, makes numbers thanks to letters Han I'm wary of rattlesnakes FAKES</t>
+          <t>Fire, fire, fire Ekip, ekip, ekip, ekip Corleone, Zk' Zk' Han Han You recognized the modus operandi, bitch Bitch, yeah Fire, fire, fire Han Zk', 93, 59 EKIP Han, EKIP, EKIP, EKIP EKIP Squad, new Roubaix, smells like Beterbiev's punch ?We refill the detective's spot Yeah?, I'm blurry I have selective memory Han On rap, we activate the hawk plan, from Police custody I've been doing interviews I always have faith in a mss, I see my lucky star from the sky view We hav the signs you've never seen No, we lose money you've never had Never Doing like them, you should have never done No Doing like us, you could have never If I hang out with a cripple, I'll smack him, I can start what I want, I have the box I'd like to do Marion M, take olive oil and finger her Yeah Am I your bro because I'm profitable? Are we misunderstood or unsociable? Corleone, Zk' for the damage The damage Opps, we leave only butts, no debate You suck us, it's not like at the beginning, you're a sucker who respects high profit Simple I have the modus operandi of the attack of the clones, while rap is the parade of the clones EKIP, EKIP, EKIP, EKIP Operational, there's no rational business No We're looking for the end of the tunnel, we're gloved under the abdomen Under the abdomen Japanese mindset, sells lightning under thunder, on the field I'm a shareholder, criminal or correctional Han, operational Han, I slap them like Kimi Räikkönen Skrt I already told you, it's not aimed at the abdomen Fuck them all, they're all McConnells Han I pass above them like the comet Skrt only at the station, we're deceptive Han Na, makes numbers thanks to letters Han I'm wary of rattlesnakes Fuck the Nation and Netanyahu Both Need revenue. like Tesla and Meta Both High zone, purple, it's lethal, for me only God, family, and the gwap Han I adapt like the chameleon I'm a fusion between Hitman and Léon Fire, fire Master the propaganda like journalists Han dead for Jeffrey, Guilène, and the whole list I come like Godzilla, dribble like Ozilla Fire, fire, in Dakar, 4x4 with big villas Han Freeze, Mozart, big dosage, audio-dope, run to lin like Keef Cozart Lean, lean Freeze Corleone, SK, 6.6.7 Fire, fire, you recognize the modus operandi Fire, fire They want to thwart God's plans, I wonder, what are they drugged with? Han Lean like antifreeze, Chen Zen, we're part of the people who disturb EKIP I look at the game, I see your rappers like Trogneux Jean-Michel Yeah I slide on the prod' like in Tony Hawk Shh, I arrive like Wemby in San Antonio swish I smile at every package delivery Yeah, ice on the neck like I have a stiff neck EKIP, EKIP Operational, there's no rational business No We're looking for the end of the tunnel, we're gloved under the abdomen Under the abdomen Japanese mindset, sells lightning under thunder, on the field I'm a shareholder, criminal or correctional Han, operational Han, I slap them like Kimi Räikkönen Skrt I already told you, it's not aimed at the abdomen Fuck them all, they're all McConnells Han I pass above them like the comet Skrt only at the station, we're deceptive Han Na, makes numbers thanks to letters Han I'm wary of rattlesnakes FAKES</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Vos passes sont téléphonées J'veux des sommes faramineuses, gros être carabiné Eux leurs CD sont fanés Gros toi-même tu connais, les nôtres sont cellophanés Sur nous t'as voulu parler Mais j'te vois même pas gro-né t'es mort dans la mêlée Certains s'disent illuminés On va les killuminer, gros les éliminer Rien à péter mon négro 667 MMS, les plus dangereux gros c'est nous Bâtard on arrive d'en-haut Pour les voir à cette hauteur obligé d'sortir ma loupe Que des faggets sur la route Gro-né ça m'dégoûte mais j'sais que va tourner la roue Fils j'suis qu'à propos d'mes sous Donc j'fais pas ça pour qu'ta bitch me rejoigne dans la douche Fuck Belzébuth, Lucifer J'le suivrai pas en enfer, hey J'veux pas qu'il prenne un d'mes frères À 6 ou 7 pieds sous terre, hey Au micro fout la misère Pour eux c'est plus la misère qu'dans l'désert au Niger Bicrave Givenchy sur CD Berlusconi passe à l'heure en hiver, squa You might also like On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite ait-f comme Milito Les baise en secret comme Phillip Mo' On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite ait-f comme Milito Les baise en secret comme Phillip Mo' Kartel et BP, OVG négro Roule l'amnès' dans les OCB négro On monte un empire, et les cas s'empilent 667, détale à 100 000 OV on s'allie, 3e Guerre arrive Les prods on salit, hein En vert comme Larry, flingue à la Tariq Osirus Jacky, hein Violet bientôt comme Milka 2g dans un blunt comme Wiz K négro Baise ces bitchs dans l'side-car Ken la prod' comme si c'était Kim K Au-dessus d'tous ces négros Fait les bails tôt comme un jeune franc, hein 667 dans l'vaisseau Ça va prendre comme un feu d'camps, hein Taffe sec comme en Chizine, hein Détruit la prod' avec arme asiat' Bande de putes vous êtes minis, hein J'vous vois d'en-haut comme la NASA So Kixou, BPK A l'envers est l'triangle Pour pesos noirs comme Heenok Énormes chaînes, pierres brillantes, négro On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite ait-f comme Milito Les baise en secret comme Phillip Mo' On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite ait-f comme Milito Les baise en secret comme Phillip Mo' LDO furtif comme CIA Flow kaki, virus VIH Goddamn Bientôt violet comme Actavis So Odeuxzero, les sons d'la secte en boucle J'me sens comme sur une piste de Nascar, bitch Précis comme un Marine Sans stress, blesse négro à distance Les 808 font trembler la vitre Essais nucléaires comme le Pakistan, hein Faya au lean comme Fredo Toute la journée, enchaîne bédos J'veux cash, armes et précieux métaux Écrase ces vieux négros comme des mégots Au-dessus d'tous ces négros, Chen Zen Chaque jour suit le plan Dégage d'ici pussy neg', dégage d'ici Fake neg' fuit le clan Aussi dur à cuir qu'un biftezeck Goddamn Négro, so à la 6-sezecte Là pour des gros chiffres comme Bill Gazates, goddamn On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite aif comme Milito Les baise en secret comme Phillip Mo' On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite aif comme Milito Les baise en secret comme Phillip Mo'</t>
+          <t>Vos passes sont téléphonées J'veux des sommes faramineuses, gros être carabiné Eux leurs CD sont fanés Gros toi-même tu connais, les nôtres sont cellophanés Sur nous t'as voulu parler Mais j'te vois même pas gro-né t'es mort dans la mêlée Certains s'disent illuminés On va les killuminer, gros les éliminer Rien à péter mon négro 667 MMS, les plus dangereux gros c'est nous Bâtard on arrive d'en-haut Pour les voir à cette hauteur obligé d'sortir ma loupe Que des faggets sur la route Gro-né ça m'dégoûte mais j'sais que va tourner la roue Fils j'suis qu'à propos d'mes sous Donc j'fais pas ça pour qu'ta bitch me rejoigne dans la douche Fuck Belzébuth, Lucifer J'le suivrai pas en enfer, hey J'veux pas qu'il prenne un d'mes frères À 6 ou 7 pieds sous terre, hey Au micro fout la misère Pour eux c'est plus la misère qu'dans l'désert au Niger Bicrave Givenchy sur CD Berlusconi passe à l'heure en hiver, squa On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite ait-f comme Milito Les baise en secret comme Phillip Mo' On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite ait-f comme Milito Les baise en secret comme Phillip Mo' Kartel et BP, OVG négro Roule l'amnès' dans les OCB négro On monte un empire, et les cas s'empilent 667, détale à 100 000 OV on s'allie, 3e Guerre arrive Les prods on salit, hein En vert comme Larry, flingue à la Tariq Osirus Jacky, hein Violet bientôt comme Milka 2g dans un blunt comme Wiz K négro Baise ces bitchs dans l'side-car Ken la prod' comme si c'était Kim K Au-dessus d'tous ces négros Fait les bails tôt comme un jeune franc, hein 667 dans l'vaisseau Ça va prendre comme un feu d'camps, hein Taffe sec comme en Chizine, hein Détruit la prod' avec arme asiat' Bande de putes vous êtes minis, hein J'vous vois d'en-haut comme la NASA So Kixou, BPK A l'envers est l'triangle Pour pesos noirs comme Heenok Énormes chaînes, pierres brillantes, négro On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite ait-f comme Milito Les baise en secret comme Phillip Mo' On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite ait-f comme Milito Les baise en secret comme Phillip Mo' LDO furtif comme CIA Flow kaki, virus VIH Goddamn Bientôt violet comme Actavis So Odeuxzero, les sons d'la secte en boucle J'me sens comme sur une piste de Nascar, bitch Précis comme un Marine Sans stress, blesse négro à distance Les 808 font trembler la vitre Essais nucléaires comme le Pakistan, hein Faya au lean comme Fredo Toute la journée, enchaîne bédos J'veux cash, armes et précieux métaux Écrase ces vieux négros comme des mégots Au-dessus d'tous ces négros, Chen Zen Chaque jour suit le plan Dégage d'ici pussy neg', dégage d'ici Fake neg' fuit le clan Aussi dur à cuir qu'un biftezeck Goddamn Négro, so à la 6-sezecte Là pour des gros chiffres comme Bill Gazates, goddamn On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite aif comme Milito Les baise en secret comme Phillip Mo' On vous soupape, vous survole, j'me sens comme Bill Ces pussy neg' font que tapiner comme Kim Apparition vite aif comme Milito Les baise en secret comme Phillip Mo'</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Double-vie comme Bruce Wayne, comme Harvey Dent pas d'chance J'prends plein d'pépètes et j'les mets dans la nénette de la France Técla, j'me déplace comme un panthère noire dans la nuit Franchement j'sais pas si j'aurais eu l'même flow sans la weed H24 sous substance, j'pue l'chanvre, j'fume trop J'suis Hiro Nakamura, j'le ralentie et puis j'tue l'temps Plus que cuit j'suis rôti, lappât du gain nous motive Dès qu'j'atteins l'niveau 3, les yeux à peine ouverts négro j'lean J'ai pas l'temps pour tes sottises, j'réfléchis comme les Chinois 2013, j'écoute Despo et j'investis dans des vitres noires Aller-retour vers l'futur, avec mon négro Jorrdee Un nouveau type de pirate, on cherche à infiltrer vos ordis Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings Alcool, THC, sirop rose, pilule bleue Niveau 3 négro, libre à toi de tester si tu l'veux Effet ralenti garanti, vision un peu trouble Un peu myope, fonce-dé trop loin donc j'vous voie tous un peu flous Et j'en reconnais pas beaucoup, vous savez c'qu'on dit Vrais reconnaissent vrais, on vole pas avec les geons-pi Déjà dead, morts-vivants, négro comme des zombies Très haut on vise, pour leur mettre profonde on cherche des combines On cherche à péter l'jackpot, investir l'pactole J'veux m'balader 2 oinjs en bouche comme Action Bronson Vision nocturne et pas d'torche, négro La nuit j'me transforme en panthère noire comme Michael Jackson You might also like Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings Double-F G, XIX en orbite Appelle-moi Chen Zen, dans l'ciel Fenêtre ouverte négro, ça fait des chemtrails Fleuristes Furtifs en orbite, Double-F G, LT RT Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings</t>
+          <t>Double-vie comme Bruce Wayne, comme Harvey Dent pas d'chance J'prends plein d'pépètes et j'les mets dans la nénette de la France Técla, j'me déplace comme un panthère noire dans la nuit Franchement j'sais pas si j'aurais eu l'même flow sans la weed H24 sous substance, j'pue l'chanvre, j'fume trop J'suis Hiro Nakamura, j'le ralentie et puis j'tue l'temps Plus que cuit j'suis rôti, lappât du gain nous motive Dès qu'j'atteins l'niveau 3, les yeux à peine ouverts négro j'lean J'ai pas l'temps pour tes sottises, j'réfléchis comme les Chinois 2013, j'écoute Despo et j'investis dans des vitres noires Aller-retour vers l'futur, avec mon négro Jorrdee Un nouveau type de pirate, on cherche à infiltrer vos ordis Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings Alcool, THC, sirop rose, pilule bleue Niveau 3 négro, libre à toi de tester si tu l'veux Effet ralenti garanti, vision un peu trouble Un peu myope, fonce-dé trop loin donc j'vous voie tous un peu flous Et j'en reconnais pas beaucoup, vous savez c'qu'on dit Vrais reconnaissent vrais, on vole pas avec les geons-pi Déjà dead, morts-vivants, négro comme des zombies Très haut on vise, pour leur mettre profonde on cherche des combines On cherche à péter l'jackpot, investir l'pactole J'veux m'balader 2 oinjs en bouche comme Action Bronson Vision nocturne et pas d'torche, négro La nuit j'me transforme en panthère noire comme Michael Jackson Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings Double-F G, XIX en orbite Appelle-moi Chen Zen, dans l'ciel Fenêtre ouverte négro, ça fait des chemtrails Fleuristes Furtifs en orbite, Double-F G, LT RT Camouflé dans la matrice, j'peaufine ma tactique Gestion pilotée d'actifs avec ma clique J'veux l'beurre et l'argent du beurre, en foutre plein sur mes tartines Khaliss en poche, Phantom noire, j'rôde dans les parkings</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Société secrète nouvelle Lopito dans la coupelle NRM pour l'heure prochaine On t'shot, on veut biftons, or, grosses chaines OVG clan d'visionnaires, loup-garou comme un schyzo-nègre 2014, la LDO, on va tous chiller comme des millionnaires Def tate, les yeuz grave rouges Zombie fonscar comme ceux d'Flatbush Vision ralentie comme Max Payne, goddamn Captain, gestes techniques et cartouches Aquarium dans le vaisseau Sous-terrain est le réseau On veut argent nègre, black peso Dans le noir, brillant comme laser faisceau C.H.R. négro, crack vert, cape kaki en cas d'guerre 1017 négro, laflare, flows gores noirs sortent des cratères MMS sur des hors-bords Négro pirate, Barbe Noire Fonscar au lean comme à H-Town J'veux bitcoins, diamants, cash noir You might also like Roule la verte, mixe la cod' Défracté, j'me sens comme Issa Gold So Odeuxrozé, négro Bombarde à fond sur les 6 rapports Future luxure dans la Lambo' Faya, j'pilote comme un clando So Afro , numéro 1 sur l'bandeau 667, là pour reprendre le flambeau Osirus, couronne Atef Complote de manière stratège Faya chaque jour dans l'bando Effrite la merde négro, le-rou l'amnes' 'Teille de lean, nique un cul-sec Semtex dans ta pute nègre Osirus, black Kikzou BPK, découpe la prod' façon Louis XVI Tsar noir, en avance comme dans Star Wars Lopito au fond des armoires Zombieland dans la traphouse BPK syndicat, dans mes veines coule l'indica 667, so Lestat de Lyoncourt, on est pas tricards J'me sens comme Anakin J'viens prendre le pouvoir à la Macky Négro, furtif à la Patrick Ken la cérémonie à la Kaki Goddamn, finis cette merde comme Black Jack On débarque accrochés au train comme des pak-paks 667, tu connais déjà Nique Baphomet, nique le Dajjâl Black ninja, so Zuukou, 77 met la concu' en deuil Fume des niaks permanents, négro sé-po après trente meujs Trop élevé en taux d'TH, négro néo-black résine 20.14, Actavis, 2.6.7, néo-black régime On est au-dessus d'la masse, on sélève Fume ces bâtards, on célèbre Des profondeurs abyssales on émerge Trop d'avance sans stress, on l'saizait En orbite négro, vue panoramique Potion magique, la chatte à Panoramix OsirusCorleone, chimiste botaniste Scientifiques, tous les jours, dans labo ça mixe Extraction comme Walter White Cogne des murs, so BPK Rien qu'ça shot comme des Beretta XXX orbite chez XXX Mixe la verte à un bout d'clope, sous lean comme à Houston Osirus 3.2, j'me sens comme Jimmy à Woodstock Au-dessus d'nous c'est l'soleil On passe dans l'ciel comme des comètes J'veux voir tous mes collègues avec des Rolex On progresse vers les sommets Camouflage optique, vision nocturne 667, côté obscur Noir et vert sur les costumes Dans cette merde pour l'cash, on veut des grosses thunes Sans aucun stress, flingue cette merde négro Tous les jours, cons' verte herbe négro Def tate dans le F16 négro Assassine des prods comme un jeune FM négro MMS, lobby black Freeze Corleone, rap oligarque Quand j'kick négro, le cro-mi crame Sur les prods, exquis sont les vomis qu'j'crache</t>
+          <t>Société secrète nouvelle Lopito dans la coupelle NRM pour l'heure prochaine On t'shot, on veut biftons, or, grosses chaines OVG clan d'visionnaires, loup-garou comme un schyzo-nègre 2014, la LDO, on va tous chiller comme des millionnaires Def tate, les yeuz grave rouges Zombie fonscar comme ceux d'Flatbush Vision ralentie comme Max Payne, goddamn Captain, gestes techniques et cartouches Aquarium dans le vaisseau Sous-terrain est le réseau On veut argent nègre, black peso Dans le noir, brillant comme laser faisceau C.H.R. négro, crack vert, cape kaki en cas d'guerre 1017 négro, laflare, flows gores noirs sortent des cratères MMS sur des hors-bords Négro pirate, Barbe Noire Fonscar au lean comme à H-Town J'veux bitcoins, diamants, cash noir Roule la verte, mixe la cod' Défracté, j'me sens comme Issa Gold So Odeuxrozé, négro Bombarde à fond sur les 6 rapports Future luxure dans la Lambo' Faya, j'pilote comme un clando So Afro , numéro 1 sur l'bandeau 667, là pour reprendre le flambeau Osirus, couronne Atef Complote de manière stratège Faya chaque jour dans l'bando Effrite la merde négro, le-rou l'amnes' 'Teille de lean, nique un cul-sec Semtex dans ta pute nègre Osirus, black Kikzou BPK, découpe la prod' façon Louis XVI Tsar noir, en avance comme dans Star Wars Lopito au fond des armoires Zombieland dans la traphouse BPK syndicat, dans mes veines coule l'indica 667, so Lestat de Lyoncourt, on est pas tricards J'me sens comme Anakin J'viens prendre le pouvoir à la Macky Négro, furtif à la Patrick Ken la cérémonie à la Kaki Goddamn, finis cette merde comme Black Jack On débarque accrochés au train comme des pak-paks 667, tu connais déjà Nique Baphomet, nique le Dajjâl Black ninja, so Zuukou, 77 met la concu' en deuil Fume des niaks permanents, négro sé-po après trente meujs Trop élevé en taux d'TH, négro néo-black résine 20.14, Actavis, 2.6.7, néo-black régime On est au-dessus d'la masse, on sélève Fume ces bâtards, on célèbre Des profondeurs abyssales on émerge Trop d'avance sans stress, on l'saizait En orbite négro, vue panoramique Potion magique, la chatte à Panoramix OsirusCorleone, chimiste botaniste Scientifiques, tous les jours, dans labo ça mixe Extraction comme Walter White Cogne des murs, so BPK Rien qu'ça shot comme des Beretta XXX orbite chez XXX Mixe la verte à un bout d'clope, sous lean comme à Houston Osirus 3.2, j'me sens comme Jimmy à Woodstock Au-dessus d'nous c'est l'soleil On passe dans l'ciel comme des comètes J'veux voir tous mes collègues avec des Rolex On progresse vers les sommets Camouflage optique, vision nocturne 667, côté obscur Noir et vert sur les costumes Dans cette merde pour l'cash, on veut des grosses thunes Sans aucun stress, flingue cette merde négro Tous les jours, cons' verte herbe négro Def tate dans le F16 négro Assassine des prods comme un jeune FM négro MMS, lobby black Freeze Corleone, rap oligarque Quand j'kick négro, le cro-mi crame Sur les prods, exquis sont les vomis qu'j'crache</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>x2 J'veux Lamborghini Diablo noire, blackmobile J'commence à kiffer mes propres merdes, scatophile J'provoque irruptions solaires, explosions atomiques Camouflage optique, mentalité franc-maçonnique Comme des chemtrails, d'au-dessus nos merdes on vaporise Jaffûte mon sabre, appelle-moi Hanz Hattori Gang de loups, lions, aigles, épaulards, gorilles Inch'Allah notre empire perdurera grâce à nos fils Maître de cérémonie, j'survole les géoglyphes Rookie dans cette merde, mais pas néophyte Camouflage noir et vert, j'investis dans Lacoste Une ombre menaçante dans l'ciel quand ma flotte approche Société organisée, trajectoire analysée Itinéraire planifié, vision nocturne activée Homme-léopard négro, comme les Anyoto Vous pouvez courir vous cacher, on vous trouvera même à Kyoto On vous localise grâce au satellite Black kémite, demande à Kemi A la recherche de la pierre philosophale Musicale, comme alchemist Black knife négro, Appelle-moi Black-Man J'renforce mon esprit et mon corps dans ma black-cave, négro Au volant d'une blackmobile, 230 ça va, j'vais pas trop vite Tous les jours sous tise comme un alcoolique Ça sort tout seul négro, ç'en est presque diabolique On approche à grands pas, comme l'arrivée d'l'Antéchrist 2012, invasion d'zombies, Resident Evil J'fais trap music, crack music, dark music, black music J'm'arrête pas avant d'avoir un tas d'Uzis et un tas d'usines Dans cette merde jusqu'à la fin Et j'crois qu'c'est dans pas longtemps J'prends mon temps, j'suis mon plan On est tous frères dans mon clan You might also like J'veux Lamborghini Diablo noire, blackmobile J'commence à kiffer mes propres merdes, scatophile J'provoque irruptions solaires, explosions atomiques Camouflage optique, mentalité franc-maçonnique Comme des chemtrails, d'au-dessus nos merdes on vaporise Jaffûte mon sabre, appelle-moi Hanz Hattori Gang de loups, lions, aigles, épaulards, gorilles Inch'Allah notre empire perdurera grâce à nos fils Côté obscur, appelle-moi Black Vador Négro j'me balade dans l'espace comme Albator Des bails de gangs internationaux comme le MS-13 Du Salvador, on est dans cette merde jusqu'à la mort J'me sens comme un lion en cage, secret est mon langage Négro j'ai juste à dire XXX et mes lions t'engagent J'veux du khaliss, des CFAs, furtif comme si j'taffais à la NSA Dans l'futur j'suis Neymar au Brésil dans FIFA sur PS4 Etoile Noire, Etoile de la Mort Plus j'avance, plus j'm'éloigne de la norme Négro je sens qu'j'me rapproche De plus en plus du côté noir de la Force Comme Escobar j'vous pisse au cul, appelez-moi Black Face Sous Cuba Libre j'vois tout au ralenti comme Max Payne J'arrive à l'échauffement, def tate, fonsdé au chanvre Entrainement d'précision négro, pour pas louper nos chances J'peux pas oublier tous mes négros Shout out à tous mes négros Ils nous ont pillé Donc nous on va les dépouiller, négro On vient reprendre nos couronnes, négro Ils nous prennent pour des sous-hommes, négro Leur jeu est pire Que l'quartier rouge ou l'Bois d'Boulogne, négro T'as l'impression que j'vais vite Mais j'suis qu'ne 2ème vitesse, négro Swag à 100 000, j'cherche le beau geste J'fais que dans la finesse, négro J'veux Lamborghini Diablo noire, blackmobile J'commence à kiffer mes propres merdes, scatophile J'provoque irruptions solaires, explosions atomiques Camouflage optique, mentalité franc-maçonnique Comme des chemtrails, d'au-dessus nos merdes on vaporise Jaffûte mon sabre, appelle-moi Hanz Hattori Gang de loups, lions, aigles, épaulards, gorilles Inch'Allah notre empire perdurera grâce à nos fils Double-F G, Faya Familia En euros j'veux des millions, en CFAs des milliards Vrai négro shit contrairement à tous ces pussy négros On s'en bats les couilles de ta life, on a déjà tous nos soucis négro Appelle-moi Chen Zen, aquarium dans l'ciel J'ouvre la fenêtre, ça fait des chemtrails XIX en orbite, au-dessus d'vous, bande de bitchs Shout out to my sect, shout out à mes négros Gang noir, toi t'as l'flow d'un vieux poisson pané, négro J'veux Lamborghini Diablo noire, blackmobile J'commence à kiffer mes propres merdes, scatophile J'provoque irruptions solaires, explosions atomiques Camouflage optique, mentalité franc-maçonnique Comme des chemtrails, d'au-dessus nos merdes on vaporise Jaffûte mon sabre, appelle-moi Hanz Hattori Gang de lions, loups, aigles, épaulards, gorilles Inch'Allah notre empire perdurera grâce à nos fils</t>
+          <t>x2 J'veux Lamborghini Diablo noire, blackmobile J'commence à kiffer mes propres merdes, scatophile J'provoque irruptions solaires, explosions atomiques Camouflage optique, mentalité franc-maçonnique Comme des chemtrails, d'au-dessus nos merdes on vaporise Jaffûte mon sabre, appelle-moi Hanz Hattori Gang de loups, lions, aigles, épaulards, gorilles Inch'Allah notre empire perdurera grâce à nos fils Maître de cérémonie, j'survole les géoglyphes Rookie dans cette merde, mais pas néophyte Camouflage noir et vert, j'investis dans Lacoste Une ombre menaçante dans l'ciel quand ma flotte approche Société organisée, trajectoire analysée Itinéraire planifié, vision nocturne activée Homme-léopard négro, comme les Anyoto Vous pouvez courir vous cacher, on vous trouvera même à Kyoto On vous localise grâce au satellite Black kémite, demande à Kemi A la recherche de la pierre philosophale Musicale, comme alchemist Black knife négro, Appelle-moi Black-Man J'renforce mon esprit et mon corps dans ma black-cave, négro Au volant d'une blackmobile, 230 ça va, j'vais pas trop vite Tous les jours sous tise comme un alcoolique Ça sort tout seul négro, ç'en est presque diabolique On approche à grands pas, comme l'arrivée d'l'Antéchrist 2012, invasion d'zombies, Resident Evil J'fais trap music, crack music, dark music, black music J'm'arrête pas avant d'avoir un tas d'Uzis et un tas d'usines Dans cette merde jusqu'à la fin Et j'crois qu'c'est dans pas longtemps J'prends mon temps, j'suis mon plan On est tous frères dans mon clan J'veux Lamborghini Diablo noire, blackmobile J'commence à kiffer mes propres merdes, scatophile J'provoque irruptions solaires, explosions atomiques Camouflage optique, mentalité franc-maçonnique Comme des chemtrails, d'au-dessus nos merdes on vaporise Jaffûte mon sabre, appelle-moi Hanz Hattori Gang de loups, lions, aigles, épaulards, gorilles Inch'Allah notre empire perdurera grâce à nos fils Côté obscur, appelle-moi Black Vador Négro j'me balade dans l'espace comme Albator Des bails de gangs internationaux comme le MS-13 Du Salvador, on est dans cette merde jusqu'à la mort J'me sens comme un lion en cage, secret est mon langage Négro j'ai juste à dire XXX et mes lions t'engagent J'veux du khaliss, des CFAs, furtif comme si j'taffais à la NSA Dans l'futur j'suis Neymar au Brésil dans FIFA sur PS4 Etoile Noire, Etoile de la Mort Plus j'avance, plus j'm'éloigne de la norme Négro je sens qu'j'me rapproche De plus en plus du côté noir de la Force Comme Escobar j'vous pisse au cul, appelez-moi Black Face Sous Cuba Libre j'vois tout au ralenti comme Max Payne J'arrive à l'échauffement, def tate, fonsdé au chanvre Entrainement d'précision négro, pour pas louper nos chances J'peux pas oublier tous mes négros Shout out à tous mes négros Ils nous ont pillé Donc nous on va les dépouiller, négro On vient reprendre nos couronnes, négro Ils nous prennent pour des sous-hommes, négro Leur jeu est pire Que l'quartier rouge ou l'Bois d'Boulogne, négro T'as l'impression que j'vais vite Mais j'suis qu'ne 2ème vitesse, négro Swag à 100 000, j'cherche le beau geste J'fais que dans la finesse, négro J'veux Lamborghini Diablo noire, blackmobile J'commence à kiffer mes propres merdes, scatophile J'provoque irruptions solaires, explosions atomiques Camouflage optique, mentalité franc-maçonnique Comme des chemtrails, d'au-dessus nos merdes on vaporise Jaffûte mon sabre, appelle-moi Hanz Hattori Gang de loups, lions, aigles, épaulards, gorilles Inch'Allah notre empire perdurera grâce à nos fils Double-F G, Faya Familia En euros j'veux des millions, en CFAs des milliards Vrai négro shit contrairement à tous ces pussy négros On s'en bats les couilles de ta life, on a déjà tous nos soucis négro Appelle-moi Chen Zen, aquarium dans l'ciel J'ouvre la fenêtre, ça fait des chemtrails XIX en orbite, au-dessus d'vous, bande de bitchs Shout out to my sect, shout out à mes négros Gang noir, toi t'as l'flow d'un vieux poisson pané, négro J'veux Lamborghini Diablo noire, blackmobile J'commence à kiffer mes propres merdes, scatophile J'provoque irruptions solaires, explosions atomiques Camouflage optique, mentalité franc-maçonnique Comme des chemtrails, d'au-dessus nos merdes on vaporise Jaffûte mon sabre, appelle-moi Hanz Hattori Gang de lions, loups, aigles, épaulards, gorilles Inch'Allah notre empire perdurera grâce à nos fils</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>x2 J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique Négro, j'veux pierres précieuses Or jaune, argent nègre Chemtrails flow, j'laisse des traînées blanches Derrière moi quand j'passe dans l'ciel Chen Zen, 667 Seigneur noir comme à l'ancienne Vert, noir, rouge sur le drapeau, négro Fuck ces faggets, fuck leur arc-en-ciel Complot occulte, Ligue des Ombres Vision ralentie et idées sombres J'écris mes textes dans mon livre des ombres Noir et vert sur ma combinaison J'arrive dans cette merde en mode cataclysme Plus de midi-chloriens qu'Anakin Recherche savoir intergalactique Afro Samurai, j'suis la voie d'la tactique J'veux des liasses de biftons d'10 000 Couper les crânes comme dans Kill Bill J'mélange les substances comme un chimiste Niveau 3 fils, j'me sens comme Pimp C J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique You might also like Noir comme un pharaon, négro comme un esclave On joue pas dans la même cour, négro j'ai trop sauté d'classes J'débarque dans cette pute fonscar au lean comme au Texas On vise on tire négro, Chen Zen, Jordy Lestat 667 mon entité, on fait qualité en quantité PGM, met des headshot sans viser Gardez vos douilles, on est trop nandité Camouflage optique, vision nocturne On explore la force du côté obscur 667 négro, toujours au-dessus Dans cette merde uniquement pour grosses thunes J'veux des liasses de biftons d'10 000 Couper les cranes comme dans Kill Bill J'mélange les substances comme un chimiste Niveau 3 fils, j'me sens comme Pimp C J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique x2 Fonscar j'me sens comme Néo dans Matrix Complotant contre eux dans ma base sous l'antarctique Uniquement des supra-nègres dans ma clique Bledard mentality négro, j'prends l'khaliss, j'rentre en Afrique J'veux des liasses de biftons d'10 000 Couper les cranes comme dans Kill Bill J'mélange les substances comme un chimiste Niveau 3 fils, j'me sens comme Pimp C J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique</t>
+          <t>x2 J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique Négro, j'veux pierres précieuses Or jaune, argent nègre Chemtrails flow, j'laisse des traînées blanches Derrière moi quand j'passe dans l'ciel Chen Zen, 667 Seigneur noir comme à l'ancienne Vert, noir, rouge sur le drapeau, négro Fuck ces faggets, fuck leur arc-en-ciel Complot occulte, Ligue des Ombres Vision ralentie et idées sombres J'écris mes textes dans mon livre des ombres Noir et vert sur ma combinaison J'arrive dans cette merde en mode cataclysme Plus de midi-chloriens qu'Anakin Recherche savoir intergalactique Afro Samurai, j'suis la voie d'la tactique J'veux des liasses de biftons d'10 000 Couper les crânes comme dans Kill Bill J'mélange les substances comme un chimiste Niveau 3 fils, j'me sens comme Pimp C J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique Noir comme un pharaon, négro comme un esclave On joue pas dans la même cour, négro j'ai trop sauté d'classes J'débarque dans cette pute fonscar au lean comme au Texas On vise on tire négro, Chen Zen, Jordy Lestat 667 mon entité, on fait qualité en quantité PGM, met des headshot sans viser Gardez vos douilles, on est trop nandité Camouflage optique, vision nocturne On explore la force du côté obscur 667 négro, toujours au-dessus Dans cette merde uniquement pour grosses thunes J'veux des liasses de biftons d'10 000 Couper les cranes comme dans Kill Bill J'mélange les substances comme un chimiste Niveau 3 fils, j'me sens comme Pimp C J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique x2 Fonscar j'me sens comme Néo dans Matrix Complotant contre eux dans ma base sous l'antarctique Uniquement des supra-nègres dans ma clique Bledard mentality négro, j'prends l'khaliss, j'rentre en Afrique J'veux des liasses de biftons d'10 000 Couper les cranes comme dans Kill Bill J'mélange les substances comme un chimiste Niveau 3 fils, j'me sens comme Pimp C J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique J'prends l'khaliss, j'rentre en Afrique Négro j'prends l'khaliss, j'rentre en Afrique</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>I book the flight, she flew from otherseas Christian louboutin and double g's When I'm off the ? , I'm a geek When she drinking Casa she a freak Popping perc and pills and double g's All the shit they poppin Maybelline Pull up, poppin, put his ass to sleept Lil baby gon bless me, I ain't even sneeze My diamonds water just like Fiji She say she don't, but I know she needs me Yea I know she wants it, girl I'm fighting feelings I keep big pole on me, only fighting demons Got the devil on my ear, and I keep tryna shake him But everytime I see a opp, he say fuck that pop on them niggas like ? When we slide on em, call a firefighter put the fire on em Still fuck me up, can't believe that shit, how my day 1 one niggas gon die on me rip 10 outta where she gotta be I know I ain't shit, got a lot of freaks Wake your game up 'for you fuck your name up Pillow taking to the bitch that is not P I book the flight, she flew from otherseas Christian louboutin and double g's When I'm off the ? , I'm a geek When she drinking Casa she a freak Popping perc and pills and double g's All the shit they poppin Maybelline Pull up, poppin, put his ass to sleept Lil baby gon bless me, I ain't even sneeze You might also like Mon diamant c'est de l'eau comme de l'Evian Han, j'suis comme le Cuirassé t'es comme le Déviant Eh Tous mes habits sentent les Cali Plates Ftt, ftt, on sip' le lin, ils sniffent la mariquette Lin 20-24, Porsche Panamera 4 Espagne, Suisse, des toseina et des makas Lin Ah-ah, ils ont cru qu'on était des singes, négro, qu'on était des macaques Envois l'cash, pétasse, envois les skalapes Cash, rien que j'monte comme si j'fais d'l'escalade Han On t'croit pas, négro, remballes tes salades Han, j'consomme plus d'essence qu'un Cadillac Escalade Ftt, ftt Et j'fais c'que j'veux avec la prod Han, so Fenix, j'suis tombé en amour avec la drogue Han 667 Ekip, Shoreline Mafia Ekip, mon poignée c'est comme ta Dacia, ekip I book the flight, she flew from otherseas Christian louboutin and double g's When I'm off the ? , I'm a geek When she drinking Casa she a freak Popping perc and pills and double g's All the shit they poppin Maybelline Pull up, poppin, put his ass to sleept Lil baby gon bless me, I ain't even sneeze</t>
+          <t>I book the flight, she flew from otherseas Christian louboutin and double g's When I'm off the ? , I'm a geek When she drinking Casa she a freak Popping perc and pills and double g's All the shit they poppin Maybelline Pull up, poppin, put his ass to sleept Lil baby gon bless me, I ain't even sneeze My diamonds water just like Fiji She say she don't, but I know she needs me Yea I know she wants it, girl I'm fighting feelings I keep big pole on me, only fighting demons Got the devil on my ear, and I keep tryna shake him But everytime I see a opp, he say fuck that pop on them niggas like ? When we slide on em, call a firefighter put the fire on em Still fuck me up, can't believe that shit, how my day 1 one niggas gon die on me rip 10 outta where she gotta be I know I ain't shit, got a lot of freaks Wake your game up 'for you fuck your name up Pillow taking to the bitch that is not P I book the flight, she flew from otherseas Christian louboutin and double g's When I'm off the ? , I'm a geek When she drinking Casa she a freak Popping perc and pills and double g's All the shit they poppin Maybelline Pull up, poppin, put his ass to sleept Lil baby gon bless me, I ain't even sneeze Mon diamant c'est de l'eau comme de l'Evian Han, j'suis comme le Cuirassé t'es comme le Déviant Eh Tous mes habits sentent les Cali Plates Ftt, ftt, on sip' le lin, ils sniffent la mariquette Lin 20-24, Porsche Panamera 4 Espagne, Suisse, des toseina et des makas Lin Ah-ah, ils ont cru qu'on était des singes, négro, qu'on était des macaques Envois l'cash, pétasse, envois les skalapes Cash, rien que j'monte comme si j'fais d'l'escalade Han On t'croit pas, négro, remballes tes salades Han, j'consomme plus d'essence qu'un Cadillac Escalade Ftt, ftt Et j'fais c'que j'veux avec la prod Han, so Fenix, j'suis tombé en amour avec la drogue Han 667 Ekip, Shoreline Mafia Ekip, mon poignée c'est comme ta Dacia, ekip I book the flight, she flew from otherseas Christian louboutin and double g's When I'm off the ? , I'm a geek When she drinking Casa she a freak Popping perc and pills and double g's All the shit they poppin Maybelline Pull up, poppin, put his ass to sleept Lil baby gon bless me, I ain't even sneeze</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Show Times Ouvre la porte, c'est Fraki Jenkins qui tient la prod Han Black Mafia Han, Sénégal connexion Ekip 20-24, v'là d'cadavres de prod à ma collection Corleone, Dadinho Han, le parrain, la cité des hommes Han Depuis petit j'ai visé les sommes Cash à propos des pourcents comme si c'était les soldes Cash Belek aux laisses, tu personne Ah-ah FR et on perce tes lunettes Persol Han, goûte mes phalanges toi tu blesses personne, t'es qu'une balance t'es qu'un pèse-personne Killu, temps plein, à Dakar faut la baraque à Franklin, self-made nous parle pas de tremplin, fais l'travail propre, ça laisse pas d'empreintes Prends mon flow comme un emprunt Fais pas l'miskine recte, t'es sous whisky sec Monopole comme le 10-17, faut encaisser jusqu'en 3035 Regard noir sous les Oakley, négro, on coûte cher comme un buf de Kobé Cash Négro, rien qu'ça les baise en indé', soupape comme si on était dopé Vide ta caisse en press', comme Elisabeth, j'vais les mettre en pièces Le bout-mara vient de Tchèques Ah-ah, j'fous la merde noire, comme un je gratte ta Cons' le lin en caisses, à DK aqua en caisse, 365 jours l'année, 2424 ça encaisse Rotca tu sautes, galsén vodka bissap Chen Zen, Dadi', cash par caddies, Walter fond de corniche Almadies Au départ t'es têtu, on prendra tes parts puis tes tunes Marseille-Paris, dry tech carry, cryptomonnaie, pas d'paris You might also like On fait pas d'thunes dans la retenue Nan, on fera pas carrière dans les études Nan Négro, content, on est re-pu, j'suis noir et l'inverse de la re-pu On écoute que quand ça parle de thunes Cash, j'envoie la pure j'fais pas de tubes Nan J'suis dans le labo avec v'la de tubes Beaucoup, chaque prod j'la tue et j'la re-tue Une fois On te démarre no stress, killu' dans la capitale, au 13 Nos jouets font des marques aux fesses, au fait, j't'envois en l'air comme une hôtesse Comme un monarque, j'suis vêtu, t'es venu jouer les mac t'es déçu Ah-ah Té-ma le style, le vécu, cicatrice sur un esclave mes blessures On achète leur flow avec des TAO, faut plus de CFA que la BCEAO J'les vois p'tits comme si j'étais là-haut, sur la prod kick comme si j'étais là-haut J'cons' plus d'essence que des V10, yeuz chinois comme des P10 Han Derrière le mic comme si j'étais dix, dans le milieu fais des passes comme si j'étais 10 Ekip Vide ta caisse en press', comme Elisabeth, j'vais les mettre en pièces Le bout-mara vient de Tchèques Ah-ah, j'fous la merde noire, comme un je gratte ta Cons' le lin en caisses, à DK aqua en caisse, 365 jours l'année, 2424 ça encaisse Rotca tu sautes, galsén vodka bissap Chen Zen, Dadi', cash par caddies, Walter fond de corniche Almadies Au départ t'es têtu, on prendra tes parts puis tes tunes Marseille-Paris, dry tech carry, cryptomonnaie, pas d'paris</t>
+          <t>Show Times Ouvre la porte, c'est Fraki Jenkins qui tient la prod Han Black Mafia Han, Sénégal connexion Ekip 20-24, v'là d'cadavres de prod à ma collection Corleone, Dadinho Han, le parrain, la cité des hommes Han Depuis petit j'ai visé les sommes Cash à propos des pourcents comme si c'était les soldes Cash Belek aux laisses, tu personne Ah-ah FR et on perce tes lunettes Persol Han, goûte mes phalanges toi tu blesses personne, t'es qu'une balance t'es qu'un pèse-personne Killu, temps plein, à Dakar faut la baraque à Franklin, self-made nous parle pas de tremplin, fais l'travail propre, ça laisse pas d'empreintes Prends mon flow comme un emprunt Fais pas l'miskine recte, t'es sous whisky sec Monopole comme le 10-17, faut encaisser jusqu'en 3035 Regard noir sous les Oakley, négro, on coûte cher comme un buf de Kobé Cash Négro, rien qu'ça les baise en indé', soupape comme si on était dopé Vide ta caisse en press', comme Elisabeth, j'vais les mettre en pièces Le bout-mara vient de Tchèques Ah-ah, j'fous la merde noire, comme un je gratte ta Cons' le lin en caisses, à DK aqua en caisse, 365 jours l'année, 2424 ça encaisse Rotca tu sautes, galsén vodka bissap Chen Zen, Dadi', cash par caddies, Walter fond de corniche Almadies Au départ t'es têtu, on prendra tes parts puis tes tunes Marseille-Paris, dry tech carry, cryptomonnaie, pas d'paris On fait pas d'thunes dans la retenue Nan, on fera pas carrière dans les études Nan Négro, content, on est re-pu, j'suis noir et l'inverse de la re-pu On écoute que quand ça parle de thunes Cash, j'envoie la pure j'fais pas de tubes Nan J'suis dans le labo avec v'la de tubes Beaucoup, chaque prod j'la tue et j'la re-tue Une fois On te démarre no stress, killu' dans la capitale, au 13 Nos jouets font des marques aux fesses, au fait, j't'envois en l'air comme une hôtesse Comme un monarque, j'suis vêtu, t'es venu jouer les mac t'es déçu Ah-ah Té-ma le style, le vécu, cicatrice sur un esclave mes blessures On achète leur flow avec des TAO, faut plus de CFA que la BCEAO J'les vois p'tits comme si j'étais là-haut, sur la prod kick comme si j'étais là-haut J'cons' plus d'essence que des V10, yeuz chinois comme des P10 Han Derrière le mic comme si j'étais dix, dans le milieu fais des passes comme si j'étais 10 Ekip Vide ta caisse en press', comme Elisabeth, j'vais les mettre en pièces Le bout-mara vient de Tchèques Ah-ah, j'fous la merde noire, comme un je gratte ta Cons' le lin en caisses, à DK aqua en caisse, 365 jours l'année, 2424 ça encaisse Rotca tu sautes, galsén vodka bissap Chen Zen, Dadi', cash par caddies, Walter fond de corniche Almadies Au départ t'es têtu, on prendra tes parts puis tes tunes Marseille-Paris, dry tech carry, cryptomonnaie, pas d'paris</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>J'veux être un bawss avec un A... J'y arriverai avec un Mac... Un mic... Et un sac d'herbe, yeah... J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 Yo j'veux l'seizième étage, la Benz, sin-cou La BM et la Bentley d'un coup mec, et payées cash A la Curtis, devenir riche ou mourir En essayant, faisant les bails en furtif Casquette grave basse, à l'arrière de la Maybach, laidback Chillant comme Trademark, vidant les bars En ville dans les vans, distribuant des baffes Tirant des taffes, faisant monter des meufs Dans l'DB9 couleur bleu aqua Fait un signe F au conducteur couvert de tatouages Des yeux de nawach, je plane plus, j'suis sur une autre planète Loin mais quand j'débarque, plus frais que d'la neige Tu peux observer une variation de température L'argent n'a pas d'odeur mais t'as senti que j'sentais la thune You might also like J'veux être un bawss avec un A, han... Un bawss avec un A, han... J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 Grosse baraque, véranda De Montréal à Paname, les plus balaises sont sur la Téranga En jet privé, mec j'y vais Douille suprême, j'me cache à NYC si je veux t'esquiver Trouve-moi au quartier galsèn à Harlem Ou en train d'enregistrer des maquettes chez Marley Ou encore à un festival estival Avec mon équipage, moi en train de briser cet esti d'mic La foule en délire, j'saute dans mon bain Chaque jour des rimes je crache, c'est grâce à ça qu'j'gagne mon pain C'est fini, j'bouge tout d'suite, j'viens pour les sous, fils J'choisis quelques groopies puis les dégoupille On s'met bien en backstage, insha'God J'y serai à peu près après un album et 4 tapes C'est comme ça que j'vois l'dieze, ça arrive Au pire commence dans 4 piges, plus j'avance plus j'vois qu'c'est dur sans la triche El Freeze, les MCs j'crosse, niggaz avec un Mac J'veux être un bawss avec un A comme Rick Ross J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16</t>
+          <t>J'veux être un bawss avec un A... J'y arriverai avec un Mac... Un mic... Et un sac d'herbe, yeah... J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 Yo j'veux l'seizième étage, la Benz, sin-cou La BM et la Bentley d'un coup mec, et payées cash A la Curtis, devenir riche ou mourir En essayant, faisant les bails en furtif Casquette grave basse, à l'arrière de la Maybach, laidback Chillant comme Trademark, vidant les bars En ville dans les vans, distribuant des baffes Tirant des taffes, faisant monter des meufs Dans l'DB9 couleur bleu aqua Fait un signe F au conducteur couvert de tatouages Des yeux de nawach, je plane plus, j'suis sur une autre planète Loin mais quand j'débarque, plus frais que d'la neige Tu peux observer une variation de température L'argent n'a pas d'odeur mais t'as senti que j'sentais la thune J'veux être un bawss avec un A, han... Un bawss avec un A, han... J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 Grosse baraque, véranda De Montréal à Paname, les plus balaises sont sur la Téranga En jet privé, mec j'y vais Douille suprême, j'me cache à NYC si je veux t'esquiver Trouve-moi au quartier galsèn à Harlem Ou en train d'enregistrer des maquettes chez Marley Ou encore à un festival estival Avec mon équipage, moi en train de briser cet esti d'mic La foule en délire, j'saute dans mon bain Chaque jour des rimes je crache, c'est grâce à ça qu'j'gagne mon pain C'est fini, j'bouge tout d'suite, j'viens pour les sous, fils J'choisis quelques groopies puis les dégoupille On s'met bien en backstage, insha'God J'y serai à peu près après un album et 4 tapes C'est comme ça que j'vois l'dieze, ça arrive Au pire commence dans 4 piges, plus j'avance plus j'vois qu'c'est dur sans la triche El Freeze, les MCs j'crosse, niggaz avec un Mac J'veux être un bawss avec un A comme Rick Ross J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16 J'veux être un bawss avec un A, fuck ces putes J'garde mon fut' négro, j'y arriverai avec un Mac Un mic et un sac d'herbe, attendant mon heure Mentraînant, les maltraitant à chaque 16</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>On cherche moyen pour devenir riche vite Goddamn, quotidiennement nique le triple-6 Cons' plus de lean qu'à Slickville Fume plus de gas que dans les sixties Dribble ces négros comme Fifa Détiens vision comme Rifa Audio drogue dure comme sisa MMS dans la trap house comme 10 Farcs Chaque jour négro, j'fume la verte Garde mon sang froid comme un reptile Stratégique dans mon lexique 667 kartel comme au Mexique, hein J'ai l'flow d'Miami Bientôt comme D Ace en Porsche dans le 305 No méduse Gianni Chaque jour j'prie pour n'pas finir en 305 J'vois la vie comme Oda Pirate Chen, pirate Odeux' Négro j'me sens comme Yoda Chez nous, flow y a trop de, goddamn x2 So Mike G, Sweatshirt Sur la prod braquage Braquage Sur la prod braquage Braquage Sur la prod braquage Braquage Sur la prod braquage You might also like Odeux', j'ai fumé trop de guinz Tué trop de lames Les humains, j'suis comme la base de la base Négro, j'me sens comme un singe J'travaille ma glande, négro comme un pin Dangereux comme les requins Pas dans l'Jeu comme un petit rouquin J'connais tes limites, j't'élimine J'connais pas mes limites, j'en ai pas Au-dessus d'ce merdier, comme Evil Pimp lévite J'suis au sommet, à mes pieds tu trépasses J'traîne avec des étoiles Constellation 667 dans l'espace, pétasse Pas fonc', j'suis high comme Sélass' Dans l'vaisseau, hélas pas d'place pour tes 'tasses Dans les bas-fonds comme un squale J'traîne avec lÉpaulard Carré comme un cintre, j'ai les épaules larges, comme HAARP Fais pas la guerre, si tu sais pas la faire Dakar dans nos artères, gravité zéro Négro, notre avenir se lie plus à la Terre On est dans l'ombre comme la Ligue Amortis les chocs comme Öhlins Installe les mangemorts, so JK Rowling Bolide sur le Game comme O'Neal x2 So Mike G, Sweatshirt Sur la prod braquage Braquage Sur la prod braquage Braquage Sur la prod braquage Braquage Sur la prod braquage Allez, allez Donne tout, donne tout, allez Allez envoie là, ta gueule Han Allez, vas-y envoie Envoie, envoie, envoie Envoie salope vas-y, envoie Allez, allez, allez, allez Vas-y, plus vite là, ferme ta gueule Hé, hé Odeux', vas-y surveille-le Sisisisi Hé fils de snitch Pense même pas à faire ça, fils de lâche Vas-y c'est bon, viens on s'casse</t>
+          <t>On cherche moyen pour devenir riche vite Goddamn, quotidiennement nique le triple-6 Cons' plus de lean qu'à Slickville Fume plus de gas que dans les sixties Dribble ces négros comme Fifa Détiens vision comme Rifa Audio drogue dure comme sisa MMS dans la trap house comme 10 Farcs Chaque jour négro, j'fume la verte Garde mon sang froid comme un reptile Stratégique dans mon lexique 667 kartel comme au Mexique, hein J'ai l'flow d'Miami Bientôt comme D Ace en Porsche dans le 305 No méduse Gianni Chaque jour j'prie pour n'pas finir en 305 J'vois la vie comme Oda Pirate Chen, pirate Odeux' Négro j'me sens comme Yoda Chez nous, flow y a trop de, goddamn x2 So Mike G, Sweatshirt Sur la prod braquage Braquage Sur la prod braquage Braquage Sur la prod braquage Braquage Sur la prod braquage Odeux', j'ai fumé trop de guinz Tué trop de lames Les humains, j'suis comme la base de la base Négro, j'me sens comme un singe J'travaille ma glande, négro comme un pin Dangereux comme les requins Pas dans l'Jeu comme un petit rouquin J'connais tes limites, j't'élimine J'connais pas mes limites, j'en ai pas Au-dessus d'ce merdier, comme Evil Pimp lévite J'suis au sommet, à mes pieds tu trépasses J'traîne avec des étoiles Constellation 667 dans l'espace, pétasse Pas fonc', j'suis high comme Sélass' Dans l'vaisseau, hélas pas d'place pour tes 'tasses Dans les bas-fonds comme un squale J'traîne avec lÉpaulard Carré comme un cintre, j'ai les épaules larges, comme HAARP Fais pas la guerre, si tu sais pas la faire Dakar dans nos artères, gravité zéro Négro, notre avenir se lie plus à la Terre On est dans l'ombre comme la Ligue Amortis les chocs comme Öhlins Installe les mangemorts, so JK Rowling Bolide sur le Game comme O'Neal x2 So Mike G, Sweatshirt Sur la prod braquage Braquage Sur la prod braquage Braquage Sur la prod braquage Braquage Sur la prod braquage Allez, allez Donne tout, donne tout, allez Allez envoie là, ta gueule Han Allez, vas-y envoie Envoie, envoie, envoie Envoie salope vas-y, envoie Allez, allez, allez, allez Vas-y, plus vite là, ferme ta gueule Hé, hé Odeux', vas-y surveille-le Sisisisi Hé fils de snitch Pense même pas à faire ça, fils de lâche Vas-y c'est bon, viens on s'casse</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Discographie - Freeze Corleone Album Studio - 20200911 Freeze Corleone - LMF - 20220304 Freeze Corleone ASHE 22 - RIYAD SADIO - 20230911 Freeze Corleone - ADC Mixtape - 20110420 Freeze Corleone - À la recherche de la daillance - 20121012 Freeze Corleone - Vieilles merdes - 20160108 Freeze Corleone - Vieilles merdes Vol. II - 20160911 Freeze Corleone - F.D.T - 20170911 Freeze Corleone - THC - 20181113 Freeze Corleone - Projet Blue Beam Remix - 20160306 Freeze Corleone Ocho - Vieilles merdes Vol. II crewed - 20191125 Freeze Corleone Ocho - Projet Purrp Beam - 20200601 Freeze Corleone Ocho - F.D.T Chopped crewed - 20210525 Freeze Corleone Ocho - LM - 20240208 Freeze Corleone Ocho - AD Single - 20091018 Freeze Corleone - Freestyle 1 - 20100527 Freeze Corleone - Freestyle 5 - 2012 Freeze Corleone - Sam Fisher - 2012 Freeze Corleone - Nouveau Commendatore Ferrari Music - 20121026 Freeze Corleone - Black Knight - 20121120 Freeze Corleone - Blackmobile - 20130803 Freeze Corleone - Argent noir - 20130803 Freeze Corleone - Niveau III - 20131027 Freeze Corleone - 204 Parsec - 20131229 Freeze Corleone - Gladiator - 2014 Freeze Corleone - Marque de fabrique - 20140204 Freeze Corleone - Libérez Radrick Truth Freestyle - 20140205 Freeze Corleone - Memphis - 20140208 Freeze Corleone - Zone VI Squad Car Freestyle - 20140311 Freeze Corleone - Black Lobby - 20140319 Freeze Corleone - Henri VI - 20140327 Freeze Corleone - Mangemort - 20140406 Darth Chen - Lockomotive - 20140512 Freeze Corleone - Bledard Mentality - 20140805 Freeze Corleone - Bill Gates - 20140903 Freeze Corleone - Khaliss - 20140910 Freeze Corleone - Piraterie - 20140911 Freeze Corleone - Lampadaire - 20141117 Freeze Corleone - Viseur holographique - 20141225 Freeze Corleone - LDO dans la maison - 20150117 Freeze Corleone - Et on cons' Shit World Tour 2014 - 20150131 Freeze Corleone - Charlie - 20150223 Freeze Corleone - Fuck ça - 20150409 Freeze Corleone - 16 Pains Freestyle - 20150410 Freeze Corleone - Les fils de l'Oncle Sam - 20150522 Freeze Corleone - Canibus - 20150616 Freeze Corleone - Au-dessus - 20150719 Freeze Corleone - Trains à vapeur - 20160129 Freeze Corleone - Recette - 20160430 Freeze Corleone - Gaucho - 20160529 Freeze Corleone - Apu - 20160724 Freeze Corleone - Skrt Skrt Freestyle - 20160910 Freeze Corleone - Madara - 20161220 Freeze Corleone - Toilettes - 20161225 Freeze Corleone - Mage noir Ekailand Edit - 20170113 Freeze Corleone - La LDO dans le château - 20170224 Freeze Corleone - Combien - 20170403 Freeze Corleone - Ekip - 20170513 Freeze Corleone - Prof Chen - 20170911 Freeze Corleone - Benjamins bleus - 20171215 Freeze Corleone - LDO dans la place - 20180215 Freeze Corleone - TX - 20181113 Freeze Corleone - Jeremy Lin - 20190112 Freeze Corleone - Intro - 20190830 Freeze Corleone - Fentanyl - 20191113 Freeze Corleone - Baton Rouge - 20200105 Freeze Corleone - Welcome to the Party Freestyle - 20200727 Freeze Corleone - Desiigner - 20200821 Freeze Corleone - Scellé Part. 2 - 20200911 Freeze Corleone - Hors ligne - 20210126 Freeze Corleone - Requiem for a Drill - 20210513 Freeze Corleone - Polémique - 20210518 Freeze Corleone - Téléphone - 20210703 Freeze Corleone - Freeze Raël Video Edit - 20211202 Freeze Corleone - Règne sur le monde - 20220127 Freeze Corleone ASHE 22 - SCELLÉ PART. 4 - 20220211 Freeze Corleone ASHE 22 - DÉGRADÉ - 20220304 Freeze Corleone ASHE 22 - CARTIER You might also likeFeaturing - 20140217 RTT Clan - Winafoute - 20140226 Afro S - Katana - 20140227 Jorrdee - Sacrifice de poulets Part. II - 20140227 Gouap - Jackie Chan - 20140510 Jorrdee - Violet - 20140512 Odeuxzero - S.P.L.F - 20140514 Jorrdee - PSG - 20140809 Zuukou Mayzie - Jack Sparrow - 20140917 Zuukou Mayzie - John Titor - 20141006 Dubble G - Engrais organique - 20141103 Osirus Jack - Génotype - 20141209 Jorrdee - Gas - 20150420 Dubble G - Hydroponique - 20150828 Kaki Santana - Échec mat - 20151120 Rifa Samb - Hors normes - 20160803 Kaki Santana - Combinaison Kaki - 20160809 Slim C - Burrr - 20160809 Slim C - C4 - 20160809 Slim C - Spectres - 20161024 Veerus - Jacques Chirac - 20161118 Norsacce Berlusconi - OG Juice - 20161118 Kaki Santana - Homme de l'ombre - 20170420 Norsacce Berlusconi - Only - 20180218 Slim C - Dans la grotte - 20181221 Zuukou Mayzie - Yamanote Line - 20181227 Veerus - KKK - 20190125 Alkpote - Purification - 20190503 Osirus Jack - Sacrifice de masse Part. 2 - 20190726 Luv Resval - Crystal Lake - 20190910 Roi Heenok - 38 SPECIAL - 20191007 Worms-T - Pakistan - 20191129 ASHE 22 - Scellé - 20191129 DOC OVG - 10 - 20191222 Django - Cyanure - 20200221 Slim C - Serpents Renards - 20200330 Sazamyzy - Braquage à l'africaine 5 Part 1 - 20200406 RAS - O.J Simpson - 20200409 Zuukou Mayzie - Qui-Gon Jinn - 20200415 Kaki Santana - Welcome to the Party Remix - 20200515 tanlee - Pour It Up - 20200611 Norsacce - 4 saisons - 20200617 Gazo - Drill FR 4 - 20200717 Jolly - Zone 51 - 20200807 Zesau - Anarchie - 20200904 Ocho - CPouravCjusteRalenti - 20200918 La F - La violence - 20200924 Koba LaD - 7 sur 7 - 20200928 Criminls - War - 20201013 Mini Noma - Travail d'ekip - 20201016 Afro S - Nino Brown - 20201018 Kozi - Unstoppable - 20201023 Kaaris - IRM - 20201104 Nahir - Moneygram - 20201107 Django - SO le Flem - 20201118 Guy2Bezbar - TPM - 20201127 Negrito - Purge 5 - 20201127 RAS - LPDLD - 20201211 Zesau - Anarchie Remix - 20201218 Alpha Wann - ny à fond - 20210219 Vladimir Cauchemar - Les professeurs - 20210310 Deeloc - Rétro - 20210319 SCH - Mannschaft - 20210408 ASHE 22 - Scellé Part. 3 - 20210528 RAS - Mission Cobra - 20210604 Zuukou Mayzie - Pépé anglais - 20210721 DA Uzi - 27 - 20211001 Mac Tyer - Grammy - 20211210 ALP - Bloods - 20211224 Gouap - Jackie Chan 2 - 20220128 Kaki Santana - Toujours pas de refrain - 20220128 Kaaris Kalash Criminel - Apocalypse - 20220218 Kpri - Maybach Phantom - 20220222 Osirus Jack - Lampadaire, Pt. 2 - 20220225 Central Cee - Eurovision - 20220311 Nahir - Moneygram, Part. 2 - 20220318 Veerus - Cash - 20220511 Amine Farsi - FRAUDE - 20220520 DOC OVG - 1000 - 20220527 SEVEN 7oo - 667OO - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20220714 Mini - 669 Tah - 20220722 Zuukou Mayzie - Inception - 20220826 Doums - 90' - 20220908 Stavo - Réunion - 20220915 RAS - Mission Cobra Part. 2 - 20220930 Prince Waly - Balotelli - 20221012 Afro S - C10 - 20221014 Jey Brownie Flem - Movie - 20221117 2Key - Pour la paix - 20221209 Kozi - Trap Kongo - 20230106 Slim C - Prend le pouvoir - 20230203 Rim'K - Métaverse - 20230213 Ralfy the Plug - Loopholes - 20230214 Criminls - Nouvel ordre Discographie complémentaire - Discographie - 667 - Discographie - CFR - Discographie - LT RT Klan</t>
+          <t>Discographie - Freeze Corleone Album Studio - 20200911 Freeze Corleone - LMF - 20220304 Freeze Corleone ASHE 22 - RIYAD SADIO - 20230911 Freeze Corleone - ADC Mixtape - 20110420 Freeze Corleone - À la recherche de la daillance - 20121012 Freeze Corleone - Vieilles merdes - 20160108 Freeze Corleone - Vieilles merdes Vol. II - 20160911 Freeze Corleone - F.D.T - 20170911 Freeze Corleone - THC - 20181113 Freeze Corleone - Projet Blue Beam Remix - 20160306 Freeze Corleone Ocho - Vieilles merdes Vol. II crewed - 20191125 Freeze Corleone Ocho - Projet Purrp Beam - 20200601 Freeze Corleone Ocho - F.D.T Chopped crewed - 20210525 Freeze Corleone Ocho - LM - 20240208 Freeze Corleone Ocho - AD Single - 20091018 Freeze Corleone - Freestyle 1 - 20100527 Freeze Corleone - Freestyle 5 - 2012 Freeze Corleone - Sam Fisher - 2012 Freeze Corleone - Nouveau Commendatore Ferrari Music - 20121026 Freeze Corleone - Black Knight - 20121120 Freeze Corleone - Blackmobile - 20130803 Freeze Corleone - Argent noir - 20130803 Freeze Corleone - Niveau III - 20131027 Freeze Corleone - 204 Parsec - 20131229 Freeze Corleone - Gladiator - 2014 Freeze Corleone - Marque de fabrique - 20140204 Freeze Corleone - Libérez Radrick Truth Freestyle - 20140205 Freeze Corleone - Memphis - 20140208 Freeze Corleone - Zone VI Squad Car Freestyle - 20140311 Freeze Corleone - Black Lobby - 20140319 Freeze Corleone - Henri VI - 20140327 Freeze Corleone - Mangemort - 20140406 Darth Chen - Lockomotive - 20140512 Freeze Corleone - Bledard Mentality - 20140805 Freeze Corleone - Bill Gates - 20140903 Freeze Corleone - Khaliss - 20140910 Freeze Corleone - Piraterie - 20140911 Freeze Corleone - Lampadaire - 20141117 Freeze Corleone - Viseur holographique - 20141225 Freeze Corleone - LDO dans la maison - 20150117 Freeze Corleone - Et on cons' Shit World Tour 2014 - 20150131 Freeze Corleone - Charlie - 20150223 Freeze Corleone - Fuck ça - 20150409 Freeze Corleone - 16 Pains Freestyle - 20150410 Freeze Corleone - Les fils de l'Oncle Sam - 20150522 Freeze Corleone - Canibus - 20150616 Freeze Corleone - Au-dessus - 20150719 Freeze Corleone - Trains à vapeur - 20160129 Freeze Corleone - Recette - 20160430 Freeze Corleone - Gaucho - 20160529 Freeze Corleone - Apu - 20160724 Freeze Corleone - Skrt Skrt Freestyle - 20160910 Freeze Corleone - Madara - 20161220 Freeze Corleone - Toilettes - 20161225 Freeze Corleone - Mage noir Ekailand Edit - 20170113 Freeze Corleone - La LDO dans le château - 20170224 Freeze Corleone - Combien - 20170403 Freeze Corleone - Ekip - 20170513 Freeze Corleone - Prof Chen - 20170911 Freeze Corleone - Benjamins bleus - 20171215 Freeze Corleone - LDO dans la place - 20180215 Freeze Corleone - TX - 20181113 Freeze Corleone - Jeremy Lin - 20190112 Freeze Corleone - Intro - 20190830 Freeze Corleone - Fentanyl - 20191113 Freeze Corleone - Baton Rouge - 20200105 Freeze Corleone - Welcome to the Party Freestyle - 20200727 Freeze Corleone - Desiigner - 20200821 Freeze Corleone - Scellé Part. 2 - 20200911 Freeze Corleone - Hors ligne - 20210126 Freeze Corleone - Requiem for a Drill - 20210513 Freeze Corleone - Polémique - 20210518 Freeze Corleone - Téléphone - 20210703 Freeze Corleone - Freeze Raël Video Edit - 20211202 Freeze Corleone - Règne sur le monde - 20220127 Freeze Corleone ASHE 22 - SCELLÉ PART. 4 - 20220211 Freeze Corleone ASHE 22 - DÉGRADÉ - 20220304 Freeze Corleone ASHE 22 - CARTIER Featuring - 20140217 RTT Clan - Winafoute - 20140226 Afro S - Katana - 20140227 Jorrdee - Sacrifice de poulets Part. II - 20140227 Gouap - Jackie Chan - 20140510 Jorrdee - Violet - 20140512 Odeuxzero - S.P.L.F - 20140514 Jorrdee - PSG - 20140809 Zuukou Mayzie - Jack Sparrow - 20140917 Zuukou Mayzie - John Titor - 20141006 Dubble G - Engrais organique - 20141103 Osirus Jack - Génotype - 20141209 Jorrdee - Gas - 20150420 Dubble G - Hydroponique - 20150828 Kaki Santana - Échec mat - 20151120 Rifa Samb - Hors normes - 20160803 Kaki Santana - Combinaison Kaki - 20160809 Slim C - Burrr - 20160809 Slim C - C4 - 20160809 Slim C - Spectres - 20161024 Veerus - Jacques Chirac - 20161118 Norsacce Berlusconi - OG Juice - 20161118 Kaki Santana - Homme de l'ombre - 20170420 Norsacce Berlusconi - Only - 20180218 Slim C - Dans la grotte - 20181221 Zuukou Mayzie - Yamanote Line - 20181227 Veerus - KKK - 20190125 Alkpote - Purification - 20190503 Osirus Jack - Sacrifice de masse Part. 2 - 20190726 Luv Resval - Crystal Lake - 20190910 Roi Heenok - 38 SPECIAL - 20191007 Worms-T - Pakistan - 20191129 ASHE 22 - Scellé - 20191129 DOC OVG - 10 - 20191222 Django - Cyanure - 20200221 Slim C - Serpents Renards - 20200330 Sazamyzy - Braquage à l'africaine 5 Part 1 - 20200406 RAS - O.J Simpson - 20200409 Zuukou Mayzie - Qui-Gon Jinn - 20200415 Kaki Santana - Welcome to the Party Remix - 20200515 tanlee - Pour It Up - 20200611 Norsacce - 4 saisons - 20200617 Gazo - Drill FR 4 - 20200717 Jolly - Zone 51 - 20200807 Zesau - Anarchie - 20200904 Ocho - CPouravCjusteRalenti - 20200918 La F - La violence - 20200924 Koba LaD - 7 sur 7 - 20200928 Criminls - War - 20201013 Mini Noma - Travail d'ekip - 20201016 Afro S - Nino Brown - 20201018 Kozi - Unstoppable - 20201023 Kaaris - IRM - 20201104 Nahir - Moneygram - 20201107 Django - SO le Flem - 20201118 Guy2Bezbar - TPM - 20201127 Negrito - Purge 5 - 20201127 RAS - LPDLD - 20201211 Zesau - Anarchie Remix - 20201218 Alpha Wann - ny à fond - 20210219 Vladimir Cauchemar - Les professeurs - 20210310 Deeloc - Rétro - 20210319 SCH - Mannschaft - 20210408 ASHE 22 - Scellé Part. 3 - 20210528 RAS - Mission Cobra - 20210604 Zuukou Mayzie - Pépé anglais - 20210721 DA Uzi - 27 - 20211001 Mac Tyer - Grammy - 20211210 ALP - Bloods - 20211224 Gouap - Jackie Chan 2 - 20220128 Kaki Santana - Toujours pas de refrain - 20220128 Kaaris Kalash Criminel - Apocalypse - 20220218 Kpri - Maybach Phantom - 20220222 Osirus Jack - Lampadaire, Pt. 2 - 20220225 Central Cee - Eurovision - 20220311 Nahir - Moneygram, Part. 2 - 20220318 Veerus - Cash - 20220511 Amine Farsi - FRAUDE - 20220520 DOC OVG - 1000 - 20220527 SEVEN 7oo - 667OO - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20220714 Mini - 669 Tah - 20220722 Zuukou Mayzie - Inception - 20220826 Doums - 90' - 20220908 Stavo - Réunion - 20220915 RAS - Mission Cobra Part. 2 - 20220930 Prince Waly - Balotelli - 20221012 Afro S - C10 - 20221014 Jey Brownie Flem - Movie - 20221117 2Key - Pour la paix - 20221209 Kozi - Trap Kongo - 20230106 Slim C - Prend le pouvoir - 20230203 Rim'K - Métaverse - 20230213 Ralfy the Plug - Loopholes - 20230214 Criminls - Nouvel ordre Discographie complémentaire - Discographie - 667 - Discographie - CFR - Discographie - LT RT Klan</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>So le Flem, han Ekip, ekip ekip, ekip Fa-fa-fah fah, fah Chen Zen, Afro S Grah, Eh, C10 Ekip, ekip, ekip, C10 C10, vide les clips Chen Zen, Afro MMS, LDO, NRM, 667, pétasse Han Verre de lin, il est grave opaque Lin, audio dope, c'est comme des accros d'cracks Ah Cartouche 10, avec Afro t'braque, ça fait pas d'zumba, pas d'afro-trap Nan Gros aquarium dans les vans, Dakar fait plus de biff pendant les vat' J't'ai déjà dit, j'suis le requin dans les vagues, 91 d'THC dans les vapes Sur la route ça fait des transits, négro, j'ai le produit qui t'met dans les vapes Hey, hey So le Black, pour mieux coffrer les sous pendant longtemps, ça tapait les pâtes On avance, ça v-esqui' bâtons dans les pattes, comme un maçon présent sur l'chantier Faut hussle, c'est trop facile d'envier, rap français finit dans l'cendrier Han, Afro S, Corleone Ekip, la cartouche, c'est la dixième Pah Ils rappent comme s'ils commencent la sixième, no cap, monture Cartier sous la visière H24, ça v-esqui' la galère, j'suis avec Chen, on s'balade dans les galeries C'pas le même prix pour tout, ça varie, après, j'envoie l'cash à la laverie You might also like Sur mon chemin, jamais croisé le hasard piou, FLRG, c'est le bazar piou Si c'est pour le cash, négro, , j'suis à Dakar, j'fume des zazas J'suis à Paname, j'fume des casa', concu', on les graille comme des lasagnes eh J'mets les sirops dans les maaza Lin, chaque jour, libérez Gaza J'ai mes kits pour la rre-gue, j'm'équipe, C10 vide les clips Pah Chen Zen, Afro, ekip, jamais j'trahirai l'équipe So Flem, bientôt, ça bibi des kits Cash, j'veux voir toute l'équipe, t'es qui ? Envoie des prods, que ça fait des kills pah, sous pills, marche comme avec des béquilles Toute l'année, j'suis sur la , négro, y a pas plus cher que le time, my nigga De ma bouche sort que des facts, hey, dans mon ze-n, y a pas de lines, my nigga Fuck la salle, j'ai le nine, my nigga, fuck les rats comme 6ix9ine, my nigga On est là pour la maille, ça gère les bails, fait partir la frappe et la caille, my nigga So Docteur Teh, y a tout, tu veux la ppe-f', ça coûte cher Chen Zen, Afro S, découpe la prod, laisse v'là d'bouts d'chaires Et-et si j'vise, t'inquiète ça touche, j'viens de D.K, tout se gère han Pour te faire, Afro ou le Chen, que la famille et les sous que j'aime Ekip Pétasse han, Gelato et les cookies Ils tournent en rond comme des toupies Han, sirop rouge, et les blue pills Han R.E.P. Nip, faut les blue bills R.E.P. Nip, faut les blue bills So Chen Zen pour le blueprint, j'ai ma wifey, fuck une groupie Sur mon chemin, jamais croisé le hasard piou, FLRG, c'est le bazar piou Si c'est pour le cash, négro, , j'suis à Dakar, j'fume des zazas J'suis à Paname, j'fume des casa', concu', on les graille comme des lasagnes eh J'mets les sirops dans les maaza Lin, chaque jour, libérez Gaza Sur mon chemin, jamais croisé le hasard piou, FLRG, c'est le bazar piou Si c'est pour le cash, négro, , j'suis à Dakar, j'fume des zazas J'suis à Paname, j'fume des casa', concu', on les graille comme des lasagnes eh J'mets les sirops dans les maaza Lin, chaque jour, libérez Gaza J'ai mes kits, pour la rre-gue j'm'équipe Chen Zen, Afro, Ekip, jamais j'trahirais l'équipe Verre de lin, il est grave opaque Cartouche 10 avec Afro, t'braque Ça fait pas d'zumba, pas d'afro-trap</t>
+          <t>So le Flem, han Ekip, ekip ekip, ekip Fa-fa-fah fah, fah Chen Zen, Afro S Grah, Eh, C10 Ekip, ekip, ekip, C10 C10, vide les clips Chen Zen, Afro MMS, LDO, NRM, 667, pétasse Han Verre de lin, il est grave opaque Lin, audio dope, c'est comme des accros d'cracks Ah Cartouche 10, avec Afro t'braque, ça fait pas d'zumba, pas d'afro-trap Nan Gros aquarium dans les vans, Dakar fait plus de biff pendant les vat' J't'ai déjà dit, j'suis le requin dans les vagues, 91 d'THC dans les vapes Sur la route ça fait des transits, négro, j'ai le produit qui t'met dans les vapes Hey, hey So le Black, pour mieux coffrer les sous pendant longtemps, ça tapait les pâtes On avance, ça v-esqui' bâtons dans les pattes, comme un maçon présent sur l'chantier Faut hussle, c'est trop facile d'envier, rap français finit dans l'cendrier Han, Afro S, Corleone Ekip, la cartouche, c'est la dixième Pah Ils rappent comme s'ils commencent la sixième, no cap, monture Cartier sous la visière H24, ça v-esqui' la galère, j'suis avec Chen, on s'balade dans les galeries C'pas le même prix pour tout, ça varie, après, j'envoie l'cash à la laverie Sur mon chemin, jamais croisé le hasard piou, FLRG, c'est le bazar piou Si c'est pour le cash, négro, , j'suis à Dakar, j'fume des zazas J'suis à Paname, j'fume des casa', concu', on les graille comme des lasagnes eh J'mets les sirops dans les maaza Lin, chaque jour, libérez Gaza J'ai mes kits pour la rre-gue, j'm'équipe, C10 vide les clips Pah Chen Zen, Afro, ekip, jamais j'trahirai l'équipe So Flem, bientôt, ça bibi des kits Cash, j'veux voir toute l'équipe, t'es qui ? Envoie des prods, que ça fait des kills pah, sous pills, marche comme avec des béquilles Toute l'année, j'suis sur la , négro, y a pas plus cher que le time, my nigga De ma bouche sort que des facts, hey, dans mon ze-n, y a pas de lines, my nigga Fuck la salle, j'ai le nine, my nigga, fuck les rats comme 6ix9ine, my nigga On est là pour la maille, ça gère les bails, fait partir la frappe et la caille, my nigga So Docteur Teh, y a tout, tu veux la ppe-f', ça coûte cher Chen Zen, Afro S, découpe la prod, laisse v'là d'bouts d'chaires Et-et si j'vise, t'inquiète ça touche, j'viens de D.K, tout se gère han Pour te faire, Afro ou le Chen, que la famille et les sous que j'aime Ekip Pétasse han, Gelato et les cookies Ils tournent en rond comme des toupies Han, sirop rouge, et les blue pills Han R.E.P. Nip, faut les blue bills R.E.P. Nip, faut les blue bills So Chen Zen pour le blueprint, j'ai ma wifey, fuck une groupie Sur mon chemin, jamais croisé le hasard piou, FLRG, c'est le bazar piou Si c'est pour le cash, négro, , j'suis à Dakar, j'fume des zazas J'suis à Paname, j'fume des casa', concu', on les graille comme des lasagnes eh J'mets les sirops dans les maaza Lin, chaque jour, libérez Gaza Sur mon chemin, jamais croisé le hasard piou, FLRG, c'est le bazar piou Si c'est pour le cash, négro, , j'suis à Dakar, j'fume des zazas J'suis à Paname, j'fume des casa', concu', on les graille comme des lasagnes eh J'mets les sirops dans les maaza Lin, chaque jour, libérez Gaza J'ai mes kits, pour la rre-gue j'm'équipe Chen Zen, Afro, Ekip, jamais j'trahirais l'équipe Verre de lin, il est grave opaque Cartouche 10 avec Afro, t'braque Ça fait pas d'zumba, pas d'afro-trap</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Chen Zen kick sur la prod Négro, comme Hwoarang dans Tekken Gaddamn, la victoire est tracée Comme 10 lions face à 100 teckels 667 négro, cataclysme Dans l'Rap Jeu comme 10 séismes On grandit pendant qu'ils vieillissent Vrai négro shit chaque jour pendant qu'ils V.I.ssent Haha, gaddamn Sprite rose dans carafe, négro 2014, sors pas sans para, négro Nique Tony M, j'veux être comme Sankara, négro On leur montre comment faire cette merde Ça gratte des tutos, bitch Quotidiennement def tate, ça s'bute au lean Ça s'bute à la beuh, ça s'bute au shit Future luxure, négro Bientôt drifte dans des Maser' J'achète toutes sortes d'armes, des viseurs Des silencieux négro, et des lasers Jeune dieu noir en élévation LDO, la nouvelle révélation Néo-nègre, fin des temps génération MMS, galactique fédération, gaddamn You might also like Ils sont faux comme les cartes Vendent leur boule comme des chattes Clan d'orques, vous comme des carpes Ça va pop, on chie des sons au C4 Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Reste tranquille, faire 30 piles Plan avec lequel on va les faire 30 piges Vrai, sans slim, nègre au sang d'Chine Mes yeux plissés, cons' la verte tranquille Fraîchement clean, j'arrive sans fille Restant vrai, j'crame qu'tous les négros s'empilent Nègre sensible, rage loin d'ma clique Pourris avec ta clique, bitch suce et reste tranquille Lean dans l'Sprite, mixe le Sprite Shoote la prod en plein dans l'mille, genre strike Kick mi-trill, kick mi-trap Zic qui rend addict, on cuisine du crack On innove, con t'imite Rien qu'ces nègres tombent dans la danse d'Iblis Ton fion s'immole, petit négro suce bites Chill à des années-lumière, on culmine On s'élève bitch, avec mes nègres bitch A bord du Hollandais Volant sur les mers, bitch Sur la route du succès comme Wu-Tang Ils sont pas prêts pour des néo-nègres, bitch Mud, y'en a beaucoup, eh so Zuukou Tu finiras par baiser ta fille comme Oh Dae-su Ligue des Ombres, tu veux faire la course Contre des nègres en éveil, faux négro t'es fou Ils sont faux comme les cartes Vendent leur boule comme des chattes Clan d'orques, vous comme des carpes Ça va pop, on chie des sons au C4 Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Comme hiéroglyphes Langage crypté, négro codifié Fume herbe génétiquement modifiée Néo-pharaon, si j'pars j'veux être momifié On débarque, attendus comme le messie Petit dieu black, j'ai un don comme Messi Eh, même si les diables nous épient On vit inarrêtables, tout est déjà écrit Nique un diable, nique un nègre de maison NRM, la consommation provoque perte de raison Mode zombie, boisson rose dans ma coupe oui Tous mes négros sélèvent, jeunes supra-nègres légion Chill dans le bando, cimetière d'mégots Crack music cuisine, mon négro Slim Chavez, j'flotte dans les airs Vrais négros s'font rares comme l'eau dans l'désert XXX leur crâne XXX Tireur d'élite comme Larry Tous les jours j'surfe sur ma route Kaya life, flow des profondeurs sous-marines On veut l'khaliss et les putes On écrit et cons' des tubes On les graille en 2-2 comme des Tuc Chaque jour on mixe le lean comme dans l'Sud Ils sont faux comme les cartes Vendent leur boule comme des chattes Clan d'orques, vous comme des carpes Ça va pop, on chie des sons au C4 Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud</t>
+          <t>Chen Zen kick sur la prod Négro, comme Hwoarang dans Tekken Gaddamn, la victoire est tracée Comme 10 lions face à 100 teckels 667 négro, cataclysme Dans l'Rap Jeu comme 10 séismes On grandit pendant qu'ils vieillissent Vrai négro shit chaque jour pendant qu'ils V.I.ssent Haha, gaddamn Sprite rose dans carafe, négro 2014, sors pas sans para, négro Nique Tony M, j'veux être comme Sankara, négro On leur montre comment faire cette merde Ça gratte des tutos, bitch Quotidiennement def tate, ça s'bute au lean Ça s'bute à la beuh, ça s'bute au shit Future luxure, négro Bientôt drifte dans des Maser' J'achète toutes sortes d'armes, des viseurs Des silencieux négro, et des lasers Jeune dieu noir en élévation LDO, la nouvelle révélation Néo-nègre, fin des temps génération MMS, galactique fédération, gaddamn Ils sont faux comme les cartes Vendent leur boule comme des chattes Clan d'orques, vous comme des carpes Ça va pop, on chie des sons au C4 Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Reste tranquille, faire 30 piles Plan avec lequel on va les faire 30 piges Vrai, sans slim, nègre au sang d'Chine Mes yeux plissés, cons' la verte tranquille Fraîchement clean, j'arrive sans fille Restant vrai, j'crame qu'tous les négros s'empilent Nègre sensible, rage loin d'ma clique Pourris avec ta clique, bitch suce et reste tranquille Lean dans l'Sprite, mixe le Sprite Shoote la prod en plein dans l'mille, genre strike Kick mi-trill, kick mi-trap Zic qui rend addict, on cuisine du crack On innove, con t'imite Rien qu'ces nègres tombent dans la danse d'Iblis Ton fion s'immole, petit négro suce bites Chill à des années-lumière, on culmine On s'élève bitch, avec mes nègres bitch A bord du Hollandais Volant sur les mers, bitch Sur la route du succès comme Wu-Tang Ils sont pas prêts pour des néo-nègres, bitch Mud, y'en a beaucoup, eh so Zuukou Tu finiras par baiser ta fille comme Oh Dae-su Ligue des Ombres, tu veux faire la course Contre des nègres en éveil, faux négro t'es fou Ils sont faux comme les cartes Vendent leur boule comme des chattes Clan d'orques, vous comme des carpes Ça va pop, on chie des sons au C4 Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Comme hiéroglyphes Langage crypté, négro codifié Fume herbe génétiquement modifiée Néo-pharaon, si j'pars j'veux être momifié On débarque, attendus comme le messie Petit dieu black, j'ai un don comme Messi Eh, même si les diables nous épient On vit inarrêtables, tout est déjà écrit Nique un diable, nique un nègre de maison NRM, la consommation provoque perte de raison Mode zombie, boisson rose dans ma coupe oui Tous mes négros sélèvent, jeunes supra-nègres légion Chill dans le bando, cimetière d'mégots Crack music cuisine, mon négro Slim Chavez, j'flotte dans les airs Vrais négros s'font rares comme l'eau dans l'désert XXX leur crâne XXX Tireur d'élite comme Larry Tous les jours j'surfe sur ma route Kaya life, flow des profondeurs sous-marines On veut l'khaliss et les putes On écrit et cons' des tubes On les graille en 2-2 comme des Tuc Chaque jour on mixe le lean comme dans l'Sud Ils sont faux comme les cartes Vendent leur boule comme des chattes Clan d'orques, vous comme des carpes Ça va pop, on chie des sons au C4 Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud Chaque jour mixe le lean comme dans l'Sud</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Hahaha, pfff Han, ahah Infiltré comme le mossad Corleone, 'Sirus MMS, LDO, BPK, 667, 2014 Haha Psh-psh-psh J'conserve ton crâne dans du formol So à Lestat pour les prods du Mordor J'veux v'là les lingots d'or comme à Fort Knox Future luxure Saly, course de hors-bords So double-6.7 lobby Dans la pyramide comme des momies, négro Crache flammes, magma, vomi Flingue cro-mi, précis à distance comme Kobe On veut des liasses jusqu'au plafond Sprite sombre avec des glaçons Nègres organisés comme des maçons Rap sombre, nos merdes proviennent des bas-fonds MMS, NRM Impose la tyrannie comme Kim Jung Cons' de l'essence et du sizzurp Négro sur les prods j'fais du wing chun You might also like x2 Négro THC dans nos particules J'vois tout flou comme Canibus Les négros tapent la batte sous la canicule Niveau 3, cod'-prometh' J'ai les bails jusqu'à Foshan D'en-haut j'tombe comme comète Dans les sous-terrains comme le Mossad Dans cette pute Comme sous lean après 10 litres Folie russe comme Vladimir Bientôt tueur de prods à 10 000 Discret façon OV, tu meurs L'heure du crime, ça promet du beurre J'veux les fafs de Burberry Négro, sort du Queens comme un OG tueur BPK, double pyramide 667, néo-piraterie So Black Jack, dans l'cup négro Mixe le sky comme en Picardie Épidémie flow kaki Tout prendre comme les Rothschilds De l'autre côté, gros drapeau kaki Mangemort Squad, dans la morgue chill x2 Négro THC dans nos particules J'vois tout flou comme Canibus Les négros tapent la batte sous la canicule Niveau 3 cod-prometh' J'ai les bails jusqu'à Foshan D'en-haut j'tombe comme comète Dans les sous-terrains comme le Mossad Bitchass négro, t'es pris d'tesse-vi J'débarque dans ta ville j'prends les thunes Et je décale au calme, dans l'coffre la rançon Quelques crânes négro, quelques armes, quelques grammes Nègre avec force comme Anelka J'les shoot à l'arrêt, j'mets panenka, gro-né Dans notre domaine, qui nous égale ? J'veux que nos richesses sur des années s'étalent Les sons font trembler leur vitre et leur caisson Les prods viennent des profondeurs, gros des bas-fonds Thermostat 7, j'met du MC en cuisson Entre toi et moi 3e jambe fera la liaison 667, partout on passe c'est la panique Mangemort Squad, la torture pratique OVG, triforce magique Pour la concurrence, futur destin tragique x2 Négro THC dans nos particules J'vois tout flou comme Canibus Les négros tapent la batte sous la canicule Niveau 3 cod-prometh' J'ai les bails jusqu'à Foshan D'en-haut j'tombe comme comète Dans les sous-terrains comme le Mossad Suite à retranscrire...</t>
+          <t>Hahaha, pfff Han, ahah Infiltré comme le mossad Corleone, 'Sirus MMS, LDO, BPK, 667, 2014 Haha Psh-psh-psh J'conserve ton crâne dans du formol So à Lestat pour les prods du Mordor J'veux v'là les lingots d'or comme à Fort Knox Future luxure Saly, course de hors-bords So double-6.7 lobby Dans la pyramide comme des momies, négro Crache flammes, magma, vomi Flingue cro-mi, précis à distance comme Kobe On veut des liasses jusqu'au plafond Sprite sombre avec des glaçons Nègres organisés comme des maçons Rap sombre, nos merdes proviennent des bas-fonds MMS, NRM Impose la tyrannie comme Kim Jung Cons' de l'essence et du sizzurp Négro sur les prods j'fais du wing chun x2 Négro THC dans nos particules J'vois tout flou comme Canibus Les négros tapent la batte sous la canicule Niveau 3, cod'-prometh' J'ai les bails jusqu'à Foshan D'en-haut j'tombe comme comète Dans les sous-terrains comme le Mossad Dans cette pute Comme sous lean après 10 litres Folie russe comme Vladimir Bientôt tueur de prods à 10 000 Discret façon OV, tu meurs L'heure du crime, ça promet du beurre J'veux les fafs de Burberry Négro, sort du Queens comme un OG tueur BPK, double pyramide 667, néo-piraterie So Black Jack, dans l'cup négro Mixe le sky comme en Picardie Épidémie flow kaki Tout prendre comme les Rothschilds De l'autre côté, gros drapeau kaki Mangemort Squad, dans la morgue chill x2 Négro THC dans nos particules J'vois tout flou comme Canibus Les négros tapent la batte sous la canicule Niveau 3 cod-prometh' J'ai les bails jusqu'à Foshan D'en-haut j'tombe comme comète Dans les sous-terrains comme le Mossad Bitchass négro, t'es pris d'tesse-vi J'débarque dans ta ville j'prends les thunes Et je décale au calme, dans l'coffre la rançon Quelques crânes négro, quelques armes, quelques grammes Nègre avec force comme Anelka J'les shoot à l'arrêt, j'mets panenka, gro-né Dans notre domaine, qui nous égale ? J'veux que nos richesses sur des années s'étalent Les sons font trembler leur vitre et leur caisson Les prods viennent des profondeurs, gros des bas-fonds Thermostat 7, j'met du MC en cuisson Entre toi et moi 3e jambe fera la liaison 667, partout on passe c'est la panique Mangemort Squad, la torture pratique OVG, triforce magique Pour la concurrence, futur destin tragique x2 Négro THC dans nos particules J'vois tout flou comme Canibus Les négros tapent la batte sous la canicule Niveau 3 cod-prometh' J'ai les bails jusqu'à Foshan D'en-haut j'tombe comme comète Dans les sous-terrains comme le Mossad Suite à retranscrire...</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>En mission sans piston J'gratte jusqu'à qu'j'chie des biftons Fiston pas sur leur liste, on Prend des risques pour être riches, donc Ça plus mon flow Négro j'suis un cascadeur 19 balais, à l'aise M'en veux pas si j'désengage ta sur Un peu d'drogue pour l'adoucir Un peu d'amné' pour oublier Qu'après l'avoir dégoupillée Dégoûté, j'm'en fous j'ai roupillé Un bâtard sensible Comme mon négro Jorrdee Elizabeth, on vient pour les diams Les rubis et l'or, bitch Avis à tous les bouffons d'moutons Les lions sont de sortie C'est mort G, on va tous les tuer Et faire une orgie En orbite, trop haut Négro pour la plupart J'remets tout à plus tard J'vise toujours la tête ou la lucarne Donc fais gaffe à toi, j'avance à grands pas Ça fera plus mal si tu t'y attends pas Un attentat, j'viens prendre le jeu M'inspirant de Big Meech à Atlanta Sous pilule rouge, débranché, tout l'temps sous herbe Les yeux plissés mais en fait grands ouverts Esprit militaire, on s'prépare grave Car on sait que c'est bientôt fini, frère You might also like En mission sans piston J'gratte jusqu'à qu'j'chie des biftons Fiston pas sur leur liste, on Prend des risques pour être riches, donc Ça plus mon flow Négro j'suis un cascadeur Cascadeur, négro Négro j'suis un cascadeur En mission sans piston On prend des risques pour être riches, donc Ça plus mon flow Bah j'crois qu'j'suis un cascadeur Cascadeur, négro Négro j'suis un cascadeur On prend des risques pour être riches, donc Ça plus mon flow, j'suis un cascadeur</t>
+          <t>En mission sans piston J'gratte jusqu'à qu'j'chie des biftons Fiston pas sur leur liste, on Prend des risques pour être riches, donc Ça plus mon flow Négro j'suis un cascadeur 19 balais, à l'aise M'en veux pas si j'désengage ta sur Un peu d'drogue pour l'adoucir Un peu d'amné' pour oublier Qu'après l'avoir dégoupillée Dégoûté, j'm'en fous j'ai roupillé Un bâtard sensible Comme mon négro Jorrdee Elizabeth, on vient pour les diams Les rubis et l'or, bitch Avis à tous les bouffons d'moutons Les lions sont de sortie C'est mort G, on va tous les tuer Et faire une orgie En orbite, trop haut Négro pour la plupart J'remets tout à plus tard J'vise toujours la tête ou la lucarne Donc fais gaffe à toi, j'avance à grands pas Ça fera plus mal si tu t'y attends pas Un attentat, j'viens prendre le jeu M'inspirant de Big Meech à Atlanta Sous pilule rouge, débranché, tout l'temps sous herbe Les yeux plissés mais en fait grands ouverts Esprit militaire, on s'prépare grave Car on sait que c'est bientôt fini, frère En mission sans piston J'gratte jusqu'à qu'j'chie des biftons Fiston pas sur leur liste, on Prend des risques pour être riches, donc Ça plus mon flow Négro j'suis un cascadeur Cascadeur, négro Négro j'suis un cascadeur En mission sans piston On prend des risques pour être riches, donc Ça plus mon flow Bah j'crois qu'j'suis un cascadeur Cascadeur, négro Négro j'suis un cascadeur On prend des risques pour être riches, donc Ça plus mon flow, j'suis un cascadeur</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait Hey, hey, hey CBD, CBD, CBD 667, CBD, paw C'est pas Universal qui m'paie Nan Dans l'complot du vaccin jusqu'à Bill Gates Lin, j'crois qu'j'ai fumé au moins milles 'teilles Envoie la prod, j'la coupe clean Ça fait des comme à Brooklyn Dans la jungle mais pas d'Mowgli Nan 667 CBD Gelato, pas de CBD J'opère, dans la street pas de CDD Sur les nuages, pas de DVD Ekip, ekip, ekip 667 CBD Gelato, pas de CBD J'opère, dans la street pas de CDD Sur les nuages, pas de DVD You might also like So Dadis Camara, Thomas Sankara J'aime bien quand ça parle en carats Négro, j'm'arrête pas tant qu'j'ai pas cent baraqus Président comme J'arrive Galsén comm</t>
+          <t>Paroles issues d'un extrait Hey, hey, hey CBD, CBD, CBD 667, CBD, paw C'est pas Universal qui m'paie Nan Dans l'complot du vaccin jusqu'à Bill Gates Lin, j'crois qu'j'ai fumé au moins milles 'teilles Envoie la prod, j'la coupe clean Ça fait des comme à Brooklyn Dans la jungle mais pas d'Mowgli Nan 667 CBD Gelato, pas de CBD J'opère, dans la street pas de CDD Sur les nuages, pas de DVD Ekip, ekip, ekip 667 CBD Gelato, pas de CBD J'opère, dans la street pas de CDD Sur les nuages, pas de DVD So Dadis Camara, Thomas Sankara J'aime bien quand ça parle en carats Négro, j'm'arrête pas tant qu'j'ai pas cent baraqus Président comme J'arrive Galsén comm</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO, NRM, 667 Han MMS, LDO 20-20 Menace Fantôme Ekip, ekip, ekip Freeze Raël Ekip, sur la prod', kicke comme Israel, fuck ces nègres comme Israël Chen Laden dans l'complot comme les Ben Laden, Chiraq comme JB Binladen J'les vois p'tits comme si j'étais 100 pieds Là-haut, on veut les VVS sur les dentiers Ice À propos des sommes comme les banquiers, investisseurs, architectes et chefs d chantier Damn J'veux l'biff comme Th Rock Han, 20-20, le rap, c'est satanique comme le rock Cali weed, Promethazine et le fer comme D-Block Europe Han Concurrence j'laisse que des mégots, j'suis là pour les dough, peine de mort pour les pédos Damn J'mixe le lin dans les Faygo, à Dakar, on empile les briques comme des Lego Cash Sur la corniche dans les foreigns Sku, sku, sku Menace Fantôme pour faire saigner tes oreilles, loud pack, négro, j'ai fumé des forêts Pétasse J'fume des Runtz et des Gelati Rital dans l'milieu comme Marco Verratti, gros aqua d'loud dans la Maserati Sku Quoi qu'il arrive, j'prends ma part, Chen Zen aka TVA Faut qu'j'pèse comme un propriétaire de club de Liga BBVA J'ai mes droits, j'ai mes masters Han, j'fume des OG, j'fume des masters Gère le business carré pour qu'on roule tous en Maybach comme des pasteurs Sku J'suis giga, t'es nano, ils peuvent pas m'voir comme si j'ai l'anneau Nan nan Swish, ça rentre sans toucher l'anneau, le lin est rose comme le gelano Ekip J'suis dans l'piège, pas de bistrot Nan, designer avec le cash de Distro' Cash J'ai v'là de rimes comme Larousse Han et j'suis partout comme Arouf Pétasse Devant la cage comme Erling que j'leur mets des soupapes comme Sterling Sku Faut des 4 fois 4 et des berlines, des euros, des dollars et des livres sterlings Han Rap français, sur sa tête, place le réticule Pah-pah So Mac Tyer, j'veux qu'ma bitch aille en SLK chez le pédicure Sku Dans l'complot comme la NBC Comme la NBC, ekip, ekip J'suis dans Futbin, j'fais des SBC, j'arrive Chinois comme la HSBC Quand on rentre, ça sent la loud dans l'lobby So la secte chaque jour, j'serais rien sans l'lobby Freeze Corleone aka The Collector, so Tical Supreme Neck Protector So Sur la prod', j'prends tes chevilles comme Professor ou Bone Collector Mort aux porcs, justice pour Adama, so Nick, pendez-les comme en Alabama Chen Zen, Galsen comme Baaba Maal, que j'leur mets des vitesses comme Adama Bientôt, j'me présente aux municipales, so Lil B le Basedgod Sous potion avec les xans, j'vois flou, j'marche comme un zombie de Days Gone Han, eh 20-20, Menace Fantôme Pétasse, ekip J'veux la Continental et la Phantom, pétasseYou might also like121</t>
+          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO, NRM, 667 Han MMS, LDO 20-20 Menace Fantôme Ekip, ekip, ekip Freeze Raël Ekip, sur la prod', kicke comme Israel, fuck ces nègres comme Israël Chen Laden dans l'complot comme les Ben Laden, Chiraq comme JB Binladen J'les vois p'tits comme si j'étais 100 pieds Là-haut, on veut les VVS sur les dentiers Ice À propos des sommes comme les banquiers, investisseurs, architectes et chefs d chantier Damn J'veux l'biff comme Th Rock Han, 20-20, le rap, c'est satanique comme le rock Cali weed, Promethazine et le fer comme D-Block Europe Han Concurrence j'laisse que des mégots, j'suis là pour les dough, peine de mort pour les pédos Damn J'mixe le lin dans les Faygo, à Dakar, on empile les briques comme des Lego Cash Sur la corniche dans les foreigns Sku, sku, sku Menace Fantôme pour faire saigner tes oreilles, loud pack, négro, j'ai fumé des forêts Pétasse J'fume des Runtz et des Gelati Rital dans l'milieu comme Marco Verratti, gros aqua d'loud dans la Maserati Sku Quoi qu'il arrive, j'prends ma part, Chen Zen aka TVA Faut qu'j'pèse comme un propriétaire de club de Liga BBVA J'ai mes droits, j'ai mes masters Han, j'fume des OG, j'fume des masters Gère le business carré pour qu'on roule tous en Maybach comme des pasteurs Sku J'suis giga, t'es nano, ils peuvent pas m'voir comme si j'ai l'anneau Nan nan Swish, ça rentre sans toucher l'anneau, le lin est rose comme le gelano Ekip J'suis dans l'piège, pas de bistrot Nan, designer avec le cash de Distro' Cash J'ai v'là de rimes comme Larousse Han et j'suis partout comme Arouf Pétasse Devant la cage comme Erling que j'leur mets des soupapes comme Sterling Sku Faut des 4 fois 4 et des berlines, des euros, des dollars et des livres sterlings Han Rap français, sur sa tête, place le réticule Pah-pah So Mac Tyer, j'veux qu'ma bitch aille en SLK chez le pédicure Sku Dans l'complot comme la NBC Comme la NBC, ekip, ekip J'suis dans Futbin, j'fais des SBC, j'arrive Chinois comme la HSBC Quand on rentre, ça sent la loud dans l'lobby So la secte chaque jour, j'serais rien sans l'lobby Freeze Corleone aka The Collector, so Tical Supreme Neck Protector So Sur la prod', j'prends tes chevilles comme Professor ou Bone Collector Mort aux porcs, justice pour Adama, so Nick, pendez-les comme en Alabama Chen Zen, Galsen comme Baaba Maal, que j'leur mets des vitesses comme Adama Bientôt, j'me présente aux municipales, so Lil B le Basedgod Sous potion avec les xans, j'vois flou, j'marche comme un zombie de Days Gone Han, eh 20-20, Menace Fantôme Pétasse, ekip J'veux la Continental et la Phantom, pétasse121</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Le retour du flow-lave, gros naze j'fais trop mal Automatiquement, provoque une douleur des gonades S'applique aux mâles et aux femelles, quand j'kick Je moon walk sur le beat, Off The Wall sur mes semelles Je glisse glisse, mon flow s'écoule, t'écoute et c'est cool Je kick, j'mets des coups, je suis l'enseignement de Ip Man Pour être fort comme Bruce Lee Freeze, le genre de mec qui vient en douce, qui Comme Hitman, tue les beats avec une corde à piano Punchlines au micro négro, je me tape comme XiaoXiao Que des punchs fais gaffe à toi, beaucoup d'flèches dans mon carquois Comme Shot, quand j'trace ma route s'te plait gare-toi L'odeur des feuilles à la vanille avec de la weed Autant d'THC que d'midi-chloriens chez l'enfant d'Tatooine J'suis tatoué et j'assume, j'assure quand je prends Le mic, j'hésite pas et j'm'y suis mis y a 2 ans Donc c'est déjà pas mal, flow pas banal, comme Barack Adama J'ai la dalle d'un Bana-Bana et j'mange des bananes Rappeur fais gaffe à toi si t'es pas sage Car le flow-lave brûle tout c'qui est sur son passage Double-F Gang, on roule nos pét' de M-Jane I2SA, qui peut test ça ? Freezi F bitch, viens que j't'expliqueYou might also like</t>
+          <t>Le retour du flow-lave, gros naze j'fais trop mal Automatiquement, provoque une douleur des gonades S'applique aux mâles et aux femelles, quand j'kick Je moon walk sur le beat, Off The Wall sur mes semelles Je glisse glisse, mon flow s'écoule, t'écoute et c'est cool Je kick, j'mets des coups, je suis l'enseignement de Ip Man Pour être fort comme Bruce Lee Freeze, le genre de mec qui vient en douce, qui Comme Hitman, tue les beats avec une corde à piano Punchlines au micro négro, je me tape comme XiaoXiao Que des punchs fais gaffe à toi, beaucoup d'flèches dans mon carquois Comme Shot, quand j'trace ma route s'te plait gare-toi L'odeur des feuilles à la vanille avec de la weed Autant d'THC que d'midi-chloriens chez l'enfant d'Tatooine J'suis tatoué et j'assume, j'assure quand je prends Le mic, j'hésite pas et j'm'y suis mis y a 2 ans Donc c'est déjà pas mal, flow pas banal, comme Barack Adama J'ai la dalle d'un Bana-Bana et j'mange des bananes Rappeur fais gaffe à toi si t'es pas sage Car le flow-lave brûle tout c'qui est sur son passage Double-F Gang, on roule nos pét' de M-Jane I2SA, qui peut test ça ? Freezi F bitch, viens que j't'explique</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'veux les thunes à Sepp, fils Ils copient tous la secte, fils Trop d'avance donc R.A.F J'fume le caca, j'fume la sep, fils J'arrive lourd comme trois planètes Dans le Xan, négro, j'vois pas net En flow j'ai 4 océans, t'as trois canettes Chen Zen j'arrive bien eupeul, ahah Avec boulé de noirs comme 5 Dieuppeul 24 piges, cerveau d'un vieux peul J'vends ton flow à la brocante, bitch Dans l'complot comme à l'OTAN, bitch F.L.R.G tous les jours, négro J'savais pas qu'dans le jeu y'avait autant d'bitchs Plusieurs types de drogues dans la boîte à outils, négro J'ai vu tes rimes à la boutique, négro Killuminati à la Rutti, négro J'ai la conduite de balle à Couti', négro You might also like J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien</t>
+          <t>J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'veux les thunes à Sepp, fils Ils copient tous la secte, fils Trop d'avance donc R.A.F J'fume le caca, j'fume la sep, fils J'arrive lourd comme trois planètes Dans le Xan, négro, j'vois pas net En flow j'ai 4 océans, t'as trois canettes Chen Zen j'arrive bien eupeul, ahah Avec boulé de noirs comme 5 Dieuppeul 24 piges, cerveau d'un vieux peul J'vends ton flow à la brocante, bitch Dans l'complot comme à l'OTAN, bitch F.L.R.G tous les jours, négro J'savais pas qu'dans le jeu y'avait autant d'bitchs Plusieurs types de drogues dans la boîte à outils, négro J'ai vu tes rimes à la boutique, négro Killuminati à la Rutti, négro J'ai la conduite de balle à Couti', négro J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien J'ai des drogues dans mon sang, j'sais même pas combien Combien, j'sais même pas combien Tu veux un feat ? Regarde sur Twitter c'est à combien Combien, c'est à combien</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Freezi F bitch, viens que j't'explique Pour les mecs qui savent que j'maîtrise les techniques au M.ic Double-F G, à la recherche de la daillance, yeah Inspiré par le végétal vert, connu pour mon flow Lourdes comme des altères, mes phases donc musclé est mon flow J'débarque sur la Terre, répand la terreur sur ma route A la recherche de la daillance, de la bonne verte, les yeux bien rouges Je survole les négros, un rictus sur mes lèvres Parce que j'suis plus jeune mais sur beat j'suis le maître et t'es l'élève J'élève mon level à chaque 16, à chaque freestyle J'écris à l'aide d'un mélange mi-Coca mi-sky Gros s'il faut qu'il y ait une relève en France Considérez-moi comme une révélation, dans l'lot j'suis Özil C'est plausible, j'suis trop peace mais hostile est l'flow d'Freeze Envoie direct tous ces vieux MC's à l'hospice J'resterai debout même sur un pied comme un flamand rose J'arrêterai pas avant d'avoir une Lambo' et une Range Rov' Ok je sais, voilà c'est un peu cliché Mais fuck ça parce que si j'y arrive tu seras miché Négro, du Jack Da' et mes phases passent crème Trop de flow, dans ma tête un lac, j'amène dans l'Rap Game D'la nouveauté, d'la fraîcheur, pas de religion Je pèche mes phases dans mon lac, et ouais négro je n'suis qu'un pêcheur You might also like Beat old school, flow-lave, combinaison gagnante La daillance et moi, une alliance aux phalanges Tu l'sens, tu l'sais, on est mariés comme soleil et palmiers La mort venue du ciel, Freeze un Harrier Avarié par rapport à moi, j'suis frais Incha'God je l'serai plus si j'ai du succès Suspect dans l'Rap Jeu, je l'suis un peu et après Comme Francis Lalanne j'laisserai personne me dire que j'fais d'la merde J'ai lil de Michael Scofield, version oreille Gros c'est avec ça que j'compte me faire de l'oseille Enchaînement de combos sur la prod Tel une fatality, Freeze kick lyrics mortels Effaceur au micro, grands et petits, Haribo En force j'arrive, gros fumeur petit, l'hydro est ma nitro, han Tu peux m'apercevoir au fond d'un bus complètement técla Avec mes gars, ceux qui nous comprennent pas m'font rire comme des blagues Pompes noires, jeans Levi's, j'débarque sûr de moi Pas trop encore dans l'building, j'essaye d'me poser sur le toit Qui plane ? C'est Freeze qui maîtrise la danse de l'air J'suis dans les parages tu l'sais, dans l'air tu sens de l'herbe</t>
+          <t>Freezi F bitch, viens que j't'explique Pour les mecs qui savent que j'maîtrise les techniques au M.ic Double-F G, à la recherche de la daillance, yeah Inspiré par le végétal vert, connu pour mon flow Lourdes comme des altères, mes phases donc musclé est mon flow J'débarque sur la Terre, répand la terreur sur ma route A la recherche de la daillance, de la bonne verte, les yeux bien rouges Je survole les négros, un rictus sur mes lèvres Parce que j'suis plus jeune mais sur beat j'suis le maître et t'es l'élève J'élève mon level à chaque 16, à chaque freestyle J'écris à l'aide d'un mélange mi-Coca mi-sky Gros s'il faut qu'il y ait une relève en France Considérez-moi comme une révélation, dans l'lot j'suis Özil C'est plausible, j'suis trop peace mais hostile est l'flow d'Freeze Envoie direct tous ces vieux MC's à l'hospice J'resterai debout même sur un pied comme un flamand rose J'arrêterai pas avant d'avoir une Lambo' et une Range Rov' Ok je sais, voilà c'est un peu cliché Mais fuck ça parce que si j'y arrive tu seras miché Négro, du Jack Da' et mes phases passent crème Trop de flow, dans ma tête un lac, j'amène dans l'Rap Game D'la nouveauté, d'la fraîcheur, pas de religion Je pèche mes phases dans mon lac, et ouais négro je n'suis qu'un pêcheur Beat old school, flow-lave, combinaison gagnante La daillance et moi, une alliance aux phalanges Tu l'sens, tu l'sais, on est mariés comme soleil et palmiers La mort venue du ciel, Freeze un Harrier Avarié par rapport à moi, j'suis frais Incha'God je l'serai plus si j'ai du succès Suspect dans l'Rap Jeu, je l'suis un peu et après Comme Francis Lalanne j'laisserai personne me dire que j'fais d'la merde J'ai lil de Michael Scofield, version oreille Gros c'est avec ça que j'compte me faire de l'oseille Enchaînement de combos sur la prod Tel une fatality, Freeze kick lyrics mortels Effaceur au micro, grands et petits, Haribo En force j'arrive, gros fumeur petit, l'hydro est ma nitro, han Tu peux m'apercevoir au fond d'un bus complètement técla Avec mes gars, ceux qui nous comprennent pas m'font rire comme des blagues Pompes noires, jeans Levi's, j'débarque sûr de moi Pas trop encore dans l'building, j'essaye d'me poser sur le toit Qui plane ? C'est Freeze qui maîtrise la danse de l'air J'suis dans les parages tu l'sais, dans l'air tu sens de l'herbe</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Sniper, tracking point, posté au sommet du mirador Négro, attaque stratégique, organisée comme clan d'vélociraptors J'débarque dans cette pute comme un sauveur, nique un hipster, nique un poseur Sirop Euphon dans verre doseur comme Adolf posé avec un mauser Nouveau rap mondial, 667, élitistes comme une prépa, négro Dieu tout puissant guide mes pas, négro, élimine putes nègres dès l'départ, négro Gaddamn, négro on connait les combines Défractés comme des zombies, camouflage optique sur les combis Froid comme lAntarctique, bitch, dans l'dojo, chaque jour pratique, bitch Dans la cuisine sous lean comme Radrick, bitch, Chen Zen, j'me sens comme Néo dans Matrix, bitch LAntarctique, bitch, dans l'dojo, chaque jour pratique, bitch Dans la cuisine sous lean comme Radrick, bitch, Chen Zen j'me sens comme Néo dans Matrix, bitch, gaddamn x2 LDO, combinaison kaki J'ai les crocs, négro so Blacky Faut faire khaliss entre nègres Chaque jour comme des Pakis Chen Zen, négro J'me sens comme Luffy, j'ai le haki You might also like Arg-arg-argent noir bitch, pesos maki J'suis dans le vaisseau papy 667, mes VOs arrivent Sans stress pour ter-sau ta vie Pét'-pét'-pét' tendu Tous les matins j'me réveille la tête dans l'cul Lopito, lean, café sec sans sucre Pas l'temps, de l'oseille j'suis à la quête sans plus Négro se demande qui j'suis J'viens de Dakar, moi Ouais ouais chérie, j'suis vilain Est-ce-que j'ai une tête de canard, moi ? Parlons négro, tire sur les beats, canon, négro Eh pute négro, mon clan veut ta chute, négro En vrai dans le rap on les bute, négro Ils le savent tous Ils aiment bien jouer les tass' lourdes Chill avec mes loups solitaires dans la tanière Et tu crise dans ta basse-cours Le rap est brisé comme du verre de glace Négro, à part nous j'suis lassé comme une paire de Vans x2 LDO, combinaison kaki J'ai les crocs, négro so Blacky Faut faire khaliss entre nègres Chaque jour comme des Pakis Chen Zen, négro J'me sens comme Luffy, j'ai le haki1</t>
+          <t>Sniper, tracking point, posté au sommet du mirador Négro, attaque stratégique, organisée comme clan d'vélociraptors J'débarque dans cette pute comme un sauveur, nique un hipster, nique un poseur Sirop Euphon dans verre doseur comme Adolf posé avec un mauser Nouveau rap mondial, 667, élitistes comme une prépa, négro Dieu tout puissant guide mes pas, négro, élimine putes nègres dès l'départ, négro Gaddamn, négro on connait les combines Défractés comme des zombies, camouflage optique sur les combis Froid comme lAntarctique, bitch, dans l'dojo, chaque jour pratique, bitch Dans la cuisine sous lean comme Radrick, bitch, Chen Zen, j'me sens comme Néo dans Matrix, bitch LAntarctique, bitch, dans l'dojo, chaque jour pratique, bitch Dans la cuisine sous lean comme Radrick, bitch, Chen Zen j'me sens comme Néo dans Matrix, bitch, gaddamn x2 LDO, combinaison kaki J'ai les crocs, négro so Blacky Faut faire khaliss entre nègres Chaque jour comme des Pakis Chen Zen, négro J'me sens comme Luffy, j'ai le haki Arg-arg-argent noir bitch, pesos maki J'suis dans le vaisseau papy 667, mes VOs arrivent Sans stress pour ter-sau ta vie Pét'-pét'-pét' tendu Tous les matins j'me réveille la tête dans l'cul Lopito, lean, café sec sans sucre Pas l'temps, de l'oseille j'suis à la quête sans plus Négro se demande qui j'suis J'viens de Dakar, moi Ouais ouais chérie, j'suis vilain Est-ce-que j'ai une tête de canard, moi ? Parlons négro, tire sur les beats, canon, négro Eh pute négro, mon clan veut ta chute, négro En vrai dans le rap on les bute, négro Ils le savent tous Ils aiment bien jouer les tass' lourdes Chill avec mes loups solitaires dans la tanière Et tu crise dans ta basse-cours Le rap est brisé comme du verre de glace Négro, à part nous j'suis lassé comme une paire de Vans x2 LDO, combinaison kaki J'ai les crocs, négro so Blacky Faut faire khaliss entre nègres Chaque jour comme des Pakis Chen Zen, négro J'me sens comme Luffy, j'ai le haki1</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO han, NRM, 667 Freeze Raël, en el ritmo, pateando como Israel, joder a estos cabrones como Israel Chen Laden en la conspiración como los Bin Laden, Chiraq como JB Binladen Los veo pequeños como si tuviera 100 pies de altura, queremos VVS en grillz Sobre sumas como banqueros, inversionistas, arquitectos y capataces Quiero conseguir dinero como The Rock, 20-20, el rap es satánico como el rock Hierba de cali, Prometazina y el hierro como D-Block Europ Contendientes solo djo colillas, estoy aquí por dinero, pena de muerte para pedos Mezclo Lean en Faygos, en Dakar empacamos ladrillos como Legos A lo largo de la costa en extranjeros Sku, sku, sku Menace Fantôme para hacer sangrar tus oídos, paquete fuerte, Cabrón, fumé bosques enteros Fumando Runtz y Gelato Wop en el medio como Marco Verratti, gran hotbox ruidoso en el Maserati Pase lo que pase, tomaré mi parte, Chen Zen alias VAT Necesito flexionar como el dueño de un club de la Liga BBVA Tengo mis derechos, tengo mis maestros, fumadores OG, maestros fumadores Maneje el negocio de manera constante para que todos podamos rodar en Maybachs como pastores Soy giga, eres nano, no pueden verme como si tuviera el anillo Swish, entra, no toca el borde, rosa magro como un Gelano Estoy en la trampa, no hay bistró, Desiigner con dinero en efectivo de Distro Tengo rimas hella como Larousse y estoy en todas partes como Arouf Perra Delante de la jaula como Erling, y los dejo atrás como Sterling Necesito 4x4 y berlinas, euros, dolares y libras esterlinas Rap francés, de cabeza colocando la cruz Saludos Mac Tyer, quiero a mi perra en un SLK cuando vaya a hacerse la pedicura En la conspiración como NBC NBC, ekip, ekip Estoy en Futbin, haciendo SBC, sacando chino' como HSBC Cuando entramos, huele a hierba en el vestíbulo Saludos a la secta todos los días, no sería nada sin el lobby Freeze Corleone, también conocido como El Colector, saludos Tical protector de cuello supremo En el ritmo, tomo tus tobillos como 'Professor' y 'Bone Collector' Muerte para los cerdos, justicia para Adama, saludos Nick, cuélgalos como en Alabama Chen Zen, senegaleses como Baba Maal, superándolos como Adama Pronto, me postularé para alcalde, saludos Lil B Basedgod Sin poción con xans, visión borrosa, estoy caminando como un zombi de Days Gone 20-20, Menace Fantôme Quiero el Continental y el Phantom, perraYou might also like</t>
+          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO han, NRM, 667 Freeze Raël, en el ritmo, pateando como Israel, joder a estos cabrones como Israel Chen Laden en la conspiración como los Bin Laden, Chiraq como JB Binladen Los veo pequeños como si tuviera 100 pies de altura, queremos VVS en grillz Sobre sumas como banqueros, inversionistas, arquitectos y capataces Quiero conseguir dinero como The Rock, 20-20, el rap es satánico como el rock Hierba de cali, Prometazina y el hierro como D-Block Europ Contendientes solo djo colillas, estoy aquí por dinero, pena de muerte para pedos Mezclo Lean en Faygos, en Dakar empacamos ladrillos como Legos A lo largo de la costa en extranjeros Sku, sku, sku Menace Fantôme para hacer sangrar tus oídos, paquete fuerte, Cabrón, fumé bosques enteros Fumando Runtz y Gelato Wop en el medio como Marco Verratti, gran hotbox ruidoso en el Maserati Pase lo que pase, tomaré mi parte, Chen Zen alias VAT Necesito flexionar como el dueño de un club de la Liga BBVA Tengo mis derechos, tengo mis maestros, fumadores OG, maestros fumadores Maneje el negocio de manera constante para que todos podamos rodar en Maybachs como pastores Soy giga, eres nano, no pueden verme como si tuviera el anillo Swish, entra, no toca el borde, rosa magro como un Gelano Estoy en la trampa, no hay bistró, Desiigner con dinero en efectivo de Distro Tengo rimas hella como Larousse y estoy en todas partes como Arouf Perra Delante de la jaula como Erling, y los dejo atrás como Sterling Necesito 4x4 y berlinas, euros, dolares y libras esterlinas Rap francés, de cabeza colocando la cruz Saludos Mac Tyer, quiero a mi perra en un SLK cuando vaya a hacerse la pedicura En la conspiración como NBC NBC, ekip, ekip Estoy en Futbin, haciendo SBC, sacando chino' como HSBC Cuando entramos, huele a hierba en el vestíbulo Saludos a la secta todos los días, no sería nada sin el lobby Freeze Corleone, también conocido como El Colector, saludos Tical protector de cuello supremo En el ritmo, tomo tus tobillos como 'Professor' y 'Bone Collector' Muerte para los cerdos, justicia para Adama, saludos Nick, cuélgalos como en Alabama Chen Zen, senegaleses como Baba Maal, superándolos como Adama Pronto, me postularé para alcalde, saludos Lil B Basedgod Sin poción con xans, visión borrosa, estoy caminando como un zombi de Days Gone 20-20, Menace Fantôme Quiero el Continental y el Phantom, perra</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>mon connectéeYou might also like</t>
+          <t>mon connectée</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Découpe le microphone Et brûle ces MC's tous les jours Le clan est noir La weed est verte, négro la soupe est rouge Fils de con, tu t'poses encore la question La couleur du flow est kaki LDO mon négro on va faire du cash Entre negres tous les jours comme des pakis Def tate pilote la blackmobile Même si y a personne dans l'rétro j'mets des soupapes 667 au dessus d'vous en indé comme Alpha Killuminati comme Tupac Nouveau Rap Mondial, Norsacce Berlusconi Freeze Corleone, Jordy, Lestat Réunion sur le pont principal sans stress Planifie l'attaque depuis l'espace, négro Shout out à la secte Tu nous connait là pour l'cash Seulement pour la famille, fuck le Rap Game On dirait qu'ils sont tous falshs Vous rappez comme des katoys et des bitchs nègres Comme ceux qui ont shooté Malcolm R.E.P. L'A Capone Complote dans l'ombre pendant qu'ils sortent des albums Yeuz plissés comme des Japonais Nique le Dajjâl, nique Baphomet Katana flow, so Afro S Sous lean pilote comme Kimi Räikönnen Corleone, Chen Zen Au-dessus d'toutes ces bitchs nègres Double 6-7 Shout out à la 6-secte You might also like Tous les jours le shit On a rien sorti car trop d'shit J'ai maigri car trop d'shit Pour reprendre il faudrait qu'on fasse trop de chiffres Et on cons' Et on cons', et on cons' Et on cons' Et on cons', et on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Tous les jours le shit, tous les jours je chill Tous les jours je spliff, tous les jours on lean Tous les jours j'la pine, fume ? sous paki Full Maya sur Paris, sur ma tasse givenchy 667 comme des pirates ivrent Dans ma coupe un p'tit pastis Tu est dans le cidre ma douceur provient d'Italie Jordee, Jordee, Jordee Prend moi Franky, comme Gianni Versace Comme un bicraveur de shit Tous les jours le shit On a rien sorti car trop d'shit J'ai maigri car trop d'shit Pour reprendre il faudrait qu'on fasse trop de chiffres Et on cons' Et on cons', et on cons' Et on cons' Et on cons', et on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Norsacce Berlusconi 2014, gros c'est la LDO T'écoute tu sais que je manie le rythme Bitch ass négro, j'manie aussi les mots Dans les bacs, dans les bacs fais pas crari Qu'tu pèse alors qu'tout ça c'est que du cinéma A cause de ces bâtards, j'entends d'plus en plus d'histoires De petits qui pour des thunes finissent mal 667, dites leur à tous qu'on arrive Il est grand temps qu'certains fassent leur valise Sur mon radar t'apparais en rouge vif T'es pas dangereux nan nan, t'es qu'un nom sur ma liste Négro, en vrai t'es qu'une cible Nous nos flows sont rares et nocifs J'découpe la prod' comme dans sale et massif Systématique, gros sale est ma clique 667, 1017 J'vois la concu' composer le 17 J'me balade sur Chelsea Ma bitch anglaise a l'swag à Johnny Depp Ligue des Ombres, gros on nique ta blonde L'ascension sera nègre est discrète Halal est la saucisse Jespère n'pas finir mes jours dans l'ivresse Cons' la verte jusqu'à pas d'heure Nique ta clique en un quart d'heure Gro-né on fera un malheur Rajoute des zéros sur nos salaires J'prends les sous et j'détale On est le clou du spectacle Présent à tous les étages Tous les jours cons' sensi comme du bétail4</t>
+          <t>Découpe le microphone Et brûle ces MC's tous les jours Le clan est noir La weed est verte, négro la soupe est rouge Fils de con, tu t'poses encore la question La couleur du flow est kaki LDO mon négro on va faire du cash Entre negres tous les jours comme des pakis Def tate pilote la blackmobile Même si y a personne dans l'rétro j'mets des soupapes 667 au dessus d'vous en indé comme Alpha Killuminati comme Tupac Nouveau Rap Mondial, Norsacce Berlusconi Freeze Corleone, Jordy, Lestat Réunion sur le pont principal sans stress Planifie l'attaque depuis l'espace, négro Shout out à la secte Tu nous connait là pour l'cash Seulement pour la famille, fuck le Rap Game On dirait qu'ils sont tous falshs Vous rappez comme des katoys et des bitchs nègres Comme ceux qui ont shooté Malcolm R.E.P. L'A Capone Complote dans l'ombre pendant qu'ils sortent des albums Yeuz plissés comme des Japonais Nique le Dajjâl, nique Baphomet Katana flow, so Afro S Sous lean pilote comme Kimi Räikönnen Corleone, Chen Zen Au-dessus d'toutes ces bitchs nègres Double 6-7 Shout out à la 6-secte Tous les jours le shit On a rien sorti car trop d'shit J'ai maigri car trop d'shit Pour reprendre il faudrait qu'on fasse trop de chiffres Et on cons' Et on cons', et on cons' Et on cons' Et on cons', et on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Tous les jours le shit, tous les jours je chill Tous les jours je spliff, tous les jours on lean Tous les jours j'la pine, fume ? sous paki Full Maya sur Paris, sur ma tasse givenchy 667 comme des pirates ivrent Dans ma coupe un p'tit pastis Tu est dans le cidre ma douceur provient d'Italie Jordee, Jordee, Jordee Prend moi Franky, comme Gianni Versace Comme un bicraveur de shit Tous les jours le shit On a rien sorti car trop d'shit J'ai maigri car trop d'shit Pour reprendre il faudrait qu'on fasse trop de chiffres Et on cons' Et on cons', et on cons' Et on cons' Et on cons', et on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Norsacce Berlusconi 2014, gros c'est la LDO T'écoute tu sais que je manie le rythme Bitch ass négro, j'manie aussi les mots Dans les bacs, dans les bacs fais pas crari Qu'tu pèse alors qu'tout ça c'est que du cinéma A cause de ces bâtards, j'entends d'plus en plus d'histoires De petits qui pour des thunes finissent mal 667, dites leur à tous qu'on arrive Il est grand temps qu'certains fassent leur valise Sur mon radar t'apparais en rouge vif T'es pas dangereux nan nan, t'es qu'un nom sur ma liste Négro, en vrai t'es qu'une cible Nous nos flows sont rares et nocifs J'découpe la prod' comme dans sale et massif Systématique, gros sale est ma clique 667, 1017 J'vois la concu' composer le 17 J'me balade sur Chelsea Ma bitch anglaise a l'swag à Johnny Depp Ligue des Ombres, gros on nique ta blonde L'ascension sera nègre est discrète Halal est la saucisse Jespère n'pas finir mes jours dans l'ivresse Cons' la verte jusqu'à pas d'heure Nique ta clique en un quart d'heure Gro-né on fera un malheur Rajoute des zéros sur nos salaires J'prends les sous et j'détale On est le clou du spectacle Présent à tous les étages Tous les jours cons' sensi comme du bétail4</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Han, yeah C'est moi ou ciao, c'est Dan ou l'chaos C'est vers la voute céleste que ma route s'élève Suis mes pas pour que là-haut Là d'où tu vois la ville en riviera N'oublies pas la misère humaine Considérable au sein des ruelles urbaines Ça s'amuse comme ça peu Des adolescents improvisent des rodéos Le passé ressemble au présent, y a comme un écho Des pièces sonnantes, trébuchants, papier, monnaie froissée, crypto, cash maintnait, en aura-t-on jamais assez ? La liste de mes ennemis s'allonge chaque fois que je touche un peu l'hypocrite tapis dans l'ombre Sont trop nombreux les grandes gueules, mâchoire d'acier parle mal et détale, ça éclate dès qu'des micro-ondes tapent du métal Les cartilages tremblent, Les graisses fondent à la simple évocation de mon nom Toutes les fesses rondes abonderont, les mains en l'air s'lèveront de l'intro au départ Mais nous reviendront, Freeze et moi ignorons c'qu'est l'abandon Seize Scénarios du pire devenus concrets Waouh Dany, Kyo, Freeze, tu l'attendais Waouh Billets qui s'empilent en crypto monnaies Waouh, han Ça de ville en ville, laisse le son faire Waouh You might also like Pétasse, c'est moi ou bye Bye, j'vais à Dakar pas à Dubaï Nan On oublie pas d'où on vient donc parle nous maille ou parle nous bails Cash J'sais qu'ces négros regardent mes poches, que Dieu garde mes proches Han Reste attentif, écoute bien les leçons données par les prof' Han Lunettes Cartier mais ça fait longtemps qu'la vision change pas Nan Les années passent vite, négro, mais la mission change pas Nan On a commencé en bas d'l'échelle Ouais, pas d'abandon en cas d'échec Là pour les sous, PayPal, cryptos, cash, virements, carte et chèques Et j'arrive focus comme une Ford Sku, j'suis dans l'studio comme dans une forge Fuck le gouvernement, présidents après présidents Ah-ah Faut qu'j'recompte la liasse, Président après Président J'reste vrai du début à la fin, j'remercie Dieu d'manger à ma faim Envoie chaque prod', ça la flingue Pah, pah Au marché noir, au marché gris, quoi qu'il arrive on entasse les briques Han Corleone, Pope Dany, on résiste comme en Jordanie Scénarios du pire devenus concrets Waouh Dany, Kyo, Freeze, tu l'attendais Waouh Billets qui s'empilent en crypto monnaies Waouh Ça de ville en ville, laisse le son faire Waouh Scénarios du pire Dany, Kyo, Freeze Waouh Billets qui s'empilent en crypto monnaies Waouh Va de ville en ville Waouh</t>
+          <t>Han, yeah C'est moi ou ciao, c'est Dan ou l'chaos C'est vers la voute céleste que ma route s'élève Suis mes pas pour que là-haut Là d'où tu vois la ville en riviera N'oublies pas la misère humaine Considérable au sein des ruelles urbaines Ça s'amuse comme ça peu Des adolescents improvisent des rodéos Le passé ressemble au présent, y a comme un écho Des pièces sonnantes, trébuchants, papier, monnaie froissée, crypto, cash maintnait, en aura-t-on jamais assez ? La liste de mes ennemis s'allonge chaque fois que je touche un peu l'hypocrite tapis dans l'ombre Sont trop nombreux les grandes gueules, mâchoire d'acier parle mal et détale, ça éclate dès qu'des micro-ondes tapent du métal Les cartilages tremblent, Les graisses fondent à la simple évocation de mon nom Toutes les fesses rondes abonderont, les mains en l'air s'lèveront de l'intro au départ Mais nous reviendront, Freeze et moi ignorons c'qu'est l'abandon Seize Scénarios du pire devenus concrets Waouh Dany, Kyo, Freeze, tu l'attendais Waouh Billets qui s'empilent en crypto monnaies Waouh, han Ça de ville en ville, laisse le son faire Waouh Pétasse, c'est moi ou bye Bye, j'vais à Dakar pas à Dubaï Nan On oublie pas d'où on vient donc parle nous maille ou parle nous bails Cash J'sais qu'ces négros regardent mes poches, que Dieu garde mes proches Han Reste attentif, écoute bien les leçons données par les prof' Han Lunettes Cartier mais ça fait longtemps qu'la vision change pas Nan Les années passent vite, négro, mais la mission change pas Nan On a commencé en bas d'l'échelle Ouais, pas d'abandon en cas d'échec Là pour les sous, PayPal, cryptos, cash, virements, carte et chèques Et j'arrive focus comme une Ford Sku, j'suis dans l'studio comme dans une forge Fuck le gouvernement, présidents après présidents Ah-ah Faut qu'j'recompte la liasse, Président après Président J'reste vrai du début à la fin, j'remercie Dieu d'manger à ma faim Envoie chaque prod', ça la flingue Pah, pah Au marché noir, au marché gris, quoi qu'il arrive on entasse les briques Han Corleone, Pope Dany, on résiste comme en Jordanie Scénarios du pire devenus concrets Waouh Dany, Kyo, Freeze, tu l'attendais Waouh Billets qui s'empilent en crypto monnaies Waouh Ça de ville en ville, laisse le son faire Waouh Scénarios du pire Dany, Kyo, Freeze Waouh Billets qui s'empilent en crypto monnaies Waouh Va de ville en ville Waouh</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Toi dans la secte, tu tâches Fufu veut chèque en un clic Fufu t'es fake comme un clip Tout-tout s'répète comme un cycle Gro-né j'ai été coaché par un chiite Pas la même caté' c'est clair Si j'te crois pas c'est qu'c'est l'flair J'suis noir et fier, toi tu claques tout pour t'taper des pairs Depuis qu'j'ai goûté la chair, j'suis entre le J'parie qu'si j't'envoie un piège tu la serre Tellement qu'tu lack tu vas perdre J'viens pour le cheese et les brocolis J'planifie pas pour des gros bolides Toujours chill sauf quand ça pète Quoi qu'il arrive quand shit devant les potos j'nie J'veux débarquer les poches vierges, entrer les poches enceintes So 5.20, FLRG, la plupart sont des tass Y'a des moutons, des serpents, des pingouins Carbo Slim, elles disent tous j'taro clean Mangemort Squad, c'est une charo team Si c'est pas pour l'cash j'dis Allo ? clik' You might also like J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches Chen Zen, Professeur Agrégé J'suis Karim t'es APG, efficace en DC ou AVG Ah-ah, pétasse, j'arrive avec le caca d'chameau, avec la sep 667, LDO, négro j'arrive avec la secte J'te bute avec A7, bientôt comme Adolf avec l'A7 So Roze, j'veux diamant noir avec 57 facettes Cons' cette merde depuis qu'j'écoutais avec cassette En CFA, ton flow vaut comme 57 fois 7 Chen Zen, contrôle orienté, mets des soupapes comme Marco Négro, bientôt vert comme Arcko Pétasse, j'suis dans les trous d'vers comme Darko J'ai l'oeil comme tigre Au-dessus d'leurs gueules comme tigre Rital avec flow fleuve comme Tibre J'me ferai pas avoir par les meufs comme Tigre, ekip J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches Pas la même caté' c'est clair Si j'te crois pas c'est qu'c'est l'flair 667, LDO, négro j'arrive avec la secte Depuis qu'j'ai goûté la chair, j'suis entre le J'parie qu'si j't'envoie un piège tu l'ascère En CFA, ton flow vaut comme 57 fois 7</t>
+          <t>J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Toi dans la secte, tu tâches Fufu veut chèque en un clic Fufu t'es fake comme un clip Tout-tout s'répète comme un cycle Gro-né j'ai été coaché par un chiite Pas la même caté' c'est clair Si j'te crois pas c'est qu'c'est l'flair J'suis noir et fier, toi tu claques tout pour t'taper des pairs Depuis qu'j'ai goûté la chair, j'suis entre le J'parie qu'si j't'envoie un piège tu la serre Tellement qu'tu lack tu vas perdre J'viens pour le cheese et les brocolis J'planifie pas pour des gros bolides Toujours chill sauf quand ça pète Quoi qu'il arrive quand shit devant les potos j'nie J'veux débarquer les poches vierges, entrer les poches enceintes So 5.20, FLRG, la plupart sont des tass Y'a des moutons, des serpents, des pingouins Carbo Slim, elles disent tous j'taro clean Mangemort Squad, c'est une charo team Si c'est pas pour l'cash j'dis Allo ? clik' J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches Chen Zen, Professeur Agrégé J'suis Karim t'es APG, efficace en DC ou AVG Ah-ah, pétasse, j'arrive avec le caca d'chameau, avec la sep 667, LDO, négro j'arrive avec la secte J'te bute avec A7, bientôt comme Adolf avec l'A7 So Roze, j'veux diamant noir avec 57 facettes Cons' cette merde depuis qu'j'écoutais avec cassette En CFA, ton flow vaut comme 57 fois 7 Chen Zen, contrôle orienté, mets des soupapes comme Marco Négro, bientôt vert comme Arcko Pétasse, j'suis dans les trous d'vers comme Darko J'ai l'oeil comme tigre Au-dessus d'leurs gueules comme tigre Rital avec flow fleuve comme Tibre J'me ferai pas avoir par les meufs comme Tigre, ekip J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches J'suis dans la grotte, j'suis sur ta côte J'suis dans la grotte, j'vie sur ta côte J'suis dans la grotte, j'chie sur ta côte Tous dans la grotte et on pisse sur ta côte Mes négros cherchent cash Pétasse, sa schnek crache Tout d'un coup, tout le monde est squad Devant la secte, tu tâches Pas la même caté' c'est clair Si j'te crois pas c'est qu'c'est l'flair 667, LDO, négro j'arrive avec la secte Depuis qu'j'ai goûté la chair, j'suis entre le J'parie qu'si j't'envoie un piège tu l'ascère En CFA, ton flow vaut comme 57 fois 7</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>El Freeze est là, técla comme un pneu sur un clou Hélas les gars, vous êtes tombé sur un four Si vous doutiez de la température des lyrics Un million de degrés Celsius te brûlent si tu m'irrite Flow magmatique, je crache cette merde chaude Les MC's s'arrachent les cheveux jusqu'à en avoir l'air chauve Pendant qu'ils puent la merde, moi je pue la verte Furtif dans le Game, sans déclencher une alerte Je m'infiltre izi, c'est Freezy, j'défie les lois d'la physique Un extraterrestre sur Terre en visite J'suis là pour foutre le bordel, je viens pour rendre les forts faibles Mortel, j'serais recherché par l'36 Quai des Orfèvres S'ils s'occupaient du rap man, si t'ose me dire que j'rappe mal Un raz d'marée d'insultes je te crache comme Cartman A la fin du film de South Park Ma daillance et mon flow me suivent partout là où j'pars Fais comme le Double-F Gang, on roule nos pét' de M-Jane A poils, verte, enroulée d'une feuille est celle que j'aime, mec Mais bref, j'suis un tueur à lunettes, du genre Léon Le Rap dans l'obscurité, j'suis une lumière du genre néon Je sais pas si j'passerai pro parce que j'fais tout en herbe, fils J'suis en avance sur mon temps comme Nicolas Copernic Furtif, j'apparais pas sur l'écran du radar Sur beat j'suis un des petits bâtards les plus durs à battre, yes You might also like Dégueulis lyrical, lyrical dégueulis Dégueulis lyrical, lyrical dégueulis De retour comme si j'avais oublié quelque chose, ça fait Jusqu'à ma mort je suivrai une ligne verte comme John Café Beaucoup d'herbe médicinale dans mon inventaire Je plane et au mic, je largue des bombes incendiaires Du napalm comme encre, flow-lave, écriture brûlante Faya Family gro-né, tu connais déjà l'nom du gang J'suis beau gosse donc les petites cochonnes m'appellent Misteur Freeze Et me demandent si elles peuvent chanter dans mon microphone No problemo, fais-toi plaisir, mais le casse pas Ou tu finis mal comme l'ex du chanteur d'Noir Désir Comme 2-3 menhirs, lourds sont mes textes, j'suis un grizzli Camouflé en Winnie l'Ourson et mec, j'fous la merde Comme un chauffeur de bus qui s'amuserait à drifter Des effets chelous dans mes punchlines, je mets des claques liftées Utilisation de techniques extraterrestres Des trucs sales comme baiser sa go quand elle a ses règles Je rédige au propre des rimes qui manquent d'hygiène J'suis assez chaud je crois petit, appelle-moi antigel En hiver je réchauffe les oreilles, j'suis Pedro Ta place je l'aurai négro, fais gaffe si t'es Torres Des punchlines qui fusent dans mes 16 mesures Une diarrhée de mots, je crache plus, moi j'te gerbe dessus Des punchlines qui fusent dans mes 16 mesures Une diarrhée de mots, je crache plus, moi j'te gerbe dessus, yes Dégueulis lyrical, lyrical dégueulis Dégueulis lyrical, lyrical dégueulis Dégueulis lyrical, lyrical dégueulis Dégueulis lyrical, lyrical dégueulis, han</t>
+          <t>El Freeze est là, técla comme un pneu sur un clou Hélas les gars, vous êtes tombé sur un four Si vous doutiez de la température des lyrics Un million de degrés Celsius te brûlent si tu m'irrite Flow magmatique, je crache cette merde chaude Les MC's s'arrachent les cheveux jusqu'à en avoir l'air chauve Pendant qu'ils puent la merde, moi je pue la verte Furtif dans le Game, sans déclencher une alerte Je m'infiltre izi, c'est Freezy, j'défie les lois d'la physique Un extraterrestre sur Terre en visite J'suis là pour foutre le bordel, je viens pour rendre les forts faibles Mortel, j'serais recherché par l'36 Quai des Orfèvres S'ils s'occupaient du rap man, si t'ose me dire que j'rappe mal Un raz d'marée d'insultes je te crache comme Cartman A la fin du film de South Park Ma daillance et mon flow me suivent partout là où j'pars Fais comme le Double-F Gang, on roule nos pét' de M-Jane A poils, verte, enroulée d'une feuille est celle que j'aime, mec Mais bref, j'suis un tueur à lunettes, du genre Léon Le Rap dans l'obscurité, j'suis une lumière du genre néon Je sais pas si j'passerai pro parce que j'fais tout en herbe, fils J'suis en avance sur mon temps comme Nicolas Copernic Furtif, j'apparais pas sur l'écran du radar Sur beat j'suis un des petits bâtards les plus durs à battre, yes Dégueulis lyrical, lyrical dégueulis Dégueulis lyrical, lyrical dégueulis De retour comme si j'avais oublié quelque chose, ça fait Jusqu'à ma mort je suivrai une ligne verte comme John Café Beaucoup d'herbe médicinale dans mon inventaire Je plane et au mic, je largue des bombes incendiaires Du napalm comme encre, flow-lave, écriture brûlante Faya Family gro-né, tu connais déjà l'nom du gang J'suis beau gosse donc les petites cochonnes m'appellent Misteur Freeze Et me demandent si elles peuvent chanter dans mon microphone No problemo, fais-toi plaisir, mais le casse pas Ou tu finis mal comme l'ex du chanteur d'Noir Désir Comme 2-3 menhirs, lourds sont mes textes, j'suis un grizzli Camouflé en Winnie l'Ourson et mec, j'fous la merde Comme un chauffeur de bus qui s'amuserait à drifter Des effets chelous dans mes punchlines, je mets des claques liftées Utilisation de techniques extraterrestres Des trucs sales comme baiser sa go quand elle a ses règles Je rédige au propre des rimes qui manquent d'hygiène J'suis assez chaud je crois petit, appelle-moi antigel En hiver je réchauffe les oreilles, j'suis Pedro Ta place je l'aurai négro, fais gaffe si t'es Torres Des punchlines qui fusent dans mes 16 mesures Une diarrhée de mots, je crache plus, moi j'te gerbe dessus Des punchlines qui fusent dans mes 16 mesures Une diarrhée de mots, je crache plus, moi j'te gerbe dessus, yes Dégueulis lyrical, lyrical dégueulis Dégueulis lyrical, lyrical dégueulis Dégueulis lyrical, lyrical dégueulis Dégueulis lyrical, lyrical dégueulis, han</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Je sais qu'tu fumes pas d'herbe, je l'sais très bien ! Mais j'vais t'faire planer aujourd'hui. Parce que c'est vendredi ! Que de toute façon t'as plus d'job ! Et que t'as rien à foutre ! Yeah, han À la recherche de la daillance, ouais Motherfucker Double-F G Freezi F, bitch Yeah C'est vendredi, tu m'sens petit, de l'herbe dans l'air me semble-t-il J'suis faya, explosé comme courir sur un champ de mines Et quand je chill, avec ce genre de spliff, roulé avec ce genre de weed Tu peux m'appeler que quand j'redescends car là où j'suis Y a pas d'réseau, dans mon vaisseau, j'allume des bédos J'fais des cercles avec la fumée, négro Cette skunk m'a mis une putain de gifle cosmique Maintenant, même un film d'horreur passe pour un film comique Han, gros spliff d'hydroponique ou de chronic Au bled, les packs de 1000 francs se bicravent sous forme conique J'fume jusqu'à c'que j'hallucine, dans ma tête les idées sagglutinent J'attrape un Bic, je lance un beat et là, je balbutie Les quelques mots qu'j'ai écris, ou que je vais écrire Avec le temps, j'vois qu'la feuille se remplit et qu'le texte s'étire Freezi F bitch, un mec métissé métisse Si j'abuse, j'vais badder, ça va être ugly comme Betty Donc j'vais me calmer, le temps que j'redescende Négro, après mon passage, il reste que des cendres Mon vaisseau fonctionne à l'herbe, t'inquiète, j'ai plein d'essence J'désenclenche l'autopilot' et j'amorce ma descente, han Comme Peter Parker, négro, j'aime Mary Jane Mon amour pour elle est réel, ouais, comme Kery James Appelle-moi Smokey, j'fume la verte qui met KO, qui Laisse des séquelles dès les premiers rounds un peu comme Rocky You might also like Motherfucker, yeah C'est vendredi Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, négro Han, Freezi F, bitch Viens que j't'explique Dieu merci, c'est vendredi, goddamn Yeah, han</t>
+          <t>Je sais qu'tu fumes pas d'herbe, je l'sais très bien ! Mais j'vais t'faire planer aujourd'hui. Parce que c'est vendredi ! Que de toute façon t'as plus d'job ! Et que t'as rien à foutre ! Yeah, han À la recherche de la daillance, ouais Motherfucker Double-F G Freezi F, bitch Yeah C'est vendredi, tu m'sens petit, de l'herbe dans l'air me semble-t-il J'suis faya, explosé comme courir sur un champ de mines Et quand je chill, avec ce genre de spliff, roulé avec ce genre de weed Tu peux m'appeler que quand j'redescends car là où j'suis Y a pas d'réseau, dans mon vaisseau, j'allume des bédos J'fais des cercles avec la fumée, négro Cette skunk m'a mis une putain de gifle cosmique Maintenant, même un film d'horreur passe pour un film comique Han, gros spliff d'hydroponique ou de chronic Au bled, les packs de 1000 francs se bicravent sous forme conique J'fume jusqu'à c'que j'hallucine, dans ma tête les idées sagglutinent J'attrape un Bic, je lance un beat et là, je balbutie Les quelques mots qu'j'ai écris, ou que je vais écrire Avec le temps, j'vois qu'la feuille se remplit et qu'le texte s'étire Freezi F bitch, un mec métissé métisse Si j'abuse, j'vais badder, ça va être ugly comme Betty Donc j'vais me calmer, le temps que j'redescende Négro, après mon passage, il reste que des cendres Mon vaisseau fonctionne à l'herbe, t'inquiète, j'ai plein d'essence J'désenclenche l'autopilot' et j'amorce ma descente, han Comme Peter Parker, négro, j'aime Mary Jane Mon amour pour elle est réel, ouais, comme Kery James Appelle-moi Smokey, j'fume la verte qui met KO, qui Laisse des séquelles dès les premiers rounds un peu comme Rocky Motherfucker, yeah C'est vendredi Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, négro Han, Freezi F, bitch Viens que j't'explique Dieu merci, c'est vendredi, goddamn Yeah, han</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait , toi, tu fumes sur mon teh J'place mon argent sur du long-terme Cash Pétasse, c'est du lin, pas du Dom Pér' Lin, lin J'attrape la prod', j'lui dis Je suis ton père , toi, tu fumes sur mon teh J'place mon argent sur du long-terme Pétasse, c'est du lin, pas du Dom Pér' J'attrape la prod', j'lui dis Je suis ton père Dakar Blood, Badara disciple, Cheikh Ahmadou Bamba disciple Les vrais négros ne meurent pas, rien qu'on s'multiplie À Dakar, les armes, les millions s'multiplient J'les fouette facile comme si j'm'entraîne dans le sable Ha Avant d'sortir, j'fume un teh dans le SAS Tous les jours faut qu'j'sécurise c'qu'y a dans le sac Mon négro j'ai des techniques d'enlèvement de FARC Chen Zen, gros DPS, Chiraq comme PGF, transfère l'argent comme PCS Cons' l'essence comme TTS, que j'roule comme BPS Que j'leur montre la route comme GPS Dans la station comme dans Dead Space Là pour les PayPal, les virements, les cryptos et les espècesYou might also like</t>
+          <t>Paroles issues d'un extrait , toi, tu fumes sur mon teh J'place mon argent sur du long-terme Cash Pétasse, c'est du lin, pas du Dom Pér' Lin, lin J'attrape la prod', j'lui dis Je suis ton père , toi, tu fumes sur mon teh J'place mon argent sur du long-terme Pétasse, c'est du lin, pas du Dom Pér' J'attrape la prod', j'lui dis Je suis ton père Dakar Blood, Badara disciple, Cheikh Ahmadou Bamba disciple Les vrais négros ne meurent pas, rien qu'on s'multiplie À Dakar, les armes, les millions s'multiplient J'les fouette facile comme si j'm'entraîne dans le sable Ha Avant d'sortir, j'fume un teh dans le SAS Tous les jours faut qu'j'sécurise c'qu'y a dans le sac Mon négro j'ai des techniques d'enlèvement de FARC Chen Zen, gros DPS, Chiraq comme PGF, transfère l'argent comme PCS Cons' l'essence comme TTS, que j'roule comme BPS Que j'leur montre la route comme GPS Dans la station comme dans Dead Space Là pour les PayPal, les virements, les cryptos et les espèces</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Ha ha YeahDoubleFG Appelle moi Chen Zen, LT RT Double67 famille Ha ha Soldat faya, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage Pyramide inversée, trèfle à 4 feuilles Jsuis en croisière interstellaire, négro tes en tracteur Sous la pleine lune jme transforme transforme Négro on complote dans lombre avec mes Mangemorts On va lfaire dune manièr inédite, janalyse les signs Jme sens comme Néo, négro jvois les hiéroglyphes qui défilent Noir comme un pharaon, négro comme un esclave On joue pas dans la même cour, négro j'ai trop sauté d'classes Jpoursuis ma quête, zigzag entre les serpents Jai Vision perçante, troisième il et sixième sens Au dssus dla masse, on sélève, des ténèbres, on émerge On sen bat les couilles dêtre célèbre, évite de nous comparer à ces merdes 6.6.7, mafia, fleuriste furtif gang vert En attendant daller en , Han jveux quon menterre à coté de mes ancêtres Yeah You might also like Faya family, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage J'manie ma rime comme si, jécrivais en Cadillac Jglisse comme Hockey, et vous comme des bitchs au patinage Faya family, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage J'manie ma rime comme si, jécrivais en Cadillac Jglisse comme Hockey, et vous comme des bitchs au patinage Faya family, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage J'manie ma rime comme si, jécrivais en Cadillac Jglisse comme Hockey, et vous comme des bitchs au patinage Faya family, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage J'manie ma rime comme si, jécrivais en Cadillac Jglisse comme Hockey, et vous comme des bitchs au patinage Prod</t>
+          <t>Ha ha YeahDoubleFG Appelle moi Chen Zen, LT RT Double67 famille Ha ha Soldat faya, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage Pyramide inversée, trèfle à 4 feuilles Jsuis en croisière interstellaire, négro tes en tracteur Sous la pleine lune jme transforme transforme Négro on complote dans lombre avec mes Mangemorts On va lfaire dune manièr inédite, janalyse les signs Jme sens comme Néo, négro jvois les hiéroglyphes qui défilent Noir comme un pharaon, négro comme un esclave On joue pas dans la même cour, négro j'ai trop sauté d'classes Jpoursuis ma quête, zigzag entre les serpents Jai Vision perçante, troisième il et sixième sens Au dssus dla masse, on sélève, des ténèbres, on émerge On sen bat les couilles dêtre célèbre, évite de nous comparer à ces merdes 6.6.7, mafia, fleuriste furtif gang vert En attendant daller en , Han jveux quon menterre à coté de mes ancêtres Yeah Faya family, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage J'manie ma rime comme si, jécrivais en Cadillac Jglisse comme Hockey, et vous comme des bitchs au patinage Faya family, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage J'manie ma rime comme si, jécrivais en Cadillac Jglisse comme Hockey, et vous comme des bitchs au patinage Faya family, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage J'manie ma rime comme si, jécrivais en Cadillac Jglisse comme Hockey, et vous comme des bitchs au patinage Faya family, double67 mafia Dans cette merde pour le khaliss, vrai négro shit pas dmaquillage J'manie ma rime comme si, jécrivais en Cadillac Jglisse comme Hockey, et vous comme des bitchs au patinage Prod</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>So le Flem J'suis toxique et psychiquement saoul Obéissance, ça vient d'en dessous Han Écoute les ordres ça vient d'au-dessus Quoi qu'il arrive faut faire des sous On a passé l'âge de faire des foots Ah-ah J'fais des yards, toi tu fais des foots Allô ? J'ai les potions, j'ai les soupes Lin Faut assez d'sous pour blinder des soutes Han Freeze, Many Jack, bad Bur', Shell, tout se passe comme prévu, so Bourimech On veut l'monopole, so Gucci Mane HanJ'arrive rital raciste comme Udinese Pah, pah Coffré, trois quarts, bon ice Classe, cognac sans ice Brillant même sans ice C'est plus des traîtres que 100 Eyes Rap autodidacte Quoi ? Le but c'est d's'rapprocher d'Dieu Finir pieux comme Ahmed Deedat Pour l'nstru', amène les body bags Pow, pow, pow, pow Yeuz rouges mal-fonce négro comme si j'ai fumé dix battes You might also like Reebok Classic ficelées Ziak, Mali drapeau hissé Ziak Air Max toutes noires vissées Ekip, Galsen drapeau hissé Ekip D1, D3, c'est dur, j'perds un copain pour la queuture Dans l'jeu v'là de putes Jack Many, Freeze, ça envoie v'là de pure Ekip Reebok Classic ficelées Ziak, Mali drapeau hissé Ziak Air Max toutes noires vissées Ekip, Galsen drapeau hissé Ekip D1, D3, c'est dur, j'perds un copain pour la queuture Dans l'jeu v'là de putes Jack Many, Freeze, ça envoie v'là de pure Ekip 667, LMC, attentat comme FLNC Dans vos écrans comme RMC Han Ta bitch me regarde, elle-même elle sait Fuck les SS, code 1-4-7, , 667, LMC Check ta , elle-même elle sait O.G. négro Ekip, ça c'est pour tous les quartiers Ekip Yeuz bridés sous les Cartier Han J'ai fait un rêve où j'avais toutes les Cartier Cash Tous les gueush ont leur dose Les Five-O dans la zone, les flocos qui nous foxent qui vous crossent Les qui vous Pantin, nigraille Ekip Les G's, les bails Pantin, nigraille Rafale, mitraille 667, Masia, BMF, mafia 9-1, G2, 2-2-3, DGC Reebok Classic ficelées Ziak, Mali drapeau hissé Ziak Air Max toutes noires vissées Ekip, Galsen drapeau hissé Ekip D1, D3, c'est dur, j'perds un copain pour la queuture Dans l'jeu v'là de putes Jack Many, Freeze, ça envoie v'là de pure Ekip Reebok Classic ficelées Ziak, Mali drapeau hissé Ziak Air Max toutes noires vissées Ekip, Galsen drapeau hissé Ekip D1, D3, c'est dur, j'perds un copain pour la queuture Dans l'jeu v'là de putes Jack Many, Freeze, ça envoie v'là de pure Ekip Ziak, ziak, ekip, ekip Hein, hein Pow, pow, pow, pow Pétasse, ekip Ziak, ziak, ekip, ekip Hein Ziak, ziak, ziak, ziak, ziak</t>
+          <t>So le Flem J'suis toxique et psychiquement saoul Obéissance, ça vient d'en dessous Han Écoute les ordres ça vient d'au-dessus Quoi qu'il arrive faut faire des sous On a passé l'âge de faire des foots Ah-ah J'fais des yards, toi tu fais des foots Allô ? J'ai les potions, j'ai les soupes Lin Faut assez d'sous pour blinder des soutes Han Freeze, Many Jack, bad Bur', Shell, tout se passe comme prévu, so Bourimech On veut l'monopole, so Gucci Mane HanJ'arrive rital raciste comme Udinese Pah, pah Coffré, trois quarts, bon ice Classe, cognac sans ice Brillant même sans ice C'est plus des traîtres que 100 Eyes Rap autodidacte Quoi ? Le but c'est d's'rapprocher d'Dieu Finir pieux comme Ahmed Deedat Pour l'nstru', amène les body bags Pow, pow, pow, pow Yeuz rouges mal-fonce négro comme si j'ai fumé dix battes Reebok Classic ficelées Ziak, Mali drapeau hissé Ziak Air Max toutes noires vissées Ekip, Galsen drapeau hissé Ekip D1, D3, c'est dur, j'perds un copain pour la queuture Dans l'jeu v'là de putes Jack Many, Freeze, ça envoie v'là de pure Ekip Reebok Classic ficelées Ziak, Mali drapeau hissé Ziak Air Max toutes noires vissées Ekip, Galsen drapeau hissé Ekip D1, D3, c'est dur, j'perds un copain pour la queuture Dans l'jeu v'là de putes Jack Many, Freeze, ça envoie v'là de pure Ekip 667, LMC, attentat comme FLNC Dans vos écrans comme RMC Han Ta bitch me regarde, elle-même elle sait Fuck les SS, code 1-4-7, , 667, LMC Check ta , elle-même elle sait O.G. négro Ekip, ça c'est pour tous les quartiers Ekip Yeuz bridés sous les Cartier Han J'ai fait un rêve où j'avais toutes les Cartier Cash Tous les gueush ont leur dose Les Five-O dans la zone, les flocos qui nous foxent qui vous crossent Les qui vous Pantin, nigraille Ekip Les G's, les bails Pantin, nigraille Rafale, mitraille 667, Masia, BMF, mafia 9-1, G2, 2-2-3, DGC Reebok Classic ficelées Ziak, Mali drapeau hissé Ziak Air Max toutes noires vissées Ekip, Galsen drapeau hissé Ekip D1, D3, c'est dur, j'perds un copain pour la queuture Dans l'jeu v'là de putes Jack Many, Freeze, ça envoie v'là de pure Ekip Reebok Classic ficelées Ziak, Mali drapeau hissé Ziak Air Max toutes noires vissées Ekip, Galsen drapeau hissé Ekip D1, D3, c'est dur, j'perds un copain pour la queuture Dans l'jeu v'là de putes Jack Many, Freeze, ça envoie v'là de pure Ekip Ziak, ziak, ekip, ekip Hein, hein Pow, pow, pow, pow Pétasse, ekip Ziak, ziak, ekip, ekip Hein Ziak, ziak, ziak, ziak, ziak</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>So le Flem Ekip, ekip, ekip, ekip MaLaGaNgx et six-six-seven, pétasse MMS, LDO, NRM, baw 6.6.7, baw Baw, ekip, hey, hey, hey Baw, skrt, la MaLa est GaNgx, ekip, ekip, ekip Les bonbonnes sont remplies de cocaïne baw, flexin' Dakatine en guise de protéine wah, banks Tu connais, chez nous, que la 0.9 hein hein Si je sors le fer, c'est pas pour les meufs hein, hmmm Zéro bluff, je dégaine, pousse-toi, grr, paw J'ai pas l'temps d'ken mais tu peux m'lehess Au pire des cas, j'me casse pendant qu'tu n3as tu n3as Té-ma la kichta hey, té-ma la taille d'la kichta hey hey Té-ma la kichta hey, té-ma la taille d'la kichta hey hey 20-20, Drill 4 ekip, ils sont dépassés comme des Dreamcast pétasse Négro, tu rappes comme un 2004, avant 30 ans, faut qu'j'dépasse les 2000 K cash Moncler Moncler allemand allemand, mentalité allemande allemande Dans les pockets, j'ai la kichta, le lin, les antidépresseurs et les calmants lin J'ai v'là en réflexe comme Alisson, négro, j'suis fonce-dé dans l'vaisseau comme Harrison Carré New York comme le Madison, à Dakar sur la corniche comme le Radisson Versace pour les sandales, fuck ces négros, c'est des snitchs, c'est des Randall snitchs En CFA, leur flow fait 100 balles, rien que j'les crosse, j'les mets dans la sauce sans balle You might also like Hey, nouvelles Loubou', tu peux peek a boo waa Aperçois qu'il y a des pics au bout waw, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han baw Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS, concurrence PLS BSB, 6.6.7, Black Mafia comme BMF piew Négro, j'arrive Londres comme DigDat, e-ekip Pop des pills comme des Tic Tac hein, on les casse en quatre comme des Kit Kat hey, hey, hey Les bonbonnes sont remplies de cocaïne baw, flexin' Dakatine en guise de protéine wah, banks Tu connais, chez nous, que la 0.9 hein hein Si je sors le fer, c'est pas pour les meufs hein Zéro bluff, je dégaine, pousse-toi, grr, paw mmh J'ai pas l'temps d'ken mais tu peux m'lehess Au pire des cas, j'me casse pendant qu'tu n3as tu n3as Té-ma la kichta hey, té-ma la taille d'la kichta hey, hey Té-ma la kichta hey, té-ma la taille d'la kichta hey, hey On n'veut qu'accumuler du mauve mauve et on est prêts à finir dans la presse hey Ces bitches ont kiffé nos moves moves, c'est réciproque, gare à tes jolies fesses hey Sexy sexy, wah wah, monte dans la gova, roule un gras et on parle Prends ton kilo et tes grammes, on part, si tu veux m'couiller, on va t'grr, paw Prométhazine avec la codéine lin, lin, lin Dieu et l'fer, négro, pas d'protéines paw Lunettes Cartier comme Tee Grizzley han J'arrive lourd comme dix grizzlis, il m'faut un salaire comme si j'joue chez les Grizzlies swish J'bois le poison, j'bois le venin lin, lin Vision trouble mais j'vois le chemin lin, lin, lin, lin Tire une taff de mon teh, tu perds tes neurones Chen Zen, Gazo, tu sais qu'on est là pour les euros, pétasse pétasse, pétasse Hey, nouvelles Loubou', tu peux peek a boo wah Aperçois qu'il y a des pics au bout ho, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS sku sku, concurrence PLS BSB squa, 6.6.7, Black Mafia comme BMF squa Négro, j'arrive Londres comme DigDat, ekip ekip Pop des pills comme des Tic Tac han, on les casse en quatre comme des Kit Kat paw J'ai pas l'temps d'ken mais tu peux m'lehess, mmh Au pire des cas, j'me casse pendant qu'tu n3as Té-ma la kichta, té-ma la taille d'la kichta Té-ma la kichta, té-ma la taille d'la kichta Hey Je suis en train de forer fr 4 en ce moment parce que j'aime forer des cadavres jusqu'à la tombe et je suis courageux de les mettre dans leur tombe. Niggas changeant le flux, tu es trop bas sur les notes, tu es trop lent, je vais faire exploser cette merde quand je suis en feu, j'ai un clone qui peut m'aider, je vais percer fr 4 maintenant parce que j'aime percer des cadavres au tombe et je suis courageux de les mettre dans leur tombe Hey, nouvelles Loubou', tu peux peek a boo wah Aperçois qu'il y a des pics au bout ho, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS sku sku, concurrence PLS BSB squa, 6.6.7, Black Mafia comme BMF squa Négro, j'arrive Londres comme DigDat, ekip ekip Pop des pills comme des Tic Tac han, on les casse en quatre comme des Kit Kat paw J'ai pas l'temps d'ken mais tu peux m'lehess, mmh Au pire des cas, j'me casse pendant qu'tu n3as Té-ma la kichta, té-ma la taille d'la kichta Té-ma la kichta, té-ma la taille d'la kichta Hey, hey, hey, hey, hey...</t>
+          <t>So le Flem Ekip, ekip, ekip, ekip MaLaGaNgx et six-six-seven, pétasse MMS, LDO, NRM, baw 6.6.7, baw Baw, ekip, hey, hey, hey Baw, skrt, la MaLa est GaNgx, ekip, ekip, ekip Les bonbonnes sont remplies de cocaïne baw, flexin' Dakatine en guise de protéine wah, banks Tu connais, chez nous, que la 0.9 hein hein Si je sors le fer, c'est pas pour les meufs hein, hmmm Zéro bluff, je dégaine, pousse-toi, grr, paw J'ai pas l'temps d'ken mais tu peux m'lehess Au pire des cas, j'me casse pendant qu'tu n3as tu n3as Té-ma la kichta hey, té-ma la taille d'la kichta hey hey Té-ma la kichta hey, té-ma la taille d'la kichta hey hey 20-20, Drill 4 ekip, ils sont dépassés comme des Dreamcast pétasse Négro, tu rappes comme un 2004, avant 30 ans, faut qu'j'dépasse les 2000 K cash Moncler Moncler allemand allemand, mentalité allemande allemande Dans les pockets, j'ai la kichta, le lin, les antidépresseurs et les calmants lin J'ai v'là en réflexe comme Alisson, négro, j'suis fonce-dé dans l'vaisseau comme Harrison Carré New York comme le Madison, à Dakar sur la corniche comme le Radisson Versace pour les sandales, fuck ces négros, c'est des snitchs, c'est des Randall snitchs En CFA, leur flow fait 100 balles, rien que j'les crosse, j'les mets dans la sauce sans balle Hey, nouvelles Loubou', tu peux peek a boo waa Aperçois qu'il y a des pics au bout waw, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han baw Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS, concurrence PLS BSB, 6.6.7, Black Mafia comme BMF piew Négro, j'arrive Londres comme DigDat, e-ekip Pop des pills comme des Tic Tac hein, on les casse en quatre comme des Kit Kat hey, hey, hey Les bonbonnes sont remplies de cocaïne baw, flexin' Dakatine en guise de protéine wah, banks Tu connais, chez nous, que la 0.9 hein hein Si je sors le fer, c'est pas pour les meufs hein Zéro bluff, je dégaine, pousse-toi, grr, paw mmh J'ai pas l'temps d'ken mais tu peux m'lehess Au pire des cas, j'me casse pendant qu'tu n3as tu n3as Té-ma la kichta hey, té-ma la taille d'la kichta hey, hey Té-ma la kichta hey, té-ma la taille d'la kichta hey, hey On n'veut qu'accumuler du mauve mauve et on est prêts à finir dans la presse hey Ces bitches ont kiffé nos moves moves, c'est réciproque, gare à tes jolies fesses hey Sexy sexy, wah wah, monte dans la gova, roule un gras et on parle Prends ton kilo et tes grammes, on part, si tu veux m'couiller, on va t'grr, paw Prométhazine avec la codéine lin, lin, lin Dieu et l'fer, négro, pas d'protéines paw Lunettes Cartier comme Tee Grizzley han J'arrive lourd comme dix grizzlis, il m'faut un salaire comme si j'joue chez les Grizzlies swish J'bois le poison, j'bois le venin lin, lin Vision trouble mais j'vois le chemin lin, lin, lin, lin Tire une taff de mon teh, tu perds tes neurones Chen Zen, Gazo, tu sais qu'on est là pour les euros, pétasse pétasse, pétasse Hey, nouvelles Loubou', tu peux peek a boo wah Aperçois qu'il y a des pics au bout ho, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS sku sku, concurrence PLS BSB squa, 6.6.7, Black Mafia comme BMF squa Négro, j'arrive Londres comme DigDat, ekip ekip Pop des pills comme des Tic Tac han, on les casse en quatre comme des Kit Kat paw J'ai pas l'temps d'ken mais tu peux m'lehess, mmh Au pire des cas, j'me casse pendant qu'tu n3as Té-ma la kichta, té-ma la taille d'la kichta Té-ma la kichta, té-ma la taille d'la kichta Hey Je suis en train de forer fr 4 en ce moment parce que j'aime forer des cadavres jusqu'à la tombe et je suis courageux de les mettre dans leur tombe. Niggas changeant le flux, tu es trop bas sur les notes, tu es trop lent, je vais faire exploser cette merde quand je suis en feu, j'ai un clone qui peut m'aider, je vais percer fr 4 maintenant parce que j'aime percer des cadavres au tombe et je suis courageux de les mettre dans leur tombe Hey, nouvelles Loubou', tu peux peek a boo wah Aperçois qu'il y a des pics au bout ho, demi-tour, slide slide Nouvelles Loubou', tu peux peek a boo hey, aperçois qu'il y a des pics au bout han Demi-tour, slide slide, Drill FR 4, on les pique au cou Mercedes CLS sku sku, concurrence PLS BSB squa, 6.6.7, Black Mafia comme BMF squa Négro, j'arrive Londres comme DigDat, ekip ekip Pop des pills comme des Tic Tac han, on les casse en quatre comme des Kit Kat paw J'ai pas l'temps d'ken mais tu peux m'lehess, mmh Au pire des cas, j'me casse pendant qu'tu n3as Té-ma la kichta, té-ma la taille d'la kichta Té-ma la kichta, té-ma la taille d'la kichta Hey, hey, hey, hey, hey...</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Yeah, han À la recherche de la daillance J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp Freezi F, bitch, j'ai plus 17 piges J'suis aussi chouette que Hedwige, j'suis aussi puissante qu'une R8 Au mic, j'suis chaud, quand j'kicke, moi, j'essaie d'te faire cuire MC arrête de jouer les durs avec ton flow en terre cuite Appelle-moi El Freeze, j'crosse des MC's Comme Iverson à l'époque où il jouait à Philadelphie Ou comme Steve Nash à Phoenix, qui fait des passes assassines Moi, c'est au mic qu'j'assassine, j'suis un tueur comme le TX J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp You might also like Et j'écris juste histoire d'faire kiffer un peu les gens En mode amateur dans l'game mais j'veux finir en mode légende Quand j'kicke, j'suis incandescent, quand j'aurai fini, y aura qu'des cendres Crains-moi si t'es au dessus d'moi car j'risque juste de te faire descendre Yeah, j'me masturbe l'esprit, après, au mic', je crache des rimes Face à moi, MC, t'es petit comme une bactérie Quand j'rappe, j'fais mal comme se faire tacler par Terry J'lâche quelques rimes, et tu t'rends compte qu'en fait, au mic', t'es pas terrible Mothahfuckah, dangereux sont les lyrics, man M'écouter, c'est prendre des risques comme faire un fuck à Hitman Quand j'kicke, j'suis à l'aise, posé dans mes petites Vans Quand j'débite, j'pète les vitres tellement je vais vite, man Mais là tu vois qu'c'est pas l'cas, gro-né je suis calme là Y en a pas beaucoup comme moi, j'suis un diamant dans le sable, gars Mes textes font des dégâts man, à chaque fois qu'je rappe, la Maaf crache Marié à mon flow, j'dors jamais sans lui comme une femme afghane Mon blaze sort de DBZ, Freeze maîtrise la danse de l'air Grâce à de l'herbe, moi j'ai pas besoin qu'le Red Bull me donne des ailes J'kiffe fumer ma weed, me poser devant ma XBox Quand j'ai la dalle, c'est Nutella et biscottes J'gigote la tête dès qu'j'entends une instrumentale Je mens pas, dans ma tête, j'ai des flows d'malade mental Après mon seize, le beat est plus troué que d'l'emmental Le Bic mon bâton magique, appelle-moi Freezer Gandalf J'm'en fous d'passer sur M6, j'veux rouler en M6 J'pense que t'as kiffé si toi et moi, on a les mêmes vices MC, j'écris sous sensy, j'veux être king Comme Elvis à Memphis, tu peux m'appeler El Freeze J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp Yeah, mothafucka Appelle-moi El Freeze, j'crosse des MC's Double-F Gang, on roule nos pét' de M-Jane À la recherche de la daillance J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp</t>
+          <t>Yeah, han À la recherche de la daillance J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp Freezi F, bitch, j'ai plus 17 piges J'suis aussi chouette que Hedwige, j'suis aussi puissante qu'une R8 Au mic, j'suis chaud, quand j'kicke, moi, j'essaie d'te faire cuire MC arrête de jouer les durs avec ton flow en terre cuite Appelle-moi El Freeze, j'crosse des MC's Comme Iverson à l'époque où il jouait à Philadelphie Ou comme Steve Nash à Phoenix, qui fait des passes assassines Moi, c'est au mic qu'j'assassine, j'suis un tueur comme le TX J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp Et j'écris juste histoire d'faire kiffer un peu les gens En mode amateur dans l'game mais j'veux finir en mode légende Quand j'kicke, j'suis incandescent, quand j'aurai fini, y aura qu'des cendres Crains-moi si t'es au dessus d'moi car j'risque juste de te faire descendre Yeah, j'me masturbe l'esprit, après, au mic', je crache des rimes Face à moi, MC, t'es petit comme une bactérie Quand j'rappe, j'fais mal comme se faire tacler par Terry J'lâche quelques rimes, et tu t'rends compte qu'en fait, au mic', t'es pas terrible Mothahfuckah, dangereux sont les lyrics, man M'écouter, c'est prendre des risques comme faire un fuck à Hitman Quand j'kicke, j'suis à l'aise, posé dans mes petites Vans Quand j'débite, j'pète les vitres tellement je vais vite, man Mais là tu vois qu'c'est pas l'cas, gro-né je suis calme là Y en a pas beaucoup comme moi, j'suis un diamant dans le sable, gars Mes textes font des dégâts man, à chaque fois qu'je rappe, la Maaf crache Marié à mon flow, j'dors jamais sans lui comme une femme afghane Mon blaze sort de DBZ, Freeze maîtrise la danse de l'air Grâce à de l'herbe, moi j'ai pas besoin qu'le Red Bull me donne des ailes J'kiffe fumer ma weed, me poser devant ma XBox Quand j'ai la dalle, c'est Nutella et biscottes J'gigote la tête dès qu'j'entends une instrumentale Je mens pas, dans ma tête, j'ai des flows d'malade mental Après mon seize, le beat est plus troué que d'l'emmental Le Bic mon bâton magique, appelle-moi Freezer Gandalf J'm'en fous d'passer sur M6, j'veux rouler en M6 J'pense que t'as kiffé si toi et moi, on a les mêmes vices MC, j'écris sous sensy, j'veux être king Comme Elvis à Memphis, tu peux m'appeler El Freeze J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp Yeah, mothafucka Appelle-moi El Freeze, j'crosse des MC's Double-F Gang, on roule nos pét' de M-Jane À la recherche de la daillance J'rafraîchis l'game quand j'rappe, on dirait qu'y a un peu d'vent Jamais en retard sur l'track, justement tout l'temps un peu d'vant Écoute pas trop fort mes punchlines ou sinon, dans très peu d'temps Il te restera très peu d'dents, au mic', j'suis chaud comme un feu d'camp</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>MMS, BPK Osirus Jack, négro XXX Cortège de vrais négros On arrive, Famas et des Berettas Du long terme comme les kartels OVG coté en bourse Lâche des corps dans les eaux glaciales Membres dispersés en brousse Cogne cette merde, sans stress Comme Jet Li On déploie l'arme maritime La double-6 7 sur un jet-ski Sur la raquette comme Mamba Aqua' shit et yamba Comme le Roi Heenok, avec BPK J'te fais danser la samba Pète leurs chevilles à ces putes nègres Codéino-rap niveau 4 Acheter Rolex, Féfé, cons' la verte Des bails de kilogrammes Depuis les abysses, dans le Noir émettent nos shits Mélange la codéine, promethazine Un peu d'eau d'vie You might also like x2 On fume comme des cheminées volcaniques Fait pousser cette merde sans aucun stress Utilisation d'engrais organique Comme une société secrète on s'organise Mets la purple dans le blunt Mélange cette merde, sers-moi dans 2 cups Extraction d'THC, négro Pour cons' cette merde, mixe ça dans le beurre Mmh le beat est puissant Space cakes, on est des cuistots Mec j'suis à 600 Pourtant j'suis pas un mec des 6O Négro on veut des cristaux T'as d'la lean, de la weed, j'suis dispo Fait ça fissa comme Issa, sans stress On est sous l'Atlantique avec Cousteau Négro Sans tonc' est le blunt Blunt, blunt, blunt, blunt On revient du futur comme Trunks XXX, j'ai mis sa chatte sous scellé Mmh j'suis possédé Dreads et rasé sur l'coté, no lackin nigga Personne voit c'qu'on fait, fucked up all days Screwed up Du kérosène dans l'double-cup Damn J'ai cum trop vite, elle était bonne Mmh Au ralenti, je pop 2 phenergans C'est des bails de mutant, négro j'suis trop haut Ouvre mon crâne, t'as cramé j'suis pas seul dedans, hey x2 On fume comme des cheminées volcaniques Fait pousser cette merde sans aucun stress Utilisation d'engrais organique Comme une société secrète on s'organise Mets la purple dans le blunt Mélange cette merde, sers-moi dans 2 cups Extraction d'THC, négro Pour cons' cette merde, mixe ça dans le beurre Fume un doobie, fuck une groupie Roule un doobie, fume le doobie Fume le tout d'suite, rien à foutre Fume le tout d'suite, XXX zombie Ratata tata tata Fuck le macchabée qui chie sur Jorrdee Beverly Hills Long Beach, Brenda ou Kelly Combinaison scellée On a les techniques T'es calé sous la jambe Négro, entre ces cuisses Il fait comme si il savait rien Mais ça reste un bitch-négro Dans l'ombre comme XXX Ils t'sortent tous le même numéro J'appelle une pute car c'est une pute J'appelle une femme car c'est une femme Mais peu importe comment je l'appelle Négro, je la sauterai quand même Fuck ce négro qui me hait XXX Ce négro sait qu'il me connait Quand je XXX x2 On fume comme des cheminées volcaniques Fait pousser cette merde sans aucun stress Utilisation d'engrais organique Comme une société secrète on s'organise Mets la purple dans le blunt Mélange cette merde, sers-moi dans 2 cups Extraction d'THC, négro Pour cons' cette merde, mixe ça dans le beurre</t>
+          <t>MMS, BPK Osirus Jack, négro XXX Cortège de vrais négros On arrive, Famas et des Berettas Du long terme comme les kartels OVG coté en bourse Lâche des corps dans les eaux glaciales Membres dispersés en brousse Cogne cette merde, sans stress Comme Jet Li On déploie l'arme maritime La double-6 7 sur un jet-ski Sur la raquette comme Mamba Aqua' shit et yamba Comme le Roi Heenok, avec BPK J'te fais danser la samba Pète leurs chevilles à ces putes nègres Codéino-rap niveau 4 Acheter Rolex, Féfé, cons' la verte Des bails de kilogrammes Depuis les abysses, dans le Noir émettent nos shits Mélange la codéine, promethazine Un peu d'eau d'vie x2 On fume comme des cheminées volcaniques Fait pousser cette merde sans aucun stress Utilisation d'engrais organique Comme une société secrète on s'organise Mets la purple dans le blunt Mélange cette merde, sers-moi dans 2 cups Extraction d'THC, négro Pour cons' cette merde, mixe ça dans le beurre Mmh le beat est puissant Space cakes, on est des cuistots Mec j'suis à 600 Pourtant j'suis pas un mec des 6O Négro on veut des cristaux T'as d'la lean, de la weed, j'suis dispo Fait ça fissa comme Issa, sans stress On est sous l'Atlantique avec Cousteau Négro Sans tonc' est le blunt Blunt, blunt, blunt, blunt On revient du futur comme Trunks XXX, j'ai mis sa chatte sous scellé Mmh j'suis possédé Dreads et rasé sur l'coté, no lackin nigga Personne voit c'qu'on fait, fucked up all days Screwed up Du kérosène dans l'double-cup Damn J'ai cum trop vite, elle était bonne Mmh Au ralenti, je pop 2 phenergans C'est des bails de mutant, négro j'suis trop haut Ouvre mon crâne, t'as cramé j'suis pas seul dedans, hey x2 On fume comme des cheminées volcaniques Fait pousser cette merde sans aucun stress Utilisation d'engrais organique Comme une société secrète on s'organise Mets la purple dans le blunt Mélange cette merde, sers-moi dans 2 cups Extraction d'THC, négro Pour cons' cette merde, mixe ça dans le beurre Fume un doobie, fuck une groupie Roule un doobie, fume le doobie Fume le tout d'suite, rien à foutre Fume le tout d'suite, XXX zombie Ratata tata tata Fuck le macchabée qui chie sur Jorrdee Beverly Hills Long Beach, Brenda ou Kelly Combinaison scellée On a les techniques T'es calé sous la jambe Négro, entre ces cuisses Il fait comme si il savait rien Mais ça reste un bitch-négro Dans l'ombre comme XXX Ils t'sortent tous le même numéro J'appelle une pute car c'est une pute J'appelle une femme car c'est une femme Mais peu importe comment je l'appelle Négro, je la sauterai quand même Fuck ce négro qui me hait XXX Ce négro sait qu'il me connait Quand je XXX x2 On fume comme des cheminées volcaniques Fait pousser cette merde sans aucun stress Utilisation d'engrais organique Comme une société secrète on s'organise Mets la purple dans le blunt Mélange cette merde, sers-moi dans 2 cups Extraction d'THC, négro Pour cons' cette merde, mixe ça dans le beurre</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Ascension perpétuelle, en orbite Jenchaîne pét' sur pét' dans l'cockpit Défracté fils, trop haut j'plane J'les vois même plus c'est des bactéries, c'est à tes risques Si tu veux t'faya avec la famille, parfum étrange Créé à partir d'herbe violette et d'feuilles à la vanille Le temps passe au ralenti, c'est garanti, gro-né plus d'gravité J'kiffe grave, on dirait que je nage dans l'vide Contre Jane je n'oppose plus aucune résistance De longs moments d'absence, j contemple la fumée qui danse Une OCB, du chanvre, dedans on l'met Elle rentre dans notre esprit, et dans ton nez Et tu l'sens, tu l'sais, beaucoup plus haut est le niveau J'fume des clopes, du shit, de la weed et mes rivaux Tant qu'j'arrête pas d'respirer j'continuerai d'en griller Et j'éteindrai tous ces enfoirés dans les cendriers En orbite, en orbite, en orbite, en orbite En orbite, en orbite, en orbite, en orbite Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous En orbite, en orbite, en orbite, en orbite En orbite, en orbite, en orbite, en orbite Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous You might also like Yeah, ok, en orbite, au-dessus d'vous. Demande à mon négro Malsi le fleuriste, Casquette Rouge, Alloco le Rebel, Gangsta Haze, Youssi, Masta Killa. Cimer à Ikaz de m'avoir suggéré ce beat de fou. Han, ok, le prochain c'est l'tien, mec. Faya music dans tes oreilles, en orbite, en orbite, au-dessus d'vous, au-dessus d'vous. L'herbe violette, l'herbe qui tue, le chanvre, le chanvre indien Moi-même l'extraterrestre fonscar En orbite, tu l'sens dès qu'on s'parle Avec mon gang, on fume des longs zbars Et on s'barre, ha, ok Quelle genre de vibe tu ressens en c'moment, mon négro ? Si t'es fonscar comme moi, défracté fils. En orbite x8. Double-F Gang, double-F Gang, double-double-F Gang Deux F plus un G, deux barres XIX Au-dessus d'vous, en orbite, bande de bitchs, yeah Si t'écoutes jusque-là mec, tu dois être à la recherche de la daillance, jespère que t'as pris un pét' avec toi, comme moi, puis que tu ressens les mêmes vibes qu'en c'moment, shit. Faut d'la bonne weed aussi, même d'la merde on s'en bats les couilles, comme Asap Rocky For my niggas getting high on the regular, yep. Faya music dans tes oreilles, ok. Ouais, j'crois qu'c'est bon comme ça pour vous, hein ?</t>
+          <t>Ascension perpétuelle, en orbite Jenchaîne pét' sur pét' dans l'cockpit Défracté fils, trop haut j'plane J'les vois même plus c'est des bactéries, c'est à tes risques Si tu veux t'faya avec la famille, parfum étrange Créé à partir d'herbe violette et d'feuilles à la vanille Le temps passe au ralenti, c'est garanti, gro-né plus d'gravité J'kiffe grave, on dirait que je nage dans l'vide Contre Jane je n'oppose plus aucune résistance De longs moments d'absence, j contemple la fumée qui danse Une OCB, du chanvre, dedans on l'met Elle rentre dans notre esprit, et dans ton nez Et tu l'sens, tu l'sais, beaucoup plus haut est le niveau J'fume des clopes, du shit, de la weed et mes rivaux Tant qu'j'arrête pas d'respirer j'continuerai d'en griller Et j'éteindrai tous ces enfoirés dans les cendriers En orbite, en orbite, en orbite, en orbite En orbite, en orbite, en orbite, en orbite Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous En orbite, en orbite, en orbite, en orbite En orbite, en orbite, en orbite, en orbite Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous Au-dessus d'vous, au-dessus d'vous Yeah, ok, en orbite, au-dessus d'vous. Demande à mon négro Malsi le fleuriste, Casquette Rouge, Alloco le Rebel, Gangsta Haze, Youssi, Masta Killa. Cimer à Ikaz de m'avoir suggéré ce beat de fou. Han, ok, le prochain c'est l'tien, mec. Faya music dans tes oreilles, en orbite, en orbite, au-dessus d'vous, au-dessus d'vous. L'herbe violette, l'herbe qui tue, le chanvre, le chanvre indien Moi-même l'extraterrestre fonscar En orbite, tu l'sens dès qu'on s'parle Avec mon gang, on fume des longs zbars Et on s'barre, ha, ok Quelle genre de vibe tu ressens en c'moment, mon négro ? Si t'es fonscar comme moi, défracté fils. En orbite x8. Double-F Gang, double-F Gang, double-double-F Gang Deux F plus un G, deux barres XIX Au-dessus d'vous, en orbite, bande de bitchs, yeah Si t'écoutes jusque-là mec, tu dois être à la recherche de la daillance, jespère que t'as pris un pét' avec toi, comme moi, puis que tu ressens les mêmes vibes qu'en c'moment, shit. Faut d'la bonne weed aussi, même d'la merde on s'en bats les couilles, comme Asap Rocky For my niggas getting high on the regular, yep. Faya music dans tes oreilles, ok. Ouais, j'crois qu'c'est bon comme ça pour vous, hein ?</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Hahaha squa' MMS, LDO, NRM, 667, pétasse sku Tous les jours cons' d'l'essence, salope, 2014 gas Quotidiennement fume du gas, quotidiennement fume du gas Tous les jours cons' d'l'essence, salope Quotidiennement fume du gas, quotidiennement fume du gas Goddamn, squa' Tous les jours cons' d'l'essence, quotidiennement fume du gas Fume du gas, quotidiennement fume du gas Tous les jours cons' d'l'essence, quotidiennement fume du gas Fume du gas, quotidiennement fume du gas So Trayle, cons' gas comme un moteur goddamn, sku Prends d'la hauteur Négro, défracté comme un alien goddamn J'veux sapes de luxe, voitures de sport italiennes Libérez big Guwap Roule énorme niaks comme si j'avais 6 doigts goddamn Goddamn, yeuz bridés comme un chintok So Loto, cons' la beuh dans le Ziploc goddamn, squa' Tous les jours comme une voiture, négro consomme de l'essence sku, sku D'janvier à décembre, so Kaki, l'négro attaque de tous les sens La LDO à Paris comme à Gotham goddamn Négro, j'veux peser à la Total khaliss, khaliss You might also like Haha, MMS, LDO 2014, ken tes gows Salope, on t'met des calottes On t'shoot comme dans Call Of Squa', squa', squa'</t>
+          <t>Hahaha squa' MMS, LDO, NRM, 667, pétasse sku Tous les jours cons' d'l'essence, salope, 2014 gas Quotidiennement fume du gas, quotidiennement fume du gas Tous les jours cons' d'l'essence, salope Quotidiennement fume du gas, quotidiennement fume du gas Goddamn, squa' Tous les jours cons' d'l'essence, quotidiennement fume du gas Fume du gas, quotidiennement fume du gas Tous les jours cons' d'l'essence, quotidiennement fume du gas Fume du gas, quotidiennement fume du gas So Trayle, cons' gas comme un moteur goddamn, sku Prends d'la hauteur Négro, défracté comme un alien goddamn J'veux sapes de luxe, voitures de sport italiennes Libérez big Guwap Roule énorme niaks comme si j'avais 6 doigts goddamn Goddamn, yeuz bridés comme un chintok So Loto, cons' la beuh dans le Ziploc goddamn, squa' Tous les jours comme une voiture, négro consomme de l'essence sku, sku D'janvier à décembre, so Kaki, l'négro attaque de tous les sens La LDO à Paris comme à Gotham goddamn Négro, j'veux peser à la Total khaliss, khaliss Haha, MMS, LDO 2014, ken tes gows Salope, on t'met des calottes On t'shoot comme dans Call Of Squa', squa', squa'</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>- Je sais qu'tu fumes de la beuh, pas vrai ? - Pourquoi tu dis ça ? - Parce que t'as la lèvre un peu cramée Yes, I Han, Double-F G J'kiffe Fumer mes bédos, partir dans mon vaisseau J'remplis l'réservoir quand j'pécho, j'fais pas d'plein à Esso Essence naturelle à base d'aloe vera, mec Tu m'connais, négro, tu sais que quand j'viens, j'ramène la verte Et ma lettre, un F, c'est pour Freezer, biatch À la fin d'la soirée, j'suis mort, j'rentre chez moi en corbillard J'remplis les trous et j'te fous les boules comme au billard Négro, je kiffe les paper planes comme Khalifa ou Mia J'me dis miam quand j'entends un bon beat, quoi qu'on m'dise Dans ma tête se combinent des mots qui font une comptine Je bondis de mon siège et commence à rédiger Sur la feuille quand j'réfléchis, mec, j'ai lil figé J'ai 18 piges et j'commence à piger le truc, mec Donc je me concentre, j'taffe et j'évite les putes nègres Une lumière comme Rousseau pour mon avenir, à partir de maintenant J'crois qu'c'est moi qui ai les clés dans mon trousseau Préparez-vous à un coup d'chaud, j'tacle les MC comme Lucho En espagnol, du niveau, on peut dire que j'en ai mucho Mes rimes glissent sur le beat, en effet, j'ai beaucoup d'flow Avec mes chicots, tu t'relèves pas si j'te mets un coup d'crocs Han, comme Conan, j'utilise des techniques barbares MC, j'ai des textes en feu, normal, j'écris au napalm Han, donc j'bouffe du MC bien cuit, genre steak tartare J'joue trop bien l'rappeur comme un acteur, moi, j'veux gagner la palme, yeah Yessai You might also like Han, gang Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, négro</t>
+          <t>- Je sais qu'tu fumes de la beuh, pas vrai ? - Pourquoi tu dis ça ? - Parce que t'as la lèvre un peu cramée Yes, I Han, Double-F G J'kiffe Fumer mes bédos, partir dans mon vaisseau J'remplis l'réservoir quand j'pécho, j'fais pas d'plein à Esso Essence naturelle à base d'aloe vera, mec Tu m'connais, négro, tu sais que quand j'viens, j'ramène la verte Et ma lettre, un F, c'est pour Freezer, biatch À la fin d'la soirée, j'suis mort, j'rentre chez moi en corbillard J'remplis les trous et j'te fous les boules comme au billard Négro, je kiffe les paper planes comme Khalifa ou Mia J'me dis miam quand j'entends un bon beat, quoi qu'on m'dise Dans ma tête se combinent des mots qui font une comptine Je bondis de mon siège et commence à rédiger Sur la feuille quand j'réfléchis, mec, j'ai lil figé J'ai 18 piges et j'commence à piger le truc, mec Donc je me concentre, j'taffe et j'évite les putes nègres Une lumière comme Rousseau pour mon avenir, à partir de maintenant J'crois qu'c'est moi qui ai les clés dans mon trousseau Préparez-vous à un coup d'chaud, j'tacle les MC comme Lucho En espagnol, du niveau, on peut dire que j'en ai mucho Mes rimes glissent sur le beat, en effet, j'ai beaucoup d'flow Avec mes chicots, tu t'relèves pas si j'te mets un coup d'crocs Han, comme Conan, j'utilise des techniques barbares MC, j'ai des textes en feu, normal, j'écris au napalm Han, donc j'bouffe du MC bien cuit, genre steak tartare J'joue trop bien l'rappeur comme un acteur, moi, j'veux gagner la palme, yeah Yessai Han, gang Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, négro</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Découpe le microphone Et brûle ces MC's tous les jours Le clan est noir La weed est verte, négro la soupe est rouge Fils de con, tu t'poses encore la question La couleur du flow est kaki LDO mon négro on va faire du cash Entre negres tous les jours comme des pakis Def tate pilote la blackmobile Même si y a personne dans l'rétro j'mets des soupapes 667 au dessus d'vous en indé comme Alpha Killuminati comme Tupac Nouveau Rap Mondial, Norsacce Berlusconi Freeze Corleone, Jordy, Lestat Réunion sur le pont principal sans stress Planifie l'attaque depuis l'espace, négro Shout out à la secte Tu nous connait là pour l'cash Seulement pour la famille, fuck le Rap Game On dirait qu'ils sont tous falshs Vous rappez comme des katoys et des bitchs nègres Comme ceux qui ont shooté Malcolm R.E.P. L'A Capone Complote dans l'ombre pendant qu'ils sortent des albums Yeuz plissés comme des Japonais Nique le Dajjâl, nique Baphomet Katana flow, so Afro S Sous lean pilote comme Kimi Räikönnen Corleone, Chen Zen Au-dessus d'toutes ces bitchs nègres Double 6-7 Shout out à la 6-secte You might also like Tous les jours le shit On a rien sorti car trop d'shit J'ai maigri car trop d'shit Pour reprendre il faudrait qu'on fasse trop de chiffres Et on cons' Et on cons', et on cons' Et on cons' Et on cons', et on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Tous les jours le shit, tous les jours je chill Tous les jours je spliff, tous les jours on lean Tous les jours j'la pine, fume ? sous paki Full Maya sur Paris, sur ma tasse givenchy 667 comme des pirates ivrent Dans ma coupe un p'tit pastis Tu est dans le cidre ma douceur provient d'Italie Jordee, Jordee, Jordee Prend moi Franky, comme Gianni Versace Comme un bicraveur de shit Tous les jours le shit On a rien sorti car trop d'shit J'ai maigri car trop d'shit Pour reprendre il faudrait qu'on fasse trop de chiffres Et on cons' Et on cons', et on cons' Et on cons' Et on cons', et on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Norsacce Berlusconi 2014, gros c'est la LDO T'écoute tu sais que je manie le rythme Bitch ass négro, j'manie aussi les mots Dans les bacs, dans les bacs fais pas crari Qu'tu pèse alors qu'tout ça c'est que du cinéma A cause de ces bâtards, j'entends d'plus en plus d'histoires De petits qui pour des thunes finissent mal 667, dites leur à tous qu'on arrive Il est grand temps qu'certains fassent leur valise Sur mon radar t'apparais en rouge vif T'es pas dangereux nan nan, t'es qu'un nom sur ma liste Négro, en vrai t'es qu'une cible Nous nos flows sont rares et nocifs J'découpe la prod' comme dans sale et massif Systématique, gros sale est ma clique 667, 1017 J'vois la concu' composer le 17 J'me balade sur Chelsea Ma bitch anglaise a l'swag à Johnny Depp Ligue des Ombres, gros on nique ta blonde L'ascension sera nègre est discrète Halal est la saucisse Jespère n'pas finir mes jours dans l'ivresse Cons' la verte jusqu'à pas d'heure Nique ta clique en un quart d'heure Gro-né on fera un malheur Rajoute des zéros sur nos salaires J'prends les sous et j'détale On est le clou du spectacle Présent à tous les étages Tous les jours cons' sensi comme du bétail4</t>
+          <t>Découpe le microphone Et brûle ces MC's tous les jours Le clan est noir La weed est verte, négro la soupe est rouge Fils de con, tu t'poses encore la question La couleur du flow est kaki LDO mon négro on va faire du cash Entre negres tous les jours comme des pakis Def tate pilote la blackmobile Même si y a personne dans l'rétro j'mets des soupapes 667 au dessus d'vous en indé comme Alpha Killuminati comme Tupac Nouveau Rap Mondial, Norsacce Berlusconi Freeze Corleone, Jordy, Lestat Réunion sur le pont principal sans stress Planifie l'attaque depuis l'espace, négro Shout out à la secte Tu nous connait là pour l'cash Seulement pour la famille, fuck le Rap Game On dirait qu'ils sont tous falshs Vous rappez comme des katoys et des bitchs nègres Comme ceux qui ont shooté Malcolm R.E.P. L'A Capone Complote dans l'ombre pendant qu'ils sortent des albums Yeuz plissés comme des Japonais Nique le Dajjâl, nique Baphomet Katana flow, so Afro S Sous lean pilote comme Kimi Räikönnen Corleone, Chen Zen Au-dessus d'toutes ces bitchs nègres Double 6-7 Shout out à la 6-secte Tous les jours le shit On a rien sorti car trop d'shit J'ai maigri car trop d'shit Pour reprendre il faudrait qu'on fasse trop de chiffres Et on cons' Et on cons', et on cons' Et on cons' Et on cons', et on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Tous les jours le shit, tous les jours je chill Tous les jours je spliff, tous les jours on lean Tous les jours j'la pine, fume ? sous paki Full Maya sur Paris, sur ma tasse givenchy 667 comme des pirates ivrent Dans ma coupe un p'tit pastis Tu est dans le cidre ma douceur provient d'Italie Jordee, Jordee, Jordee Prend moi Franky, comme Gianni Versace Comme un bicraveur de shit Tous les jours le shit On a rien sorti car trop d'shit J'ai maigri car trop d'shit Pour reprendre il faudrait qu'on fasse trop de chiffres Et on cons' Et on cons', et on cons' Et on cons' Et on cons', et on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Rien qu'on cons' Rien qu'on cons', rien qu'on cons' Norsacce Berlusconi 2014, gros c'est la LDO T'écoute tu sais que je manie le rythme Bitch ass négro, j'manie aussi les mots Dans les bacs, dans les bacs fais pas crari Qu'tu pèse alors qu'tout ça c'est que du cinéma A cause de ces bâtards, j'entends d'plus en plus d'histoires De petits qui pour des thunes finissent mal 667, dites leur à tous qu'on arrive Il est grand temps qu'certains fassent leur valise Sur mon radar t'apparais en rouge vif T'es pas dangereux nan nan, t'es qu'un nom sur ma liste Négro, en vrai t'es qu'une cible Nous nos flows sont rares et nocifs J'découpe la prod' comme dans sale et massif Systématique, gros sale est ma clique 667, 1017 J'vois la concu' composer le 17 J'me balade sur Chelsea Ma bitch anglaise a l'swag à Johnny Depp Ligue des Ombres, gros on nique ta blonde L'ascension sera nègre est discrète Halal est la saucisse Jespère n'pas finir mes jours dans l'ivresse Cons' la verte jusqu'à pas d'heure Nique ta clique en un quart d'heure Gro-né on fera un malheur Rajoute des zéros sur nos salaires J'prends les sous et j'détale On est le clou du spectacle Présent à tous les étages Tous les jours cons' sensi comme du bétail4</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2014, négro c'est quoi ? C'est la LDO Goddamn, est-ce qu'on les fouette ? Bien sûr, évidemment J'avance défracté aux médicaments Quotidiennement, sur eux on prend d'l'avance Mes loups-garous rentrent pas dans ta danse Nique un miracle, négro nique la chance 667, fléau noir sur la France Le futur est dans la 6-secte, négro Supra-nègre, possède vision comme X-Men, négro Ils sont cuits après la première fournée d'mixtapes, négro Là pour tal blunt dans l'jet à la Dipset, négro Chen Zen, tu m'connais salope, tu sais que j'ai le haki Débarque dans cette merde, déterminé comme les frères Gatti Marines noir, camouflage kaki négro, sur ma combi' Maîtrise les combines, shoot des zombies avec mes zombies Haha salope, on veut peser comme les Rothschild Diamants noirs, lingots d'or dans les coffres, bitch Débarque sous shit, sous lean comme Gucci Sans stress, les graille en deuspi comme des sushis Négro, j'arrive comme Oussama en Afghanistan Cannabis plante, tireur d'élite Touche crâne à distance, triangle sur chaque talisman Négro so à la secte, Chen Zen, j'me sens comme un grand gourou So Kix Kaki, mes negros te sautent comme des kangourous You might also like Quotidiennement, sur eux on prend d'l'avance Mes loups-garous rentrent pas dans ta danse Nique un miracle, négro nique la chance 667, fléau noir sur la France Le futur est dans la 6-secte, négro Supra-nègre, possède vision comme X-Men, négro Ils sont cuits après la première fournée d'mixtapes, négro Là pour tal blunt dans l'jet à la Dipset, négro MMS à Dakar, comme la Mara au Salvador Au micro découpe avec le flow à Dark Vador Chen Zen, capitaine comme Luffy Voit la concurrence comme muffins REP Pac, fuck Jay-Z, fuck Puffy Goddamn, faya au lean dans la trap house comme à ATL Victoire tracée goddamn, so à l'ADN Ecoute, audio dope comme crack quand t'écoute Addicts dès qu'ils découvrent Comme Ol'Kainry, sous la pluie j'évite les gouttes, gaddamn Bruce Lee nègre, sur la prod fait kung-fu, biatch En soum-soum biatch, furtif applique Art de Sun Tzu biatch, pour les sous-sous, biatch Tu peux pas m'voir salope, j'suis comme un hologramme Bitchass j'suis pas comme toi J'vendrai jamais mon âme pour un monogramme Quotidiennement, sur eux on prend d'l'avance Mes loups-garous rentrent pas dans ta danse Nique un miracle, négro nique la chance 667, fléau noir sur la France Le futur est dans la 6-secte, négro Supra-nègre, possède vision comme X-Men, négro Ils sont cuits après la première fournée d'mixtapes, négro Là pour tal blunt dans l'jet à la Dipset, négro</t>
+          <t>2014, négro c'est quoi ? C'est la LDO Goddamn, est-ce qu'on les fouette ? Bien sûr, évidemment J'avance défracté aux médicaments Quotidiennement, sur eux on prend d'l'avance Mes loups-garous rentrent pas dans ta danse Nique un miracle, négro nique la chance 667, fléau noir sur la France Le futur est dans la 6-secte, négro Supra-nègre, possède vision comme X-Men, négro Ils sont cuits après la première fournée d'mixtapes, négro Là pour tal blunt dans l'jet à la Dipset, négro Chen Zen, tu m'connais salope, tu sais que j'ai le haki Débarque dans cette merde, déterminé comme les frères Gatti Marines noir, camouflage kaki négro, sur ma combi' Maîtrise les combines, shoot des zombies avec mes zombies Haha salope, on veut peser comme les Rothschild Diamants noirs, lingots d'or dans les coffres, bitch Débarque sous shit, sous lean comme Gucci Sans stress, les graille en deuspi comme des sushis Négro, j'arrive comme Oussama en Afghanistan Cannabis plante, tireur d'élite Touche crâne à distance, triangle sur chaque talisman Négro so à la secte, Chen Zen, j'me sens comme un grand gourou So Kix Kaki, mes negros te sautent comme des kangourous Quotidiennement, sur eux on prend d'l'avance Mes loups-garous rentrent pas dans ta danse Nique un miracle, négro nique la chance 667, fléau noir sur la France Le futur est dans la 6-secte, négro Supra-nègre, possède vision comme X-Men, négro Ils sont cuits après la première fournée d'mixtapes, négro Là pour tal blunt dans l'jet à la Dipset, négro MMS à Dakar, comme la Mara au Salvador Au micro découpe avec le flow à Dark Vador Chen Zen, capitaine comme Luffy Voit la concurrence comme muffins REP Pac, fuck Jay-Z, fuck Puffy Goddamn, faya au lean dans la trap house comme à ATL Victoire tracée goddamn, so à l'ADN Ecoute, audio dope comme crack quand t'écoute Addicts dès qu'ils découvrent Comme Ol'Kainry, sous la pluie j'évite les gouttes, gaddamn Bruce Lee nègre, sur la prod fait kung-fu, biatch En soum-soum biatch, furtif applique Art de Sun Tzu biatch, pour les sous-sous, biatch Tu peux pas m'voir salope, j'suis comme un hologramme Bitchass j'suis pas comme toi J'vendrai jamais mon âme pour un monogramme Quotidiennement, sur eux on prend d'l'avance Mes loups-garous rentrent pas dans ta danse Nique un miracle, négro nique la chance 667, fléau noir sur la France Le futur est dans la 6-secte, négro Supra-nègre, possède vision comme X-Men, négro Ils sont cuits après la première fournée d'mixtapes, négro Là pour tal blunt dans l'jet à la Dipset, négro</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>négro Coupe-lui la verge, t'es qu'un volatile sans tes couilles, salope vierge Pussy négro, j'brûle mon mégot sur ta rétine Tire à longue distance, négro Fleuriste Furtif J'fais courir ces salopes yo, comme des fugitifs gros calibre, LT RT sur ces bitchies Tu dis qu't'es pâle et la dalle, j'suis déjà die Mon blaze sur une pierre tombale J'ai des crampes dans l'estomac, maladie mangeuse de chaire c'est moi La peste pour ces pédales, le charme pour ces pétasses J'arrache les pétales sur ces fleurs fanées J'pue la mort et la cendre, comme un cendrier Freddy et moi, Timon et Pumba J'suis dans la jungle, j'bouffe ces gars comme des milles-pattes T'aimes pas mes sons, arrache-toi les oreilles Et fous-les dans ton trou d'balle, que tu ressentes la sécheresse Meurtière, folie folie Meurtière, folie folie Le Diable me couvre d'or, Le Diable me couvre d'or, Meurtière, folie folie Meurtière, folie folie Le Diable me couvre d'or, Le Diable me couvre d'or, You might also like Afro-samurai, j'tranche des boites crâniennes Si tu fuis négro j'te coupe les jambes et les bras, j'aime Voir mes ennemis baigner dans l'sang Une mixture fatale, THC-GHB dans l'sang On va pendre ces salopes à des arbres Deux dragons cracheurs de flammes face à ces lézards Vous pouvez courir, vous cachez, on vous trouvera On vous largue à poil au-dessus d'la toundra J'perce ton il gauche avec un tournevis Camouflage optique, tu t'demandes où je suis J'te conseille la fuite si tu fais que des moves de bitch Mes arrières sont assurées, ma meute de loups me suit Comme le Roi, noir et professionnel En train d'faire des plans sur le pont principal du vaisseau-mère Dans l'futur, là-dedans on est déjà dead On est là pour t'effacer, impossible que tu t'échappes, mec Meurtière, folie folie Meurtière, folie folie Le Diable me couvre d'or, fils de pute-pute Le Diable me couvre d'or, fils de pute-pute Meurtière, folie folie Meurtière, folie folie Le Diable me couvre d'or, fils de pute-pute Le Diable me couvre d'or, fils de pute-pute Meurtière Meurtière Le Diable me couvre d'or Le Diable me couvre d'or Meurtière Meurtière Le Diable me couvre d'or Le Diable me couvre d'or Meurtière Meurtière Le Diable me couvre d'or Le Diable me couvre d'or Meurtière Meurtière Le Diable me couvre d'or Le Diable me couvre d'or</t>
+          <t>négro Coupe-lui la verge, t'es qu'un volatile sans tes couilles, salope vierge Pussy négro, j'brûle mon mégot sur ta rétine Tire à longue distance, négro Fleuriste Furtif J'fais courir ces salopes yo, comme des fugitifs gros calibre, LT RT sur ces bitchies Tu dis qu't'es pâle et la dalle, j'suis déjà die Mon blaze sur une pierre tombale J'ai des crampes dans l'estomac, maladie mangeuse de chaire c'est moi La peste pour ces pédales, le charme pour ces pétasses J'arrache les pétales sur ces fleurs fanées J'pue la mort et la cendre, comme un cendrier Freddy et moi, Timon et Pumba J'suis dans la jungle, j'bouffe ces gars comme des milles-pattes T'aimes pas mes sons, arrache-toi les oreilles Et fous-les dans ton trou d'balle, que tu ressentes la sécheresse Meurtière, folie folie Meurtière, folie folie Le Diable me couvre d'or, Le Diable me couvre d'or, Meurtière, folie folie Meurtière, folie folie Le Diable me couvre d'or, Le Diable me couvre d'or, Afro-samurai, j'tranche des boites crâniennes Si tu fuis négro j'te coupe les jambes et les bras, j'aime Voir mes ennemis baigner dans l'sang Une mixture fatale, THC-GHB dans l'sang On va pendre ces salopes à des arbres Deux dragons cracheurs de flammes face à ces lézards Vous pouvez courir, vous cachez, on vous trouvera On vous largue à poil au-dessus d'la toundra J'perce ton il gauche avec un tournevis Camouflage optique, tu t'demandes où je suis J'te conseille la fuite si tu fais que des moves de bitch Mes arrières sont assurées, ma meute de loups me suit Comme le Roi, noir et professionnel En train d'faire des plans sur le pont principal du vaisseau-mère Dans l'futur, là-dedans on est déjà dead On est là pour t'effacer, impossible que tu t'échappes, mec Meurtière, folie folie Meurtière, folie folie Le Diable me couvre d'or, fils de pute-pute Le Diable me couvre d'or, fils de pute-pute Meurtière, folie folie Meurtière, folie folie Le Diable me couvre d'or, fils de pute-pute Le Diable me couvre d'or, fils de pute-pute Meurtière Meurtière Le Diable me couvre d'or Le Diable me couvre d'or Meurtière Meurtière Le Diable me couvre d'or Le Diable me couvre d'or Meurtière Meurtière Le Diable me couvre d'or Le Diable me couvre d'or Meurtière Meurtière Le Diable me couvre d'or Le Diable me couvre d'or</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Ok Freezi Freeze a.k.a Freezer P'tit freestyle vite fait C'est parti, hein Ok Hun hun, hun hun, hun hun Plus incroyable que l'incroyable Hulk, c'est ma définition Mes freestyles des films de uc', avec tout plein de positions Si meilleur doit-être élu, j'espère que t'as prévu mon élection Dès le début j't'ai prévenu, donc j'espère que t'as prévu ton érection Société Puma et Entre mes kicks c'est la guerre comme Luke et Dark Vador Mes textes ont la même puissance que la patate à Goku Mon flow, c'est comme les kicks, c'est ouais, j'en ai beaucoup Appelle moi Harry entre mes jambes j'ai un balai Tiens ? Il fait chaud, quand j'arrive, y'a des malaises Impossible pour moi d'lâcher des textes qui ne blessent pas J'suis le fils à Magneto mon niveau se mesure en Tesla J'rappe en HD, j'sors sur PS3 et 3-6 Putain j'suis tellement frais qu'à côté d'moi tout à l'air moisi J'fume mes feuilles et j'peux pas arrêter même si j'le voulais Les autres rappeurs sont décédés, j'crois qu'moi j'suis en Blu-ray Négro pourquoi tu t'la pètes quand tu roules sans jantes Au mic, j'fais des miracles comme le mec qui court sans jambes On m'appelle Freezer donc j'te ramène la grêle en été Après mes seize les instrus comme les dents de Yelle sont pétées J'ai des oncles qui ont que leur croissance pendant deux ans Moi tu peux m'reconnaître à l'écart entre mes deux dents Mes rimes légendaires et tranchantes comme les trois lames de Zoro J'traine trop avec des ivoiriens, j'appelle mes potes mes mogos J'suis pas un héro mais j'ai les mêmes oreilles que Batman J'suis encore un jeunot pour te dire j'suis plus jeune que Pacman J'ai des punchs à en couper l'souffle, tu devrais prendre des Airwaves Si mon rap avait des stages j'crois que je s'rais proche de celles de Dwayne Wade Mon rap c'est d'la bombe, le tien ressemble plus à des claques-doigts Si tu répètes trop mes phrases, tu risques juste de t'casser la voix On est pas beaucoup d'monde, comme les oasis dans le désert Tout le monde veut sa part donc moi aussi j'veux du dessert J'suis trop frais, mon miroir a peur de renvoyer mon reflet Après les coups d'un d'mes freestyles tes pauv' tympans sont refaits Série S négro mais c'est pas obligé que j'te calcule Tu parlais y'a une minute mais dis-moi pourquoi tu n'parles plus Jamais sérieux mon deuxième blaze après ça, c'est Krusty Tu crois faire peur mais tu fais plus rire que les films de Chucky J'te mets un kick dans la tête avec la même frappe que Zlatan Tu décolles de Dakar et tu t'retrouves à Manhattan You might also like Ok, Freezi, han C'était cool quoi Ok Un un Freezi Freeze, négro2</t>
+          <t>Ok Freezi Freeze a.k.a Freezer P'tit freestyle vite fait C'est parti, hein Ok Hun hun, hun hun, hun hun Plus incroyable que l'incroyable Hulk, c'est ma définition Mes freestyles des films de uc', avec tout plein de positions Si meilleur doit-être élu, j'espère que t'as prévu mon élection Dès le début j't'ai prévenu, donc j'espère que t'as prévu ton érection Société Puma et Entre mes kicks c'est la guerre comme Luke et Dark Vador Mes textes ont la même puissance que la patate à Goku Mon flow, c'est comme les kicks, c'est ouais, j'en ai beaucoup Appelle moi Harry entre mes jambes j'ai un balai Tiens ? Il fait chaud, quand j'arrive, y'a des malaises Impossible pour moi d'lâcher des textes qui ne blessent pas J'suis le fils à Magneto mon niveau se mesure en Tesla J'rappe en HD, j'sors sur PS3 et 3-6 Putain j'suis tellement frais qu'à côté d'moi tout à l'air moisi J'fume mes feuilles et j'peux pas arrêter même si j'le voulais Les autres rappeurs sont décédés, j'crois qu'moi j'suis en Blu-ray Négro pourquoi tu t'la pètes quand tu roules sans jantes Au mic, j'fais des miracles comme le mec qui court sans jambes On m'appelle Freezer donc j'te ramène la grêle en été Après mes seize les instrus comme les dents de Yelle sont pétées J'ai des oncles qui ont que leur croissance pendant deux ans Moi tu peux m'reconnaître à l'écart entre mes deux dents Mes rimes légendaires et tranchantes comme les trois lames de Zoro J'traine trop avec des ivoiriens, j'appelle mes potes mes mogos J'suis pas un héro mais j'ai les mêmes oreilles que Batman J'suis encore un jeunot pour te dire j'suis plus jeune que Pacman J'ai des punchs à en couper l'souffle, tu devrais prendre des Airwaves Si mon rap avait des stages j'crois que je s'rais proche de celles de Dwayne Wade Mon rap c'est d'la bombe, le tien ressemble plus à des claques-doigts Si tu répètes trop mes phrases, tu risques juste de t'casser la voix On est pas beaucoup d'monde, comme les oasis dans le désert Tout le monde veut sa part donc moi aussi j'veux du dessert J'suis trop frais, mon miroir a peur de renvoyer mon reflet Après les coups d'un d'mes freestyles tes pauv' tympans sont refaits Série S négro mais c'est pas obligé que j'te calcule Tu parlais y'a une minute mais dis-moi pourquoi tu n'parles plus Jamais sérieux mon deuxième blaze après ça, c'est Krusty Tu crois faire peur mais tu fais plus rire que les films de Chucky J'te mets un kick dans la tête avec la même frappe que Zlatan Tu décolles de Dakar et tu t'retrouves à Manhattan Ok, Freezi, han C'était cool quoi Ok Un un Freezi Freeze, négro2</t>
         </is>
       </c>
     </row>
@@ -4609,11 +4609,7 @@
           <t>Freestyle #2 - FREEZI FRAISTYLE</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4626,11 +4622,7 @@
           <t>Freestyle #3</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4645,7 +4637,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Discographie - Freeze Corleone Album Studio - 20200911 Freeze Corleone - LMF - 20220304 Freeze Corleone ASHE 22 - RIYAD SADIO - 20230911 Freeze Corleone - ADC Mixtape - 20110420 Freeze Corleone - À la recherche de la daillance - 20121012 Freeze Corleone - Vieilles merdes - 20160108 Freeze Corleone - Vieilles merdes Vol. II - 20160911 Freeze Corleone - F.D.T - 20170911 Freeze Corleone - THC - 20181113 Freeze Corleone - Projet Blue Beam Remix - 20160306 Freeze Corleone Ocho - Vieilles merdes Vol. II crewed - 20191125 Freeze Corleone Ocho - Projet Purrp Beam - 20200601 Freeze Corleone Ocho - F.D.T Chopped crewed - 20210525 Freeze Corleone Ocho - LM - 20240208 Freeze Corleone Ocho - AD Single - 20091018 Freeze Corleone - Freestyle 1 - 20100527 Freeze Corleone - Freestyle 5 - 2012 Freeze Corleone - Sam Fisher - 2012 Freeze Corleone - Nouveau Commendatore Ferrari Music - 20121026 Freeze Corleone - Black Knight - 20121120 Freeze Corleone - Blackmobile - 20130803 Freeze Corleone - Argent noir - 20130803 Freeze Corleone - Niveau III - 20131027 Freeze Corleone - 204 Parsec - 20131229 Freeze Corleone - Gladiator - 2014 Freeze Corleone - Marque de fabrique - 20140204 Freeze Corleone - Libérez Radrick Truth Freestyle - 20140205 Freeze Corleone - Memphis - 20140208 Freeze Corleone - Zone VI Squad Car Freestyle - 20140311 Freeze Corleone - Black Lobby - 20140319 Freeze Corleone - Henri VI - 20140327 Freeze Corleone - Mangemort - 20140406 Darth Chen - Lockomotive - 20140512 Freeze Corleone - Bledard Mentality - 20140805 Freeze Corleone - Bill Gates - 20140903 Freeze Corleone - Khaliss - 20140910 Freeze Corleone - Piraterie - 20140911 Freeze Corleone - Lampadaire - 20141117 Freeze Corleone - Viseur holographique - 20141225 Freeze Corleone - LDO dans la maison - 20150117 Freeze Corleone - Et on cons' Shit World Tour 2014 - 20150131 Freeze Corleone - Charlie - 20150223 Freeze Corleone - Fuck ça - 20150409 Freeze Corleone - 16 Pains Freestyle - 20150410 Freeze Corleone - Les fils de l'Oncle Sam - 20150522 Freeze Corleone - Canibus - 20150616 Freeze Corleone - Au-dessus - 20150719 Freeze Corleone - Trains à vapeur - 20160129 Freeze Corleone - Recette - 20160430 Freeze Corleone - Gaucho - 20160529 Freeze Corleone - Apu - 20160724 Freeze Corleone - Skrt Skrt Freestyle - 20160910 Freeze Corleone - Madara - 20161220 Freeze Corleone - Toilettes - 20161225 Freeze Corleone - Mage noir Ekailand Edit - 20170113 Freeze Corleone - La LDO dans le château - 20170224 Freeze Corleone - Combien - 20170403 Freeze Corleone - Ekip - 20170513 Freeze Corleone - Prof Chen - 20170911 Freeze Corleone - Benjamins bleus - 20171215 Freeze Corleone - LDO dans la place - 20180215 Freeze Corleone - TX - 20181113 Freeze Corleone - Jeremy Lin - 20190112 Freeze Corleone - Intro - 20190830 Freeze Corleone - Fentanyl - 20191113 Freeze Corleone - Baton Rouge - 20200105 Freeze Corleone - Welcome to the Party Freestyle - 20200727 Freeze Corleone - Desiigner - 20200821 Freeze Corleone - Scellé Part. 2 - 20200911 Freeze Corleone - Hors ligne - 20210126 Freeze Corleone - Requiem for a Drill - 20210513 Freeze Corleone - Polémique - 20210518 Freeze Corleone - Téléphone - 20210703 Freeze Corleone - Freeze Raël Video Edit - 20211202 Freeze Corleone - Règne sur le monde - 20220127 Freeze Corleone ASHE 22 - SCELLÉ PART. 4 - 20220211 Freeze Corleone ASHE 22 - DÉGRADÉ - 20220304 Freeze Corleone ASHE 22 - CARTIER You might also likeFeaturing - 20140217 RTT Clan - Winafoute - 20140226 Afro S - Katana - 20140227 Jorrdee - Sacrifice de poulets Part. II - 20140227 Gouap - Jackie Chan - 20140510 Jorrdee - Violet - 20140512 Odeuxzero - S.P.L.F - 20140514 Jorrdee - PSG - 20140809 Zuukou Mayzie - Jack Sparrow - 20140917 Zuukou Mayzie - John Titor - 20141006 Dubble G - Engrais organique - 20141103 Osirus Jack - Génotype - 20141209 Jorrdee - Gas - 20150420 Dubble G - Hydroponique - 20150828 Kaki Santana - Échec mat - 20151120 Rifa Samb - Hors normes - 20160803 Kaki Santana - Combinaison Kaki - 20160809 Slim C - Burrr - 20160809 Slim C - C4 - 20160809 Slim C - Spectres - 20161024 Veerus - Jacques Chirac - 20161118 Norsacce Berlusconi - OG Juice - 20161118 Kaki Santana - Homme de l'ombre - 20170420 Norsacce Berlusconi - Only - 20180218 Slim C - Dans la grotte - 20181221 Zuukou Mayzie - Yamanote Line - 20181227 Veerus - KKK - 20190125 Alkpote - Purification - 20190503 Osirus Jack - Sacrifice de masse Part. 2 - 20190726 Luv Resval - Crystal Lake - 20190910 Roi Heenok - 38 SPECIAL - 20191007 Worms-T - Pakistan - 20191129 ASHE 22 - Scellé - 20191129 DOC OVG - 10 - 20191222 Django - Cyanure - 20200221 Slim C - Serpents Renards - 20200330 Sazamyzy - Braquage à l'africaine 5 Part 1 - 20200406 RAS - O.J Simpson - 20200409 Zuukou Mayzie - Qui-Gon Jinn - 20200415 Kaki Santana - Welcome to the Party Remix - 20200515 tanlee - Pour It Up - 20200611 Norsacce - 4 saisons - 20200617 Gazo - Drill FR 4 - 20200717 Jolly - Zone 51 - 20200807 Zesau - Anarchie - 20200904 Ocho - CPouravCjusteRalenti - 20200918 La F - La violence - 20200924 Koba LaD - 7 sur 7 - 20200928 Criminls - War - 20201013 Mini Noma - Travail d'ekip - 20201016 Afro S - Nino Brown - 20201018 Kozi - Unstoppable - 20201023 Kaaris - IRM - 20201104 Nahir - Moneygram - 20201107 Django - SO le Flem - 20201118 Guy2Bezbar - TPM - 20201127 Negrito - Purge 5 - 20201127 RAS - LPDLD - 20201211 Zesau - Anarchie Remix - 20201218 Alpha Wann - ny à fond - 20210219 Vladimir Cauchemar - Les professeurs - 20210310 Deeloc - Rétro - 20210319 SCH - Mannschaft - 20210408 ASHE 22 - Scellé Part. 3 - 20210528 RAS - Mission Cobra - 20210604 Zuukou Mayzie - Pépé anglais - 20210721 DA Uzi - 27 - 20211001 Mac Tyer - Grammy - 20211210 ALP - Bloods - 20211224 Gouap - Jackie Chan 2 - 20220128 Kaki Santana - Toujours pas de refrain - 20220128 Kaaris Kalash Criminel - Apocalypse - 20220218 Kpri - Maybach Phantom - 20220222 Osirus Jack - Lampadaire, Pt. 2 - 20220225 Central Cee - Eurovision - 20220311 Nahir - Moneygram, Part. 2 - 20220318 Veerus - Cash - 20220511 Amine Farsi - FRAUDE - 20220520 DOC OVG - 1000 - 20220527 SEVEN 7oo - 667OO - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20220714 Mini - 669 Tah - 20220722 Zuukou Mayzie - Inception - 20220826 Doums - 90' - 20220908 Stavo - Réunion - 20220915 RAS - Mission Cobra Part. 2 - 20220930 Prince Waly - Balotelli - 20221012 Afro S - C10 - 20221014 Jey Brownie Flem - Movie - 20221117 2Key - Pour la paix - 20221209 Kozi - Trap Kongo - 20230106 Slim C - Prend le pouvoir - 20230203 Rim'K - Métaverse - 20230213 Ralfy the Plug - Loopholes - 20230214 Criminls - Nouvel ordre Discographie complémentaire - Discographie - 667 - Discographie - CFR - Discographie - LT RT Klan</t>
+          <t>Discographie - Freeze Corleone Album Studio - 20200911 Freeze Corleone - LMF - 20220304 Freeze Corleone ASHE 22 - RIYAD SADIO - 20230911 Freeze Corleone - ADC Mixtape - 20110420 Freeze Corleone - À la recherche de la daillance - 20121012 Freeze Corleone - Vieilles merdes - 20160108 Freeze Corleone - Vieilles merdes Vol. II - 20160911 Freeze Corleone - F.D.T - 20170911 Freeze Corleone - THC - 20181113 Freeze Corleone - Projet Blue Beam Remix - 20160306 Freeze Corleone Ocho - Vieilles merdes Vol. II crewed - 20191125 Freeze Corleone Ocho - Projet Purrp Beam - 20200601 Freeze Corleone Ocho - F.D.T Chopped crewed - 20210525 Freeze Corleone Ocho - LM - 20240208 Freeze Corleone Ocho - AD Single - 20091018 Freeze Corleone - Freestyle 1 - 20100527 Freeze Corleone - Freestyle 5 - 2012 Freeze Corleone - Sam Fisher - 2012 Freeze Corleone - Nouveau Commendatore Ferrari Music - 20121026 Freeze Corleone - Black Knight - 20121120 Freeze Corleone - Blackmobile - 20130803 Freeze Corleone - Argent noir - 20130803 Freeze Corleone - Niveau III - 20131027 Freeze Corleone - 204 Parsec - 20131229 Freeze Corleone - Gladiator - 2014 Freeze Corleone - Marque de fabrique - 20140204 Freeze Corleone - Libérez Radrick Truth Freestyle - 20140205 Freeze Corleone - Memphis - 20140208 Freeze Corleone - Zone VI Squad Car Freestyle - 20140311 Freeze Corleone - Black Lobby - 20140319 Freeze Corleone - Henri VI - 20140327 Freeze Corleone - Mangemort - 20140406 Darth Chen - Lockomotive - 20140512 Freeze Corleone - Bledard Mentality - 20140805 Freeze Corleone - Bill Gates - 20140903 Freeze Corleone - Khaliss - 20140910 Freeze Corleone - Piraterie - 20140911 Freeze Corleone - Lampadaire - 20141117 Freeze Corleone - Viseur holographique - 20141225 Freeze Corleone - LDO dans la maison - 20150117 Freeze Corleone - Et on cons' Shit World Tour 2014 - 20150131 Freeze Corleone - Charlie - 20150223 Freeze Corleone - Fuck ça - 20150409 Freeze Corleone - 16 Pains Freestyle - 20150410 Freeze Corleone - Les fils de l'Oncle Sam - 20150522 Freeze Corleone - Canibus - 20150616 Freeze Corleone - Au-dessus - 20150719 Freeze Corleone - Trains à vapeur - 20160129 Freeze Corleone - Recette - 20160430 Freeze Corleone - Gaucho - 20160529 Freeze Corleone - Apu - 20160724 Freeze Corleone - Skrt Skrt Freestyle - 20160910 Freeze Corleone - Madara - 20161220 Freeze Corleone - Toilettes - 20161225 Freeze Corleone - Mage noir Ekailand Edit - 20170113 Freeze Corleone - La LDO dans le château - 20170224 Freeze Corleone - Combien - 20170403 Freeze Corleone - Ekip - 20170513 Freeze Corleone - Prof Chen - 20170911 Freeze Corleone - Benjamins bleus - 20171215 Freeze Corleone - LDO dans la place - 20180215 Freeze Corleone - TX - 20181113 Freeze Corleone - Jeremy Lin - 20190112 Freeze Corleone - Intro - 20190830 Freeze Corleone - Fentanyl - 20191113 Freeze Corleone - Baton Rouge - 20200105 Freeze Corleone - Welcome to the Party Freestyle - 20200727 Freeze Corleone - Desiigner - 20200821 Freeze Corleone - Scellé Part. 2 - 20200911 Freeze Corleone - Hors ligne - 20210126 Freeze Corleone - Requiem for a Drill - 20210513 Freeze Corleone - Polémique - 20210518 Freeze Corleone - Téléphone - 20210703 Freeze Corleone - Freeze Raël Video Edit - 20211202 Freeze Corleone - Règne sur le monde - 20220127 Freeze Corleone ASHE 22 - SCELLÉ PART. 4 - 20220211 Freeze Corleone ASHE 22 - DÉGRADÉ - 20220304 Freeze Corleone ASHE 22 - CARTIER Featuring - 20140217 RTT Clan - Winafoute - 20140226 Afro S - Katana - 20140227 Jorrdee - Sacrifice de poulets Part. II - 20140227 Gouap - Jackie Chan - 20140510 Jorrdee - Violet - 20140512 Odeuxzero - S.P.L.F - 20140514 Jorrdee - PSG - 20140809 Zuukou Mayzie - Jack Sparrow - 20140917 Zuukou Mayzie - John Titor - 20141006 Dubble G - Engrais organique - 20141103 Osirus Jack - Génotype - 20141209 Jorrdee - Gas - 20150420 Dubble G - Hydroponique - 20150828 Kaki Santana - Échec mat - 20151120 Rifa Samb - Hors normes - 20160803 Kaki Santana - Combinaison Kaki - 20160809 Slim C - Burrr - 20160809 Slim C - C4 - 20160809 Slim C - Spectres - 20161024 Veerus - Jacques Chirac - 20161118 Norsacce Berlusconi - OG Juice - 20161118 Kaki Santana - Homme de l'ombre - 20170420 Norsacce Berlusconi - Only - 20180218 Slim C - Dans la grotte - 20181221 Zuukou Mayzie - Yamanote Line - 20181227 Veerus - KKK - 20190125 Alkpote - Purification - 20190503 Osirus Jack - Sacrifice de masse Part. 2 - 20190726 Luv Resval - Crystal Lake - 20190910 Roi Heenok - 38 SPECIAL - 20191007 Worms-T - Pakistan - 20191129 ASHE 22 - Scellé - 20191129 DOC OVG - 10 - 20191222 Django - Cyanure - 20200221 Slim C - Serpents Renards - 20200330 Sazamyzy - Braquage à l'africaine 5 Part 1 - 20200406 RAS - O.J Simpson - 20200409 Zuukou Mayzie - Qui-Gon Jinn - 20200415 Kaki Santana - Welcome to the Party Remix - 20200515 tanlee - Pour It Up - 20200611 Norsacce - 4 saisons - 20200617 Gazo - Drill FR 4 - 20200717 Jolly - Zone 51 - 20200807 Zesau - Anarchie - 20200904 Ocho - CPouravCjusteRalenti - 20200918 La F - La violence - 20200924 Koba LaD - 7 sur 7 - 20200928 Criminls - War - 20201013 Mini Noma - Travail d'ekip - 20201016 Afro S - Nino Brown - 20201018 Kozi - Unstoppable - 20201023 Kaaris - IRM - 20201104 Nahir - Moneygram - 20201107 Django - SO le Flem - 20201118 Guy2Bezbar - TPM - 20201127 Negrito - Purge 5 - 20201127 RAS - LPDLD - 20201211 Zesau - Anarchie Remix - 20201218 Alpha Wann - ny à fond - 20210219 Vladimir Cauchemar - Les professeurs - 20210310 Deeloc - Rétro - 20210319 SCH - Mannschaft - 20210408 ASHE 22 - Scellé Part. 3 - 20210528 RAS - Mission Cobra - 20210604 Zuukou Mayzie - Pépé anglais - 20210721 DA Uzi - 27 - 20211001 Mac Tyer - Grammy - 20211210 ALP - Bloods - 20211224 Gouap - Jackie Chan 2 - 20220128 Kaki Santana - Toujours pas de refrain - 20220128 Kaaris Kalash Criminel - Apocalypse - 20220218 Kpri - Maybach Phantom - 20220222 Osirus Jack - Lampadaire, Pt. 2 - 20220225 Central Cee - Eurovision - 20220311 Nahir - Moneygram, Part. 2 - 20220318 Veerus - Cash - 20220511 Amine Farsi - FRAUDE - 20220520 DOC OVG - 1000 - 20220527 SEVEN 7oo - 667OO - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20220714 Mini - 669 Tah - 20220722 Zuukou Mayzie - Inception - 20220826 Doums - 90' - 20220908 Stavo - Réunion - 20220915 RAS - Mission Cobra Part. 2 - 20220930 Prince Waly - Balotelli - 20221012 Afro S - C10 - 20221014 Jey Brownie Flem - Movie - 20221117 2Key - Pour la paix - 20221209 Kozi - Trap Kongo - 20230106 Slim C - Prend le pouvoir - 20230203 Rim'K - Métaverse - 20230213 Ralfy the Plug - Loopholes - 20230214 Criminls - Nouvel ordre Discographie complémentaire - Discographie - 667 - Discographie - CFR - Discographie - LT RT Klan</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4654,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Discographie - 667 Mixtape - 20141225 667 - 66.7 Radio Édition spécial Noël Single - 20140224 667 - Néo nègre - 20141003 667 - Freestyle Lyonzon 2 - 20141225 667 - Chaque jour - 20150605 667 - S.O.A.M.S. Shout Out A Ma Secte - 20210516 667 - 669 Part. 2 Featuring - 20180920 Lyonzon - 669 - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20221216 Norsacce - Laisse parler Discographie complémentaire - Discographie - Afro S - Discographie - Bagdaad - Discographie - Black Jack - Discographie - Congo Bill - Discographie - DOC OVG - Discographie - Dubble G Kiluavi - Discographie - Freeze Corleone - Discographie - Jorrdee - Discographie - Kaki Santana - Discographie - Lala ce - Discographie - Moh Money - Discographie - Norsacce - Discographie - Odeuxzero - Discographie - Osirus Jack - Discographie - Rifa Samb - Discographie - Savag Martin - Discographie - Shaka - Discographie - Slim C - Discographie - Sogui - Discographi - Zuukou MayzieYou might also like</t>
+          <t>Discographie - 667 Mixtape - 20141225 667 - 66.7 Radio Édition spécial Noël Single - 20140224 667 - Néo nègre - 20141003 667 - Freestyle Lyonzon 2 - 20141225 667 - Chaque jour - 20150605 667 - S.O.A.M.S. Shout Out A Ma Secte - 20210516 667 - 669 Part. 2 Featuring - 20180920 Lyonzon - 669 - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20221216 Norsacce - Laisse parler Discographie complémentaire - Discographie - Afro S - Discographie - Bagdaad - Discographie - Black Jack - Discographie - Congo Bill - Discographie - DOC OVG - Discographie - Dubble G Kiluavi - Discographie - Freeze Corleone - Discographie - Jorrdee - Discographie - Kaki Santana - Discographie - Lala ce - Discographie - Moh Money - Discographie - Norsacce - Discographie - Odeuxzero - Discographie - Osirus Jack - Discographie - Rifa Samb - Discographie - Savag Martin - Discographie - Shaka - Discographie - Slim C - Discographie - Sogui - Discographi - Zuukou Mayzie</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4671,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO, NRM, 667 Han MMS, LDO 20-20 Menace Fantôme Ekip, ekip, ekip Freeze Raël, sur la prod', kicke comme Israel, fuck ces nègres comme Israël Chen Laden dans l'complot comme les Ben Laden, Chiraq comme JB Binladen J'les vois p'tit comme si j'étais 100 pieds, on veut les VVS sur les dentiers À propos des sommes comme les banquiers, investisseurs, architectes et chefs de chantier J'veux l'biff comme The Rock, 20-20, le rap, c'est satanique comme le rock Cali Weed, Promethazine et le fer comme D-Block Europe Concurrence j'laisse que des mégots, j'suis là pour les dough, peine de mort pour les pédos J'mixe le lin dans les Faygo, à Dakar, on empile les briques comme des Lego Sur la corniche dans les foreigns sku, sku, sku Menace Fantôme pour faire saigner tes oreilles, loud pack, négro, j'ai fumé des forêts pétasse J'fume des Runtz et des Gelati Rital dans l'milieu comme Marco Verratti, gros aqua d'loud dans la Maserati sku Quoi qu'il arrive, j'prends ma part, Chen Zen aka TVA Faut qu'j'pèse comme un propriétaire de club de Liga BBVA J'ai mes droits, j'ai mes masters, j'fume des OG, j'fume des master Gère le business carré pour qu'on roule tous en Maybach comme des pasteurs sku J'suis giga, t'es nano, ils peuvent pas m'voir comme si j'ai l'anneau Swish, ça rentre sans toucher l'anneau, le lin est rose comme le gelano ekip J'suis dans l'piège, pas de bistrot, designer avec le cash de Distro' cash J'ai v'là de rimes comme Larousse han et tous les jours, fuck Arouf pétasse Devant la cage comme Erling que j'leur mets des soupapes comme Sterling Faut des 4 fois 4 et des berlines, des euros, des dollars et des livres sterling Rap français, sur sa tête, place le réticule So Mac Tyer, j'veux qu'ma bitch aille en SLK chez le pédicure Dans l'complot comme la NBC comme la NBC, ekip, ekip J'suis dans Futbin, j'fais des SBC, j'arrive Chinois comme la HSBC Quand on rentre, ça sent la loud dans l'lobby So la secte chaque jour, j'serais rien sans l'lobby Freeze Corleone aka The Collector, so Tical supreme neck protector Sur la prod', j'prends tes chevilles comme Professor ou Bone Collector Mort aux porcs, justice pour Adama, so Nick, pendez-les comme en Alabama Chen Zen, Galsen comme Baaba Maal, que j'leur mets des vitesses comme Adama Bientôt, j'me présente aux municipales, so Lil B le Basedgod Sous potion avec les xans, j'vois flou, j'marche comme un zombie de Days Gone han, hé 20-20, Menace Fantôme pétasse, ekip J'veux la Continental et la Phantom, pétasseYou might also like</t>
+          <t>Sku, sku, sku Ekip, ekip, ekip MMS, LDO, NRM, 667 Han MMS, LDO 20-20 Menace Fantôme Ekip, ekip, ekip Freeze Raël, sur la prod', kicke comme Israel, fuck ces nègres comme Israël Chen Laden dans l'complot comme les Ben Laden, Chiraq comme JB Binladen J'les vois p'tit comme si j'étais 100 pieds, on veut les VVS sur les dentiers À propos des sommes comme les banquiers, investisseurs, architectes et chefs de chantier J'veux l'biff comme The Rock, 20-20, le rap, c'est satanique comme le rock Cali Weed, Promethazine et le fer comme D-Block Europe Concurrence j'laisse que des mégots, j'suis là pour les dough, peine de mort pour les pédos J'mixe le lin dans les Faygo, à Dakar, on empile les briques comme des Lego Sur la corniche dans les foreigns sku, sku, sku Menace Fantôme pour faire saigner tes oreilles, loud pack, négro, j'ai fumé des forêts pétasse J'fume des Runtz et des Gelati Rital dans l'milieu comme Marco Verratti, gros aqua d'loud dans la Maserati sku Quoi qu'il arrive, j'prends ma part, Chen Zen aka TVA Faut qu'j'pèse comme un propriétaire de club de Liga BBVA J'ai mes droits, j'ai mes masters, j'fume des OG, j'fume des master Gère le business carré pour qu'on roule tous en Maybach comme des pasteurs sku J'suis giga, t'es nano, ils peuvent pas m'voir comme si j'ai l'anneau Swish, ça rentre sans toucher l'anneau, le lin est rose comme le gelano ekip J'suis dans l'piège, pas de bistrot, designer avec le cash de Distro' cash J'ai v'là de rimes comme Larousse han et tous les jours, fuck Arouf pétasse Devant la cage comme Erling que j'leur mets des soupapes comme Sterling Faut des 4 fois 4 et des berlines, des euros, des dollars et des livres sterling Rap français, sur sa tête, place le réticule So Mac Tyer, j'veux qu'ma bitch aille en SLK chez le pédicure Dans l'complot comme la NBC comme la NBC, ekip, ekip J'suis dans Futbin, j'fais des SBC, j'arrive Chinois comme la HSBC Quand on rentre, ça sent la loud dans l'lobby So la secte chaque jour, j'serais rien sans l'lobby Freeze Corleone aka The Collector, so Tical supreme neck protector Sur la prod', j'prends tes chevilles comme Professor ou Bone Collector Mort aux porcs, justice pour Adama, so Nick, pendez-les comme en Alabama Chen Zen, Galsen comme Baaba Maal, que j'leur mets des vitesses comme Adama Bientôt, j'me présente aux municipales, so Lil B le Basedgod Sous potion avec les xans, j'vois flou, j'marche comme un zombie de Days Gone han, hé 20-20, Menace Fantôme pétasse, ekip J'veux la Continental et la Phantom, pétasse</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4688,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Elle aime l'argent, donc j'prends l'argent Musicalement le monde, rien d'étonnant XXX jeune bitch, comme une bonne jeune bitch XXX pour toi, jeune bitch On fait ça au calme, tu trouves ça fun, bitch Fendi, Prada, Maison Margiela J'veux ci, j'veux ça, Jorrdee Escobar Crack musique, on a la recette Craque le stick, pop la Prometh' Pas de bitch, j'ai 2 phones-tél' J'sais plus sur lequel écrire mes textes Fout la merde, fout la merde, fout la merde Drogue et billets verts ou violets Coup d'crosse avec le pistolet Si j'prends ta vie, qu'est-c'qu'j'vais dire à ta mère ? Actavis fait maison XXX les ondes, pas pareil pute nègre J'fais des millions, toi des centaines J'veux brick sur brick, XXX aussi Cavale sec mais on dirait pas en vrai J'fous la merde, fuck ces rappeurs Tu t'appellerais pas Tobias Beecher ? Je veux beaucoup d'biff Fuck un champ de coton XXX île de Gorée Exécute bitch nègre sur le peloton Salope, n'hausse pas l'ton Salope, j'suis pas ton fils Le Rap c'est des histoires de meufs Des Instagram et des on-dit Le Rap c'est des histoires de meufs, fuck ça Le Rap c'est des histoires de meufs, fuck ça You might also like Dans mon clan que des élus Supra-négritude jusqu'aux cellules Il m'faut beaucoup d'cash pour ma progéniture Pour tout mes négros du Bathing Ape, OG Kush Chivas, Promethazine, codéine pure Fuck le Rap Game, tous ces négros sont faux LV venant d'Chine Invisible, j'suis comme le vent, bitch J'prie pour pas finir en 206 Furtif, napparaît pas sur les écrans Grâce aux substances j'me débranche Fais cette merde sans aucun stress Chaque jour c'est trop facile, presque étrange Négro, so à mes Nazgûl Crache flammes sur prod du Mordor 2015 salope, allonge la thune XXX jet-skis, hors-bords Mangemort Squad, Ligue des Ombres On prend l'cash, on s'casse comme des blédards So à mes loups-garous Tous tes négros s'comportent comme des clébards Je veux beaucoup d'biff Fuck un champ de coton XXX île de Gorée Exécute bitch nègre sur le peloton Salope, n'hausse pas l'ton Salope, j'suis pas ton fils Le Rap c'est des histoires de meufs Des Instagram et des on-dit Le Rap c'est des histoires de meufs, fuck ça Le Rap c'est des histoires de meufs, fuck ça J'suis la OG, toi la locale Magie nègre avec crotale Tu galères, fais ça au calme Ces négros sont dus-per comme le Caucase, hein Hiéroglyphes, gratte énigmes Dans la trap en mode leanin' Tyrannie, impose régime Flingue cette pute tous les jours, jamais j'hésite, ah 667, ah Maison-mère, négro shalom Entre ces PDs j'slalome Cons' la verte, fonscar jusqu'à l'aube Ayo, 1017, ah Smokin' gas, free Guwap Des fois j'roule des battes comme si Sur chaque main j'possédais 6 doigts Montagne de kush de la taille de Khéops 2015, je viens fourrer ta poule J'me sens comme Hamilton, toute la journée ça roule OV, le Rap est sérop' NRM oblige nouvelle ère Les baise en scred, de manière sous-terraine Je veux beaucoup d'biff Fuck un champ de coton XXX île de Gorée Exécute bitch nègre sur le peloton Salope, n'hausse pas l'ton Salope, j'suis pas ton fils Le Rap c'est des histoires de meufs Des Instagram et des on-dit Le Rap c'est des histoires de meufs, fuck ça Le Rap c'est des histoires de meufs, fuck ça1</t>
+          <t>Elle aime l'argent, donc j'prends l'argent Musicalement le monde, rien d'étonnant XXX jeune bitch, comme une bonne jeune bitch XXX pour toi, jeune bitch On fait ça au calme, tu trouves ça fun, bitch Fendi, Prada, Maison Margiela J'veux ci, j'veux ça, Jorrdee Escobar Crack musique, on a la recette Craque le stick, pop la Prometh' Pas de bitch, j'ai 2 phones-tél' J'sais plus sur lequel écrire mes textes Fout la merde, fout la merde, fout la merde Drogue et billets verts ou violets Coup d'crosse avec le pistolet Si j'prends ta vie, qu'est-c'qu'j'vais dire à ta mère ? Actavis fait maison XXX les ondes, pas pareil pute nègre J'fais des millions, toi des centaines J'veux brick sur brick, XXX aussi Cavale sec mais on dirait pas en vrai J'fous la merde, fuck ces rappeurs Tu t'appellerais pas Tobias Beecher ? Je veux beaucoup d'biff Fuck un champ de coton XXX île de Gorée Exécute bitch nègre sur le peloton Salope, n'hausse pas l'ton Salope, j'suis pas ton fils Le Rap c'est des histoires de meufs Des Instagram et des on-dit Le Rap c'est des histoires de meufs, fuck ça Le Rap c'est des histoires de meufs, fuck ça Dans mon clan que des élus Supra-négritude jusqu'aux cellules Il m'faut beaucoup d'cash pour ma progéniture Pour tout mes négros du Bathing Ape, OG Kush Chivas, Promethazine, codéine pure Fuck le Rap Game, tous ces négros sont faux LV venant d'Chine Invisible, j'suis comme le vent, bitch J'prie pour pas finir en 206 Furtif, napparaît pas sur les écrans Grâce aux substances j'me débranche Fais cette merde sans aucun stress Chaque jour c'est trop facile, presque étrange Négro, so à mes Nazgûl Crache flammes sur prod du Mordor 2015 salope, allonge la thune XXX jet-skis, hors-bords Mangemort Squad, Ligue des Ombres On prend l'cash, on s'casse comme des blédards So à mes loups-garous Tous tes négros s'comportent comme des clébards Je veux beaucoup d'biff Fuck un champ de coton XXX île de Gorée Exécute bitch nègre sur le peloton Salope, n'hausse pas l'ton Salope, j'suis pas ton fils Le Rap c'est des histoires de meufs Des Instagram et des on-dit Le Rap c'est des histoires de meufs, fuck ça Le Rap c'est des histoires de meufs, fuck ça J'suis la OG, toi la locale Magie nègre avec crotale Tu galères, fais ça au calme Ces négros sont dus-per comme le Caucase, hein Hiéroglyphes, gratte énigmes Dans la trap en mode leanin' Tyrannie, impose régime Flingue cette pute tous les jours, jamais j'hésite, ah 667, ah Maison-mère, négro shalom Entre ces PDs j'slalome Cons' la verte, fonscar jusqu'à l'aube Ayo, 1017, ah Smokin' gas, free Guwap Des fois j'roule des battes comme si Sur chaque main j'possédais 6 doigts Montagne de kush de la taille de Khéops 2015, je viens fourrer ta poule J'me sens comme Hamilton, toute la journée ça roule OV, le Rap est sérop' NRM oblige nouvelle ère Les baise en scred, de manière sous-terraine Je veux beaucoup d'biff Fuck un champ de coton XXX île de Gorée Exécute bitch nègre sur le peloton Salope, n'hausse pas l'ton Salope, j'suis pas ton fils Le Rap c'est des histoires de meufs Des Instagram et des on-dit Le Rap c'est des histoires de meufs, fuck ça Le Rap c'est des histoires de meufs, fuck ça1</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4705,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Là dedans, on est déjà dead Donc évite de nous casser les couilles avec ton Rap Game Bitch, j'suis content quand ton sang tombe à terre Si j'meurs ce soir, comme Solaar fuck la terre Mixture fatale dans l'sang Multiplication des effets, drogue du viol, drogue douce Des cadavres, pirates qui rappent On va vous pendre comme en Irak, on vous fuck tous On vous fuck tous, Grey Goose à la bouche Mes boules sur ta louloute Tu luttes mais tu kiffes, XXX j'les étouffe Tombent tous dans l'gouffre pendant qu'la beuh est mise dans le four Seul Dieu au-dessus d'nous On dirait que dans leur camp ils l'ont tous oublié Oublié comme THC, GHB Jordy, Freezy, fonsdés hiver comme été Pour jouer, j'ai pas l'temps Donc fuck votre Game, moi j'veux de l'argent De l'argent, des champs de chanvre De temps en temps j'y pense, j'y pense, j't'assure qu'j'y pense On sera là jusqu'à c'que nos yeux se ferment De manière définitive Arsenal nucléaire secret Négro, nombreuses seront les victimes Victimisés, tétanisés, négro J'suis là pour tous les prostituer LT RT, on vise, on tire Dans cette merde, on est 2 bâtons d'TNT You might also like Là dedans, on est déjà dead Donc évite de nous casser les couilles avec ton Rap Game Bitch, j'suis content quand ton sang tombe à terre Si j'meurs ce soir, comme Solaar fuck la terre J'ai erré dans la street comme un chien, un fantôme Fanta XXX dans mon gobelet Ces gos me veulent, je perds la vue Je vis comme j'ai envie, han Là dedans, on est déjà dead Donc évite de nous casser les couilles avec ton Rap Game Bitch, j'suis content quand ton sang tombe à terre Si j'meurs ce soir, comme Solaar fuck la terre Irai-je au paradis ? Aucune parade Face au doyen, il voit ce que je vis, moi j'vis C'qu'il a voulu, je jure que je lutte Mais du vice à la vertu, c'est vice-versa, han x2 Là dedans, on est déjà dead Donc évite de nous casser les couilles avec ton Rap Game Bitch, j'suis content quand ton sang tombe à terre Si j'meurs ce soir, comme Solaar fuck la terre</t>
+          <t>Là dedans, on est déjà dead Donc évite de nous casser les couilles avec ton Rap Game Bitch, j'suis content quand ton sang tombe à terre Si j'meurs ce soir, comme Solaar fuck la terre Mixture fatale dans l'sang Multiplication des effets, drogue du viol, drogue douce Des cadavres, pirates qui rappent On va vous pendre comme en Irak, on vous fuck tous On vous fuck tous, Grey Goose à la bouche Mes boules sur ta louloute Tu luttes mais tu kiffes, XXX j'les étouffe Tombent tous dans l'gouffre pendant qu'la beuh est mise dans le four Seul Dieu au-dessus d'nous On dirait que dans leur camp ils l'ont tous oublié Oublié comme THC, GHB Jordy, Freezy, fonsdés hiver comme été Pour jouer, j'ai pas l'temps Donc fuck votre Game, moi j'veux de l'argent De l'argent, des champs de chanvre De temps en temps j'y pense, j'y pense, j't'assure qu'j'y pense On sera là jusqu'à c'que nos yeux se ferment De manière définitive Arsenal nucléaire secret Négro, nombreuses seront les victimes Victimisés, tétanisés, négro J'suis là pour tous les prostituer LT RT, on vise, on tire Dans cette merde, on est 2 bâtons d'TNT Là dedans, on est déjà dead Donc évite de nous casser les couilles avec ton Rap Game Bitch, j'suis content quand ton sang tombe à terre Si j'meurs ce soir, comme Solaar fuck la terre J'ai erré dans la street comme un chien, un fantôme Fanta XXX dans mon gobelet Ces gos me veulent, je perds la vue Je vis comme j'ai envie, han Là dedans, on est déjà dead Donc évite de nous casser les couilles avec ton Rap Game Bitch, j'suis content quand ton sang tombe à terre Si j'meurs ce soir, comme Solaar fuck la terre Irai-je au paradis ? Aucune parade Face au doyen, il voit ce que je vis, moi j'vis C'qu'il a voulu, je jure que je lutte Mais du vice à la vertu, c'est vice-versa, han x2 Là dedans, on est déjà dead Donc évite de nous casser les couilles avec ton Rap Game Bitch, j'suis content quand ton sang tombe à terre Si j'meurs ce soir, comme Solaar fuck la terre</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4722,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Flex avec ma bitch Dans les rues de Paris J'attends les gâteries Ils achètent les mollys Négro de quoi tu m'parles ? J'm'endors avec mon gas, je me lève avec mon gas Négro si tu m'vois Pas besoin d'me demander si ça gaze Gas sur gas sur gas ça fume, ça sizz' pas J't'ai cramé et t'assumes pas FDS comme J'trébuche comme un SDF Défoncé comme SD mec J'dépense comme une pute très belle Toi tu cons' ta pute très laide Maman m'avait pas prévenu D'aussi grosses tchoins Canaille, j'la rentre Jusqu'à son poitrail Dans les parages avec une mule J'me pavane comme un mafieux Dans la rue j'ai 4 z'yeux Trois quand You might also like Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati Seul lopito ouais j'shoot, négro Pèche même quand c'est la marée basse J'veux m'en sortir et sans croûte, négro J'suis sérieux comme un carré d'as OV, mes négros des fêlés yeah J'me bouge le cul car j'veux les doughs J'ai pas leur niveau en quoi que ce soit Négro même quand je les jam, on peut te les djo Qu'est c't'as cru ? Papy ça lack pas Mes négros préparent l'arsenal Lopito, j'me soigne par le mal Et j'pourrais pas tolérer qu'tu parles mal J'cons' tellement la soupe rouge C'est moi qui vais noyer ma lean Fous l'feu, prends le cash, les 'tasses En face entre moi et ma clique Face à moi une putain d'erreur Mon adversaire pourrait bien être soyé à vie Si tu touches ma famille, je serai un homme Avec des bracelets sur les poignets à vie J'dilue la matière grasse Dans la boisson framboisée Négro j'veux les allumer en croisé Ne me parle pas, j'suis faya en 3G Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati So Kaki, cerveau camo' En défense comme Sergio Ramos Future luxure à Dakar Cortège dans négros gamos Ninja comme les tortues Audio dope comme les drogues dures Pour d'l'or pur on les torture J'veux des lunettes avec de l'or sur les bordures 667 comme GFG, négro Sur des bails de killuminati REP Shakur, chaque jour Chen Zen Sur des bails de killuminati Quotidiennement fume gas So Slim Chavez, négro J'peux pas enfanter une garce Vous comme au patinage, nous comme hockey sur glace Goddamn, négro A Dakar, en CFA on veut grave des liasses Ça taffe, ça crame des niaks Oublie tout grâce à l'amnesiax Toujours des barres Sans réseau ou sans crédit Négro pour vivre la jet life Comme Spitta Andretti, squad Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati</t>
+          <t>Flex avec ma bitch Dans les rues de Paris J'attends les gâteries Ils achètent les mollys Négro de quoi tu m'parles ? J'm'endors avec mon gas, je me lève avec mon gas Négro si tu m'vois Pas besoin d'me demander si ça gaze Gas sur gas sur gas ça fume, ça sizz' pas J't'ai cramé et t'assumes pas FDS comme J'trébuche comme un SDF Défoncé comme SD mec J'dépense comme une pute très belle Toi tu cons' ta pute très laide Maman m'avait pas prévenu D'aussi grosses tchoins Canaille, j'la rentre Jusqu'à son poitrail Dans les parages avec une mule J'me pavane comme un mafieux Dans la rue j'ai 4 z'yeux Trois quand Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati Seul lopito ouais j'shoot, négro Pèche même quand c'est la marée basse J'veux m'en sortir et sans croûte, négro J'suis sérieux comme un carré d'as OV, mes négros des fêlés yeah J'me bouge le cul car j'veux les doughs J'ai pas leur niveau en quoi que ce soit Négro même quand je les jam, on peut te les djo Qu'est c't'as cru ? Papy ça lack pas Mes négros préparent l'arsenal Lopito, j'me soigne par le mal Et j'pourrais pas tolérer qu'tu parles mal J'cons' tellement la soupe rouge C'est moi qui vais noyer ma lean Fous l'feu, prends le cash, les 'tasses En face entre moi et ma clique Face à moi une putain d'erreur Mon adversaire pourrait bien être soyé à vie Si tu touches ma famille, je serai un homme Avec des bracelets sur les poignets à vie J'dilue la matière grasse Dans la boisson framboisée Négro j'veux les allumer en croisé Ne me parle pas, j'suis faya en 3G Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati So Kaki, cerveau camo' En défense comme Sergio Ramos Future luxure à Dakar Cortège dans négros gamos Ninja comme les tortues Audio dope comme les drogues dures Pour d'l'or pur on les torture J'veux des lunettes avec de l'or sur les bordures 667 comme GFG, négro Sur des bails de killuminati REP Shakur, chaque jour Chen Zen Sur des bails de killuminati Quotidiennement fume gas So Slim Chavez, négro J'peux pas enfanter une garce Vous comme au patinage, nous comme hockey sur glace Goddamn, négro A Dakar, en CFA on veut grave des liasses Ça taffe, ça crame des niaks Oublie tout grâce à l'amnesiax Toujours des barres Sans réseau ou sans crédit Négro pour vivre la jet life Comme Spitta Andretti, squad Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Gas moquette, hasch' pocket Malade quand y a pas d'roquette Killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati OVG, catacombes, négro Killuminati On veut les dineros le plus vite possible Mais killuminati</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4739,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Osirus Jack Tu sais j'promets que l'enfer à ta go Kilo de khat, on les mâche J'veux lopito, de la lean, gros les Ferragamo Facile au mic on les lave On arrive comme Nibiru, MMS ça s'annonce On s'fait seul-tout comme les haut-gradés D'la franc-maçonnerie, tu vois qu'NRM ça s'annonce 667, bande de rois noirs Les domestiques seront d'couleur claire Ils cons' en douce, cons' en douce Gros XXX pour l'or, perles Black pyramide flow, set down Tous les putains d'jours, vise le ten tao Cons' la merde et t'es meltdown OV trop déf' Gas, cod', faut des prometh' Le mélange est violet Pop des phéner' et des molly au mètre LDO négro Plus dangereux que les plans de la MK fuck la MK Ultra Après dix litres Yeuz clos, REP à mon red cup OVG Pas de remède pour les douilles, so JP Morgan Batte de la taille de 100 mètres Sous colmète, tu te vide d'tes organes You might also like Né pour gagner Négro check les génotypes Supra-nègre Sabre laser noir, débarque avec mes néo-siths 667 Sur la prod, kick des hiéroglyphes Goddamn Incomparable à tous ces néophytes Né pour gagner Négro check les génotypes Supra-nègre Sabre laser noir, débarque avec mes néo-siths 667 Sur la prod, kick des hiéroglyphes Goddamn Incomparable à tous ces néophytes Dans un game au-dessus d'vous on flotte En apesanteur, dans l'espace on complote Renoi rien qu'on fait des hits, toi tu floppes Fuck négocier, on agit toi tu troques Pét' sur pét' sur l'beat comme un glock J'écoute tes 16, j'dis qu'c'est des grosses crottes Bitch négro, tu gères les putes, aimes les sottes Dans le Rap Game, rien qu'ça baisse des frocs Ça mixe les clopes, shit dans l'corps XXX Dieu noir va éclore XXX sur les porcs comme XXX Reste cool, gros on plane, on est en essor Noirs en éveil, croie en Dieu donc on est forts Quand tu t'appliques, on t'baise sans effort Juste de passage, donc j'prie pour mon sort Ma foi est XXX La chillance 'vec mes démons sont mes tords Fonce dans les sous-sols, dans l'eau comme des cloportes Game inspiré des macs, so Too Short XXX de toutes sortes Avec mes négros dans le bando Galérant, s'butant à la Nintendo Toujours avec Mrs. S feuilles de chanvre Transforme ta meuf en petite femme de chambre Né pour gagner Négro check les génotypes Supra-nègre Sabre laser noir, débarque avec mes néo-siths 667 Sur la prod, kick des hiéroglyphes Goddamn Incomparable à tous ces néophytes Né pour gagner Négro check les génotypes Supra-nègre Sabre laser noir, débarque avec mes néo-siths 667 Sur la prod, kick des hiéroglyphes Goddamn Incomparable à tous ces néophytes</t>
+          <t>Osirus Jack Tu sais j'promets que l'enfer à ta go Kilo de khat, on les mâche J'veux lopito, de la lean, gros les Ferragamo Facile au mic on les lave On arrive comme Nibiru, MMS ça s'annonce On s'fait seul-tout comme les haut-gradés D'la franc-maçonnerie, tu vois qu'NRM ça s'annonce 667, bande de rois noirs Les domestiques seront d'couleur claire Ils cons' en douce, cons' en douce Gros XXX pour l'or, perles Black pyramide flow, set down Tous les putains d'jours, vise le ten tao Cons' la merde et t'es meltdown OV trop déf' Gas, cod', faut des prometh' Le mélange est violet Pop des phéner' et des molly au mètre LDO négro Plus dangereux que les plans de la MK fuck la MK Ultra Après dix litres Yeuz clos, REP à mon red cup OVG Pas de remède pour les douilles, so JP Morgan Batte de la taille de 100 mètres Sous colmète, tu te vide d'tes organes Né pour gagner Négro check les génotypes Supra-nègre Sabre laser noir, débarque avec mes néo-siths 667 Sur la prod, kick des hiéroglyphes Goddamn Incomparable à tous ces néophytes Né pour gagner Négro check les génotypes Supra-nègre Sabre laser noir, débarque avec mes néo-siths 667 Sur la prod, kick des hiéroglyphes Goddamn Incomparable à tous ces néophytes Dans un game au-dessus d'vous on flotte En apesanteur, dans l'espace on complote Renoi rien qu'on fait des hits, toi tu floppes Fuck négocier, on agit toi tu troques Pét' sur pét' sur l'beat comme un glock J'écoute tes 16, j'dis qu'c'est des grosses crottes Bitch négro, tu gères les putes, aimes les sottes Dans le Rap Game, rien qu'ça baisse des frocs Ça mixe les clopes, shit dans l'corps XXX Dieu noir va éclore XXX sur les porcs comme XXX Reste cool, gros on plane, on est en essor Noirs en éveil, croie en Dieu donc on est forts Quand tu t'appliques, on t'baise sans effort Juste de passage, donc j'prie pour mon sort Ma foi est XXX La chillance 'vec mes démons sont mes tords Fonce dans les sous-sols, dans l'eau comme des cloportes Game inspiré des macs, so Too Short XXX de toutes sortes Avec mes négros dans le bando Galérant, s'butant à la Nintendo Toujours avec Mrs. S feuilles de chanvre Transforme ta meuf en petite femme de chambre Né pour gagner Négro check les génotypes Supra-nègre Sabre laser noir, débarque avec mes néo-siths 667 Sur la prod, kick des hiéroglyphes Goddamn Incomparable à tous ces néophytes Né pour gagner Négro check les génotypes Supra-nègre Sabre laser noir, débarque avec mes néo-siths 667 Sur la prod, kick des hiéroglyphes Goddamn Incomparable à tous ces néophytes</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4756,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Ah ouais, c'est le boom bye bye Hafrite riche, c'est le boom bye bye L'Euphon qui tourne saï-saï Baye Fall bomboclot Prends ton Glock et assume OVG, Dakar city gangstas Fuck l'Etat, faut qu'j'fasse Beaucoup de biff, un peu de paille Le temps que tu jactes, je brasse la maille Mon négro Kikz te fout des baffes Une crosse, kalash et mets la soupape Un peu de tehs dans les godasses Je ne rigole point man, je te balafre Suffit du shlass, un chien de chasse Je m'en bats les couilles, je nique ta race Soldat sans grade Pas besoin d'médaille, on casse la barre On s'taille à la barre, on cale à la barre Chichaweed, on s'tape des barres Fuck l'Etat et ses vices Wallaye billeye que ces vile-ci J'les caillasserais sur un piwi Oho ihi, t'inquiètes izi You might also like Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Au combat comme un gladiateur De combat sont mes aviateurs Chen Zen, h24 fonscar J'fume comme une locomotive à vapeur Mafieux comme des Ritals 667 kartel comme des Mexicains Supra-négritude, clan d'seigneurs nègres Comme des pharaons égyptiens J'plane au-dessus d'toutes ces bitchs, négro Katana noir comme Ichigo dans Bleach, négro Cocktail rose comme le bandana à Lil B Négro, herbe verte comme le Grinch, négro So à Kikz, flow kaki LED 10000 dans nos machines So 667, BPK LT RT, la monarchie Fonscar avec le Jack noir Coté obscur, des bails de Star Wars Piscine de lean, pieds d'verte Arsenal secret, bibliothèque dans l'manoir Fuck tous ces fils de bitch Sans stress, on leur montre comment faire cette merde Dans la cuisine prépare des meurtres de fous malades Ils savent pas d'où viennent les recettes Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Black Pyramids, pas de ta catégorie J'suis une image, OV, une allégorie On s'frappe le torse, v'là les gorilles J'ai les outils mon négro Cerveau couleur kaki, fils Négro j'opère avec Black Jacky, fils J'prends le pouvoir comme Macky, fils Je rigole car tout est déjà sacrifice Téfri le meuj comme un Parigo Poste couleur Stabylo Et vous finirez tous dans des caniveaux Si vous pensez que les matchs sont amicaux Ma tête est pleine, et j'peux dire Que 0 est ce que ton acquis vaut Négro le peura est dans un bas niveau Des océans face au marigot Enflure J'commence toujours par flasher Bsahtek, j'aurai sa shnek Négro sauf si elle est cadenassée J'veux le biff de Tar-qa, j'ai La frappe de Ben Arfa mais Je suis furtif, après mission J'pars comme une fissure Carglassée Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser</t>
+          <t>Ah ouais, c'est le boom bye bye Hafrite riche, c'est le boom bye bye L'Euphon qui tourne saï-saï Baye Fall bomboclot Prends ton Glock et assume OVG, Dakar city gangstas Fuck l'Etat, faut qu'j'fasse Beaucoup de biff, un peu de paille Le temps que tu jactes, je brasse la maille Mon négro Kikz te fout des baffes Une crosse, kalash et mets la soupape Un peu de tehs dans les godasses Je ne rigole point man, je te balafre Suffit du shlass, un chien de chasse Je m'en bats les couilles, je nique ta race Soldat sans grade Pas besoin d'médaille, on casse la barre On s'taille à la barre, on cale à la barre Chichaweed, on s'tape des barres Fuck l'Etat et ses vices Wallaye billeye que ces vile-ci J'les caillasserais sur un piwi Oho ihi, t'inquiètes izi Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Au combat comme un gladiateur De combat sont mes aviateurs Chen Zen, h24 fonscar J'fume comme une locomotive à vapeur Mafieux comme des Ritals 667 kartel comme des Mexicains Supra-négritude, clan d'seigneurs nègres Comme des pharaons égyptiens J'plane au-dessus d'toutes ces bitchs, négro Katana noir comme Ichigo dans Bleach, négro Cocktail rose comme le bandana à Lil B Négro, herbe verte comme le Grinch, négro So à Kikz, flow kaki LED 10000 dans nos machines So 667, BPK LT RT, la monarchie Fonscar avec le Jack noir Coté obscur, des bails de Star Wars Piscine de lean, pieds d'verte Arsenal secret, bibliothèque dans l'manoir Fuck tous ces fils de bitch Sans stress, on leur montre comment faire cette merde Dans la cuisine prépare des meurtres de fous malades Ils savent pas d'où viennent les recettes Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Black Pyramids, pas de ta catégorie J'suis une image, OV, une allégorie On s'frappe le torse, v'là les gorilles J'ai les outils mon négro Cerveau couleur kaki, fils Négro j'opère avec Black Jacky, fils J'prends le pouvoir comme Macky, fils Je rigole car tout est déjà sacrifice Téfri le meuj comme un Parigo Poste couleur Stabylo Et vous finirez tous dans des caniveaux Si vous pensez que les matchs sont amicaux Ma tête est pleine, et j'peux dire Que 0 est ce que ton acquis vaut Négro le peura est dans un bas niveau Des océans face au marigot Enflure J'commence toujours par flasher Bsahtek, j'aurai sa shnek Négro sauf si elle est cadenassée J'veux le biff de Tar-qa, j'ai La frappe de Ben Arfa mais Je suis furtif, après mission J'pars comme une fissure Carglassée Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser Gladiateur au combat Si je meurs, un soldat Si je meurs, tu m'verras Venir donc ne m'attends pas Attentat meurtrier pour s'amuser Walleye juste Pour s'azamuser</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4773,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Navigation privée Lumière basse Aujourdhui le taf cétait crevant Donc le soir il faut que jme masse Mia mia, Lana Lana Ces deux filles la jles vois tous les soirs Á partir de seize heure jai la barre Cest pas des billets cest des mouchoirs Big tits, big ass Abonnement premium moi ja khalass Mon site préféré cest le hub Mais quand jai finis jme sens seul Je choisis les sites, easy Batterie rechargée comm mon zizi Le bail est tout dur comme un Nokia L bail est levé comme un menhir Step mom, step bro Des catégories pas très catho You might also likeMode lune activé fuck les notifs Messages de ma meuf deviennent nocifs Jaime bien me faire plaisir en solitaire Toute la journée, moi jattends Le bail est levé comme un militaire Sauf que je tire à blanc Téléphone penché toujours en paysage Jamais en mode portrait Pas dwifi jutilise mon forfait Historique sur la box on se sait Jamais sur la télé Même si jai Google installé dedans X vidéos jsuis affalé devant Très tard le soir, ou au soleil levant Les sites de fesses partout dans lhistorique Sites, sites, sites Dépend du mood pour la catégorie Un jour Latina, un jour une ebony X vie, PH, jai tous les sites Le gland finit rouge on dirait guerrier site Tu cherches une actrice, toutes les stars je les cites Navigation privée Lumière basse Aujourdhui le taf cétait crevant Donc le soir il faut que jme masse Mia mia, Lana Lana Ces deux filles la jles vois tous les soirs Á partir de seize heure jai la barre Cest pas des billets cest des mouchoirs Fuck Avengers Ici on regarde que des films érotique Soirée sur le hub sont des soirées classiques Mitrailles les pougnettes comme un automatique Je fais durer lbail, je ou je fais vite Même pour les lunettes je suis presbyte Je suis toujours propre car je mastique Jparle pas de skateboard quand je dis trique Jamais cramé je suis discret Daron ouvre la porte je fais dodo Ya plus de mouchoir mais cest pas grave Jessuie avec mon T-shirt comme un clodo Navigation, navigation Jprefere film de cul au films dactions Jutilise main gauche pour sensations Les chaussettes sont dures comme du béton Alexis Texas Pour son fessier jirais au USA Fuck le foot Jprefrere les fesses plutôt qulUEFA Fuck un anime, hentaï vie Jlis des trucs aka totoche kakashi Jai perdu a fond lcontrole de mon corps Car mon truc se lève quand je suis assis Fuck Jackie Chan Ici on soutient Jacquie et Michel Quand jai finis woo Jaime bien cirer aiguë comme Farmer Milène Jarrive, jnavigue Jpars pas, du navire Après minuit Les boules sont vides Navigation privée Lumière basse Aujourdhui le taf cétait crevant Donc le soir il faut que jme masse Mia mia, Lana Lana Ces deux filles la jles vois tous les soirs Á partir de seize heure jai la barre Cest pas des billets cest des mouchoirs Couplet remix freeze corleone Grave la haine Jtouche zizi ça calme ma haine Bail est gonflé on voit qules veines Dans le complot de brazzers pour les sous On ken dedans jarrive fort comme Aden Vk, HS et CD Tous les films X on veut les stocker Jarrive riche comme production brazzers Caméra, ingé son, monteur du projet</t>
+          <t>Navigation privée Lumière basse Aujourdhui le taf cétait crevant Donc le soir il faut que jme masse Mia mia, Lana Lana Ces deux filles la jles vois tous les soirs Á partir de seize heure jai la barre Cest pas des billets cest des mouchoirs Big tits, big ass Abonnement premium moi ja khalass Mon site préféré cest le hub Mais quand jai finis jme sens seul Je choisis les sites, easy Batterie rechargée comm mon zizi Le bail est tout dur comme un Nokia L bail est levé comme un menhir Step mom, step bro Des catégories pas très catho Mode lune activé fuck les notifs Messages de ma meuf deviennent nocifs Jaime bien me faire plaisir en solitaire Toute la journée, moi jattends Le bail est levé comme un militaire Sauf que je tire à blanc Téléphone penché toujours en paysage Jamais en mode portrait Pas dwifi jutilise mon forfait Historique sur la box on se sait Jamais sur la télé Même si jai Google installé dedans X vidéos jsuis affalé devant Très tard le soir, ou au soleil levant Les sites de fesses partout dans lhistorique Sites, sites, sites Dépend du mood pour la catégorie Un jour Latina, un jour une ebony X vie, PH, jai tous les sites Le gland finit rouge on dirait guerrier site Tu cherches une actrice, toutes les stars je les cites Navigation privée Lumière basse Aujourdhui le taf cétait crevant Donc le soir il faut que jme masse Mia mia, Lana Lana Ces deux filles la jles vois tous les soirs Á partir de seize heure jai la barre Cest pas des billets cest des mouchoirs Fuck Avengers Ici on regarde que des films érotique Soirée sur le hub sont des soirées classiques Mitrailles les pougnettes comme un automatique Je fais durer lbail, je ou je fais vite Même pour les lunettes je suis presbyte Je suis toujours propre car je mastique Jparle pas de skateboard quand je dis trique Jamais cramé je suis discret Daron ouvre la porte je fais dodo Ya plus de mouchoir mais cest pas grave Jessuie avec mon T-shirt comme un clodo Navigation, navigation Jprefere film de cul au films dactions Jutilise main gauche pour sensations Les chaussettes sont dures comme du béton Alexis Texas Pour son fessier jirais au USA Fuck le foot Jprefrere les fesses plutôt qulUEFA Fuck un anime, hentaï vie Jlis des trucs aka totoche kakashi Jai perdu a fond lcontrole de mon corps Car mon truc se lève quand je suis assis Fuck Jackie Chan Ici on soutient Jacquie et Michel Quand jai finis woo Jaime bien cirer aiguë comme Farmer Milène Jarrive, jnavigue Jpars pas, du navire Après minuit Les boules sont vides Navigation privée Lumière basse Aujourdhui le taf cétait crevant Donc le soir il faut que jme masse Mia mia, Lana Lana Ces deux filles la jles vois tous les soirs Á partir de seize heure jai la barre Cest pas des billets cest des mouchoirs Couplet remix freeze corleone Grave la haine Jtouche zizi ça calme ma haine Bail est gonflé on voit qules veines Dans le complot de brazzers pour les sous On ken dedans jarrive fort comme Aden Vk, HS et CD Tous les films X on veut les stocker Jarrive riche comme production brazzers Caméra, ingé son, monteur du projet</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4790,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Double-6 7 kartel Pyramide nègre, comme le BPK Furtif négro, indétectable Silencieux vissé au bout du Beretta Coalition d'seigneurs nègres Shout out à mes monarques En soum-soum dans les profondeurs On les repère à des kilomètres au sonar Société secrète élitiste Comme un maçon j'vais bâtir des édifices J'plane au-dessus d'eux grâce à Marie-Jeanne J'vois en slow-motion à cause de lélixir Dans l'laboratoire comme un scientifique Négro pas d'fluor dans mon dentifrice Visionnaire, futur millionnaire So à Dalsim fait des plans sur 30 piges bitch Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Freeze Corleone, négro Kikzou, Black Jack Double-6 7 sur ces fils de putes Nique Baphomet, nique le Dajjâl You might also like Double-6 7 kartel Pyramide nègre, comme le BPK Furtif négro, indétectable Silencieux vissé au bout du Berretta Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Henri VI, Henri VI Impose le NRM façon Henri VI Shout out à Osirus Jack Impose le NRM façon Henri VI Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Ce soir j'cogiterai Avec du lopito dans un bain auch Il fait bien chaud Mais pas si proche de l'Enfer comme à ma gauche Négro, 667 Biff noir comme Freeze Corleone J'achève ma journée Des séries de pompes à la table j'fous le cornet on Glisse comme si je ne crains rien J'défend, j'attaque, et je maintiens Allumé aluné gal-Sén' Mais devant le calumet j'suis le chef des Indiens J'veux total et bonus Y a du sang comme XXX Une chaîne de montagnes tah Taurus Limiter l'geste par blocus Parle pas d'focus, j'dirige mon voilier Lopito, hash', bon soyer Ne te prends pas pour le chef de mon foyer Les toux grasses seront soignées T'en verras pas deux comme Kikz Depsos tu sais pas rapper J'trouve que tes 16 mesures sonnent X Les idées, le microphone fixe Double-6 7 kartel Pyramide nègre, comme le BPK Furtif négro, indétectable Silencieux vissé au bout du Berretta Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Henri VI, Henri VI Impose le NRM façon Henri VI Shout out à Osirus Jack Impose le NRM façon Henri VI Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Gros tah, fuck l'Etat Fuck les mans qui se mêlent de ses lois Ma gueule ici, on ne rigole pas 667, Demande à Issa BPK mafia, on est là OG Kush coffré sous la ble-ta Argent sale, lean, plus de biatchs Des petits d'chez oim vont cracher sur ta face Black Jack, ça fait rratatata Dans la cave, moi je baise ta tata XXX bicrave XXX Ça prend d'la place comme un chat noir qui passe Passe, passe la weed Khoya remballe ton shit Envoie, envoie la lean Mixé facon henri VI H24 fonscar Toujours prêt pour hagar 2-3 millions d'dollards On assumera le placard En direct de Dakar Baggy baissé ak 938 on est là Viens goûter au taga Double-6 7 kartel Pyramide nègre, comme le BPK Furtif négro, indétectable Silencieux vissé au bout du Berretta Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Henri VI, Henri VI Impose le NRM façon Henri VI Shout out à Osirus Jack Impose le NRM façon Henri VI Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI</t>
+          <t>Double-6 7 kartel Pyramide nègre, comme le BPK Furtif négro, indétectable Silencieux vissé au bout du Beretta Coalition d'seigneurs nègres Shout out à mes monarques En soum-soum dans les profondeurs On les repère à des kilomètres au sonar Société secrète élitiste Comme un maçon j'vais bâtir des édifices J'plane au-dessus d'eux grâce à Marie-Jeanne J'vois en slow-motion à cause de lélixir Dans l'laboratoire comme un scientifique Négro pas d'fluor dans mon dentifrice Visionnaire, futur millionnaire So à Dalsim fait des plans sur 30 piges bitch Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Freeze Corleone, négro Kikzou, Black Jack Double-6 7 sur ces fils de putes Nique Baphomet, nique le Dajjâl Double-6 7 kartel Pyramide nègre, comme le BPK Furtif négro, indétectable Silencieux vissé au bout du Berretta Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Henri VI, Henri VI Impose le NRM façon Henri VI Shout out à Osirus Jack Impose le NRM façon Henri VI Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Ce soir j'cogiterai Avec du lopito dans un bain auch Il fait bien chaud Mais pas si proche de l'Enfer comme à ma gauche Négro, 667 Biff noir comme Freeze Corleone J'achève ma journée Des séries de pompes à la table j'fous le cornet on Glisse comme si je ne crains rien J'défend, j'attaque, et je maintiens Allumé aluné gal-Sén' Mais devant le calumet j'suis le chef des Indiens J'veux total et bonus Y a du sang comme XXX Une chaîne de montagnes tah Taurus Limiter l'geste par blocus Parle pas d'focus, j'dirige mon voilier Lopito, hash', bon soyer Ne te prends pas pour le chef de mon foyer Les toux grasses seront soignées T'en verras pas deux comme Kikz Depsos tu sais pas rapper J'trouve que tes 16 mesures sonnent X Les idées, le microphone fixe Double-6 7 kartel Pyramide nègre, comme le BPK Furtif négro, indétectable Silencieux vissé au bout du Berretta Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Henri VI, Henri VI Impose le NRM façon Henri VI Shout out à Osirus Jack Impose le NRM façon Henri VI Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Gros tah, fuck l'Etat Fuck les mans qui se mêlent de ses lois Ma gueule ici, on ne rigole pas 667, Demande à Issa BPK mafia, on est là OG Kush coffré sous la ble-ta Argent sale, lean, plus de biatchs Des petits d'chez oim vont cracher sur ta face Black Jack, ça fait rratatata Dans la cave, moi je baise ta tata XXX bicrave XXX Ça prend d'la place comme un chat noir qui passe Passe, passe la weed Khoya remballe ton shit Envoie, envoie la lean Mixé facon henri VI H24 fonscar Toujours prêt pour hagar 2-3 millions d'dollards On assumera le placard En direct de Dakar Baggy baissé ak 938 on est là Viens goûter au taga Double-6 7 kartel Pyramide nègre, comme le BPK Furtif négro, indétectable Silencieux vissé au bout du Berretta Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI Henri VI, Henri VI Impose le NRM façon Henri VI Shout out à Osirus Jack Impose le NRM façon Henri VI Khaliss dans nos têtes, salope Faut qu'ça s'enrichisse Shout out à Osirus Jack Impose le NRM façon Henri VI</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4807,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Ftt, ftt Ekip, ekip, MMS, NRM 667 Kaki, Corleone, 20-16, pétasse Han, yeah J'arrive lourd au mic comme Pat Williams gaddamn, gaddamn, ekip, so Sur l'terrain efficace comme 4 Willian Ftt, ftt Killuminati comme Katt Williams gaddamn MMS, LDO, NRM, 667, c'est la secte, pétasse J'ai les yeuz rouges, c'est la sep, pétasse Nazi noir dans la BM ou la A7, pétasse J'dab sur cette pute, so Takeoff, so Offset sku Tu m'écoutes, tu t'améliores Négro, dis au moins so Prof Chen gaddamn On veut les berlines, pas les citadines, gaddamn sku Audio drogue dure, 667 c'est la sisa, bitch Négro, t'es dépassé tah les FIFA 10, ekip J'attends l'projet Blue Beam, so à la NASA Homme de l'ombre, pensées sombres, négro so Mazalaza Loup garou de l'Ouest, j'arrive avec Kaki, fils So Abou Faraj, fume le paki, fils Chen Zen, comme Luffy j'ai le haki, fils, ekip You might also like On arrive pour les fafs, et on s'casse comme des hommes de l'ombre So Mazalaza, ça s'faya comme des hommes de l'ombre LDO, ken tes gows comme des hommes de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Révolue l'époque de Kirikou On rigole pas, bande de anencéphales Gros, j'suis un savant des talles Cadence étale, on veut vacances et fafs, eh Fufu, ta meuf est sous cochon Pouvoir, si tu peux l'capter, c'que nous offrons So Freezer, j'ai la vision comme Sauron T-shirt coton, Lopi', j'fly comme un faucon, eh So José Guapo, fuck le rap game Négro, on se sent trop pas en danger sur l'terrain J'tire et j'te ken, mais j'suis pas ce bouffon que tu canarderas J'veux juste bander sur tes ein-s OV kartel kaki, négro So Madani, XXX Négro tu sais qu'on les cane et puis les lime Tu fais le malin, tu tals et tu dévies Néo-coco, le sang est rouge mais tantôt vert African gangster, kevlar sous le boubou J'pars en chasse, pas de manteau d'guerre Néo-coco, le sang est rouge mais tantôt vert African gangster, kevlar sous le boubou J'pars en chasse, pas de manteau d'guerre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre So Mazalaza, ça s'faya comme des hommes de l'ombre LDO, ken tes gows comme des hommes de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre</t>
+          <t>Ftt, ftt Ekip, ekip, MMS, NRM 667 Kaki, Corleone, 20-16, pétasse Han, yeah J'arrive lourd au mic comme Pat Williams gaddamn, gaddamn, ekip, so Sur l'terrain efficace comme 4 Willian Ftt, ftt Killuminati comme Katt Williams gaddamn MMS, LDO, NRM, 667, c'est la secte, pétasse J'ai les yeuz rouges, c'est la sep, pétasse Nazi noir dans la BM ou la A7, pétasse J'dab sur cette pute, so Takeoff, so Offset sku Tu m'écoutes, tu t'améliores Négro, dis au moins so Prof Chen gaddamn On veut les berlines, pas les citadines, gaddamn sku Audio drogue dure, 667 c'est la sisa, bitch Négro, t'es dépassé tah les FIFA 10, ekip J'attends l'projet Blue Beam, so à la NASA Homme de l'ombre, pensées sombres, négro so Mazalaza Loup garou de l'Ouest, j'arrive avec Kaki, fils So Abou Faraj, fume le paki, fils Chen Zen, comme Luffy j'ai le haki, fils, ekip On arrive pour les fafs, et on s'casse comme des hommes de l'ombre So Mazalaza, ça s'faya comme des hommes de l'ombre LDO, ken tes gows comme des hommes de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Révolue l'époque de Kirikou On rigole pas, bande de anencéphales Gros, j'suis un savant des talles Cadence étale, on veut vacances et fafs, eh Fufu, ta meuf est sous cochon Pouvoir, si tu peux l'capter, c'que nous offrons So Freezer, j'ai la vision comme Sauron T-shirt coton, Lopi', j'fly comme un faucon, eh So José Guapo, fuck le rap game Négro, on se sent trop pas en danger sur l'terrain J'tire et j'te ken, mais j'suis pas ce bouffon que tu canarderas J'veux juste bander sur tes ein-s OV kartel kaki, négro So Madani, XXX Négro tu sais qu'on les cane et puis les lime Tu fais le malin, tu tals et tu dévies Néo-coco, le sang est rouge mais tantôt vert African gangster, kevlar sous le boubou J'pars en chasse, pas de manteau d'guerre Néo-coco, le sang est rouge mais tantôt vert African gangster, kevlar sous le boubou J'pars en chasse, pas de manteau d'guerre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre So Mazalaza, ça s'faya comme des hommes de l'ombre LDO, ken tes gows comme des hommes de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre On arrive pour les fafs, et on s'casse comme des hommes de l'ombre Homme de l'ombre, homme de l'ombre Pas de stupidité, extrême furtivité comme des hommes de l'ombre</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4824,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Hey, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne Vision hors-normes, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne Sans clé, j'défonce la porte, pourvu que ça rapporte Chaque beat te coûte un pote, pourvu que ça papote Ces négros ne m'ont pas cru pourtant j'avais prévenu Ces négros ne m'ont pas vu pourtant ils jurent m'avoir aperçu J'ai le camouflage optique, j'arrive toujours par surprise Les lois du pouvoir j'les maîtrise, tu peux demander à El Freeze Swagé Senegalese, si tu marques j'égalise Si t'es chaud j'rivalise, si je rêve je réalise Depuis qu'j'suis à Dakar, j'ai les bras à Dhalsim J'veux du biff plein les bassines, que ma plume te fascine Que l'autotune t'assassine, que mes tubes te calcinent Faire rouler le business, faire rouler la Mercedes You might also like Hey, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne Vision hors-normes, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne LDO, tu peux pas berner la secte, biatch Idées claires, j'ai diminué la sèpe, biatch Les fouette sans stress, à 2 comme à 7, biatch Gaddamn, là pour prendre le pouvoir comme Macky Pouvoir royal comme haki, furtif, invisible, camouflé comme kaki Goddamn, négro ça lacke pas Satan bugge quand il voit qu'ça lacke pas Négro nique ton Euphon, nique ton Acta' J'veux que du cash noir, pas d'black card Goddamn, infiltré comme le MI6 Précis au mic négro, comme un Navy SEAL J'vendrai jamais mon âme, la mafia là pour des gros sous Haha, tu t'crois à notre niveau, bitch négro, tu dois être trop soûl Goddamn, so Rifa, j'peux pas progresser sans vision, négro En mission négro, jeune dieu noir en élévation Pharaoniques ambitions négro, squad Hey, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne Vision hors-normes, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne</t>
+          <t>Hey, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne Vision hors-normes, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne Sans clé, j'défonce la porte, pourvu que ça rapporte Chaque beat te coûte un pote, pourvu que ça papote Ces négros ne m'ont pas cru pourtant j'avais prévenu Ces négros ne m'ont pas vu pourtant ils jurent m'avoir aperçu J'ai le camouflage optique, j'arrive toujours par surprise Les lois du pouvoir j'les maîtrise, tu peux demander à El Freeze Swagé Senegalese, si tu marques j'égalise Si t'es chaud j'rivalise, si je rêve je réalise Depuis qu'j'suis à Dakar, j'ai les bras à Dhalsim J'veux du biff plein les bassines, que ma plume te fascine Que l'autotune t'assassine, que mes tubes te calcinent Faire rouler le business, faire rouler la Mercedes Hey, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne Vision hors-normes, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne LDO, tu peux pas berner la secte, biatch Idées claires, j'ai diminué la sèpe, biatch Les fouette sans stress, à 2 comme à 7, biatch Gaddamn, là pour prendre le pouvoir comme Macky Pouvoir royal comme haki, furtif, invisible, camouflé comme kaki Goddamn, négro ça lacke pas Satan bugge quand il voit qu'ça lacke pas Négro nique ton Euphon, nique ton Acta' J'veux que du cash noir, pas d'black card Goddamn, infiltré comme le MI6 Précis au mic négro, comme un Navy SEAL J'vendrai jamais mon âme, la mafia là pour des gros sous Haha, tu t'crois à notre niveau, bitch négro, tu dois être trop soûl Goddamn, so Rifa, j'peux pas progresser sans vision, négro En mission négro, jeune dieu noir en élévation Pharaoniques ambitions négro, squad Hey, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne Vision hors-normes, vision hors-normes Rap Game rempli d'clébards, fufus comme Elton John Flingue le cro-mi comme j't'ai promis, money, donne donne Vision hors-normes négro, money, Don cogne</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4841,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait Hubble So RAS Han soupape par la file de gauche comme Alaba Sku Trouve-moi avec la secte mixe le lin fume des grosse battes à la base MMS Clan 500 Squad, branché so la connexion Killu' à vie, j'ai peur que de Dieu, blindé so la protection, EkipYou might also like</t>
+          <t>Paroles issues d'un extrait Hubble So RAS Han soupape par la file de gauche comme Alaba Sku Trouve-moi avec la secte mixe le lin fume des grosse battes à la base MMS Clan 500 Squad, branché so la connexion Killu' à vie, j'ai peur que de Dieu, blindé so la protection, Ekip</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4858,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Don Black, on les pardonne pas C'est Dieu qui donnera, on tallume ta mère sans contact Les pions d'en haut, on t'les secoue Il mfaut un sac pesos lourdes Woo Si c'est pas un vaisseau Han On joue aux échecs, pas aux dames Pétasse, il m'faut le cash à Hogan Fume la Cali', pas la locale Le quartier , lil' nigga J'suis dans l'sujet , lil' nigga La d-wee me rend paro manYou might also like</t>
+          <t>Don Black, on les pardonne pas C'est Dieu qui donnera, on tallume ta mère sans contact Les pions d'en haut, on t'les secoue Il mfaut un sac pesos lourdes Woo Si c'est pas un vaisseau Han On joue aux échecs, pas aux dames Pétasse, il m'faut le cash à Hogan Fume la Cali', pas la locale Le quartier , lil' nigga J'suis dans l'sujet , lil' nigga La d-wee me rend paro man</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4875,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Défracté, en orbite négro Avec ma flotte dans l'espace Sous hydroponique comme à MTL Cons' du lean comme au Texas Osirus Jack, Corleone, Dubble Fume du chewing-gum, des bails de bubble Niveau 3, j'vois des mots qui défilent sans aucun stress, négro J'arrange cette merde comme un puzzle, négro Vision slow-motion Shout out à la pharmacie J'me sens comme un arabe nazi, négro Comme Tragedy Khadafi Racle le canon comme à QB So Odeuro-ze, négro Un démon très véner scellé en moi Des bails de Kyûbi x2 Cons' du lean comme au Texas Haha Noir comme un pharaon Négro comme un esclave Dans l'bando ça complote Négro, sous hydroponique Osirus Jack, Corleone, Dubble Assassinat microphonique You might also like Mangemort Squad, on pilote Faya dans le Airbus, la pirogue Négro j'innove, OVG BPK, c'est la tri-force Osirus Jack, Freeze Corleone Dubble G Tranquille sans stress Vous allez nous cons' comme la bubble fils J'fais des quenelles et des clés d'bras Le Rap Game rempli d'clébards Chie sur ces bétails En orbite ça fly sur du kétam' Tue les MC's en temps d'guerre Pas rose, noire est la panthère Sur l'terrain Faya avec un tank vert x2 Cons' du lean comme au Texas Haha Noir comme un pharaon Négro comme un esclave Dans l'bando ça complote Négro, sous hydroponique Osirus Jack, Corleone, Dubble Assassinat microphonique Négro on est sous lean Dans le bando avec mes OVG Shout out à leurs teams C'est des bails d'extraction D'la pilule bleue d'prométhazine On fait ça trop deuspi Ta mère est pas sûre, elle rembobine T'écoutes la Fouine, j'hallucine Négro, avec du vrai trap on est bercé On veut des millions comme au tiercé Si on doit fuck un faux fleuriste Négro, il aura les lèvres gercées C'est des bails de silencieux J'rappe comme ça quand j'veux Pull up en gova Ça sent déjà le pneu x2 Cons' du lean comme au Texas Haha Noir comme un pharaon Négro comme un esclave Dans l'bando ça complote Négro, sous hydroponique Osirus Jack, Corleone, Dubble Assassinat microphonique</t>
+          <t>Défracté, en orbite négro Avec ma flotte dans l'espace Sous hydroponique comme à MTL Cons' du lean comme au Texas Osirus Jack, Corleone, Dubble Fume du chewing-gum, des bails de bubble Niveau 3, j'vois des mots qui défilent sans aucun stress, négro J'arrange cette merde comme un puzzle, négro Vision slow-motion Shout out à la pharmacie J'me sens comme un arabe nazi, négro Comme Tragedy Khadafi Racle le canon comme à QB So Odeuro-ze, négro Un démon très véner scellé en moi Des bails de Kyûbi x2 Cons' du lean comme au Texas Haha Noir comme un pharaon Négro comme un esclave Dans l'bando ça complote Négro, sous hydroponique Osirus Jack, Corleone, Dubble Assassinat microphonique Mangemort Squad, on pilote Faya dans le Airbus, la pirogue Négro j'innove, OVG BPK, c'est la tri-force Osirus Jack, Freeze Corleone Dubble G Tranquille sans stress Vous allez nous cons' comme la bubble fils J'fais des quenelles et des clés d'bras Le Rap Game rempli d'clébards Chie sur ces bétails En orbite ça fly sur du kétam' Tue les MC's en temps d'guerre Pas rose, noire est la panthère Sur l'terrain Faya avec un tank vert x2 Cons' du lean comme au Texas Haha Noir comme un pharaon Négro comme un esclave Dans l'bando ça complote Négro, sous hydroponique Osirus Jack, Corleone, Dubble Assassinat microphonique Négro on est sous lean Dans le bando avec mes OVG Shout out à leurs teams C'est des bails d'extraction D'la pilule bleue d'prométhazine On fait ça trop deuspi Ta mère est pas sûre, elle rembobine T'écoutes la Fouine, j'hallucine Négro, avec du vrai trap on est bercé On veut des millions comme au tiercé Si on doit fuck un faux fleuriste Négro, il aura les lèvres gercées C'est des bails de silencieux J'rappe comme ça quand j'veux Pull up en gova Ça sent déjà le pneu x2 Cons' du lean comme au Texas Haha Noir comme un pharaon Négro comme un esclave Dans l'bando ça complote Négro, sous hydroponique Osirus Jack, Corleone, Dubble Assassinat microphonique</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4909,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>La tension ne retombe pas entre Paris et Alger, près de soixante ans après la fin de la colonisation. Tout est parti des déclarations, il y a une dizaine de jours, d'Emmanuel Macron qui dit que l'Algérie vit sur une rente mémorielle. Colère d'Alger, qui a interdit notamment le survol de son territoire par les avions français de l'opération Barkhane. Voilà où on en est. Hier soir, le président algérien a pris la parole, la première fois depuis le début de cette crise diplomatique, et euh... Il a demandé à la France de respecter l'État algérien Lybie, en août dernier. En pleine nuit, un homme s'adresse à la foule. Des hommes grands et forts pour les travaux de la ferme, dit-il. Des prix, ceux de ces migrants, vendus mille-deux-cents dinars lybiens, sept-cent-quarante-deux euros. Une enchère aux esclaves. Une vidéo que s'est procuré la chaîne américaine CNN et dont elle a pu vérifier l'authenticité. Après des mois d'investigations, cette équipe arrive à se rendre sur place en Lybie. En caméra cachée, elle assiste à une vente d'êtres humains D'êtres humains, d'êtres humainsYou might also like</t>
+          <t>La tension ne retombe pas entre Paris et Alger, près de soixante ans après la fin de la colonisation. Tout est parti des déclarations, il y a une dizaine de jours, d'Emmanuel Macron qui dit que l'Algérie vit sur une rente mémorielle. Colère d'Alger, qui a interdit notamment le survol de son territoire par les avions français de l'opération Barkhane. Voilà où on en est. Hier soir, le président algérien a pris la parole, la première fois depuis le début de cette crise diplomatique, et euh... Il a demandé à la France de respecter l'État algérien Lybie, en août dernier. En pleine nuit, un homme s'adresse à la foule. Des hommes grands et forts pour les travaux de la ferme, dit-il. Des prix, ceux de ces migrants, vendus mille-deux-cents dinars lybiens, sept-cent-quarante-deux euros. Une enchère aux esclaves. Une vidéo que s'est procuré la chaîne américaine CNN et dont elle a pu vérifier l'authenticité. Après des mois d'investigations, cette équipe arrive à se rendre sur place en Lybie. En caméra cachée, elle assiste à une vente d'êtres humains D'êtres humains, d'êtres humains</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4926,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Han, hey Ekip, ekip, ekip, han MMS, LDO, NRM, 667, pétasse Hey, han, ekip, han, ekip, ekip Un xan, deux xan, j'commence à marcher comme un mort-vivant bitch Jsais qu'j'vais brûler mais tous les jours au réveil, jremercie l'Seigneur d'être encore vivant Pétasse, j'porte pas de Philipp Plein, Chen Zen aka Philipp Lin Même pas faya après 4 phillies pleins Tire une taf de la loud, tu tousses comme si t'as une bronchite J'roule un gros fumigène, négro, j'mets un tout p'tit peu de tabac sur mon shit Fils de pute tu disparais deuss, comme un meuj de C Rien dans les narines mais jgratte que des lignes comme un geush de C Allô allô han, winwin le plug sku, j'décolle, jpull up, j'vais récup' le colis sku, sku Dans Dakar ves-qui les plaques AD et les véhicules de police Négro, on s'pète la nuit bée-tom pour les transacs Jsais où ils sont donc j'contourne les grands axes J'veux la villa en bord de mer Avec les raptor, les jets, la piscine et les transat' goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis Négro, j'suis kain-kain à mort, j'veux l'argent noir et la couronne comme Elvis Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers Comme Kodak, capture le moment, fils C'est comment, fils ? J'viens prendre les commandes, fils Winwinwin, so mes Belges, j'arrive killuminati comme en nonante six 2k18 Star Wars II, c'est plein d'clones Trouble de la personnalité, j'ai des symptômes Dieu et le fer, j'me sens plus protégé que si j'étais sous cinq dômes J'veux dix briques dans mes pockets J'fume des missiles, j'fume des roquettes Dans le lin depuis longtemps comme la ville des Rockets J'roule mon teh, y'a au moins 72 boulettes Blindage du village, so Kaki négro, proof-bullet J'mets la potion dans la Kirène, allume d'l'alarme Quand tu sens c'est comme si t'entends la sirène Négro, il me faut plus de liquidités qu'il y en a dans les comptes en banque à six reines goddamn, goddamn Sans aucun stress j'en bute 18, négro Tous les jours, des kamas, j'en fume 18 sous lin Fais des scores de tennis dans FUT 18, ekip You might also like Allô allô, winwin le plug sku J'décolle, j'pull up, j'vais récup' le colis sku, sku Négro on s'pète la nuit bée-tom pour les transac' J'sais où ils sont donc j'contourne les grands axes sku, sku, han, goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis lin, goddamn Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers goddamn27</t>
+          <t>Han, hey Ekip, ekip, ekip, han MMS, LDO, NRM, 667, pétasse Hey, han, ekip, han, ekip, ekip Un xan, deux xan, j'commence à marcher comme un mort-vivant bitch Jsais qu'j'vais brûler mais tous les jours au réveil, jremercie l'Seigneur d'être encore vivant Pétasse, j'porte pas de Philipp Plein, Chen Zen aka Philipp Lin Même pas faya après 4 phillies pleins Tire une taf de la loud, tu tousses comme si t'as une bronchite J'roule un gros fumigène, négro, j'mets un tout p'tit peu de tabac sur mon shit Fils de pute tu disparais deuss, comme un meuj de C Rien dans les narines mais jgratte que des lignes comme un geush de C Allô allô han, winwin le plug sku, j'décolle, jpull up, j'vais récup' le colis sku, sku Dans Dakar ves-qui les plaques AD et les véhicules de police Négro, on s'pète la nuit bée-tom pour les transacs Jsais où ils sont donc j'contourne les grands axes J'veux la villa en bord de mer Avec les raptor, les jets, la piscine et les transat' goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis Négro, j'suis kain-kain à mort, j'veux l'argent noir et la couronne comme Elvis Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers Comme Kodak, capture le moment, fils C'est comment, fils ? J'viens prendre les commandes, fils Winwinwin, so mes Belges, j'arrive killuminati comme en nonante six 2k18 Star Wars II, c'est plein d'clones Trouble de la personnalité, j'ai des symptômes Dieu et le fer, j'me sens plus protégé que si j'étais sous cinq dômes J'veux dix briques dans mes pockets J'fume des missiles, j'fume des roquettes Dans le lin depuis longtemps comme la ville des Rockets J'roule mon teh, y'a au moins 72 boulettes Blindage du village, so Kaki négro, proof-bullet J'mets la potion dans la Kirène, allume d'l'alarme Quand tu sens c'est comme si t'entends la sirène Négro, il me faut plus de liquidités qu'il y en a dans les comptes en banque à six reines goddamn, goddamn Sans aucun stress j'en bute 18, négro Tous les jours, des kamas, j'en fume 18 sous lin Fais des scores de tennis dans FUT 18, ekip Allô allô, winwin le plug sku J'décolle, j'pull up, j'vais récup' le colis sku, sku Négro on s'pète la nuit bée-tom pour les transac' J'sais où ils sont donc j'contourne les grands axes sku, sku, han, goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis lin, goddamn Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers goddamn27</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4943,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Han, hey Ekip, ekip, ekip, han MMS, LDO, NRM, 667, pétasse Hey, han, ekip, han, ekip, ekip Un xan, deux xan, j'commence à marcher comme un mort-vivant bitch J'sais qu'j'vais brûler mais tous les jours au réveil, j'remercie l'Seigneur d'être encore vivant Pétasse, j'porte pas de Philipp Plein, Chen Zen aka Philipp Lin Même pas faya après 4 phillies pleins Tire une taf de la loud, tu tousses comme si t'as une bronchite J'roule un gros fumigène, négro, j'mets un tout p'tit peu de tabac sur mon shit Fils de pute tu disparais deuss', comme un meuj de C Rien dans les narines mais j'gratte que des lignes comme un geush de C Allô allô han, winwin le plug sku, j'décolle, j'pull up, j'vais récup' le colis sku, sku Dans Dakar ves-qui les plaques AD et les véhicules de police Négro, on s'pète la nuit bée-tom pour les transacs J'sais où ils sont donc j'contourne les grands axes J'veux la villa en bord de mer Avec les raptor, les jets, la piscine et les transat' goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis Négro, j'suis kain-kain à mort, j'veux l'argent noir et la couronne comme Elvis Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers Comme Kodak, capture le moment, fils C'est comment, fils ? J'viens prendre les commandes, fils Winwinwin, so mes Belges, j'arrive killuminati comme en nonante six 2k18 Star Wars II, c'est plein d'clones Trouble de la personnalité, j'ai des symptômes Dieu et le fer, j'me sens plus protégé que si j'étais sous cinq dômes J'veux dix briques dans mes pockets J'fume des missiles, j'fume des roquettes Dans le lin depuis longtemps comme la ville des Rockets J'roule mon teh, y'a au moins 72 boulettes Blindage du village, so Kaki négro, proof-bullet J'mets la potion dans la Kirène, allume d'l'alarme Quand tu sens c'est comme si t'entends la sirène Négro, il me faut plus de liquidités qu'il y en a dans les comptes en banque à six reines goddamn, goddamn Sans aucun stress j'en bute 18, négro Tous les jours, des kamas, j'en fume 18 sous lin Fais des scores de tennis dans FUT 18, ekip You might also like Allô allô, winwin le plug sku J'décolle, j'pull up, j'vais récup' le colis sku, sku Négro on s'pète la nuit bée-tom pour les transac' J'sais où ils sont donc j'contourne les grands axes sku, sku, han, goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis lin, goddamn Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers goddamn</t>
+          <t>Han, hey Ekip, ekip, ekip, han MMS, LDO, NRM, 667, pétasse Hey, han, ekip, han, ekip, ekip Un xan, deux xan, j'commence à marcher comme un mort-vivant bitch J'sais qu'j'vais brûler mais tous les jours au réveil, j'remercie l'Seigneur d'être encore vivant Pétasse, j'porte pas de Philipp Plein, Chen Zen aka Philipp Lin Même pas faya après 4 phillies pleins Tire une taf de la loud, tu tousses comme si t'as une bronchite J'roule un gros fumigène, négro, j'mets un tout p'tit peu de tabac sur mon shit Fils de pute tu disparais deuss', comme un meuj de C Rien dans les narines mais j'gratte que des lignes comme un geush de C Allô allô han, winwin le plug sku, j'décolle, j'pull up, j'vais récup' le colis sku, sku Dans Dakar ves-qui les plaques AD et les véhicules de police Négro, on s'pète la nuit bée-tom pour les transacs J'sais où ils sont donc j'contourne les grands axes J'veux la villa en bord de mer Avec les raptor, les jets, la piscine et les transat' goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis Négro, j'suis kain-kain à mort, j'veux l'argent noir et la couronne comme Elvis Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers Comme Kodak, capture le moment, fils C'est comment, fils ? J'viens prendre les commandes, fils Winwinwin, so mes Belges, j'arrive killuminati comme en nonante six 2k18 Star Wars II, c'est plein d'clones Trouble de la personnalité, j'ai des symptômes Dieu et le fer, j'me sens plus protégé que si j'étais sous cinq dômes J'veux dix briques dans mes pockets J'fume des missiles, j'fume des roquettes Dans le lin depuis longtemps comme la ville des Rockets J'roule mon teh, y'a au moins 72 boulettes Blindage du village, so Kaki négro, proof-bullet J'mets la potion dans la Kirène, allume d'l'alarme Quand tu sens c'est comme si t'entends la sirène Négro, il me faut plus de liquidités qu'il y en a dans les comptes en banque à six reines goddamn, goddamn Sans aucun stress j'en bute 18, négro Tous les jours, des kamas, j'en fume 18 sous lin Fais des scores de tennis dans FUT 18, ekip Allô allô, winwin le plug sku J'décolle, j'pull up, j'vais récup' le colis sku, sku Négro on s'pète la nuit bée-tom pour les transac' J'sais où ils sont donc j'contourne les grands axes sku, sku, han, goddamn Freeze Corleone aka Tom Elvis J'arrive dans les médocs comme Elvis lin, goddamn Sans aucun stress, sip un verre de danger lin, lin, lin, lin J'fume que d'la frappe comme le maire de Tanger Bellek, j'suis dans l'complot comme le maire de Angers goddamn</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4960,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Yeah, heart like the muerte, push the door, you'll never really know what's waiting behind Men are weak and women know it, homie, I'm no longer scared of Satan So Gangster Gentleman, I'm Jacques like Mesrine or Lacan Amédée king, that's prophetic, I found the opps lacking If I'd walk past me in the street, I'll likely find myself detestable And psyche, is really serious, don't come tell me that havin' two fathers is stable Raise deviantes on a pedestal and within their foolishness, I see people connecting New Global Rap, I'ma not well-behave, dress by Boss like the Chancellor I walk with Somalis, they don't get it and when I walk alone I'm a supremacist I know I'm a bother, I got red laces like a Blood or a super Marxist I see lots of hoes with white collars and lots of brave men within dirty business Your white rappers are castratos, me I'm straight out of Arkansas So the Black so the Black, respect means everything respect means everything The french scene, is my son's nuts that these fags are chopping And rap music, is tough and rap music, is tough, go ask Tony Parker Tony Parker Spetsnaz team, mo-mode hardcore, no hitmarker So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club You might also like Into pyramides, we pray Allah while meditating The micro-ship within our veins like the blood of the Christ I fast 40 days and pray 40 nights My encrypted music, hieroglyphic Into the green room, kneeling on a carpet We study the forbidden books Every nights, I leave in spaceship To the milky way Albator Anunnaki, Israelite from Berlin, logo Audi Pro-black American, Atlanta, Chicago, Queensbridge R.I.P. Pop Smoke, Brooklyn, 9.3, Freeze Corleone, 6.6.7 and GG, the bazooka from Afghanistan huh, huh So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club Huh, Django, Chen, Heenoko ekip, fuck Mbappé like Assou-Ekotto ah Either it goes in, either it hits the posts paw, I aim the lens on every photos pah Headshot, 100 points pah, we wash them, shampoo ah Within my circles not lopsided nah, pedophile death, lopsided smile ah Fuck these niggas, they are souless, so Loto, killu' to death like Saddam ekip Audio, Adam, I'm the beginning and the end like Adam yeah 667, GG ekip, triangular trade hug Killu' for life, nigga, everything is pyramidal, everything is triangular biatch Ekip huh, so the sect, Chen Zen aka Freeze Raël paw, paw And apparently, we don't have the right to talk 'bout The government listen to us shit Corleone, on every hit, I chop ekip Making dough, under the sun, under the drops paw We're out here to take every cup hah, ekip So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club</t>
+          <t>Yeah, heart like the muerte, push the door, you'll never really know what's waiting behind Men are weak and women know it, homie, I'm no longer scared of Satan So Gangster Gentleman, I'm Jacques like Mesrine or Lacan Amédée king, that's prophetic, I found the opps lacking If I'd walk past me in the street, I'll likely find myself detestable And psyche, is really serious, don't come tell me that havin' two fathers is stable Raise deviantes on a pedestal and within their foolishness, I see people connecting New Global Rap, I'ma not well-behave, dress by Boss like the Chancellor I walk with Somalis, they don't get it and when I walk alone I'm a supremacist I know I'm a bother, I got red laces like a Blood or a super Marxist I see lots of hoes with white collars and lots of brave men within dirty business Your white rappers are castratos, me I'm straight out of Arkansas So the Black so the Black, respect means everything respect means everything The french scene, is my son's nuts that these fags are chopping And rap music, is tough and rap music, is tough, go ask Tony Parker Tony Parker Spetsnaz team, mo-mode hardcore, no hitmarker So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club Into pyramides, we pray Allah while meditating The micro-ship within our veins like the blood of the Christ I fast 40 days and pray 40 nights My encrypted music, hieroglyphic Into the green room, kneeling on a carpet We study the forbidden books Every nights, I leave in spaceship To the milky way Albator Anunnaki, Israelite from Berlin, logo Audi Pro-black American, Atlanta, Chicago, Queensbridge R.I.P. Pop Smoke, Brooklyn, 9.3, Freeze Corleone, 6.6.7 and GG, the bazooka from Afghanistan huh, huh So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club Huh, Django, Chen, Heenoko ekip, fuck Mbappé like Assou-Ekotto ah Either it goes in, either it hits the posts paw, I aim the lens on every photos pah Headshot, 100 points pah, we wash them, shampoo ah Within my circles not lopsided nah, pedophile death, lopsided smile ah Fuck these niggas, they are souless, so Loto, killu' to death like Saddam ekip Audio, Adam, I'm the beginning and the end like Adam yeah 667, GG ekip, triangular trade hug Killu' for life, nigga, everything is pyramidal, everything is triangular biatch Ekip huh, so the sect, Chen Zen aka Freeze Raël paw, paw And apparently, we don't have the right to talk 'bout The government listen to us shit Corleone, on every hit, I chop ekip Making dough, under the sun, under the drops paw We're out here to take every cup hah, ekip So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club So le Flem, so the Congo Bill Django, Heenoko, Kémi Seba The Ku Klux Klan, the black and the white We fraternize with the Bush family in the Bohemian Club</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4977,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Ok mec, j'sais même pas dans quoi tu m'as lancé Ta tête commence à danser peu d'temps après qu'j'ai commencé A kicker, habité par des esprits quand je rappe Agile et habile, c'est vraiment très rare quand je rate Ma cible, donc doucement, fais attention à moi garçon On m'appelle Freezer, à c'qui parait j'suis froid comme des glaçons Mothahfuckah, j'suis fort comme Cro Cop, j'suis chaud Comme une cocotte minute, tu t'dis zut, un première année qui t'bizute Sur l'beat j'tue, ouais j'suis là pour l'hagar J'sais même pas comment ça s'écrit mais fuck ça, c'est pas grave Ok, tu m'connais, j'pose avec mon flow à l'ancienne Mais j'suis juste plus fort, j'suis l'Barça et toi t'es Valenciennes Attends mec, mais qu'est-ce qui s'passe, t'inquiète c'est normal Y a des variations de température dès que Freeze passe Posé sur mon sofa avec mon soda, je potasse mes rimes Donc niggas appelle-moi si tu veux des grosses phases Un bic, de quoi écrire, gros c'est mes seules fournitures Si tu m'dis qu'tu kiffes j'suis saucé, sans être de la nourriture Pas trop un lascard, ça s'voit dans mes phases car J'essaye d'être vrai dans mes textes, j'en ai fini donc là j'pars, peaceYou might also like</t>
+          <t>Ok mec, j'sais même pas dans quoi tu m'as lancé Ta tête commence à danser peu d'temps après qu'j'ai commencé A kicker, habité par des esprits quand je rappe Agile et habile, c'est vraiment très rare quand je rate Ma cible, donc doucement, fais attention à moi garçon On m'appelle Freezer, à c'qui parait j'suis froid comme des glaçons Mothahfuckah, j'suis fort comme Cro Cop, j'suis chaud Comme une cocotte minute, tu t'dis zut, un première année qui t'bizute Sur l'beat j'tue, ouais j'suis là pour l'hagar J'sais même pas comment ça s'écrit mais fuck ça, c'est pas grave Ok, tu m'connais, j'pose avec mon flow à l'ancienne Mais j'suis juste plus fort, j'suis l'Barça et toi t'es Valenciennes Attends mec, mais qu'est-ce qui s'passe, t'inquiète c'est normal Y a des variations de température dès que Freeze passe Posé sur mon sofa avec mon soda, je potasse mes rimes Donc niggas appelle-moi si tu veux des grosses phases Un bic, de quoi écrire, gros c'est mes seules fournitures Si tu m'dis qu'tu kiffes j'suis saucé, sans être de la nourriture Pas trop un lascard, ça s'voit dans mes phases car J'essaye d'être vrai dans mes textes, j'en ai fini donc là j'pars, peace</t>
         </is>
       </c>
     </row>
@@ -5002,7 +4994,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Fête ta mort au calme, so à Blacky fils Au-dessus d'vous comme des feux d'artifice Niveau 3, négro J'vois la vie derrière un objectif, un flou artistique J'me sens comme Max Payne, vision slow-mo' 667 sur les polos Sans aucun stress, fume des chronos J'veux M16 silencieux, viseur holo', négro Dans cette merde pour l'cash L'or jaune et les palais, goddamn Jeunes entrepreneurs noirs On veut des dividendes, nique des salaires J'veux nager dans l'or comme Picsou Drifter dans des Bentley, des Ferrari Lopito dans l'palais so à Kixou Cerveau et flow kakis comme des marines Au-dessus d'eux on lévite Lestat fait trembler les vitres So à mes tireurs d'élite Sans stress, sans faire exprès on les nique, négro Gouap, Corleone Faya XXX, rouleurs tout-terrains MMS monarchie, négro Prend d'l'ampleur dans les sous-terrains NRM impose la dictature De Dakar jusqu'à Foshan So à Loto, négro Faya j'deviens Freezer Socrate So Roi, so à Cero Sous hydroponique comme à MTL Aquarium dans l'bando, négro Mixe cette merde comme à ATL You might also like Négro, cerveau et flow Couleur BP-kaki Direct dans ton esprit Des bails de télépathie Cod'-prometh', Marie-Jeanne Yeuz plissés comme Jackie Chan J'viens prendre le pouvoir comme Macky Sall Flow sorti des profondeurs abyssales Négro, cerveau et flow Couleur BP-kaki Direct dans ton esprit Des bails de télépathie Cod'-prometh', Marie-Jeanne Yeuz plissés comme Jackie Chan J'viens prendre le pouvoir comme Macky Sall Flow sorti des profondeurs abyssales Au calme dans le BP J'consomme substance, j'suis moins fatigué Beaucoup d'vos MC's seraient mi-morts Beaucoup d'entre eux devraient être annulés Posé dans l'bloc opératoire JorrdeeLestat, on part en chirurgie R2T Clan En affiliation avec la monarchie Nonchalant mais y a l'talent La détermination du Ghetto Fab' Gang J'en place une pour 5.20 La bicrave pour toujours, à jamais dans ma tête J'craque ma batte, rien à foutre des deks Y a plus de weed que d'tabac, quand je roule mon XXX J'craque ma batte, rien à foutre des deks Y a plus de weed que d'tabac, XXX Brr brr, ça fait des bruits bizarres XXX XXX T'prends pas la tête y a pas d'lézard RTT, 667 Dans le bando recherche la chaleur Midi 12, minuit 7 Pélo bats les couilles de ton heure Négros veulent des gamos Faire n'importe quoi, CJ à Los Santos Mais ces négros fument des garos Bicrave, on a jamais l'matos J'remballe les balles au katana Gouapato Chen Zen XXX T'es sous l'emprise de mon en Négro, cerveau et flow Couleur BP-kaki Direct dans ton esprit Des bails de télépathie Cod'-prometh', Marie-Jeanne Yeuz plissés comme Jackie Chan J'viens prendre le pouvoir comme Macky Sall Flow sorti des profondeurs abyssales Négro, cerveau et flow Couleur BP-kaki Direct dans ton esprit Des bails de télépathie Cod'-prometh', Marie-Jeanne Yeuz plissés comme Jackie Chan J'viens prendre le pouvoir comme Macky Sall Flow sorti des profondeurs abyssales</t>
+          <t>Fête ta mort au calme, so à Blacky fils Au-dessus d'vous comme des feux d'artifice Niveau 3, négro J'vois la vie derrière un objectif, un flou artistique J'me sens comme Max Payne, vision slow-mo' 667 sur les polos Sans aucun stress, fume des chronos J'veux M16 silencieux, viseur holo', négro Dans cette merde pour l'cash L'or jaune et les palais, goddamn Jeunes entrepreneurs noirs On veut des dividendes, nique des salaires J'veux nager dans l'or comme Picsou Drifter dans des Bentley, des Ferrari Lopito dans l'palais so à Kixou Cerveau et flow kakis comme des marines Au-dessus d'eux on lévite Lestat fait trembler les vitres So à mes tireurs d'élite Sans stress, sans faire exprès on les nique, négro Gouap, Corleone Faya XXX, rouleurs tout-terrains MMS monarchie, négro Prend d'l'ampleur dans les sous-terrains NRM impose la dictature De Dakar jusqu'à Foshan So à Loto, négro Faya j'deviens Freezer Socrate So Roi, so à Cero Sous hydroponique comme à MTL Aquarium dans l'bando, négro Mixe cette merde comme à ATL Négro, cerveau et flow Couleur BP-kaki Direct dans ton esprit Des bails de télépathie Cod'-prometh', Marie-Jeanne Yeuz plissés comme Jackie Chan J'viens prendre le pouvoir comme Macky Sall Flow sorti des profondeurs abyssales Négro, cerveau et flow Couleur BP-kaki Direct dans ton esprit Des bails de télépathie Cod'-prometh', Marie-Jeanne Yeuz plissés comme Jackie Chan J'viens prendre le pouvoir comme Macky Sall Flow sorti des profondeurs abyssales Au calme dans le BP J'consomme substance, j'suis moins fatigué Beaucoup d'vos MC's seraient mi-morts Beaucoup d'entre eux devraient être annulés Posé dans l'bloc opératoire JorrdeeLestat, on part en chirurgie R2T Clan En affiliation avec la monarchie Nonchalant mais y a l'talent La détermination du Ghetto Fab' Gang J'en place une pour 5.20 La bicrave pour toujours, à jamais dans ma tête J'craque ma batte, rien à foutre des deks Y a plus de weed que d'tabac, quand je roule mon XXX J'craque ma batte, rien à foutre des deks Y a plus de weed que d'tabac, XXX Brr brr, ça fait des bruits bizarres XXX XXX T'prends pas la tête y a pas d'lézard RTT, 667 Dans le bando recherche la chaleur Midi 12, minuit 7 Pélo bats les couilles de ton heure Négros veulent des gamos Faire n'importe quoi, CJ à Los Santos Mais ces négros fument des garos Bicrave, on a jamais l'matos J'remballe les balles au katana Gouapato Chen Zen XXX T'es sous l'emprise de mon en Négro, cerveau et flow Couleur BP-kaki Direct dans ton esprit Des bails de télépathie Cod'-prometh', Marie-Jeanne Yeuz plissés comme Jackie Chan J'viens prendre le pouvoir comme Macky Sall Flow sorti des profondeurs abyssales Négro, cerveau et flow Couleur BP-kaki Direct dans ton esprit Des bails de télépathie Cod'-prometh', Marie-Jeanne Yeuz plissés comme Jackie Chan J'viens prendre le pouvoir comme Macky Sall Flow sorti des profondeurs abyssales</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5011,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Han El Freeze, le Canadair MC fais gaffe, d'en-haut, je largue ma merde Double-F Gang, à la recherche de la daillance, yes J'arrive en planant, une forte odeur émanant De moi, la skunk, voilà c'que j'utilise comme calmant Lyricalement brutal, vestimentairement parlant Une snapback, des Vans blacks et Levi's est mon futal Attends, j'respire, j'ai des textes qui Provoquent des pertes de cheveux, un 16 et t'es chauve comme Britney Spears J'extirpe des rimes de mon cerveau jusqu'au papier J'ai pas d'tié-pi, quand j'kicke, je ne fais pas de quartier Vous commencez à m'connaitre, habitués des punchlines lourdes J'trace ma route, du 'sky dans ma gourde J'fais pas d'bourde au microphone sauf si j'suis té-cla Même si j'en fais, fuck ça parce que quand j'kicke, je fous des claques De bûcheron avec la chemise qui va bien, ouais, ça l'fait Lourds sont mes sons, transforment ton MP3 en altère Trop d'flow, avec mes textes tes oreilles, je désaltère J'ai fais c'que j'avais à faire, donc peace, je redémarre, yeahYou might also like</t>
+          <t>Han El Freeze, le Canadair MC fais gaffe, d'en-haut, je largue ma merde Double-F Gang, à la recherche de la daillance, yes J'arrive en planant, une forte odeur émanant De moi, la skunk, voilà c'que j'utilise comme calmant Lyricalement brutal, vestimentairement parlant Une snapback, des Vans blacks et Levi's est mon futal Attends, j'respire, j'ai des textes qui Provoquent des pertes de cheveux, un 16 et t'es chauve comme Britney Spears J'extirpe des rimes de mon cerveau jusqu'au papier J'ai pas d'tié-pi, quand j'kicke, je ne fais pas de quartier Vous commencez à m'connaitre, habitués des punchlines lourdes J'trace ma route, du 'sky dans ma gourde J'fais pas d'bourde au microphone sauf si j'suis té-cla Même si j'en fais, fuck ça parce que quand j'kicke, je fous des claques De bûcheron avec la chemise qui va bien, ouais, ça l'fait Lourds sont mes sons, transforment ton MP3 en altère Trop d'flow, avec mes textes tes oreilles, je désaltère J'ai fais c'que j'avais à faire, donc peace, je redémarre, yeah</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5028,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Du futur j'viens comme John Titor Homme blessé comme Dark Vador Vengeance comme Terminator Comme Jorrdee gars on cherche l'or Sur l'polo alligator Bras long comme crâne à Junior Vous êtes là, c'est pour l'décor On sort tout droit du Mordor Zuukou, négro astucieux Mais comme Denis j'suis malicieux La 667 luxurieuse Souhaite-moi donc une mort heureuse So Berlusconi Norsa' Nos sommes seront faramineuses Jeune trans tu nous déçois J'comprends pourquoi ta meuf est curieuse Négro so Zuukou Monte un empire comme Koba Dans l'bando ça fout l'trouble Shout out Chief, Love Sosa Argent, monnaie, beaucoup Double 6, cosa nostra Souffle l'oxygène dans la soucoupe Même dans l'ciel tu vois plus notre trace On est dans les étoiles On est là sans être là Vois l'écart qui nous sépare d'eux Fuck ces négros phaseux Sont même pas moi divisé par deux Là pour laisser trace Odeux' surplus d'air dans mes Nike Que j'brûle en enfer si j'mets pas l'feu You might also like Fonscar sur le périph' j'salome Chen Zen, captain comme John Terry salope Ahah Noir et blanc comme un dalmatien Dans la boîte comme un pharmacien Mixe le sky comme un Alsacien 2014 Merde en diarrhée pour les fanatiques Au-dessus d'eux, grandit vers le bas Négro comme des stalactites Corleone Odeux', Zuukou Là pour des gros sous On est beaucoup Chaque jour comme un Chinois J'ai pas été sobre depuis 6 mois Goddamn négro J'écris mes 16 dans mon grimoire x3</t>
+          <t>Du futur j'viens comme John Titor Homme blessé comme Dark Vador Vengeance comme Terminator Comme Jorrdee gars on cherche l'or Sur l'polo alligator Bras long comme crâne à Junior Vous êtes là, c'est pour l'décor On sort tout droit du Mordor Zuukou, négro astucieux Mais comme Denis j'suis malicieux La 667 luxurieuse Souhaite-moi donc une mort heureuse So Berlusconi Norsa' Nos sommes seront faramineuses Jeune trans tu nous déçois J'comprends pourquoi ta meuf est curieuse Négro so Zuukou Monte un empire comme Koba Dans l'bando ça fout l'trouble Shout out Chief, Love Sosa Argent, monnaie, beaucoup Double 6, cosa nostra Souffle l'oxygène dans la soucoupe Même dans l'ciel tu vois plus notre trace On est dans les étoiles On est là sans être là Vois l'écart qui nous sépare d'eux Fuck ces négros phaseux Sont même pas moi divisé par deux Là pour laisser trace Odeux' surplus d'air dans mes Nike Que j'brûle en enfer si j'mets pas l'feu Fonscar sur le périph' j'salome Chen Zen, captain comme John Terry salope Ahah Noir et blanc comme un dalmatien Dans la boîte comme un pharmacien Mixe le sky comme un Alsacien 2014 Merde en diarrhée pour les fanatiques Au-dessus d'eux, grandit vers le bas Négro comme des stalactites Corleone Odeux', Zuukou Là pour des gros sous On est beaucoup Chaque jour comme un Chinois J'ai pas été sobre depuis 6 mois Goddamn négro J'écris mes 16 dans mon grimoire x3</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5045,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Le rappeur Freeze Corleone, de son nom Issa Lorenzo Diakhaté, a un talent indéniable. Et il est absolument regrettable que ce talent avéré soit mis aux services de propos absolument inqualifiables racisme, antisémitisme. Et ce talent donne un pouvoir, une influence tout à fait considérables aux propos inadmissibles quil tient Han, ekip, ekip, ekip, ekip Négro, j'me sens comme un imprimeur Han j'fais qu'penser au papier J'regarde le rap français, j'vois beaucoup d'fausses Rolex et de fausses Cartier J'suis très très loin du M.A.X. Han, la Cali sort de L.A.X L.A Plus de prises qu'un judoka, négro, j'suis connecté comme une Tesla X Sku Roule, roule des cigares comme à La Havane, j'suis comme Heisenberg dans la caravane White So PIGE Studios qui porte la cam, j'consomme plus que dix Porsche Macan Sku, sku Chaque couplet, c'est des gros dégâts, Chen, Flem, Rayane aka Soap, Ghost et Gaz New York cité comme des Bodega New York, jamais d'ma vie j'mets des Bottega Jamais Il m'faut une grosse villa à Hawaï Là-bas, que j'brasse plus que Dana White Cash Avant la panenka, j'parle au goal, j'coffre au cas où j'dois m'exfiltrer comme Carlos Ghosn Han Usine, gros Swisher plein d'essence, j'suis fonc du 22 au 21 décembre Ils ont activé l'lobby jusqu'à Washington, fuck leurs présidents, de Biden jusqu'à Washington Tous Et négro, que ça stonk, jarrive mal fonc, j'fume la Pineapple Gas Bomb J'suis tout en haut d'la tour, jsuis pas encore arrivé tout en haut d'la courbe Non J'préfère les armes que la salle de sport, faut qu'j'fasse le maximum sur la carte de Score Han So Gouap, yeuz plissés comme Jackie, fuck ces négros, c'est des francs-maçons comme Shaquille Ekip, ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Sk' sk' sku C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma Ftt, ftt J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti Sku J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Brr C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip, ekip You might also like J'arrive Memphis comme Finesse2fois Deux fois, minimum par match en finesse deux fois Deux 20.20, j'suis rentré, j'ai laissé ouvert Ouvert, 20.23, j'remets les couverts Encore Sur l'terrain, que des techniciens Ftt ftt, faut plus de câble qu'un électricien Gifle la prod comme un sumotori, j'suis comme Mike Maignan, t'es comme Hugo Lloris Eh Ils captent pas c'que j'dis comme si j'rappe du morse Nan, dix-mille fois plus de lignes qu'à Gare du Nord Dix-mille Négro, trouve-moi dans la Berline en train d'rouler un gros teh à la place du mort Fume comme nous, tu visites les urgences Direct, on sort des sous-sols comme en résurgence Noir sur noir comme le Raider Klan Han, j'ai les meilleures plantes et les meilleures plans J'arrive sous xan comme Michael Jackson Ha ha, ils imaginent pas les bails que j'actionne Jamais Ils ont tremblé jusqu'au Parlement, ils veulent me faire, j'augmente le budget armement Pah Pyramide sur l'ensemble Han, j'prends du recul, j'aime bien la vue d'ensemble Han Que j'découpe, j'fais pas des tubes dansants, j'ai la force comme si j'ai des trucs en plus dans l'sang Han Pétasse Pétasse Explosifs placés, jmets l'feu à la mèche J'mets l'feu à la mèche, j'mets l'feu à la mèche Grosse Moncler comme si j'vais à la neige À la neige, à la neige Et négro, y a que Dieu, ma famille ou mes tales Han Échange équivalent comme dans Fullmetal Han, Freezer troisième forme, j'arrive en full méta Ekip, ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti J'suis dans la peinture comme le Joker Sku, ils bluffent plus que des joueurs de poker Sku C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti Sku J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Brr C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip, ekip</t>
+          <t>Le rappeur Freeze Corleone, de son nom Issa Lorenzo Diakhaté, a un talent indéniable. Et il est absolument regrettable que ce talent avéré soit mis aux services de propos absolument inqualifiables racisme, antisémitisme. Et ce talent donne un pouvoir, une influence tout à fait considérables aux propos inadmissibles quil tient Han, ekip, ekip, ekip, ekip Négro, j'me sens comme un imprimeur Han j'fais qu'penser au papier J'regarde le rap français, j'vois beaucoup d'fausses Rolex et de fausses Cartier J'suis très très loin du M.A.X. Han, la Cali sort de L.A.X L.A Plus de prises qu'un judoka, négro, j'suis connecté comme une Tesla X Sku Roule, roule des cigares comme à La Havane, j'suis comme Heisenberg dans la caravane White So PIGE Studios qui porte la cam, j'consomme plus que dix Porsche Macan Sku, sku Chaque couplet, c'est des gros dégâts, Chen, Flem, Rayane aka Soap, Ghost et Gaz New York cité comme des Bodega New York, jamais d'ma vie j'mets des Bottega Jamais Il m'faut une grosse villa à Hawaï Là-bas, que j'brasse plus que Dana White Cash Avant la panenka, j'parle au goal, j'coffre au cas où j'dois m'exfiltrer comme Carlos Ghosn Han Usine, gros Swisher plein d'essence, j'suis fonc du 22 au 21 décembre Ils ont activé l'lobby jusqu'à Washington, fuck leurs présidents, de Biden jusqu'à Washington Tous Et négro, que ça stonk, jarrive mal fonc, j'fume la Pineapple Gas Bomb J'suis tout en haut d'la tour, jsuis pas encore arrivé tout en haut d'la courbe Non J'préfère les armes que la salle de sport, faut qu'j'fasse le maximum sur la carte de Score Han So Gouap, yeuz plissés comme Jackie, fuck ces négros, c'est des francs-maçons comme Shaquille Ekip, ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Sk' sk' sku C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma Ftt, ftt J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti Sku J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Brr C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip, ekip J'arrive Memphis comme Finesse2fois Deux fois, minimum par match en finesse deux fois Deux 20.20, j'suis rentré, j'ai laissé ouvert Ouvert, 20.23, j'remets les couverts Encore Sur l'terrain, que des techniciens Ftt ftt, faut plus de câble qu'un électricien Gifle la prod comme un sumotori, j'suis comme Mike Maignan, t'es comme Hugo Lloris Eh Ils captent pas c'que j'dis comme si j'rappe du morse Nan, dix-mille fois plus de lignes qu'à Gare du Nord Dix-mille Négro, trouve-moi dans la Berline en train d'rouler un gros teh à la place du mort Fume comme nous, tu visites les urgences Direct, on sort des sous-sols comme en résurgence Noir sur noir comme le Raider Klan Han, j'ai les meilleures plantes et les meilleures plans J'arrive sous xan comme Michael Jackson Ha ha, ils imaginent pas les bails que j'actionne Jamais Ils ont tremblé jusqu'au Parlement, ils veulent me faire, j'augmente le budget armement Pah Pyramide sur l'ensemble Han, j'prends du recul, j'aime bien la vue d'ensemble Han Que j'découpe, j'fais pas des tubes dansants, j'ai la force comme si j'ai des trucs en plus dans l'sang Han Pétasse Pétasse Explosifs placés, jmets l'feu à la mèche J'mets l'feu à la mèche, j'mets l'feu à la mèche Grosse Moncler comme si j'vais à la neige À la neige, à la neige Et négro, y a que Dieu, ma famille ou mes tales Han Échange équivalent comme dans Fullmetal Han, Freezer troisième forme, j'arrive en full méta Ekip, ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti J'suis dans la peinture comme le Joker Sku, ils bluffent plus que des joueurs de poker Sku C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip Dans la cabine sans les notif', j'ai les tactiques comme Ancelotti Sku J'suis dans la peinture comme le Joker, ils bluffent plus que des joueurs de poker Brr C'est des menteurs, c'est des mythomanes, yeuz plissés, j'les dribble comme Mitoma J'suis dans l'milieu comme Niccolò, sang bientôt violet comme Piccolo Ekip, ekip, ekip, ekip</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5062,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Afro Samurai découpe tes tracks comme un katana Sorti d'Resurrection, numéro 1 sur le bandana Petite bague 24 carats, quand j'kick elles chopent leurs ragnagnas Shout out à XXX pierre tombale Écrase ces négros dans l'cendar, man Dépêche-toi de vivre, dépêche de crever, négro THC, promethazine et j'plane comme l'hélium, négro Fini d'roupiller, il faut les thunes, j'ai plus l'temps, pélo Nique l'argent, la deuxième place, j'veux l'trophée direct, négro Jeune visionnaire dans ma bulle au calme J'imagine des plans pour niquer ces bitchs Pour l'moment j'ai que 16 balais Donc panique pas, tu peux rester chill 667 sur ces bitchass, yes Un cran au-dessus de ces bitchass maigres Gros t'inquiètes que ça va s'former Là pour l'moment c'est des petites maquettes, yes J'traîne avec des OGs de Dakar gros, comme Marega Shout out à XXX, sur les vraies biatchs on veut marquer l'pas J'm'inspire de c'que j'vis, j'conduis ni Bentley ni Range Rov' J'graille ces MC's, il m'reste d'la merde entre les chicots x2 On veut des liasses de biftons d'10, des centaines de millions, bitch Optique est le camouflage négro, nocturne est la vision, fils Afro S, Corleone, découpe cette merde au katana Shout out à mon équipage négro, shout out à mes nakamas You might also like Shi-fu, effrite la pierre tombale, négro roule des fissous J'veux nager dans l'or comme Picsou Le flow est kaki, demande à Kixou Sans stress négro aucun, Chen Zen, Afro S Rien au-dessus d'nous à part l'soleil Nique le Dajjâl, nique Baphomet Pyramide inversée, double-6 7 Dans cette merde comme une éclipse solaire Silencieux, viseur holo', laser vert sur les pistolets 667 klan, Ligue des Ombres, kartel de Kémites Quenellier comme Dieudonné, supra-nègre comme Kemi Yeuz rouges comme des cyborgs Roule cette merde comme des machines Dans l'ombre avec mes mangemorts So à Jacky, vissés comme des haflits Défracté dans laboratoire Enchaîne les expériences comme un savant fou J'brûle ces MC's négro, en les mettant 4 par 4 dans l'four So Osirus Jack, négro déter' comme Sankara Freeze Corleone, j'débarque dans cette pute Fonscar au lean comme Juelz Santana Killuminati comme Tupac, là uniquement pour l'cash Même si y a personne dans l'rétro négro, j'mets des soupapes x2 On veut des liasses de biftons d'10, des centaines de millions, bitch Optique est le camouflage négro, nocturne est la vision, fils Afro S, Corleone, découpe cette merde au katana Shout out à mon équipage négro, shout out à mes nakamas Hé gros check comment j'kick au mic, j'lâche un flow d'nulle part J'suis un des rares renois qu'tu verras sur un putain d'radar J'reconnais pas qu'j't'aime pas, viens pas qu'on s'tape des barres Y'a des renois qui m'disent que des meufs leur disent qu'moi j'suis un bâtard J'arrive dans une XXX batard, 24h j'suis fonscar J'attends jamais l'jour de l'an pour allumer mes pétards Comme un diamant j'suis rare, j'kiff ça, je suis noir MC t'est tellement bourré tu conduis ta caisse sans phare J'suis stone sur l'instru, les zombies m'guident dans ma démarche gros J'marche en zig-zag, la faute à Mary Jane gros Quand j'baise j'vise le point G pour qu'la meuf s'en souvienne gros J'suis loin comme une fusée, j'redescend plus sur Terre gros J'rap je m'en bat les couilles, vas-y ramène ta team que je la douille Remballe les keufs j'aime pas les fouilles Tellement j'ai du flow, quand j'kick les meufs mouillent J'veux le beurre, l'argent du beurre et la chatte à la crémière gro-né J'suis en mode ramadhan?, XXX elle attend pas pour le moment gros-né x2 On veut des liasses de biftons d'10, des centaines de millions, bitch Optique est le camouflage négro, nocturne est la vision, fils Afro S, Corleone, découpe cette merde au katana Shout out à mon équipage négro, shout out à mes nakamas</t>
+          <t>Afro Samurai découpe tes tracks comme un katana Sorti d'Resurrection, numéro 1 sur le bandana Petite bague 24 carats, quand j'kick elles chopent leurs ragnagnas Shout out à XXX pierre tombale Écrase ces négros dans l'cendar, man Dépêche-toi de vivre, dépêche de crever, négro THC, promethazine et j'plane comme l'hélium, négro Fini d'roupiller, il faut les thunes, j'ai plus l'temps, pélo Nique l'argent, la deuxième place, j'veux l'trophée direct, négro Jeune visionnaire dans ma bulle au calme J'imagine des plans pour niquer ces bitchs Pour l'moment j'ai que 16 balais Donc panique pas, tu peux rester chill 667 sur ces bitchass, yes Un cran au-dessus de ces bitchass maigres Gros t'inquiètes que ça va s'former Là pour l'moment c'est des petites maquettes, yes J'traîne avec des OGs de Dakar gros, comme Marega Shout out à XXX, sur les vraies biatchs on veut marquer l'pas J'm'inspire de c'que j'vis, j'conduis ni Bentley ni Range Rov' J'graille ces MC's, il m'reste d'la merde entre les chicots x2 On veut des liasses de biftons d'10, des centaines de millions, bitch Optique est le camouflage négro, nocturne est la vision, fils Afro S, Corleone, découpe cette merde au katana Shout out à mon équipage négro, shout out à mes nakamas Shi-fu, effrite la pierre tombale, négro roule des fissous J'veux nager dans l'or comme Picsou Le flow est kaki, demande à Kixou Sans stress négro aucun, Chen Zen, Afro S Rien au-dessus d'nous à part l'soleil Nique le Dajjâl, nique Baphomet Pyramide inversée, double-6 7 Dans cette merde comme une éclipse solaire Silencieux, viseur holo', laser vert sur les pistolets 667 klan, Ligue des Ombres, kartel de Kémites Quenellier comme Dieudonné, supra-nègre comme Kemi Yeuz rouges comme des cyborgs Roule cette merde comme des machines Dans l'ombre avec mes mangemorts So à Jacky, vissés comme des haflits Défracté dans laboratoire Enchaîne les expériences comme un savant fou J'brûle ces MC's négro, en les mettant 4 par 4 dans l'four So Osirus Jack, négro déter' comme Sankara Freeze Corleone, j'débarque dans cette pute Fonscar au lean comme Juelz Santana Killuminati comme Tupac, là uniquement pour l'cash Même si y a personne dans l'rétro négro, j'mets des soupapes x2 On veut des liasses de biftons d'10, des centaines de millions, bitch Optique est le camouflage négro, nocturne est la vision, fils Afro S, Corleone, découpe cette merde au katana Shout out à mon équipage négro, shout out à mes nakamas Hé gros check comment j'kick au mic, j'lâche un flow d'nulle part J'suis un des rares renois qu'tu verras sur un putain d'radar J'reconnais pas qu'j't'aime pas, viens pas qu'on s'tape des barres Y'a des renois qui m'disent que des meufs leur disent qu'moi j'suis un bâtard J'arrive dans une XXX batard, 24h j'suis fonscar J'attends jamais l'jour de l'an pour allumer mes pétards Comme un diamant j'suis rare, j'kiff ça, je suis noir MC t'est tellement bourré tu conduis ta caisse sans phare J'suis stone sur l'instru, les zombies m'guident dans ma démarche gros J'marche en zig-zag, la faute à Mary Jane gros Quand j'baise j'vise le point G pour qu'la meuf s'en souvienne gros J'suis loin comme une fusée, j'redescend plus sur Terre gros J'rap je m'en bat les couilles, vas-y ramène ta team que je la douille Remballe les keufs j'aime pas les fouilles Tellement j'ai du flow, quand j'kick les meufs mouillent J'veux le beurre, l'argent du beurre et la chatte à la crémière gro-né J'suis en mode ramadhan?, XXX elle attend pas pour le moment gros-né x2 On veut des liasses de biftons d'10, des centaines de millions, bitch Optique est le camouflage négro, nocturne est la vision, fils Afro S, Corleone, découpe cette merde au katana Shout out à mon équipage négro, shout out à mes nakamas</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5079,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>J'suis d'vant la cage, j'mets des cartouches Sku, des cartouches Envoie la p'tite blanche prendre des cartouches, salope, eh Sku, sku MMS, LDO, NRM, 6.6.7, han han, han Sku, sku, sku Ekip, j'suis d'vant la cage, j'mets des cartouches God damn Concurrence, j'en fume des cartouches, Black Jack envoie la p'tite blanche prendre des cartouches Eh, eh Lin n sur V pour les concentrations Salope, j'suis à Dakar, t'es dans ton centre à Sion Sku, sku So les Indiens d'Amérique, so l'esclavage, R.A.F des bip Sku, sku J'fume du gas, j'fume du méthane Salope, concert 6.6.7 comme du metal Pétasse Avec Loto sous l'miel du Népal Sku, investis dans d'la pierre, pas du métal, pétasse Nan, nan On appelle, c'est pour collecter Allô ?, so la prise, j'suis connecté Sku, sku Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Goddamn Des barres même sans connexion, j'vais au village pour les protections Han Rap génie, Prof Chen, j'ai les corrections, cadavres de prod, j'ai des collections haha Goddamn, Bientôt GLE, AMG, j'suis à CH, gros teh de AMG L'argent, c'est rien, le respect, c'est tout, so G.F. G.A.N.G 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Han You might also like Chen Senseï, j'enchaîne les gros katas J'mixe le lin dans l'Fanta shokata, pas d'concu', c'est désert comme au Qatar J'fais mes bails en lous' Pew, j'transige comme si j'suis au KGB Pew-pew J'coupe l'audio dope au fentanyl avec Flem au Studio KGB Pétasse, j'suis 'fonce dans l'vaisseau comme Albator Sku, sku Ceinture Ferragamo Salvatore Han, j'suis Gianluigi, t'es Salvatore Ekip à vie comme Francesco Totti Han, c'est des cobayes, nous, des prototypes Goddamn Chen Zen, carte bleue, dans la défense, j'bombarde comme Marcelo TOTY Sku Et j'suis pas comme eux comme si j'ai subi des mutations Haha Vrai nég', killu à vie, réputation Han, Prof Chen bientôt ministre de l'Éducation Goddamn Là pour les caler, fils, blindé contre les sorts, les maléfices Sku 6.6.7, killu à vie, pas d'coupé-décalé, fils Jamais Euphon, 300 ml, négro, c'est l'sirop phare Fuck 12, team no-lacking, j'les repère de loin même si y a pas l'gyrophare, goddamn Gros joint d'cookie, j'suis pas un rookie, caca marron comme un Wookiee Goddamn Ekip à fond comme un tookie, so Kaki, tu fais l'gue-sh' comme un pookie, ekip 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Négro, même au point mort, j'les double, sur la prod comme si j'me dédouble Tous les jours, R.E.P P-Double, j'regarde le jeu, j'vois que des clones et des doubles Négro, même au point mort, j'les double, sur la prod comme si j'me dédouble Tous les jours, R.E.P P-Double, j'regarde le jeu, j'vois que des clones et des doubles</t>
+          <t>J'suis d'vant la cage, j'mets des cartouches Sku, des cartouches Envoie la p'tite blanche prendre des cartouches, salope, eh Sku, sku MMS, LDO, NRM, 6.6.7, han han, han Sku, sku, sku Ekip, j'suis d'vant la cage, j'mets des cartouches God damn Concurrence, j'en fume des cartouches, Black Jack envoie la p'tite blanche prendre des cartouches Eh, eh Lin n sur V pour les concentrations Salope, j'suis à Dakar, t'es dans ton centre à Sion Sku, sku So les Indiens d'Amérique, so l'esclavage, R.A.F des bip Sku, sku J'fume du gas, j'fume du méthane Salope, concert 6.6.7 comme du metal Pétasse Avec Loto sous l'miel du Népal Sku, investis dans d'la pierre, pas du métal, pétasse Nan, nan On appelle, c'est pour collecter Allô ?, so la prise, j'suis connecté Sku, sku Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Goddamn Des barres même sans connexion, j'vais au village pour les protections Han Rap génie, Prof Chen, j'ai les corrections, cadavres de prod, j'ai des collections haha Goddamn, Bientôt GLE, AMG, j'suis à CH, gros teh de AMG L'argent, c'est rien, le respect, c'est tout, so G.F. G.A.N.G 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Han Chen Senseï, j'enchaîne les gros katas J'mixe le lin dans l'Fanta shokata, pas d'concu', c'est désert comme au Qatar J'fais mes bails en lous' Pew, j'transige comme si j'suis au KGB Pew-pew J'coupe l'audio dope au fentanyl avec Flem au Studio KGB Pétasse, j'suis 'fonce dans l'vaisseau comme Albator Sku, sku Ceinture Ferragamo Salvatore Han, j'suis Gianluigi, t'es Salvatore Ekip à vie comme Francesco Totti Han, c'est des cobayes, nous, des prototypes Goddamn Chen Zen, carte bleue, dans la défense, j'bombarde comme Marcelo TOTY Sku Et j'suis pas comme eux comme si j'ai subi des mutations Haha Vrai nég', killu à vie, réputation Han, Prof Chen bientôt ministre de l'Éducation Goddamn Là pour les caler, fils, blindé contre les sorts, les maléfices Sku 6.6.7, killu à vie, pas d'coupé-décalé, fils Jamais Euphon, 300 ml, négro, c'est l'sirop phare Fuck 12, team no-lacking, j'les repère de loin même si y a pas l'gyrophare, goddamn Gros joint d'cookie, j'suis pas un rookie, caca marron comme un Wookiee Goddamn Ekip à fond comme un tookie, so Kaki, tu fais l'gue-sh' comme un pookie, ekip 6.6.7, MMS, OVG, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté 6.6.7, MMS, OVG, ekip Ekip, ekip Dieu et l'métal, j'suis protégé, ekip On appelle, c'est pour collecter Allô ? So la prise, j'suis connecté Plug Six heures du mat', j'dors pas, fonscar, j'geeke, j'suis hors-ligne mais j'suis connecté Négro, même au point mort, j'les double, sur la prod comme si j'me dédouble Tous les jours, R.E.P P-Double, j'regarde le jeu, j'vois que des clones et des doubles Négro, même au point mort, j'les double, sur la prod comme si j'me dédouble Tous les jours, R.E.P P-Double, j'regarde le jeu, j'vois que des clones et des doubles</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5096,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Au-dessus d'toutes ces bitchs nègres, future luxure Milliardaire comme Bill Gates, héroïne rose, cocaïne verte So Jorrdee, on ramène ce crack négro Cons' la frappe négro, 667 sur la plaque négro Équipage de pirates, Captain Chen Zezen MMS zombie clique, NRM next sezecte Pire que nazi cortège, j'ai l'flow acide mortel Trop loin j'sais plus où j'suis, comme si j'avais traversé 10 vortex Dans cette merde pour l'cash noir, veau-cer vert, TH' noir So RondoNuméroNeuf, go crazy for my squa Def tate comme a Chiraq que du taf pas d'miracle Drift à chaque virage, enchaîne les gaz comme Jacques Chirac x2 Khaliss khaliss, kha-khaliss Allonge le khaliss, kha-kha-khaliss x2 Dans cette merde pour le khaliss, cash j'veux qu'les liasses fassent des montagnes H24 fonscar, toute la journée ça roule des longues battes Dans cette merde pour le khaliss, bitch famille mafiosa comme Big Meech Defracté en orbite, comme si j'avais tapé 1000 spliffs Cash, gro-né j'veux qu'les liasses fassent des montagnes Norsacce, j'suis en pleine ville j'prépare ma campagne 667, famille mafieuse noire comme Big Meech Même si t'es terré on viendra t'trouver dans ta petite niche Bitchess, négro t'es pris d'tesse-vi J'débarque dans ta ville, j'prends les thunes et j'bouge en cances-va Dans nos têtes la défaite est inconcevable, allons tout est planifié J'connais l'issue, j'calcule ta chute avec un comptable Yes high, négro paye on remet ça, négro J'veux qu'nos richesses sur des années s'étalent négro Allez détale négro, fagget j'deviens hostile Noir sur noir aka costume, 667 toujours au-dessus T'écouter est une torture, vrai négro dans la posture Ils vont tous prendre cher, salée sera la facture Précis j'loupe jamais mes targets, laisse la place mec Mes négros prennent du poids 'vec du MC dans leur assiette Goddamn fiston, j'me moque de toi puisqu'on Sait qu't'as sucé énormément d'bites pour bicrave des disques hein Quoi ? Combien d'disques ? 15 ? Voila c'qui nous distingue Ça rappe pour les thunes, ça met des buts, et au cro-mi j'flingue You might also like x2 Khaliss khaliss, kha-khaliss Allonge le khaliss, kha-kha-khaliss x2 Dans cette merde pour le khaliss, cash j'veux qu'les liasses fassent des montagnes H24 fonscar, toute la journée ça roule des longues battes Dans cette merde pour le khaliss, bitch famille mafiosa comme Big Meech Defracté en orbite, comme si j'avais tapé 1000 spliffs 2015, 2347 Secte anti-bâtards parmi mes frères, que des nègres vrais Pas d'pussy ass nègre, prépare la guezerre 667, chill avec mon squa Seulement pour la famille, SPLF Mon clan bientôt chez Ondelatte, khaliss Khaliss et carcasses de MC's sous les pierres tombales Pratique black magie, parce qu'quand on rappe Cash on veut qu'les liasses fassent des montagnes Sans stress avec des stacks sur les XXX de notre comptable Là pour long time, Ligue des Ombres dans les sous-sols Casse des crânes dans l'Game comme dans Ong-Bak x2 Khaliss khaliss, kha-khaliss Allonge le khaliss, kha-kha-khaliss x2 Dans cette merde pour le khaliss, cash j'veux qu'les liasses fassent des montagnes H24 fonscar, toute la journée ça roule des longues battes Dans cette merde pour le khaliss, bitch famille mafiosa comme Big Meech Defracté en orbite, comme si j'avais tapé 1000 spliffs</t>
+          <t>Au-dessus d'toutes ces bitchs nègres, future luxure Milliardaire comme Bill Gates, héroïne rose, cocaïne verte So Jorrdee, on ramène ce crack négro Cons' la frappe négro, 667 sur la plaque négro Équipage de pirates, Captain Chen Zezen MMS zombie clique, NRM next sezecte Pire que nazi cortège, j'ai l'flow acide mortel Trop loin j'sais plus où j'suis, comme si j'avais traversé 10 vortex Dans cette merde pour l'cash noir, veau-cer vert, TH' noir So RondoNuméroNeuf, go crazy for my squa Def tate comme a Chiraq que du taf pas d'miracle Drift à chaque virage, enchaîne les gaz comme Jacques Chirac x2 Khaliss khaliss, kha-khaliss Allonge le khaliss, kha-kha-khaliss x2 Dans cette merde pour le khaliss, cash j'veux qu'les liasses fassent des montagnes H24 fonscar, toute la journée ça roule des longues battes Dans cette merde pour le khaliss, bitch famille mafiosa comme Big Meech Defracté en orbite, comme si j'avais tapé 1000 spliffs Cash, gro-né j'veux qu'les liasses fassent des montagnes Norsacce, j'suis en pleine ville j'prépare ma campagne 667, famille mafieuse noire comme Big Meech Même si t'es terré on viendra t'trouver dans ta petite niche Bitchess, négro t'es pris d'tesse-vi J'débarque dans ta ville, j'prends les thunes et j'bouge en cances-va Dans nos têtes la défaite est inconcevable, allons tout est planifié J'connais l'issue, j'calcule ta chute avec un comptable Yes high, négro paye on remet ça, négro J'veux qu'nos richesses sur des années s'étalent négro Allez détale négro, fagget j'deviens hostile Noir sur noir aka costume, 667 toujours au-dessus T'écouter est une torture, vrai négro dans la posture Ils vont tous prendre cher, salée sera la facture Précis j'loupe jamais mes targets, laisse la place mec Mes négros prennent du poids 'vec du MC dans leur assiette Goddamn fiston, j'me moque de toi puisqu'on Sait qu't'as sucé énormément d'bites pour bicrave des disques hein Quoi ? Combien d'disques ? 15 ? Voila c'qui nous distingue Ça rappe pour les thunes, ça met des buts, et au cro-mi j'flingue x2 Khaliss khaliss, kha-khaliss Allonge le khaliss, kha-kha-khaliss x2 Dans cette merde pour le khaliss, cash j'veux qu'les liasses fassent des montagnes H24 fonscar, toute la journée ça roule des longues battes Dans cette merde pour le khaliss, bitch famille mafiosa comme Big Meech Defracté en orbite, comme si j'avais tapé 1000 spliffs 2015, 2347 Secte anti-bâtards parmi mes frères, que des nègres vrais Pas d'pussy ass nègre, prépare la guezerre 667, chill avec mon squa Seulement pour la famille, SPLF Mon clan bientôt chez Ondelatte, khaliss Khaliss et carcasses de MC's sous les pierres tombales Pratique black magie, parce qu'quand on rappe Cash on veut qu'les liasses fassent des montagnes Sans stress avec des stacks sur les XXX de notre comptable Là pour long time, Ligue des Ombres dans les sous-sols Casse des crânes dans l'Game comme dans Ong-Bak x2 Khaliss khaliss, kha-khaliss Allonge le khaliss, kha-kha-khaliss x2 Dans cette merde pour le khaliss, cash j'veux qu'les liasses fassent des montagnes H24 fonscar, toute la journée ça roule des longues battes Dans cette merde pour le khaliss, bitch famille mafiosa comme Big Meech Defracté en orbite, comme si j'avais tapé 1000 spliffs</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5113,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Han, ah-ah Ekip, ekip, han 667, LZ, pétasse, han Han 667, LZ Ekip, Corleone, Chen Zen Han Fonsdé sous dry, yeuz bridés comme à Shenzhen Sous lin dans la foreign Sku, gros joint dans la foreign Sku sku Compte la maille dans la foreign comme Shoreline dans la foreign 20-20, GFG, SO 5-20 Ekip J'arrive mal-fons comme si jai fumé cinq 20 Cocaïno rap musique à chaque ligne Chaque ligne R.E.P Fredo Santana à chaque lean Ekip Sur l'instrumental, maîtrise les katas clean Han 669, le super groupe aka le cataclysme Pétasse Fuck ces négros comme en 1400 Hey Négro fuck Snitch9ine, so Slim 400 C'est pas sur les routes mais sur ta tête que jslide Grah R.E.P le Kimbo, ça s'tape street comme slice Paw Fuck 12, négro, fuck un fake, fuck un vice Grr Avec Jolly, Buhi, Black, Chen, ça les fume comme la dry Ftt, ftt V'là d'bitchs négros veulent test mais sont pas d'taille Sku Boy, on veut le shit, on veut le cheese, on veut la maille Paw C.E.O shit Paw, N.R.M, O.B.S en faille Grr Tout c'qui bouge, négro, on l'graille Une fois qu'le sang aura coulé ils seront peace Brr Belek à la flaque, drip, bitch, boy, ça glisse Sku So Slim Carbo, lclan est Killu Kainf G So 8-8, D.K, westcoast shit Brr, brr, brr You might also like Jcrois qu'elle aime sip toutes mes sauces J'pense qu'à mes poches, à mes proches Fuck le reste, donc je lui dit faut qu'elle bouge Tu vois la vie en rose, salope, je vois la vie en rouge Si jretourne au bled, j'veux la casa sur la colline J'viens pour voler ta p'tite copine, j'viens pour voler tous les sous Uh, nan, j'crois qu'ils m'ont pris pour un fou, eh J'viens de là où les gens prennent du Rivotril comme des bonbons J'suis avec Jolly, avec la secte, avec les tontons J'l'attrape par son sac à main Goyard puis par son chignon Buhi la découpe, Buhi la Bugatti Veyron Là j'vesqui les sangsues, aujourd'hui c'est tendu Tu m'as entendu comme les neg' marrons Tout mes negros sont des lau-sa On est coffré dans le binks en train d'faire du le-sa Pirate, ça débite la coca H24 calibré dans l'appart Igo dégaine la me-ar On a fait bosser la pétasse Allo faut qu'on ramasse Pirate tire , rafale de balle OBS Jolly wagwan comme le poto Violent, comme d'hab les pépettes faut qu'on ramasse Liasse dans la godasse, BUHI roule son kamas Lutchi dis leurs j'suis comme Poutine killer Royal saveur, recharge de shit dans l'heure Près de on a beaucoup de saveurs Pe-pom kalash des coffres recharge dans l'ascenceur 667, LZ, Corleone, Chen Zen C'est pas sur les routes mais sur ta tête que j'slide J'crois qu'elle aime sip' toutes mes sauces J'pense qu'à mes poches, à mes proches, fuck le reste</t>
+          <t>Han, ah-ah Ekip, ekip, han 667, LZ, pétasse, han Han 667, LZ Ekip, Corleone, Chen Zen Han Fonsdé sous dry, yeuz bridés comme à Shenzhen Sous lin dans la foreign Sku, gros joint dans la foreign Sku sku Compte la maille dans la foreign comme Shoreline dans la foreign 20-20, GFG, SO 5-20 Ekip J'arrive mal-fons comme si jai fumé cinq 20 Cocaïno rap musique à chaque ligne Chaque ligne R.E.P Fredo Santana à chaque lean Ekip Sur l'instrumental, maîtrise les katas clean Han 669, le super groupe aka le cataclysme Pétasse Fuck ces négros comme en 1400 Hey Négro fuck Snitch9ine, so Slim 400 C'est pas sur les routes mais sur ta tête que jslide Grah R.E.P le Kimbo, ça s'tape street comme slice Paw Fuck 12, négro, fuck un fake, fuck un vice Grr Avec Jolly, Buhi, Black, Chen, ça les fume comme la dry Ftt, ftt V'là d'bitchs négros veulent test mais sont pas d'taille Sku Boy, on veut le shit, on veut le cheese, on veut la maille Paw C.E.O shit Paw, N.R.M, O.B.S en faille Grr Tout c'qui bouge, négro, on l'graille Une fois qu'le sang aura coulé ils seront peace Brr Belek à la flaque, drip, bitch, boy, ça glisse Sku So Slim Carbo, lclan est Killu Kainf G So 8-8, D.K, westcoast shit Brr, brr, brr Jcrois qu'elle aime sip toutes mes sauces J'pense qu'à mes poches, à mes proches Fuck le reste, donc je lui dit faut qu'elle bouge Tu vois la vie en rose, salope, je vois la vie en rouge Si jretourne au bled, j'veux la casa sur la colline J'viens pour voler ta p'tite copine, j'viens pour voler tous les sous Uh, nan, j'crois qu'ils m'ont pris pour un fou, eh J'viens de là où les gens prennent du Rivotril comme des bonbons J'suis avec Jolly, avec la secte, avec les tontons J'l'attrape par son sac à main Goyard puis par son chignon Buhi la découpe, Buhi la Bugatti Veyron Là j'vesqui les sangsues, aujourd'hui c'est tendu Tu m'as entendu comme les neg' marrons Tout mes negros sont des lau-sa On est coffré dans le binks en train d'faire du le-sa Pirate, ça débite la coca H24 calibré dans l'appart Igo dégaine la me-ar On a fait bosser la pétasse Allo faut qu'on ramasse Pirate tire , rafale de balle OBS Jolly wagwan comme le poto Violent, comme d'hab les pépettes faut qu'on ramasse Liasse dans la godasse, BUHI roule son kamas Lutchi dis leurs j'suis comme Poutine killer Royal saveur, recharge de shit dans l'heure Près de on a beaucoup de saveurs Pe-pom kalash des coffres recharge dans l'ascenceur 667, LZ, Corleone, Chen Zen C'est pas sur les routes mais sur ta tête que j'slide J'crois qu'elle aime sip' toutes mes sauces J'pense qu'à mes poches, à mes proches, fuck le reste</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5130,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Laisse-moi respirer, prendre une bouffée d'air frais Aujourd'hui, dans le game, on dirait que la guerre c'est Tout l'temps être prêt, tout l'temps être frais Faut pas oublier que l'important, c'est d'être vrai Vrai, bordel, c'est vrai qu'faut être mortel aussi J'crois quand même que ma vie, faut que je la vive aussi J'veux pas être hostile ni être au SMIC, je sais Qu'il faut qu'je kicke pour atteindre mes rêves, faut c'mic Ok, faut qu'j'respire Quand j'aurai fini, j'me barre au Sénégal pour investir La demande augmente mais personne quand faut acheter J'comprends pas, pour ça qu'j'ai besoin du THC Pour m'détacher d'cet aspect, de la réalité, j'aime habiter mon cockpit Teintées sont les vitres, dans ma tête, j'lâche des fuck it À tous ceux qui m'pompent, prennent la tête, on m'dit Freeze Tu rappes plus pourtant j'ai des dizaines de maquettes Peut-être pas d'label, le Bic est ma pelle Pourquoi ? Parce que j'me creuse la tête quand l'beat m'appelle J'suis pas là pour ramener la paix, moi, j'attends juste le jour de la paye J'attends juste le jour de la paye, yes Laisse-moi respirer, m'étirer, allumer M'tirer, respirer Laisse-moi respirer, allumer, tirer M'tirer, respirerYou might also like</t>
+          <t>Laisse-moi respirer, prendre une bouffée d'air frais Aujourd'hui, dans le game, on dirait que la guerre c'est Tout l'temps être prêt, tout l'temps être frais Faut pas oublier que l'important, c'est d'être vrai Vrai, bordel, c'est vrai qu'faut être mortel aussi J'crois quand même que ma vie, faut que je la vive aussi J'veux pas être hostile ni être au SMIC, je sais Qu'il faut qu'je kicke pour atteindre mes rêves, faut c'mic Ok, faut qu'j'respire Quand j'aurai fini, j'me barre au Sénégal pour investir La demande augmente mais personne quand faut acheter J'comprends pas, pour ça qu'j'ai besoin du THC Pour m'détacher d'cet aspect, de la réalité, j'aime habiter mon cockpit Teintées sont les vitres, dans ma tête, j'lâche des fuck it À tous ceux qui m'pompent, prennent la tête, on m'dit Freeze Tu rappes plus pourtant j'ai des dizaines de maquettes Peut-être pas d'label, le Bic est ma pelle Pourquoi ? Parce que j'me creuse la tête quand l'beat m'appelle J'suis pas là pour ramener la paix, moi, j'attends juste le jour de la paye J'attends juste le jour de la paye, yes Laisse-moi respirer, m'étirer, allumer M'tirer, respirer Laisse-moi respirer, allumer, tirer M'tirer, respirer</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5147,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Salut, moi, c'est Freezer, un extraterrestre lunatique Qui fume la pipe, qui pue la weed, habituellement ultra-peace Dans une matrice où je suis Néo Chérie sois pas trop sur mon dos ou je commence le rodéo Et j't'éjecte miss, par le toit du cockpit T'inquiètes pas pour moi, les gos moi je les dégomme vite Enfin bon j'avoue, c'est pas trop vrai mais bref c'est qu'un détail Encore padawan, comme Anakin j'veux devenir jedi Et plus vite que ça, j'sais qu'j'ferai un malheur J'suis speed 1 079 000 000 d'kilomètres à l'heure Célérité, ma vitesse de croisière J'ai commencé l'délire vite fait, quand j'étais en 3ème Et maintenant j'suis en première année d'fac, j'ai passé l'bac J'commence à m'rendre compte qu'en fait j'ai vraiment pas assez d'maille Mais bon tcholoul, amoul solo, j'reste peace J'suis toujours posé avec mon gros bédot, je reste Freeze Ou Issa, je vise la première place, obligé L'objectif est plus le même depuis qu'j'suis plus au lycée Il m'faut du gros cash donc j'lâche des grosses phases Plein d'ingrédients dans un gros rap, quand j'kick j'mets des grosses tartes Bien cuites, Tu veux un feat ? Issa Freezy Diakhaté sur Facebook Plus qu'un clic et tu m'invites, c'est simple petit Après ça on verra, putain j'suis faya A l'aloe vera, mais c'est pas grave j'peux pper-ra Et j'repars de plus belle, je tue les beats de l'underground Rappe des tunnels, mais punaise c'est comme si Le monde entier autour de moi était en papier Dans ma tête faut qu'je déchire tout et qu'je fasse pas de quartier Quand j'suis arrivé, j'ai troué la couche d'ozone, et J'ai causé un tremblement d'terre quand j'me suis posé La fumée sortait quand j'ai ouvert les portes du sseau-vai Les gens m'ont aperçu et ont commencé à se sauver A peine majeur et vacciné, déjà prêt à calciner Assassiner le mic, on dit Freeze fait mal quand le gars s'y met Mais bon d'abord, faut encore que j'm'entraîne Pour pouvoir lâcher mes rayons d'la mort quand ça me chante, damn Mon cerveau une éponge à lyrics, si tu testes Attends-toi au retour du ton-bâ, mon gars tu combats J'tors le beat, robot tordeur, dédicace à Mac Bender J'veux le beurre et l'argent du beurre comme Gucci Mane, burr MC ne m'écoutes pas si tu kiffes pas mes phases Ou si t'as peur que sur toi mes textes aient des effets néfastes OCB, Rizla, Zig Zag, le genre de feuille avec quoi j'écris, s-y va J'les rempli avec un peu d'sensy J'passe en mode super-MC, à peine à ma deuxième forme Avec le temps c'est juste normal que j'devienne fort J'm'entraîne, j'prends du niveau dans l'Game, j'multiplie les textes Les rimes se comptent par centaines Ecriture influencée par la beu-her C'était F.r.e.e.z.e.r, modofokofYou might also like</t>
+          <t>Salut, moi, c'est Freezer, un extraterrestre lunatique Qui fume la pipe, qui pue la weed, habituellement ultra-peace Dans une matrice où je suis Néo Chérie sois pas trop sur mon dos ou je commence le rodéo Et j't'éjecte miss, par le toit du cockpit T'inquiètes pas pour moi, les gos moi je les dégomme vite Enfin bon j'avoue, c'est pas trop vrai mais bref c'est qu'un détail Encore padawan, comme Anakin j'veux devenir jedi Et plus vite que ça, j'sais qu'j'ferai un malheur J'suis speed 1 079 000 000 d'kilomètres à l'heure Célérité, ma vitesse de croisière J'ai commencé l'délire vite fait, quand j'étais en 3ème Et maintenant j'suis en première année d'fac, j'ai passé l'bac J'commence à m'rendre compte qu'en fait j'ai vraiment pas assez d'maille Mais bon tcholoul, amoul solo, j'reste peace J'suis toujours posé avec mon gros bédot, je reste Freeze Ou Issa, je vise la première place, obligé L'objectif est plus le même depuis qu'j'suis plus au lycée Il m'faut du gros cash donc j'lâche des grosses phases Plein d'ingrédients dans un gros rap, quand j'kick j'mets des grosses tartes Bien cuites, Tu veux un feat ? Issa Freezy Diakhaté sur Facebook Plus qu'un clic et tu m'invites, c'est simple petit Après ça on verra, putain j'suis faya A l'aloe vera, mais c'est pas grave j'peux pper-ra Et j'repars de plus belle, je tue les beats de l'underground Rappe des tunnels, mais punaise c'est comme si Le monde entier autour de moi était en papier Dans ma tête faut qu'je déchire tout et qu'je fasse pas de quartier Quand j'suis arrivé, j'ai troué la couche d'ozone, et J'ai causé un tremblement d'terre quand j'me suis posé La fumée sortait quand j'ai ouvert les portes du sseau-vai Les gens m'ont aperçu et ont commencé à se sauver A peine majeur et vacciné, déjà prêt à calciner Assassiner le mic, on dit Freeze fait mal quand le gars s'y met Mais bon d'abord, faut encore que j'm'entraîne Pour pouvoir lâcher mes rayons d'la mort quand ça me chante, damn Mon cerveau une éponge à lyrics, si tu testes Attends-toi au retour du ton-bâ, mon gars tu combats J'tors le beat, robot tordeur, dédicace à Mac Bender J'veux le beurre et l'argent du beurre comme Gucci Mane, burr MC ne m'écoutes pas si tu kiffes pas mes phases Ou si t'as peur que sur toi mes textes aient des effets néfastes OCB, Rizla, Zig Zag, le genre de feuille avec quoi j'écris, s-y va J'les rempli avec un peu d'sensy J'passe en mode super-MC, à peine à ma deuxième forme Avec le temps c'est juste normal que j'devienne fort J'm'entraîne, j'prends du niveau dans l'Game, j'multiplie les textes Les rimes se comptent par centaines Ecriture influencée par la beu-her C'était F.r.e.e.z.e.r, modofokof</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5164,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Ils veulent V.I. on les attrape, négro ils sont soyés So Dakar, Afrique de l'Ouest négro, c'est le foyer Future luxure, polo alligator dans la Navigator Sip que du lean pas de Maximator Chen Zen avance perspicace comme Akinator 667 pour la vie Des bitcoins pour ta vie Les crackheads cons' ils sont tous ravis LDO en concert comme cataclysme pour ta ville, goddamn Mangemort Squad Dans l'ciel patrouille comme grande milice Euphon en sirop, flacon 30 centilitres Sprite est rouge, herbe et résine dans l'Philies, goddamn Négro j'sens plus mon visage Faya au lean comme Juelz Santana So à tous mes pirates Progresse sans stress, 667 sur les bandanas Trop haut pour vous, goddamn Trouve ma flotte au-dessus des nuages, salope Précis met que des lucarnes, salope Ils veulent des putes on veut du cash, salope Capitano comme Totti Sur la prod comme Audi Graille vos MCs comme rôti J'veux vivre la jet life comme Roddy NRM, négro Progresse seul, comme la pollution Indépendante est la production Pour les opposants pas d'solution, goddamn You might also like H24 faya chaque saison LDO, 15 négros dans la maison 2014, propaganda, salope NRM, cons' tu perds la raison H24 faya chaque saison LDO, 15 négros dans la maison 2014, propaganda, salope NRM, tu cons' tu perds la raison Tu cons' tu perds la raison Tu cons' tu perds la raison, salope Tu cons' tu perds la raison Tu cons' tu perds la raison, salope H24 faya chaque saison LDO, 15 négros dans la maison Foncé est le liquide Mixe cette merde comme Ricky Hil J'navigue avec mes vikings Que des négros comme à Pikine A ma table négro que des boss Ils sortent des albums, ils ont l'même niveau que des gosses Connexion trilatérale Sénégal-France-Canada On est l'Real, eux comme Malaga J'veux flotte de berlines pour mon armada Skuur So Swaggman, là pour les billets Là pour les piller Viseur holographique, vise les pieds Goddamn Y m'faut des grosses liasses pour la machine J'veux prendre la puissance Devenir autosuffisant comme la Chine J'débarque dans cette pute les yeuz plissés Chen Zen découpe le micro négro, depuis le lycée Goddamn Supra-nègre, vient d'une autre planète 2004 planète, vous allez voir nos gamètes Négro crame verte, bientôt Namek Mangemort Squad Ligue des Ombres, négro so à la 6-secte Bientôt avec le squad Tal gros blunt dans l'jet, négro à la Dipset Mangemort Squad Ligue des Ombres, négro so à la 6-secte Bientôt avec le squad Tal gros blunt dans l'jet, négro à la Dipset H24 faya chaque saison LDO, 15 négros dans la maison 2014, propaganda, salope NRM, cons' tu perds la raison H24 faya chaque saison LDO, 15 négros dans la maison 2014, propaganda, salope NRM, tu cons' tu perds la raison Tu cons' tu perds la raison Tu cons' tu perds la raison, salope Tu cons' tu perds la raison Tu cons' tu perds la raison, salope H24 faya chaque saison LDO, 15 négros dans la maison</t>
+          <t>Ils veulent V.I. on les attrape, négro ils sont soyés So Dakar, Afrique de l'Ouest négro, c'est le foyer Future luxure, polo alligator dans la Navigator Sip que du lean pas de Maximator Chen Zen avance perspicace comme Akinator 667 pour la vie Des bitcoins pour ta vie Les crackheads cons' ils sont tous ravis LDO en concert comme cataclysme pour ta ville, goddamn Mangemort Squad Dans l'ciel patrouille comme grande milice Euphon en sirop, flacon 30 centilitres Sprite est rouge, herbe et résine dans l'Philies, goddamn Négro j'sens plus mon visage Faya au lean comme Juelz Santana So à tous mes pirates Progresse sans stress, 667 sur les bandanas Trop haut pour vous, goddamn Trouve ma flotte au-dessus des nuages, salope Précis met que des lucarnes, salope Ils veulent des putes on veut du cash, salope Capitano comme Totti Sur la prod comme Audi Graille vos MCs comme rôti J'veux vivre la jet life comme Roddy NRM, négro Progresse seul, comme la pollution Indépendante est la production Pour les opposants pas d'solution, goddamn H24 faya chaque saison LDO, 15 négros dans la maison 2014, propaganda, salope NRM, cons' tu perds la raison H24 faya chaque saison LDO, 15 négros dans la maison 2014, propaganda, salope NRM, tu cons' tu perds la raison Tu cons' tu perds la raison Tu cons' tu perds la raison, salope Tu cons' tu perds la raison Tu cons' tu perds la raison, salope H24 faya chaque saison LDO, 15 négros dans la maison Foncé est le liquide Mixe cette merde comme Ricky Hil J'navigue avec mes vikings Que des négros comme à Pikine A ma table négro que des boss Ils sortent des albums, ils ont l'même niveau que des gosses Connexion trilatérale Sénégal-France-Canada On est l'Real, eux comme Malaga J'veux flotte de berlines pour mon armada Skuur So Swaggman, là pour les billets Là pour les piller Viseur holographique, vise les pieds Goddamn Y m'faut des grosses liasses pour la machine J'veux prendre la puissance Devenir autosuffisant comme la Chine J'débarque dans cette pute les yeuz plissés Chen Zen découpe le micro négro, depuis le lycée Goddamn Supra-nègre, vient d'une autre planète 2004 planète, vous allez voir nos gamètes Négro crame verte, bientôt Namek Mangemort Squad Ligue des Ombres, négro so à la 6-secte Bientôt avec le squad Tal gros blunt dans l'jet, négro à la Dipset Mangemort Squad Ligue des Ombres, négro so à la 6-secte Bientôt avec le squad Tal gros blunt dans l'jet, négro à la Dipset H24 faya chaque saison LDO, 15 négros dans la maison 2014, propaganda, salope NRM, cons' tu perds la raison H24 faya chaque saison LDO, 15 négros dans la maison 2014, propaganda, salope NRM, tu cons' tu perds la raison Tu cons' tu perds la raison Tu cons' tu perds la raison, salope Tu cons' tu perds la raison Tu cons' tu perds la raison, salope H24 faya chaque saison LDO, 15 négros dans la maison</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5181,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip Le big et le big 6.6.7, GB, ekip, ekip, ekip, ekip Le big et le big Les deux Chaque seize, j'fais brûler le Bic Han Si c'est trop interdit, j'mets le bip J'ai rêvé qu'j'étais dans une forêt de briques De cash J'suis dans l'complot, pratique et théorie Les deux Au poignet, Day-Date Météorite Rolex Flem empile des racks et des racks J'suis avec Dieu, ils sont avec des raap So le big You might also like</t>
+          <t>Ekip, ekip, ekip Le big et le big 6.6.7, GB, ekip, ekip, ekip, ekip Le big et le big Les deux Chaque seize, j'fais brûler le Bic Han Si c'est trop interdit, j'mets le bip J'ai rêvé qu'j'étais dans une forêt de briques De cash J'suis dans l'complot, pratique et théorie Les deux Au poignet, Day-Date Météorite Rolex Flem empile des racks et des racks J'suis avec Dieu, ils sont avec des raap So le big</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5198,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Ris-Kaa, ris-Kaa, ris-Kaa Ekip, ekip, ekip So le Flem Freeze Corleone M.M.S, LDO, NRM Grikitibang, 2.7 Han Sku, sku Fuck le 6.6.6 pah, pah, pah 2.7.0, poto Ekip sku, sku, sku La marée est haute, mes couilles trempent dans l'sel gang Plus d'600 ch'vaux, la boite est séquentielle sku, sku Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel shi Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel J'ai fini mon plat de garba gang, j'commence la découpe du taga J'lui mets dans l'ul-c, sa chatt est jalouse J'étais seul, lle a cru qu'c'était une partouze pute Je n'ai confiance qu'en Zizou dans les arrêts d'jeux comme KB Nueve Le plein d'plomb dans leur te-tê et dans l'réservoir à la BP Kaaris O.G Kush, j'suis mal luné, j'mets les voiles vers les îles J'laisse la poudre sur tes poils du nez et le me-sper sur tes cils Retourné acrobatique, 9 milli', gang, dans le 4Matic Paris n'est pas juste magique et les autres équipes sucent ma trique You might also like Des diamants sur la RM Sevran, j'mets du piment sur leurs raies gang J'roule un pli, c'est mon énième ouais, la vision s'précise comme un IRM pute Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens han Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh Des diamants sur la RM pah, j'mets du piment sur leurs raies ekip J'roule un pli, c'est mon énième han, la vision s'précise comme un IRM han Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens pah Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh Corleone, K2A ekip, ekip, ekip Maybach, pas de A, LDO, en tirs, négro, v'là de A sku, sku 9.3.5, 2.7 ekip, ekip, ekip So Kaki, zéro point en 32 sets, killu, deux 6 jamais sans le 7 lin Fuck le triple 6, j'évite le Malin, Corleone comme le film Le Parrain ekip Faut qu'mes enfants vivent comme des fils de parrains cash Black Jack OBS vise le larynx pah, pah, pah So l'agence, négro, la compagnie ekip, allume les prods comme dans Bad Company pah Dans la défense comme quatre Kompany han On n'apparaît pas sur les radars nan, mitraille d'en haut comme des ADAV paw, paw Envoie les prods, j'enchaîne les cadavres haha, ekip, ekip C'est au plastic qu'on ouvre nos portes han, il m'faut v'là d'acide pour vos corps han Retourne la prod avec le double rotor, ekip Des diamants sur la RM Sevran, j'mets du piment sur leurs raies gang J'roule un pli, c'est mon énième ouais, la vision s'précise comme un IRM pute Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens han Queensbridge comme CNN han, so Loto, fuck les States et les VMA pah Des diamants sur la RM pah, j'mets du piment sur leurs raies ekip J'roule un pli, c'est mon énième han, la vision s'précise comme un IRM han Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens pah Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh La marée est haute, mes couilles trempent dans l'sel ekip, ekip LDO, NRM, 6.6.7, pétasse, han Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel 6.6.7, 2.7, ekip, ekip, ekip Corleone, K2ARis-Kaa, ris-Kaa, ris-Kaa Maybach, pas de A 9.3.5 2.7 Grikitibang So Kaki, zéro point en 32 sets, killu, deux 6 jamais sans le 7 ekip, ekip3</t>
+          <t>Ris-Kaa, ris-Kaa, ris-Kaa Ekip, ekip, ekip So le Flem Freeze Corleone M.M.S, LDO, NRM Grikitibang, 2.7 Han Sku, sku Fuck le 6.6.6 pah, pah, pah 2.7.0, poto Ekip sku, sku, sku La marée est haute, mes couilles trempent dans l'sel gang Plus d'600 ch'vaux, la boite est séquentielle sku, sku Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel shi Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel J'ai fini mon plat de garba gang, j'commence la découpe du taga J'lui mets dans l'ul-c, sa chatt est jalouse J'étais seul, lle a cru qu'c'était une partouze pute Je n'ai confiance qu'en Zizou dans les arrêts d'jeux comme KB Nueve Le plein d'plomb dans leur te-tê et dans l'réservoir à la BP Kaaris O.G Kush, j'suis mal luné, j'mets les voiles vers les îles J'laisse la poudre sur tes poils du nez et le me-sper sur tes cils Retourné acrobatique, 9 milli', gang, dans le 4Matic Paris n'est pas juste magique et les autres équipes sucent ma trique Des diamants sur la RM Sevran, j'mets du piment sur leurs raies gang J'roule un pli, c'est mon énième ouais, la vision s'précise comme un IRM pute Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens han Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh Des diamants sur la RM pah, j'mets du piment sur leurs raies ekip J'roule un pli, c'est mon énième han, la vision s'précise comme un IRM han Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens pah Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh Corleone, K2A ekip, ekip, ekip Maybach, pas de A, LDO, en tirs, négro, v'là de A sku, sku 9.3.5, 2.7 ekip, ekip, ekip So Kaki, zéro point en 32 sets, killu, deux 6 jamais sans le 7 lin Fuck le triple 6, j'évite le Malin, Corleone comme le film Le Parrain ekip Faut qu'mes enfants vivent comme des fils de parrains cash Black Jack OBS vise le larynx pah, pah, pah So l'agence, négro, la compagnie ekip, allume les prods comme dans Bad Company pah Dans la défense comme quatre Kompany han On n'apparaît pas sur les radars nan, mitraille d'en haut comme des ADAV paw, paw Envoie les prods, j'enchaîne les cadavres haha, ekip, ekip C'est au plastic qu'on ouvre nos portes han, il m'faut v'là d'acide pour vos corps han Retourne la prod avec le double rotor, ekip Des diamants sur la RM Sevran, j'mets du piment sur leurs raies gang J'roule un pli, c'est mon énième ouais, la vision s'précise comme un IRM pute Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens han Queensbridge comme CNN han, so Loto, fuck les States et les VMA pah Des diamants sur la RM pah, j'mets du piment sur leurs raies ekip J'roule un pli, c'est mon énième han, la vision s'précise comme un IRM han Dans l'complot comme CNN ekip, ils sont dépassés comme Siemens pah Queensbridge comme CNN han, so Loto, fuck les States et les VMA eh La marée est haute, mes couilles trempent dans l'sel ekip, ekip LDO, NRM, 6.6.7, pétasse, han Ça fait des mélanges à l'hôtel et c'est ma tchoin qui ramène le gel 6.6.7, 2.7, ekip, ekip, ekip Corleone, K2ARis-Kaa, ris-Kaa, ris-Kaa Maybach, pas de A 9.3.5 2.7 Grikitibang So Kaki, zéro point en 32 sets, killu, deux 6 jamais sans le 7 ekip, ekip3</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5215,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>L'intelligence, la force, la chasse en boucle Autant de forces qui font de l'orque la terreur de la faune sous-marine, et qui l'ont fait surnommer la terreur des mers Aux échecs, les premiers moves sont pour les pions Dans ma clique des aigles, des orques, des loups et des lions J'suis noir, j'suis un panther dans l'cur J'survole cette merde dans un Flanker à Mach 6 Radar à bâtards actif J'repère les nègres de maison et ceux avec qui Barack pactise La matrice comme cible principale Donc c'est sûr qu'à t'foutre ça, Freeze t'incitera Vendeur, je cherche du custi Ça doit être putain d'dur, d'avancer le froc baissé jusqu'aux chevilles Haut j'vise, à la limite de foirer mes headshots Donc j'nique l'industrie, leurs sextapes et leurs sexshops Du coté obscur mais de lil gauche Pour vous baiser des cerveaux, d'la weed, des feuilles gros J'crois en Allah, aux valeurs et au karma J'viens pas faire un malheur mais un carnage C'est l'début d'votre fin, là j'dribble J'évite les beats trop simples, on fait les bails en 2 temps comme Fabrice Ou Gucci, fuck Louis Vuitton J'vous bousille, on va faire des sous puisqu'on N'a plus l'choix mais easy Je sais comment faire sans lécher des zizis Négro fais ton cash, quoi qu'tu fasses, choisis ton camp Avec ces pédés, soit tu passes soit tu casses Plus l'temps pour les chichis, on s'fout ça Mais on est pas des hippies, gro-né c'est plus les sixties Ça s'arme salement, tel des guerriers rastas Ça part avec le cana' car man, c'est ça l'calmant Babylone c'est thiotoundem, demande à Iba Fuck être une fourmi, bientôt j'fais la cigale Capitaine, j'crée mon équipe ultime Nique les cages gro-né, grosses frappe j'vise les suce-bites Cosmiques sont les années qui nous séparent J'me pose sur le beat genre nitroglycérine ou C4 J'explose les murs, rien à foutre de la porte Gros j'm'arrêterai pas jusqu'à c'que je rappe de la morgue You might also like Donc j'continue, car ces MC's sont si nuls Choquant comment ils ont mis leur pilule En plus bleues, j'en offre des rouges Fuck, le grand orque les bouffe Prépare mes ogives comme Mahmoud Là pour les quenelles, mi-babtou mi-kahlouch Y a plus l'temps, ça pue l'sang, on fout la merde On troue avec, militaire est l'état d'esprit Résistant comme en Palestine Car pour les négros ils ont pas d'estime XIX en orbite, dédicace à l'aigle de Carthage Qu'est-ce qui s'putain d'passe ?1</t>
+          <t>L'intelligence, la force, la chasse en boucle Autant de forces qui font de l'orque la terreur de la faune sous-marine, et qui l'ont fait surnommer la terreur des mers Aux échecs, les premiers moves sont pour les pions Dans ma clique des aigles, des orques, des loups et des lions J'suis noir, j'suis un panther dans l'cur J'survole cette merde dans un Flanker à Mach 6 Radar à bâtards actif J'repère les nègres de maison et ceux avec qui Barack pactise La matrice comme cible principale Donc c'est sûr qu'à t'foutre ça, Freeze t'incitera Vendeur, je cherche du custi Ça doit être putain d'dur, d'avancer le froc baissé jusqu'aux chevilles Haut j'vise, à la limite de foirer mes headshots Donc j'nique l'industrie, leurs sextapes et leurs sexshops Du coté obscur mais de lil gauche Pour vous baiser des cerveaux, d'la weed, des feuilles gros J'crois en Allah, aux valeurs et au karma J'viens pas faire un malheur mais un carnage C'est l'début d'votre fin, là j'dribble J'évite les beats trop simples, on fait les bails en 2 temps comme Fabrice Ou Gucci, fuck Louis Vuitton J'vous bousille, on va faire des sous puisqu'on N'a plus l'choix mais easy Je sais comment faire sans lécher des zizis Négro fais ton cash, quoi qu'tu fasses, choisis ton camp Avec ces pédés, soit tu passes soit tu casses Plus l'temps pour les chichis, on s'fout ça Mais on est pas des hippies, gro-né c'est plus les sixties Ça s'arme salement, tel des guerriers rastas Ça part avec le cana' car man, c'est ça l'calmant Babylone c'est thiotoundem, demande à Iba Fuck être une fourmi, bientôt j'fais la cigale Capitaine, j'crée mon équipe ultime Nique les cages gro-né, grosses frappe j'vise les suce-bites Cosmiques sont les années qui nous séparent J'me pose sur le beat genre nitroglycérine ou C4 J'explose les murs, rien à foutre de la porte Gros j'm'arrêterai pas jusqu'à c'que je rappe de la morgue Donc j'continue, car ces MC's sont si nuls Choquant comment ils ont mis leur pilule En plus bleues, j'en offre des rouges Fuck, le grand orque les bouffe Prépare mes ogives comme Mahmoud Là pour les quenelles, mi-babtou mi-kahlouch Y a plus l'temps, ça pue l'sang, on fout la merde On troue avec, militaire est l'état d'esprit Résistant comme en Palestine Car pour les négros ils ont pas d'estime XIX en orbite, dédicace à l'aigle de Carthage Qu'est-ce qui s'putain d'passe ?1</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5232,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Yeuz bridés comme un Chinois J'ai pas été sobre depuis 6 mois Corleone, Chen Zen, noir magicien Ecrit 16 mesures dans les grimoires Ruger d'Adolf pour les chevilles des délateurs LDO dans cette merde comme des sénateurs Avec mes siths découpe cette merde au sabre laser Toi et tes vieux négros avec des sécateurs Sur la prod j'envoie des roquettes Chaque jour fume d'la moquette MMS comme GBE, Glo Gang J'avance def tate, flacon d'Euphon dans la pocket Bientôt tout violet comme Cam'ron Dispet, violet, salope Défracté au lean comme à Lamron 667, chaque jour pratique art noble, hein Fait ça sans stress depuis mineur So à mes OV leaners Aquarium dans la beamer Maya Paris sur moi, pas d'Tealer En orbite balance merdasse, négro Nuage de fumée quand la secte passe, négro On va leur montrer comment faire ça, négro J'vendrai jamais mon âme pour du Versace, négro You might also like Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Sam Sam Sam On est les fils de l'Oncle Sam Sam Sam Sam On est les fils de l'Oncle Sam J'ai du Ralph Lauren, salope Si j'le perds, j'm'en prendrai un autre J'ai déjà une groopie love A la base elle kiffe pas les négros Pourquoi vouloir être un autre J'suis né sous l'étoile du Berger Négro j'guette les moutons Les évalue en pognon Oignon, rognons, rognons La queue du cochon C'est ma bite Cachée par un trognon Elle me trouve mignon Merde, j'me sens faiblard Dans 5 minutes, négro Roule-moi un gros zbah Je me sens comme Zico Négro fume le XXX Dans la main gauche un Zippo Crache la flamme sur le bédot J'crame foufoune et barbichette J'fume moula, cheddar et tartiflette Salope compose le 667 Si tu veux des négros frais x2 Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Sam Sam Sam On est les fils de l'Oncle Sam Sam Sam Sam On est les fils de l'Oncle Sam</t>
+          <t>Yeuz bridés comme un Chinois J'ai pas été sobre depuis 6 mois Corleone, Chen Zen, noir magicien Ecrit 16 mesures dans les grimoires Ruger d'Adolf pour les chevilles des délateurs LDO dans cette merde comme des sénateurs Avec mes siths découpe cette merde au sabre laser Toi et tes vieux négros avec des sécateurs Sur la prod j'envoie des roquettes Chaque jour fume d'la moquette MMS comme GBE, Glo Gang J'avance def tate, flacon d'Euphon dans la pocket Bientôt tout violet comme Cam'ron Dispet, violet, salope Défracté au lean comme à Lamron 667, chaque jour pratique art noble, hein Fait ça sans stress depuis mineur So à mes OV leaners Aquarium dans la beamer Maya Paris sur moi, pas d'Tealer En orbite balance merdasse, négro Nuage de fumée quand la secte passe, négro On va leur montrer comment faire ça, négro J'vendrai jamais mon âme pour du Versace, négro Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Sam Sam Sam On est les fils de l'Oncle Sam Sam Sam Sam On est les fils de l'Oncle Sam J'ai du Ralph Lauren, salope Si j'le perds, j'm'en prendrai un autre J'ai déjà une groopie love A la base elle kiffe pas les négros Pourquoi vouloir être un autre J'suis né sous l'étoile du Berger Négro j'guette les moutons Les évalue en pognon Oignon, rognons, rognons La queue du cochon C'est ma bite Cachée par un trognon Elle me trouve mignon Merde, j'me sens faiblard Dans 5 minutes, négro Roule-moi un gros zbah Je me sens comme Zico Négro fume le XXX Dans la main gauche un Zippo Crache la flamme sur le bédot J'crame foufoune et barbichette J'fume moula, cheddar et tartiflette Salope compose le 667 Si tu veux des négros frais x2 Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Tu veux pas le drame enculé, tu veux pas le drame enculé T'es le fils de ta mère, on est les fils de l'Oncle Sam Sam Sam Sam On est les fils de l'Oncle Sam Sam Sam Sam On est les fils de l'Oncle Sam</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5266,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Roule une fusée que j'décolle J'ai rien à faire ici, à part faire des sommes Des sommes faramineuses, mentalité pharaonique Pas besoin d'fourrer une dinde, on s'est déjà fourré la police Ils peuvent pas mentir sur moi, j'peux pas mentir avec ce sky Vrai shit, sensy, XXX J'me sens comme dans une chatte bien humide J'ai rien à faire ici, à part faire des sommes Je marche dans les rues comme Michael Jackson Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet J'mixe le Sprite et la codéine, j'me sens comme ODB yes Niveau 3, potion magique Perte de mémoire, altération des facultés cognitives gaddamn Bullet time à la Matrix XXX boire Euphon Khaliss finir dans Actavis han Afro samurai, suit la voie d'la tactique Double-6.7, fonscar dans la bâtisse Là pour des sommes astronomiques yes Négro j'veux des hôtels, des magasins d'sapes gaddamn Des chaines de restaurants africains gastronomiques han Seigneur nègre comme à l'ancienne yes Laisse des traînées noires quand j'passe dans l'ciel Lord Voldemort, Freeze Corleone 667 Capitaine Capitaine, précis dans mes plans comme un architecte han, han Négro j'm'arrêterai pas avant d'posséder plusieurs archipels You might also like J'ai rien à faire ici ici, à part faire des sommes Je marche dans les rues comme Michael Jackson Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Rappelle-toi, ils nous ont toujours ignoré Maintenant ils s'demandent quand est-ce qu'on va percer Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet</t>
+          <t>Roule une fusée que j'décolle J'ai rien à faire ici, à part faire des sommes Des sommes faramineuses, mentalité pharaonique Pas besoin d'fourrer une dinde, on s'est déjà fourré la police Ils peuvent pas mentir sur moi, j'peux pas mentir avec ce sky Vrai shit, sensy, XXX J'me sens comme dans une chatte bien humide J'ai rien à faire ici, à part faire des sommes Je marche dans les rues comme Michael Jackson Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet J'mixe le Sprite et la codéine, j'me sens comme ODB yes Niveau 3, potion magique Perte de mémoire, altération des facultés cognitives gaddamn Bullet time à la Matrix XXX boire Euphon Khaliss finir dans Actavis han Afro samurai, suit la voie d'la tactique Double-6.7, fonscar dans la bâtisse Là pour des sommes astronomiques yes Négro j'veux des hôtels, des magasins d'sapes gaddamn Des chaines de restaurants africains gastronomiques han Seigneur nègre comme à l'ancienne yes Laisse des traînées noires quand j'passe dans l'ciel Lord Voldemort, Freeze Corleone 667 Capitaine Capitaine, précis dans mes plans comme un architecte han, han Négro j'm'arrêterai pas avant d'posséder plusieurs archipels J'ai rien à faire ici ici, à part faire des sommes Je marche dans les rues comme Michael Jackson Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Rappelle-toi, ils nous ont toujours ignoré Maintenant ils s'demandent quand est-ce qu'on va percer Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5283,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Fonscar au lean comme Radric Slow-mo façon Matrix Les galactiques 667 Real Madrid Fonscar au lean comme Radric, slow-motion façon Matrix La Ligue des Ombres, les galactiques négro, 667, Real Madrid Défracté dans le bando en train d'cuisiner des grosses saveurs Flow kaki négro, ken la cérémonie comme un orateur 667, BPK, monarchie absolue, nègre syndicat J'me sens comme Juelz Santana, j'sens plus mon visage, niveau 3, leanindica Future luxure, 458, ceinture Hermès, Rolex or Organise la mort de ta famille, te garde dans une boite, Freeze Corleone aka Le Collector Afro-samurai Chen, sans stress découpe le microphone Def tate dans le labo, cherchant la concurrence au microscope Goddamn, négro j'me sens comme Dexter Fuck toutes ces tchoins négro, dans cette merde pour les espèces x2 J'veux téléphoner avec des liasses Remplir des bidons avec des liasses A Dakar comme au Texas Gifler ces tchoins avec des liasses You might also like Mangemort Squad shit, négro so Rondo Au micro enchaîne les combos avec mes praticiens du complot Corleone Freezer, ton crâne dans le viseur J'vois en slow-mo à cause du sizzurp, du lundi au lundi, de 6h a 6h Vision nocturne dans l'noir, que des vrais négros dans l'squad Noir vert sauce vague, 667 dans l'swag Infiltre le bâtiment, repeint tout avec d'la nano-thermite Observe les éclipses négro, comme Nicolas Copernic Dans cette merde jusqu'à la fin, négro pour mes héritiers Killuminati, Chen Zen négro, bouge stratégiquement sur l'échiquier Négro, 667, sur les bancs d'l'école des mystères</t>
+          <t>Fonscar au lean comme Radric Slow-mo façon Matrix Les galactiques 667 Real Madrid Fonscar au lean comme Radric, slow-motion façon Matrix La Ligue des Ombres, les galactiques négro, 667, Real Madrid Défracté dans le bando en train d'cuisiner des grosses saveurs Flow kaki négro, ken la cérémonie comme un orateur 667, BPK, monarchie absolue, nègre syndicat J'me sens comme Juelz Santana, j'sens plus mon visage, niveau 3, leanindica Future luxure, 458, ceinture Hermès, Rolex or Organise la mort de ta famille, te garde dans une boite, Freeze Corleone aka Le Collector Afro-samurai Chen, sans stress découpe le microphone Def tate dans le labo, cherchant la concurrence au microscope Goddamn, négro j'me sens comme Dexter Fuck toutes ces tchoins négro, dans cette merde pour les espèces x2 J'veux téléphoner avec des liasses Remplir des bidons avec des liasses A Dakar comme au Texas Gifler ces tchoins avec des liasses Mangemort Squad shit, négro so Rondo Au micro enchaîne les combos avec mes praticiens du complot Corleone Freezer, ton crâne dans le viseur J'vois en slow-mo à cause du sizzurp, du lundi au lundi, de 6h a 6h Vision nocturne dans l'noir, que des vrais négros dans l'squad Noir vert sauce vague, 667 dans l'swag Infiltre le bâtiment, repeint tout avec d'la nano-thermite Observe les éclipses négro, comme Nicolas Copernic Dans cette merde jusqu'à la fin, négro pour mes héritiers Killuminati, Chen Zen négro, bouge stratégiquement sur l'échiquier Négro, 667, sur les bancs d'l'école des mystères</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5300,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Comme dans les loges on s'organise J'ai v'la d'drogues dans mon organisme Po, comme si on fait d'la chimie organique J'maîtrise le langage, négro, j'maitrise le Lingo Sur la prod', j'ai les techniques de Lingo Gaddamn, so mes gars, jamais j'fais un deal avec mon âme dedans J'sécurise la cage j'suis comme Oliver Kahn dedans Freeze, Doc, cross, slime, dans la cuisine prépare la came dedans Denzel dans Flight, fons' dans l'cockpit, j'suis calme dedans Chen Zen, clutch comme Leonard chez les Raptors Faut qu'mes enfants soient comme des héritiers chez les Astor J'vois la concu', tout petits comme des Hobbits Négro, tu sais comme qui on arrive dans les AudisYou might also like</t>
+          <t>Comme dans les loges on s'organise J'ai v'la d'drogues dans mon organisme Po, comme si on fait d'la chimie organique J'maîtrise le langage, négro, j'maitrise le Lingo Sur la prod', j'ai les techniques de Lingo Gaddamn, so mes gars, jamais j'fais un deal avec mon âme dedans J'sécurise la cage j'suis comme Oliver Kahn dedans Freeze, Doc, cross, slime, dans la cuisine prépare la came dedans Denzel dans Flight, fons' dans l'cockpit, j'suis calme dedans Chen Zen, clutch comme Leonard chez les Raptors Faut qu'mes enfants soient comme des héritiers chez les Astor J'vois la concu', tout petits comme des Hobbits Négro, tu sais comme qui on arrive dans les Audis</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5317,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>J'fume comme une locomotive Vous êtes des cobayes, on est des prototypes H24 fonscar, négro J'roule des niaks d'une manière robotique Dans l'ombre, préparant nos coups d'état Pendant qu'ces PDs passent sous les tables Trouve-moi avec mes loups dans la forêt En train d'danser autour des flammes Sniper, ça vise pas l'torse, négro Du côté obscur de la Force, négro Langage crypté comme du morse, négro Déjà dead, j'rappe de la morgue, négro J'sors des ténèbres, de tes cauchemars Nique Mozart, fils d'Osar Dans nos crânes sont nos armes Jamais on n'vous vendra nos âmes Afro Samurai, katana noir Camouflage optique, t'arrives pas à m'voir Vision nocturne, silencieux Furtivité extrême, laisse aucune chances à la proie Chad Butler dans mon verre Négro, j'vois au ralenti Gros niaks dans l'igloo, négro J'écris mes 16 sur la banquise Accompagné de mes mangemorts On maîtrise la cérémonie J'veux le monopole à la Brick Squad Une domination sans partage, hégémonie J'fais cette merde sans aucun stress Faya, j'flotte comme un spectre D'où j'suis j'vous vois petits comme des insectes Seigneur nègre, j'veux trois yeuz et un sceptre On s'pose au sommet avec mes équipiers On bouge stratégiquement sur léchiquier Fuck demain, j'le fais pour mes héritiers Négro, j'veux méditer jusqu'à léviter J'arrive dans cette merde plus froid qu'd'la glace On joue pas dans la même cour, vous nêtes pas d'ma classe J'suis sur qu'parmi ces pussy négros Y en a qui ont pas d'taule mais une chatte à la place You might also like x2 J'fume comme une locomotive Vous êtes des cobayes, on est des prototypes H24 fonscar, négro J'roule des niaks d'une manière robotique Dans l'ombre, préparant nos coups d'état Pendant qu'ces PDs passent sous les tables Trouve-moi avec mes loups dans la forêt En train d'danser autour des flammes Négro, j'arrive d'au-dessus La mort venue du ciel En mode Alpha 5.20 En mode Saddam Hussein Dans cette merde pour l'or jaune Pour honorer mes ancêtres Double-6.7 dans l'Game Négro, comme un cancer On les tue furtivement, doucement Dans l'obscurité, les yeuz rouge sang Tranquillement, sans stress j'introduis Mon troisième doigts dans la chatte de cette douce France J'prend le khaliss j'rentre en Afrique Construire des palaces pour ma familia J'm'arrête pas tant qu'j'ai pas d'milliards Dans mon équipage pas d'ignares Seulement pour la famille Négro, so OTF J'm'infiltre sans m'faire repérer Négro furtif comme Solid Snake Perché à un endroit stratégique Vision slow-mo', j'rate pas mes cibles Si j'rate, j'débarque à lhôpital Et j'envoie une impulsion électromagnétique J'débarque d'un vortex en Cortez Trop loin, ils sont pas encore prêts Quand ils capteront on s'pavanera à Dakar Avec mes nègres en cortège Trop haut, quand j'touche le sol J'déploie énormément dénergie cinétique Goddamn On va vous la mettre d'une manière inédite x2 J'fume comme une locomotive Vous êtes des cobayes, on est des prototypes H24 fonscar, négro J'roule des niaks d'une manière robotique Dans l'ombre, préparant nos coups d'état Pendant qu'ces PDs passent sous les tables Trouve-moi avec mes loups dans la forêt En train d'danser autour des flammes</t>
+          <t>J'fume comme une locomotive Vous êtes des cobayes, on est des prototypes H24 fonscar, négro J'roule des niaks d'une manière robotique Dans l'ombre, préparant nos coups d'état Pendant qu'ces PDs passent sous les tables Trouve-moi avec mes loups dans la forêt En train d'danser autour des flammes Sniper, ça vise pas l'torse, négro Du côté obscur de la Force, négro Langage crypté comme du morse, négro Déjà dead, j'rappe de la morgue, négro J'sors des ténèbres, de tes cauchemars Nique Mozart, fils d'Osar Dans nos crânes sont nos armes Jamais on n'vous vendra nos âmes Afro Samurai, katana noir Camouflage optique, t'arrives pas à m'voir Vision nocturne, silencieux Furtivité extrême, laisse aucune chances à la proie Chad Butler dans mon verre Négro, j'vois au ralenti Gros niaks dans l'igloo, négro J'écris mes 16 sur la banquise Accompagné de mes mangemorts On maîtrise la cérémonie J'veux le monopole à la Brick Squad Une domination sans partage, hégémonie J'fais cette merde sans aucun stress Faya, j'flotte comme un spectre D'où j'suis j'vous vois petits comme des insectes Seigneur nègre, j'veux trois yeuz et un sceptre On s'pose au sommet avec mes équipiers On bouge stratégiquement sur léchiquier Fuck demain, j'le fais pour mes héritiers Négro, j'veux méditer jusqu'à léviter J'arrive dans cette merde plus froid qu'd'la glace On joue pas dans la même cour, vous nêtes pas d'ma classe J'suis sur qu'parmi ces pussy négros Y en a qui ont pas d'taule mais une chatte à la place x2 J'fume comme une locomotive Vous êtes des cobayes, on est des prototypes H24 fonscar, négro J'roule des niaks d'une manière robotique Dans l'ombre, préparant nos coups d'état Pendant qu'ces PDs passent sous les tables Trouve-moi avec mes loups dans la forêt En train d'danser autour des flammes Négro, j'arrive d'au-dessus La mort venue du ciel En mode Alpha 5.20 En mode Saddam Hussein Dans cette merde pour l'or jaune Pour honorer mes ancêtres Double-6.7 dans l'Game Négro, comme un cancer On les tue furtivement, doucement Dans l'obscurité, les yeuz rouge sang Tranquillement, sans stress j'introduis Mon troisième doigts dans la chatte de cette douce France J'prend le khaliss j'rentre en Afrique Construire des palaces pour ma familia J'm'arrête pas tant qu'j'ai pas d'milliards Dans mon équipage pas d'ignares Seulement pour la famille Négro, so OTF J'm'infiltre sans m'faire repérer Négro furtif comme Solid Snake Perché à un endroit stratégique Vision slow-mo', j'rate pas mes cibles Si j'rate, j'débarque à lhôpital Et j'envoie une impulsion électromagnétique J'débarque d'un vortex en Cortez Trop loin, ils sont pas encore prêts Quand ils capteront on s'pavanera à Dakar Avec mes nègres en cortège Trop haut, quand j'touche le sol J'déploie énormément dénergie cinétique Goddamn On va vous la mettre d'une manière inédite x2 J'fume comme une locomotive Vous êtes des cobayes, on est des prototypes H24 fonscar, négro J'roule des niaks d'une manière robotique Dans l'ombre, préparant nos coups d'état Pendant qu'ces PDs passent sous les tables Trouve-moi avec mes loups dans la forêt En train d'danser autour des flammes</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5334,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Laudiano Ayy, hold up, Chase I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old I don't expect them niggas to keep up 'cause they too old I brought the drum to Nick at Nite to give out tombstones I wake up every day and get the bag with no loopholes Young BéBé Kid, flu flammin' in school clothes If we playin' ball, I dunk on niggas, Antetokounmpo That's your bitch, I made her slurp up, Mr. Noodle Took her strips, I gotta go, bitch, kudos Is the plug gon' ever stop droppin' hits? Who knows? Bitch, the only advice I got for you is to move on Bitches crazy, how you get the number to my new phone? Yoom, beep-beep, that's somethin' the coupe gon' do This an M4 sport, I'll drop the roof on you, The Plug You might also like I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old Ekip, ekip, ekip J'suis avec la meute, ils sont avec le troupeau Au micro découpe trop, Dieu avec moi, pas des coups d'pots Triangle 667, Bouddha, TGF La force avec moi laser vert comme Luke Skywalker ou PGF J'me réveille, j'remercie Dieu, et j'pense aux sous direct Lucarne j'la fous direct, fume mon teh, tu passes fou direct Long live Drakeo the Ruler, c'est la vérité Cash mérité, on a charbonné, on n'a pas hérité 667, Stinc Team, que on augmente les victimes Fuck ces négros, c'est des bitchs qui rappent, c'est des Lil Kim Sur la liste, j'mets croix sur croix, A3, j'mets trois sur trois C'est une A7 Sportback et j'ouvre le toit-sur-toi Ekip I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old</t>
+          <t>Laudiano Ayy, hold up, Chase I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old I don't expect them niggas to keep up 'cause they too old I brought the drum to Nick at Nite to give out tombstones I wake up every day and get the bag with no loopholes Young BéBé Kid, flu flammin' in school clothes If we playin' ball, I dunk on niggas, Antetokounmpo That's your bitch, I made her slurp up, Mr. Noodle Took her strips, I gotta go, bitch, kudos Is the plug gon' ever stop droppin' hits? Who knows? Bitch, the only advice I got for you is to move on Bitches crazy, how you get the number to my new phone? Yoom, beep-beep, that's somethin' the coupe gon' do This an M4 sport, I'll drop the roof on you, The Plug I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old Ekip, ekip, ekip J'suis avec la meute, ils sont avec le troupeau Au micro découpe trop, Dieu avec moi, pas des coups d'pots Triangle 667, Bouddha, TGF La force avec moi laser vert comme Luke Skywalker ou PGF J'me réveille, j'remercie Dieu, et j'pense aux sous direct Lucarne j'la fous direct, fume mon teh, tu passes fou direct Long live Drakeo the Ruler, c'est la vérité Cash mérité, on a charbonné, on n'a pas hérité 667, Stinc Team, que on augmente les victimes Fuck ces négros, c'est des bitchs qui rappent, c'est des Lil Kim Sur la liste, j'mets croix sur croix, A3, j'mets trois sur trois C'est une A7 Sportback et j'ouvre le toit-sur-toi Ekip I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old I wake up and get straight to the money with no loopholes Still gettin' money and doggin' all my new hoes You niggas broke, still wearin' them hand-me-down used clothes I don't expect them niggas to keep up 'cause they too old</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5351,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>RT, RT, RT Yeah, double F-G RT, RT, RT LT, RT, ta tête, la gâchette RT, RT, RT Fagget m'a mis par terre, avec mon flingue je l'asperge RT, RT, RT Han, j'ai ta tête et j'appuie sur RT Breh t'es mort, t'aurais mieux fait de déserter Viseur holo' et silencieux, c'est Ma combinaison préférée pour tuer dans l'jeu, mec Chacun pour sa peau, gars faut se gérer, avancer doucement Et les bâtards repérer, tuer avant d'être tué ACR et camouflage de printemps Pour l'débloquer, des headshots, j'dois en faire 250 Mais bon voilà, easy je maîtrise, je gagne des titres Des défis, j'fais des séries, en équipement J'utilise des Semtex, les téj pour qu'elles restent Sur les fesses de ces déps, et boom voilà c'est fait Bref mec, après 7 frags, belles frappes aériennes Je fais ça, n'importe quelles arme à la main Je fais tout pour ne jamais partir tout seul Même au sol je tue et ça leur fout l'seum You might also like LT, mec j'ai ta tête, j'appuie sur la gâchette Et ça fait RT, RT, RT Ce fagget m'a mis par terre, mais avec mon flingue je l'asperge Et ça fait LT, RT, RT LT, mec j'ai ta tête, j'appuie sur la gâchette Et ça fait RT, RT, RT Ce fagget m'a mis par terre, mais avec mon flingue je l'asperge Et ça fait LT, RT Ok bon, je suis un fou de la gâchette Mais un coup d'couteau bref si j'te trouve dans ta cachette Déplacement avec le style de la BOPE Rôdé, furtivement passant par les côtés J'te couche, j'te finis avec une flashbang, fusil à pompe Boom j'en explose 4 d'entre eux en 3 secondes Mais bon, des fois ça tourne pas comme ça J'comprends pas d'où ça vient, y'a une balle qui perfore ma tête J'appuie sur X, et puis après je revis Je tue celui qui m'avait tué dans l'dos, et je ris J'me retourne et je coupe un autre qui voulait m'couper Cet enculé doit avoir la haine de m'avoir loupé Fiasco total pour l'équipe adverse Les balles pleuvent, on provoque des averses N'importe qui devant son écran et sa manette Peut être un colosse et là c'était à Call Of, yeah LT, mec j'ai ta tête, j'appuie sur la gâchette Et ça fait RT, RT, RT Ce fagget m'a mis par terre, mais avec mon flingue je l'asperge Et ça fait LT, RT, RT LT, mec j'ai ta tête, j'appuie sur la gâchette Et ça fait RT, RT, RT Ce fagget m'a mis par terre, mais avec mon flingue je l'asperge Et ça fait LT, RT Freezifreeze, général, niveau 67 Le rappeur le plus auch à Call Of dans l'game Mais fais gaffe à Myth Syzer Le producteur au sniper, yep Double-F Gang, on roule nos pét' de M-Jane A la recherche de la daillance, nigga1</t>
+          <t>RT, RT, RT Yeah, double F-G RT, RT, RT LT, RT, ta tête, la gâchette RT, RT, RT Fagget m'a mis par terre, avec mon flingue je l'asperge RT, RT, RT Han, j'ai ta tête et j'appuie sur RT Breh t'es mort, t'aurais mieux fait de déserter Viseur holo' et silencieux, c'est Ma combinaison préférée pour tuer dans l'jeu, mec Chacun pour sa peau, gars faut se gérer, avancer doucement Et les bâtards repérer, tuer avant d'être tué ACR et camouflage de printemps Pour l'débloquer, des headshots, j'dois en faire 250 Mais bon voilà, easy je maîtrise, je gagne des titres Des défis, j'fais des séries, en équipement J'utilise des Semtex, les téj pour qu'elles restent Sur les fesses de ces déps, et boom voilà c'est fait Bref mec, après 7 frags, belles frappes aériennes Je fais ça, n'importe quelles arme à la main Je fais tout pour ne jamais partir tout seul Même au sol je tue et ça leur fout l'seum LT, mec j'ai ta tête, j'appuie sur la gâchette Et ça fait RT, RT, RT Ce fagget m'a mis par terre, mais avec mon flingue je l'asperge Et ça fait LT, RT, RT LT, mec j'ai ta tête, j'appuie sur la gâchette Et ça fait RT, RT, RT Ce fagget m'a mis par terre, mais avec mon flingue je l'asperge Et ça fait LT, RT Ok bon, je suis un fou de la gâchette Mais un coup d'couteau bref si j'te trouve dans ta cachette Déplacement avec le style de la BOPE Rôdé, furtivement passant par les côtés J'te couche, j'te finis avec une flashbang, fusil à pompe Boom j'en explose 4 d'entre eux en 3 secondes Mais bon, des fois ça tourne pas comme ça J'comprends pas d'où ça vient, y'a une balle qui perfore ma tête J'appuie sur X, et puis après je revis Je tue celui qui m'avait tué dans l'dos, et je ris J'me retourne et je coupe un autre qui voulait m'couper Cet enculé doit avoir la haine de m'avoir loupé Fiasco total pour l'équipe adverse Les balles pleuvent, on provoque des averses N'importe qui devant son écran et sa manette Peut être un colosse et là c'était à Call Of, yeah LT, mec j'ai ta tête, j'appuie sur la gâchette Et ça fait RT, RT, RT Ce fagget m'a mis par terre, mais avec mon flingue je l'asperge Et ça fait LT, RT, RT LT, mec j'ai ta tête, j'appuie sur la gâchette Et ça fait RT, RT, RT Ce fagget m'a mis par terre, mais avec mon flingue je l'asperge Et ça fait LT, RT Freezifreeze, général, niveau 67 Le rappeur le plus auch à Call Of dans l'game Mais fais gaffe à Myth Syzer Le producteur au sniper, yep Double-F Gang, on roule nos pét' de M-Jane A la recherche de la daillance, nigga1</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5368,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Ouais, ouais Ouais, ouais Nos fers Nos fers sont plus récents que celui de Lucky Luke ouais Il fait le grand, c'est par ses petits qu'il est puni, zut Tu veux pas savoir, comme si que ça fait quand le Uzi tue Nah, hey Kaki, je les baise tous Plus professionnel que ton héros, négro, je pèse lourd Elle attire mon attention, abusé quand ses fesses bougent Et je connais tous les rappeurs qui prennent de la cess' pour Faire les bandits, petit clown, t'as zéro cojones, bouge Monnaie, je me presse pour ouais J'l'ai payé hier, c'est le jogging que la fraise troue Tu peux pas me micher, tu es moins qu'un pitre Tout c'que t'as fait dans la rue, c'est moins d'un litre Hey Mon négro, tu pointes et tu fais genre comme R. Kelly Dieu merci, je peux te baffer et j'ai pas d'béquilles Parmi les bitchs autour de moi, y en a pas d'pénibles Je sais que tu mens, regarde comment tes phases débitent Ouais, je sais qu'ils m'aiment pas, j'sais que je les soûle comme un Open Bar Et j'suis prêt au cas où la guerre part paw Je lui fais sa fête, ouais, je baise sa fesse, elle encaisse ça sec, j'lui dis Cesse la cess' Négro, ta montre n'est pas assez polie brr On passe par le milieu, on fait pas de allégorie Kaki Santana, pas beaucoup dans ma catégorie Bébé c'qui me prend du temp, c'est les sous, pas te casser au lit You might also like Nos fers sont plus récents que celui de Lucky Luke Il fait le grand, c'est par ses petits qu'il est puni, zut Tu veux pas savoir, comme si que ça fait quand le Uzi tue Nos fers sont plus récents que celui de Lucky Luke Il fait le grand, c'est par ses petits qu'il est puni, zut Tu veux pas savoir, comme si que ça fait quand le Uzi tue Han Découper, faire du cash, c'est ma fonction Première Avant l'attaque, négro, ça opère la jonction J'travaille la finition, faut plus de biff que Blizzard Activision Ils regardent mes poches et mes acquisitions Shlagueur, vision nocturne sur la TAQ paw So Esco, j'l'ai cassé en posant mes couilles sur la table ekip Fons' à la tégrité comme Randy Marsh ftt, ftt Concu', ils existent pas comme le 36 mars haha J'veux l'respect et les pesos, sous lin comme Drakeo et SaySo les deux R.E.P MoneySign Suede, négro, libérez Peysoh han Américain comme si j'viens de Phoenix là-bas Sous cali, Los Angeles comme cinq Fenix Flexin Freeze Corleone, Kaki Santana ekip Négro, j'm'allume plus que quatre mille bangamans quatre mille 2k23, Back to Back, vision 3-6 comme si j'ai le byakugan Fuck Emmanuel Macron et sa cougar les deux On est des années-lumière, c'est des microns petit Petit négro, t'as jamais vu des litrons jamais J'roule six balaises, on dirait six troncs balaise Découpe les prods' comme si c'était des citrons chh, chh</t>
+          <t>Ouais, ouais Ouais, ouais Nos fers Nos fers sont plus récents que celui de Lucky Luke ouais Il fait le grand, c'est par ses petits qu'il est puni, zut Tu veux pas savoir, comme si que ça fait quand le Uzi tue Nah, hey Kaki, je les baise tous Plus professionnel que ton héros, négro, je pèse lourd Elle attire mon attention, abusé quand ses fesses bougent Et je connais tous les rappeurs qui prennent de la cess' pour Faire les bandits, petit clown, t'as zéro cojones, bouge Monnaie, je me presse pour ouais J'l'ai payé hier, c'est le jogging que la fraise troue Tu peux pas me micher, tu es moins qu'un pitre Tout c'que t'as fait dans la rue, c'est moins d'un litre Hey Mon négro, tu pointes et tu fais genre comme R. Kelly Dieu merci, je peux te baffer et j'ai pas d'béquilles Parmi les bitchs autour de moi, y en a pas d'pénibles Je sais que tu mens, regarde comment tes phases débitent Ouais, je sais qu'ils m'aiment pas, j'sais que je les soûle comme un Open Bar Et j'suis prêt au cas où la guerre part paw Je lui fais sa fête, ouais, je baise sa fesse, elle encaisse ça sec, j'lui dis Cesse la cess' Négro, ta montre n'est pas assez polie brr On passe par le milieu, on fait pas de allégorie Kaki Santana, pas beaucoup dans ma catégorie Bébé c'qui me prend du temp, c'est les sous, pas te casser au lit Nos fers sont plus récents que celui de Lucky Luke Il fait le grand, c'est par ses petits qu'il est puni, zut Tu veux pas savoir, comme si que ça fait quand le Uzi tue Nos fers sont plus récents que celui de Lucky Luke Il fait le grand, c'est par ses petits qu'il est puni, zut Tu veux pas savoir, comme si que ça fait quand le Uzi tue Han Découper, faire du cash, c'est ma fonction Première Avant l'attaque, négro, ça opère la jonction J'travaille la finition, faut plus de biff que Blizzard Activision Ils regardent mes poches et mes acquisitions Shlagueur, vision nocturne sur la TAQ paw So Esco, j'l'ai cassé en posant mes couilles sur la table ekip Fons' à la tégrité comme Randy Marsh ftt, ftt Concu', ils existent pas comme le 36 mars haha J'veux l'respect et les pesos, sous lin comme Drakeo et SaySo les deux R.E.P MoneySign Suede, négro, libérez Peysoh han Américain comme si j'viens de Phoenix là-bas Sous cali, Los Angeles comme cinq Fenix Flexin Freeze Corleone, Kaki Santana ekip Négro, j'm'allume plus que quatre mille bangamans quatre mille 2k23, Back to Back, vision 3-6 comme si j'ai le byakugan Fuck Emmanuel Macron et sa cougar les deux On est des années-lumière, c'est des microns petit Petit négro, t'as jamais vu des litrons jamais J'roule six balaises, on dirait six troncs balaise Découpe les prods' comme si c'était des citrons chh, chh</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5385,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Paroles issues d'un extrait Ekip, sans Cartier, Santos Marathon, sans pause Rapi Sati, Blacky Jacky, Corleone, Coco Jojo Ekip J'vois en slow-mo, so Ocho Lin J'les vois comme des Coco Jojo Mafia noire comme B.S.F Dans l'usine on a la sauce comme Ils vont disparaître comme le B.S.FYou might also like</t>
+          <t>Paroles issues d'un extrait Ekip, sans Cartier, Santos Marathon, sans pause Rapi Sati, Blacky Jacky, Corleone, Coco Jojo Ekip J'vois en slow-mo, so Ocho Lin J'les vois comme des Coco Jojo Mafia noire comme B.S.F Dans l'usine on a la sauce comme Ils vont disparaître comme le B.S.F</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5402,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>667 pilote le vaisseau A 5 on passe, t'as plus d'réseau Dictature noire, gro-né j'arrive en noir Berlusconi, mafiosi comme Silvio Génération d'la fin des temps Mes négros n'entendent déjà plus parler d'opposition 667 est là, et la mafia Ne baissera le froc sous aucune condition Eux donnent leur cul juste pour de l'audimat Quand j'débite, gro-né j'les laisse au plus mal Défracté comme un Chinois Goûte à la nem avant d'parler chinois Vous les lavez trop facilement Juste avec des ordis, des micros, c'que négros me disent So Jorrdee, tous les jours j'veux des négros Et négro j'me sens comme une maison de disques Tous les jours nique le triple-6, négro J'manie les mots, j'manie la rime et la rythmique, négro Ils paniquent devant la Ligue des Ombres On a déjà gagné même avant l'décompte La concurrence a fini dans les décombres NRM, 667, marque de fabrique Libérez Numéro 9, 22 Shots et Radric Négro furtif, nom d'famille Art, prénom Patrick Blédard mentality négro, prend tas d'fric, rentre en Afrique NRM, 667, marque de fabrique Libérez Numéro 9, 22 Shots et Radric Négro furtif, nom d'famille Art, prénom Patrick Blédard mentality négro, prend tas d'fric, rentre en Afrique You might also like Sensy, la sensy Cons' la sensy avec asthmatique Dans mon gobelet antitussif 667, la marque de fabrique Calicot, calicot Négro, on fume des chapiteaux NRM comme un XXX Distille la lean dans les Mojito Roule ça comme si c'était légal Appelle-moi pas frère, j'supporte pas Trop d'shit sort par voie fécale Ta taspé engagée pour quelques voyages Chronic, chronic, brolik, brolik OV, LT les fait vomir XXX pour XXX grosse saveur d'hydroponique Cons' la Prometh' comme Sonic Attention j'ai le poil qui pique La concurrence qui fume Parle moi d'une guerre sans victime Shooter comme Scotty Pippen 667, un gros dilemme Euphon, nouvelle drogue urbaine Négro blond, jeunesse aryenne NRM, 667, marque de fabrique Libérez Numéro 9, 22 Shots et Radric Négro furtif, nom d'famille Art, prénom Patrick Blédard mentality négro, prend tas d'fric, rentre en Afrique NRM, 667, marque de fabrique Libérez Numéro 9, 22 Shots et Radric Négro furtif, nom d'famille Art, prénom Patrick Blédard mentality négro, prend tas d'fric, rentre en Afrique</t>
+          <t>667 pilote le vaisseau A 5 on passe, t'as plus d'réseau Dictature noire, gro-né j'arrive en noir Berlusconi, mafiosi comme Silvio Génération d'la fin des temps Mes négros n'entendent déjà plus parler d'opposition 667 est là, et la mafia Ne baissera le froc sous aucune condition Eux donnent leur cul juste pour de l'audimat Quand j'débite, gro-né j'les laisse au plus mal Défracté comme un Chinois Goûte à la nem avant d'parler chinois Vous les lavez trop facilement Juste avec des ordis, des micros, c'que négros me disent So Jorrdee, tous les jours j'veux des négros Et négro j'me sens comme une maison de disques Tous les jours nique le triple-6, négro J'manie les mots, j'manie la rime et la rythmique, négro Ils paniquent devant la Ligue des Ombres On a déjà gagné même avant l'décompte La concurrence a fini dans les décombres NRM, 667, marque de fabrique Libérez Numéro 9, 22 Shots et Radric Négro furtif, nom d'famille Art, prénom Patrick Blédard mentality négro, prend tas d'fric, rentre en Afrique NRM, 667, marque de fabrique Libérez Numéro 9, 22 Shots et Radric Négro furtif, nom d'famille Art, prénom Patrick Blédard mentality négro, prend tas d'fric, rentre en Afrique Sensy, la sensy Cons' la sensy avec asthmatique Dans mon gobelet antitussif 667, la marque de fabrique Calicot, calicot Négro, on fume des chapiteaux NRM comme un XXX Distille la lean dans les Mojito Roule ça comme si c'était légal Appelle-moi pas frère, j'supporte pas Trop d'shit sort par voie fécale Ta taspé engagée pour quelques voyages Chronic, chronic, brolik, brolik OV, LT les fait vomir XXX pour XXX grosse saveur d'hydroponique Cons' la Prometh' comme Sonic Attention j'ai le poil qui pique La concurrence qui fume Parle moi d'une guerre sans victime Shooter comme Scotty Pippen 667, un gros dilemme Euphon, nouvelle drogue urbaine Négro blond, jeunesse aryenne NRM, 667, marque de fabrique Libérez Numéro 9, 22 Shots et Radric Négro furtif, nom d'famille Art, prénom Patrick Blédard mentality négro, prend tas d'fric, rentre en Afrique NRM, 667, marque de fabrique Libérez Numéro 9, 22 Shots et Radric Négro furtif, nom d'famille Art, prénom Patrick Blédard mentality négro, prend tas d'fric, rentre en Afrique</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5419,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Han Woo OV Han-han Woo Haha, new era bitch New era, non y a pas d'monde féérique Nan Kaki fume la Morty et Rick 2-2-1, O.B.S., ouais y a l'artillerie On les lave, on les lamine, même postés au loin Au loin Précis même fonce-dé au lin Woo Plus Kilimandjaro qu'Mont Olympe Mont Olympe, dans la qualité comme le teh qu'nous on a Woo Han, chasse les démons comme dans Constantine So Loto, faut les big Vacheron Constantin Ice 20-21, pétasse, Nouvelle Ère Ha, on a des nouveaux shits, des nouvelles herbes Fonscar au lin j'ai des cerns Han, au bled il m'faut des ranchs et ds fermes Cash Osirus Jack, Freeze Corleone, dans l'complot comme si on taffait chez CERN Han J'fume et les options s'offrent Woo, j'suis dans l'char ou l'option sport Gaddamn Regarde comment au-dessus d'eux j'plane, dans l'roster que des all-stars Haha Europa, négro faut s'taille Direct, logo sur l'tricot Han Les mano pleins d'trichomes Merde J'pense j'ai l'meilleur des decks, la chatte à la maman des deks Okay On arrive dans l'game comme un vendredi 13 Piou, piou, piou Tu rappes encore comme en 2013 Ha Ça a fait du ch'min depuis 2013 Assez d'fanatiques pour remplir trente-deux lignes 13 Ekip J'me sens comme l'alligator dans les marécages Han C'est des imposteurs ils font pas les tâches Nan J'aime parler cash, grosse wax j'fume v'là les taches À Dakar faut villa avec quatre étages Fuck vos rappeurs du troisième âge, dès qu'on débarque on les ken Woo J'veux les longs câbles comme Roi Heenok ou Johnny Dang Haha J'suis fonce' du lundi au week-end Ils sont faibles ils passent même pas les huitièmes Ha Faut plus d'auditeurs Spotify que The Weeknd J'arrive raciste comme un OG Mickey Ha Ils ont disparu comme John Obi Mikel Et j'les vois p'tits comme des Minimoys Ha Faut une liasse de la longueur de dix mille bornes Gang shit, so Chiraq Drillinois Reste allumé comme dix diodes Han-han Et la bitch elle vient pas d'Taïwan Nan, nan On les fait sauter one by one He J'peux finir à tout moment comme Delonte Ouais Fume le beldia du salon d'thé J'rajoute deux gouttes de nigelle à mon thé Tant qu'on est pas au sommet, continue à monter Woo J'ai mes outils mais j'suis pas mécano J'suis dans la défense comme Upamecano Ha So Loto, gratte comme J. K. Rowling Et négro j'appellerais pas ma fille Caroline Nan Fume gasoline et triple filtré, anonyme Négro, dans l'KGB, découpe fonscar au lean Lin Sur notre route ils veulent mettre des grandes herses On reste au-d'ssus d'eux comme la Grande Ourse Damn 667 ça perce plus, ça transperce Si ça continue bientôt tu nous verras en bourse Cash J'm'informe sur le nombre et les fréquences hertz Faut qu'ma vision s'agrandisse OV VVS certifiés à Anvers, sur la route du papier bombarde à 310 Cash, cash, cash 21 là pour siéger Woo, mental killu comme le Che J'vise dix fois la vie d'un DG Woo Équipe remplie qu'd'artisans, des comme nous y en a pas chaque deux ans Nan Et j'arrive fonce-dé à deux Xans J'voulais déjà de l'argent à deux ans Cash, haha J'veux le cash, le fromage, le parmesan, ekip On s'implante jusqu'au Parlement Ils s'transmettent les bails par le sang 'llu 6-6-7 c'est la Masia, on t'apprend v'là les techniques Woo négro si tu passes par le centre Ekip 6-6-7 comme des Olmèques on est là d'puis avant l'an zéro, froid comme Angelo J'suis LaMelo, toi t'es LiAngelo Nunchaku sur la prod comme Michelangelo J'cherche mais la concu' j'vois 'ap Nulle part En tout noir on vient comme le SWAT J'aime bien voir l'argent croître Cash Si c'est pas pour du cash tu m'vois pas en boîte Cash, cash MMS, on est presque mille Haha, faut la casa sur la presqu'île Pétasse On a les techs, j'ai les skills, sur la prod, négro, glisse comme si j'avais des skis, ekipYou might also like11</t>
+          <t>Han Woo OV Han-han Woo Haha, new era bitch New era, non y a pas d'monde féérique Nan Kaki fume la Morty et Rick 2-2-1, O.B.S., ouais y a l'artillerie On les lave, on les lamine, même postés au loin Au loin Précis même fonce-dé au lin Woo Plus Kilimandjaro qu'Mont Olympe Mont Olympe, dans la qualité comme le teh qu'nous on a Woo Han, chasse les démons comme dans Constantine So Loto, faut les big Vacheron Constantin Ice 20-21, pétasse, Nouvelle Ère Ha, on a des nouveaux shits, des nouvelles herbes Fonscar au lin j'ai des cerns Han, au bled il m'faut des ranchs et ds fermes Cash Osirus Jack, Freeze Corleone, dans l'complot comme si on taffait chez CERN Han J'fume et les options s'offrent Woo, j'suis dans l'char ou l'option sport Gaddamn Regarde comment au-dessus d'eux j'plane, dans l'roster que des all-stars Haha Europa, négro faut s'taille Direct, logo sur l'tricot Han Les mano pleins d'trichomes Merde J'pense j'ai l'meilleur des decks, la chatte à la maman des deks Okay On arrive dans l'game comme un vendredi 13 Piou, piou, piou Tu rappes encore comme en 2013 Ha Ça a fait du ch'min depuis 2013 Assez d'fanatiques pour remplir trente-deux lignes 13 Ekip J'me sens comme l'alligator dans les marécages Han C'est des imposteurs ils font pas les tâches Nan J'aime parler cash, grosse wax j'fume v'là les taches À Dakar faut villa avec quatre étages Fuck vos rappeurs du troisième âge, dès qu'on débarque on les ken Woo J'veux les longs câbles comme Roi Heenok ou Johnny Dang Haha J'suis fonce' du lundi au week-end Ils sont faibles ils passent même pas les huitièmes Ha Faut plus d'auditeurs Spotify que The Weeknd J'arrive raciste comme un OG Mickey Ha Ils ont disparu comme John Obi Mikel Et j'les vois p'tits comme des Minimoys Ha Faut une liasse de la longueur de dix mille bornes Gang shit, so Chiraq Drillinois Reste allumé comme dix diodes Han-han Et la bitch elle vient pas d'Taïwan Nan, nan On les fait sauter one by one He J'peux finir à tout moment comme Delonte Ouais Fume le beldia du salon d'thé J'rajoute deux gouttes de nigelle à mon thé Tant qu'on est pas au sommet, continue à monter Woo J'ai mes outils mais j'suis pas mécano J'suis dans la défense comme Upamecano Ha So Loto, gratte comme J. K. Rowling Et négro j'appellerais pas ma fille Caroline Nan Fume gasoline et triple filtré, anonyme Négro, dans l'KGB, découpe fonscar au lean Lin Sur notre route ils veulent mettre des grandes herses On reste au-d'ssus d'eux comme la Grande Ourse Damn 667 ça perce plus, ça transperce Si ça continue bientôt tu nous verras en bourse Cash J'm'informe sur le nombre et les fréquences hertz Faut qu'ma vision s'agrandisse OV VVS certifiés à Anvers, sur la route du papier bombarde à 310 Cash, cash, cash 21 là pour siéger Woo, mental killu comme le Che J'vise dix fois la vie d'un DG Woo Équipe remplie qu'd'artisans, des comme nous y en a pas chaque deux ans Nan Et j'arrive fonce-dé à deux Xans J'voulais déjà de l'argent à deux ans Cash, haha J'veux le cash, le fromage, le parmesan, ekip On s'implante jusqu'au Parlement Ils s'transmettent les bails par le sang 'llu 6-6-7 c'est la Masia, on t'apprend v'là les techniques Woo négro si tu passes par le centre Ekip 6-6-7 comme des Olmèques on est là d'puis avant l'an zéro, froid comme Angelo J'suis LaMelo, toi t'es LiAngelo Nunchaku sur la prod comme Michelangelo J'cherche mais la concu' j'vois 'ap Nulle part En tout noir on vient comme le SWAT J'aime bien voir l'argent croître Cash Si c'est pas pour du cash tu m'vois pas en boîte Cash, cash MMS, on est presque mille Haha, faut la casa sur la presqu'île Pétasse On a les techs, j'ai les skills, sur la prod, négro, glisse comme si j'avais des skis, ekip11</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5436,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>J'suis d'retour après deux éditions, c'est trop bien, j'vois qu'ça a pas bougé J'leur ai dit Après Lamanif, vous prouvez m'mettre n'importe qui, mon copain, j'vois qu'ça a pas loupé Y'en a qui ont vu son truc contre Vratko, là ? J'l'ai vu, j'me suis dit Wouaw Encore un qui gesticule comme s'il allait sortir l'brolique Moi, j'ai beau faire deux mètres, cent trente kilos, si on s'en tient aux mots, c'est quand même à moi qu'ça profite Toi, faut qu'tu fasses gaffe, faudrait pas qu'tu prennes l'habitude de parler trop vite Tu sais ? Comme quand tu commences tes rounds en mode Ah, putain, les gars, j'crois qu'j'ai trop d'flips Ce soir-là, il est clair que t'as mal évalué le risque de chute Sérieux, après cette bande annonce, si tu fais pas au moins trois flips qui défoncent, tu passes pour... ouais, c'est ça, pour fils de pute Et j'ai encore du mal à y croire Parce que, non seulement il a fait qu'un seul flip, mais c'est un des moments les plus gênants d'l'histoire Tu dis que j'fais que c'que tu veux entendre ? Crois-moi, mon deuxième round, t'as pas envie d'l'entendre La putain d'sa mère Oh, la putain d'sa mère, mais quelle honte Et, le pire, c'est qu'ils attendaient la série, donc t'avais gardé l'attention d'toute l'audience Et, là, dans l'plus grand des calmes, le mec, il nous sort un Non mais, attends, t'sais quoi ? Nique sa mère, j'commence Tu te fous de la gueule de qui ? À cet instant, même ton meilleur pote, il était plus très fier, hein C'était une catastrophe, déjà qu'le flip est bof-bof Le plus fucked up, c'est qu'tu chokes juste derrière Une honte, une honte, j'vous dis J'comprends, hein, c'était ton premier battle au ROAR, et il fallait oser Mais, un moment donné, fallait qu'tu comprennes que c'était ton premier battle au ROAR et qu'il fallait doser, la putain de toi Franchement, après un mouv' comme ça, m'affronter, moi ? Tu pouvais pas rêver mieux Mais j'vais t'apprendre à faire chier les vieux À chaque début d'round, on s'demande si t'es en train d'chercher un flip ou l'début d'ton texte Alors qu't'es littéralement en train d'chercher les deux Hein ? C'est vrai ou pas ? Ouais, ouais Et quand, au bout d'un long moment, t'arrives à lui sortir T'as pas parlé pendant ton round, parle pas pendant l'mien, j'avoue, c'est cinglant Et, ça, pour le coup, c'était un super flip, de Saminem contre Maadou, y'a cinq ans What the fuck? Alors, là, j'vais être un peu sévère Mais, à l'avenir, ça pourra p't-être servir à toi ou à tes frères Les flips, avant d'se vanter d'en avoir trop, le mieux, c'est d'apprendre à les faire En même temps, y'a six mois, tu suçais les Cats, aujourd'hui, tu battles au ROAR T'as réussi à choper la grosse tête et, franchement, sur un si p'tit corps, c'est fort D'ailleurs, j'sais pas si t'as lu sur Discord les com' Mais, ta phase sur la pédophilie, tout l'monde l'a kiffée, faudra féliciter Freeze Corleone Et, après tout ça, tu t'vantes de prendre des risques mais, mec, t'es trop naze Crois-moi, si tu veux, un jour, qu'ça décolle, faut qu'tu t'mettes à écrire et qu't'arrêtes de faire des collages Par chance, moi, j'vais pas louper c'mec Que t'aimes ou pas les trans', textuellement, j'vais t'découper l'zgeg Désolé, on est en France, j'crois qu'tu t'es gourré d'bled Ici, quand on demande du respect au battle rap, c'est après une carrière et pas à la fin d'un premier couplet d'merde Tu n'es qu'un MC bas d'gamme, une bactérie Discuter d'ta place parmi nous, ce serait un débat stérile Eh oui, c'est d'ta faute parce que, piquer les phases des autres C'est avant tout admettre que, les tiennes, elle sont pas terribles Temps Ouais, va boire un coup, ouais Montre-nous You might also like Eh, l'ROAR, vous êtes prêts ou quoi ? Donc, lui, c'est N'Joy ? C'est pas croyable, Maadou, c'est quoi, cette mascarade ? Tu m'as annoncé un poids lourd du ROAR, bâtard J'voulais affronter une grosse tête, quelqu'un qui pèse, mais j'parlais pas d'ça, moi, t'es pas loyal J'voulais un grand d'ce jeu et, sans déc', on m'fait battle le géant dans Clash Royale Eh, non, c'est ballot, en fait, c'gland fait qu'manger des gentils, des panneaux, des gens, des caillots, des plantes, des Viano Mais tu t'permets d'dire à Ashkan qu'il est fat ? Alors qu'c'est pas parce que t'es grand qu't'es pas gros Écouter tous tes couplets, c'était horrible, mais j'ai une théorie Dans sa tête, on a tous peur de lui Contre Crapaud, tu lui as dit Si tu m'dis Qu'est-ce tu vas faire ? Tu vas prendre une grosse gifle Il t'a dit Qu'est-ce tu vas faire ? et t'as juste gole-ri' Tu crois qu'tu fais peur, qu't'es un terroriste ? Mais, quand tu nous menaces de nous ken', bah t'as juste l'air d'un Pedobear Puis t'as la dégaine d'un homme préhistorique - C'est nul à chier, c'est nul, c'est nul, ça n'vaut rien Ça n'vaut rien, soyons d'accord, soyons d'accord Non mais, chut, les gars... Putain, sérieux, t'as rien d'plus, là ? - Pourquoi tu parles ? Ok, quand les gens t'parlent, ils sont en mode... - Ouais, quand les gens t'parlent, ouais... Quand les gens t'parlent, ils sont en mode C'est trop cliché mais, pardon, obligé, t'es maçon Sans savoir qu'ton taf, c'est qu'tu colles vite fait des annonces, faut digérer l'affront Mais, quand tu t'balades en ville avec ta vieille copine, la galère Les gens s'disent Et voilà les gorilles d'la caverne comme si t'étais Platon Puis tu disais à ton adversaire que sa mère n'a pas voulu l'allaiter parce qu'il est p'tit Non mais tu t'fous d'la gueule de qui ? Tu fais cent trente kilos pour trois mètres dix-huit Bon, c'est p't-être pervers mais, si c'était vrai, c'est quoi ? Ta mère, elle a arrêté de t'allaiter la semaine dernière ? Gros, reste derrière, j'ai qu'des grosses rimes en quantités C'est bien d'se prendre pour un templier mais, faire des bons textes, il est p't-être un tantinet temps d't'y mettre Pourquoi t'as l'seum qu'on dise que t'es dans l'immensité ? Pourquoi t'as l'seum qu'on dise que t'es immense, si t'es conscient qu'c'est l'seul truc qui fait ton identité ? Ok, j'suis sans pitié, dans sa tête, il a la plume de Florent Pagny Alors qu'il va juste passer trois rounds à faire des jeux d'mots dignes d'un enfant d'quatre piges Genre Ashkabine, Ashkan mime, tu t'appelles Saminem ? Sam ? Oh, ça m'fait marrer, putain C'est trop cringe Du coup, j'le vois venir comme Ok, ce négro gît comme naufragé Mais j'écoute pas c'que Melloo dit, comme Tom Frager C'est sûr, il va la faire Tu n'racontes que des broutilles, cousine, j'transforme ce rappeur pourri en porridge Si tu crois qu'j'suis encore qu'un rookie, oublie, c'est genre mes outils, Uzi, cours vite Car c'est moi qui décide si tu crèves ou vis, comme si j'étais Dewey, pussy Bref, s'ils t'ont matché contre moi, c'est qu'ils veulent plus t'revoir Le BR, ils veulent que tu restes loin de ça Tu fais p't-être une tête de plus que moi Après c'battle, t'auras une tête de moins que moi Time Désolé, désolé Il dit que le ROAR cherche à m'expulser Le gars est tellement nul, à la fin d'ses rounds, il est obligé d's'excuser Putain, moi, c'est que pour l'xp qu'j'repars en expédition mais, toi, maintenant, faut qu'tu payes mes dettes Parce que j'ai enchaîné les missions, que t'as ouvert la soirée à la douzième édition quand, à la première, j'étais déjà main event Donc, quoi qu'tu dises, crois pas qu'ça m'blesse, le 'zin C'qu'ils veulent, eux, de nous deux, c'est qu'il n'en reste qu'un Tes potes, eux, te voient déjà victorieux de bien piètres devins Tu t'prends pour un génie mais, ton seul côté Ray Charles, c'est qu'quand tu gémies, on t'paye avec des pièces de un Pour toi, chercher un modèle, c'est l'idée D'accord, tu vois p't-être pas l'rapport mais, l'fait qu'tu repasses la porte, moi, j'crois qu'c'est lié Parce que t'as une écriture atroce, c'coup-là, tu passes pas par la force, mec, c'est plié Qu'on lui apporte des fleurs au ROAR 013 parce que j'attends pas l'quatorze, j'le fais vriller Et, entre toi et ton pote Windows, là C'est l'amour fou, hein ? C'est l'amour fou ? - C'est pas mon nom, hein, c'est pas ça, mon nom Ta gueule C'est l'amour fou C'est l'amour fou, c'est houleux Ça s'fait des bisous avant et pendant les battles, c'est douteux Et, même si vous êtes sept, j'reste sceptique Les gars, cette bite est beaucoup trop p'tite pour vous deux Ça vaudrait mieux qu'tu restes bref J'aime pas m'répéter, j'viens tout faire péter comme AZF Continue d'faire le gars, moi, c'que j'vois C'est qu'le moins bon des Cats, c'est l'renoi, comme dans la FF Au ROAR, ici, ce mélange, c'est beau mais, toi, t'es étrange, Melloo Et apportez lui à bouffer, vous voyez bien qu'il mange ses mots Non, je n'ai guère le temps pour les flagorneries Lamanif s'est mis en tête de trouver nos successeurs, j'suis revenu pour m'assurer qu'il fasse pas d'connerie Et, honnêtement, qui pourrait m'donner tort ? Parce que, depuis qu'j'suis parti, gros, c'est gore J'vous l'dis toi, Wizdom, ZZ, T-Bob et Vratko, c'est mort Putain, les gosses en difficulté, Parano les a pas emmenés à Disney, depuis, on dirait qu'ils viennent tous battle au ROAR Sans déconner, oh, mais sans déconner, c'est vrai ou pas ? C'est vrai ou pas ? Sans déconner On prend d'la vitesse, nos routes se séparent en voies Donc, si tu veux un conseil, mec dès l'départ, envoie Même si j'parie qu'ici, tu n'es pas tout à fait celui que tes parents voient T'es comme cette fillette qui court dans la jungle totalement inconsciente du bruit que chacun d'ses pas renvoie Et, pour finir, s'il t'manque un truc ? Le mental, honnêtement, j'trouve que l'Melloo d'IRL pue De toutes façons, y'a qu'dans les instrumentales que, les mélo' d'hier, elles tuent Temps Allez Tu peux mieux faire, tu peux mieux faire T'es bavard, hein Ok, alors comme ça, avant d'affronter Lamanif, t'as regardé tous ses battles et t'as passé un super moment ? Moi aussi, j'ai dû regarder tous tes battles, et sache que j'ai passé un sup... un mauvais moment Bah ouais, parce que tu parles que d'sodomiser tes adversaires et sa belle-mère, c'est pas très clair Tu fais tellement d'efforts pour t'faire passer pour un violeur qu'on va finir par croire qu'c'est vrai - Non, concentre-toi, putain - J'ai taffé deux mois pour ça Ok, ok, excusez-moi Bon, après, on peut s'dire qu'c'est des phases, c'est wack, c'est pas très grave, mais après, quoi ? En fait, quand Andra dit qu'il connaît un paquet d'mecs qui violent des femmes, bah il parlait d'toi Il faut castrer l'gars... T'es là, tu nous fais l'viking viril, miskine, faut qu'tu doses, t'abuses Tout c'que j'me dis devant tes perf' au ROAR, ça tue Mais c'est dans quelle série que, l'viking, il propose à d'autres barbus un viol ? Mais c'est dans quelle série que, le viking, il propose un viol à un autre gros barbu ? - Voilà, voilà -Time, let's go - Non, non, non, non, non, non, laisse-le retrouver son texte, comme ça c'est bien clair pour tout l'monde qu'il est nul à chier, frère Vas-y, vas-y, laisse-lui du temps, laisse-lui du temps Laisse-lui du temps, vas-y, laisse-le chercher, laisse-le chercher On a du temps, on est partis à l'heure, on a du temps Putain, j'ai bossé deux mois pour ce trou du cul, là Ah, t'as sorti l'téléphone, carrément ? Bah, au point où on en est, hein... Ok, à chaque fois qu'tu sors des rimes, gros, c'est digne d'une comédie Donc crois pas que c'que tu dis est éthique, comme le régime que ton corps mérite Jamais ce porc m'arrête car, au départ, t'as dit à Lamanif que, c'qui l'empêchait d'assouvir ses désirs, c'était le code pénal Puis, trois lignes après, tu l'menaces de viol, peinard En parlant d'Lamanif, c'est ton idole, dès qu'il te lâche un vu, t'envoies des messages hostiles C'que t'aimes le plus chez lui, c'est l'tic, comme dans l'Massachussetts Il t'a offert des voyages tous frais payés à Amsterdam, à Paris, au Portugal Mais le grand gaillard que t'es lui a quand même dit Euh, pense à prendre un p'tit peu d'temps pour nous Tu voulais pas qu'il t'fasse un massage aussi ? C'est parce que vous avez passé un mois sans shopping ? T'es là, tu fais l'grand chef et tout, mais t'appelles des tas d'renforts La prochaine fois, demande-lui direct de t'changer tes couches et d'l'argent d'poche Tes p'tits caprices puent la précaire attitude rabaissée, c'que j'dis tue l'adversaire, titube pas, reste ferme Piqûre d'rappel clair, qui tu vas faire taire ? Lamanif et Maadou, c'est tes darons, tes patrons T'as besoin qu'ils passent du temps avec toi à fond car t'as toujours manqué de figure paternelle Mais, l'plus épatant, dans l'fond, c'est qu'c'est à quarante ans que ce gars s'en rend compte Du suceur du mois, tu mérites une médaille, là, tu dérailles et, vu ses failles, cette pute est die Les seuls qui vont prendre du temps pour toi sont ceux qui vont t'enterrer pendant tes funérailles Peu importent ses skills, sa taille, ses mille batailles, si j'caillasse, bah il va die Car j'refais l'intérieur d'ta caisse, mais j'parle pas de Pimp My Ride On attend tous que tu poses ta lettre de démission Tu dis qu'on sort des couilles à Maadou, tu sors des couilles à Ludo, parfois, il te dit Je t'aime, fiston Tellement qu'la barbe de ZZ Top, c'était pas ta dernière mais ta première vision Ouin-ouin, donnez-moi des gros matchs, des grosses têtes, on passe tes rounds sous silencieux Quand t'es arrivé ici, t'étais qu'un rookie envieux Puis, à chaque fois qu'on t'donne des top-tiers, bah tu t'fais ouvrir en deux Donc arrête de t'faire passer pour cet ancien d'la gén' parfaite car, si on a été matchés, my man C'est qu't'as mis dix ans dans l'BR à construire c'que j'ai mis une année à faire Time Tu es nul à chier J'ai fini ce jeu, gars, j'l'ai masterisé Il m'ont dit N'Joy, faudrait qu'tu casses du jeune, au moins qu'tu passes vérifier Parce que ces microbes se prétendent battle MC mais ne sont pas d'c'te lignée Donc, celui-là, plus personne ne dira jamais qu'il est cru, j'suis tellement chaud que j'l'ai pasteurisé T'es en retard, gars, on n'compare pas une uvre d'art et une croûte Contrairement à toi, moi, j'ai pas attendu l'Jamel Comedy Club pour faire partie d'la troupe C'est fou mais, pendant tes couplets, si Wizdom se penche devant toi, tu l'zoukes Moi, je n'peux littéralement pas t'looper, Melloo, ils ont déjà fait de toi une boucle Je suis d'la génération Chris Rock, de l'époque où, pour le hip-hop, c'était dur de vendre Toi, t'as rien d'surprenant, j'te disloque, t'es d'la génération TikTok, et c'est pour ça qu'j'te fist fuck sur demande Ta vie, elle est juste triste, à l'opposée d'celle que tu prétends avoir sur scène À l'école, à chaque billet d'absence, tu penses à ton père qui n'a jamais justifié la sienne Je suis une putain d'légende, et j'réalise le poids qu'elle a sur les jambes, ta mère Elle s'en cogne de tes études de droits, c'qu'elle veut, c'est qu't'arrêtes de regarder les gens d'travers En même temps, avec toi comme progéniture, j'imagine que n'importe quelle mère s'rait déçue C'est vrai, t'es pas très doué et, ton plus grand souhait, c'est d'être vu Avec les filles, t'as essayé mais, la seule chose que t'aies essuyé, c'était des r'fus Et c'est pas étonnant qu'tu tournes en rond, Melloo, si, la seule chose que t'aies en tête, c'est des culs J'suis pas un toubab clean T'as fanfaronné, moi, j'ai cartonné toute ta team Au ROAR, j'suis devenu un leader, j'ai vanné toute la ligue Parce que j'suis tout l'temps prêt et qu'j'te mets tout dans l'nez donc, comme un dealeur, j'gagne sur toute la ligne Et tu prétends nous interdire les phases racistes tant mieux, j'n'en fais pas Mais, ton battle face à Docsy, j'm'en r'mets pas Parce qu'après qu'celui-là ait parlé d'tes frères qui infusaient dans la mer Quelle ne fut pas ma surprise de te voir le prendre dans tes bras Sans déconner, t'es tellement nul à chier, mec, c'était trop facile de te baffer c'soir Tu dis qu't'aimes pas les trucs de nazis, t'as juste pas capté qu't'en étais l'accessoire Et qu'si IRL s'autorise les phases racistes, c'est précisément parce que leur nouveau gars est noir Sérieux, pour toi, c'était perdu d'avance parce que t'es qu'un attardé Au final, quand, pour eux, la lame avance, c'est toi qui t'fais poignarder Et, comme des flingues, t'en as zéro dans l'tiroir Si t'as pas déjà honte en regardant l'miroir, ça va pas tarder Au lieu d'étudier l'droit, fallait apprendre l'histoire T'aurais su qu'ici, pour vendre dix Noirs, on n'a pas attendu l'Black Friday Temps Virez-moi ce connard Sans déconner, sans déconner, con On passe au suivant ou... ? T'as affronté Taïpan au début, il fait un flip sur ton t-shirt Après, il passe un round à t'traiter d'horrible colonialiste, fils d'esclavagiste Et, tout c'que tu trouves à lui répondre, c'est Euh, non, c'est faux, y'a pas d'faute sur mon t-shirt Ça prouve juste que tout c'qu'on a dit fut vrai Vous vous êtes reproduits entre frères et surs hollandais consanguins, gros, j'sais pas si tu l'sais Mais l'fait que vous soyez restés blancs sur un île où y'a quatre-vingt-dix-neuf pourcents d'Noirs, bah c'est archi suspect Il nous fait genre c'est Ragnar, le grand qu'est gaillard Alors qu'sur tes photos Facebook d'y'a dix ans, bah il ressemblait à Zaz T'étais un rasta blanc, obèse, mal sapé, crade, dans un sale état, donc, pour la dernière fois T'es pas albinos donc, non, t'es pas noir J'suis là pour qu'ce taré car c'est l'heure, tes phases m'écurent Le mec se prend tellement pour un Noir que, dans la rue, il en a même peur de s'faire contrôler par les keufs - Vas-y, time ça, gros, c'est bon Eh, vas-y, gars, il sort le téléphone et tout, mais c'est quoi, ça, gros ? Tu veux pas apprendre à battle, sans déconner, là ? Non mais c'est bon, frère, t'as honte de rien, vraiment, gars, t'as honte de rien, j'te l'dis T'as une réflexion d'cas soc', p'tite question gratos Pourquoi tu t'prends pour un Gwada comme si, là-bas, ils te voient pas comme Maska dans la Sexion d'Assaut ?</t>
+          <t>J'suis d'retour après deux éditions, c'est trop bien, j'vois qu'ça a pas bougé J'leur ai dit Après Lamanif, vous prouvez m'mettre n'importe qui, mon copain, j'vois qu'ça a pas loupé Y'en a qui ont vu son truc contre Vratko, là ? J'l'ai vu, j'me suis dit Wouaw Encore un qui gesticule comme s'il allait sortir l'brolique Moi, j'ai beau faire deux mètres, cent trente kilos, si on s'en tient aux mots, c'est quand même à moi qu'ça profite Toi, faut qu'tu fasses gaffe, faudrait pas qu'tu prennes l'habitude de parler trop vite Tu sais ? Comme quand tu commences tes rounds en mode Ah, putain, les gars, j'crois qu'j'ai trop d'flips Ce soir-là, il est clair que t'as mal évalué le risque de chute Sérieux, après cette bande annonce, si tu fais pas au moins trois flips qui défoncent, tu passes pour... ouais, c'est ça, pour fils de pute Et j'ai encore du mal à y croire Parce que, non seulement il a fait qu'un seul flip, mais c'est un des moments les plus gênants d'l'histoire Tu dis que j'fais que c'que tu veux entendre ? Crois-moi, mon deuxième round, t'as pas envie d'l'entendre La putain d'sa mère Oh, la putain d'sa mère, mais quelle honte Et, le pire, c'est qu'ils attendaient la série, donc t'avais gardé l'attention d'toute l'audience Et, là, dans l'plus grand des calmes, le mec, il nous sort un Non mais, attends, t'sais quoi ? Nique sa mère, j'commence Tu te fous de la gueule de qui ? À cet instant, même ton meilleur pote, il était plus très fier, hein C'était une catastrophe, déjà qu'le flip est bof-bof Le plus fucked up, c'est qu'tu chokes juste derrière Une honte, une honte, j'vous dis J'comprends, hein, c'était ton premier battle au ROAR, et il fallait oser Mais, un moment donné, fallait qu'tu comprennes que c'était ton premier battle au ROAR et qu'il fallait doser, la putain de toi Franchement, après un mouv' comme ça, m'affronter, moi ? Tu pouvais pas rêver mieux Mais j'vais t'apprendre à faire chier les vieux À chaque début d'round, on s'demande si t'es en train d'chercher un flip ou l'début d'ton texte Alors qu't'es littéralement en train d'chercher les deux Hein ? C'est vrai ou pas ? Ouais, ouais Et quand, au bout d'un long moment, t'arrives à lui sortir T'as pas parlé pendant ton round, parle pas pendant l'mien, j'avoue, c'est cinglant Et, ça, pour le coup, c'était un super flip, de Saminem contre Maadou, y'a cinq ans What the fuck? Alors, là, j'vais être un peu sévère Mais, à l'avenir, ça pourra p't-être servir à toi ou à tes frères Les flips, avant d'se vanter d'en avoir trop, le mieux, c'est d'apprendre à les faire En même temps, y'a six mois, tu suçais les Cats, aujourd'hui, tu battles au ROAR T'as réussi à choper la grosse tête et, franchement, sur un si p'tit corps, c'est fort D'ailleurs, j'sais pas si t'as lu sur Discord les com' Mais, ta phase sur la pédophilie, tout l'monde l'a kiffée, faudra féliciter Freeze Corleone Et, après tout ça, tu t'vantes de prendre des risques mais, mec, t'es trop naze Crois-moi, si tu veux, un jour, qu'ça décolle, faut qu'tu t'mettes à écrire et qu't'arrêtes de faire des collages Par chance, moi, j'vais pas louper c'mec Que t'aimes ou pas les trans', textuellement, j'vais t'découper l'zgeg Désolé, on est en France, j'crois qu'tu t'es gourré d'bled Ici, quand on demande du respect au battle rap, c'est après une carrière et pas à la fin d'un premier couplet d'merde Tu n'es qu'un MC bas d'gamme, une bactérie Discuter d'ta place parmi nous, ce serait un débat stérile Eh oui, c'est d'ta faute parce que, piquer les phases des autres C'est avant tout admettre que, les tiennes, elle sont pas terribles Temps Ouais, va boire un coup, ouais Montre-nous Eh, l'ROAR, vous êtes prêts ou quoi ? Donc, lui, c'est N'Joy ? C'est pas croyable, Maadou, c'est quoi, cette mascarade ? Tu m'as annoncé un poids lourd du ROAR, bâtard J'voulais affronter une grosse tête, quelqu'un qui pèse, mais j'parlais pas d'ça, moi, t'es pas loyal J'voulais un grand d'ce jeu et, sans déc', on m'fait battle le géant dans Clash Royale Eh, non, c'est ballot, en fait, c'gland fait qu'manger des gentils, des panneaux, des gens, des caillots, des plantes, des Viano Mais tu t'permets d'dire à Ashkan qu'il est fat ? Alors qu'c'est pas parce que t'es grand qu't'es pas gros Écouter tous tes couplets, c'était horrible, mais j'ai une théorie Dans sa tête, on a tous peur de lui Contre Crapaud, tu lui as dit Si tu m'dis Qu'est-ce tu vas faire ? Tu vas prendre une grosse gifle Il t'a dit Qu'est-ce tu vas faire ? et t'as juste gole-ri' Tu crois qu'tu fais peur, qu't'es un terroriste ? Mais, quand tu nous menaces de nous ken', bah t'as juste l'air d'un Pedobear Puis t'as la dégaine d'un homme préhistorique - C'est nul à chier, c'est nul, c'est nul, ça n'vaut rien Ça n'vaut rien, soyons d'accord, soyons d'accord Non mais, chut, les gars... Putain, sérieux, t'as rien d'plus, là ? - Pourquoi tu parles ? Ok, quand les gens t'parlent, ils sont en mode... - Ouais, quand les gens t'parlent, ouais... Quand les gens t'parlent, ils sont en mode C'est trop cliché mais, pardon, obligé, t'es maçon Sans savoir qu'ton taf, c'est qu'tu colles vite fait des annonces, faut digérer l'affront Mais, quand tu t'balades en ville avec ta vieille copine, la galère Les gens s'disent Et voilà les gorilles d'la caverne comme si t'étais Platon Puis tu disais à ton adversaire que sa mère n'a pas voulu l'allaiter parce qu'il est p'tit Non mais tu t'fous d'la gueule de qui ? Tu fais cent trente kilos pour trois mètres dix-huit Bon, c'est p't-être pervers mais, si c'était vrai, c'est quoi ? Ta mère, elle a arrêté de t'allaiter la semaine dernière ? Gros, reste derrière, j'ai qu'des grosses rimes en quantités C'est bien d'se prendre pour un templier mais, faire des bons textes, il est p't-être un tantinet temps d't'y mettre Pourquoi t'as l'seum qu'on dise que t'es dans l'immensité ? Pourquoi t'as l'seum qu'on dise que t'es immense, si t'es conscient qu'c'est l'seul truc qui fait ton identité ? Ok, j'suis sans pitié, dans sa tête, il a la plume de Florent Pagny Alors qu'il va juste passer trois rounds à faire des jeux d'mots dignes d'un enfant d'quatre piges Genre Ashkabine, Ashkan mime, tu t'appelles Saminem ? Sam ? Oh, ça m'fait marrer, putain C'est trop cringe Du coup, j'le vois venir comme Ok, ce négro gît comme naufragé Mais j'écoute pas c'que Melloo dit, comme Tom Frager C'est sûr, il va la faire Tu n'racontes que des broutilles, cousine, j'transforme ce rappeur pourri en porridge Si tu crois qu'j'suis encore qu'un rookie, oublie, c'est genre mes outils, Uzi, cours vite Car c'est moi qui décide si tu crèves ou vis, comme si j'étais Dewey, pussy Bref, s'ils t'ont matché contre moi, c'est qu'ils veulent plus t'revoir Le BR, ils veulent que tu restes loin de ça Tu fais p't-être une tête de plus que moi Après c'battle, t'auras une tête de moins que moi Time Désolé, désolé Il dit que le ROAR cherche à m'expulser Le gars est tellement nul, à la fin d'ses rounds, il est obligé d's'excuser Putain, moi, c'est que pour l'xp qu'j'repars en expédition mais, toi, maintenant, faut qu'tu payes mes dettes Parce que j'ai enchaîné les missions, que t'as ouvert la soirée à la douzième édition quand, à la première, j'étais déjà main event Donc, quoi qu'tu dises, crois pas qu'ça m'blesse, le 'zin C'qu'ils veulent, eux, de nous deux, c'est qu'il n'en reste qu'un Tes potes, eux, te voient déjà victorieux de bien piètres devins Tu t'prends pour un génie mais, ton seul côté Ray Charles, c'est qu'quand tu gémies, on t'paye avec des pièces de un Pour toi, chercher un modèle, c'est l'idée D'accord, tu vois p't-être pas l'rapport mais, l'fait qu'tu repasses la porte, moi, j'crois qu'c'est lié Parce que t'as une écriture atroce, c'coup-là, tu passes pas par la force, mec, c'est plié Qu'on lui apporte des fleurs au ROAR 013 parce que j'attends pas l'quatorze, j'le fais vriller Et, entre toi et ton pote Windows, là C'est l'amour fou, hein ? C'est l'amour fou ? - C'est pas mon nom, hein, c'est pas ça, mon nom Ta gueule C'est l'amour fou C'est l'amour fou, c'est houleux Ça s'fait des bisous avant et pendant les battles, c'est douteux Et, même si vous êtes sept, j'reste sceptique Les gars, cette bite est beaucoup trop p'tite pour vous deux Ça vaudrait mieux qu'tu restes bref J'aime pas m'répéter, j'viens tout faire péter comme AZF Continue d'faire le gars, moi, c'que j'vois C'est qu'le moins bon des Cats, c'est l'renoi, comme dans la FF Au ROAR, ici, ce mélange, c'est beau mais, toi, t'es étrange, Melloo Et apportez lui à bouffer, vous voyez bien qu'il mange ses mots Non, je n'ai guère le temps pour les flagorneries Lamanif s'est mis en tête de trouver nos successeurs, j'suis revenu pour m'assurer qu'il fasse pas d'connerie Et, honnêtement, qui pourrait m'donner tort ? Parce que, depuis qu'j'suis parti, gros, c'est gore J'vous l'dis toi, Wizdom, ZZ, T-Bob et Vratko, c'est mort Putain, les gosses en difficulté, Parano les a pas emmenés à Disney, depuis, on dirait qu'ils viennent tous battle au ROAR Sans déconner, oh, mais sans déconner, c'est vrai ou pas ? C'est vrai ou pas ? Sans déconner On prend d'la vitesse, nos routes se séparent en voies Donc, si tu veux un conseil, mec dès l'départ, envoie Même si j'parie qu'ici, tu n'es pas tout à fait celui que tes parents voient T'es comme cette fillette qui court dans la jungle totalement inconsciente du bruit que chacun d'ses pas renvoie Et, pour finir, s'il t'manque un truc ? Le mental, honnêtement, j'trouve que l'Melloo d'IRL pue De toutes façons, y'a qu'dans les instrumentales que, les mélo' d'hier, elles tuent Temps Allez Tu peux mieux faire, tu peux mieux faire T'es bavard, hein Ok, alors comme ça, avant d'affronter Lamanif, t'as regardé tous ses battles et t'as passé un super moment ? Moi aussi, j'ai dû regarder tous tes battles, et sache que j'ai passé un sup... un mauvais moment Bah ouais, parce que tu parles que d'sodomiser tes adversaires et sa belle-mère, c'est pas très clair Tu fais tellement d'efforts pour t'faire passer pour un violeur qu'on va finir par croire qu'c'est vrai - Non, concentre-toi, putain - J'ai taffé deux mois pour ça Ok, ok, excusez-moi Bon, après, on peut s'dire qu'c'est des phases, c'est wack, c'est pas très grave, mais après, quoi ? En fait, quand Andra dit qu'il connaît un paquet d'mecs qui violent des femmes, bah il parlait d'toi Il faut castrer l'gars... T'es là, tu nous fais l'viking viril, miskine, faut qu'tu doses, t'abuses Tout c'que j'me dis devant tes perf' au ROAR, ça tue Mais c'est dans quelle série que, l'viking, il propose à d'autres barbus un viol ? Mais c'est dans quelle série que, le viking, il propose un viol à un autre gros barbu ? - Voilà, voilà -Time, let's go - Non, non, non, non, non, non, laisse-le retrouver son texte, comme ça c'est bien clair pour tout l'monde qu'il est nul à chier, frère Vas-y, vas-y, laisse-lui du temps, laisse-lui du temps Laisse-lui du temps, vas-y, laisse-le chercher, laisse-le chercher On a du temps, on est partis à l'heure, on a du temps Putain, j'ai bossé deux mois pour ce trou du cul, là Ah, t'as sorti l'téléphone, carrément ? Bah, au point où on en est, hein... Ok, à chaque fois qu'tu sors des rimes, gros, c'est digne d'une comédie Donc crois pas que c'que tu dis est éthique, comme le régime que ton corps mérite Jamais ce porc m'arrête car, au départ, t'as dit à Lamanif que, c'qui l'empêchait d'assouvir ses désirs, c'était le code pénal Puis, trois lignes après, tu l'menaces de viol, peinard En parlant d'Lamanif, c'est ton idole, dès qu'il te lâche un vu, t'envoies des messages hostiles C'que t'aimes le plus chez lui, c'est l'tic, comme dans l'Massachussetts Il t'a offert des voyages tous frais payés à Amsterdam, à Paris, au Portugal Mais le grand gaillard que t'es lui a quand même dit Euh, pense à prendre un p'tit peu d'temps pour nous Tu voulais pas qu'il t'fasse un massage aussi ? C'est parce que vous avez passé un mois sans shopping ? T'es là, tu fais l'grand chef et tout, mais t'appelles des tas d'renforts La prochaine fois, demande-lui direct de t'changer tes couches et d'l'argent d'poche Tes p'tits caprices puent la précaire attitude rabaissée, c'que j'dis tue l'adversaire, titube pas, reste ferme Piqûre d'rappel clair, qui tu vas faire taire ? Lamanif et Maadou, c'est tes darons, tes patrons T'as besoin qu'ils passent du temps avec toi à fond car t'as toujours manqué de figure paternelle Mais, l'plus épatant, dans l'fond, c'est qu'c'est à quarante ans que ce gars s'en rend compte Du suceur du mois, tu mérites une médaille, là, tu dérailles et, vu ses failles, cette pute est die Les seuls qui vont prendre du temps pour toi sont ceux qui vont t'enterrer pendant tes funérailles Peu importent ses skills, sa taille, ses mille batailles, si j'caillasse, bah il va die Car j'refais l'intérieur d'ta caisse, mais j'parle pas de Pimp My Ride On attend tous que tu poses ta lettre de démission Tu dis qu'on sort des couilles à Maadou, tu sors des couilles à Ludo, parfois, il te dit Je t'aime, fiston Tellement qu'la barbe de ZZ Top, c'était pas ta dernière mais ta première vision Ouin-ouin, donnez-moi des gros matchs, des grosses têtes, on passe tes rounds sous silencieux Quand t'es arrivé ici, t'étais qu'un rookie envieux Puis, à chaque fois qu'on t'donne des top-tiers, bah tu t'fais ouvrir en deux Donc arrête de t'faire passer pour cet ancien d'la gén' parfaite car, si on a été matchés, my man C'est qu't'as mis dix ans dans l'BR à construire c'que j'ai mis une année à faire Time Tu es nul à chier J'ai fini ce jeu, gars, j'l'ai masterisé Il m'ont dit N'Joy, faudrait qu'tu casses du jeune, au moins qu'tu passes vérifier Parce que ces microbes se prétendent battle MC mais ne sont pas d'c'te lignée Donc, celui-là, plus personne ne dira jamais qu'il est cru, j'suis tellement chaud que j'l'ai pasteurisé T'es en retard, gars, on n'compare pas une uvre d'art et une croûte Contrairement à toi, moi, j'ai pas attendu l'Jamel Comedy Club pour faire partie d'la troupe C'est fou mais, pendant tes couplets, si Wizdom se penche devant toi, tu l'zoukes Moi, je n'peux littéralement pas t'looper, Melloo, ils ont déjà fait de toi une boucle Je suis d'la génération Chris Rock, de l'époque où, pour le hip-hop, c'était dur de vendre Toi, t'as rien d'surprenant, j'te disloque, t'es d'la génération TikTok, et c'est pour ça qu'j'te fist fuck sur demande Ta vie, elle est juste triste, à l'opposée d'celle que tu prétends avoir sur scène À l'école, à chaque billet d'absence, tu penses à ton père qui n'a jamais justifié la sienne Je suis une putain d'légende, et j'réalise le poids qu'elle a sur les jambes, ta mère Elle s'en cogne de tes études de droits, c'qu'elle veut, c'est qu't'arrêtes de regarder les gens d'travers En même temps, avec toi comme progéniture, j'imagine que n'importe quelle mère s'rait déçue C'est vrai, t'es pas très doué et, ton plus grand souhait, c'est d'être vu Avec les filles, t'as essayé mais, la seule chose que t'aies essuyé, c'était des r'fus Et c'est pas étonnant qu'tu tournes en rond, Melloo, si, la seule chose que t'aies en tête, c'est des culs J'suis pas un toubab clean T'as fanfaronné, moi, j'ai cartonné toute ta team Au ROAR, j'suis devenu un leader, j'ai vanné toute la ligue Parce que j'suis tout l'temps prêt et qu'j'te mets tout dans l'nez donc, comme un dealeur, j'gagne sur toute la ligne Et tu prétends nous interdire les phases racistes tant mieux, j'n'en fais pas Mais, ton battle face à Docsy, j'm'en r'mets pas Parce qu'après qu'celui-là ait parlé d'tes frères qui infusaient dans la mer Quelle ne fut pas ma surprise de te voir le prendre dans tes bras Sans déconner, t'es tellement nul à chier, mec, c'était trop facile de te baffer c'soir Tu dis qu't'aimes pas les trucs de nazis, t'as juste pas capté qu't'en étais l'accessoire Et qu'si IRL s'autorise les phases racistes, c'est précisément parce que leur nouveau gars est noir Sérieux, pour toi, c'était perdu d'avance parce que t'es qu'un attardé Au final, quand, pour eux, la lame avance, c'est toi qui t'fais poignarder Et, comme des flingues, t'en as zéro dans l'tiroir Si t'as pas déjà honte en regardant l'miroir, ça va pas tarder Au lieu d'étudier l'droit, fallait apprendre l'histoire T'aurais su qu'ici, pour vendre dix Noirs, on n'a pas attendu l'Black Friday Temps Virez-moi ce connard Sans déconner, sans déconner, con On passe au suivant ou... ? T'as affronté Taïpan au début, il fait un flip sur ton t-shirt Après, il passe un round à t'traiter d'horrible colonialiste, fils d'esclavagiste Et, tout c'que tu trouves à lui répondre, c'est Euh, non, c'est faux, y'a pas d'faute sur mon t-shirt Ça prouve juste que tout c'qu'on a dit fut vrai Vous vous êtes reproduits entre frères et surs hollandais consanguins, gros, j'sais pas si tu l'sais Mais l'fait que vous soyez restés blancs sur un île où y'a quatre-vingt-dix-neuf pourcents d'Noirs, bah c'est archi suspect Il nous fait genre c'est Ragnar, le grand qu'est gaillard Alors qu'sur tes photos Facebook d'y'a dix ans, bah il ressemblait à Zaz T'étais un rasta blanc, obèse, mal sapé, crade, dans un sale état, donc, pour la dernière fois T'es pas albinos donc, non, t'es pas noir J'suis là pour qu'ce taré car c'est l'heure, tes phases m'écurent Le mec se prend tellement pour un Noir que, dans la rue, il en a même peur de s'faire contrôler par les keufs - Vas-y, time ça, gros, c'est bon Eh, vas-y, gars, il sort le téléphone et tout, mais c'est quoi, ça, gros ? Tu veux pas apprendre à battle, sans déconner, là ? Non mais c'est bon, frère, t'as honte de rien, vraiment, gars, t'as honte de rien, j'te l'dis T'as une réflexion d'cas soc', p'tite question gratos Pourquoi tu t'prends pour un Gwada comme si, là-bas, ils te voient pas comme Maska dans la Sexion d'Assaut ?</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5453,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Ouais j'connais déjà mes versets, toi tu n'as que les lèvres gercées Dans ton boule un triangle inversé, salope connais-tu tes versets ? Calmants pour chevaux, fuck le tiercé L'histoire a menti, fuck le clergé Dis-moi, pourquoi es-tu miché ? Dis-moi où est-ce que ta poule est nichée Amsterdam dans les pichets Les veines, et les OCB Dites au père que j'suis possédé À la mère que j'suis obsédé J'te prends dans le camion de papa Avec ta coupe de Montana Hannah Baye Fall dans le métro J'tise comme si j'étais Jean Reno Au fond de ta chatte, comme Jean Reno Trop d'flow gros, j'en perds mes mots J'entre dans ton boule un petit vélo, j'étouffe ta tête, dans du cello' Des kilos, des kilos, des kilos d'or, pierres précieuses et de bédos J'fume comme Jim Morrison Chimiste avec Freeze Corleone, Freeze Corleone Négro, le rap français, on te nique Rien à foutre, on fume la chronic Plus tard j'achète un petit brolik Et des terres en Bolivie T'as la théorie, mais pas la technique Fuck ton épiderme comme la sensy J'échangerais ton rap contre une Bretling Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis You might also like 667, Mangemort Squad, la Ligue des Ombres Noir et vert sont les combinaisons Niveau 3, négro, lélixir est sombre Slow-motion façon Néo On s'répand dans cette merde tel un fléau Au cro-mi jenchaîne les combos Lourd comme un gorille du Congo, négro so à Cero fumigène détenteur Jordy Tarantino, Freeze Corleone, Osirus Jack lÉventreur Pyramide nègre, OV degré 39 667, OVG, roule l'herbe qui tue dans des OCB Extrait la prometh', mixe l'Euphon dans l'Sprite So à Black Jack, met un peu d'Coca dans l'sky J'kick cette merde comme un 30ème dan Future luxure, aquarium en Maybach Au-dessus d'ces fils de gigolos Défractés, en train d'taffer nos merdes dans l'espace J'attends sans aucun stress, shout out à mon clan, négro J'avance sans aucun stress, shout out à mon plan, négro Négro, le rap français, on te nique Rien à foutre, on fume la chronic Plus tard j'achète un petit brolik Et des terres en Bolivie T'as la théorie, mais pas la technique Fuck ton épiderme comme la sensy J'échangerais ton rap contre une Bretling Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Def tate, pas la pierre tombale De l'autre coté, demande à flow Kaki J'rebondis comme un okapi Pas d'paki, chimiste en botanique OVG, clan de légionnaires Abattre ces bitchs comme le fait Fonscar, négro j'téj que des mégots verts Éparpillés comme le virus Jack d'Europe à Guangzhou Dans la forêt, bambou Vous êtes la version d'nous, négro en mou Roule des battes de baseball comme si j'avais 16 doigts NRM sur leur visage, dans le rap agir comme la peste noire Entasse les corps, Freeze, Jorrdee, dans cette merde comme Le Collectionneur Ramasse le biff comme les Rothschild, jet privé et Rolex en or Ça chill la nuit dans la trap house, fournit les plans pour Star Wars J'suis comme à Memphis, consomme des bobs de sensy Négro, le rap français, on te nique Rien à foutre, on fume la chronic Plus tard j'achète un petit brolik Et des terres en Bolivie T'as la théorie, mais pas la technique Fuck ton épiderme comme la sensy J'échangerais ton rap contre une Bretling Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis</t>
+          <t>Ouais j'connais déjà mes versets, toi tu n'as que les lèvres gercées Dans ton boule un triangle inversé, salope connais-tu tes versets ? Calmants pour chevaux, fuck le tiercé L'histoire a menti, fuck le clergé Dis-moi, pourquoi es-tu miché ? Dis-moi où est-ce que ta poule est nichée Amsterdam dans les pichets Les veines, et les OCB Dites au père que j'suis possédé À la mère que j'suis obsédé J'te prends dans le camion de papa Avec ta coupe de Montana Hannah Baye Fall dans le métro J'tise comme si j'étais Jean Reno Au fond de ta chatte, comme Jean Reno Trop d'flow gros, j'en perds mes mots J'entre dans ton boule un petit vélo, j'étouffe ta tête, dans du cello' Des kilos, des kilos, des kilos d'or, pierres précieuses et de bédos J'fume comme Jim Morrison Chimiste avec Freeze Corleone, Freeze Corleone Négro, le rap français, on te nique Rien à foutre, on fume la chronic Plus tard j'achète un petit brolik Et des terres en Bolivie T'as la théorie, mais pas la technique Fuck ton épiderme comme la sensy J'échangerais ton rap contre une Bretling Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis 667, Mangemort Squad, la Ligue des Ombres Noir et vert sont les combinaisons Niveau 3, négro, lélixir est sombre Slow-motion façon Néo On s'répand dans cette merde tel un fléau Au cro-mi jenchaîne les combos Lourd comme un gorille du Congo, négro so à Cero fumigène détenteur Jordy Tarantino, Freeze Corleone, Osirus Jack lÉventreur Pyramide nègre, OV degré 39 667, OVG, roule l'herbe qui tue dans des OCB Extrait la prometh', mixe l'Euphon dans l'Sprite So à Black Jack, met un peu d'Coca dans l'sky J'kick cette merde comme un 30ème dan Future luxure, aquarium en Maybach Au-dessus d'ces fils de gigolos Défractés, en train d'taffer nos merdes dans l'espace J'attends sans aucun stress, shout out à mon clan, négro J'avance sans aucun stress, shout out à mon plan, négro Négro, le rap français, on te nique Rien à foutre, on fume la chronic Plus tard j'achète un petit brolik Et des terres en Bolivie T'as la théorie, mais pas la technique Fuck ton épiderme comme la sensy J'échangerais ton rap contre une Bretling Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Def tate, pas la pierre tombale De l'autre coté, demande à flow Kaki J'rebondis comme un okapi Pas d'paki, chimiste en botanique OVG, clan de légionnaires Abattre ces bitchs comme le fait Fonscar, négro j'téj que des mégots verts Éparpillés comme le virus Jack d'Europe à Guangzhou Dans la forêt, bambou Vous êtes la version d'nous, négro en mou Roule des battes de baseball comme si j'avais 16 doigts NRM sur leur visage, dans le rap agir comme la peste noire Entasse les corps, Freeze, Jorrdee, dans cette merde comme Le Collectionneur Ramasse le biff comme les Rothschild, jet privé et Rolex en or Ça chill la nuit dans la trap house, fournit les plans pour Star Wars J'suis comme à Memphis, consomme des bobs de sensy Négro, le rap français, on te nique Rien à foutre, on fume la chronic Plus tard j'achète un petit brolik Et des terres en Bolivie T'as la théorie, mais pas la technique Fuck ton épiderme comme la sensy J'échangerais ton rap contre une Bretling Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis Mixe la codéine comme à Memphis</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5470,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>C'est là qu'on descendra, cette vie c'était plus qu'un test Mon jet à mimer trois fois le coup du schlass, c'était plus qu'un geste Salaud faudra faire gaffe, tu vas chopper froid quand tu tournes ta veste Le prodige m'appelle la peste, sur la prod j'te tords, tu vas faire la sieste J'm'entraîne, j'reviens de la planète Kaiô Mastersword, on défend les royaumes Par terre on y laisse tes boyaux comm Jules Verne on s'approch du noyau L'ensemble vaut trois mille deux, les diables ils sont parmi eux six, six, six J'suis le Black Pearl sur les eaux, à une vitesse de trois mille nuds À la banque, j'parle avec la directrice han, tout droit dans ma ligne directrice Il m'faut la dernière Audi A8 avec les quatre roues directrices Chen, RAS, L.D.O, S500, bientôt toute la Secte dans les S500 Envoie 500 prods, j'en blesse 500, j'aime les billets d'dix mille, les billets d'cinq cents L'appétit vient en mangeant, négro, il faudra toujours plus de sous Chaque fois qu'ça rentre, c'est comme un but de fou cash, ekip à fond comme un bus de foot So Lalcko, j'ai fait un rêve de mélanger les races, monter un syndicat ekip Biscotti Indica, ADK, aqua dans des foreigns à 90k De la tour, j'vois la tête de Raiponce Quatre goblins et la porte on défoncent Dark Vador, dark, trop forte est la pression j'envoie la ce-for, le plafond s'effondre Les sorciers ont noirci les ongles et pour les dragons, on a fait des onze C'est indécent quand j'écris des onze, ça devient décent voilà ta réponse T'es parti faire la guerre, donc pourquoi elle t'attendrait pourquoi Là pour le trésor on cherche comme Luffy ou Nathan Drake Drake, Nathan Jadis, les femmes allaient cueillir les fleurs de la vie, mais y'a pas d'engrais En fait on se tue mais y a pas d'entraide On se bute, le shit dans la masse rend bête You might also like Que les gros gaz, négro, jamais la locale, fuck 12, so les avocats Grosse montre, t'inquiètes pas qu'elle est pas d'occas' Il m'faut des terres, il m'faut quatre domaines Han, 2-2, Corleone, on les baise dans chaque domaine Shooter précis comme en NBA Han, t'inquiètes pas qu'ça vise pas l'abdomen Pah, pah Gros teh, gros verre Lin, ta pute veut offrir ses ovaires Pétasse Accélère, au vert, allô le big Brr ? Faut qu'on flex en Espagne, s'mettre au vert Skurt Depuis, j'opère Han, dans l'industrie comme le Joker Ah Rien qu'ils bluffent comme au poker Bluff, nous contre eux, c'est des pit contre des cokers Ouh Sirop dans chaque 'teil Sonic et Shadow, j'avance à mach ten Captain j'mets des rafales dans chaque tête, j'défends le village comme Shino et Campbell Mon flow est si sale, j'l'ai trouvé par terre, pas d'fesse, ta pute croit qu'elle est parfaite y'aura pas d'survie, y'aura pas d'après, schlass les trachées, chasse les sales traîtres Magie ma rime rejoint les fictions Fiston, pousse toi on fait les missions L'homme va payer l'addition Ramsès j'amène des malédictions Les petits sont dans les bastons Fume du shit c'est tout c'que j'raconte J'connais pas l'heure je sais qu'tout s'en va On va tous là haut c'est pour ça qu'j'ai pas d'montre c'est pour ça qu'j'ai pas d'montre</t>
+          <t>C'est là qu'on descendra, cette vie c'était plus qu'un test Mon jet à mimer trois fois le coup du schlass, c'était plus qu'un geste Salaud faudra faire gaffe, tu vas chopper froid quand tu tournes ta veste Le prodige m'appelle la peste, sur la prod j'te tords, tu vas faire la sieste J'm'entraîne, j'reviens de la planète Kaiô Mastersword, on défend les royaumes Par terre on y laisse tes boyaux comm Jules Verne on s'approch du noyau L'ensemble vaut trois mille deux, les diables ils sont parmi eux six, six, six J'suis le Black Pearl sur les eaux, à une vitesse de trois mille nuds À la banque, j'parle avec la directrice han, tout droit dans ma ligne directrice Il m'faut la dernière Audi A8 avec les quatre roues directrices Chen, RAS, L.D.O, S500, bientôt toute la Secte dans les S500 Envoie 500 prods, j'en blesse 500, j'aime les billets d'dix mille, les billets d'cinq cents L'appétit vient en mangeant, négro, il faudra toujours plus de sous Chaque fois qu'ça rentre, c'est comme un but de fou cash, ekip à fond comme un bus de foot So Lalcko, j'ai fait un rêve de mélanger les races, monter un syndicat ekip Biscotti Indica, ADK, aqua dans des foreigns à 90k De la tour, j'vois la tête de Raiponce Quatre goblins et la porte on défoncent Dark Vador, dark, trop forte est la pression j'envoie la ce-for, le plafond s'effondre Les sorciers ont noirci les ongles et pour les dragons, on a fait des onze C'est indécent quand j'écris des onze, ça devient décent voilà ta réponse T'es parti faire la guerre, donc pourquoi elle t'attendrait pourquoi Là pour le trésor on cherche comme Luffy ou Nathan Drake Drake, Nathan Jadis, les femmes allaient cueillir les fleurs de la vie, mais y'a pas d'engrais En fait on se tue mais y a pas d'entraide On se bute, le shit dans la masse rend bête Que les gros gaz, négro, jamais la locale, fuck 12, so les avocats Grosse montre, t'inquiètes pas qu'elle est pas d'occas' Il m'faut des terres, il m'faut quatre domaines Han, 2-2, Corleone, on les baise dans chaque domaine Shooter précis comme en NBA Han, t'inquiètes pas qu'ça vise pas l'abdomen Pah, pah Gros teh, gros verre Lin, ta pute veut offrir ses ovaires Pétasse Accélère, au vert, allô le big Brr ? Faut qu'on flex en Espagne, s'mettre au vert Skurt Depuis, j'opère Han, dans l'industrie comme le Joker Ah Rien qu'ils bluffent comme au poker Bluff, nous contre eux, c'est des pit contre des cokers Ouh Sirop dans chaque 'teil Sonic et Shadow, j'avance à mach ten Captain j'mets des rafales dans chaque tête, j'défends le village comme Shino et Campbell Mon flow est si sale, j'l'ai trouvé par terre, pas d'fesse, ta pute croit qu'elle est parfaite y'aura pas d'survie, y'aura pas d'après, schlass les trachées, chasse les sales traîtres Magie ma rime rejoint les fictions Fiston, pousse toi on fait les missions L'homme va payer l'addition Ramsès j'amène des malédictions Les petits sont dans les bastons Fume du shit c'est tout c'que j'raconte J'connais pas l'heure je sais qu'tout s'en va On va tous là haut c'est pour ça qu'j'ai pas d'montre c'est pour ça qu'j'ai pas d'montre</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5487,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Un meurtrier au micro, j'suis trop speed Comme si j'avais mis de la nitro à la Need For Speed Amigo, t'as pas l'niveau, tu finis dans l'caniveau J'fais kiffer les grands et les petits, appelle-moi Haribo MC, j'arrive au mic carrément pété J'lâche un 16 et les températures montent comme en été J'viens pour tembêter, personne pourra m'en empêcher Tu kiffes mais dis-toi qu'j'ai écris c'texte pendant qu'je chiais Mais nan j'rigole, c'était juste pour le texte Freezi F mec, arrive avec ses chaussures de skate J'améliore le beat ouais, j'suis la sauce sur le steak Ta copine sur mon sexe et la cerise sur le cake, han I2SA, qui peut test ça M'avoir dans ton équipe c'est gagner, j'suis comme Iniesta Ouais négro j'suis costaud, tu t'retrouves à l'hosto En deuspi j'dévale le beat, je kick sur deux skis J'suis accro aux jeux vidéos, j'suis comme Kid Paddle J'ai lâché la série des pros depuis le FIFA 09 Freezy froisse, si tu soûles trop j'te dirai vite ta gueule Fais gaffe parce que j'maîtrise aussi les fusils mitrailleurs Ça c'est pour COD 6, j'te mets des headshots fils Ou j'tire dans ton coccyx pendant qu'j'écoute du Mobb Deep Un meurtrier au micro, appelle-moi Jack lÉventreur de beat Prononce mon nom, tu verras l'instru qui prend peur Les armes du crime mon Bic et mon flow, mec Je plaide coupable, aujourd'hui je suis honnête C'est trop bête, j'suis trop fort, j'plie l'instru par la pensée C'est insensé, mon flow est trop avancé pour l'Rap français Moi c'est Freezer, et si j't'ai dans mon viseur Ça devient chaud pour toi, t'as besoin d'un climatiseur Je touche tout c'que j'vise, j'suis précis comme un sniper Et quand je kick trop longtemps, au bout d'un moment le mic pleure Quand j'kick je fais bim bam, j'fous la merde comme Shin-Chan Si tu m'fais trop chier, tu finis au Qatar comme Dindane Moi je vise la lune, c'est pour ça que j'me roule des roquettes Je sais que j'arrive bientôt quand j'commence à avoir des maux d'tête Voilà, c'était Freezi F bitch Pour les mecs qui savent que j'maîtrise les techniques au M.ic Si t'as pas compris, bah viens que j't'explique Comme t'as pu le voir, Freeze ne rigole pas, le mec kick Un meurtrier au micro, j'tue les MCs et les beats Avec des grosses punchlines qui font trembler les vitres Après ce texte tu vois qu'en fait, grosses sont tes lacunes C'est bon j'en ai fini, Peace gros, allez à plus You might also like Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, négro</t>
+          <t>Un meurtrier au micro, j'suis trop speed Comme si j'avais mis de la nitro à la Need For Speed Amigo, t'as pas l'niveau, tu finis dans l'caniveau J'fais kiffer les grands et les petits, appelle-moi Haribo MC, j'arrive au mic carrément pété J'lâche un 16 et les températures montent comme en été J'viens pour tembêter, personne pourra m'en empêcher Tu kiffes mais dis-toi qu'j'ai écris c'texte pendant qu'je chiais Mais nan j'rigole, c'était juste pour le texte Freezi F mec, arrive avec ses chaussures de skate J'améliore le beat ouais, j'suis la sauce sur le steak Ta copine sur mon sexe et la cerise sur le cake, han I2SA, qui peut test ça M'avoir dans ton équipe c'est gagner, j'suis comme Iniesta Ouais négro j'suis costaud, tu t'retrouves à l'hosto En deuspi j'dévale le beat, je kick sur deux skis J'suis accro aux jeux vidéos, j'suis comme Kid Paddle J'ai lâché la série des pros depuis le FIFA 09 Freezy froisse, si tu soûles trop j'te dirai vite ta gueule Fais gaffe parce que j'maîtrise aussi les fusils mitrailleurs Ça c'est pour COD 6, j'te mets des headshots fils Ou j'tire dans ton coccyx pendant qu'j'écoute du Mobb Deep Un meurtrier au micro, appelle-moi Jack lÉventreur de beat Prononce mon nom, tu verras l'instru qui prend peur Les armes du crime mon Bic et mon flow, mec Je plaide coupable, aujourd'hui je suis honnête C'est trop bête, j'suis trop fort, j'plie l'instru par la pensée C'est insensé, mon flow est trop avancé pour l'Rap français Moi c'est Freezer, et si j't'ai dans mon viseur Ça devient chaud pour toi, t'as besoin d'un climatiseur Je touche tout c'que j'vise, j'suis précis comme un sniper Et quand je kick trop longtemps, au bout d'un moment le mic pleure Quand j'kick je fais bim bam, j'fous la merde comme Shin-Chan Si tu m'fais trop chier, tu finis au Qatar comme Dindane Moi je vise la lune, c'est pour ça que j'me roule des roquettes Je sais que j'arrive bientôt quand j'commence à avoir des maux d'tête Voilà, c'était Freezi F bitch Pour les mecs qui savent que j'maîtrise les techniques au M.ic Si t'as pas compris, bah viens que j't'explique Comme t'as pu le voir, Freeze ne rigole pas, le mec kick Un meurtrier au micro, j'tue les MCs et les beats Avec des grosses punchlines qui font trembler les vitres Après ce texte tu vois qu'en fait, grosses sont tes lacunes C'est bon j'en ai fini, Peace gros, allez à plus Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, négro</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5504,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Roule une fusée que j'décolle J'ai rien à faire ici, à part faire des sommes Des sommes faramineuses, mentalité pharaonique Pas besoin d'fourrer une dinde, on s'est déjà fourré la police Ils peuvent pas mentir sur moi, j'peux pas mentir avec ce sky Vrai shit, sensy, XXX J'me sens comme dans une chatte bien humide J'ai rien à faire ici, à part faire des sommes Je marche dans les rues comme Michael Jackson Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet J'mixe le Sprite et la codéine, j'me sens comme ODB yes Niveau 3, potion magique Perte de mémoire, altération des facultés cognitives gaddamn Bullet time à la Matrix XXX boire Euphon Khaliss finir dans Actavis han Afro samurai, suit la voie d'la tactique Double-6.7, fonscar dans la bâtisse Là pour des sommes astronomiques yes Négro j'veux des hôtels, des magasins d'sapes gaddamn Des chaines de restaurants africains gastronomiques han Seigneur nègre comme à l'ancienne yes Laisse des traînées noires quand j'passe dans l'ciel Lord Voldemort, Freeze Corleone 667 Capitaine Capitaine, précis dans mes plans comme un architecte han, han Négro j'm'arrêterai pas avant d'posséder plusieurs archipels You might also like J'ai rien à faire ici ici, à part faire des sommes Je marche dans les rues comme Michael Jackson Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Rappelle-toi, ils nous ont toujours ignoré Maintenant ils s'demandent quand est-ce qu'on va percer Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet</t>
+          <t>Roule une fusée que j'décolle J'ai rien à faire ici, à part faire des sommes Des sommes faramineuses, mentalité pharaonique Pas besoin d'fourrer une dinde, on s'est déjà fourré la police Ils peuvent pas mentir sur moi, j'peux pas mentir avec ce sky Vrai shit, sensy, XXX J'me sens comme dans une chatte bien humide J'ai rien à faire ici, à part faire des sommes Je marche dans les rues comme Michael Jackson Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet J'mixe le Sprite et la codéine, j'me sens comme ODB yes Niveau 3, potion magique Perte de mémoire, altération des facultés cognitives gaddamn Bullet time à la Matrix XXX boire Euphon Khaliss finir dans Actavis han Afro samurai, suit la voie d'la tactique Double-6.7, fonscar dans la bâtisse Là pour des sommes astronomiques yes Négro j'veux des hôtels, des magasins d'sapes gaddamn Des chaines de restaurants africains gastronomiques han Seigneur nègre comme à l'ancienne yes Laisse des traînées noires quand j'passe dans l'ciel Lord Voldemort, Freeze Corleone 667 Capitaine Capitaine, précis dans mes plans comme un architecte han, han Négro j'm'arrêterai pas avant d'posséder plusieurs archipels J'ai rien à faire ici ici, à part faire des sommes Je marche dans les rues comme Michael Jackson Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Rappelle-toi, ils nous ont toujours ignoré Maintenant ils s'demandent quand est-ce qu'on va percer Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet Flash sur ma tasse-pé, des flashs dans mon gosier Un oinj de beuh énervé, baraque dans mon bonnet</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5521,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Skrr comme Clyde et Bonnie, que des flammes sur le cro-mi, criminel comme Ghost et Tommy Des trous dans l'anatomie, drill shit veut plus de money, Tejada l'entreprise comme monet On t'visser plaquettes et les crackheads, t'visser claquette money package, tu finis comme Monnet-Paquet Fume la gelato, la Ice-o-lator, comme Korey, accusé à tort, 9.3 que ds cross, des raptors Et j'la reçois en caillou, nous c'st la bande de Gaza, on riposte, envoie des cailloux Mentalité du Caucase, le gang s'déplace pour les gros casses, d'vant les cages, j'rate jamais l'occas' Proposition contre-proposition, négro on tire sur l'opposition Et j'prends pas position, une tombe devant l'OPJ, aucun blase dans les auditions On complète nos missions, j'prends ou j'donne des grosses commissions On tient nos positions, un seize, négro, tu perds l'audition Prof Chen, big Poppy, j'fais une pause toutes les dix copies Cali comme à L.A, j'fume des gelatos de biscotis Fuck vos rappeurs, c'est des bitchs, ils font des caprices d'actrices Archi pas vifs, ils flinguent moins qu'des Mac-10 factices Chaque titre hat-trick, gestion actif - passif J'arrive raciste, par match six à dix assists Fume comme si j'avais les poumons d'N'Golo Kanté Tu veux pas voir les potos gantés, j'écris tête en feu, moto hanté 93-500, Corleone j'en ai deux d'plus que les cinq sens Chaque passage au micro, j'laisse plein de sang Et j'arrive trop Killu, dans l'jeu y a trop d'illu y a trop d'illu J'arrive fonce-' au pilule, rien qu'on monte comme des Nautilus C'est pas d'la fiction, j'ai la vision, j'cligne c'est presque la fission Argent et partition, Fruity Loops, pas des partitions You might also like Encore en cobra mission, négro j'en perds ma diction, brise des rêves, des malédictions Les sommes et les additions, la drogue comme seule addiction, sacrifices, c'est les traditions Déter' on s'accroche à la quête, shout-out mes OGs, sa ka fet, un gros sur la 'quette, j'roule un pét' 72 boulettes pour un pét', négro j'rentre dans la cabine avec la prod' tout seul pour un tête tête Avec Savino dans cette merde depuis le Carter -ter On sort des profondeurs, on arrive d'en d'ssous de par terre terre Libérez Ralo, libérez Cartel Cartel Criminel comme Marlo et Barksdale Barksdale A-Allo ? Connecté au cartel 500S, on veut l'biff comme les Carter Connecté au Cartel, libérez Ralo Fuck le rap dilué à l'eau, on est des planètes, c'est des calots, han c'est des calots, han J'prépare des sales mélanges, j'roule des grands spliffs J'aime bien quand ça coupe le gâteau, j'aime bien quand ça parle en split Ils sont sous MK Ultra comme dans SplitAvec RAS, on les flingue comme si on jouait en Split, han Et jamais on s'plie, même après onze spliffs 0.9, jamais on skip So l'gang, so les broskis, frappe de Lewandowski, on s'allume comme en Bosnie Plus de cash, un extendo sur le Glock Pah-Bah, Brr, Eh Des indics et des zombies sous le block bitchies, bitchies, hey, woo Plus de cash, un extendo sur le Glock Pah-Bah, poh-poh-poh Des indics et des zombies sous le block woo Proposition, contre-proposition, négro on tire sur l'opposition Et j'prends pas position, une tombe devant l'OPJ, aucun blase dans les auditions On complète nos missions, j'prends ou j'donne des grosses commissions On tient nos positions, un seizen négro, tu perds l'audition Prof Chen, big Poppy, j'fais une pause toutes les dix copies Cali comme à L.A, j'fume des gelatos de biscotis</t>
+          <t>Skrr comme Clyde et Bonnie, que des flammes sur le cro-mi, criminel comme Ghost et Tommy Des trous dans l'anatomie, drill shit veut plus de money, Tejada l'entreprise comme monet On t'visser plaquettes et les crackheads, t'visser claquette money package, tu finis comme Monnet-Paquet Fume la gelato, la Ice-o-lator, comme Korey, accusé à tort, 9.3 que ds cross, des raptors Et j'la reçois en caillou, nous c'st la bande de Gaza, on riposte, envoie des cailloux Mentalité du Caucase, le gang s'déplace pour les gros casses, d'vant les cages, j'rate jamais l'occas' Proposition contre-proposition, négro on tire sur l'opposition Et j'prends pas position, une tombe devant l'OPJ, aucun blase dans les auditions On complète nos missions, j'prends ou j'donne des grosses commissions On tient nos positions, un seize, négro, tu perds l'audition Prof Chen, big Poppy, j'fais une pause toutes les dix copies Cali comme à L.A, j'fume des gelatos de biscotis Fuck vos rappeurs, c'est des bitchs, ils font des caprices d'actrices Archi pas vifs, ils flinguent moins qu'des Mac-10 factices Chaque titre hat-trick, gestion actif - passif J'arrive raciste, par match six à dix assists Fume comme si j'avais les poumons d'N'Golo Kanté Tu veux pas voir les potos gantés, j'écris tête en feu, moto hanté 93-500, Corleone j'en ai deux d'plus que les cinq sens Chaque passage au micro, j'laisse plein de sang Et j'arrive trop Killu, dans l'jeu y a trop d'illu y a trop d'illu J'arrive fonce-' au pilule, rien qu'on monte comme des Nautilus C'est pas d'la fiction, j'ai la vision, j'cligne c'est presque la fission Argent et partition, Fruity Loops, pas des partitions Encore en cobra mission, négro j'en perds ma diction, brise des rêves, des malédictions Les sommes et les additions, la drogue comme seule addiction, sacrifices, c'est les traditions Déter' on s'accroche à la quête, shout-out mes OGs, sa ka fet, un gros sur la 'quette, j'roule un pét' 72 boulettes pour un pét', négro j'rentre dans la cabine avec la prod' tout seul pour un tête tête Avec Savino dans cette merde depuis le Carter -ter On sort des profondeurs, on arrive d'en d'ssous de par terre terre Libérez Ralo, libérez Cartel Cartel Criminel comme Marlo et Barksdale Barksdale A-Allo ? Connecté au cartel 500S, on veut l'biff comme les Carter Connecté au Cartel, libérez Ralo Fuck le rap dilué à l'eau, on est des planètes, c'est des calots, han c'est des calots, han J'prépare des sales mélanges, j'roule des grands spliffs J'aime bien quand ça coupe le gâteau, j'aime bien quand ça parle en split Ils sont sous MK Ultra comme dans SplitAvec RAS, on les flingue comme si on jouait en Split, han Et jamais on s'plie, même après onze spliffs 0.9, jamais on skip So l'gang, so les broskis, frappe de Lewandowski, on s'allume comme en Bosnie Plus de cash, un extendo sur le Glock Pah-Bah, Brr, Eh Des indics et des zombies sous le block bitchies, bitchies, hey, woo Plus de cash, un extendo sur le Glock Pah-Bah, poh-poh-poh Des indics et des zombies sous le block woo Proposition, contre-proposition, négro on tire sur l'opposition Et j'prends pas position, une tombe devant l'OPJ, aucun blase dans les auditions On complète nos missions, j'prends ou j'donne des grosses commissions On tient nos positions, un seizen négro, tu perds l'audition Prof Chen, big Poppy, j'fais une pause toutes les dix copies Cali comme à L.A, j'fume des gelatos de biscotis</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5538,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Ekip, ekip, ekip Comme tu crois qu'la vie, c'est un movie Movie Bah, regarde-nous de travers Pah J'ai l'impression d'avoir déjà tout vu Tout vu Et j'y repense après deux-trois verres Ouais, oh yeah J'peux pas faire deux fois la même erreur Même erreur J'referai jamais la même erreur Même erreur J'peux pas faire deux fois la même erreur Yeah, yeah J'fais pas la même erreur deux fois, j'm'allume comme si j'ai deux foies Pour mon argent, multiplication, minimum, c'est deux fois Tu crois qu'la vie c'est un film, la seule chose qui tient ta vie, c'est un fil Défense, attaque, négro, j'ai v'là les insignes Freeze Corleone, chaque année, TOTS et TOTY, concu', on les graille comme des rôtis 6.6.7, mafia, noir sur noir comme des gothiques Han Ils m'voient plus, j'ai pas passé la deuxième Sku Elle m'dit T'es dans l'top 2 et, négro, t'es pas deuxième Ne mets pas ton nez dans mes affaires, han J'ai tout à gagner mais rien à perdre, han J'peux le faire en vrai Pourquoi tu mets ton nez dans mes affaires ? J'me plais dans la Terre J'peux le faire en vrai, woh, oh You might also like Comme tu crois qu'la vie, c'est un movie Movie Bah, regarde-nous de travers Pah J'ai l'impression d'avoir déjà tout vu Tout vu Et j'y repense après deux-trois verres Ouais, oh yeah J'peux pas faire deux fois la même erreur Même erreur J'referai jamais la même erreur Même erreur J'peux pas faire deux fois la même erreur Yeah, yeah Je sais qu'ces mecs là venaient m'faire la peau Venaient m'faire la peau Mais dans les pockets, j'ai c'qu'il faut J'ai c'qu'il faut Non vraiment, j'ai peur que des impôts Oh my god, la sique-mu c'est facile J'fais des bangers en impro' Je suis très prolifique en mélodies, crois-moi que c'est nécessaire À chaque mélo', ses fesses applaudissent, j'ai mes gimmicks, mes mimiques, j'prospère Sers-lui un verre de Hennessy, j'me sers un verre de lean Pas d'sèche, j'suis concentré pour faire deux lignes comme si j'viens d'faire deux lignes Alejandro Sosa, mentalité, laisse-moi faire du grisbi 6.6.7, industrie, envoie des disques comme si on fait du frisbee Ne mets pas ton nez dans mes affaires, han J'ai tout à gagner mais rien à perdre, han J'peux le faire en vrai Pourquoi tu mets ton nez dans mes affaires ? J'me plais dans la Terre J'peux le faire en vrai, woh, oh Comme tu crois qu'la vie, c'est un movie Movie Bah, regarde-nous de travers Pah J'ai l'impression d'avoir déjà tout vu Tout vu Et j'y repense après deux-trois verres Ouais, oh yeah J'peux pas faire deux fois la même erreur Même erreur J'referai jamais la même erreur Même erreur J'peux pas faire deux fois la même erreur Yeah, yeah</t>
+          <t>Ekip, ekip, ekip Comme tu crois qu'la vie, c'est un movie Movie Bah, regarde-nous de travers Pah J'ai l'impression d'avoir déjà tout vu Tout vu Et j'y repense après deux-trois verres Ouais, oh yeah J'peux pas faire deux fois la même erreur Même erreur J'referai jamais la même erreur Même erreur J'peux pas faire deux fois la même erreur Yeah, yeah J'fais pas la même erreur deux fois, j'm'allume comme si j'ai deux foies Pour mon argent, multiplication, minimum, c'est deux fois Tu crois qu'la vie c'est un film, la seule chose qui tient ta vie, c'est un fil Défense, attaque, négro, j'ai v'là les insignes Freeze Corleone, chaque année, TOTS et TOTY, concu', on les graille comme des rôtis 6.6.7, mafia, noir sur noir comme des gothiques Han Ils m'voient plus, j'ai pas passé la deuxième Sku Elle m'dit T'es dans l'top 2 et, négro, t'es pas deuxième Ne mets pas ton nez dans mes affaires, han J'ai tout à gagner mais rien à perdre, han J'peux le faire en vrai Pourquoi tu mets ton nez dans mes affaires ? J'me plais dans la Terre J'peux le faire en vrai, woh, oh Comme tu crois qu'la vie, c'est un movie Movie Bah, regarde-nous de travers Pah J'ai l'impression d'avoir déjà tout vu Tout vu Et j'y repense après deux-trois verres Ouais, oh yeah J'peux pas faire deux fois la même erreur Même erreur J'referai jamais la même erreur Même erreur J'peux pas faire deux fois la même erreur Yeah, yeah Je sais qu'ces mecs là venaient m'faire la peau Venaient m'faire la peau Mais dans les pockets, j'ai c'qu'il faut J'ai c'qu'il faut Non vraiment, j'ai peur que des impôts Oh my god, la sique-mu c'est facile J'fais des bangers en impro' Je suis très prolifique en mélodies, crois-moi que c'est nécessaire À chaque mélo', ses fesses applaudissent, j'ai mes gimmicks, mes mimiques, j'prospère Sers-lui un verre de Hennessy, j'me sers un verre de lean Pas d'sèche, j'suis concentré pour faire deux lignes comme si j'viens d'faire deux lignes Alejandro Sosa, mentalité, laisse-moi faire du grisbi 6.6.7, industrie, envoie des disques comme si on fait du frisbee Ne mets pas ton nez dans mes affaires, han J'ai tout à gagner mais rien à perdre, han J'peux le faire en vrai Pourquoi tu mets ton nez dans mes affaires ? J'me plais dans la Terre J'peux le faire en vrai, woh, oh Comme tu crois qu'la vie, c'est un movie Movie Bah, regarde-nous de travers Pah J'ai l'impression d'avoir déjà tout vu Tout vu Et j'y repense après deux-trois verres Ouais, oh yeah J'peux pas faire deux fois la même erreur Même erreur J'referai jamais la même erreur Même erreur J'peux pas faire deux fois la même erreur Yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5555,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend Miss S, des petites têtes de fines herbes Stimulant à l'inverse du gin, zinc cette fille j'l'aime Visible aux radios des poumons, pour mon cas Même si aujourd'hui c'est la même pour beaucoup d'monde Dans ton crâne comme Charles X Pas stone mais high fils, gaffe quand on parle weed J'suis un fleuriste, rouge, orange ou violette cerise Vanille, pêche, cognac au miel pour les feuilles, boy J'vole pas j'plane, si j'pouvais j'me roulerais Des oufs péts de la taille d'une pipeline 12 ou 13000 ieps à l'altimètre, j'te l'dis mec Si t'as jamais fumer ne serait-c'qu'un petit pét', à t'y mettre Faudrait songer, furtif je survole Mais on m'dit qu'j'ai plongé, qu'ça s'sent dans mes sons qu'j'ai Du vert dans mes veines, sur mes globules Avec un L majuscule, je roule des gros tubes You might also like Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend J'te dis pas pas le temps d'rouler, ma tasse-pé Et plein de beuh dans à rouler à son grand frère Fleuriste comme Freddy, j'aime ces jardins psychés, ces vapeurs Fuck avec ma promé', fuck avec le canard Allongé sur l'canap', die comme un cadavre Tellement excité à l'idée d'fumer cette merde que j'en ai la main qui tremble Encore pire quand j'vois ma meuf rouler cette culture de chanvre C'est ma Miss S numéro 2 Rouleuse de bédo, Mistress me déstresse La numéro 1 est bien trop loin dans mon esprit Quand elles sont d'Martinique, Martini, rosado ou bien du rhum , Miss S est bien plus lourde que l'éléphant d'Kodidi Coma éthylique, j'idéalise ce genre de pratiques Un certain dégoût pour les shits de France goût plastique Yo, goût plastique Jordy McFly, OV, MAB, bitch Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend</t>
+          <t>Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend Miss S, des petites têtes de fines herbes Stimulant à l'inverse du gin, zinc cette fille j'l'aime Visible aux radios des poumons, pour mon cas Même si aujourd'hui c'est la même pour beaucoup d'monde Dans ton crâne comme Charles X Pas stone mais high fils, gaffe quand on parle weed J'suis un fleuriste, rouge, orange ou violette cerise Vanille, pêche, cognac au miel pour les feuilles, boy J'vole pas j'plane, si j'pouvais j'me roulerais Des oufs péts de la taille d'une pipeline 12 ou 13000 ieps à l'altimètre, j'te l'dis mec Si t'as jamais fumer ne serait-c'qu'un petit pét', à t'y mettre Faudrait songer, furtif je survole Mais on m'dit qu'j'ai plongé, qu'ça s'sent dans mes sons qu'j'ai Du vert dans mes veines, sur mes globules Avec un L majuscule, je roule des gros tubes Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend J'te dis pas pas le temps d'rouler, ma tasse-pé Et plein de beuh dans à rouler à son grand frère Fleuriste comme Freddy, j'aime ces jardins psychés, ces vapeurs Fuck avec ma promé', fuck avec le canard Allongé sur l'canap', die comme un cadavre Tellement excité à l'idée d'fumer cette merde que j'en ai la main qui tremble Encore pire quand j'vois ma meuf rouler cette culture de chanvre C'est ma Miss S numéro 2 Rouleuse de bédo, Mistress me déstresse La numéro 1 est bien trop loin dans mon esprit Quand elles sont d'Martinique, Martini, rosado ou bien du rhum , Miss S est bien plus lourde que l'éléphant d'Kodidi Coma éthylique, j'idéalise ce genre de pratiques Un certain dégoût pour les shits de France goût plastique Yo, goût plastique Jordy McFly, OV, MAB, bitch Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend Miss S, femme de chambre Miss S, feuille de chanvre Masse d'herbe me détend Masse d'herbe me détend</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5572,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Discographie - 667 Mixtape - 20141225 667 - 66.7 Radio Édition spécial Noël Single - 20140224 667 - Néo nègre - 20141003 667 - Freestyle Lyonzon 2 - 20141225 667 - Chaque jour - 20150605 667 - S.O.A.M.S. Shout Out A Ma Secte - 20210516 667 - 669 Part. 2 Featuring - 20180920 Lyonzon - 669 - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20221216 Norsacce - Laisse parler Discographie complémentaire - Discographie - Afro S - Discographie - Bagdaad - Discographie - Black Jack - Discographie - Congo Bill - Discographie - DOC OVG - Discographie - Dubble G Kiluavi - Discographie - Freeze Corleone - Discographie - Jorrdee - Discographie - Kaki Santana - Discographie - Lala ce - Discographie - Moh Money - Discographie - Norsacce - Discographie - Odeuxzero - Discographie - Osirus Jack - Discographie - Rifa Samb - Discographie - Savag Martin - Discographie - Shaka - Discographie - Slim C - Discographie - Sogui - Discographi - Zuukou MayzieYou might also like</t>
+          <t>Discographie - 667 Mixtape - 20141225 667 - 66.7 Radio Édition spécial Noël Single - 20140224 667 - Néo nègre - 20141003 667 - Freestyle Lyonzon 2 - 20141225 667 - Chaque jour - 20150605 667 - S.O.A.M.S. Shout Out A Ma Secte - 20210516 667 - 669 Part. 2 Featuring - 20180920 Lyonzon - 669 - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20221216 Norsacce - Laisse parler Discographie complémentaire - Discographie - Afro S - Discographie - Bagdaad - Discographie - Black Jack - Discographie - Congo Bill - Discographie - DOC OVG - Discographie - Dubble G Kiluavi - Discographie - Freeze Corleone - Discographie - Jorrdee - Discographie - Kaki Santana - Discographie - Lala ce - Discographie - Moh Money - Discographie - Norsacce - Discographie - Odeuxzero - Discographie - Osirus Jack - Discographie - Rifa Samb - Discographie - Savag Martin - Discographie - Shaka - Discographie - Slim C - Discographie - Sogui - Discographi - Zuukou Mayzie</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5589,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Tu peux croire qu'c'est du diabolo, haha, c'est pas du diabolo Négro, Double-F G double 6-7 Mafia Chen Zen Afro Samurai Freeze Corleone Quand j'bois ma soupe mon cerveau bug mais mes rimes glissent Shout out à Jordy, négro, j'me sens comme Pimp C El Freeze, les même yeuz que Jet Li J'suis trop faya, négro, j'ai l'cerveau qui fait des bulles comme Nessbeal Perché très haut comme si j'résidait au sommet d'l'Everest J'vous vois petit et un peu flou, mais je sais reconnaître les vrais Beaucoup d'verte un peu d'vert et beaucoup noir Camouflage optique actif bande de bitch vous pouvez pas nous voir Dans cette merde, négro, pour les thunes et le pouvoir J'roule grave vite comme si j'étais né avec 12 doigts Periph' siege passager au calme ça roule à gauche Du produit, des feuilles a rouler du feu et d'garo Sponso' par OCB, possédé j'écrit jusqu'à l'aube Foncedé dans la matrice, j'vois la vie en vert mais pas rose Touche yes life, troisième niveau atteint Une fois encore j'passe en mode zombie jusqu'au matin Nuage de fumée et pluie de cendres Négro, parfois j'm'endors sur place tellement qu'le cocktail est puissant J'vois tout au ralenti genre slow mo' Alligator ou trèfle, négro, sur nos polos Mes yeux s'ferment tout seul comme si j'étais faya au somnifère Les femmes et les enfants d'abord j'sors en dernier par politesse Mon cerveaux bug mais les rimes sortent Shiznit chanvre prométhazine codéine eristoff J'fais des plans cortex J'progresse dans mes cortez J'm'inspire des mafieux dans les films de Martin Scorsese J'viens foutre le bordel, devenir corsaire J'vous conseille vivement de déclarer forfait Vision nocturne coté obscur J'plane h24 du lundi au lundi, j'suis toujours au dessus Aquarium dans le cockpit, b2 bombardier furtif Frappe chirurgical sur ces négros, en tue 8 sur 10 J'enchaîne les 16 et les zes-dou Merde, on dirait des putains d'fraises, négro, que j'ai les yeux rouges Des résidus de résines collent sur mon pouce droit J'ai demander ma route au mur stencule ma dit d'aller tout droit Autopilote enclenché, descente sans dangers J'vais faire partie des grands et j'vais pas m'assoir à leur table sans manger Comme trademark, j'suis une sorte de parachutiste J'pue la weed, négro, j'fais d'la faya musique J'fume des ostie d'gros spliff J'crois bien que pour cette merde, j'vais vous faire un joli p'tit clip hypnotique Afro Samurai appelle moi Yasuke J'ai une pupille du turfu comme Sasuke Deux blunts en bouche comme Smoker ou Action Bronson Là où j'suis pas d'réseau, impossible que mon téléphone sonne Négro, on arrive du dessus comme des flocons Go fast vers le futur, trop d'avance sur le peloton Négro, on s'fout trop ça pour appeler ca du dopage Pourtant on est déjà hyper loin pour nos âges You might also likeOn roule, on roule, on roule jour et nuit comme des routiers Négro comme des routiers Niveau III impossible a décrire, faudrait qu'vous goutiez Mes négros faudrait qu'vous goutiez Double-F G, appelle moi Chen Zen Freeze Corleone Afro Samurai Double 6-7 Kartel de l'autre coté d'la Stargate, négro, j'suis un mac comme Mac Dre Fuck le rap game, appelle moi Captain petasse leche Double-F G, Niveau III Négro, ça lean ça lean ça lean et ça arrive Double-F G Fleuriste furtif faya familia En euros j'veux des Des milliards9</t>
+          <t>Tu peux croire qu'c'est du diabolo, haha, c'est pas du diabolo Négro, Double-F G double 6-7 Mafia Chen Zen Afro Samurai Freeze Corleone Quand j'bois ma soupe mon cerveau bug mais mes rimes glissent Shout out à Jordy, négro, j'me sens comme Pimp C El Freeze, les même yeuz que Jet Li J'suis trop faya, négro, j'ai l'cerveau qui fait des bulles comme Nessbeal Perché très haut comme si j'résidait au sommet d'l'Everest J'vous vois petit et un peu flou, mais je sais reconnaître les vrais Beaucoup d'verte un peu d'vert et beaucoup noir Camouflage optique actif bande de bitch vous pouvez pas nous voir Dans cette merde, négro, pour les thunes et le pouvoir J'roule grave vite comme si j'étais né avec 12 doigts Periph' siege passager au calme ça roule à gauche Du produit, des feuilles a rouler du feu et d'garo Sponso' par OCB, possédé j'écrit jusqu'à l'aube Foncedé dans la matrice, j'vois la vie en vert mais pas rose Touche yes life, troisième niveau atteint Une fois encore j'passe en mode zombie jusqu'au matin Nuage de fumée et pluie de cendres Négro, parfois j'm'endors sur place tellement qu'le cocktail est puissant J'vois tout au ralenti genre slow mo' Alligator ou trèfle, négro, sur nos polos Mes yeux s'ferment tout seul comme si j'étais faya au somnifère Les femmes et les enfants d'abord j'sors en dernier par politesse Mon cerveaux bug mais les rimes sortent Shiznit chanvre prométhazine codéine eristoff J'fais des plans cortex J'progresse dans mes cortez J'm'inspire des mafieux dans les films de Martin Scorsese J'viens foutre le bordel, devenir corsaire J'vous conseille vivement de déclarer forfait Vision nocturne coté obscur J'plane h24 du lundi au lundi, j'suis toujours au dessus Aquarium dans le cockpit, b2 bombardier furtif Frappe chirurgical sur ces négros, en tue 8 sur 10 J'enchaîne les 16 et les zes-dou Merde, on dirait des putains d'fraises, négro, que j'ai les yeux rouges Des résidus de résines collent sur mon pouce droit J'ai demander ma route au mur stencule ma dit d'aller tout droit Autopilote enclenché, descente sans dangers J'vais faire partie des grands et j'vais pas m'assoir à leur table sans manger Comme trademark, j'suis une sorte de parachutiste J'pue la weed, négro, j'fais d'la faya musique J'fume des ostie d'gros spliff J'crois bien que pour cette merde, j'vais vous faire un joli p'tit clip hypnotique Afro Samurai appelle moi Yasuke J'ai une pupille du turfu comme Sasuke Deux blunts en bouche comme Smoker ou Action Bronson Là où j'suis pas d'réseau, impossible que mon téléphone sonne Négro, on arrive du dessus comme des flocons Go fast vers le futur, trop d'avance sur le peloton Négro, on s'fout trop ça pour appeler ca du dopage Pourtant on est déjà hyper loin pour nos âges On roule, on roule, on roule jour et nuit comme des routiers Négro comme des routiers Niveau III impossible a décrire, faudrait qu'vous goutiez Mes négros faudrait qu'vous goutiez Double-F G, appelle moi Chen Zen Freeze Corleone Afro Samurai Double 6-7 Kartel de l'autre coté d'la Stargate, négro, j'suis un mac comme Mac Dre Fuck le rap game, appelle moi Captain petasse leche Double-F G, Niveau III Négro, ça lean ça lean ça lean et ça arrive Double-F G Fleuriste furtif faya familia En euros j'veux des Des milliards9</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5606,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Discographie - LT RT Klan Single - 20130705 LT RT Klan - Shemale - 20131210 LT RT Klan - Roi des tunnels - 20140224 LT RT Klan - Sprite - 20140324 LT RT Klan - Michael Jackson Featuring - 20140106 RTT Clan - Nous Discographie complémentaire - Discographie - Freeze Corleone - Discographie - JorrdeeYou might also like</t>
+          <t>Discographie - LT RT Klan Single - 20130705 LT RT Klan - Shemale - 20131210 LT RT Klan - Roi des tunnels - 20140224 LT RT Klan - Sprite - 20140324 LT RT Klan - Michael Jackson Featuring - 20140106 RTT Clan - Nous Discographie complémentaire - Discographie - Freeze Corleone - Discographie - Jorrdee</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5623,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Han Double-F G Notre Dame yeah, OG, Freeze, han Nouveau Commendatore J'fais des rêves de vaisseaux spatiaux d'origine italienne T'inquiète que quand j'l'aurai j'me ferai sucer par cette bitch d'Ayem Testarossa rosso, trop chaud La route mon terrain d'jeu j'me déplace à la Hot Sauce Négro j'roule à la Ridge Racer, j'avale le bitume, on dirait qu'j'surfe Odjee, Freeze, Domingo à la prod si tu veux l'blaze du beatmaker Yeuz bridés, pied au plancher, trop fonsdé pour penser au danger J'repère les radars donc ils m'détectent pas Need For Speed, 4 heures du mat' mais pas d'PS3 Aquarium dans l'habitacle, vision légèrement troublée Négro, j'écris un couplet pendant j'suis entrain d'doubler J'sers et j'roule à gauche, j'suis perché genre tout là-haut Shout-out à Lalcko, qu'les ennemies restent calme comme sous Mao Appelle moi Enzo il Commendatore Programme spatial et arme nucléaire comme le Nord d'la Corée Capitaine c'est mon grade, j'fous l'contact Comme l'ouest négro j'bombarde J'm'endors presque, tellement qu'j'suis fonscar, han Nique le code de la route, dans ma tête négro c'est GTA J'crois qu'j'vais péter des câbles le jour où j'piloterai ma première Féfé cab' Dans l'coffre devant moi, une infime parti du magots J'décolle dans un aéronef rouge avec un val-che sur l'capot Féfé musique.. You might also like Freeze, Nouveau Commendatore</t>
+          <t>Han Double-F G Notre Dame yeah, OG, Freeze, han Nouveau Commendatore J'fais des rêves de vaisseaux spatiaux d'origine italienne T'inquiète que quand j'l'aurai j'me ferai sucer par cette bitch d'Ayem Testarossa rosso, trop chaud La route mon terrain d'jeu j'me déplace à la Hot Sauce Négro j'roule à la Ridge Racer, j'avale le bitume, on dirait qu'j'surfe Odjee, Freeze, Domingo à la prod si tu veux l'blaze du beatmaker Yeuz bridés, pied au plancher, trop fonsdé pour penser au danger J'repère les radars donc ils m'détectent pas Need For Speed, 4 heures du mat' mais pas d'PS3 Aquarium dans l'habitacle, vision légèrement troublée Négro, j'écris un couplet pendant j'suis entrain d'doubler J'sers et j'roule à gauche, j'suis perché genre tout là-haut Shout-out à Lalcko, qu'les ennemies restent calme comme sous Mao Appelle moi Enzo il Commendatore Programme spatial et arme nucléaire comme le Nord d'la Corée Capitaine c'est mon grade, j'fous l'contact Comme l'ouest négro j'bombarde J'm'endors presque, tellement qu'j'suis fonscar, han Nique le code de la route, dans ma tête négro c'est GTA J'crois qu'j'vais péter des câbles le jour où j'piloterai ma première Féfé cab' Dans l'coffre devant moi, une infime parti du magots J'décolle dans un aéronef rouge avec un val-che sur l'capot Féfé musique.. Freeze, Nouveau Commendatore</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5640,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Du nouveau dans le Game On fait du ons neuf Le micro chauffe et fume Comme les tours du 1109 Négro nique ton avis Rien qu'je performe sur c'beat Double-6 7, OVG Anti suce-bites Chaud, Kaki Négro j'ai trop d'haki XXX VO arrive Ça sé-po des flows arides Nous et eux ce n'est pas pareil OVG à l'appareil Ça pique mais y a pas d'abeille Négro XXX à la 'seille Pyramide a lil au beurre noir Negro carrément fuck leurs lois T'es mort avant qut'aperçoives XXX négro XXX J'traverse XXX cratères Je me tartine moi, de tes affaires XXX je me cache, tu peux pas frères, gro-né You might also like x2 667, hein Shout out à mes mangemorts Yeuz rouges défractés avec mes loups-garous Sous la pleine lune on s'transforme On complote contre eux dans l'obscurité Pour l'ennemi aucune pitié Quenelle inédite, so à Dieudo On va leur mettre d'une manière dont ils ont aucune idée XXX dans l'tier-quar XXX dans la XXX Codéine, promethazine Un peu de tahs, 2-3 biatchs Posé à la baraqua Fait du sale, qué pasa ? Double-6 7, Black Pyramids Gang Négro, on fait comme ça Rafale de XXX Consomme, c'est Blacky Negro bicrave ton paki Akhi c'est fini J'viens reprendre le business J'suis le boss du game Dédicace à Jorrdee Que les rageux retournent au fitness XXX Pét' ton she-fla, fuck le XXX XXX ma gueule, dès le départ Demande à Kix, y en a marre faut de l'argent J'opère, vif comme ce guépard XXX tu canes à coups de barre En bas du bloc-bloc, fuck des bars Ça redémarre x2 667, hein Shout out à mes mangemorts Yeuz rouges défractés avec mes loups-garous Sous la pleine lune on s'transforme On complote contre eux dans l'obscurité Pour l'ennemi aucune pitié Quenelle inédite, so à Dieudo On va leur mettre d'une manière dont ils ont aucune idée C'est XXX qui demande le mic XXX sur une piste yo Elle a bougé ta meuf, sur ma bite yo XXX qui t'envoie sur Mars yo J'ai des vues futuristiques Qui sont pas dans les normes J'ai la gaule et j'vais te sodomiser Qu'on s'foute ça au calme, bitch Dans le sexe y a rien d'sale Même pas l'cunnilingus J'leur pose ça quand j'suis pompette Pour qu'elles jouissent encore plus XXX font la taille d'un burger Tu verras ce que j'veux dire si t'es un bandit Contente-toi de c'que t'as, n'envie personne On est juste de passage, ça n'en vaut pas le coup Mon flow vient des profondeurs du Titanic Sur ce beat je vous nique, si tu kiffes pas tant pis XXX mais loin d'être XXX N'oublie pas qui t'l'a dit, c'est S.o.g.u.i XXX C'est des bails de bouffon, ça fait vraiment tié-p Négro, ça fait vraiment tié-pi x2 667, hein Shout out à mes mangemorts Yeuz rouges défractés avec mes loups-garous Sous la pleine lune on s'transforme On complote contre eux dans l'obscurité Pour l'ennemi aucune pitié Quenelle inédite, so à Dieudo On va leur mettre d'une manière dont ils ont aucune idée</t>
+          <t>Du nouveau dans le Game On fait du ons neuf Le micro chauffe et fume Comme les tours du 1109 Négro nique ton avis Rien qu'je performe sur c'beat Double-6 7, OVG Anti suce-bites Chaud, Kaki Négro j'ai trop d'haki XXX VO arrive Ça sé-po des flows arides Nous et eux ce n'est pas pareil OVG à l'appareil Ça pique mais y a pas d'abeille Négro XXX à la 'seille Pyramide a lil au beurre noir Negro carrément fuck leurs lois T'es mort avant qut'aperçoives XXX négro XXX J'traverse XXX cratères Je me tartine moi, de tes affaires XXX je me cache, tu peux pas frères, gro-né x2 667, hein Shout out à mes mangemorts Yeuz rouges défractés avec mes loups-garous Sous la pleine lune on s'transforme On complote contre eux dans l'obscurité Pour l'ennemi aucune pitié Quenelle inédite, so à Dieudo On va leur mettre d'une manière dont ils ont aucune idée XXX dans l'tier-quar XXX dans la XXX Codéine, promethazine Un peu de tahs, 2-3 biatchs Posé à la baraqua Fait du sale, qué pasa ? Double-6 7, Black Pyramids Gang Négro, on fait comme ça Rafale de XXX Consomme, c'est Blacky Negro bicrave ton paki Akhi c'est fini J'viens reprendre le business J'suis le boss du game Dédicace à Jorrdee Que les rageux retournent au fitness XXX Pét' ton she-fla, fuck le XXX XXX ma gueule, dès le départ Demande à Kix, y en a marre faut de l'argent J'opère, vif comme ce guépard XXX tu canes à coups de barre En bas du bloc-bloc, fuck des bars Ça redémarre x2 667, hein Shout out à mes mangemorts Yeuz rouges défractés avec mes loups-garous Sous la pleine lune on s'transforme On complote contre eux dans l'obscurité Pour l'ennemi aucune pitié Quenelle inédite, so à Dieudo On va leur mettre d'une manière dont ils ont aucune idée C'est XXX qui demande le mic XXX sur une piste yo Elle a bougé ta meuf, sur ma bite yo XXX qui t'envoie sur Mars yo J'ai des vues futuristiques Qui sont pas dans les normes J'ai la gaule et j'vais te sodomiser Qu'on s'foute ça au calme, bitch Dans le sexe y a rien d'sale Même pas l'cunnilingus J'leur pose ça quand j'suis pompette Pour qu'elles jouissent encore plus XXX font la taille d'un burger Tu verras ce que j'veux dire si t'es un bandit Contente-toi de c'que t'as, n'envie personne On est juste de passage, ça n'en vaut pas le coup Mon flow vient des profondeurs du Titanic Sur ce beat je vous nique, si tu kiffes pas tant pis XXX mais loin d'être XXX N'oublie pas qui t'l'a dit, c'est S.o.g.u.i XXX C'est des bails de bouffon, ça fait vraiment tié-p Négro, ça fait vraiment tié-pi x2 667, hein Shout out à mes mangemorts Yeuz rouges défractés avec mes loups-garous Sous la pleine lune on s'transforme On complote contre eux dans l'obscurité Pour l'ennemi aucune pitié Quenelle inédite, so à Dieudo On va leur mettre d'une manière dont ils ont aucune idée</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5657,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>O-o-o-ocho Han, double 6-7 Berlusconi Corleone Osirus Osiruuuus, hey Berlusconi, les négros savent que j'découpe ça sec Pussy négro, n'viens pas dans l'but d'partager mon assiette 2000ze-quin, t'as ressenti le goûts, t'as reconnu la secte Beaucoup on est boulés Gaddamn j'm'introduis dans la foulée J'ai le bail que tous ces négros voulaient Trop d'flow, paquebot, j'te jure ça va couler Ne viens pas naviguer àl Crack-musique presque illégale Essaie de vesqui les balles Tu sais qu'très peu sont de taille Concurrence dort sous la paille Négros essaient de rivaliser J'ai pas dégainé, détaille, hey Allumer là ou je vise Comme Mala je battis la tour de business Ce que les négros me disent Ça va trop vite mon négro, bientôt l'Guiness Jeune nègre élitiste J'arrive, j'prends tout en balle, j'suis l'éclipse On a dégainé sab-sabres et les kilos, biff Donne les thunes, j'ca-casse, y'a les flics au mic' You might also like Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Fini le OG juice Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Bitchass, on s'fait seul-tout LDO, on s'répand S'affilie pas aux jeune loups Sont faux comme le 11 septembre Lack trop ap, agit vite 667 comme KGB Mets ta team dans l'cagibi Fuck le Rap Game, j'vois qu'il s'fragilise On fait trembler les Loges, PD Là pour les loves, pas les Porsche pétées OVG, 77 kartel Des broussailles sort CDs Loup dép, killu' négro Viens pas nous voir, garde tes pilules, négro Cons' la loud, chope un coup d'chaud Finis ces bitchs comme le cul d'un XXX Haha, dans l'vert, plus de OG juice Atteint ta tête comme un OG couche Chaque jour lopi' kush Frappe, but à la Toni Kroos Dans l'Game que des loups fugazis Vite, tu peux être fufu à vie Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Fini le OG juice Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Négro, la sep est bruyante pour faire lacker les loups francs La trajectoire est fuyante quand ça va frapper les coups-francs Furtif comme CFR Ils veulent faire la course, ils ont même pas l'BSR Propagande américaine comme le Roi Dans l'complot comme à BFM On arrive comme l'Italie 2006, fuck la France Dans la secte que des négros comme à Niarry Tally Dès qu'j'ai l'biff pour les foreigns, j'importe d'Italie Ces négros n'ont pas d'âme Moi, négro j'reste killuminati Jusqu'à qu'on enterre mon cadavre Fufu, sache que t'as chaud si c'est toi qu'on attaque Précis comme un G.I, tah tah tah Tu débites comme un V.I J'veux faire v'là l'biff comme un pays, haha On est nulle part, en même temps on est partout Comme des cigarettes Avec mon clan on les fume 12 par 12, ekip Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Fini le OG juice Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe</t>
+          <t>O-o-o-ocho Han, double 6-7 Berlusconi Corleone Osirus Osiruuuus, hey Berlusconi, les négros savent que j'découpe ça sec Pussy négro, n'viens pas dans l'but d'partager mon assiette 2000ze-quin, t'as ressenti le goûts, t'as reconnu la secte Beaucoup on est boulés Gaddamn j'm'introduis dans la foulée J'ai le bail que tous ces négros voulaient Trop d'flow, paquebot, j'te jure ça va couler Ne viens pas naviguer àl Crack-musique presque illégale Essaie de vesqui les balles Tu sais qu'très peu sont de taille Concurrence dort sous la paille Négros essaient de rivaliser J'ai pas dégainé, détaille, hey Allumer là ou je vise Comme Mala je battis la tour de business Ce que les négros me disent Ça va trop vite mon négro, bientôt l'Guiness Jeune nègre élitiste J'arrive, j'prends tout en balle, j'suis l'éclipse On a dégainé sab-sabres et les kilos, biff Donne les thunes, j'ca-casse, y'a les flics au mic' Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Fini le OG juice Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Bitchass, on s'fait seul-tout LDO, on s'répand S'affilie pas aux jeune loups Sont faux comme le 11 septembre Lack trop ap, agit vite 667 comme KGB Mets ta team dans l'cagibi Fuck le Rap Game, j'vois qu'il s'fragilise On fait trembler les Loges, PD Là pour les loves, pas les Porsche pétées OVG, 77 kartel Des broussailles sort CDs Loup dép, killu' négro Viens pas nous voir, garde tes pilules, négro Cons' la loud, chope un coup d'chaud Finis ces bitchs comme le cul d'un XXX Haha, dans l'vert, plus de OG juice Atteint ta tête comme un OG couche Chaque jour lopi' kush Frappe, but à la Toni Kroos Dans l'Game que des loups fugazis Vite, tu peux être fufu à vie Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Fini le OG juice Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Négro, la sep est bruyante pour faire lacker les loups francs La trajectoire est fuyante quand ça va frapper les coups-francs Furtif comme CFR Ils veulent faire la course, ils ont même pas l'BSR Propagande américaine comme le Roi Dans l'complot comme à BFM On arrive comme l'Italie 2006, fuck la France Dans la secte que des négros comme à Niarry Tally Dès qu'j'ai l'biff pour les foreigns, j'importe d'Italie Ces négros n'ont pas d'âme Moi, négro j'reste killuminati Jusqu'à qu'on enterre mon cadavre Fufu, sache que t'as chaud si c'est toi qu'on attaque Précis comme un G.I, tah tah tah Tu débites comme un V.I J'veux faire v'là l'biff comme un pays, haha On est nulle part, en même temps on est partout Comme des cigarettes Avec mon clan on les fume 12 par 12, ekip Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe Fini le OG juice Fini le OG juice Consomme la OG Kush J'vois la concu' qui tousse Gros j'te mets tapis, t'as l'flow d'un papy 3-0, fanny bouge Eux font du gâchis, aucune sympathie J'en fais du hachis, j'bouffe</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5674,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Squa shit only, néo-nègre colis La secte dans des bolides, consomme l'hydroponique Seulement pour mes homies, on attaque comme carré Genre rafale comme bar head, gros j'survole la moyenne T'es bête, rien à foutre des 'tasses, j'prends les pépètes De la merde ils sécrètent comme les fesses de ces deps Jeune noir bientôt célèbre, j'prie pour qu'Allah me sélecte Bientôt dans le bénef', j'garde la foi, l'inspi' est céleste Quoi, petite? J'peux pas t'épouser, t'as l'veau-cer de la taille d'un pois chiche Mes négros sont fayas, t'as cru qu'ils étaient noichis Qu'est ce que tu crois fils, dans les souterrains j'suis roi, bitch Sniper sur toi bitch, XXX Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Vrai nègre tourne pas sa veste, on est les bases de la civilisation Négros présents dans les 4 coins de la terre Sur mon pét' j'mets du caramel, saveur sucrée Planant, trop complexe, j'suis dans un monde parallèle Squa shit only, néo-nègre pas tho-my Sur l'terrain comme Koli, bombarde dans le bolide Vois ces nègres en Vélib, tes rappeurs en intérim Prie Dieu, lance les paris, fléau nègre débarque sur Paris You might also like Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thos-my, tous ces nègres sont des faux Merde c'en est trop, en plus c'est eux qui prennent les do' Qui a le juice ? Qui a le kush ? Qui donne le blues aux bougs qui vendent les boules ? Qui cherche le flouze ? Qui cherche les pouffes ? Bitch, sème le trouble, s'retrouvent en quête de tout Brasse dans mes flows, gratte dans l'métro Oublie chaque défaut tant qu'je mate dans l'rétro Fume du gas, chanvre, pétro, on va graille sans quer-cro Crame les diables de loin, j'suis un vrai comme Despo Treillis black-kaki, gros si ça pète On a déjà choisi notre camp, pour ça qu'on s'apprête So mon gars Kixou, l'rap n'est pas dead Eux ils parlent comme des tueurs mais on sait qu'c'est des faggets Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Vrai négro shit chaque jour, fonsdé au shit chaque jour So Norsacce négro, néo-négro shit chaque jour Squa shit, so les 3 chiffres, rafale les prods comme les Kouachi Killu' à vie bitch, fuck le 3-6 Noichi comme Chen Zhen, j'veux les franchises comme Renzel Chen Zen négro, homme en feu comme Denzel Pétasse, en apparition j'ai ton salaire dans la poche Insh'Allah bientôt Dakar, Corniche, j'suis dans la Porsche, ekip Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer</t>
+          <t>Squa shit only, néo-nègre colis La secte dans des bolides, consomme l'hydroponique Seulement pour mes homies, on attaque comme carré Genre rafale comme bar head, gros j'survole la moyenne T'es bête, rien à foutre des 'tasses, j'prends les pépètes De la merde ils sécrètent comme les fesses de ces deps Jeune noir bientôt célèbre, j'prie pour qu'Allah me sélecte Bientôt dans le bénef', j'garde la foi, l'inspi' est céleste Quoi, petite? J'peux pas t'épouser, t'as l'veau-cer de la taille d'un pois chiche Mes négros sont fayas, t'as cru qu'ils étaient noichis Qu'est ce que tu crois fils, dans les souterrains j'suis roi, bitch Sniper sur toi bitch, XXX Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Vrai nègre tourne pas sa veste, on est les bases de la civilisation Négros présents dans les 4 coins de la terre Sur mon pét' j'mets du caramel, saveur sucrée Planant, trop complexe, j'suis dans un monde parallèle Squa shit only, néo-nègre pas tho-my Sur l'terrain comme Koli, bombarde dans le bolide Vois ces nègres en Vélib, tes rappeurs en intérim Prie Dieu, lance les paris, fléau nègre débarque sur Paris Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thos-my, tous ces nègres sont des faux Merde c'en est trop, en plus c'est eux qui prennent les do' Qui a le juice ? Qui a le kush ? Qui donne le blues aux bougs qui vendent les boules ? Qui cherche le flouze ? Qui cherche les pouffes ? Bitch, sème le trouble, s'retrouvent en quête de tout Brasse dans mes flows, gratte dans l'métro Oublie chaque défaut tant qu'je mate dans l'rétro Fume du gas, chanvre, pétro, on va graille sans quer-cro Crame les diables de loin, j'suis un vrai comme Despo Treillis black-kaki, gros si ça pète On a déjà choisi notre camp, pour ça qu'on s'apprête So mon gars Kixou, l'rap n'est pas dead Eux ils parlent comme des tueurs mais on sait qu'c'est des faggets Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Vrai négro shit chaque jour, fonsdé au shit chaque jour So Norsacce négro, néo-négro shit chaque jour Squa shit, so les 3 chiffres, rafale les prods comme les Kouachi Killu' à vie bitch, fuck le 3-6 Noichi comme Chen Zhen, j'veux les franchises comme Renzel Chen Zen négro, homme en feu comme Denzel Pétasse, en apparition j'ai ton salaire dans la poche Insh'Allah bientôt Dakar, Corniche, j'suis dans la Porsche, ekip Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer Squa shit only, néo-nègres only Tous ces négros thonnent-my, j'les fous dans du pain d'mie En face font des conneries, négro rien qu'on dégomme Bitch tu crois qu'on déconne, dans les poches veut l'prix d'un loyer</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5691,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Planant furtivement à 272,7270 pieds Des gars pas sur ceux sur ce diez, nan Mais viennent d'apercevoir un objet volant non-identifié Moi aux commandes, un frêle humanoïde beige Les yeux rouges limite fermés, du mal à l'discerner Aquarium dans la cabine, air épais, comprimé Comme celui d'une carabine, dans ton nez des effets Étrange, mystique, j'crache la fumée entre mes dents Du bonheur pour toujours, pas comme Fifty A disposition un arsenal futuristique grandissant Inch'Allah gro-né, invincible je serai dans 10 ans Pour l'instant, je mentraîne avec une gravité Multipliée par 6, je roule ma weed dans yeuf ou gare-ci Garçon j'arrive car-fons, dans les nuages je zig-zag Slalome izi, à la Zinédine Zidane J'évite les obstacles, je flotte grâce à l'aloe Trop de flow, j'avance sur le beat dans un black canoë Si je tombe je nage, je marrêterai pas, tenace El Freeze le Canadair, d'en-haut vient la menace, yes Planant furtivement à 272,7270 pieds Des gars pas sur ceux sur ce diez, nan Mais viennent d'apercevoir un objet volant non-identifié Moi aux commandes, le ciel j'arpente phares éteins Joint allumé, plein d'plans d'vol en cas d'pépin Cache-cache dans les nuages, avec d'la weed ou du hasch' Mélangé avec de la vodka, du gin ou du Jack You might also like A très vive allure je me déplace, j'suis técla 3D la fusion, pire que des glaces Energie propre je concentre au bout d'un finger Rayon d'la mort, plus bref et dangereux qu'un Stinger Pas là dans l'espace, aérien, terrestre je suis Tu t'sens pas d'taille, un conseil t'as intérêt de fuir Je largue un flow visqueux, j'éteins les gars qui s'enflamment Ce genre là quand j'rappe, ne parlent pas mais se sentent mal Je patrouille dans un ovni du genre du B3-1 Tu crois m'apercevoir, mais nan j'suis déjà bien loin Avion supersonique boom, trop vif pour Ces gros MC's pourris, dans l'Jeu en tourisme-tour Planant furtivement à 272,7270 pieds Des gars pas sur ceux sur ce diez, nan Mais viennent d'apercevoir un objet volant non-identifié Moi aux commandes, le ciel j'arpente phares éteins Joint allumé, plein d'plans d'vol en cas d'pépin Cache-cache dans les nuages, avec d'la weed ou du hasch' Mélangé avec de la vodka, du gin ou du Jack</t>
+          <t>Planant furtivement à 272,7270 pieds Des gars pas sur ceux sur ce diez, nan Mais viennent d'apercevoir un objet volant non-identifié Moi aux commandes, un frêle humanoïde beige Les yeux rouges limite fermés, du mal à l'discerner Aquarium dans la cabine, air épais, comprimé Comme celui d'une carabine, dans ton nez des effets Étrange, mystique, j'crache la fumée entre mes dents Du bonheur pour toujours, pas comme Fifty A disposition un arsenal futuristique grandissant Inch'Allah gro-né, invincible je serai dans 10 ans Pour l'instant, je mentraîne avec une gravité Multipliée par 6, je roule ma weed dans yeuf ou gare-ci Garçon j'arrive car-fons, dans les nuages je zig-zag Slalome izi, à la Zinédine Zidane J'évite les obstacles, je flotte grâce à l'aloe Trop de flow, j'avance sur le beat dans un black canoë Si je tombe je nage, je marrêterai pas, tenace El Freeze le Canadair, d'en-haut vient la menace, yes Planant furtivement à 272,7270 pieds Des gars pas sur ceux sur ce diez, nan Mais viennent d'apercevoir un objet volant non-identifié Moi aux commandes, le ciel j'arpente phares éteins Joint allumé, plein d'plans d'vol en cas d'pépin Cache-cache dans les nuages, avec d'la weed ou du hasch' Mélangé avec de la vodka, du gin ou du Jack A très vive allure je me déplace, j'suis técla 3D la fusion, pire que des glaces Energie propre je concentre au bout d'un finger Rayon d'la mort, plus bref et dangereux qu'un Stinger Pas là dans l'espace, aérien, terrestre je suis Tu t'sens pas d'taille, un conseil t'as intérêt de fuir Je largue un flow visqueux, j'éteins les gars qui s'enflamment Ce genre là quand j'rappe, ne parlent pas mais se sentent mal Je patrouille dans un ovni du genre du B3-1 Tu crois m'apercevoir, mais nan j'suis déjà bien loin Avion supersonique boom, trop vif pour Ces gros MC's pourris, dans l'Jeu en tourisme-tour Planant furtivement à 272,7270 pieds Des gars pas sur ceux sur ce diez, nan Mais viennent d'apercevoir un objet volant non-identifié Moi aux commandes, le ciel j'arpente phares éteins Joint allumé, plein d'plans d'vol en cas d'pépin Cache-cache dans les nuages, avec d'la weed ou du hasch' Mélangé avec de la vodka, du gin ou du Jack</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5708,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Ekip, ekip han 667 han 'Sirus, Corleone Goddamn, Pakistan Sheesh Le shit du Pakistan Han, ekip, ekip, ekip MMS OVG c'est le cartel Pétasse, comme Ralo connecté avec le cartel Goddamn Cross ces négros, blesse à distance Han, transige comme James Harden sur le parquet Swish On les fouette de manière annuelle goddamn, j'ai v'là d'manuels, négro, j'ai les réflexes à Manuel Ekip Leaner de ouf, j'pilote sans stress, j'buss, j'développe l'automatique ou la manuelle Sku J'découpe comme si j'm'appelais Kratos Goddamn, pétasse, j'peux plus rapper gratos Nan On investit dans les matos, so Nolik j'arrive tatoué comme les Vatos Goddamn So Despo fuck les maudits Tous les jours, comme des nazis dans les Audi Sku, sku Fuck twelve, libérez Cdai, RondoNumbaNine, Kodak, Jackboy, Bobby et Roddy Ekip J'mets des petits et des grands ponts Ftt ftt, si c'est pas la balle, c'est les crampons pétasse, pétasse J'veux du biff comme si j'm'appelais David ou Benjamin Goddamn, tu m'connais négro so les MM's bleu, j'veux les blue benjamin Là pour les milliards avec Adi', faut qu'j'sorte de Gucci avec des caddies caddies Bad Bitch elle m'appelle Daddy, j'la regarde j'me dit Goddamn gaddy goddamn J'veux la Maybach pas le BMX sku, c'est des insectes, on est le TMX Killu' à vie, goddamn j'crois qu'j'ai les mêmes problèmes psychiatriques que DMX goddamn Tête de mort sur le drapeau, fonscar avec mes pirates sur le bateau Fuck une part, fuck les miettes, j'ai la recette pour faire le gâteau pétasse Chen Zen, 'Sirus Jack, envoie des ogives comme le Pakistan goddamn Ahk shit, pop shit, twelve can't stop shit négro so le Pakistan You might also like Frappe fort comme la kalash de Kadyrov Osirus Ramzan Fonscar au max dans l'usine à Maxam Que des louds étrangères dans le sang, nan pas d'xan Goddamn, guérilla sort le treillis Sont dans le lack, dans le V.I OV négro, de la carte ça les raient dans le pays, fuck un 'llu comme Neil Goddamn, y'a les louds fluos Pas de concu' à la gare du haut Sirus', Freeze, cons' la bio Killu' shit, on utilise les armes du haut Han, science comme Keanu Reeves man OV jamais en pénurie de gaz Monte le tarot, crée des pénuries de gaz Là pour or, diamant et rubis black Consomme, deviens fou OV mon négro ça vient d'kush So le 'Sacce les feinte tous Négro ça taff pour avoir le gain d'Bush J'ai des techniques de loge de Autriche j'ai les poches, de lopi Bientôt, j'remplis mes poches de money Leaner, j'ai besoin d'un orthophoniste Importe tout, pilule rare Fume avec nous, check ton cardio N'importe où, on n'y est pas Fumée épaisse, on éparpille haut Corleone, Sirus' Jack Fume des RAW's, tire du track Sort des porcs, fils de lâche Sort des prods, du livre du sale so Freeze c'est s J'fais ton stage de bheu, j'fais 10 séances On s'allume depuis, on a plus la morphologie d'un gosse ou d'un lycéen Ton plan est lackant, j'sip la faille Nouveau t-shirt sur le site, la paye Cuisine la merde, négro vide la caille si on coupe la 'teille</t>
+          <t>Ekip, ekip han 667 han 'Sirus, Corleone Goddamn, Pakistan Sheesh Le shit du Pakistan Han, ekip, ekip, ekip MMS OVG c'est le cartel Pétasse, comme Ralo connecté avec le cartel Goddamn Cross ces négros, blesse à distance Han, transige comme James Harden sur le parquet Swish On les fouette de manière annuelle goddamn, j'ai v'là d'manuels, négro, j'ai les réflexes à Manuel Ekip Leaner de ouf, j'pilote sans stress, j'buss, j'développe l'automatique ou la manuelle Sku J'découpe comme si j'm'appelais Kratos Goddamn, pétasse, j'peux plus rapper gratos Nan On investit dans les matos, so Nolik j'arrive tatoué comme les Vatos Goddamn So Despo fuck les maudits Tous les jours, comme des nazis dans les Audi Sku, sku Fuck twelve, libérez Cdai, RondoNumbaNine, Kodak, Jackboy, Bobby et Roddy Ekip J'mets des petits et des grands ponts Ftt ftt, si c'est pas la balle, c'est les crampons pétasse, pétasse J'veux du biff comme si j'm'appelais David ou Benjamin Goddamn, tu m'connais négro so les MM's bleu, j'veux les blue benjamin Là pour les milliards avec Adi', faut qu'j'sorte de Gucci avec des caddies caddies Bad Bitch elle m'appelle Daddy, j'la regarde j'me dit Goddamn gaddy goddamn J'veux la Maybach pas le BMX sku, c'est des insectes, on est le TMX Killu' à vie, goddamn j'crois qu'j'ai les mêmes problèmes psychiatriques que DMX goddamn Tête de mort sur le drapeau, fonscar avec mes pirates sur le bateau Fuck une part, fuck les miettes, j'ai la recette pour faire le gâteau pétasse Chen Zen, 'Sirus Jack, envoie des ogives comme le Pakistan goddamn Ahk shit, pop shit, twelve can't stop shit négro so le Pakistan Frappe fort comme la kalash de Kadyrov Osirus Ramzan Fonscar au max dans l'usine à Maxam Que des louds étrangères dans le sang, nan pas d'xan Goddamn, guérilla sort le treillis Sont dans le lack, dans le V.I OV négro, de la carte ça les raient dans le pays, fuck un 'llu comme Neil Goddamn, y'a les louds fluos Pas de concu' à la gare du haut Sirus', Freeze, cons' la bio Killu' shit, on utilise les armes du haut Han, science comme Keanu Reeves man OV jamais en pénurie de gaz Monte le tarot, crée des pénuries de gaz Là pour or, diamant et rubis black Consomme, deviens fou OV mon négro ça vient d'kush So le 'Sacce les feinte tous Négro ça taff pour avoir le gain d'Bush J'ai des techniques de loge de Autriche j'ai les poches, de lopi Bientôt, j'remplis mes poches de money Leaner, j'ai besoin d'un orthophoniste Importe tout, pilule rare Fume avec nous, check ton cardio N'importe où, on n'y est pas Fumée épaisse, on éparpille haut Corleone, Sirus' Jack Fume des RAW's, tire du track Sort des porcs, fils de lâche Sort des prods, du livre du sale so Freeze c'est s J'fais ton stage de bheu, j'fais 10 séances On s'allume depuis, on a plus la morphologie d'un gosse ou d'un lycéen Ton plan est lackant, j'sip la faille Nouveau t-shirt sur le site, la paye Cuisine la merde, négro vide la caille si on coupe la 'teille</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5725,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Squa', squa' MMS, LDO, NRM, 667 2015, 2020, 2100, 2200 Ah-ah, salope Chen Zen, Chavez, Berlusconi, gaddamn Han, hey, yo J'arrive asiatique yeuz bridés quand j'découpe, salope Supra-nègre, vient découvre, salope Flow comme océan, eux comme des gouttes, salope Ah-ah, fft fft Sur la prod, place des passements d'jambes On veut l'cash en banque, faire des placements, prendre la tête Mettre des soupapes pour qu'le classement change sku So Dad PPDA, le succès c'est pas mon but, demande à mes officiers Au micro kick langage codifié Freeze Corleone, quand j'pars j'veux être momifié gaddamn J'organise mes négros, dessine les plans comme Sir Alex Ferguson Ça m'fait mal quand j'vois mes négros s'faire assassiner par des blancs comme à Ferguson gaddamn Gaddamn, j'arrive au micro précis comme un colonel Graille MC's comme spaghettis bolognaise ah-ah J'veux la fédération, nique un chronomètre gaddamn Salope, on vient pas si tu paies pas comptant nan, nan Le Diable veut nos âmes mais y a pas d'montant Inch'Allah ça va pop dans pas longtemps You might also like Inch'Allah ça va pop dans pas longtemps très prochainement, salope, ah-ah Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Inch'Allah ça va pop dans pas longtemps très bientôt sur vos écrans, pétasse Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant On vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant, goddamn Pyramide inversée, pour finir en Mercedes Toi t'as les lèvres gercées Quoi, tu donnes ton boule, tes fesses ton boule, tes fesses Berlusconizi, j'fais ça trop easily j'fais ça trop easily J'ai du temps à perdre pour mes négros Y a qu'pour toi bitch, que j'suis busy, bitch Nous compare au Wu-Tang, vous tous à des moutons Rap Game, une bande de cons 667 pour faire sauter cette merde A tout juste eu à appuyer sur des boutons Dans nos bails de business Dans nos bails de squa' shit only Ouais négro, ouais rien qu'tu tonnes-mi Tartines le gras d'MC sur l'pain d'mie Les taro comme Kamasutra Négro y en a marre d'tous ces travs Sip boisson purple-betterave Négro j'te jure tous les jours faut cette monnaie, c'est grave On m'a dit Norsacce Fous cette merde en douce dans l'sachet Audio dope shit dans l'paquet Avant l'Apocalypse on se devait d'attaquer, squa' Inch'Allah ça va pop dans pas longtemps très prochainement, salope, ah-ah Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Inch'Allah ça va pop dans pas longtemps très bientôt sur vos écrans, pétasse Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant On vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant, goddamn Découpe le mic, code 1.8.7 Cuisine C4, j'fais des milk-shakes Aiguise ma lame, même si elle cane Ça pop, c'est pourquoi t'es miché Battit l'empire comme Disney Brique par brique, fuck un diable, so Brinsley On m'a dit Slim, check vite-fait C'est beaucoup trop tchaga dans c'Game, négro pimp-les Cons' le gazon comme un pompier Plusieurs d'ces rappeurs sont fakes Ils font qu'pomper, les laisse pas t'tromper MMS, 267, la foudre va tomber Troisième il, tu peux pas m'tromper Même si, négro négro, j'suis trop fonsdé T'es qu'à propos d'la fame, nous qu'à propos d'cons', blé On est toujours au-dessus du Diable bitch, fuck la Bête Continue d'voler trop d'thunes Maintenant faut les braquer, fuck la dette Fuck le 666 Tous les diamants viennent d'Afrique So Freeze, jeune dieu noir en élévation Ancestrales sont les tactiques Inch'Allah ça va pop dans pas longtemps très prochainement, salope, ah-ah Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Inch'Allah ça va pop dans pas longtemps très bientôt sur tes écrans, pétasse Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant On vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant, goddamn</t>
+          <t>Squa', squa' MMS, LDO, NRM, 667 2015, 2020, 2100, 2200 Ah-ah, salope Chen Zen, Chavez, Berlusconi, gaddamn Han, hey, yo J'arrive asiatique yeuz bridés quand j'découpe, salope Supra-nègre, vient découvre, salope Flow comme océan, eux comme des gouttes, salope Ah-ah, fft fft Sur la prod, place des passements d'jambes On veut l'cash en banque, faire des placements, prendre la tête Mettre des soupapes pour qu'le classement change sku So Dad PPDA, le succès c'est pas mon but, demande à mes officiers Au micro kick langage codifié Freeze Corleone, quand j'pars j'veux être momifié gaddamn J'organise mes négros, dessine les plans comme Sir Alex Ferguson Ça m'fait mal quand j'vois mes négros s'faire assassiner par des blancs comme à Ferguson gaddamn Gaddamn, j'arrive au micro précis comme un colonel Graille MC's comme spaghettis bolognaise ah-ah J'veux la fédération, nique un chronomètre gaddamn Salope, on vient pas si tu paies pas comptant nan, nan Le Diable veut nos âmes mais y a pas d'montant Inch'Allah ça va pop dans pas longtemps Inch'Allah ça va pop dans pas longtemps très prochainement, salope, ah-ah Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Inch'Allah ça va pop dans pas longtemps très bientôt sur vos écrans, pétasse Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant On vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant, goddamn Pyramide inversée, pour finir en Mercedes Toi t'as les lèvres gercées Quoi, tu donnes ton boule, tes fesses ton boule, tes fesses Berlusconizi, j'fais ça trop easily j'fais ça trop easily J'ai du temps à perdre pour mes négros Y a qu'pour toi bitch, que j'suis busy, bitch Nous compare au Wu-Tang, vous tous à des moutons Rap Game, une bande de cons 667 pour faire sauter cette merde A tout juste eu à appuyer sur des boutons Dans nos bails de business Dans nos bails de squa' shit only Ouais négro, ouais rien qu'tu tonnes-mi Tartines le gras d'MC sur l'pain d'mie Les taro comme Kamasutra Négro y en a marre d'tous ces travs Sip boisson purple-betterave Négro j'te jure tous les jours faut cette monnaie, c'est grave On m'a dit Norsacce Fous cette merde en douce dans l'sachet Audio dope shit dans l'paquet Avant l'Apocalypse on se devait d'attaquer, squa' Inch'Allah ça va pop dans pas longtemps très prochainement, salope, ah-ah Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Inch'Allah ça va pop dans pas longtemps très bientôt sur vos écrans, pétasse Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant On vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant, goddamn Découpe le mic, code 1.8.7 Cuisine C4, j'fais des milk-shakes Aiguise ma lame, même si elle cane Ça pop, c'est pourquoi t'es miché Battit l'empire comme Disney Brique par brique, fuck un diable, so Brinsley On m'a dit Slim, check vite-fait C'est beaucoup trop tchaga dans c'Game, négro pimp-les Cons' le gazon comme un pompier Plusieurs d'ces rappeurs sont fakes Ils font qu'pomper, les laisse pas t'tromper MMS, 267, la foudre va tomber Troisième il, tu peux pas m'tromper Même si, négro négro, j'suis trop fonsdé T'es qu'à propos d'la fame, nous qu'à propos d'cons', blé On est toujours au-dessus du Diable bitch, fuck la Bête Continue d'voler trop d'thunes Maintenant faut les braquer, fuck la dette Fuck le 666 Tous les diamants viennent d'Afrique So Freeze, jeune dieu noir en élévation Ancestrales sont les tactiques Inch'Allah ça va pop dans pas longtemps très prochainement, salope, ah-ah Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Inch'Allah ça va pop dans pas longtemps très bientôt sur tes écrans, pétasse Goddamn, le Diable veut nos âmes mais y a pas d'montant Salope, on vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant On vient pas si tu paies pas comptant Salope, on vient pas si tu paies pas comptant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant Le Diable veut nos âmes mais y a pas d'montant, goddamn</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5742,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Chen Zen, Odeux, Berlusconi On sort la nuit quand les loups-garous crient Supra-nègre Han, trois yeuz' plissés Goddamn Décalcification glande pinéale Chaque jour Dans cette merde depuis le lycée Chen Zen sur la feuille comme un grand cinéaste Faya dans la cuisine, blunt usine Roule XXX et grosses pute de La Havane Viseur holographique sur le fusil Darth Chen débarque, masque à gaz, nique le carnaval Goddamn, Corleone au mic comme 6 nègres Découpe du 7 au 6 mai Chaque jour MMS, néo-nègres, nouveaux spécimens Haha, vision slow-mo' comme si j'avais sip 6 litres Lean Chaque jour nique le Dajjâl, négro nique Iblis Pour l'instant on t'donne du crack gratuit comme Lil Bibby 22 piges négro, sur la prod posé comme un vétéran Sans stress Négro, arme de destruction massive coffrée comme à Téhéran Goddamn Sans aucun strezess négro, sur l'micro enchaîne les katas cleans 2014-2015, dans l'rap négro, 667 cataclysme On sort la nuit quand les loups-garous crient Nos substances tuent la chronique On vit la nuit, aucun vis-à-vis En lévitation est la pyramide Vogue sur le Black Pearl, on fait dans la piraterie On vit la nuit, aucun vis-à-vis Négro on vit la nuit, on vit la nuit Négro on vit la nuit, on vit la nuit You might also like J'pilote vaisseau-mère Sku, dans l'espace mes nègres comatent Han, han Sous lean, codéineprometh' Oui, substance blanche comme Escobar Négro Comme Dalsim entre les lignes opère, 667 pas démocrate Nan, nan So Booba, dans les coups bas reste honnête Sku, sku, secte néo-nègre M.M.S klan, quand on arrive, pleine lune, sang sur canines Vampire life, communiste comme Staline Yes, j'chill à Dakar, fuck Paris Pas d'fagget dans ma patrie J'me pavane en Palace dans l'palace, squad Ice cream comme Radric, 15 dans l'vito, squad car Gas dans l'zippo, Black Jack light ça, dans l'bando nuage d'Afghane Rap Game rempli d'katoys, Pattaya Triangle inversé, fuck une mascotte Défouraille l'asphalte avec une Aston Sku, sku Future luxure noire comme Batman MMS kartel, vibes de bad man J'ai des shooters et mes shooters lackent pas On sort la nuit quand les loups-garous crient Nos substances tuent la chronique On vit la nuit, aucun vis-à-vis En lévitation est la pyramide Vogue sur le Black Pearl, on fait dans la piraterie On vit la nuit, aucun vis-à-vis Négro on vit la nuit, on vit la nuit Négro on vit la nuit, on vit la nuit Brigade noire dans les rues papy, sensy, Jacky puis paki Notre présence annonce ta crise Défaite sur défaite ce qu'on inflige Squa' Cash, 'tasses, puff puff pass, gro-né passe, taffe Bâtard il est déjà trop tard, gro-né, squa' squa' Mentalité gros d'un légionnaire Comme un commissionnaire, j'les prends en missionnaire Sku QG central dans le fond des mers Nan nan j'suis pas véner', dans l'Rap je nique des mères Tous mes négros sont au garde-à-vous Bitchass gros-né, gare à vous Négro t'es tout mou, j'veux faire des boubous En Afrique fils, comme un marabou Sont tous ridicules, j'fais mes bails, j'trace avant l'crépuscule 667 le groupuscule, d'ici l'ennemi parait bien minuscule Eh yo, Berlusconi fils, OV Squad, sans stress ni litige Assassin microphonique, dès qu'on arrête le rap On prend tous au moins 10 piges On sort la nuit quand les loups-garous crient Nos substances tuent la chronique On vit la nuit, aucun vis-à-vis En lévitation est la pyramide Vogue sur le Black Pearl, on fait dans la piraterie On vit la nuit, aucun vis-à-vis Négro on vit la nuit, on vit la nuit Négro on vit la nuit, on vit la nuit1</t>
+          <t>Chen Zen, Odeux, Berlusconi On sort la nuit quand les loups-garous crient Supra-nègre Han, trois yeuz' plissés Goddamn Décalcification glande pinéale Chaque jour Dans cette merde depuis le lycée Chen Zen sur la feuille comme un grand cinéaste Faya dans la cuisine, blunt usine Roule XXX et grosses pute de La Havane Viseur holographique sur le fusil Darth Chen débarque, masque à gaz, nique le carnaval Goddamn, Corleone au mic comme 6 nègres Découpe du 7 au 6 mai Chaque jour MMS, néo-nègres, nouveaux spécimens Haha, vision slow-mo' comme si j'avais sip 6 litres Lean Chaque jour nique le Dajjâl, négro nique Iblis Pour l'instant on t'donne du crack gratuit comme Lil Bibby 22 piges négro, sur la prod posé comme un vétéran Sans stress Négro, arme de destruction massive coffrée comme à Téhéran Goddamn Sans aucun strezess négro, sur l'micro enchaîne les katas cleans 2014-2015, dans l'rap négro, 667 cataclysme On sort la nuit quand les loups-garous crient Nos substances tuent la chronique On vit la nuit, aucun vis-à-vis En lévitation est la pyramide Vogue sur le Black Pearl, on fait dans la piraterie On vit la nuit, aucun vis-à-vis Négro on vit la nuit, on vit la nuit Négro on vit la nuit, on vit la nuit J'pilote vaisseau-mère Sku, dans l'espace mes nègres comatent Han, han Sous lean, codéineprometh' Oui, substance blanche comme Escobar Négro Comme Dalsim entre les lignes opère, 667 pas démocrate Nan, nan So Booba, dans les coups bas reste honnête Sku, sku, secte néo-nègre M.M.S klan, quand on arrive, pleine lune, sang sur canines Vampire life, communiste comme Staline Yes, j'chill à Dakar, fuck Paris Pas d'fagget dans ma patrie J'me pavane en Palace dans l'palace, squad Ice cream comme Radric, 15 dans l'vito, squad car Gas dans l'zippo, Black Jack light ça, dans l'bando nuage d'Afghane Rap Game rempli d'katoys, Pattaya Triangle inversé, fuck une mascotte Défouraille l'asphalte avec une Aston Sku, sku Future luxure noire comme Batman MMS kartel, vibes de bad man J'ai des shooters et mes shooters lackent pas On sort la nuit quand les loups-garous crient Nos substances tuent la chronique On vit la nuit, aucun vis-à-vis En lévitation est la pyramide Vogue sur le Black Pearl, on fait dans la piraterie On vit la nuit, aucun vis-à-vis Négro on vit la nuit, on vit la nuit Négro on vit la nuit, on vit la nuit Brigade noire dans les rues papy, sensy, Jacky puis paki Notre présence annonce ta crise Défaite sur défaite ce qu'on inflige Squa' Cash, 'tasses, puff puff pass, gro-né passe, taffe Bâtard il est déjà trop tard, gro-né, squa' squa' Mentalité gros d'un légionnaire Comme un commissionnaire, j'les prends en missionnaire Sku QG central dans le fond des mers Nan nan j'suis pas véner', dans l'Rap je nique des mères Tous mes négros sont au garde-à-vous Bitchass gros-né, gare à vous Négro t'es tout mou, j'veux faire des boubous En Afrique fils, comme un marabou Sont tous ridicules, j'fais mes bails, j'trace avant l'crépuscule 667 le groupuscule, d'ici l'ennemi parait bien minuscule Eh yo, Berlusconi fils, OV Squad, sans stress ni litige Assassin microphonique, dès qu'on arrête le rap On prend tous au moins 10 piges On sort la nuit quand les loups-garous crient Nos substances tuent la chronique On vit la nuit, aucun vis-à-vis En lévitation est la pyramide Vogue sur le Black Pearl, on fait dans la piraterie On vit la nuit, aucun vis-à-vis Négro on vit la nuit, on vit la nuit Négro on vit la nuit, on vit la nuit1</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5759,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Chmurda Palo je sve kao Vavilon i Troja Crna je slika, crna je boja Lica su prepuna krvavog znoja Sledimo korene nasih heroja Palo je sve kao Vavilon i Troja Crna je slika, crna je boja Lica su prepuna krvavog znoja Sledimo korene nasih heroja Do kraja se boris - Ahil i Hektor Sa ledja ti uzimas u ruke Vektor Serijski killer - Hanibal Lektor Sakupljac sam kostiju k'o Bone Collector Mlad ali moan Tutankamon Gadjamo bombom nuklearnom Buleravom setamo smekerski Ko da zdravimo sa Sulejmanom You might also likeGuras u prazno kao Sizif Bolji sam zna, nemoj da pizdi Stara je skola, novi je biznis Shvatices nekad, a sad gledaj Disney Gradimo snove ko piramid Dusmane gledam, nema ih nigd Sikter, 10 stepeni je rihter K1hot je Mister, al nije hipster Lecim vas sve, Joseph Lister Udaram pa vracam kao teniser Polivam, palim, vatra kanister Demonskih sranja sve vie i vie Te demonske maske posto im klie Svi bi ko Lucii, a smrt im sve blie Al tada je gotovo sve im se brie Al ne mogu to da shvate shvate Loe stvari ih prate prate Alo ne zovi me brate Brr Bratski odnos k'o Ragnar i Floki Ljudi su zmije k'o da su Loki Who want's to be king? Bicu ja broski Svaka mi je u ubojita - Vijenac Gorski Mafia Boss Don Corleone Ring dodaj mi telefone Francuski flow Freeze Corleone Kakav je plan, profesore Manje ste cak i od Andore Shotout za bracu iz Crne Gore Otkrili drill bravo Kristifore Brutalno bodenje iste fore A usmrtim gun-om kao Gavrilo Pitaju svi, sta mi je bilo? Ne dam na svoje, to ti se zbilo !</t>
+          <t>Chmurda Palo je sve kao Vavilon i Troja Crna je slika, crna je boja Lica su prepuna krvavog znoja Sledimo korene nasih heroja Palo je sve kao Vavilon i Troja Crna je slika, crna je boja Lica su prepuna krvavog znoja Sledimo korene nasih heroja Do kraja se boris - Ahil i Hektor Sa ledja ti uzimas u ruke Vektor Serijski killer - Hanibal Lektor Sakupljac sam kostiju k'o Bone Collector Mlad ali moan Tutankamon Gadjamo bombom nuklearnom Buleravom setamo smekerski Ko da zdravimo sa Sulejmanom Guras u prazno kao Sizif Bolji sam zna, nemoj da pizdi Stara je skola, novi je biznis Shvatices nekad, a sad gledaj Disney Gradimo snove ko piramid Dusmane gledam, nema ih nigd Sikter, 10 stepeni je rihter K1hot je Mister, al nije hipster Lecim vas sve, Joseph Lister Udaram pa vracam kao teniser Polivam, palim, vatra kanister Demonskih sranja sve vie i vie Te demonske maske posto im klie Svi bi ko Lucii, a smrt im sve blie Al tada je gotovo sve im se brie Al ne mogu to da shvate shvate Loe stvari ih prate prate Alo ne zovi me brate Brr Bratski odnos k'o Ragnar i Floki Ljudi su zmije k'o da su Loki Who want's to be king? Bicu ja broski Svaka mi je u ubojita - Vijenac Gorski Mafia Boss Don Corleone Ring dodaj mi telefone Francuski flow Freeze Corleone Kakav je plan, profesore Manje ste cak i od Andore Shotout za bracu iz Crne Gore Otkrili drill bravo Kristifore Brutalno bodenje iste fore A usmrtim gun-om kao Gavrilo Pitaju svi, sta mi je bilo? Ne dam na svoje, to ti se zbilo !</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5776,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Salut mon vieux, tu m'reconnais ? Animaux de pâturage, mouton Mais pourquoi tu pars, tu rages ? Bouffon Octogone avec un autochtone Punchline nucléaire, j'appuie sur le bouton dong Escobar, rimes paradoxales On va t'éteindre avec le feu, petit Billy The Kid On va faire du sale, poses la bouteille à table On allume les filles avec le liquide hein Tony Bamboula pour la première mi-temps Tony Toujours la même question mais comment font t'ils pour se serrer la ceinture et baisser leurs frocs en même temps ? Zone de Guerre Je t'envois vers Dieu en TGV sans correspondances Quand j'voudrais ton avis, j'glisserai une pièce dans ta bouche de balance Mon rap sur écoute comme The Wire Sheesh, ça vient d'en bas mais je vise ailleurs Sheesh Ils influencent la masse comme du bétail, comme le Real de Madrid, ça passe ou ça casse Yeah Contre-attaque, ils veulent être les premiers, fait pas semblant de voir la violence sous ton nez Pah RDC, c'est nous les premiers, diamant certifié, baggy bas billet Billet, billet J'ai pas encore fini d'te chicote, doumba, qui t'a dit de t'r'habiller ? Qui? ZDG pas d'accord de paix, ça va péter, grenade dégoupillée Zazatan On a les outils, donc on mitraille les villas de Paname à Marseille, c'est des racailles c'est des racailles On t'offre une échelle t'es pas de taille, j'ai 2-3 kilos d'pondu, j'fais pas d'détail Pas de détail You might also like Arme, violence, drogue, sexe, crime Viens dans la zone de guerre V'là d'veuves, la misère s'exprime Bienvenue dans la zone de guerre Quand les balles pleuvent, les frappes n'épargnent aucun civil J'appelle ça une zone de guerre Esco', Kozi, Poison, Despo, Freeze Le pe-ra une zone de guerre Bienvenue dans la Zone de Guerre Pah, pah, j'regarde le jeu j'vois beaucoup de clones de Beaucoup Freeze Corleone Ah-ah, négro, j'ai autant de flow qu'il y'a d'eau de mer Han J'vais pas à Ibiza Nan, pense qu'à des rimes bizarres Ouais 7,65, petit est noir comme Kirikou Fa-fa, j'suis comme Buffon, négro, t'es comme Sirigu Ah-ah Pour les prods j'ai la soude caustique Han, sous lin comme si j'viens d'Dallas ou d'Austin Lin Chaque instru' j'fais des méfaits Chh, chh, fuck les maires, les préfets Chaque passe, chaque frappe, j'mets des effets Han 6.6.7 aka Real Ekip, là pour les dollars et les réal Cash Étranger en Service Service, négro, ça vient d'Afrique, ça vient pas d'Châtelet-Les Halles Arme, violence, drogue, sexe, crime Viens dans la zone de guerre V'là d'veuves, la misère s'exprime Bienvenue dans la zone de guerre Quand les balles pleuvent, les frappes n'épargnent aucun civil J'appelle ça une zone de guerre Esco', Kozi, Poison, Despo, Freeze Le pe-ra une zone de guerre Rapper comme nous, tu ne fais pas le poids Remettre les choses à plat, tarpé de Chinoise Il fallait qu'on le fasse et ca fait des mois qu'on en parle qu'avec toi si t'as de l'oseille comme les Kinoises Ils font semblant de perdre la mémoire Ils savent très bien qu'on va tous les boires Je reste scred comme une bombe à la foire Je touche des grosses mamelles Toi, tu touches l'eau du bois what else Y a des arrivages de kilos de cess' la J'ai le contact Alain Chabat, Nagui et de Claire Chazal petit XXX Du sexe en famille, qu'on lave le linge sale Mec de tess' et Zaïrois on leur fournit que du sale Frère je vous aime, frère j'ai la haine On dirait que je vis Le combat et toi signe le devis Bonne bombonne d'inspi, je crame les gris-gris Pas le compte de Bon Jovis, le ciel gère les vues En mode ça va bon je vis ah, on dirait que je ris ah Les deux mains sur les genoux, tête basse, on dirait que je prie Dis moi je t'aime, je te dirais je t'adore Parles bien, les maisons aussi sont toutes dehors Arme, violence, drogue, sexe, crime Viens dans la zone de guerre V'là d'veuves, la misère s'exprime Bienvenue dans la zone de guerre Quand les balles pleuvent, les frappes n'épargnent aucun civil J'appelle ça une zone de guerre Esco', Kozi, Poison, Despo, Freeze Le pe-ra une zone de guerre Arme, violence, drogue, sexe, crime Viens dans la zone de guerre V'là d'veuves, la misère s'exprime Bienvenue dans la zone de guerre Quand les balles pleuvent, les frappes n'épargnent aucun civil J'appelle ça une zone de guerre Esco', Kozi, Poison, Despo, Freeze Le pe-ra une zone de guerre</t>
+          <t>Salut mon vieux, tu m'reconnais ? Animaux de pâturage, mouton Mais pourquoi tu pars, tu rages ? Bouffon Octogone avec un autochtone Punchline nucléaire, j'appuie sur le bouton dong Escobar, rimes paradoxales On va t'éteindre avec le feu, petit Billy The Kid On va faire du sale, poses la bouteille à table On allume les filles avec le liquide hein Tony Bamboula pour la première mi-temps Tony Toujours la même question mais comment font t'ils pour se serrer la ceinture et baisser leurs frocs en même temps ? Zone de Guerre Je t'envois vers Dieu en TGV sans correspondances Quand j'voudrais ton avis, j'glisserai une pièce dans ta bouche de balance Mon rap sur écoute comme The Wire Sheesh, ça vient d'en bas mais je vise ailleurs Sheesh Ils influencent la masse comme du bétail, comme le Real de Madrid, ça passe ou ça casse Yeah Contre-attaque, ils veulent être les premiers, fait pas semblant de voir la violence sous ton nez Pah RDC, c'est nous les premiers, diamant certifié, baggy bas billet Billet, billet J'ai pas encore fini d'te chicote, doumba, qui t'a dit de t'r'habiller ? Qui? ZDG pas d'accord de paix, ça va péter, grenade dégoupillée Zazatan On a les outils, donc on mitraille les villas de Paname à Marseille, c'est des racailles c'est des racailles On t'offre une échelle t'es pas de taille, j'ai 2-3 kilos d'pondu, j'fais pas d'détail Pas de détail Arme, violence, drogue, sexe, crime Viens dans la zone de guerre V'là d'veuves, la misère s'exprime Bienvenue dans la zone de guerre Quand les balles pleuvent, les frappes n'épargnent aucun civil J'appelle ça une zone de guerre Esco', Kozi, Poison, Despo, Freeze Le pe-ra une zone de guerre Bienvenue dans la Zone de Guerre Pah, pah, j'regarde le jeu j'vois beaucoup de clones de Beaucoup Freeze Corleone Ah-ah, négro, j'ai autant de flow qu'il y'a d'eau de mer Han J'vais pas à Ibiza Nan, pense qu'à des rimes bizarres Ouais 7,65, petit est noir comme Kirikou Fa-fa, j'suis comme Buffon, négro, t'es comme Sirigu Ah-ah Pour les prods j'ai la soude caustique Han, sous lin comme si j'viens d'Dallas ou d'Austin Lin Chaque instru' j'fais des méfaits Chh, chh, fuck les maires, les préfets Chaque passe, chaque frappe, j'mets des effets Han 6.6.7 aka Real Ekip, là pour les dollars et les réal Cash Étranger en Service Service, négro, ça vient d'Afrique, ça vient pas d'Châtelet-Les Halles Arme, violence, drogue, sexe, crime Viens dans la zone de guerre V'là d'veuves, la misère s'exprime Bienvenue dans la zone de guerre Quand les balles pleuvent, les frappes n'épargnent aucun civil J'appelle ça une zone de guerre Esco', Kozi, Poison, Despo, Freeze Le pe-ra une zone de guerre Rapper comme nous, tu ne fais pas le poids Remettre les choses à plat, tarpé de Chinoise Il fallait qu'on le fasse et ca fait des mois qu'on en parle qu'avec toi si t'as de l'oseille comme les Kinoises Ils font semblant de perdre la mémoire Ils savent très bien qu'on va tous les boires Je reste scred comme une bombe à la foire Je touche des grosses mamelles Toi, tu touches l'eau du bois what else Y a des arrivages de kilos de cess' la J'ai le contact Alain Chabat, Nagui et de Claire Chazal petit XXX Du sexe en famille, qu'on lave le linge sale Mec de tess' et Zaïrois on leur fournit que du sale Frère je vous aime, frère j'ai la haine On dirait que je vis Le combat et toi signe le devis Bonne bombonne d'inspi, je crame les gris-gris Pas le compte de Bon Jovis, le ciel gère les vues En mode ça va bon je vis ah, on dirait que je ris ah Les deux mains sur les genoux, tête basse, on dirait que je prie Dis moi je t'aime, je te dirais je t'adore Parles bien, les maisons aussi sont toutes dehors Arme, violence, drogue, sexe, crime Viens dans la zone de guerre V'là d'veuves, la misère s'exprime Bienvenue dans la zone de guerre Quand les balles pleuvent, les frappes n'épargnent aucun civil J'appelle ça une zone de guerre Esco', Kozi, Poison, Despo, Freeze Le pe-ra une zone de guerre Arme, violence, drogue, sexe, crime Viens dans la zone de guerre V'là d'veuves, la misère s'exprime Bienvenue dans la zone de guerre Quand les balles pleuvent, les frappes n'épargnent aucun civil J'appelle ça une zone de guerre Esco', Kozi, Poison, Despo, Freeze Le pe-ra une zone de guerre</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5793,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>So le Flem La mort peut v'nir de deux côtés, j'suis ambidextre, à droite ou à gauche, tout dépend de la fenêtre Pour bien pouvoir viser, j'ai pas besoin d'lunettes, 6.6.7, Humble Records vient pour les finir Corleone, T2O pour les punir, ils nous voyaient pas v'nir, maintenant, veulent la tenir Les choix déterminent qui tu veux être, si tu démarres un traître, c'est nous qui viendront t'finir Y a pas pire sensation que la paresse, Lucifer me caresse, j'fais tout dans la malice J'fais rentrer six zéros dans la mallette, c'est pas pour la mala, un projet à finir Belek à l'échec, à vouloir monter trop vite, tu peux peut-être glisser L'auto est gée-char, Dezo qui bombarde, il s'arrête même pas pour pisser J'reconnais les bâtards, les haineux, les envieux, même avec les yeux plissés Soit c'est toi, soit c'est moi, soit la tête, soit les jambes, en vérité, c'est Dieu seul qui sait Ça y est, les règles ont changé, so , mes opps se sentent en danger Comme Chen Zen, toujours avec mon équipe Ekip, à part la santé, faut du liquide Mon instinct d'survie me pousse à devenir sélectif 'tif Un et un font deux, comprends ça pour faire plus de fric De fric Les faire, c'est trop facile, c'est comme si j'rappais avec Freeze C'est comme si j'shootais avec précision, pour la paix, faut des munitions J'démarre, j'm'arrête plus, les mains sur le volant comme si j'étais Hamilton Commence par un kil' pour faire une tonne, pense à coffrer dix fraises et ça f'ra une bonne J'pense pas à m'arrêter, j'pense qu'à encaisser, faire du bif, du chiffre et des sommes On a choisi de prendre des gros risques, tu peux pas tomber plus bas quand t'es au sol You might also like Han, on sort de sous la terre Han, sang d'instrumental sous la paire Ouais 20-21, y a des sous à faire Cash, so 2Key pour la paye, faut être prêt pour la guerre So RQ, so les Quatre Chemins Ekip, formule secrète sur les parchemins Eh J'marche avec Dieu, fuck un GPS, j'sais où j'vais même si j'connais pas l'chemin Han On les r'père de loin comme du faux Gucci Eh, Corleone en défense comme Bonucci Ekip Allume des sacs de loud, des gros bouts d'shit, ils vont disparaître comme Fabio Lucci Eh La meilleure défense, c'est l'attaque Han, rimes interdites, j'ai des A4 On pull up à quatre dans des A4 Skrt, sip' des toseina et des makas Lin Diamants certifiés à Anvers Ice, ça va péter comme à Anvers Pah 6.6.7, la pyramide est à l'envers Ekip, j'aime bien quand ça parle en violet, ça parle en vert Cash Chen Zen avec 2Key Ekip, j'mélange Gelato avec Cookie J'arrive rital avec Lucky, comme un mécano avec l'outil, ekip Pah J'démarre, j'm'arrête plus, les mains sur le volant comme si j'étais Hamilton Commence par un kil' pour faire une tonne, pense à coffrer dix fraises et ça f'ra une bonne J'pense pas à m'arrêter, j'pense qu'à encaisser, faire du bif, du chiffre et des sommes On a choisi de prendre des gros risques, tu peux pas tomber plus bas quand t'es au sol Mon instinct d'survie me pousse à devenir sélectif 'tif Un et un font deux, comprends ça pour faire plus de fric De fric Les faire, c'est trop facile, c'est comme si j'rappais avec Freeze C'est comme si j'shootais avec précision, pour la paix, faut des munitions Corleone, T2O, pour les punir Punir, punir Chen Zen avec 2Key 6.6.7, Humble Records vient pour les finir Finir, finir Allume des sacs de loud, des gros bouts d'shit, ils vont disparaître comme Fabio Lucci1</t>
+          <t>So le Flem La mort peut v'nir de deux côtés, j'suis ambidextre, à droite ou à gauche, tout dépend de la fenêtre Pour bien pouvoir viser, j'ai pas besoin d'lunettes, 6.6.7, Humble Records vient pour les finir Corleone, T2O pour les punir, ils nous voyaient pas v'nir, maintenant, veulent la tenir Les choix déterminent qui tu veux être, si tu démarres un traître, c'est nous qui viendront t'finir Y a pas pire sensation que la paresse, Lucifer me caresse, j'fais tout dans la malice J'fais rentrer six zéros dans la mallette, c'est pas pour la mala, un projet à finir Belek à l'échec, à vouloir monter trop vite, tu peux peut-être glisser L'auto est gée-char, Dezo qui bombarde, il s'arrête même pas pour pisser J'reconnais les bâtards, les haineux, les envieux, même avec les yeux plissés Soit c'est toi, soit c'est moi, soit la tête, soit les jambes, en vérité, c'est Dieu seul qui sait Ça y est, les règles ont changé, so , mes opps se sentent en danger Comme Chen Zen, toujours avec mon équipe Ekip, à part la santé, faut du liquide Mon instinct d'survie me pousse à devenir sélectif 'tif Un et un font deux, comprends ça pour faire plus de fric De fric Les faire, c'est trop facile, c'est comme si j'rappais avec Freeze C'est comme si j'shootais avec précision, pour la paix, faut des munitions J'démarre, j'm'arrête plus, les mains sur le volant comme si j'étais Hamilton Commence par un kil' pour faire une tonne, pense à coffrer dix fraises et ça f'ra une bonne J'pense pas à m'arrêter, j'pense qu'à encaisser, faire du bif, du chiffre et des sommes On a choisi de prendre des gros risques, tu peux pas tomber plus bas quand t'es au sol Han, on sort de sous la terre Han, sang d'instrumental sous la paire Ouais 20-21, y a des sous à faire Cash, so 2Key pour la paye, faut être prêt pour la guerre So RQ, so les Quatre Chemins Ekip, formule secrète sur les parchemins Eh J'marche avec Dieu, fuck un GPS, j'sais où j'vais même si j'connais pas l'chemin Han On les r'père de loin comme du faux Gucci Eh, Corleone en défense comme Bonucci Ekip Allume des sacs de loud, des gros bouts d'shit, ils vont disparaître comme Fabio Lucci Eh La meilleure défense, c'est l'attaque Han, rimes interdites, j'ai des A4 On pull up à quatre dans des A4 Skrt, sip' des toseina et des makas Lin Diamants certifiés à Anvers Ice, ça va péter comme à Anvers Pah 6.6.7, la pyramide est à l'envers Ekip, j'aime bien quand ça parle en violet, ça parle en vert Cash Chen Zen avec 2Key Ekip, j'mélange Gelato avec Cookie J'arrive rital avec Lucky, comme un mécano avec l'outil, ekip Pah J'démarre, j'm'arrête plus, les mains sur le volant comme si j'étais Hamilton Commence par un kil' pour faire une tonne, pense à coffrer dix fraises et ça f'ra une bonne J'pense pas à m'arrêter, j'pense qu'à encaisser, faire du bif, du chiffre et des sommes On a choisi de prendre des gros risques, tu peux pas tomber plus bas quand t'es au sol Mon instinct d'survie me pousse à devenir sélectif 'tif Un et un font deux, comprends ça pour faire plus de fric De fric Les faire, c'est trop facile, c'est comme si j'rappais avec Freeze C'est comme si j'shootais avec précision, pour la paix, faut des munitions Corleone, T2O, pour les punir Punir, punir Chen Zen avec 2Key 6.6.7, Humble Records vient pour les finir Finir, finir Allume des sacs de loud, des gros bouts d'shit, ils vont disparaître comme Fabio Lucci1</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5810,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Mafia Wouh Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, hey Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'rali, 'ralie, 'ralie Prends l'pouvoir par forc, gro-né, so Ghost Tariq Han, jamais parler aux porcs chh Freeze Corleone, négro, j'cons' plus de kérosène qu'à l'aéroport han Plus-plus que quatre G deux, backwood, hash' et beuh, y'a 4g2 Chen Zen, Slim C, K.K.G 2, prends chaque point de A1 jusqu'à G2 ekip, ekip On n'aime pas les bleus, gros stick, beuh, shit, y a les deux Tout p'tits yeux, j'en ai cramé qu'deux Font les sobres, c'est v'là les gues-sh' gues-sh' La tête qui tourne, c'est l'THC Juice dans mon calice calice Fais en sorte qu'les rêves nous foutent au fond du trou comme Alice comme Alice Le cash dans les valises cash, pour l'escouade, j'mets les balises ekip Tireur d'élite, Marksman paw, j'arrive raciste comme Eric Cartman eh, eh Dérape, on t'graille comme Pac-Man piou, lowkey quand j'joue mes cartes, man Sac à dos comme si j'étais à la fac, man, cash et MD dans l'cartable cartable, dans l'sac à dos You might also like Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han, wouh Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, nan Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'ralie, 'ralie, 'ralie Prends l'pouvoir par force, gro-né, so Ghost Tariq Démons peuvent pas nous ter-j', on est rentrés seul-tout seul-tout Gro-né, les murs sont durs fermés comme Double élimination juste avec un seul coup paw On les soupape avec un seul nion Ils veulent rapper, ils ont pas fait un seul cours eh Nan, ils ont pas fait de classe, petite école, ils ont pas assez de classe Au commissariat, c'est jamais d'blase, j'suis avec ta bitch, ça s'voit qu'elle aime grave les glaces Plane dans cette pute, y a assez de place, on n'arrête pas avant qu'il y est assez d'flaques Site internet, jamais d'Fnac, Slim, Freeze, c'est comme kick avec clap ekip Rolly dans l'pét', pas d'panique panique J'ai mélangé quatre cali Fuck un Lang Jack, Jacques Attali fuck Marathon, pas d'rallye non Killu à fond, pas d'grammy Faut vingt-quatre millions par famille Nan, deux-cents quarante millions chaque famille, Mafia Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han, wouh Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, nan Tous mes proches sur les rails, j'parle pas d'coke , Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'ralie, 'ralie, 'ralie Prends l'pouvoir par force, gro-né, so Ghost Tariq Site internet, jamais d'Fnac, Slim, Freeze, c'est comme kick avec clap Nan, ils ont pas fait de classe, petite école, ils ont pas assez de classe classe</t>
+          <t>Mafia Wouh Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, hey Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'rali, 'ralie, 'ralie Prends l'pouvoir par forc, gro-né, so Ghost Tariq Han, jamais parler aux porcs chh Freeze Corleone, négro, j'cons' plus de kérosène qu'à l'aéroport han Plus-plus que quatre G deux, backwood, hash' et beuh, y'a 4g2 Chen Zen, Slim C, K.K.G 2, prends chaque point de A1 jusqu'à G2 ekip, ekip On n'aime pas les bleus, gros stick, beuh, shit, y a les deux Tout p'tits yeux, j'en ai cramé qu'deux Font les sobres, c'est v'là les gues-sh' gues-sh' La tête qui tourne, c'est l'THC Juice dans mon calice calice Fais en sorte qu'les rêves nous foutent au fond du trou comme Alice comme Alice Le cash dans les valises cash, pour l'escouade, j'mets les balises ekip Tireur d'élite, Marksman paw, j'arrive raciste comme Eric Cartman eh, eh Dérape, on t'graille comme Pac-Man piou, lowkey quand j'joue mes cartes, man Sac à dos comme si j'étais à la fac, man, cash et MD dans l'cartable cartable, dans l'sac à dos Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han, wouh Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, nan Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'ralie, 'ralie, 'ralie Prends l'pouvoir par force, gro-né, so Ghost Tariq Démons peuvent pas nous ter-j', on est rentrés seul-tout seul-tout Gro-né, les murs sont durs fermés comme Double élimination juste avec un seul coup paw On les soupape avec un seul nion Ils veulent rapper, ils ont pas fait un seul cours eh Nan, ils ont pas fait de classe, petite école, ils ont pas assez de classe Au commissariat, c'est jamais d'blase, j'suis avec ta bitch, ça s'voit qu'elle aime grave les glaces Plane dans cette pute, y a assez de place, on n'arrête pas avant qu'il y est assez d'flaques Site internet, jamais d'Fnac, Slim, Freeze, c'est comme kick avec clap ekip Rolly dans l'pét', pas d'panique panique J'ai mélangé quatre cali Fuck un Lang Jack, Jacques Attali fuck Marathon, pas d'rallye non Killu à fond, pas d'grammy Faut vingt-quatre millions par famille Nan, deux-cents quarante millions chaque famille, Mafia Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han, wouh Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, nan Tous mes proches sur les rails, j'parle pas d'coke , Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'ralie, 'ralie, 'ralie Prends l'pouvoir par force, gro-né, so Ghost Tariq Site internet, jamais d'Fnac, Slim, Freeze, c'est comme kick avec clap Nan, ils ont pas fait de classe, petite école, ils ont pas assez de classe classe</t>
         </is>
       </c>
     </row>
@@ -5835,7 +5827,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Raciste comme Donald Sterling J'veux pas d'ces négros dans ma team Jorr-Jorrdee comme un Sex Pistols J'la tire même avec la bite molle Trois-Rivières swaggy, XXX j'ai l'juice J'ai du lourd, y'a d'l'herbe pour ta 'tasse Pour l'amour, la famille et le gent-ar J'fuck ta 'tasse, gros c'est Gandalf Issa conduit comme un taximan Peut pas dire qu'il conduit mal J'me sens comme au patinage On glisse sur Paris comme des jeunes Qataris Dou-dou-douche dans la bouche, couche pas sur ma kush Louche pas sur son boule, tu verras des en double Akimbo, El Chapo, el jefe fait les dineros Co-co-coc' pour c'PD qui réclame ma peau J'ressemble à Frank White Bicraveur , met des grosses tartes Disent qu'on ressemble à 3 Carambars Molly dans limo' han, limo' sur ris-Pa Babtou louche comme Riff Raff Négro dans mon squad squad GHB, Corleone, Berlusconi Épidémie flow, fléau kaki, C'est la guerre sur l'cro-mi Publie nos merdes en indé' négro, comme le GFG En Ligue 1, 667, débarque comme le PSG PSG, PSG, 667 comme le PSG Publie nos merdes en indé' négro, comme le GFG 667, en Ligue 1 comme le PSG 2014 négro, débarque comme le PSG You might also like Future luxure comme Lil Reese, faya dans une petite Jaguar 667 klan, escadron d'dix ninjas noirs Impose l'NRM comme Kim Jong-il Sur les prods j'fais du wing chun, fils Roule crack vert dans Swisher Sweets Maya Paris sur les t-shirts, bitch On agit dans l'obscurité Infiltre Gotham, négro LDO Pussy négro, les aigles ne volent pas avec les pigeons Normal si on ken tes gos Au micro mitraille comme des M16 667 Radio, négro nique Skyrock Si on y va c'est pour brûler cette merde So Alpha 5.20, Sy Iron Dans cette merde pour le cash money Sous lean-weed comme Bryan Williams Nique le Dajjâl, nique Baphomet SPLF, seulement pour la familia Pyramide inversée dans l'ciel Entité unique dans l'ciel Négro débite, so Kemi, kartel kémite Pouvoir noir émis d'Egypte ancienne GHB, Corleone, Berlusconi Épidémie flow, fléau kaki, C'est la guerre sur l'cro-mi Publie nos merdes en indé' négro, comme le GFG En Ligue 1, 667, débarque comme le PSG PSG, PSG, 667 comme le PSG Publie nos merdes en indé' négro, comme le GFG 667, en Ligue 1 comme le PSG 2014 négro, débarque comme le PSG 667 en 2-4-7 Prend les thunes, prend les liasses et les laisse en hess Trouve-moi dans le club, et la secte en guest Fumant tes MC's comme des 100s Berlusconi fiston, paré pour les biftons Pas de maquillage sur nous 2014, c'est la Ligue des Ombres Va falloir serrer les fesses sinon ça va chier mou Hydroponique par kilos, pas d'gramme Poésie kalash, peut ber-tom pour port d'arme J'téma cette meute de singes dans l'arbre Et j'vois à leur regard qu'ils n'ont même plus d'âme J'arrive en parachute, rien à foutre d'une pute Tu sais que ma clique va droit au but, négro Révise tes plans, d'après les nôtres Elle était bien prévisible ta chute, négro J'arrive plus frais qu'un négro d'Alaska J'sais pas qui t'es gro-né, fais pas la star J'veux ambiancer et nourrir mes lascars Comme Alpha 5.20 vivre et mourir à Dakar Bitchass négro, t'es pris d'tesse-vi Ça kick sale, ta bitch apprécie Le flow est kaki et précis Hammersmith city, gros j'survole ta city GHB, Corleone, Berlusconi Épidémie flow, fléau kaki, C'est la guerre sur l'cro-mi Publie nos merdes en indé' négro, comme le GFG En Ligue 1, 667, débarque comme le PSG PSG, PSG, 667 comme le PSG Publie nos merdes en indé' négro, comme le GFG 667, en Ligue 1 comme le PSG 2014 négro, débarque comme le PSG</t>
+          <t>Raciste comme Donald Sterling J'veux pas d'ces négros dans ma team Jorr-Jorrdee comme un Sex Pistols J'la tire même avec la bite molle Trois-Rivières swaggy, XXX j'ai l'juice J'ai du lourd, y'a d'l'herbe pour ta 'tasse Pour l'amour, la famille et le gent-ar J'fuck ta 'tasse, gros c'est Gandalf Issa conduit comme un taximan Peut pas dire qu'il conduit mal J'me sens comme au patinage On glisse sur Paris comme des jeunes Qataris Dou-dou-douche dans la bouche, couche pas sur ma kush Louche pas sur son boule, tu verras des en double Akimbo, El Chapo, el jefe fait les dineros Co-co-coc' pour c'PD qui réclame ma peau J'ressemble à Frank White Bicraveur , met des grosses tartes Disent qu'on ressemble à 3 Carambars Molly dans limo' han, limo' sur ris-Pa Babtou louche comme Riff Raff Négro dans mon squad squad GHB, Corleone, Berlusconi Épidémie flow, fléau kaki, C'est la guerre sur l'cro-mi Publie nos merdes en indé' négro, comme le GFG En Ligue 1, 667, débarque comme le PSG PSG, PSG, 667 comme le PSG Publie nos merdes en indé' négro, comme le GFG 667, en Ligue 1 comme le PSG 2014 négro, débarque comme le PSG Future luxure comme Lil Reese, faya dans une petite Jaguar 667 klan, escadron d'dix ninjas noirs Impose l'NRM comme Kim Jong-il Sur les prods j'fais du wing chun, fils Roule crack vert dans Swisher Sweets Maya Paris sur les t-shirts, bitch On agit dans l'obscurité Infiltre Gotham, négro LDO Pussy négro, les aigles ne volent pas avec les pigeons Normal si on ken tes gos Au micro mitraille comme des M16 667 Radio, négro nique Skyrock Si on y va c'est pour brûler cette merde So Alpha 5.20, Sy Iron Dans cette merde pour le cash money Sous lean-weed comme Bryan Williams Nique le Dajjâl, nique Baphomet SPLF, seulement pour la familia Pyramide inversée dans l'ciel Entité unique dans l'ciel Négro débite, so Kemi, kartel kémite Pouvoir noir émis d'Egypte ancienne GHB, Corleone, Berlusconi Épidémie flow, fléau kaki, C'est la guerre sur l'cro-mi Publie nos merdes en indé' négro, comme le GFG En Ligue 1, 667, débarque comme le PSG PSG, PSG, 667 comme le PSG Publie nos merdes en indé' négro, comme le GFG 667, en Ligue 1 comme le PSG 2014 négro, débarque comme le PSG 667 en 2-4-7 Prend les thunes, prend les liasses et les laisse en hess Trouve-moi dans le club, et la secte en guest Fumant tes MC's comme des 100s Berlusconi fiston, paré pour les biftons Pas de maquillage sur nous 2014, c'est la Ligue des Ombres Va falloir serrer les fesses sinon ça va chier mou Hydroponique par kilos, pas d'gramme Poésie kalash, peut ber-tom pour port d'arme J'téma cette meute de singes dans l'arbre Et j'vois à leur regard qu'ils n'ont même plus d'âme J'arrive en parachute, rien à foutre d'une pute Tu sais que ma clique va droit au but, négro Révise tes plans, d'après les nôtres Elle était bien prévisible ta chute, négro J'arrive plus frais qu'un négro d'Alaska J'sais pas qui t'es gro-né, fais pas la star J'veux ambiancer et nourrir mes lascars Comme Alpha 5.20 vivre et mourir à Dakar Bitchass négro, t'es pris d'tesse-vi Ça kick sale, ta bitch apprécie Le flow est kaki et précis Hammersmith city, gros j'survole ta city GHB, Corleone, Berlusconi Épidémie flow, fléau kaki, C'est la guerre sur l'cro-mi Publie nos merdes en indé' négro, comme le GFG En Ligue 1, 667, débarque comme le PSG PSG, PSG, 667 comme le PSG Publie nos merdes en indé' négro, comme le GFG 667, en Ligue 1 comme le PSG 2014 négro, débarque comme le PSG</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5844,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Chen Zen Sazamyzy ekip, ekip, ekip, ekip Pas dans la course pas dans l'razallyzy sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin Chen Zen, Sazamyzy, pas dans la course pas dans l'razallyzy sku Avertisseur comme Azalizi Han, teh du Maroc, loud de Casalyzy Sur la prod, kicke comme Eddy Eddy, dans leurs cauchemars comme Freddy Goddamn So Sobek le Zini, maîtrise les techniques de judo comme Teddy Goddamn Soldat d'Dieu comme Saza' ekip, Ligue des ombres comme Ras'al Ras'al Lin rose épais, négro, comme Maaza Maaza, lin, lin, lin Prof Chen, j'mélange les molécules han, que j'cherche la concurrence, j'ai du mal à les voir comme des molécules Maison d'disques, j'explose la porte avec le plastique plastique J'fume d'la loud de fou, tu peux l'entendre à travers le plastique Loud, loud So Alejandro, fuck Tony Tony, j'ai le Wing Chun comme Donnie Donnie Fuck tous ces négros, négro, j'les aime pas comme Tommy Nan, nan Aquarium dans le Trafic, j'écoute Traffic à fond dans le trafic sku Pétasse, trouve-moi toujours plus haut dans le graphique Han J'aime quand le cash sort Sash, devant la cage, le flair de Rashford Rashford J'fume la loud, j'fume le hasch fort Faut qu'j'canne avec le compte en banque de Ashford, ekip You might also like Chen Zen, Sazamyzy ekip, ekip, ekip, ekip Pas dans la course pas dans l'razallyzy sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin Chen Zen, Sazamyzy ekip, ekip, ekip, ekip Pas dans la course pas dans l' sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin On n'a pas l'temps pour les pistons, tous les réseaux, nous infiltrons Jconnais les florins, les litrons, le stress, les 3.5.7 Python Comme la mafia calabraise, on a jeté nos curs à la braise Et depuis le premier traître, jai que de la ppe-fra première presse Le Diable se régale, Algérie, Sénégal ekip, ekip Jarrache ton arbre généalogique comme si cest légal 47-AK, bombarde sur la droite comme Saka La confiance, ça empêche pas d'porter un pare-balles sous la parka Brr, brr Jsuis précis comme Erling Haaland Ici, petit, surveille ta langue, 6.6.7, mentalité allemande GB Paris, cur est tchétchène, DZ, jai zéro défaites Reste silencieux, cest le code, lami, fais le contraire et on tôte la vie On est là pour faire le papier, jfais confiance quà lacier Roulette russe, qui veut parier ? Jen ai six dans l'barillet Barillet Sors quand la ville sendort, en famille pour le Christian Dior Dior Le fils qui est à peine daccord, donc on est speed comme Aventador Chen Zen, Sazamyzy ekip, ekip, ekip, ekip Pas dans la course pas dans l'razallyzy sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin Chen Zen, Sazamyzy ekip, ekip, ekip, ekip Pas dans la course, pas dans l'razallyzy sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin</t>
+          <t>Chen Zen Sazamyzy ekip, ekip, ekip, ekip Pas dans la course pas dans l'razallyzy sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin Chen Zen, Sazamyzy, pas dans la course pas dans l'razallyzy sku Avertisseur comme Azalizi Han, teh du Maroc, loud de Casalyzy Sur la prod, kicke comme Eddy Eddy, dans leurs cauchemars comme Freddy Goddamn So Sobek le Zini, maîtrise les techniques de judo comme Teddy Goddamn Soldat d'Dieu comme Saza' ekip, Ligue des ombres comme Ras'al Ras'al Lin rose épais, négro, comme Maaza Maaza, lin, lin, lin Prof Chen, j'mélange les molécules han, que j'cherche la concurrence, j'ai du mal à les voir comme des molécules Maison d'disques, j'explose la porte avec le plastique plastique J'fume d'la loud de fou, tu peux l'entendre à travers le plastique Loud, loud So Alejandro, fuck Tony Tony, j'ai le Wing Chun comme Donnie Donnie Fuck tous ces négros, négro, j'les aime pas comme Tommy Nan, nan Aquarium dans le Trafic, j'écoute Traffic à fond dans le trafic sku Pétasse, trouve-moi toujours plus haut dans le graphique Han J'aime quand le cash sort Sash, devant la cage, le flair de Rashford Rashford J'fume la loud, j'fume le hasch fort Faut qu'j'canne avec le compte en banque de Ashford, ekip Chen Zen, Sazamyzy ekip, ekip, ekip, ekip Pas dans la course pas dans l'razallyzy sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin Chen Zen, Sazamyzy ekip, ekip, ekip, ekip Pas dans la course pas dans l' sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin On n'a pas l'temps pour les pistons, tous les réseaux, nous infiltrons Jconnais les florins, les litrons, le stress, les 3.5.7 Python Comme la mafia calabraise, on a jeté nos curs à la braise Et depuis le premier traître, jai que de la ppe-fra première presse Le Diable se régale, Algérie, Sénégal ekip, ekip Jarrache ton arbre généalogique comme si cest légal 47-AK, bombarde sur la droite comme Saka La confiance, ça empêche pas d'porter un pare-balles sous la parka Brr, brr Jsuis précis comme Erling Haaland Ici, petit, surveille ta langue, 6.6.7, mentalité allemande GB Paris, cur est tchétchène, DZ, jai zéro défaites Reste silencieux, cest le code, lami, fais le contraire et on tôte la vie On est là pour faire le papier, jfais confiance quà lacier Roulette russe, qui veut parier ? Jen ai six dans l'barillet Barillet Sors quand la ville sendort, en famille pour le Christian Dior Dior Le fils qui est à peine daccord, donc on est speed comme Aventador Chen Zen, Sazamyzy ekip, ekip, ekip, ekip Pas dans la course pas dans l'razallyzy sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin Chen Zen, Sazamyzy ekip, ekip, ekip, ekip Pas dans la course, pas dans l'razallyzy sku, sku, sku, sku Avertisseur comme Azalizy han, sku, sku, sku Teh du Maroc, loud de Casalyzy lin, lin, lin, lin</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5861,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>J'veux renifler d'la poudre, j'veux m'allumer ! J'veux allumer ces putes nègres ! 32 j'ai... j'veux accidenter des Bentley ! Qu'est-c'qui s'passe, putain merde ?! Han, yeah, Double-F G Han, appelle-moi El Freeze Yep, pute nègre A cheval sur mon flow, j'cavale sur l'instru Faire mal au mic, je crois que j'maîtrise bien c'truc Intrus avec mes slims dans l'Game Magicien au microphone, MC appelle-moi Criss Angel A 10 ans j'ai découvert le hip-hop Mes premiers clips m'ont piqué les yeux comme du petit Dop Depuis boy, je kick, salement maintenant I2SA, ne teste pas si tu veux pas dembêtement A un autre niveau je suis, que dans l'contenu téléchargeable J'm'arrêterai pas avant d'entendre mon blaze sortir d'Clair Chazal Punaise, gro-né on m'appelle Freezer, le rappeur des tunnels A.k.a le Punisher pour putes nègres J'veux renifler d'la poudre, j'veux m'allumer ! J'veux allumer ces putes nègres ! 32 j'ai... j'veux accidenter des Bentley ! Qu'est-c'qui s'passe, putain merde ?! Genre d'écriture, fantastique comme Jules Verne Qu'est-c'qui s'putain d'passe ? J'reviens pour allumer ces putes nègres Flow-lave sélectionné en arme principale On m'incite grave à l'utiliser dès qu'on m'lance un beat, là C'est mort d'avance, très fort, j'avance à grands pas, mec Le Rap français dans l'obscurité, j'suis un des rares lampadaires Han, rimes au napalm et flow de lance-flamme Je n'cesse de prendre du niveau pendant qu'la plupart des gens stagnent Comme un Pokémon, j'attends le niveau d'l'évolution Pendant qu'tous les rappeurs essayent de trouver une solution Au problème Freezer, fumeur et tiseur, faya dès 10 heures Dis-leur qu'ils peuvent pas échapper à mon viseur Domingo à la prod, Freeze l'envoie à la morgue Sur beat, de la main droite j'envoie Orbe de la mort Donc tu perds, super man, dans la cabine je balance des pures merdes Appelle-moi El Freeze, le Punisher pour putes nègres You might also like Ouais, fuck les putes nègres Mais moi franchement, rien à foutre, je sais qu'ta meuf me kiffe Yes, Double-F G, han J'en ai rien à foutre, je sais qu'ta meuf me kiffe A la recherche de la daillance, pute nègre Double-F Gang, on roule nos pét' de M-Jane Freezi F bitch, viens que j't'explique Je maîtrise les techniques au M.ic C'est formidable, c'est formidable. Ouais c'était qu'ça, tu sais hein Jean. J'ai vu ça c'est... ah tiens mon Dieu c'est superbe, tu sais. Tu sais c'est d'l'imagination, hein</t>
+          <t>J'veux renifler d'la poudre, j'veux m'allumer ! J'veux allumer ces putes nègres ! 32 j'ai... j'veux accidenter des Bentley ! Qu'est-c'qui s'passe, putain merde ?! Han, yeah, Double-F G Han, appelle-moi El Freeze Yep, pute nègre A cheval sur mon flow, j'cavale sur l'instru Faire mal au mic, je crois que j'maîtrise bien c'truc Intrus avec mes slims dans l'Game Magicien au microphone, MC appelle-moi Criss Angel A 10 ans j'ai découvert le hip-hop Mes premiers clips m'ont piqué les yeux comme du petit Dop Depuis boy, je kick, salement maintenant I2SA, ne teste pas si tu veux pas dembêtement A un autre niveau je suis, que dans l'contenu téléchargeable J'm'arrêterai pas avant d'entendre mon blaze sortir d'Clair Chazal Punaise, gro-né on m'appelle Freezer, le rappeur des tunnels A.k.a le Punisher pour putes nègres J'veux renifler d'la poudre, j'veux m'allumer ! J'veux allumer ces putes nègres ! 32 j'ai... j'veux accidenter des Bentley ! Qu'est-c'qui s'passe, putain merde ?! Genre d'écriture, fantastique comme Jules Verne Qu'est-c'qui s'putain d'passe ? J'reviens pour allumer ces putes nègres Flow-lave sélectionné en arme principale On m'incite grave à l'utiliser dès qu'on m'lance un beat, là C'est mort d'avance, très fort, j'avance à grands pas, mec Le Rap français dans l'obscurité, j'suis un des rares lampadaires Han, rimes au napalm et flow de lance-flamme Je n'cesse de prendre du niveau pendant qu'la plupart des gens stagnent Comme un Pokémon, j'attends le niveau d'l'évolution Pendant qu'tous les rappeurs essayent de trouver une solution Au problème Freezer, fumeur et tiseur, faya dès 10 heures Dis-leur qu'ils peuvent pas échapper à mon viseur Domingo à la prod, Freeze l'envoie à la morgue Sur beat, de la main droite j'envoie Orbe de la mort Donc tu perds, super man, dans la cabine je balance des pures merdes Appelle-moi El Freeze, le Punisher pour putes nègres Ouais, fuck les putes nègres Mais moi franchement, rien à foutre, je sais qu'ta meuf me kiffe Yes, Double-F G, han J'en ai rien à foutre, je sais qu'ta meuf me kiffe A la recherche de la daillance, pute nègre Double-F Gang, on roule nos pét' de M-Jane Freezi F bitch, viens que j't'explique Je maîtrise les techniques au M.ic C'est formidable, c'est formidable. Ouais c'était qu'ça, tu sais hein Jean. J'ai vu ça c'est... ah tiens mon Dieu c'est superbe, tu sais. Tu sais c'est d'l'imagination, hein</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5878,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Let's just get this rumor out the way What was it again? A Goonies orgy? A train? That's a loco motive locomotive to initiate in a gang What a shame I guess it is my fault, I was in groupie mode Lookin' at myself like, Minaj record? You a 'Stupid Ho' I lowkey started the rumor myself, and now it's killin' me I mean, I was just speakin' my dream somniloquy Playin' my role, until thots thoughts allowed on stage soliloquy Somethin' 'bout that night's a blur...but I try to reminisce it I just remember Mack Mel from the back like, Hold it down by the chicken! Now it's Glu', stuck in the corner Lookin' like his great-grandfather the Colonel, finger-lickin' And Ryda, Ryda...Ramone Oh, Ryda Ramone rider'll moan like a bitch without even hittin' Okay, it's startin' to come back I thought I liked bitches until I see three C3 straps, a big butt, and had to reconsider Yo, she just different I'll fuck your best friend, your Ace, I mean Amin And Qu' been Quban knew he need to bring a bulletproof vest for me Kept makin' Holmzie mad - you remember when Holmzie was a Goonie briefly? By sayin' B. Dot the God like, Homie, you give Muslim vibes. Why not try Holmzie Allah? That's hypocritical at that Plus he like, If you fuck up my name again, consider you smacked. Then it hit me...the star's missin' We really need a Raivon to get this party in the right swing I mean, I need that coma. Clap! A good night's sleep I need us to get back Twork to work like the right-wing So fuck Drugz! I bet you looked up my ex to see ecstasy how I party, Drugz drugs I'm dope, so up against a pothead, we'd weed see you hardly, Drugz drugs You get stepped on, you battle too much, you not floatin' It will not work, you not Twork Last-minute, you both rushin' Switches and Casey worried 'bout preppin' Prep and some dope substance? Nigga...are y'all tryin' to sway the audience? You my nigga, but I'll sever Sevah ties On this true day of Sabbath, my nigga, I'll sabotage I got a cause Yo, she G... And we be wantin' to call you by your government I think that's what you should use if Yusef Drugz not it You not potent, we not quotin' Drugz impression LLAMAS bla- Nigga, pick a new move! Plus I wanna see the man behind the Llama you need a New Groove So to call you Drugz does you no justice I mean, yes, you get cooked, bagged, but you never control substance So fuck you, fuck Goonies as a crew! Cheeko, Beasley, Smack, for 100K, I will fuck y'all too Get to know me Rap You might also like As far as struggles only women can relate to, you a true victim You told us stories how you been in relationships wit' all these abusive and cool niggas Bitch, one of them stories broke my heart so bad, I wanted to whoop the nigga ass and...I ain't even have nothin' to do wit' it 'Cause honestly, all that domestic violence shit, I'm really not cool wit' it I do not believe in puttin' your hands on women... chk-chk I shoot bitches! I'm too livid I heard y'all talkin' Now watch me string little Yo-Yo along And after I drop a round on this trick, y'all gon' say I dog-walked her! This what y'all offer!? Food! I knew, and y'all knew And you ain't even think you was gonna win Just wanted to be wit' 13 niggas in a small room Why they even CALL you!? You lookin' at a savage in the flesh Wit' a large tool, FNJs clappin' through her vest That bitch was far too, but the grip make it accurate at its best All them nudes you sent...you should be used to attachments on the TECs texts! I'm vexed! Your mother next! Front steps, knock-knock, Your daughter started drama. Cut her head off and bring it on stage, like This is your mama like Wil Valderrama! She a goner, I bring a beam Everybody wanna be on The Gun Show - chk-chk - 'til they in deleted scenes! You ain't seasoned, queen! You gotta rap wit' me, so just call it quits 'Cause you don't got one quotable that don't involve a dick I'm tired of this, and y'all let her slide wit' this She says some basic sexual shit, and you act like this bitch cooking Shock value 'cause she talks about sucking a fuckin' dick? That's what I don't get fully That shit only shocking to niggas who don't get pussy! I swear to God I'm so tired of hearing 'bout this bitch cookie! You talk about it every five seconds, it makes it less arousin' This snub ain't nothin' to mess around wit' .38 in her box let's see what's so Special 'bout it! Go to the trunk, pull the weapon out it I'm 'bout to slide, y'all! This 100-round drum? My God! I just throw it in the machine and press a button like a Tide Pod! Side bar! The nerve of A bitch who only fucks stars, but baby daddy's a battle rapper we never heard of Y'all done hyped this bird up! This shit unsuitable! How that pussy top-tier, but your baby daddy in the Crucible!? This is unusual! What the fuck is this? You said you had a thousand dollars for anybody that can prove you mess wit' a lower-tier battle rapper I want my money, bitch Gang I said, this for Kim You know, a Queen Bee wit' somethin' Big B.I.G. Poppa Drugz Nah, you got me pissed, dirty P.O. visit for this smoke, I will risk bars for Drugz drugs I lost too much to addiction, so now I'm hard on Drugz drugs And if I'm prone to it, and the arm come out, it's not in vain vein It left scars for Drugz drugs I don't fuck wit' you niggas...or none of you bitches either They my daughters, while he Wally my first son like Mrs. Cleaver I didn't know what gun to rap about, and I tried to Google some shit Fuck - I just know I need a body on the ground when I chalk it out Gun Show? I hope so, 'cause ain't shit inside your rounds Your friends gas you, B Truth say you won...in your head like Cassidy Yusef, if you know what's best for you, better use what you rap for me Or you gon' be a pretty little lightskin casualty I'm talkin' 'bout you need to actually be... dumping on stage, son...Lyt's kin mentality Nigga, I'm ready to fight - grapple me I will put facts wit' cap like Snapple tea A thot thought assemble words together to line a square come Scrabble me Bad trap queen I'm not gon' hold you, Drugz drugs Nancy Reagan said it best Just Say No to Drugz drugs. I dare D.A.R.E. you - try and school me, it's gon' be over, Drugz drugs I mean, you may be a Blood, but Negro...you ain't no thug I seen you gettin' cracked in the street so bad... Geechi Gotti proved trees was a gateway, Drugz drugs See, that's my way 'Cause I see a QP on the highway would leave a bitch behind bars in a tri-state That's true addiction We want that old Yoshi! No New Edition! What? Now how that sound? Mad 'cause I was Humpin' Around? If it's My Prerogative, why Every Step I Take they try knockin' me down!? This got me down! Fuckin' tournament! FUCKIN' MONEY! THIS GOT ME DOWN! I lost EVERYONE in my life because of Drugz drugs like Bobby Brown! So yes, I'mma stay showin' my ass onstage for shine Only right I mention Mooning you Nigga, I cannot believe what you let that old man do to you I mean, I got my own V.A. stripes Wig on the street without the Adidas suit I'm just kinda...pissed the Gun Show didn't have to bust a move 'Cause when your homie had to come to your rescue, I almost lost my cool The bigger .9 I expected, but to pull out...was somethin' I ain't know Twork can do Now get me lit! Yo, she Yoshi gon' be eatin' some sh- This ain't a game, bitch! And if it is, it's 'cause you feelin' this Yoshi flame spit Get to know me It gets dark Get dark Shout out to my mammy, she live in Miami She told you Don't stop poppin' that pussy, right? As a father, instantly I was so lost Now let's fast-forward four bars She got pregnant wit' you at 15, and had she aborted you, her folks woulda offered her her own car So she took on the struggles of being a teen mom, and then you bragged to us about how she was so strong And this what you choose to do with the life she gave you? You so wrong I bet you she knew what she knows now, she woulda drove off! This ho lost! Thot bars? You really need to start reflectin' Your daughter's at a age she can get on the Internet and watch what you do You gotta really realize who your cause affectin' She can open an app and watch her mother rap about suckin' and fuckin' her way to the top Givin' her false impressions You really think your mother gave up a car just to watch you steer your daughter IN THE WRONG DIRECTION!? That thot shit was cool as first, but now it's all in question 'Cause that same little girl you kiss on the forehead and say Good night to Is the same one that looks on the screen when you say you get fucked 'til you scream and wants to be just like you So when she walks in the house pregnant as a teen, she can in no way be spiteful I mean, she got it from her mama Who else is there to be blamed besides you? Why not teach her about birth control? 'Cause you supposed to break the cycle! You the one she gon' stay up late and cry to! Well, at least try to But Mommy's always out of town chasin' battle rap when she should be doin' much more 'Cause you're currently in a situation where they're trying to take the kids you adore So I'm tryna figure out how you state-to-state every weekend when you goin' through a custody battle in yours I'm floored You keep your son away from his dad so he has no chance to look up to a man But he's too busy when he says, Hey, Ma. Look, I'm in a band. Meanwhile, you're in Virginia getting your ass whooped at BANNED This shit is sad When her daughter's sick, she's 'posed to be givin' her soup at night Mommy's too busy bookin' her flight for the next Super Fight You really think how you movin' right? Chasin' battle rap, leavin' them kids alone? Why the fuck you at NOME when you 'posed to be at home!? Teachin' her how to be a queen but you on Watch The- What the FUCK is goin' on!? Yoshi, you are GROWN! In yo' mid-30s, actin' like a fuckin' clown I don't care what you say 99 of every woman's goal is to settle down But the way you act? It'll never be Clean yourself up...or URL's anniversary card gon' be the only one you ever see I couldn't let it be, but you my friend, so I did what I should Made sure you understood You too worried about the Brotherhood You need to be worried about your motherhood! 2-zipper Go home Let's get it Last round! Yoshi G, it's on you Let's get it STOP PLAYIN' WIT' ME! STOP PLAYIN' WIT' ME!!! NIGGA, WHAT'S A THOT BAR!? Hopin' Jakk' get Top off? That's literally nothin' nuttin' for me I'm that sick, but psychologically, why am I like this? Why when I see a D, HD- ADHD? Drugz drugs, I need an addy right quick All hazy, hormones raging, I need to make a life switch I'm just Living Single I say...hormones raging, I'm just Living Single, I better make a life switch Like Turn off getting turned on by some light dick I never seen so much darkness in a bright bitch! And if I couldn't rap, I wouldn't gain shit! Yoshi takes a couple deep breaths I just dropped my daughter off to her father in Atlanta We in a tournament... Fuck that...we actually co-parent, so it's his turn, I meant And any objection by me for him to see his daughter would be outta pocket This isn't in my genes, I didn't inherit this logic It's just a generational curse, and I'm determined to stop it And I gotta stop puttin' it on my father, 'cause it's a pain split I mean, it didn't help hearin' my mama keep tellin' me, Yo' daddy ain't shit Or Get out my face! You look just like that nigga! You makin' me sick! So if at my best, I'm my father's daughter, I'm only embracin' what I was taught he is And no, I don't blame you, Mama, but it's no wonder a negative thot thought exists I say that to say this you're a good father I thought that you should know I think the way you fight to be in your baby girl's life is beautiful Baby mamas purposely keepin' the child out of the father's life cruel and unusual I root for you I cannot imagine what that kind of pain would do to you Just don't give up, Drugz I know that's like a oxymoronic way to soothe you through So if this gives you any comfort, I guarantee she'll bring your daughter to your funeral You think you controllin' my mental? That was crazy Sike, Drugz psych drugs I'm crazy I need a saving A. Ward and a Valium, that's a white drug Keyshia Cole...I Should Have Cheated! Nah, that's a jam for me 'Cause I wanna be, artistically free Mr. 1-10 on the App! That give me a 90 chance of kickin' yo' ass I could even beat you wit' a light ars' Nigga, you trash! I just need a ounce of thot thought to get Drugz drugs fully bagged I see you bitches watchin' I'm the anomaly, you the option Get to know me Good shit, man May 13th will make a year since I've seen my daughter If you watchin' right now, Kennedy, I love you See, you up here rappin' your heart out 'cause you want to I need that 100K so I can pay for the lawyers to come through I'm not here for a battle I'm here to make sure my daughter don't become you 'Cause us fathers, y'all don't know what we go through They told me with that prize money, I can afford to buy half the rights But that's crazy, 'cause I feel like shit like that shouldn't even have a price! So if I lose, it'll be my saddest night! Don't play wit' me! Because huggin' my daughter means much more than 100K to me! To say the least, you probably gon' fuck somebody raw today I mean for real You don't see your own worth, it's broad as day She like early Bitcoin investors Because she ain't know what had had value, now she mad cause she done gave it all away And shit'll be different if you had a father that was a call away But he walked away and look how you turned out That's karma, I am scared cause this is a direct result if I don't get my daughter Can y'all understand that? Listen here I'm not here for a battle, I came to face my fears Let's get it clear You put yourself through so much shit for battle rap dick One day I even found myself helping you Remember you flew all the way to fuckin' Atlanta with nowhere to stay Dumb ass And a nigga curved you, that shit was unacceptable If it wasn't for me you would've been sleeping on that hotel lobby couch, cause you ain't have no revenue Chokes You flew your horny ass out there with nowhere to stay You a homeless sexual You not even respectable I like that This whole shit, you need to put it all to rest Cause there isn't a dick in the world that can fill the hole your father left You lost all respect But when it come to that hoe shit, I heard sis' best I done heard stories about her suckin', fuckin', cookin', cleanin' and critiquing rounds, bitch I'm impressed I think you get it from your mame that live in Miami Y'all crazy if you think less So you got wifey material in your genes, or you just that stressed? It's the way you carry yourself That's why other girls get more and you get less You gotta learn from the game Yoshi Niggas only gon' ride witchu 'til they get to they princess</t>
+          <t>Let's just get this rumor out the way What was it again? A Goonies orgy? A train? That's a loco motive locomotive to initiate in a gang What a shame I guess it is my fault, I was in groupie mode Lookin' at myself like, Minaj record? You a 'Stupid Ho' I lowkey started the rumor myself, and now it's killin' me I mean, I was just speakin' my dream somniloquy Playin' my role, until thots thoughts allowed on stage soliloquy Somethin' 'bout that night's a blur...but I try to reminisce it I just remember Mack Mel from the back like, Hold it down by the chicken! Now it's Glu', stuck in the corner Lookin' like his great-grandfather the Colonel, finger-lickin' And Ryda, Ryda...Ramone Oh, Ryda Ramone rider'll moan like a bitch without even hittin' Okay, it's startin' to come back I thought I liked bitches until I see three C3 straps, a big butt, and had to reconsider Yo, she just different I'll fuck your best friend, your Ace, I mean Amin And Qu' been Quban knew he need to bring a bulletproof vest for me Kept makin' Holmzie mad - you remember when Holmzie was a Goonie briefly? By sayin' B. Dot the God like, Homie, you give Muslim vibes. Why not try Holmzie Allah? That's hypocritical at that Plus he like, If you fuck up my name again, consider you smacked. Then it hit me...the star's missin' We really need a Raivon to get this party in the right swing I mean, I need that coma. Clap! A good night's sleep I need us to get back Twork to work like the right-wing So fuck Drugz! I bet you looked up my ex to see ecstasy how I party, Drugz drugs I'm dope, so up against a pothead, we'd weed see you hardly, Drugz drugs You get stepped on, you battle too much, you not floatin' It will not work, you not Twork Last-minute, you both rushin' Switches and Casey worried 'bout preppin' Prep and some dope substance? Nigga...are y'all tryin' to sway the audience? You my nigga, but I'll sever Sevah ties On this true day of Sabbath, my nigga, I'll sabotage I got a cause Yo, she G... And we be wantin' to call you by your government I think that's what you should use if Yusef Drugz not it You not potent, we not quotin' Drugz impression LLAMAS bla- Nigga, pick a new move! Plus I wanna see the man behind the Llama you need a New Groove So to call you Drugz does you no justice I mean, yes, you get cooked, bagged, but you never control substance So fuck you, fuck Goonies as a crew! Cheeko, Beasley, Smack, for 100K, I will fuck y'all too Get to know me Rap As far as struggles only women can relate to, you a true victim You told us stories how you been in relationships wit' all these abusive and cool niggas Bitch, one of them stories broke my heart so bad, I wanted to whoop the nigga ass and...I ain't even have nothin' to do wit' it 'Cause honestly, all that domestic violence shit, I'm really not cool wit' it I do not believe in puttin' your hands on women... chk-chk I shoot bitches! I'm too livid I heard y'all talkin' Now watch me string little Yo-Yo along And after I drop a round on this trick, y'all gon' say I dog-walked her! This what y'all offer!? Food! I knew, and y'all knew And you ain't even think you was gonna win Just wanted to be wit' 13 niggas in a small room Why they even CALL you!? You lookin' at a savage in the flesh Wit' a large tool, FNJs clappin' through her vest That bitch was far too, but the grip make it accurate at its best All them nudes you sent...you should be used to attachments on the TECs texts! I'm vexed! Your mother next! Front steps, knock-knock, Your daughter started drama. Cut her head off and bring it on stage, like This is your mama like Wil Valderrama! She a goner, I bring a beam Everybody wanna be on The Gun Show - chk-chk - 'til they in deleted scenes! You ain't seasoned, queen! You gotta rap wit' me, so just call it quits 'Cause you don't got one quotable that don't involve a dick I'm tired of this, and y'all let her slide wit' this She says some basic sexual shit, and you act like this bitch cooking Shock value 'cause she talks about sucking a fuckin' dick? That's what I don't get fully That shit only shocking to niggas who don't get pussy! I swear to God I'm so tired of hearing 'bout this bitch cookie! You talk about it every five seconds, it makes it less arousin' This snub ain't nothin' to mess around wit' .38 in her box let's see what's so Special 'bout it! Go to the trunk, pull the weapon out it I'm 'bout to slide, y'all! This 100-round drum? My God! I just throw it in the machine and press a button like a Tide Pod! Side bar! The nerve of A bitch who only fucks stars, but baby daddy's a battle rapper we never heard of Y'all done hyped this bird up! This shit unsuitable! How that pussy top-tier, but your baby daddy in the Crucible!? This is unusual! What the fuck is this? You said you had a thousand dollars for anybody that can prove you mess wit' a lower-tier battle rapper I want my money, bitch Gang I said, this for Kim You know, a Queen Bee wit' somethin' Big B.I.G. Poppa Drugz Nah, you got me pissed, dirty P.O. visit for this smoke, I will risk bars for Drugz drugs I lost too much to addiction, so now I'm hard on Drugz drugs And if I'm prone to it, and the arm come out, it's not in vain vein It left scars for Drugz drugs I don't fuck wit' you niggas...or none of you bitches either They my daughters, while he Wally my first son like Mrs. Cleaver I didn't know what gun to rap about, and I tried to Google some shit Fuck - I just know I need a body on the ground when I chalk it out Gun Show? I hope so, 'cause ain't shit inside your rounds Your friends gas you, B Truth say you won...in your head like Cassidy Yusef, if you know what's best for you, better use what you rap for me Or you gon' be a pretty little lightskin casualty I'm talkin' 'bout you need to actually be... dumping on stage, son...Lyt's kin mentality Nigga, I'm ready to fight - grapple me I will put facts wit' cap like Snapple tea A thot thought assemble words together to line a square come Scrabble me Bad trap queen I'm not gon' hold you, Drugz drugs Nancy Reagan said it best Just Say No to Drugz drugs. I dare D.A.R.E. you - try and school me, it's gon' be over, Drugz drugs I mean, you may be a Blood, but Negro...you ain't no thug I seen you gettin' cracked in the street so bad... Geechi Gotti proved trees was a gateway, Drugz drugs See, that's my way 'Cause I see a QP on the highway would leave a bitch behind bars in a tri-state That's true addiction We want that old Yoshi! No New Edition! What? Now how that sound? Mad 'cause I was Humpin' Around? If it's My Prerogative, why Every Step I Take they try knockin' me down!? This got me down! Fuckin' tournament! FUCKIN' MONEY! THIS GOT ME DOWN! I lost EVERYONE in my life because of Drugz drugs like Bobby Brown! So yes, I'mma stay showin' my ass onstage for shine Only right I mention Mooning you Nigga, I cannot believe what you let that old man do to you I mean, I got my own V.A. stripes Wig on the street without the Adidas suit I'm just kinda...pissed the Gun Show didn't have to bust a move 'Cause when your homie had to come to your rescue, I almost lost my cool The bigger .9 I expected, but to pull out...was somethin' I ain't know Twork can do Now get me lit! Yo, she Yoshi gon' be eatin' some sh- This ain't a game, bitch! And if it is, it's 'cause you feelin' this Yoshi flame spit Get to know me It gets dark Get dark Shout out to my mammy, she live in Miami She told you Don't stop poppin' that pussy, right? As a father, instantly I was so lost Now let's fast-forward four bars She got pregnant wit' you at 15, and had she aborted you, her folks woulda offered her her own car So she took on the struggles of being a teen mom, and then you bragged to us about how she was so strong And this what you choose to do with the life she gave you? You so wrong I bet you she knew what she knows now, she woulda drove off! This ho lost! Thot bars? You really need to start reflectin' Your daughter's at a age she can get on the Internet and watch what you do You gotta really realize who your cause affectin' She can open an app and watch her mother rap about suckin' and fuckin' her way to the top Givin' her false impressions You really think your mother gave up a car just to watch you steer your daughter IN THE WRONG DIRECTION!? That thot shit was cool as first, but now it's all in question 'Cause that same little girl you kiss on the forehead and say Good night to Is the same one that looks on the screen when you say you get fucked 'til you scream and wants to be just like you So when she walks in the house pregnant as a teen, she can in no way be spiteful I mean, she got it from her mama Who else is there to be blamed besides you? Why not teach her about birth control? 'Cause you supposed to break the cycle! You the one she gon' stay up late and cry to! Well, at least try to But Mommy's always out of town chasin' battle rap when she should be doin' much more 'Cause you're currently in a situation where they're trying to take the kids you adore So I'm tryna figure out how you state-to-state every weekend when you goin' through a custody battle in yours I'm floored You keep your son away from his dad so he has no chance to look up to a man But he's too busy when he says, Hey, Ma. Look, I'm in a band. Meanwhile, you're in Virginia getting your ass whooped at BANNED This shit is sad When her daughter's sick, she's 'posed to be givin' her soup at night Mommy's too busy bookin' her flight for the next Super Fight You really think how you movin' right? Chasin' battle rap, leavin' them kids alone? Why the fuck you at NOME when you 'posed to be at home!? Teachin' her how to be a queen but you on Watch The- What the FUCK is goin' on!? Yoshi, you are GROWN! In yo' mid-30s, actin' like a fuckin' clown I don't care what you say 99 of every woman's goal is to settle down But the way you act? It'll never be Clean yourself up...or URL's anniversary card gon' be the only one you ever see I couldn't let it be, but you my friend, so I did what I should Made sure you understood You too worried about the Brotherhood You need to be worried about your motherhood! 2-zipper Go home Let's get it Last round! Yoshi G, it's on you Let's get it STOP PLAYIN' WIT' ME! STOP PLAYIN' WIT' ME!!! NIGGA, WHAT'S A THOT BAR!? Hopin' Jakk' get Top off? That's literally nothin' nuttin' for me I'm that sick, but psychologically, why am I like this? Why when I see a D, HD- ADHD? Drugz drugs, I need an addy right quick All hazy, hormones raging, I need to make a life switch I'm just Living Single I say...hormones raging, I'm just Living Single, I better make a life switch Like Turn off getting turned on by some light dick I never seen so much darkness in a bright bitch! And if I couldn't rap, I wouldn't gain shit! Yoshi takes a couple deep breaths I just dropped my daughter off to her father in Atlanta We in a tournament... Fuck that...we actually co-parent, so it's his turn, I meant And any objection by me for him to see his daughter would be outta pocket This isn't in my genes, I didn't inherit this logic It's just a generational curse, and I'm determined to stop it And I gotta stop puttin' it on my father, 'cause it's a pain split I mean, it didn't help hearin' my mama keep tellin' me, Yo' daddy ain't shit Or Get out my face! You look just like that nigga! You makin' me sick! So if at my best, I'm my father's daughter, I'm only embracin' what I was taught he is And no, I don't blame you, Mama, but it's no wonder a negative thot thought exists I say that to say this you're a good father I thought that you should know I think the way you fight to be in your baby girl's life is beautiful Baby mamas purposely keepin' the child out of the father's life cruel and unusual I root for you I cannot imagine what that kind of pain would do to you Just don't give up, Drugz I know that's like a oxymoronic way to soothe you through So if this gives you any comfort, I guarantee she'll bring your daughter to your funeral You think you controllin' my mental? That was crazy Sike, Drugz psych drugs I'm crazy I need a saving A. Ward and a Valium, that's a white drug Keyshia Cole...I Should Have Cheated! Nah, that's a jam for me 'Cause I wanna be, artistically free Mr. 1-10 on the App! That give me a 90 chance of kickin' yo' ass I could even beat you wit' a light ars' Nigga, you trash! I just need a ounce of thot thought to get Drugz drugs fully bagged I see you bitches watchin' I'm the anomaly, you the option Get to know me Good shit, man May 13th will make a year since I've seen my daughter If you watchin' right now, Kennedy, I love you See, you up here rappin' your heart out 'cause you want to I need that 100K so I can pay for the lawyers to come through I'm not here for a battle I'm here to make sure my daughter don't become you 'Cause us fathers, y'all don't know what we go through They told me with that prize money, I can afford to buy half the rights But that's crazy, 'cause I feel like shit like that shouldn't even have a price! So if I lose, it'll be my saddest night! Don't play wit' me! Because huggin' my daughter means much more than 100K to me! To say the least, you probably gon' fuck somebody raw today I mean for real You don't see your own worth, it's broad as day She like early Bitcoin investors Because she ain't know what had had value, now she mad cause she done gave it all away And shit'll be different if you had a father that was a call away But he walked away and look how you turned out That's karma, I am scared cause this is a direct result if I don't get my daughter Can y'all understand that? Listen here I'm not here for a battle, I came to face my fears Let's get it clear You put yourself through so much shit for battle rap dick One day I even found myself helping you Remember you flew all the way to fuckin' Atlanta with nowhere to stay Dumb ass And a nigga curved you, that shit was unacceptable If it wasn't for me you would've been sleeping on that hotel lobby couch, cause you ain't have no revenue Chokes You flew your horny ass out there with nowhere to stay You a homeless sexual You not even respectable I like that This whole shit, you need to put it all to rest Cause there isn't a dick in the world that can fill the hole your father left You lost all respect But when it come to that hoe shit, I heard sis' best I done heard stories about her suckin', fuckin', cookin', cleanin' and critiquing rounds, bitch I'm impressed I think you get it from your mame that live in Miami Y'all crazy if you think less So you got wifey material in your genes, or you just that stressed? It's the way you carry yourself That's why other girls get more and you get less You gotta learn from the game Yoshi Niggas only gon' ride witchu 'til they get to they princess</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5895,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Han J'fais ma petite flag, spéciale, sur cette pute Haha Ok ok, ok ok Faya Family, Double-F gang Yes XIX, en orbite Qu'est-ce qui s'putain d'passe ? Yes Han, check, han, check J'viens en paix, mais pas vraiment en fait On est en temps d'guerre, c'est juste le calme avant la tempête La tempête Quand j'suis pas là, les souris dansent Les souris dansent C'est bientôt fini gars, donc tous les jours j'y pense Et j'les laisse faire, j'vais les exterminer J'fais mes expériences dans mon labo', négro j'suis comme Dexter J'veux être un expert extrêmement chaud C'est trop tard tocard, j'pense pas qu'tu puisses faire grand chose liquide en perf', j'garde ma tête froide Tête froide La daillance a été trouvée donc cette fois Cette fois j'déconne plus J'déconne plus Lunettes de vision nocturne, j'dézingue les bâtards, les putes nègres et les hommes-putes Et les hommes-putes J'opte pour le cash, les guns et les livres Les livres J'fuck toutes les cartes, le beurre et les bitchs Dans mon camp j'prends mon temps Inch'Allah j'serai encore là pendant longtemps Encaissant des montants comptants Je joue pour gagner, loin des flammes, man J'plane au-dessus et j'observe tout cramer Nandité sans pitié, aviateur de combat Je bombarde ceux qui boivent des gamètes par canettes J'provoque des tsunamis, avec ma flotte On va couler toute ta team, et prendre tes sous, papy Les moutons s'pavanent quand les loups n'sont pas là Té-cla j'me pose comme du C4 sur l'bouton d'alarme Ne rêve pas que j'm'égare, des années nous séparent À la guerre on s'prépare Mais nous on a l'art, Sun Tzu Furtifs, on gère les bails en soum-soum Bestiale est l'armée, t'inquiètes qu'on les bouffe tous Tête dans l'ombre, le veau-cer gé-char comme le boule de Mia Négro me check pas si tu fais que des moves de biatch Capitaine, j'ai le brassard et la barre J'vogue entre MTL, Paname et Dakar Rookie rien à foutre, d'elle-même augmente la prime J'pécho le One Piece, j'm'envole et me pose en Afrique, yes You might also like Han Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe, négro ? Faya family, double F gang Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Faya family Dans cette merde, comme d'la dynamite Dans cette merde, comme d'la dynamite Choisis ton camp Soit tu passes, soit tu casses, yes Aux échecs, les premiers moves sont pour les pions Dans ma clique des aigles, des orques, des loups et des lions Han Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe, négro ? Pyramide inversée, poussé par les vents solaires Rien à foutre du gasoil, mec, han Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe, négro ? Appelle-moi El Freeze, j'crosse les MCs J'suis l'grand orque, je nage parmi les poissons Un pét' à la bouche, je résous des équations Double-F Gang</t>
+          <t>Han J'fais ma petite flag, spéciale, sur cette pute Haha Ok ok, ok ok Faya Family, Double-F gang Yes XIX, en orbite Qu'est-ce qui s'putain d'passe ? Yes Han, check, han, check J'viens en paix, mais pas vraiment en fait On est en temps d'guerre, c'est juste le calme avant la tempête La tempête Quand j'suis pas là, les souris dansent Les souris dansent C'est bientôt fini gars, donc tous les jours j'y pense Et j'les laisse faire, j'vais les exterminer J'fais mes expériences dans mon labo', négro j'suis comme Dexter J'veux être un expert extrêmement chaud C'est trop tard tocard, j'pense pas qu'tu puisses faire grand chose liquide en perf', j'garde ma tête froide Tête froide La daillance a été trouvée donc cette fois Cette fois j'déconne plus J'déconne plus Lunettes de vision nocturne, j'dézingue les bâtards, les putes nègres et les hommes-putes Et les hommes-putes J'opte pour le cash, les guns et les livres Les livres J'fuck toutes les cartes, le beurre et les bitchs Dans mon camp j'prends mon temps Inch'Allah j'serai encore là pendant longtemps Encaissant des montants comptants Je joue pour gagner, loin des flammes, man J'plane au-dessus et j'observe tout cramer Nandité sans pitié, aviateur de combat Je bombarde ceux qui boivent des gamètes par canettes J'provoque des tsunamis, avec ma flotte On va couler toute ta team, et prendre tes sous, papy Les moutons s'pavanent quand les loups n'sont pas là Té-cla j'me pose comme du C4 sur l'bouton d'alarme Ne rêve pas que j'm'égare, des années nous séparent À la guerre on s'prépare Mais nous on a l'art, Sun Tzu Furtifs, on gère les bails en soum-soum Bestiale est l'armée, t'inquiètes qu'on les bouffe tous Tête dans l'ombre, le veau-cer gé-char comme le boule de Mia Négro me check pas si tu fais que des moves de biatch Capitaine, j'ai le brassard et la barre J'vogue entre MTL, Paname et Dakar Rookie rien à foutre, d'elle-même augmente la prime J'pécho le One Piece, j'm'envole et me pose en Afrique, yes Han Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe, négro ? Faya family, double F gang Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Faya family Dans cette merde, comme d'la dynamite Dans cette merde, comme d'la dynamite Choisis ton camp Soit tu passes, soit tu casses, yes Aux échecs, les premiers moves sont pour les pions Dans ma clique des aigles, des orques, des loups et des lions Han Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe, négro ? Pyramide inversée, poussé par les vents solaires Rien à foutre du gasoil, mec, han Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe ? Qu'est-ce qui s'putain d'passe, négro ? Appelle-moi El Freeze, j'crosse les MCs J'suis l'grand orque, je nage parmi les poissons Un pét' à la bouche, je résous des équations Double-F Gang</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5912,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Yeah, yoh, yoh, yoh, yeah Ekip, ekip, ekip Woh Han, skrt, skrt, skrt Plus de cash, plus de balles, j'ramène les proies comme un rabatteur Woh J'bois du poison quand j'sirote la codé' mais ça m'tient près du ciel comme un aviateur Gros, j'me renseigne et dans mes rêves, sur mon cou, j'vois des chaînes comme un gladiateur Fait chaud dans la caisse, tu sais qu'mon cerveau peut cramer la pièce comme un radiateur J'suis pas v'nu tout seul, j'suis pas décorateur, au-d'ssus des humains, j'me sens comme Gulliver Quand j'traverse l'univers comme un explorateur, j'suis comme Lucifer pour mes adorateurs Et j'me sens mal, avant l'paradis, tu peux cramer ton tél', y a pas d'opérateur J'ai mis qu'la moitié pour baiser vos rappeurs, y'a pas d'bouton retour sur le détonateur Hmm, yeah, smoking gas, gas, gas Plus de caisses, plus de liasses Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, hold up, yeah Dans mon binks, binks, binks pour la pièce, yeah You might also like Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Cash Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' J'suis comme le bon et la brute, t'es comme le con et la pute Que des cadavres sur la montagne, tu sais qu'le mont est abrupt Ils veulent tirer dans les jambes dès qu'ils m'voient remonter la bute J'pourrais ter-mon cinq cents flacons, j'pourrais t'raconter la lutte, yeah, yeah Hmm, yeah, smoking gas, gas, gas Plus de caisses, yeah Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, roll up, yeah Dans mon binks, binks, binks pour la pièce, yeah Hmm, yeah, smoking gas, gas, gas Plus de caisses, yeah Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, roll up, yeah Dans mon binks, binks, binks pour la pièce, yeah Han, ekip, 667, audio dope, audio crystal meth Chen Zen, serial killer, j'arrive dans l'jeu comme Jason à Crystal Lake Viseur ELO, précis comme Melo, j'suis un vaisseau, t'es un vélo Aqua dans l'tel-hô, gros teh de yellow, so Lyonzon, so les pélos Han J'ai mes masters, j'ai mes droits, brise des chevilles comme CP3 Sur la prod' comme si j'étais trois Han, j'vois la concu' comme si c'est des proies Beaucoup d'essence pour les moteurs Sku, j'suis fonscar, négro, j'suis dans les hauteurs C'est plus des rappeurs, c'est des blogueurs Han, mes phases passent au-dessus d'leur crâne comme des floaters Mafieux comme Tapie, cerveau comme papi, j'arrive cain-cain comme Capi Ekip Queens comme Pappy, j'ai les plans comme Mappy, j'veux pas finir comme Scrappy Han Freeze Corleone, killu à vie Han, tord la prod' avec le L.U.V Dans le lin, tous les jours, j'vois comme si tout était sous lumière UV Fuck ces négros comme le FN, parafranc actif pour les bails de FM Cash Chaque jour, j'remercie Dieu, l'prochain billet qui tombe, j'investis dans un Glock et deux FN Et j'réfléchis que en streams, braque le rap avec le même masque que dans Scream J'suis pas dans le rallye, j'prends mon temps et j'vais plus vite qu'eux en sprint Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra'5</t>
+          <t>Yeah, yoh, yoh, yoh, yeah Ekip, ekip, ekip Woh Han, skrt, skrt, skrt Plus de cash, plus de balles, j'ramène les proies comme un rabatteur Woh J'bois du poison quand j'sirote la codé' mais ça m'tient près du ciel comme un aviateur Gros, j'me renseigne et dans mes rêves, sur mon cou, j'vois des chaînes comme un gladiateur Fait chaud dans la caisse, tu sais qu'mon cerveau peut cramer la pièce comme un radiateur J'suis pas v'nu tout seul, j'suis pas décorateur, au-d'ssus des humains, j'me sens comme Gulliver Quand j'traverse l'univers comme un explorateur, j'suis comme Lucifer pour mes adorateurs Et j'me sens mal, avant l'paradis, tu peux cramer ton tél', y a pas d'opérateur J'ai mis qu'la moitié pour baiser vos rappeurs, y'a pas d'bouton retour sur le détonateur Hmm, yeah, smoking gas, gas, gas Plus de caisses, plus de liasses Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, hold up, yeah Dans mon binks, binks, binks pour la pièce, yeah Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Cash Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' J'suis comme le bon et la brute, t'es comme le con et la pute Que des cadavres sur la montagne, tu sais qu'le mont est abrupt Ils veulent tirer dans les jambes dès qu'ils m'voient remonter la bute J'pourrais ter-mon cinq cents flacons, j'pourrais t'raconter la lutte, yeah, yeah Hmm, yeah, smoking gas, gas, gas Plus de caisses, yeah Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, roll up, yeah Dans mon binks, binks, binks pour la pièce, yeah Hmm, yeah, smoking gas, gas, gas Plus de caisses, yeah Vend la s, s, s, plus de cash Passe les rapports, compte les racks, racks, racks Dans la caisse, roll up, yeah Dans mon binks, binks, binks pour la pièce, yeah Han, ekip, 667, audio dope, audio crystal meth Chen Zen, serial killer, j'arrive dans l'jeu comme Jason à Crystal Lake Viseur ELO, précis comme Melo, j'suis un vaisseau, t'es un vélo Aqua dans l'tel-hô, gros teh de yellow, so Lyonzon, so les pélos Han J'ai mes masters, j'ai mes droits, brise des chevilles comme CP3 Sur la prod' comme si j'étais trois Han, j'vois la concu' comme si c'est des proies Beaucoup d'essence pour les moteurs Sku, j'suis fonscar, négro, j'suis dans les hauteurs C'est plus des rappeurs, c'est des blogueurs Han, mes phases passent au-dessus d'leur crâne comme des floaters Mafieux comme Tapie, cerveau comme papi, j'arrive cain-cain comme Capi Ekip Queens comme Pappy, j'ai les plans comme Mappy, j'veux pas finir comme Scrappy Han Freeze Corleone, killu à vie Han, tord la prod' avec le L.U.V Dans le lin, tous les jours, j'vois comme si tout était sous lumière UV Fuck ces négros comme le FN, parafranc actif pour les bails de FM Cash Chaque jour, j'remercie Dieu, l'prochain billet qui tombe, j'investis dans un Glock et deux FN Et j'réfléchis que en streams, braque le rap avec le même masque que dans Scream J'suis pas dans le rallye, j'prends mon temps et j'vais plus vite qu'eux en sprint Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, tu sais qu'j'attends pas les tirages, yeah, j'avance et j'suis fonc'-dé dans les virages, hmm Planète est décimée pour les dirhams, hmm, j'avance dans l'désert et j'vois des mirages, yeah Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra' Négro, si tu savais ce qu'on subira, Luv Resval dans bateau pirate, dernier Jedi vient des pyra'5</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5929,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Ekip pétasse, han Han T'as pop mais t'as disparu haha, négro, t'es comme Desiigner goddamn So DistroKid han, j'suis aux Galeries han, j'cop des designers cash Même quand j'dors, j'fais d'l'argent cash, j'reçois des virements en USD cash PDF interdit coffré han, Osirus Jack a les documents en USB Yeuz rouges de cyborg, plus blindé que six portes, so Double, j'ai la frappe de Seedorf Audio dope dans ton crâne han, 100k sans contrat, mitraille les prod comme dans Contra Découpe, j'ai les techniques au boucher, j'pense à mon argent du réveil au coucher cash Crache des flammes, j'envoie des katons katons, dans les roues, ils veulent me mettre des bâtons ah ouais RAF, négro, j'avance sans aucun stress aucun, j'suis plus blindé qu'le M26 Que j'empile les sommes d'ici 2k26 han, faut sept zéros dans le N26 cash Portée infinie en Hall of Fame, tireur d'élite, très rare si j'rate une cible eh Drogue de luxe, réserve personnelle, le plug envoie le colis sous triple vacuum seal pétasse, plug Freeze Corleone, j'arrive Queens à fond l'argent, QB, ekip Infamous comme Twins à fond han, Twin Gambino Fuck les porcs, fuck les sangliers han Fous les MC dans les cendriers han, on est dans l'complot comme les Templiers han H-24, j'sécurise le sac, pour sortir, faut qu'j'dépressurise le sas pch J'reste au-d'ssus, j'suis dans la station han, j'consomme plus d'essence que dans la station gas, haha J'fume la frappe du Maroc, j'fume la forte des States J'arrive Japonais comme une Nissan Juke, j'arrive Américain comme une Ford Escape sku, skrt Pétasse, chaque couplet, c'est d'la dynamite han, ekip J'gagne deux à trois fois plus qu'un jeune cadre dynamique cash Nouvel Ordre Mondial han, j'constate l'avancement dans l'agenda So Kaki Santana, attentats à chaque date dans l'agenda ekip Bientôt, ça investit dans les entrepôts pétasse, pétasse J'graille la concurrence comme des entrecôtes goddamn Ils prennent les décisions pendant qu'ils sont en train d'faire du golf Seul contre eux comme Saddam Hussein pendant la guerre du Golfe pétasse, han Soupape par la droite comme Kyle Walker sku J'fume la Skywalker, v'là d'midi-chloriens comme un Skywalker pétasse, eh, walker J'arrive Allemand comme le X cross han, sku So Scooter, bats l'démon avec le triple cross, pétasse pétasse You might also like OBS30</t>
+          <t>Ekip pétasse, han Han T'as pop mais t'as disparu haha, négro, t'es comme Desiigner goddamn So DistroKid han, j'suis aux Galeries han, j'cop des designers cash Même quand j'dors, j'fais d'l'argent cash, j'reçois des virements en USD cash PDF interdit coffré han, Osirus Jack a les documents en USB Yeuz rouges de cyborg, plus blindé que six portes, so Double, j'ai la frappe de Seedorf Audio dope dans ton crâne han, 100k sans contrat, mitraille les prod comme dans Contra Découpe, j'ai les techniques au boucher, j'pense à mon argent du réveil au coucher cash Crache des flammes, j'envoie des katons katons, dans les roues, ils veulent me mettre des bâtons ah ouais RAF, négro, j'avance sans aucun stress aucun, j'suis plus blindé qu'le M26 Que j'empile les sommes d'ici 2k26 han, faut sept zéros dans le N26 cash Portée infinie en Hall of Fame, tireur d'élite, très rare si j'rate une cible eh Drogue de luxe, réserve personnelle, le plug envoie le colis sous triple vacuum seal pétasse, plug Freeze Corleone, j'arrive Queens à fond l'argent, QB, ekip Infamous comme Twins à fond han, Twin Gambino Fuck les porcs, fuck les sangliers han Fous les MC dans les cendriers han, on est dans l'complot comme les Templiers han H-24, j'sécurise le sac, pour sortir, faut qu'j'dépressurise le sas pch J'reste au-d'ssus, j'suis dans la station han, j'consomme plus d'essence que dans la station gas, haha J'fume la frappe du Maroc, j'fume la forte des States J'arrive Japonais comme une Nissan Juke, j'arrive Américain comme une Ford Escape sku, skrt Pétasse, chaque couplet, c'est d'la dynamite han, ekip J'gagne deux à trois fois plus qu'un jeune cadre dynamique cash Nouvel Ordre Mondial han, j'constate l'avancement dans l'agenda So Kaki Santana, attentats à chaque date dans l'agenda ekip Bientôt, ça investit dans les entrepôts pétasse, pétasse J'graille la concurrence comme des entrecôtes goddamn Ils prennent les décisions pendant qu'ils sont en train d'faire du golf Seul contre eux comme Saddam Hussein pendant la guerre du Golfe pétasse, han Soupape par la droite comme Kyle Walker sku J'fume la Skywalker, v'là d'midi-chloriens comme un Skywalker pétasse, eh, walker J'arrive Allemand comme le X cross han, sku So Scooter, bats l'démon avec le triple cross, pétasse pétasse OBS30</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5946,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Yo I'm at high risk of dying, their evil eye May God protect us Bando smokey, I gotta get out 'cause they're smoking c- It's giving man headrush Hygiene poor, look at the floor, there's insects crawling They prolly got bedbugs Ugh We ain't doing irrational get back Creep up clean when they least expect us, huh Baow, baow, baow Come to the helma, start smelling the ganja aroma Alright Was horny, I try hit Polska Don't think straight when I get on the boner I wanna get vulgar, I wanna have fun But as soon as I'm done, I'm handing her over She wanna hav a baby sat in a stroller Alright She wanna play for a bit of exposur Hold up, most of my stories remain untold I don't wanna explain it They said it's a dream come true I just wanna get rich, I don't wanna get famous What you know about stranger danger? Pitched bare shots right there in the skate park I feel like D-Block, suttin' like Jada Han I feel like Key Glock, everything major Ekip, ekip, ekip You might also like On veut le cash, fuck être connu cash Je coupe le gâteau, j'offre des bonus cash Fuck l'UNICEF et l'ONU Fuck le jeu, j'ai les codes et les soluces han Il faut v'là de sommes vite Le plavon l'actionne vite C'est la guerre comme à Jacksonville T.E.N, So Osi' Jack Sur la prod j'suis comme Tony Jaa Chrono24 j'regarde les courbes Crypto.com j'regarde les courbes Audi A8 j'regarde les courbes Ashanti j'regarde son visage, j'regarde ses courbes Sous lin j'analyse toutes les options Bientôt la Audi avec toutes les options sku Chen Zen aka le Professeur Rogue Négro j'ai masterisé toutes les potions lin 667, LYM On achète leurs flows avec p'tet 3 Yen Concurrence ils ont des vieilles moyennes Ils ont des Onlyfans, des MYM 667, LYM On achète leurs flows avec p'tet 3 Yen Concurrence ils ont des vieilles moyennes Ils ont des Onlyfans, des MYM I wanna get rich, I don't want no fame Hotspurs, taking risk with the 'caine Mind where you're looking, fix your face No dinner lady, came with a tray Roosh Just got back London, now I'm on Gumtree patterning dingers Bathing Ape's, I came with gorillas You see this game, it's smoke and mirrors Smoke and mirrors, that's all that I see when I'm changing speed Let's go In a camp with Morgan Keys, Santorini Ooh, he ain't get away lightly He can hold more than 3 Yo, this one ain't hold 6 Leave a man 6 feet deep Let's get it I'm with Freeze, 667 Paname with all of the G's Bam then you gotta skeet Fuck with my brothers, then you gotta bleed Grrr Bring in the eaters and they gonna eat Bring out the beaters and they gonna beat 808, I'm bringing the bass, I'm bringing the bait live in the streets Hey, brr C'est chaud dans la ville, t'es cuit hey, OBS Tu veux mon beurre, ma kich', mon riz Ça t'a propulsé, on a tout repris Tu vas couler, ouais c'est sombre ici Y a pas d'bouée, sur le bateau on t'laisse jouer Dévoué, ça t'jette à l'eau si tu fais l'bourré Si OBS te flingue, tu t'fais trouer sale No cap, on a fait du sale Assure l'opé', glock sur la taille Y a bouill', on hésite pas, rafale Devant l'équipe, encaisse les balles hey, wah 6.7 OBS dans l'bloc, hey woo Sans contact et sans traces, on t'couche Dans la Maybach j'le-rou ma kush Salope, j't'aperçois quand tu louches hey, brr Tu sais qu'on termine la mission Fait tout carré, mais toi t'insistes Tu finiras dans un trou Le .37 Magnum va faire la diff' sale pute Montre-lui c'est qui le boss Avant qu'j'le torture, mets des crosse Ligote sa race, sale pute, sans pitié Et tte-je le corps1</t>
+          <t>Yo I'm at high risk of dying, their evil eye May God protect us Bando smokey, I gotta get out 'cause they're smoking c- It's giving man headrush Hygiene poor, look at the floor, there's insects crawling They prolly got bedbugs Ugh We ain't doing irrational get back Creep up clean when they least expect us, huh Baow, baow, baow Come to the helma, start smelling the ganja aroma Alright Was horny, I try hit Polska Don't think straight when I get on the boner I wanna get vulgar, I wanna have fun But as soon as I'm done, I'm handing her over She wanna hav a baby sat in a stroller Alright She wanna play for a bit of exposur Hold up, most of my stories remain untold I don't wanna explain it They said it's a dream come true I just wanna get rich, I don't wanna get famous What you know about stranger danger? Pitched bare shots right there in the skate park I feel like D-Block, suttin' like Jada Han I feel like Key Glock, everything major Ekip, ekip, ekip On veut le cash, fuck être connu cash Je coupe le gâteau, j'offre des bonus cash Fuck l'UNICEF et l'ONU Fuck le jeu, j'ai les codes et les soluces han Il faut v'là de sommes vite Le plavon l'actionne vite C'est la guerre comme à Jacksonville T.E.N, So Osi' Jack Sur la prod j'suis comme Tony Jaa Chrono24 j'regarde les courbes Crypto.com j'regarde les courbes Audi A8 j'regarde les courbes Ashanti j'regarde son visage, j'regarde ses courbes Sous lin j'analyse toutes les options Bientôt la Audi avec toutes les options sku Chen Zen aka le Professeur Rogue Négro j'ai masterisé toutes les potions lin 667, LYM On achète leurs flows avec p'tet 3 Yen Concurrence ils ont des vieilles moyennes Ils ont des Onlyfans, des MYM 667, LYM On achète leurs flows avec p'tet 3 Yen Concurrence ils ont des vieilles moyennes Ils ont des Onlyfans, des MYM I wanna get rich, I don't want no fame Hotspurs, taking risk with the 'caine Mind where you're looking, fix your face No dinner lady, came with a tray Roosh Just got back London, now I'm on Gumtree patterning dingers Bathing Ape's, I came with gorillas You see this game, it's smoke and mirrors Smoke and mirrors, that's all that I see when I'm changing speed Let's go In a camp with Morgan Keys, Santorini Ooh, he ain't get away lightly He can hold more than 3 Yo, this one ain't hold 6 Leave a man 6 feet deep Let's get it I'm with Freeze, 667 Paname with all of the G's Bam then you gotta skeet Fuck with my brothers, then you gotta bleed Grrr Bring in the eaters and they gonna eat Bring out the beaters and they gonna beat 808, I'm bringing the bass, I'm bringing the bait live in the streets Hey, brr C'est chaud dans la ville, t'es cuit hey, OBS Tu veux mon beurre, ma kich', mon riz Ça t'a propulsé, on a tout repris Tu vas couler, ouais c'est sombre ici Y a pas d'bouée, sur le bateau on t'laisse jouer Dévoué, ça t'jette à l'eau si tu fais l'bourré Si OBS te flingue, tu t'fais trouer sale No cap, on a fait du sale Assure l'opé', glock sur la taille Y a bouill', on hésite pas, rafale Devant l'équipe, encaisse les balles hey, wah 6.7 OBS dans l'bloc, hey woo Sans contact et sans traces, on t'couche Dans la Maybach j'le-rou ma kush Salope, j't'aperçois quand tu louches hey, brr Tu sais qu'on termine la mission Fait tout carré, mais toi t'insistes Tu finiras dans un trou Le .37 Magnum va faire la diff' sale pute Montre-lui c'est qui le boss Avant qu'j'le torture, mets des crosse Ligote sa race, sale pute, sans pitié Et tte-je le corps1</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5963,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl 17TRACK, so la prise, tous les jours, check quand l'colis atterrit Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kevin Différents types de frappe comme un buteur et j'arrive blindé comme un lutteur Vrai négro comme Gillie, t'as dé-pop comme Billy, j'suis un océan, t'es comme dix litres J'reste vrai du berceau à la tombe, so Nipsey, jamais j'arrête le marathon Les cadavres de prod commncent à s'entasser Focus comm si j'ai bu cent cafés, loin du rap comme si j'habite à Santa Fe So la prise, connecté comme un câble Ethernet J'm'agenouille que devant lÉternel Wax, j'finis la tâche en balle, si j'ai la dalle, j'sais faire du cash en balle Lin dans l'Mons', j'me fais un flash en balle, j'évite les obstacles comme dans Crash, en balle, ekip eh J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt pétasse, eh, han J'les brûle en deux lignes ekip, ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens J'sip le Hi-Tech, j'fume la Cali, j'fume le Drytech Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Négro, j'm'entraîne depuis le logo, so la Secte, le triangle, le logo Dans l'milieu comme Allan, technique de malade, j'veux la même SACEM que Lalanne 20-20 Menace Fantôme, j'veux la Continental et la Phantom, pétasse So la Black Mafia, so Oxmo Rarissime comme O'Rosko, j'suis dans le lin, le xan, so Pop Smoke J'mets pas d'vernis et j'fais pas d'teinture So Kaki, j'suis repeint mais j'parle pas d'peinture Tu fais la mala, tu prends 7 , pendant qu'j'fume des louds à 37 Si j'me présente, j'pense que j'prends 7 , Freezer deuxième forme, j'suis qu'à 7 , pétasse You might also like J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt eh, hein J'les brûle en deux lignes ekip, ekip Vos rappeurs sont lourds comme deux livres, ekip eh J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt eh, hein J'les brûle en deux lignes ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens comme si j'avais sept sens Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette chaque jour en cachette J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl au Padéryl Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kévin sont drôles comme Kévin Différents types de frappe comme un buteur comme un buteur et j'arrive blindé comme un lutteur comme un lutteur10</t>
+          <t>J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl 17TRACK, so la prise, tous les jours, check quand l'colis atterrit Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kevin Différents types de frappe comme un buteur et j'arrive blindé comme un lutteur Vrai négro comme Gillie, t'as dé-pop comme Billy, j'suis un océan, t'es comme dix litres J'reste vrai du berceau à la tombe, so Nipsey, jamais j'arrête le marathon Les cadavres de prod commncent à s'entasser Focus comm si j'ai bu cent cafés, loin du rap comme si j'habite à Santa Fe So la prise, connecté comme un câble Ethernet J'm'agenouille que devant lÉternel Wax, j'finis la tâche en balle, si j'ai la dalle, j'sais faire du cash en balle Lin dans l'Mons', j'me fais un flash en balle, j'évite les obstacles comme dans Crash, en balle, ekip eh J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt pétasse, eh, han J'les brûle en deux lignes ekip, ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens J'sip le Hi-Tech, j'fume la Cali, j'fume le Drytech Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette Négro, j'm'entraîne depuis le logo, so la Secte, le triangle, le logo Dans l'milieu comme Allan, technique de malade, j'veux la même SACEM que Lalanne 20-20 Menace Fantôme, j'veux la Continental et la Phantom, pétasse So la Black Mafia, so Oxmo Rarissime comme O'Rosko, j'suis dans le lin, le xan, so Pop Smoke J'mets pas d'vernis et j'fais pas d'teinture So Kaki, j'suis repeint mais j'parle pas d'peinture Tu fais la mala, tu prends 7 , pendant qu'j'fume des louds à 37 Si j'me présente, j'pense que j'prends 7 , Freezer deuxième forme, j'suis qu'à 7 , pétasse J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt eh, hein J'les brûle en deux lignes ekip, ekip Vos rappeurs sont lourds comme deux livres, ekip eh J'mets un flacon dans l'deux litres lin, lin, lin, lin J'suis dans la défense comme De Ligt eh, hein J'les brûle en deux lignes ekip, ekip Vos rappeurs sont lourds comme deux livres, pétasse North Face, 700, j'avance comme si j'avais sept sens comme si j'avais sept sens Audio dope en sachet, vos rappeurs nous écoutent chaque jour en cachette chaque jour en cachette J'suis dans le lin, j'vois flou, pétasse, j'arrive éclaté au Padéryl au Padéryl Mal fons' comme Devin, j'ai la vision comme Kevin, ces p'tits négros sont drôles comme Kévin sont drôles comme Kévin Différents types de frappe comme un buteur comme un buteur et j'arrive blindé comme un lutteur comme un lutteur10</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5980,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Discographie - LT RT Klan Single - 20130705 LT RT Klan - Shemale - 20131210 LT RT Klan - Roi des tunnels - 20140224 LT RT Klan - Sprite - 20140324 LT RT Klan - Michael Jackson Featuring - 20140106 RTT Clan - Nous Discographie complémentaire - Discographie - Freeze Corleone - Discographie - JorrdeeYou might also like</t>
+          <t>Discographie - LT RT Klan Single - 20130705 LT RT Klan - Shemale - 20131210 LT RT Klan - Roi des tunnels - 20140224 LT RT Klan - Sprite - 20140324 LT RT Klan - Michael Jackson Featuring - 20140106 RTT Clan - Nous Discographie complémentaire - Discographie - Freeze Corleone - Discographie - Jorrdee</t>
         </is>
       </c>
     </row>
@@ -6005,7 +5997,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Est-c'que j'peux savoir c'que c'est qu'cette odeur ? Oh c'est mon parfum ! Cannabis pour homme Jamais entendu parler I'm just laid back chilling posted, living like a villian mostly High off this purple shit, no lie I'm flyin I'm so roasted Money, bitches, Testarossas, Veuve-Clicquot, few mimosas Bring them thru my ups and downs life is like a roller coaster I'm just laid back chilling posted, living like a villian mostly High off this purple shit, no lie I'm flyin I'm so roasted Money, bitches, Testarossas, Veuve-Clicquot, few mimosas Bring them thru my ups and downs life is like a roller coaster Freeze et sa weed, tu connais déjà l'histoire 10 mois avec la daillance, d'amour une histoire Dans mon lit l'soir et avec moi au réveil, elle me dérègle Et mec c'est vraiment cool, car ma Jane n'a jamais ses règles Yeah, je plane très haut au-dessus d'vous, je suis désolé Impossible de me joindre à mon altitude, y'a pas de réseau Mais t'inquiètes, j'redescends souvent pour remplir le réservoir Tous ceux qui n'approuvent pas ce genre de sons peuvent aller s'faire voir Comme ça c'est dit, maintenant j'ai d'l'appétit, les petits MCs qui Sont pas terribles n'ont qu'à faire gaffe à eux s'ils ne veulent pas périr Facile, pas grave, maintenant c'est du passé Vas-y gars, t'as aucune chance de me dépasser Donc abandonne si j'suis déjà devant toi, sinon accélère Et surveille tes arrières, même si j'suis chaud garde ton sang-froid Trop d'pression, j'provoque des erreurs chez l'adversaire Par contre je suis toujours peace, c'est à ça que la verte sert Négro, aloe vera dans l'air, ma voisine veut m'virer De l'immeuble parce que ça sent l'herbe à plein nez dans les Couloirs, j'suis rôti, grillé à des kilomètres Perpétuelle recherche de la daillance, ceux qui m'connaissent Se rappelleront ma maria quand j'suis fonscar Là on sait que la daillance a été trouvée dès qu'on m'parle Ma Jane, ma blonde, j'suis relax, j'amène la bombe Terroriste, une menace pour la société, on s'balade Avec les yeux de Jacky, Faya Family Gang Retiens bien le nom de ma clique, pour la recherche on s'active Herbe médicinale emballée dans des OCBs Ça s'voit dedans que j'écris mes textes avec des mots et des Spliffs fils, j'vise la daillance ultime donc j'tire sur l'spliff Et j'me tire, j'vois vite un tas d'trucs sublimes Trop haut, il faudrait vraiment beaucoup d'gros joints MC, pour avoir une chance un jour de nous rejoindre You might also like I'm just laid back chilling posted, living like a villian mostly High off this purple shit, no lie I'm flyin I'm so roasted Money, bitches, Testarossas, Veuve-Clicquot, few mimosas Bring them thru my ups and downs life is like a roller coaster I'm just laid back chilling posted, living like a villian mostly High off this purple shit, no lie I'm flyin I'm so roasted Money, bitches, Testarossas, Veuve-Clicquot, few mimosas Bring them thru my ups and downs life is like a roller coaster Double-F Gang, à la recherche de la daillance Freezi F bitch, iens que j't'explique Pour les mecs qui savent que j'maîtrise les techniques au M.ic</t>
+          <t>Est-c'que j'peux savoir c'que c'est qu'cette odeur ? Oh c'est mon parfum ! Cannabis pour homme Jamais entendu parler I'm just laid back chilling posted, living like a villian mostly High off this purple shit, no lie I'm flyin I'm so roasted Money, bitches, Testarossas, Veuve-Clicquot, few mimosas Bring them thru my ups and downs life is like a roller coaster I'm just laid back chilling posted, living like a villian mostly High off this purple shit, no lie I'm flyin I'm so roasted Money, bitches, Testarossas, Veuve-Clicquot, few mimosas Bring them thru my ups and downs life is like a roller coaster Freeze et sa weed, tu connais déjà l'histoire 10 mois avec la daillance, d'amour une histoire Dans mon lit l'soir et avec moi au réveil, elle me dérègle Et mec c'est vraiment cool, car ma Jane n'a jamais ses règles Yeah, je plane très haut au-dessus d'vous, je suis désolé Impossible de me joindre à mon altitude, y'a pas de réseau Mais t'inquiètes, j'redescends souvent pour remplir le réservoir Tous ceux qui n'approuvent pas ce genre de sons peuvent aller s'faire voir Comme ça c'est dit, maintenant j'ai d'l'appétit, les petits MCs qui Sont pas terribles n'ont qu'à faire gaffe à eux s'ils ne veulent pas périr Facile, pas grave, maintenant c'est du passé Vas-y gars, t'as aucune chance de me dépasser Donc abandonne si j'suis déjà devant toi, sinon accélère Et surveille tes arrières, même si j'suis chaud garde ton sang-froid Trop d'pression, j'provoque des erreurs chez l'adversaire Par contre je suis toujours peace, c'est à ça que la verte sert Négro, aloe vera dans l'air, ma voisine veut m'virer De l'immeuble parce que ça sent l'herbe à plein nez dans les Couloirs, j'suis rôti, grillé à des kilomètres Perpétuelle recherche de la daillance, ceux qui m'connaissent Se rappelleront ma maria quand j'suis fonscar Là on sait que la daillance a été trouvée dès qu'on m'parle Ma Jane, ma blonde, j'suis relax, j'amène la bombe Terroriste, une menace pour la société, on s'balade Avec les yeux de Jacky, Faya Family Gang Retiens bien le nom de ma clique, pour la recherche on s'active Herbe médicinale emballée dans des OCBs Ça s'voit dedans que j'écris mes textes avec des mots et des Spliffs fils, j'vise la daillance ultime donc j'tire sur l'spliff Et j'me tire, j'vois vite un tas d'trucs sublimes Trop haut, il faudrait vraiment beaucoup d'gros joints MC, pour avoir une chance un jour de nous rejoindre I'm just laid back chilling posted, living like a villian mostly High off this purple shit, no lie I'm flyin I'm so roasted Money, bitches, Testarossas, Veuve-Clicquot, few mimosas Bring them thru my ups and downs life is like a roller coaster I'm just laid back chilling posted, living like a villian mostly High off this purple shit, no lie I'm flyin I'm so roasted Money, bitches, Testarossas, Veuve-Clicquot, few mimosas Bring them thru my ups and downs life is like a roller coaster Double-F Gang, à la recherche de la daillance Freezi F bitch, iens que j't'explique Pour les mecs qui savent que j'maîtrise les techniques au M.ic</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6031,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Han, yeah Damn, ouais, vraie situation, motherfucker Bon, voilà c'qui m'est arrivé ce samedi On devait aller dans un frais bar, à c'que Mam' disait Donc dès l'réveil, dans ma tête en soirée, ça sannonçait cool On devait s'fonce-dé, moi et quelques enfoirés Je me lève, j'allume un pét', je joue à FIFA Je check Face de Livre, j'vois Rifa qui m'dit Issa Qu'est c'tu fous soir-ce ?, j'lui dis Rien, mec Viens, on va boire, je crois que Sodam et Mam's Ont dégoté un coin cool, il m'dit Ok, nice Donc viens t'foutre ça à la maison avant qu'on y aille J'lui dis Aight, quelques déculottés sur le Live plus tard J'suis faya, j'me dis gro-Né, il est temps qu'tu t'laves Qu'tu taffes et qu'tu partes, j'avais déjà prévu comment J'me sapperais, petit polo Levi's, Vans noires, snapback Jets Dans un sachet, un peu d'aloe vera je place Je prends mon Mac, mes clés, ma veste et je trace Je me tape une p'tite clope et dans le bus je monte J'arrive au métro, j'attends 6-10-puissance-2 secondes Direction Berri-UQAM, j'suis calme Écouteurs dans les oreilles, j'écoute Chip Tha Ripper 10 heures, j'arrive chez le négro On s'fout ça, Sodam et Mam's arrivent du métro Quelques minutes plus tard, ils rappliquent, on s'fout ça J'en roule un pour plus tard, je m'applique J'le fous dans mon paquet, Rifa n'est pas prêt, comme d'hab' Donc dix minutes après, on décolle, gars Nous voilà devant l'bar, aussitôt qu'il nous voit Le videur nous dit Ce n'sera pas possible, oh ! Pour vous trois, désignant Sodam, Rif' et moi-même Pourquoi ? Ce bâtard m'dit À cause des casquettes Osti d'fagget, gros fils de pute Si j'avais un Glock, là, c'est sûr que j'te tire dessus Mais c'est la réalité, en loccurrence plutôt dure J'comprends pas, d'habitude, on cale à cause des chaussures On s'écarte un peu, histoire de réfléchir Et là, Mam's nous dit qu'il a un plan qui déchire On fait l'tour, on rentre deux par deux par derrière Tout l'monde est d'accord, de toute manière, y a qu'ça à faire Yeah, on y va, Rifa et Sodam rentrent, une clope Deux-trois minutes, on attend, un SMS nous confirme que la voie est libre On y va, on rentre, je me dis prenez-vous c'doigt, j'les nique Quand on est dedans, j'remets ma snapback Les gars me regardent tête nue et pensent Sale bâtard On s'balade un peu, on regarde c'qui s'passe Après dix minutes, ça commence à tise La soirée s'annonce bien, elle promet de la bonne musique Et des biatchs avec des grosses fesses, une petite vingtaine De minutes au bar, de verre, j'en suis au troisième Ce soir, gros, j'pars loin, tout à coup, je revois Le fils de pute, là, c'est lui avec ses yeux qui m'tirent dessus Il s'ramène et il m'dit J't'avais prévenu, maintenant, tu m'suis Putain, si j'avais un Uzi, négro, tu serais dans la merde Mais là je traverse la boîte, escorté par ce grand dadet Il m'dit Ouais, ici on veut pas de ton style de gangster Mec je baise ta mère, ta sur et ta belle-sur Putain, toutes les insultes que j'avais dans la tête Au moment où il m'a dit Négro, vas-y, prends ta veste Et voilà j'me retrouve dehors, tout seul Dans l'froid, verre à la main, fout l'seum Ce genre de zéro, mais j'y pense, j'ai toujours le bédo J'arriverais à coup sûr à faire sortir les négros Je m'en vais au Couche-Tard, histoire de faire de la monnaie Pour la cabine, je n'ai pas de téléphone cellulaire Je sors, je compose et j'appelle, Birdman décroche J'lui dis Ouais, les mecs, c'est la merde Sortez, il m'dit Ok, viens devant Devant j'attends 15 minutes, ressemblant à 2 anges J'vois deux-trois petits blancs rentrer avec des casquettes À c'mec, j'avais envie d'éclater la pastèque Bon, les gars sortent, le groupe amputé d'Mamad' Le gars drague avec intention de mettre ça mal Mais bon, franchement, le gangster, je comprends On s'tape le pét' et on s'dit bon les mecs, on rentre Et nous voici de retour chez Rifa Dégoûtés par toute cette vieille histoire On s'est éclatés la gueule jusqu'à s'endormir Tu crois qu'c'est fini mais attends, y a encore pire Donc le lendemain, j'me réveille, j'me fous ça avec les négros Je prends mes affaires et puis je prends le métro J'avais envie d'chier donc j'suis vite rentré chez moi Déjà dans l'couloir, devant ma porte, par terre, j'vois des bois J'me dis Shit, mes soupçons se confirment quand j'arrive Porte fracturée, j'me dis Pourquoi tout ça m'arrive ? Ecran, XBox, Beats et clavier partis Cette merde s'est passée pendant ma mésaventure tardive Pourquoi j'suis sorti ce putain d'samedi 19 ? J'me demanderai toujours pourquoi j'suis sorti Pourquoi j'suis sorti ce putain d'samedi 19 ?You might also like1</t>
+          <t>Han, yeah Damn, ouais, vraie situation, motherfucker Bon, voilà c'qui m'est arrivé ce samedi On devait aller dans un frais bar, à c'que Mam' disait Donc dès l'réveil, dans ma tête en soirée, ça sannonçait cool On devait s'fonce-dé, moi et quelques enfoirés Je me lève, j'allume un pét', je joue à FIFA Je check Face de Livre, j'vois Rifa qui m'dit Issa Qu'est c'tu fous soir-ce ?, j'lui dis Rien, mec Viens, on va boire, je crois que Sodam et Mam's Ont dégoté un coin cool, il m'dit Ok, nice Donc viens t'foutre ça à la maison avant qu'on y aille J'lui dis Aight, quelques déculottés sur le Live plus tard J'suis faya, j'me dis gro-Né, il est temps qu'tu t'laves Qu'tu taffes et qu'tu partes, j'avais déjà prévu comment J'me sapperais, petit polo Levi's, Vans noires, snapback Jets Dans un sachet, un peu d'aloe vera je place Je prends mon Mac, mes clés, ma veste et je trace Je me tape une p'tite clope et dans le bus je monte J'arrive au métro, j'attends 6-10-puissance-2 secondes Direction Berri-UQAM, j'suis calme Écouteurs dans les oreilles, j'écoute Chip Tha Ripper 10 heures, j'arrive chez le négro On s'fout ça, Sodam et Mam's arrivent du métro Quelques minutes plus tard, ils rappliquent, on s'fout ça J'en roule un pour plus tard, je m'applique J'le fous dans mon paquet, Rifa n'est pas prêt, comme d'hab' Donc dix minutes après, on décolle, gars Nous voilà devant l'bar, aussitôt qu'il nous voit Le videur nous dit Ce n'sera pas possible, oh ! Pour vous trois, désignant Sodam, Rif' et moi-même Pourquoi ? Ce bâtard m'dit À cause des casquettes Osti d'fagget, gros fils de pute Si j'avais un Glock, là, c'est sûr que j'te tire dessus Mais c'est la réalité, en loccurrence plutôt dure J'comprends pas, d'habitude, on cale à cause des chaussures On s'écarte un peu, histoire de réfléchir Et là, Mam's nous dit qu'il a un plan qui déchire On fait l'tour, on rentre deux par deux par derrière Tout l'monde est d'accord, de toute manière, y a qu'ça à faire Yeah, on y va, Rifa et Sodam rentrent, une clope Deux-trois minutes, on attend, un SMS nous confirme que la voie est libre On y va, on rentre, je me dis prenez-vous c'doigt, j'les nique Quand on est dedans, j'remets ma snapback Les gars me regardent tête nue et pensent Sale bâtard On s'balade un peu, on regarde c'qui s'passe Après dix minutes, ça commence à tise La soirée s'annonce bien, elle promet de la bonne musique Et des biatchs avec des grosses fesses, une petite vingtaine De minutes au bar, de verre, j'en suis au troisième Ce soir, gros, j'pars loin, tout à coup, je revois Le fils de pute, là, c'est lui avec ses yeux qui m'tirent dessus Il s'ramène et il m'dit J't'avais prévenu, maintenant, tu m'suis Putain, si j'avais un Uzi, négro, tu serais dans la merde Mais là je traverse la boîte, escorté par ce grand dadet Il m'dit Ouais, ici on veut pas de ton style de gangster Mec je baise ta mère, ta sur et ta belle-sur Putain, toutes les insultes que j'avais dans la tête Au moment où il m'a dit Négro, vas-y, prends ta veste Et voilà j'me retrouve dehors, tout seul Dans l'froid, verre à la main, fout l'seum Ce genre de zéro, mais j'y pense, j'ai toujours le bédo J'arriverais à coup sûr à faire sortir les négros Je m'en vais au Couche-Tard, histoire de faire de la monnaie Pour la cabine, je n'ai pas de téléphone cellulaire Je sors, je compose et j'appelle, Birdman décroche J'lui dis Ouais, les mecs, c'est la merde Sortez, il m'dit Ok, viens devant Devant j'attends 15 minutes, ressemblant à 2 anges J'vois deux-trois petits blancs rentrer avec des casquettes À c'mec, j'avais envie d'éclater la pastèque Bon, les gars sortent, le groupe amputé d'Mamad' Le gars drague avec intention de mettre ça mal Mais bon, franchement, le gangster, je comprends On s'tape le pét' et on s'dit bon les mecs, on rentre Et nous voici de retour chez Rifa Dégoûtés par toute cette vieille histoire On s'est éclatés la gueule jusqu'à s'endormir Tu crois qu'c'est fini mais attends, y a encore pire Donc le lendemain, j'me réveille, j'me fous ça avec les négros Je prends mes affaires et puis je prends le métro J'avais envie d'chier donc j'suis vite rentré chez moi Déjà dans l'couloir, devant ma porte, par terre, j'vois des bois J'me dis Shit, mes soupçons se confirment quand j'arrive Porte fracturée, j'me dis Pourquoi tout ça m'arrive ? Ecran, XBox, Beats et clavier partis Cette merde s'est passée pendant ma mésaventure tardive Pourquoi j'suis sorti ce putain d'samedi 19 ? J'me demanderai toujours pourquoi j'suis sorti Pourquoi j'suis sorti ce putain d'samedi 19 ?1</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6048,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Ils veulent briller, nique ça j'veux être une éclipse H24 fonscar, toute la sainte journée j'allume des spliffs Yeuz rouges comme nos sabres coté obscur, so à tous mes Siths Destruction totale de l'ennemi, élimination d'toutes les cibles Def tate, j'me sens comme Néo dans Matrix Complotant dans ma base sous l'Antarctique Blédard mentality, négro, j'prends l'khaliss et j'rentre en Afrique Construire des immeubles, négro, des villas Mettre l'eau, lélectricité et même la fibre optique dans mon village Dans les ténèbres préparant votre chute, dans cette merde pour argent nègre et or pur Inch'Allah un jour j'aurai une fortune, pour m'avoir, négro cherche les Horcruxes Darth Chen a.k.a Tom Jedusor, langage codé comme si j'kickais du morse J'veux pas qu'ma glande pinéale se calcifie donc négro j'évite de bouffer du porc Seigneur nègre, chasseur de colons, déclaration d'guerre, sacrifice de colombe Comme B.2.O l'a dit, c'est pas la mer qui prend l'homme, négro c'est Christophe Colomb Cerveau sale, pétasse sort du pressing, négro, on approche à grands pas Comme l'arrivée du faux messie, des comme nous y'en a qu'une fois tous les cycles Hélicoptère, fusil à lunette, négro, on vole au-dessus du troupeau Et j'avance autour de l'enclos, dans l'ombre négro, mes loups rodent Vision nocturne comme Sam Fisher, noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher, silencieux comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher Silencieux comme Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher You might also like Double-6.7, négro, Sam Fisher J'veux beaucoup d'argent nègre, beaucoup d'lingots Des tanks, des planques, des B-2 furtifs et plein d'drones J'regarde la concurrence, négro c'est bien drôle Chen Zen a.k.a Il Capitano J'fais cette merde comme un Chicanos Numéro 7 comme Cristiano Sam Fisher, comme Sam Fisher Sam Fisher, négro comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Double-6.7 mafia, han J'prie pour n'pas finir en Dacia J'ouvre mon école négro, ma Masia Han, double-6.7 kartel De l'autre côté d'la Stargate Gaddamn, appelle-moi Darth Chen Sam Fisher, comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher Silencieux comme Sam Fisher</t>
+          <t>Ils veulent briller, nique ça j'veux être une éclipse H24 fonscar, toute la sainte journée j'allume des spliffs Yeuz rouges comme nos sabres coté obscur, so à tous mes Siths Destruction totale de l'ennemi, élimination d'toutes les cibles Def tate, j'me sens comme Néo dans Matrix Complotant dans ma base sous l'Antarctique Blédard mentality, négro, j'prends l'khaliss et j'rentre en Afrique Construire des immeubles, négro, des villas Mettre l'eau, lélectricité et même la fibre optique dans mon village Dans les ténèbres préparant votre chute, dans cette merde pour argent nègre et or pur Inch'Allah un jour j'aurai une fortune, pour m'avoir, négro cherche les Horcruxes Darth Chen a.k.a Tom Jedusor, langage codé comme si j'kickais du morse J'veux pas qu'ma glande pinéale se calcifie donc négro j'évite de bouffer du porc Seigneur nègre, chasseur de colons, déclaration d'guerre, sacrifice de colombe Comme B.2.O l'a dit, c'est pas la mer qui prend l'homme, négro c'est Christophe Colomb Cerveau sale, pétasse sort du pressing, négro, on approche à grands pas Comme l'arrivée du faux messie, des comme nous y'en a qu'une fois tous les cycles Hélicoptère, fusil à lunette, négro, on vole au-dessus du troupeau Et j'avance autour de l'enclos, dans l'ombre négro, mes loups rodent Vision nocturne comme Sam Fisher, noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher, silencieux comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher Silencieux comme Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Double-6.7, négro, Sam Fisher J'veux beaucoup d'argent nègre, beaucoup d'lingots Des tanks, des planques, des B-2 furtifs et plein d'drones J'regarde la concurrence, négro c'est bien drôle Chen Zen a.k.a Il Capitano J'fais cette merde comme un Chicanos Numéro 7 comme Cristiano Sam Fisher, comme Sam Fisher Sam Fisher, négro comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Double-6.7 mafia, han J'prie pour n'pas finir en Dacia J'ouvre mon école négro, ma Masia Han, double-6.7 kartel De l'autre côté d'la Stargate Gaddamn, appelle-moi Darth Chen Sam Fisher, comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher Silencieux comme Sam Fisher</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6065,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Ils veulent briller, nique ça j'veux être une éclipse H24 fonscar, toute la sainte journée j'allume des spliffs Yeuz rouges comme nos sabres coté obscur, so à tous mes Siths Destruction totale de l'ennemi, élimination d'toutes les cibles Def tate, j'me sens comme Néo dans Matrix Complotant dans ma base sous l'Antarctique Blédard mentality, négro, j'prends l'khaliss et j'rentre en Afrique Construire des immeubles, négro, des villas Mettre l'eau, lélectricité et même la fibre optique dans mon village Dans les ténèbres préparant votre chute, dans cette merde pour argent nègre et or pur Inch'Allah un jour j'aurai une fortune, pour m'avoir, négro cherche les Horcruxes Darth Chen a.k.a Tom Jedusor, langage codé comme si j'kickais du morse J'veux pas qu'ma glande pinéale se calcifie donc négro j'évite de bouffer du porc Seigneur nègre, chasseur de colons, déclaration d'guerre, sacrifice de colombe Comme B.2.O l'a dit, c'est pas la mer qui prend l'homme, négro c'est Christophe Colomb Cerveau sale, pétasse sort du pressing, négro, on approche à grands pas Comme l'arrivée du faux messie, des comme nous y'en a qu'une fois tous les cycles Hélicoptère, fusil à lunette, négro, on vole au-dessus du troupeau Et j'avance autour de l'enclos, dans l'ombre négro, mes loups rodent Vision nocturne comme Sam Fisher, noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher, silencieux comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher Silencieux comme Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher You might also like Double-6.7, négro, Sam Fisher J'veux beaucoup d'argent nègre, beaucoup d'lingots Des tanks, des planques, des B-2 furtifs et plein d'drones J'regarde la concurrence, négro c'est bien drôle Chen Zen a.k.a Il Capitano J'fais cette merde comme un Chicanos Numéro 7 comme Cristiano Sam Fisher, comme Sam Fisher Sam Fisher, négro comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Double-6.7 mafia, han J'prie pour n'pas finir en Dacia J'ouvre mon école négro, ma Masia Han, double-6.7 kartel De l'autre côté d'la Stargate Gaddamn, appelle-moi Darth Chen Sam Fisher, comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher Silencieux comme Sam Fisher</t>
+          <t>Ils veulent briller, nique ça j'veux être une éclipse H24 fonscar, toute la sainte journée j'allume des spliffs Yeuz rouges comme nos sabres coté obscur, so à tous mes Siths Destruction totale de l'ennemi, élimination d'toutes les cibles Def tate, j'me sens comme Néo dans Matrix Complotant dans ma base sous l'Antarctique Blédard mentality, négro, j'prends l'khaliss et j'rentre en Afrique Construire des immeubles, négro, des villas Mettre l'eau, lélectricité et même la fibre optique dans mon village Dans les ténèbres préparant votre chute, dans cette merde pour argent nègre et or pur Inch'Allah un jour j'aurai une fortune, pour m'avoir, négro cherche les Horcruxes Darth Chen a.k.a Tom Jedusor, langage codé comme si j'kickais du morse J'veux pas qu'ma glande pinéale se calcifie donc négro j'évite de bouffer du porc Seigneur nègre, chasseur de colons, déclaration d'guerre, sacrifice de colombe Comme B.2.O l'a dit, c'est pas la mer qui prend l'homme, négro c'est Christophe Colomb Cerveau sale, pétasse sort du pressing, négro, on approche à grands pas Comme l'arrivée du faux messie, des comme nous y'en a qu'une fois tous les cycles Hélicoptère, fusil à lunette, négro, on vole au-dessus du troupeau Et j'avance autour de l'enclos, dans l'ombre négro, mes loups rodent Vision nocturne comme Sam Fisher, noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher, silencieux comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher Silencieux comme Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Sam Fisher, Sam Fisher Double-6.7, négro, Sam Fisher J'veux beaucoup d'argent nègre, beaucoup d'lingots Des tanks, des planques, des B-2 furtifs et plein d'drones J'regarde la concurrence, négro c'est bien drôle Chen Zen a.k.a Il Capitano J'fais cette merde comme un Chicanos Numéro 7 comme Cristiano Sam Fisher, comme Sam Fisher Sam Fisher, négro comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Double-6.7 mafia, han J'prie pour n'pas finir en Dacia J'ouvre mon école négro, ma Masia Han, double-6.7 kartel De l'autre côté d'la Stargate Gaddamn, appelle-moi Darth Chen Sam Fisher, comme Sam Fisher Vision nocturne comme Sam Fisher Noir et vert comme Sam Fisher Dans l'ombre furtif comme Sam Fisher Silencieux comme Sam Fisher</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6082,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Dirty South Family, 667 C'est un no cap quand j'te dis qu'C4PA fout l'fire on the track Dirty South, hey, tu connais les bails J'pense au succès, pas aux trophies, là, dang, mes poumons s'atrophient Y a personne pour nous applaudir brr, j'continue tant qu'ça nous profite brr J'mange, gros, j'grossis, j'ai pas l'temps pour tous vos gossips nan La famille, remplir des gosiers, si possible, absence de souci yeah 667, DSF, plus prestigieux qu'tous vos prestiges brr, brr, brr J'suis un vrai South Babe, quand j'vise le haut, j'ai pas de vertige brr, brr, brr La première sera la dernière, j'répète jamais deux fois mes dires han On est très calme, tu sais, mais j'aimerais pas commencer à sévir Ayo babe, nan, c'n'est pas qu'une impression yeah, j'abrège vite la discussion La vie que j'suis plus qu'endurant han, brr, j'me suis promis de faire du cash et ça, ça n'sort plus de ma tête J'ai que la money dans ma mind et des grosses kichtas dans la veste J'trébuche encore, j'fais qu'renverser mes glaçons J'pensais pas autant générer juste en faisant du son 667, Dirty South, blud, j'ai fini tout le pas C'est l'sud mais c'est pas Memphis, j'peux pas y croire, c'est un cap c'est un cap J'pense au succès, pas aux trophies brr, j'pense au succès pas aux trophies, brr J'peux que penser à faire du profit brr, j'peux que penser à faire du sale, brr Wesh, c'est le D, c'est le S, c'est le F, c'est le South brr J'ai dit, j'ferai tout pour la famille j'ai dit, j'ferai tout pour la famille You might also like 2k23, j'prends le lock han, entrée de surface, je l'enveloppe, j'aime bien l'cash dans les enveloppes cash Pétasse, j'parle pas avec les porcs nan, pour les prods, j'viens avec les cordes, j'pars du studio avec les corps ah Avec Parlemoneystp, négro ekip, donc parle money s'te plait, négro ekip 667, DSF ekip, plus de sauce que TSF han Toujours dans les temps, plus blindé que dans les tanks fa-fa J'suis l'requin dans la vague, négro ah, t'es même pas l'plus gros poisson dans l'étang eh J'roule plus que dix-sept cyclistes fu, fu, fu, faut investir dans des business cycliques cash, cash J'pense au succès, pas aux trophées nan, Corleone, négro, je gagne au procès han Santos au poignet, so OC ah, fonce-dé au lin, so Dro Fe J'trébuche encore, j'fais qu'renverser mes glaçons J'pensais pas autant générer juste en faisant du son 667, Dirty South, blud, j'ai fini tout le pas C'est l'sud mais c'est pas Memphis, j'peux pas y croire, c'est un cap c'est un cap J'pense au succès, pas aux trophies brr, j'pense au succès pas aux trophies, brr J'peux que penser à faire du profit brr, j'peux que penser à faire du sale, brr Wesh, c'est le D, c'est le S, c'est le F, c'est le South brr J'ai dit, j'ferai tout pour la famille j'ai dit, j'ferai tout pour la famille</t>
+          <t>Dirty South Family, 667 C'est un no cap quand j'te dis qu'C4PA fout l'fire on the track Dirty South, hey, tu connais les bails J'pense au succès, pas aux trophies, là, dang, mes poumons s'atrophient Y a personne pour nous applaudir brr, j'continue tant qu'ça nous profite brr J'mange, gros, j'grossis, j'ai pas l'temps pour tous vos gossips nan La famille, remplir des gosiers, si possible, absence de souci yeah 667, DSF, plus prestigieux qu'tous vos prestiges brr, brr, brr J'suis un vrai South Babe, quand j'vise le haut, j'ai pas de vertige brr, brr, brr La première sera la dernière, j'répète jamais deux fois mes dires han On est très calme, tu sais, mais j'aimerais pas commencer à sévir Ayo babe, nan, c'n'est pas qu'une impression yeah, j'abrège vite la discussion La vie que j'suis plus qu'endurant han, brr, j'me suis promis de faire du cash et ça, ça n'sort plus de ma tête J'ai que la money dans ma mind et des grosses kichtas dans la veste J'trébuche encore, j'fais qu'renverser mes glaçons J'pensais pas autant générer juste en faisant du son 667, Dirty South, blud, j'ai fini tout le pas C'est l'sud mais c'est pas Memphis, j'peux pas y croire, c'est un cap c'est un cap J'pense au succès, pas aux trophies brr, j'pense au succès pas aux trophies, brr J'peux que penser à faire du profit brr, j'peux que penser à faire du sale, brr Wesh, c'est le D, c'est le S, c'est le F, c'est le South brr J'ai dit, j'ferai tout pour la famille j'ai dit, j'ferai tout pour la famille 2k23, j'prends le lock han, entrée de surface, je l'enveloppe, j'aime bien l'cash dans les enveloppes cash Pétasse, j'parle pas avec les porcs nan, pour les prods, j'viens avec les cordes, j'pars du studio avec les corps ah Avec Parlemoneystp, négro ekip, donc parle money s'te plait, négro ekip 667, DSF ekip, plus de sauce que TSF han Toujours dans les temps, plus blindé que dans les tanks fa-fa J'suis l'requin dans la vague, négro ah, t'es même pas l'plus gros poisson dans l'étang eh J'roule plus que dix-sept cyclistes fu, fu, fu, faut investir dans des business cycliques cash, cash J'pense au succès, pas aux trophées nan, Corleone, négro, je gagne au procès han Santos au poignet, so OC ah, fonce-dé au lin, so Dro Fe J'trébuche encore, j'fais qu'renverser mes glaçons J'pensais pas autant générer juste en faisant du son 667, Dirty South, blud, j'ai fini tout le pas C'est l'sud mais c'est pas Memphis, j'peux pas y croire, c'est un cap c'est un cap J'pense au succès, pas aux trophies brr, j'pense au succès pas aux trophies, brr J'peux que penser à faire du profit brr, j'peux que penser à faire du sale, brr Wesh, c'est le D, c'est le S, c'est le F, c'est le South brr J'ai dit, j'ferai tout pour la famille j'ai dit, j'ferai tout pour la famille</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6099,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>On veut des liasses par centaines A long terme comme El Chapo Black Pyramids Kartel NRM la Gestapo Infiltré comme le Mossad fils De Chiraq jusqu'à Foshan j'lean Aqua comme dans How High, weed So OV, flow kaki Négro BP-chemtrails Du ciel j'largue THC Yeuz bridés, defracté négro J'vois tout flou mais c'est HD Taff les merdes comme des asiat' Dans les sous-sols gratte hiéroglyphes Double-6 7 mafia On détruit l'Game, sadiques genre Tchernobyl Ha, riche pour toujours So Odeuxzero Enchaîne spliff sur spliff, hein Roule un autre bédo Supa tecla dans l'bando J'me déplace et voit comme un ninja Pour prendre des plantations, négro Faire pousser de la king ja You might also like x2 Combo, Osirus Roz' Freeze Rafales de balles comme Rondo Squa shit, 667 MMS LDO Combo, brasse des liasses dans un tombeau Cartes sur table Carrés d'as sont nos combos Osirus Roz' Freeze, rafales de balles Comme Rondo, combo 667 Mangemort Squazad J'veux Blackmob' vitres teintées, peinture noire mate Négro, LDO nègre 3 K Darko, Osirus, Corleone, aka les rois mages Seigneur sith, black tsar Au mic comme dragon crache flammes Dans cette merde pour du cazash Future luxure aqua dans la McLa' Dans cette merde pour le khaliss, on est beaucoup On a la dalle, va falloir des grosses sommes On est des cyborgs eux des dinosaures Au calme dans le Flanker, mitraille les cibles au sol Fonscar quand je kick, verdure dans le jean Sous lean j'ai l'impression d'flotter dans le vide Def tate j'vois tout flou en slow-motion Comme si j'avais tapé 32 litres et 102 spliffs Tous les jours fume de l'essence Négro d'janvier à décembre Derrière moi j'laisse que des cendres So Kaki, on opère dans tous les sens Sur les prods enchaîne les combos Kick cette merde depuis mon tombeau Sirote boisson rose, allume long cône Goddamn libérez Gucci, libérez Rondo x2 Combo, Osirus Roz' Freeze Rafales de balles comme Rondo Squa shit, 667 MMS LDO Combo, brasse des liasses dans un tombeau Cartes sur table Carrés d'as sont nos combos Osirus Roz' Freeze, rafales de balles Comme Rondo, combo Double-6 7, 3 mois 10 graines Izi 1 100 grammes, dans les proportions 3 mois 100 graines izi 11 000 Pendant l'ascension, izi on chill Détaché d'tout l'monde comme Kim Jung Il NRM comme du pavot t'es qu'un jonquille Aigle ne planera jamais avec geon-pi On vole de nos propres ailes près du vaisseau Merde, j'passe le shout out à mes zombies 66L gillax Zuukou Militaire, Sniper Sabre à la Kill Bill au calme Bad Michael, minuit l'heure d'mes loup-garous Jnouné all night Monarque noir au-dessus c'est l'soleil Démonte la prod, flow clé à molette Fuck le Game, au pompe, à la hache Comme chez Colette Les faf je monnaie, les liasses j'les aurai Les vrais négros s'connectent, pour l'biff on opère Ligue des ombres vit dans une autre sphère So mala là pour forger notre ère Satellite surveille le Game, plane Au-dessus d'l'atmosphère, négro x2 Combo, Osirus Roz' Freeze Rafales de balles comme Rondo Squa shit, 667 MMS LDO Combo, brasse des liasses dans un tombeau Cartes sur table Carrés d'as sont nos combos Osirus Roz' Freeze, rafales de balles Comme Rondo, combo</t>
+          <t>On veut des liasses par centaines A long terme comme El Chapo Black Pyramids Kartel NRM la Gestapo Infiltré comme le Mossad fils De Chiraq jusqu'à Foshan j'lean Aqua comme dans How High, weed So OV, flow kaki Négro BP-chemtrails Du ciel j'largue THC Yeuz bridés, defracté négro J'vois tout flou mais c'est HD Taff les merdes comme des asiat' Dans les sous-sols gratte hiéroglyphes Double-6 7 mafia On détruit l'Game, sadiques genre Tchernobyl Ha, riche pour toujours So Odeuxzero Enchaîne spliff sur spliff, hein Roule un autre bédo Supa tecla dans l'bando J'me déplace et voit comme un ninja Pour prendre des plantations, négro Faire pousser de la king ja x2 Combo, Osirus Roz' Freeze Rafales de balles comme Rondo Squa shit, 667 MMS LDO Combo, brasse des liasses dans un tombeau Cartes sur table Carrés d'as sont nos combos Osirus Roz' Freeze, rafales de balles Comme Rondo, combo 667 Mangemort Squazad J'veux Blackmob' vitres teintées, peinture noire mate Négro, LDO nègre 3 K Darko, Osirus, Corleone, aka les rois mages Seigneur sith, black tsar Au mic comme dragon crache flammes Dans cette merde pour du cazash Future luxure aqua dans la McLa' Dans cette merde pour le khaliss, on est beaucoup On a la dalle, va falloir des grosses sommes On est des cyborgs eux des dinosaures Au calme dans le Flanker, mitraille les cibles au sol Fonscar quand je kick, verdure dans le jean Sous lean j'ai l'impression d'flotter dans le vide Def tate j'vois tout flou en slow-motion Comme si j'avais tapé 32 litres et 102 spliffs Tous les jours fume de l'essence Négro d'janvier à décembre Derrière moi j'laisse que des cendres So Kaki, on opère dans tous les sens Sur les prods enchaîne les combos Kick cette merde depuis mon tombeau Sirote boisson rose, allume long cône Goddamn libérez Gucci, libérez Rondo x2 Combo, Osirus Roz' Freeze Rafales de balles comme Rondo Squa shit, 667 MMS LDO Combo, brasse des liasses dans un tombeau Cartes sur table Carrés d'as sont nos combos Osirus Roz' Freeze, rafales de balles Comme Rondo, combo Double-6 7, 3 mois 10 graines Izi 1 100 grammes, dans les proportions 3 mois 100 graines izi 11 000 Pendant l'ascension, izi on chill Détaché d'tout l'monde comme Kim Jung Il NRM comme du pavot t'es qu'un jonquille Aigle ne planera jamais avec geon-pi On vole de nos propres ailes près du vaisseau Merde, j'passe le shout out à mes zombies 66L gillax Zuukou Militaire, Sniper Sabre à la Kill Bill au calme Bad Michael, minuit l'heure d'mes loup-garous Jnouné all night Monarque noir au-dessus c'est l'soleil Démonte la prod, flow clé à molette Fuck le Game, au pompe, à la hache Comme chez Colette Les faf je monnaie, les liasses j'les aurai Les vrais négros s'connectent, pour l'biff on opère Ligue des ombres vit dans une autre sphère So mala là pour forger notre ère Satellite surveille le Game, plane Au-dessus d'l'atmosphère, négro x2 Combo, Osirus Roz' Freeze Rafales de balles comme Rondo Squa shit, 667 MMS LDO Combo, brasse des liasses dans un tombeau Cartes sur table Carrés d'as sont nos combos Osirus Roz' Freeze, rafales de balles Comme Rondo, combo</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6116,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>El Freeze, Freeze Corleone LT RT han Fuck ces guignols, Thomas Ngijol quand ça cherche les potes Goddamn Ces négros sont des shemale Shemale, ha ha Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, ha ha Vision ralentie comme Max Payne Trop loin de l'autre côté d'la Stargate Ces négros sont des shemale Ha ha, mal Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, Han LT, RT, fuck le rap game Game, han Vision ralentie comme Max Payne Payn Trop loin de l'autre côté d'la Stargate Négro comm Hitman j'débarque pour éliminer ces putes nègres Nègre LT RT vient griller des MC's, faire des thunes nègre Nègre Des bails de possession quand j'prends l'mic ou j'suis sur scène Scène Tu suces pour avancer, Ha ha pussy négro t'es qu'une merde Éruption solaire sur l'peloton Vision slow-motion à cause d'la potion bactériologique, des agents chimiques tombent du ciel comme des flocons Codéino-rap musique, musique négro la nouvelle drogue Escadron de loup, Han infiltration dans l'poulailler pendant qu'les poulets dorment Négro précis, cherche les headshots dans ton front je vise Vise J'vais mener la vie d'château, Han nique un portail j'veux un pont levis Damn Un autre niveau j'suis CR7 t'es Higuaín Fuck le rap game, j'vais bicrave mes tape sur le deep-web Yes You might also like Ces négros sont des shemale Shemale, ha ha Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, ha ha Vision ralentie comme Max Payne Payne Trop loin de l'autre côté d'la Stargate Ces négros sont des shemale Ha ha, mal Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, han Vision ralentie comme Max Payne Payne Trop loin de l'autre côté d'la Stargate Ces négros sont des shemale Shemale, ha ha Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, ha ha Vision ralentie comme Max Payne Payne Trop loin de l'autre côté d'la Stargate Ces négros sont des shemale Shemale, ha ha Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, ha ha Vision ralentie comme Max Payne Payne Trop loin de l'autre côté d'la Stargate</t>
+          <t>El Freeze, Freeze Corleone LT RT han Fuck ces guignols, Thomas Ngijol quand ça cherche les potes Goddamn Ces négros sont des shemale Shemale, ha ha Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, ha ha Vision ralentie comme Max Payne Trop loin de l'autre côté d'la Stargate Ces négros sont des shemale Ha ha, mal Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, Han LT, RT, fuck le rap game Game, han Vision ralentie comme Max Payne Payn Trop loin de l'autre côté d'la Stargate Négro comm Hitman j'débarque pour éliminer ces putes nègres Nègre LT RT vient griller des MC's, faire des thunes nègre Nègre Des bails de possession quand j'prends l'mic ou j'suis sur scène Scène Tu suces pour avancer, Ha ha pussy négro t'es qu'une merde Éruption solaire sur l'peloton Vision slow-motion à cause d'la potion bactériologique, des agents chimiques tombent du ciel comme des flocons Codéino-rap musique, musique négro la nouvelle drogue Escadron de loup, Han infiltration dans l'poulailler pendant qu'les poulets dorment Négro précis, cherche les headshots dans ton front je vise Vise J'vais mener la vie d'château, Han nique un portail j'veux un pont levis Damn Un autre niveau j'suis CR7 t'es Higuaín Fuck le rap game, j'vais bicrave mes tape sur le deep-web Yes Ces négros sont des shemale Shemale, ha ha Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, ha ha Vision ralentie comme Max Payne Payne Trop loin de l'autre côté d'la Stargate Ces négros sont des shemale Ha ha, mal Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, han Vision ralentie comme Max Payne Payne Trop loin de l'autre côté d'la Stargate Ces négros sont des shemale Shemale, ha ha Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, ha ha Vision ralentie comme Max Payne Payne Trop loin de l'autre côté d'la Stargate Ces négros sont des shemale Shemale, ha ha Tout est pyramidal dans nos schémas Schémas Potion magique, Sprite, LT, RT, fuck le rap game Game, ha ha Vision ralentie comme Max Payne Payne Trop loin de l'autre côté d'la Stargate</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6133,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Ok À la recherche de la daillance, han Motherfucker, ok Mon pote, mes grosses phases rendent les MC maussades Tu m'connais, écriture propre plus flow sale Mes godasses des Vans de préférence Quand j'passe à la radio, y a des interférences, t'es Terrance J'suis Philippe, j'te pète à la gueule, trop précis, c'est fini Au mic', j'mets des headshots, mec, même à l'aveugle MC, fais attention, quand j'arrive le sol tremble Hydrocanon d'flow quand j'rappe, appelle-moi Tortank T'es mort dans l'film si tu penses pas encore que j'fais mal Que tu crois qu'je joue dans la même catégorie qu'ces nazes Dans un autre délire je suis, je tords des MC's Ils me supplient, ils beg for mercy Comme le G-Unit en 2003, j'mets dans l'mille, j'crois Tu t'demandes pourquoi il fait si froid C'est parce que Freezer est dans la place, quand j'me casse Tu retrouves le mic' bloqué dans la glace, négro Now party people in the club it's time to cut a rug And throw the deuce up in the sky just for the shutterbuggs I'm double fisted and you empty, you can grab a cup Boy stop, I'm just playin' let me dap you up Baby baby, you're in my system Baby baby, tell me you're listenin' You might also like J'fais fondre la glace de ma place au fond d'la classe au lieu d'suivre Sors le flow-lave, les petits MC's pas prêts feraient mieux d'fuir C'est plus sûr pour vous, j'le murmure pas J'm'arrêterai pas avant longtemps, s'il le faut j'y arriverai a l'usure Gars jespère être là pour un bon bout d'temps, je shoote sans Même viser, un PGM dans l'Game traumatise le m.i.c Han, un fou en liberté dangereux pour la population Appelle-moi Iniesta, j'peux tout faire basculer en une action C'est pour ça que tous ils attendent impatiemment la mi-temps Boule de la mort sur la Terre pour toucher tous ses habitants Pour les survivants, rayon d'la mort à chaque punchline Quand j'arrive sur Terre le ciel noircit, y a pas d'sunshine Dans l'Game, j'suis mi-rase-moquette mi-Rasta Rockett J'opère comme le Joker, j'viens juste remplir mes pockets Mais me sous-estime pas mec, ce serait une bêtise Je maîtrise les techniques, j'ai fini, je méclipse, boom Now party people in the club it's time to cut a rug And throw the deuce up in the sky just for the shutterbuggs I'm double fisted and you empty, you can grab a cup Boy stop, I'm just playin' let me dap you up Baby baby, you're in my system Baby baby, tell me you're listenin' Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, négro Freezi F bitch, viens que j't'explique Pour les mecs qui savent que j'maîtrise les techniques Now party people in the club it's time to cut a rug And throw the deuce up in the sky just for the shutterbuggs I'm double fisted and you empty, you can grab a cup Boy stop, I'm just playin' let me dap you up Baby baby, you're in my system Baby baby, tell me you're listenin' Tell me you're listenin' Cause you're all up in my system I can feel you from my head to my toes Luscious Leftfoot got his best foot forward Darling lord have mercy How the flow stay so cold, froze Cut a rug, cut a rug, shutterbugg</t>
+          <t>Ok À la recherche de la daillance, han Motherfucker, ok Mon pote, mes grosses phases rendent les MC maussades Tu m'connais, écriture propre plus flow sale Mes godasses des Vans de préférence Quand j'passe à la radio, y a des interférences, t'es Terrance J'suis Philippe, j'te pète à la gueule, trop précis, c'est fini Au mic', j'mets des headshots, mec, même à l'aveugle MC, fais attention, quand j'arrive le sol tremble Hydrocanon d'flow quand j'rappe, appelle-moi Tortank T'es mort dans l'film si tu penses pas encore que j'fais mal Que tu crois qu'je joue dans la même catégorie qu'ces nazes Dans un autre délire je suis, je tords des MC's Ils me supplient, ils beg for mercy Comme le G-Unit en 2003, j'mets dans l'mille, j'crois Tu t'demandes pourquoi il fait si froid C'est parce que Freezer est dans la place, quand j'me casse Tu retrouves le mic' bloqué dans la glace, négro Now party people in the club it's time to cut a rug And throw the deuce up in the sky just for the shutterbuggs I'm double fisted and you empty, you can grab a cup Boy stop, I'm just playin' let me dap you up Baby baby, you're in my system Baby baby, tell me you're listenin' J'fais fondre la glace de ma place au fond d'la classe au lieu d'suivre Sors le flow-lave, les petits MC's pas prêts feraient mieux d'fuir C'est plus sûr pour vous, j'le murmure pas J'm'arrêterai pas avant longtemps, s'il le faut j'y arriverai a l'usure Gars jespère être là pour un bon bout d'temps, je shoote sans Même viser, un PGM dans l'Game traumatise le m.i.c Han, un fou en liberté dangereux pour la population Appelle-moi Iniesta, j'peux tout faire basculer en une action C'est pour ça que tous ils attendent impatiemment la mi-temps Boule de la mort sur la Terre pour toucher tous ses habitants Pour les survivants, rayon d'la mort à chaque punchline Quand j'arrive sur Terre le ciel noircit, y a pas d'sunshine Dans l'Game, j'suis mi-rase-moquette mi-Rasta Rockett J'opère comme le Joker, j'viens juste remplir mes pockets Mais me sous-estime pas mec, ce serait une bêtise Je maîtrise les techniques, j'ai fini, je méclipse, boom Now party people in the club it's time to cut a rug And throw the deuce up in the sky just for the shutterbuggs I'm double fisted and you empty, you can grab a cup Boy stop, I'm just playin' let me dap you up Baby baby, you're in my system Baby baby, tell me you're listenin' Double-F Gang, on roule nos pét' de M-Jane Comme si de rien n'était, négro Freezi F bitch, viens que j't'explique Pour les mecs qui savent que j'maîtrise les techniques Now party people in the club it's time to cut a rug And throw the deuce up in the sky just for the shutterbuggs I'm double fisted and you empty, you can grab a cup Boy stop, I'm just playin' let me dap you up Baby baby, you're in my system Baby baby, tell me you're listenin' Tell me you're listenin' Cause you're all up in my system I can feel you from my head to my toes Luscious Leftfoot got his best foot forward Darling lord have mercy How the flow stay so cold, froze Cut a rug, cut a rug, shutterbugg</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6150,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Discographie - 667 Mixtape - 20141225 667 - 66.7 Radio Édition spécial Noël Single - 20140224 667 - Néo nègre - 20141003 667 - Freestyle Lyonzon 2 - 20141225 667 - Chaque jour - 20150605 667 - S.O.A.M.S. Shout Out A Ma Secte - 20210516 667 - 669 Part. 2 Featuring - 20180920 Lyonzon - 669 - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20221216 Norsacce - Laisse parler Discographie complémentaire - Discographie - Afro S - Discographie - Bagdaad - Discographie - Black Jack - Discographie - Congo Bill - Discographie - DOC OVG - Discographie - Dubble G Kiluavi - Discographie - Freeze Corleone - Discographie - Jorrdee - Discographie - Kaki Santana - Discographie - Lala ce - Discographie - Moh Money - Discographie - Norsacce - Discographie - Odeuxzero - Discographie - Osirus Jack - Discographie - Rifa Samb - Discographie - Savag Martin - Discographie - Shaka - Discographie - Slim C - Discographie - Sogui - Discographi - Zuukou MayzieYou might also like</t>
+          <t>Discographie - 667 Mixtape - 20141225 667 - 66.7 Radio Édition spécial Noël Single - 20140224 667 - Néo nègre - 20141003 667 - Freestyle Lyonzon 2 - 20141225 667 - Chaque jour - 20150605 667 - S.O.A.M.S. Shout Out A Ma Secte - 20210516 667 - 669 Part. 2 Featuring - 20180920 Lyonzon - 669 - 20220609 Sazamyzy - Braquage à l'africaine 667 - 20221216 Norsacce - Laisse parler Discographie complémentaire - Discographie - Afro S - Discographie - Bagdaad - Discographie - Black Jack - Discographie - Congo Bill - Discographie - DOC OVG - Discographie - Dubble G Kiluavi - Discographie - Freeze Corleone - Discographie - Jorrdee - Discographie - Kaki Santana - Discographie - Lala ce - Discographie - Moh Money - Discographie - Norsacce - Discographie - Odeuxzero - Discographie - Osirus Jack - Discographie - Rifa Samb - Discographie - Savag Martin - Discographie - Shaka - Discographie - Slim C - Discographie - Sogui - Discographi - Zuukou Mayzie</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6167,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Infiltration furtive 667 comme le Mossad Réussir ou mourir comme Curtis J'm'arrête pas avant la Testarossa LDO, Corleone, Berlusconi Négro, noirs mafieux Tous les jours vision kaki Flingue au cro-mi comme une arme à feu Chaque jour sip la lean, bitch Chaque jour fume du diesel Vision nocturne, Chroniques de Riddick J'me sens comme Vin Diesel, han Fake négro, fuis mon clan J'écarte les traîtres, négro j'suis mon plan Défracté, très haut A une altitude équivalente à 8 monts Blanc Chen Zen dans la pyramide NRM, négro la tyrannie So Loto négro, cons' lean Jusqu'à chavirer comme un pirate ivre Bientôt fonscar dans la BM Balles blindées dans l'ACR Sans aucun stress fais cette merde, négro Né pour gagner, c'est écrit dans l'ADN, gaddamn You might also like x2 On veut faire du biff à long terme comme les Rothschild Zombie squad, dans la morgue chill Dans cette merde pour l'cash négro, les espèces 667, plane au-dessus d'eux comme des spectres Mixe le lean avec le Sprite Roule un stick, pope un Phenergan Encore et ça y'est, j'flotte dans l'espace Tous les jours ah oui on s'élève, grand Tu l'sais, on sort des ténèbres Nouveau rap mondial Néo-nègres, descendants kemets Balle perdue, j'move comme un proxénète Oui j'chill là, négro Connais ses origines célestes Depuis la genèse On fuck le rap, là pour l'bénéf' Pour du bénéfice Le Diable roule toujours, oublie Némésis J'écoutes tes 16s Rien qu'j'me tape des barres, tu dis qu'des bêtises So à mon négro Odeuxzero Tomber, s'lever à Kaya J'ai vu qu'ça paye trop Donc pourquoi pas bibi des paras Black ninja J'ai des sales jutsus, genre le troisième il XXX tu fous ça T'es pas sur la même ligne, gros on a pas l'même blunt x2 On veut faire du biff à long terme comme les Rothschild Zombie squad, dans la morgue chill Dans cette merde pour l'cash négro, les espèces 667, plane au-dessus d'eux comme des spectres 2014, tu vas sucer sec Mes nègres ont la dalle, vont pas lâcher l'steak On vient mettre les pendules à l'heure Les points sur les i, placer des circonflexes 667 comme des pirates Réunion pour grandes décisions On changera pas nos positions Flow précis comme une circoncision Qu'est-c'qui se sait pas ? Bitch, trop d'choses qui nous séparent Supra-négritude, Séba Négro nous on sait, toi tu sais pas Découpe des MCs à la verticale Toujours en famille gros, comme des Ritals Trouve-nous au bloc, blouses blanches En pleine opération chirurgicale Au-dessus d'nous gros, j'en voie aucun Des comme toi, bitch j'en fume combien ? Pétasse nous lèche le Arlequin Putain, furtivité tels des requins Tu connais la Ligue, gro-né c'est l'trap Rien qu'on les lave, même quand j'm'applique Dans cette merde faut prendre les places et les 'tasses Et les 'tasses et le fric, squa' squa' x4 On veut faire du biff à long terme comme les Rothschild Zombie squad, dans la morgue chill Dans cette merde pour l'cash négro, les espèces 667, plane au-dessus d'eux comme des spectres</t>
+          <t>Infiltration furtive 667 comme le Mossad Réussir ou mourir comme Curtis J'm'arrête pas avant la Testarossa LDO, Corleone, Berlusconi Négro, noirs mafieux Tous les jours vision kaki Flingue au cro-mi comme une arme à feu Chaque jour sip la lean, bitch Chaque jour fume du diesel Vision nocturne, Chroniques de Riddick J'me sens comme Vin Diesel, han Fake négro, fuis mon clan J'écarte les traîtres, négro j'suis mon plan Défracté, très haut A une altitude équivalente à 8 monts Blanc Chen Zen dans la pyramide NRM, négro la tyrannie So Loto négro, cons' lean Jusqu'à chavirer comme un pirate ivre Bientôt fonscar dans la BM Balles blindées dans l'ACR Sans aucun stress fais cette merde, négro Né pour gagner, c'est écrit dans l'ADN, gaddamn x2 On veut faire du biff à long terme comme les Rothschild Zombie squad, dans la morgue chill Dans cette merde pour l'cash négro, les espèces 667, plane au-dessus d'eux comme des spectres Mixe le lean avec le Sprite Roule un stick, pope un Phenergan Encore et ça y'est, j'flotte dans l'espace Tous les jours ah oui on s'élève, grand Tu l'sais, on sort des ténèbres Nouveau rap mondial Néo-nègres, descendants kemets Balle perdue, j'move comme un proxénète Oui j'chill là, négro Connais ses origines célestes Depuis la genèse On fuck le rap, là pour l'bénéf' Pour du bénéfice Le Diable roule toujours, oublie Némésis J'écoutes tes 16s Rien qu'j'me tape des barres, tu dis qu'des bêtises So à mon négro Odeuxzero Tomber, s'lever à Kaya J'ai vu qu'ça paye trop Donc pourquoi pas bibi des paras Black ninja J'ai des sales jutsus, genre le troisième il XXX tu fous ça T'es pas sur la même ligne, gros on a pas l'même blunt x2 On veut faire du biff à long terme comme les Rothschild Zombie squad, dans la morgue chill Dans cette merde pour l'cash négro, les espèces 667, plane au-dessus d'eux comme des spectres 2014, tu vas sucer sec Mes nègres ont la dalle, vont pas lâcher l'steak On vient mettre les pendules à l'heure Les points sur les i, placer des circonflexes 667 comme des pirates Réunion pour grandes décisions On changera pas nos positions Flow précis comme une circoncision Qu'est-c'qui se sait pas ? Bitch, trop d'choses qui nous séparent Supra-négritude, Séba Négro nous on sait, toi tu sais pas Découpe des MCs à la verticale Toujours en famille gros, comme des Ritals Trouve-nous au bloc, blouses blanches En pleine opération chirurgicale Au-dessus d'nous gros, j'en voie aucun Des comme toi, bitch j'en fume combien ? Pétasse nous lèche le Arlequin Putain, furtivité tels des requins Tu connais la Ligue, gro-né c'est l'trap Rien qu'on les lave, même quand j'm'applique Dans cette merde faut prendre les places et les 'tasses Et les 'tasses et le fric, squa' squa' x4 On veut faire du biff à long terme comme les Rothschild Zombie squad, dans la morgue chill Dans cette merde pour l'cash négro, les espèces 667, plane au-dessus d'eux comme des spectres</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6184,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Ahaha, 667, LDO, Mangemort Squad, salope 667, la pour l'cazach Silencieux viseur holographique sur le famas, haha psh, psh Donny Darko, Freezer Jvois en slow-mo à cause du sizzurp Chen Zen, Odeuxzero, négro So à Kaki, j'ai trop les crocs, négro Vise Bentley Continental, nique le métro, négro Soupape même si y a personne dans l'rétro, négro 667, là pour l'cazash Taliban cherche khaliss pour kalach' Loup garou, so Kixou, Black Jack Sans aucun stress découpe çaza, hein Niveau 3, cod'-prometh' J'veux lingots d'or, Glock, Rolex Au-dessus d'vous, cogne comme soleil Dans l'ciel négro, vole comme comète Négro on complote dans l'vaisseau-mère Dans cette merde pour pesos nègres So Roi, noir et professionnel Tous les jours sirote sizzurp, fume kérosène Précis à distance comme Kobe, swish MMS, noir lobby, fils J'veux BMW, Audi, bitch Défracté, j'me sens comme ODB Nègre avec attitude Flingue cet merde sans stress avec l'habitude Négro j'vois personne à cette altitude So 'Sirus, j'vois flou comme Canibus You might also like x2 Dans l'ombre on émerge Avec le flow du fond des mers Seulement pour la famille Mes négros sont mes frères 667, Ligue des Ombres Seulement pour la famille Mes négros sont mes frères Donnie Darko, de Dakar Importe le tos-ma Furtif, dans tous les angles comme le Mossad XXX, ces négros suivent comme des moutons Comme des fuckdown, négro fuck ça Double-6 7, Ligue des ombres sur le blason De mon costard, négro, j'love ca Sur ma secte, bouge la tête comme une rockstar Double-6 7, fout la misère A la prod man, pas besoin d'prod J'fais des crosses quand j'cogne ça Négro, bosse mes fuck swags, fuck la tendance J'suis dans une autre sphère, j'marche sur la lune Comme une popstar, j'vis dans les marécages Comme un alligator, que j'fasse mon coste-La Négro j'casses des tibias dans mon muay-thaï Négro hors-normes, o-dose d'hormones Dans mes organes Leurs flows finiront tous à l'arrière du corbillard Et rien à foutre que la mort leur aille J'veux manger leur part, j'veux manger leur maille 10 ans d'avance, sur la course j'ai mis 100 mailles 3 mois, 100 graines, 1100 grammes Et rien à foutre que la mort leur aille On veut manger leur part On veut manger leur maille Hé, Hé Et rien à foutre que la mort leur aille x2 Dans l'ombre on émerge Avec le flow du fond des mers Seulement pour la famille Mes négros sont mes frères skrr 667, Ligue des Ombres Seulement pour la famille Mes négros sont mes frères Dans l'ombre on émerge Avec le flow du fond des mers Seulement pour la famille Mes négros sont mes frères Seulement pour la famille NRM, négro</t>
+          <t>Ahaha, 667, LDO, Mangemort Squad, salope 667, la pour l'cazach Silencieux viseur holographique sur le famas, haha psh, psh Donny Darko, Freezer Jvois en slow-mo à cause du sizzurp Chen Zen, Odeuxzero, négro So à Kaki, j'ai trop les crocs, négro Vise Bentley Continental, nique le métro, négro Soupape même si y a personne dans l'rétro, négro 667, là pour l'cazash Taliban cherche khaliss pour kalach' Loup garou, so Kixou, Black Jack Sans aucun stress découpe çaza, hein Niveau 3, cod'-prometh' J'veux lingots d'or, Glock, Rolex Au-dessus d'vous, cogne comme soleil Dans l'ciel négro, vole comme comète Négro on complote dans l'vaisseau-mère Dans cette merde pour pesos nègres So Roi, noir et professionnel Tous les jours sirote sizzurp, fume kérosène Précis à distance comme Kobe, swish MMS, noir lobby, fils J'veux BMW, Audi, bitch Défracté, j'me sens comme ODB Nègre avec attitude Flingue cet merde sans stress avec l'habitude Négro j'vois personne à cette altitude So 'Sirus, j'vois flou comme Canibus x2 Dans l'ombre on émerge Avec le flow du fond des mers Seulement pour la famille Mes négros sont mes frères 667, Ligue des Ombres Seulement pour la famille Mes négros sont mes frères Donnie Darko, de Dakar Importe le tos-ma Furtif, dans tous les angles comme le Mossad XXX, ces négros suivent comme des moutons Comme des fuckdown, négro fuck ça Double-6 7, Ligue des ombres sur le blason De mon costard, négro, j'love ca Sur ma secte, bouge la tête comme une rockstar Double-6 7, fout la misère A la prod man, pas besoin d'prod J'fais des crosses quand j'cogne ça Négro, bosse mes fuck swags, fuck la tendance J'suis dans une autre sphère, j'marche sur la lune Comme une popstar, j'vis dans les marécages Comme un alligator, que j'fasse mon coste-La Négro j'casses des tibias dans mon muay-thaï Négro hors-normes, o-dose d'hormones Dans mes organes Leurs flows finiront tous à l'arrière du corbillard Et rien à foutre que la mort leur aille J'veux manger leur part, j'veux manger leur maille 10 ans d'avance, sur la course j'ai mis 100 mailles 3 mois, 100 graines, 1100 grammes Et rien à foutre que la mort leur aille On veut manger leur part On veut manger leur maille Hé, Hé Et rien à foutre que la mort leur aille x2 Dans l'ombre on émerge Avec le flow du fond des mers Seulement pour la famille Mes négros sont mes frères skrr 667, Ligue des Ombres Seulement pour la famille Mes négros sont mes frères Dans l'ombre on émerge Avec le flow du fond des mers Seulement pour la famille Mes négros sont mes frères Seulement pour la famille NRM, négro</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6201,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>BPK, tu cons' tu perds ton crâne En mode zombie, defracté sous pierre tombale Rien qu'ça fume, ça lean, ça rappe, ça s'immole Chen Zen, Osirus Jack, élite de cyborg Niaks en bouche, comme des pirates d'Irak Ça sent l'flouze, comme à Chiraq-Chiraq Pas d'paki, avec Kaki j'arrive 4matic, Jack Blacky rapplique Fait ça izer, présent pour les thunes Avec le Freezer, def tate, on est sur Neptune J'veux des 10 mill' biftons, prods, Rolex Dans le cup niveau 3, cod'-prometh' Sous sirop j'vois double, tacle à la John Terry Vision rouge j'vois tous, 6 feuilles, Blunt Berry J'cons' ça, débarque à la Ong-bak Fonscar sous gros cône sans ton-car, des liasses tel un Lombard OV, j'promet gro-né ce sera chaud mais J'opère, les autres vont tous se mettre à chômer Squad MMS, j'me sens comme à Normal Double 6-7, des Maybach, chaines en or pâle Hippie riche, roule des putains de méga-spliffs So Norsacce, veut des golds, des Ferrari Faya, french inhale, vision Snoop Dogg Camouflage kaki, Osirus négro coupe-gorge 667 dans l'noir, mafia négro, gros clan À Dakar cons' du lean, dans les rues comme à Oakland You might also like Au dessus d'vous comme des lampadaires Fonscar, négro la concu' rampe à terre Ils fonts des sons d'clowns Négro va checker les soundcloud Négro ça m'soûle J'vais t'casser comme écran Samsung OsirusCorleone, on fume comme des cheminées Kaki flow négro, on sera bientôt rose à force de leaner Ca renifle les nègres faibles, aqua' dans les F-16 Furtif, la mort venu du ciel tel des chemtrails Dans cette merde pour espèces, on flotte comme des spectres 667, MMS, NRM sur les stèles Fils consomme la merde, allez cours l'acheter Dans cette merde en mode hologramme, eux même pas en full HD Techniques interdites, so à Kikz Kaki Nous parles pas de rap français si tu veux pas d'verdict merdique Sans aucun stress négro, performe rap nègre Cons' lean et lopito de l'autre côté d'la stargate Double 6-7 Kartel, vision slow-mo comme Max Payne Chen Zen, black ninja, seven pirate captain H24 fonscar négro, j'me sens comme ODB So au syndicat, 667 aka lobby fils Freeze Corleone, microphonique lance-flamme Prometh'-cod' dans l'Sprite, hydroponique dans l'niaks Psh psh psh, uzi silencieux, la prod j'asperge Sprite sombre comme du vin, roule des niaks comme des asperges Freeze Corleone, Osirus Jacque Chirac Imposer le NRM de Foshan jusqu'à Chiraq Katana noir afro-samurai, Chen au micro Sous lopito squad shit négro, so 060 Fait cette merde sans aucun stress, nos techniques les perturbent Sirote le Sprite sale, fume la verdure Fuck le Rap Game, beaucoup d'ces rappeurs sont des biatchs Kick ça cerveau couleur BP-kaki comme un G.I Négro comme un marine, notre verte tagresse les narines Défracté, en orbite mon négro, j'me sens comme Youri Gagarine Corleone, Osirus Jack Jack Niveau 3 lean Jack, so Black Jack Killuminati comme Makaveli négro, comme Alpha On arrive accrochés au train comme des pak-pak Qu'est ce qui s'passe-passe on veux du ca-cash2</t>
+          <t>BPK, tu cons' tu perds ton crâne En mode zombie, defracté sous pierre tombale Rien qu'ça fume, ça lean, ça rappe, ça s'immole Chen Zen, Osirus Jack, élite de cyborg Niaks en bouche, comme des pirates d'Irak Ça sent l'flouze, comme à Chiraq-Chiraq Pas d'paki, avec Kaki j'arrive 4matic, Jack Blacky rapplique Fait ça izer, présent pour les thunes Avec le Freezer, def tate, on est sur Neptune J'veux des 10 mill' biftons, prods, Rolex Dans le cup niveau 3, cod'-prometh' Sous sirop j'vois double, tacle à la John Terry Vision rouge j'vois tous, 6 feuilles, Blunt Berry J'cons' ça, débarque à la Ong-bak Fonscar sous gros cône sans ton-car, des liasses tel un Lombard OV, j'promet gro-né ce sera chaud mais J'opère, les autres vont tous se mettre à chômer Squad MMS, j'me sens comme à Normal Double 6-7, des Maybach, chaines en or pâle Hippie riche, roule des putains de méga-spliffs So Norsacce, veut des golds, des Ferrari Faya, french inhale, vision Snoop Dogg Camouflage kaki, Osirus négro coupe-gorge 667 dans l'noir, mafia négro, gros clan À Dakar cons' du lean, dans les rues comme à Oakland Au dessus d'vous comme des lampadaires Fonscar, négro la concu' rampe à terre Ils fonts des sons d'clowns Négro va checker les soundcloud Négro ça m'soûle J'vais t'casser comme écran Samsung OsirusCorleone, on fume comme des cheminées Kaki flow négro, on sera bientôt rose à force de leaner Ca renifle les nègres faibles, aqua' dans les F-16 Furtif, la mort venu du ciel tel des chemtrails Dans cette merde pour espèces, on flotte comme des spectres 667, MMS, NRM sur les stèles Fils consomme la merde, allez cours l'acheter Dans cette merde en mode hologramme, eux même pas en full HD Techniques interdites, so à Kikz Kaki Nous parles pas de rap français si tu veux pas d'verdict merdique Sans aucun stress négro, performe rap nègre Cons' lean et lopito de l'autre côté d'la stargate Double 6-7 Kartel, vision slow-mo comme Max Payne Chen Zen, black ninja, seven pirate captain H24 fonscar négro, j'me sens comme ODB So au syndicat, 667 aka lobby fils Freeze Corleone, microphonique lance-flamme Prometh'-cod' dans l'Sprite, hydroponique dans l'niaks Psh psh psh, uzi silencieux, la prod j'asperge Sprite sombre comme du vin, roule des niaks comme des asperges Freeze Corleone, Osirus Jacque Chirac Imposer le NRM de Foshan jusqu'à Chiraq Katana noir afro-samurai, Chen au micro Sous lopito squad shit négro, so 060 Fait cette merde sans aucun stress, nos techniques les perturbent Sirote le Sprite sale, fume la verdure Fuck le Rap Game, beaucoup d'ces rappeurs sont des biatchs Kick ça cerveau couleur BP-kaki comme un G.I Négro comme un marine, notre verte tagresse les narines Défracté, en orbite mon négro, j'me sens comme Youri Gagarine Corleone, Osirus Jack Jack Niveau 3 lean Jack, so Black Jack Killuminati comme Makaveli négro, comme Alpha On arrive accrochés au train comme des pak-pak Qu'est ce qui s'passe-passe on veux du ca-cash2</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6218,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling Dakar Dakar, Paris Paris, London London, Berlin Berlin J'arrive raciste comme Guerlain Guerlain J'ai les potions comme Merlin Merlin Euros euros, dollars dollars, CFA CFA, sterlings sterlings Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling Dakar Dakar, Paris Paris, London London, Berlin Berlin J'arrive raciste comme Guerlain Guerlain J'ai les potions comme Merlin Merlin Euros euros, dollars dollars, CFA CFA, sterlings sterlings Sadio Sadio Mané Mané, Werner Wrner, Sterling Sterling Löw mein Herz erfriert Herkunft Bantu Bantu Boss ihr Tanz sie twerkt auf Tonic Juice mwah Bro guck du bist kein Trap nur weil Patek tickt Videoclips in exotic whips, trotzdem Ticks wenn du hektisch bist boom, paw Hol Glock 9 baby wir filmen Grr, Boom Boom Loco auf Gin ja So viel Stacks in mein Vidom Bar Mach heut viel eine Frau on bar Komm mit Gs in den Club heut Nacht Loco Connect Berlin paw, Paris paw You might also like Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling Dakar Dakar, Paris Paris, London London, Berlin Berlin J'arrive raciste comme Guerlain Guerlain J'ai les potions comme Merlin Merlin Euros euros, dollars dollars, CFA CFA, sterlings sterlings Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling Dakar Dakar, Paris Paris, London London, Berlin Berlin J'arrive raciste comme Guerlain Guerlain J'ai les potions comme Merlin Merlin Euros euros, dollars dollars, CFA CFA, sterlings sterlings Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling</t>
+          <t>Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling Dakar Dakar, Paris Paris, London London, Berlin Berlin J'arrive raciste comme Guerlain Guerlain J'ai les potions comme Merlin Merlin Euros euros, dollars dollars, CFA CFA, sterlings sterlings Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling Dakar Dakar, Paris Paris, London London, Berlin Berlin J'arrive raciste comme Guerlain Guerlain J'ai les potions comme Merlin Merlin Euros euros, dollars dollars, CFA CFA, sterlings sterlings Sadio Sadio Mané Mané, Werner Wrner, Sterling Sterling Löw mein Herz erfriert Herkunft Bantu Bantu Boss ihr Tanz sie twerkt auf Tonic Juice mwah Bro guck du bist kein Trap nur weil Patek tickt Videoclips in exotic whips, trotzdem Ticks wenn du hektisch bist boom, paw Hol Glock 9 baby wir filmen Grr, Boom Boom Loco auf Gin ja So viel Stacks in mein Vidom Bar Mach heut viel eine Frau on bar Komm mit Gs in den Club heut Nacht Loco Connect Berlin paw, Paris paw Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling Dakar Dakar, Paris Paris, London London, Berlin Berlin J'arrive raciste comme Guerlain Guerlain J'ai les potions comme Merlin Merlin Euros euros, dollars dollars, CFA CFA, sterlings sterlings Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling Dakar Dakar, Paris Paris, London London, Berlin Berlin J'arrive raciste comme Guerlain Guerlain J'ai les potions comme Merlin Merlin Euros euros, dollars dollars, CFA CFA, sterlings sterlings Sadio Sadio Mané Mané, Werner Werner, Sterling Sterling</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6235,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Mafia Wouh Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, hey Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'rali, 'ralie, 'ralie Prends l'pouvoir par forc, gro-né, so Ghost Tariq Han, jamais parler aux porcs chh Freeze Corleone, négro, j'cons' plus de kérosène qu'à l'aéroport han Plus-plus que quatre G deux, backwood, hash' et beuh, y'a 4g2 Chen Zen, Slim C, K.K.G 2, prends chaque point de A1 jusqu'à G2 ekip, ekip On n'aime pas les bleus, gros stick, beuh, shit, y a les deux Tout p'tits yeux, j'en ai cramé qu'deux Font les sobres, c'est v'là les gues-sh' gues-sh' La tête qui tourne, c'est l'THC Juice dans mon calice calice Fais en sorte qu'les rêves nous foutent au fond du trou comme Alice comme Alice Le cash dans les valises cash, pour l'escouade, j'mets les balises ekip Tireur d'élite, Marksman paw, j'arrive raciste comme Eric Cartman eh, eh Dérape, on t'graille comme Pac-Man piou, lowkey quand j'joue mes cartes, man Sac à dos comme si j'étais à la fac, man, cash et MD dans l'cartable cartable, dans l'sac à dos You might also like Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han, wouh Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, nan Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'ralie, 'ralie, 'ralie Prends l'pouvoir par force, gro-né, so Ghost Tariq Démons peuvent pas nous ter-j', on est rentrés seul-tout seul-tout Gro-né, les murs sont durs fermés comme Double élimination juste avec un seul coup paw On les soupape avec un seul nion Ils veulent rapper, ils ont pas fait un seul cours eh Nan, ils ont pas fait de classe, petite école, ils ont pas assez de classe Au commissariat, c'est jamais d'blase, j'suis avec ta bitch, ça s'voit qu'elle aime grave les glaces Plane dans cette pute, y a assez de place, on n'arrête pas avant qu'il y est assez d'flaques Site internet, jamais d'Fnac, Slim, Freeze, c'est comme kick avec clap ekip Rolly dans l'pét', pas d'panique panique J'ai mélangé quatre cali Fuck un Lang Jack, Jacques Attali fuck Marathon, pas d'rallye non Killu à fond, pas d'grammy Faut vingt-quatre millions par famille Nan, deux-cents quarante millions chaque famille, Mafia Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han, wouh Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, nan Tous mes proches sur les rails, j'parle pas d'coke , Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'ralie, 'ralie, 'ralie Prends l'pouvoir par force, gro-né, so Ghost Tariq Site internet, jamais d'Fnac, Slim, Freeze, c'est comme kick avec clap Nan, ils ont pas fait de classe, petite école, ils ont pas assez de classe classe</t>
+          <t>Mafia Wouh Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, hey Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'rali, 'ralie, 'ralie Prends l'pouvoir par forc, gro-né, so Ghost Tariq Han, jamais parler aux porcs chh Freeze Corleone, négro, j'cons' plus de kérosène qu'à l'aéroport han Plus-plus que quatre G deux, backwood, hash' et beuh, y'a 4g2 Chen Zen, Slim C, K.K.G 2, prends chaque point de A1 jusqu'à G2 ekip, ekip On n'aime pas les bleus, gros stick, beuh, shit, y a les deux Tout p'tits yeux, j'en ai cramé qu'deux Font les sobres, c'est v'là les gues-sh' gues-sh' La tête qui tourne, c'est l'THC Juice dans mon calice calice Fais en sorte qu'les rêves nous foutent au fond du trou comme Alice comme Alice Le cash dans les valises cash, pour l'escouade, j'mets les balises ekip Tireur d'élite, Marksman paw, j'arrive raciste comme Eric Cartman eh, eh Dérape, on t'graille comme Pac-Man piou, lowkey quand j'joue mes cartes, man Sac à dos comme si j'étais à la fac, man, cash et MD dans l'cartable cartable, dans l'sac à dos Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han, wouh Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, nan Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'ralie, 'ralie, 'ralie Prends l'pouvoir par force, gro-né, so Ghost Tariq Démons peuvent pas nous ter-j', on est rentrés seul-tout seul-tout Gro-né, les murs sont durs fermés comme Double élimination juste avec un seul coup paw On les soupape avec un seul nion Ils veulent rapper, ils ont pas fait un seul cours eh Nan, ils ont pas fait de classe, petite école, ils ont pas assez de classe Au commissariat, c'est jamais d'blase, j'suis avec ta bitch, ça s'voit qu'elle aime grave les glaces Plane dans cette pute, y a assez de place, on n'arrête pas avant qu'il y est assez d'flaques Site internet, jamais d'Fnac, Slim, Freeze, c'est comme kick avec clap ekip Rolly dans l'pét', pas d'panique panique J'ai mélangé quatre cali Fuck un Lang Jack, Jacques Attali fuck Marathon, pas d'rallye non Killu à fond, pas d'grammy Faut vingt-quatre millions par famille Nan, deux-cents quarante millions chaque famille, Mafia Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, nan, jamais, sku Tous mes proches sur les rails, j'parle pas d'coke, Manny Manny sku Dans l'jeu, j'vois que des bitchs, on dirait qu'j'suis en Australie Han, wouh Prends l'pouvoir par force, gro-né, so Ghost Tariq ekip, ekip, ekip Mar-marche seul depuis l'début, on n'est pas dans votre rallye rallye, rallye, rallye, nan Tous mes proches sur les rails, j'parle pas d'coke , Manny Manny, Manny, Manny Dans l'jeu j'vois que des bitchs, on dirait qu'j'suis en Australie 'ralie, 'ralie, 'ralie Prends l'pouvoir par force, gro-né, so Ghost Tariq Site internet, jamais d'Fnac, Slim, Freeze, c'est comme kick avec clap Nan, ils ont pas fait de classe, petite école, ils ont pas assez de classe classe</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6252,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Paw Ekip, ekip Et bek-So, waah et bek-So Skoo, hey waah, hey waah Freeze, Kaki, OBS L'argent me maintient, à part ca y'a que dieu que je crains, viens Tu t'demandes comment je fais du pain bien, mon négro, il nous faut plein de biens WAllah, Kaki, il faut plein de biens, calumet allumé comme un indien Tu veux l'audio drogue, négro, viens, tiens, on vise le titre, ils visent le maintient Ce soir ta bouche et le coffre seront verrouillés négro, 20.21 faut les dépouiller négro Tu parlais mal au bigo mais en face ce petit crétin voulais s'agenouiller négro Chaque track on leur met des dérouillés négro, tu veux les sous, faut te débrouiller négro Tu m'as pris pour un con, parfait, t'as déjà perdu si tu pensais pouvoir me douiller négro Si je meurs pas, entre temps je brûlerai mes ennemis un part un jusqu'à lâme Jai mon beretta je veut juste ta dame , j'queni des darr de Dakar jusqu'à Dam Quotidiennement ça fume l'alarme, j'suis dans la fôret, j'dispose du cadavre Nettoie le fer, affûte la lame, parle de nous, tu finis au fond du canal J'fais que des insomnies j'ai plus notion du bédo-do, trouve moi dans mon 90 degrés avec mes mogos Rap Français devient moins séropo Ces temps-ci, toujours j'suis sur la défensive, avant l'attaque, j'suis très pensif Petits yeux comme si j'étais né en Chine, malfonce comme si j'ai fumé cent spliffs Précis, et j'vise vers les gencives, sur le terrain efficace en 10 et en 6 Trouve-nous dans le piège, pas dans les , nous c'est Madrid, eux c'est Nancy nous c'est Madrid Ekip eux c'est Nancy Chaque prod' j'l'éclate en seize, headshot sur le rap français, demande à Kaki l'enfant du Glock parle français Ils font les thug mais je te jure qu'ils ont jamais taille-dé un litron d'cookie on cache nos armes, nos pistolets, nos kilos, kush au citron t'bousille Il faut pas sourire frère, demande à Mansour si on fuck pas avec ces abrutis de merde T'as des pacotilles d'merde j'ai la panoplie de guerre On arrive masqué comme à Halloween frère, allume v'la de cali', allume v'la d'olives frère Cons' v'la d'essence, v'la de gasoline frère, tu veux pas perr goutte pas à nos leans frère Nique les snitchs et les appels anonymes frère, pétasse 20.21, Planète O.B.S, que la famille comme O.T.F, fonce-dé au lin comme à Memphis côté Est Bitch j'suis qu'avec mon frère Freeze, encore ce que vos mères disent, Martin Savage il faut la R en balade Aqua avec Afro dans la caisse en balade Ca roule des gros joints de trucs qui rendent malade, pop plus de médicaments qu'un grand malade Négro on graille la concurrence en salade, et j'crois en rien du tout à part en Allah You might also likeIl me faut trois boiss' et deux double cup lin Tu veut pas entendre nigga da neu teukh Il me faut trois boiss' et deux double cup lin Tu veut pas entendre nigga da neu teukh Il me faut trois boiss' et deux double cup lin Tu veut pas entendre nigga da neu teukh 1</t>
+          <t>Paw Ekip, ekip Et bek-So, waah et bek-So Skoo, hey waah, hey waah Freeze, Kaki, OBS L'argent me maintient, à part ca y'a que dieu que je crains, viens Tu t'demandes comment je fais du pain bien, mon négro, il nous faut plein de biens WAllah, Kaki, il faut plein de biens, calumet allumé comme un indien Tu veux l'audio drogue, négro, viens, tiens, on vise le titre, ils visent le maintient Ce soir ta bouche et le coffre seront verrouillés négro, 20.21 faut les dépouiller négro Tu parlais mal au bigo mais en face ce petit crétin voulais s'agenouiller négro Chaque track on leur met des dérouillés négro, tu veux les sous, faut te débrouiller négro Tu m'as pris pour un con, parfait, t'as déjà perdu si tu pensais pouvoir me douiller négro Si je meurs pas, entre temps je brûlerai mes ennemis un part un jusqu'à lâme Jai mon beretta je veut juste ta dame , j'queni des darr de Dakar jusqu'à Dam Quotidiennement ça fume l'alarme, j'suis dans la fôret, j'dispose du cadavre Nettoie le fer, affûte la lame, parle de nous, tu finis au fond du canal J'fais que des insomnies j'ai plus notion du bédo-do, trouve moi dans mon 90 degrés avec mes mogos Rap Français devient moins séropo Ces temps-ci, toujours j'suis sur la défensive, avant l'attaque, j'suis très pensif Petits yeux comme si j'étais né en Chine, malfonce comme si j'ai fumé cent spliffs Précis, et j'vise vers les gencives, sur le terrain efficace en 10 et en 6 Trouve-nous dans le piège, pas dans les , nous c'est Madrid, eux c'est Nancy nous c'est Madrid Ekip eux c'est Nancy Chaque prod' j'l'éclate en seize, headshot sur le rap français, demande à Kaki l'enfant du Glock parle français Ils font les thug mais je te jure qu'ils ont jamais taille-dé un litron d'cookie on cache nos armes, nos pistolets, nos kilos, kush au citron t'bousille Il faut pas sourire frère, demande à Mansour si on fuck pas avec ces abrutis de merde T'as des pacotilles d'merde j'ai la panoplie de guerre On arrive masqué comme à Halloween frère, allume v'la de cali', allume v'la d'olives frère Cons' v'la d'essence, v'la de gasoline frère, tu veux pas perr goutte pas à nos leans frère Nique les snitchs et les appels anonymes frère, pétasse 20.21, Planète O.B.S, que la famille comme O.T.F, fonce-dé au lin comme à Memphis côté Est Bitch j'suis qu'avec mon frère Freeze, encore ce que vos mères disent, Martin Savage il faut la R en balade Aqua avec Afro dans la caisse en balade Ca roule des gros joints de trucs qui rendent malade, pop plus de médicaments qu'un grand malade Négro on graille la concurrence en salade, et j'crois en rien du tout à part en Allah Il me faut trois boiss' et deux double cup lin Tu veut pas entendre nigga da neu teukh Il me faut trois boiss' et deux double cup lin Tu veut pas entendre nigga da neu teukh Il me faut trois boiss' et deux double cup lin Tu veut pas entendre nigga da neu teukh 1</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6269,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Cons' plus que dans les années 60 On s'réunit en secret comme le comité des 300 Graille MC's au petit-déj' comme des croissants, hein J'sais qu'ces macaques n'ont pas d'âme LDO négro, derrière nous laisse cet cadavres Négro, arabe nazi comme Saddam, hein Bientôt buildings avec snipers sur les toits Pose sur la prod comme si j'peignais sur des toiles Supra-négro venu des étoiles Sans aucun stress on les lave, on les nettoie Qu'est-ce que j'm'en bats les couilles Qu'ils aiment ou qu'ils haïssent J'atteindrai mon but Déter' comme un Pakat' qui vend du maïs Chaque jour, négro Dans les sous-sols ça s'prépare à régner So à la 6-secte So à la Brigade fantôme, so à L'Araignée, goddamn On est c'que t'attend, ce pourquoi t'as peur Fuck une locomotive, on fume comme des trains à vapeur On est c'que t'attend, pourquoi t'as peur ? Fuck une locomotive, on fume comme des trains à vapeur A vapeur, des trains à vapeur Fume comme des trains à vapeur, trains à vapeur A vapeur, on fume comme des trains à vapeur A vapeur, on fume comme des trains à vapeur You might also like J'parle ap salope j'aboie, enculé de PD, y a quoi ? Dis-le si t'es jaloux d'moi, si l'rap marche ap va à Pôle Emploi Que serait ta carrière sans moi ? Juste un négro sans couille Le seul négro qui tire sans avoir les douilles Mouille, salope j'écarte ta chatte Pochon dans les couilles, salope j'énerve la BAC Téma mon swag de cancéreux J'la baise quand même, j'ai pas d'cheveu Tu veux une soirée à thème ? Salope viens en string Pop 4 molly, fais-moi des danses en costume de flic Bitch j'apprécie tes efforts, goddamn ton fessier énorme J'suis tout noir, comme Venom Tète mon chibre si tu veux de la drogue On a les 08, les cachetons, les parachutes Krrah krrah krrah krrah Les balles tombent, rien à foutre d'ton parapluie Krrah krrah krrah krrah krrah On est c'que t'attend, ce pourquoi t'as peur Fuck une locomotive, on fume comme des trains à vapeur On est c'que t'attend, pourquoi t'as peur ? Fuck une locomotive, on fume comme des trains à vapeur A vapeur, des trains à vapeur Fume comme des trains à vapeur, trains à vapeur A vapeur, on fume comme des trains à vapeur A vapeur, on fume comme des trains à vapeur XXX, nouveau genre d'négro Aka Slim Chavez, j'veux l'sommet d'la falaise Petit aquarium dans le cockpit, pét' sur pét' Ça sprite sûr, ça sprite à l'aise J'me sens tout flottant sur l'beat Négro pose lourd, vrai négro on s'allège Et rien à foutre de ton Rap Game La machine est lancée, plus rien nous arrête En apesanteur Plane au-dessus d'vous, vous vois comme des fourmis J'suis en orbite stellaire Suis-moi, suis-moi si tu veux l'tournis Négro puff puff pass Kush kush hasch, royal dans l'blunt Disparaît quand les keufs keufs passent So la secte, on pose sur l'beat comme un gun Négro, que les diables libèrent Kemi Tremblement d'terre XXX dans les Loges Imminent, on est en mode XXX J'chill avec ma clique Cherche le paper en backstage Jarrêterai seulement quand mes négros Mappelleront Mister Ice Man Skur skur On est c'que t'attend, ce pourquoi t'as peur Fuck une locomotive, on fume comme des trains à vapeur On est c'que t'attend, pourquoi t'as peur ? Fuck une locomotive, on fume comme des trains à vapeur A vapeur, des trains à vapeur Fume comme des trains à vapeur, trains à vapeur A vapeur, on fume comme des trains à vapeur A vapeur, on fume comme des trains à vapeur</t>
+          <t>Cons' plus que dans les années 60 On s'réunit en secret comme le comité des 300 Graille MC's au petit-déj' comme des croissants, hein J'sais qu'ces macaques n'ont pas d'âme LDO négro, derrière nous laisse cet cadavres Négro, arabe nazi comme Saddam, hein Bientôt buildings avec snipers sur les toits Pose sur la prod comme si j'peignais sur des toiles Supra-négro venu des étoiles Sans aucun stress on les lave, on les nettoie Qu'est-ce que j'm'en bats les couilles Qu'ils aiment ou qu'ils haïssent J'atteindrai mon but Déter' comme un Pakat' qui vend du maïs Chaque jour, négro Dans les sous-sols ça s'prépare à régner So à la 6-secte So à la Brigade fantôme, so à L'Araignée, goddamn On est c'que t'attend, ce pourquoi t'as peur Fuck une locomotive, on fume comme des trains à vapeur On est c'que t'attend, pourquoi t'as peur ? Fuck une locomotive, on fume comme des trains à vapeur A vapeur, des trains à vapeur Fume comme des trains à vapeur, trains à vapeur A vapeur, on fume comme des trains à vapeur A vapeur, on fume comme des trains à vapeur J'parle ap salope j'aboie, enculé de PD, y a quoi ? Dis-le si t'es jaloux d'moi, si l'rap marche ap va à Pôle Emploi Que serait ta carrière sans moi ? Juste un négro sans couille Le seul négro qui tire sans avoir les douilles Mouille, salope j'écarte ta chatte Pochon dans les couilles, salope j'énerve la BAC Téma mon swag de cancéreux J'la baise quand même, j'ai pas d'cheveu Tu veux une soirée à thème ? Salope viens en string Pop 4 molly, fais-moi des danses en costume de flic Bitch j'apprécie tes efforts, goddamn ton fessier énorme J'suis tout noir, comme Venom Tète mon chibre si tu veux de la drogue On a les 08, les cachetons, les parachutes Krrah krrah krrah krrah Les balles tombent, rien à foutre d'ton parapluie Krrah krrah krrah krrah krrah On est c'que t'attend, ce pourquoi t'as peur Fuck une locomotive, on fume comme des trains à vapeur On est c'que t'attend, pourquoi t'as peur ? Fuck une locomotive, on fume comme des trains à vapeur A vapeur, des trains à vapeur Fume comme des trains à vapeur, trains à vapeur A vapeur, on fume comme des trains à vapeur A vapeur, on fume comme des trains à vapeur XXX, nouveau genre d'négro Aka Slim Chavez, j'veux l'sommet d'la falaise Petit aquarium dans le cockpit, pét' sur pét' Ça sprite sûr, ça sprite à l'aise J'me sens tout flottant sur l'beat Négro pose lourd, vrai négro on s'allège Et rien à foutre de ton Rap Game La machine est lancée, plus rien nous arrête En apesanteur Plane au-dessus d'vous, vous vois comme des fourmis J'suis en orbite stellaire Suis-moi, suis-moi si tu veux l'tournis Négro puff puff pass Kush kush hasch, royal dans l'blunt Disparaît quand les keufs keufs passent So la secte, on pose sur l'beat comme un gun Négro, que les diables libèrent Kemi Tremblement d'terre XXX dans les Loges Imminent, on est en mode XXX J'chill avec ma clique Cherche le paper en backstage Jarrêterai seulement quand mes négros Mappelleront Mister Ice Man Skur skur On est c'que t'attend, ce pourquoi t'as peur Fuck une locomotive, on fume comme des trains à vapeur On est c'que t'attend, pourquoi t'as peur ? Fuck une locomotive, on fume comme des trains à vapeur A vapeur, des trains à vapeur Fume comme des trains à vapeur, trains à vapeur A vapeur, on fume comme des trains à vapeur A vapeur, on fume comme des trains à vapeur</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6286,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Ff Ah Ff, fa, fa, fa, fa Sevran, 93 Ekip, ekip, ekip, ekip, ekip Sidi Pétasse, 6.6.7, ekip Grr Han, 6.6.7, Block 13 Keuf, coke, sang, quand je vois du bleu, blanc, rouge On a grandi bizarrement, mis les mains sur trop d'plans louches Gros, sors du SUV allemand, avec les jantes vingt-deux pouces J'me rappelle des coups de pute, j'me rappelle des coups de pouce Capuché, j'sors de la cave, j'suis noir depuis l'premier jour Pour toi, elle dit qu'c'est la bonn Bonne, ici, elle suc dès l'premier jour Renoi, pondu, madesu, j'tends mon poing, j'tends pas la joue On m'a beaucoup trop déçu, à chaque traître j'fais une mise à jour Beaucoup d'chimistes dans l'coin, c'est pas EM6 Quoi ? On t'connaît pas dans la calle, à part en méga MC ? Avec des flows qui puent l'vernis, arrête de faire ton ma-né-ci Personne te veut du mal ici Mal ici, rah You might also like Les p'tits vont t'allumer sans ZiP Fa, fa, fa, fa L'équipage reste armé dans l'VIP Ekip, ekip, ekip, ekip J'te dis pas c'qu'y a dans l'Transit Transit J'aurais quand même brassé sans 'sique Pétasse Démarre, il est pas là, démarre Quoi ? Une fois qu'on démarche Pétasse, t'as plus la même démarche Démarche, tu boites Non Démarre Démarre, il est pas là, démarre Une fois qu'on l'démarche Trop tard, t'as plus la même démarche Non On fait que monter des marches des marches J'allume la tégrité des Marsh Yeuz rouges comme si c'était Mars Gros bloc de static, on dirait des Mars Mars Ha, pétasse pétasse, j'ai pété la porte comme un bélier Porte Rien que j'bombarde comme un ailier À gauche Instru', j'la vois comme un beignet Haha J'arrive capuché comme dans Assassin's Creed Ezio Ton flow vaut trois-quatre mille streams Pas cher On aime les véhicules allemands racistes gris Raciste Faut plus de mille-feuilles que dans cent pâtisseries Eh Négro y a des AR, des Glock, des pompes Fa, fa, fa Tu peux finir comme Bob l'éponge Au commissariat, on est comme des tombes Grosse berline, on pull-up comme des pompes Big Freeze, big OldPee, 6.6.7, 13 B.L.O So Afro, trouve-moi D.L.O Dans l'ombre, sous Mulberry ou sous GMO Ah ah, ah, j'consomme plus d'essence que dix-mille jets Dix-mille J'suis dans la défense comme Kim Min-Jae Han Ils font les thugs, c'est des King Lil Jay, ekip Les p'tits vont t'allumer sans ZiP Fa, fa, fa, fa L'équipage reste armé dans l'VIP Ekip, ekip, ekip, ekip J'te dis pas c'qu'y a dans l'Transit Transit J'aurais quand même brassé sans 'sique Pétasse Démarre, il est pas là, démarre Quoi ? Une fois qu'on l'démarche Pétasse, t'as plus la même démarche Démarche, tu boîtes Non Démarre Démarre, il est pas là, démarre Une fois qu'on l'démarche Trop tard, t'as plus la même démarche Non Fa, fa, fa, fa Ekip Grr ekip, ekip, ekip Gang, gang Négro Pétasse Ok</t>
+          <t>Ff Ah Ff, fa, fa, fa, fa Sevran, 93 Ekip, ekip, ekip, ekip, ekip Sidi Pétasse, 6.6.7, ekip Grr Han, 6.6.7, Block 13 Keuf, coke, sang, quand je vois du bleu, blanc, rouge On a grandi bizarrement, mis les mains sur trop d'plans louches Gros, sors du SUV allemand, avec les jantes vingt-deux pouces J'me rappelle des coups de pute, j'me rappelle des coups de pouce Capuché, j'sors de la cave, j'suis noir depuis l'premier jour Pour toi, elle dit qu'c'est la bonn Bonne, ici, elle suc dès l'premier jour Renoi, pondu, madesu, j'tends mon poing, j'tends pas la joue On m'a beaucoup trop déçu, à chaque traître j'fais une mise à jour Beaucoup d'chimistes dans l'coin, c'est pas EM6 Quoi ? On t'connaît pas dans la calle, à part en méga MC ? Avec des flows qui puent l'vernis, arrête de faire ton ma-né-ci Personne te veut du mal ici Mal ici, rah Les p'tits vont t'allumer sans ZiP Fa, fa, fa, fa L'équipage reste armé dans l'VIP Ekip, ekip, ekip, ekip J'te dis pas c'qu'y a dans l'Transit Transit J'aurais quand même brassé sans 'sique Pétasse Démarre, il est pas là, démarre Quoi ? Une fois qu'on démarche Pétasse, t'as plus la même démarche Démarche, tu boites Non Démarre Démarre, il est pas là, démarre Une fois qu'on l'démarche Trop tard, t'as plus la même démarche Non On fait que monter des marches des marches J'allume la tégrité des Marsh Yeuz rouges comme si c'était Mars Gros bloc de static, on dirait des Mars Mars Ha, pétasse pétasse, j'ai pété la porte comme un bélier Porte Rien que j'bombarde comme un ailier À gauche Instru', j'la vois comme un beignet Haha J'arrive capuché comme dans Assassin's Creed Ezio Ton flow vaut trois-quatre mille streams Pas cher On aime les véhicules allemands racistes gris Raciste Faut plus de mille-feuilles que dans cent pâtisseries Eh Négro y a des AR, des Glock, des pompes Fa, fa, fa Tu peux finir comme Bob l'éponge Au commissariat, on est comme des tombes Grosse berline, on pull-up comme des pompes Big Freeze, big OldPee, 6.6.7, 13 B.L.O So Afro, trouve-moi D.L.O Dans l'ombre, sous Mulberry ou sous GMO Ah ah, ah, j'consomme plus d'essence que dix-mille jets Dix-mille J'suis dans la défense comme Kim Min-Jae Han Ils font les thugs, c'est des King Lil Jay, ekip Les p'tits vont t'allumer sans ZiP Fa, fa, fa, fa L'équipage reste armé dans l'VIP Ekip, ekip, ekip, ekip J'te dis pas c'qu'y a dans l'Transit Transit J'aurais quand même brassé sans 'sique Pétasse Démarre, il est pas là, démarre Quoi ? Une fois qu'on l'démarche Pétasse, t'as plus la même démarche Démarche, tu boîtes Non Démarre Démarre, il est pas là, démarre Une fois qu'on l'démarche Trop tard, t'as plus la même démarche Non Fa, fa, fa, fa Ekip Grr ekip, ekip, ekip Gang, gang Négro Pétasse Ok</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6303,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>J'suis dans la qualité niama, ils sont dans la quantité sku Ils ont visé l'Afrique mais manque de bol pour eux, ékoti té shoo Les Chinois, les mundélés, Ba meki biso mais bakokité La rue fait son come-back, les imposteurs vont crier Sauve qui peut La be-her n'est pas plus forte qu'ailleurs sheesh, j'vous invite à goûter ma weed eh Boycotté par plein de putains comme Franck Ribéry et Karim de Madrid gang Internet a fait dépuceler tous ces p'tits puceaux, merci à la trap et à la drill ba-ba-binks Pour la mama, deux baraques à Kinshasa et pour papa, des comptes aux Maldives ouh Comme Neeskens Kebano, j'suis un crack, ça devient Walking Dead sur les terrains d'crack Si tu veux tirer, bah fais-le vite, conseil gratuit ne nous té-ra as-p , , si t'es pas mort, sheguey, t'es dans le coma Elle la dans la che-bou, dans le masoko, la petite Hannah a mal à l'estomac Braza', Dakar ekip, Kinshasa, Sénégal pétasse Snapchat, Wickr allô, Signal, Telegram brr 2.2.1, 2.4.3, 2.4.2, que des cracks pétasse 9.2, 9.3 han, sur le rrain-té, que des cracks Braza', Dakar han, Kinshasa, Sénégal ekip Snapchat, Wickr brr, Signal, Telegram 2.2.1, 2.4.3 han, 2.4.2, que des cracks sku 9.2, 9.3 paw, sur le rrain-té, que des cracks You might also like Concu', grillades eh, eh, Dieu avec moi, pas peur des Diables nan Braquage, pillage, envoie les prods, on les gifle comme les Diaz ekip, ekip So le Zaïre, négro, so le Congo han, ekip, ekip, so J'ai trop d'enchaînements, négro, j'ai trop de combos sku, sku Corleone, Kozi han, fuck un sataniste comme Ozzy han Extrait, Rosine, dans l'jeu, j'vois des doubles et des sosies yah, pah, pah 667, ekip sur les maillots han, ekip, toujours au-dessus comme les Kaio ekip Là pour l'cash comme Chapo et Mayo cash, cash, cash Venin, poison lin, lin, lin, dans l'aqua' comme un poisson han Étranger en mission, Chen Zen, mentalité de poison sku, so, ekip, han Trois points, so le bim, musique anti-Dajjal, so le big han, ekip Rimes tranchantes, négro, so le Bic ekip Braza', Dakar ekip, Kinshasa, Sénégal pétasse Snapchat, Wickr allô, Signal, Telegram brr 2.2.1, 2.4.3, 2.4.2, que des cracks pétasse 9.2, 9.3 han, sur le rrain-té, que des cracks Braza', Dakar han, Kinshasa, Sénégal ekip Snapchat, Wickr brr, Signal, Telegram 2.2.1, 2.4.3 han, 2.4.2, que des cracks sku 9.2, 9.3 paw, sur le rrain-té, que des cracks</t>
+          <t>J'suis dans la qualité niama, ils sont dans la quantité sku Ils ont visé l'Afrique mais manque de bol pour eux, ékoti té shoo Les Chinois, les mundélés, Ba meki biso mais bakokité La rue fait son come-back, les imposteurs vont crier Sauve qui peut La be-her n'est pas plus forte qu'ailleurs sheesh, j'vous invite à goûter ma weed eh Boycotté par plein de putains comme Franck Ribéry et Karim de Madrid gang Internet a fait dépuceler tous ces p'tits puceaux, merci à la trap et à la drill ba-ba-binks Pour la mama, deux baraques à Kinshasa et pour papa, des comptes aux Maldives ouh Comme Neeskens Kebano, j'suis un crack, ça devient Walking Dead sur les terrains d'crack Si tu veux tirer, bah fais-le vite, conseil gratuit ne nous té-ra as-p , , si t'es pas mort, sheguey, t'es dans le coma Elle la dans la che-bou, dans le masoko, la petite Hannah a mal à l'estomac Braza', Dakar ekip, Kinshasa, Sénégal pétasse Snapchat, Wickr allô, Signal, Telegram brr 2.2.1, 2.4.3, 2.4.2, que des cracks pétasse 9.2, 9.3 han, sur le rrain-té, que des cracks Braza', Dakar han, Kinshasa, Sénégal ekip Snapchat, Wickr brr, Signal, Telegram 2.2.1, 2.4.3 han, 2.4.2, que des cracks sku 9.2, 9.3 paw, sur le rrain-té, que des cracks Concu', grillades eh, eh, Dieu avec moi, pas peur des Diables nan Braquage, pillage, envoie les prods, on les gifle comme les Diaz ekip, ekip So le Zaïre, négro, so le Congo han, ekip, ekip, so J'ai trop d'enchaînements, négro, j'ai trop de combos sku, sku Corleone, Kozi han, fuck un sataniste comme Ozzy han Extrait, Rosine, dans l'jeu, j'vois des doubles et des sosies yah, pah, pah 667, ekip sur les maillots han, ekip, toujours au-dessus comme les Kaio ekip Là pour l'cash comme Chapo et Mayo cash, cash, cash Venin, poison lin, lin, lin, dans l'aqua' comme un poisson han Étranger en mission, Chen Zen, mentalité de poison sku, so, ekip, han Trois points, so le bim, musique anti-Dajjal, so le big han, ekip Rimes tranchantes, négro, so le Bic ekip Braza', Dakar ekip, Kinshasa, Sénégal pétasse Snapchat, Wickr allô, Signal, Telegram brr 2.2.1, 2.4.3, 2.4.2, que des cracks pétasse 9.2, 9.3 han, sur le rrain-té, que des cracks Braza', Dakar han, Kinshasa, Sénégal ekip Snapchat, Wickr brr, Signal, Telegram 2.2.1, 2.4.3 han, 2.4.2, que des cracks sku 9.2, 9.3 paw, sur le rrain-té, que des cracks</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6320,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7, cest la secte pétasse Han, hey Jai les yeuz rouges, cest l'T.H.C Is it TheHashClique ? Tu veux la prod' pétasse, cest l'T.H.C F.L.R.G tous les jours, cest trop la crise goddamn Xan shit, jsuis branché négro, so la prise MMS LDO, vrai négro shit, des comme nous ten trouves pas dautres han So 'Sirus, remballe ta douille on la connait, va la faire à dautres Jsuis dans le Lex', jsuis dans le broma' goddamn Si tu tallumes comme nous tu finis dans le boma, goddamn ekip, ekip Négro so L.G, dans lfutur comme après 7g han Jsuis connecté en 7G Jme sens comme un avion, jcons' vla de carburant Lin, gas, Xan, jai vla de carburant On veut des immeubles, des champs et des usines goddamn Des Walther P.9, des tanks et des Uzi Très loin dtoi, à des années lumières de Hubble han Chen Zen, jai les techniques de propagande de Goebbels Jveux vla d'zéros dans 10 comptes, négro La famille et lor, y a qu'ça qui compte, négro goddamn Jveux voir la machine qui compte, négro han A part Dieu et moi, personne sur qui jcompte négro, goddamn Jveux vla dzéros dans 10 comptes, négro han La famille et lor, ya que ça qui compte, négro goddamn, ekip Jveux voir la machine qui compte, négro khaliss A part Dieu et moi, personne sur qui jcompte négro, ekip You might also like M.M.S, L.D.O, N.R.M, 6.6.7 Pétasse, pétasse, pétasse, pétasse, pétasse, pétasse So T.H.C, jai les yeuz rouges cest lTHC, ekip M.M.S, L.D.O, N.R.M, 6.6.7 Jsuis dans le lin, jsuis dans le Lex', pétasse4</t>
+          <t>Ekip, ekip M.M.S, L.D.O, N.R.M, 6.6.7, cest la secte pétasse Han, hey Jai les yeuz rouges, cest l'T.H.C Is it TheHashClique ? Tu veux la prod' pétasse, cest l'T.H.C F.L.R.G tous les jours, cest trop la crise goddamn Xan shit, jsuis branché négro, so la prise MMS LDO, vrai négro shit, des comme nous ten trouves pas dautres han So 'Sirus, remballe ta douille on la connait, va la faire à dautres Jsuis dans le Lex', jsuis dans le broma' goddamn Si tu tallumes comme nous tu finis dans le boma, goddamn ekip, ekip Négro so L.G, dans lfutur comme après 7g han Jsuis connecté en 7G Jme sens comme un avion, jcons' vla de carburant Lin, gas, Xan, jai vla de carburant On veut des immeubles, des champs et des usines goddamn Des Walther P.9, des tanks et des Uzi Très loin dtoi, à des années lumières de Hubble han Chen Zen, jai les techniques de propagande de Goebbels Jveux vla d'zéros dans 10 comptes, négro La famille et lor, y a qu'ça qui compte, négro goddamn Jveux voir la machine qui compte, négro han A part Dieu et moi, personne sur qui jcompte négro, goddamn Jveux vla dzéros dans 10 comptes, négro han La famille et lor, ya que ça qui compte, négro goddamn, ekip Jveux voir la machine qui compte, négro khaliss A part Dieu et moi, personne sur qui jcompte négro, ekip M.M.S, L.D.O, N.R.M, 6.6.7 Pétasse, pétasse, pétasse, pétasse, pétasse, pétasse So T.H.C, jai les yeuz rouges cest lTHC, ekip M.M.S, L.D.O, N.R.M, 6.6.7 Jsuis dans le lin, jsuis dans le Lex', pétasse4</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6337,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Jaffûte mon sabre, il est d'plus en plus tranchant Comme DMX, de vision j'ai un grand champ Chanvre dans l'sang, les yeux plissés comme un Chinois Sans concurrence à part le négro dans mon miroir Haha, appelle-moi Chen Zen Dans ma tête Le livre d'Eli et gro-né j'suis Denzel Arsenal atomique, flotte d'avions d'chasse Dans les mitrailleuses, obus, à uranium appauvri Sans pitié, j'laisse aucune chance à l'adversaire Et j'reste peace fils, tu l'sais c'est à ça qu'la verte sert Frappes chirurgicales, sur vos putains d'immeubles Écoute Civilisé, tu sauras pourquoi 19 Jeune samouraï du genre Afro Trop d'putes dans c'putain d'jeu donc j'débarque en mode macro En noir avec un peu d'vert, Splinter Cell Furtif comme les réunions des Bilderberg Tu peux pas m'voir, c'est qu'un hologramme En 2012 j'me présente, gros nettoyage au programme J'prépare mon coup d'état, j'me répète Afro-samouraï Folie meurtrière, négro, j'coupe des crânes On va bouffer du mouton, comme à la tabaski En place jusqu'à la fin mec, à la Kadhafi Dans mon crâne règne l'obscurité Vision nocturne active, pour ceux en jaune aucune pitié Irruption solaire sur ces faggets Trop loin pour nous rejoindre, négro traverse la Stargate J'ai ma tactique, j'veux des sommes intergalactiques J'ai plus de midi-chloriens qu'Anakin Flow-lave par grosses vagues sur ces bouffons d'moutons Trop précis, 0 sur 1000, c'est l'taux d'survie Fleuriste furtif, on gère les bails en soum-soum Négro, il m'faut juste un peu d'succès et beaucoup d'flouze You might also like Il m'faut juste un peu d'succès et beaucoup d'flouze Alors allonge le cash, bitch3</t>
+          <t>Jaffûte mon sabre, il est d'plus en plus tranchant Comme DMX, de vision j'ai un grand champ Chanvre dans l'sang, les yeux plissés comme un Chinois Sans concurrence à part le négro dans mon miroir Haha, appelle-moi Chen Zen Dans ma tête Le livre d'Eli et gro-né j'suis Denzel Arsenal atomique, flotte d'avions d'chasse Dans les mitrailleuses, obus, à uranium appauvri Sans pitié, j'laisse aucune chance à l'adversaire Et j'reste peace fils, tu l'sais c'est à ça qu'la verte sert Frappes chirurgicales, sur vos putains d'immeubles Écoute Civilisé, tu sauras pourquoi 19 Jeune samouraï du genre Afro Trop d'putes dans c'putain d'jeu donc j'débarque en mode macro En noir avec un peu d'vert, Splinter Cell Furtif comme les réunions des Bilderberg Tu peux pas m'voir, c'est qu'un hologramme En 2012 j'me présente, gros nettoyage au programme J'prépare mon coup d'état, j'me répète Afro-samouraï Folie meurtrière, négro, j'coupe des crânes On va bouffer du mouton, comme à la tabaski En place jusqu'à la fin mec, à la Kadhafi Dans mon crâne règne l'obscurité Vision nocturne active, pour ceux en jaune aucune pitié Irruption solaire sur ces faggets Trop loin pour nous rejoindre, négro traverse la Stargate J'ai ma tactique, j'veux des sommes intergalactiques J'ai plus de midi-chloriens qu'Anakin Flow-lave par grosses vagues sur ces bouffons d'moutons Trop précis, 0 sur 1000, c'est l'taux d'survie Fleuriste furtif, on gère les bails en soum-soum Négro, il m'faut juste un peu d'succès et beaucoup d'flouze Il m'faut juste un peu d'succès et beaucoup d'flouze Alors allonge le cash, bitch3</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6354,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Débarque fonscar aux analgésiques Sous lean j'me sens comme un paraplégique So 6-secte, mutants, X-Men J'me sens comme Charles Xavier noir, négro j'ouvre académie Killuminati comme Makaveli pah, pah pah Laisse la concurrence en état cadavérique Mes sauvages viennent d'Afrique, négro pas d'Amérique Néo-négroïde secte 667, black syndicat Niveau 3, i can't feel my face, goddamn Sprite sale, Sativa, Indica Tu vas cons' la merde jusqu'à l'O.D Précis à distance à la Kobe Avec mes loups, passe la nuit à rôder Hiéroglyphes sur prod, kick langage codé, goddamn You might also like J'me sens comme une pharmacie ambulante 3ème Guerre Attaques de drones sur hôpitaux et ambulances J'pense au futur Goddamn négro, c'est inquiétant 2014 On approche de la fin des temps Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Barode dans la fusée En place, fais tourner le ndolé Sans trace, liquider ce fumier Al-Qaïda, ouais tu reconnais Dangereux comme Oussama Ma gueule bicraveurs de salade Sales geushs, c'est vos sous qu'on ramasse Ta gueule, fais l'fou on te balafre Gros pectoraux pour la grosse liasse 'Teille de Jack, gros pète le gros niaks Mixé au lean si tu veux biatch Qu'est-ce qui s'putain d'passe ? 0.9 dans le camtar Séquestration dans le placard Dis wAllah qu'il s'est fait hagar Cawa en direct de Dakar Kilos d'coco dans la navette Casse pas les yeucous, XXX sur la gâchette Dans mon 93, y a des gros pécs J'lui ai ché-cra dans l'cou elle a kiffé, lassdeg Ganté gilet, vise ta casquette J'arrive en force, ouais putain d'comète Chargé tarpé roule un gros pét' Money gang, kalash et lance-roquettes Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé1</t>
+          <t>Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Débarque fonscar aux analgésiques Sous lean j'me sens comme un paraplégique So 6-secte, mutants, X-Men J'me sens comme Charles Xavier noir, négro j'ouvre académie Killuminati comme Makaveli pah, pah pah Laisse la concurrence en état cadavérique Mes sauvages viennent d'Afrique, négro pas d'Amérique Néo-négroïde secte 667, black syndicat Niveau 3, i can't feel my face, goddamn Sprite sale, Sativa, Indica Tu vas cons' la merde jusqu'à l'O.D Précis à distance à la Kobe Avec mes loups, passe la nuit à rôder Hiéroglyphes sur prod, kick langage codé, goddamn J'me sens comme une pharmacie ambulante 3ème Guerre Attaques de drones sur hôpitaux et ambulances J'pense au futur Goddamn négro, c'est inquiétant 2014 On approche de la fin des temps Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Barode dans la fusée En place, fais tourner le ndolé Sans trace, liquider ce fumier Al-Qaïda, ouais tu reconnais Dangereux comme Oussama Ma gueule bicraveurs de salade Sales geushs, c'est vos sous qu'on ramasse Ta gueule, fais l'fou on te balafre Gros pectoraux pour la grosse liasse 'Teille de Jack, gros pète le gros niaks Mixé au lean si tu veux biatch Qu'est-ce qui s'putain d'passe ? 0.9 dans le camtar Séquestration dans le placard Dis wAllah qu'il s'est fait hagar Cawa en direct de Dakar Kilos d'coco dans la navette Casse pas les yeucous, XXX sur la gâchette Dans mon 93, y a des gros pécs J'lui ai ché-cra dans l'cou elle a kiffé, lassdeg Ganté gilet, vise ta casquette J'arrive en force, ouais putain d'comète Chargé tarpé roule un gros pét' Money gang, kalash et lance-roquettes Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé Chen Zen, Blacky Au micro comme Uzi 667 Trap house productive comme usine Pète la 'teille de Black Jack 93, on t'pète la 'teille de Black Jack Rafales de balles, à la kalash Cocktail Molotov dans mon 4x4, hé1</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6371,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Infiltration furtive, j'ai mon kit de survie J'ai l'art de la guerre, j'mise sur l'action, l'effet de surprise Jordy c'est GHB, alors je serai THC On t'touche que tu l'veuilles ou pas, on est là pour t'effacer Silencieux sur les guns fils, l'extraterrestre, le jeune pimp On va régner dans les tunnels comme Pimp C et Bun B D'la mort au rat dans c'que j'prépare, tu l'sais punisher de putes nègres Depuis mes débuts man, et jusqu'à temps que je trépasse Le camouflage est tout noir Amul barbe, un peu d'moustache Les chiens n'aboient pas quand les loups passent Le camouflage est tout noir Amul barbe, un peu d'moustache Les chiens n'aboient pas quand les loups passent Double-F Gang, qu'est-ce qui s'putain d'passe ? On roule nos pét' de M-Jane, comme si de rien n'était Bon là, mon négro Jordy si tu veux kicker un couplet On l'fait en feat, on les bute Sinon je fais un autre couplet On s'en bat les couilles You might also like C'est la guerre J'sais pas si c'est la verte Qui m'fait XXX mais fils c'est la merde Les filles XXX vers le futur proche Le mecs s'amusent avec XXX Tous seuls dans leur loge Toujours un triangle à l'écart Qu'est-c'qui s'putain d'passe, négro ?</t>
+          <t>Infiltration furtive, j'ai mon kit de survie J'ai l'art de la guerre, j'mise sur l'action, l'effet de surprise Jordy c'est GHB, alors je serai THC On t'touche que tu l'veuilles ou pas, on est là pour t'effacer Silencieux sur les guns fils, l'extraterrestre, le jeune pimp On va régner dans les tunnels comme Pimp C et Bun B D'la mort au rat dans c'que j'p